--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huanminw\Documents\LeetCode\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huanminw\Documents\GitHub\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3014C02A-1B9D-450F-BF0E-18462E89080E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{589B92BB-2871-4E83-AC6B-DF44AEC16D46}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6198" uniqueCount="2331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6200" uniqueCount="2332">
   <si>
     <t>Difficulty</t>
   </si>
@@ -7027,6 +7027,9 @@
   </si>
   <si>
     <t>Add up characters to get total count.</t>
+  </si>
+  <si>
+    <t>Convert value to index</t>
   </si>
 </sst>
 </file>
@@ -7492,8 +7495,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I1237"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1185" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A1199" sqref="A1199"/>
+    <sheetView tabSelected="1" topLeftCell="A422" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B431" sqref="B431"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -17121,13 +17124,19 @@
         <v>579</v>
       </c>
       <c r="C431">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="D431" t="s">
+        <v>1786</v>
       </c>
       <c r="E431" t="s">
         <v>5</v>
       </c>
       <c r="F431" t="s">
         <v>21</v>
+      </c>
+      <c r="G431" t="s">
+        <v>2331</v>
       </c>
     </row>
     <row r="432" spans="1:9" x14ac:dyDescent="0.45">
@@ -34824,7 +34833,7 @@
         <v>2327</v>
       </c>
       <c r="C1202" s="25">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D1202" s="25" t="s">
         <v>1748</v>

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huanminw\Documents\GitHub\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C59760CB-E84B-493E-80D9-FB85F98E9B0A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{162F1B0F-4E4E-45BD-9613-AF41D7957F57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6204" uniqueCount="2332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6224" uniqueCount="2340">
   <si>
     <t>Difficulty</t>
   </si>
@@ -7030,6 +7030,30 @@
   </si>
   <si>
     <t>remember longest inreasing path by priority queue</t>
+  </si>
+  <si>
+    <t>Decrypt String from Alphabet to Integer Mapping</t>
+  </si>
+  <si>
+    <t>when see '#' pop up two digits.</t>
+  </si>
+  <si>
+    <t>XOR Queries of a Subarray</t>
+  </si>
+  <si>
+    <t>Accumulate XOR result</t>
+  </si>
+  <si>
+    <t>Get Watched Videos by Your Friends</t>
+  </si>
+  <si>
+    <t>BFS multiple levels.</t>
+  </si>
+  <si>
+    <t>Minimum Insertion Steps to Make a String Palindrome</t>
+  </si>
+  <si>
+    <t>From center and spread.</t>
   </si>
 </sst>
 </file>
@@ -7495,8 +7519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I1237"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A304" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A313" sqref="A313"/>
+    <sheetView tabSelected="1" topLeftCell="C1200" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G1207" sqref="G1207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -34861,16 +34885,96 @@
       </c>
     </row>
     <row r="1203" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1203" s="1"/>
+      <c r="A1203" s="25">
+        <v>1309</v>
+      </c>
+      <c r="B1203" s="1" t="s">
+        <v>2332</v>
+      </c>
+      <c r="C1203" s="25">
+        <v>2</v>
+      </c>
+      <c r="D1203" s="25" t="s">
+        <v>1745</v>
+      </c>
+      <c r="E1203" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1203" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1203" s="25" t="s">
+        <v>2333</v>
+      </c>
     </row>
     <row r="1204" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1204" s="1"/>
+      <c r="A1204" s="25">
+        <v>1310</v>
+      </c>
+      <c r="B1204" s="1" t="s">
+        <v>2334</v>
+      </c>
+      <c r="C1204" s="25">
+        <v>2</v>
+      </c>
+      <c r="D1204" s="25" t="s">
+        <v>1729</v>
+      </c>
+      <c r="E1204" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1204" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1204" s="25" t="s">
+        <v>2335</v>
+      </c>
     </row>
     <row r="1205" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1205" s="1"/>
+      <c r="A1205" s="25">
+        <v>1311</v>
+      </c>
+      <c r="B1205" s="1" t="s">
+        <v>2336</v>
+      </c>
+      <c r="C1205" s="25">
+        <v>3</v>
+      </c>
+      <c r="D1205" s="25" t="s">
+        <v>1729</v>
+      </c>
+      <c r="E1205" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1205" s="25" t="s">
+        <v>188</v>
+      </c>
+      <c r="G1205" s="25" t="s">
+        <v>2337</v>
+      </c>
     </row>
     <row r="1206" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1206" s="1"/>
+      <c r="A1206" s="25">
+        <v>1312</v>
+      </c>
+      <c r="B1206" s="1" t="s">
+        <v>2338</v>
+      </c>
+      <c r="C1206" s="25">
+        <v>4</v>
+      </c>
+      <c r="D1206" s="25" t="s">
+        <v>1729</v>
+      </c>
+      <c r="E1206" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1206" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1206" s="25" t="s">
+        <v>2339</v>
+      </c>
     </row>
     <row r="1207" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B1207" s="1"/>
@@ -36169,10 +36273,14 @@
     <hyperlink ref="B1200" r:id="rId1179" display="https://leetcode.com/problems/all-elements-in-two-binary-search-trees" xr:uid="{839770B3-19A7-4975-B887-10D83B9A1D4B}"/>
     <hyperlink ref="B1201" r:id="rId1180" display="https://leetcode.com/problems/jump-game-iii" xr:uid="{F3C143FE-C17D-4131-9591-73C55ED450EB}"/>
     <hyperlink ref="B1202" r:id="rId1181" display="https://leetcode.com/problems/verbal-arithmetic-puzzle" xr:uid="{D531DE7D-75A1-4D4D-AC23-47920A8862FB}"/>
+    <hyperlink ref="B1203" r:id="rId1182" display="https://leetcode.com/problems/decrypt-string-from-alphabet-to-integer-mapping" xr:uid="{A837B942-BA22-4040-AFCB-3F648582CC69}"/>
+    <hyperlink ref="B1204" r:id="rId1183" display="https://leetcode.com/problems/xor-queries-of-a-subarray" xr:uid="{77587CC1-552C-477A-935B-6DC30EA5C97E}"/>
+    <hyperlink ref="B1205" r:id="rId1184" display="https://leetcode.com/problems/get-watched-videos-by-your-friends" xr:uid="{84DE9E01-6267-4BA0-8D20-715102257B01}"/>
+    <hyperlink ref="B1206" r:id="rId1185" display="https://leetcode.com/problems/minimum-insertion-steps-to-make-a-string-palindrome" xr:uid="{80F52E65-1E86-42B3-9A72-4BE50D111D0B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1182"/>
-  <drawing r:id="rId1183"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1186"/>
+  <drawing r:id="rId1187"/>
 </worksheet>
 </file>
 

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huanminw\Documents\GitHub\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{162F1B0F-4E4E-45BD-9613-AF41D7957F57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{892BCFC1-4AA5-4E3C-AB0F-46D2693F47B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6224" uniqueCount="2340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6264" uniqueCount="2356">
   <si>
     <t>Difficulty</t>
   </si>
@@ -7054,6 +7054,54 @@
   </si>
   <si>
     <t>From center and spread.</t>
+  </si>
+  <si>
+    <t>Decompress Run-Length Encoded List</t>
+  </si>
+  <si>
+    <t>Repeat second as value, for first times.</t>
+  </si>
+  <si>
+    <t>Matrix Block Sum</t>
+  </si>
+  <si>
+    <t>2D matrix sum</t>
+  </si>
+  <si>
+    <t>Sum of Nodes with Even-Valued Grandparent </t>
+  </si>
+  <si>
+    <t>BFS with tracking 3 layers.</t>
+  </si>
+  <si>
+    <t>Distinct Echo Substrings </t>
+  </si>
+  <si>
+    <t>Convert Integer to the Sum of Two No-Zero Integers</t>
+  </si>
+  <si>
+    <t>Minimum Flips to Make a OR b Equal to c</t>
+  </si>
+  <si>
+    <t>KMP or Robin-karp, when half string length is divisible to (length - kmp_length), it is candidate</t>
+  </si>
+  <si>
+    <t>Number of Operations to Make Network Connected</t>
+  </si>
+  <si>
+    <t>Minimum Distance to Type a Word Using Two Fingers </t>
+  </si>
+  <si>
+    <t>check string format of number</t>
+  </si>
+  <si>
+    <t>Count A and B bit based on C bit</t>
+  </si>
+  <si>
+    <t>when already in same group, you have a cable, different groups are what you need to connect.</t>
+  </si>
+  <si>
+    <t>Track two finger positions in every step. Assume the left always less than the right.</t>
   </si>
 </sst>
 </file>
@@ -7519,8 +7567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I1237"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1200" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G1207" sqref="G1207"/>
+    <sheetView tabSelected="1" topLeftCell="C1199" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G1214" sqref="G1214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -8315,13 +8363,13 @@
         <v>4</v>
       </c>
       <c r="D33" t="s">
-        <v>1741</v>
+        <v>1794</v>
       </c>
       <c r="E33" t="s">
         <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="G33" t="s">
         <v>1912</v>
@@ -34977,28 +35025,188 @@
       </c>
     </row>
     <row r="1207" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1207" s="1"/>
+      <c r="A1207" s="25">
+        <v>1313</v>
+      </c>
+      <c r="B1207" s="1" t="s">
+        <v>2340</v>
+      </c>
+      <c r="C1207" s="25">
+        <v>1</v>
+      </c>
+      <c r="D1207" s="25" t="s">
+        <v>1729</v>
+      </c>
+      <c r="E1207" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1207" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1207" s="25" t="s">
+        <v>2341</v>
+      </c>
     </row>
     <row r="1208" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1208" s="1"/>
+      <c r="A1208" s="25">
+        <v>1314</v>
+      </c>
+      <c r="B1208" s="1" t="s">
+        <v>2342</v>
+      </c>
+      <c r="C1208" s="25">
+        <v>3</v>
+      </c>
+      <c r="D1208" s="25" t="s">
+        <v>1729</v>
+      </c>
+      <c r="E1208" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1208" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1208" s="25" t="s">
+        <v>2343</v>
+      </c>
     </row>
     <row r="1209" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1209" s="1"/>
+      <c r="A1209" s="25">
+        <v>1315</v>
+      </c>
+      <c r="B1209" s="1" t="s">
+        <v>2344</v>
+      </c>
+      <c r="C1209" s="25">
+        <v>2</v>
+      </c>
+      <c r="D1209" s="25" t="s">
+        <v>1729</v>
+      </c>
+      <c r="E1209" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1209" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="G1209" s="25" t="s">
+        <v>2345</v>
+      </c>
     </row>
     <row r="1210" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1210" s="1"/>
+      <c r="A1210" s="25">
+        <v>1316</v>
+      </c>
+      <c r="B1210" s="1" t="s">
+        <v>2346</v>
+      </c>
+      <c r="C1210" s="25">
+        <v>4</v>
+      </c>
+      <c r="D1210" s="25" t="s">
+        <v>1794</v>
+      </c>
+      <c r="E1210" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1210" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1210" s="25" t="s">
+        <v>2349</v>
+      </c>
     </row>
     <row r="1211" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1211" s="1"/>
+      <c r="A1211" s="25">
+        <v>1317</v>
+      </c>
+      <c r="B1211" s="1" t="s">
+        <v>2347</v>
+      </c>
+      <c r="C1211" s="25">
+        <v>2</v>
+      </c>
+      <c r="D1211" s="25" t="s">
+        <v>1745</v>
+      </c>
+      <c r="E1211" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1211" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1211" s="25" t="s">
+        <v>2352</v>
+      </c>
     </row>
     <row r="1212" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1212" s="1"/>
+      <c r="A1212" s="25">
+        <v>1318</v>
+      </c>
+      <c r="B1212" s="1" t="s">
+        <v>2348</v>
+      </c>
+      <c r="C1212" s="25">
+        <v>2</v>
+      </c>
+      <c r="D1212" s="25" t="s">
+        <v>1729</v>
+      </c>
+      <c r="E1212" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1212" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="G1212" s="25" t="s">
+        <v>2353</v>
+      </c>
     </row>
     <row r="1213" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1213" s="1"/>
+      <c r="A1213" s="25">
+        <v>1319</v>
+      </c>
+      <c r="B1213" s="1" t="s">
+        <v>2350</v>
+      </c>
+      <c r="C1213" s="25">
+        <v>3</v>
+      </c>
+      <c r="D1213" s="25" t="s">
+        <v>1969</v>
+      </c>
+      <c r="E1213" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1213" s="25" t="s">
+        <v>387</v>
+      </c>
+      <c r="G1213" s="25" t="s">
+        <v>2354</v>
+      </c>
     </row>
     <row r="1214" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1214" s="1"/>
+      <c r="A1214" s="25">
+        <v>1320</v>
+      </c>
+      <c r="B1214" s="1" t="s">
+        <v>2351</v>
+      </c>
+      <c r="C1214" s="25">
+        <v>4</v>
+      </c>
+      <c r="D1214" s="25" t="s">
+        <v>1729</v>
+      </c>
+      <c r="E1214" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1214" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1214" s="25" t="s">
+        <v>2355</v>
+      </c>
     </row>
     <row r="1215" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B1215" s="1"/>
@@ -36277,10 +36485,18 @@
     <hyperlink ref="B1204" r:id="rId1183" display="https://leetcode.com/problems/xor-queries-of-a-subarray" xr:uid="{77587CC1-552C-477A-935B-6DC30EA5C97E}"/>
     <hyperlink ref="B1205" r:id="rId1184" display="https://leetcode.com/problems/get-watched-videos-by-your-friends" xr:uid="{84DE9E01-6267-4BA0-8D20-715102257B01}"/>
     <hyperlink ref="B1206" r:id="rId1185" display="https://leetcode.com/problems/minimum-insertion-steps-to-make-a-string-palindrome" xr:uid="{80F52E65-1E86-42B3-9A72-4BE50D111D0B}"/>
+    <hyperlink ref="B1207" r:id="rId1186" display="https://leetcode.com/problems/decompress-run-length-encoded-list" xr:uid="{2CB5C8C8-F8BB-44AC-9A03-37D356675E5A}"/>
+    <hyperlink ref="B1208" r:id="rId1187" display="https://leetcode.com/problems/matrix-block-sum" xr:uid="{9917FF49-B3F1-4751-BF50-0BA68E2364C9}"/>
+    <hyperlink ref="B1209" r:id="rId1188" display="https://leetcode.com/problems/sum-of-nodes-with-even-valued-grandparent" xr:uid="{B99854DD-D8D9-4189-8F86-ADA4CD8CE800}"/>
+    <hyperlink ref="B1210" r:id="rId1189" display="https://leetcode.com/problems/distinct-echo-substrings" xr:uid="{2A63B6F9-C74C-44F6-BBD2-5347659EB2EC}"/>
+    <hyperlink ref="B1211" r:id="rId1190" display="https://leetcode.com/problems/convert-integer-to-the-sum-of-two-no-zero-integers" xr:uid="{2CEBFA42-D05F-4139-811A-761779963BE9}"/>
+    <hyperlink ref="B1212" r:id="rId1191" display="https://leetcode.com/problems/minimum-flips-to-make-a-or-b-equal-to-c" xr:uid="{6923DD1A-272F-4DCF-BE06-6BD13FE26F30}"/>
+    <hyperlink ref="B1213" r:id="rId1192" display="https://leetcode.com/problems/number-of-operations-to-make-network-connected" xr:uid="{FE2ADD6A-E9D4-4177-A851-78DCF2DFE343}"/>
+    <hyperlink ref="B1214" r:id="rId1193" display="https://leetcode.com/problems/minimum-distance-to-type-a-word-using-two-fingers" xr:uid="{FA0E45F2-5BF7-4D31-9F2F-6906C110E036}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1186"/>
-  <drawing r:id="rId1187"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1194"/>
+  <drawing r:id="rId1195"/>
 </worksheet>
 </file>
 

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huanminw\Documents\GitHub\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{365210F4-8B80-4EC3-9F49-E0F8FF778837}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53B66222-03E6-483A-8788-EDB1C0208798}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6264" uniqueCount="2356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6265" uniqueCount="2356">
   <si>
     <t>Difficulty</t>
   </si>
@@ -7567,8 +7567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I1237"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A736" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A746" sqref="A746"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D415" sqref="D415"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -16862,6 +16862,9 @@
       </c>
       <c r="C415">
         <v>4</v>
+      </c>
+      <c r="D415" t="s">
+        <v>1777</v>
       </c>
       <c r="E415" t="s">
         <v>12</v>

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huanminw\Documents\GitHub\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C624D146-A1B2-4B5D-949D-B4C9852B2477}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F4E10FB-265A-43BD-A3D5-1700B1B32CE4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6290" uniqueCount="2365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6310" uniqueCount="2373">
   <si>
     <t>Difficulty</t>
   </si>
@@ -7129,6 +7129,30 @@
   </si>
   <si>
     <t>Check every number pair based on the sequence, count the length of arithmetic slices</t>
+  </si>
+  <si>
+    <t>Break a Palindrome </t>
+  </si>
+  <si>
+    <t>Sort the Matrix Diagonally</t>
+  </si>
+  <si>
+    <t>Reverse Subarray To Maximize Array Value</t>
+  </si>
+  <si>
+    <t>Rank Transform of an Array </t>
+  </si>
+  <si>
+    <t>Change the left most non a to a, or change the last a to b</t>
+  </si>
+  <si>
+    <t>Start from first row or col, loop until out of boundary</t>
+  </si>
+  <si>
+    <t>Calculate max of minium of neighbor pair and min of max of neighbor pair</t>
+  </si>
+  <si>
+    <t>Use map with value as key, index array as value.</t>
   </si>
 </sst>
 </file>
@@ -7594,8 +7618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I1237"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A420" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C429" sqref="C429"/>
+    <sheetView tabSelected="1" topLeftCell="A1210" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G1229" sqref="G1229"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -35346,16 +35370,96 @@
       </c>
     </row>
     <row r="1219" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1219" s="1"/>
+      <c r="A1219" s="25">
+        <v>1328</v>
+      </c>
+      <c r="B1219" s="1" t="s">
+        <v>2365</v>
+      </c>
+      <c r="C1219" s="25">
+        <v>2</v>
+      </c>
+      <c r="D1219" s="25" t="s">
+        <v>1718</v>
+      </c>
+      <c r="E1219" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1219" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1219" s="25" t="s">
+        <v>2369</v>
+      </c>
     </row>
     <row r="1220" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1220" s="1"/>
+      <c r="A1220" s="25">
+        <v>1329</v>
+      </c>
+      <c r="B1220" s="1" t="s">
+        <v>2366</v>
+      </c>
+      <c r="C1220" s="25">
+        <v>3</v>
+      </c>
+      <c r="D1220" s="25" t="s">
+        <v>1718</v>
+      </c>
+      <c r="E1220" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1220" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1220" s="25" t="s">
+        <v>2370</v>
+      </c>
     </row>
     <row r="1221" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1221" s="1"/>
+      <c r="A1221" s="25">
+        <v>1330</v>
+      </c>
+      <c r="B1221" s="1" t="s">
+        <v>2367</v>
+      </c>
+      <c r="C1221" s="25">
+        <v>4</v>
+      </c>
+      <c r="D1221" s="25" t="s">
+        <v>1723</v>
+      </c>
+      <c r="E1221" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1221" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1221" s="25" t="s">
+        <v>2371</v>
+      </c>
     </row>
     <row r="1222" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1222" s="1"/>
+      <c r="A1222" s="25">
+        <v>1331</v>
+      </c>
+      <c r="B1222" s="1" t="s">
+        <v>2368</v>
+      </c>
+      <c r="C1222" s="25">
+        <v>3</v>
+      </c>
+      <c r="D1222" s="25" t="s">
+        <v>1789</v>
+      </c>
+      <c r="E1222" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1222" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1222" s="25" t="s">
+        <v>2372</v>
+      </c>
     </row>
     <row r="1223" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B1223" s="1"/>
@@ -36622,10 +36726,14 @@
     <hyperlink ref="B1217" r:id="rId1195" display="https://leetcode.com/problems/delete-leaves-with-a-given-value" xr:uid="{6266164E-75B9-49E8-9BC6-CCF34DE15F20}"/>
     <hyperlink ref="B1216" r:id="rId1196" display="https://leetcode.com/problems/print-words-vertically" xr:uid="{52B02227-E77D-498F-AD51-43E28DB61F3E}"/>
     <hyperlink ref="B1215" r:id="rId1197" display="https://leetcode.com/problems/maximum-69-number" xr:uid="{786AA970-24AA-4679-9C27-1D56607C0E23}"/>
+    <hyperlink ref="B1219" r:id="rId1198" display="https://leetcode.com/problems/break-a-palindrome" xr:uid="{C9265E26-BA1A-4EBA-B4BC-33420E72F627}"/>
+    <hyperlink ref="B1220" r:id="rId1199" display="https://leetcode.com/problems/sort-the-matrix-diagonally" xr:uid="{BFB45A24-58F9-4146-87C0-2A622576A6C5}"/>
+    <hyperlink ref="B1221" r:id="rId1200" display="https://leetcode.com/problems/reverse-subarray-to-maximize-array-value" xr:uid="{7DB02FD3-34F1-438F-AE16-E237D59275AB}"/>
+    <hyperlink ref="B1222" r:id="rId1201" display="https://leetcode.com/problems/rank-transform-of-an-array" xr:uid="{F79E4984-0EF1-47E3-9679-675F3F8052E6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1198"/>
-  <drawing r:id="rId1199"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1202"/>
+  <drawing r:id="rId1203"/>
 </worksheet>
 </file>
 

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huanminw\Documents\GitHub\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F4E10FB-265A-43BD-A3D5-1700B1B32CE4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACD3BE7B-D968-4DFB-8893-FDFA28E01091}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6310" uniqueCount="2373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6330" uniqueCount="2381">
   <si>
     <t>Difficulty</t>
   </si>
@@ -7153,6 +7153,30 @@
   </si>
   <si>
     <t>Use map with value as key, index array as value.</t>
+  </si>
+  <si>
+    <t>Remove Palindromic Subsequences </t>
+  </si>
+  <si>
+    <t>if not palindromic, remove a then remove b twice.</t>
+  </si>
+  <si>
+    <t>Filter Restaurants by Vegan-Friendly, Price and Distance </t>
+  </si>
+  <si>
+    <t>Filter each restaurant, sort by rateing and id in priority_queue</t>
+  </si>
+  <si>
+    <t>Find the City With the Smallest Number of Neighbors at a Threshold Distance</t>
+  </si>
+  <si>
+    <t>Minimum Difficulty of a Job Schedule</t>
+  </si>
+  <si>
+    <t>BFS from every node</t>
+  </si>
+  <si>
+    <t>Time O(nnd), from every job, check back until start, dp[i][k] = dp[j][k-1] + max_num, j &lt; i</t>
   </si>
 </sst>
 </file>
@@ -7618,8 +7642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I1237"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1210" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G1229" sqref="G1229"/>
+    <sheetView tabSelected="1" topLeftCell="C1219" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G1226" sqref="G1226"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -35462,16 +35486,96 @@
       </c>
     </row>
     <row r="1223" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1223" s="1"/>
+      <c r="A1223" s="25">
+        <v>1332</v>
+      </c>
+      <c r="B1223" s="1" t="s">
+        <v>2373</v>
+      </c>
+      <c r="C1223" s="25">
+        <v>2</v>
+      </c>
+      <c r="D1223" s="25" t="s">
+        <v>1718</v>
+      </c>
+      <c r="E1223" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1223" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1223" s="25" t="s">
+        <v>2374</v>
+      </c>
     </row>
     <row r="1224" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1224" s="1"/>
+      <c r="A1224" s="25">
+        <v>1333</v>
+      </c>
+      <c r="B1224" s="1" t="s">
+        <v>2375</v>
+      </c>
+      <c r="C1224" s="25">
+        <v>2</v>
+      </c>
+      <c r="D1224" s="25" t="s">
+        <v>1718</v>
+      </c>
+      <c r="E1224" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1224" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1224" s="25" t="s">
+        <v>2376</v>
+      </c>
     </row>
     <row r="1225" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1225" s="1"/>
+      <c r="A1225" s="25">
+        <v>1334</v>
+      </c>
+      <c r="B1225" s="1" t="s">
+        <v>2377</v>
+      </c>
+      <c r="C1225" s="25">
+        <v>3</v>
+      </c>
+      <c r="D1225" s="25" t="s">
+        <v>1725</v>
+      </c>
+      <c r="E1225" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1225" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="G1225" s="25" t="s">
+        <v>2379</v>
+      </c>
     </row>
     <row r="1226" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1226" s="1"/>
+      <c r="A1226" s="25">
+        <v>1335</v>
+      </c>
+      <c r="B1226" s="1" t="s">
+        <v>2378</v>
+      </c>
+      <c r="C1226" s="25">
+        <v>4</v>
+      </c>
+      <c r="D1226" s="25" t="s">
+        <v>1725</v>
+      </c>
+      <c r="E1226" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1226" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1226" s="25" t="s">
+        <v>2380</v>
+      </c>
     </row>
     <row r="1227" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B1227" s="1"/>
@@ -36730,10 +36834,14 @@
     <hyperlink ref="B1220" r:id="rId1199" display="https://leetcode.com/problems/sort-the-matrix-diagonally" xr:uid="{BFB45A24-58F9-4146-87C0-2A622576A6C5}"/>
     <hyperlink ref="B1221" r:id="rId1200" display="https://leetcode.com/problems/reverse-subarray-to-maximize-array-value" xr:uid="{7DB02FD3-34F1-438F-AE16-E237D59275AB}"/>
     <hyperlink ref="B1222" r:id="rId1201" display="https://leetcode.com/problems/rank-transform-of-an-array" xr:uid="{F79E4984-0EF1-47E3-9679-675F3F8052E6}"/>
+    <hyperlink ref="B1223" r:id="rId1202" display="https://leetcode.com/problems/remove-palindromic-subsequences" xr:uid="{EA6C9E35-A292-4BFA-ADCF-781D60B025E5}"/>
+    <hyperlink ref="B1224" r:id="rId1203" display="https://leetcode.com/problems/filter-restaurants-by-vegan-friendly-price-and-distance" xr:uid="{2CFDB941-C33F-45AA-B18B-BD79DDEC7380}"/>
+    <hyperlink ref="B1225" r:id="rId1204" display="https://leetcode.com/problems/find-the-city-with-the-smallest-number-of-neighbors-at-a-threshold-distance" xr:uid="{784459F4-D56B-4D09-AF7C-561FA398DE2E}"/>
+    <hyperlink ref="B1226" r:id="rId1205" display="https://leetcode.com/problems/minimum-difficulty-of-a-job-schedule" xr:uid="{63E1F640-139B-4D8B-83C6-44FB1595CEE8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1202"/>
-  <drawing r:id="rId1203"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1206"/>
+  <drawing r:id="rId1207"/>
 </worksheet>
 </file>
 

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huanminw\Documents\GitHub\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACD3BE7B-D968-4DFB-8893-FDFA28E01091}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5E6E077-FA61-4AB6-9937-4093C8FDF1A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6330" uniqueCount="2381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6350" uniqueCount="2389">
   <si>
     <t>Difficulty</t>
   </si>
@@ -7177,6 +7177,30 @@
   </si>
   <si>
     <t>Time O(nnd), from every job, check back until start, dp[i][k] = dp[j][k-1] + max_num, j &lt; i</t>
+  </si>
+  <si>
+    <t>The K Weakest Rows in a Matrix</t>
+  </si>
+  <si>
+    <t>Jump Game V</t>
+  </si>
+  <si>
+    <t>Maximum Product of Splitted Binary Tree </t>
+  </si>
+  <si>
+    <t>Reduce Array Size to The Half</t>
+  </si>
+  <si>
+    <t>Sort soldiers and row id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sort by occurrences </t>
+  </si>
+  <si>
+    <t>Pass twice calculate sum as post order</t>
+  </si>
+  <si>
+    <t>topology sort, from high to low, DFS, memorize</t>
   </si>
 </sst>
 </file>
@@ -7643,7 +7667,7 @@
   <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1219" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G1226" sqref="G1226"/>
+      <selection activeCell="G1230" sqref="G1230"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -35578,16 +35602,96 @@
       </c>
     </row>
     <row r="1227" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1227" s="1"/>
+      <c r="A1227" s="25">
+        <v>1337</v>
+      </c>
+      <c r="B1227" s="1" t="s">
+        <v>2381</v>
+      </c>
+      <c r="C1227" s="25">
+        <v>2</v>
+      </c>
+      <c r="D1227" s="25" t="s">
+        <v>1725</v>
+      </c>
+      <c r="E1227" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1227" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1227" s="25" t="s">
+        <v>2385</v>
+      </c>
     </row>
     <row r="1228" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1228" s="1"/>
+      <c r="A1228" s="25">
+        <v>1338</v>
+      </c>
+      <c r="B1228" s="1" t="s">
+        <v>2384</v>
+      </c>
+      <c r="C1228" s="25">
+        <v>2</v>
+      </c>
+      <c r="D1228" s="25" t="s">
+        <v>1725</v>
+      </c>
+      <c r="E1228" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1228" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1228" s="25" t="s">
+        <v>2386</v>
+      </c>
     </row>
     <row r="1229" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1229" s="1"/>
+      <c r="A1229" s="25">
+        <v>1339</v>
+      </c>
+      <c r="B1229" s="1" t="s">
+        <v>2383</v>
+      </c>
+      <c r="C1229" s="25">
+        <v>3</v>
+      </c>
+      <c r="D1229" s="25" t="s">
+        <v>1725</v>
+      </c>
+      <c r="E1229" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1229" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="G1229" s="25" t="s">
+        <v>2387</v>
+      </c>
     </row>
     <row r="1230" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1230" s="1"/>
+      <c r="A1230" s="25">
+        <v>1340</v>
+      </c>
+      <c r="B1230" s="1" t="s">
+        <v>2382</v>
+      </c>
+      <c r="C1230" s="25">
+        <v>4</v>
+      </c>
+      <c r="D1230" s="25" t="s">
+        <v>1789</v>
+      </c>
+      <c r="E1230" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1230" s="25" t="s">
+        <v>188</v>
+      </c>
+      <c r="G1230" s="25" t="s">
+        <v>2388</v>
+      </c>
     </row>
     <row r="1231" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B1231" s="1"/>
@@ -36838,10 +36942,14 @@
     <hyperlink ref="B1224" r:id="rId1203" display="https://leetcode.com/problems/filter-restaurants-by-vegan-friendly-price-and-distance" xr:uid="{2CFDB941-C33F-45AA-B18B-BD79DDEC7380}"/>
     <hyperlink ref="B1225" r:id="rId1204" display="https://leetcode.com/problems/find-the-city-with-the-smallest-number-of-neighbors-at-a-threshold-distance" xr:uid="{784459F4-D56B-4D09-AF7C-561FA398DE2E}"/>
     <hyperlink ref="B1226" r:id="rId1205" display="https://leetcode.com/problems/minimum-difficulty-of-a-job-schedule" xr:uid="{63E1F640-139B-4D8B-83C6-44FB1595CEE8}"/>
+    <hyperlink ref="B1227" r:id="rId1206" display="https://leetcode.com/problems/the-k-weakest-rows-in-a-matrix" xr:uid="{9F1C5A3B-4BA8-444B-9174-6F524E5D3032}"/>
+    <hyperlink ref="B1230" r:id="rId1207" display="https://leetcode.com/problems/jump-game-v" xr:uid="{C0C1E5F2-891D-43D0-9FD0-855FDBAC3BB8}"/>
+    <hyperlink ref="B1229" r:id="rId1208" display="https://leetcode.com/problems/maximum-product-of-splitted-binary-tree" xr:uid="{724DB3EC-93AE-4632-9A8B-7CAA801A14C4}"/>
+    <hyperlink ref="B1228" r:id="rId1209" display="https://leetcode.com/problems/reduce-array-size-to-the-half" xr:uid="{7AD50544-729E-4A96-A838-F12A6C6EDD9D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1206"/>
-  <drawing r:id="rId1207"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1210"/>
+  <drawing r:id="rId1211"/>
 </worksheet>
 </file>
 

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huanminw\Documents\GitHub\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5E6E077-FA61-4AB6-9937-4093C8FDF1A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29E2CB25-A61B-48EB-924B-C9B32EC8E206}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="SQL" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'LeetCode Algorithm'!$A$1:$I$1237</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'LeetCode Algorithm'!$A$1:$I$1241</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6350" uniqueCount="2389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6390" uniqueCount="2405">
   <si>
     <t>Difficulty</t>
   </si>
@@ -7201,6 +7201,54 @@
   </si>
   <si>
     <t>topology sort, from high to low, DFS, memorize</t>
+  </si>
+  <si>
+    <t>Number of Steps to Reduce a Number to Zero</t>
+  </si>
+  <si>
+    <t>Simple simulation</t>
+  </si>
+  <si>
+    <t>Number of Sub-arrays of Size K and Average Greater than or Equal to Threshold</t>
+  </si>
+  <si>
+    <t>Subarray Sum</t>
+  </si>
+  <si>
+    <t>Angle Between Hands of a Clock</t>
+  </si>
+  <si>
+    <t>Calculate degree, get abs(diff) and complementary by 360</t>
+  </si>
+  <si>
+    <t>Jump Game IV</t>
+  </si>
+  <si>
+    <t>BFS, using value mapping to index</t>
+  </si>
+  <si>
+    <t>Check If N and Its Double Exist</t>
+  </si>
+  <si>
+    <t>Check if double or half exist, only do even number for half</t>
+  </si>
+  <si>
+    <t>Minimum Number of Steps to Make Two Strings Anagram </t>
+  </si>
+  <si>
+    <t>Calculate difference in counters and divide by 2</t>
+  </si>
+  <si>
+    <t>Tweet Counts Per Frequency</t>
+  </si>
+  <si>
+    <t>Store tweet by order of time, and simple scan from low to high.</t>
+  </si>
+  <si>
+    <t>Maximum Students Taking Exam</t>
+  </si>
+  <si>
+    <t>One row only depends on previous row, cache each row arrangement against next rows.</t>
   </si>
 </sst>
 </file>
@@ -7245,7 +7293,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -7272,6 +7320,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -7664,16 +7713,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I1237"/>
+  <dimension ref="A1:I1241"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1219" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G1230" sqref="G1230"/>
+    <sheetView tabSelected="1" topLeftCell="A1230" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G1248" sqref="G1248"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="6.6640625" customWidth="1"/>
-    <col min="2" max="2" width="61.33203125" customWidth="1"/>
+    <col min="2" max="2" width="65.1328125" customWidth="1"/>
     <col min="3" max="3" width="9.06640625" customWidth="1"/>
     <col min="4" max="5" width="11.19921875" customWidth="1"/>
     <col min="6" max="6" width="26.1328125" customWidth="1"/>
@@ -35694,47 +35743,219 @@
       </c>
     </row>
     <row r="1231" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1231" s="1"/>
+      <c r="A1231" s="25">
+        <v>1342</v>
+      </c>
+      <c r="B1231" s="1" t="s">
+        <v>2389</v>
+      </c>
+      <c r="C1231" s="25">
+        <v>1</v>
+      </c>
+      <c r="D1231" s="25" t="s">
+        <v>1722</v>
+      </c>
+      <c r="E1231" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1231" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1231" s="25" t="s">
+        <v>2390</v>
+      </c>
     </row>
     <row r="1232" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1232" s="1"/>
+      <c r="A1232" s="25">
+        <v>1343</v>
+      </c>
+      <c r="B1232" s="1" t="s">
+        <v>2391</v>
+      </c>
+      <c r="C1232" s="25">
+        <v>2</v>
+      </c>
+      <c r="D1232" s="25" t="s">
+        <v>1725</v>
+      </c>
+      <c r="E1232" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1232" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1232" s="25" t="s">
+        <v>2392</v>
+      </c>
     </row>
     <row r="1233" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1233" s="1"/>
-    </row>
-    <row r="1234" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1234" s="1"/>
-    </row>
-    <row r="1235" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1235" s="1"/>
-    </row>
-    <row r="1236" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A1236" s="28" t="s">
+      <c r="A1233" s="25">
+        <v>1344</v>
+      </c>
+      <c r="B1233" s="1" t="s">
+        <v>2393</v>
+      </c>
+      <c r="C1233" s="25">
+        <v>2</v>
+      </c>
+      <c r="D1233" s="25" t="s">
+        <v>1723</v>
+      </c>
+      <c r="E1233" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1233" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1233" s="25" t="s">
+        <v>2394</v>
+      </c>
+    </row>
+    <row r="1234" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1234" s="28">
+        <v>1345</v>
+      </c>
+      <c r="B1234" s="1" t="s">
+        <v>2395</v>
+      </c>
+      <c r="C1234" s="28">
+        <v>4</v>
+      </c>
+      <c r="D1234" s="28" t="s">
+        <v>1725</v>
+      </c>
+      <c r="E1234" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1234" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="G1234" s="28" t="s">
+        <v>2396</v>
+      </c>
+    </row>
+    <row r="1235" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1235" s="28">
+        <v>1346</v>
+      </c>
+      <c r="B1235" s="1" t="s">
+        <v>2397</v>
+      </c>
+      <c r="C1235" s="28">
+        <v>2</v>
+      </c>
+      <c r="D1235" s="28" t="s">
+        <v>1725</v>
+      </c>
+      <c r="E1235" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1235" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1235" s="28" t="s">
+        <v>2398</v>
+      </c>
+    </row>
+    <row r="1236" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1236" s="28">
+        <v>1347</v>
+      </c>
+      <c r="B1236" s="1" t="s">
+        <v>2399</v>
+      </c>
+      <c r="C1236" s="28">
+        <v>3</v>
+      </c>
+      <c r="D1236" s="28" t="s">
+        <v>1725</v>
+      </c>
+      <c r="E1236" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1236" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1236" s="28" t="s">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="1237" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1237" s="25">
+        <v>1348</v>
+      </c>
+      <c r="B1237" s="1" t="s">
+        <v>2401</v>
+      </c>
+      <c r="C1237" s="25">
+        <v>3</v>
+      </c>
+      <c r="D1237" s="25" t="s">
+        <v>1725</v>
+      </c>
+      <c r="E1237" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1237" s="25" t="s">
+        <v>459</v>
+      </c>
+      <c r="G1237" s="25" t="s">
+        <v>2402</v>
+      </c>
+    </row>
+    <row r="1238" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1238" s="25">
+        <v>1349</v>
+      </c>
+      <c r="B1238" s="1" t="s">
+        <v>2403</v>
+      </c>
+      <c r="C1238" s="25">
+        <v>5</v>
+      </c>
+      <c r="D1238" s="25" t="s">
+        <v>1740</v>
+      </c>
+      <c r="E1238" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1238" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="G1238" s="25" t="s">
+        <v>2404</v>
+      </c>
+    </row>
+    <row r="1239" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1239" s="1"/>
+    </row>
+    <row r="1240" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A1240" s="29" t="s">
         <v>1726</v>
       </c>
-      <c r="B1236" s="28"/>
-      <c r="C1236" s="28"/>
-      <c r="D1236" s="28"/>
-      <c r="E1236" s="28"/>
-      <c r="F1236" s="28"/>
-      <c r="G1236" s="28"/>
-    </row>
-    <row r="1237" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A1237" s="29" t="s">
+      <c r="B1240" s="29"/>
+      <c r="C1240" s="29"/>
+      <c r="D1240" s="29"/>
+      <c r="E1240" s="29"/>
+      <c r="F1240" s="29"/>
+      <c r="G1240" s="29"/>
+    </row>
+    <row r="1241" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A1241" s="30" t="s">
         <v>1774</v>
       </c>
-      <c r="B1237" s="29"/>
-      <c r="C1237" s="29"/>
-      <c r="D1237" s="29"/>
-      <c r="E1237" s="29"/>
-      <c r="F1237" s="29"/>
-      <c r="G1237" s="29"/>
+      <c r="B1241" s="30"/>
+      <c r="C1241" s="30"/>
+      <c r="D1241" s="30"/>
+      <c r="E1241" s="30"/>
+      <c r="F1241" s="30"/>
+      <c r="G1241" s="30"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I1237" xr:uid="{CB07CE66-8F15-46FF-A90A-43FDB2DB428F}"/>
+  <autoFilter ref="A1:I1241" xr:uid="{CB07CE66-8F15-46FF-A90A-43FDB2DB428F}"/>
   <mergeCells count="2">
-    <mergeCell ref="A1236:G1236"/>
-    <mergeCell ref="A1237:G1237"/>
+    <mergeCell ref="A1240:G1240"/>
+    <mergeCell ref="A1241:G1241"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" display="https://leetcode.com/problems/zigzag-conversion" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -36946,10 +37167,18 @@
     <hyperlink ref="B1230" r:id="rId1207" display="https://leetcode.com/problems/jump-game-v" xr:uid="{C0C1E5F2-891D-43D0-9FD0-855FDBAC3BB8}"/>
     <hyperlink ref="B1229" r:id="rId1208" display="https://leetcode.com/problems/maximum-product-of-splitted-binary-tree" xr:uid="{724DB3EC-93AE-4632-9A8B-7CAA801A14C4}"/>
     <hyperlink ref="B1228" r:id="rId1209" display="https://leetcode.com/problems/reduce-array-size-to-the-half" xr:uid="{7AD50544-729E-4A96-A838-F12A6C6EDD9D}"/>
+    <hyperlink ref="B1231" r:id="rId1210" display="https://leetcode.com/problems/number-of-steps-to-reduce-a-number-to-zero" xr:uid="{FCEA0C08-D4F6-4412-A785-A7329D100700}"/>
+    <hyperlink ref="B1232" r:id="rId1211" display="https://leetcode.com/problems/number-of-sub-arrays-of-size-k-and-average-greater-than-or-equal-to-threshold" xr:uid="{2DA3EB36-C3CE-4FD0-BB3E-ED14AC9240DC}"/>
+    <hyperlink ref="B1233" r:id="rId1212" display="https://leetcode.com/problems/angle-between-hands-of-a-clock" xr:uid="{47612DC1-04ED-4B26-A016-8C5CE4407D2C}"/>
+    <hyperlink ref="B1234" r:id="rId1213" display="https://leetcode.com/problems/jump-game-iv" xr:uid="{4CE5292C-D2C2-4CE8-8C37-FFFBA84716C9}"/>
+    <hyperlink ref="B1235" r:id="rId1214" display="https://leetcode.com/problems/check-if-n-and-its-double-exist" xr:uid="{13DD4243-2B91-4696-A0D7-3D07A43C4D89}"/>
+    <hyperlink ref="B1236" r:id="rId1215" display="https://leetcode.com/problems/minimum-number-of-steps-to-make-two-strings-anagram" xr:uid="{CC67245A-250E-4A0C-B318-31084FD09CE8}"/>
+    <hyperlink ref="B1237" r:id="rId1216" display="https://leetcode.com/problems/tweet-counts-per-frequency" xr:uid="{F899C3AB-0A21-4018-891D-3F2178CA1862}"/>
+    <hyperlink ref="B1238" r:id="rId1217" display="https://leetcode.com/problems/maximum-students-taking-exam" xr:uid="{9D5A1E22-8339-448B-AC9E-C6DBD8ACC53F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1210"/>
-  <drawing r:id="rId1211"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1218"/>
+  <drawing r:id="rId1219"/>
 </worksheet>
 </file>
 

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huanminw\Documents\GitHub\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29E2CB25-A61B-48EB-924B-C9B32EC8E206}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{666B22F0-8B9D-4089-A266-58D0E47C95A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7715,7 +7715,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I1241"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1230" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A60" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G1248" sqref="G1248"/>
     </sheetView>
   </sheetViews>

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huanminw\Documents\GitHub\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{666B22F0-8B9D-4089-A266-58D0E47C95A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ABE072B-31D6-48D7-A79F-D08753176902}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="SQL" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'LeetCode Algorithm'!$A$1:$I$1241</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'LeetCode Algorithm'!$A$1:$I$1245</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6390" uniqueCount="2405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6410" uniqueCount="2413">
   <si>
     <t>Difficulty</t>
   </si>
@@ -7224,9 +7224,6 @@
     <t>Jump Game IV</t>
   </si>
   <si>
-    <t>BFS, using value mapping to index</t>
-  </si>
-  <si>
     <t>Check If N and Its Double Exist</t>
   </si>
   <si>
@@ -7249,6 +7246,33 @@
   </si>
   <si>
     <t>One row only depends on previous row, cache each row arrangement against next rows.</t>
+  </si>
+  <si>
+    <t>Count Negative Numbers in a Sorted Matrix</t>
+  </si>
+  <si>
+    <t>search from right top of the array, count rows when less 0.</t>
+  </si>
+  <si>
+    <t>Product of the Last K Numbers</t>
+  </si>
+  <si>
+    <t>When hit zero, clear array.</t>
+  </si>
+  <si>
+    <t>Maximum Number of Events That Can Be Attended </t>
+  </si>
+  <si>
+    <t>Construct Target Array With Multiple Sums </t>
+  </si>
+  <si>
+    <t>Sort events, and count first, cut all remaing on same start day.</t>
+  </si>
+  <si>
+    <t>Deduct from biggest number with remaining sum.</t>
+  </si>
+  <si>
+    <t>BFS, using value mapping to index.</t>
   </si>
 </sst>
 </file>
@@ -7293,7 +7317,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -7320,6 +7344,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -7713,10 +7738,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I1241"/>
+  <dimension ref="A1:I1245"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G1248" sqref="G1248"/>
+    <sheetView tabSelected="1" topLeftCell="C1225" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G1234" sqref="G1234"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -35831,7 +35856,7 @@
         <v>188</v>
       </c>
       <c r="G1234" s="28" t="s">
-        <v>2396</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="1235" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.45">
@@ -35839,7 +35864,7 @@
         <v>1346</v>
       </c>
       <c r="B1235" s="1" t="s">
-        <v>2397</v>
+        <v>2396</v>
       </c>
       <c r="C1235" s="28">
         <v>2</v>
@@ -35854,7 +35879,7 @@
         <v>25</v>
       </c>
       <c r="G1235" s="28" t="s">
-        <v>2398</v>
+        <v>2397</v>
       </c>
     </row>
     <row r="1236" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.45">
@@ -35862,7 +35887,7 @@
         <v>1347</v>
       </c>
       <c r="B1236" s="1" t="s">
-        <v>2399</v>
+        <v>2398</v>
       </c>
       <c r="C1236" s="28">
         <v>3</v>
@@ -35877,7 +35902,7 @@
         <v>36</v>
       </c>
       <c r="G1236" s="28" t="s">
-        <v>2400</v>
+        <v>2399</v>
       </c>
     </row>
     <row r="1237" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.45">
@@ -35885,7 +35910,7 @@
         <v>1348</v>
       </c>
       <c r="B1237" s="1" t="s">
-        <v>2401</v>
+        <v>2400</v>
       </c>
       <c r="C1237" s="25">
         <v>3</v>
@@ -35900,7 +35925,7 @@
         <v>459</v>
       </c>
       <c r="G1237" s="25" t="s">
-        <v>2402</v>
+        <v>2401</v>
       </c>
     </row>
     <row r="1238" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.45">
@@ -35908,7 +35933,7 @@
         <v>1349</v>
       </c>
       <c r="B1238" s="1" t="s">
-        <v>2403</v>
+        <v>2402</v>
       </c>
       <c r="C1238" s="25">
         <v>5</v>
@@ -35923,39 +35948,131 @@
         <v>121</v>
       </c>
       <c r="G1238" s="25" t="s">
+        <v>2403</v>
+      </c>
+    </row>
+    <row r="1239" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1239" s="29">
+        <v>1351</v>
+      </c>
+      <c r="B1239" s="1" t="s">
         <v>2404</v>
       </c>
-    </row>
-    <row r="1239" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1239" s="1"/>
-    </row>
-    <row r="1240" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A1240" s="29" t="s">
+      <c r="C1239" s="29">
+        <v>3</v>
+      </c>
+      <c r="D1239" s="29" t="s">
+        <v>1789</v>
+      </c>
+      <c r="E1239" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1239" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1239" s="29" t="s">
+        <v>2405</v>
+      </c>
+    </row>
+    <row r="1240" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1240" s="29">
+        <v>1352</v>
+      </c>
+      <c r="B1240" s="1" t="s">
+        <v>2406</v>
+      </c>
+      <c r="C1240" s="29">
+        <v>3</v>
+      </c>
+      <c r="D1240" s="29" t="s">
+        <v>1789</v>
+      </c>
+      <c r="E1240" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1240" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1240" s="29" t="s">
+        <v>2407</v>
+      </c>
+    </row>
+    <row r="1241" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1241" s="29">
+        <v>1353</v>
+      </c>
+      <c r="B1241" s="1" t="s">
+        <v>2408</v>
+      </c>
+      <c r="C1241" s="29">
+        <v>3</v>
+      </c>
+      <c r="D1241" s="29" t="s">
+        <v>1789</v>
+      </c>
+      <c r="E1241" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1241" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="G1241" s="29" t="s">
+        <v>2410</v>
+      </c>
+    </row>
+    <row r="1242" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1242" s="29">
+        <v>1354</v>
+      </c>
+      <c r="B1242" s="1" t="s">
+        <v>2409</v>
+      </c>
+      <c r="C1242" s="29">
+        <v>4</v>
+      </c>
+      <c r="D1242" s="29" t="s">
+        <v>1723</v>
+      </c>
+      <c r="E1242" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1242" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1242" s="29" t="s">
+        <v>2411</v>
+      </c>
+    </row>
+    <row r="1243" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1243" s="1"/>
+    </row>
+    <row r="1244" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A1244" s="30" t="s">
         <v>1726</v>
       </c>
-      <c r="B1240" s="29"/>
-      <c r="C1240" s="29"/>
-      <c r="D1240" s="29"/>
-      <c r="E1240" s="29"/>
-      <c r="F1240" s="29"/>
-      <c r="G1240" s="29"/>
-    </row>
-    <row r="1241" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A1241" s="30" t="s">
+      <c r="B1244" s="30"/>
+      <c r="C1244" s="30"/>
+      <c r="D1244" s="30"/>
+      <c r="E1244" s="30"/>
+      <c r="F1244" s="30"/>
+      <c r="G1244" s="30"/>
+    </row>
+    <row r="1245" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A1245" s="31" t="s">
         <v>1774</v>
       </c>
-      <c r="B1241" s="30"/>
-      <c r="C1241" s="30"/>
-      <c r="D1241" s="30"/>
-      <c r="E1241" s="30"/>
-      <c r="F1241" s="30"/>
-      <c r="G1241" s="30"/>
+      <c r="B1245" s="31"/>
+      <c r="C1245" s="31"/>
+      <c r="D1245" s="31"/>
+      <c r="E1245" s="31"/>
+      <c r="F1245" s="31"/>
+      <c r="G1245" s="31"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I1241" xr:uid="{CB07CE66-8F15-46FF-A90A-43FDB2DB428F}"/>
+  <autoFilter ref="A1:I1245" xr:uid="{CB07CE66-8F15-46FF-A90A-43FDB2DB428F}"/>
   <mergeCells count="2">
-    <mergeCell ref="A1240:G1240"/>
-    <mergeCell ref="A1241:G1241"/>
+    <mergeCell ref="A1244:G1244"/>
+    <mergeCell ref="A1245:G1245"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" display="https://leetcode.com/problems/zigzag-conversion" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -37175,10 +37292,14 @@
     <hyperlink ref="B1236" r:id="rId1215" display="https://leetcode.com/problems/minimum-number-of-steps-to-make-two-strings-anagram" xr:uid="{CC67245A-250E-4A0C-B318-31084FD09CE8}"/>
     <hyperlink ref="B1237" r:id="rId1216" display="https://leetcode.com/problems/tweet-counts-per-frequency" xr:uid="{F899C3AB-0A21-4018-891D-3F2178CA1862}"/>
     <hyperlink ref="B1238" r:id="rId1217" display="https://leetcode.com/problems/maximum-students-taking-exam" xr:uid="{9D5A1E22-8339-448B-AC9E-C6DBD8ACC53F}"/>
+    <hyperlink ref="B1239" r:id="rId1218" display="https://leetcode.com/problems/count-negative-numbers-in-a-sorted-matrix" xr:uid="{3D3E0F23-502A-4E8B-B9CF-5FE3AEAC810C}"/>
+    <hyperlink ref="B1240" r:id="rId1219" display="https://leetcode.com/problems/product-of-the-last-k-numbers" xr:uid="{9CDE6EA2-7CA2-46C5-8877-374FB14DD3EA}"/>
+    <hyperlink ref="B1241" r:id="rId1220" display="https://leetcode.com/problems/maximum-number-of-events-that-can-be-attended" xr:uid="{258FB3FD-2123-4FD9-9D91-7C88F6D6C2C2}"/>
+    <hyperlink ref="B1242" r:id="rId1221" display="https://leetcode.com/problems/construct-target-array-with-multiple-sums" xr:uid="{F04F17B1-B2C5-4A98-ACC4-2EA8B6693A6F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1218"/>
-  <drawing r:id="rId1219"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1222"/>
+  <drawing r:id="rId1223"/>
 </worksheet>
 </file>
 

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huanminw\Documents\GitHub\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ABE072B-31D6-48D7-A79F-D08753176902}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17176BB3-75E0-445D-A313-E1111B3CC27D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="SQL" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'LeetCode Algorithm'!$A$1:$I$1245</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'LeetCode Algorithm'!$A$1:$I$1254</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6410" uniqueCount="2413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6450" uniqueCount="2429">
   <si>
     <t>Difficulty</t>
   </si>
@@ -7273,6 +7273,54 @@
   </si>
   <si>
     <t>BFS, using value mapping to index.</t>
+  </si>
+  <si>
+    <t>Sort Integers by The Number of 1 Bits</t>
+  </si>
+  <si>
+    <t>Apply Discount Every n Orders</t>
+  </si>
+  <si>
+    <t>Number of Substrings Containing All Three Characters </t>
+  </si>
+  <si>
+    <t>Count All Valid Pickup and Delivery Options </t>
+  </si>
+  <si>
+    <t>Number of Days Between Two Dates</t>
+  </si>
+  <si>
+    <t>Validate Binary Tree Nodes </t>
+  </si>
+  <si>
+    <t>Closest Divisors</t>
+  </si>
+  <si>
+    <t>Largest Multiple of Three</t>
+  </si>
+  <si>
+    <t>store smallest 2 digits with remainder as 1 and 2 when divide 3</t>
+  </si>
+  <si>
+    <t>Iterate from the sqrt of num+2 down to 1, return first divisible result.</t>
+  </si>
+  <si>
+    <t>Use two flag, one is someone claim it as child another is that its children are visited.</t>
+  </si>
+  <si>
+    <t>Calculate leap year and day of the year.</t>
+  </si>
+  <si>
+    <t>Add one package based on previous result, starting with 2*I + 1 positions</t>
+  </si>
+  <si>
+    <t>String coverage, two pointers</t>
+  </si>
+  <si>
+    <t>count bits and sort</t>
+  </si>
+  <si>
+    <t>Simulate the behavior</t>
   </si>
 </sst>
 </file>
@@ -7317,7 +7365,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -7344,6 +7392,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -7738,10 +7787,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I1245"/>
+  <dimension ref="A1:I1254"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1225" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G1234" sqref="G1234"/>
+    <sheetView tabSelected="1" topLeftCell="C1228" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G1244" sqref="G1244"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -36043,36 +36092,223 @@
         <v>2411</v>
       </c>
     </row>
-    <row r="1243" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1243" s="1"/>
-    </row>
-    <row r="1244" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A1244" s="30" t="s">
+    <row r="1243" spans="1:7" s="30" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1243" s="30">
+        <v>1356</v>
+      </c>
+      <c r="B1243" s="1" t="s">
+        <v>2413</v>
+      </c>
+      <c r="C1243" s="30">
+        <v>2</v>
+      </c>
+      <c r="D1243" s="30" t="s">
+        <v>1781</v>
+      </c>
+      <c r="E1243" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1243" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1243" s="30" t="s">
+        <v>2427</v>
+      </c>
+    </row>
+    <row r="1244" spans="1:7" s="30" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1244" s="30">
+        <v>1357</v>
+      </c>
+      <c r="B1244" s="1" t="s">
+        <v>2414</v>
+      </c>
+      <c r="C1244" s="30">
+        <v>3</v>
+      </c>
+      <c r="D1244" s="30" t="s">
+        <v>1725</v>
+      </c>
+      <c r="E1244" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1244" s="30" t="s">
+        <v>459</v>
+      </c>
+      <c r="G1244" s="30" t="s">
+        <v>2428</v>
+      </c>
+    </row>
+    <row r="1245" spans="1:7" s="30" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1245" s="30">
+        <v>1358</v>
+      </c>
+      <c r="B1245" s="1" t="s">
+        <v>2415</v>
+      </c>
+      <c r="C1245" s="30">
+        <v>3</v>
+      </c>
+      <c r="D1245" s="30" t="s">
+        <v>1789</v>
+      </c>
+      <c r="E1245" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1245" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1245" s="30" t="s">
+        <v>2426</v>
+      </c>
+    </row>
+    <row r="1246" spans="1:7" s="30" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1246" s="30">
+        <v>1359</v>
+      </c>
+      <c r="B1246" s="1" t="s">
+        <v>2416</v>
+      </c>
+      <c r="C1246" s="30">
+        <v>4</v>
+      </c>
+      <c r="D1246" s="30" t="s">
+        <v>1723</v>
+      </c>
+      <c r="E1246" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1246" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1246" s="30" t="s">
+        <v>2425</v>
+      </c>
+    </row>
+    <row r="1247" spans="1:7" s="30" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1247" s="30">
+        <v>1360</v>
+      </c>
+      <c r="B1247" s="1" t="s">
+        <v>2417</v>
+      </c>
+      <c r="C1247" s="30">
+        <v>3</v>
+      </c>
+      <c r="D1247" s="30" t="s">
+        <v>1725</v>
+      </c>
+      <c r="E1247" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1247" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1247" s="30" t="s">
+        <v>2424</v>
+      </c>
+    </row>
+    <row r="1248" spans="1:7" s="30" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1248" s="30">
+        <v>1361</v>
+      </c>
+      <c r="B1248" s="1" t="s">
+        <v>2418</v>
+      </c>
+      <c r="C1248" s="30">
+        <v>4</v>
+      </c>
+      <c r="D1248" s="30" t="s">
+        <v>1789</v>
+      </c>
+      <c r="E1248" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1248" s="30" t="s">
+        <v>188</v>
+      </c>
+      <c r="G1248" s="30" t="s">
+        <v>2423</v>
+      </c>
+    </row>
+    <row r="1249" spans="1:7" s="30" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1249" s="30">
+        <v>1362</v>
+      </c>
+      <c r="B1249" s="1" t="s">
+        <v>2419</v>
+      </c>
+      <c r="C1249" s="30">
+        <v>2</v>
+      </c>
+      <c r="D1249" s="30" t="s">
+        <v>1723</v>
+      </c>
+      <c r="E1249" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1249" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1249" s="30" t="s">
+        <v>2422</v>
+      </c>
+    </row>
+    <row r="1250" spans="1:7" s="30" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1250" s="30">
+        <v>1363</v>
+      </c>
+      <c r="B1250" s="1" t="s">
+        <v>2420</v>
+      </c>
+      <c r="C1250" s="30">
+        <v>4</v>
+      </c>
+      <c r="D1250" s="30" t="s">
+        <v>1723</v>
+      </c>
+      <c r="E1250" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1250" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1250" s="30" t="s">
+        <v>2421</v>
+      </c>
+    </row>
+    <row r="1251" spans="1:7" s="30" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1251" s="1"/>
+    </row>
+    <row r="1252" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1252" s="1"/>
+    </row>
+    <row r="1253" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A1253" s="31" t="s">
         <v>1726</v>
       </c>
-      <c r="B1244" s="30"/>
-      <c r="C1244" s="30"/>
-      <c r="D1244" s="30"/>
-      <c r="E1244" s="30"/>
-      <c r="F1244" s="30"/>
-      <c r="G1244" s="30"/>
-    </row>
-    <row r="1245" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A1245" s="31" t="s">
+      <c r="B1253" s="31"/>
+      <c r="C1253" s="31"/>
+      <c r="D1253" s="31"/>
+      <c r="E1253" s="31"/>
+      <c r="F1253" s="31"/>
+      <c r="G1253" s="31"/>
+    </row>
+    <row r="1254" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A1254" s="32" t="s">
         <v>1774</v>
       </c>
-      <c r="B1245" s="31"/>
-      <c r="C1245" s="31"/>
-      <c r="D1245" s="31"/>
-      <c r="E1245" s="31"/>
-      <c r="F1245" s="31"/>
-      <c r="G1245" s="31"/>
+      <c r="B1254" s="32"/>
+      <c r="C1254" s="32"/>
+      <c r="D1254" s="32"/>
+      <c r="E1254" s="32"/>
+      <c r="F1254" s="32"/>
+      <c r="G1254" s="32"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I1245" xr:uid="{CB07CE66-8F15-46FF-A90A-43FDB2DB428F}"/>
+  <autoFilter ref="A1:I1254" xr:uid="{CB07CE66-8F15-46FF-A90A-43FDB2DB428F}"/>
   <mergeCells count="2">
-    <mergeCell ref="A1244:G1244"/>
-    <mergeCell ref="A1245:G1245"/>
+    <mergeCell ref="A1253:G1253"/>
+    <mergeCell ref="A1254:G1254"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" display="https://leetcode.com/problems/zigzag-conversion" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -37296,10 +37532,18 @@
     <hyperlink ref="B1240" r:id="rId1219" display="https://leetcode.com/problems/product-of-the-last-k-numbers" xr:uid="{9CDE6EA2-7CA2-46C5-8877-374FB14DD3EA}"/>
     <hyperlink ref="B1241" r:id="rId1220" display="https://leetcode.com/problems/maximum-number-of-events-that-can-be-attended" xr:uid="{258FB3FD-2123-4FD9-9D91-7C88F6D6C2C2}"/>
     <hyperlink ref="B1242" r:id="rId1221" display="https://leetcode.com/problems/construct-target-array-with-multiple-sums" xr:uid="{F04F17B1-B2C5-4A98-ACC4-2EA8B6693A6F}"/>
+    <hyperlink ref="B1243" r:id="rId1222" display="https://leetcode.com/problems/sort-integers-by-the-number-of-1-bits" xr:uid="{4C8874CD-7738-4EC9-9DC9-7AF4F8340254}"/>
+    <hyperlink ref="B1244" r:id="rId1223" display="https://leetcode.com/problems/apply-discount-every-n-orders" xr:uid="{A7DFC8EF-B667-434A-B39E-E236667CBA44}"/>
+    <hyperlink ref="B1245" r:id="rId1224" display="https://leetcode.com/problems/number-of-substrings-containing-all-three-characters" xr:uid="{E1FCF586-E975-4444-80BA-06B38F896582}"/>
+    <hyperlink ref="B1246" r:id="rId1225" display="https://leetcode.com/problems/count-all-valid-pickup-and-delivery-options" xr:uid="{14D09337-9159-4E43-AAB7-4001BDC65890}"/>
+    <hyperlink ref="B1247" r:id="rId1226" display="https://leetcode.com/problems/number-of-days-between-two-dates" xr:uid="{CD1FDAFC-D166-459B-B290-3291EF5FC912}"/>
+    <hyperlink ref="B1248" r:id="rId1227" display="https://leetcode.com/problems/validate-binary-tree-nodes" xr:uid="{813CF731-F43C-4B3B-8593-132B454F8C8D}"/>
+    <hyperlink ref="B1249" r:id="rId1228" display="https://leetcode.com/problems/closest-divisors" xr:uid="{E6EA0C9A-D70E-4D6E-93EA-8F04128E1BC8}"/>
+    <hyperlink ref="B1250" r:id="rId1229" display="https://leetcode.com/problems/largest-multiple-of-three" xr:uid="{0E32F9E6-86AE-401D-A290-F4EC8E0B1F90}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1222"/>
-  <drawing r:id="rId1223"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1230"/>
+  <drawing r:id="rId1231"/>
 </worksheet>
 </file>
 

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huanminw\Documents\GitHub\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17176BB3-75E0-445D-A313-E1111B3CC27D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AC858D3-110B-4B88-826F-C38F2288A3A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="SQL" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'LeetCode Algorithm'!$A$1:$I$1254</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'LeetCode Algorithm'!$A$1:$I$1257</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6450" uniqueCount="2429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6470" uniqueCount="2437">
   <si>
     <t>Difficulty</t>
   </si>
@@ -7321,6 +7321,30 @@
   </si>
   <si>
     <t>Simulate the behavior</t>
+  </si>
+  <si>
+    <t>How Many Numbers Are Smaller Than the Current Number</t>
+  </si>
+  <si>
+    <t>Minimum Cost to Make at Least One Valid Path in a Grid</t>
+  </si>
+  <si>
+    <t>Linked List in Binary Tree</t>
+  </si>
+  <si>
+    <t>Rank Teams by Votes</t>
+  </si>
+  <si>
+    <t>Sort number with index</t>
+  </si>
+  <si>
+    <t>Store the ranking as vector and sort it</t>
+  </si>
+  <si>
+    <t>Pass the possible list nodes down the tree</t>
+  </si>
+  <si>
+    <t>Shortest Path</t>
   </si>
 </sst>
 </file>
@@ -7365,7 +7389,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -7392,6 +7416,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -7787,10 +7812,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I1254"/>
+  <dimension ref="A1:I1257"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1228" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G1244" sqref="G1244"/>
+    <sheetView tabSelected="1" topLeftCell="C1232" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G1254" sqref="G1254"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -36277,38 +36302,127 @@
       </c>
     </row>
     <row r="1251" spans="1:7" s="30" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1251" s="1"/>
-    </row>
-    <row r="1252" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1252" s="1"/>
-    </row>
-    <row r="1253" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A1253" s="31" t="s">
+      <c r="A1251" s="30">
+        <v>1365</v>
+      </c>
+      <c r="B1251" s="1" t="s">
+        <v>2429</v>
+      </c>
+      <c r="C1251" s="30">
+        <v>2</v>
+      </c>
+      <c r="D1251" s="30" t="s">
+        <v>1725</v>
+      </c>
+      <c r="E1251" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1251" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1251" s="30" t="s">
+        <v>2433</v>
+      </c>
+    </row>
+    <row r="1252" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1252" s="31">
+        <v>1366</v>
+      </c>
+      <c r="B1252" s="1" t="s">
+        <v>2432</v>
+      </c>
+      <c r="C1252" s="31">
+        <v>2</v>
+      </c>
+      <c r="D1252" s="31" t="s">
+        <v>1725</v>
+      </c>
+      <c r="E1252" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1252" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1252" s="31" t="s">
+        <v>2434</v>
+      </c>
+    </row>
+    <row r="1253" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1253" s="31">
+        <v>1367</v>
+      </c>
+      <c r="B1253" s="1" t="s">
+        <v>2431</v>
+      </c>
+      <c r="C1253" s="31">
+        <v>3</v>
+      </c>
+      <c r="D1253" s="31" t="s">
+        <v>1725</v>
+      </c>
+      <c r="E1253" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1253" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="G1253" s="31" t="s">
+        <v>2435</v>
+      </c>
+    </row>
+    <row r="1254" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1254" s="31">
+        <v>1368</v>
+      </c>
+      <c r="B1254" s="1" t="s">
+        <v>2430</v>
+      </c>
+      <c r="C1254" s="31">
+        <v>4</v>
+      </c>
+      <c r="D1254" s="31" t="s">
+        <v>1789</v>
+      </c>
+      <c r="E1254" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1254" s="31" t="s">
+        <v>188</v>
+      </c>
+      <c r="G1254" s="31" t="s">
+        <v>2436</v>
+      </c>
+    </row>
+    <row r="1255" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1255" s="1"/>
+    </row>
+    <row r="1256" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A1256" s="32" t="s">
         <v>1726</v>
       </c>
-      <c r="B1253" s="31"/>
-      <c r="C1253" s="31"/>
-      <c r="D1253" s="31"/>
-      <c r="E1253" s="31"/>
-      <c r="F1253" s="31"/>
-      <c r="G1253" s="31"/>
-    </row>
-    <row r="1254" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A1254" s="32" t="s">
+      <c r="B1256" s="32"/>
+      <c r="C1256" s="32"/>
+      <c r="D1256" s="32"/>
+      <c r="E1256" s="32"/>
+      <c r="F1256" s="32"/>
+      <c r="G1256" s="32"/>
+    </row>
+    <row r="1257" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A1257" s="33" t="s">
         <v>1774</v>
       </c>
-      <c r="B1254" s="32"/>
-      <c r="C1254" s="32"/>
-      <c r="D1254" s="32"/>
-      <c r="E1254" s="32"/>
-      <c r="F1254" s="32"/>
-      <c r="G1254" s="32"/>
+      <c r="B1257" s="33"/>
+      <c r="C1257" s="33"/>
+      <c r="D1257" s="33"/>
+      <c r="E1257" s="33"/>
+      <c r="F1257" s="33"/>
+      <c r="G1257" s="33"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I1254" xr:uid="{CB07CE66-8F15-46FF-A90A-43FDB2DB428F}"/>
+  <autoFilter ref="A1:I1257" xr:uid="{CB07CE66-8F15-46FF-A90A-43FDB2DB428F}"/>
   <mergeCells count="2">
-    <mergeCell ref="A1253:G1253"/>
-    <mergeCell ref="A1254:G1254"/>
+    <mergeCell ref="A1256:G1256"/>
+    <mergeCell ref="A1257:G1257"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" display="https://leetcode.com/problems/zigzag-conversion" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -37540,10 +37654,14 @@
     <hyperlink ref="B1248" r:id="rId1227" display="https://leetcode.com/problems/validate-binary-tree-nodes" xr:uid="{813CF731-F43C-4B3B-8593-132B454F8C8D}"/>
     <hyperlink ref="B1249" r:id="rId1228" display="https://leetcode.com/problems/closest-divisors" xr:uid="{E6EA0C9A-D70E-4D6E-93EA-8F04128E1BC8}"/>
     <hyperlink ref="B1250" r:id="rId1229" display="https://leetcode.com/problems/largest-multiple-of-three" xr:uid="{0E32F9E6-86AE-401D-A290-F4EC8E0B1F90}"/>
+    <hyperlink ref="B1251" r:id="rId1230" display="https://leetcode.com/problems/how-many-numbers-are-smaller-than-the-current-number" xr:uid="{CCED9172-5699-4A85-B040-F2645E29EA6A}"/>
+    <hyperlink ref="B1254" r:id="rId1231" display="https://leetcode.com/problems/minimum-cost-to-make-at-least-one-valid-path-in-a-grid" xr:uid="{21C08E67-8A43-4FC1-A6BE-43A8166C19DD}"/>
+    <hyperlink ref="B1253" r:id="rId1232" display="https://leetcode.com/problems/linked-list-in-binary-tree" xr:uid="{EE2E1533-FBBC-413D-B4E9-A7ABABA2CA1C}"/>
+    <hyperlink ref="B1252" r:id="rId1233" display="https://leetcode.com/problems/rank-teams-by-votes" xr:uid="{41B782C6-3BAE-46D0-90F5-06193608D44B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1230"/>
-  <drawing r:id="rId1231"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1234"/>
+  <drawing r:id="rId1235"/>
 </worksheet>
 </file>
 

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huanminw\Documents\GitHub\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AC858D3-110B-4B88-826F-C38F2288A3A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{709826F7-9119-461E-868C-00CBD53B05C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="SQL" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'LeetCode Algorithm'!$A$1:$I$1257</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'LeetCode Algorithm'!$A$1:$I$1270</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6470" uniqueCount="2437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6510" uniqueCount="2453">
   <si>
     <t>Difficulty</t>
   </si>
@@ -7345,6 +7345,54 @@
   </si>
   <si>
     <t>Shortest Path</t>
+  </si>
+  <si>
+    <t>Increasing Decreasing String</t>
+  </si>
+  <si>
+    <t>Count characters then scan bi-directions</t>
+  </si>
+  <si>
+    <t>Find the Longest Substring Containing Vowels in Even Counts </t>
+  </si>
+  <si>
+    <t>Track vowels in one integter, odd bit 1, even bit 0</t>
+  </si>
+  <si>
+    <t>Longest ZigZag Path in a Binary Tree</t>
+  </si>
+  <si>
+    <t>Track zip path to the node and start new path on each node</t>
+  </si>
+  <si>
+    <t>Maximum Sum BST in Binary Tree</t>
+  </si>
+  <si>
+    <t>Track each sub tree for min, max, is_bst, max_sum and sum</t>
+  </si>
+  <si>
+    <t>Generate a String With Characters That Have Odd Counts  </t>
+  </si>
+  <si>
+    <t>Bulb Switcher III </t>
+  </si>
+  <si>
+    <t>Time Needed to Inform All Employees </t>
+  </si>
+  <si>
+    <t>Frog Position After T Seconds</t>
+  </si>
+  <si>
+    <t>Generate n of 'a' if n is odd, otherwise with n-1 of 'a and 1 'b'</t>
+  </si>
+  <si>
+    <t>Compare maximum number and total number if match it is blue.</t>
+  </si>
+  <si>
+    <t>BFS traverse</t>
+  </si>
+  <si>
+    <t>BFS traverse and push probability down.</t>
   </si>
 </sst>
 </file>
@@ -7389,7 +7437,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -7416,6 +7464,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -7812,10 +7861,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I1257"/>
+  <dimension ref="A1:I1270"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1232" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G1254" sqref="G1254"/>
+    <sheetView tabSelected="1" topLeftCell="C1248" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G1262" sqref="G1262"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -36394,35 +36443,234 @@
       </c>
     </row>
     <row r="1255" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1255" s="1"/>
-    </row>
-    <row r="1256" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A1256" s="32" t="s">
+      <c r="A1255" s="28">
+        <v>1370</v>
+      </c>
+      <c r="B1255" s="1" t="s">
+        <v>2437</v>
+      </c>
+      <c r="C1255" s="28">
+        <v>2</v>
+      </c>
+      <c r="D1255" s="28" t="s">
+        <v>1725</v>
+      </c>
+      <c r="E1255" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1255" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1255" s="28" t="s">
+        <v>2438</v>
+      </c>
+    </row>
+    <row r="1256" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1256" s="32">
+        <v>1371</v>
+      </c>
+      <c r="B1256" s="1" t="s">
+        <v>2439</v>
+      </c>
+      <c r="C1256" s="32">
+        <v>4</v>
+      </c>
+      <c r="D1256" s="32" t="s">
+        <v>1789</v>
+      </c>
+      <c r="E1256" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1256" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1256" s="32" t="s">
+        <v>2440</v>
+      </c>
+    </row>
+    <row r="1257" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1257" s="32">
+        <v>1372</v>
+      </c>
+      <c r="B1257" s="1" t="s">
+        <v>2441</v>
+      </c>
+      <c r="C1257" s="32">
+        <v>3</v>
+      </c>
+      <c r="D1257" s="32" t="s">
+        <v>1725</v>
+      </c>
+      <c r="E1257" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1257" s="32" t="s">
+        <v>140</v>
+      </c>
+      <c r="G1257" s="32" t="s">
+        <v>2442</v>
+      </c>
+    </row>
+    <row r="1258" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1258" s="32">
+        <v>1373</v>
+      </c>
+      <c r="B1258" s="1" t="s">
+        <v>2443</v>
+      </c>
+      <c r="C1258" s="32">
+        <v>4</v>
+      </c>
+      <c r="D1258" s="32" t="s">
+        <v>1789</v>
+      </c>
+      <c r="E1258" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1258" s="32" t="s">
+        <v>140</v>
+      </c>
+      <c r="G1258" s="32" t="s">
+        <v>2444</v>
+      </c>
+    </row>
+    <row r="1259" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1259" s="32">
+        <v>1374</v>
+      </c>
+      <c r="B1259" s="1" t="s">
+        <v>2445</v>
+      </c>
+      <c r="C1259" s="32">
+        <v>1</v>
+      </c>
+      <c r="D1259" s="32" t="s">
+        <v>1718</v>
+      </c>
+      <c r="E1259" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1259" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1259" s="32" t="s">
+        <v>2449</v>
+      </c>
+    </row>
+    <row r="1260" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1260" s="32">
+        <v>1375</v>
+      </c>
+      <c r="B1260" s="1" t="s">
+        <v>2446</v>
+      </c>
+      <c r="C1260" s="32">
+        <v>2</v>
+      </c>
+      <c r="D1260" s="32" t="s">
+        <v>1723</v>
+      </c>
+      <c r="E1260" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1260" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1260" s="32" t="s">
+        <v>2450</v>
+      </c>
+    </row>
+    <row r="1261" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1261" s="32">
+        <v>1376</v>
+      </c>
+      <c r="B1261" s="1" t="s">
+        <v>2447</v>
+      </c>
+      <c r="C1261" s="32">
+        <v>2</v>
+      </c>
+      <c r="D1261" s="32" t="s">
+        <v>1725</v>
+      </c>
+      <c r="E1261" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1261" s="32" t="s">
+        <v>188</v>
+      </c>
+      <c r="G1261" s="32" t="s">
+        <v>2451</v>
+      </c>
+    </row>
+    <row r="1262" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1262" s="32">
+        <v>1377</v>
+      </c>
+      <c r="B1262" s="1" t="s">
+        <v>2448</v>
+      </c>
+      <c r="C1262" s="32">
+        <v>4</v>
+      </c>
+      <c r="D1262" s="32" t="s">
+        <v>1725</v>
+      </c>
+      <c r="E1262" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1262" s="32" t="s">
+        <v>188</v>
+      </c>
+      <c r="G1262" s="32" t="s">
+        <v>2452</v>
+      </c>
+    </row>
+    <row r="1263" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1263" s="1"/>
+    </row>
+    <row r="1264" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1264" s="1"/>
+    </row>
+    <row r="1265" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1265" s="1"/>
+    </row>
+    <row r="1266" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1266" s="1"/>
+    </row>
+    <row r="1267" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1267" s="1"/>
+    </row>
+    <row r="1268" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1268" s="1"/>
+    </row>
+    <row r="1269" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A1269" s="33" t="s">
         <v>1726</v>
       </c>
-      <c r="B1256" s="32"/>
-      <c r="C1256" s="32"/>
-      <c r="D1256" s="32"/>
-      <c r="E1256" s="32"/>
-      <c r="F1256" s="32"/>
-      <c r="G1256" s="32"/>
-    </row>
-    <row r="1257" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A1257" s="33" t="s">
+      <c r="B1269" s="33"/>
+      <c r="C1269" s="33"/>
+      <c r="D1269" s="33"/>
+      <c r="E1269" s="33"/>
+      <c r="F1269" s="33"/>
+      <c r="G1269" s="33"/>
+    </row>
+    <row r="1270" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A1270" s="34" t="s">
         <v>1774</v>
       </c>
-      <c r="B1257" s="33"/>
-      <c r="C1257" s="33"/>
-      <c r="D1257" s="33"/>
-      <c r="E1257" s="33"/>
-      <c r="F1257" s="33"/>
-      <c r="G1257" s="33"/>
+      <c r="B1270" s="34"/>
+      <c r="C1270" s="34"/>
+      <c r="D1270" s="34"/>
+      <c r="E1270" s="34"/>
+      <c r="F1270" s="34"/>
+      <c r="G1270" s="34"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I1257" xr:uid="{CB07CE66-8F15-46FF-A90A-43FDB2DB428F}"/>
+  <autoFilter ref="A1:I1270" xr:uid="{CB07CE66-8F15-46FF-A90A-43FDB2DB428F}"/>
   <mergeCells count="2">
-    <mergeCell ref="A1256:G1256"/>
-    <mergeCell ref="A1257:G1257"/>
+    <mergeCell ref="A1269:G1269"/>
+    <mergeCell ref="A1270:G1270"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" display="https://leetcode.com/problems/zigzag-conversion" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -37658,10 +37906,18 @@
     <hyperlink ref="B1254" r:id="rId1231" display="https://leetcode.com/problems/minimum-cost-to-make-at-least-one-valid-path-in-a-grid" xr:uid="{21C08E67-8A43-4FC1-A6BE-43A8166C19DD}"/>
     <hyperlink ref="B1253" r:id="rId1232" display="https://leetcode.com/problems/linked-list-in-binary-tree" xr:uid="{EE2E1533-FBBC-413D-B4E9-A7ABABA2CA1C}"/>
     <hyperlink ref="B1252" r:id="rId1233" display="https://leetcode.com/problems/rank-teams-by-votes" xr:uid="{41B782C6-3BAE-46D0-90F5-06193608D44B}"/>
+    <hyperlink ref="B1255" r:id="rId1234" display="https://leetcode.com/problems/increasing-decreasing-string" xr:uid="{CDA46885-8CC7-4155-B12E-DB91030F16E8}"/>
+    <hyperlink ref="B1256" r:id="rId1235" display="https://leetcode.com/problems/find-the-longest-substring-containing-vowels-in-even-counts" xr:uid="{31E1A509-E473-4C53-8FEA-D67FC128176F}"/>
+    <hyperlink ref="B1257" r:id="rId1236" display="https://leetcode.com/problems/longest-zigzag-path-in-a-binary-tree" xr:uid="{C9A58353-13E9-4E5C-88FE-B8C594B13828}"/>
+    <hyperlink ref="B1258" r:id="rId1237" display="https://leetcode.com/problems/maximum-sum-bst-in-binary-tree" xr:uid="{1AA0DE33-08C6-4F18-AF57-59A7591FFA99}"/>
+    <hyperlink ref="B1259" r:id="rId1238" display="https://leetcode.com/problems/generate-a-string-with-characters-that-have-odd-counts" xr:uid="{69F9EC09-8ED3-416A-B620-306C4887DB57}"/>
+    <hyperlink ref="B1260" r:id="rId1239" display="https://leetcode.com/problems/bulb-switcher-iii" xr:uid="{8B374B2E-5C72-4587-BA50-477439E0E6B5}"/>
+    <hyperlink ref="B1261" r:id="rId1240" display="https://leetcode.com/problems/time-needed-to-inform-all-employees" xr:uid="{611D8E2E-2766-414D-9C51-22011FCC611A}"/>
+    <hyperlink ref="B1262" r:id="rId1241" display="https://leetcode.com/problems/frog-position-after-t-seconds" xr:uid="{57A05605-B4E8-4EA9-AACA-428B8496F399}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1234"/>
-  <drawing r:id="rId1235"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1242"/>
+  <drawing r:id="rId1243"/>
 </worksheet>
 </file>
 

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huanminw\Documents\GitHub\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{709826F7-9119-461E-868C-00CBD53B05C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6244FA91-547E-4408-A622-48AA1ED7C3E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="SQL" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'LeetCode Algorithm'!$A$1:$I$1270</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'LeetCode Algorithm'!$A$1:$I$1287</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6510" uniqueCount="2453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6575" uniqueCount="2477">
   <si>
     <t>Difficulty</t>
   </si>
@@ -7393,6 +7393,78 @@
   </si>
   <si>
     <t>BFS traverse and push probability down.</t>
+  </si>
+  <si>
+    <t>Find a Corresponding Node of a Binary Tree in a Clone of That Tree</t>
+  </si>
+  <si>
+    <t>Traverse both tree in the same manner</t>
+  </si>
+  <si>
+    <t>Lucky Numbers in a Matrix </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Track minimum in row, maximum in column </t>
+  </si>
+  <si>
+    <t>Design a Stack With Increment Operation</t>
+  </si>
+  <si>
+    <t>Balance a Binary Search Tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sort and divide </t>
+  </si>
+  <si>
+    <t>Maximum Performance of a Team</t>
+  </si>
+  <si>
+    <t>Select high efficient persons to build a team, and replace with higher speed and compare on the way.</t>
+  </si>
+  <si>
+    <t>Find the Distance Value Between Two Arrays</t>
+  </si>
+  <si>
+    <t>binary sort position for new number, compare target number before and after.</t>
+  </si>
+  <si>
+    <t>Cinema Seat Allocation </t>
+  </si>
+  <si>
+    <t>Store rows in hashtable, mark seat as bit map.</t>
+  </si>
+  <si>
+    <t>Sort Integers by The Power Value</t>
+  </si>
+  <si>
+    <t>Calculate power value then sort.</t>
+  </si>
+  <si>
+    <t>Pizza With 3n Slices  </t>
+  </si>
+  <si>
+    <t>At each position from left to right, eat at most N/3 pipe, think loop</t>
+  </si>
+  <si>
+    <t>Create Target Array in the Given Order</t>
+  </si>
+  <si>
+    <t>Shift items</t>
+  </si>
+  <si>
+    <t>Longest Happy Prefix</t>
+  </si>
+  <si>
+    <t>Check if There is a Valid Path in a Grid </t>
+  </si>
+  <si>
+    <t>Four Divisors</t>
+  </si>
+  <si>
+    <t>Calculate Divisor and sort</t>
+  </si>
+  <si>
+    <t>Match street in each direction</t>
   </si>
 </sst>
 </file>
@@ -7437,7 +7509,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -7464,6 +7536,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -7861,10 +7934,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I1270"/>
+  <dimension ref="A1:I1287"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1248" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G1262" sqref="G1262"/>
+    <sheetView tabSelected="1" topLeftCell="C1263" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G1281" sqref="G1281"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -25973,7 +26046,7 @@
         <v>5</v>
       </c>
       <c r="D806" t="s">
-        <v>1725</v>
+        <v>1789</v>
       </c>
       <c r="E806" t="s">
         <v>12</v>
@@ -36627,50 +36700,361 @@
       </c>
     </row>
     <row r="1263" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1263" s="1"/>
+      <c r="A1263" s="32">
+        <v>1379</v>
+      </c>
+      <c r="B1263" s="1" t="s">
+        <v>2453</v>
+      </c>
+      <c r="C1263" s="32">
+        <v>2</v>
+      </c>
+      <c r="D1263" s="32" t="s">
+        <v>1718</v>
+      </c>
+      <c r="E1263" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1263" s="32" t="s">
+        <v>140</v>
+      </c>
+      <c r="G1263" s="32" t="s">
+        <v>2454</v>
+      </c>
     </row>
     <row r="1264" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1264" s="1"/>
+      <c r="A1264" s="32">
+        <v>1380</v>
+      </c>
+      <c r="B1264" s="1" t="s">
+        <v>2455</v>
+      </c>
+      <c r="C1264" s="32">
+        <v>2</v>
+      </c>
+      <c r="D1264" s="32" t="s">
+        <v>1725</v>
+      </c>
+      <c r="E1264" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1264" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1264" s="32" t="s">
+        <v>2456</v>
+      </c>
     </row>
     <row r="1265" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1265" s="1"/>
+      <c r="A1265" s="32">
+        <v>1381</v>
+      </c>
+      <c r="B1265" s="1" t="s">
+        <v>2457</v>
+      </c>
+      <c r="C1265" s="32">
+        <v>2</v>
+      </c>
+      <c r="D1265" s="32" t="s">
+        <v>1725</v>
+      </c>
+      <c r="E1265" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1265" s="32" t="s">
+        <v>459</v>
+      </c>
+      <c r="G1265" s="32" t="s">
+        <v>2390</v>
+      </c>
     </row>
     <row r="1266" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1266" s="1"/>
+      <c r="A1266" s="32">
+        <v>1382</v>
+      </c>
+      <c r="B1266" s="1" t="s">
+        <v>2458</v>
+      </c>
+      <c r="C1266" s="32">
+        <v>3</v>
+      </c>
+      <c r="D1266" s="32" t="s">
+        <v>1725</v>
+      </c>
+      <c r="E1266" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1266" s="32" t="s">
+        <v>140</v>
+      </c>
+      <c r="G1266" s="32" t="s">
+        <v>2459</v>
+      </c>
     </row>
     <row r="1267" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1267" s="1"/>
-    </row>
-    <row r="1268" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1268" s="1"/>
-    </row>
-    <row r="1269" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A1269" s="33" t="s">
+      <c r="A1267" s="32">
+        <v>1383</v>
+      </c>
+      <c r="B1267" s="1" t="s">
+        <v>2460</v>
+      </c>
+      <c r="C1267" s="32">
+        <v>5</v>
+      </c>
+      <c r="D1267" s="32" t="s">
+        <v>1789</v>
+      </c>
+      <c r="E1267" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1267" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="G1267" s="32" t="s">
+        <v>2461</v>
+      </c>
+    </row>
+    <row r="1268" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1268" s="33">
+        <v>1385</v>
+      </c>
+      <c r="B1268" s="1" t="s">
+        <v>2462</v>
+      </c>
+      <c r="C1268" s="33">
+        <v>2</v>
+      </c>
+      <c r="D1268" s="33" t="s">
+        <v>1725</v>
+      </c>
+      <c r="E1268" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1268" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1268" s="33" t="s">
+        <v>2463</v>
+      </c>
+    </row>
+    <row r="1269" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1269" s="33">
+        <v>1386</v>
+      </c>
+      <c r="B1269" s="1" t="s">
+        <v>2464</v>
+      </c>
+      <c r="C1269" s="33">
+        <v>3</v>
+      </c>
+      <c r="D1269" s="33" t="s">
+        <v>1725</v>
+      </c>
+      <c r="E1269" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1269" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1269" s="33" t="s">
+        <v>2465</v>
+      </c>
+    </row>
+    <row r="1270" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1270" s="33">
+        <v>1387</v>
+      </c>
+      <c r="B1270" s="1" t="s">
+        <v>2466</v>
+      </c>
+      <c r="C1270" s="33">
+        <v>2</v>
+      </c>
+      <c r="D1270" s="33" t="s">
+        <v>1718</v>
+      </c>
+      <c r="E1270" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1270" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1270" s="33" t="s">
+        <v>2467</v>
+      </c>
+    </row>
+    <row r="1271" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1271" s="33">
+        <v>1388</v>
+      </c>
+      <c r="B1271" s="1" t="s">
+        <v>2468</v>
+      </c>
+      <c r="C1271" s="33">
+        <v>5</v>
+      </c>
+      <c r="D1271" s="33" t="s">
+        <v>1778</v>
+      </c>
+      <c r="E1271" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1271" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1271" s="33" t="s">
+        <v>2469</v>
+      </c>
+    </row>
+    <row r="1272" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1272" s="33">
+        <v>1389</v>
+      </c>
+      <c r="B1272" s="1" t="s">
+        <v>2470</v>
+      </c>
+      <c r="C1272" s="33">
+        <v>3</v>
+      </c>
+      <c r="D1272" s="33" t="s">
+        <v>1781</v>
+      </c>
+      <c r="E1272" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1272" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1272" s="33" t="s">
+        <v>2471</v>
+      </c>
+    </row>
+    <row r="1273" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1273" s="33">
+        <v>1390</v>
+      </c>
+      <c r="B1273" s="1" t="s">
+        <v>2474</v>
+      </c>
+      <c r="C1273" s="33">
+        <v>2</v>
+      </c>
+      <c r="D1273" s="33" t="s">
+        <v>1718</v>
+      </c>
+      <c r="E1273" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1273" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1273" s="33" t="s">
+        <v>2475</v>
+      </c>
+    </row>
+    <row r="1274" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1274" s="33">
+        <v>1391</v>
+      </c>
+      <c r="B1274" s="1" t="s">
+        <v>2473</v>
+      </c>
+      <c r="C1274" s="33">
+        <v>3</v>
+      </c>
+      <c r="D1274" s="33" t="s">
+        <v>1718</v>
+      </c>
+      <c r="E1274" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1274" s="33" t="s">
+        <v>151</v>
+      </c>
+      <c r="G1274" s="33" t="s">
+        <v>2476</v>
+      </c>
+    </row>
+    <row r="1275" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1275" s="33">
+        <v>1392</v>
+      </c>
+      <c r="B1275" s="1" t="s">
+        <v>2472</v>
+      </c>
+      <c r="C1275" s="33">
+        <v>4</v>
+      </c>
+      <c r="D1275" s="33" t="s">
+        <v>1789</v>
+      </c>
+      <c r="E1275" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1275" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1275" s="33" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="1276" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1276" s="1"/>
+    </row>
+    <row r="1277" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1277" s="1"/>
+    </row>
+    <row r="1278" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1278" s="1"/>
+    </row>
+    <row r="1279" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1279" s="1"/>
+    </row>
+    <row r="1280" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1280" s="1"/>
+    </row>
+    <row r="1281" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1281" s="1"/>
+    </row>
+    <row r="1282" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1282" s="1"/>
+    </row>
+    <row r="1283" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1283" s="1"/>
+    </row>
+    <row r="1284" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1284" s="1"/>
+    </row>
+    <row r="1285" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1285" s="1"/>
+    </row>
+    <row r="1286" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A1286" s="34" t="s">
         <v>1726</v>
       </c>
-      <c r="B1269" s="33"/>
-      <c r="C1269" s="33"/>
-      <c r="D1269" s="33"/>
-      <c r="E1269" s="33"/>
-      <c r="F1269" s="33"/>
-      <c r="G1269" s="33"/>
-    </row>
-    <row r="1270" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A1270" s="34" t="s">
+      <c r="B1286" s="34"/>
+      <c r="C1286" s="34"/>
+      <c r="D1286" s="34"/>
+      <c r="E1286" s="34"/>
+      <c r="F1286" s="34"/>
+      <c r="G1286" s="34"/>
+    </row>
+    <row r="1287" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A1287" s="35" t="s">
         <v>1774</v>
       </c>
-      <c r="B1270" s="34"/>
-      <c r="C1270" s="34"/>
-      <c r="D1270" s="34"/>
-      <c r="E1270" s="34"/>
-      <c r="F1270" s="34"/>
-      <c r="G1270" s="34"/>
+      <c r="B1287" s="35"/>
+      <c r="C1287" s="35"/>
+      <c r="D1287" s="35"/>
+      <c r="E1287" s="35"/>
+      <c r="F1287" s="35"/>
+      <c r="G1287" s="35"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I1270" xr:uid="{CB07CE66-8F15-46FF-A90A-43FDB2DB428F}"/>
+  <autoFilter ref="A1:I1287" xr:uid="{CB07CE66-8F15-46FF-A90A-43FDB2DB428F}"/>
   <mergeCells count="2">
-    <mergeCell ref="A1269:G1269"/>
-    <mergeCell ref="A1270:G1270"/>
+    <mergeCell ref="A1286:G1286"/>
+    <mergeCell ref="A1287:G1287"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" display="https://leetcode.com/problems/zigzag-conversion" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -37914,10 +38298,22 @@
     <hyperlink ref="B1260" r:id="rId1239" display="https://leetcode.com/problems/bulb-switcher-iii" xr:uid="{8B374B2E-5C72-4587-BA50-477439E0E6B5}"/>
     <hyperlink ref="B1261" r:id="rId1240" display="https://leetcode.com/problems/time-needed-to-inform-all-employees" xr:uid="{611D8E2E-2766-414D-9C51-22011FCC611A}"/>
     <hyperlink ref="B1262" r:id="rId1241" display="https://leetcode.com/problems/frog-position-after-t-seconds" xr:uid="{57A05605-B4E8-4EA9-AACA-428B8496F399}"/>
+    <hyperlink ref="B1263" r:id="rId1242" display="https://leetcode.com/problems/find-a-corresponding-node-of-a-binary-tree-in-a-clone-of-that-tree" xr:uid="{28103CA2-030D-4D1B-953D-4F8068FC0B5A}"/>
+    <hyperlink ref="B1264" r:id="rId1243" display="https://leetcode.com/problems/lucky-numbers-in-a-matrix" xr:uid="{D5EF1A0A-73AB-422F-82DE-770156BA09B9}"/>
+    <hyperlink ref="B1265" r:id="rId1244" display="https://leetcode.com/problems/design-a-stack-with-increment-operation" xr:uid="{C9684CA7-65F7-462D-B1D4-7B3E173A2C5B}"/>
+    <hyperlink ref="B1266" r:id="rId1245" display="https://leetcode.com/problems/balance-a-binary-search-tree" xr:uid="{9BFD1ED5-573B-457E-95B4-02ED8F0A1432}"/>
+    <hyperlink ref="B1267" r:id="rId1246" display="https://leetcode.com/problems/maximum-performance-of-a-team" xr:uid="{DBB8089C-B7DE-4225-9724-2D9225E73E1E}"/>
+    <hyperlink ref="B1268" r:id="rId1247" display="https://leetcode.com/problems/find-the-distance-value-between-two-arrays" xr:uid="{DA68A7F6-E2A6-4DDB-B2C4-46B957A9FC91}"/>
+    <hyperlink ref="B1269" r:id="rId1248" display="https://leetcode.com/problems/cinema-seat-allocation" xr:uid="{509764E6-B929-4CE7-A00A-5415A239B267}"/>
+    <hyperlink ref="B1271" r:id="rId1249" display="https://leetcode.com/problems/pizza-with-3n-slices" xr:uid="{4506C7CD-8322-4EE1-AB3A-9D82FCA2810C}"/>
+    <hyperlink ref="B1272" r:id="rId1250" display="https://leetcode.com/problems/create-target-array-in-the-given-order" xr:uid="{1C167BDD-CAAF-4DFF-A3C4-999BEB52E5FE}"/>
+    <hyperlink ref="B1275" r:id="rId1251" display="https://leetcode.com/problems/longest-happy-prefix" xr:uid="{D87E58C6-FEF4-4E55-82BB-5AAC04C0E64D}"/>
+    <hyperlink ref="B1274" r:id="rId1252" display="https://leetcode.com/problems/check-if-there-is-a-valid-path-in-a-grid" xr:uid="{7E49F676-C0F1-4972-A860-E1D0F82C759C}"/>
+    <hyperlink ref="B1273" r:id="rId1253" display="https://leetcode.com/problems/four-divisors" xr:uid="{10A1DF66-8337-4A9B-9842-D2A00771776E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1242"/>
-  <drawing r:id="rId1243"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1254"/>
+  <drawing r:id="rId1255"/>
 </worksheet>
 </file>
 

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huanminw\Documents\GitHub\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6244FA91-547E-4408-A622-48AA1ED7C3E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C3F62E6-363E-4D62-8B36-8460130FB550}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6575" uniqueCount="2477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6595" uniqueCount="2485">
   <si>
     <t>Difficulty</t>
   </si>
@@ -7465,6 +7465,30 @@
   </si>
   <si>
     <t>Match street in each direction</t>
+  </si>
+  <si>
+    <t>Find Lucky Integer in an Array</t>
+  </si>
+  <si>
+    <t>Count numbers</t>
+  </si>
+  <si>
+    <t>Count Number of Teams</t>
+  </si>
+  <si>
+    <t>Count all previous numbers on how many higher and how many lower.</t>
+  </si>
+  <si>
+    <t>Design Underground System</t>
+  </si>
+  <si>
+    <t>Find All Good Strings</t>
+  </si>
+  <si>
+    <t>Track check in by person and trip by source and destination</t>
+  </si>
+  <si>
+    <t>Traverse from s1 to s2, set cache with index, pre_s1, pre_s2 and evil index.</t>
   </si>
 </sst>
 </file>
@@ -7937,7 +7961,7 @@
   <dimension ref="A1:I1287"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1263" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G1281" sqref="G1281"/>
+      <selection activeCell="G1279" sqref="G1279"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -36999,16 +37023,96 @@
       </c>
     </row>
     <row r="1276" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1276" s="1"/>
+      <c r="A1276" s="33">
+        <v>1394</v>
+      </c>
+      <c r="B1276" s="1" t="s">
+        <v>2477</v>
+      </c>
+      <c r="C1276" s="33">
+        <v>2</v>
+      </c>
+      <c r="D1276" s="33" t="s">
+        <v>1725</v>
+      </c>
+      <c r="E1276" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1276" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1276" s="33" t="s">
+        <v>2478</v>
+      </c>
     </row>
     <row r="1277" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1277" s="1"/>
+      <c r="A1277" s="33">
+        <v>1395</v>
+      </c>
+      <c r="B1277" s="1" t="s">
+        <v>2479</v>
+      </c>
+      <c r="C1277" s="33">
+        <v>3</v>
+      </c>
+      <c r="D1277" s="33" t="s">
+        <v>1725</v>
+      </c>
+      <c r="E1277" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1277" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1277" s="33" t="s">
+        <v>2480</v>
+      </c>
     </row>
     <row r="1278" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1278" s="1"/>
+      <c r="A1278" s="33">
+        <v>1396</v>
+      </c>
+      <c r="B1278" s="1" t="s">
+        <v>2481</v>
+      </c>
+      <c r="C1278" s="33">
+        <v>3</v>
+      </c>
+      <c r="D1278" s="33" t="s">
+        <v>1725</v>
+      </c>
+      <c r="E1278" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1278" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="G1278" s="33" t="s">
+        <v>2483</v>
+      </c>
     </row>
     <row r="1279" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1279" s="1"/>
+      <c r="A1279" s="33">
+        <v>1397</v>
+      </c>
+      <c r="B1279" s="1" t="s">
+        <v>2482</v>
+      </c>
+      <c r="C1279" s="33">
+        <v>6</v>
+      </c>
+      <c r="D1279" s="33" t="s">
+        <v>1729</v>
+      </c>
+      <c r="E1279" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1279" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="G1279" s="33" t="s">
+        <v>2484</v>
+      </c>
     </row>
     <row r="1280" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B1280" s="1"/>
@@ -38310,10 +38414,14 @@
     <hyperlink ref="B1275" r:id="rId1251" display="https://leetcode.com/problems/longest-happy-prefix" xr:uid="{D87E58C6-FEF4-4E55-82BB-5AAC04C0E64D}"/>
     <hyperlink ref="B1274" r:id="rId1252" display="https://leetcode.com/problems/check-if-there-is-a-valid-path-in-a-grid" xr:uid="{7E49F676-C0F1-4972-A860-E1D0F82C759C}"/>
     <hyperlink ref="B1273" r:id="rId1253" display="https://leetcode.com/problems/four-divisors" xr:uid="{10A1DF66-8337-4A9B-9842-D2A00771776E}"/>
+    <hyperlink ref="B1276" r:id="rId1254" display="https://leetcode.com/problems/find-lucky-integer-in-an-array" xr:uid="{571A4E39-7C58-4967-BCD9-EAB8E71A17A6}"/>
+    <hyperlink ref="B1277" r:id="rId1255" display="https://leetcode.com/problems/count-number-of-teams" xr:uid="{B79A9531-BC29-4B49-BB06-F33CB019F3E2}"/>
+    <hyperlink ref="B1278" r:id="rId1256" display="https://leetcode.com/problems/design-underground-system" xr:uid="{4A98A7F1-8E28-4318-B720-062281E301C4}"/>
+    <hyperlink ref="B1279" r:id="rId1257" display="https://leetcode.com/problems/find-all-good-strings" xr:uid="{01A26440-9FFA-425B-AE8A-A28B9781BDA4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1254"/>
-  <drawing r:id="rId1255"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1258"/>
+  <drawing r:id="rId1259"/>
 </worksheet>
 </file>
 

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huanminw\Documents\GitHub\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C3F62E6-363E-4D62-8B36-8460130FB550}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AABD1831-54AD-4792-84AC-AE9457918587}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,9 +17,10 @@
     <sheet name="SQL" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'LeetCode Algorithm'!$A$1:$I$1287</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'LeetCode Algorithm'!$A$1:$I$1290</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6595" uniqueCount="2485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6635" uniqueCount="2501">
   <si>
     <t>Difficulty</t>
   </si>
@@ -7489,6 +7490,54 @@
   </si>
   <si>
     <t>Traverse from s1 to s2, set cache with index, pre_s1, pre_s2 and evil index.</t>
+  </si>
+  <si>
+    <t>Count Largest Group</t>
+  </si>
+  <si>
+    <t>Count the sum of digits</t>
+  </si>
+  <si>
+    <t>Construct K Palindrome Strings</t>
+  </si>
+  <si>
+    <t>Based on odd and even, count minimum and maximum palindromes from each character.</t>
+  </si>
+  <si>
+    <t>Circle and Rectangle Overlapping </t>
+  </si>
+  <si>
+    <t>Check if circle cut edge, also consider circle cover square or square cover circle.</t>
+  </si>
+  <si>
+    <t>Reducing Dishes</t>
+  </si>
+  <si>
+    <t>Sort satisfactions, scan from most high satisfactions</t>
+  </si>
+  <si>
+    <t>Minimum Subsequence in Non-Increasing Order</t>
+  </si>
+  <si>
+    <t>Sort the number from high to low.</t>
+  </si>
+  <si>
+    <t>Number of Steps to Reduce a Number in Binary Representation to One</t>
+  </si>
+  <si>
+    <t>Add one in string simulation.</t>
+  </si>
+  <si>
+    <t>Longest Happy String </t>
+  </si>
+  <si>
+    <t>schedule highest count characters if no violation.</t>
+  </si>
+  <si>
+    <t>Stone Game III</t>
+  </si>
+  <si>
+    <t>Scan from right to left, calculate maximum score on each position.</t>
   </si>
 </sst>
 </file>
@@ -7533,7 +7582,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -7560,6 +7609,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -7958,10 +8009,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I1287"/>
+  <dimension ref="A1:I1290"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1263" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G1279" sqref="G1279"/>
+    <sheetView tabSelected="1" topLeftCell="C1272" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G1278" sqref="G1278"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -37115,50 +37166,219 @@
       </c>
     </row>
     <row r="1280" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1280" s="1"/>
+      <c r="A1280" s="33">
+        <v>1399</v>
+      </c>
+      <c r="B1280" s="1" t="s">
+        <v>2485</v>
+      </c>
+      <c r="C1280" s="33">
+        <v>2</v>
+      </c>
+      <c r="D1280" s="33" t="s">
+        <v>1781</v>
+      </c>
+      <c r="E1280" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1280" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1280" s="33" t="s">
+        <v>2486</v>
+      </c>
     </row>
     <row r="1281" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1281" s="1"/>
+      <c r="A1281" s="33">
+        <v>1400</v>
+      </c>
+      <c r="B1281" s="1" t="s">
+        <v>2487</v>
+      </c>
+      <c r="C1281" s="33">
+        <v>3</v>
+      </c>
+      <c r="D1281" s="33" t="s">
+        <v>1740</v>
+      </c>
+      <c r="E1281" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1281" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1281" s="33" t="s">
+        <v>2488</v>
+      </c>
     </row>
     <row r="1282" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1282" s="1"/>
+      <c r="A1282" s="33">
+        <v>1401</v>
+      </c>
+      <c r="B1282" s="1" t="s">
+        <v>2489</v>
+      </c>
+      <c r="C1282" s="33">
+        <v>3</v>
+      </c>
+      <c r="D1282" s="33" t="s">
+        <v>1723</v>
+      </c>
+      <c r="E1282" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1282" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1282" s="33" t="s">
+        <v>2490</v>
+      </c>
     </row>
     <row r="1283" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1283" s="1"/>
-    </row>
-    <row r="1284" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1284" s="1"/>
-    </row>
-    <row r="1285" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1285" s="1"/>
-    </row>
-    <row r="1286" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A1286" s="34" t="s">
+      <c r="A1283" s="33">
+        <v>1402</v>
+      </c>
+      <c r="B1283" s="1" t="s">
+        <v>2491</v>
+      </c>
+      <c r="C1283" s="33">
+        <v>4</v>
+      </c>
+      <c r="D1283" s="33" t="s">
+        <v>1740</v>
+      </c>
+      <c r="E1283" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1283" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1283" s="33" t="s">
+        <v>2492</v>
+      </c>
+    </row>
+    <row r="1284" spans="1:7" s="34" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1284" s="34">
+        <v>1403</v>
+      </c>
+      <c r="B1284" s="1" t="s">
+        <v>2493</v>
+      </c>
+      <c r="C1284" s="34">
+        <v>2</v>
+      </c>
+      <c r="D1284" s="34" t="s">
+        <v>1725</v>
+      </c>
+      <c r="E1284" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1284" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1284" s="34" t="s">
+        <v>2494</v>
+      </c>
+    </row>
+    <row r="1285" spans="1:7" s="34" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1285" s="34">
+        <v>1404</v>
+      </c>
+      <c r="B1285" s="1" t="s">
+        <v>2495</v>
+      </c>
+      <c r="C1285" s="34">
+        <v>2</v>
+      </c>
+      <c r="D1285" s="34" t="s">
+        <v>1725</v>
+      </c>
+      <c r="E1285" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1285" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1285" s="34" t="s">
+        <v>2496</v>
+      </c>
+    </row>
+    <row r="1286" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1286" s="33">
+        <v>1405</v>
+      </c>
+      <c r="B1286" s="1" t="s">
+        <v>2497</v>
+      </c>
+      <c r="C1286" s="33">
+        <v>3</v>
+      </c>
+      <c r="D1286" s="33" t="s">
+        <v>1963</v>
+      </c>
+      <c r="E1286" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1286" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="G1286" s="33" t="s">
+        <v>2498</v>
+      </c>
+    </row>
+    <row r="1287" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1287" s="32">
+        <v>1406</v>
+      </c>
+      <c r="B1287" s="1" t="s">
+        <v>2499</v>
+      </c>
+      <c r="C1287" s="32">
+        <v>4</v>
+      </c>
+      <c r="D1287" s="32" t="s">
+        <v>1789</v>
+      </c>
+      <c r="E1287" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1287" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1287" s="32" t="s">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="1288" spans="1:7" s="35" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1288" s="1"/>
+    </row>
+    <row r="1289" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A1289" s="36" t="s">
         <v>1726</v>
       </c>
-      <c r="B1286" s="34"/>
-      <c r="C1286" s="34"/>
-      <c r="D1286" s="34"/>
-      <c r="E1286" s="34"/>
-      <c r="F1286" s="34"/>
-      <c r="G1286" s="34"/>
-    </row>
-    <row r="1287" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A1287" s="35" t="s">
+      <c r="B1289" s="36"/>
+      <c r="C1289" s="36"/>
+      <c r="D1289" s="36"/>
+      <c r="E1289" s="36"/>
+      <c r="F1289" s="36"/>
+      <c r="G1289" s="36"/>
+    </row>
+    <row r="1290" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A1290" s="37" t="s">
         <v>1774</v>
       </c>
-      <c r="B1287" s="35"/>
-      <c r="C1287" s="35"/>
-      <c r="D1287" s="35"/>
-      <c r="E1287" s="35"/>
-      <c r="F1287" s="35"/>
-      <c r="G1287" s="35"/>
+      <c r="B1290" s="37"/>
+      <c r="C1290" s="37"/>
+      <c r="D1290" s="37"/>
+      <c r="E1290" s="37"/>
+      <c r="F1290" s="37"/>
+      <c r="G1290" s="37"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I1287" xr:uid="{CB07CE66-8F15-46FF-A90A-43FDB2DB428F}"/>
+  <autoFilter ref="A1:I1290" xr:uid="{CB07CE66-8F15-46FF-A90A-43FDB2DB428F}"/>
   <mergeCells count="2">
-    <mergeCell ref="A1286:G1286"/>
-    <mergeCell ref="A1287:G1287"/>
+    <mergeCell ref="A1289:G1289"/>
+    <mergeCell ref="A1290:G1290"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" display="https://leetcode.com/problems/zigzag-conversion" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -38418,10 +38638,18 @@
     <hyperlink ref="B1277" r:id="rId1255" display="https://leetcode.com/problems/count-number-of-teams" xr:uid="{B79A9531-BC29-4B49-BB06-F33CB019F3E2}"/>
     <hyperlink ref="B1278" r:id="rId1256" display="https://leetcode.com/problems/design-underground-system" xr:uid="{4A98A7F1-8E28-4318-B720-062281E301C4}"/>
     <hyperlink ref="B1279" r:id="rId1257" display="https://leetcode.com/problems/find-all-good-strings" xr:uid="{01A26440-9FFA-425B-AE8A-A28B9781BDA4}"/>
+    <hyperlink ref="B1280" r:id="rId1258" display="https://leetcode.com/problems/count-largest-group" xr:uid="{C1FF8E77-5436-4509-8684-682695A5A381}"/>
+    <hyperlink ref="B1281" r:id="rId1259" display="https://leetcode.com/problems/construct-k-palindrome-strings" xr:uid="{8E864EB8-A928-4AB6-BB76-92D0C954EC77}"/>
+    <hyperlink ref="B1282" r:id="rId1260" display="https://leetcode.com/problems/circle-and-rectangle-overlapping" xr:uid="{182907E1-E2CB-409B-8041-605135899C87}"/>
+    <hyperlink ref="B1283" r:id="rId1261" display="https://leetcode.com/problems/reducing-dishes" xr:uid="{7E307760-2762-4C92-A07B-AF67E5720451}"/>
+    <hyperlink ref="B1284" r:id="rId1262" display="https://leetcode.com/problems/minimum-subsequence-in-non-increasing-order" xr:uid="{A4EFA95C-9CD3-43B8-9CD1-7AEF4EA37924}"/>
+    <hyperlink ref="B1285" r:id="rId1263" display="https://leetcode.com/problems/number-of-steps-to-reduce-a-number-in-binary-representation-to-one" xr:uid="{2A5D3056-2971-4338-B995-D8C64F6287E0}"/>
+    <hyperlink ref="B1286" r:id="rId1264" display="https://leetcode.com/problems/longest-happy-string" xr:uid="{61D584E0-F7F5-41B8-AB17-B5BC4A750BC7}"/>
+    <hyperlink ref="B1287" r:id="rId1265" display="https://leetcode.com/problems/stone-game-iii" xr:uid="{88B5A1F7-2B07-4A4D-BD33-DE58E0A386F6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1258"/>
-  <drawing r:id="rId1259"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1266"/>
+  <drawing r:id="rId1267"/>
 </worksheet>
 </file>
 

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{112058CF-4A83-4714-8C04-77C0AFE774DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4942CC02-FCDC-49FD-BF76-C636C56590C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="SQL" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'LeetCode Algorithm'!$A$1:$I$1301</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'LeetCode Algorithm'!$A$1:$I$1306</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6695" uniqueCount="2525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6715" uniqueCount="2533">
   <si>
     <t>Difficulty</t>
   </si>
@@ -7612,6 +7612,30 @@
   </si>
   <si>
     <t>build number of i element with cost k and max j based on (i-1,k,j-1)</t>
+  </si>
+  <si>
+    <t>Maximum Score After Splitting a String</t>
+  </si>
+  <si>
+    <t>Count all '1' in the string, scan from left to right, add '0' and deduct '1'.</t>
+  </si>
+  <si>
+    <t>Maximum Points You Can Obtain from Cards</t>
+  </si>
+  <si>
+    <t>Move first K characters to end and use one D sum with length of K.</t>
+  </si>
+  <si>
+    <t>Diagonal Traverse II</t>
+  </si>
+  <si>
+    <t>Track position on rows by SortedMap for sparse array.</t>
+  </si>
+  <si>
+    <t>Constrained Subset Sum</t>
+  </si>
+  <si>
+    <t>Track decreasing sum within K distance in stack</t>
   </si>
 </sst>
 </file>
@@ -7656,7 +7680,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -7683,6 +7707,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -8084,10 +8109,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I1301"/>
+  <dimension ref="A1:I1306"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1281" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A1301" sqref="A1301:G1301"/>
+    <sheetView tabSelected="1" topLeftCell="C1290" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G1303" sqref="G1303"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -37700,33 +37725,128 @@
         <v>2524</v>
       </c>
     </row>
-    <row r="1300" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1300" s="37" t="s">
+    <row r="1300" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1300" s="37">
+        <v>1422</v>
+      </c>
+      <c r="B1300" s="1" t="s">
+        <v>2525</v>
+      </c>
+      <c r="C1300" s="37">
+        <v>2</v>
+      </c>
+      <c r="D1300" s="37" t="s">
+        <v>1781</v>
+      </c>
+      <c r="E1300" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1300" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1300" s="37" t="s">
+        <v>2526</v>
+      </c>
+    </row>
+    <row r="1301" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1301" s="37">
+        <v>1423</v>
+      </c>
+      <c r="B1301" s="1" t="s">
+        <v>2527</v>
+      </c>
+      <c r="C1301" s="37">
+        <v>2</v>
+      </c>
+      <c r="D1301" s="37" t="s">
+        <v>1725</v>
+      </c>
+      <c r="E1301" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1301" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1301" s="37" t="s">
+        <v>2528</v>
+      </c>
+    </row>
+    <row r="1302" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1302" s="37">
+        <v>1424</v>
+      </c>
+      <c r="B1302" s="1" t="s">
+        <v>2529</v>
+      </c>
+      <c r="C1302" s="37">
+        <v>3</v>
+      </c>
+      <c r="D1302" s="37" t="s">
+        <v>1789</v>
+      </c>
+      <c r="E1302" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1302" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1302" s="37" t="s">
+        <v>2530</v>
+      </c>
+    </row>
+    <row r="1303" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1303" s="37">
+        <v>1425</v>
+      </c>
+      <c r="B1303" s="1" t="s">
+        <v>2531</v>
+      </c>
+      <c r="C1303" s="37">
+        <v>4</v>
+      </c>
+      <c r="D1303" s="37" t="s">
+        <v>1789</v>
+      </c>
+      <c r="E1303" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1303" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1303" s="37" t="s">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="1304" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B1304" s="1"/>
+    </row>
+    <row r="1305" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1305" s="38" t="s">
         <v>1726</v>
       </c>
-      <c r="B1300" s="37"/>
-      <c r="C1300" s="37"/>
-      <c r="D1300" s="37"/>
-      <c r="E1300" s="37"/>
-      <c r="F1300" s="37"/>
-      <c r="G1300" s="37"/>
-    </row>
-    <row r="1301" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1301" s="38" t="s">
+      <c r="B1305" s="38"/>
+      <c r="C1305" s="38"/>
+      <c r="D1305" s="38"/>
+      <c r="E1305" s="38"/>
+      <c r="F1305" s="38"/>
+      <c r="G1305" s="38"/>
+    </row>
+    <row r="1306" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1306" s="39" t="s">
         <v>1774</v>
       </c>
-      <c r="B1301" s="38"/>
-      <c r="C1301" s="38"/>
-      <c r="D1301" s="38"/>
-      <c r="E1301" s="38"/>
-      <c r="F1301" s="38"/>
-      <c r="G1301" s="38"/>
+      <c r="B1306" s="39"/>
+      <c r="C1306" s="39"/>
+      <c r="D1306" s="39"/>
+      <c r="E1306" s="39"/>
+      <c r="F1306" s="39"/>
+      <c r="G1306" s="39"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I1301" xr:uid="{CB07CE66-8F15-46FF-A90A-43FDB2DB428F}"/>
+  <autoFilter ref="A1:I1306" xr:uid="{CB07CE66-8F15-46FF-A90A-43FDB2DB428F}"/>
   <mergeCells count="2">
-    <mergeCell ref="A1300:G1300"/>
-    <mergeCell ref="A1301:G1301"/>
+    <mergeCell ref="A1305:G1305"/>
+    <mergeCell ref="A1306:G1306"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" display="https://leetcode.com/problems/zigzag-conversion" xr:uid="{00000000-0004-0000-0000-000000000000}"/>

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4942CC02-FCDC-49FD-BF76-C636C56590C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC73B094-1E4D-4D0F-A5F2-FDB587F0028D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="SQL" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'LeetCode Algorithm'!$A$1:$I$1306</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'LeetCode Algorithm'!$A$1:$I$1319</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6715" uniqueCount="2533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6780" uniqueCount="2560">
   <si>
     <t>Difficulty</t>
   </si>
@@ -7636,6 +7636,87 @@
   </si>
   <si>
     <t>Track decreasing sum within K distance in stack</t>
+  </si>
+  <si>
+    <t>Counting Elements</t>
+  </si>
+  <si>
+    <t>Track numbers in hashtable</t>
+  </si>
+  <si>
+    <t>Perform String Shifts</t>
+  </si>
+  <si>
+    <t>Calculate shift position first then do shift once.</t>
+  </si>
+  <si>
+    <t>Leftmost Column with at Least a One</t>
+  </si>
+  <si>
+    <t>Search from right top of the array, move down if 0, move left if 1.</t>
+  </si>
+  <si>
+    <t>First Unique Number</t>
+  </si>
+  <si>
+    <t>Track single and duplicates, single with position in list.</t>
+  </si>
+  <si>
+    <t>Check If a String Is a Valid Sequence from Root to Leaves Path in a Binary Tree</t>
+  </si>
+  <si>
+    <t>Preorder traverse,  should check leafs</t>
+  </si>
+  <si>
+    <t>Kids With the Greatest Number of Candies</t>
+  </si>
+  <si>
+    <t>Add any element by extra and compare with maximum.</t>
+  </si>
+  <si>
+    <t>Max Difference You Can Get From Changing an Integer</t>
+  </si>
+  <si>
+    <t>Replace number to '9' for maximum, and number to 1 or 1 for minimum.</t>
+  </si>
+  <si>
+    <t>Check If a String Can Break Another String</t>
+  </si>
+  <si>
+    <t>Sort these two string first and compare order.</t>
+  </si>
+  <si>
+    <t>Number of Ways to Wear Different Hats to Each Other</t>
+  </si>
+  <si>
+    <t>P, F</t>
+  </si>
+  <si>
+    <t>Assign each hat to person, we only have 10 people, use bit map.</t>
+  </si>
+  <si>
+    <t>Destination City</t>
+  </si>
+  <si>
+    <t>Track source city and destination city, count source</t>
+  </si>
+  <si>
+    <t>Check If All 1's Are at Least Length K Places Away</t>
+  </si>
+  <si>
+    <t>Track last 1 and calculate distance</t>
+  </si>
+  <si>
+    <t>Longest Continuous Subarray With Absolute Diff Less Than or Equal to Limit</t>
+  </si>
+  <si>
+    <t>Track maximum and minimum by mono stack</t>
+  </si>
+  <si>
+    <t>Find the Kth Smallest Sum of a Matrix With Sorted Rows</t>
+  </si>
+  <si>
+    <t>Track sum in every row and keep only size of K</t>
   </si>
 </sst>
 </file>
@@ -7680,7 +7761,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -7707,6 +7788,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -8109,10 +8191,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I1306"/>
+  <dimension ref="A1:I1319"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1290" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G1303" sqref="G1303"/>
+    <sheetView tabSelected="1" topLeftCell="A1301" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A1317" sqref="A1317"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -37817,36 +37899,335 @@
         <v>2532</v>
       </c>
     </row>
-    <row r="1304" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B1304" s="1"/>
-    </row>
-    <row r="1305" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1305" s="38" t="s">
+    <row r="1304" spans="1:7" s="38" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1304" s="38">
+        <v>1426</v>
+      </c>
+      <c r="B1304" s="1" t="s">
+        <v>2533</v>
+      </c>
+      <c r="C1304" s="38">
+        <v>1</v>
+      </c>
+      <c r="D1304" s="38" t="s">
+        <v>1781</v>
+      </c>
+      <c r="E1304" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1304" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1304" s="38" t="s">
+        <v>2534</v>
+      </c>
+    </row>
+    <row r="1305" spans="1:7" s="38" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1305" s="38">
+        <v>1427</v>
+      </c>
+      <c r="B1305" s="1" t="s">
+        <v>2535</v>
+      </c>
+      <c r="C1305" s="38">
+        <v>2</v>
+      </c>
+      <c r="D1305" s="38" t="s">
+        <v>1781</v>
+      </c>
+      <c r="E1305" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1305" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1305" s="38" t="s">
+        <v>2536</v>
+      </c>
+    </row>
+    <row r="1306" spans="1:7" s="38" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1306" s="38">
+        <v>1428</v>
+      </c>
+      <c r="B1306" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="C1306" s="38">
+        <v>2</v>
+      </c>
+      <c r="D1306" s="38" t="s">
+        <v>1789</v>
+      </c>
+      <c r="E1306" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1306" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1306" s="38" t="s">
+        <v>2538</v>
+      </c>
+    </row>
+    <row r="1307" spans="1:7" s="38" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1307" s="38">
+        <v>1429</v>
+      </c>
+      <c r="B1307" s="1" t="s">
+        <v>2539</v>
+      </c>
+      <c r="C1307" s="38">
+        <v>2</v>
+      </c>
+      <c r="D1307" s="38" t="s">
+        <v>1781</v>
+      </c>
+      <c r="E1307" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1307" s="38" t="s">
+        <v>459</v>
+      </c>
+      <c r="G1307" s="38" t="s">
+        <v>2540</v>
+      </c>
+    </row>
+    <row r="1308" spans="1:7" s="38" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1308" s="38">
+        <v>1430</v>
+      </c>
+      <c r="B1308" s="1" t="s">
+        <v>2541</v>
+      </c>
+      <c r="C1308" s="38">
+        <v>2</v>
+      </c>
+      <c r="D1308" s="38" t="s">
+        <v>1725</v>
+      </c>
+      <c r="E1308" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1308" s="38" t="s">
+        <v>140</v>
+      </c>
+      <c r="G1308" s="38" t="s">
+        <v>2542</v>
+      </c>
+    </row>
+    <row r="1309" spans="1:7" s="38" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1309" s="38">
+        <v>1431</v>
+      </c>
+      <c r="B1309" s="1" t="s">
+        <v>2543</v>
+      </c>
+      <c r="C1309" s="38">
+        <v>1</v>
+      </c>
+      <c r="D1309" s="38" t="s">
+        <v>1781</v>
+      </c>
+      <c r="E1309" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1309" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1309" s="38" t="s">
+        <v>2544</v>
+      </c>
+    </row>
+    <row r="1310" spans="1:7" s="38" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1310" s="38">
+        <v>1432</v>
+      </c>
+      <c r="B1310" s="1" t="s">
+        <v>2545</v>
+      </c>
+      <c r="C1310" s="38">
+        <v>2</v>
+      </c>
+      <c r="D1310" s="38" t="s">
+        <v>1723</v>
+      </c>
+      <c r="E1310" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1310" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1310" s="38" t="s">
+        <v>2546</v>
+      </c>
+    </row>
+    <row r="1311" spans="1:7" s="38" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1311" s="38">
+        <v>1433</v>
+      </c>
+      <c r="B1311" s="1" t="s">
+        <v>2547</v>
+      </c>
+      <c r="C1311" s="38">
+        <v>2</v>
+      </c>
+      <c r="D1311" s="38" t="s">
+        <v>2550</v>
+      </c>
+      <c r="E1311" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1311" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1311" s="38" t="s">
+        <v>2548</v>
+      </c>
+    </row>
+    <row r="1312" spans="1:7" s="38" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1312" s="38">
+        <v>1434</v>
+      </c>
+      <c r="B1312" s="1" t="s">
+        <v>2549</v>
+      </c>
+      <c r="C1312" s="38">
+        <v>4</v>
+      </c>
+      <c r="D1312" s="38" t="s">
+        <v>1725</v>
+      </c>
+      <c r="E1312" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1312" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1312" s="38" t="s">
+        <v>2551</v>
+      </c>
+    </row>
+    <row r="1313" spans="1:7" s="38" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1313" s="38">
+        <v>1436</v>
+      </c>
+      <c r="B1313" s="1" t="s">
+        <v>2552</v>
+      </c>
+      <c r="C1313" s="38">
+        <v>2</v>
+      </c>
+      <c r="D1313" s="38" t="s">
+        <v>1781</v>
+      </c>
+      <c r="E1313" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1313" s="38" t="s">
+        <v>188</v>
+      </c>
+      <c r="G1313" s="38" t="s">
+        <v>2553</v>
+      </c>
+    </row>
+    <row r="1314" spans="1:7" s="38" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1314" s="38">
+        <v>1437</v>
+      </c>
+      <c r="B1314" s="1" t="s">
+        <v>2554</v>
+      </c>
+      <c r="C1314" s="38">
+        <v>2</v>
+      </c>
+      <c r="D1314" s="38" t="s">
+        <v>1781</v>
+      </c>
+      <c r="E1314" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1314" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1314" s="38" t="s">
+        <v>2555</v>
+      </c>
+    </row>
+    <row r="1315" spans="1:7" s="38" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1315" s="38">
+        <v>1438</v>
+      </c>
+      <c r="B1315" s="1" t="s">
+        <v>2556</v>
+      </c>
+      <c r="C1315" s="38">
+        <v>4</v>
+      </c>
+      <c r="D1315" s="38" t="s">
+        <v>1789</v>
+      </c>
+      <c r="E1315" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1315" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1315" s="38" t="s">
+        <v>2557</v>
+      </c>
+    </row>
+    <row r="1316" spans="1:7" s="38" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1316" s="38">
+        <v>1439</v>
+      </c>
+      <c r="B1316" s="1" t="s">
+        <v>2558</v>
+      </c>
+      <c r="C1316" s="38">
+        <v>4</v>
+      </c>
+      <c r="D1316" s="38" t="s">
+        <v>1725</v>
+      </c>
+      <c r="E1316" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1316" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1316" s="38" t="s">
+        <v>2559</v>
+      </c>
+    </row>
+    <row r="1317" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B1317" s="1"/>
+    </row>
+    <row r="1318" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1318" s="39" t="s">
         <v>1726</v>
       </c>
-      <c r="B1305" s="38"/>
-      <c r="C1305" s="38"/>
-      <c r="D1305" s="38"/>
-      <c r="E1305" s="38"/>
-      <c r="F1305" s="38"/>
-      <c r="G1305" s="38"/>
-    </row>
-    <row r="1306" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1306" s="39" t="s">
+      <c r="B1318" s="39"/>
+      <c r="C1318" s="39"/>
+      <c r="D1318" s="39"/>
+      <c r="E1318" s="39"/>
+      <c r="F1318" s="39"/>
+      <c r="G1318" s="39"/>
+    </row>
+    <row r="1319" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1319" s="40" t="s">
         <v>1774</v>
       </c>
-      <c r="B1306" s="39"/>
-      <c r="C1306" s="39"/>
-      <c r="D1306" s="39"/>
-      <c r="E1306" s="39"/>
-      <c r="F1306" s="39"/>
-      <c r="G1306" s="39"/>
+      <c r="B1319" s="40"/>
+      <c r="C1319" s="40"/>
+      <c r="D1319" s="40"/>
+      <c r="E1319" s="40"/>
+      <c r="F1319" s="40"/>
+      <c r="G1319" s="40"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I1306" xr:uid="{CB07CE66-8F15-46FF-A90A-43FDB2DB428F}"/>
+  <autoFilter ref="A1:I1319" xr:uid="{CB07CE66-8F15-46FF-A90A-43FDB2DB428F}"/>
   <mergeCells count="2">
-    <mergeCell ref="A1305:G1305"/>
-    <mergeCell ref="A1306:G1306"/>
+    <mergeCell ref="A1318:G1318"/>
+    <mergeCell ref="A1319:G1319"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" display="https://leetcode.com/problems/zigzag-conversion" xr:uid="{00000000-0004-0000-0000-000000000000}"/>

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AB8C891-E6ED-443E-BDE2-38F709CB2C4F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D460B8D7-0C56-4B6E-A0E8-1CD392054099}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6833" uniqueCount="2581">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6837" uniqueCount="2581">
   <si>
     <t>Difficulty</t>
   </si>
@@ -8258,8 +8258,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I1330"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1305" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G1325" sqref="G1325"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D635" sqref="D635"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -26584,6 +26584,9 @@
       <c r="C814">
         <v>3</v>
       </c>
+      <c r="D814" t="s">
+        <v>1724</v>
+      </c>
       <c r="E814" t="s">
         <v>9</v>
       </c>
@@ -27122,7 +27125,10 @@
         <v>1282</v>
       </c>
       <c r="C838">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="D838" t="s">
+        <v>1724</v>
       </c>
       <c r="E838" t="s">
         <v>9</v>
@@ -27779,6 +27785,9 @@
       <c r="C867">
         <v>2</v>
       </c>
+      <c r="D867" t="s">
+        <v>1717</v>
+      </c>
       <c r="E867" t="s">
         <v>9</v>
       </c>
@@ -28216,6 +28225,9 @@
       <c r="C886">
         <v>3</v>
       </c>
+      <c r="D886" t="s">
+        <v>1717</v>
+      </c>
       <c r="E886" t="s">
         <v>9</v>
       </c>
@@ -30287,7 +30299,7 @@
         <v>4</v>
       </c>
       <c r="D976" t="s">
-        <v>1777</v>
+        <v>1788</v>
       </c>
       <c r="E976" t="s">
         <v>12</v>

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D460B8D7-0C56-4B6E-A0E8-1CD392054099}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2426827-9367-4640-B10B-3BDA2F90ABCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6837" uniqueCount="2581">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6857" uniqueCount="2589">
   <si>
     <t>Difficulty</t>
   </si>
@@ -7780,6 +7780,30 @@
   </si>
   <si>
     <t>Knapsack Problem, on every possible cost, track maximum length with maximum leading number</t>
+  </si>
+  <si>
+    <t>Number of Students Doing Homework at a Given Time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rearrange Words in a Sentence </t>
+  </si>
+  <si>
+    <t xml:space="preserve">People Whose List of Favorite Companies Is Not a Subset of Another List </t>
+  </si>
+  <si>
+    <t>Maximum Number of Darts Inside of a Circular Dartboard</t>
+  </si>
+  <si>
+    <t>Check every time slot</t>
+  </si>
+  <si>
+    <t>Sort words by length and position.</t>
+  </si>
+  <si>
+    <t>Find circle for every two pints then check how many other points inside</t>
+  </si>
+  <si>
+    <t>For every person, AND all the company bit mask, except self if 0 it is a good one.</t>
   </si>
 </sst>
 </file>
@@ -8258,8 +8282,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I1330"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D635" sqref="D635"/>
+    <sheetView tabSelected="1" topLeftCell="C1310" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G1327" sqref="G1327"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -38499,16 +38523,96 @@
       </c>
     </row>
     <row r="1325" spans="1:7" s="40" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1325" s="1"/>
+      <c r="A1325" s="40">
+        <v>1450</v>
+      </c>
+      <c r="B1325" s="1" t="s">
+        <v>2581</v>
+      </c>
+      <c r="C1325" s="40">
+        <v>1</v>
+      </c>
+      <c r="D1325" s="40" t="s">
+        <v>1721</v>
+      </c>
+      <c r="E1325" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1325" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1325" s="40" t="s">
+        <v>2585</v>
+      </c>
     </row>
     <row r="1326" spans="1:7" s="40" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1326" s="1"/>
+      <c r="A1326" s="40">
+        <v>1451</v>
+      </c>
+      <c r="B1326" s="1" t="s">
+        <v>2582</v>
+      </c>
+      <c r="C1326" s="40">
+        <v>2</v>
+      </c>
+      <c r="D1326" s="40" t="s">
+        <v>1724</v>
+      </c>
+      <c r="E1326" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1326" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1326" s="40" t="s">
+        <v>2586</v>
+      </c>
     </row>
     <row r="1327" spans="1:7" s="40" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1327" s="1"/>
+      <c r="A1327" s="40">
+        <v>1452</v>
+      </c>
+      <c r="B1327" s="1" t="s">
+        <v>2583</v>
+      </c>
+      <c r="C1327" s="40">
+        <v>3</v>
+      </c>
+      <c r="D1327" s="40" t="s">
+        <v>1788</v>
+      </c>
+      <c r="E1327" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1327" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1327" s="40" t="s">
+        <v>2588</v>
+      </c>
     </row>
     <row r="1328" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1328" s="1"/>
+      <c r="A1328" s="37">
+        <v>1453</v>
+      </c>
+      <c r="B1328" s="1" t="s">
+        <v>2584</v>
+      </c>
+      <c r="C1328" s="37">
+        <v>5</v>
+      </c>
+      <c r="D1328" s="37" t="s">
+        <v>1722</v>
+      </c>
+      <c r="E1328" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1328" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1328" s="37" t="s">
+        <v>2587</v>
+      </c>
     </row>
     <row r="1329" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1329" s="41" t="s">

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2426827-9367-4640-B10B-3BDA2F90ABCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07CF365E-03E0-499E-9FAE-65459ACCE849}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="SQL" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'LeetCode Algorithm'!$A$1:$I$1330</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'LeetCode Algorithm'!$A$1:$I$1341</definedName>
   </definedNames>
   <calcPr calcId="191029" iterate="1"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6857" uniqueCount="2589">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6877" uniqueCount="2597">
   <si>
     <t>Difficulty</t>
   </si>
@@ -7804,6 +7804,30 @@
   </si>
   <si>
     <t>For every person, AND all the company bit mask, except self if 0 it is a good one.</t>
+  </si>
+  <si>
+    <t>Check If a Word Occurs As a Prefix of Any Word in a Sentence</t>
+  </si>
+  <si>
+    <t>Maximum Number of Vowels in a Substring of Given Length</t>
+  </si>
+  <si>
+    <t>Pseudo-Palindromic Paths in a Binary Tree</t>
+  </si>
+  <si>
+    <t>Max Dot Product of Two Subsequences</t>
+  </si>
+  <si>
+    <t>Scan sentence, reset word index on space.</t>
+  </si>
+  <si>
+    <t>Keep slide window and count vowels.</t>
+  </si>
+  <si>
+    <t>Pass vaule count down the traverse in tree</t>
+  </si>
+  <si>
+    <t>Apply each item in nums1 to nums2 and calculate max of dot product at (i, j)</t>
   </si>
 </sst>
 </file>
@@ -7848,7 +7872,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -7875,6 +7899,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -8280,10 +8305,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I1330"/>
+  <dimension ref="A1:I1341"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1310" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G1327" sqref="G1327"/>
+    <sheetView tabSelected="1" topLeftCell="A1313" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A1333" sqref="A1333"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -23914,7 +23939,7 @@
         <v>932</v>
       </c>
       <c r="C698">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D698" t="s">
         <v>1739</v>
@@ -38614,33 +38639,146 @@
         <v>2587</v>
       </c>
     </row>
-    <row r="1329" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A1329" s="41" t="s">
+    <row r="1329" spans="1:7" s="41" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1329" s="41">
+        <v>1455</v>
+      </c>
+      <c r="B1329" s="1" t="s">
+        <v>2589</v>
+      </c>
+      <c r="C1329" s="41">
+        <v>2</v>
+      </c>
+      <c r="D1329" s="41" t="s">
+        <v>1780</v>
+      </c>
+      <c r="E1329" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1329" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1329" s="41" t="s">
+        <v>2593</v>
+      </c>
+    </row>
+    <row r="1330" spans="1:7" s="41" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1330" s="41">
+        <v>1456</v>
+      </c>
+      <c r="B1330" s="1" t="s">
+        <v>2590</v>
+      </c>
+      <c r="C1330" s="41">
+        <v>2</v>
+      </c>
+      <c r="D1330" s="41" t="s">
+        <v>1780</v>
+      </c>
+      <c r="E1330" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1330" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1330" s="41" t="s">
+        <v>2594</v>
+      </c>
+    </row>
+    <row r="1331" spans="1:7" s="41" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1331" s="41">
+        <v>1457</v>
+      </c>
+      <c r="B1331" s="1" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C1331" s="41">
+        <v>3</v>
+      </c>
+      <c r="D1331" s="41" t="s">
+        <v>1724</v>
+      </c>
+      <c r="E1331" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1331" s="41" t="s">
+        <v>140</v>
+      </c>
+      <c r="G1331" s="41" t="s">
+        <v>2595</v>
+      </c>
+    </row>
+    <row r="1332" spans="1:7" s="41" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1332" s="41">
+        <v>1458</v>
+      </c>
+      <c r="B1332" s="1" t="s">
+        <v>2592</v>
+      </c>
+      <c r="C1332" s="41">
+        <v>4</v>
+      </c>
+      <c r="D1332" s="41" t="s">
+        <v>1961</v>
+      </c>
+      <c r="E1332" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1332" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1332" s="41" t="s">
+        <v>2596</v>
+      </c>
+    </row>
+    <row r="1333" spans="1:7" s="41" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1333" s="1"/>
+    </row>
+    <row r="1334" spans="1:7" s="41" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1334" s="1"/>
+    </row>
+    <row r="1335" spans="1:7" s="41" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1335" s="1"/>
+    </row>
+    <row r="1336" spans="1:7" s="41" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1336" s="1"/>
+    </row>
+    <row r="1337" spans="1:7" s="41" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1337" s="1"/>
+    </row>
+    <row r="1338" spans="1:7" s="41" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1338" s="1"/>
+    </row>
+    <row r="1339" spans="1:7" s="41" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1339" s="1"/>
+    </row>
+    <row r="1340" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A1340" s="42" t="s">
         <v>1725</v>
       </c>
-      <c r="B1329" s="41"/>
-      <c r="C1329" s="41"/>
-      <c r="D1329" s="41"/>
-      <c r="E1329" s="41"/>
-      <c r="F1329" s="41"/>
-      <c r="G1329" s="41"/>
-    </row>
-    <row r="1330" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A1330" s="42" t="s">
+      <c r="B1340" s="42"/>
+      <c r="C1340" s="42"/>
+      <c r="D1340" s="42"/>
+      <c r="E1340" s="42"/>
+      <c r="F1340" s="42"/>
+      <c r="G1340" s="42"/>
+    </row>
+    <row r="1341" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A1341" s="43" t="s">
         <v>1773</v>
       </c>
-      <c r="B1330" s="42"/>
-      <c r="C1330" s="42"/>
-      <c r="D1330" s="42"/>
-      <c r="E1330" s="42"/>
-      <c r="F1330" s="42"/>
-      <c r="G1330" s="42"/>
+      <c r="B1341" s="43"/>
+      <c r="C1341" s="43"/>
+      <c r="D1341" s="43"/>
+      <c r="E1341" s="43"/>
+      <c r="F1341" s="43"/>
+      <c r="G1341" s="43"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I1330" xr:uid="{CB07CE66-8F15-46FF-A90A-43FDB2DB428F}"/>
+  <autoFilter ref="A1:I1341" xr:uid="{CB07CE66-8F15-46FF-A90A-43FDB2DB428F}"/>
   <mergeCells count="2">
-    <mergeCell ref="A1329:G1329"/>
-    <mergeCell ref="A1330:G1330"/>
+    <mergeCell ref="A1340:G1340"/>
+    <mergeCell ref="A1341:G1341"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" display="https://leetcode.com/problems/zigzag-conversion" xr:uid="{00000000-0004-0000-0000-000000000000}"/>

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07CF365E-03E0-499E-9FAE-65459ACCE849}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA2B5CC6-80E6-49E9-9587-6836956A83C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8307,8 +8307,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I1341"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1313" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A1333" sqref="A1333"/>
+    <sheetView tabSelected="1" topLeftCell="A298" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D308" sqref="D308"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -15320,7 +15320,7 @@
         <v>411</v>
       </c>
       <c r="C308">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D308" t="s">
         <v>1739</v>

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D0BBDE5-913C-42C8-926B-7972E9316E20}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9DD5A0E-7673-4EA2-8A96-D12A8875D368}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="SQL" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'LeetCode Algorithm'!$A$1:$I$1341</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'LeetCode Algorithm'!$A$1:$I$1349</definedName>
   </definedNames>
   <calcPr calcId="191029" iterate="1"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6878" uniqueCount="2593">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6918" uniqueCount="2608">
   <si>
     <t>Difficulty</t>
   </si>
@@ -7816,6 +7816,51 @@
   </si>
   <si>
     <t>DFS with cache</t>
+  </si>
+  <si>
+    <t>Make Two Arrays Equal by Reversing Sub-arrays</t>
+  </si>
+  <si>
+    <t>Compare by value and count.</t>
+  </si>
+  <si>
+    <t>Check If a String Contains All Binary Codes of Size K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Course Schedule IV </t>
+  </si>
+  <si>
+    <t>Set corresponding value slot as 1</t>
+  </si>
+  <si>
+    <t>Cherry Pickup II</t>
+  </si>
+  <si>
+    <t>From top to down, each layer with two positions.</t>
+  </si>
+  <si>
+    <t>Maximum Product of Two Elements in an Array</t>
+  </si>
+  <si>
+    <t>Check top 2 positive numbers</t>
+  </si>
+  <si>
+    <t>Maximum Area of a Piece of Cake After Horizontal and Vertical Cuts</t>
+  </si>
+  <si>
+    <t>Reorder Routes to Make All Paths Lead to the City Zero</t>
+  </si>
+  <si>
+    <t>Probability of a Two Boxes Having The Same Number of Distinct Balls</t>
+  </si>
+  <si>
+    <t>Get maximum width and maximum height</t>
+  </si>
+  <si>
+    <t>Check every count in every color and calculate combinations</t>
+  </si>
+  <si>
+    <t>Toplogy sort from city zero.</t>
   </si>
 </sst>
 </file>
@@ -7860,7 +7905,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -7887,6 +7932,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -8293,10 +8339,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I1341"/>
+  <dimension ref="A1:I1349"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A617" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F627" sqref="F627"/>
+    <sheetView tabSelected="1" topLeftCell="C1321" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G1339" sqref="G1339"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -38723,53 +38769,237 @@
       </c>
     </row>
     <row r="1333" spans="1:7" s="41" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1333" s="1"/>
-    </row>
-    <row r="1334" spans="1:7" s="41" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1334" s="1"/>
-    </row>
-    <row r="1335" spans="1:7" s="41" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1335" s="1"/>
-    </row>
-    <row r="1336" spans="1:7" s="41" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1336" s="1"/>
-    </row>
-    <row r="1337" spans="1:7" s="41" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1337" s="1"/>
-    </row>
-    <row r="1338" spans="1:7" s="41" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1338" s="1"/>
-    </row>
-    <row r="1339" spans="1:7" s="41" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1339" s="1"/>
-    </row>
-    <row r="1340" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A1340" s="42" t="s">
+      <c r="A1333" s="41">
+        <v>1460</v>
+      </c>
+      <c r="B1333" s="1" t="s">
+        <v>2593</v>
+      </c>
+      <c r="C1333" s="41">
+        <v>2</v>
+      </c>
+      <c r="D1333" s="41" t="s">
+        <v>1721</v>
+      </c>
+      <c r="E1333" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1333" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1333" s="41" t="s">
+        <v>2594</v>
+      </c>
+    </row>
+    <row r="1334" spans="1:7" s="42" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1334" s="42">
+        <v>1461</v>
+      </c>
+      <c r="B1334" s="21" t="s">
+        <v>2595</v>
+      </c>
+      <c r="C1334" s="42">
+        <v>3</v>
+      </c>
+      <c r="D1334" s="42" t="s">
+        <v>1723</v>
+      </c>
+      <c r="E1334" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1334" s="42" t="s">
+        <v>134</v>
+      </c>
+      <c r="G1334" s="42" t="s">
+        <v>2597</v>
+      </c>
+    </row>
+    <row r="1335" spans="1:7" s="42" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1335" s="42">
+        <v>1462</v>
+      </c>
+      <c r="B1335" s="1" t="s">
+        <v>2596</v>
+      </c>
+      <c r="C1335" s="42">
+        <v>4</v>
+      </c>
+      <c r="D1335" s="42" t="s">
+        <v>1784</v>
+      </c>
+      <c r="E1335" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1335" s="42" t="s">
+        <v>187</v>
+      </c>
+      <c r="G1335" s="42" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="1336" spans="1:7" s="42" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1336" s="42">
+        <v>1463</v>
+      </c>
+      <c r="B1336" s="1" t="s">
+        <v>2598</v>
+      </c>
+      <c r="C1336" s="42">
+        <v>4</v>
+      </c>
+      <c r="D1336" s="42" t="s">
+        <v>1723</v>
+      </c>
+      <c r="E1336" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1336" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1336" s="42" t="s">
+        <v>2599</v>
+      </c>
+    </row>
+    <row r="1337" spans="1:7" s="42" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1337" s="42">
+        <v>1464</v>
+      </c>
+      <c r="B1337" s="1" t="s">
+        <v>2600</v>
+      </c>
+      <c r="C1337" s="42">
+        <v>1</v>
+      </c>
+      <c r="D1337" s="42" t="s">
+        <v>1720</v>
+      </c>
+      <c r="E1337" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1337" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1337" s="42" t="s">
+        <v>2601</v>
+      </c>
+    </row>
+    <row r="1338" spans="1:7" s="42" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1338" s="42">
+        <v>1465</v>
+      </c>
+      <c r="B1338" s="1" t="s">
+        <v>2602</v>
+      </c>
+      <c r="C1338" s="42">
+        <v>3</v>
+      </c>
+      <c r="D1338" s="42" t="s">
+        <v>1721</v>
+      </c>
+      <c r="E1338" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1338" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1338" s="42" t="s">
+        <v>2605</v>
+      </c>
+    </row>
+    <row r="1339" spans="1:7" s="42" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1339" s="42">
+        <v>1466</v>
+      </c>
+      <c r="B1339" s="1" t="s">
+        <v>2603</v>
+      </c>
+      <c r="C1339" s="42">
+        <v>3</v>
+      </c>
+      <c r="D1339" s="42" t="s">
+        <v>1784</v>
+      </c>
+      <c r="E1339" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1339" s="42" t="s">
+        <v>187</v>
+      </c>
+      <c r="G1339" s="42" t="s">
+        <v>2607</v>
+      </c>
+    </row>
+    <row r="1340" spans="1:7" s="42" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1340" s="42">
+        <v>1467</v>
+      </c>
+      <c r="B1340" s="1" t="s">
+        <v>2604</v>
+      </c>
+      <c r="C1340" s="42">
+        <v>4</v>
+      </c>
+      <c r="D1340" s="42" t="s">
+        <v>1721</v>
+      </c>
+      <c r="E1340" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1340" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1340" s="42" t="s">
+        <v>2606</v>
+      </c>
+    </row>
+    <row r="1341" spans="1:7" s="42" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1341" s="1"/>
+    </row>
+    <row r="1342" spans="1:7" s="41" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1342" s="1"/>
+    </row>
+    <row r="1343" spans="1:7" s="41" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1343" s="1"/>
+    </row>
+    <row r="1344" spans="1:7" s="41" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1344" s="1"/>
+    </row>
+    <row r="1345" spans="1:7" s="41" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1345" s="1"/>
+    </row>
+    <row r="1346" spans="1:7" s="41" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1346" s="1"/>
+    </row>
+    <row r="1347" spans="1:7" s="41" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1347" s="1"/>
+    </row>
+    <row r="1348" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A1348" s="43" t="s">
         <v>1724</v>
       </c>
-      <c r="B1340" s="42"/>
-      <c r="C1340" s="42"/>
-      <c r="D1340" s="42"/>
-      <c r="E1340" s="42"/>
-      <c r="F1340" s="42"/>
-      <c r="G1340" s="42"/>
-    </row>
-    <row r="1341" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A1341" s="43" t="s">
+      <c r="B1348" s="43"/>
+      <c r="C1348" s="43"/>
+      <c r="D1348" s="43"/>
+      <c r="E1348" s="43"/>
+      <c r="F1348" s="43"/>
+      <c r="G1348" s="43"/>
+    </row>
+    <row r="1349" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A1349" s="44" t="s">
         <v>1770</v>
       </c>
-      <c r="B1341" s="43"/>
-      <c r="C1341" s="43"/>
-      <c r="D1341" s="43"/>
-      <c r="E1341" s="43"/>
-      <c r="F1341" s="43"/>
-      <c r="G1341" s="43"/>
+      <c r="B1349" s="44"/>
+      <c r="C1349" s="44"/>
+      <c r="D1349" s="44"/>
+      <c r="E1349" s="44"/>
+      <c r="F1349" s="44"/>
+      <c r="G1349" s="44"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I1341" xr:uid="{CB07CE66-8F15-46FF-A90A-43FDB2DB428F}"/>
+  <autoFilter ref="A1:I1349" xr:uid="{CB07CE66-8F15-46FF-A90A-43FDB2DB428F}"/>
   <mergeCells count="2">
-    <mergeCell ref="A1340:G1340"/>
-    <mergeCell ref="A1341:G1341"/>
+    <mergeCell ref="A1348:G1348"/>
+    <mergeCell ref="A1349:G1349"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" display="https://leetcode.com/problems/zigzag-conversion" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -40042,10 +40272,11 @@
     <hyperlink ref="B1292" r:id="rId1268" display="https://leetcode.com/problems/minimum-value-to-get-positive-step-by-step-sum" xr:uid="{43C73BD5-BDF4-41B0-99BB-144385B09822}"/>
     <hyperlink ref="B1298" r:id="rId1269" display="https://leetcode.com/problems/minimum-number-of-frogs-croaking" xr:uid="{E609EEFF-9F58-4876-80A4-E9F2488EFF1F}"/>
     <hyperlink ref="B1324" r:id="rId1270" display="https://leetcode.com/problems/form-largest-integer-with-digits-that-add-up-to-target" xr:uid="{CEC926E2-018F-4415-8398-1A0F7E4C25BB}"/>
+    <hyperlink ref="B1337" r:id="rId1271" display="https://leetcode.com/problems/maximum-product-of-two-elements-in-an-array" xr:uid="{8BF94D50-CF00-4D5F-9CA7-842FE55F1926}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1271"/>
-  <drawing r:id="rId1272"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1272"/>
+  <drawing r:id="rId1273"/>
 </worksheet>
 </file>
 

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A603408F-FB41-42C9-9746-C2D43E3DC6B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C3535ED-5971-4D52-9237-205E15A1E956}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="SQL" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'LeetCode Algorithm'!$A$1:$I$1349</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'LeetCode Algorithm'!$A$1:$I$1356</definedName>
   </definedNames>
   <calcPr calcId="191029" iterate="1"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6938" uniqueCount="2616">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6983" uniqueCount="2633">
   <si>
     <t>Difficulty</t>
   </si>
@@ -7885,6 +7885,57 @@
   </si>
   <si>
     <t>Two pointer scane to median</t>
+  </si>
+  <si>
+    <t>Delete N Nodes After M Nodes of a Linked List</t>
+  </si>
+  <si>
+    <t>Final Prices With a Special Discount in a Shop</t>
+  </si>
+  <si>
+    <t>Pop and discount all prices greater with new item.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Subrectangle Queries </t>
+  </si>
+  <si>
+    <t>Set all values in rectangle</t>
+  </si>
+  <si>
+    <t>Find Two Non-overlapping Sub-arrays Each With Target Sum</t>
+  </si>
+  <si>
+    <t>Track minimum subarray for target at each position.</t>
+  </si>
+  <si>
+    <t>Allocate Mailboxes</t>
+  </si>
+  <si>
+    <t>Build mailbox from 1 to K in each ending position, calculate distance, for 1 mail box between any houses.</t>
+  </si>
+  <si>
+    <t>Running Sum of 1d Array</t>
+  </si>
+  <si>
+    <t>Least Number of Unique Integers after K Removals</t>
+  </si>
+  <si>
+    <t>Minimum Number of Days to Make m Bouquets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kth Ancestor of a Tree Node </t>
+  </si>
+  <si>
+    <t>Double uplinks</t>
+  </si>
+  <si>
+    <t>Try a day see if we can fill m bouquets</t>
+  </si>
+  <si>
+    <t>Deduct from smallest counts</t>
+  </si>
+  <si>
+    <t>Prefix sum</t>
   </si>
 </sst>
 </file>
@@ -7929,7 +7980,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -7956,6 +8007,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -8363,10 +8415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I1349"/>
+  <dimension ref="A1:I1356"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1329" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A1342" sqref="A1342"/>
+    <sheetView tabSelected="1" topLeftCell="C1334" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G1345" sqref="G1345"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -39068,42 +39120,243 @@
         <v>2612</v>
       </c>
     </row>
-    <row r="1345" spans="1:7" s="41" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1345" s="1"/>
-    </row>
-    <row r="1346" spans="1:7" s="41" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1346" s="1"/>
-    </row>
-    <row r="1347" spans="1:7" s="41" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1347" s="1"/>
-    </row>
-    <row r="1348" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A1348" s="43" t="s">
+    <row r="1345" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1345" s="43">
+        <v>1474</v>
+      </c>
+      <c r="B1345" s="1" t="s">
+        <v>2616</v>
+      </c>
+      <c r="C1345" s="43">
+        <v>2</v>
+      </c>
+      <c r="D1345" s="43" t="s">
+        <v>1776</v>
+      </c>
+      <c r="E1345" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1345" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1345" s="43" t="s">
+        <v>1967</v>
+      </c>
+    </row>
+    <row r="1346" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1346" s="43">
+        <v>1475</v>
+      </c>
+      <c r="B1346" s="1" t="s">
+        <v>2617</v>
+      </c>
+      <c r="C1346" s="43">
+        <v>3</v>
+      </c>
+      <c r="D1346" s="43" t="s">
+        <v>1723</v>
+      </c>
+      <c r="E1346" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1346" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1346" s="43" t="s">
+        <v>2618</v>
+      </c>
+    </row>
+    <row r="1347" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1347" s="43">
+        <v>1476</v>
+      </c>
+      <c r="B1347" s="1" t="s">
+        <v>2619</v>
+      </c>
+      <c r="C1347" s="43">
+        <v>2</v>
+      </c>
+      <c r="D1347" s="43" t="s">
+        <v>1716</v>
+      </c>
+      <c r="E1347" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1347" s="43" t="s">
+        <v>458</v>
+      </c>
+      <c r="G1347" s="43" t="s">
+        <v>2620</v>
+      </c>
+    </row>
+    <row r="1348" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1348" s="43">
+        <v>1477</v>
+      </c>
+      <c r="B1348" s="1" t="s">
+        <v>2621</v>
+      </c>
+      <c r="C1348" s="43">
+        <v>4</v>
+      </c>
+      <c r="D1348" s="43" t="s">
+        <v>1784</v>
+      </c>
+      <c r="E1348" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1348" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1348" s="43" t="s">
+        <v>2622</v>
+      </c>
+    </row>
+    <row r="1349" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1349" s="43">
+        <v>1478</v>
+      </c>
+      <c r="B1349" s="1" t="s">
+        <v>2623</v>
+      </c>
+      <c r="C1349" s="43">
+        <v>4</v>
+      </c>
+      <c r="D1349" s="43" t="s">
+        <v>1723</v>
+      </c>
+      <c r="E1349" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1349" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1349" s="43" t="s">
+        <v>2624</v>
+      </c>
+    </row>
+    <row r="1350" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1350" s="43">
+        <v>1480</v>
+      </c>
+      <c r="B1350" s="1" t="s">
+        <v>2625</v>
+      </c>
+      <c r="C1350" s="43">
+        <v>2</v>
+      </c>
+      <c r="D1350" s="43" t="s">
+        <v>1776</v>
+      </c>
+      <c r="E1350" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1350" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1350" s="43" t="s">
+        <v>2632</v>
+      </c>
+    </row>
+    <row r="1351" spans="1:7" s="41" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1351" s="41">
+        <v>1481</v>
+      </c>
+      <c r="B1351" s="1" t="s">
+        <v>2626</v>
+      </c>
+      <c r="C1351" s="41">
+        <v>2</v>
+      </c>
+      <c r="D1351" s="41" t="s">
+        <v>1776</v>
+      </c>
+      <c r="E1351" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1351" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1351" s="41" t="s">
+        <v>2631</v>
+      </c>
+    </row>
+    <row r="1352" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1352" s="43">
+        <v>1482</v>
+      </c>
+      <c r="B1352" s="1" t="s">
+        <v>2627</v>
+      </c>
+      <c r="C1352" s="43">
+        <v>3</v>
+      </c>
+      <c r="D1352" s="43" t="s">
+        <v>1784</v>
+      </c>
+      <c r="E1352" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1352" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1352" s="43" t="s">
+        <v>2630</v>
+      </c>
+    </row>
+    <row r="1353" spans="1:7" s="41" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1353" s="41">
+        <v>1483</v>
+      </c>
+      <c r="B1353" s="1" t="s">
+        <v>2628</v>
+      </c>
+      <c r="C1353" s="41">
+        <v>5</v>
+      </c>
+      <c r="D1353" s="41" t="s">
+        <v>1736</v>
+      </c>
+      <c r="E1353" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1353" s="41" t="s">
+        <v>458</v>
+      </c>
+      <c r="G1353" s="41" t="s">
+        <v>2629</v>
+      </c>
+    </row>
+    <row r="1354" spans="1:7" s="41" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1354" s="1"/>
+    </row>
+    <row r="1355" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A1355" s="44" t="s">
         <v>1724</v>
       </c>
-      <c r="B1348" s="43"/>
-      <c r="C1348" s="43"/>
-      <c r="D1348" s="43"/>
-      <c r="E1348" s="43"/>
-      <c r="F1348" s="43"/>
-      <c r="G1348" s="43"/>
-    </row>
-    <row r="1349" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A1349" s="44" t="s">
+      <c r="B1355" s="44"/>
+      <c r="C1355" s="44"/>
+      <c r="D1355" s="44"/>
+      <c r="E1355" s="44"/>
+      <c r="F1355" s="44"/>
+      <c r="G1355" s="44"/>
+    </row>
+    <row r="1356" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A1356" s="45" t="s">
         <v>1770</v>
       </c>
-      <c r="B1349" s="44"/>
-      <c r="C1349" s="44"/>
-      <c r="D1349" s="44"/>
-      <c r="E1349" s="44"/>
-      <c r="F1349" s="44"/>
-      <c r="G1349" s="44"/>
+      <c r="B1356" s="45"/>
+      <c r="C1356" s="45"/>
+      <c r="D1356" s="45"/>
+      <c r="E1356" s="45"/>
+      <c r="F1356" s="45"/>
+      <c r="G1356" s="45"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I1349" xr:uid="{CB07CE66-8F15-46FF-A90A-43FDB2DB428F}"/>
+  <autoFilter ref="A1:I1356" xr:uid="{CB07CE66-8F15-46FF-A90A-43FDB2DB428F}"/>
   <mergeCells count="2">
-    <mergeCell ref="A1348:G1348"/>
-    <mergeCell ref="A1349:G1349"/>
+    <mergeCell ref="A1355:G1355"/>
+    <mergeCell ref="A1356:G1356"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" display="https://leetcode.com/problems/zigzag-conversion" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -40377,10 +40630,11 @@
     <hyperlink ref="B1298" r:id="rId1269" display="https://leetcode.com/problems/minimum-number-of-frogs-croaking" xr:uid="{E609EEFF-9F58-4876-80A4-E9F2488EFF1F}"/>
     <hyperlink ref="B1324" r:id="rId1270" display="https://leetcode.com/problems/form-largest-integer-with-digits-that-add-up-to-target" xr:uid="{CEC926E2-018F-4415-8398-1A0F7E4C25BB}"/>
     <hyperlink ref="B1337" r:id="rId1271" display="https://leetcode.com/problems/maximum-product-of-two-elements-in-an-array" xr:uid="{8BF94D50-CF00-4D5F-9CA7-842FE55F1926}"/>
+    <hyperlink ref="B1346" r:id="rId1272" display="https://leetcode.com/problems/final-prices-with-a-special-discount-in-a-shop" xr:uid="{BC06B41B-129A-4199-A20E-68C6125375FA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1272"/>
-  <drawing r:id="rId1273"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1273"/>
+  <drawing r:id="rId1274"/>
 </worksheet>
 </file>
 

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C3535ED-5971-4D52-9237-205E15A1E956}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77133201-17C2-410E-8D03-A4F69DBA7967}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="SQL" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'LeetCode Algorithm'!$A$1:$I$1356</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'LeetCode Algorithm'!$A$1:$I$1366</definedName>
   </definedNames>
   <calcPr calcId="191029" iterate="1"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6983" uniqueCount="2633">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7008" uniqueCount="2642">
   <si>
     <t>Difficulty</t>
   </si>
@@ -7936,6 +7936,33 @@
   </si>
   <si>
     <t>Prefix sum</t>
+  </si>
+  <si>
+    <t>Clone Binary Tree With Random Pointer</t>
+  </si>
+  <si>
+    <t>XOR Operation in an Array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find Critical and Pseudo-Critical Edges in Minimum Spanning Tree </t>
+  </si>
+  <si>
+    <t>Avoid Flood in The City</t>
+  </si>
+  <si>
+    <t>Making File Names Unique</t>
+  </si>
+  <si>
+    <t>Hashtable mapping from old node to new node.</t>
+  </si>
+  <si>
+    <t>Track maximum alias for each name</t>
+  </si>
+  <si>
+    <t>Link potential flood to next dry day.</t>
+  </si>
+  <si>
+    <t>Calculate MST, take every edge and MUST and IGNORE, to recalculate total weight.</t>
   </si>
 </sst>
 </file>
@@ -7980,7 +8007,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -8007,6 +8034,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -8415,10 +8443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I1356"/>
+  <dimension ref="A1:I1366"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1334" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G1345" sqref="G1345"/>
+    <sheetView tabSelected="1" topLeftCell="C1339" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G1358" sqref="G1358"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -39327,36 +39355,166 @@
         <v>2629</v>
       </c>
     </row>
-    <row r="1354" spans="1:7" s="41" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1354" s="1"/>
-    </row>
-    <row r="1355" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A1355" s="44" t="s">
+    <row r="1354" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1354" s="44">
+        <v>1485</v>
+      </c>
+      <c r="B1354" s="1" t="s">
+        <v>2633</v>
+      </c>
+      <c r="C1354" s="44">
+        <v>3</v>
+      </c>
+      <c r="D1354" s="44" t="s">
+        <v>1716</v>
+      </c>
+      <c r="E1354" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1354" s="44" t="s">
+        <v>140</v>
+      </c>
+      <c r="G1354" s="44" t="s">
+        <v>2638</v>
+      </c>
+    </row>
+    <row r="1355" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1355" s="44">
+        <v>1486</v>
+      </c>
+      <c r="B1355" s="1" t="s">
+        <v>2634</v>
+      </c>
+      <c r="C1355" s="44">
+        <v>1</v>
+      </c>
+      <c r="D1355" s="44" t="s">
+        <v>1720</v>
+      </c>
+      <c r="E1355" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1355" s="44" t="s">
+        <v>134</v>
+      </c>
+      <c r="G1355" s="44" t="s">
+        <v>2383</v>
+      </c>
+    </row>
+    <row r="1356" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1356" s="44">
+        <v>1487</v>
+      </c>
+      <c r="B1356" s="1" t="s">
+        <v>2637</v>
+      </c>
+      <c r="C1356" s="44">
+        <v>3</v>
+      </c>
+      <c r="D1356" s="44" t="s">
+        <v>1776</v>
+      </c>
+      <c r="E1356" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1356" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1356" s="44" t="s">
+        <v>2639</v>
+      </c>
+    </row>
+    <row r="1357" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1357" s="44">
+        <v>1488</v>
+      </c>
+      <c r="B1357" s="1" t="s">
+        <v>2636</v>
+      </c>
+      <c r="C1357" s="44">
+        <v>3</v>
+      </c>
+      <c r="D1357" s="44" t="s">
+        <v>1784</v>
+      </c>
+      <c r="E1357" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1357" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1357" s="44" t="s">
+        <v>2640</v>
+      </c>
+    </row>
+    <row r="1358" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1358" s="44">
+        <v>1489</v>
+      </c>
+      <c r="B1358" s="1" t="s">
+        <v>2635</v>
+      </c>
+      <c r="C1358" s="44">
+        <v>5</v>
+      </c>
+      <c r="D1358" s="44" t="s">
+        <v>1723</v>
+      </c>
+      <c r="E1358" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1358" s="44" t="s">
+        <v>187</v>
+      </c>
+      <c r="G1358" s="44" t="s">
+        <v>2641</v>
+      </c>
+    </row>
+    <row r="1359" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1359" s="1"/>
+    </row>
+    <row r="1360" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1360" s="1"/>
+    </row>
+    <row r="1361" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1361" s="1"/>
+    </row>
+    <row r="1362" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1362" s="1"/>
+    </row>
+    <row r="1363" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1363" s="1"/>
+    </row>
+    <row r="1364" spans="1:7" s="41" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1364" s="1"/>
+    </row>
+    <row r="1365" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A1365" s="45" t="s">
         <v>1724</v>
       </c>
-      <c r="B1355" s="44"/>
-      <c r="C1355" s="44"/>
-      <c r="D1355" s="44"/>
-      <c r="E1355" s="44"/>
-      <c r="F1355" s="44"/>
-      <c r="G1355" s="44"/>
-    </row>
-    <row r="1356" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A1356" s="45" t="s">
+      <c r="B1365" s="45"/>
+      <c r="C1365" s="45"/>
+      <c r="D1365" s="45"/>
+      <c r="E1365" s="45"/>
+      <c r="F1365" s="45"/>
+      <c r="G1365" s="45"/>
+    </row>
+    <row r="1366" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A1366" s="46" t="s">
         <v>1770</v>
       </c>
-      <c r="B1356" s="45"/>
-      <c r="C1356" s="45"/>
-      <c r="D1356" s="45"/>
-      <c r="E1356" s="45"/>
-      <c r="F1356" s="45"/>
-      <c r="G1356" s="45"/>
+      <c r="B1366" s="46"/>
+      <c r="C1366" s="46"/>
+      <c r="D1366" s="46"/>
+      <c r="E1366" s="46"/>
+      <c r="F1366" s="46"/>
+      <c r="G1366" s="46"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I1356" xr:uid="{CB07CE66-8F15-46FF-A90A-43FDB2DB428F}"/>
+  <autoFilter ref="A1:I1366" xr:uid="{CB07CE66-8F15-46FF-A90A-43FDB2DB428F}"/>
   <mergeCells count="2">
-    <mergeCell ref="A1355:G1355"/>
-    <mergeCell ref="A1356:G1356"/>
+    <mergeCell ref="A1365:G1365"/>
+    <mergeCell ref="A1366:G1366"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" display="https://leetcode.com/problems/zigzag-conversion" xr:uid="{00000000-0004-0000-0000-000000000000}"/>

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77133201-17C2-410E-8D03-A4F69DBA7967}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB80A34F-D3D7-4CA3-9E62-22F22A33BEBB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="SQL" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'LeetCode Algorithm'!$A$1:$I$1366</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'LeetCode Algorithm'!$A$1:$I$1370</definedName>
   </definedNames>
   <calcPr calcId="191029" iterate="1"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7008" uniqueCount="2642">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7051" uniqueCount="2658">
   <si>
     <t>Difficulty</t>
   </si>
@@ -7963,6 +7963,54 @@
   </si>
   <si>
     <t>Calculate MST, take every edge and MUST and IGNORE, to recalculate total weight.</t>
+  </si>
+  <si>
+    <t>Average Salary Excluding the Minimum and Maximum Salary</t>
+  </si>
+  <si>
+    <t>The kth Factor of n </t>
+  </si>
+  <si>
+    <t>Take out minimum and maximum from sum</t>
+  </si>
+  <si>
+    <t>Longest Subarray of 1's After Deleting One Element </t>
+  </si>
+  <si>
+    <t>Parallel Courses II</t>
+  </si>
+  <si>
+    <t>Scan from 1 to sqrt(n) and add the other party of factor</t>
+  </si>
+  <si>
+    <t>Check If Array Pairs Are Divisible by k</t>
+  </si>
+  <si>
+    <t>Path Crossing</t>
+  </si>
+  <si>
+    <t>Number of Subsequences That Satisfy the Given Sum Condition</t>
+  </si>
+  <si>
+    <t>Max Value of Equation</t>
+  </si>
+  <si>
+    <t>Keep track two previous zeros.</t>
+  </si>
+  <si>
+    <t>Toplogy Sort, from reverse first, track the depth, then from normal direction.</t>
+  </si>
+  <si>
+    <t>Track each position.</t>
+  </si>
+  <si>
+    <t>Keep y - x in a heep, and keep deque with distance of K</t>
+  </si>
+  <si>
+    <t>Sort the array, get the maximum in scope, calculate 2^(N-1)</t>
+  </si>
+  <si>
+    <t>Mod K first, deduct the positive count by negative count and pair the positive count to be equal.</t>
   </si>
 </sst>
 </file>
@@ -8007,7 +8055,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -8034,6 +8082,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -8443,10 +8492,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I1366"/>
+  <dimension ref="A1:I1370"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1339" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G1358" sqref="G1358"/>
+    <sheetView tabSelected="1" topLeftCell="C1347" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D1362" sqref="D1362"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -26415,6 +26464,9 @@
       <c r="C798">
         <v>2</v>
       </c>
+      <c r="D798" t="s">
+        <v>1776</v>
+      </c>
       <c r="E798" t="s">
         <v>5</v>
       </c>
@@ -27751,6 +27803,9 @@
       <c r="C857">
         <v>2</v>
       </c>
+      <c r="D857" t="s">
+        <v>1776</v>
+      </c>
       <c r="E857" t="s">
         <v>5</v>
       </c>
@@ -27863,6 +27918,9 @@
       <c r="C862">
         <v>3</v>
       </c>
+      <c r="D862" t="s">
+        <v>1776</v>
+      </c>
       <c r="E862" t="s">
         <v>5</v>
       </c>
@@ -28988,7 +29046,7 @@
         <v>1409</v>
       </c>
       <c r="C911">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D911" t="s">
         <v>1721</v>
@@ -39470,51 +39528,223 @@
         <v>2641</v>
       </c>
     </row>
-    <row r="1359" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1359" s="1"/>
-    </row>
-    <row r="1360" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1360" s="1"/>
+    <row r="1359" spans="1:7" s="45" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1359" s="45">
+        <v>1491</v>
+      </c>
+      <c r="B1359" s="1" t="s">
+        <v>2642</v>
+      </c>
+      <c r="C1359" s="45">
+        <v>1</v>
+      </c>
+      <c r="D1359" s="45" t="s">
+        <v>1720</v>
+      </c>
+      <c r="E1359" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1359" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1359" s="45" t="s">
+        <v>2644</v>
+      </c>
+    </row>
+    <row r="1360" spans="1:7" s="45" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1360" s="45">
+        <v>1492</v>
+      </c>
+      <c r="B1360" s="1" t="s">
+        <v>2643</v>
+      </c>
+      <c r="C1360" s="45">
+        <v>2</v>
+      </c>
+      <c r="D1360" s="45" t="s">
+        <v>1776</v>
+      </c>
+      <c r="E1360" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1360" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1360" s="45" t="s">
+        <v>2647</v>
+      </c>
     </row>
     <row r="1361" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1361" s="1"/>
+      <c r="A1361" s="44">
+        <v>1493</v>
+      </c>
+      <c r="B1361" s="1" t="s">
+        <v>2645</v>
+      </c>
+      <c r="C1361" s="44">
+        <v>2</v>
+      </c>
+      <c r="D1361" s="44" t="s">
+        <v>1776</v>
+      </c>
+      <c r="E1361" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1361" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1361" s="44" t="s">
+        <v>2652</v>
+      </c>
     </row>
     <row r="1362" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1362" s="1"/>
+      <c r="A1362" s="44">
+        <v>1494</v>
+      </c>
+      <c r="B1362" s="1" t="s">
+        <v>2646</v>
+      </c>
+      <c r="C1362" s="44">
+        <v>4</v>
+      </c>
+      <c r="D1362" s="44" t="s">
+        <v>1784</v>
+      </c>
+      <c r="E1362" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1362" s="44" t="s">
+        <v>187</v>
+      </c>
+      <c r="G1362" s="44" t="s">
+        <v>2653</v>
+      </c>
     </row>
     <row r="1363" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1363" s="1"/>
-    </row>
-    <row r="1364" spans="1:7" s="41" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1364" s="1"/>
-    </row>
-    <row r="1365" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A1365" s="45" t="s">
+      <c r="A1363" s="44">
+        <v>1496</v>
+      </c>
+      <c r="B1363" s="1" t="s">
+        <v>2649</v>
+      </c>
+      <c r="C1363" s="44">
+        <v>2</v>
+      </c>
+      <c r="D1363" s="44" t="s">
+        <v>1723</v>
+      </c>
+      <c r="E1363" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1363" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1363" s="44" t="s">
+        <v>2654</v>
+      </c>
+    </row>
+    <row r="1364" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1364" s="44">
+        <v>1497</v>
+      </c>
+      <c r="B1364" s="1" t="s">
+        <v>2648</v>
+      </c>
+      <c r="C1364" s="44">
+        <v>3</v>
+      </c>
+      <c r="D1364" s="44" t="s">
+        <v>1784</v>
+      </c>
+      <c r="E1364" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1364" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1364" s="44" t="s">
+        <v>2657</v>
+      </c>
+    </row>
+    <row r="1365" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1365" s="44">
+        <v>1498</v>
+      </c>
+      <c r="B1365" s="1" t="s">
+        <v>2650</v>
+      </c>
+      <c r="C1365" s="44">
+        <v>3</v>
+      </c>
+      <c r="D1365" s="44" t="s">
+        <v>1723</v>
+      </c>
+      <c r="E1365" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1365" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1365" s="44" t="s">
+        <v>2656</v>
+      </c>
+    </row>
+    <row r="1366" spans="1:7" s="41" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1366" s="41">
+        <v>1499</v>
+      </c>
+      <c r="B1366" s="1" t="s">
+        <v>2651</v>
+      </c>
+      <c r="C1366" s="41">
+        <v>4</v>
+      </c>
+      <c r="D1366" s="41" t="s">
+        <v>1723</v>
+      </c>
+      <c r="E1366" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1366" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1366" s="41" t="s">
+        <v>2655</v>
+      </c>
+    </row>
+    <row r="1367" spans="1:7" s="45" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1367" s="1"/>
+    </row>
+    <row r="1368" spans="1:7" s="45" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1368" s="1"/>
+    </row>
+    <row r="1369" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A1369" s="46" t="s">
         <v>1724</v>
       </c>
-      <c r="B1365" s="45"/>
-      <c r="C1365" s="45"/>
-      <c r="D1365" s="45"/>
-      <c r="E1365" s="45"/>
-      <c r="F1365" s="45"/>
-      <c r="G1365" s="45"/>
-    </row>
-    <row r="1366" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A1366" s="46" t="s">
+      <c r="B1369" s="46"/>
+      <c r="C1369" s="46"/>
+      <c r="D1369" s="46"/>
+      <c r="E1369" s="46"/>
+      <c r="F1369" s="46"/>
+      <c r="G1369" s="46"/>
+    </row>
+    <row r="1370" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A1370" s="47" t="s">
         <v>1770</v>
       </c>
-      <c r="B1366" s="46"/>
-      <c r="C1366" s="46"/>
-      <c r="D1366" s="46"/>
-      <c r="E1366" s="46"/>
-      <c r="F1366" s="46"/>
-      <c r="G1366" s="46"/>
+      <c r="B1370" s="47"/>
+      <c r="C1370" s="47"/>
+      <c r="D1370" s="47"/>
+      <c r="E1370" s="47"/>
+      <c r="F1370" s="47"/>
+      <c r="G1370" s="47"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I1366" xr:uid="{CB07CE66-8F15-46FF-A90A-43FDB2DB428F}"/>
+  <autoFilter ref="A1:I1370" xr:uid="{CB07CE66-8F15-46FF-A90A-43FDB2DB428F}"/>
   <mergeCells count="2">
-    <mergeCell ref="A1365:G1365"/>
-    <mergeCell ref="A1366:G1366"/>
+    <mergeCell ref="A1369:G1369"/>
+    <mergeCell ref="A1370:G1370"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" display="https://leetcode.com/problems/zigzag-conversion" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -40789,10 +41019,12 @@
     <hyperlink ref="B1324" r:id="rId1270" display="https://leetcode.com/problems/form-largest-integer-with-digits-that-add-up-to-target" xr:uid="{CEC926E2-018F-4415-8398-1A0F7E4C25BB}"/>
     <hyperlink ref="B1337" r:id="rId1271" display="https://leetcode.com/problems/maximum-product-of-two-elements-in-an-array" xr:uid="{8BF94D50-CF00-4D5F-9CA7-842FE55F1926}"/>
     <hyperlink ref="B1346" r:id="rId1272" display="https://leetcode.com/problems/final-prices-with-a-special-discount-in-a-shop" xr:uid="{BC06B41B-129A-4199-A20E-68C6125375FA}"/>
+    <hyperlink ref="B1360" r:id="rId1273" display="https://leetcode.com/problems/the-kth-factor-of-n" xr:uid="{F4FA8572-EBEE-4776-8639-1773FF043167}"/>
+    <hyperlink ref="B1361" r:id="rId1274" display="https://leetcode.com/problems/longest-subarray-of-1s-after-deleting-one-element" xr:uid="{4DEAB69F-3BA5-407B-B4FA-08A32A00D851}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1273"/>
-  <drawing r:id="rId1274"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1275"/>
+  <drawing r:id="rId1276"/>
 </worksheet>
 </file>
 

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB80A34F-D3D7-4CA3-9E62-22F22A33BEBB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FED56D95-2685-4A52-B285-4C6EAD6BA322}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="SQL" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'LeetCode Algorithm'!$A$1:$I$1370</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'LeetCode Algorithm'!$A$1:$I$1373</definedName>
   </definedNames>
   <calcPr calcId="191029" iterate="1"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7051" uniqueCount="2658">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7071" uniqueCount="2666">
   <si>
     <t>Difficulty</t>
   </si>
@@ -8011,6 +8011,30 @@
   </si>
   <si>
     <t>Mod K first, deduct the positive count by negative count and pair the positive count to be equal.</t>
+  </si>
+  <si>
+    <t>Can Make Arithmetic Progression From Sequence</t>
+  </si>
+  <si>
+    <t>Sort and check the gap.</t>
+  </si>
+  <si>
+    <t>Minimum Possible Integer After at Most K Adjacent Swaps On Digits</t>
+  </si>
+  <si>
+    <t>On every digit check how many digits ahead are greater than it.</t>
+  </si>
+  <si>
+    <t>Count Submatrices With All Ones</t>
+  </si>
+  <si>
+    <t>On every position, check submatrices with different width as stack.</t>
+  </si>
+  <si>
+    <t>Last Moment Before All Ants Fall Out of a Plank</t>
+  </si>
+  <si>
+    <t>Assume ants does not return.</t>
   </si>
 </sst>
 </file>
@@ -8055,7 +8079,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -8082,6 +8106,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -8492,10 +8517,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I1370"/>
+  <dimension ref="A1:I1373"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1347" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D1362" sqref="D1362"/>
+    <sheetView tabSelected="1" topLeftCell="C1352" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G1368" sqref="G1368"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -39712,39 +39737,128 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="1367" spans="1:7" s="45" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1367" s="1"/>
-    </row>
-    <row r="1368" spans="1:7" s="45" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1368" s="1"/>
-    </row>
-    <row r="1369" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A1369" s="46" t="s">
+    <row r="1367" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1367" s="46">
+        <v>1502</v>
+      </c>
+      <c r="B1367" s="1" t="s">
+        <v>2658</v>
+      </c>
+      <c r="C1367" s="46">
+        <v>1</v>
+      </c>
+      <c r="D1367" s="46" t="s">
+        <v>1776</v>
+      </c>
+      <c r="E1367" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1367" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1367" s="46" t="s">
+        <v>2659</v>
+      </c>
+    </row>
+    <row r="1368" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1368" s="46">
+        <v>1503</v>
+      </c>
+      <c r="B1368" s="1" t="s">
+        <v>2664</v>
+      </c>
+      <c r="C1368" s="46">
+        <v>3</v>
+      </c>
+      <c r="D1368" s="46" t="s">
+        <v>1721</v>
+      </c>
+      <c r="E1368" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1368" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1368" s="46" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="1369" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1369" s="46">
+        <v>1504</v>
+      </c>
+      <c r="B1369" s="1" t="s">
+        <v>2662</v>
+      </c>
+      <c r="C1369" s="46">
+        <v>4</v>
+      </c>
+      <c r="D1369" s="46" t="s">
+        <v>1784</v>
+      </c>
+      <c r="E1369" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1369" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1369" s="46" t="s">
+        <v>2663</v>
+      </c>
+    </row>
+    <row r="1370" spans="1:7" s="45" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1370" s="45">
+        <v>1505</v>
+      </c>
+      <c r="B1370" s="1" t="s">
+        <v>2660</v>
+      </c>
+      <c r="C1370" s="45">
+        <v>4</v>
+      </c>
+      <c r="D1370" s="45" t="s">
+        <v>1784</v>
+      </c>
+      <c r="E1370" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1370" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1370" s="45" t="s">
+        <v>2661</v>
+      </c>
+    </row>
+    <row r="1371" spans="1:7" s="45" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1371" s="1"/>
+    </row>
+    <row r="1372" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A1372" s="47" t="s">
         <v>1724</v>
       </c>
-      <c r="B1369" s="46"/>
-      <c r="C1369" s="46"/>
-      <c r="D1369" s="46"/>
-      <c r="E1369" s="46"/>
-      <c r="F1369" s="46"/>
-      <c r="G1369" s="46"/>
-    </row>
-    <row r="1370" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A1370" s="47" t="s">
+      <c r="B1372" s="47"/>
+      <c r="C1372" s="47"/>
+      <c r="D1372" s="47"/>
+      <c r="E1372" s="47"/>
+      <c r="F1372" s="47"/>
+      <c r="G1372" s="47"/>
+    </row>
+    <row r="1373" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A1373" s="48" t="s">
         <v>1770</v>
       </c>
-      <c r="B1370" s="47"/>
-      <c r="C1370" s="47"/>
-      <c r="D1370" s="47"/>
-      <c r="E1370" s="47"/>
-      <c r="F1370" s="47"/>
-      <c r="G1370" s="47"/>
+      <c r="B1373" s="48"/>
+      <c r="C1373" s="48"/>
+      <c r="D1373" s="48"/>
+      <c r="E1373" s="48"/>
+      <c r="F1373" s="48"/>
+      <c r="G1373" s="48"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I1370" xr:uid="{CB07CE66-8F15-46FF-A90A-43FDB2DB428F}"/>
+  <autoFilter ref="A1:I1373" xr:uid="{CB07CE66-8F15-46FF-A90A-43FDB2DB428F}"/>
   <mergeCells count="2">
-    <mergeCell ref="A1369:G1369"/>
-    <mergeCell ref="A1370:G1370"/>
+    <mergeCell ref="A1372:G1372"/>
+    <mergeCell ref="A1373:G1373"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" display="https://leetcode.com/problems/zigzag-conversion" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -41021,10 +41135,12 @@
     <hyperlink ref="B1346" r:id="rId1272" display="https://leetcode.com/problems/final-prices-with-a-special-discount-in-a-shop" xr:uid="{BC06B41B-129A-4199-A20E-68C6125375FA}"/>
     <hyperlink ref="B1360" r:id="rId1273" display="https://leetcode.com/problems/the-kth-factor-of-n" xr:uid="{F4FA8572-EBEE-4776-8639-1773FF043167}"/>
     <hyperlink ref="B1361" r:id="rId1274" display="https://leetcode.com/problems/longest-subarray-of-1s-after-deleting-one-element" xr:uid="{4DEAB69F-3BA5-407B-B4FA-08A32A00D851}"/>
+    <hyperlink ref="B1370" r:id="rId1275" display="https://leetcode.com/problems/minimum-possible-integer-after-at-most-k-adjacent-swaps-on-digits" xr:uid="{324AC978-5934-4357-9CA1-A496DF1BCE81}"/>
+    <hyperlink ref="B1368" r:id="rId1276" display="https://leetcode.com/problems/last-moment-before-all-ants-fall-out-of-a-plank" xr:uid="{A9DBD12B-7601-4CCB-B7DD-C5672C65B028}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1275"/>
-  <drawing r:id="rId1276"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1277"/>
+  <drawing r:id="rId1278"/>
 </worksheet>
 </file>
 

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FED56D95-2685-4A52-B285-4C6EAD6BA322}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{270073F7-3737-40C2-A6A3-2C2C882FD151}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="SQL" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'LeetCode Algorithm'!$A$1:$I$1373</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'LeetCode Algorithm'!$A$1:$I$1381</definedName>
   </definedNames>
   <calcPr calcId="191029" iterate="1"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7071" uniqueCount="2666">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7111" uniqueCount="2682">
   <si>
     <t>Difficulty</t>
   </si>
@@ -8035,6 +8035,54 @@
   </si>
   <si>
     <t>Assume ants does not return.</t>
+  </si>
+  <si>
+    <t>Reformat Date </t>
+  </si>
+  <si>
+    <t>Map month and parse day</t>
+  </si>
+  <si>
+    <t>Range Sum of Sorted Subarray Sums</t>
+  </si>
+  <si>
+    <t>Count subarray ending on each index, or we can build from one element.</t>
+  </si>
+  <si>
+    <t>Minimum Difference Between Largest and Smallest Value in Three Moves</t>
+  </si>
+  <si>
+    <t>Compare cut all left or right, then take one element away.</t>
+  </si>
+  <si>
+    <t>Stone Game IV</t>
+  </si>
+  <si>
+    <t>knapsack problem, win + 1 = lose, lose + 1 = win, win will not change state</t>
+  </si>
+  <si>
+    <t>Number of Good Pairs</t>
+  </si>
+  <si>
+    <t>Count numbers and count pairs</t>
+  </si>
+  <si>
+    <t>Number of Substrings With Only 1s</t>
+  </si>
+  <si>
+    <t>Add current length of continus 1s</t>
+  </si>
+  <si>
+    <t>Path with Maximum Probability</t>
+  </si>
+  <si>
+    <t>Best Position for a Service Centre</t>
+  </si>
+  <si>
+    <t>Shortest Path on maximum probability</t>
+  </si>
+  <si>
+    <t>Zoom in by scale, give each side a extended length</t>
   </si>
 </sst>
 </file>
@@ -8079,7 +8127,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -8106,6 +8154,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -8517,10 +8566,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I1373"/>
+  <dimension ref="A1:I1381"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1352" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G1368" sqref="G1368"/>
+    <sheetView tabSelected="1" topLeftCell="C1359" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G1378" sqref="G1378"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -39829,36 +39878,220 @@
         <v>2661</v>
       </c>
     </row>
-    <row r="1371" spans="1:7" s="45" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1371" s="1"/>
-    </row>
-    <row r="1372" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A1372" s="47" t="s">
+    <row r="1371" spans="1:7" s="47" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1371" s="47">
+        <v>1507</v>
+      </c>
+      <c r="B1371" s="1" t="s">
+        <v>2666</v>
+      </c>
+      <c r="C1371" s="47">
+        <v>2</v>
+      </c>
+      <c r="D1371" s="47" t="s">
+        <v>1716</v>
+      </c>
+      <c r="E1371" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1371" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1371" s="47" t="s">
+        <v>2667</v>
+      </c>
+    </row>
+    <row r="1372" spans="1:7" s="47" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1372" s="47">
+        <v>1508</v>
+      </c>
+      <c r="B1372" s="1" t="s">
+        <v>2668</v>
+      </c>
+      <c r="C1372" s="47">
+        <v>3</v>
+      </c>
+      <c r="D1372" s="47" t="s">
+        <v>1723</v>
+      </c>
+      <c r="E1372" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1372" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1372" s="47" t="s">
+        <v>2669</v>
+      </c>
+    </row>
+    <row r="1373" spans="1:7" s="47" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1373" s="47">
+        <v>1509</v>
+      </c>
+      <c r="B1373" s="1" t="s">
+        <v>2670</v>
+      </c>
+      <c r="C1373" s="47">
+        <v>2</v>
+      </c>
+      <c r="D1373" s="47" t="s">
+        <v>1776</v>
+      </c>
+      <c r="E1373" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1373" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1373" s="47" t="s">
+        <v>2671</v>
+      </c>
+    </row>
+    <row r="1374" spans="1:7" s="47" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1374" s="47">
+        <v>1510</v>
+      </c>
+      <c r="B1374" s="1" t="s">
+        <v>2672</v>
+      </c>
+      <c r="C1374" s="47">
+        <v>4</v>
+      </c>
+      <c r="D1374" s="47" t="s">
+        <v>1784</v>
+      </c>
+      <c r="E1374" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1374" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1374" s="47" t="s">
+        <v>2673</v>
+      </c>
+    </row>
+    <row r="1375" spans="1:7" s="47" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1375" s="47">
+        <v>1512</v>
+      </c>
+      <c r="B1375" s="1" t="s">
+        <v>2674</v>
+      </c>
+      <c r="C1375" s="47">
+        <v>2</v>
+      </c>
+      <c r="D1375" s="47" t="s">
+        <v>1784</v>
+      </c>
+      <c r="E1375" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1375" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1375" s="47" t="s">
+        <v>2675</v>
+      </c>
+    </row>
+    <row r="1376" spans="1:7" s="47" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1376" s="47">
+        <v>1513</v>
+      </c>
+      <c r="B1376" s="1" t="s">
+        <v>2676</v>
+      </c>
+      <c r="C1376" s="47">
+        <v>2</v>
+      </c>
+      <c r="D1376" s="47" t="s">
+        <v>1784</v>
+      </c>
+      <c r="E1376" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1376" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1376" s="47" t="s">
+        <v>2677</v>
+      </c>
+    </row>
+    <row r="1377" spans="1:7" s="47" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1377" s="47">
+        <v>1514</v>
+      </c>
+      <c r="B1377" s="1" t="s">
+        <v>2678</v>
+      </c>
+      <c r="C1377" s="47">
+        <v>4</v>
+      </c>
+      <c r="D1377" s="47" t="s">
+        <v>1784</v>
+      </c>
+      <c r="E1377" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1377" s="47" t="s">
+        <v>187</v>
+      </c>
+      <c r="G1377" s="47" t="s">
+        <v>2680</v>
+      </c>
+    </row>
+    <row r="1378" spans="1:7" s="47" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1378" s="47">
+        <v>1515</v>
+      </c>
+      <c r="B1378" s="21" t="s">
+        <v>2679</v>
+      </c>
+      <c r="C1378" s="47">
+        <v>4</v>
+      </c>
+      <c r="D1378" s="47" t="s">
+        <v>1716</v>
+      </c>
+      <c r="E1378" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1378" s="47" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1378" s="47" t="s">
+        <v>2681</v>
+      </c>
+    </row>
+    <row r="1379" spans="1:7" s="45" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1379" s="1"/>
+    </row>
+    <row r="1380" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A1380" s="48" t="s">
         <v>1724</v>
       </c>
-      <c r="B1372" s="47"/>
-      <c r="C1372" s="47"/>
-      <c r="D1372" s="47"/>
-      <c r="E1372" s="47"/>
-      <c r="F1372" s="47"/>
-      <c r="G1372" s="47"/>
-    </row>
-    <row r="1373" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A1373" s="48" t="s">
+      <c r="B1380" s="48"/>
+      <c r="C1380" s="48"/>
+      <c r="D1380" s="48"/>
+      <c r="E1380" s="48"/>
+      <c r="F1380" s="48"/>
+      <c r="G1380" s="48"/>
+    </row>
+    <row r="1381" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A1381" s="49" t="s">
         <v>1770</v>
       </c>
-      <c r="B1373" s="48"/>
-      <c r="C1373" s="48"/>
-      <c r="D1373" s="48"/>
-      <c r="E1373" s="48"/>
-      <c r="F1373" s="48"/>
-      <c r="G1373" s="48"/>
+      <c r="B1381" s="49"/>
+      <c r="C1381" s="49"/>
+      <c r="D1381" s="49"/>
+      <c r="E1381" s="49"/>
+      <c r="F1381" s="49"/>
+      <c r="G1381" s="49"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I1373" xr:uid="{CB07CE66-8F15-46FF-A90A-43FDB2DB428F}"/>
+  <autoFilter ref="A1:I1381" xr:uid="{CB07CE66-8F15-46FF-A90A-43FDB2DB428F}"/>
   <mergeCells count="2">
-    <mergeCell ref="A1372:G1372"/>
-    <mergeCell ref="A1373:G1373"/>
+    <mergeCell ref="A1380:G1380"/>
+    <mergeCell ref="A1381:G1381"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" display="https://leetcode.com/problems/zigzag-conversion" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -41137,10 +41370,11 @@
     <hyperlink ref="B1361" r:id="rId1274" display="https://leetcode.com/problems/longest-subarray-of-1s-after-deleting-one-element" xr:uid="{4DEAB69F-3BA5-407B-B4FA-08A32A00D851}"/>
     <hyperlink ref="B1370" r:id="rId1275" display="https://leetcode.com/problems/minimum-possible-integer-after-at-most-k-adjacent-swaps-on-digits" xr:uid="{324AC978-5934-4357-9CA1-A496DF1BCE81}"/>
     <hyperlink ref="B1368" r:id="rId1276" display="https://leetcode.com/problems/last-moment-before-all-ants-fall-out-of-a-plank" xr:uid="{A9DBD12B-7601-4CCB-B7DD-C5672C65B028}"/>
+    <hyperlink ref="B1371" r:id="rId1277" display="https://leetcode.com/problems/reformat-date" xr:uid="{82B56503-1CA9-4018-A2F2-90054B359563}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1277"/>
-  <drawing r:id="rId1278"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1278"/>
+  <drawing r:id="rId1279"/>
 </worksheet>
 </file>
 

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{270073F7-3737-40C2-A6A3-2C2C882FD151}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75168A37-1C16-44A4-A8EF-F72CF690E216}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="SQL" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'LeetCode Algorithm'!$A$1:$I$1381</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'LeetCode Algorithm'!$A$1:$I$1385</definedName>
   </definedNames>
   <calcPr calcId="191029" iterate="1"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7111" uniqueCount="2682">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7131" uniqueCount="2690">
   <si>
     <t>Difficulty</t>
   </si>
@@ -8083,6 +8083,30 @@
   </si>
   <si>
     <t>Zoom in by scale, give each side a extended length</t>
+  </si>
+  <si>
+    <t>Water Bottles</t>
+  </si>
+  <si>
+    <t>Number of Nodes in the Sub-Tree With the Same Label</t>
+  </si>
+  <si>
+    <t>Combine new changed and left over from previous</t>
+  </si>
+  <si>
+    <t>DFS, add all tag count from children.</t>
+  </si>
+  <si>
+    <t>Maximum Number of Non-Overlapping Substrings</t>
+  </si>
+  <si>
+    <t>Record edge for each character, scan the range, extend range if found other characters. Discard the large range if cover</t>
+  </si>
+  <si>
+    <t>Find a Value of a Mysterious Function Closest to Target</t>
+  </si>
+  <si>
+    <t>and will cause decreasing so for any subarray, only track previous ones which lead to different and result.</t>
   </si>
 </sst>
 </file>
@@ -8127,7 +8151,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -8154,6 +8178,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -8566,10 +8591,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I1381"/>
+  <dimension ref="A1:I1385"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1359" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G1378" sqref="G1378"/>
+    <sheetView tabSelected="1" topLeftCell="C1363" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G1382" sqref="G1382"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -40062,36 +40087,128 @@
         <v>2681</v>
       </c>
     </row>
-    <row r="1379" spans="1:7" s="45" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1379" s="1"/>
-    </row>
-    <row r="1380" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A1380" s="48" t="s">
+    <row r="1379" spans="1:7" s="48" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1379" s="48">
+        <v>1518</v>
+      </c>
+      <c r="B1379" s="21" t="s">
+        <v>2682</v>
+      </c>
+      <c r="C1379" s="48">
+        <v>2</v>
+      </c>
+      <c r="D1379" s="48" t="s">
+        <v>1721</v>
+      </c>
+      <c r="E1379" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1379" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1379" s="48" t="s">
+        <v>2684</v>
+      </c>
+    </row>
+    <row r="1380" spans="1:7" s="48" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1380" s="48">
+        <v>1519</v>
+      </c>
+      <c r="B1380" s="21" t="s">
+        <v>2683</v>
+      </c>
+      <c r="C1380" s="48">
+        <v>3</v>
+      </c>
+      <c r="D1380" s="48" t="s">
+        <v>1721</v>
+      </c>
+      <c r="E1380" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1380" s="48" t="s">
+        <v>140</v>
+      </c>
+      <c r="G1380" s="48" t="s">
+        <v>2685</v>
+      </c>
+    </row>
+    <row r="1381" spans="1:7" s="48" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1381" s="48">
+        <v>1520</v>
+      </c>
+      <c r="B1381" s="21" t="s">
+        <v>2686</v>
+      </c>
+      <c r="C1381" s="48">
+        <v>5</v>
+      </c>
+      <c r="D1381" s="48" t="s">
+        <v>1736</v>
+      </c>
+      <c r="E1381" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1381" s="48" t="s">
+        <v>95</v>
+      </c>
+      <c r="G1381" s="48" t="s">
+        <v>2687</v>
+      </c>
+    </row>
+    <row r="1382" spans="1:7" s="45" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1382" s="45">
+        <v>1521</v>
+      </c>
+      <c r="B1382" s="1" t="s">
+        <v>2688</v>
+      </c>
+      <c r="C1382" s="45">
+        <v>4</v>
+      </c>
+      <c r="D1382" s="45" t="s">
+        <v>1736</v>
+      </c>
+      <c r="E1382" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1382" s="45" t="s">
+        <v>134</v>
+      </c>
+      <c r="G1382" s="45" t="s">
+        <v>2689</v>
+      </c>
+    </row>
+    <row r="1383" spans="1:7" s="48" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1383" s="1"/>
+    </row>
+    <row r="1384" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A1384" s="49" t="s">
         <v>1724</v>
       </c>
-      <c r="B1380" s="48"/>
-      <c r="C1380" s="48"/>
-      <c r="D1380" s="48"/>
-      <c r="E1380" s="48"/>
-      <c r="F1380" s="48"/>
-      <c r="G1380" s="48"/>
-    </row>
-    <row r="1381" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A1381" s="49" t="s">
+      <c r="B1384" s="49"/>
+      <c r="C1384" s="49"/>
+      <c r="D1384" s="49"/>
+      <c r="E1384" s="49"/>
+      <c r="F1384" s="49"/>
+      <c r="G1384" s="49"/>
+    </row>
+    <row r="1385" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A1385" s="50" t="s">
         <v>1770</v>
       </c>
-      <c r="B1381" s="49"/>
-      <c r="C1381" s="49"/>
-      <c r="D1381" s="49"/>
-      <c r="E1381" s="49"/>
-      <c r="F1381" s="49"/>
-      <c r="G1381" s="49"/>
+      <c r="B1385" s="50"/>
+      <c r="C1385" s="50"/>
+      <c r="D1385" s="50"/>
+      <c r="E1385" s="50"/>
+      <c r="F1385" s="50"/>
+      <c r="G1385" s="50"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I1381" xr:uid="{CB07CE66-8F15-46FF-A90A-43FDB2DB428F}"/>
+  <autoFilter ref="A1:I1385" xr:uid="{CB07CE66-8F15-46FF-A90A-43FDB2DB428F}"/>
   <mergeCells count="2">
-    <mergeCell ref="A1380:G1380"/>
-    <mergeCell ref="A1381:G1381"/>
+    <mergeCell ref="A1384:G1384"/>
+    <mergeCell ref="A1385:G1385"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" display="https://leetcode.com/problems/zigzag-conversion" xr:uid="{00000000-0004-0000-0000-000000000000}"/>

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75168A37-1C16-44A4-A8EF-F72CF690E216}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AD58BA2-3E93-46E6-AEAE-2759DE618EE1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="SQL" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'LeetCode Algorithm'!$A$1:$I$1385</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'LeetCode Algorithm'!$A$1:$I$1402</definedName>
   </definedNames>
   <calcPr calcId="191029" iterate="1"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7131" uniqueCount="2690">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7171" uniqueCount="2706">
   <si>
     <t>Difficulty</t>
   </si>
@@ -8107,6 +8107,54 @@
   </si>
   <si>
     <t>and will cause decreasing so for any subarray, only track previous ones which lead to different and result.</t>
+  </si>
+  <si>
+    <t>Count Odd Numbers in an Interval Range</t>
+  </si>
+  <si>
+    <t>if start is odd and count is odd add 1</t>
+  </si>
+  <si>
+    <t>Number of Sub-arrays With Odd Sum</t>
+  </si>
+  <si>
+    <t>Prefix sum, add previous odd or even count</t>
+  </si>
+  <si>
+    <t>Number of Good Ways to Split a String</t>
+  </si>
+  <si>
+    <t>Add all to right first then build left and count left and right</t>
+  </si>
+  <si>
+    <t>Minimum Number of Increments on Subarrays to Form a Target Array</t>
+  </si>
+  <si>
+    <t>When climb mountain add the steps to result</t>
+  </si>
+  <si>
+    <t>Shuffle String</t>
+  </si>
+  <si>
+    <t>Assign character to result per indices</t>
+  </si>
+  <si>
+    <t>Bulb Switcher IV</t>
+  </si>
+  <si>
+    <t>Number of Good Leaf Nodes Pairs</t>
+  </si>
+  <si>
+    <t>String Compression II</t>
+  </si>
+  <si>
+    <t>Starting from left with 0, with each bit flap adding one.</t>
+  </si>
+  <si>
+    <t>Calculate distance from left children and right children</t>
+  </si>
+  <si>
+    <t>At each subrange, count most characters possible.</t>
   </si>
 </sst>
 </file>
@@ -8151,7 +8199,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -8178,6 +8226,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -8591,10 +8640,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I1385"/>
+  <dimension ref="A1:I1402"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1363" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G1382" sqref="G1382"/>
+    <sheetView tabSelected="1" topLeftCell="C1371" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G1390" sqref="G1390"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -40179,36 +40228,247 @@
         <v>2689</v>
       </c>
     </row>
-    <row r="1383" spans="1:7" s="48" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1383" s="1"/>
-    </row>
-    <row r="1384" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A1384" s="49" t="s">
+    <row r="1383" spans="1:7" s="49" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1383" s="49">
+        <v>1523</v>
+      </c>
+      <c r="B1383" s="1" t="s">
+        <v>2690</v>
+      </c>
+      <c r="C1383" s="49">
+        <v>1</v>
+      </c>
+      <c r="D1383" s="49" t="s">
+        <v>1721</v>
+      </c>
+      <c r="E1383" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1383" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1383" s="49" t="s">
+        <v>2691</v>
+      </c>
+    </row>
+    <row r="1384" spans="1:7" s="49" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1384" s="49">
+        <v>1524</v>
+      </c>
+      <c r="B1384" s="1" t="s">
+        <v>2692</v>
+      </c>
+      <c r="C1384" s="49">
+        <v>2</v>
+      </c>
+      <c r="D1384" s="49" t="s">
+        <v>1784</v>
+      </c>
+      <c r="E1384" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1384" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1384" s="49" t="s">
+        <v>2693</v>
+      </c>
+    </row>
+    <row r="1385" spans="1:7" s="49" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1385" s="49">
+        <v>1525</v>
+      </c>
+      <c r="B1385" s="1" t="s">
+        <v>2694</v>
+      </c>
+      <c r="C1385" s="49">
+        <v>2</v>
+      </c>
+      <c r="D1385" s="49" t="s">
+        <v>1733</v>
+      </c>
+      <c r="E1385" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1385" s="49" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1385" s="49" t="s">
+        <v>2695</v>
+      </c>
+    </row>
+    <row r="1386" spans="1:7" s="49" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1386" s="49">
+        <v>1526</v>
+      </c>
+      <c r="B1386" s="1" t="s">
+        <v>2696</v>
+      </c>
+      <c r="C1386" s="49">
+        <v>4</v>
+      </c>
+      <c r="D1386" s="49" t="s">
+        <v>1723</v>
+      </c>
+      <c r="E1386" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1386" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1386" s="49" t="s">
+        <v>2697</v>
+      </c>
+    </row>
+    <row r="1387" spans="1:7" s="49" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1387" s="49">
+        <v>1528</v>
+      </c>
+      <c r="B1387" s="1" t="s">
+        <v>2698</v>
+      </c>
+      <c r="C1387" s="49">
+        <v>1</v>
+      </c>
+      <c r="D1387" s="49" t="s">
+        <v>1776</v>
+      </c>
+      <c r="E1387" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1387" s="49" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1387" s="49" t="s">
+        <v>2699</v>
+      </c>
+    </row>
+    <row r="1388" spans="1:7" s="49" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1388" s="49">
+        <v>1529</v>
+      </c>
+      <c r="B1388" s="1" t="s">
+        <v>2700</v>
+      </c>
+      <c r="C1388" s="49">
+        <v>2</v>
+      </c>
+      <c r="D1388" s="49" t="s">
+        <v>1721</v>
+      </c>
+      <c r="E1388" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1388" s="49" t="s">
+        <v>134</v>
+      </c>
+      <c r="G1388" s="49" t="s">
+        <v>2703</v>
+      </c>
+    </row>
+    <row r="1389" spans="1:7" s="49" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1389" s="49">
+        <v>1530</v>
+      </c>
+      <c r="B1389" s="1" t="s">
+        <v>2701</v>
+      </c>
+      <c r="C1389" s="49">
+        <v>3</v>
+      </c>
+      <c r="D1389" s="49" t="s">
+        <v>1776</v>
+      </c>
+      <c r="E1389" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1389" s="49" t="s">
+        <v>140</v>
+      </c>
+      <c r="G1389" s="49" t="s">
+        <v>2704</v>
+      </c>
+    </row>
+    <row r="1390" spans="1:7" s="49" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1390" s="49">
+        <v>1531</v>
+      </c>
+      <c r="B1390" s="1" t="s">
+        <v>2702</v>
+      </c>
+      <c r="C1390" s="49">
+        <v>5</v>
+      </c>
+      <c r="D1390" s="49" t="s">
+        <v>1736</v>
+      </c>
+      <c r="E1390" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1390" s="49" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1390" s="49" t="s">
+        <v>2705</v>
+      </c>
+    </row>
+    <row r="1391" spans="1:7" s="49" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1391" s="1"/>
+    </row>
+    <row r="1392" spans="1:7" s="49" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1392" s="1"/>
+    </row>
+    <row r="1393" spans="1:7" s="49" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1393" s="1"/>
+    </row>
+    <row r="1394" spans="1:7" s="49" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1394" s="1"/>
+    </row>
+    <row r="1395" spans="1:7" s="49" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1395" s="1"/>
+    </row>
+    <row r="1396" spans="1:7" s="49" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1396" s="1"/>
+    </row>
+    <row r="1397" spans="1:7" s="49" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1397" s="1"/>
+    </row>
+    <row r="1398" spans="1:7" s="49" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1398" s="1"/>
+    </row>
+    <row r="1399" spans="1:7" s="49" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1399" s="1"/>
+    </row>
+    <row r="1400" spans="1:7" s="48" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1400" s="1"/>
+    </row>
+    <row r="1401" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A1401" s="50" t="s">
         <v>1724</v>
       </c>
-      <c r="B1384" s="49"/>
-      <c r="C1384" s="49"/>
-      <c r="D1384" s="49"/>
-      <c r="E1384" s="49"/>
-      <c r="F1384" s="49"/>
-      <c r="G1384" s="49"/>
-    </row>
-    <row r="1385" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A1385" s="50" t="s">
+      <c r="B1401" s="50"/>
+      <c r="C1401" s="50"/>
+      <c r="D1401" s="50"/>
+      <c r="E1401" s="50"/>
+      <c r="F1401" s="50"/>
+      <c r="G1401" s="50"/>
+    </row>
+    <row r="1402" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A1402" s="51" t="s">
         <v>1770</v>
       </c>
-      <c r="B1385" s="50"/>
-      <c r="C1385" s="50"/>
-      <c r="D1385" s="50"/>
-      <c r="E1385" s="50"/>
-      <c r="F1385" s="50"/>
-      <c r="G1385" s="50"/>
+      <c r="B1402" s="51"/>
+      <c r="C1402" s="51"/>
+      <c r="D1402" s="51"/>
+      <c r="E1402" s="51"/>
+      <c r="F1402" s="51"/>
+      <c r="G1402" s="51"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I1385" xr:uid="{CB07CE66-8F15-46FF-A90A-43FDB2DB428F}"/>
+  <autoFilter ref="A1:I1402" xr:uid="{CB07CE66-8F15-46FF-A90A-43FDB2DB428F}"/>
   <mergeCells count="2">
-    <mergeCell ref="A1384:G1384"/>
-    <mergeCell ref="A1385:G1385"/>
+    <mergeCell ref="A1401:G1401"/>
+    <mergeCell ref="A1402:G1402"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" display="https://leetcode.com/problems/zigzag-conversion" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -41488,10 +41748,11 @@
     <hyperlink ref="B1370" r:id="rId1275" display="https://leetcode.com/problems/minimum-possible-integer-after-at-most-k-adjacent-swaps-on-digits" xr:uid="{324AC978-5934-4357-9CA1-A496DF1BCE81}"/>
     <hyperlink ref="B1368" r:id="rId1276" display="https://leetcode.com/problems/last-moment-before-all-ants-fall-out-of-a-plank" xr:uid="{A9DBD12B-7601-4CCB-B7DD-C5672C65B028}"/>
     <hyperlink ref="B1371" r:id="rId1277" display="https://leetcode.com/problems/reformat-date" xr:uid="{82B56503-1CA9-4018-A2F2-90054B359563}"/>
+    <hyperlink ref="B1387" r:id="rId1278" display="https://leetcode.com/problems/shuffle-string" xr:uid="{C22288D6-15E2-4407-9746-210D51FB15FC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1278"/>
-  <drawing r:id="rId1279"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1279"/>
+  <drawing r:id="rId1280"/>
 </worksheet>
 </file>
 

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AD58BA2-3E93-46E6-AEAE-2759DE618EE1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54F20FBD-158C-4D56-9B06-A51DB9A21E12}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19170" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LeetCode Algorithm" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7171" uniqueCount="2706">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7191" uniqueCount="2714">
   <si>
     <t>Difficulty</t>
   </si>
@@ -8155,6 +8155,30 @@
   </si>
   <si>
     <t>At each subrange, count most characters possible.</t>
+  </si>
+  <si>
+    <t>Count Good Triplets</t>
+  </si>
+  <si>
+    <t>Three layers of loop.</t>
+  </si>
+  <si>
+    <t>Find the Winner of an Array Game</t>
+  </si>
+  <si>
+    <t>Minimum Swaps to Arrange a Binary Grid</t>
+  </si>
+  <si>
+    <t>Get the Maximum Score </t>
+  </si>
+  <si>
+    <t>Loop from end to begin, merge and max when see duplicate</t>
+  </si>
+  <si>
+    <t>Count the winning time, and discard when it loose, the first satisfied is the winner.</t>
+  </si>
+  <si>
+    <t>Count tailing zero and swap top down to satisfy every row.</t>
   </si>
 </sst>
 </file>
@@ -8642,8 +8666,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I1402"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1371" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G1390" sqref="G1390"/>
+    <sheetView tabSelected="1" topLeftCell="C1377" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G1393" sqref="G1393"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -40413,16 +40437,96 @@
       </c>
     </row>
     <row r="1391" spans="1:7" s="49" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1391" s="1"/>
+      <c r="A1391" s="49">
+        <v>1534</v>
+      </c>
+      <c r="B1391" s="1" t="s">
+        <v>2706</v>
+      </c>
+      <c r="C1391" s="49">
+        <v>2</v>
+      </c>
+      <c r="D1391" s="49" t="s">
+        <v>1716</v>
+      </c>
+      <c r="E1391" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1391" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1391" s="49" t="s">
+        <v>2707</v>
+      </c>
     </row>
     <row r="1392" spans="1:7" s="49" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1392" s="1"/>
+      <c r="A1392" s="49">
+        <v>1535</v>
+      </c>
+      <c r="B1392" s="1" t="s">
+        <v>2708</v>
+      </c>
+      <c r="C1392" s="49">
+        <v>2</v>
+      </c>
+      <c r="D1392" s="49" t="s">
+        <v>1723</v>
+      </c>
+      <c r="E1392" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1392" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1392" s="49" t="s">
+        <v>2712</v>
+      </c>
     </row>
     <row r="1393" spans="1:7" s="49" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1393" s="1"/>
+      <c r="A1393" s="49">
+        <v>1536</v>
+      </c>
+      <c r="B1393" s="1" t="s">
+        <v>2709</v>
+      </c>
+      <c r="C1393" s="49">
+        <v>3</v>
+      </c>
+      <c r="D1393" s="49" t="s">
+        <v>1716</v>
+      </c>
+      <c r="E1393" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1393" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1393" s="49" t="s">
+        <v>2713</v>
+      </c>
     </row>
     <row r="1394" spans="1:7" s="49" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1394" s="1"/>
+      <c r="A1394" s="49">
+        <v>1537</v>
+      </c>
+      <c r="B1394" s="1" t="s">
+        <v>2710</v>
+      </c>
+      <c r="C1394" s="49">
+        <v>4</v>
+      </c>
+      <c r="D1394" s="49" t="s">
+        <v>1736</v>
+      </c>
+      <c r="E1394" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1394" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1394" s="49" t="s">
+        <v>2711</v>
+      </c>
     </row>
     <row r="1395" spans="1:7" s="49" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B1395" s="1"/>
@@ -41749,10 +41853,12 @@
     <hyperlink ref="B1368" r:id="rId1276" display="https://leetcode.com/problems/last-moment-before-all-ants-fall-out-of-a-plank" xr:uid="{A9DBD12B-7601-4CCB-B7DD-C5672C65B028}"/>
     <hyperlink ref="B1371" r:id="rId1277" display="https://leetcode.com/problems/reformat-date" xr:uid="{82B56503-1CA9-4018-A2F2-90054B359563}"/>
     <hyperlink ref="B1387" r:id="rId1278" display="https://leetcode.com/problems/shuffle-string" xr:uid="{C22288D6-15E2-4407-9746-210D51FB15FC}"/>
+    <hyperlink ref="B1393" r:id="rId1279" display="https://leetcode.com/problems/minimum-swaps-to-arrange-a-binary-grid" xr:uid="{541CD9FF-FE80-4FFF-B958-DBF99B63E957}"/>
+    <hyperlink ref="B1394" r:id="rId1280" display="https://leetcode.com/problems/get-the-maximum-score" xr:uid="{13856399-CC0B-44F6-91F2-908761F53906}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1279"/>
-  <drawing r:id="rId1280"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1281"/>
+  <drawing r:id="rId1282"/>
 </worksheet>
 </file>
 

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54F20FBD-158C-4D56-9B06-A51DB9A21E12}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{041E6B6D-C289-4CC3-BC77-B6B9E64AD1DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19170" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="SQL" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'LeetCode Algorithm'!$A$1:$I$1402</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'LeetCode Algorithm'!$A$1:$I$1404</definedName>
   </definedNames>
   <calcPr calcId="191029" iterate="1"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7191" uniqueCount="2714">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7231" uniqueCount="2729">
   <si>
     <t>Difficulty</t>
   </si>
@@ -8179,6 +8179,51 @@
   </si>
   <si>
     <t>Count tailing zero and swap top down to satisfy every row.</t>
+  </si>
+  <si>
+    <t>Kth Missing Positive Number</t>
+  </si>
+  <si>
+    <t>Can Convert String in K Moves</t>
+  </si>
+  <si>
+    <t>Minimum Insertions to Balance a Parentheses String</t>
+  </si>
+  <si>
+    <t>Find Longest Awesome Substring </t>
+  </si>
+  <si>
+    <t>For each gap, deduct it from k, until fall in</t>
+  </si>
+  <si>
+    <t>count shift in each place and calculate maximum round by divide k by 26.</t>
+  </si>
+  <si>
+    <t>No need stack, match one left with 2 right, when mismatch add parentheses</t>
+  </si>
+  <si>
+    <t>Count digit even by bit, match to hashtable (can be array), allow one bit different.</t>
+  </si>
+  <si>
+    <t>Make The String Great</t>
+  </si>
+  <si>
+    <t>Find Kth Bit in Nth Binary String </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximum Number of Non-Overlapping Subarrays With Sum Equals Target  </t>
+  </si>
+  <si>
+    <t>Minimum Cost to Cut a Stick</t>
+  </si>
+  <si>
+    <t>Use stack to pop up pair of characters</t>
+  </si>
+  <si>
+    <t>reduce K as first of second half, if second half, rotate position and do inverse.</t>
+  </si>
+  <si>
+    <t>Keep count increasing, track prefix sum to last index</t>
   </si>
 </sst>
 </file>
@@ -8223,7 +8268,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -8250,6 +8295,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -8664,10 +8710,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I1402"/>
+  <dimension ref="A1:I1404"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1377" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G1393" sqref="G1393"/>
+    <sheetView tabSelected="1" topLeftCell="C1386" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G1402" sqref="G1402"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -40529,50 +40575,216 @@
       </c>
     </row>
     <row r="1395" spans="1:7" s="49" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1395" s="1"/>
+      <c r="A1395" s="49">
+        <v>1539</v>
+      </c>
+      <c r="B1395" s="1" t="s">
+        <v>2714</v>
+      </c>
+      <c r="C1395" s="49">
+        <v>2</v>
+      </c>
+      <c r="D1395" s="49" t="s">
+        <v>1776</v>
+      </c>
+      <c r="E1395" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1395" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1395" s="49" t="s">
+        <v>2718</v>
+      </c>
     </row>
     <row r="1396" spans="1:7" s="49" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1396" s="1"/>
+      <c r="A1396" s="49">
+        <v>1540</v>
+      </c>
+      <c r="B1396" s="1" t="s">
+        <v>2715</v>
+      </c>
+      <c r="C1396" s="49">
+        <v>3</v>
+      </c>
+      <c r="D1396" s="49" t="s">
+        <v>1736</v>
+      </c>
+      <c r="E1396" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1396" s="49" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1396" s="49" t="s">
+        <v>2719</v>
+      </c>
     </row>
     <row r="1397" spans="1:7" s="49" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1397" s="1"/>
+      <c r="A1397" s="49">
+        <v>1541</v>
+      </c>
+      <c r="B1397" s="1" t="s">
+        <v>2716</v>
+      </c>
+      <c r="C1397" s="49">
+        <v>3</v>
+      </c>
+      <c r="D1397" s="49" t="s">
+        <v>1723</v>
+      </c>
+      <c r="E1397" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1397" s="49" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1397" s="49" t="s">
+        <v>2720</v>
+      </c>
     </row>
     <row r="1398" spans="1:7" s="49" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1398" s="1"/>
-    </row>
-    <row r="1399" spans="1:7" s="49" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1399" s="1"/>
-    </row>
-    <row r="1400" spans="1:7" s="48" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1400" s="1"/>
-    </row>
-    <row r="1401" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A1401" s="50" t="s">
+      <c r="A1398" s="49">
+        <v>1542</v>
+      </c>
+      <c r="B1398" s="1" t="s">
+        <v>2717</v>
+      </c>
+      <c r="C1398" s="49">
+        <v>4</v>
+      </c>
+      <c r="D1398" s="49" t="s">
+        <v>1784</v>
+      </c>
+      <c r="E1398" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1398" s="49" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1398" s="49" t="s">
+        <v>2721</v>
+      </c>
+    </row>
+    <row r="1399" spans="1:7" s="50" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1399" s="50">
+        <v>1543</v>
+      </c>
+      <c r="B1399" s="1" t="s">
+        <v>2722</v>
+      </c>
+      <c r="C1399" s="50">
+        <v>2</v>
+      </c>
+      <c r="D1399" s="50" t="s">
+        <v>1776</v>
+      </c>
+      <c r="E1399" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1399" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1399" s="50" t="s">
+        <v>2726</v>
+      </c>
+    </row>
+    <row r="1400" spans="1:7" s="50" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1400" s="50">
+        <v>1544</v>
+      </c>
+      <c r="B1400" s="1" t="s">
+        <v>2723</v>
+      </c>
+      <c r="C1400" s="50">
+        <v>3</v>
+      </c>
+      <c r="D1400" s="50" t="s">
+        <v>1776</v>
+      </c>
+      <c r="E1400" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1400" s="50" t="s">
+        <v>134</v>
+      </c>
+      <c r="G1400" s="50" t="s">
+        <v>2727</v>
+      </c>
+    </row>
+    <row r="1401" spans="1:7" s="49" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1401" s="49">
+        <v>1545</v>
+      </c>
+      <c r="B1401" s="1" t="s">
+        <v>2724</v>
+      </c>
+      <c r="C1401" s="49">
+        <v>3</v>
+      </c>
+      <c r="D1401" s="49" t="s">
+        <v>1784</v>
+      </c>
+      <c r="E1401" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1401" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1401" s="49" t="s">
+        <v>2728</v>
+      </c>
+    </row>
+    <row r="1402" spans="1:7" s="48" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1402" s="48">
+        <v>1546</v>
+      </c>
+      <c r="B1402" s="1" t="s">
+        <v>2725</v>
+      </c>
+      <c r="C1402" s="48">
+        <v>4</v>
+      </c>
+      <c r="D1402" s="48" t="s">
+        <v>1784</v>
+      </c>
+      <c r="E1402" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1402" s="48" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1402" s="48" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="1403" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A1403" s="51" t="s">
         <v>1724</v>
       </c>
-      <c r="B1401" s="50"/>
-      <c r="C1401" s="50"/>
-      <c r="D1401" s="50"/>
-      <c r="E1401" s="50"/>
-      <c r="F1401" s="50"/>
-      <c r="G1401" s="50"/>
-    </row>
-    <row r="1402" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A1402" s="51" t="s">
+      <c r="B1403" s="51"/>
+      <c r="C1403" s="51"/>
+      <c r="D1403" s="51"/>
+      <c r="E1403" s="51"/>
+      <c r="F1403" s="51"/>
+      <c r="G1403" s="51"/>
+    </row>
+    <row r="1404" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A1404" s="52" t="s">
         <v>1770</v>
       </c>
-      <c r="B1402" s="51"/>
-      <c r="C1402" s="51"/>
-      <c r="D1402" s="51"/>
-      <c r="E1402" s="51"/>
-      <c r="F1402" s="51"/>
-      <c r="G1402" s="51"/>
+      <c r="B1404" s="52"/>
+      <c r="C1404" s="52"/>
+      <c r="D1404" s="52"/>
+      <c r="E1404" s="52"/>
+      <c r="F1404" s="52"/>
+      <c r="G1404" s="52"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I1402" xr:uid="{CB07CE66-8F15-46FF-A90A-43FDB2DB428F}"/>
+  <autoFilter ref="A1:I1404" xr:uid="{CB07CE66-8F15-46FF-A90A-43FDB2DB428F}"/>
   <mergeCells count="2">
-    <mergeCell ref="A1401:G1401"/>
-    <mergeCell ref="A1402:G1402"/>
+    <mergeCell ref="A1403:G1403"/>
+    <mergeCell ref="A1404:G1404"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" display="https://leetcode.com/problems/zigzag-conversion" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -41855,10 +42067,14 @@
     <hyperlink ref="B1387" r:id="rId1278" display="https://leetcode.com/problems/shuffle-string" xr:uid="{C22288D6-15E2-4407-9746-210D51FB15FC}"/>
     <hyperlink ref="B1393" r:id="rId1279" display="https://leetcode.com/problems/minimum-swaps-to-arrange-a-binary-grid" xr:uid="{541CD9FF-FE80-4FFF-B958-DBF99B63E957}"/>
     <hyperlink ref="B1394" r:id="rId1280" display="https://leetcode.com/problems/get-the-maximum-score" xr:uid="{13856399-CC0B-44F6-91F2-908761F53906}"/>
+    <hyperlink ref="B1395" r:id="rId1281" display="https://leetcode.com/problems/kth-missing-positive-number" xr:uid="{708491C8-8C78-4ABE-AE99-79973E462E25}"/>
+    <hyperlink ref="B1397" r:id="rId1282" display="https://leetcode.com/problems/minimum-insertions-to-balance-a-parentheses-string" xr:uid="{F5EAFA29-291D-4700-9BDB-E8E286A76741}"/>
+    <hyperlink ref="B1398" r:id="rId1283" display="https://leetcode.com/problems/find-longest-awesome-substring" xr:uid="{99395477-7B40-4A5D-A715-B7D95DDCDC61}"/>
+    <hyperlink ref="B1400" r:id="rId1284" display="https://leetcode.com/problems/find-kth-bit-in-nth-binary-string" xr:uid="{732E888E-B968-4155-8F12-3D910B79F03C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1281"/>
-  <drawing r:id="rId1282"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1285"/>
+  <drawing r:id="rId1286"/>
 </worksheet>
 </file>
 

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02E0295C-6451-4E2F-9C48-9DD40A4182E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A6EE438-C599-4A7A-8E8D-724DBE700367}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19170" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="SQL" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'LeetCode Algorithm'!$A$1:$I$1410</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'LeetCode Algorithm'!$A$1:$I$1430</definedName>
   </definedNames>
   <calcPr calcId="191029" iterate="1"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7300" uniqueCount="2744">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7340" uniqueCount="2760">
   <si>
     <t>Difficulty</t>
   </si>
@@ -8269,6 +8269,54 @@
   </si>
   <si>
     <t>Reduce N to 1, divide 3 and divide 2 each time</t>
+  </si>
+  <si>
+    <t>Thousand Separator</t>
+  </si>
+  <si>
+    <t>mod 3 then shift every 3 characters.</t>
+  </si>
+  <si>
+    <t>Minimum Number of Vertices to Reach All Nodes</t>
+  </si>
+  <si>
+    <t>Topology Sort, only start nodes.</t>
+  </si>
+  <si>
+    <t>Minimum Numbers of Function Calls to Make Target Array</t>
+  </si>
+  <si>
+    <t>Detect Cycles in 2D Grid</t>
+  </si>
+  <si>
+    <t>add all +1 operations and maximum double operations</t>
+  </si>
+  <si>
+    <t>DFS or BFS and avoid direct previous node.</t>
+  </si>
+  <si>
+    <t>Most Visited Sector in a Circular Track</t>
+  </si>
+  <si>
+    <t>Only loop beteen first and last node, use while better than for loop</t>
+  </si>
+  <si>
+    <t>Maximum Number of Coins You Can Get</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find Latest Group of Size M </t>
+  </si>
+  <si>
+    <t>Stone Game V</t>
+  </si>
+  <si>
+    <t>Select second high in every pair from maximum to minmum, leave low one third not touched.</t>
+  </si>
+  <si>
+    <t>Top down better than bottom up.</t>
+  </si>
+  <si>
+    <t>Keep length at edge point in array</t>
   </si>
 </sst>
 </file>
@@ -8313,7 +8361,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -8340,6 +8388,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -8757,10 +8806,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I1410"/>
+  <dimension ref="A1:I1430"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1390" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G1406" sqref="G1406"/>
+    <sheetView tabSelected="1" topLeftCell="C1397" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F1413" sqref="F1413"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -41044,39 +41093,259 @@
         <v>2743</v>
       </c>
     </row>
-    <row r="1407" spans="1:7" s="52" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1407" s="1"/>
-    </row>
-    <row r="1408" spans="1:7" s="52" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1408" s="1"/>
-    </row>
-    <row r="1409" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A1409" s="53" t="s">
+    <row r="1407" spans="1:7" s="53" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1407" s="53">
+        <v>1556</v>
+      </c>
+      <c r="B1407" s="1" t="s">
+        <v>2744</v>
+      </c>
+      <c r="C1407" s="53">
+        <v>1</v>
+      </c>
+      <c r="D1407" s="53" t="s">
+        <v>1719</v>
+      </c>
+      <c r="E1407" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1407" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1407" s="53" t="s">
+        <v>2745</v>
+      </c>
+    </row>
+    <row r="1408" spans="1:7" s="53" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1408" s="53">
+        <v>1557</v>
+      </c>
+      <c r="B1408" s="1" t="s">
+        <v>2746</v>
+      </c>
+      <c r="C1408" s="53">
+        <v>3</v>
+      </c>
+      <c r="D1408" s="53" t="s">
+        <v>1722</v>
+      </c>
+      <c r="E1408" s="53" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1408" s="53" t="s">
+        <v>187</v>
+      </c>
+      <c r="G1408" s="53" t="s">
+        <v>2747</v>
+      </c>
+    </row>
+    <row r="1409" spans="1:7" s="53" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1409" s="53">
+        <v>1558</v>
+      </c>
+      <c r="B1409" s="1" t="s">
+        <v>2748</v>
+      </c>
+      <c r="C1409" s="53">
+        <v>2</v>
+      </c>
+      <c r="D1409" s="53" t="s">
+        <v>1720</v>
+      </c>
+      <c r="E1409" s="53" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1409" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1409" s="53" t="s">
+        <v>2750</v>
+      </c>
+    </row>
+    <row r="1410" spans="1:7" s="53" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1410" s="53">
+        <v>1559</v>
+      </c>
+      <c r="B1410" s="1" t="s">
+        <v>2749</v>
+      </c>
+      <c r="C1410" s="53">
+        <v>4</v>
+      </c>
+      <c r="D1410" s="53" t="s">
+        <v>1722</v>
+      </c>
+      <c r="E1410" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1410" s="53" t="s">
+        <v>187</v>
+      </c>
+      <c r="G1410" s="53" t="s">
+        <v>2751</v>
+      </c>
+    </row>
+    <row r="1411" spans="1:7" s="53" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1411" s="53">
+        <v>1560</v>
+      </c>
+      <c r="B1411" s="1" t="s">
+        <v>2752</v>
+      </c>
+      <c r="C1411" s="53">
+        <v>2</v>
+      </c>
+      <c r="D1411" s="53" t="s">
+        <v>1775</v>
+      </c>
+      <c r="E1411" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1411" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1411" s="53" t="s">
+        <v>2753</v>
+      </c>
+    </row>
+    <row r="1412" spans="1:7" s="53" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1412" s="53">
+        <v>1561</v>
+      </c>
+      <c r="B1412" s="1" t="s">
+        <v>2754</v>
+      </c>
+      <c r="C1412" s="53">
+        <v>2</v>
+      </c>
+      <c r="D1412" s="53" t="s">
+        <v>1775</v>
+      </c>
+      <c r="E1412" s="53" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1412" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1412" s="53" t="s">
+        <v>2757</v>
+      </c>
+    </row>
+    <row r="1413" spans="1:7" s="53" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1413" s="53">
+        <v>1562</v>
+      </c>
+      <c r="B1413" s="1" t="s">
+        <v>2755</v>
+      </c>
+      <c r="C1413" s="53">
+        <v>4</v>
+      </c>
+      <c r="D1413" s="53" t="s">
+        <v>1955</v>
+      </c>
+      <c r="E1413" s="53" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1413" s="53" t="s">
+        <v>95</v>
+      </c>
+      <c r="G1413" s="53" t="s">
+        <v>2759</v>
+      </c>
+    </row>
+    <row r="1414" spans="1:7" s="53" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1414" s="53">
+        <v>1563</v>
+      </c>
+      <c r="B1414" s="1" t="s">
+        <v>2756</v>
+      </c>
+      <c r="C1414" s="53">
+        <v>4</v>
+      </c>
+      <c r="D1414" s="53" t="s">
+        <v>1722</v>
+      </c>
+      <c r="E1414" s="53" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1414" s="53" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1414" s="53" t="s">
+        <v>2758</v>
+      </c>
+    </row>
+    <row r="1415" spans="1:7" s="53" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1415" s="1"/>
+    </row>
+    <row r="1416" spans="1:7" s="53" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1416" s="1"/>
+    </row>
+    <row r="1417" spans="1:7" s="53" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1417" s="1"/>
+    </row>
+    <row r="1418" spans="1:7" s="53" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1418" s="1"/>
+    </row>
+    <row r="1419" spans="1:7" s="53" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1419" s="1"/>
+    </row>
+    <row r="1420" spans="1:7" s="53" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1420" s="1"/>
+    </row>
+    <row r="1421" spans="1:7" s="53" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1421" s="1"/>
+    </row>
+    <row r="1422" spans="1:7" s="53" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1422" s="1"/>
+    </row>
+    <row r="1423" spans="1:7" s="53" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1423" s="1"/>
+    </row>
+    <row r="1424" spans="1:7" s="53" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1424" s="1"/>
+    </row>
+    <row r="1425" spans="1:7" s="53" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1425" s="1"/>
+    </row>
+    <row r="1426" spans="1:7" s="53" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1426" s="1"/>
+    </row>
+    <row r="1427" spans="1:7" s="52" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1427" s="1"/>
+    </row>
+    <row r="1428" spans="1:7" s="52" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1428" s="1"/>
+    </row>
+    <row r="1429" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A1429" s="54" t="s">
         <v>1723</v>
       </c>
-      <c r="B1409" s="53"/>
-      <c r="C1409" s="53"/>
-      <c r="D1409" s="53"/>
-      <c r="E1409" s="53"/>
-      <c r="F1409" s="53"/>
-      <c r="G1409" s="53"/>
-    </row>
-    <row r="1410" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A1410" s="54" t="s">
+      <c r="B1429" s="54"/>
+      <c r="C1429" s="54"/>
+      <c r="D1429" s="54"/>
+      <c r="E1429" s="54"/>
+      <c r="F1429" s="54"/>
+      <c r="G1429" s="54"/>
+    </row>
+    <row r="1430" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A1430" s="55" t="s">
         <v>1769</v>
       </c>
-      <c r="B1410" s="54"/>
-      <c r="C1410" s="54"/>
-      <c r="D1410" s="54"/>
-      <c r="E1410" s="54"/>
-      <c r="F1410" s="54"/>
-      <c r="G1410" s="54"/>
+      <c r="B1430" s="55"/>
+      <c r="C1430" s="55"/>
+      <c r="D1430" s="55"/>
+      <c r="E1430" s="55"/>
+      <c r="F1430" s="55"/>
+      <c r="G1430" s="55"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I1410" xr:uid="{CB07CE66-8F15-46FF-A90A-43FDB2DB428F}"/>
+  <autoFilter ref="A1:I1430" xr:uid="{CB07CE66-8F15-46FF-A90A-43FDB2DB428F}"/>
   <mergeCells count="2">
-    <mergeCell ref="A1409:G1409"/>
-    <mergeCell ref="A1410:G1410"/>
+    <mergeCell ref="A1429:G1429"/>
+    <mergeCell ref="A1430:G1430"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" display="https://leetcode.com/problems/zigzag-conversion" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -42363,10 +42632,11 @@
     <hyperlink ref="B1397" r:id="rId1282" display="https://leetcode.com/problems/minimum-insertions-to-balance-a-parentheses-string" xr:uid="{F5EAFA29-291D-4700-9BDB-E8E286A76741}"/>
     <hyperlink ref="B1398" r:id="rId1283" display="https://leetcode.com/problems/find-longest-awesome-substring" xr:uid="{99395477-7B40-4A5D-A715-B7D95DDCDC61}"/>
     <hyperlink ref="B1400" r:id="rId1284" display="https://leetcode.com/problems/find-kth-bit-in-nth-binary-string" xr:uid="{732E888E-B968-4155-8F12-3D910B79F03C}"/>
+    <hyperlink ref="B1411" r:id="rId1285" display="https://leetcode.com/problems/most-visited-sector-in-a-circular-track" xr:uid="{3557F711-838D-42E0-B7BE-D92FF647B7B7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1285"/>
-  <drawing r:id="rId1286"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1286"/>
+  <drawing r:id="rId1287"/>
 </worksheet>
 </file>
 

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE597F43-8BD2-47E9-9719-9FA9C291C657}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A594642D-EEE2-406E-B9F0-D765EBFFB346}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LeetCode Algorithm" sheetId="1" r:id="rId1"/>
     <sheet name="SQL" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'LeetCode Algorithm'!$A$1:$I$1433</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'LeetCode Algorithm'!$A$1:$I$1454</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7420" uniqueCount="2793">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7480" uniqueCount="2817">
   <si>
     <t>Difficulty</t>
   </si>
@@ -8416,6 +8416,78 @@
   </si>
   <si>
     <t>Put digit positions in 10 queues, When see s greater than t, bubble up a digit from queue.</t>
+  </si>
+  <si>
+    <t>Sum of All Odd Length Subarrays</t>
+  </si>
+  <si>
+    <t>O(N), prev odd -&gt;even, prev even + 1-&gt;odd, add current with count.</t>
+  </si>
+  <si>
+    <t>Maximum Sum Obtained of Any Permutation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Make Sum Divisible by P </t>
+  </si>
+  <si>
+    <t>sweep line as meeting room to get the cliff points and then arrange by sorting desc.</t>
+  </si>
+  <si>
+    <t>Prefix sum, check target remainder.</t>
+  </si>
+  <si>
+    <t>Strange Printer II</t>
+  </si>
+  <si>
+    <t>Calculate range first, then covered by other color, finally do topology sort.</t>
+  </si>
+  <si>
+    <t>Rearrange Spaces Between Words</t>
+  </si>
+  <si>
+    <t>Count space and words then arrange.</t>
+  </si>
+  <si>
+    <t>Split a String Into the Max Number of Unique Substrings</t>
+  </si>
+  <si>
+    <t>Maximum Non Negative Product in a Matrix</t>
+  </si>
+  <si>
+    <t>Minimum Cost to Connect Two Groups of Points</t>
+  </si>
+  <si>
+    <t>Iterate all possible split.</t>
+  </si>
+  <si>
+    <t>Count the minimum and maximum products on each cell on the way.</t>
+  </si>
+  <si>
+    <t>Use bit mask for right set coverage.</t>
+  </si>
+  <si>
+    <t>Crawler Log Folder</t>
+  </si>
+  <si>
+    <t>when new folder depth + 1, ".." depth -1 but no less than 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximum Profit of Operating a Centennial Wheel </t>
+  </si>
+  <si>
+    <t>Process until all customers processed and waiting list is 0.</t>
+  </si>
+  <si>
+    <t>Throne Inheritance</t>
+  </si>
+  <si>
+    <t>No need to delete on death mark it. DFS to get inheritance</t>
+  </si>
+  <si>
+    <t>Maximum Number of Achievable Transfer Requests</t>
+  </si>
+  <si>
+    <t>Iterate all requests by choose or not, make sure balance is 0.</t>
   </si>
 </sst>
 </file>
@@ -8460,7 +8532,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -8487,6 +8559,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -8906,10 +8979,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I1433"/>
+  <dimension ref="A1:I1454"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1415" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G1430" sqref="G1430"/>
+    <sheetView tabSelected="1" topLeftCell="C1427" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E1438" sqref="E1438"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -41745,36 +41818,339 @@
         <v>2792</v>
       </c>
     </row>
-    <row r="1431" spans="1:7" s="52" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1431" s="1"/>
-    </row>
-    <row r="1432" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A1432" s="55" t="s">
+    <row r="1431" spans="1:7" s="55" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1431" s="55">
+        <v>1588</v>
+      </c>
+      <c r="B1431" s="1" t="s">
+        <v>2793</v>
+      </c>
+      <c r="C1431" s="55">
+        <v>2</v>
+      </c>
+      <c r="D1431" s="55" t="s">
+        <v>1782</v>
+      </c>
+      <c r="E1431" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1431" s="55" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1431" s="55" t="s">
+        <v>2794</v>
+      </c>
+    </row>
+    <row r="1432" spans="1:7" s="55" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1432" s="55">
+        <v>1589</v>
+      </c>
+      <c r="B1432" s="1" t="s">
+        <v>2795</v>
+      </c>
+      <c r="C1432" s="55">
+        <v>3</v>
+      </c>
+      <c r="D1432" s="55" t="s">
+        <v>1782</v>
+      </c>
+      <c r="E1432" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1432" s="55" t="s">
+        <v>95</v>
+      </c>
+      <c r="G1432" s="55" t="s">
+        <v>2797</v>
+      </c>
+    </row>
+    <row r="1433" spans="1:7" s="55" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1433" s="55">
+        <v>1590</v>
+      </c>
+      <c r="B1433" s="1" t="s">
+        <v>2796</v>
+      </c>
+      <c r="C1433" s="55">
+        <v>3</v>
+      </c>
+      <c r="D1433" s="55" t="s">
+        <v>1782</v>
+      </c>
+      <c r="E1433" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1433" s="55" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1433" s="55" t="s">
+        <v>2798</v>
+      </c>
+    </row>
+    <row r="1434" spans="1:7" s="55" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1434" s="55">
+        <v>1591</v>
+      </c>
+      <c r="B1434" s="1" t="s">
+        <v>2799</v>
+      </c>
+      <c r="C1434" s="55">
+        <v>4</v>
+      </c>
+      <c r="D1434" s="55" t="s">
+        <v>1782</v>
+      </c>
+      <c r="E1434" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1434" s="55" t="s">
+        <v>187</v>
+      </c>
+      <c r="G1434" s="55" t="s">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="1435" spans="1:7" s="55" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1435" s="55">
+        <v>1592</v>
+      </c>
+      <c r="B1435" s="1" t="s">
+        <v>2801</v>
+      </c>
+      <c r="C1435" s="55">
+        <v>2</v>
+      </c>
+      <c r="D1435" s="55" t="s">
+        <v>1774</v>
+      </c>
+      <c r="E1435" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1435" s="55" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1435" s="55" t="s">
+        <v>2802</v>
+      </c>
+    </row>
+    <row r="1436" spans="1:7" s="55" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1436" s="55">
+        <v>1593</v>
+      </c>
+      <c r="B1436" s="1" t="s">
+        <v>2803</v>
+      </c>
+      <c r="C1436" s="55">
+        <v>3</v>
+      </c>
+      <c r="D1436" s="55" t="s">
+        <v>1722</v>
+      </c>
+      <c r="E1436" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1436" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1436" s="55" t="s">
+        <v>2806</v>
+      </c>
+    </row>
+    <row r="1437" spans="1:7" s="55" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1437" s="55">
+        <v>1594</v>
+      </c>
+      <c r="B1437" s="1" t="s">
+        <v>2804</v>
+      </c>
+      <c r="C1437" s="55">
+        <v>2</v>
+      </c>
+      <c r="D1437" s="55" t="s">
+        <v>1722</v>
+      </c>
+      <c r="E1437" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1437" s="55" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1437" s="55" t="s">
+        <v>2807</v>
+      </c>
+    </row>
+    <row r="1438" spans="1:7" s="55" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1438" s="55">
+        <v>1595</v>
+      </c>
+      <c r="B1438" s="1" t="s">
+        <v>2805</v>
+      </c>
+      <c r="C1438" s="55">
+        <v>4</v>
+      </c>
+      <c r="D1438" s="55" t="s">
+        <v>1722</v>
+      </c>
+      <c r="E1438" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1438" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1438" s="55" t="s">
+        <v>2808</v>
+      </c>
+    </row>
+    <row r="1439" spans="1:7" s="55" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1439" s="55">
+        <v>1598</v>
+      </c>
+      <c r="B1439" s="1" t="s">
+        <v>2809</v>
+      </c>
+      <c r="C1439" s="55">
+        <v>1</v>
+      </c>
+      <c r="D1439" s="55" t="s">
+        <v>1774</v>
+      </c>
+      <c r="E1439" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1439" s="55" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1439" s="55" t="s">
+        <v>2810</v>
+      </c>
+    </row>
+    <row r="1440" spans="1:7" s="55" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1440" s="55">
+        <v>1599</v>
+      </c>
+      <c r="B1440" s="1" t="s">
+        <v>2811</v>
+      </c>
+      <c r="C1440" s="55">
+        <v>2</v>
+      </c>
+      <c r="D1440" s="55" t="s">
+        <v>1774</v>
+      </c>
+      <c r="E1440" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1440" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1440" s="55" t="s">
+        <v>2812</v>
+      </c>
+    </row>
+    <row r="1441" spans="1:7" s="55" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1441" s="55">
+        <v>1600</v>
+      </c>
+      <c r="B1441" s="1" t="s">
+        <v>2813</v>
+      </c>
+      <c r="C1441" s="55">
+        <v>3</v>
+      </c>
+      <c r="D1441" s="55" t="s">
+        <v>1774</v>
+      </c>
+      <c r="E1441" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1441" s="55" t="s">
+        <v>458</v>
+      </c>
+      <c r="G1441" s="55" t="s">
+        <v>2814</v>
+      </c>
+    </row>
+    <row r="1442" spans="1:7" s="55" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1442" s="55">
+        <v>1601</v>
+      </c>
+      <c r="B1442" s="1" t="s">
+        <v>2815</v>
+      </c>
+      <c r="C1442" s="55">
+        <v>4</v>
+      </c>
+      <c r="D1442" s="55" t="s">
+        <v>1722</v>
+      </c>
+      <c r="E1442" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1442" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1442" s="55" t="s">
+        <v>2816</v>
+      </c>
+    </row>
+    <row r="1443" spans="1:7" s="55" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1443" s="1"/>
+    </row>
+    <row r="1444" spans="1:7" s="55" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1444" s="1"/>
+    </row>
+    <row r="1445" spans="1:7" s="55" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1445" s="1"/>
+    </row>
+    <row r="1446" spans="1:7" s="55" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1446" s="1"/>
+    </row>
+    <row r="1447" spans="1:7" s="55" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1447" s="1"/>
+    </row>
+    <row r="1448" spans="1:7" s="55" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1448" s="1"/>
+    </row>
+    <row r="1449" spans="1:7" s="55" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1449" s="1"/>
+    </row>
+    <row r="1450" spans="1:7" s="55" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1450" s="1"/>
+    </row>
+    <row r="1451" spans="1:7" s="55" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1451" s="1"/>
+    </row>
+    <row r="1452" spans="1:7" s="52" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1452" s="1"/>
+    </row>
+    <row r="1453" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A1453" s="56" t="s">
         <v>1723</v>
       </c>
-      <c r="B1432" s="55"/>
-      <c r="C1432" s="55"/>
-      <c r="D1432" s="55"/>
-      <c r="E1432" s="55"/>
-      <c r="F1432" s="55"/>
-      <c r="G1432" s="55"/>
-    </row>
-    <row r="1433" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A1433" s="56" t="s">
+      <c r="B1453" s="56"/>
+      <c r="C1453" s="56"/>
+      <c r="D1453" s="56"/>
+      <c r="E1453" s="56"/>
+      <c r="F1453" s="56"/>
+      <c r="G1453" s="56"/>
+    </row>
+    <row r="1454" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A1454" s="57" t="s">
         <v>2772</v>
       </c>
-      <c r="B1433" s="56"/>
-      <c r="C1433" s="56"/>
-      <c r="D1433" s="56"/>
-      <c r="E1433" s="56"/>
-      <c r="F1433" s="56"/>
-      <c r="G1433" s="56"/>
+      <c r="B1454" s="57"/>
+      <c r="C1454" s="57"/>
+      <c r="D1454" s="57"/>
+      <c r="E1454" s="57"/>
+      <c r="F1454" s="57"/>
+      <c r="G1454" s="57"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I1433" xr:uid="{CB07CE66-8F15-46FF-A90A-43FDB2DB428F}"/>
+  <autoFilter ref="A1:I1454" xr:uid="{CB07CE66-8F15-46FF-A90A-43FDB2DB428F}"/>
   <mergeCells count="2">
-    <mergeCell ref="A1432:G1432"/>
-    <mergeCell ref="A1433:G1433"/>
+    <mergeCell ref="A1453:G1453"/>
+    <mergeCell ref="A1454:G1454"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" display="https://leetcode.com/problems/zigzag-conversion" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -43074,9 +43450,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E01657D4-0457-4414-9EA3-8C4EB4AF3913}">
   <dimension ref="A1:F90"/>
   <sheetViews>
-    <sheetView topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="F82" sqref="F82"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A594642D-EEE2-406E-B9F0-D765EBFFB346}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9136B60-08A1-4C93-85F4-2B8603585FB5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LeetCode Algorithm" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7480" uniqueCount="2817">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7520" uniqueCount="2833">
   <si>
     <t>Difficulty</t>
   </si>
@@ -8488,6 +8488,54 @@
   </si>
   <si>
     <t>Iterate all requests by choose or not, make sure balance is 0.</t>
+  </si>
+  <si>
+    <t>Design Parking System</t>
+  </si>
+  <si>
+    <t>Alert Using Same Key-Card Three or More Times in a One Hour Period</t>
+  </si>
+  <si>
+    <t>Deduct from capacity</t>
+  </si>
+  <si>
+    <t>Sort by people, then parse time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find Valid Matrix Given Row and Column Sums </t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>Assume minimum of rowSum and ColSum all in that cell.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find Servers That Handled Most Number of Requests </t>
+  </si>
+  <si>
+    <t>Align free server on time point</t>
+  </si>
+  <si>
+    <t>Special Array With X Elements Greater Than or Equal X </t>
+  </si>
+  <si>
+    <t>Sort the iterate, check with current and previous number.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Even Odd Tree </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximum Number of Visible Points </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimum One Bit Operations to Make Integers Zero  </t>
+  </si>
+  <si>
+    <t>Calculate the angle for each point vs X axis.</t>
+  </si>
+  <si>
+    <t>Convert gray code to binary.</t>
   </si>
 </sst>
 </file>
@@ -8981,8 +9029,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I1454"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1427" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E1438" sqref="E1438"/>
+    <sheetView tabSelected="1" topLeftCell="C1436" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G1450" sqref="G1450"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -42095,28 +42143,188 @@
       </c>
     </row>
     <row r="1443" spans="1:7" s="55" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1443" s="1"/>
+      <c r="A1443" s="55">
+        <v>1603</v>
+      </c>
+      <c r="B1443" s="1" t="s">
+        <v>2817</v>
+      </c>
+      <c r="C1443" s="55">
+        <v>1</v>
+      </c>
+      <c r="D1443" s="55" t="s">
+        <v>1774</v>
+      </c>
+      <c r="E1443" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1443" s="55" t="s">
+        <v>458</v>
+      </c>
+      <c r="G1443" s="55" t="s">
+        <v>2819</v>
+      </c>
     </row>
     <row r="1444" spans="1:7" s="55" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1444" s="1"/>
+      <c r="A1444" s="55">
+        <v>1604</v>
+      </c>
+      <c r="B1444" s="1" t="s">
+        <v>2818</v>
+      </c>
+      <c r="C1444" s="55">
+        <v>2</v>
+      </c>
+      <c r="D1444" s="55" t="s">
+        <v>1722</v>
+      </c>
+      <c r="E1444" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1444" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1444" s="55" t="s">
+        <v>2820</v>
+      </c>
     </row>
     <row r="1445" spans="1:7" s="55" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1445" s="1"/>
+      <c r="A1445" s="55">
+        <v>1605</v>
+      </c>
+      <c r="B1445" s="1" t="s">
+        <v>2821</v>
+      </c>
+      <c r="C1445" s="55">
+        <v>4</v>
+      </c>
+      <c r="D1445" s="55" t="s">
+        <v>2822</v>
+      </c>
+      <c r="E1445" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1445" s="55" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1445" s="55" t="s">
+        <v>2823</v>
+      </c>
     </row>
     <row r="1446" spans="1:7" s="55" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1446" s="1"/>
+      <c r="A1446" s="55">
+        <v>1606</v>
+      </c>
+      <c r="B1446" s="1" t="s">
+        <v>2824</v>
+      </c>
+      <c r="C1446" s="55">
+        <v>4</v>
+      </c>
+      <c r="D1446" s="55" t="s">
+        <v>1782</v>
+      </c>
+      <c r="E1446" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1446" s="55" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1446" s="55" t="s">
+        <v>2825</v>
+      </c>
     </row>
     <row r="1447" spans="1:7" s="55" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1447" s="1"/>
+      <c r="A1447" s="55">
+        <v>1608</v>
+      </c>
+      <c r="B1447" s="1" t="s">
+        <v>2826</v>
+      </c>
+      <c r="C1447" s="55">
+        <v>2</v>
+      </c>
+      <c r="D1447" s="55" t="s">
+        <v>2565</v>
+      </c>
+      <c r="E1447" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1447" s="55" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1447" s="55" t="s">
+        <v>2827</v>
+      </c>
     </row>
     <row r="1448" spans="1:7" s="55" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1448" s="1"/>
+      <c r="A1448" s="55">
+        <v>1609</v>
+      </c>
+      <c r="B1448" s="1" t="s">
+        <v>2828</v>
+      </c>
+      <c r="C1448" s="55">
+        <v>2</v>
+      </c>
+      <c r="D1448" s="55" t="s">
+        <v>1722</v>
+      </c>
+      <c r="E1448" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1448" s="55" t="s">
+        <v>140</v>
+      </c>
+      <c r="G1448" s="55" t="s">
+        <v>377</v>
+      </c>
     </row>
     <row r="1449" spans="1:7" s="55" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1449" s="1"/>
+      <c r="A1449" s="55">
+        <v>1610</v>
+      </c>
+      <c r="B1449" s="21" t="s">
+        <v>2829</v>
+      </c>
+      <c r="C1449" s="55">
+        <v>4</v>
+      </c>
+      <c r="D1449" s="55" t="s">
+        <v>1720</v>
+      </c>
+      <c r="E1449" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1449" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1449" s="55" t="s">
+        <v>2831</v>
+      </c>
     </row>
     <row r="1450" spans="1:7" s="55" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1450" s="1"/>
+      <c r="A1450" s="55">
+        <v>1611</v>
+      </c>
+      <c r="B1450" s="1" t="s">
+        <v>2830</v>
+      </c>
+      <c r="C1450" s="55">
+        <v>4</v>
+      </c>
+      <c r="D1450" s="55" t="s">
+        <v>1715</v>
+      </c>
+      <c r="E1450" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1450" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1450" s="55" t="s">
+        <v>2832</v>
+      </c>
     </row>
     <row r="1451" spans="1:7" s="55" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B1451" s="1"/>
@@ -43439,10 +43647,12 @@
     <hyperlink ref="B1400" r:id="rId1284" display="https://leetcode.com/problems/find-kth-bit-in-nth-binary-string" xr:uid="{732E888E-B968-4155-8F12-3D910B79F03C}"/>
     <hyperlink ref="B1411" r:id="rId1285" display="https://leetcode.com/problems/most-visited-sector-in-a-circular-track" xr:uid="{3557F711-838D-42E0-B7BE-D92FF647B7B7}"/>
     <hyperlink ref="B1429" r:id="rId1286" display="https://leetcode.com/problems/min-cost-to-connect-all-points" xr:uid="{13455E9A-466B-4A7B-B755-4D7D8F9BC40F}"/>
+    <hyperlink ref="B1444" r:id="rId1287" display="https://leetcode.com/problems/alert-using-same-key-card-three-or-more-times-in-a-one-hour-period" xr:uid="{E62CC07C-B8B3-4FB0-98EB-F727EFF9648B}"/>
+    <hyperlink ref="B1447" r:id="rId1288" display="https://leetcode.com/problems/special-array-with-x-elements-greater-than-or-equal-x" xr:uid="{A9237377-1AB9-421E-95EF-4CBE5948DBC4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1287"/>
-  <drawing r:id="rId1288"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1289"/>
+  <drawing r:id="rId1290"/>
 </worksheet>
 </file>
 

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52AA8B0A-9661-47CC-A931-A20D76F5C516}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E894042-A36A-4E2F-8BC8-205E465DBE19}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19185" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15" yWindow="0" windowWidth="19170" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LeetCode Algorithm" sheetId="1" r:id="rId1"/>
     <sheet name="SQL" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'LeetCode Algorithm'!$A$1:$I$1471</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'LeetCode Algorithm'!$A$1:$I$1494</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7610" uniqueCount="2865">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7690" uniqueCount="2897">
   <si>
     <t>Difficulty</t>
   </si>
@@ -8632,6 +8632,102 @@
   </si>
   <si>
     <t>Use hashtable to track owner and chunks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Build Binary Expression Tree From Infix Expression </t>
+  </si>
+  <si>
+    <t>Parse with stack</t>
+  </si>
+  <si>
+    <t>Put Boxes Into the Warehouse I</t>
+  </si>
+  <si>
+    <t>Mono decrease height from left to right in warehouse then push shortest box first</t>
+  </si>
+  <si>
+    <t>Put Boxes Into the Warehouse II</t>
+  </si>
+  <si>
+    <t>From the lowest point in ware house, mono decrease height from both sides, then push shortest boxes first.</t>
+  </si>
+  <si>
+    <t>Maximum Font to Fit a Sentence in a Screen</t>
+  </si>
+  <si>
+    <t>Binary search for fit font.</t>
+  </si>
+  <si>
+    <t>Mean of Array After Removing Some Elements</t>
+  </si>
+  <si>
+    <t>Sort it and remove on both end</t>
+  </si>
+  <si>
+    <t>Coordinate With Maximum Network Quality </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Try all the points within range of 0-50. </t>
+  </si>
+  <si>
+    <t>Number of Sets of K Non-Overlapping Line Segments</t>
+  </si>
+  <si>
+    <t>Think when endpoints are not connected together.</t>
+  </si>
+  <si>
+    <t>Fancy Sequence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Divide a %M means times a ^(M-2), because a ^ (M-1) is 1, when a is prime. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Largest Substring Between Two Equal Characters </t>
+  </si>
+  <si>
+    <t>Calculate length in every two duplicated characters.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lexicographically Smallest String After Applying Operations </t>
+  </si>
+  <si>
+    <t>BFS on operation, store the data in hashtable to detect duplication.</t>
+  </si>
+  <si>
+    <t>Best Team With No Conflicts</t>
+  </si>
+  <si>
+    <t>Sort by age first then sort by score, store sum score and erase high score with low sum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Graph Connectivity With Threshold </t>
+  </si>
+  <si>
+    <t>Union find all the prime number greater than threshold</t>
+  </si>
+  <si>
+    <t>Slowest Key</t>
+  </si>
+  <si>
+    <t>Check gap with previous key release</t>
+  </si>
+  <si>
+    <t>Arithmetic Subarrays</t>
+  </si>
+  <si>
+    <t>Bucket sort in each range</t>
+  </si>
+  <si>
+    <t>Path With Minimum Effort</t>
+  </si>
+  <si>
+    <t>Shortest Path as minimum effort</t>
+  </si>
+  <si>
+    <t>Rank Transform of a Matrix</t>
+  </si>
+  <si>
+    <t>Sort all value, then for same value use union find to adjust rank</t>
   </si>
 </sst>
 </file>
@@ -8676,7 +8772,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -8703,6 +8799,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -9124,10 +9221,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I1471"/>
+  <dimension ref="A1:I1494"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1361" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A1370" sqref="A1370"/>
+    <sheetView tabSelected="1" topLeftCell="A1469" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A1485" sqref="A1485"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -41825,81 +41922,81 @@
         <v>2754</v>
       </c>
     </row>
-    <row r="1425" spans="1:7" s="53" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1425" s="53">
-        <v>1566</v>
+    <row r="1425" spans="1:7" s="57" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1425" s="57">
+        <v>1564</v>
       </c>
       <c r="B1425" s="1" t="s">
-        <v>2756</v>
-      </c>
-      <c r="C1425" s="53">
+        <v>2867</v>
+      </c>
+      <c r="C1425" s="57">
         <v>2</v>
       </c>
-      <c r="D1425" s="53" t="s">
-        <v>1773</v>
-      </c>
-      <c r="E1425" s="53" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1425" s="53" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1425" s="53" t="s">
-        <v>2757</v>
+      <c r="D1425" s="57" t="s">
+        <v>1780</v>
+      </c>
+      <c r="E1425" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1425" s="57" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1425" s="57" t="s">
+        <v>2868</v>
       </c>
     </row>
     <row r="1426" spans="1:7" s="53" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1426" s="53">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="B1426" s="1" t="s">
-        <v>2758</v>
+        <v>2756</v>
       </c>
       <c r="C1426" s="53">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1426" s="53" t="s">
-        <v>1780</v>
+        <v>1773</v>
       </c>
       <c r="E1426" s="53" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F1426" s="53" t="s">
         <v>21</v>
       </c>
       <c r="G1426" s="53" t="s">
-        <v>2761</v>
+        <v>2757</v>
       </c>
     </row>
     <row r="1427" spans="1:7" s="53" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1427" s="53">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="B1427" s="1" t="s">
-        <v>2759</v>
+        <v>2758</v>
       </c>
       <c r="C1427" s="53">
         <v>3</v>
       </c>
       <c r="D1427" s="53" t="s">
-        <v>1715</v>
+        <v>1780</v>
       </c>
       <c r="E1427" s="53" t="s">
         <v>9</v>
       </c>
       <c r="F1427" s="53" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="G1427" s="53" t="s">
-        <v>2762</v>
+        <v>2761</v>
       </c>
     </row>
     <row r="1428" spans="1:7" s="53" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1428" s="53">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="B1428" s="1" t="s">
-        <v>2760</v>
+        <v>2759</v>
       </c>
       <c r="C1428" s="53">
         <v>4</v>
@@ -41911,962 +42008,1351 @@
         <v>12</v>
       </c>
       <c r="F1428" s="53" t="s">
+        <v>187</v>
+      </c>
+      <c r="G1428" s="53" t="s">
+        <v>2762</v>
+      </c>
+    </row>
+    <row r="1429" spans="1:7" s="53" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1429" s="53">
+        <v>1569</v>
+      </c>
+      <c r="B1429" s="1" t="s">
+        <v>2760</v>
+      </c>
+      <c r="C1429" s="53">
+        <v>4</v>
+      </c>
+      <c r="D1429" s="53" t="s">
+        <v>1715</v>
+      </c>
+      <c r="E1429" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1429" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="G1428" s="53" t="s">
+      <c r="G1429" s="53" t="s">
         <v>2763</v>
       </c>
     </row>
-    <row r="1429" spans="1:7" s="56" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1429" s="56">
+    <row r="1430" spans="1:7" s="56" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1430" s="56">
         <v>1570</v>
       </c>
-      <c r="B1429" s="1" t="s">
+      <c r="B1430" s="1" t="s">
         <v>2843</v>
       </c>
-      <c r="C1429" s="56">
+      <c r="C1430" s="56">
         <v>2</v>
       </c>
-      <c r="D1429" s="56" t="s">
+      <c r="D1430" s="56" t="s">
         <v>1719</v>
       </c>
-      <c r="E1429" s="56" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1429" s="56" t="s">
+      <c r="E1430" s="56" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1430" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="G1429" s="56" t="s">
+      <c r="G1430" s="56" t="s">
         <v>2844</v>
-      </c>
-    </row>
-    <row r="1430" spans="1:7" s="53" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1430" s="53">
-        <v>1572</v>
-      </c>
-      <c r="B1430" s="1" t="s">
-        <v>2764</v>
-      </c>
-      <c r="C1430" s="53">
-        <v>2</v>
-      </c>
-      <c r="D1430" s="53" t="s">
-        <v>1773</v>
-      </c>
-      <c r="E1430" s="53" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1430" s="53" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1430" s="53" t="s">
-        <v>2767</v>
       </c>
     </row>
     <row r="1431" spans="1:7" s="53" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1431" s="53">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="B1431" s="1" t="s">
-        <v>2765</v>
+        <v>2764</v>
       </c>
       <c r="C1431" s="53">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1431" s="53" t="s">
-        <v>1715</v>
+        <v>1773</v>
       </c>
       <c r="E1431" s="53" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F1431" s="53" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="G1431" s="53" t="s">
-        <v>2766</v>
+        <v>2767</v>
       </c>
     </row>
     <row r="1432" spans="1:7" s="53" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1432" s="53">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="B1432" s="1" t="s">
-        <v>2768</v>
+        <v>2765</v>
       </c>
       <c r="C1432" s="53">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1432" s="53" t="s">
-        <v>2770</v>
+        <v>1715</v>
       </c>
       <c r="E1432" s="53" t="s">
         <v>9</v>
       </c>
       <c r="F1432" s="53" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="G1432" s="53" t="s">
-        <v>2771</v>
+        <v>2766</v>
       </c>
     </row>
     <row r="1433" spans="1:7" s="53" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1433" s="53">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="B1433" s="1" t="s">
-        <v>2772</v>
+        <v>2768</v>
       </c>
       <c r="C1433" s="53">
         <v>4</v>
       </c>
       <c r="D1433" s="53" t="s">
-        <v>1722</v>
+        <v>2770</v>
       </c>
       <c r="E1433" s="53" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F1433" s="53" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="G1433" s="53" t="s">
-        <v>2773</v>
+        <v>2771</v>
       </c>
     </row>
     <row r="1434" spans="1:7" s="53" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1434" s="53">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="B1434" s="1" t="s">
-        <v>2774</v>
+        <v>2772</v>
       </c>
       <c r="C1434" s="53">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D1434" s="53" t="s">
-        <v>1773</v>
+        <v>1722</v>
       </c>
       <c r="E1434" s="53" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F1434" s="53" t="s">
-        <v>36</v>
+        <v>187</v>
       </c>
       <c r="G1434" s="53" t="s">
-        <v>2775</v>
+        <v>2773</v>
       </c>
     </row>
     <row r="1435" spans="1:7" s="53" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1435" s="53">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="B1435" s="1" t="s">
-        <v>2776</v>
+        <v>2774</v>
       </c>
       <c r="C1435" s="53">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1435" s="53" t="s">
-        <v>1722</v>
+        <v>1773</v>
       </c>
       <c r="E1435" s="53" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F1435" s="53" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="G1435" s="53" t="s">
-        <v>2777</v>
+        <v>2775</v>
       </c>
     </row>
     <row r="1436" spans="1:7" s="53" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1436" s="53">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="B1436" s="1" t="s">
-        <v>2778</v>
+        <v>2776</v>
       </c>
       <c r="C1436" s="53">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1436" s="53" t="s">
-        <v>1715</v>
+        <v>1722</v>
       </c>
       <c r="E1436" s="53" t="s">
         <v>9</v>
       </c>
       <c r="F1436" s="53" t="s">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="G1436" s="53" t="s">
-        <v>2779</v>
+        <v>2777</v>
       </c>
     </row>
     <row r="1437" spans="1:7" s="53" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1437" s="53">
+        <v>1578</v>
+      </c>
+      <c r="B1437" s="1" t="s">
+        <v>2778</v>
+      </c>
+      <c r="C1437" s="53">
+        <v>2</v>
+      </c>
+      <c r="D1437" s="53" t="s">
+        <v>1715</v>
+      </c>
+      <c r="E1437" s="53" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1437" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1437" s="53" t="s">
+        <v>2779</v>
+      </c>
+    </row>
+    <row r="1438" spans="1:7" s="53" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1438" s="53">
         <v>1579</v>
       </c>
-      <c r="B1437" s="1" t="s">
+      <c r="B1438" s="1" t="s">
         <v>2780</v>
       </c>
-      <c r="C1437" s="53">
+      <c r="C1438" s="53">
         <v>4</v>
       </c>
-      <c r="D1437" s="53" t="s">
+      <c r="D1438" s="53" t="s">
         <v>1780</v>
       </c>
-      <c r="E1437" s="53" t="s">
+      <c r="E1438" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="F1437" s="53" t="s">
+      <c r="F1438" s="53" t="s">
         <v>187</v>
       </c>
-      <c r="G1437" s="53" t="s">
+      <c r="G1438" s="53" t="s">
         <v>2781</v>
       </c>
     </row>
-    <row r="1438" spans="1:7" s="52" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1438" s="52">
+    <row r="1439" spans="1:7" s="57" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1439" s="57">
+        <v>1580</v>
+      </c>
+      <c r="B1439" s="1" t="s">
+        <v>2869</v>
+      </c>
+      <c r="C1439" s="57">
+        <v>3</v>
+      </c>
+      <c r="D1439" s="57" t="s">
+        <v>1780</v>
+      </c>
+      <c r="E1439" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1439" s="57" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1439" s="57" t="s">
+        <v>2870</v>
+      </c>
+    </row>
+    <row r="1440" spans="1:7" s="52" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1440" s="52">
         <v>1582</v>
       </c>
-      <c r="B1438" s="1" t="s">
+      <c r="B1440" s="1" t="s">
         <v>2782</v>
       </c>
-      <c r="C1438" s="52">
+      <c r="C1440" s="52">
         <v>2</v>
       </c>
-      <c r="D1438" s="52" t="s">
+      <c r="D1440" s="52" t="s">
         <v>1780</v>
       </c>
-      <c r="E1438" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1438" s="52" t="s">
+      <c r="E1440" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1440" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="G1438" s="52" t="s">
+      <c r="G1440" s="52" t="s">
         <v>2783</v>
-      </c>
-    </row>
-    <row r="1439" spans="1:7" s="54" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1439" s="54">
-        <v>1583</v>
-      </c>
-      <c r="B1439" s="1" t="s">
-        <v>2784</v>
-      </c>
-      <c r="C1439" s="54">
-        <v>3</v>
-      </c>
-      <c r="D1439" s="54" t="s">
-        <v>1722</v>
-      </c>
-      <c r="E1439" s="54" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1439" s="54" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1439" s="54" t="s">
-        <v>2785</v>
-      </c>
-    </row>
-    <row r="1440" spans="1:7" s="54" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1440" s="54">
-        <v>1584</v>
-      </c>
-      <c r="B1440" s="1" t="s">
-        <v>2786</v>
-      </c>
-      <c r="C1440" s="54">
-        <v>4</v>
-      </c>
-      <c r="D1440" s="54" t="s">
-        <v>1780</v>
-      </c>
-      <c r="E1440" s="54" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1440" s="54" t="s">
-        <v>187</v>
-      </c>
-      <c r="G1440" s="54" t="s">
-        <v>2787</v>
       </c>
     </row>
     <row r="1441" spans="1:7" s="54" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1441" s="54">
+        <v>1583</v>
+      </c>
+      <c r="B1441" s="1" t="s">
+        <v>2784</v>
+      </c>
+      <c r="C1441" s="54">
+        <v>3</v>
+      </c>
+      <c r="D1441" s="54" t="s">
+        <v>1722</v>
+      </c>
+      <c r="E1441" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1441" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1441" s="54" t="s">
+        <v>2785</v>
+      </c>
+    </row>
+    <row r="1442" spans="1:7" s="54" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1442" s="54">
+        <v>1584</v>
+      </c>
+      <c r="B1442" s="1" t="s">
+        <v>2786</v>
+      </c>
+      <c r="C1442" s="54">
+        <v>4</v>
+      </c>
+      <c r="D1442" s="54" t="s">
+        <v>1780</v>
+      </c>
+      <c r="E1442" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1442" s="54" t="s">
+        <v>187</v>
+      </c>
+      <c r="G1442" s="54" t="s">
+        <v>2787</v>
+      </c>
+    </row>
+    <row r="1443" spans="1:7" s="54" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1443" s="54">
         <v>1585</v>
       </c>
-      <c r="B1441" s="1" t="s">
+      <c r="B1443" s="1" t="s">
         <v>2788</v>
       </c>
-      <c r="C1441" s="54">
+      <c r="C1443" s="54">
         <v>4</v>
       </c>
-      <c r="D1441" s="54" t="s">
+      <c r="D1443" s="54" t="s">
         <v>1780</v>
       </c>
-      <c r="E1441" s="54" t="s">
+      <c r="E1443" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="F1441" s="54" t="s">
+      <c r="F1443" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="G1441" s="54" t="s">
+      <c r="G1443" s="54" t="s">
         <v>2789</v>
       </c>
     </row>
-    <row r="1442" spans="1:7" s="56" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1442" s="56">
+    <row r="1444" spans="1:7" s="56" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1444" s="56">
         <v>1586</v>
       </c>
-      <c r="B1442" s="1" t="s">
+      <c r="B1444" s="1" t="s">
         <v>2841</v>
       </c>
-      <c r="C1442" s="56">
-        <v>3</v>
-      </c>
-      <c r="D1442" s="56" t="s">
+      <c r="C1444" s="56">
+        <v>3</v>
+      </c>
+      <c r="D1444" s="56" t="s">
         <v>1780</v>
       </c>
-      <c r="E1442" s="56" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1442" s="56" t="s">
+      <c r="E1444" s="56" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1444" s="56" t="s">
         <v>140</v>
       </c>
-      <c r="G1442" s="56" t="s">
+      <c r="G1444" s="56" t="s">
         <v>2842</v>
-      </c>
-    </row>
-    <row r="1443" spans="1:7" s="55" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1443" s="55">
-        <v>1588</v>
-      </c>
-      <c r="B1443" s="1" t="s">
-        <v>2790</v>
-      </c>
-      <c r="C1443" s="55">
-        <v>2</v>
-      </c>
-      <c r="D1443" s="55" t="s">
-        <v>1780</v>
-      </c>
-      <c r="E1443" s="55" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1443" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1443" s="55" t="s">
-        <v>2791</v>
-      </c>
-    </row>
-    <row r="1444" spans="1:7" s="55" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1444" s="55">
-        <v>1589</v>
-      </c>
-      <c r="B1444" s="1" t="s">
-        <v>2792</v>
-      </c>
-      <c r="C1444" s="55">
-        <v>3</v>
-      </c>
-      <c r="D1444" s="55" t="s">
-        <v>1780</v>
-      </c>
-      <c r="E1444" s="55" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1444" s="55" t="s">
-        <v>95</v>
-      </c>
-      <c r="G1444" s="55" t="s">
-        <v>2794</v>
       </c>
     </row>
     <row r="1445" spans="1:7" s="55" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1445" s="55">
-        <v>1590</v>
+        <v>1588</v>
       </c>
       <c r="B1445" s="1" t="s">
-        <v>2793</v>
+        <v>2790</v>
       </c>
       <c r="C1445" s="55">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1445" s="55" t="s">
         <v>1780</v>
       </c>
       <c r="E1445" s="55" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F1445" s="55" t="s">
         <v>21</v>
       </c>
       <c r="G1445" s="55" t="s">
-        <v>2795</v>
+        <v>2791</v>
       </c>
     </row>
     <row r="1446" spans="1:7" s="55" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1446" s="55">
-        <v>1591</v>
+        <v>1589</v>
       </c>
       <c r="B1446" s="1" t="s">
-        <v>2796</v>
+        <v>2792</v>
       </c>
       <c r="C1446" s="55">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1446" s="55" t="s">
         <v>1780</v>
       </c>
       <c r="E1446" s="55" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F1446" s="55" t="s">
-        <v>187</v>
+        <v>95</v>
       </c>
       <c r="G1446" s="55" t="s">
-        <v>2797</v>
+        <v>2794</v>
       </c>
     </row>
     <row r="1447" spans="1:7" s="55" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1447" s="55">
-        <v>1592</v>
+        <v>1590</v>
       </c>
       <c r="B1447" s="1" t="s">
-        <v>2798</v>
+        <v>2793</v>
       </c>
       <c r="C1447" s="55">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1447" s="55" t="s">
-        <v>1773</v>
+        <v>1780</v>
       </c>
       <c r="E1447" s="55" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F1447" s="55" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="G1447" s="55" t="s">
-        <v>2799</v>
+        <v>2795</v>
       </c>
     </row>
     <row r="1448" spans="1:7" s="55" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1448" s="55">
-        <v>1593</v>
+        <v>1591</v>
       </c>
       <c r="B1448" s="1" t="s">
-        <v>2800</v>
+        <v>2796</v>
       </c>
       <c r="C1448" s="55">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D1448" s="55" t="s">
-        <v>1722</v>
+        <v>1780</v>
       </c>
       <c r="E1448" s="55" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F1448" s="55" t="s">
-        <v>51</v>
+        <v>187</v>
       </c>
       <c r="G1448" s="55" t="s">
-        <v>2803</v>
+        <v>2797</v>
       </c>
     </row>
     <row r="1449" spans="1:7" s="55" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1449" s="55">
-        <v>1594</v>
+        <v>1592</v>
       </c>
       <c r="B1449" s="1" t="s">
-        <v>2801</v>
+        <v>2798</v>
       </c>
       <c r="C1449" s="55">
         <v>2</v>
       </c>
       <c r="D1449" s="55" t="s">
-        <v>1722</v>
+        <v>1773</v>
       </c>
       <c r="E1449" s="55" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F1449" s="55" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="G1449" s="55" t="s">
-        <v>2804</v>
+        <v>2799</v>
       </c>
     </row>
     <row r="1450" spans="1:7" s="55" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1450" s="55">
-        <v>1595</v>
+        <v>1593</v>
       </c>
       <c r="B1450" s="1" t="s">
-        <v>2802</v>
+        <v>2800</v>
       </c>
       <c r="C1450" s="55">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1450" s="55" t="s">
         <v>1722</v>
       </c>
       <c r="E1450" s="55" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F1450" s="55" t="s">
         <v>51</v>
       </c>
       <c r="G1450" s="55" t="s">
-        <v>2805</v>
+        <v>2803</v>
       </c>
     </row>
     <row r="1451" spans="1:7" s="55" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1451" s="55">
-        <v>1598</v>
+        <v>1594</v>
       </c>
       <c r="B1451" s="1" t="s">
-        <v>2806</v>
+        <v>2801</v>
       </c>
       <c r="C1451" s="55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1451" s="55" t="s">
-        <v>1773</v>
+        <v>1722</v>
       </c>
       <c r="E1451" s="55" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F1451" s="55" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="G1451" s="55" t="s">
-        <v>2807</v>
+        <v>2804</v>
       </c>
     </row>
     <row r="1452" spans="1:7" s="55" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1452" s="55">
-        <v>1599</v>
+        <v>1595</v>
       </c>
       <c r="B1452" s="1" t="s">
-        <v>2808</v>
+        <v>2802</v>
       </c>
       <c r="C1452" s="55">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D1452" s="55" t="s">
-        <v>1773</v>
+        <v>1722</v>
       </c>
       <c r="E1452" s="55" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F1452" s="55" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="G1452" s="55" t="s">
-        <v>2809</v>
-      </c>
-    </row>
-    <row r="1453" spans="1:7" s="55" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1453" s="55">
-        <v>1600</v>
+        <v>2805</v>
+      </c>
+    </row>
+    <row r="1453" spans="1:7" s="57" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1453" s="57">
+        <v>1597</v>
       </c>
       <c r="B1453" s="1" t="s">
-        <v>2810</v>
-      </c>
-      <c r="C1453" s="55">
-        <v>3</v>
-      </c>
-      <c r="D1453" s="55" t="s">
-        <v>1773</v>
-      </c>
-      <c r="E1453" s="55" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1453" s="55" t="s">
-        <v>458</v>
-      </c>
-      <c r="G1453" s="55" t="s">
-        <v>2811</v>
+        <v>2865</v>
+      </c>
+      <c r="C1453" s="57">
+        <v>4</v>
+      </c>
+      <c r="D1453" s="57" t="s">
+        <v>1780</v>
+      </c>
+      <c r="E1453" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1453" s="57" t="s">
+        <v>140</v>
+      </c>
+      <c r="G1453" s="57" t="s">
+        <v>2866</v>
       </c>
     </row>
     <row r="1454" spans="1:7" s="55" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1454" s="55">
-        <v>1601</v>
+        <v>1598</v>
       </c>
       <c r="B1454" s="1" t="s">
-        <v>2812</v>
+        <v>2806</v>
       </c>
       <c r="C1454" s="55">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1454" s="55" t="s">
-        <v>1722</v>
+        <v>1773</v>
       </c>
       <c r="E1454" s="55" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F1454" s="55" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="G1454" s="55" t="s">
-        <v>2813</v>
-      </c>
-    </row>
-    <row r="1455" spans="1:7" s="56" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1455" s="56">
-        <v>1602</v>
+        <v>2807</v>
+      </c>
+    </row>
+    <row r="1455" spans="1:7" s="55" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1455" s="55">
+        <v>1599</v>
       </c>
       <c r="B1455" s="1" t="s">
-        <v>2840</v>
-      </c>
-      <c r="C1455" s="56">
+        <v>2808</v>
+      </c>
+      <c r="C1455" s="55">
         <v>2</v>
       </c>
-      <c r="D1455" s="56" t="s">
-        <v>1722</v>
-      </c>
-      <c r="E1455" s="56" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1455" s="56" t="s">
-        <v>140</v>
-      </c>
-      <c r="G1455" s="56" t="s">
-        <v>2306</v>
+      <c r="D1455" s="55" t="s">
+        <v>1773</v>
+      </c>
+      <c r="E1455" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1455" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1455" s="55" t="s">
+        <v>2809</v>
       </c>
     </row>
     <row r="1456" spans="1:7" s="55" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1456" s="55">
-        <v>1603</v>
+        <v>1600</v>
       </c>
       <c r="B1456" s="1" t="s">
-        <v>2814</v>
+        <v>2810</v>
       </c>
       <c r="C1456" s="55">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D1456" s="55" t="s">
         <v>1773</v>
       </c>
       <c r="E1456" s="55" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F1456" s="55" t="s">
         <v>458</v>
       </c>
       <c r="G1456" s="55" t="s">
-        <v>2816</v>
+        <v>2811</v>
       </c>
     </row>
     <row r="1457" spans="1:7" s="55" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1457" s="55">
-        <v>1604</v>
+        <v>1601</v>
       </c>
       <c r="B1457" s="1" t="s">
-        <v>2815</v>
+        <v>2812</v>
       </c>
       <c r="C1457" s="55">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D1457" s="55" t="s">
         <v>1722</v>
       </c>
       <c r="E1457" s="55" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F1457" s="55" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="G1457" s="55" t="s">
-        <v>2817</v>
-      </c>
-    </row>
-    <row r="1458" spans="1:7" s="55" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1458" s="55">
-        <v>1605</v>
+        <v>2813</v>
+      </c>
+    </row>
+    <row r="1458" spans="1:7" s="56" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1458" s="56">
+        <v>1602</v>
       </c>
       <c r="B1458" s="1" t="s">
-        <v>2818</v>
-      </c>
-      <c r="C1458" s="55">
-        <v>4</v>
-      </c>
-      <c r="D1458" s="55" t="s">
-        <v>2819</v>
-      </c>
-      <c r="E1458" s="55" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1458" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1458" s="55" t="s">
-        <v>2820</v>
+        <v>2840</v>
+      </c>
+      <c r="C1458" s="56">
+        <v>2</v>
+      </c>
+      <c r="D1458" s="56" t="s">
+        <v>1722</v>
+      </c>
+      <c r="E1458" s="56" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1458" s="56" t="s">
+        <v>140</v>
+      </c>
+      <c r="G1458" s="56" t="s">
+        <v>2306</v>
       </c>
     </row>
     <row r="1459" spans="1:7" s="55" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1459" s="55">
-        <v>1606</v>
+        <v>1603</v>
       </c>
       <c r="B1459" s="1" t="s">
-        <v>2821</v>
+        <v>2814</v>
       </c>
       <c r="C1459" s="55">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1459" s="55" t="s">
-        <v>1780</v>
+        <v>1773</v>
       </c>
       <c r="E1459" s="55" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F1459" s="55" t="s">
-        <v>41</v>
+        <v>458</v>
       </c>
       <c r="G1459" s="55" t="s">
-        <v>2822</v>
+        <v>2816</v>
       </c>
     </row>
     <row r="1460" spans="1:7" s="55" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1460" s="55">
-        <v>1608</v>
+        <v>1604</v>
       </c>
       <c r="B1460" s="1" t="s">
-        <v>2823</v>
+        <v>2815</v>
       </c>
       <c r="C1460" s="55">
         <v>2</v>
       </c>
       <c r="D1460" s="55" t="s">
-        <v>2562</v>
+        <v>1722</v>
       </c>
       <c r="E1460" s="55" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F1460" s="55" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="G1460" s="55" t="s">
-        <v>2824</v>
+        <v>2817</v>
       </c>
     </row>
     <row r="1461" spans="1:7" s="55" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1461" s="55">
-        <v>1609</v>
+        <v>1605</v>
       </c>
       <c r="B1461" s="1" t="s">
-        <v>2825</v>
+        <v>2818</v>
       </c>
       <c r="C1461" s="55">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D1461" s="55" t="s">
-        <v>1722</v>
+        <v>2819</v>
       </c>
       <c r="E1461" s="55" t="s">
         <v>9</v>
       </c>
       <c r="F1461" s="55" t="s">
-        <v>140</v>
+        <v>21</v>
       </c>
       <c r="G1461" s="55" t="s">
-        <v>377</v>
+        <v>2820</v>
       </c>
     </row>
     <row r="1462" spans="1:7" s="55" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1462" s="55">
-        <v>1610</v>
-      </c>
-      <c r="B1462" s="21" t="s">
-        <v>2826</v>
+        <v>1606</v>
+      </c>
+      <c r="B1462" s="1" t="s">
+        <v>2821</v>
       </c>
       <c r="C1462" s="55">
         <v>4</v>
       </c>
       <c r="D1462" s="55" t="s">
-        <v>1720</v>
+        <v>1780</v>
       </c>
       <c r="E1462" s="55" t="s">
         <v>12</v>
       </c>
       <c r="F1462" s="55" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="G1462" s="55" t="s">
-        <v>2828</v>
+        <v>2822</v>
       </c>
     </row>
     <row r="1463" spans="1:7" s="55" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1463" s="55">
+        <v>1608</v>
+      </c>
+      <c r="B1463" s="1" t="s">
+        <v>2823</v>
+      </c>
+      <c r="C1463" s="55">
+        <v>2</v>
+      </c>
+      <c r="D1463" s="55" t="s">
+        <v>2562</v>
+      </c>
+      <c r="E1463" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1463" s="55" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1463" s="55" t="s">
+        <v>2824</v>
+      </c>
+    </row>
+    <row r="1464" spans="1:7" s="55" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1464" s="55">
+        <v>1609</v>
+      </c>
+      <c r="B1464" s="1" t="s">
+        <v>2825</v>
+      </c>
+      <c r="C1464" s="55">
+        <v>2</v>
+      </c>
+      <c r="D1464" s="55" t="s">
+        <v>1722</v>
+      </c>
+      <c r="E1464" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1464" s="55" t="s">
+        <v>140</v>
+      </c>
+      <c r="G1464" s="55" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="1465" spans="1:7" s="55" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1465" s="55">
+        <v>1610</v>
+      </c>
+      <c r="B1465" s="21" t="s">
+        <v>2826</v>
+      </c>
+      <c r="C1465" s="55">
+        <v>4</v>
+      </c>
+      <c r="D1465" s="55" t="s">
+        <v>1720</v>
+      </c>
+      <c r="E1465" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1465" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1465" s="55" t="s">
+        <v>2828</v>
+      </c>
+    </row>
+    <row r="1466" spans="1:7" s="55" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1466" s="55">
         <v>1611</v>
       </c>
-      <c r="B1463" s="1" t="s">
+      <c r="B1466" s="1" t="s">
         <v>2827</v>
       </c>
-      <c r="C1463" s="55">
+      <c r="C1466" s="55">
         <v>4</v>
       </c>
-      <c r="D1463" s="55" t="s">
+      <c r="D1466" s="55" t="s">
         <v>1715</v>
       </c>
-      <c r="E1463" s="55" t="s">
+      <c r="E1466" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="F1463" s="55" t="s">
+      <c r="F1466" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="G1463" s="55" t="s">
+      <c r="G1466" s="55" t="s">
         <v>2829</v>
-      </c>
-    </row>
-    <row r="1464" spans="1:7" s="56" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1464" s="56">
-        <v>1612</v>
-      </c>
-      <c r="B1464" s="1" t="s">
-        <v>2838</v>
-      </c>
-      <c r="C1464" s="56">
-        <v>3</v>
-      </c>
-      <c r="D1464" s="56" t="s">
-        <v>1780</v>
-      </c>
-      <c r="E1464" s="56" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1464" s="56" t="s">
-        <v>140</v>
-      </c>
-      <c r="G1464" s="56" t="s">
-        <v>2839</v>
-      </c>
-    </row>
-    <row r="1465" spans="1:7" s="56" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1465" s="56">
-        <v>1614</v>
-      </c>
-      <c r="B1465" s="1" t="s">
-        <v>2830</v>
-      </c>
-      <c r="C1465" s="56">
-        <v>1</v>
-      </c>
-      <c r="D1465" s="56" t="s">
-        <v>1722</v>
-      </c>
-      <c r="E1465" s="56" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1465" s="56" t="s">
-        <v>36</v>
-      </c>
-      <c r="G1465" s="3" t="s">
-        <v>2831</v>
-      </c>
-    </row>
-    <row r="1466" spans="1:7" s="56" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1466" s="56">
-        <v>1615</v>
-      </c>
-      <c r="B1466" s="1" t="s">
-        <v>2832</v>
-      </c>
-      <c r="C1466" s="56">
-        <v>2</v>
-      </c>
-      <c r="D1466" s="56" t="s">
-        <v>1722</v>
-      </c>
-      <c r="E1466" s="56" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1466" s="56" t="s">
-        <v>187</v>
-      </c>
-      <c r="G1466" s="56" t="s">
-        <v>2833</v>
       </c>
     </row>
     <row r="1467" spans="1:7" s="56" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1467" s="56">
+        <v>1612</v>
+      </c>
+      <c r="B1467" s="1" t="s">
+        <v>2838</v>
+      </c>
+      <c r="C1467" s="56">
+        <v>3</v>
+      </c>
+      <c r="D1467" s="56" t="s">
+        <v>1780</v>
+      </c>
+      <c r="E1467" s="56" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1467" s="56" t="s">
+        <v>140</v>
+      </c>
+      <c r="G1467" s="56" t="s">
+        <v>2839</v>
+      </c>
+    </row>
+    <row r="1468" spans="1:7" s="56" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1468" s="56">
+        <v>1614</v>
+      </c>
+      <c r="B1468" s="1" t="s">
+        <v>2830</v>
+      </c>
+      <c r="C1468" s="56">
+        <v>1</v>
+      </c>
+      <c r="D1468" s="56" t="s">
+        <v>1722</v>
+      </c>
+      <c r="E1468" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1468" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1468" s="3" t="s">
+        <v>2831</v>
+      </c>
+    </row>
+    <row r="1469" spans="1:7" s="56" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1469" s="56">
+        <v>1615</v>
+      </c>
+      <c r="B1469" s="1" t="s">
+        <v>2832</v>
+      </c>
+      <c r="C1469" s="56">
+        <v>2</v>
+      </c>
+      <c r="D1469" s="56" t="s">
+        <v>1722</v>
+      </c>
+      <c r="E1469" s="56" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1469" s="56" t="s">
+        <v>187</v>
+      </c>
+      <c r="G1469" s="56" t="s">
+        <v>2833</v>
+      </c>
+    </row>
+    <row r="1470" spans="1:7" s="56" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1470" s="56">
         <v>1616</v>
       </c>
-      <c r="B1467" s="1" t="s">
+      <c r="B1470" s="1" t="s">
         <v>2834</v>
       </c>
-      <c r="C1467" s="56">
-        <v>3</v>
-      </c>
-      <c r="D1467" s="56" t="s">
+      <c r="C1470" s="56">
+        <v>3</v>
+      </c>
+      <c r="D1470" s="56" t="s">
         <v>1722</v>
       </c>
-      <c r="E1467" s="56" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1467" s="56" t="s">
+      <c r="E1470" s="56" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1470" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="G1467" s="56" t="s">
+      <c r="G1470" s="56" t="s">
         <v>2836</v>
       </c>
     </row>
-    <row r="1468" spans="1:7" s="55" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1468" s="55">
+    <row r="1471" spans="1:7" s="55" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1471" s="55">
         <v>1617</v>
       </c>
-      <c r="B1468" s="1" t="s">
+      <c r="B1471" s="1" t="s">
         <v>2835</v>
       </c>
-      <c r="C1468" s="55">
-        <v>5</v>
-      </c>
-      <c r="D1468" s="55" t="s">
+      <c r="C1471" s="55">
+        <v>5</v>
+      </c>
+      <c r="D1471" s="55" t="s">
         <v>1780</v>
       </c>
-      <c r="E1468" s="55" t="s">
+      <c r="E1471" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="F1468" s="55" t="s">
+      <c r="F1471" s="55" t="s">
         <v>187</v>
       </c>
-      <c r="G1468" s="55" t="s">
+      <c r="G1471" s="55" t="s">
         <v>2837</v>
       </c>
     </row>
-    <row r="1469" spans="1:7" s="52" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1469" s="1"/>
-    </row>
-    <row r="1470" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A1470" s="57" t="s">
+    <row r="1472" spans="1:7" s="57" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1472" s="57">
+        <v>1618</v>
+      </c>
+      <c r="B1472" s="1" t="s">
+        <v>2871</v>
+      </c>
+      <c r="C1472" s="57">
+        <v>2</v>
+      </c>
+      <c r="D1472" s="57" t="s">
+        <v>1715</v>
+      </c>
+      <c r="E1472" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1472" s="57" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1472" s="57" t="s">
+        <v>2872</v>
+      </c>
+    </row>
+    <row r="1473" spans="1:7" s="57" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1473" s="57">
+        <v>1619</v>
+      </c>
+      <c r="B1473" s="1" t="s">
+        <v>2873</v>
+      </c>
+      <c r="C1473" s="57">
+        <v>1</v>
+      </c>
+      <c r="D1473" s="57" t="s">
+        <v>1715</v>
+      </c>
+      <c r="E1473" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1473" s="57" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1473" s="57" t="s">
+        <v>2874</v>
+      </c>
+    </row>
+    <row r="1474" spans="1:7" s="57" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1474" s="57">
+        <v>1620</v>
+      </c>
+      <c r="B1474" s="1" t="s">
+        <v>2875</v>
+      </c>
+      <c r="C1474" s="57">
+        <v>2</v>
+      </c>
+      <c r="D1474" s="57" t="s">
+        <v>1715</v>
+      </c>
+      <c r="E1474" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1474" s="57" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1474" s="57" t="s">
+        <v>2876</v>
+      </c>
+    </row>
+    <row r="1475" spans="1:7" s="57" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1475" s="57">
+        <v>1621</v>
+      </c>
+      <c r="B1475" s="1" t="s">
+        <v>2877</v>
+      </c>
+      <c r="C1475" s="57">
+        <v>4</v>
+      </c>
+      <c r="D1475" s="57" t="s">
+        <v>2819</v>
+      </c>
+      <c r="E1475" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1475" s="57" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1475" s="57" t="s">
+        <v>2878</v>
+      </c>
+    </row>
+    <row r="1476" spans="1:7" s="57" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1476" s="57">
+        <v>1622</v>
+      </c>
+      <c r="B1476" s="1" t="s">
+        <v>2879</v>
+      </c>
+      <c r="C1476" s="57">
+        <v>5</v>
+      </c>
+      <c r="D1476" s="57" t="s">
+        <v>1715</v>
+      </c>
+      <c r="E1476" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1476" s="57" t="s">
+        <v>458</v>
+      </c>
+      <c r="G1476" s="57" t="s">
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="1477" spans="1:7" s="57" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1477" s="57">
+        <v>1624</v>
+      </c>
+      <c r="B1477" s="1" t="s">
+        <v>2881</v>
+      </c>
+      <c r="C1477" s="57">
+        <v>2</v>
+      </c>
+      <c r="D1477" s="57" t="s">
+        <v>1780</v>
+      </c>
+      <c r="E1477" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1477" s="57" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1477" s="57" t="s">
+        <v>2882</v>
+      </c>
+    </row>
+    <row r="1478" spans="1:7" s="57" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1478" s="57">
+        <v>1625</v>
+      </c>
+      <c r="B1478" s="1" t="s">
+        <v>2883</v>
+      </c>
+      <c r="C1478" s="57">
+        <v>2</v>
+      </c>
+      <c r="D1478" s="57" t="s">
+        <v>1722</v>
+      </c>
+      <c r="E1478" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1478" s="57" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1478" s="57" t="s">
+        <v>2884</v>
+      </c>
+    </row>
+    <row r="1479" spans="1:7" s="57" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1479" s="57">
+        <v>1626</v>
+      </c>
+      <c r="B1479" s="1" t="s">
+        <v>2885</v>
+      </c>
+      <c r="C1479" s="57">
+        <v>4</v>
+      </c>
+      <c r="D1479" s="57" t="s">
+        <v>1780</v>
+      </c>
+      <c r="E1479" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1479" s="57" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1479" s="57" t="s">
+        <v>2886</v>
+      </c>
+    </row>
+    <row r="1480" spans="1:7" s="57" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1480" s="57">
+        <v>1627</v>
+      </c>
+      <c r="B1480" s="1" t="s">
+        <v>2887</v>
+      </c>
+      <c r="C1480" s="57">
+        <v>4</v>
+      </c>
+      <c r="D1480" s="57" t="s">
+        <v>1780</v>
+      </c>
+      <c r="E1480" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1480" s="57" t="s">
+        <v>187</v>
+      </c>
+      <c r="G1480" s="57" t="s">
+        <v>2888</v>
+      </c>
+    </row>
+    <row r="1481" spans="1:7" s="57" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1481" s="57">
+        <v>1629</v>
+      </c>
+      <c r="B1481" s="1" t="s">
+        <v>2889</v>
+      </c>
+      <c r="C1481" s="57">
+        <v>1</v>
+      </c>
+      <c r="D1481" s="57" t="s">
+        <v>1773</v>
+      </c>
+      <c r="E1481" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1481" s="57" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1481" s="57" t="s">
+        <v>2890</v>
+      </c>
+    </row>
+    <row r="1482" spans="1:7" s="57" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1482" s="57">
+        <v>1630</v>
+      </c>
+      <c r="B1482" s="1" t="s">
+        <v>2891</v>
+      </c>
+      <c r="C1482" s="57">
+        <v>3</v>
+      </c>
+      <c r="D1482" s="57" t="s">
+        <v>1780</v>
+      </c>
+      <c r="E1482" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1482" s="57" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1482" s="57" t="s">
+        <v>2892</v>
+      </c>
+    </row>
+    <row r="1483" spans="1:7" s="57" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1483" s="57">
+        <v>1631</v>
+      </c>
+      <c r="B1483" s="1" t="s">
+        <v>2893</v>
+      </c>
+      <c r="C1483" s="57">
+        <v>3</v>
+      </c>
+      <c r="D1483" s="57" t="s">
+        <v>1780</v>
+      </c>
+      <c r="E1483" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1483" s="57" t="s">
+        <v>187</v>
+      </c>
+      <c r="G1483" s="57" t="s">
+        <v>2894</v>
+      </c>
+    </row>
+    <row r="1484" spans="1:7" s="57" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1484" s="57">
+        <v>1632</v>
+      </c>
+      <c r="B1484" s="1" t="s">
+        <v>2895</v>
+      </c>
+      <c r="C1484" s="57">
+        <v>5</v>
+      </c>
+      <c r="D1484" s="57" t="s">
+        <v>1780</v>
+      </c>
+      <c r="E1484" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1484" s="57" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1484" s="57" t="s">
+        <v>2896</v>
+      </c>
+    </row>
+    <row r="1485" spans="1:7" s="57" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1485" s="1"/>
+    </row>
+    <row r="1486" spans="1:7" s="57" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1486" s="1"/>
+    </row>
+    <row r="1487" spans="1:7" s="57" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1487" s="1"/>
+    </row>
+    <row r="1488" spans="1:7" s="57" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1488" s="1"/>
+    </row>
+    <row r="1489" spans="1:7" s="57" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1489" s="1"/>
+    </row>
+    <row r="1490" spans="1:7" s="57" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1490" s="1"/>
+    </row>
+    <row r="1491" spans="1:7" s="57" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1491" s="1"/>
+    </row>
+    <row r="1492" spans="1:7" s="52" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1492" s="1"/>
+    </row>
+    <row r="1493" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A1493" s="58" t="s">
         <v>1723</v>
       </c>
-      <c r="B1470" s="57"/>
-      <c r="C1470" s="57"/>
-      <c r="D1470" s="57"/>
-      <c r="E1470" s="57"/>
-      <c r="F1470" s="57"/>
-      <c r="G1470" s="57"/>
-    </row>
-    <row r="1471" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A1471" s="58" t="s">
+      <c r="B1493" s="58"/>
+      <c r="C1493" s="58"/>
+      <c r="D1493" s="58"/>
+      <c r="E1493" s="58"/>
+      <c r="F1493" s="58"/>
+      <c r="G1493" s="58"/>
+    </row>
+    <row r="1494" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A1494" s="59" t="s">
         <v>2769</v>
       </c>
-      <c r="B1471" s="58"/>
-      <c r="C1471" s="58"/>
-      <c r="D1471" s="58"/>
-      <c r="E1471" s="58"/>
-      <c r="F1471" s="58"/>
-      <c r="G1471" s="58"/>
+      <c r="B1494" s="59"/>
+      <c r="C1494" s="59"/>
+      <c r="D1494" s="59"/>
+      <c r="E1494" s="59"/>
+      <c r="F1494" s="59"/>
+      <c r="G1494" s="59"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I1471" xr:uid="{CB07CE66-8F15-46FF-A90A-43FDB2DB428F}"/>
+  <autoFilter ref="A1:I1494" xr:uid="{CB07CE66-8F15-46FF-A90A-43FDB2DB428F}"/>
   <mergeCells count="2">
-    <mergeCell ref="A1470:G1470"/>
-    <mergeCell ref="A1471:G1471"/>
+    <mergeCell ref="A1493:G1493"/>
+    <mergeCell ref="A1494:G1494"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" display="https://leetcode.com/problems/zigzag-conversion" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -44154,16 +44640,18 @@
     <hyperlink ref="B1406" r:id="rId1283" display="https://leetcode.com/problems/find-longest-awesome-substring" xr:uid="{99395477-7B40-4A5D-A715-B7D95DDCDC61}"/>
     <hyperlink ref="B1408" r:id="rId1284" display="https://leetcode.com/problems/find-kth-bit-in-nth-binary-string" xr:uid="{732E888E-B968-4155-8F12-3D910B79F03C}"/>
     <hyperlink ref="B1421" r:id="rId1285" display="https://leetcode.com/problems/most-visited-sector-in-a-circular-track" xr:uid="{3557F711-838D-42E0-B7BE-D92FF647B7B7}"/>
-    <hyperlink ref="B1440" r:id="rId1286" display="https://leetcode.com/problems/min-cost-to-connect-all-points" xr:uid="{13455E9A-466B-4A7B-B755-4D7D8F9BC40F}"/>
-    <hyperlink ref="B1457" r:id="rId1287" display="https://leetcode.com/problems/alert-using-same-key-card-three-or-more-times-in-a-one-hour-period" xr:uid="{E62CC07C-B8B3-4FB0-98EB-F727EFF9648B}"/>
-    <hyperlink ref="B1460" r:id="rId1288" display="https://leetcode.com/problems/special-array-with-x-elements-greater-than-or-equal-x" xr:uid="{A9237377-1AB9-421E-95EF-4CBE5948DBC4}"/>
-    <hyperlink ref="B1464" r:id="rId1289" display="https://leetcode.com/problems/check-if-two-expression-trees-are-equivalent" xr:uid="{91C4E817-F551-4F05-9E1C-0AD29F208021}"/>
+    <hyperlink ref="B1442" r:id="rId1286" display="https://leetcode.com/problems/min-cost-to-connect-all-points" xr:uid="{13455E9A-466B-4A7B-B755-4D7D8F9BC40F}"/>
+    <hyperlink ref="B1460" r:id="rId1287" display="https://leetcode.com/problems/alert-using-same-key-card-three-or-more-times-in-a-one-hour-period" xr:uid="{E62CC07C-B8B3-4FB0-98EB-F727EFF9648B}"/>
+    <hyperlink ref="B1463" r:id="rId1288" display="https://leetcode.com/problems/special-array-with-x-elements-greater-than-or-equal-x" xr:uid="{A9237377-1AB9-421E-95EF-4CBE5948DBC4}"/>
+    <hyperlink ref="B1467" r:id="rId1289" display="https://leetcode.com/problems/check-if-two-expression-trees-are-equivalent" xr:uid="{91C4E817-F551-4F05-9E1C-0AD29F208021}"/>
     <hyperlink ref="B1402" r:id="rId1290" display="https://leetcode.com/problems/guess-the-majority-in-a-hidden-array" xr:uid="{35F157D9-15FE-4972-A567-ADD6A174DF25}"/>
     <hyperlink ref="B1374" r:id="rId1291" display="https://leetcode.com/problems/find-root-of-n-ary-tree" xr:uid="{A33B467D-1853-4D7F-AA4A-B6CF60EE40E6}"/>
+    <hyperlink ref="B1425" r:id="rId1292" display="https://leetcode.com/problems/put-boxes-into-the-warehouse-i" xr:uid="{89CE515A-B43E-44F7-9C01-62B918E8EF86}"/>
+    <hyperlink ref="B1474" r:id="rId1293" display="https://leetcode.com/problems/coordinate-with-maximum-network-quality" xr:uid="{2C3ED305-DFD7-40F6-BFF7-3FC373E4088B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1292"/>
-  <drawing r:id="rId1293"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1294"/>
+  <drawing r:id="rId1295"/>
 </worksheet>
 </file>
 

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E894042-A36A-4E2F-8BC8-205E465DBE19}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04405D45-3E62-4938-9966-34E855CCDB79}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="0" windowWidth="19170" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19058" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LeetCode Algorithm" sheetId="1" r:id="rId1"/>
     <sheet name="SQL" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'LeetCode Algorithm'!$A$1:$I$1494</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'LeetCode Algorithm'!$A$1:$I$1507</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7690" uniqueCount="2897">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7722" uniqueCount="2917">
   <si>
     <t>Difficulty</t>
   </si>
@@ -8728,6 +8728,66 @@
   </si>
   <si>
     <t>Sort all value, then for same value use union find to adjust rank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sort Array by Increasing Frequency </t>
+  </si>
+  <si>
+    <t>Widest Vertical Area Between Two Points Containing No Points</t>
+  </si>
+  <si>
+    <t>Count Substrings That Differ by One Character</t>
+  </si>
+  <si>
+    <t>Number of Ways to Form a Target String Given a Dictionary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Array Formation Through Concatenation </t>
+  </si>
+  <si>
+    <t>Count Sorted Vowel Strings</t>
+  </si>
+  <si>
+    <t>Furthest Building You Can Reach</t>
+  </si>
+  <si>
+    <t>Kth Smallest Instructions</t>
+  </si>
+  <si>
+    <t>Get Maximum in Generated Array</t>
+  </si>
+  <si>
+    <t>Minimum Deletions to Make Character Frequencies Unique</t>
+  </si>
+  <si>
+    <t>Sell Diminishing-Valued Colored Balls</t>
+  </si>
+  <si>
+    <t>Create Sorted Array through Instructions</t>
+  </si>
+  <si>
+    <t>Defuse the Bomb</t>
+  </si>
+  <si>
+    <t>Minimum Deletions to Make String Balanced</t>
+  </si>
+  <si>
+    <t>Minimum Jumps to Reach Home</t>
+  </si>
+  <si>
+    <t>Distribute Repeating Integers</t>
+  </si>
+  <si>
+    <t>Select at most m max repeated piles of numbers, the search against quantity</t>
+  </si>
+  <si>
+    <t>Binary Index Tree or Segment Tree</t>
+  </si>
+  <si>
+    <t>Calculate Pascal triangle to get C(m,n), the try see try V from left to right.</t>
+  </si>
+  <si>
+    <t>Build ith character from i-th characters in target</t>
   </si>
 </sst>
 </file>
@@ -8772,7 +8832,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -8799,6 +8859,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -9221,10 +9282,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I1494"/>
+  <dimension ref="A1:I1507"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1469" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A1485" sqref="A1485"/>
+    <sheetView tabSelected="1" topLeftCell="C1482" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G1488" sqref="G1488"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -43303,56 +43364,235 @@
       </c>
     </row>
     <row r="1485" spans="1:7" s="57" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1485" s="1"/>
-    </row>
-    <row r="1486" spans="1:7" s="57" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1486" s="1"/>
-    </row>
-    <row r="1487" spans="1:7" s="57" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1487" s="1"/>
-    </row>
-    <row r="1488" spans="1:7" s="57" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1488" s="1"/>
-    </row>
-    <row r="1489" spans="1:7" s="57" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1489" s="1"/>
-    </row>
-    <row r="1490" spans="1:7" s="57" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1490" s="1"/>
-    </row>
-    <row r="1491" spans="1:7" s="57" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1491" s="1"/>
-    </row>
-    <row r="1492" spans="1:7" s="52" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1492" s="1"/>
-    </row>
-    <row r="1493" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A1493" s="58" t="s">
+      <c r="A1485" s="57">
+        <v>1636</v>
+      </c>
+      <c r="B1485" s="1" t="s">
+        <v>2897</v>
+      </c>
+    </row>
+    <row r="1486" spans="1:7" s="58" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1486" s="58">
+        <v>1637</v>
+      </c>
+      <c r="B1486" s="1" t="s">
+        <v>2898</v>
+      </c>
+    </row>
+    <row r="1487" spans="1:7" s="58" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1487" s="58">
+        <v>1638</v>
+      </c>
+      <c r="B1487" s="1" t="s">
+        <v>2899</v>
+      </c>
+    </row>
+    <row r="1488" spans="1:7" s="58" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1488" s="58">
+        <v>1639</v>
+      </c>
+      <c r="B1488" s="1" t="s">
+        <v>2900</v>
+      </c>
+      <c r="C1488" s="58">
+        <v>4</v>
+      </c>
+      <c r="D1488" s="58" t="s">
+        <v>1780</v>
+      </c>
+      <c r="E1488" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1488" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1488" s="58" t="s">
+        <v>2916</v>
+      </c>
+    </row>
+    <row r="1489" spans="1:7" s="58" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1489" s="58">
+        <v>1640</v>
+      </c>
+      <c r="B1489" s="1" t="s">
+        <v>2901</v>
+      </c>
+    </row>
+    <row r="1490" spans="1:7" s="58" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1490" s="58">
+        <v>1641</v>
+      </c>
+      <c r="B1490" s="1" t="s">
+        <v>2902</v>
+      </c>
+    </row>
+    <row r="1491" spans="1:7" s="58" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1491" s="58">
+        <v>1642</v>
+      </c>
+      <c r="B1491" s="1" t="s">
+        <v>2903</v>
+      </c>
+    </row>
+    <row r="1492" spans="1:7" s="58" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1492" s="58">
+        <v>1643</v>
+      </c>
+      <c r="B1492" s="1" t="s">
+        <v>2904</v>
+      </c>
+      <c r="C1492" s="58">
+        <v>4</v>
+      </c>
+      <c r="D1492" s="58" t="s">
+        <v>1722</v>
+      </c>
+      <c r="E1492" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1492" s="58" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1492" s="58" t="s">
+        <v>2915</v>
+      </c>
+    </row>
+    <row r="1493" spans="1:7" s="58" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1493" s="58">
+        <v>1646</v>
+      </c>
+      <c r="B1493" s="1" t="s">
+        <v>2905</v>
+      </c>
+    </row>
+    <row r="1494" spans="1:7" s="58" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1494" s="58">
+        <v>1647</v>
+      </c>
+      <c r="B1494" s="1" t="s">
+        <v>2906</v>
+      </c>
+    </row>
+    <row r="1495" spans="1:7" s="58" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1495" s="58">
+        <v>1648</v>
+      </c>
+      <c r="B1495" s="1" t="s">
+        <v>2907</v>
+      </c>
+    </row>
+    <row r="1496" spans="1:7" s="58" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1496" s="58">
+        <v>1649</v>
+      </c>
+      <c r="B1496" s="1" t="s">
+        <v>2908</v>
+      </c>
+      <c r="C1496" s="58">
+        <v>5</v>
+      </c>
+      <c r="D1496" s="58" t="s">
+        <v>1722</v>
+      </c>
+      <c r="E1496" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1496" s="58" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1496" s="58" t="s">
+        <v>2914</v>
+      </c>
+    </row>
+    <row r="1497" spans="1:7" s="58" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1497" s="58">
+        <v>1652</v>
+      </c>
+      <c r="B1497" s="1" t="s">
+        <v>2909</v>
+      </c>
+    </row>
+    <row r="1498" spans="1:7" s="58" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1498" s="58">
+        <v>1653</v>
+      </c>
+      <c r="B1498" s="1" t="s">
+        <v>2910</v>
+      </c>
+    </row>
+    <row r="1499" spans="1:7" s="57" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1499" s="57">
+        <v>1654</v>
+      </c>
+      <c r="B1499" s="1" t="s">
+        <v>2911</v>
+      </c>
+    </row>
+    <row r="1500" spans="1:7" s="57" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1500" s="57">
+        <v>1655</v>
+      </c>
+      <c r="B1500" s="1" t="s">
+        <v>2912</v>
+      </c>
+      <c r="C1500" s="57">
+        <v>4</v>
+      </c>
+      <c r="D1500" s="57" t="s">
+        <v>1780</v>
+      </c>
+      <c r="E1500" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1500" s="57" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1500" s="57" t="s">
+        <v>2913</v>
+      </c>
+    </row>
+    <row r="1501" spans="1:7" s="57" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1501" s="1"/>
+    </row>
+    <row r="1502" spans="1:7" s="57" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1502" s="1"/>
+    </row>
+    <row r="1503" spans="1:7" s="57" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1503" s="1"/>
+    </row>
+    <row r="1504" spans="1:7" s="57" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1504" s="1"/>
+    </row>
+    <row r="1505" spans="1:7" s="52" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1505" s="1"/>
+    </row>
+    <row r="1506" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A1506" s="59" t="s">
         <v>1723</v>
       </c>
-      <c r="B1493" s="58"/>
-      <c r="C1493" s="58"/>
-      <c r="D1493" s="58"/>
-      <c r="E1493" s="58"/>
-      <c r="F1493" s="58"/>
-      <c r="G1493" s="58"/>
-    </row>
-    <row r="1494" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A1494" s="59" t="s">
+      <c r="B1506" s="59"/>
+      <c r="C1506" s="59"/>
+      <c r="D1506" s="59"/>
+      <c r="E1506" s="59"/>
+      <c r="F1506" s="59"/>
+      <c r="G1506" s="59"/>
+    </row>
+    <row r="1507" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A1507" s="60" t="s">
         <v>2769</v>
       </c>
-      <c r="B1494" s="59"/>
-      <c r="C1494" s="59"/>
-      <c r="D1494" s="59"/>
-      <c r="E1494" s="59"/>
-      <c r="F1494" s="59"/>
-      <c r="G1494" s="59"/>
+      <c r="B1507" s="60"/>
+      <c r="C1507" s="60"/>
+      <c r="D1507" s="60"/>
+      <c r="E1507" s="60"/>
+      <c r="F1507" s="60"/>
+      <c r="G1507" s="60"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I1494" xr:uid="{CB07CE66-8F15-46FF-A90A-43FDB2DB428F}"/>
+  <autoFilter ref="A1:I1507" xr:uid="{CB07CE66-8F15-46FF-A90A-43FDB2DB428F}"/>
   <mergeCells count="2">
-    <mergeCell ref="A1493:G1493"/>
-    <mergeCell ref="A1494:G1494"/>
+    <mergeCell ref="A1506:G1506"/>
+    <mergeCell ref="A1507:G1507"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" display="https://leetcode.com/problems/zigzag-conversion" xr:uid="{00000000-0004-0000-0000-000000000000}"/>

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04405D45-3E62-4938-9966-34E855CCDB79}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{655179FD-6295-4CA2-991F-2A74FE0D65E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19058" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="SQL" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'LeetCode Algorithm'!$A$1:$I$1507</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'LeetCode Algorithm'!$A$1:$I$1510</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7722" uniqueCount="2917">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7730" uniqueCount="2922">
   <si>
     <t>Difficulty</t>
   </si>
@@ -8514,9 +8514,6 @@
     <t>Sort the iterate, check with current and previous number.</t>
   </si>
   <si>
-    <t xml:space="preserve">Even Odd Tree </t>
-  </si>
-  <si>
     <t xml:space="preserve">Maximum Number of Visible Points </t>
   </si>
   <si>
@@ -8788,6 +8785,24 @@
   </si>
   <si>
     <t>Build ith character from i-th characters in target</t>
+  </si>
+  <si>
+    <t>Maximize Grid Happiness</t>
+  </si>
+  <si>
+    <t>Even Odd Tree</t>
+  </si>
+  <si>
+    <t>Design an Ordered Stream</t>
+  </si>
+  <si>
+    <t>Determine if Two Strings Are Close</t>
+  </si>
+  <si>
+    <t>Minimum Operations to Reduce X to Zero</t>
+  </si>
+  <si>
+    <t>Only last m cells and remaining 'I' and 'E' will impact the result for next cell.</t>
   </si>
 </sst>
 </file>
@@ -8832,7 +8847,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -8859,6 +8874,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -9282,10 +9298,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I1507"/>
+  <dimension ref="A1:I1510"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1482" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G1488" sqref="G1488"/>
+    <sheetView tabSelected="1" topLeftCell="A1482" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A1504" sqref="A1504"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -40056,7 +40072,7 @@
         <v>1469</v>
       </c>
       <c r="B1341" s="1" t="s">
-        <v>2859</v>
+        <v>2858</v>
       </c>
       <c r="C1341" s="56">
         <v>2</v>
@@ -40071,7 +40087,7 @@
         <v>140</v>
       </c>
       <c r="G1341" s="56" t="s">
-        <v>2860</v>
+        <v>2859</v>
       </c>
     </row>
     <row r="1342" spans="1:7" s="42" customFormat="1" x14ac:dyDescent="0.45">
@@ -40493,7 +40509,7 @@
         <v>1490</v>
       </c>
       <c r="B1360" s="1" t="s">
-        <v>2861</v>
+        <v>2860</v>
       </c>
       <c r="C1360" s="56">
         <v>2</v>
@@ -40508,7 +40524,7 @@
         <v>140</v>
       </c>
       <c r="G1360" s="56" t="s">
-        <v>2862</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="1361" spans="1:7" s="45" customFormat="1" x14ac:dyDescent="0.45">
@@ -40700,7 +40716,7 @@
         <v>1500</v>
       </c>
       <c r="B1369" s="1" t="s">
-        <v>2863</v>
+        <v>2862</v>
       </c>
       <c r="C1369" s="56">
         <v>3</v>
@@ -40715,7 +40731,7 @@
         <v>458</v>
       </c>
       <c r="G1369" s="56" t="s">
-        <v>2864</v>
+        <v>2863</v>
       </c>
     </row>
     <row r="1370" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.45">
@@ -40815,7 +40831,7 @@
         <v>1506</v>
       </c>
       <c r="B1374" s="1" t="s">
-        <v>2857</v>
+        <v>2856</v>
       </c>
       <c r="C1374" s="56">
         <v>3</v>
@@ -40830,7 +40846,7 @@
         <v>140</v>
       </c>
       <c r="G1374" s="56" t="s">
-        <v>2858</v>
+        <v>2857</v>
       </c>
     </row>
     <row r="1375" spans="1:7" s="47" customFormat="1" x14ac:dyDescent="0.45">
@@ -41022,7 +41038,7 @@
         <v>1516</v>
       </c>
       <c r="B1383" s="21" t="s">
-        <v>2853</v>
+        <v>2852</v>
       </c>
       <c r="C1383" s="56">
         <v>4</v>
@@ -41037,7 +41053,7 @@
         <v>140</v>
       </c>
       <c r="G1383" s="56" t="s">
-        <v>2854</v>
+        <v>2853</v>
       </c>
     </row>
     <row r="1384" spans="1:7" s="48" customFormat="1" x14ac:dyDescent="0.45">
@@ -41137,7 +41153,7 @@
         <v>1522</v>
       </c>
       <c r="B1388" s="1" t="s">
-        <v>2855</v>
+        <v>2854</v>
       </c>
       <c r="C1388" s="56">
         <v>3</v>
@@ -41152,7 +41168,7 @@
         <v>140</v>
       </c>
       <c r="G1388" s="56" t="s">
-        <v>2856</v>
+        <v>2855</v>
       </c>
     </row>
     <row r="1389" spans="1:7" s="49" customFormat="1" x14ac:dyDescent="0.45">
@@ -41344,7 +41360,7 @@
         <v>1533</v>
       </c>
       <c r="B1397" s="1" t="s">
-        <v>2851</v>
+        <v>2850</v>
       </c>
       <c r="C1397" s="56">
         <v>3</v>
@@ -41359,7 +41375,7 @@
         <v>13</v>
       </c>
       <c r="G1397" s="56" t="s">
-        <v>2852</v>
+        <v>2851</v>
       </c>
     </row>
     <row r="1398" spans="1:7" s="49" customFormat="1" x14ac:dyDescent="0.45">
@@ -41459,7 +41475,7 @@
         <v>1538</v>
       </c>
       <c r="B1402" s="1" t="s">
-        <v>2849</v>
+        <v>2848</v>
       </c>
       <c r="C1402" s="56">
         <v>3</v>
@@ -41474,7 +41490,7 @@
         <v>21</v>
       </c>
       <c r="G1402" s="56" t="s">
-        <v>2850</v>
+        <v>2849</v>
       </c>
     </row>
     <row r="1403" spans="1:7" s="49" customFormat="1" x14ac:dyDescent="0.45">
@@ -41666,7 +41682,7 @@
         <v>1548</v>
       </c>
       <c r="B1411" s="1" t="s">
-        <v>2847</v>
+        <v>2846</v>
       </c>
       <c r="C1411" s="56">
         <v>4</v>
@@ -41681,7 +41697,7 @@
         <v>28</v>
       </c>
       <c r="G1411" s="56" t="s">
-        <v>2848</v>
+        <v>2847</v>
       </c>
     </row>
     <row r="1412" spans="1:7" s="52" customFormat="1" x14ac:dyDescent="0.45">
@@ -41781,7 +41797,7 @@
         <v>1554</v>
       </c>
       <c r="B1416" s="1" t="s">
-        <v>2845</v>
+        <v>2844</v>
       </c>
       <c r="C1416" s="56">
         <v>3</v>
@@ -41796,7 +41812,7 @@
         <v>36</v>
       </c>
       <c r="G1416" s="56" t="s">
-        <v>2846</v>
+        <v>2845</v>
       </c>
     </row>
     <row r="1417" spans="1:7" s="53" customFormat="1" x14ac:dyDescent="0.45">
@@ -41988,7 +42004,7 @@
         <v>1564</v>
       </c>
       <c r="B1425" s="1" t="s">
-        <v>2867</v>
+        <v>2866</v>
       </c>
       <c r="C1425" s="57">
         <v>2</v>
@@ -42003,7 +42019,7 @@
         <v>41</v>
       </c>
       <c r="G1425" s="57" t="s">
-        <v>2868</v>
+        <v>2867</v>
       </c>
     </row>
     <row r="1426" spans="1:7" s="53" customFormat="1" x14ac:dyDescent="0.45">
@@ -42103,7 +42119,7 @@
         <v>1570</v>
       </c>
       <c r="B1430" s="1" t="s">
-        <v>2843</v>
+        <v>2842</v>
       </c>
       <c r="C1430" s="56">
         <v>2</v>
@@ -42118,7 +42134,7 @@
         <v>21</v>
       </c>
       <c r="G1430" s="56" t="s">
-        <v>2844</v>
+        <v>2843</v>
       </c>
     </row>
     <row r="1431" spans="1:7" s="53" customFormat="1" x14ac:dyDescent="0.45">
@@ -42310,7 +42326,7 @@
         <v>1580</v>
       </c>
       <c r="B1439" s="1" t="s">
-        <v>2869</v>
+        <v>2868</v>
       </c>
       <c r="C1439" s="57">
         <v>3</v>
@@ -42325,7 +42341,7 @@
         <v>41</v>
       </c>
       <c r="G1439" s="57" t="s">
-        <v>2870</v>
+        <v>2869</v>
       </c>
     </row>
     <row r="1440" spans="1:7" s="52" customFormat="1" x14ac:dyDescent="0.45">
@@ -42425,7 +42441,7 @@
         <v>1586</v>
       </c>
       <c r="B1444" s="1" t="s">
-        <v>2841</v>
+        <v>2840</v>
       </c>
       <c r="C1444" s="56">
         <v>3</v>
@@ -42440,7 +42456,7 @@
         <v>140</v>
       </c>
       <c r="G1444" s="56" t="s">
-        <v>2842</v>
+        <v>2841</v>
       </c>
     </row>
     <row r="1445" spans="1:7" s="55" customFormat="1" x14ac:dyDescent="0.45">
@@ -42632,7 +42648,7 @@
         <v>1597</v>
       </c>
       <c r="B1453" s="1" t="s">
-        <v>2865</v>
+        <v>2864</v>
       </c>
       <c r="C1453" s="57">
         <v>4</v>
@@ -42647,7 +42663,7 @@
         <v>140</v>
       </c>
       <c r="G1453" s="57" t="s">
-        <v>2866</v>
+        <v>2865</v>
       </c>
     </row>
     <row r="1454" spans="1:7" s="55" customFormat="1" x14ac:dyDescent="0.45">
@@ -42747,7 +42763,7 @@
         <v>1602</v>
       </c>
       <c r="B1458" s="1" t="s">
-        <v>2840</v>
+        <v>2839</v>
       </c>
       <c r="C1458" s="56">
         <v>2</v>
@@ -42885,7 +42901,7 @@
         <v>1609</v>
       </c>
       <c r="B1464" s="1" t="s">
-        <v>2825</v>
+        <v>2917</v>
       </c>
       <c r="C1464" s="55">
         <v>2</v>
@@ -42908,7 +42924,7 @@
         <v>1610</v>
       </c>
       <c r="B1465" s="21" t="s">
-        <v>2826</v>
+        <v>2825</v>
       </c>
       <c r="C1465" s="55">
         <v>4</v>
@@ -42923,7 +42939,7 @@
         <v>25</v>
       </c>
       <c r="G1465" s="55" t="s">
-        <v>2828</v>
+        <v>2827</v>
       </c>
     </row>
     <row r="1466" spans="1:7" s="55" customFormat="1" x14ac:dyDescent="0.45">
@@ -42931,7 +42947,7 @@
         <v>1611</v>
       </c>
       <c r="B1466" s="1" t="s">
-        <v>2827</v>
+        <v>2826</v>
       </c>
       <c r="C1466" s="55">
         <v>4</v>
@@ -42946,7 +42962,7 @@
         <v>25</v>
       </c>
       <c r="G1466" s="55" t="s">
-        <v>2829</v>
+        <v>2828</v>
       </c>
     </row>
     <row r="1467" spans="1:7" s="56" customFormat="1" x14ac:dyDescent="0.45">
@@ -42954,7 +42970,7 @@
         <v>1612</v>
       </c>
       <c r="B1467" s="1" t="s">
-        <v>2838</v>
+        <v>2837</v>
       </c>
       <c r="C1467" s="56">
         <v>3</v>
@@ -42969,7 +42985,7 @@
         <v>140</v>
       </c>
       <c r="G1467" s="56" t="s">
-        <v>2839</v>
+        <v>2838</v>
       </c>
     </row>
     <row r="1468" spans="1:7" s="56" customFormat="1" x14ac:dyDescent="0.45">
@@ -42977,7 +42993,7 @@
         <v>1614</v>
       </c>
       <c r="B1468" s="1" t="s">
-        <v>2830</v>
+        <v>2829</v>
       </c>
       <c r="C1468" s="56">
         <v>1</v>
@@ -42992,7 +43008,7 @@
         <v>36</v>
       </c>
       <c r="G1468" s="3" t="s">
-        <v>2831</v>
+        <v>2830</v>
       </c>
     </row>
     <row r="1469" spans="1:7" s="56" customFormat="1" x14ac:dyDescent="0.45">
@@ -43000,7 +43016,7 @@
         <v>1615</v>
       </c>
       <c r="B1469" s="1" t="s">
-        <v>2832</v>
+        <v>2831</v>
       </c>
       <c r="C1469" s="56">
         <v>2</v>
@@ -43015,7 +43031,7 @@
         <v>187</v>
       </c>
       <c r="G1469" s="56" t="s">
-        <v>2833</v>
+        <v>2832</v>
       </c>
     </row>
     <row r="1470" spans="1:7" s="56" customFormat="1" x14ac:dyDescent="0.45">
@@ -43023,7 +43039,7 @@
         <v>1616</v>
       </c>
       <c r="B1470" s="1" t="s">
-        <v>2834</v>
+        <v>2833</v>
       </c>
       <c r="C1470" s="56">
         <v>3</v>
@@ -43038,7 +43054,7 @@
         <v>36</v>
       </c>
       <c r="G1470" s="56" t="s">
-        <v>2836</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="1471" spans="1:7" s="55" customFormat="1" x14ac:dyDescent="0.45">
@@ -43046,7 +43062,7 @@
         <v>1617</v>
       </c>
       <c r="B1471" s="1" t="s">
-        <v>2835</v>
+        <v>2834</v>
       </c>
       <c r="C1471" s="55">
         <v>5</v>
@@ -43061,7 +43077,7 @@
         <v>187</v>
       </c>
       <c r="G1471" s="55" t="s">
-        <v>2837</v>
+        <v>2836</v>
       </c>
     </row>
     <row r="1472" spans="1:7" s="57" customFormat="1" x14ac:dyDescent="0.45">
@@ -43069,7 +43085,7 @@
         <v>1618</v>
       </c>
       <c r="B1472" s="1" t="s">
-        <v>2871</v>
+        <v>2870</v>
       </c>
       <c r="C1472" s="57">
         <v>2</v>
@@ -43084,7 +43100,7 @@
         <v>36</v>
       </c>
       <c r="G1472" s="57" t="s">
-        <v>2872</v>
+        <v>2871</v>
       </c>
     </row>
     <row r="1473" spans="1:7" s="57" customFormat="1" x14ac:dyDescent="0.45">
@@ -43092,7 +43108,7 @@
         <v>1619</v>
       </c>
       <c r="B1473" s="1" t="s">
-        <v>2873</v>
+        <v>2872</v>
       </c>
       <c r="C1473" s="57">
         <v>1</v>
@@ -43107,7 +43123,7 @@
         <v>25</v>
       </c>
       <c r="G1473" s="57" t="s">
-        <v>2874</v>
+        <v>2873</v>
       </c>
     </row>
     <row r="1474" spans="1:7" s="57" customFormat="1" x14ac:dyDescent="0.45">
@@ -43115,7 +43131,7 @@
         <v>1620</v>
       </c>
       <c r="B1474" s="1" t="s">
-        <v>2875</v>
+        <v>2874</v>
       </c>
       <c r="C1474" s="57">
         <v>2</v>
@@ -43130,7 +43146,7 @@
         <v>25</v>
       </c>
       <c r="G1474" s="57" t="s">
-        <v>2876</v>
+        <v>2875</v>
       </c>
     </row>
     <row r="1475" spans="1:7" s="57" customFormat="1" x14ac:dyDescent="0.45">
@@ -43138,7 +43154,7 @@
         <v>1621</v>
       </c>
       <c r="B1475" s="1" t="s">
-        <v>2877</v>
+        <v>2876</v>
       </c>
       <c r="C1475" s="57">
         <v>4</v>
@@ -43153,7 +43169,7 @@
         <v>28</v>
       </c>
       <c r="G1475" s="57" t="s">
-        <v>2878</v>
+        <v>2877</v>
       </c>
     </row>
     <row r="1476" spans="1:7" s="57" customFormat="1" x14ac:dyDescent="0.45">
@@ -43161,7 +43177,7 @@
         <v>1622</v>
       </c>
       <c r="B1476" s="1" t="s">
-        <v>2879</v>
+        <v>2878</v>
       </c>
       <c r="C1476" s="57">
         <v>5</v>
@@ -43176,7 +43192,7 @@
         <v>458</v>
       </c>
       <c r="G1476" s="57" t="s">
-        <v>2880</v>
+        <v>2879</v>
       </c>
     </row>
     <row r="1477" spans="1:7" s="57" customFormat="1" x14ac:dyDescent="0.45">
@@ -43184,7 +43200,7 @@
         <v>1624</v>
       </c>
       <c r="B1477" s="1" t="s">
-        <v>2881</v>
+        <v>2880</v>
       </c>
       <c r="C1477" s="57">
         <v>2</v>
@@ -43199,7 +43215,7 @@
         <v>36</v>
       </c>
       <c r="G1477" s="57" t="s">
-        <v>2882</v>
+        <v>2881</v>
       </c>
     </row>
     <row r="1478" spans="1:7" s="57" customFormat="1" x14ac:dyDescent="0.45">
@@ -43207,7 +43223,7 @@
         <v>1625</v>
       </c>
       <c r="B1478" s="1" t="s">
-        <v>2883</v>
+        <v>2882</v>
       </c>
       <c r="C1478" s="57">
         <v>2</v>
@@ -43222,7 +43238,7 @@
         <v>36</v>
       </c>
       <c r="G1478" s="57" t="s">
-        <v>2884</v>
+        <v>2883</v>
       </c>
     </row>
     <row r="1479" spans="1:7" s="57" customFormat="1" x14ac:dyDescent="0.45">
@@ -43230,7 +43246,7 @@
         <v>1626</v>
       </c>
       <c r="B1479" s="1" t="s">
-        <v>2885</v>
+        <v>2884</v>
       </c>
       <c r="C1479" s="57">
         <v>4</v>
@@ -43245,7 +43261,7 @@
         <v>41</v>
       </c>
       <c r="G1479" s="57" t="s">
-        <v>2886</v>
+        <v>2885</v>
       </c>
     </row>
     <row r="1480" spans="1:7" s="57" customFormat="1" x14ac:dyDescent="0.45">
@@ -43253,7 +43269,7 @@
         <v>1627</v>
       </c>
       <c r="B1480" s="1" t="s">
-        <v>2887</v>
+        <v>2886</v>
       </c>
       <c r="C1480" s="57">
         <v>4</v>
@@ -43268,7 +43284,7 @@
         <v>187</v>
       </c>
       <c r="G1480" s="57" t="s">
-        <v>2888</v>
+        <v>2887</v>
       </c>
     </row>
     <row r="1481" spans="1:7" s="57" customFormat="1" x14ac:dyDescent="0.45">
@@ -43276,7 +43292,7 @@
         <v>1629</v>
       </c>
       <c r="B1481" s="1" t="s">
-        <v>2889</v>
+        <v>2888</v>
       </c>
       <c r="C1481" s="57">
         <v>1</v>
@@ -43291,7 +43307,7 @@
         <v>21</v>
       </c>
       <c r="G1481" s="57" t="s">
-        <v>2890</v>
+        <v>2889</v>
       </c>
     </row>
     <row r="1482" spans="1:7" s="57" customFormat="1" x14ac:dyDescent="0.45">
@@ -43299,7 +43315,7 @@
         <v>1630</v>
       </c>
       <c r="B1482" s="1" t="s">
-        <v>2891</v>
+        <v>2890</v>
       </c>
       <c r="C1482" s="57">
         <v>3</v>
@@ -43314,7 +43330,7 @@
         <v>21</v>
       </c>
       <c r="G1482" s="57" t="s">
-        <v>2892</v>
+        <v>2891</v>
       </c>
     </row>
     <row r="1483" spans="1:7" s="57" customFormat="1" x14ac:dyDescent="0.45">
@@ -43322,7 +43338,7 @@
         <v>1631</v>
       </c>
       <c r="B1483" s="1" t="s">
-        <v>2893</v>
+        <v>2892</v>
       </c>
       <c r="C1483" s="57">
         <v>3</v>
@@ -43337,7 +43353,7 @@
         <v>187</v>
       </c>
       <c r="G1483" s="57" t="s">
-        <v>2894</v>
+        <v>2893</v>
       </c>
     </row>
     <row r="1484" spans="1:7" s="57" customFormat="1" x14ac:dyDescent="0.45">
@@ -43345,7 +43361,7 @@
         <v>1632</v>
       </c>
       <c r="B1484" s="1" t="s">
-        <v>2895</v>
+        <v>2894</v>
       </c>
       <c r="C1484" s="57">
         <v>5</v>
@@ -43360,7 +43376,7 @@
         <v>41</v>
       </c>
       <c r="G1484" s="57" t="s">
-        <v>2896</v>
+        <v>2895</v>
       </c>
     </row>
     <row r="1485" spans="1:7" s="57" customFormat="1" x14ac:dyDescent="0.45">
@@ -43368,7 +43384,7 @@
         <v>1636</v>
       </c>
       <c r="B1485" s="1" t="s">
-        <v>2897</v>
+        <v>2896</v>
       </c>
     </row>
     <row r="1486" spans="1:7" s="58" customFormat="1" x14ac:dyDescent="0.45">
@@ -43376,7 +43392,7 @@
         <v>1637</v>
       </c>
       <c r="B1486" s="1" t="s">
-        <v>2898</v>
+        <v>2897</v>
       </c>
     </row>
     <row r="1487" spans="1:7" s="58" customFormat="1" x14ac:dyDescent="0.45">
@@ -43384,7 +43400,7 @@
         <v>1638</v>
       </c>
       <c r="B1487" s="1" t="s">
-        <v>2899</v>
+        <v>2898</v>
       </c>
     </row>
     <row r="1488" spans="1:7" s="58" customFormat="1" x14ac:dyDescent="0.45">
@@ -43392,7 +43408,7 @@
         <v>1639</v>
       </c>
       <c r="B1488" s="1" t="s">
-        <v>2900</v>
+        <v>2899</v>
       </c>
       <c r="C1488" s="58">
         <v>4</v>
@@ -43407,7 +43423,7 @@
         <v>28</v>
       </c>
       <c r="G1488" s="58" t="s">
-        <v>2916</v>
+        <v>2915</v>
       </c>
     </row>
     <row r="1489" spans="1:7" s="58" customFormat="1" x14ac:dyDescent="0.45">
@@ -43415,7 +43431,7 @@
         <v>1640</v>
       </c>
       <c r="B1489" s="1" t="s">
-        <v>2901</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="1490" spans="1:7" s="58" customFormat="1" x14ac:dyDescent="0.45">
@@ -43423,7 +43439,7 @@
         <v>1641</v>
       </c>
       <c r="B1490" s="1" t="s">
-        <v>2902</v>
+        <v>2901</v>
       </c>
     </row>
     <row r="1491" spans="1:7" s="58" customFormat="1" x14ac:dyDescent="0.45">
@@ -43431,7 +43447,7 @@
         <v>1642</v>
       </c>
       <c r="B1491" s="1" t="s">
-        <v>2903</v>
+        <v>2902</v>
       </c>
     </row>
     <row r="1492" spans="1:7" s="58" customFormat="1" x14ac:dyDescent="0.45">
@@ -43439,7 +43455,7 @@
         <v>1643</v>
       </c>
       <c r="B1492" s="1" t="s">
-        <v>2904</v>
+        <v>2903</v>
       </c>
       <c r="C1492" s="58">
         <v>4</v>
@@ -43454,7 +43470,7 @@
         <v>25</v>
       </c>
       <c r="G1492" s="58" t="s">
-        <v>2915</v>
+        <v>2914</v>
       </c>
     </row>
     <row r="1493" spans="1:7" s="58" customFormat="1" x14ac:dyDescent="0.45">
@@ -43462,7 +43478,7 @@
         <v>1646</v>
       </c>
       <c r="B1493" s="1" t="s">
-        <v>2905</v>
+        <v>2904</v>
       </c>
     </row>
     <row r="1494" spans="1:7" s="58" customFormat="1" x14ac:dyDescent="0.45">
@@ -43470,7 +43486,7 @@
         <v>1647</v>
       </c>
       <c r="B1494" s="1" t="s">
-        <v>2906</v>
+        <v>2905</v>
       </c>
     </row>
     <row r="1495" spans="1:7" s="58" customFormat="1" x14ac:dyDescent="0.45">
@@ -43478,7 +43494,7 @@
         <v>1648</v>
       </c>
       <c r="B1495" s="1" t="s">
-        <v>2907</v>
+        <v>2906</v>
       </c>
     </row>
     <row r="1496" spans="1:7" s="58" customFormat="1" x14ac:dyDescent="0.45">
@@ -43486,7 +43502,7 @@
         <v>1649</v>
       </c>
       <c r="B1496" s="1" t="s">
-        <v>2908</v>
+        <v>2907</v>
       </c>
       <c r="C1496" s="58">
         <v>5</v>
@@ -43501,7 +43517,7 @@
         <v>41</v>
       </c>
       <c r="G1496" s="58" t="s">
-        <v>2914</v>
+        <v>2913</v>
       </c>
     </row>
     <row r="1497" spans="1:7" s="58" customFormat="1" x14ac:dyDescent="0.45">
@@ -43509,7 +43525,7 @@
         <v>1652</v>
       </c>
       <c r="B1497" s="1" t="s">
-        <v>2909</v>
+        <v>2908</v>
       </c>
     </row>
     <row r="1498" spans="1:7" s="58" customFormat="1" x14ac:dyDescent="0.45">
@@ -43517,7 +43533,7 @@
         <v>1653</v>
       </c>
       <c r="B1498" s="1" t="s">
-        <v>2910</v>
+        <v>2909</v>
       </c>
     </row>
     <row r="1499" spans="1:7" s="57" customFormat="1" x14ac:dyDescent="0.45">
@@ -43525,7 +43541,7 @@
         <v>1654</v>
       </c>
       <c r="B1499" s="1" t="s">
-        <v>2911</v>
+        <v>2910</v>
       </c>
     </row>
     <row r="1500" spans="1:7" s="57" customFormat="1" x14ac:dyDescent="0.45">
@@ -43533,7 +43549,7 @@
         <v>1655</v>
       </c>
       <c r="B1500" s="1" t="s">
-        <v>2912</v>
+        <v>2911</v>
       </c>
       <c r="C1500" s="57">
         <v>4</v>
@@ -43548,51 +43564,95 @@
         <v>51</v>
       </c>
       <c r="G1500" s="57" t="s">
-        <v>2913</v>
-      </c>
-    </row>
-    <row r="1501" spans="1:7" s="57" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1501" s="1"/>
-    </row>
-    <row r="1502" spans="1:7" s="57" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1502" s="1"/>
-    </row>
-    <row r="1503" spans="1:7" s="57" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1503" s="1"/>
+        <v>2912</v>
+      </c>
+    </row>
+    <row r="1501" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1501" s="59">
+        <v>1656</v>
+      </c>
+      <c r="B1501" s="1" t="s">
+        <v>2918</v>
+      </c>
+    </row>
+    <row r="1502" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1502" s="59">
+        <v>1657</v>
+      </c>
+      <c r="B1502" s="1" t="s">
+        <v>2919</v>
+      </c>
+    </row>
+    <row r="1503" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1503" s="59">
+        <v>1658</v>
+      </c>
+      <c r="B1503" s="1" t="s">
+        <v>2920</v>
+      </c>
     </row>
     <row r="1504" spans="1:7" s="57" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1504" s="1"/>
-    </row>
-    <row r="1505" spans="1:7" s="52" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1504" s="57">
+        <v>1659</v>
+      </c>
+      <c r="B1504" s="1" t="s">
+        <v>2916</v>
+      </c>
+      <c r="C1504" s="57">
+        <v>5</v>
+      </c>
+      <c r="D1504" s="57" t="s">
+        <v>2819</v>
+      </c>
+      <c r="E1504" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1504" s="57" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1504" s="57" t="s">
+        <v>2921</v>
+      </c>
+    </row>
+    <row r="1505" spans="1:7" s="57" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B1505" s="1"/>
     </row>
-    <row r="1506" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A1506" s="59" t="s">
+    <row r="1506" spans="1:7" s="57" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1506" s="1"/>
+    </row>
+    <row r="1507" spans="1:7" s="57" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1507" s="1"/>
+    </row>
+    <row r="1508" spans="1:7" s="52" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1508" s="1"/>
+    </row>
+    <row r="1509" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A1509" s="60" t="s">
         <v>1723</v>
       </c>
-      <c r="B1506" s="59"/>
-      <c r="C1506" s="59"/>
-      <c r="D1506" s="59"/>
-      <c r="E1506" s="59"/>
-      <c r="F1506" s="59"/>
-      <c r="G1506" s="59"/>
-    </row>
-    <row r="1507" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A1507" s="60" t="s">
+      <c r="B1509" s="60"/>
+      <c r="C1509" s="60"/>
+      <c r="D1509" s="60"/>
+      <c r="E1509" s="60"/>
+      <c r="F1509" s="60"/>
+      <c r="G1509" s="60"/>
+    </row>
+    <row r="1510" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A1510" s="61" t="s">
         <v>2769</v>
       </c>
-      <c r="B1507" s="60"/>
-      <c r="C1507" s="60"/>
-      <c r="D1507" s="60"/>
-      <c r="E1507" s="60"/>
-      <c r="F1507" s="60"/>
-      <c r="G1507" s="60"/>
+      <c r="B1510" s="61"/>
+      <c r="C1510" s="61"/>
+      <c r="D1510" s="61"/>
+      <c r="E1510" s="61"/>
+      <c r="F1510" s="61"/>
+      <c r="G1510" s="61"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I1507" xr:uid="{CB07CE66-8F15-46FF-A90A-43FDB2DB428F}"/>
+  <autoFilter ref="A1:I1510" xr:uid="{CB07CE66-8F15-46FF-A90A-43FDB2DB428F}"/>
   <mergeCells count="2">
-    <mergeCell ref="A1506:G1506"/>
-    <mergeCell ref="A1507:G1507"/>
+    <mergeCell ref="A1509:G1509"/>
+    <mergeCell ref="A1510:G1510"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" display="https://leetcode.com/problems/zigzag-conversion" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -44888,10 +44948,15 @@
     <hyperlink ref="B1374" r:id="rId1291" display="https://leetcode.com/problems/find-root-of-n-ary-tree" xr:uid="{A33B467D-1853-4D7F-AA4A-B6CF60EE40E6}"/>
     <hyperlink ref="B1425" r:id="rId1292" display="https://leetcode.com/problems/put-boxes-into-the-warehouse-i" xr:uid="{89CE515A-B43E-44F7-9C01-62B918E8EF86}"/>
     <hyperlink ref="B1474" r:id="rId1293" display="https://leetcode.com/problems/coordinate-with-maximum-network-quality" xr:uid="{2C3ED305-DFD7-40F6-BFF7-3FC373E4088B}"/>
+    <hyperlink ref="B1504" r:id="rId1294" display="https://leetcode.com/problems/maximize-grid-happiness" xr:uid="{761EB3D6-A016-489F-82C4-A96955D78C2E}"/>
+    <hyperlink ref="B1500" r:id="rId1295" display="https://leetcode.com/problems/distribute-repeating-integers" xr:uid="{37D6DE00-6AEC-4560-89E6-0024E355076C}"/>
+    <hyperlink ref="B1501" r:id="rId1296" display="https://leetcode.com/problems/design-an-ordered-stream" xr:uid="{A5909531-F06F-4F57-B90A-041B3819A3D8}"/>
+    <hyperlink ref="B1502" r:id="rId1297" display="https://leetcode.com/problems/determine-if-two-strings-are-close" xr:uid="{FA7BD1ED-BC95-4621-B562-2B9AAE521F64}"/>
+    <hyperlink ref="B1503" r:id="rId1298" display="https://leetcode.com/problems/minimum-operations-to-reduce-x-to-zero" xr:uid="{AA7B53A5-AC53-41F4-8B0E-F277A5E98850}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1294"/>
-  <drawing r:id="rId1295"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1299"/>
+  <drawing r:id="rId1300"/>
 </worksheet>
 </file>
 

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1140013-1A3E-47DC-AFDD-D07BEA79E220}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3B7FA8E-B8EE-434E-A258-F39102B543B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19058" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="143" yWindow="0" windowWidth="19057" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LeetCode Algorithm" sheetId="1" r:id="rId1"/>
     <sheet name="SQL" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'LeetCode Algorithm'!$A$1:$J$1516</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'LeetCode Algorithm'!$A$1:$J$1526</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7854" uniqueCount="2959">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7900" uniqueCount="2975">
   <si>
     <t>Difficulty</t>
   </si>
@@ -8914,6 +8914,54 @@
   </si>
   <si>
     <t>Calculate the gap from the top inventory with count.</t>
+  </si>
+  <si>
+    <t>Maximum Repeating Substring</t>
+  </si>
+  <si>
+    <t>Keep on searching target word</t>
+  </si>
+  <si>
+    <t>Merge In Between Linked Lists</t>
+  </si>
+  <si>
+    <t>Merge linked list</t>
+  </si>
+  <si>
+    <t>Design Front Middle Back Queue</t>
+  </si>
+  <si>
+    <t>C++ deque has everything we need.</t>
+  </si>
+  <si>
+    <t>Minimum Number of Removals to Make Mountain Array</t>
+  </si>
+  <si>
+    <t>LIS left and right</t>
+  </si>
+  <si>
+    <t>Richest Customer Wealth</t>
+  </si>
+  <si>
+    <t>Find the Most Competitive Subsequence </t>
+  </si>
+  <si>
+    <t>Sum up everyone's wealth</t>
+  </si>
+  <si>
+    <t>Pop up large numbers from result, if we still have enough tail</t>
+  </si>
+  <si>
+    <t>Minimum Moves to Make Array Complementary</t>
+  </si>
+  <si>
+    <t>Minimize Deviation in Array</t>
+  </si>
+  <si>
+    <t>sweep line on [min + 1, max+limit]</t>
+  </si>
+  <si>
+    <t>make all numbers as even and push to heap, divide max, until max is odd</t>
   </si>
 </sst>
 </file>
@@ -8958,7 +9006,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -8985,6 +9033,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -9412,10 +9461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J1516"/>
+  <dimension ref="A1:J1526"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1482" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H1498" sqref="H1498"/>
+    <sheetView tabSelected="1" topLeftCell="D1498" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H1521" sqref="H1521"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -44659,38 +44708,246 @@
         <v>2950</v>
       </c>
     </row>
-    <row r="1514" spans="1:8" s="62" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1514" s="1"/>
-    </row>
-    <row r="1515" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A1515" s="63" t="s">
+    <row r="1514" spans="1:8" s="63" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1514" s="63">
+        <v>1668</v>
+      </c>
+      <c r="B1514" s="1" t="s">
+        <v>2959</v>
+      </c>
+      <c r="C1514" s="63">
+        <v>2</v>
+      </c>
+      <c r="D1514" s="63" t="s">
+        <v>1773</v>
+      </c>
+      <c r="E1514" s="63" t="s">
+        <v>2945</v>
+      </c>
+      <c r="F1514" s="63" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1514" s="63" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1514" s="63" t="s">
+        <v>2960</v>
+      </c>
+    </row>
+    <row r="1515" spans="1:8" s="63" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1515" s="63">
+        <v>1669</v>
+      </c>
+      <c r="B1515" s="1" t="s">
+        <v>2961</v>
+      </c>
+      <c r="C1515" s="63">
+        <v>2</v>
+      </c>
+      <c r="D1515" s="63" t="s">
+        <v>1722</v>
+      </c>
+      <c r="F1515" s="63" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1515" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1515" s="63" t="s">
+        <v>2962</v>
+      </c>
+    </row>
+    <row r="1516" spans="1:8" s="63" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1516" s="63">
+        <v>1670</v>
+      </c>
+      <c r="B1516" s="1" t="s">
+        <v>2963</v>
+      </c>
+      <c r="C1516" s="63">
+        <v>2</v>
+      </c>
+      <c r="D1516" s="63" t="s">
+        <v>1722</v>
+      </c>
+      <c r="E1516" s="63" t="s">
+        <v>2945</v>
+      </c>
+      <c r="F1516" s="63" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1516" s="63" t="s">
+        <v>458</v>
+      </c>
+      <c r="H1516" s="63" t="s">
+        <v>2964</v>
+      </c>
+    </row>
+    <row r="1517" spans="1:8" s="63" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1517" s="63">
+        <v>1671</v>
+      </c>
+      <c r="B1517" s="1" t="s">
+        <v>2965</v>
+      </c>
+      <c r="C1517" s="63">
+        <v>4</v>
+      </c>
+      <c r="D1517" s="63" t="s">
+        <v>1722</v>
+      </c>
+      <c r="E1517" s="63" t="s">
+        <v>2935</v>
+      </c>
+      <c r="F1517" s="63" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1517" s="63" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1517" s="63" t="s">
+        <v>2966</v>
+      </c>
+    </row>
+    <row r="1518" spans="1:8" s="63" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1518" s="63">
+        <v>1672</v>
+      </c>
+      <c r="B1518" s="1" t="s">
+        <v>2967</v>
+      </c>
+      <c r="C1518" s="63">
+        <v>1</v>
+      </c>
+      <c r="D1518" s="63" t="s">
+        <v>1719</v>
+      </c>
+      <c r="F1518" s="63" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1518" s="63" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1518" s="63" t="s">
+        <v>2969</v>
+      </c>
+    </row>
+    <row r="1519" spans="1:8" s="63" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1519" s="63">
+        <v>1673</v>
+      </c>
+      <c r="B1519" s="1" t="s">
+        <v>2968</v>
+      </c>
+      <c r="C1519" s="63">
+        <v>3</v>
+      </c>
+      <c r="D1519" s="63" t="s">
+        <v>1722</v>
+      </c>
+      <c r="E1519" s="63" t="s">
+        <v>2933</v>
+      </c>
+      <c r="F1519" s="63" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1519" s="63" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1519" s="63" t="s">
+        <v>2970</v>
+      </c>
+    </row>
+    <row r="1520" spans="1:8" s="63" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1520" s="63">
+        <v>1674</v>
+      </c>
+      <c r="B1520" s="1" t="s">
+        <v>2971</v>
+      </c>
+      <c r="C1520" s="63">
+        <v>4</v>
+      </c>
+      <c r="D1520" s="63" t="s">
+        <v>2819</v>
+      </c>
+      <c r="E1520" s="63" t="s">
+        <v>2945</v>
+      </c>
+      <c r="F1520" s="63" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1520" s="63" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1520" s="63" t="s">
+        <v>2973</v>
+      </c>
+    </row>
+    <row r="1521" spans="1:8" s="63" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1521" s="63">
+        <v>1675</v>
+      </c>
+      <c r="B1521" s="1" t="s">
+        <v>2972</v>
+      </c>
+      <c r="C1521" s="63">
+        <v>4</v>
+      </c>
+      <c r="D1521" s="63" t="s">
+        <v>2819</v>
+      </c>
+      <c r="E1521" s="63" t="s">
+        <v>2934</v>
+      </c>
+      <c r="F1521" s="63" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1521" s="63" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1521" s="63" t="s">
+        <v>2974</v>
+      </c>
+    </row>
+    <row r="1522" spans="1:8" s="63" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1522" s="1"/>
+    </row>
+    <row r="1523" spans="1:8" s="63" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1523" s="1"/>
+    </row>
+    <row r="1524" spans="1:8" s="62" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1524" s="1"/>
+    </row>
+    <row r="1525" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A1525" s="64" t="s">
         <v>1723</v>
       </c>
-      <c r="B1515" s="63"/>
-      <c r="C1515" s="63"/>
-      <c r="D1515" s="63"/>
-      <c r="E1515" s="63"/>
-      <c r="F1515" s="63"/>
-      <c r="G1515" s="63"/>
-      <c r="H1515" s="63"/>
-    </row>
-    <row r="1516" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A1516" s="64" t="s">
+      <c r="B1525" s="64"/>
+      <c r="C1525" s="64"/>
+      <c r="D1525" s="64"/>
+      <c r="E1525" s="64"/>
+      <c r="F1525" s="64"/>
+      <c r="G1525" s="64"/>
+      <c r="H1525" s="64"/>
+    </row>
+    <row r="1526" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A1526" s="65" t="s">
         <v>2769</v>
       </c>
-      <c r="B1516" s="64"/>
-      <c r="C1516" s="64"/>
-      <c r="D1516" s="64"/>
-      <c r="E1516" s="64"/>
-      <c r="F1516" s="64"/>
-      <c r="G1516" s="64"/>
-      <c r="H1516" s="64"/>
+      <c r="B1526" s="65"/>
+      <c r="C1526" s="65"/>
+      <c r="D1526" s="65"/>
+      <c r="E1526" s="65"/>
+      <c r="F1526" s="65"/>
+      <c r="G1526" s="65"/>
+      <c r="H1526" s="65"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J1516" xr:uid="{CB07CE66-8F15-46FF-A90A-43FDB2DB428F}"/>
+  <autoFilter ref="A1:J1526" xr:uid="{CB07CE66-8F15-46FF-A90A-43FDB2DB428F}"/>
   <mergeCells count="2">
-    <mergeCell ref="A1515:H1515"/>
-    <mergeCell ref="A1516:H1516"/>
+    <mergeCell ref="A1525:H1525"/>
+    <mergeCell ref="A1526:H1526"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" display="https://leetcode.com/problems/zigzag-conversion" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -45999,10 +46256,17 @@
     <hyperlink ref="B1512" r:id="rId1304" display="https://leetcode.com/problems/minimum-initial-energy-to-finish-tasks" xr:uid="{D61495B8-465A-4606-8B36-A207B287FA10}"/>
     <hyperlink ref="B1500" r:id="rId1305" display="https://leetcode.com/problems/lowest-common-ancestor-of-a-binary-tree-iii" xr:uid="{6944D30E-A507-4FCC-818E-D6394D24B2DC}"/>
     <hyperlink ref="B1513" r:id="rId1306" display="https://leetcode.com/problems/change-the-root-of-a-binary-tree" xr:uid="{5BB80A50-7E2F-4EF9-B5CD-C0D18726E114}"/>
+    <hyperlink ref="B1514" r:id="rId1307" display="https://leetcode.com/problems/maximum-repeating-substring" xr:uid="{D1BBC97A-1F75-4233-A8AD-3AA5275D1A9C}"/>
+    <hyperlink ref="B1515" r:id="rId1308" display="https://leetcode.com/problems/merge-in-between-linked-lists" xr:uid="{7CFB66E6-D2A5-4D5E-B3EE-A8934430EAB0}"/>
+    <hyperlink ref="B1516" r:id="rId1309" display="https://leetcode.com/problems/design-front-middle-back-queue" xr:uid="{DEB767DE-E79C-4B5E-9069-778C10B10711}"/>
+    <hyperlink ref="B1517" r:id="rId1310" display="https://leetcode.com/problems/minimum-number-of-removals-to-make-mountain-array" xr:uid="{8CA2D06E-16E8-470D-9C8B-E92C7F09D113}"/>
+    <hyperlink ref="B1518" r:id="rId1311" display="https://leetcode.com/problems/richest-customer-wealth" xr:uid="{9F949E51-56C2-447C-8806-E526425D16A7}"/>
+    <hyperlink ref="B1519" r:id="rId1312" display="https://leetcode.com/problems/find-the-most-competitive-subsequence" xr:uid="{C3ED52D6-7F0C-47AB-932C-6F73042C7FCC}"/>
+    <hyperlink ref="B1520" r:id="rId1313" display="https://leetcode.com/problems/minimum-moves-to-make-array-complementary" xr:uid="{5DE86A89-1C3B-42AF-8354-4435335D575E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1307"/>
-  <drawing r:id="rId1308"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1314"/>
+  <drawing r:id="rId1315"/>
 </worksheet>
 </file>
 

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B41CD9D-64A3-42AF-9B2E-709F832C815E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BC54788-9B55-4CF6-A0A9-2127C0475148}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="165" yWindow="0" windowWidth="19035" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="SQL" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'LeetCode Algorithm'!$A$1:$J$1545</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'LeetCode Algorithm'!$A$1:$J$1549</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8126" uniqueCount="3031">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8150" uniqueCount="3039">
   <si>
     <t>Difficulty</t>
   </si>
@@ -9130,6 +9130,30 @@
   </si>
   <si>
     <t>N * LOG(N)</t>
+  </si>
+  <si>
+    <t>Number of Students Unable to Eat Lunch </t>
+  </si>
+  <si>
+    <t>Count zero and one for students then deduct from sandwiches</t>
+  </si>
+  <si>
+    <t>Average Waiting Time </t>
+  </si>
+  <si>
+    <t>Accumulate wait time</t>
+  </si>
+  <si>
+    <t>Maximum Binary String After Change</t>
+  </si>
+  <si>
+    <t>Scan from left to right pass through '1' and convert and move '0' left</t>
+  </si>
+  <si>
+    <t>Minimum Adjacent Swaps for K Consecutive Ones</t>
+  </si>
+  <si>
+    <t>Track position of 1, keep size of K window and move 1 to center</t>
   </si>
 </sst>
 </file>
@@ -9174,7 +9198,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -9201,6 +9225,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -9633,10 +9658,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J1545"/>
+  <dimension ref="A1:J1549"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A188" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D201" sqref="D201"/>
+    <sheetView tabSelected="1" topLeftCell="A1520" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A1544" sqref="A1544"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -45899,44 +45924,148 @@
         <v>3026</v>
       </c>
     </row>
-    <row r="1541" spans="1:9" s="63" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1541" s="1"/>
-    </row>
-    <row r="1542" spans="1:9" s="63" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1542" s="1"/>
-    </row>
-    <row r="1543" spans="1:9" s="62" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1543" s="1"/>
-    </row>
-    <row r="1544" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A1544" s="68" t="s">
+    <row r="1541" spans="1:9" s="68" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1541" s="68">
+        <v>1700</v>
+      </c>
+      <c r="B1541" s="1" t="s">
+        <v>3031</v>
+      </c>
+      <c r="C1541" s="68">
+        <v>2</v>
+      </c>
+      <c r="D1541" s="68" t="s">
+        <v>1768</v>
+      </c>
+      <c r="F1541" s="68" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1541" s="68" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1541" s="68" t="s">
+        <v>3032</v>
+      </c>
+      <c r="I1541" s="68" t="s">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="1542" spans="1:9" s="68" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1542" s="68">
+        <v>1701</v>
+      </c>
+      <c r="B1542" s="1" t="s">
+        <v>3033</v>
+      </c>
+      <c r="C1542" s="68">
+        <v>2</v>
+      </c>
+      <c r="D1542" s="68" t="s">
+        <v>1720</v>
+      </c>
+      <c r="F1542" s="68" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1542" s="68" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1542" s="68" t="s">
+        <v>3034</v>
+      </c>
+      <c r="I1542" s="68" t="s">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="1543" spans="1:9" s="68" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1543" s="68">
+        <v>1702</v>
+      </c>
+      <c r="B1543" s="1" t="s">
+        <v>3035</v>
+      </c>
+      <c r="C1543" s="68">
+        <v>3</v>
+      </c>
+      <c r="D1543" s="68" t="s">
+        <v>2810</v>
+      </c>
+      <c r="F1543" s="68" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1543" s="68" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1543" s="68" t="s">
+        <v>3036</v>
+      </c>
+      <c r="I1543" s="68" t="s">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="1544" spans="1:9" s="68" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1544" s="68">
+        <v>1703</v>
+      </c>
+      <c r="B1544" s="1" t="s">
+        <v>3037</v>
+      </c>
+      <c r="C1544" s="68">
+        <v>5</v>
+      </c>
+      <c r="E1544" s="68" t="s">
+        <v>2924</v>
+      </c>
+      <c r="F1544" s="68" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1544" s="68" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1544" s="68" t="s">
+        <v>3038</v>
+      </c>
+      <c r="I1544" s="68" t="s">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="1545" spans="1:9" s="63" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1545" s="1"/>
+    </row>
+    <row r="1546" spans="1:9" s="63" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1546" s="1"/>
+    </row>
+    <row r="1547" spans="1:9" s="62" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1547" s="1"/>
+    </row>
+    <row r="1548" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A1548" s="69" t="s">
         <v>1721</v>
       </c>
-      <c r="B1544" s="68"/>
-      <c r="C1544" s="68"/>
-      <c r="D1544" s="68"/>
-      <c r="E1544" s="68"/>
-      <c r="F1544" s="68"/>
-      <c r="G1544" s="68"/>
-      <c r="H1544" s="68"/>
-    </row>
-    <row r="1545" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A1545" s="69" t="s">
+      <c r="B1548" s="69"/>
+      <c r="C1548" s="69"/>
+      <c r="D1548" s="69"/>
+      <c r="E1548" s="69"/>
+      <c r="F1548" s="69"/>
+      <c r="G1548" s="69"/>
+      <c r="H1548" s="69"/>
+    </row>
+    <row r="1549" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A1549" s="70" t="s">
         <v>2760</v>
       </c>
-      <c r="B1545" s="69"/>
-      <c r="C1545" s="69"/>
-      <c r="D1545" s="69"/>
-      <c r="E1545" s="69"/>
-      <c r="F1545" s="69"/>
-      <c r="G1545" s="69"/>
-      <c r="H1545" s="69"/>
+      <c r="B1549" s="70"/>
+      <c r="C1549" s="70"/>
+      <c r="D1549" s="70"/>
+      <c r="E1549" s="70"/>
+      <c r="F1549" s="70"/>
+      <c r="G1549" s="70"/>
+      <c r="H1549" s="70"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J1545" xr:uid="{CB07CE66-8F15-46FF-A90A-43FDB2DB428F}"/>
+  <autoFilter ref="A1:J1549" xr:uid="{CB07CE66-8F15-46FF-A90A-43FDB2DB428F}"/>
   <mergeCells count="2">
-    <mergeCell ref="A1544:H1544"/>
-    <mergeCell ref="A1545:H1545"/>
+    <mergeCell ref="A1548:H1548"/>
+    <mergeCell ref="A1549:H1549"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" display="https://leetcode.com/problems/zigzag-conversion" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -47269,10 +47398,14 @@
     <hyperlink ref="B1527" r:id="rId1328" display="https://leetcode.com/problems/count-the-number-of-consistent-strings" xr:uid="{9B7A8FAE-7560-4A45-B55E-701DED926008}"/>
     <hyperlink ref="B1526" r:id="rId1329" display="https://leetcode.com/problems/longest-palindromic-subsequence-ii" xr:uid="{02DA21C5-5E14-4B7D-B67D-CF09BDDF4BF3}"/>
     <hyperlink ref="B1540" r:id="rId1330" display="https://leetcode.com/problems/number-of-distinct-substrings-in-a-string" xr:uid="{8A3ADD9E-67E0-4A0E-89AC-85A7E0CD36EA}"/>
+    <hyperlink ref="B1541" r:id="rId1331" display="https://leetcode.com/problems/number-of-students-unable-to-eat-lunch" xr:uid="{7F9798C1-177E-406D-8C6B-F7C1F514FB6F}"/>
+    <hyperlink ref="B1542" r:id="rId1332" display="https://leetcode.com/problems/average-waiting-time" xr:uid="{3A5A8DC6-E12E-42D7-AC4B-2714AA2C6464}"/>
+    <hyperlink ref="B1543" r:id="rId1333" display="https://leetcode.com/problems/maximum-binary-string-after-change" xr:uid="{AC0F4C38-DD5A-4A44-88C6-7E2A58AC810A}"/>
+    <hyperlink ref="B1544" r:id="rId1334" display="https://leetcode.com/problems/minimum-adjacent-swaps-for-k-consecutive-ones" xr:uid="{C24A3238-A403-4221-8D3D-45A37F4A5F23}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1331"/>
-  <drawing r:id="rId1332"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1335"/>
+  <drawing r:id="rId1336"/>
 </worksheet>
 </file>
 

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BC54788-9B55-4CF6-A0A9-2127C0475148}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC3FCAF6-2DC9-405C-B481-0D018CC13746}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="165" yWindow="0" windowWidth="19035" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="SQL" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'LeetCode Algorithm'!$A$1:$J$1549</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'LeetCode Algorithm'!$A$1:$J$1551</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8150" uniqueCount="3039">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8177" uniqueCount="3047">
   <si>
     <t>Difficulty</t>
   </si>
@@ -9123,9 +9123,6 @@
     <t>K^N</t>
   </si>
   <si>
-    <t>N*Log(N)</t>
-  </si>
-  <si>
     <t>Complexity</t>
   </si>
   <si>
@@ -9154,6 +9151,33 @@
   </si>
   <si>
     <t>Track position of 1, keep size of K window and move 1 to center</t>
+  </si>
+  <si>
+    <t>Determine if String Halves Are Alike</t>
+  </si>
+  <si>
+    <t>Count vowels in first half anf second half</t>
+  </si>
+  <si>
+    <t>Maximum Number of Eaten Apples</t>
+  </si>
+  <si>
+    <t>Eat the apples rotten first</t>
+  </si>
+  <si>
+    <t>Where Will the Ball Fall</t>
+  </si>
+  <si>
+    <t>Maximum XOR With an Element From Array</t>
+  </si>
+  <si>
+    <t>Check if V type or out of boundary at every level.</t>
+  </si>
+  <si>
+    <t>N * M</t>
+  </si>
+  <si>
+    <t>Try every preferred bits and see if there are candidates.</t>
   </si>
 </sst>
 </file>
@@ -9198,7 +9222,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -9225,6 +9249,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -9658,10 +9683,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J1549"/>
+  <dimension ref="A1:J1551"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1520" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A1544" sqref="A1544"/>
+    <sheetView tabSelected="1" topLeftCell="B1529" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G1547" sqref="G1547"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -9704,7 +9729,7 @@
         <v>2</v>
       </c>
       <c r="I1" t="s">
-        <v>3029</v>
+        <v>3028</v>
       </c>
       <c r="J1" t="s">
         <v>1535</v>
@@ -11073,7 +11098,7 @@
         <v>2969</v>
       </c>
       <c r="I57" t="s">
-        <v>3030</v>
+        <v>3029</v>
       </c>
       <c r="J57" t="s">
         <v>1540</v>
@@ -11105,7 +11130,7 @@
         <v>2967</v>
       </c>
       <c r="I58" s="67" t="s">
-        <v>3030</v>
+        <v>3029</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.45">
@@ -13507,7 +13532,7 @@
         <v>229</v>
       </c>
       <c r="I164" s="67" t="s">
-        <v>3030</v>
+        <v>3029</v>
       </c>
       <c r="J164" t="s">
         <v>1539</v>
@@ -14368,7 +14393,7 @@
         <v>277</v>
       </c>
       <c r="I203" s="67" t="s">
-        <v>3030</v>
+        <v>3029</v>
       </c>
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.45">
@@ -14595,7 +14620,7 @@
         <v>2968</v>
       </c>
       <c r="I213" s="67" t="s">
-        <v>3030</v>
+        <v>3029</v>
       </c>
     </row>
     <row r="214" spans="1:10" x14ac:dyDescent="0.45">
@@ -15117,7 +15142,7 @@
         <v>2970</v>
       </c>
       <c r="I237" s="67" t="s">
-        <v>3030</v>
+        <v>3029</v>
       </c>
       <c r="J237" t="s">
         <v>1713</v>
@@ -15149,7 +15174,7 @@
         <v>2971</v>
       </c>
       <c r="I238" s="67" t="s">
-        <v>3030</v>
+        <v>3029</v>
       </c>
       <c r="J238" t="s">
         <v>1544</v>
@@ -16942,7 +16967,7 @@
         <v>421</v>
       </c>
       <c r="I314" s="67" t="s">
-        <v>3030</v>
+        <v>3029</v>
       </c>
     </row>
     <row r="315" spans="1:10" x14ac:dyDescent="0.45">
@@ -17448,7 +17473,7 @@
         <v>2972</v>
       </c>
       <c r="I336" s="67" t="s">
-        <v>3030</v>
+        <v>3029</v>
       </c>
     </row>
     <row r="337" spans="1:10" x14ac:dyDescent="0.45">
@@ -17589,7 +17614,7 @@
         <v>1772</v>
       </c>
       <c r="I342" s="67" t="s">
-        <v>3030</v>
+        <v>3029</v>
       </c>
     </row>
     <row r="343" spans="1:10" x14ac:dyDescent="0.45">
@@ -19333,7 +19358,7 @@
         <v>2973</v>
       </c>
       <c r="I419" s="67" t="s">
-        <v>3030</v>
+        <v>3029</v>
       </c>
     </row>
     <row r="420" spans="1:10" x14ac:dyDescent="0.45">
@@ -19359,7 +19384,7 @@
         <v>2974</v>
       </c>
       <c r="I420" s="67" t="s">
-        <v>3030</v>
+        <v>3029</v>
       </c>
     </row>
     <row r="421" spans="1:10" x14ac:dyDescent="0.45">
@@ -19683,7 +19708,7 @@
         <v>2983</v>
       </c>
       <c r="I435" s="67" t="s">
-        <v>3030</v>
+        <v>3029</v>
       </c>
     </row>
     <row r="436" spans="1:9" x14ac:dyDescent="0.45">
@@ -20634,7 +20659,7 @@
         <v>2984</v>
       </c>
       <c r="I478" s="67" t="s">
-        <v>3030</v>
+        <v>3029</v>
       </c>
     </row>
     <row r="479" spans="1:10" x14ac:dyDescent="0.45">
@@ -20772,7 +20797,7 @@
         <v>2985</v>
       </c>
       <c r="I484" s="67" t="s">
-        <v>3030</v>
+        <v>3029</v>
       </c>
     </row>
     <row r="485" spans="1:9" x14ac:dyDescent="0.45">
@@ -21364,7 +21389,7 @@
         <v>95</v>
       </c>
       <c r="I511" s="67" t="s">
-        <v>3030</v>
+        <v>3029</v>
       </c>
     </row>
     <row r="512" spans="1:10" x14ac:dyDescent="0.45">
@@ -21809,7 +21834,7 @@
         <v>95</v>
       </c>
       <c r="I531" s="67" t="s">
-        <v>3030</v>
+        <v>3029</v>
       </c>
     </row>
     <row r="532" spans="1:9" x14ac:dyDescent="0.45">
@@ -22696,7 +22721,7 @@
         <v>740</v>
       </c>
       <c r="I571" s="67" t="s">
-        <v>3030</v>
+        <v>3029</v>
       </c>
       <c r="J571" t="s">
         <v>1537</v>
@@ -22860,7 +22885,7 @@
         <v>748</v>
       </c>
       <c r="I578" s="67" t="s">
-        <v>3030</v>
+        <v>3029</v>
       </c>
     </row>
     <row r="579" spans="1:9" x14ac:dyDescent="0.45">
@@ -23228,7 +23253,7 @@
         <v>772</v>
       </c>
       <c r="I594" s="67" t="s">
-        <v>3030</v>
+        <v>3029</v>
       </c>
     </row>
     <row r="595" spans="1:9" x14ac:dyDescent="0.45">
@@ -24432,7 +24457,7 @@
         <v>889</v>
       </c>
       <c r="I647" s="67" t="s">
-        <v>3030</v>
+        <v>3029</v>
       </c>
     </row>
     <row r="648" spans="1:9" x14ac:dyDescent="0.45">
@@ -24824,7 +24849,7 @@
         <v>894</v>
       </c>
       <c r="I664" s="67" t="s">
-        <v>3030</v>
+        <v>3029</v>
       </c>
     </row>
     <row r="665" spans="1:10" x14ac:dyDescent="0.45">
@@ -25161,7 +25186,7 @@
         <v>904</v>
       </c>
       <c r="I678" s="67" t="s">
-        <v>3030</v>
+        <v>3029</v>
       </c>
     </row>
     <row r="679" spans="1:9" x14ac:dyDescent="0.45">
@@ -25213,7 +25238,7 @@
         <v>905</v>
       </c>
       <c r="I680" s="67" t="s">
-        <v>3030</v>
+        <v>3029</v>
       </c>
     </row>
     <row r="681" spans="1:9" x14ac:dyDescent="0.45">
@@ -25242,7 +25267,7 @@
         <v>904</v>
       </c>
       <c r="I681" s="67" t="s">
-        <v>3030</v>
+        <v>3029</v>
       </c>
     </row>
     <row r="682" spans="1:9" x14ac:dyDescent="0.45">
@@ -25844,7 +25869,7 @@
         <v>3009</v>
       </c>
       <c r="I706" s="67" t="s">
-        <v>3030</v>
+        <v>3029</v>
       </c>
     </row>
     <row r="707" spans="1:10" x14ac:dyDescent="0.45">
@@ -25899,7 +25924,7 @@
         <v>998</v>
       </c>
       <c r="I708" s="67" t="s">
-        <v>3030</v>
+        <v>3029</v>
       </c>
       <c r="J708" t="s">
         <v>1713</v>
@@ -26092,7 +26117,7 @@
         <v>1006</v>
       </c>
       <c r="I716" s="67" t="s">
-        <v>3030</v>
+        <v>3029</v>
       </c>
     </row>
     <row r="717" spans="1:10" x14ac:dyDescent="0.45">
@@ -30241,7 +30266,7 @@
         <v>1375</v>
       </c>
       <c r="I896" s="67" t="s">
-        <v>3030</v>
+        <v>3029</v>
       </c>
     </row>
     <row r="897" spans="1:8" x14ac:dyDescent="0.45">
@@ -31118,7 +31143,7 @@
         <v>1452</v>
       </c>
       <c r="I934" s="67" t="s">
-        <v>3030</v>
+        <v>3029</v>
       </c>
     </row>
     <row r="935" spans="1:9" x14ac:dyDescent="0.45">
@@ -31998,7 +32023,7 @@
         <v>1526</v>
       </c>
       <c r="I972" s="67" t="s">
-        <v>3030</v>
+        <v>3029</v>
       </c>
     </row>
     <row r="973" spans="1:9" x14ac:dyDescent="0.45">
@@ -32645,7 +32670,7 @@
         <v>1589</v>
       </c>
       <c r="I1000" s="67" t="s">
-        <v>3030</v>
+        <v>3029</v>
       </c>
     </row>
     <row r="1001" spans="1:9" x14ac:dyDescent="0.45">
@@ -33412,7 +33437,7 @@
         <v>1621</v>
       </c>
       <c r="I1031" s="67" t="s">
-        <v>3030</v>
+        <v>3029</v>
       </c>
     </row>
     <row r="1032" spans="1:9" x14ac:dyDescent="0.45">
@@ -33706,7 +33731,7 @@
         <v>1673</v>
       </c>
       <c r="I1043" s="67" t="s">
-        <v>3030</v>
+        <v>3029</v>
       </c>
     </row>
     <row r="1044" spans="1:9" x14ac:dyDescent="0.45">
@@ -35972,7 +35997,7 @@
         <v>1969</v>
       </c>
       <c r="I1134" s="67" t="s">
-        <v>3030</v>
+        <v>3029</v>
       </c>
     </row>
     <row r="1135" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.45">
@@ -36919,7 +36944,7 @@
         <v>2064</v>
       </c>
       <c r="I1172" s="67" t="s">
-        <v>3030</v>
+        <v>3029</v>
       </c>
     </row>
     <row r="1173" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.45">
@@ -37236,7 +37261,7 @@
         <v>2101</v>
       </c>
       <c r="I1185" s="67" t="s">
-        <v>3030</v>
+        <v>3029</v>
       </c>
     </row>
     <row r="1186" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.45">
@@ -38033,7 +38058,7 @@
         <v>2340</v>
       </c>
       <c r="I1218" s="67" t="s">
-        <v>3030</v>
+        <v>3029</v>
       </c>
     </row>
     <row r="1219" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.45">
@@ -38590,7 +38615,7 @@
         <v>2391</v>
       </c>
       <c r="I1241" s="67" t="s">
-        <v>3030</v>
+        <v>3029</v>
       </c>
     </row>
     <row r="1242" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.45">
@@ -39219,7 +39244,7 @@
         <v>2442</v>
       </c>
       <c r="I1267" s="67" t="s">
-        <v>3030</v>
+        <v>3029</v>
       </c>
     </row>
     <row r="1268" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.45">
@@ -39680,7 +39705,7 @@
         <v>2479</v>
       </c>
       <c r="I1286" s="67" t="s">
-        <v>3030</v>
+        <v>3029</v>
       </c>
     </row>
     <row r="1287" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.45">
@@ -39973,7 +39998,7 @@
         <v>2503</v>
       </c>
       <c r="I1298" s="67" t="s">
-        <v>3030</v>
+        <v>3029</v>
       </c>
     </row>
     <row r="1299" spans="1:9" s="35" customFormat="1" x14ac:dyDescent="0.45">
@@ -42092,7 +42117,7 @@
         <v>2673</v>
       </c>
       <c r="I1386" s="67" t="s">
-        <v>3030</v>
+        <v>3029</v>
       </c>
     </row>
     <row r="1387" spans="1:9" s="45" customFormat="1" x14ac:dyDescent="0.45">
@@ -42985,7 +43010,7 @@
         <v>2746</v>
       </c>
       <c r="I1423" s="67" t="s">
-        <v>3030</v>
+        <v>3029</v>
       </c>
     </row>
     <row r="1424" spans="1:9" s="53" customFormat="1" x14ac:dyDescent="0.45">
@@ -43542,7 +43567,7 @@
         <v>2785</v>
       </c>
       <c r="I1446" s="67" t="s">
-        <v>3030</v>
+        <v>3029</v>
       </c>
     </row>
     <row r="1447" spans="1:9" s="55" customFormat="1" x14ac:dyDescent="0.45">
@@ -44685,7 +44710,7 @@
         <v>2927</v>
       </c>
       <c r="I1493" s="67" t="s">
-        <v>3030</v>
+        <v>3029</v>
       </c>
     </row>
     <row r="1494" spans="1:9" s="58" customFormat="1" x14ac:dyDescent="0.45">
@@ -45169,7 +45194,7 @@
         <v>2934</v>
       </c>
       <c r="I1512" s="67" t="s">
-        <v>3030</v>
+        <v>3029</v>
       </c>
     </row>
     <row r="1513" spans="1:9" s="61" customFormat="1" x14ac:dyDescent="0.45">
@@ -45371,7 +45396,7 @@
         <v>2963</v>
       </c>
       <c r="I1520" s="67" t="s">
-        <v>3030</v>
+        <v>3029</v>
       </c>
     </row>
     <row r="1521" spans="1:9" s="63" customFormat="1" x14ac:dyDescent="0.45">
@@ -45478,7 +45503,7 @@
         <v>2981</v>
       </c>
       <c r="I1524" s="64" t="s">
-        <v>3028</v>
+        <v>3004</v>
       </c>
     </row>
     <row r="1525" spans="1:9" s="64" customFormat="1" x14ac:dyDescent="0.45">
@@ -45929,7 +45954,7 @@
         <v>1700</v>
       </c>
       <c r="B1541" s="1" t="s">
-        <v>3031</v>
+        <v>3030</v>
       </c>
       <c r="C1541" s="68">
         <v>2</v>
@@ -45944,7 +45969,7 @@
         <v>21</v>
       </c>
       <c r="H1541" s="68" t="s">
-        <v>3032</v>
+        <v>3031</v>
       </c>
       <c r="I1541" s="68" t="s">
         <v>3000</v>
@@ -45955,7 +45980,7 @@
         <v>1701</v>
       </c>
       <c r="B1542" s="1" t="s">
-        <v>3033</v>
+        <v>3032</v>
       </c>
       <c r="C1542" s="68">
         <v>2</v>
@@ -45970,7 +45995,7 @@
         <v>21</v>
       </c>
       <c r="H1542" s="68" t="s">
-        <v>3034</v>
+        <v>3033</v>
       </c>
       <c r="I1542" s="68" t="s">
         <v>3000</v>
@@ -45981,7 +46006,7 @@
         <v>1702</v>
       </c>
       <c r="B1543" s="1" t="s">
-        <v>3035</v>
+        <v>3034</v>
       </c>
       <c r="C1543" s="68">
         <v>3</v>
@@ -45996,7 +46021,7 @@
         <v>36</v>
       </c>
       <c r="H1543" s="68" t="s">
-        <v>3036</v>
+        <v>3035</v>
       </c>
       <c r="I1543" s="68" t="s">
         <v>3000</v>
@@ -46007,13 +46032,16 @@
         <v>1703</v>
       </c>
       <c r="B1544" s="1" t="s">
-        <v>3037</v>
+        <v>3036</v>
       </c>
       <c r="C1544" s="68">
         <v>5</v>
       </c>
+      <c r="D1544" s="68" t="s">
+        <v>2810</v>
+      </c>
       <c r="E1544" s="68" t="s">
-        <v>2924</v>
+        <v>2935</v>
       </c>
       <c r="F1544" s="68" t="s">
         <v>12</v>
@@ -46022,50 +46050,154 @@
         <v>21</v>
       </c>
       <c r="H1544" s="68" t="s">
-        <v>3038</v>
+        <v>3037</v>
       </c>
       <c r="I1544" s="68" t="s">
         <v>3000</v>
       </c>
     </row>
     <row r="1545" spans="1:9" s="63" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1545" s="1"/>
-    </row>
-    <row r="1546" spans="1:9" s="63" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1546" s="1"/>
-    </row>
-    <row r="1547" spans="1:9" s="62" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1547" s="1"/>
-    </row>
-    <row r="1548" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A1548" s="69" t="s">
+      <c r="A1545" s="63">
+        <v>1704</v>
+      </c>
+      <c r="B1545" s="1" t="s">
+        <v>3038</v>
+      </c>
+      <c r="C1545" s="63">
+        <v>1</v>
+      </c>
+      <c r="D1545" s="63" t="s">
+        <v>1717</v>
+      </c>
+      <c r="F1545" s="63" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1545" s="63" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1545" s="63" t="s">
+        <v>3039</v>
+      </c>
+      <c r="I1545" s="63" t="s">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="1546" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1546" s="69">
+        <v>1705</v>
+      </c>
+      <c r="B1546" s="1" t="s">
+        <v>3040</v>
+      </c>
+      <c r="C1546" s="69">
+        <v>3</v>
+      </c>
+      <c r="D1546" s="69" t="s">
+        <v>1720</v>
+      </c>
+      <c r="E1546" s="69" t="s">
+        <v>2923</v>
+      </c>
+      <c r="F1546" s="69" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1546" s="69" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1546" s="69" t="s">
+        <v>3041</v>
+      </c>
+      <c r="I1546" s="69" t="s">
+        <v>3018</v>
+      </c>
+    </row>
+    <row r="1547" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1547" s="69">
+        <v>1706</v>
+      </c>
+      <c r="B1547" s="1" t="s">
+        <v>3042</v>
+      </c>
+      <c r="C1547" s="69">
+        <v>2</v>
+      </c>
+      <c r="D1547" s="69" t="s">
+        <v>1713</v>
+      </c>
+      <c r="F1547" s="69" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1547" s="69" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1547" s="69" t="s">
+        <v>3044</v>
+      </c>
+      <c r="I1547" s="69" t="s">
+        <v>3045</v>
+      </c>
+    </row>
+    <row r="1548" spans="1:9" s="63" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1548" s="63">
+        <v>1707</v>
+      </c>
+      <c r="B1548" s="1" t="s">
+        <v>3043</v>
+      </c>
+      <c r="C1548" s="63">
+        <v>5</v>
+      </c>
+      <c r="D1548" s="63" t="s">
+        <v>2810</v>
+      </c>
+      <c r="E1548" s="63" t="s">
+        <v>2935</v>
+      </c>
+      <c r="F1548" s="63" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1548" s="63" t="s">
+        <v>134</v>
+      </c>
+      <c r="H1548" s="63" t="s">
+        <v>3046</v>
+      </c>
+      <c r="I1548" s="63" t="s">
+        <v>3018</v>
+      </c>
+    </row>
+    <row r="1549" spans="1:9" s="62" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1549" s="1"/>
+    </row>
+    <row r="1550" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A1550" s="70" t="s">
         <v>1721</v>
       </c>
-      <c r="B1548" s="69"/>
-      <c r="C1548" s="69"/>
-      <c r="D1548" s="69"/>
-      <c r="E1548" s="69"/>
-      <c r="F1548" s="69"/>
-      <c r="G1548" s="69"/>
-      <c r="H1548" s="69"/>
-    </row>
-    <row r="1549" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A1549" s="70" t="s">
+      <c r="B1550" s="70"/>
+      <c r="C1550" s="70"/>
+      <c r="D1550" s="70"/>
+      <c r="E1550" s="70"/>
+      <c r="F1550" s="70"/>
+      <c r="G1550" s="70"/>
+      <c r="H1550" s="70"/>
+    </row>
+    <row r="1551" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A1551" s="71" t="s">
         <v>2760</v>
       </c>
-      <c r="B1549" s="70"/>
-      <c r="C1549" s="70"/>
-      <c r="D1549" s="70"/>
-      <c r="E1549" s="70"/>
-      <c r="F1549" s="70"/>
-      <c r="G1549" s="70"/>
-      <c r="H1549" s="70"/>
+      <c r="B1551" s="71"/>
+      <c r="C1551" s="71"/>
+      <c r="D1551" s="71"/>
+      <c r="E1551" s="71"/>
+      <c r="F1551" s="71"/>
+      <c r="G1551" s="71"/>
+      <c r="H1551" s="71"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J1549" xr:uid="{CB07CE66-8F15-46FF-A90A-43FDB2DB428F}"/>
+  <autoFilter ref="A1:J1551" xr:uid="{CB07CE66-8F15-46FF-A90A-43FDB2DB428F}"/>
   <mergeCells count="2">
-    <mergeCell ref="A1548:H1548"/>
-    <mergeCell ref="A1549:H1549"/>
+    <mergeCell ref="A1550:H1550"/>
+    <mergeCell ref="A1551:H1551"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" display="https://leetcode.com/problems/zigzag-conversion" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -47402,10 +47534,14 @@
     <hyperlink ref="B1542" r:id="rId1332" display="https://leetcode.com/problems/average-waiting-time" xr:uid="{3A5A8DC6-E12E-42D7-AC4B-2714AA2C6464}"/>
     <hyperlink ref="B1543" r:id="rId1333" display="https://leetcode.com/problems/maximum-binary-string-after-change" xr:uid="{AC0F4C38-DD5A-4A44-88C6-7E2A58AC810A}"/>
     <hyperlink ref="B1544" r:id="rId1334" display="https://leetcode.com/problems/minimum-adjacent-swaps-for-k-consecutive-ones" xr:uid="{C24A3238-A403-4221-8D3D-45A37F4A5F23}"/>
+    <hyperlink ref="B1545" r:id="rId1335" display="https://leetcode.com/problems/determine-if-string-halves-are-alike" xr:uid="{252F697D-EEF2-418F-99A5-1A6F3980B2BB}"/>
+    <hyperlink ref="B1546" r:id="rId1336" display="https://leetcode.com/problems/maximum-number-of-eaten-apples" xr:uid="{51810A39-CD35-42C8-99A0-89485FD327DD}"/>
+    <hyperlink ref="B1547" r:id="rId1337" display="https://leetcode.com/problems/where-will-the-ball-fall" xr:uid="{5F6F112E-0A35-49CE-BFFA-46F8C5C79F91}"/>
+    <hyperlink ref="B1548" r:id="rId1338" display="https://leetcode.com/problems/maximum-xor-with-an-element-from-array" xr:uid="{9BF62A49-6718-4423-8433-DB86DC82824F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1335"/>
-  <drawing r:id="rId1336"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1339"/>
+  <drawing r:id="rId1340"/>
 </worksheet>
 </file>
 

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC3FCAF6-2DC9-405C-B481-0D018CC13746}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C98C23D-3FA8-429C-888E-AA3D0688D7CB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="165" yWindow="0" windowWidth="19035" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="SQL" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'LeetCode Algorithm'!$A$1:$J$1551</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'LeetCode Algorithm'!$A$1:$J$1566</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8177" uniqueCount="3047">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8276" uniqueCount="3079">
   <si>
     <t>Difficulty</t>
   </si>
@@ -9178,6 +9178,102 @@
   </si>
   <si>
     <t>Try every preferred bits and see if there are candidates.</t>
+  </si>
+  <si>
+    <t>Maximum Units on a Truck </t>
+  </si>
+  <si>
+    <t>Count Good Meals </t>
+  </si>
+  <si>
+    <t>Sort the boxes by units</t>
+  </si>
+  <si>
+    <t>Check sum as power 2</t>
+  </si>
+  <si>
+    <t>Ways to Split Array Into Three Subarrays</t>
+  </si>
+  <si>
+    <t>Minimum Operations to Make a Subsequence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iterate the second start point and use two pointers to lock its end point </t>
+  </si>
+  <si>
+    <t>Use Longest Increasing Sequence to get Longest common sequence</t>
+  </si>
+  <si>
+    <t>Calculate Money in Leetcode Bank</t>
+  </si>
+  <si>
+    <t>Use formular</t>
+  </si>
+  <si>
+    <t>One</t>
+  </si>
+  <si>
+    <t>Maximum Score From Removing Substrings</t>
+  </si>
+  <si>
+    <t>Parsing by Push Down Stack</t>
+  </si>
+  <si>
+    <t>Construct the Lexicographically Largest Valid Sequence </t>
+  </si>
+  <si>
+    <t>First valid answer is what we need</t>
+  </si>
+  <si>
+    <t>N ^ e</t>
+  </si>
+  <si>
+    <t>Number Of Ways To Reconstruct A Tree</t>
+  </si>
+  <si>
+    <t>Select max degree and pick parent with least degree</t>
+  </si>
+  <si>
+    <t>Decode XORed Array</t>
+  </si>
+  <si>
+    <t>Run XOR operations through</t>
+  </si>
+  <si>
+    <t>Swapping Nodes in a Linked List</t>
+  </si>
+  <si>
+    <t>Keep distance between last and end same as first and head</t>
+  </si>
+  <si>
+    <t>Minimize Hamming Distance After Swap Operations</t>
+  </si>
+  <si>
+    <t>Find Minimum Time to Finish All Jobs</t>
+  </si>
+  <si>
+    <t>Union Find already beat 97%, but BFS can be fatser</t>
+  </si>
+  <si>
+    <t>Dedup the workers with same accumulated time.</t>
+  </si>
+  <si>
+    <t>Number Of Rectangles That Can Form The Largest Square</t>
+  </si>
+  <si>
+    <t>Count maximum shortest side</t>
+  </si>
+  <si>
+    <t>Tuple with Same Product</t>
+  </si>
+  <si>
+    <t>Largest Submatrix With Rearrangements</t>
+  </si>
+  <si>
+    <t>Iterate two elements, check with existing products</t>
+  </si>
+  <si>
+    <t>Accumulate cells in column on rows, then sort and calculate</t>
   </si>
 </sst>
 </file>
@@ -9222,7 +9318,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -9249,6 +9345,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -9683,10 +9780,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J1551"/>
+  <dimension ref="A1:J1566"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1529" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G1547" sqref="G1547"/>
+    <sheetView tabSelected="1" topLeftCell="E1539" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H1563" sqref="H1563"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -46166,38 +46263,455 @@
         <v>3018</v>
       </c>
     </row>
-    <row r="1549" spans="1:9" s="62" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1549" s="1"/>
-    </row>
-    <row r="1550" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A1550" s="70" t="s">
+    <row r="1549" spans="1:9" s="70" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1549" s="70">
+        <v>1710</v>
+      </c>
+      <c r="B1549" s="1" t="s">
+        <v>3047</v>
+      </c>
+      <c r="C1549" s="70">
+        <v>1</v>
+      </c>
+      <c r="D1549" s="70" t="s">
+        <v>1720</v>
+      </c>
+      <c r="F1549" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1549" s="70" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1549" s="70" t="s">
+        <v>3049</v>
+      </c>
+      <c r="I1549" s="70" t="s">
+        <v>3018</v>
+      </c>
+    </row>
+    <row r="1550" spans="1:9" s="70" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1550" s="70">
+        <v>1711</v>
+      </c>
+      <c r="B1550" s="1" t="s">
+        <v>3048</v>
+      </c>
+      <c r="C1550" s="70">
+        <v>2</v>
+      </c>
+      <c r="D1550" s="70" t="s">
+        <v>1720</v>
+      </c>
+      <c r="E1550" s="70" t="s">
+        <v>2924</v>
+      </c>
+      <c r="F1550" s="70" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1550" s="70" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1550" s="70" t="s">
+        <v>3050</v>
+      </c>
+      <c r="I1550" s="70" t="s">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="1551" spans="1:9" s="70" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1551" s="70">
+        <v>1712</v>
+      </c>
+      <c r="B1551" s="1" t="s">
+        <v>3051</v>
+      </c>
+      <c r="C1551" s="70">
+        <v>3</v>
+      </c>
+      <c r="D1551" s="70" t="s">
+        <v>1720</v>
+      </c>
+      <c r="E1551" s="70" t="s">
+        <v>2922</v>
+      </c>
+      <c r="F1551" s="70" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1551" s="70" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1551" s="70" t="s">
+        <v>3053</v>
+      </c>
+      <c r="I1551" s="70" t="s">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="1552" spans="1:9" s="70" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1552" s="70">
+        <v>1713</v>
+      </c>
+      <c r="B1552" s="1" t="s">
+        <v>3052</v>
+      </c>
+      <c r="C1552" s="70">
+        <v>4</v>
+      </c>
+      <c r="D1552" s="70" t="s">
+        <v>1720</v>
+      </c>
+      <c r="E1552" s="70" t="s">
+        <v>2923</v>
+      </c>
+      <c r="F1552" s="70" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1552" s="70" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1552" s="70" t="s">
+        <v>3054</v>
+      </c>
+      <c r="I1552" s="70" t="s">
+        <v>3018</v>
+      </c>
+    </row>
+    <row r="1553" spans="1:9" s="70" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1553" s="70">
+        <v>1716</v>
+      </c>
+      <c r="B1553" s="1" t="s">
+        <v>3055</v>
+      </c>
+      <c r="C1553" s="70">
+        <v>2</v>
+      </c>
+      <c r="D1553" s="70" t="s">
+        <v>1720</v>
+      </c>
+      <c r="F1553" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1553" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1553" s="70" t="s">
+        <v>3056</v>
+      </c>
+      <c r="I1553" s="70" t="s">
+        <v>3057</v>
+      </c>
+    </row>
+    <row r="1554" spans="1:9" s="70" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1554" s="70">
+        <v>1717</v>
+      </c>
+      <c r="B1554" s="1" t="s">
+        <v>3058</v>
+      </c>
+      <c r="C1554" s="70">
+        <v>3</v>
+      </c>
+      <c r="D1554" s="70" t="s">
+        <v>1720</v>
+      </c>
+      <c r="E1554" s="70" t="s">
+        <v>2922</v>
+      </c>
+      <c r="F1554" s="70" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1554" s="70" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1554" s="70" t="s">
+        <v>3059</v>
+      </c>
+      <c r="I1554" s="70" t="s">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="1555" spans="1:9" s="70" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1555" s="70">
+        <v>1718</v>
+      </c>
+      <c r="B1555" s="1" t="s">
+        <v>3060</v>
+      </c>
+      <c r="C1555" s="70">
+        <v>3</v>
+      </c>
+      <c r="D1555" s="70" t="s">
+        <v>1720</v>
+      </c>
+      <c r="F1555" s="70" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1555" s="70" t="s">
+        <v>121</v>
+      </c>
+      <c r="H1555" s="70" t="s">
+        <v>3061</v>
+      </c>
+      <c r="I1555" s="70" t="s">
+        <v>3062</v>
+      </c>
+    </row>
+    <row r="1556" spans="1:9" s="70" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1556" s="70">
+        <v>1719</v>
+      </c>
+      <c r="B1556" s="1" t="s">
+        <v>3063</v>
+      </c>
+      <c r="C1556" s="70">
+        <v>5</v>
+      </c>
+      <c r="D1556" s="70" t="s">
+        <v>2810</v>
+      </c>
+      <c r="E1556" s="70" t="s">
+        <v>2924</v>
+      </c>
+      <c r="F1556" s="70" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1556" s="70" t="s">
+        <v>187</v>
+      </c>
+      <c r="H1556" s="70" t="s">
+        <v>3064</v>
+      </c>
+      <c r="I1556" s="70" t="s">
+        <v>3026</v>
+      </c>
+    </row>
+    <row r="1557" spans="1:9" s="70" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1557" s="70">
+        <v>1720</v>
+      </c>
+      <c r="B1557" s="1" t="s">
+        <v>3065</v>
+      </c>
+      <c r="C1557" s="70">
+        <v>1</v>
+      </c>
+      <c r="D1557" s="70" t="s">
+        <v>1717</v>
+      </c>
+      <c r="F1557" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1557" s="70" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1557" s="70" t="s">
+        <v>3066</v>
+      </c>
+      <c r="I1557" s="70" t="s">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="1558" spans="1:9" s="70" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1558" s="70">
         <v>1721</v>
       </c>
-      <c r="B1550" s="70"/>
-      <c r="C1550" s="70"/>
-      <c r="D1550" s="70"/>
-      <c r="E1550" s="70"/>
-      <c r="F1550" s="70"/>
-      <c r="G1550" s="70"/>
-      <c r="H1550" s="70"/>
-    </row>
-    <row r="1551" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A1551" s="71" t="s">
+      <c r="B1558" s="1" t="s">
+        <v>3067</v>
+      </c>
+      <c r="C1558" s="70">
+        <v>2</v>
+      </c>
+      <c r="D1558" s="70" t="s">
+        <v>1720</v>
+      </c>
+      <c r="E1558" s="70" t="s">
+        <v>2935</v>
+      </c>
+      <c r="F1558" s="70" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1558" s="70" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1558" s="70" t="s">
+        <v>3068</v>
+      </c>
+      <c r="I1558" s="70" t="s">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="1559" spans="1:9" s="70" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1559" s="70">
+        <v>1722</v>
+      </c>
+      <c r="B1559" s="1" t="s">
+        <v>3069</v>
+      </c>
+      <c r="C1559" s="70">
+        <v>3</v>
+      </c>
+      <c r="D1559" s="70" t="s">
+        <v>1720</v>
+      </c>
+      <c r="E1559" s="70" t="s">
+        <v>2923</v>
+      </c>
+      <c r="F1559" s="70" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1559" s="70" t="s">
+        <v>187</v>
+      </c>
+      <c r="H1559" s="70" t="s">
+        <v>3071</v>
+      </c>
+      <c r="I1559" s="70" t="s">
+        <v>3018</v>
+      </c>
+    </row>
+    <row r="1560" spans="1:9" s="70" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1560" s="70">
+        <v>1723</v>
+      </c>
+      <c r="B1560" s="1" t="s">
+        <v>3070</v>
+      </c>
+      <c r="C1560" s="70">
+        <v>4</v>
+      </c>
+      <c r="D1560" s="70" t="s">
+        <v>1720</v>
+      </c>
+      <c r="E1560" s="70" t="s">
+        <v>2935</v>
+      </c>
+      <c r="F1560" s="70" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1560" s="70" t="s">
+        <v>121</v>
+      </c>
+      <c r="H1560" s="70" t="s">
+        <v>3072</v>
+      </c>
+      <c r="I1560" s="70" t="s">
+        <v>3062</v>
+      </c>
+    </row>
+    <row r="1561" spans="1:9" s="70" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1561" s="70">
+        <v>1725</v>
+      </c>
+      <c r="B1561" s="1" t="s">
+        <v>3073</v>
+      </c>
+      <c r="C1561" s="70">
+        <v>1</v>
+      </c>
+      <c r="D1561" s="70" t="s">
+        <v>1717</v>
+      </c>
+      <c r="F1561" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1561" s="70" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1561" s="70" t="s">
+        <v>3074</v>
+      </c>
+      <c r="I1561" s="70" t="s">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="1562" spans="1:9" s="70" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1562" s="70">
+        <v>1726</v>
+      </c>
+      <c r="B1562" s="1" t="s">
+        <v>3075</v>
+      </c>
+      <c r="C1562" s="70">
+        <v>2</v>
+      </c>
+      <c r="D1562" s="70" t="s">
+        <v>1720</v>
+      </c>
+      <c r="E1562" s="70" t="s">
+        <v>2935</v>
+      </c>
+      <c r="F1562" s="70" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1562" s="70" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1562" s="70" t="s">
+        <v>3077</v>
+      </c>
+      <c r="I1562" s="70" t="s">
+        <v>3026</v>
+      </c>
+    </row>
+    <row r="1563" spans="1:9" s="70" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1563" s="70">
+        <v>1727</v>
+      </c>
+      <c r="B1563" s="1" t="s">
+        <v>3076</v>
+      </c>
+      <c r="C1563" s="70">
+        <v>4</v>
+      </c>
+      <c r="D1563" s="70" t="s">
+        <v>1720</v>
+      </c>
+      <c r="E1563" s="70" t="s">
+        <v>2922</v>
+      </c>
+      <c r="F1563" s="70" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1563" s="70" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1563" s="70" t="s">
+        <v>3078</v>
+      </c>
+    </row>
+    <row r="1564" spans="1:9" s="62" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1564" s="1"/>
+    </row>
+    <row r="1565" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A1565" s="71" t="s">
+        <v>1721</v>
+      </c>
+      <c r="B1565" s="71"/>
+      <c r="C1565" s="71"/>
+      <c r="D1565" s="71"/>
+      <c r="E1565" s="71"/>
+      <c r="F1565" s="71"/>
+      <c r="G1565" s="71"/>
+      <c r="H1565" s="71"/>
+    </row>
+    <row r="1566" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A1566" s="72" t="s">
         <v>2760</v>
       </c>
-      <c r="B1551" s="71"/>
-      <c r="C1551" s="71"/>
-      <c r="D1551" s="71"/>
-      <c r="E1551" s="71"/>
-      <c r="F1551" s="71"/>
-      <c r="G1551" s="71"/>
-      <c r="H1551" s="71"/>
+      <c r="B1566" s="72"/>
+      <c r="C1566" s="72"/>
+      <c r="D1566" s="72"/>
+      <c r="E1566" s="72"/>
+      <c r="F1566" s="72"/>
+      <c r="G1566" s="72"/>
+      <c r="H1566" s="72"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J1551" xr:uid="{CB07CE66-8F15-46FF-A90A-43FDB2DB428F}"/>
+  <autoFilter ref="A1:J1566" xr:uid="{CB07CE66-8F15-46FF-A90A-43FDB2DB428F}"/>
   <mergeCells count="2">
-    <mergeCell ref="A1550:H1550"/>
-    <mergeCell ref="A1551:H1551"/>
+    <mergeCell ref="A1565:H1565"/>
+    <mergeCell ref="A1566:H1566"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" display="https://leetcode.com/problems/zigzag-conversion" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -47538,10 +48052,25 @@
     <hyperlink ref="B1546" r:id="rId1336" display="https://leetcode.com/problems/maximum-number-of-eaten-apples" xr:uid="{51810A39-CD35-42C8-99A0-89485FD327DD}"/>
     <hyperlink ref="B1547" r:id="rId1337" display="https://leetcode.com/problems/where-will-the-ball-fall" xr:uid="{5F6F112E-0A35-49CE-BFFA-46F8C5C79F91}"/>
     <hyperlink ref="B1548" r:id="rId1338" display="https://leetcode.com/problems/maximum-xor-with-an-element-from-array" xr:uid="{9BF62A49-6718-4423-8433-DB86DC82824F}"/>
+    <hyperlink ref="B1549" r:id="rId1339" display="https://leetcode.com/problems/maximum-units-on-a-truck" xr:uid="{FA401603-3720-4E2D-B41B-750A14701D79}"/>
+    <hyperlink ref="B1550" r:id="rId1340" display="https://leetcode.com/problems/count-good-meals" xr:uid="{7D054C68-287C-4CDA-84E9-ABB8672601B9}"/>
+    <hyperlink ref="B1551" r:id="rId1341" display="https://leetcode.com/problems/ways-to-split-array-into-three-subarrays" xr:uid="{EB39B226-B1EA-4385-908B-CA58EAF15E2A}"/>
+    <hyperlink ref="B1552" r:id="rId1342" display="https://leetcode.com/problems/minimum-operations-to-make-a-subsequence" xr:uid="{3BF58768-569A-48ED-916E-9B5B92E9A489}"/>
+    <hyperlink ref="B1553" r:id="rId1343" display="https://leetcode.com/problems/calculate-money-in-leetcode-bank" xr:uid="{9A5AA38F-37C0-4252-B28C-B1571495B9D8}"/>
+    <hyperlink ref="B1554" r:id="rId1344" display="https://leetcode.com/problems/maximum-score-from-removing-substrings" xr:uid="{20802F12-8929-4B53-9288-3D2053019349}"/>
+    <hyperlink ref="B1555" r:id="rId1345" display="https://leetcode.com/problems/construct-the-lexicographically-largest-valid-sequence" xr:uid="{B73EB4B2-83E4-4F74-9B5B-B569CA68580B}"/>
+    <hyperlink ref="B1556" r:id="rId1346" display="https://leetcode.com/problems/number-of-ways-to-reconstruct-a-tree" xr:uid="{E6998458-D32E-4365-BC4B-FEBEE05D52B6}"/>
+    <hyperlink ref="B1557" r:id="rId1347" display="https://leetcode.com/problems/decode-xored-array" xr:uid="{0BA9C45F-4B21-497A-93AA-C47D2F0FB2B8}"/>
+    <hyperlink ref="B1558" r:id="rId1348" display="https://leetcode.com/problems/swapping-nodes-in-a-linked-list" xr:uid="{5D9D3F5C-5DD2-4F18-B382-B562212DAFB8}"/>
+    <hyperlink ref="B1559" r:id="rId1349" display="https://leetcode.com/problems/minimize-hamming-distance-after-swap-operations" xr:uid="{0D233304-DCA8-4ACD-BA33-ABA007389765}"/>
+    <hyperlink ref="B1560" r:id="rId1350" display="https://leetcode.com/problems/find-minimum-time-to-finish-all-jobs" xr:uid="{34306947-008A-4748-89D4-C6894490198D}"/>
+    <hyperlink ref="B1561" r:id="rId1351" display="https://leetcode.com/problems/number-of-rectangles-that-can-form-the-largest-square" xr:uid="{F2DC20DE-9474-4173-A170-F0ED4BD77F31}"/>
+    <hyperlink ref="B1562" r:id="rId1352" display="https://leetcode.com/problems/tuple-with-same-product" xr:uid="{8ACCF7DE-E5E5-4246-9298-0C5F53184D31}"/>
+    <hyperlink ref="B1563" r:id="rId1353" display="https://leetcode.com/problems/largest-submatrix-with-rearrangements" xr:uid="{1B4C7B82-E77E-4ACA-BC37-45E56FB369EA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1339"/>
-  <drawing r:id="rId1340"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1354"/>
+  <drawing r:id="rId1355"/>
 </worksheet>
 </file>
 

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C98C23D-3FA8-429C-888E-AA3D0688D7CB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E611328-1526-473F-89BF-47D6BE7972A3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="165" yWindow="0" windowWidth="19035" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -9782,8 +9782,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J1566"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1539" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H1563" sqref="H1563"/>
+    <sheetView tabSelected="1" topLeftCell="C1102" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C1115" sqref="C1115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -35607,7 +35607,7 @@
         <v>1914</v>
       </c>
       <c r="C1115" s="13">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D1115" s="13" t="s">
         <v>1720</v>

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E611328-1526-473F-89BF-47D6BE7972A3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4B194A4-46FB-4C48-AF12-AFDBC990CB4D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="165" yWindow="0" windowWidth="19035" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="165" yWindow="0" windowWidth="18900" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LeetCode Algorithm" sheetId="1" r:id="rId1"/>
     <sheet name="SQL" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'LeetCode Algorithm'!$A$1:$J$1566</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'LeetCode Algorithm'!$A$1:$J$1637</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8276" uniqueCount="3079">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8360" uniqueCount="3107">
   <si>
     <t>Difficulty</t>
   </si>
@@ -9274,6 +9274,90 @@
   </si>
   <si>
     <t>Accumulate cells in column on rows, then sort and calculate</t>
+  </si>
+  <si>
+    <t>Cat and Mouse II</t>
+  </si>
+  <si>
+    <t>limit the steps within 70</t>
+  </si>
+  <si>
+    <t>E ^ N</t>
+  </si>
+  <si>
+    <t>Shortest Path to Get Food </t>
+  </si>
+  <si>
+    <t>BFS to look for all paths</t>
+  </si>
+  <si>
+    <t>Find the Highest Altitude</t>
+  </si>
+  <si>
+    <t>Latest Time by Replacing Hidden Digits </t>
+  </si>
+  <si>
+    <t>Calculate highest altitude on the way</t>
+  </si>
+  <si>
+    <t>Branch Logic</t>
+  </si>
+  <si>
+    <t>Maximum Number of Balls in a Box</t>
+  </si>
+  <si>
+    <t>Sum of Unique Elements</t>
+  </si>
+  <si>
+    <t>Count unique number in array</t>
+  </si>
+  <si>
+    <t>Check if Array Is Sorted and Rotated</t>
+  </si>
+  <si>
+    <t>Count dip and if dip is 1 compare first and last element</t>
+  </si>
+  <si>
+    <t>Design Most Recently Used Queue</t>
+  </si>
+  <si>
+    <t>Simply move elements in array, a more advanced version will be using BIT</t>
+  </si>
+  <si>
+    <t>N * N -&gt; N Log(N)</t>
+  </si>
+  <si>
+    <t>Maximum Subarray Sum After One Operation</t>
+  </si>
+  <si>
+    <t>Calculate presum and presum with one operation</t>
+  </si>
+  <si>
+    <t>Find Distance in a Binary Tree</t>
+  </si>
+  <si>
+    <t>Calculate depth for nodes and calculate result by post-order</t>
+  </si>
+  <si>
+    <t>Checking Existence of Edge Length Limited Paths II </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Union Find with weights memorizied </t>
+  </si>
+  <si>
+    <t>Sum Of Special Evenly-Spaced Elements In Array </t>
+  </si>
+  <si>
+    <t>Memorize the query steps</t>
+  </si>
+  <si>
+    <t>N * Sqrt(N)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Largest Subarray Length K </t>
+  </si>
+  <si>
+    <t>Reset head of sub array</t>
   </si>
 </sst>
 </file>
@@ -9318,7 +9402,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -9345,6 +9429,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -9780,10 +9865,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J1566"/>
+  <dimension ref="A1:J1637"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1102" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1115" sqref="C1115"/>
+    <sheetView tabSelected="1" topLeftCell="A1555" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A1555" sqref="A1555"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -46034,7 +46119,7 @@
         <v>2922</v>
       </c>
       <c r="F1540" s="64" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G1540" s="64" t="s">
         <v>36</v>
@@ -46205,7 +46290,7 @@
         <v>3041</v>
       </c>
       <c r="I1546" s="69" t="s">
-        <v>3018</v>
+        <v>3029</v>
       </c>
     </row>
     <row r="1547" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.45">
@@ -46260,88 +46345,85 @@
         <v>3046</v>
       </c>
       <c r="I1548" s="63" t="s">
-        <v>3018</v>
-      </c>
-    </row>
-    <row r="1549" spans="1:9" s="70" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1549" s="70">
-        <v>1710</v>
+        <v>3029</v>
+      </c>
+    </row>
+    <row r="1549" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1549" s="71">
+        <v>1708</v>
       </c>
       <c r="B1549" s="1" t="s">
-        <v>3047</v>
-      </c>
-      <c r="C1549" s="70">
-        <v>1</v>
-      </c>
-      <c r="D1549" s="70" t="s">
+        <v>3105</v>
+      </c>
+      <c r="C1549" s="71">
+        <v>2</v>
+      </c>
+      <c r="D1549" s="71" t="s">
         <v>1720</v>
       </c>
-      <c r="F1549" s="70" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1549" s="70" t="s">
-        <v>41</v>
-      </c>
-      <c r="H1549" s="70" t="s">
-        <v>3049</v>
-      </c>
-      <c r="I1549" s="70" t="s">
-        <v>3018</v>
+      <c r="F1549" s="71" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1549" s="71" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1549" s="71" t="s">
+        <v>3106</v>
+      </c>
+      <c r="I1549" s="71" t="s">
+        <v>3000</v>
       </c>
     </row>
     <row r="1550" spans="1:9" s="70" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1550" s="70">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="B1550" s="1" t="s">
-        <v>3048</v>
+        <v>3047</v>
       </c>
       <c r="C1550" s="70">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1550" s="70" t="s">
         <v>1720</v>
       </c>
-      <c r="E1550" s="70" t="s">
-        <v>2924</v>
-      </c>
       <c r="F1550" s="70" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G1550" s="70" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="H1550" s="70" t="s">
-        <v>3050</v>
+        <v>3049</v>
       </c>
       <c r="I1550" s="70" t="s">
-        <v>3000</v>
+        <v>3018</v>
       </c>
     </row>
     <row r="1551" spans="1:9" s="70" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1551" s="70">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="B1551" s="1" t="s">
-        <v>3051</v>
+        <v>3048</v>
       </c>
       <c r="C1551" s="70">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1551" s="70" t="s">
         <v>1720</v>
       </c>
       <c r="E1551" s="70" t="s">
-        <v>2922</v>
+        <v>2924</v>
       </c>
       <c r="F1551" s="70" t="s">
         <v>9</v>
       </c>
       <c r="G1551" s="70" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="H1551" s="70" t="s">
-        <v>3053</v>
+        <v>3050</v>
       </c>
       <c r="I1551" s="70" t="s">
         <v>3000</v>
@@ -46349,236 +46431,233 @@
     </row>
     <row r="1552" spans="1:9" s="70" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1552" s="70">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="B1552" s="1" t="s">
-        <v>3052</v>
+        <v>3051</v>
       </c>
       <c r="C1552" s="70">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1552" s="70" t="s">
         <v>1720</v>
       </c>
       <c r="E1552" s="70" t="s">
-        <v>2923</v>
+        <v>2922</v>
       </c>
       <c r="F1552" s="70" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G1552" s="70" t="s">
         <v>21</v>
       </c>
       <c r="H1552" s="70" t="s">
-        <v>3054</v>
+        <v>3053</v>
       </c>
       <c r="I1552" s="70" t="s">
-        <v>3018</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="1553" spans="1:9" s="70" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1553" s="70">
-        <v>1716</v>
+        <v>1713</v>
       </c>
       <c r="B1553" s="1" t="s">
-        <v>3055</v>
+        <v>3052</v>
       </c>
       <c r="C1553" s="70">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D1553" s="70" t="s">
         <v>1720</v>
       </c>
+      <c r="E1553" s="70" t="s">
+        <v>2923</v>
+      </c>
       <c r="F1553" s="70" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G1553" s="70" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H1553" s="70" t="s">
-        <v>3056</v>
+        <v>3054</v>
       </c>
       <c r="I1553" s="70" t="s">
-        <v>3057</v>
-      </c>
-    </row>
-    <row r="1554" spans="1:9" s="70" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1554" s="70">
-        <v>1717</v>
+        <v>3029</v>
+      </c>
+    </row>
+    <row r="1554" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1554" s="71">
+        <v>1714</v>
       </c>
       <c r="B1554" s="1" t="s">
-        <v>3058</v>
-      </c>
-      <c r="C1554" s="70">
-        <v>3</v>
-      </c>
-      <c r="D1554" s="70" t="s">
-        <v>1720</v>
-      </c>
-      <c r="E1554" s="70" t="s">
-        <v>2922</v>
-      </c>
-      <c r="F1554" s="70" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1554" s="70" t="s">
-        <v>36</v>
-      </c>
-      <c r="H1554" s="70" t="s">
-        <v>3059</v>
-      </c>
-      <c r="I1554" s="70" t="s">
-        <v>3000</v>
+        <v>3102</v>
+      </c>
+      <c r="C1554" s="71">
+        <v>4</v>
+      </c>
+      <c r="D1554" s="71" t="s">
+        <v>1713</v>
+      </c>
+      <c r="F1554" s="71" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1554" s="71" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1554" s="71" t="s">
+        <v>3103</v>
+      </c>
+      <c r="I1554" s="71" t="s">
+        <v>3104</v>
       </c>
     </row>
     <row r="1555" spans="1:9" s="70" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1555" s="70">
-        <v>1718</v>
+        <v>1716</v>
       </c>
       <c r="B1555" s="1" t="s">
-        <v>3060</v>
+        <v>3055</v>
       </c>
       <c r="C1555" s="70">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1555" s="70" t="s">
         <v>1720</v>
       </c>
       <c r="F1555" s="70" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G1555" s="70" t="s">
-        <v>121</v>
+        <v>25</v>
       </c>
       <c r="H1555" s="70" t="s">
-        <v>3061</v>
+        <v>3056</v>
       </c>
       <c r="I1555" s="70" t="s">
-        <v>3062</v>
+        <v>3057</v>
       </c>
     </row>
     <row r="1556" spans="1:9" s="70" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1556" s="70">
-        <v>1719</v>
+        <v>1717</v>
       </c>
       <c r="B1556" s="1" t="s">
-        <v>3063</v>
+        <v>3058</v>
       </c>
       <c r="C1556" s="70">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D1556" s="70" t="s">
-        <v>2810</v>
+        <v>1720</v>
       </c>
       <c r="E1556" s="70" t="s">
-        <v>2924</v>
+        <v>2922</v>
       </c>
       <c r="F1556" s="70" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G1556" s="70" t="s">
-        <v>187</v>
+        <v>36</v>
       </c>
       <c r="H1556" s="70" t="s">
-        <v>3064</v>
+        <v>3059</v>
       </c>
       <c r="I1556" s="70" t="s">
-        <v>3026</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="1557" spans="1:9" s="70" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1557" s="70">
+        <v>1718</v>
+      </c>
+      <c r="B1557" s="1" t="s">
+        <v>3060</v>
+      </c>
+      <c r="C1557" s="70">
+        <v>3</v>
+      </c>
+      <c r="D1557" s="70" t="s">
         <v>1720</v>
       </c>
-      <c r="B1557" s="1" t="s">
-        <v>3065</v>
-      </c>
-      <c r="C1557" s="70">
-        <v>1</v>
-      </c>
-      <c r="D1557" s="70" t="s">
-        <v>1717</v>
-      </c>
       <c r="F1557" s="70" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G1557" s="70" t="s">
-        <v>21</v>
+        <v>121</v>
       </c>
       <c r="H1557" s="70" t="s">
-        <v>3066</v>
+        <v>3061</v>
       </c>
       <c r="I1557" s="70" t="s">
-        <v>3000</v>
+        <v>3062</v>
       </c>
     </row>
     <row r="1558" spans="1:9" s="70" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1558" s="70">
-        <v>1721</v>
+        <v>1719</v>
       </c>
       <c r="B1558" s="1" t="s">
-        <v>3067</v>
+        <v>3063</v>
       </c>
       <c r="C1558" s="70">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D1558" s="70" t="s">
-        <v>1720</v>
+        <v>2810</v>
       </c>
       <c r="E1558" s="70" t="s">
-        <v>2935</v>
+        <v>2924</v>
       </c>
       <c r="F1558" s="70" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G1558" s="70" t="s">
-        <v>10</v>
+        <v>187</v>
       </c>
       <c r="H1558" s="70" t="s">
-        <v>3068</v>
+        <v>3064</v>
       </c>
       <c r="I1558" s="70" t="s">
-        <v>3000</v>
+        <v>3026</v>
       </c>
     </row>
     <row r="1559" spans="1:9" s="70" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1559" s="70">
-        <v>1722</v>
+        <v>1720</v>
       </c>
       <c r="B1559" s="1" t="s">
-        <v>3069</v>
+        <v>3065</v>
       </c>
       <c r="C1559" s="70">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1559" s="70" t="s">
-        <v>1720</v>
-      </c>
-      <c r="E1559" s="70" t="s">
-        <v>2923</v>
+        <v>1717</v>
       </c>
       <c r="F1559" s="70" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G1559" s="70" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="H1559" s="70" t="s">
-        <v>3071</v>
+        <v>3066</v>
       </c>
       <c r="I1559" s="70" t="s">
-        <v>3018</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="1560" spans="1:9" s="70" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1560" s="70">
-        <v>1723</v>
+        <v>1721</v>
       </c>
       <c r="B1560" s="1" t="s">
-        <v>3070</v>
+        <v>3067</v>
       </c>
       <c r="C1560" s="70">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1560" s="70" t="s">
         <v>1720</v>
@@ -46587,53 +46666,56 @@
         <v>2935</v>
       </c>
       <c r="F1560" s="70" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G1560" s="70" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="H1560" s="70" t="s">
-        <v>3072</v>
+        <v>3068</v>
       </c>
       <c r="I1560" s="70" t="s">
-        <v>3062</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="1561" spans="1:9" s="70" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1561" s="70">
-        <v>1725</v>
+        <v>1722</v>
       </c>
       <c r="B1561" s="1" t="s">
-        <v>3073</v>
+        <v>3069</v>
       </c>
       <c r="C1561" s="70">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D1561" s="70" t="s">
-        <v>1717</v>
+        <v>1720</v>
+      </c>
+      <c r="E1561" s="70" t="s">
+        <v>2923</v>
       </c>
       <c r="F1561" s="70" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G1561" s="70" t="s">
-        <v>21</v>
+        <v>187</v>
       </c>
       <c r="H1561" s="70" t="s">
-        <v>3074</v>
+        <v>3071</v>
       </c>
       <c r="I1561" s="70" t="s">
-        <v>3000</v>
+        <v>3029</v>
       </c>
     </row>
     <row r="1562" spans="1:9" s="70" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1562" s="70">
-        <v>1726</v>
+        <v>1723</v>
       </c>
       <c r="B1562" s="1" t="s">
-        <v>3075</v>
+        <v>3070</v>
       </c>
       <c r="C1562" s="70">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D1562" s="70" t="s">
         <v>1720</v>
@@ -46642,76 +46724,609 @@
         <v>2935</v>
       </c>
       <c r="F1562" s="70" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G1562" s="70" t="s">
+        <v>121</v>
+      </c>
+      <c r="H1562" s="70" t="s">
+        <v>3072</v>
+      </c>
+      <c r="I1562" s="70" t="s">
+        <v>3062</v>
+      </c>
+    </row>
+    <row r="1563" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1563" s="71">
+        <v>1724</v>
+      </c>
+      <c r="B1563" s="1" t="s">
+        <v>3100</v>
+      </c>
+      <c r="C1563" s="71">
+        <v>4</v>
+      </c>
+      <c r="D1563" s="71" t="s">
+        <v>1720</v>
+      </c>
+      <c r="E1563" s="71" t="s">
+        <v>2923</v>
+      </c>
+      <c r="F1563" s="71" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1563" s="71" t="s">
+        <v>187</v>
+      </c>
+      <c r="H1563" s="71" t="s">
+        <v>3101</v>
+      </c>
+      <c r="I1563" s="71" t="s">
+        <v>3029</v>
+      </c>
+    </row>
+    <row r="1564" spans="1:9" s="70" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1564" s="70">
+        <v>1725</v>
+      </c>
+      <c r="B1564" s="1" t="s">
+        <v>3073</v>
+      </c>
+      <c r="C1564" s="70">
+        <v>1</v>
+      </c>
+      <c r="D1564" s="70" t="s">
+        <v>1717</v>
+      </c>
+      <c r="F1564" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1564" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="H1562" s="70" t="s">
+      <c r="H1564" s="70" t="s">
+        <v>3074</v>
+      </c>
+      <c r="I1564" s="70" t="s">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="1565" spans="1:9" s="70" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1565" s="70">
+        <v>1726</v>
+      </c>
+      <c r="B1565" s="1" t="s">
+        <v>3075</v>
+      </c>
+      <c r="C1565" s="70">
+        <v>2</v>
+      </c>
+      <c r="D1565" s="70" t="s">
+        <v>1720</v>
+      </c>
+      <c r="E1565" s="70" t="s">
+        <v>2935</v>
+      </c>
+      <c r="F1565" s="70" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1565" s="70" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1565" s="70" t="s">
         <v>3077</v>
       </c>
-      <c r="I1562" s="70" t="s">
+      <c r="I1565" s="70" t="s">
         <v>3026</v>
       </c>
     </row>
-    <row r="1563" spans="1:9" s="70" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1563" s="70">
+    <row r="1566" spans="1:9" s="70" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1566" s="70">
         <v>1727</v>
       </c>
-      <c r="B1563" s="1" t="s">
+      <c r="B1566" s="1" t="s">
         <v>3076</v>
       </c>
-      <c r="C1563" s="70">
+      <c r="C1566" s="70">
         <v>4</v>
       </c>
-      <c r="D1563" s="70" t="s">
+      <c r="D1566" s="70" t="s">
         <v>1720</v>
       </c>
-      <c r="E1563" s="70" t="s">
+      <c r="E1566" s="70" t="s">
         <v>2922</v>
       </c>
-      <c r="F1563" s="70" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1563" s="70" t="s">
+      <c r="F1566" s="70" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1566" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="H1563" s="70" t="s">
+      <c r="H1566" s="70" t="s">
         <v>3078</v>
       </c>
-    </row>
-    <row r="1564" spans="1:9" s="62" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1564" s="1"/>
-    </row>
-    <row r="1565" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A1565" s="71" t="s">
+      <c r="I1566" s="70" t="s">
+        <v>3045</v>
+      </c>
+    </row>
+    <row r="1567" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1567" s="71">
+        <v>1728</v>
+      </c>
+      <c r="B1567" s="1" t="s">
+        <v>3079</v>
+      </c>
+      <c r="C1567" s="71">
+        <v>6</v>
+      </c>
+      <c r="D1567" s="71" t="s">
+        <v>1713</v>
+      </c>
+      <c r="F1567" s="71" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1567" s="71" t="s">
+        <v>121</v>
+      </c>
+      <c r="H1567" s="71" t="s">
+        <v>3080</v>
+      </c>
+      <c r="I1567" s="71" t="s">
+        <v>3081</v>
+      </c>
+    </row>
+    <row r="1568" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1568" s="71">
+        <v>1730</v>
+      </c>
+      <c r="B1568" s="1" t="s">
+        <v>3082</v>
+      </c>
+      <c r="C1568" s="71">
+        <v>3</v>
+      </c>
+      <c r="D1568" s="71" t="s">
+        <v>1720</v>
+      </c>
+      <c r="E1568" s="71" t="s">
+        <v>2935</v>
+      </c>
+      <c r="F1568" s="71" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1568" s="71" t="s">
+        <v>187</v>
+      </c>
+      <c r="H1568" s="71" t="s">
+        <v>3083</v>
+      </c>
+      <c r="I1568" s="71" t="s">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="1569" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1569" s="71">
+        <v>1732</v>
+      </c>
+      <c r="B1569" s="1" t="s">
+        <v>3084</v>
+      </c>
+      <c r="C1569" s="71">
+        <v>1</v>
+      </c>
+      <c r="D1569" s="71" t="s">
+        <v>1717</v>
+      </c>
+      <c r="F1569" s="71" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1569" s="71" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1569" s="71" t="s">
+        <v>3086</v>
+      </c>
+      <c r="I1569" s="71" t="s">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="1570" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1570" s="71">
+        <v>1736</v>
+      </c>
+      <c r="B1570" s="1" t="s">
+        <v>3085</v>
+      </c>
+      <c r="C1570" s="71">
+        <v>2</v>
+      </c>
+      <c r="D1570" s="71" t="s">
+        <v>1713</v>
+      </c>
+      <c r="F1570" s="71" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1570" s="71" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1570" s="71" t="s">
+        <v>3087</v>
+      </c>
+      <c r="I1570" s="71" t="s">
+        <v>3057</v>
+      </c>
+    </row>
+    <row r="1571" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1571" s="71">
+        <v>1740</v>
+      </c>
+      <c r="B1571" s="1" t="s">
+        <v>3098</v>
+      </c>
+      <c r="C1571" s="71">
+        <v>3</v>
+      </c>
+      <c r="D1571" s="71" t="s">
+        <v>1720</v>
+      </c>
+      <c r="E1571" s="71" t="s">
+        <v>2924</v>
+      </c>
+      <c r="F1571" s="71" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1571" s="71" t="s">
+        <v>140</v>
+      </c>
+      <c r="H1571" s="71" t="s">
+        <v>3099</v>
+      </c>
+      <c r="I1571" s="71" t="s">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="1572" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1572" s="71">
+        <v>1742</v>
+      </c>
+      <c r="B1572" s="1" t="s">
+        <v>3088</v>
+      </c>
+      <c r="C1572" s="71">
+        <v>1</v>
+      </c>
+      <c r="D1572" s="71" t="s">
+        <v>1717</v>
+      </c>
+      <c r="F1572" s="71" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1572" s="71" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1572" s="71" t="s">
+        <v>2082</v>
+      </c>
+      <c r="I1572" s="71" t="s">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="1573" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1573" s="71">
+        <v>1746</v>
+      </c>
+      <c r="B1573" s="1" t="s">
+        <v>3096</v>
+      </c>
+      <c r="C1573" s="71">
+        <v>3</v>
+      </c>
+      <c r="D1573" s="71" t="s">
+        <v>1720</v>
+      </c>
+      <c r="E1573" s="71" t="s">
+        <v>2935</v>
+      </c>
+      <c r="F1573" s="71" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1573" s="71" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1573" s="71" t="s">
+        <v>3097</v>
+      </c>
+      <c r="I1573" s="71" t="s">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="1574" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1574" s="71">
+        <v>1748</v>
+      </c>
+      <c r="B1574" s="1" t="s">
+        <v>3089</v>
+      </c>
+      <c r="C1574" s="71">
+        <v>1</v>
+      </c>
+      <c r="D1574" s="71" t="s">
+        <v>1717</v>
+      </c>
+      <c r="F1574" s="71" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1574" s="71" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1574" s="71" t="s">
+        <v>3090</v>
+      </c>
+      <c r="I1574" s="71" t="s">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="1575" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1575" s="71">
+        <v>1752</v>
+      </c>
+      <c r="B1575" s="1" t="s">
+        <v>3091</v>
+      </c>
+      <c r="C1575" s="71">
+        <v>2</v>
+      </c>
+      <c r="D1575" s="71" t="s">
+        <v>1720</v>
+      </c>
+      <c r="E1575" s="71" t="s">
+        <v>2935</v>
+      </c>
+      <c r="F1575" s="71" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1575" s="71" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1575" s="71" t="s">
+        <v>3092</v>
+      </c>
+      <c r="I1575" s="71" t="s">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="1576" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1576" s="71">
+        <v>1756</v>
+      </c>
+      <c r="B1576" s="1" t="s">
+        <v>3093</v>
+      </c>
+      <c r="C1576" s="71">
+        <v>3</v>
+      </c>
+      <c r="D1576" s="71" t="s">
+        <v>1720</v>
+      </c>
+      <c r="F1576" s="71" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1576" s="71" t="s">
+        <v>457</v>
+      </c>
+      <c r="H1576" s="71" t="s">
+        <v>3094</v>
+      </c>
+      <c r="I1576" s="71" t="s">
+        <v>3095</v>
+      </c>
+    </row>
+    <row r="1577" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1577" s="1"/>
+    </row>
+    <row r="1578" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1578" s="1"/>
+    </row>
+    <row r="1579" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1579" s="1"/>
+    </row>
+    <row r="1580" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1580" s="1"/>
+    </row>
+    <row r="1581" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1581" s="1"/>
+    </row>
+    <row r="1582" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1582" s="1"/>
+    </row>
+    <row r="1583" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1583" s="1"/>
+    </row>
+    <row r="1584" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1584" s="1"/>
+    </row>
+    <row r="1585" spans="2:2" s="71" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1585" s="1"/>
+    </row>
+    <row r="1586" spans="2:2" s="71" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1586" s="1"/>
+    </row>
+    <row r="1587" spans="2:2" s="71" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1587" s="1"/>
+    </row>
+    <row r="1588" spans="2:2" s="71" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1588" s="1"/>
+    </row>
+    <row r="1589" spans="2:2" s="71" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1589" s="1"/>
+    </row>
+    <row r="1590" spans="2:2" s="71" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1590" s="1"/>
+    </row>
+    <row r="1591" spans="2:2" s="71" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1591" s="1"/>
+    </row>
+    <row r="1592" spans="2:2" s="71" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1592" s="1"/>
+    </row>
+    <row r="1593" spans="2:2" s="71" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1593" s="1"/>
+    </row>
+    <row r="1594" spans="2:2" s="71" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1594" s="1"/>
+    </row>
+    <row r="1595" spans="2:2" s="71" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1595" s="1"/>
+    </row>
+    <row r="1596" spans="2:2" s="71" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1596" s="1"/>
+    </row>
+    <row r="1597" spans="2:2" s="71" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1597" s="1"/>
+    </row>
+    <row r="1598" spans="2:2" s="71" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1598" s="1"/>
+    </row>
+    <row r="1599" spans="2:2" s="71" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1599" s="1"/>
+    </row>
+    <row r="1600" spans="2:2" s="71" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1600" s="1"/>
+    </row>
+    <row r="1601" spans="2:2" s="71" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1601" s="1"/>
+    </row>
+    <row r="1602" spans="2:2" s="71" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1602" s="1"/>
+    </row>
+    <row r="1603" spans="2:2" s="71" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1603" s="1"/>
+    </row>
+    <row r="1604" spans="2:2" s="71" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1604" s="1"/>
+    </row>
+    <row r="1605" spans="2:2" s="71" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1605" s="1"/>
+    </row>
+    <row r="1606" spans="2:2" s="71" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1606" s="1"/>
+    </row>
+    <row r="1607" spans="2:2" s="71" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1607" s="1"/>
+    </row>
+    <row r="1608" spans="2:2" s="71" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1608" s="1"/>
+    </row>
+    <row r="1609" spans="2:2" s="71" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1609" s="1"/>
+    </row>
+    <row r="1610" spans="2:2" s="71" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1610" s="1"/>
+    </row>
+    <row r="1611" spans="2:2" s="71" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1611" s="1"/>
+    </row>
+    <row r="1612" spans="2:2" s="71" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1612" s="1"/>
+    </row>
+    <row r="1613" spans="2:2" s="71" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1613" s="1"/>
+    </row>
+    <row r="1614" spans="2:2" s="71" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1614" s="1"/>
+    </row>
+    <row r="1615" spans="2:2" s="71" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1615" s="1"/>
+    </row>
+    <row r="1616" spans="2:2" s="71" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1616" s="1"/>
+    </row>
+    <row r="1617" spans="2:2" s="71" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1617" s="1"/>
+    </row>
+    <row r="1618" spans="2:2" s="71" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1618" s="1"/>
+    </row>
+    <row r="1619" spans="2:2" s="71" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1619" s="1"/>
+    </row>
+    <row r="1620" spans="2:2" s="71" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1620" s="1"/>
+    </row>
+    <row r="1621" spans="2:2" s="71" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1621" s="1"/>
+    </row>
+    <row r="1622" spans="2:2" s="71" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1622" s="1"/>
+    </row>
+    <row r="1623" spans="2:2" s="71" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1623" s="1"/>
+    </row>
+    <row r="1624" spans="2:2" s="71" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1624" s="1"/>
+    </row>
+    <row r="1625" spans="2:2" s="71" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1625" s="1"/>
+    </row>
+    <row r="1626" spans="2:2" s="71" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1626" s="1"/>
+    </row>
+    <row r="1627" spans="2:2" s="71" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1627" s="1"/>
+    </row>
+    <row r="1628" spans="2:2" s="71" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1628" s="1"/>
+    </row>
+    <row r="1629" spans="2:2" s="71" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1629" s="1"/>
+    </row>
+    <row r="1630" spans="2:2" s="71" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1630" s="1"/>
+    </row>
+    <row r="1631" spans="2:2" s="71" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1631" s="1"/>
+    </row>
+    <row r="1632" spans="2:2" s="71" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1632" s="1"/>
+    </row>
+    <row r="1633" spans="1:8" s="71" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1633" s="1"/>
+    </row>
+    <row r="1634" spans="1:8" s="71" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1634" s="1"/>
+    </row>
+    <row r="1635" spans="1:8" s="62" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1635" s="1"/>
+    </row>
+    <row r="1636" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A1636" s="72" t="s">
         <v>1721</v>
       </c>
-      <c r="B1565" s="71"/>
-      <c r="C1565" s="71"/>
-      <c r="D1565" s="71"/>
-      <c r="E1565" s="71"/>
-      <c r="F1565" s="71"/>
-      <c r="G1565" s="71"/>
-      <c r="H1565" s="71"/>
-    </row>
-    <row r="1566" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A1566" s="72" t="s">
+      <c r="B1636" s="72"/>
+      <c r="C1636" s="72"/>
+      <c r="D1636" s="72"/>
+      <c r="E1636" s="72"/>
+      <c r="F1636" s="72"/>
+      <c r="G1636" s="72"/>
+      <c r="H1636" s="72"/>
+    </row>
+    <row r="1637" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A1637" s="73" t="s">
         <v>2760</v>
       </c>
-      <c r="B1566" s="72"/>
-      <c r="C1566" s="72"/>
-      <c r="D1566" s="72"/>
-      <c r="E1566" s="72"/>
-      <c r="F1566" s="72"/>
-      <c r="G1566" s="72"/>
-      <c r="H1566" s="72"/>
+      <c r="B1637" s="73"/>
+      <c r="C1637" s="73"/>
+      <c r="D1637" s="73"/>
+      <c r="E1637" s="73"/>
+      <c r="F1637" s="73"/>
+      <c r="G1637" s="73"/>
+      <c r="H1637" s="73"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J1566" xr:uid="{CB07CE66-8F15-46FF-A90A-43FDB2DB428F}"/>
+  <autoFilter ref="A1:J1637" xr:uid="{CB07CE66-8F15-46FF-A90A-43FDB2DB428F}"/>
   <mergeCells count="2">
-    <mergeCell ref="A1565:H1565"/>
-    <mergeCell ref="A1566:H1566"/>
+    <mergeCell ref="A1636:H1636"/>
+    <mergeCell ref="A1637:H1637"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" display="https://leetcode.com/problems/zigzag-conversion" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -48052,25 +48667,37 @@
     <hyperlink ref="B1546" r:id="rId1336" display="https://leetcode.com/problems/maximum-number-of-eaten-apples" xr:uid="{51810A39-CD35-42C8-99A0-89485FD327DD}"/>
     <hyperlink ref="B1547" r:id="rId1337" display="https://leetcode.com/problems/where-will-the-ball-fall" xr:uid="{5F6F112E-0A35-49CE-BFFA-46F8C5C79F91}"/>
     <hyperlink ref="B1548" r:id="rId1338" display="https://leetcode.com/problems/maximum-xor-with-an-element-from-array" xr:uid="{9BF62A49-6718-4423-8433-DB86DC82824F}"/>
-    <hyperlink ref="B1549" r:id="rId1339" display="https://leetcode.com/problems/maximum-units-on-a-truck" xr:uid="{FA401603-3720-4E2D-B41B-750A14701D79}"/>
-    <hyperlink ref="B1550" r:id="rId1340" display="https://leetcode.com/problems/count-good-meals" xr:uid="{7D054C68-287C-4CDA-84E9-ABB8672601B9}"/>
-    <hyperlink ref="B1551" r:id="rId1341" display="https://leetcode.com/problems/ways-to-split-array-into-three-subarrays" xr:uid="{EB39B226-B1EA-4385-908B-CA58EAF15E2A}"/>
-    <hyperlink ref="B1552" r:id="rId1342" display="https://leetcode.com/problems/minimum-operations-to-make-a-subsequence" xr:uid="{3BF58768-569A-48ED-916E-9B5B92E9A489}"/>
-    <hyperlink ref="B1553" r:id="rId1343" display="https://leetcode.com/problems/calculate-money-in-leetcode-bank" xr:uid="{9A5AA38F-37C0-4252-B28C-B1571495B9D8}"/>
-    <hyperlink ref="B1554" r:id="rId1344" display="https://leetcode.com/problems/maximum-score-from-removing-substrings" xr:uid="{20802F12-8929-4B53-9288-3D2053019349}"/>
-    <hyperlink ref="B1555" r:id="rId1345" display="https://leetcode.com/problems/construct-the-lexicographically-largest-valid-sequence" xr:uid="{B73EB4B2-83E4-4F74-9B5B-B569CA68580B}"/>
-    <hyperlink ref="B1556" r:id="rId1346" display="https://leetcode.com/problems/number-of-ways-to-reconstruct-a-tree" xr:uid="{E6998458-D32E-4365-BC4B-FEBEE05D52B6}"/>
-    <hyperlink ref="B1557" r:id="rId1347" display="https://leetcode.com/problems/decode-xored-array" xr:uid="{0BA9C45F-4B21-497A-93AA-C47D2F0FB2B8}"/>
-    <hyperlink ref="B1558" r:id="rId1348" display="https://leetcode.com/problems/swapping-nodes-in-a-linked-list" xr:uid="{5D9D3F5C-5DD2-4F18-B382-B562212DAFB8}"/>
-    <hyperlink ref="B1559" r:id="rId1349" display="https://leetcode.com/problems/minimize-hamming-distance-after-swap-operations" xr:uid="{0D233304-DCA8-4ACD-BA33-ABA007389765}"/>
-    <hyperlink ref="B1560" r:id="rId1350" display="https://leetcode.com/problems/find-minimum-time-to-finish-all-jobs" xr:uid="{34306947-008A-4748-89D4-C6894490198D}"/>
-    <hyperlink ref="B1561" r:id="rId1351" display="https://leetcode.com/problems/number-of-rectangles-that-can-form-the-largest-square" xr:uid="{F2DC20DE-9474-4173-A170-F0ED4BD77F31}"/>
-    <hyperlink ref="B1562" r:id="rId1352" display="https://leetcode.com/problems/tuple-with-same-product" xr:uid="{8ACCF7DE-E5E5-4246-9298-0C5F53184D31}"/>
-    <hyperlink ref="B1563" r:id="rId1353" display="https://leetcode.com/problems/largest-submatrix-with-rearrangements" xr:uid="{1B4C7B82-E77E-4ACA-BC37-45E56FB369EA}"/>
+    <hyperlink ref="B1550" r:id="rId1339" display="https://leetcode.com/problems/maximum-units-on-a-truck" xr:uid="{FA401603-3720-4E2D-B41B-750A14701D79}"/>
+    <hyperlink ref="B1551" r:id="rId1340" display="https://leetcode.com/problems/count-good-meals" xr:uid="{7D054C68-287C-4CDA-84E9-ABB8672601B9}"/>
+    <hyperlink ref="B1552" r:id="rId1341" display="https://leetcode.com/problems/ways-to-split-array-into-three-subarrays" xr:uid="{EB39B226-B1EA-4385-908B-CA58EAF15E2A}"/>
+    <hyperlink ref="B1553" r:id="rId1342" display="https://leetcode.com/problems/minimum-operations-to-make-a-subsequence" xr:uid="{3BF58768-569A-48ED-916E-9B5B92E9A489}"/>
+    <hyperlink ref="B1555" r:id="rId1343" display="https://leetcode.com/problems/calculate-money-in-leetcode-bank" xr:uid="{9A5AA38F-37C0-4252-B28C-B1571495B9D8}"/>
+    <hyperlink ref="B1556" r:id="rId1344" display="https://leetcode.com/problems/maximum-score-from-removing-substrings" xr:uid="{20802F12-8929-4B53-9288-3D2053019349}"/>
+    <hyperlink ref="B1557" r:id="rId1345" display="https://leetcode.com/problems/construct-the-lexicographically-largest-valid-sequence" xr:uid="{B73EB4B2-83E4-4F74-9B5B-B569CA68580B}"/>
+    <hyperlink ref="B1558" r:id="rId1346" display="https://leetcode.com/problems/number-of-ways-to-reconstruct-a-tree" xr:uid="{E6998458-D32E-4365-BC4B-FEBEE05D52B6}"/>
+    <hyperlink ref="B1559" r:id="rId1347" display="https://leetcode.com/problems/decode-xored-array" xr:uid="{0BA9C45F-4B21-497A-93AA-C47D2F0FB2B8}"/>
+    <hyperlink ref="B1560" r:id="rId1348" display="https://leetcode.com/problems/swapping-nodes-in-a-linked-list" xr:uid="{5D9D3F5C-5DD2-4F18-B382-B562212DAFB8}"/>
+    <hyperlink ref="B1561" r:id="rId1349" display="https://leetcode.com/problems/minimize-hamming-distance-after-swap-operations" xr:uid="{0D233304-DCA8-4ACD-BA33-ABA007389765}"/>
+    <hyperlink ref="B1562" r:id="rId1350" display="https://leetcode.com/problems/find-minimum-time-to-finish-all-jobs" xr:uid="{34306947-008A-4748-89D4-C6894490198D}"/>
+    <hyperlink ref="B1564" r:id="rId1351" display="https://leetcode.com/problems/number-of-rectangles-that-can-form-the-largest-square" xr:uid="{F2DC20DE-9474-4173-A170-F0ED4BD77F31}"/>
+    <hyperlink ref="B1565" r:id="rId1352" display="https://leetcode.com/problems/tuple-with-same-product" xr:uid="{8ACCF7DE-E5E5-4246-9298-0C5F53184D31}"/>
+    <hyperlink ref="B1566" r:id="rId1353" display="https://leetcode.com/problems/largest-submatrix-with-rearrangements" xr:uid="{1B4C7B82-E77E-4ACA-BC37-45E56FB369EA}"/>
+    <hyperlink ref="B1567" r:id="rId1354" display="https://leetcode.com/problems/cat-and-mouse-ii" xr:uid="{1BE50E36-6C70-4366-8C0C-ABAB86AC2FA1}"/>
+    <hyperlink ref="B1568" r:id="rId1355" display="https://leetcode.com/problems/shortest-path-to-get-food" xr:uid="{94E61D7A-2B84-43BA-95AD-6D92AB56598C}"/>
+    <hyperlink ref="B1569" r:id="rId1356" display="https://leetcode.com/problems/find-the-highest-altitude" xr:uid="{B2085815-293D-42BF-A84D-6F7F0CC198BE}"/>
+    <hyperlink ref="B1570" r:id="rId1357" display="https://leetcode.com/problems/latest-time-by-replacing-hidden-digits" xr:uid="{FFB49099-001C-44BA-B278-B00A3A11671D}"/>
+    <hyperlink ref="B1572" r:id="rId1358" display="https://leetcode.com/problems/maximum-number-of-balls-in-a-box" xr:uid="{18366F0A-A3CF-4126-BA67-AE626616A691}"/>
+    <hyperlink ref="B1574" r:id="rId1359" display="https://leetcode.com/problems/sum-of-unique-elements" xr:uid="{B93FC0DC-83AD-4019-B434-79BA3ECF3C27}"/>
+    <hyperlink ref="B1575" r:id="rId1360" display="https://leetcode.com/problems/check-if-array-is-sorted-and-rotated" xr:uid="{EFE2F4D1-0950-49F4-B136-E72B4AF0D449}"/>
+    <hyperlink ref="B1576" r:id="rId1361" display="https://leetcode.com/problems/design-most-recently-used-queue" xr:uid="{74130DE4-2D04-4D3B-BEF6-58D20F61C5E0}"/>
+    <hyperlink ref="B1573" r:id="rId1362" display="https://leetcode.com/problems/maximum-subarray-sum-after-one-operation" xr:uid="{9ABF6461-8E02-44BB-9725-D17CBB89070F}"/>
+    <hyperlink ref="B1571" r:id="rId1363" display="https://leetcode.com/problems/find-distance-in-a-binary-tree" xr:uid="{92429178-67ED-4AD2-859E-9E026EEAF7BD}"/>
+    <hyperlink ref="B1563" r:id="rId1364" display="https://leetcode.com/problems/checking-existence-of-edge-length-limited-paths-ii" xr:uid="{A09CC7F8-57B2-4D18-8FCA-F1B91534ED7F}"/>
+    <hyperlink ref="B1554" r:id="rId1365" display="https://leetcode.com/problems/sum-of-special-evenly-spaced-elements-in-array" xr:uid="{6CC25C62-1D5D-4F0D-96CA-DD0F34BB1CA9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1354"/>
-  <drawing r:id="rId1355"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1366"/>
+  <drawing r:id="rId1367"/>
 </worksheet>
 </file>
 

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4B194A4-46FB-4C48-AF12-AFDBC990CB4D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBD9F236-55C2-4BF0-809B-5F9908AEED0D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="165" yWindow="0" windowWidth="18900" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18900" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LeetCode Algorithm" sheetId="1" r:id="rId1"/>
     <sheet name="SQL" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'LeetCode Algorithm'!$A$1:$J$1637</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'LeetCode Algorithm'!$A$1:$J$1648</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8360" uniqueCount="3107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8430" uniqueCount="3132">
   <si>
     <t>Difficulty</t>
   </si>
@@ -9358,6 +9358,81 @@
   </si>
   <si>
     <t>Reset head of sub array</t>
+  </si>
+  <si>
+    <t>Minimum Number of People to Teach</t>
+  </si>
+  <si>
+    <t>Count friends can not talk, then count common language</t>
+  </si>
+  <si>
+    <t>Decode XORed Permutation</t>
+  </si>
+  <si>
+    <t>Calculate 1 to N XOR, then XOR with A[1]^A[3]^... ^A[N-1]</t>
+  </si>
+  <si>
+    <t>Count Ways to Make Array With Product</t>
+  </si>
+  <si>
+    <t>Star and Bar theory</t>
+  </si>
+  <si>
+    <t>Change Minimum Characters to Satisfy One of Three Conditions</t>
+  </si>
+  <si>
+    <t>Count from A to Z</t>
+  </si>
+  <si>
+    <t>Find Kth Largest XOR Coordinate Value</t>
+  </si>
+  <si>
+    <t>Iterate row by row with accumulated XOR</t>
+  </si>
+  <si>
+    <t>N*M</t>
+  </si>
+  <si>
+    <t>Building Boxes</t>
+  </si>
+  <si>
+    <t>Build the series of numbers 1 + (1+2) + (1+…+N)</t>
+  </si>
+  <si>
+    <t>N^ (1/3)</t>
+  </si>
+  <si>
+    <t>Restore the Array From Adjacent Pairs</t>
+  </si>
+  <si>
+    <t>Simplified topology sort</t>
+  </si>
+  <si>
+    <t>Can You Eat Your Favorite Candy on Your Favorite Day?</t>
+  </si>
+  <si>
+    <t>Calculate presum</t>
+  </si>
+  <si>
+    <t>Maximum Score From Removing Stones</t>
+  </si>
+  <si>
+    <t>Compare the maximum with remaing 2</t>
+  </si>
+  <si>
+    <t>Largest Merge Of Two Strings</t>
+  </si>
+  <si>
+    <t>pick the first character from larger string</t>
+  </si>
+  <si>
+    <t>Closest Subsequence Sum</t>
+  </si>
+  <si>
+    <t>Divide the array into two groups</t>
+  </si>
+  <si>
+    <t>E ^ (N/2)</t>
   </si>
 </sst>
 </file>
@@ -9402,7 +9477,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -9429,6 +9504,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -9865,10 +9942,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J1637"/>
+  <dimension ref="A1:J1648"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1555" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A1555" sqref="A1555"/>
+    <sheetView tabSelected="1" topLeftCell="A1562" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A1587" sqref="A1587"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -12977,7 +13054,7 @@
         <v>4</v>
       </c>
       <c r="D133" t="s">
-        <v>2810</v>
+        <v>1720</v>
       </c>
       <c r="F133" t="s">
         <v>12</v>
@@ -46930,267 +47007,532 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="1570" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1570" s="71">
-        <v>1736</v>
+    <row r="1570" spans="1:9" s="72" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1570" s="72">
+        <v>1733</v>
       </c>
       <c r="B1570" s="1" t="s">
-        <v>3085</v>
-      </c>
-      <c r="C1570" s="71">
-        <v>2</v>
-      </c>
-      <c r="D1570" s="71" t="s">
+        <v>3107</v>
+      </c>
+      <c r="C1570" s="72">
+        <v>3</v>
+      </c>
+      <c r="D1570" s="72" t="s">
         <v>1713</v>
       </c>
-      <c r="F1570" s="71" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1570" s="71" t="s">
-        <v>36</v>
-      </c>
-      <c r="H1570" s="71" t="s">
-        <v>3087</v>
-      </c>
-      <c r="I1570" s="71" t="s">
-        <v>3057</v>
-      </c>
-    </row>
-    <row r="1571" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1571" s="71">
-        <v>1740</v>
+      <c r="F1570" s="72" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1570" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1570" s="72" t="s">
+        <v>3108</v>
+      </c>
+      <c r="I1570" s="72" t="s">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="1571" spans="1:9" s="72" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1571" s="72">
+        <v>1734</v>
       </c>
       <c r="B1571" s="1" t="s">
-        <v>3098</v>
-      </c>
-      <c r="C1571" s="71">
-        <v>3</v>
-      </c>
-      <c r="D1571" s="71" t="s">
+        <v>3109</v>
+      </c>
+      <c r="C1571" s="72">
+        <v>3</v>
+      </c>
+      <c r="D1571" s="72" t="s">
         <v>1720</v>
       </c>
-      <c r="E1571" s="71" t="s">
-        <v>2924</v>
-      </c>
-      <c r="F1571" s="71" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1571" s="71" t="s">
-        <v>140</v>
-      </c>
-      <c r="H1571" s="71" t="s">
-        <v>3099</v>
-      </c>
-      <c r="I1571" s="71" t="s">
+      <c r="E1571" s="72" t="s">
+        <v>2935</v>
+      </c>
+      <c r="F1571" s="72" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1571" s="72" t="s">
+        <v>134</v>
+      </c>
+      <c r="H1571" s="72" t="s">
+        <v>3110</v>
+      </c>
+      <c r="I1571" s="72" t="s">
         <v>3000</v>
       </c>
     </row>
-    <row r="1572" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1572" s="71">
-        <v>1742</v>
+    <row r="1572" spans="1:9" s="73" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1572" s="73">
+        <v>1735</v>
       </c>
       <c r="B1572" s="1" t="s">
-        <v>3088</v>
-      </c>
-      <c r="C1572" s="71">
-        <v>1</v>
-      </c>
-      <c r="D1572" s="71" t="s">
-        <v>1717</v>
-      </c>
-      <c r="F1572" s="71" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1572" s="71" t="s">
+        <v>3111</v>
+      </c>
+      <c r="C1572" s="73">
+        <v>4</v>
+      </c>
+      <c r="D1572" s="73" t="s">
+        <v>1718</v>
+      </c>
+      <c r="F1572" s="73" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1572" s="73" t="s">
         <v>25</v>
       </c>
-      <c r="H1572" s="71" t="s">
-        <v>2082</v>
-      </c>
-      <c r="I1572" s="71" t="s">
+      <c r="H1572" s="73" t="s">
+        <v>3112</v>
+      </c>
+      <c r="I1572" s="73" t="s">
         <v>3000</v>
       </c>
     </row>
     <row r="1573" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1573" s="71">
+        <v>1736</v>
+      </c>
+      <c r="B1573" s="1" t="s">
+        <v>3085</v>
+      </c>
+      <c r="C1573" s="71">
+        <v>4</v>
+      </c>
+      <c r="D1573" s="71" t="s">
+        <v>1713</v>
+      </c>
+      <c r="F1573" s="71" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1573" s="71" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1573" s="71" t="s">
+        <v>3087</v>
+      </c>
+      <c r="I1573" s="71" t="s">
+        <v>3057</v>
+      </c>
+    </row>
+    <row r="1574" spans="1:9" s="73" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1574" s="73">
+        <v>1737</v>
+      </c>
+      <c r="B1574" s="1" t="s">
+        <v>3113</v>
+      </c>
+      <c r="C1574" s="73">
+        <v>4</v>
+      </c>
+      <c r="D1574" s="73" t="s">
+        <v>1720</v>
+      </c>
+      <c r="E1574" s="73" t="s">
+        <v>2922</v>
+      </c>
+      <c r="F1574" s="73" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1574" s="73" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1574" s="73" t="s">
+        <v>3114</v>
+      </c>
+      <c r="I1574" s="73" t="s">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="1575" spans="1:9" s="73" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1575" s="73">
+        <v>1738</v>
+      </c>
+      <c r="B1575" s="1" t="s">
+        <v>3115</v>
+      </c>
+      <c r="C1575" s="73">
+        <v>3</v>
+      </c>
+      <c r="D1575" s="73" t="s">
+        <v>1720</v>
+      </c>
+      <c r="F1575" s="73" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1575" s="73" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1575" s="73" t="s">
+        <v>3116</v>
+      </c>
+      <c r="I1575" s="73" t="s">
+        <v>3117</v>
+      </c>
+    </row>
+    <row r="1576" spans="1:9" s="73" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1576" s="73">
+        <v>1739</v>
+      </c>
+      <c r="B1576" s="1" t="s">
+        <v>3118</v>
+      </c>
+      <c r="C1576" s="73">
+        <v>4</v>
+      </c>
+      <c r="D1576" s="73" t="s">
+        <v>1718</v>
+      </c>
+      <c r="F1576" s="73" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1576" s="73" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1576" s="73" t="s">
+        <v>3119</v>
+      </c>
+      <c r="I1576" s="73" t="s">
+        <v>3120</v>
+      </c>
+    </row>
+    <row r="1577" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1577" s="71">
+        <v>1740</v>
+      </c>
+      <c r="B1577" s="1" t="s">
+        <v>3098</v>
+      </c>
+      <c r="C1577" s="71">
+        <v>3</v>
+      </c>
+      <c r="D1577" s="71" t="s">
+        <v>1720</v>
+      </c>
+      <c r="E1577" s="71" t="s">
+        <v>2924</v>
+      </c>
+      <c r="F1577" s="71" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1577" s="71" t="s">
+        <v>140</v>
+      </c>
+      <c r="H1577" s="71" t="s">
+        <v>3099</v>
+      </c>
+      <c r="I1577" s="71" t="s">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="1578" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1578" s="71">
+        <v>1742</v>
+      </c>
+      <c r="B1578" s="1" t="s">
+        <v>3088</v>
+      </c>
+      <c r="C1578" s="71">
+        <v>1</v>
+      </c>
+      <c r="D1578" s="71" t="s">
+        <v>1717</v>
+      </c>
+      <c r="F1578" s="71" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1578" s="71" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1578" s="71" t="s">
+        <v>2082</v>
+      </c>
+      <c r="I1578" s="71" t="s">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="1579" spans="1:9" s="73" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1579" s="73">
+        <v>1743</v>
+      </c>
+      <c r="B1579" s="1" t="s">
+        <v>3121</v>
+      </c>
+      <c r="C1579" s="73">
+        <v>3</v>
+      </c>
+      <c r="D1579" s="73" t="s">
+        <v>1720</v>
+      </c>
+      <c r="E1579" s="73" t="s">
+        <v>2935</v>
+      </c>
+      <c r="F1579" s="73" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1579" s="73" t="s">
+        <v>187</v>
+      </c>
+      <c r="H1579" s="73" t="s">
+        <v>3122</v>
+      </c>
+      <c r="I1579" s="73" t="s">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="1580" spans="1:9" s="73" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1580" s="73">
+        <v>1744</v>
+      </c>
+      <c r="B1580" s="1" t="s">
+        <v>3123</v>
+      </c>
+      <c r="C1580" s="73">
+        <v>3</v>
+      </c>
+      <c r="D1580" s="73" t="s">
+        <v>1720</v>
+      </c>
+      <c r="F1580" s="73" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1580" s="73" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1580" s="73" t="s">
+        <v>3124</v>
+      </c>
+      <c r="I1580" s="73" t="s">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="1581" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1581" s="71">
         <v>1746</v>
       </c>
-      <c r="B1573" s="1" t="s">
+      <c r="B1581" s="1" t="s">
         <v>3096</v>
       </c>
-      <c r="C1573" s="71">
-        <v>3</v>
-      </c>
-      <c r="D1573" s="71" t="s">
+      <c r="C1581" s="71">
+        <v>3</v>
+      </c>
+      <c r="D1581" s="71" t="s">
         <v>1720</v>
       </c>
-      <c r="E1573" s="71" t="s">
+      <c r="E1581" s="71" t="s">
         <v>2935</v>
       </c>
-      <c r="F1573" s="71" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1573" s="71" t="s">
+      <c r="F1581" s="71" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1581" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="H1573" s="71" t="s">
+      <c r="H1581" s="71" t="s">
         <v>3097</v>
       </c>
-      <c r="I1573" s="71" t="s">
+      <c r="I1581" s="71" t="s">
         <v>3000</v>
       </c>
     </row>
-    <row r="1574" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1574" s="71">
+    <row r="1582" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1582" s="71">
         <v>1748</v>
       </c>
-      <c r="B1574" s="1" t="s">
+      <c r="B1582" s="1" t="s">
         <v>3089</v>
       </c>
-      <c r="C1574" s="71">
+      <c r="C1582" s="71">
         <v>1</v>
       </c>
-      <c r="D1574" s="71" t="s">
+      <c r="D1582" s="71" t="s">
         <v>1717</v>
       </c>
-      <c r="F1574" s="71" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1574" s="71" t="s">
+      <c r="F1582" s="71" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1582" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="H1574" s="71" t="s">
+      <c r="H1582" s="71" t="s">
         <v>3090</v>
       </c>
-      <c r="I1574" s="71" t="s">
+      <c r="I1582" s="71" t="s">
         <v>3000</v>
       </c>
     </row>
-    <row r="1575" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1575" s="71">
+    <row r="1583" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1583" s="71">
         <v>1752</v>
       </c>
-      <c r="B1575" s="1" t="s">
+      <c r="B1583" s="1" t="s">
         <v>3091</v>
       </c>
-      <c r="C1575" s="71">
+      <c r="C1583" s="71">
         <v>2</v>
       </c>
-      <c r="D1575" s="71" t="s">
+      <c r="D1583" s="71" t="s">
         <v>1720</v>
       </c>
-      <c r="E1575" s="71" t="s">
+      <c r="E1583" s="71" t="s">
         <v>2935</v>
       </c>
-      <c r="F1575" s="71" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1575" s="71" t="s">
+      <c r="F1583" s="71" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1583" s="71" t="s">
         <v>41</v>
       </c>
-      <c r="H1575" s="71" t="s">
+      <c r="H1583" s="71" t="s">
         <v>3092</v>
       </c>
-      <c r="I1575" s="71" t="s">
+      <c r="I1583" s="71" t="s">
         <v>3000</v>
       </c>
     </row>
-    <row r="1576" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1576" s="71">
+    <row r="1584" spans="1:9" s="73" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1584" s="73">
+        <v>1753</v>
+      </c>
+      <c r="B1584" s="1" t="s">
+        <v>3125</v>
+      </c>
+      <c r="C1584" s="73">
+        <v>3</v>
+      </c>
+      <c r="D1584" s="73" t="s">
+        <v>1720</v>
+      </c>
+      <c r="F1584" s="73" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1584" s="73" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1584" s="73" t="s">
+        <v>3126</v>
+      </c>
+      <c r="I1584" s="73" t="s">
+        <v>3057</v>
+      </c>
+    </row>
+    <row r="1585" spans="1:9" s="73" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1585" s="73">
+        <v>1754</v>
+      </c>
+      <c r="B1585" s="1" t="s">
+        <v>3127</v>
+      </c>
+      <c r="C1585" s="73">
+        <v>4</v>
+      </c>
+      <c r="D1585" s="73" t="s">
+        <v>2810</v>
+      </c>
+      <c r="E1585" s="73" t="s">
+        <v>2935</v>
+      </c>
+      <c r="F1585" s="73" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1585" s="73" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1585" s="73" t="s">
+        <v>3128</v>
+      </c>
+      <c r="I1585" s="73" t="s">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="1586" spans="1:9" s="73" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1586" s="73">
+        <v>1755</v>
+      </c>
+      <c r="B1586" s="1" t="s">
+        <v>3129</v>
+      </c>
+      <c r="C1586" s="73">
+        <v>4</v>
+      </c>
+      <c r="D1586" s="73" t="s">
+        <v>2810</v>
+      </c>
+      <c r="F1586" s="73" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1586" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1586" s="73" t="s">
+        <v>3130</v>
+      </c>
+      <c r="I1586" s="73" t="s">
+        <v>3131</v>
+      </c>
+    </row>
+    <row r="1587" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1587" s="71">
         <v>1756</v>
       </c>
-      <c r="B1576" s="1" t="s">
+      <c r="B1587" s="1" t="s">
         <v>3093</v>
       </c>
-      <c r="C1576" s="71">
-        <v>3</v>
-      </c>
-      <c r="D1576" s="71" t="s">
+      <c r="C1587" s="71">
+        <v>3</v>
+      </c>
+      <c r="D1587" s="71" t="s">
         <v>1720</v>
       </c>
-      <c r="F1576" s="71" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1576" s="71" t="s">
+      <c r="F1587" s="71" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1587" s="71" t="s">
         <v>457</v>
       </c>
-      <c r="H1576" s="71" t="s">
+      <c r="H1587" s="71" t="s">
         <v>3094</v>
       </c>
-      <c r="I1576" s="71" t="s">
+      <c r="I1587" s="71" t="s">
         <v>3095</v>
       </c>
     </row>
-    <row r="1577" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1577" s="1"/>
-    </row>
-    <row r="1578" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1578" s="1"/>
-    </row>
-    <row r="1579" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1579" s="1"/>
-    </row>
-    <row r="1580" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1580" s="1"/>
-    </row>
-    <row r="1581" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1581" s="1"/>
-    </row>
-    <row r="1582" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1582" s="1"/>
-    </row>
-    <row r="1583" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1583" s="1"/>
-    </row>
-    <row r="1584" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1584" s="1"/>
-    </row>
-    <row r="1585" spans="2:2" s="71" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1585" s="1"/>
-    </row>
-    <row r="1586" spans="2:2" s="71" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1586" s="1"/>
-    </row>
-    <row r="1587" spans="2:2" s="71" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1587" s="1"/>
-    </row>
-    <row r="1588" spans="2:2" s="71" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1588" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B1588" s="1"/>
     </row>
-    <row r="1589" spans="2:2" s="71" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1589" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B1589" s="1"/>
     </row>
-    <row r="1590" spans="2:2" s="71" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1590" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B1590" s="1"/>
     </row>
-    <row r="1591" spans="2:2" s="71" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1591" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B1591" s="1"/>
     </row>
-    <row r="1592" spans="2:2" s="71" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1592" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B1592" s="1"/>
     </row>
-    <row r="1593" spans="2:2" s="71" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1593" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B1593" s="1"/>
     </row>
-    <row r="1594" spans="2:2" s="71" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1594" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B1594" s="1"/>
     </row>
-    <row r="1595" spans="2:2" s="71" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1595" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B1595" s="1"/>
     </row>
-    <row r="1596" spans="2:2" s="71" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1596" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B1596" s="1"/>
     </row>
-    <row r="1597" spans="2:2" s="71" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1597" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B1597" s="1"/>
     </row>
-    <row r="1598" spans="2:2" s="71" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1598" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B1598" s="1"/>
     </row>
-    <row r="1599" spans="2:2" s="71" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1599" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B1599" s="1"/>
     </row>
-    <row r="1600" spans="2:2" s="71" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1600" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B1600" s="1"/>
     </row>
     <row r="1601" spans="2:2" s="71" customFormat="1" x14ac:dyDescent="0.45">
@@ -47295,38 +47637,71 @@
     <row r="1634" spans="1:8" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B1634" s="1"/>
     </row>
-    <row r="1635" spans="1:8" s="62" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1635" spans="1:8" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B1635" s="1"/>
     </row>
-    <row r="1636" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A1636" s="72" t="s">
+    <row r="1636" spans="1:8" s="71" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1636" s="1"/>
+    </row>
+    <row r="1637" spans="1:8" s="71" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1637" s="1"/>
+    </row>
+    <row r="1638" spans="1:8" s="71" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1638" s="1"/>
+    </row>
+    <row r="1639" spans="1:8" s="71" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1639" s="1"/>
+    </row>
+    <row r="1640" spans="1:8" s="71" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1640" s="1"/>
+    </row>
+    <row r="1641" spans="1:8" s="71" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1641" s="1"/>
+    </row>
+    <row r="1642" spans="1:8" s="71" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1642" s="1"/>
+    </row>
+    <row r="1643" spans="1:8" s="71" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1643" s="1"/>
+    </row>
+    <row r="1644" spans="1:8" s="71" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1644" s="1"/>
+    </row>
+    <row r="1645" spans="1:8" s="71" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1645" s="1"/>
+    </row>
+    <row r="1646" spans="1:8" s="62" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1646" s="1"/>
+    </row>
+    <row r="1647" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A1647" s="74" t="s">
         <v>1721</v>
       </c>
-      <c r="B1636" s="72"/>
-      <c r="C1636" s="72"/>
-      <c r="D1636" s="72"/>
-      <c r="E1636" s="72"/>
-      <c r="F1636" s="72"/>
-      <c r="G1636" s="72"/>
-      <c r="H1636" s="72"/>
-    </row>
-    <row r="1637" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A1637" s="73" t="s">
+      <c r="B1647" s="74"/>
+      <c r="C1647" s="74"/>
+      <c r="D1647" s="74"/>
+      <c r="E1647" s="74"/>
+      <c r="F1647" s="74"/>
+      <c r="G1647" s="74"/>
+      <c r="H1647" s="74"/>
+    </row>
+    <row r="1648" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A1648" s="75" t="s">
         <v>2760</v>
       </c>
-      <c r="B1637" s="73"/>
-      <c r="C1637" s="73"/>
-      <c r="D1637" s="73"/>
-      <c r="E1637" s="73"/>
-      <c r="F1637" s="73"/>
-      <c r="G1637" s="73"/>
-      <c r="H1637" s="73"/>
+      <c r="B1648" s="75"/>
+      <c r="C1648" s="75"/>
+      <c r="D1648" s="75"/>
+      <c r="E1648" s="75"/>
+      <c r="F1648" s="75"/>
+      <c r="G1648" s="75"/>
+      <c r="H1648" s="75"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J1637" xr:uid="{CB07CE66-8F15-46FF-A90A-43FDB2DB428F}"/>
+  <autoFilter ref="A1:J1648" xr:uid="{CB07CE66-8F15-46FF-A90A-43FDB2DB428F}"/>
   <mergeCells count="2">
-    <mergeCell ref="A1636:H1636"/>
-    <mergeCell ref="A1637:H1637"/>
+    <mergeCell ref="A1647:H1647"/>
+    <mergeCell ref="A1648:H1648"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" display="https://leetcode.com/problems/zigzag-conversion" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -48685,19 +49060,29 @@
     <hyperlink ref="B1567" r:id="rId1354" display="https://leetcode.com/problems/cat-and-mouse-ii" xr:uid="{1BE50E36-6C70-4366-8C0C-ABAB86AC2FA1}"/>
     <hyperlink ref="B1568" r:id="rId1355" display="https://leetcode.com/problems/shortest-path-to-get-food" xr:uid="{94E61D7A-2B84-43BA-95AD-6D92AB56598C}"/>
     <hyperlink ref="B1569" r:id="rId1356" display="https://leetcode.com/problems/find-the-highest-altitude" xr:uid="{B2085815-293D-42BF-A84D-6F7F0CC198BE}"/>
-    <hyperlink ref="B1570" r:id="rId1357" display="https://leetcode.com/problems/latest-time-by-replacing-hidden-digits" xr:uid="{FFB49099-001C-44BA-B278-B00A3A11671D}"/>
-    <hyperlink ref="B1572" r:id="rId1358" display="https://leetcode.com/problems/maximum-number-of-balls-in-a-box" xr:uid="{18366F0A-A3CF-4126-BA67-AE626616A691}"/>
-    <hyperlink ref="B1574" r:id="rId1359" display="https://leetcode.com/problems/sum-of-unique-elements" xr:uid="{B93FC0DC-83AD-4019-B434-79BA3ECF3C27}"/>
-    <hyperlink ref="B1575" r:id="rId1360" display="https://leetcode.com/problems/check-if-array-is-sorted-and-rotated" xr:uid="{EFE2F4D1-0950-49F4-B136-E72B4AF0D449}"/>
-    <hyperlink ref="B1576" r:id="rId1361" display="https://leetcode.com/problems/design-most-recently-used-queue" xr:uid="{74130DE4-2D04-4D3B-BEF6-58D20F61C5E0}"/>
-    <hyperlink ref="B1573" r:id="rId1362" display="https://leetcode.com/problems/maximum-subarray-sum-after-one-operation" xr:uid="{9ABF6461-8E02-44BB-9725-D17CBB89070F}"/>
-    <hyperlink ref="B1571" r:id="rId1363" display="https://leetcode.com/problems/find-distance-in-a-binary-tree" xr:uid="{92429178-67ED-4AD2-859E-9E026EEAF7BD}"/>
+    <hyperlink ref="B1573" r:id="rId1357" display="https://leetcode.com/problems/latest-time-by-replacing-hidden-digits" xr:uid="{FFB49099-001C-44BA-B278-B00A3A11671D}"/>
+    <hyperlink ref="B1578" r:id="rId1358" display="https://leetcode.com/problems/maximum-number-of-balls-in-a-box" xr:uid="{18366F0A-A3CF-4126-BA67-AE626616A691}"/>
+    <hyperlink ref="B1582" r:id="rId1359" display="https://leetcode.com/problems/sum-of-unique-elements" xr:uid="{B93FC0DC-83AD-4019-B434-79BA3ECF3C27}"/>
+    <hyperlink ref="B1583" r:id="rId1360" display="https://leetcode.com/problems/check-if-array-is-sorted-and-rotated" xr:uid="{EFE2F4D1-0950-49F4-B136-E72B4AF0D449}"/>
+    <hyperlink ref="B1587" r:id="rId1361" display="https://leetcode.com/problems/design-most-recently-used-queue" xr:uid="{74130DE4-2D04-4D3B-BEF6-58D20F61C5E0}"/>
+    <hyperlink ref="B1581" r:id="rId1362" display="https://leetcode.com/problems/maximum-subarray-sum-after-one-operation" xr:uid="{9ABF6461-8E02-44BB-9725-D17CBB89070F}"/>
+    <hyperlink ref="B1577" r:id="rId1363" display="https://leetcode.com/problems/find-distance-in-a-binary-tree" xr:uid="{92429178-67ED-4AD2-859E-9E026EEAF7BD}"/>
     <hyperlink ref="B1563" r:id="rId1364" display="https://leetcode.com/problems/checking-existence-of-edge-length-limited-paths-ii" xr:uid="{A09CC7F8-57B2-4D18-8FCA-F1B91534ED7F}"/>
     <hyperlink ref="B1554" r:id="rId1365" display="https://leetcode.com/problems/sum-of-special-evenly-spaced-elements-in-array" xr:uid="{6CC25C62-1D5D-4F0D-96CA-DD0F34BB1CA9}"/>
+    <hyperlink ref="B1570" r:id="rId1366" display="https://leetcode.com/problems/minimum-number-of-people-to-teach" xr:uid="{01884F04-6E6D-4298-B749-235016439D32}"/>
+    <hyperlink ref="B1571" r:id="rId1367" display="https://leetcode.com/problems/decode-xored-permutation" xr:uid="{61FB12DA-4C34-4EB8-A96A-D1D8DD6C496F}"/>
+    <hyperlink ref="B1572" r:id="rId1368" display="https://leetcode.com/problems/count-ways-to-make-array-with-product" xr:uid="{A9E0D378-1AAB-4EAD-B1B4-5702110BF8E0}"/>
+    <hyperlink ref="B1574" r:id="rId1369" display="https://leetcode.com/problems/change-minimum-characters-to-satisfy-one-of-three-conditions" xr:uid="{6C2C8CC0-F97B-40D9-B23A-AC99489A1B9B}"/>
+    <hyperlink ref="B1575" r:id="rId1370" display="https://leetcode.com/problems/find-kth-largest-xor-coordinate-value" xr:uid="{4E6C3629-D879-47B1-A840-9CC82C824C47}"/>
+    <hyperlink ref="B1576" r:id="rId1371" display="https://leetcode.com/problems/building-boxes" xr:uid="{BAA2B99F-FF9E-4F72-B24E-7E96F1A3F674}"/>
+    <hyperlink ref="B1579" r:id="rId1372" display="https://leetcode.com/problems/restore-the-array-from-adjacent-pairs" xr:uid="{700623B8-2FF0-4710-A00D-C7B2A0A7ABA6}"/>
+    <hyperlink ref="B1580" r:id="rId1373" display="https://leetcode.com/problems/can-you-eat-your-favorite-candy-on-your-favorite-day" xr:uid="{BEE070B5-F64C-4698-BCE5-1E36A8583440}"/>
+    <hyperlink ref="B1584" r:id="rId1374" display="https://leetcode.com/problems/maximum-score-from-removing-stones" xr:uid="{B7AA18C7-E58A-447A-915A-42D4F13D6310}"/>
+    <hyperlink ref="B1586" r:id="rId1375" display="https://leetcode.com/problems/closest-subsequence-sum" xr:uid="{F32459B0-DF4C-462A-9356-83F25EC7DAA2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1366"/>
-  <drawing r:id="rId1367"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1376"/>
+  <drawing r:id="rId1377"/>
 </worksheet>
 </file>
 

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBD9F236-55C2-4BF0-809B-5F9908AEED0D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04CCD789-E5BD-43A0-BB1B-9D96E4B1BD63}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18900" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LeetCode Algorithm" sheetId="1" r:id="rId1"/>
     <sheet name="SQL" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'LeetCode Algorithm'!$A$1:$J$1648</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'LeetCode Algorithm'!$A$1:$J$1659</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8430" uniqueCount="3132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8548" uniqueCount="3170">
   <si>
     <t>Difficulty</t>
   </si>
@@ -9433,6 +9433,120 @@
   </si>
   <si>
     <t>E ^ (N/2)</t>
+  </si>
+  <si>
+    <t>Number of Restricted Paths From First to Last Node</t>
+  </si>
+  <si>
+    <t>Minimum Elements to Add to Form a Given Sum </t>
+  </si>
+  <si>
+    <t>Check if Binary String Has at Most One Segment of Ones </t>
+  </si>
+  <si>
+    <t>Sum of Beauty of All Substrings</t>
+  </si>
+  <si>
+    <t>Check if Number is a Sum of Powers of Three</t>
+  </si>
+  <si>
+    <t>Find Nearest Point That Has the Same X or Y Coordinate </t>
+  </si>
+  <si>
+    <t>Equal Sum Arrays With Minimum Number of Operations</t>
+  </si>
+  <si>
+    <t>Closest Dessert Cost</t>
+  </si>
+  <si>
+    <t>Count Items Matching a Rule</t>
+  </si>
+  <si>
+    <t>Minimum Changes To Make Alternating Binary String </t>
+  </si>
+  <si>
+    <t>Count Number of Homogenous Substrings</t>
+  </si>
+  <si>
+    <t>Minimum Limit of Balls in a Bag</t>
+  </si>
+  <si>
+    <t>Longest Nice Substring </t>
+  </si>
+  <si>
+    <t>Form Array by Concatenating Subarrays of Another Array</t>
+  </si>
+  <si>
+    <t>Map of Highest Peak </t>
+  </si>
+  <si>
+    <t>Merge Strings Alternately  </t>
+  </si>
+  <si>
+    <t>Minimum Number of Operations to Move All Balls to Each Box</t>
+  </si>
+  <si>
+    <t>Maximum Score from Performing Multiplication Operations</t>
+  </si>
+  <si>
+    <t>Make even=0 odd=1 or make even = 1 odd = 0, choose the minimum operations</t>
+  </si>
+  <si>
+    <t>Accumulated sum with homogenous substring.</t>
+  </si>
+  <si>
+    <t>Guess the maximum number</t>
+  </si>
+  <si>
+    <t>Count characters</t>
+  </si>
+  <si>
+    <t>Count in group, reset index</t>
+  </si>
+  <si>
+    <t>BFS, from water to hill</t>
+  </si>
+  <si>
+    <t>Rotate and insert</t>
+  </si>
+  <si>
+    <t>Acculate from left to right and from right to left.</t>
+  </si>
+  <si>
+    <t>DFS with memorization or DP</t>
+  </si>
+  <si>
+    <t>Map the key</t>
+  </si>
+  <si>
+    <t>Bag up all the possible values.</t>
+  </si>
+  <si>
+    <t>2 ^N</t>
+  </si>
+  <si>
+    <t>Move low to 6 or high to 1</t>
+  </si>
+  <si>
+    <t>Get minimum distance.</t>
+  </si>
+  <si>
+    <t>Mod 3 the check if 1</t>
+  </si>
+  <si>
+    <t>Get substring and remember frequency</t>
+  </si>
+  <si>
+    <t>N ^ N</t>
+  </si>
+  <si>
+    <t>Check if we see zero</t>
+  </si>
+  <si>
+    <t>Shortest path from last node, two passes, first get distance, second count paths.</t>
+  </si>
+  <si>
+    <t>Calculate gap and divided by limit, watch overflow</t>
   </si>
 </sst>
 </file>
@@ -9477,7 +9591,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -9504,6 +9618,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -9942,10 +10057,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J1648"/>
+  <dimension ref="A1:J1659"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1562" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A1587" sqref="A1587"/>
+    <sheetView tabSelected="1" topLeftCell="G1581" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H1605" sqref="H1605"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -47496,91 +47611,535 @@
         <v>3095</v>
       </c>
     </row>
-    <row r="1588" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1588" s="1"/>
-    </row>
-    <row r="1589" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1589" s="1"/>
-    </row>
-    <row r="1590" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1590" s="1"/>
-    </row>
-    <row r="1591" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1591" s="1"/>
-    </row>
-    <row r="1592" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1592" s="1"/>
-    </row>
-    <row r="1593" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1593" s="1"/>
-    </row>
-    <row r="1594" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1594" s="1"/>
-    </row>
-    <row r="1595" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1595" s="1"/>
-    </row>
-    <row r="1596" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1596" s="1"/>
-    </row>
-    <row r="1597" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1597" s="1"/>
-    </row>
-    <row r="1598" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1598" s="1"/>
+    <row r="1588" spans="1:9" s="74" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1588" s="74">
+        <v>1758</v>
+      </c>
+      <c r="B1588" s="1" t="s">
+        <v>3141</v>
+      </c>
+      <c r="C1588" s="74">
+        <v>2</v>
+      </c>
+      <c r="D1588" s="74" t="s">
+        <v>1720</v>
+      </c>
+      <c r="E1588" s="74" t="s">
+        <v>2935</v>
+      </c>
+      <c r="F1588" s="74" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1588" s="74" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1588" s="74" t="s">
+        <v>3150</v>
+      </c>
+      <c r="I1588" s="74" t="s">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="1589" spans="1:9" s="74" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1589" s="74">
+        <v>1759</v>
+      </c>
+      <c r="B1589" s="1" t="s">
+        <v>3142</v>
+      </c>
+      <c r="C1589" s="74">
+        <v>3</v>
+      </c>
+      <c r="D1589" s="74" t="s">
+        <v>1720</v>
+      </c>
+      <c r="E1589" s="74" t="s">
+        <v>2923</v>
+      </c>
+      <c r="F1589" s="74" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1589" s="74" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1589" s="74" t="s">
+        <v>3151</v>
+      </c>
+      <c r="I1589" s="74" t="s">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="1590" spans="1:9" s="74" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1590" s="74">
+        <v>1760</v>
+      </c>
+      <c r="B1590" s="1" t="s">
+        <v>3143</v>
+      </c>
+      <c r="C1590" s="74">
+        <v>4</v>
+      </c>
+      <c r="D1590" s="74" t="s">
+        <v>1720</v>
+      </c>
+      <c r="E1590" s="74" t="s">
+        <v>2923</v>
+      </c>
+      <c r="F1590" s="74" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1590" s="74" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1590" s="74" t="s">
+        <v>3152</v>
+      </c>
+      <c r="I1590" s="74" t="s">
+        <v>3029</v>
+      </c>
+    </row>
+    <row r="1591" spans="1:9" s="74" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1591" s="74">
+        <v>1763</v>
+      </c>
+      <c r="B1591" s="1" t="s">
+        <v>3144</v>
+      </c>
+      <c r="C1591" s="74">
+        <v>2</v>
+      </c>
+      <c r="D1591" s="74" t="s">
+        <v>1720</v>
+      </c>
+      <c r="F1591" s="74" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1591" s="74" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1591" s="74" t="s">
+        <v>3153</v>
+      </c>
+      <c r="I1591" s="74" t="s">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="1592" spans="1:9" s="74" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1592" s="74">
+        <v>1764</v>
+      </c>
+      <c r="B1592" s="1" t="s">
+        <v>3145</v>
+      </c>
+      <c r="C1592" s="74">
+        <v>3</v>
+      </c>
+      <c r="D1592" s="74" t="s">
+        <v>1720</v>
+      </c>
+      <c r="E1592" s="74" t="s">
+        <v>2924</v>
+      </c>
+      <c r="F1592" s="74" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1592" s="74" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1592" s="74" t="s">
+        <v>3154</v>
+      </c>
+      <c r="I1592" s="74" t="s">
+        <v>3026</v>
+      </c>
+    </row>
+    <row r="1593" spans="1:9" s="74" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1593" s="74">
+        <v>1765</v>
+      </c>
+      <c r="B1593" s="1" t="s">
+        <v>3146</v>
+      </c>
+      <c r="C1593" s="74">
+        <v>3</v>
+      </c>
+      <c r="D1593" s="74" t="s">
+        <v>1720</v>
+      </c>
+      <c r="E1593" s="74" t="s">
+        <v>2935</v>
+      </c>
+      <c r="F1593" s="74" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1593" s="74" t="s">
+        <v>187</v>
+      </c>
+      <c r="H1593" s="74" t="s">
+        <v>3155</v>
+      </c>
+      <c r="I1593" s="74" t="s">
+        <v>3045</v>
+      </c>
+    </row>
+    <row r="1594" spans="1:9" s="74" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1594" s="74">
+        <v>1768</v>
+      </c>
+      <c r="B1594" s="1" t="s">
+        <v>3147</v>
+      </c>
+      <c r="C1594" s="74">
+        <v>1</v>
+      </c>
+      <c r="D1594" s="74" t="s">
+        <v>1717</v>
+      </c>
+      <c r="F1594" s="74" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1594" s="74" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1594" s="74" t="s">
+        <v>3156</v>
+      </c>
+      <c r="I1594" s="74" t="s">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="1595" spans="1:9" s="74" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1595" s="74">
+        <v>1769</v>
+      </c>
+      <c r="B1595" s="1" t="s">
+        <v>3148</v>
+      </c>
+      <c r="C1595" s="74">
+        <v>3</v>
+      </c>
+      <c r="D1595" s="74" t="s">
+        <v>1720</v>
+      </c>
+      <c r="E1595" s="74" t="s">
+        <v>2924</v>
+      </c>
+      <c r="F1595" s="74" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1595" s="74" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1595" s="74" t="s">
+        <v>3157</v>
+      </c>
+      <c r="I1595" s="74" t="s">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="1596" spans="1:9" s="74" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1596" s="74">
+        <v>1770</v>
+      </c>
+      <c r="B1596" s="1" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C1596" s="74">
+        <v>4</v>
+      </c>
+      <c r="D1596" s="74" t="s">
+        <v>1720</v>
+      </c>
+      <c r="E1596" s="74" t="s">
+        <v>2935</v>
+      </c>
+      <c r="F1596" s="74" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1596" s="74" t="s">
+        <v>121</v>
+      </c>
+      <c r="H1596" s="74" t="s">
+        <v>3158</v>
+      </c>
+      <c r="I1596" s="74" t="s">
+        <v>3026</v>
+      </c>
+    </row>
+    <row r="1597" spans="1:9" s="74" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1597" s="74">
+        <v>1773</v>
+      </c>
+      <c r="B1597" s="1" t="s">
+        <v>3140</v>
+      </c>
+      <c r="C1597" s="74">
+        <v>1</v>
+      </c>
+      <c r="D1597" s="74" t="s">
+        <v>1717</v>
+      </c>
+      <c r="F1597" s="74" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1597" s="74" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1597" s="74" t="s">
+        <v>3159</v>
+      </c>
+      <c r="I1597" s="74" t="s">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="1598" spans="1:9" s="74" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1598" s="74">
+        <v>1774</v>
+      </c>
+      <c r="B1598" s="1" t="s">
+        <v>3139</v>
+      </c>
+      <c r="C1598" s="74">
+        <v>3</v>
+      </c>
+      <c r="D1598" s="74" t="s">
+        <v>1720</v>
+      </c>
+      <c r="E1598" s="74" t="s">
+        <v>2935</v>
+      </c>
+      <c r="F1598" s="74" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1598" s="74" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1598" s="74" t="s">
+        <v>3160</v>
+      </c>
+      <c r="I1598" s="74" t="s">
+        <v>3161</v>
+      </c>
     </row>
     <row r="1599" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1599" s="1"/>
+      <c r="A1599" s="71">
+        <v>1775</v>
+      </c>
+      <c r="B1599" s="1" t="s">
+        <v>3138</v>
+      </c>
+      <c r="C1599" s="71">
+        <v>3</v>
+      </c>
+      <c r="D1599" s="71" t="s">
+        <v>2810</v>
+      </c>
+      <c r="F1599" s="71" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1599" s="71" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1599" s="71" t="s">
+        <v>3162</v>
+      </c>
+      <c r="I1599" s="71" t="s">
+        <v>3000</v>
+      </c>
     </row>
     <row r="1600" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1600" s="1"/>
-    </row>
-    <row r="1601" spans="2:2" s="71" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1601" s="1"/>
-    </row>
-    <row r="1602" spans="2:2" s="71" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1602" s="1"/>
-    </row>
-    <row r="1603" spans="2:2" s="71" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1603" s="1"/>
-    </row>
-    <row r="1604" spans="2:2" s="71" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1604" s="1"/>
-    </row>
-    <row r="1605" spans="2:2" s="71" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1605" s="1"/>
-    </row>
-    <row r="1606" spans="2:2" s="71" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1600" s="71">
+        <v>1779</v>
+      </c>
+      <c r="B1600" s="1" t="s">
+        <v>3137</v>
+      </c>
+      <c r="C1600" s="71">
+        <v>1</v>
+      </c>
+      <c r="D1600" s="71" t="s">
+        <v>1717</v>
+      </c>
+      <c r="F1600" s="71" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1600" s="71" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1600" s="71" t="s">
+        <v>3163</v>
+      </c>
+      <c r="I1600" s="71" t="s">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="1601" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1601" s="71">
+        <v>1780</v>
+      </c>
+      <c r="B1601" s="1" t="s">
+        <v>3136</v>
+      </c>
+      <c r="C1601" s="71">
+        <v>2</v>
+      </c>
+      <c r="D1601" s="71" t="s">
+        <v>1720</v>
+      </c>
+      <c r="F1601" s="71" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1601" s="71" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1601" s="71" t="s">
+        <v>3164</v>
+      </c>
+      <c r="I1601" s="71" t="s">
+        <v>3002</v>
+      </c>
+    </row>
+    <row r="1602" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1602" s="71">
+        <v>1781</v>
+      </c>
+      <c r="B1602" s="1" t="s">
+        <v>3135</v>
+      </c>
+      <c r="C1602" s="71">
+        <v>3</v>
+      </c>
+      <c r="D1602" s="71" t="s">
+        <v>1720</v>
+      </c>
+      <c r="E1602" s="71" t="s">
+        <v>2935</v>
+      </c>
+      <c r="F1602" s="71" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1602" s="71" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1602" s="71" t="s">
+        <v>3165</v>
+      </c>
+      <c r="I1602" s="71" t="s">
+        <v>3166</v>
+      </c>
+    </row>
+    <row r="1603" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1603" s="71">
+        <v>1784</v>
+      </c>
+      <c r="B1603" s="1" t="s">
+        <v>3134</v>
+      </c>
+      <c r="C1603" s="71">
+        <v>1</v>
+      </c>
+      <c r="D1603" s="71" t="s">
+        <v>1717</v>
+      </c>
+      <c r="F1603" s="71" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1603" s="71" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1603" s="71" t="s">
+        <v>3167</v>
+      </c>
+      <c r="I1603" s="71" t="s">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="1604" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1604" s="71">
+        <v>1785</v>
+      </c>
+      <c r="B1604" s="1" t="s">
+        <v>3133</v>
+      </c>
+      <c r="C1604" s="71">
+        <v>2</v>
+      </c>
+      <c r="D1604" s="71" t="s">
+        <v>1718</v>
+      </c>
+      <c r="F1604" s="71" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1604" s="71" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1604" s="71" t="s">
+        <v>3169</v>
+      </c>
+      <c r="I1604" s="71" t="s">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="1605" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1605" s="71">
+        <v>1786</v>
+      </c>
+      <c r="B1605" s="1" t="s">
+        <v>3132</v>
+      </c>
+      <c r="C1605" s="71">
+        <v>4</v>
+      </c>
+      <c r="D1605" s="71" t="s">
+        <v>1720</v>
+      </c>
+      <c r="E1605" s="71" t="s">
+        <v>2923</v>
+      </c>
+      <c r="F1605" s="71" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1605" s="71" t="s">
+        <v>187</v>
+      </c>
+      <c r="H1605" s="71" t="s">
+        <v>3168</v>
+      </c>
+      <c r="I1605" s="71" t="s">
+        <v>3029</v>
+      </c>
+    </row>
+    <row r="1606" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B1606" s="1"/>
     </row>
-    <row r="1607" spans="2:2" s="71" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1607" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B1607" s="1"/>
     </row>
-    <row r="1608" spans="2:2" s="71" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1608" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B1608" s="1"/>
     </row>
-    <row r="1609" spans="2:2" s="71" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1609" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B1609" s="1"/>
     </row>
-    <row r="1610" spans="2:2" s="71" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1610" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B1610" s="1"/>
     </row>
-    <row r="1611" spans="2:2" s="71" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1611" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B1611" s="1"/>
     </row>
-    <row r="1612" spans="2:2" s="71" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1612" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B1612" s="1"/>
     </row>
-    <row r="1613" spans="2:2" s="71" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1613" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B1613" s="1"/>
     </row>
-    <row r="1614" spans="2:2" s="71" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1614" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B1614" s="1"/>
     </row>
-    <row r="1615" spans="2:2" s="71" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1615" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B1615" s="1"/>
     </row>
-    <row r="1616" spans="2:2" s="71" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1616" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B1616" s="1"/>
     </row>
     <row r="1617" spans="2:2" s="71" customFormat="1" x14ac:dyDescent="0.45">
@@ -47631,77 +48190,110 @@
     <row r="1632" spans="2:2" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B1632" s="1"/>
     </row>
-    <row r="1633" spans="1:8" s="71" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1633" spans="2:2" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B1633" s="1"/>
     </row>
-    <row r="1634" spans="1:8" s="71" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1634" spans="2:2" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B1634" s="1"/>
     </row>
-    <row r="1635" spans="1:8" s="71" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1635" spans="2:2" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B1635" s="1"/>
     </row>
-    <row r="1636" spans="1:8" s="71" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1636" spans="2:2" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B1636" s="1"/>
     </row>
-    <row r="1637" spans="1:8" s="71" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1637" spans="2:2" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B1637" s="1"/>
     </row>
-    <row r="1638" spans="1:8" s="71" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1638" spans="2:2" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B1638" s="1"/>
     </row>
-    <row r="1639" spans="1:8" s="71" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1639" spans="2:2" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B1639" s="1"/>
     </row>
-    <row r="1640" spans="1:8" s="71" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1640" spans="2:2" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B1640" s="1"/>
     </row>
-    <row r="1641" spans="1:8" s="71" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1641" spans="2:2" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B1641" s="1"/>
     </row>
-    <row r="1642" spans="1:8" s="71" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1642" spans="2:2" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B1642" s="1"/>
     </row>
-    <row r="1643" spans="1:8" s="71" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1643" spans="2:2" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B1643" s="1"/>
     </row>
-    <row r="1644" spans="1:8" s="71" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1644" spans="2:2" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B1644" s="1"/>
     </row>
-    <row r="1645" spans="1:8" s="71" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1645" spans="2:2" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B1645" s="1"/>
     </row>
-    <row r="1646" spans="1:8" s="62" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1646" spans="2:2" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B1646" s="1"/>
     </row>
-    <row r="1647" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A1647" s="74" t="s">
+    <row r="1647" spans="2:2" s="71" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1647" s="1"/>
+    </row>
+    <row r="1648" spans="2:2" s="71" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1648" s="1"/>
+    </row>
+    <row r="1649" spans="1:8" s="71" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1649" s="1"/>
+    </row>
+    <row r="1650" spans="1:8" s="71" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1650" s="1"/>
+    </row>
+    <row r="1651" spans="1:8" s="71" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1651" s="1"/>
+    </row>
+    <row r="1652" spans="1:8" s="71" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1652" s="1"/>
+    </row>
+    <row r="1653" spans="1:8" s="71" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1653" s="1"/>
+    </row>
+    <row r="1654" spans="1:8" s="71" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1654" s="1"/>
+    </row>
+    <row r="1655" spans="1:8" s="71" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1655" s="1"/>
+    </row>
+    <row r="1656" spans="1:8" s="71" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1656" s="1"/>
+    </row>
+    <row r="1657" spans="1:8" s="62" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1657" s="1"/>
+    </row>
+    <row r="1658" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A1658" s="75" t="s">
         <v>1721</v>
       </c>
-      <c r="B1647" s="74"/>
-      <c r="C1647" s="74"/>
-      <c r="D1647" s="74"/>
-      <c r="E1647" s="74"/>
-      <c r="F1647" s="74"/>
-      <c r="G1647" s="74"/>
-      <c r="H1647" s="74"/>
-    </row>
-    <row r="1648" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A1648" s="75" t="s">
+      <c r="B1658" s="75"/>
+      <c r="C1658" s="75"/>
+      <c r="D1658" s="75"/>
+      <c r="E1658" s="75"/>
+      <c r="F1658" s="75"/>
+      <c r="G1658" s="75"/>
+      <c r="H1658" s="75"/>
+    </row>
+    <row r="1659" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A1659" s="76" t="s">
         <v>2760</v>
       </c>
-      <c r="B1648" s="75"/>
-      <c r="C1648" s="75"/>
-      <c r="D1648" s="75"/>
-      <c r="E1648" s="75"/>
-      <c r="F1648" s="75"/>
-      <c r="G1648" s="75"/>
-      <c r="H1648" s="75"/>
+      <c r="B1659" s="76"/>
+      <c r="C1659" s="76"/>
+      <c r="D1659" s="76"/>
+      <c r="E1659" s="76"/>
+      <c r="F1659" s="76"/>
+      <c r="G1659" s="76"/>
+      <c r="H1659" s="76"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J1648" xr:uid="{CB07CE66-8F15-46FF-A90A-43FDB2DB428F}"/>
+  <autoFilter ref="A1:J1659" xr:uid="{CB07CE66-8F15-46FF-A90A-43FDB2DB428F}"/>
   <mergeCells count="2">
-    <mergeCell ref="A1647:H1647"/>
-    <mergeCell ref="A1648:H1648"/>
+    <mergeCell ref="A1658:H1658"/>
+    <mergeCell ref="A1659:H1659"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" display="https://leetcode.com/problems/zigzag-conversion" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -49079,10 +49671,28 @@
     <hyperlink ref="B1580" r:id="rId1373" display="https://leetcode.com/problems/can-you-eat-your-favorite-candy-on-your-favorite-day" xr:uid="{BEE070B5-F64C-4698-BCE5-1E36A8583440}"/>
     <hyperlink ref="B1584" r:id="rId1374" display="https://leetcode.com/problems/maximum-score-from-removing-stones" xr:uid="{B7AA18C7-E58A-447A-915A-42D4F13D6310}"/>
     <hyperlink ref="B1586" r:id="rId1375" display="https://leetcode.com/problems/closest-subsequence-sum" xr:uid="{F32459B0-DF4C-462A-9356-83F25EC7DAA2}"/>
+    <hyperlink ref="B1605" r:id="rId1376" display="https://leetcode.com/problems/number-of-restricted-paths-from-first-to-last-node" xr:uid="{7E8F4145-52CC-410A-8E6D-496A93BC9F35}"/>
+    <hyperlink ref="B1604" r:id="rId1377" display="https://leetcode.com/problems/minimum-elements-to-add-to-form-a-given-sum" xr:uid="{4588D88F-C977-4AC1-9131-6787B276C83B}"/>
+    <hyperlink ref="B1603" r:id="rId1378" display="https://leetcode.com/problems/check-if-binary-string-has-at-most-one-segment-of-ones" xr:uid="{CE9F4064-AD9A-45F5-8FA5-3D837B5BD888}"/>
+    <hyperlink ref="B1602" r:id="rId1379" display="https://leetcode.com/problems/sum-of-beauty-of-all-substrings" xr:uid="{F5D12DA0-6DB0-4E8E-A268-602716EC1E07}"/>
+    <hyperlink ref="B1601" r:id="rId1380" display="https://leetcode.com/problems/check-if-number-is-a-sum-of-powers-of-three" xr:uid="{4602803B-7988-4D38-ABF2-61BC86BCDAC5}"/>
+    <hyperlink ref="B1600" r:id="rId1381" display="https://leetcode.com/problems/find-nearest-point-that-has-the-same-x-or-y-coordinate" xr:uid="{5F651CEF-E9E7-4A94-8963-9659B92CF321}"/>
+    <hyperlink ref="B1599" r:id="rId1382" display="https://leetcode.com/problems/equal-sum-arrays-with-minimum-number-of-operations" xr:uid="{C7244173-A5DF-4CFD-8B2A-1EE21E557BC1}"/>
+    <hyperlink ref="B1598" r:id="rId1383" display="https://leetcode.com/problems/closest-dessert-cost" xr:uid="{F7BEECC4-44E4-47B9-8596-B7703815C60F}"/>
+    <hyperlink ref="B1597" r:id="rId1384" display="https://leetcode.com/problems/count-items-matching-a-rule" xr:uid="{C7425EBD-8CAE-4C06-8E35-71176FE3E292}"/>
+    <hyperlink ref="B1588" r:id="rId1385" display="https://leetcode.com/problems/minimum-changes-to-make-alternating-binary-string" xr:uid="{5E47CEE9-BA48-462F-B4F8-1AF99888DEB3}"/>
+    <hyperlink ref="B1589" r:id="rId1386" display="https://leetcode.com/problems/count-number-of-homogenous-substrings" xr:uid="{9343BDD1-5100-4986-BADF-74E77C30CD7C}"/>
+    <hyperlink ref="B1590" r:id="rId1387" display="https://leetcode.com/problems/minimum-limit-of-balls-in-a-bag" xr:uid="{F6C3BBF6-E091-49FF-8239-45C98E39DC8C}"/>
+    <hyperlink ref="B1591" r:id="rId1388" display="https://leetcode.com/problems/longest-nice-substring" xr:uid="{8E4DAA57-D075-4129-AAC9-2F7D747D4861}"/>
+    <hyperlink ref="B1592" r:id="rId1389" display="https://leetcode.com/problems/form-array-by-concatenating-subarrays-of-another-array" xr:uid="{BBB12904-D1D8-45C5-A73B-4D227A33C7A0}"/>
+    <hyperlink ref="B1593" r:id="rId1390" display="https://leetcode.com/problems/map-of-highest-peak" xr:uid="{D94EC984-B85A-480E-8580-8F6D0807308B}"/>
+    <hyperlink ref="B1594" r:id="rId1391" display="https://leetcode.com/problems/merge-strings-alternately" xr:uid="{10A36CE3-B9BF-4B0B-A7DF-E0BA62BBC363}"/>
+    <hyperlink ref="B1595" r:id="rId1392" display="https://leetcode.com/problems/minimum-number-of-operations-to-move-all-balls-to-each-box" xr:uid="{D44C79CA-AF26-42E8-BA0E-F083D426240B}"/>
+    <hyperlink ref="B1596" r:id="rId1393" display="https://leetcode.com/problems/maximum-score-from-performing-multiplication-operations" xr:uid="{CBFA2C81-65C2-4B16-BD7D-228C47EBD55C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1376"/>
-  <drawing r:id="rId1377"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1394"/>
+  <drawing r:id="rId1395"/>
 </worksheet>
 </file>
 

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04CCD789-E5BD-43A0-BB1B-9D96E4B1BD63}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91F381ED-9050-476F-B282-40B2833F91C9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="SQL" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'LeetCode Algorithm'!$A$1:$J$1659</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'LeetCode Algorithm'!$A$1:$J$1662</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8548" uniqueCount="3170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8642" uniqueCount="3203">
   <si>
     <t>Difficulty</t>
   </si>
@@ -9547,6 +9547,105 @@
   </si>
   <si>
     <t>Calculate gap and divided by limit, watch overflow</t>
+  </si>
+  <si>
+    <t>Make the XOR of All Segments Equal to Zero</t>
+  </si>
+  <si>
+    <t>For every position from 0 to k-1, if we make it 0 - 1023, how many elements we need to change</t>
+  </si>
+  <si>
+    <t>Check if One String Swap Can Make Strings Equal</t>
+  </si>
+  <si>
+    <t>Find Center of Star Graph</t>
+  </si>
+  <si>
+    <t>Compare string and check difference</t>
+  </si>
+  <si>
+    <t>Check degree</t>
+  </si>
+  <si>
+    <t>Maximum Average Pass Ratio</t>
+  </si>
+  <si>
+    <t>Maximum Score of a Good Subarray</t>
+  </si>
+  <si>
+    <t>From position K to expand two directions with higher number first</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N </t>
+  </si>
+  <si>
+    <t>Put all margin profit in the heap and process one on the top.</t>
+  </si>
+  <si>
+    <t>Count Pairs Of Nodes </t>
+  </si>
+  <si>
+    <t>Sorting by edges, two pointers scan deduct by common path.</t>
+  </si>
+  <si>
+    <t>Palindrome Partitioning IV</t>
+  </si>
+  <si>
+    <t>Double loop from front to end.</t>
+  </si>
+  <si>
+    <t>N * N</t>
+  </si>
+  <si>
+    <t>Minimum Degree of a Connected Trio in a Graph</t>
+  </si>
+  <si>
+    <t>Sort by neibours then by degree.</t>
+  </si>
+  <si>
+    <t>Second Largest Digit in a String</t>
+  </si>
+  <si>
+    <t>Design Authentication Manager</t>
+  </si>
+  <si>
+    <t>Maximum Number of Consecutive Values You Can Make</t>
+  </si>
+  <si>
+    <t>Maximize Score After N Operations </t>
+  </si>
+  <si>
+    <t>Maximum Ascending Subarray Sum </t>
+  </si>
+  <si>
+    <t>Number of Orders in the Backlog</t>
+  </si>
+  <si>
+    <t>Maximum Value at a Given Index in a Bounded Array </t>
+  </si>
+  <si>
+    <t>Count 0-9</t>
+  </si>
+  <si>
+    <t>Put expired time in TreeMap</t>
+  </si>
+  <si>
+    <t>Accumulate from smallest number which not exceed sum + 1</t>
+  </si>
+  <si>
+    <t>DFS with bitmap memorization</t>
+  </si>
+  <si>
+    <t>2 ^ N * N^2</t>
+  </si>
+  <si>
+    <t>Scan array, remember last number</t>
+  </si>
+  <si>
+    <t>Keep buy and sell orders in priority queue</t>
+  </si>
+  <si>
+    <t>Guess number for peak, calculate sum in array</t>
   </si>
 </sst>
 </file>
@@ -9591,7 +9690,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -9618,6 +9717,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -10057,10 +10157,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J1659"/>
+  <dimension ref="A1:J1662"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1581" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H1605" sqref="H1605"/>
+    <sheetView tabSelected="1" topLeftCell="E1606" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I1620" sqref="I1620"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -47420,56 +47520,59 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="1581" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1581" s="71">
-        <v>1746</v>
+    <row r="1581" spans="1:9" s="75" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1581" s="75">
+        <v>1745</v>
       </c>
       <c r="B1581" s="1" t="s">
-        <v>3096</v>
-      </c>
-      <c r="C1581" s="71">
-        <v>3</v>
-      </c>
-      <c r="D1581" s="71" t="s">
+        <v>3183</v>
+      </c>
+      <c r="C1581" s="75">
+        <v>4</v>
+      </c>
+      <c r="D1581" s="75" t="s">
         <v>1720</v>
       </c>
-      <c r="E1581" s="71" t="s">
-        <v>2935</v>
-      </c>
-      <c r="F1581" s="71" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1581" s="71" t="s">
+      <c r="E1581" s="75" t="s">
+        <v>2924</v>
+      </c>
+      <c r="F1581" s="75" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1581" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="H1581" s="71" t="s">
-        <v>3097</v>
-      </c>
-      <c r="I1581" s="71" t="s">
-        <v>3000</v>
+      <c r="H1581" s="75" t="s">
+        <v>3184</v>
+      </c>
+      <c r="I1581" s="75" t="s">
+        <v>3185</v>
       </c>
     </row>
     <row r="1582" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1582" s="71">
-        <v>1748</v>
+        <v>1746</v>
       </c>
       <c r="B1582" s="1" t="s">
-        <v>3089</v>
+        <v>3096</v>
       </c>
       <c r="C1582" s="71">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D1582" s="71" t="s">
-        <v>1717</v>
+        <v>1720</v>
+      </c>
+      <c r="E1582" s="71" t="s">
+        <v>2935</v>
       </c>
       <c r="F1582" s="71" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G1582" s="71" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="H1582" s="71" t="s">
-        <v>3090</v>
+        <v>3097</v>
       </c>
       <c r="I1582" s="71" t="s">
         <v>3000</v>
@@ -47477,94 +47580,91 @@
     </row>
     <row r="1583" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1583" s="71">
-        <v>1752</v>
+        <v>1748</v>
       </c>
       <c r="B1583" s="1" t="s">
-        <v>3091</v>
+        <v>3089</v>
       </c>
       <c r="C1583" s="71">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1583" s="71" t="s">
-        <v>1720</v>
-      </c>
-      <c r="E1583" s="71" t="s">
-        <v>2935</v>
+        <v>1717</v>
       </c>
       <c r="F1583" s="71" t="s">
         <v>5</v>
       </c>
       <c r="G1583" s="71" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="H1583" s="71" t="s">
-        <v>3092</v>
+        <v>3090</v>
       </c>
       <c r="I1583" s="71" t="s">
         <v>3000</v>
       </c>
     </row>
-    <row r="1584" spans="1:9" s="73" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1584" s="73">
-        <v>1753</v>
+    <row r="1584" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1584" s="71">
+        <v>1752</v>
       </c>
       <c r="B1584" s="1" t="s">
-        <v>3125</v>
-      </c>
-      <c r="C1584" s="73">
-        <v>3</v>
-      </c>
-      <c r="D1584" s="73" t="s">
+        <v>3091</v>
+      </c>
+      <c r="C1584" s="71">
+        <v>2</v>
+      </c>
+      <c r="D1584" s="71" t="s">
         <v>1720</v>
       </c>
-      <c r="F1584" s="73" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1584" s="73" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1584" s="73" t="s">
-        <v>3126</v>
-      </c>
-      <c r="I1584" s="73" t="s">
-        <v>3057</v>
+      <c r="E1584" s="71" t="s">
+        <v>2935</v>
+      </c>
+      <c r="F1584" s="71" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1584" s="71" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1584" s="71" t="s">
+        <v>3092</v>
+      </c>
+      <c r="I1584" s="71" t="s">
+        <v>3000</v>
       </c>
     </row>
     <row r="1585" spans="1:9" s="73" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1585" s="73">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="B1585" s="1" t="s">
-        <v>3127</v>
+        <v>3125</v>
       </c>
       <c r="C1585" s="73">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1585" s="73" t="s">
-        <v>2810</v>
-      </c>
-      <c r="E1585" s="73" t="s">
-        <v>2935</v>
+        <v>1720</v>
       </c>
       <c r="F1585" s="73" t="s">
         <v>9</v>
       </c>
       <c r="G1585" s="73" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="H1585" s="73" t="s">
-        <v>3128</v>
+        <v>3126</v>
       </c>
       <c r="I1585" s="73" t="s">
-        <v>3000</v>
+        <v>3057</v>
       </c>
     </row>
     <row r="1586" spans="1:9" s="73" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1586" s="73">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="B1586" s="1" t="s">
-        <v>3129</v>
+        <v>3127</v>
       </c>
       <c r="C1586" s="73">
         <v>4</v>
@@ -47572,98 +47672,98 @@
       <c r="D1586" s="73" t="s">
         <v>2810</v>
       </c>
+      <c r="E1586" s="73" t="s">
+        <v>2935</v>
+      </c>
       <c r="F1586" s="73" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1586" s="73" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1586" s="73" t="s">
+        <v>3128</v>
+      </c>
+      <c r="I1586" s="73" t="s">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="1587" spans="1:9" s="73" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1587" s="73">
+        <v>1755</v>
+      </c>
+      <c r="B1587" s="1" t="s">
+        <v>3129</v>
+      </c>
+      <c r="C1587" s="73">
+        <v>4</v>
+      </c>
+      <c r="D1587" s="73" t="s">
+        <v>2810</v>
+      </c>
+      <c r="F1587" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="G1586" s="73" t="s">
+      <c r="G1587" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="H1586" s="73" t="s">
+      <c r="H1587" s="73" t="s">
         <v>3130</v>
       </c>
-      <c r="I1586" s="73" t="s">
+      <c r="I1587" s="73" t="s">
         <v>3131</v>
       </c>
     </row>
-    <row r="1587" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1587" s="71">
+    <row r="1588" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1588" s="71">
         <v>1756</v>
       </c>
-      <c r="B1587" s="1" t="s">
+      <c r="B1588" s="1" t="s">
         <v>3093</v>
       </c>
-      <c r="C1587" s="71">
-        <v>3</v>
-      </c>
-      <c r="D1587" s="71" t="s">
+      <c r="C1588" s="71">
+        <v>3</v>
+      </c>
+      <c r="D1588" s="71" t="s">
         <v>1720</v>
       </c>
-      <c r="F1587" s="71" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1587" s="71" t="s">
+      <c r="F1588" s="71" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1588" s="71" t="s">
         <v>457</v>
       </c>
-      <c r="H1587" s="71" t="s">
+      <c r="H1588" s="71" t="s">
         <v>3094</v>
       </c>
-      <c r="I1587" s="71" t="s">
+      <c r="I1588" s="71" t="s">
         <v>3095</v>
-      </c>
-    </row>
-    <row r="1588" spans="1:9" s="74" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1588" s="74">
-        <v>1758</v>
-      </c>
-      <c r="B1588" s="1" t="s">
-        <v>3141</v>
-      </c>
-      <c r="C1588" s="74">
-        <v>2</v>
-      </c>
-      <c r="D1588" s="74" t="s">
-        <v>1720</v>
-      </c>
-      <c r="E1588" s="74" t="s">
-        <v>2935</v>
-      </c>
-      <c r="F1588" s="74" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1588" s="74" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1588" s="74" t="s">
-        <v>3150</v>
-      </c>
-      <c r="I1588" s="74" t="s">
-        <v>3000</v>
       </c>
     </row>
     <row r="1589" spans="1:9" s="74" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1589" s="74">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="B1589" s="1" t="s">
-        <v>3142</v>
+        <v>3141</v>
       </c>
       <c r="C1589" s="74">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1589" s="74" t="s">
         <v>1720</v>
       </c>
       <c r="E1589" s="74" t="s">
-        <v>2923</v>
+        <v>2935</v>
       </c>
       <c r="F1589" s="74" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G1589" s="74" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H1589" s="74" t="s">
-        <v>3151</v>
+        <v>3150</v>
       </c>
       <c r="I1589" s="74" t="s">
         <v>3000</v>
@@ -47671,13 +47771,13 @@
     </row>
     <row r="1590" spans="1:9" s="74" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1590" s="74">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="B1590" s="1" t="s">
-        <v>3143</v>
+        <v>3142</v>
       </c>
       <c r="C1590" s="74">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1590" s="74" t="s">
         <v>1720</v>
@@ -47689,131 +47789,128 @@
         <v>9</v>
       </c>
       <c r="G1590" s="74" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H1590" s="74" t="s">
-        <v>3152</v>
+        <v>3151</v>
       </c>
       <c r="I1590" s="74" t="s">
-        <v>3029</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="1591" spans="1:9" s="74" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1591" s="74">
-        <v>1763</v>
+        <v>1760</v>
       </c>
       <c r="B1591" s="1" t="s">
-        <v>3144</v>
+        <v>3143</v>
       </c>
       <c r="C1591" s="74">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D1591" s="74" t="s">
         <v>1720</v>
       </c>
+      <c r="E1591" s="74" t="s">
+        <v>2923</v>
+      </c>
       <c r="F1591" s="74" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G1591" s="74" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="H1591" s="74" t="s">
-        <v>3153</v>
+        <v>3152</v>
       </c>
       <c r="I1591" s="74" t="s">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="1592" spans="1:9" s="74" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1592" s="74">
-        <v>1764</v>
+        <v>3029</v>
+      </c>
+    </row>
+    <row r="1592" spans="1:9" s="75" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1592" s="75">
+        <v>1761</v>
       </c>
       <c r="B1592" s="1" t="s">
-        <v>3145</v>
-      </c>
-      <c r="C1592" s="74">
-        <v>3</v>
-      </c>
-      <c r="D1592" s="74" t="s">
-        <v>1720</v>
-      </c>
-      <c r="E1592" s="74" t="s">
-        <v>2924</v>
-      </c>
-      <c r="F1592" s="74" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1592" s="74" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1592" s="74" t="s">
-        <v>3154</v>
-      </c>
-      <c r="I1592" s="74" t="s">
-        <v>3026</v>
+        <v>3186</v>
+      </c>
+      <c r="C1592" s="75">
+        <v>4</v>
+      </c>
+      <c r="D1592" s="75" t="s">
+        <v>1713</v>
+      </c>
+      <c r="F1592" s="75" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1592" s="75" t="s">
+        <v>187</v>
+      </c>
+      <c r="H1592" s="75" t="s">
+        <v>3187</v>
       </c>
     </row>
     <row r="1593" spans="1:9" s="74" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1593" s="74">
-        <v>1765</v>
+        <v>1763</v>
       </c>
       <c r="B1593" s="1" t="s">
-        <v>3146</v>
+        <v>3144</v>
       </c>
       <c r="C1593" s="74">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1593" s="74" t="s">
         <v>1720</v>
       </c>
-      <c r="E1593" s="74" t="s">
-        <v>2935</v>
-      </c>
       <c r="F1593" s="74" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G1593" s="74" t="s">
-        <v>187</v>
+        <v>36</v>
       </c>
       <c r="H1593" s="74" t="s">
-        <v>3155</v>
+        <v>3153</v>
       </c>
       <c r="I1593" s="74" t="s">
-        <v>3045</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="1594" spans="1:9" s="74" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1594" s="74">
-        <v>1768</v>
+        <v>1764</v>
       </c>
       <c r="B1594" s="1" t="s">
-        <v>3147</v>
+        <v>3145</v>
       </c>
       <c r="C1594" s="74">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D1594" s="74" t="s">
-        <v>1717</v>
+        <v>1720</v>
+      </c>
+      <c r="E1594" s="74" t="s">
+        <v>2924</v>
       </c>
       <c r="F1594" s="74" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G1594" s="74" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="H1594" s="74" t="s">
-        <v>3156</v>
+        <v>3154</v>
       </c>
       <c r="I1594" s="74" t="s">
-        <v>3000</v>
+        <v>3026</v>
       </c>
     </row>
     <row r="1595" spans="1:9" s="74" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1595" s="74">
-        <v>1769</v>
+        <v>1765</v>
       </c>
       <c r="B1595" s="1" t="s">
-        <v>3148</v>
+        <v>3146</v>
       </c>
       <c r="C1595" s="74">
         <v>3</v>
@@ -47822,71 +47919,71 @@
         <v>1720</v>
       </c>
       <c r="E1595" s="74" t="s">
-        <v>2924</v>
+        <v>2935</v>
       </c>
       <c r="F1595" s="74" t="s">
         <v>9</v>
       </c>
       <c r="G1595" s="74" t="s">
-        <v>21</v>
+        <v>187</v>
       </c>
       <c r="H1595" s="74" t="s">
-        <v>3157</v>
+        <v>3155</v>
       </c>
       <c r="I1595" s="74" t="s">
-        <v>3000</v>
+        <v>3045</v>
       </c>
     </row>
     <row r="1596" spans="1:9" s="74" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1596" s="74">
-        <v>1770</v>
+        <v>1768</v>
       </c>
       <c r="B1596" s="1" t="s">
-        <v>3149</v>
+        <v>3147</v>
       </c>
       <c r="C1596" s="74">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1596" s="74" t="s">
-        <v>1720</v>
-      </c>
-      <c r="E1596" s="74" t="s">
-        <v>2935</v>
+        <v>1717</v>
       </c>
       <c r="F1596" s="74" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G1596" s="74" t="s">
-        <v>121</v>
+        <v>36</v>
       </c>
       <c r="H1596" s="74" t="s">
-        <v>3158</v>
+        <v>3156</v>
       </c>
       <c r="I1596" s="74" t="s">
-        <v>3026</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="1597" spans="1:9" s="74" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1597" s="74">
-        <v>1773</v>
+        <v>1769</v>
       </c>
       <c r="B1597" s="1" t="s">
-        <v>3140</v>
+        <v>3148</v>
       </c>
       <c r="C1597" s="74">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D1597" s="74" t="s">
-        <v>1717</v>
+        <v>1720</v>
+      </c>
+      <c r="E1597" s="74" t="s">
+        <v>2924</v>
       </c>
       <c r="F1597" s="74" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G1597" s="74" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="H1597" s="74" t="s">
-        <v>3159</v>
+        <v>3157</v>
       </c>
       <c r="I1597" s="74" t="s">
         <v>3000</v>
@@ -47894,13 +47991,13 @@
     </row>
     <row r="1598" spans="1:9" s="74" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1598" s="74">
-        <v>1774</v>
+        <v>1770</v>
       </c>
       <c r="B1598" s="1" t="s">
-        <v>3139</v>
+        <v>3149</v>
       </c>
       <c r="C1598" s="74">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D1598" s="74" t="s">
         <v>1720</v>
@@ -47912,282 +48009,642 @@
         <v>9</v>
       </c>
       <c r="G1598" s="74" t="s">
+        <v>121</v>
+      </c>
+      <c r="H1598" s="74" t="s">
+        <v>3158</v>
+      </c>
+      <c r="I1598" s="74" t="s">
+        <v>3026</v>
+      </c>
+    </row>
+    <row r="1599" spans="1:9" s="74" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1599" s="74">
+        <v>1773</v>
+      </c>
+      <c r="B1599" s="1" t="s">
+        <v>3140</v>
+      </c>
+      <c r="C1599" s="74">
+        <v>1</v>
+      </c>
+      <c r="D1599" s="74" t="s">
+        <v>1717</v>
+      </c>
+      <c r="F1599" s="74" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1599" s="74" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1599" s="74" t="s">
+        <v>3159</v>
+      </c>
+      <c r="I1599" s="74" t="s">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="1600" spans="1:9" s="74" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1600" s="74">
+        <v>1774</v>
+      </c>
+      <c r="B1600" s="1" t="s">
+        <v>3139</v>
+      </c>
+      <c r="C1600" s="74">
+        <v>3</v>
+      </c>
+      <c r="D1600" s="74" t="s">
+        <v>1720</v>
+      </c>
+      <c r="E1600" s="74" t="s">
+        <v>2935</v>
+      </c>
+      <c r="F1600" s="74" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1600" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="H1598" s="74" t="s">
+      <c r="H1600" s="74" t="s">
         <v>3160</v>
       </c>
-      <c r="I1598" s="74" t="s">
+      <c r="I1600" s="74" t="s">
         <v>3161</v>
-      </c>
-    </row>
-    <row r="1599" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1599" s="71">
-        <v>1775</v>
-      </c>
-      <c r="B1599" s="1" t="s">
-        <v>3138</v>
-      </c>
-      <c r="C1599" s="71">
-        <v>3</v>
-      </c>
-      <c r="D1599" s="71" t="s">
-        <v>2810</v>
-      </c>
-      <c r="F1599" s="71" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1599" s="71" t="s">
-        <v>41</v>
-      </c>
-      <c r="H1599" s="71" t="s">
-        <v>3162</v>
-      </c>
-      <c r="I1599" s="71" t="s">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="1600" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1600" s="71">
-        <v>1779</v>
-      </c>
-      <c r="B1600" s="1" t="s">
-        <v>3137</v>
-      </c>
-      <c r="C1600" s="71">
-        <v>1</v>
-      </c>
-      <c r="D1600" s="71" t="s">
-        <v>1717</v>
-      </c>
-      <c r="F1600" s="71" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1600" s="71" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1600" s="71" t="s">
-        <v>3163</v>
-      </c>
-      <c r="I1600" s="71" t="s">
-        <v>3000</v>
       </c>
     </row>
     <row r="1601" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1601" s="71">
-        <v>1780</v>
+        <v>1775</v>
       </c>
       <c r="B1601" s="1" t="s">
-        <v>3136</v>
+        <v>3138</v>
       </c>
       <c r="C1601" s="71">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1601" s="71" t="s">
-        <v>1720</v>
+        <v>2810</v>
       </c>
       <c r="F1601" s="71" t="s">
         <v>9</v>
       </c>
       <c r="G1601" s="71" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="H1601" s="71" t="s">
-        <v>3164</v>
+        <v>3162</v>
       </c>
       <c r="I1601" s="71" t="s">
-        <v>3002</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="1602" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1602" s="71">
-        <v>1781</v>
+        <v>1779</v>
       </c>
       <c r="B1602" s="1" t="s">
-        <v>3135</v>
+        <v>3137</v>
       </c>
       <c r="C1602" s="71">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1602" s="71" t="s">
-        <v>1720</v>
-      </c>
-      <c r="E1602" s="71" t="s">
-        <v>2935</v>
+        <v>1717</v>
       </c>
       <c r="F1602" s="71" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G1602" s="71" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="H1602" s="71" t="s">
-        <v>3165</v>
+        <v>3163</v>
       </c>
       <c r="I1602" s="71" t="s">
-        <v>3166</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="1603" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1603" s="71">
-        <v>1784</v>
+        <v>1780</v>
       </c>
       <c r="B1603" s="1" t="s">
-        <v>3134</v>
+        <v>3136</v>
       </c>
       <c r="C1603" s="71">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1603" s="71" t="s">
-        <v>1717</v>
+        <v>1720</v>
       </c>
       <c r="F1603" s="71" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G1603" s="71" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="H1603" s="71" t="s">
-        <v>3167</v>
+        <v>3164</v>
       </c>
       <c r="I1603" s="71" t="s">
-        <v>3000</v>
+        <v>3002</v>
       </c>
     </row>
     <row r="1604" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1604" s="71">
+        <v>1781</v>
+      </c>
+      <c r="B1604" s="1" t="s">
+        <v>3135</v>
+      </c>
+      <c r="C1604" s="71">
+        <v>3</v>
+      </c>
+      <c r="D1604" s="71" t="s">
+        <v>1720</v>
+      </c>
+      <c r="E1604" s="71" t="s">
+        <v>2935</v>
+      </c>
+      <c r="F1604" s="71" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1604" s="71" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1604" s="71" t="s">
+        <v>3165</v>
+      </c>
+      <c r="I1604" s="71" t="s">
+        <v>3166</v>
+      </c>
+    </row>
+    <row r="1605" spans="1:9" s="75" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1605" s="75">
+        <v>1782</v>
+      </c>
+      <c r="B1605" s="1" t="s">
+        <v>3181</v>
+      </c>
+      <c r="C1605" s="75">
+        <v>4</v>
+      </c>
+      <c r="D1605" s="75" t="s">
+        <v>1713</v>
+      </c>
+      <c r="F1605" s="75" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1605" s="75" t="s">
+        <v>187</v>
+      </c>
+      <c r="H1605" s="75" t="s">
+        <v>3182</v>
+      </c>
+    </row>
+    <row r="1606" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1606" s="71">
+        <v>1784</v>
+      </c>
+      <c r="B1606" s="1" t="s">
+        <v>3134</v>
+      </c>
+      <c r="C1606" s="71">
+        <v>1</v>
+      </c>
+      <c r="D1606" s="71" t="s">
+        <v>1717</v>
+      </c>
+      <c r="F1606" s="71" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1606" s="71" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1606" s="71" t="s">
+        <v>3167</v>
+      </c>
+      <c r="I1606" s="71" t="s">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="1607" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1607" s="71">
         <v>1785</v>
       </c>
-      <c r="B1604" s="1" t="s">
+      <c r="B1607" s="1" t="s">
         <v>3133</v>
       </c>
-      <c r="C1604" s="71">
+      <c r="C1607" s="71">
         <v>2</v>
       </c>
-      <c r="D1604" s="71" t="s">
+      <c r="D1607" s="71" t="s">
         <v>1718</v>
       </c>
-      <c r="F1604" s="71" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1604" s="71" t="s">
+      <c r="F1607" s="71" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1607" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="H1604" s="71" t="s">
+      <c r="H1607" s="71" t="s">
         <v>3169</v>
       </c>
-      <c r="I1604" s="71" t="s">
+      <c r="I1607" s="71" t="s">
         <v>3000</v>
       </c>
     </row>
-    <row r="1605" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1605" s="71">
+    <row r="1608" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1608" s="71">
         <v>1786</v>
       </c>
-      <c r="B1605" s="1" t="s">
+      <c r="B1608" s="1" t="s">
         <v>3132</v>
       </c>
-      <c r="C1605" s="71">
+      <c r="C1608" s="71">
         <v>4</v>
       </c>
-      <c r="D1605" s="71" t="s">
+      <c r="D1608" s="71" t="s">
         <v>1720</v>
       </c>
-      <c r="E1605" s="71" t="s">
+      <c r="E1608" s="71" t="s">
         <v>2923</v>
       </c>
-      <c r="F1605" s="71" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1605" s="71" t="s">
+      <c r="F1608" s="71" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1608" s="71" t="s">
         <v>187</v>
       </c>
-      <c r="H1605" s="71" t="s">
+      <c r="H1608" s="71" t="s">
         <v>3168</v>
       </c>
-      <c r="I1605" s="71" t="s">
+      <c r="I1608" s="71" t="s">
         <v>3029</v>
       </c>
     </row>
-    <row r="1606" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1606" s="1"/>
-    </row>
-    <row r="1607" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1607" s="1"/>
-    </row>
-    <row r="1608" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1608" s="1"/>
-    </row>
     <row r="1609" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1609" s="1"/>
+      <c r="A1609" s="71">
+        <v>1787</v>
+      </c>
+      <c r="B1609" s="1" t="s">
+        <v>3170</v>
+      </c>
+      <c r="C1609" s="71">
+        <v>4</v>
+      </c>
+      <c r="D1609" s="71" t="s">
+        <v>2810</v>
+      </c>
+      <c r="F1609" s="71" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1609" s="71" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1609" s="71" t="s">
+        <v>3171</v>
+      </c>
+      <c r="I1609" s="71" t="s">
+        <v>3023</v>
+      </c>
     </row>
     <row r="1610" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1610" s="1"/>
+      <c r="A1610" s="71">
+        <v>1790</v>
+      </c>
+      <c r="B1610" s="1" t="s">
+        <v>3172</v>
+      </c>
+      <c r="C1610" s="71">
+        <v>1</v>
+      </c>
+      <c r="D1610" s="71" t="s">
+        <v>1717</v>
+      </c>
+      <c r="F1610" s="71" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1610" s="71" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1610" s="71" t="s">
+        <v>3174</v>
+      </c>
+      <c r="I1610" s="71" t="s">
+        <v>3000</v>
+      </c>
     </row>
     <row r="1611" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1611" s="1"/>
+      <c r="A1611" s="71">
+        <v>1791</v>
+      </c>
+      <c r="B1611" s="1" t="s">
+        <v>3173</v>
+      </c>
+      <c r="C1611" s="71">
+        <v>2</v>
+      </c>
+      <c r="D1611" s="71" t="s">
+        <v>1717</v>
+      </c>
+      <c r="F1611" s="71" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1611" s="71" t="s">
+        <v>187</v>
+      </c>
+      <c r="H1611" s="71" t="s">
+        <v>3175</v>
+      </c>
+      <c r="I1611" s="71" t="s">
+        <v>3000</v>
+      </c>
     </row>
     <row r="1612" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1612" s="1"/>
+      <c r="A1612" s="71">
+        <v>1792</v>
+      </c>
+      <c r="B1612" s="1" t="s">
+        <v>3176</v>
+      </c>
+      <c r="C1612" s="71">
+        <v>4</v>
+      </c>
+      <c r="D1612" s="71" t="s">
+        <v>1720</v>
+      </c>
+      <c r="E1612" s="71" t="s">
+        <v>2923</v>
+      </c>
+      <c r="F1612" s="71" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1612" s="71" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1612" s="71" t="s">
+        <v>3180</v>
+      </c>
+      <c r="I1612" s="71" t="s">
+        <v>3029</v>
+      </c>
     </row>
     <row r="1613" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1613" s="1"/>
+      <c r="A1613" s="71">
+        <v>1793</v>
+      </c>
+      <c r="B1613" s="1" t="s">
+        <v>3177</v>
+      </c>
+      <c r="C1613" s="71">
+        <v>4</v>
+      </c>
+      <c r="D1613" s="71" t="s">
+        <v>1720</v>
+      </c>
+      <c r="E1613" s="71" t="s">
+        <v>2935</v>
+      </c>
+      <c r="F1613" s="71" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1613" s="71" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1613" s="71" t="s">
+        <v>3178</v>
+      </c>
+      <c r="I1613" s="71" t="s">
+        <v>3179</v>
+      </c>
     </row>
     <row r="1614" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1614" s="1"/>
+      <c r="A1614" s="71">
+        <v>1796</v>
+      </c>
+      <c r="B1614" s="1" t="s">
+        <v>3188</v>
+      </c>
+      <c r="C1614" s="71">
+        <v>1</v>
+      </c>
+      <c r="D1614" s="71" t="s">
+        <v>1717</v>
+      </c>
+      <c r="F1614" s="71" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1614" s="71" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1614" s="71" t="s">
+        <v>3195</v>
+      </c>
+      <c r="I1614" s="71" t="s">
+        <v>3000</v>
+      </c>
     </row>
     <row r="1615" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1615" s="1"/>
+      <c r="A1615" s="71">
+        <v>1797</v>
+      </c>
+      <c r="B1615" s="1" t="s">
+        <v>3189</v>
+      </c>
+      <c r="C1615" s="71">
+        <v>3</v>
+      </c>
+      <c r="D1615" s="71" t="s">
+        <v>1720</v>
+      </c>
+      <c r="E1615" s="71" t="s">
+        <v>2935</v>
+      </c>
+      <c r="F1615" s="71" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1615" s="71" t="s">
+        <v>457</v>
+      </c>
+      <c r="H1615" s="71" t="s">
+        <v>3196</v>
+      </c>
+      <c r="I1615" s="71" t="s">
+        <v>3029</v>
+      </c>
     </row>
     <row r="1616" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1616" s="1"/>
-    </row>
-    <row r="1617" spans="2:2" s="71" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1617" s="1"/>
-    </row>
-    <row r="1618" spans="2:2" s="71" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1618" s="1"/>
-    </row>
-    <row r="1619" spans="2:2" s="71" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1619" s="1"/>
-    </row>
-    <row r="1620" spans="2:2" s="71" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1620" s="1"/>
-    </row>
-    <row r="1621" spans="2:2" s="71" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1616" s="71">
+        <v>1798</v>
+      </c>
+      <c r="B1616" s="1" t="s">
+        <v>3190</v>
+      </c>
+      <c r="C1616" s="71">
+        <v>3</v>
+      </c>
+      <c r="D1616" s="71" t="s">
+        <v>1720</v>
+      </c>
+      <c r="F1616" s="71" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1616" s="71" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1616" s="71" t="s">
+        <v>3197</v>
+      </c>
+      <c r="I1616" s="71" t="s">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="1617" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1617" s="71">
+        <v>1799</v>
+      </c>
+      <c r="B1617" s="1" t="s">
+        <v>3191</v>
+      </c>
+      <c r="C1617" s="71">
+        <v>4</v>
+      </c>
+      <c r="D1617" s="71" t="s">
+        <v>1713</v>
+      </c>
+      <c r="F1617" s="71" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1617" s="71" t="s">
+        <v>121</v>
+      </c>
+      <c r="H1617" s="71" t="s">
+        <v>3198</v>
+      </c>
+      <c r="I1617" s="71" t="s">
+        <v>3199</v>
+      </c>
+    </row>
+    <row r="1618" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1618" s="71">
+        <v>1800</v>
+      </c>
+      <c r="B1618" s="1" t="s">
+        <v>3192</v>
+      </c>
+      <c r="C1618" s="71">
+        <v>1</v>
+      </c>
+      <c r="D1618" s="71" t="s">
+        <v>1720</v>
+      </c>
+      <c r="F1618" s="71" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1618" s="71" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1618" s="71" t="s">
+        <v>3200</v>
+      </c>
+      <c r="I1618" s="71" t="s">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="1619" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1619" s="71">
+        <v>1801</v>
+      </c>
+      <c r="B1619" s="1" t="s">
+        <v>3193</v>
+      </c>
+      <c r="C1619" s="71">
+        <v>3</v>
+      </c>
+      <c r="D1619" s="71" t="s">
+        <v>1720</v>
+      </c>
+      <c r="E1619" s="71" t="s">
+        <v>2924</v>
+      </c>
+      <c r="F1619" s="71" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1619" s="71" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1619" s="71" t="s">
+        <v>3201</v>
+      </c>
+      <c r="I1619" s="71" t="s">
+        <v>3018</v>
+      </c>
+    </row>
+    <row r="1620" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1620" s="71">
+        <v>1802</v>
+      </c>
+      <c r="B1620" s="1" t="s">
+        <v>3194</v>
+      </c>
+      <c r="C1620" s="71">
+        <v>4</v>
+      </c>
+      <c r="D1620" s="71" t="s">
+        <v>1720</v>
+      </c>
+      <c r="E1620" s="71" t="s">
+        <v>2935</v>
+      </c>
+      <c r="F1620" s="71" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1620" s="71" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1620" s="71" t="s">
+        <v>3202</v>
+      </c>
+      <c r="I1620" s="71" t="s">
+        <v>3002</v>
+      </c>
+    </row>
+    <row r="1621" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B1621" s="1"/>
     </row>
-    <row r="1622" spans="2:2" s="71" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1622" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B1622" s="1"/>
     </row>
-    <row r="1623" spans="2:2" s="71" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1623" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B1623" s="1"/>
     </row>
-    <row r="1624" spans="2:2" s="71" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1624" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B1624" s="1"/>
     </row>
-    <row r="1625" spans="2:2" s="71" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1625" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B1625" s="1"/>
     </row>
-    <row r="1626" spans="2:2" s="71" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1626" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B1626" s="1"/>
     </row>
-    <row r="1627" spans="2:2" s="71" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1627" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B1627" s="1"/>
     </row>
-    <row r="1628" spans="2:2" s="71" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1628" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B1628" s="1"/>
     </row>
-    <row r="1629" spans="2:2" s="71" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1629" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B1629" s="1"/>
     </row>
-    <row r="1630" spans="2:2" s="71" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1630" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B1630" s="1"/>
     </row>
-    <row r="1631" spans="2:2" s="71" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1631" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B1631" s="1"/>
     </row>
-    <row r="1632" spans="2:2" s="71" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1632" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B1632" s="1"/>
     </row>
     <row r="1633" spans="2:2" s="71" customFormat="1" x14ac:dyDescent="0.45">
@@ -48262,38 +48719,47 @@
     <row r="1656" spans="1:8" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B1656" s="1"/>
     </row>
-    <row r="1657" spans="1:8" s="62" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1657" spans="1:8" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B1657" s="1"/>
     </row>
-    <row r="1658" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A1658" s="75" t="s">
+    <row r="1658" spans="1:8" s="71" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1658" s="1"/>
+    </row>
+    <row r="1659" spans="1:8" s="71" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1659" s="1"/>
+    </row>
+    <row r="1660" spans="1:8" s="62" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1660" s="1"/>
+    </row>
+    <row r="1661" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A1661" s="76" t="s">
         <v>1721</v>
       </c>
-      <c r="B1658" s="75"/>
-      <c r="C1658" s="75"/>
-      <c r="D1658" s="75"/>
-      <c r="E1658" s="75"/>
-      <c r="F1658" s="75"/>
-      <c r="G1658" s="75"/>
-      <c r="H1658" s="75"/>
-    </row>
-    <row r="1659" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A1659" s="76" t="s">
+      <c r="B1661" s="76"/>
+      <c r="C1661" s="76"/>
+      <c r="D1661" s="76"/>
+      <c r="E1661" s="76"/>
+      <c r="F1661" s="76"/>
+      <c r="G1661" s="76"/>
+      <c r="H1661" s="76"/>
+    </row>
+    <row r="1662" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A1662" s="77" t="s">
         <v>2760</v>
       </c>
-      <c r="B1659" s="76"/>
-      <c r="C1659" s="76"/>
-      <c r="D1659" s="76"/>
-      <c r="E1659" s="76"/>
-      <c r="F1659" s="76"/>
-      <c r="G1659" s="76"/>
-      <c r="H1659" s="76"/>
+      <c r="B1662" s="77"/>
+      <c r="C1662" s="77"/>
+      <c r="D1662" s="77"/>
+      <c r="E1662" s="77"/>
+      <c r="F1662" s="77"/>
+      <c r="G1662" s="77"/>
+      <c r="H1662" s="77"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J1659" xr:uid="{CB07CE66-8F15-46FF-A90A-43FDB2DB428F}"/>
+  <autoFilter ref="A1:J1662" xr:uid="{CB07CE66-8F15-46FF-A90A-43FDB2DB428F}"/>
   <mergeCells count="2">
-    <mergeCell ref="A1658:H1658"/>
-    <mergeCell ref="A1659:H1659"/>
+    <mergeCell ref="A1661:H1661"/>
+    <mergeCell ref="A1662:H1662"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" display="https://leetcode.com/problems/zigzag-conversion" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -49654,10 +50120,10 @@
     <hyperlink ref="B1569" r:id="rId1356" display="https://leetcode.com/problems/find-the-highest-altitude" xr:uid="{B2085815-293D-42BF-A84D-6F7F0CC198BE}"/>
     <hyperlink ref="B1573" r:id="rId1357" display="https://leetcode.com/problems/latest-time-by-replacing-hidden-digits" xr:uid="{FFB49099-001C-44BA-B278-B00A3A11671D}"/>
     <hyperlink ref="B1578" r:id="rId1358" display="https://leetcode.com/problems/maximum-number-of-balls-in-a-box" xr:uid="{18366F0A-A3CF-4126-BA67-AE626616A691}"/>
-    <hyperlink ref="B1582" r:id="rId1359" display="https://leetcode.com/problems/sum-of-unique-elements" xr:uid="{B93FC0DC-83AD-4019-B434-79BA3ECF3C27}"/>
-    <hyperlink ref="B1583" r:id="rId1360" display="https://leetcode.com/problems/check-if-array-is-sorted-and-rotated" xr:uid="{EFE2F4D1-0950-49F4-B136-E72B4AF0D449}"/>
-    <hyperlink ref="B1587" r:id="rId1361" display="https://leetcode.com/problems/design-most-recently-used-queue" xr:uid="{74130DE4-2D04-4D3B-BEF6-58D20F61C5E0}"/>
-    <hyperlink ref="B1581" r:id="rId1362" display="https://leetcode.com/problems/maximum-subarray-sum-after-one-operation" xr:uid="{9ABF6461-8E02-44BB-9725-D17CBB89070F}"/>
+    <hyperlink ref="B1583" r:id="rId1359" display="https://leetcode.com/problems/sum-of-unique-elements" xr:uid="{B93FC0DC-83AD-4019-B434-79BA3ECF3C27}"/>
+    <hyperlink ref="B1584" r:id="rId1360" display="https://leetcode.com/problems/check-if-array-is-sorted-and-rotated" xr:uid="{EFE2F4D1-0950-49F4-B136-E72B4AF0D449}"/>
+    <hyperlink ref="B1588" r:id="rId1361" display="https://leetcode.com/problems/design-most-recently-used-queue" xr:uid="{74130DE4-2D04-4D3B-BEF6-58D20F61C5E0}"/>
+    <hyperlink ref="B1582" r:id="rId1362" display="https://leetcode.com/problems/maximum-subarray-sum-after-one-operation" xr:uid="{9ABF6461-8E02-44BB-9725-D17CBB89070F}"/>
     <hyperlink ref="B1577" r:id="rId1363" display="https://leetcode.com/problems/find-distance-in-a-binary-tree" xr:uid="{92429178-67ED-4AD2-859E-9E026EEAF7BD}"/>
     <hyperlink ref="B1563" r:id="rId1364" display="https://leetcode.com/problems/checking-existence-of-edge-length-limited-paths-ii" xr:uid="{A09CC7F8-57B2-4D18-8FCA-F1B91534ED7F}"/>
     <hyperlink ref="B1554" r:id="rId1365" display="https://leetcode.com/problems/sum-of-special-evenly-spaced-elements-in-array" xr:uid="{6CC25C62-1D5D-4F0D-96CA-DD0F34BB1CA9}"/>
@@ -49669,30 +50135,44 @@
     <hyperlink ref="B1576" r:id="rId1371" display="https://leetcode.com/problems/building-boxes" xr:uid="{BAA2B99F-FF9E-4F72-B24E-7E96F1A3F674}"/>
     <hyperlink ref="B1579" r:id="rId1372" display="https://leetcode.com/problems/restore-the-array-from-adjacent-pairs" xr:uid="{700623B8-2FF0-4710-A00D-C7B2A0A7ABA6}"/>
     <hyperlink ref="B1580" r:id="rId1373" display="https://leetcode.com/problems/can-you-eat-your-favorite-candy-on-your-favorite-day" xr:uid="{BEE070B5-F64C-4698-BCE5-1E36A8583440}"/>
-    <hyperlink ref="B1584" r:id="rId1374" display="https://leetcode.com/problems/maximum-score-from-removing-stones" xr:uid="{B7AA18C7-E58A-447A-915A-42D4F13D6310}"/>
-    <hyperlink ref="B1586" r:id="rId1375" display="https://leetcode.com/problems/closest-subsequence-sum" xr:uid="{F32459B0-DF4C-462A-9356-83F25EC7DAA2}"/>
-    <hyperlink ref="B1605" r:id="rId1376" display="https://leetcode.com/problems/number-of-restricted-paths-from-first-to-last-node" xr:uid="{7E8F4145-52CC-410A-8E6D-496A93BC9F35}"/>
-    <hyperlink ref="B1604" r:id="rId1377" display="https://leetcode.com/problems/minimum-elements-to-add-to-form-a-given-sum" xr:uid="{4588D88F-C977-4AC1-9131-6787B276C83B}"/>
-    <hyperlink ref="B1603" r:id="rId1378" display="https://leetcode.com/problems/check-if-binary-string-has-at-most-one-segment-of-ones" xr:uid="{CE9F4064-AD9A-45F5-8FA5-3D837B5BD888}"/>
-    <hyperlink ref="B1602" r:id="rId1379" display="https://leetcode.com/problems/sum-of-beauty-of-all-substrings" xr:uid="{F5D12DA0-6DB0-4E8E-A268-602716EC1E07}"/>
-    <hyperlink ref="B1601" r:id="rId1380" display="https://leetcode.com/problems/check-if-number-is-a-sum-of-powers-of-three" xr:uid="{4602803B-7988-4D38-ABF2-61BC86BCDAC5}"/>
-    <hyperlink ref="B1600" r:id="rId1381" display="https://leetcode.com/problems/find-nearest-point-that-has-the-same-x-or-y-coordinate" xr:uid="{5F651CEF-E9E7-4A94-8963-9659B92CF321}"/>
-    <hyperlink ref="B1599" r:id="rId1382" display="https://leetcode.com/problems/equal-sum-arrays-with-minimum-number-of-operations" xr:uid="{C7244173-A5DF-4CFD-8B2A-1EE21E557BC1}"/>
-    <hyperlink ref="B1598" r:id="rId1383" display="https://leetcode.com/problems/closest-dessert-cost" xr:uid="{F7BEECC4-44E4-47B9-8596-B7703815C60F}"/>
-    <hyperlink ref="B1597" r:id="rId1384" display="https://leetcode.com/problems/count-items-matching-a-rule" xr:uid="{C7425EBD-8CAE-4C06-8E35-71176FE3E292}"/>
-    <hyperlink ref="B1588" r:id="rId1385" display="https://leetcode.com/problems/minimum-changes-to-make-alternating-binary-string" xr:uid="{5E47CEE9-BA48-462F-B4F8-1AF99888DEB3}"/>
-    <hyperlink ref="B1589" r:id="rId1386" display="https://leetcode.com/problems/count-number-of-homogenous-substrings" xr:uid="{9343BDD1-5100-4986-BADF-74E77C30CD7C}"/>
-    <hyperlink ref="B1590" r:id="rId1387" display="https://leetcode.com/problems/minimum-limit-of-balls-in-a-bag" xr:uid="{F6C3BBF6-E091-49FF-8239-45C98E39DC8C}"/>
-    <hyperlink ref="B1591" r:id="rId1388" display="https://leetcode.com/problems/longest-nice-substring" xr:uid="{8E4DAA57-D075-4129-AAC9-2F7D747D4861}"/>
-    <hyperlink ref="B1592" r:id="rId1389" display="https://leetcode.com/problems/form-array-by-concatenating-subarrays-of-another-array" xr:uid="{BBB12904-D1D8-45C5-A73B-4D227A33C7A0}"/>
-    <hyperlink ref="B1593" r:id="rId1390" display="https://leetcode.com/problems/map-of-highest-peak" xr:uid="{D94EC984-B85A-480E-8580-8F6D0807308B}"/>
-    <hyperlink ref="B1594" r:id="rId1391" display="https://leetcode.com/problems/merge-strings-alternately" xr:uid="{10A36CE3-B9BF-4B0B-A7DF-E0BA62BBC363}"/>
-    <hyperlink ref="B1595" r:id="rId1392" display="https://leetcode.com/problems/minimum-number-of-operations-to-move-all-balls-to-each-box" xr:uid="{D44C79CA-AF26-42E8-BA0E-F083D426240B}"/>
-    <hyperlink ref="B1596" r:id="rId1393" display="https://leetcode.com/problems/maximum-score-from-performing-multiplication-operations" xr:uid="{CBFA2C81-65C2-4B16-BD7D-228C47EBD55C}"/>
+    <hyperlink ref="B1585" r:id="rId1374" display="https://leetcode.com/problems/maximum-score-from-removing-stones" xr:uid="{B7AA18C7-E58A-447A-915A-42D4F13D6310}"/>
+    <hyperlink ref="B1587" r:id="rId1375" display="https://leetcode.com/problems/closest-subsequence-sum" xr:uid="{F32459B0-DF4C-462A-9356-83F25EC7DAA2}"/>
+    <hyperlink ref="B1608" r:id="rId1376" display="https://leetcode.com/problems/number-of-restricted-paths-from-first-to-last-node" xr:uid="{7E8F4145-52CC-410A-8E6D-496A93BC9F35}"/>
+    <hyperlink ref="B1607" r:id="rId1377" display="https://leetcode.com/problems/minimum-elements-to-add-to-form-a-given-sum" xr:uid="{4588D88F-C977-4AC1-9131-6787B276C83B}"/>
+    <hyperlink ref="B1604" r:id="rId1378" display="https://leetcode.com/problems/sum-of-beauty-of-all-substrings" xr:uid="{F5D12DA0-6DB0-4E8E-A268-602716EC1E07}"/>
+    <hyperlink ref="B1603" r:id="rId1379" display="https://leetcode.com/problems/check-if-number-is-a-sum-of-powers-of-three" xr:uid="{4602803B-7988-4D38-ABF2-61BC86BCDAC5}"/>
+    <hyperlink ref="B1602" r:id="rId1380" display="https://leetcode.com/problems/find-nearest-point-that-has-the-same-x-or-y-coordinate" xr:uid="{5F651CEF-E9E7-4A94-8963-9659B92CF321}"/>
+    <hyperlink ref="B1601" r:id="rId1381" display="https://leetcode.com/problems/equal-sum-arrays-with-minimum-number-of-operations" xr:uid="{C7244173-A5DF-4CFD-8B2A-1EE21E557BC1}"/>
+    <hyperlink ref="B1600" r:id="rId1382" display="https://leetcode.com/problems/closest-dessert-cost" xr:uid="{F7BEECC4-44E4-47B9-8596-B7703815C60F}"/>
+    <hyperlink ref="B1599" r:id="rId1383" display="https://leetcode.com/problems/count-items-matching-a-rule" xr:uid="{C7425EBD-8CAE-4C06-8E35-71176FE3E292}"/>
+    <hyperlink ref="B1589" r:id="rId1384" display="https://leetcode.com/problems/minimum-changes-to-make-alternating-binary-string" xr:uid="{5E47CEE9-BA48-462F-B4F8-1AF99888DEB3}"/>
+    <hyperlink ref="B1590" r:id="rId1385" display="https://leetcode.com/problems/count-number-of-homogenous-substrings" xr:uid="{9343BDD1-5100-4986-BADF-74E77C30CD7C}"/>
+    <hyperlink ref="B1591" r:id="rId1386" display="https://leetcode.com/problems/minimum-limit-of-balls-in-a-bag" xr:uid="{F6C3BBF6-E091-49FF-8239-45C98E39DC8C}"/>
+    <hyperlink ref="B1593" r:id="rId1387" display="https://leetcode.com/problems/longest-nice-substring" xr:uid="{8E4DAA57-D075-4129-AAC9-2F7D747D4861}"/>
+    <hyperlink ref="B1594" r:id="rId1388" display="https://leetcode.com/problems/form-array-by-concatenating-subarrays-of-another-array" xr:uid="{BBB12904-D1D8-45C5-A73B-4D227A33C7A0}"/>
+    <hyperlink ref="B1595" r:id="rId1389" display="https://leetcode.com/problems/map-of-highest-peak" xr:uid="{D94EC984-B85A-480E-8580-8F6D0807308B}"/>
+    <hyperlink ref="B1596" r:id="rId1390" display="https://leetcode.com/problems/merge-strings-alternately" xr:uid="{10A36CE3-B9BF-4B0B-A7DF-E0BA62BBC363}"/>
+    <hyperlink ref="B1597" r:id="rId1391" display="https://leetcode.com/problems/minimum-number-of-operations-to-move-all-balls-to-each-box" xr:uid="{D44C79CA-AF26-42E8-BA0E-F083D426240B}"/>
+    <hyperlink ref="B1598" r:id="rId1392" display="https://leetcode.com/problems/maximum-score-from-performing-multiplication-operations" xr:uid="{CBFA2C81-65C2-4B16-BD7D-228C47EBD55C}"/>
+    <hyperlink ref="B1609" r:id="rId1393" display="https://leetcode.com/problems/make-the-xor-of-all-segments-equal-to-zero" xr:uid="{F9F7F3F8-AE15-4C3F-90C0-C87C5787CF85}"/>
+    <hyperlink ref="B1610" r:id="rId1394" display="https://leetcode.com/problems/check-if-one-string-swap-can-make-strings-equal" xr:uid="{94C3AB55-2DA1-4F06-A31A-03B510CB7FE6}"/>
+    <hyperlink ref="B1611" r:id="rId1395" display="https://leetcode.com/problems/find-center-of-star-graph" xr:uid="{92C112DA-1E26-4B3F-A26D-5485D079770C}"/>
+    <hyperlink ref="B1613" r:id="rId1396" display="https://leetcode.com/problems/maximum-score-of-a-good-subarray" xr:uid="{04CA3301-F2BD-44FE-8D80-D37D23948A03}"/>
+    <hyperlink ref="B1606" r:id="rId1397" display="https://leetcode.com/problems/check-if-binary-string-has-at-most-one-segment-of-ones" xr:uid="{CE9F4064-AD9A-45F5-8FA5-3D837B5BD888}"/>
+    <hyperlink ref="B1605" r:id="rId1398" display="https://leetcode.com/problems/count-pairs-of-nodes" xr:uid="{4BE12A90-1128-42D6-8B67-87E8493D607F}"/>
+    <hyperlink ref="B1581" r:id="rId1399" display="https://leetcode.com/problems/palindrome-partitioning-iv" xr:uid="{E9727F4E-397D-4808-93D3-81A8EA2BA6FA}"/>
+    <hyperlink ref="B1592" r:id="rId1400" display="https://leetcode.com/problems/minimum-degree-of-a-connected-trio-in-a-graph" xr:uid="{2139E7CC-36A0-4372-9D37-5FD513CDD9B0}"/>
+    <hyperlink ref="B1614" r:id="rId1401" display="https://leetcode.com/problems/second-largest-digit-in-a-string" xr:uid="{4A66E7D8-75C8-4F8E-B9DB-8E399F951B16}"/>
+    <hyperlink ref="B1615" r:id="rId1402" display="https://leetcode.com/problems/design-authentication-manager" xr:uid="{480710DA-1C7D-455D-8D12-167C92DBF633}"/>
+    <hyperlink ref="B1616" r:id="rId1403" display="https://leetcode.com/problems/maximum-number-of-consecutive-values-you-can-make" xr:uid="{194727C9-C65E-44E7-A8A3-E7D9E7AD678B}"/>
+    <hyperlink ref="B1617" r:id="rId1404" display="https://leetcode.com/problems/maximize-score-after-n-operations" xr:uid="{98125BD7-0B8C-4106-A5E4-C55938B917E0}"/>
+    <hyperlink ref="B1618" r:id="rId1405" display="https://leetcode.com/problems/maximum-ascending-subarray-sum" xr:uid="{4206F736-48C2-4C51-BC45-0F7AA538AA31}"/>
+    <hyperlink ref="B1619" r:id="rId1406" display="https://leetcode.com/problems/number-of-orders-in-the-backlog" xr:uid="{A4B7F67E-4F72-4FF8-9023-A90CE712BA15}"/>
+    <hyperlink ref="B1620" r:id="rId1407" display="https://leetcode.com/problems/maximum-value-at-a-given-index-in-a-bounded-array" xr:uid="{E6D3D4E3-7FB4-464D-9389-88A8FB9AB699}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1394"/>
-  <drawing r:id="rId1395"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1408"/>
+  <drawing r:id="rId1409"/>
 </worksheet>
 </file>
 

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91F381ED-9050-476F-B282-40B2833F91C9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD0BF362-CFE7-4044-9B65-A49EB3D45DD6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8642" uniqueCount="3203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8673" uniqueCount="3213">
   <si>
     <t>Difficulty</t>
   </si>
@@ -9646,6 +9646,36 @@
   </si>
   <si>
     <t>Guess number for peak, calculate sum in array</t>
+  </si>
+  <si>
+    <t>Count Pairs With XOR in a Range</t>
+  </si>
+  <si>
+    <t>Number of Different Integers in a String</t>
+  </si>
+  <si>
+    <t>Minimum Number of Operations to Reinitialize a Permutation</t>
+  </si>
+  <si>
+    <t>Evaluate the Bracket Pairs of a String</t>
+  </si>
+  <si>
+    <t>Maximize Number of Nice Divisors</t>
+  </si>
+  <si>
+    <t>Trie node based on bits</t>
+  </si>
+  <si>
+    <t>Treat leading zero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loop index until see original </t>
+  </si>
+  <si>
+    <t>Parse and match</t>
+  </si>
+  <si>
+    <t>Split sum by 3s and remaing by 2s</t>
   </si>
 </sst>
 </file>
@@ -10159,8 +10189,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J1662"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1606" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I1620" sqref="I1620"/>
+    <sheetView tabSelected="1" topLeftCell="A1601" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A1626" sqref="A1626"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -27577,7 +27607,7 @@
         <v>1044</v>
       </c>
       <c r="C759">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D759" t="s">
         <v>1718</v>
@@ -48612,19 +48642,137 @@
       </c>
     </row>
     <row r="1621" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1621" s="1"/>
+      <c r="A1621" s="71">
+        <v>1803</v>
+      </c>
+      <c r="B1621" s="1" t="s">
+        <v>3203</v>
+      </c>
+      <c r="C1621" s="71">
+        <v>4</v>
+      </c>
+      <c r="D1621" s="71" t="s">
+        <v>2810</v>
+      </c>
+      <c r="F1621" s="71" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1621" s="71" t="s">
+        <v>134</v>
+      </c>
+      <c r="H1621" s="71" t="s">
+        <v>3208</v>
+      </c>
+      <c r="I1621" s="71" t="s">
+        <v>3018</v>
+      </c>
     </row>
     <row r="1622" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1622" s="1"/>
+      <c r="A1622" s="71">
+        <v>1805</v>
+      </c>
+      <c r="B1622" s="1" t="s">
+        <v>3204</v>
+      </c>
+      <c r="C1622" s="71">
+        <v>2</v>
+      </c>
+      <c r="D1622" s="71" t="s">
+        <v>1768</v>
+      </c>
+      <c r="E1622" s="71" t="s">
+        <v>2935</v>
+      </c>
+      <c r="F1622" s="71" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1622" s="71" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1622" s="71" t="s">
+        <v>3209</v>
+      </c>
+      <c r="I1622" s="71" t="s">
+        <v>3000</v>
+      </c>
     </row>
     <row r="1623" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1623" s="1"/>
+      <c r="A1623" s="71">
+        <v>1806</v>
+      </c>
+      <c r="B1623" s="1" t="s">
+        <v>3205</v>
+      </c>
+      <c r="C1623" s="71">
+        <v>2</v>
+      </c>
+      <c r="D1623" s="71" t="s">
+        <v>1720</v>
+      </c>
+      <c r="F1623" s="71" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1623" s="71" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1623" s="71" t="s">
+        <v>3210</v>
+      </c>
+      <c r="I1623" s="71" t="s">
+        <v>3000</v>
+      </c>
     </row>
     <row r="1624" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1624" s="1"/>
+      <c r="A1624" s="71">
+        <v>1807</v>
+      </c>
+      <c r="B1624" s="1" t="s">
+        <v>3206</v>
+      </c>
+      <c r="C1624" s="71">
+        <v>2</v>
+      </c>
+      <c r="D1624" s="71" t="s">
+        <v>1720</v>
+      </c>
+      <c r="F1624" s="71" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1624" s="71" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1624" s="71" t="s">
+        <v>3211</v>
+      </c>
+      <c r="I1624" s="71" t="s">
+        <v>3000</v>
+      </c>
     </row>
     <row r="1625" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1625" s="1"/>
+      <c r="A1625" s="71">
+        <v>1808</v>
+      </c>
+      <c r="B1625" s="1" t="s">
+        <v>3207</v>
+      </c>
+      <c r="C1625" s="71">
+        <v>4</v>
+      </c>
+      <c r="D1625" s="71" t="s">
+        <v>1713</v>
+      </c>
+      <c r="F1625" s="71" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1625" s="71" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1625" s="71" t="s">
+        <v>3212</v>
+      </c>
+      <c r="I1625" s="71" t="s">
+        <v>3002</v>
+      </c>
     </row>
     <row r="1626" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B1626" s="1"/>
@@ -50169,10 +50317,15 @@
     <hyperlink ref="B1618" r:id="rId1405" display="https://leetcode.com/problems/maximum-ascending-subarray-sum" xr:uid="{4206F736-48C2-4C51-BC45-0F7AA538AA31}"/>
     <hyperlink ref="B1619" r:id="rId1406" display="https://leetcode.com/problems/number-of-orders-in-the-backlog" xr:uid="{A4B7F67E-4F72-4FF8-9023-A90CE712BA15}"/>
     <hyperlink ref="B1620" r:id="rId1407" display="https://leetcode.com/problems/maximum-value-at-a-given-index-in-a-bounded-array" xr:uid="{E6D3D4E3-7FB4-464D-9389-88A8FB9AB699}"/>
+    <hyperlink ref="B1621" r:id="rId1408" display="https://leetcode.com/problems/count-pairs-with-xor-in-a-range" xr:uid="{88492775-D026-41EA-B4F6-EE9E43625F64}"/>
+    <hyperlink ref="B1622" r:id="rId1409" display="https://leetcode.com/problems/number-of-different-integers-in-a-string" xr:uid="{9DA3EFFF-6694-482A-91E6-051A5CCA6C92}"/>
+    <hyperlink ref="B1623" r:id="rId1410" display="https://leetcode.com/problems/minimum-number-of-operations-to-reinitialize-a-permutation" xr:uid="{5DBBFB2B-FAB5-4931-AB4C-41C33CCE3E9F}"/>
+    <hyperlink ref="B1624" r:id="rId1411" display="https://leetcode.com/problems/evaluate-the-bracket-pairs-of-a-string" xr:uid="{E6654C7A-7E01-4ED1-BF88-AEE3F00C826C}"/>
+    <hyperlink ref="B1625" r:id="rId1412" display="https://leetcode.com/problems/maximize-number-of-nice-divisors" xr:uid="{78626747-6249-42C3-9986-9D393FEA3FE8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1408"/>
-  <drawing r:id="rId1409"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1413"/>
+  <drawing r:id="rId1414"/>
 </worksheet>
 </file>
 

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD0BF362-CFE7-4044-9B65-A49EB3D45DD6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EA7E449-A481-4046-8F63-2BD7444AA8F4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="SQL" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'LeetCode Algorithm'!$A$1:$J$1662</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'LeetCode Algorithm'!$A$1:$J$1664</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8673" uniqueCount="3213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8736" uniqueCount="3236">
   <si>
     <t>Difficulty</t>
   </si>
@@ -9676,6 +9676,75 @@
   </si>
   <si>
     <t>Split sum by 3s and remaing by 2s</t>
+  </si>
+  <si>
+    <t>Maximize Palindrome Length From Subsequences</t>
+  </si>
+  <si>
+    <t>From center and spread, only take result across two strings.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tree of Coprimes </t>
+  </si>
+  <si>
+    <t>Determine Color of a Chessboard Square</t>
+  </si>
+  <si>
+    <t>Check row and column even and odd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sentence Similarity III </t>
+  </si>
+  <si>
+    <t>Check prefix and postfix from short sentence</t>
+  </si>
+  <si>
+    <t>N * E</t>
+  </si>
+  <si>
+    <t>Count Nice Pairs in an Array</t>
+  </si>
+  <si>
+    <t>Number of Different Subsequences GCDs</t>
+  </si>
+  <si>
+    <t>First set all number as candidate, then pick a small number see if its multiples are candidates and also prime</t>
+  </si>
+  <si>
+    <t>N * LOG (N)</t>
+  </si>
+  <si>
+    <t>Minimum Absolute Sum Difference</t>
+  </si>
+  <si>
+    <t>Binary search to get the closet</t>
+  </si>
+  <si>
+    <t>Finding the Users Active Minutes </t>
+  </si>
+  <si>
+    <t>Count numbers in slots.</t>
+  </si>
+  <si>
+    <t>Truncate Sentence</t>
+  </si>
+  <si>
+    <t>Split words</t>
+  </si>
+  <si>
+    <t>Maximum Number of Groups Getting Fresh Donuts </t>
+  </si>
+  <si>
+    <t>First satisfy by leftover, then check all possibility</t>
+  </si>
+  <si>
+    <t>N !</t>
+  </si>
+  <si>
+    <t>Match X - Rev(X)</t>
+  </si>
+  <si>
+    <t>Carry possible values to children</t>
   </si>
 </sst>
 </file>
@@ -9720,7 +9789,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -9747,6 +9816,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -10187,10 +10257,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J1662"/>
+  <dimension ref="A1:J1664"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1601" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A1626" sqref="A1626"/>
+    <sheetView tabSelected="1" topLeftCell="A1578" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A1578" sqref="A1578"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -47964,56 +48034,53 @@
         <v>3045</v>
       </c>
     </row>
-    <row r="1596" spans="1:9" s="74" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1596" s="74">
-        <v>1768</v>
+    <row r="1596" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1596" s="76">
+        <v>1766</v>
       </c>
       <c r="B1596" s="1" t="s">
-        <v>3147</v>
-      </c>
-      <c r="C1596" s="74">
-        <v>1</v>
-      </c>
-      <c r="D1596" s="74" t="s">
-        <v>1717</v>
-      </c>
-      <c r="F1596" s="74" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1596" s="74" t="s">
-        <v>36</v>
-      </c>
-      <c r="H1596" s="74" t="s">
-        <v>3156</v>
-      </c>
-      <c r="I1596" s="74" t="s">
-        <v>3000</v>
+        <v>3215</v>
+      </c>
+      <c r="C1596" s="76">
+        <v>4</v>
+      </c>
+      <c r="D1596" s="76" t="s">
+        <v>1713</v>
+      </c>
+      <c r="F1596" s="76" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1596" s="76" t="s">
+        <v>121</v>
+      </c>
+      <c r="H1596" s="76" t="s">
+        <v>3235</v>
+      </c>
+      <c r="I1596" s="76" t="s">
+        <v>3081</v>
       </c>
     </row>
     <row r="1597" spans="1:9" s="74" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1597" s="74">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="B1597" s="1" t="s">
-        <v>3148</v>
+        <v>3147</v>
       </c>
       <c r="C1597" s="74">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1597" s="74" t="s">
-        <v>1720</v>
-      </c>
-      <c r="E1597" s="74" t="s">
-        <v>2924</v>
+        <v>1717</v>
       </c>
       <c r="F1597" s="74" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G1597" s="74" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="H1597" s="74" t="s">
-        <v>3157</v>
+        <v>3156</v>
       </c>
       <c r="I1597" s="74" t="s">
         <v>3000</v>
@@ -48021,470 +48088,476 @@
     </row>
     <row r="1598" spans="1:9" s="74" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1598" s="74">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="B1598" s="1" t="s">
-        <v>3149</v>
+        <v>3148</v>
       </c>
       <c r="C1598" s="74">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1598" s="74" t="s">
         <v>1720</v>
       </c>
       <c r="E1598" s="74" t="s">
-        <v>2935</v>
+        <v>2924</v>
       </c>
       <c r="F1598" s="74" t="s">
         <v>9</v>
       </c>
       <c r="G1598" s="74" t="s">
-        <v>121</v>
+        <v>21</v>
       </c>
       <c r="H1598" s="74" t="s">
-        <v>3158</v>
+        <v>3157</v>
       </c>
       <c r="I1598" s="74" t="s">
-        <v>3026</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="1599" spans="1:9" s="74" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1599" s="74">
+        <v>1770</v>
+      </c>
+      <c r="B1599" s="1" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C1599" s="74">
+        <v>4</v>
+      </c>
+      <c r="D1599" s="74" t="s">
+        <v>1720</v>
+      </c>
+      <c r="E1599" s="74" t="s">
+        <v>2935</v>
+      </c>
+      <c r="F1599" s="74" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1599" s="74" t="s">
+        <v>121</v>
+      </c>
+      <c r="H1599" s="74" t="s">
+        <v>3158</v>
+      </c>
+      <c r="I1599" s="74" t="s">
+        <v>3026</v>
+      </c>
+    </row>
+    <row r="1600" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1600" s="76">
+        <v>1771</v>
+      </c>
+      <c r="B1600" s="1" t="s">
+        <v>3213</v>
+      </c>
+      <c r="C1600" s="76">
+        <v>4</v>
+      </c>
+      <c r="D1600" s="76" t="s">
+        <v>1720</v>
+      </c>
+      <c r="E1600" s="76" t="s">
+        <v>2935</v>
+      </c>
+      <c r="F1600" s="76" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1600" s="76" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1600" s="76" t="s">
+        <v>3214</v>
+      </c>
+      <c r="I1600" s="76" t="s">
+        <v>3026</v>
+      </c>
+    </row>
+    <row r="1601" spans="1:9" s="74" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1601" s="74">
         <v>1773</v>
       </c>
-      <c r="B1599" s="1" t="s">
+      <c r="B1601" s="1" t="s">
         <v>3140</v>
       </c>
-      <c r="C1599" s="74">
+      <c r="C1601" s="74">
         <v>1</v>
       </c>
-      <c r="D1599" s="74" t="s">
+      <c r="D1601" s="74" t="s">
         <v>1717</v>
       </c>
-      <c r="F1599" s="74" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1599" s="74" t="s">
+      <c r="F1601" s="74" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1601" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="H1599" s="74" t="s">
+      <c r="H1601" s="74" t="s">
         <v>3159</v>
       </c>
-      <c r="I1599" s="74" t="s">
+      <c r="I1601" s="74" t="s">
         <v>3000</v>
       </c>
     </row>
-    <row r="1600" spans="1:9" s="74" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1600" s="74">
+    <row r="1602" spans="1:9" s="74" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1602" s="74">
         <v>1774</v>
       </c>
-      <c r="B1600" s="1" t="s">
+      <c r="B1602" s="1" t="s">
         <v>3139</v>
       </c>
-      <c r="C1600" s="74">
-        <v>3</v>
-      </c>
-      <c r="D1600" s="74" t="s">
+      <c r="C1602" s="74">
+        <v>3</v>
+      </c>
+      <c r="D1602" s="74" t="s">
         <v>1720</v>
       </c>
-      <c r="E1600" s="74" t="s">
+      <c r="E1602" s="74" t="s">
         <v>2935</v>
       </c>
-      <c r="F1600" s="74" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1600" s="74" t="s">
+      <c r="F1602" s="74" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1602" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="H1600" s="74" t="s">
+      <c r="H1602" s="74" t="s">
         <v>3160</v>
       </c>
-      <c r="I1600" s="74" t="s">
+      <c r="I1602" s="74" t="s">
         <v>3161</v>
-      </c>
-    </row>
-    <row r="1601" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1601" s="71">
-        <v>1775</v>
-      </c>
-      <c r="B1601" s="1" t="s">
-        <v>3138</v>
-      </c>
-      <c r="C1601" s="71">
-        <v>3</v>
-      </c>
-      <c r="D1601" s="71" t="s">
-        <v>2810</v>
-      </c>
-      <c r="F1601" s="71" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1601" s="71" t="s">
-        <v>41</v>
-      </c>
-      <c r="H1601" s="71" t="s">
-        <v>3162</v>
-      </c>
-      <c r="I1601" s="71" t="s">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="1602" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1602" s="71">
-        <v>1779</v>
-      </c>
-      <c r="B1602" s="1" t="s">
-        <v>3137</v>
-      </c>
-      <c r="C1602" s="71">
-        <v>1</v>
-      </c>
-      <c r="D1602" s="71" t="s">
-        <v>1717</v>
-      </c>
-      <c r="F1602" s="71" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1602" s="71" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1602" s="71" t="s">
-        <v>3163</v>
-      </c>
-      <c r="I1602" s="71" t="s">
-        <v>3000</v>
       </c>
     </row>
     <row r="1603" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1603" s="71">
-        <v>1780</v>
+        <v>1775</v>
       </c>
       <c r="B1603" s="1" t="s">
-        <v>3136</v>
+        <v>3138</v>
       </c>
       <c r="C1603" s="71">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1603" s="71" t="s">
-        <v>1720</v>
+        <v>2810</v>
       </c>
       <c r="F1603" s="71" t="s">
         <v>9</v>
       </c>
       <c r="G1603" s="71" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="H1603" s="71" t="s">
-        <v>3164</v>
+        <v>3162</v>
       </c>
       <c r="I1603" s="71" t="s">
-        <v>3002</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="1604" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1604" s="71">
-        <v>1781</v>
+        <v>1779</v>
       </c>
       <c r="B1604" s="1" t="s">
-        <v>3135</v>
+        <v>3137</v>
       </c>
       <c r="C1604" s="71">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1604" s="71" t="s">
+        <v>1717</v>
+      </c>
+      <c r="F1604" s="71" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1604" s="71" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1604" s="71" t="s">
+        <v>3163</v>
+      </c>
+      <c r="I1604" s="71" t="s">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="1605" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1605" s="71">
+        <v>1780</v>
+      </c>
+      <c r="B1605" s="1" t="s">
+        <v>3136</v>
+      </c>
+      <c r="C1605" s="71">
+        <v>2</v>
+      </c>
+      <c r="D1605" s="71" t="s">
         <v>1720</v>
       </c>
-      <c r="E1604" s="71" t="s">
-        <v>2935</v>
-      </c>
-      <c r="F1604" s="71" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1604" s="71" t="s">
-        <v>36</v>
-      </c>
-      <c r="H1604" s="71" t="s">
-        <v>3165</v>
-      </c>
-      <c r="I1604" s="71" t="s">
-        <v>3166</v>
-      </c>
-    </row>
-    <row r="1605" spans="1:9" s="75" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1605" s="75">
-        <v>1782</v>
-      </c>
-      <c r="B1605" s="1" t="s">
-        <v>3181</v>
-      </c>
-      <c r="C1605" s="75">
-        <v>4</v>
-      </c>
-      <c r="D1605" s="75" t="s">
-        <v>1713</v>
-      </c>
-      <c r="F1605" s="75" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1605" s="75" t="s">
-        <v>187</v>
-      </c>
-      <c r="H1605" s="75" t="s">
-        <v>3182</v>
+      <c r="F1605" s="71" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1605" s="71" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1605" s="71" t="s">
+        <v>3164</v>
+      </c>
+      <c r="I1605" s="71" t="s">
+        <v>3002</v>
       </c>
     </row>
     <row r="1606" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1606" s="71">
-        <v>1784</v>
+        <v>1781</v>
       </c>
       <c r="B1606" s="1" t="s">
-        <v>3134</v>
+        <v>3135</v>
       </c>
       <c r="C1606" s="71">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D1606" s="71" t="s">
-        <v>1717</v>
+        <v>1720</v>
+      </c>
+      <c r="E1606" s="71" t="s">
+        <v>2935</v>
       </c>
       <c r="F1606" s="71" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G1606" s="71" t="s">
         <v>36</v>
       </c>
       <c r="H1606" s="71" t="s">
-        <v>3167</v>
+        <v>3165</v>
       </c>
       <c r="I1606" s="71" t="s">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="1607" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1607" s="71">
-        <v>1785</v>
+        <v>3166</v>
+      </c>
+    </row>
+    <row r="1607" spans="1:9" s="75" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1607" s="75">
+        <v>1782</v>
       </c>
       <c r="B1607" s="1" t="s">
-        <v>3133</v>
-      </c>
-      <c r="C1607" s="71">
-        <v>2</v>
-      </c>
-      <c r="D1607" s="71" t="s">
-        <v>1718</v>
-      </c>
-      <c r="F1607" s="71" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1607" s="71" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1607" s="71" t="s">
-        <v>3169</v>
-      </c>
-      <c r="I1607" s="71" t="s">
-        <v>3000</v>
+        <v>3181</v>
+      </c>
+      <c r="C1607" s="75">
+        <v>4</v>
+      </c>
+      <c r="D1607" s="75" t="s">
+        <v>1713</v>
+      </c>
+      <c r="F1607" s="75" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1607" s="75" t="s">
+        <v>187</v>
+      </c>
+      <c r="H1607" s="75" t="s">
+        <v>3182</v>
+      </c>
+      <c r="I1607" s="75" t="s">
+        <v>3220</v>
       </c>
     </row>
     <row r="1608" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1608" s="71">
-        <v>1786</v>
+        <v>1784</v>
       </c>
       <c r="B1608" s="1" t="s">
-        <v>3132</v>
+        <v>3134</v>
       </c>
       <c r="C1608" s="71">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1608" s="71" t="s">
-        <v>1720</v>
-      </c>
-      <c r="E1608" s="71" t="s">
-        <v>2923</v>
+        <v>1717</v>
       </c>
       <c r="F1608" s="71" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G1608" s="71" t="s">
-        <v>187</v>
+        <v>36</v>
       </c>
       <c r="H1608" s="71" t="s">
-        <v>3168</v>
+        <v>3167</v>
       </c>
       <c r="I1608" s="71" t="s">
-        <v>3029</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="1609" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1609" s="71">
-        <v>1787</v>
+        <v>1785</v>
       </c>
       <c r="B1609" s="1" t="s">
-        <v>3170</v>
+        <v>3133</v>
       </c>
       <c r="C1609" s="71">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1609" s="71" t="s">
-        <v>2810</v>
+        <v>1718</v>
       </c>
       <c r="F1609" s="71" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G1609" s="71" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H1609" s="71" t="s">
-        <v>3171</v>
+        <v>3169</v>
       </c>
       <c r="I1609" s="71" t="s">
-        <v>3023</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="1610" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1610" s="71">
-        <v>1790</v>
+        <v>1786</v>
       </c>
       <c r="B1610" s="1" t="s">
-        <v>3172</v>
+        <v>3132</v>
       </c>
       <c r="C1610" s="71">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1610" s="71" t="s">
-        <v>1717</v>
+        <v>1720</v>
+      </c>
+      <c r="E1610" s="71" t="s">
+        <v>2923</v>
       </c>
       <c r="F1610" s="71" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G1610" s="71" t="s">
-        <v>36</v>
+        <v>187</v>
       </c>
       <c r="H1610" s="71" t="s">
-        <v>3174</v>
+        <v>3168</v>
       </c>
       <c r="I1610" s="71" t="s">
-        <v>3000</v>
+        <v>3029</v>
       </c>
     </row>
     <row r="1611" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1611" s="71">
-        <v>1791</v>
+        <v>1787</v>
       </c>
       <c r="B1611" s="1" t="s">
-        <v>3173</v>
+        <v>3170</v>
       </c>
       <c r="C1611" s="71">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D1611" s="71" t="s">
-        <v>1717</v>
+        <v>2810</v>
       </c>
       <c r="F1611" s="71" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G1611" s="71" t="s">
-        <v>187</v>
+        <v>28</v>
       </c>
       <c r="H1611" s="71" t="s">
-        <v>3175</v>
+        <v>3171</v>
       </c>
       <c r="I1611" s="71" t="s">
-        <v>3000</v>
+        <v>3023</v>
       </c>
     </row>
     <row r="1612" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1612" s="71">
-        <v>1792</v>
+        <v>1790</v>
       </c>
       <c r="B1612" s="1" t="s">
-        <v>3176</v>
+        <v>3172</v>
       </c>
       <c r="C1612" s="71">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1612" s="71" t="s">
-        <v>1720</v>
-      </c>
-      <c r="E1612" s="71" t="s">
-        <v>2923</v>
+        <v>1717</v>
       </c>
       <c r="F1612" s="71" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G1612" s="71" t="s">
-        <v>95</v>
+        <v>36</v>
       </c>
       <c r="H1612" s="71" t="s">
-        <v>3180</v>
+        <v>3174</v>
       </c>
       <c r="I1612" s="71" t="s">
-        <v>3029</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="1613" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1613" s="71">
-        <v>1793</v>
+        <v>1791</v>
       </c>
       <c r="B1613" s="1" t="s">
-        <v>3177</v>
+        <v>3173</v>
       </c>
       <c r="C1613" s="71">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1613" s="71" t="s">
-        <v>1720</v>
-      </c>
-      <c r="E1613" s="71" t="s">
-        <v>2935</v>
+        <v>1717</v>
       </c>
       <c r="F1613" s="71" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G1613" s="71" t="s">
-        <v>21</v>
+        <v>187</v>
       </c>
       <c r="H1613" s="71" t="s">
-        <v>3178</v>
+        <v>3175</v>
       </c>
       <c r="I1613" s="71" t="s">
-        <v>3179</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="1614" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1614" s="71">
-        <v>1796</v>
+        <v>1792</v>
       </c>
       <c r="B1614" s="1" t="s">
-        <v>3188</v>
+        <v>3176</v>
       </c>
       <c r="C1614" s="71">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1614" s="71" t="s">
-        <v>1717</v>
+        <v>1720</v>
+      </c>
+      <c r="E1614" s="71" t="s">
+        <v>2923</v>
       </c>
       <c r="F1614" s="71" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G1614" s="71" t="s">
-        <v>36</v>
+        <v>95</v>
       </c>
       <c r="H1614" s="71" t="s">
-        <v>3195</v>
+        <v>3180</v>
       </c>
       <c r="I1614" s="71" t="s">
-        <v>3000</v>
+        <v>3029</v>
       </c>
     </row>
     <row r="1615" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1615" s="71">
-        <v>1797</v>
+        <v>1793</v>
       </c>
       <c r="B1615" s="1" t="s">
-        <v>3189</v>
+        <v>3177</v>
       </c>
       <c r="C1615" s="71">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D1615" s="71" t="s">
         <v>1720</v>
@@ -48493,39 +48566,39 @@
         <v>2935</v>
       </c>
       <c r="F1615" s="71" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G1615" s="71" t="s">
-        <v>457</v>
+        <v>21</v>
       </c>
       <c r="H1615" s="71" t="s">
-        <v>3196</v>
+        <v>3178</v>
       </c>
       <c r="I1615" s="71" t="s">
-        <v>3029</v>
+        <v>3179</v>
       </c>
     </row>
     <row r="1616" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1616" s="71">
-        <v>1798</v>
+        <v>1796</v>
       </c>
       <c r="B1616" s="1" t="s">
-        <v>3190</v>
+        <v>3188</v>
       </c>
       <c r="C1616" s="71">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1616" s="71" t="s">
-        <v>1720</v>
+        <v>1717</v>
       </c>
       <c r="F1616" s="71" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G1616" s="71" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="H1616" s="71" t="s">
-        <v>3197</v>
+        <v>3195</v>
       </c>
       <c r="I1616" s="71" t="s">
         <v>3000</v>
@@ -48533,51 +48606,54 @@
     </row>
     <row r="1617" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1617" s="71">
-        <v>1799</v>
+        <v>1797</v>
       </c>
       <c r="B1617" s="1" t="s">
-        <v>3191</v>
+        <v>3189</v>
       </c>
       <c r="C1617" s="71">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1617" s="71" t="s">
-        <v>1713</v>
+        <v>1720</v>
+      </c>
+      <c r="E1617" s="71" t="s">
+        <v>2935</v>
       </c>
       <c r="F1617" s="71" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G1617" s="71" t="s">
-        <v>121</v>
+        <v>457</v>
       </c>
       <c r="H1617" s="71" t="s">
-        <v>3198</v>
+        <v>3196</v>
       </c>
       <c r="I1617" s="71" t="s">
-        <v>3199</v>
+        <v>3029</v>
       </c>
     </row>
     <row r="1618" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1618" s="71">
-        <v>1800</v>
+        <v>1798</v>
       </c>
       <c r="B1618" s="1" t="s">
-        <v>3192</v>
+        <v>3190</v>
       </c>
       <c r="C1618" s="71">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D1618" s="71" t="s">
         <v>1720</v>
       </c>
       <c r="F1618" s="71" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G1618" s="71" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H1618" s="71" t="s">
-        <v>3200</v>
+        <v>3197</v>
       </c>
       <c r="I1618" s="71" t="s">
         <v>3000</v>
@@ -48585,83 +48661,80 @@
     </row>
     <row r="1619" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1619" s="71">
-        <v>1801</v>
+        <v>1799</v>
       </c>
       <c r="B1619" s="1" t="s">
-        <v>3193</v>
+        <v>3191</v>
       </c>
       <c r="C1619" s="71">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D1619" s="71" t="s">
-        <v>1720</v>
-      </c>
-      <c r="E1619" s="71" t="s">
-        <v>2924</v>
+        <v>1713</v>
       </c>
       <c r="F1619" s="71" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G1619" s="71" t="s">
-        <v>41</v>
+        <v>121</v>
       </c>
       <c r="H1619" s="71" t="s">
-        <v>3201</v>
+        <v>3198</v>
       </c>
       <c r="I1619" s="71" t="s">
-        <v>3018</v>
+        <v>3199</v>
       </c>
     </row>
     <row r="1620" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1620" s="71">
-        <v>1802</v>
+        <v>1800</v>
       </c>
       <c r="B1620" s="1" t="s">
-        <v>3194</v>
+        <v>3192</v>
       </c>
       <c r="C1620" s="71">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1620" s="71" t="s">
         <v>1720</v>
       </c>
-      <c r="E1620" s="71" t="s">
-        <v>2935</v>
-      </c>
       <c r="F1620" s="71" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G1620" s="71" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H1620" s="71" t="s">
-        <v>3202</v>
+        <v>3200</v>
       </c>
       <c r="I1620" s="71" t="s">
-        <v>3002</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="1621" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1621" s="71">
-        <v>1803</v>
+        <v>1801</v>
       </c>
       <c r="B1621" s="1" t="s">
-        <v>3203</v>
+        <v>3193</v>
       </c>
       <c r="C1621" s="71">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1621" s="71" t="s">
-        <v>2810</v>
+        <v>1720</v>
+      </c>
+      <c r="E1621" s="71" t="s">
+        <v>2924</v>
       </c>
       <c r="F1621" s="71" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G1621" s="71" t="s">
-        <v>134</v>
+        <v>41</v>
       </c>
       <c r="H1621" s="71" t="s">
-        <v>3208</v>
+        <v>3201</v>
       </c>
       <c r="I1621" s="71" t="s">
         <v>3018</v>
@@ -48669,80 +48742,83 @@
     </row>
     <row r="1622" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1622" s="71">
-        <v>1805</v>
+        <v>1802</v>
       </c>
       <c r="B1622" s="1" t="s">
-        <v>3204</v>
+        <v>3194</v>
       </c>
       <c r="C1622" s="71">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D1622" s="71" t="s">
-        <v>1768</v>
+        <v>1720</v>
       </c>
       <c r="E1622" s="71" t="s">
         <v>2935</v>
       </c>
       <c r="F1622" s="71" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G1622" s="71" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="H1622" s="71" t="s">
-        <v>3209</v>
+        <v>3202</v>
       </c>
       <c r="I1622" s="71" t="s">
-        <v>3000</v>
+        <v>3002</v>
       </c>
     </row>
     <row r="1623" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1623" s="71">
-        <v>1806</v>
+        <v>1803</v>
       </c>
       <c r="B1623" s="1" t="s">
-        <v>3205</v>
+        <v>3203</v>
       </c>
       <c r="C1623" s="71">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D1623" s="71" t="s">
-        <v>1720</v>
+        <v>2810</v>
       </c>
       <c r="F1623" s="71" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G1623" s="71" t="s">
-        <v>21</v>
+        <v>134</v>
       </c>
       <c r="H1623" s="71" t="s">
-        <v>3210</v>
+        <v>3208</v>
       </c>
       <c r="I1623" s="71" t="s">
-        <v>3000</v>
+        <v>3018</v>
       </c>
     </row>
     <row r="1624" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1624" s="71">
-        <v>1807</v>
+        <v>1805</v>
       </c>
       <c r="B1624" s="1" t="s">
-        <v>3206</v>
+        <v>3204</v>
       </c>
       <c r="C1624" s="71">
         <v>2</v>
       </c>
       <c r="D1624" s="71" t="s">
-        <v>1720</v>
+        <v>1768</v>
+      </c>
+      <c r="E1624" s="71" t="s">
+        <v>2935</v>
       </c>
       <c r="F1624" s="71" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G1624" s="71" t="s">
         <v>36</v>
       </c>
       <c r="H1624" s="71" t="s">
-        <v>3211</v>
+        <v>3209</v>
       </c>
       <c r="I1624" s="71" t="s">
         <v>3000</v>
@@ -48750,97 +48826,330 @@
     </row>
     <row r="1625" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1625" s="71">
+        <v>1806</v>
+      </c>
+      <c r="B1625" s="1" t="s">
+        <v>3205</v>
+      </c>
+      <c r="C1625" s="71">
+        <v>2</v>
+      </c>
+      <c r="D1625" s="71" t="s">
+        <v>1720</v>
+      </c>
+      <c r="F1625" s="71" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1625" s="71" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1625" s="71" t="s">
+        <v>3210</v>
+      </c>
+      <c r="I1625" s="71" t="s">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="1626" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1626" s="71">
+        <v>1807</v>
+      </c>
+      <c r="B1626" s="1" t="s">
+        <v>3206</v>
+      </c>
+      <c r="C1626" s="71">
+        <v>2</v>
+      </c>
+      <c r="D1626" s="71" t="s">
+        <v>1720</v>
+      </c>
+      <c r="F1626" s="71" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1626" s="71" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1626" s="71" t="s">
+        <v>3211</v>
+      </c>
+      <c r="I1626" s="71" t="s">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="1627" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1627" s="71">
         <v>1808</v>
       </c>
-      <c r="B1625" s="1" t="s">
+      <c r="B1627" s="1" t="s">
         <v>3207</v>
       </c>
-      <c r="C1625" s="71">
+      <c r="C1627" s="71">
         <v>4</v>
       </c>
-      <c r="D1625" s="71" t="s">
+      <c r="D1627" s="71" t="s">
         <v>1713</v>
       </c>
-      <c r="F1625" s="71" t="s">
+      <c r="F1627" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="G1625" s="71" t="s">
+      <c r="G1627" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="H1625" s="71" t="s">
+      <c r="H1627" s="71" t="s">
         <v>3212</v>
       </c>
-      <c r="I1625" s="71" t="s">
+      <c r="I1627" s="71" t="s">
         <v>3002</v>
       </c>
     </row>
-    <row r="1626" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1626" s="1"/>
-    </row>
-    <row r="1627" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1627" s="1"/>
-    </row>
     <row r="1628" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1628" s="1"/>
+      <c r="A1628" s="71">
+        <v>1812</v>
+      </c>
+      <c r="B1628" s="1" t="s">
+        <v>3216</v>
+      </c>
+      <c r="C1628" s="71">
+        <v>1</v>
+      </c>
+      <c r="D1628" s="71" t="s">
+        <v>1720</v>
+      </c>
+      <c r="F1628" s="71" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1628" s="71" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1628" s="71" t="s">
+        <v>3217</v>
+      </c>
+      <c r="I1628" s="71" t="s">
+        <v>3057</v>
+      </c>
     </row>
     <row r="1629" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1629" s="1"/>
+      <c r="A1629" s="71">
+        <v>1813</v>
+      </c>
+      <c r="B1629" s="1" t="s">
+        <v>3218</v>
+      </c>
+      <c r="C1629" s="71">
+        <v>3</v>
+      </c>
+      <c r="D1629" s="71" t="s">
+        <v>2810</v>
+      </c>
+      <c r="F1629" s="71" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1629" s="71" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1629" s="71" t="s">
+        <v>3219</v>
+      </c>
+      <c r="I1629" s="71" t="s">
+        <v>3000</v>
+      </c>
     </row>
     <row r="1630" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1630" s="1"/>
+      <c r="A1630" s="71">
+        <v>1814</v>
+      </c>
+      <c r="B1630" s="1" t="s">
+        <v>3221</v>
+      </c>
+      <c r="C1630" s="71">
+        <v>4</v>
+      </c>
+      <c r="D1630" s="71" t="s">
+        <v>1720</v>
+      </c>
+      <c r="F1630" s="71" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1630" s="71" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1630" s="71" t="s">
+        <v>3234</v>
+      </c>
+      <c r="I1630" s="71" t="s">
+        <v>3000</v>
+      </c>
     </row>
     <row r="1631" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1631" s="1"/>
+      <c r="A1631" s="71">
+        <v>1815</v>
+      </c>
+      <c r="B1631" s="1" t="s">
+        <v>3231</v>
+      </c>
+      <c r="C1631" s="71">
+        <v>4</v>
+      </c>
+      <c r="D1631" s="71" t="s">
+        <v>1720</v>
+      </c>
+      <c r="F1631" s="71" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1631" s="71" t="s">
+        <v>121</v>
+      </c>
+      <c r="H1631" s="71" t="s">
+        <v>3232</v>
+      </c>
+      <c r="I1631" s="71" t="s">
+        <v>3233</v>
+      </c>
     </row>
     <row r="1632" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1632" s="1"/>
-    </row>
-    <row r="1633" spans="2:2" s="71" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1633" s="1"/>
-    </row>
-    <row r="1634" spans="2:2" s="71" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1634" s="1"/>
-    </row>
-    <row r="1635" spans="2:2" s="71" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1635" s="1"/>
-    </row>
-    <row r="1636" spans="2:2" s="71" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1632" s="71">
+        <v>1816</v>
+      </c>
+      <c r="B1632" s="1" t="s">
+        <v>3229</v>
+      </c>
+      <c r="C1632" s="71">
+        <v>1</v>
+      </c>
+      <c r="D1632" s="71" t="s">
+        <v>1717</v>
+      </c>
+      <c r="F1632" s="71" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1632" s="71" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1632" s="71" t="s">
+        <v>3230</v>
+      </c>
+      <c r="I1632" s="71" t="s">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="1633" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1633" s="71">
+        <v>1817</v>
+      </c>
+      <c r="B1633" s="1" t="s">
+        <v>3227</v>
+      </c>
+      <c r="C1633" s="71">
+        <v>2</v>
+      </c>
+      <c r="D1633" s="71" t="s">
+        <v>1720</v>
+      </c>
+      <c r="F1633" s="71" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1633" s="71" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1633" s="71" t="s">
+        <v>3228</v>
+      </c>
+      <c r="I1633" s="71" t="s">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="1634" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1634" s="71">
+        <v>1818</v>
+      </c>
+      <c r="B1634" s="1" t="s">
+        <v>3225</v>
+      </c>
+      <c r="C1634" s="71">
+        <v>3</v>
+      </c>
+      <c r="D1634" s="71" t="s">
+        <v>1720</v>
+      </c>
+      <c r="E1634" s="71" t="s">
+        <v>2935</v>
+      </c>
+      <c r="F1634" s="71" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1634" s="71" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1634" s="71" t="s">
+        <v>3226</v>
+      </c>
+      <c r="I1634" s="71" t="s">
+        <v>3224</v>
+      </c>
+    </row>
+    <row r="1635" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1635" s="71">
+        <v>1819</v>
+      </c>
+      <c r="B1635" s="1" t="s">
+        <v>3222</v>
+      </c>
+      <c r="C1635" s="71">
+        <v>4</v>
+      </c>
+      <c r="D1635" s="71" t="s">
+        <v>1713</v>
+      </c>
+      <c r="F1635" s="71" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1635" s="71" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1635" s="71" t="s">
+        <v>3223</v>
+      </c>
+      <c r="I1635" s="71" t="s">
+        <v>3224</v>
+      </c>
+    </row>
+    <row r="1636" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B1636" s="1"/>
     </row>
-    <row r="1637" spans="2:2" s="71" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1637" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B1637" s="1"/>
     </row>
-    <row r="1638" spans="2:2" s="71" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1638" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B1638" s="1"/>
     </row>
-    <row r="1639" spans="2:2" s="71" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1639" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B1639" s="1"/>
     </row>
-    <row r="1640" spans="2:2" s="71" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1640" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B1640" s="1"/>
     </row>
-    <row r="1641" spans="2:2" s="71" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1641" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B1641" s="1"/>
     </row>
-    <row r="1642" spans="2:2" s="71" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1642" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B1642" s="1"/>
     </row>
-    <row r="1643" spans="2:2" s="71" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1643" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B1643" s="1"/>
     </row>
-    <row r="1644" spans="2:2" s="71" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1644" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B1644" s="1"/>
     </row>
-    <row r="1645" spans="2:2" s="71" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1645" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B1645" s="1"/>
     </row>
-    <row r="1646" spans="2:2" s="71" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1646" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B1646" s="1"/>
     </row>
-    <row r="1647" spans="2:2" s="71" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1647" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B1647" s="1"/>
     </row>
-    <row r="1648" spans="2:2" s="71" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1648" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B1648" s="1"/>
     </row>
     <row r="1649" spans="1:8" s="71" customFormat="1" x14ac:dyDescent="0.45">
@@ -48876,38 +49185,44 @@
     <row r="1659" spans="1:8" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B1659" s="1"/>
     </row>
-    <row r="1660" spans="1:8" s="62" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1660" spans="1:8" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B1660" s="1"/>
     </row>
-    <row r="1661" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A1661" s="76" t="s">
+    <row r="1661" spans="1:8" s="71" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1661" s="1"/>
+    </row>
+    <row r="1662" spans="1:8" s="62" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1662" s="1"/>
+    </row>
+    <row r="1663" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A1663" s="77" t="s">
         <v>1721</v>
       </c>
-      <c r="B1661" s="76"/>
-      <c r="C1661" s="76"/>
-      <c r="D1661" s="76"/>
-      <c r="E1661" s="76"/>
-      <c r="F1661" s="76"/>
-      <c r="G1661" s="76"/>
-      <c r="H1661" s="76"/>
-    </row>
-    <row r="1662" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A1662" s="77" t="s">
+      <c r="B1663" s="77"/>
+      <c r="C1663" s="77"/>
+      <c r="D1663" s="77"/>
+      <c r="E1663" s="77"/>
+      <c r="F1663" s="77"/>
+      <c r="G1663" s="77"/>
+      <c r="H1663" s="77"/>
+    </row>
+    <row r="1664" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A1664" s="78" t="s">
         <v>2760</v>
       </c>
-      <c r="B1662" s="77"/>
-      <c r="C1662" s="77"/>
-      <c r="D1662" s="77"/>
-      <c r="E1662" s="77"/>
-      <c r="F1662" s="77"/>
-      <c r="G1662" s="77"/>
-      <c r="H1662" s="77"/>
+      <c r="B1664" s="78"/>
+      <c r="C1664" s="78"/>
+      <c r="D1664" s="78"/>
+      <c r="E1664" s="78"/>
+      <c r="F1664" s="78"/>
+      <c r="G1664" s="78"/>
+      <c r="H1664" s="78"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J1662" xr:uid="{CB07CE66-8F15-46FF-A90A-43FDB2DB428F}"/>
+  <autoFilter ref="A1:J1664" xr:uid="{CB07CE66-8F15-46FF-A90A-43FDB2DB428F}"/>
   <mergeCells count="2">
-    <mergeCell ref="A1661:H1661"/>
-    <mergeCell ref="A1662:H1662"/>
+    <mergeCell ref="A1663:H1663"/>
+    <mergeCell ref="A1664:H1664"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" display="https://leetcode.com/problems/zigzag-conversion" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -50285,47 +50600,53 @@
     <hyperlink ref="B1580" r:id="rId1373" display="https://leetcode.com/problems/can-you-eat-your-favorite-candy-on-your-favorite-day" xr:uid="{BEE070B5-F64C-4698-BCE5-1E36A8583440}"/>
     <hyperlink ref="B1585" r:id="rId1374" display="https://leetcode.com/problems/maximum-score-from-removing-stones" xr:uid="{B7AA18C7-E58A-447A-915A-42D4F13D6310}"/>
     <hyperlink ref="B1587" r:id="rId1375" display="https://leetcode.com/problems/closest-subsequence-sum" xr:uid="{F32459B0-DF4C-462A-9356-83F25EC7DAA2}"/>
-    <hyperlink ref="B1608" r:id="rId1376" display="https://leetcode.com/problems/number-of-restricted-paths-from-first-to-last-node" xr:uid="{7E8F4145-52CC-410A-8E6D-496A93BC9F35}"/>
-    <hyperlink ref="B1607" r:id="rId1377" display="https://leetcode.com/problems/minimum-elements-to-add-to-form-a-given-sum" xr:uid="{4588D88F-C977-4AC1-9131-6787B276C83B}"/>
-    <hyperlink ref="B1604" r:id="rId1378" display="https://leetcode.com/problems/sum-of-beauty-of-all-substrings" xr:uid="{F5D12DA0-6DB0-4E8E-A268-602716EC1E07}"/>
-    <hyperlink ref="B1603" r:id="rId1379" display="https://leetcode.com/problems/check-if-number-is-a-sum-of-powers-of-three" xr:uid="{4602803B-7988-4D38-ABF2-61BC86BCDAC5}"/>
-    <hyperlink ref="B1602" r:id="rId1380" display="https://leetcode.com/problems/find-nearest-point-that-has-the-same-x-or-y-coordinate" xr:uid="{5F651CEF-E9E7-4A94-8963-9659B92CF321}"/>
-    <hyperlink ref="B1601" r:id="rId1381" display="https://leetcode.com/problems/equal-sum-arrays-with-minimum-number-of-operations" xr:uid="{C7244173-A5DF-4CFD-8B2A-1EE21E557BC1}"/>
-    <hyperlink ref="B1600" r:id="rId1382" display="https://leetcode.com/problems/closest-dessert-cost" xr:uid="{F7BEECC4-44E4-47B9-8596-B7703815C60F}"/>
-    <hyperlink ref="B1599" r:id="rId1383" display="https://leetcode.com/problems/count-items-matching-a-rule" xr:uid="{C7425EBD-8CAE-4C06-8E35-71176FE3E292}"/>
+    <hyperlink ref="B1610" r:id="rId1376" display="https://leetcode.com/problems/number-of-restricted-paths-from-first-to-last-node" xr:uid="{7E8F4145-52CC-410A-8E6D-496A93BC9F35}"/>
+    <hyperlink ref="B1609" r:id="rId1377" display="https://leetcode.com/problems/minimum-elements-to-add-to-form-a-given-sum" xr:uid="{4588D88F-C977-4AC1-9131-6787B276C83B}"/>
+    <hyperlink ref="B1606" r:id="rId1378" display="https://leetcode.com/problems/sum-of-beauty-of-all-substrings" xr:uid="{F5D12DA0-6DB0-4E8E-A268-602716EC1E07}"/>
+    <hyperlink ref="B1605" r:id="rId1379" display="https://leetcode.com/problems/check-if-number-is-a-sum-of-powers-of-three" xr:uid="{4602803B-7988-4D38-ABF2-61BC86BCDAC5}"/>
+    <hyperlink ref="B1604" r:id="rId1380" display="https://leetcode.com/problems/find-nearest-point-that-has-the-same-x-or-y-coordinate" xr:uid="{5F651CEF-E9E7-4A94-8963-9659B92CF321}"/>
+    <hyperlink ref="B1603" r:id="rId1381" display="https://leetcode.com/problems/equal-sum-arrays-with-minimum-number-of-operations" xr:uid="{C7244173-A5DF-4CFD-8B2A-1EE21E557BC1}"/>
+    <hyperlink ref="B1602" r:id="rId1382" display="https://leetcode.com/problems/closest-dessert-cost" xr:uid="{F7BEECC4-44E4-47B9-8596-B7703815C60F}"/>
+    <hyperlink ref="B1601" r:id="rId1383" display="https://leetcode.com/problems/count-items-matching-a-rule" xr:uid="{C7425EBD-8CAE-4C06-8E35-71176FE3E292}"/>
     <hyperlink ref="B1589" r:id="rId1384" display="https://leetcode.com/problems/minimum-changes-to-make-alternating-binary-string" xr:uid="{5E47CEE9-BA48-462F-B4F8-1AF99888DEB3}"/>
     <hyperlink ref="B1590" r:id="rId1385" display="https://leetcode.com/problems/count-number-of-homogenous-substrings" xr:uid="{9343BDD1-5100-4986-BADF-74E77C30CD7C}"/>
     <hyperlink ref="B1591" r:id="rId1386" display="https://leetcode.com/problems/minimum-limit-of-balls-in-a-bag" xr:uid="{F6C3BBF6-E091-49FF-8239-45C98E39DC8C}"/>
     <hyperlink ref="B1593" r:id="rId1387" display="https://leetcode.com/problems/longest-nice-substring" xr:uid="{8E4DAA57-D075-4129-AAC9-2F7D747D4861}"/>
     <hyperlink ref="B1594" r:id="rId1388" display="https://leetcode.com/problems/form-array-by-concatenating-subarrays-of-another-array" xr:uid="{BBB12904-D1D8-45C5-A73B-4D227A33C7A0}"/>
     <hyperlink ref="B1595" r:id="rId1389" display="https://leetcode.com/problems/map-of-highest-peak" xr:uid="{D94EC984-B85A-480E-8580-8F6D0807308B}"/>
-    <hyperlink ref="B1596" r:id="rId1390" display="https://leetcode.com/problems/merge-strings-alternately" xr:uid="{10A36CE3-B9BF-4B0B-A7DF-E0BA62BBC363}"/>
-    <hyperlink ref="B1597" r:id="rId1391" display="https://leetcode.com/problems/minimum-number-of-operations-to-move-all-balls-to-each-box" xr:uid="{D44C79CA-AF26-42E8-BA0E-F083D426240B}"/>
-    <hyperlink ref="B1598" r:id="rId1392" display="https://leetcode.com/problems/maximum-score-from-performing-multiplication-operations" xr:uid="{CBFA2C81-65C2-4B16-BD7D-228C47EBD55C}"/>
-    <hyperlink ref="B1609" r:id="rId1393" display="https://leetcode.com/problems/make-the-xor-of-all-segments-equal-to-zero" xr:uid="{F9F7F3F8-AE15-4C3F-90C0-C87C5787CF85}"/>
-    <hyperlink ref="B1610" r:id="rId1394" display="https://leetcode.com/problems/check-if-one-string-swap-can-make-strings-equal" xr:uid="{94C3AB55-2DA1-4F06-A31A-03B510CB7FE6}"/>
-    <hyperlink ref="B1611" r:id="rId1395" display="https://leetcode.com/problems/find-center-of-star-graph" xr:uid="{92C112DA-1E26-4B3F-A26D-5485D079770C}"/>
-    <hyperlink ref="B1613" r:id="rId1396" display="https://leetcode.com/problems/maximum-score-of-a-good-subarray" xr:uid="{04CA3301-F2BD-44FE-8D80-D37D23948A03}"/>
-    <hyperlink ref="B1606" r:id="rId1397" display="https://leetcode.com/problems/check-if-binary-string-has-at-most-one-segment-of-ones" xr:uid="{CE9F4064-AD9A-45F5-8FA5-3D837B5BD888}"/>
-    <hyperlink ref="B1605" r:id="rId1398" display="https://leetcode.com/problems/count-pairs-of-nodes" xr:uid="{4BE12A90-1128-42D6-8B67-87E8493D607F}"/>
+    <hyperlink ref="B1597" r:id="rId1390" display="https://leetcode.com/problems/merge-strings-alternately" xr:uid="{10A36CE3-B9BF-4B0B-A7DF-E0BA62BBC363}"/>
+    <hyperlink ref="B1598" r:id="rId1391" display="https://leetcode.com/problems/minimum-number-of-operations-to-move-all-balls-to-each-box" xr:uid="{D44C79CA-AF26-42E8-BA0E-F083D426240B}"/>
+    <hyperlink ref="B1599" r:id="rId1392" display="https://leetcode.com/problems/maximum-score-from-performing-multiplication-operations" xr:uid="{CBFA2C81-65C2-4B16-BD7D-228C47EBD55C}"/>
+    <hyperlink ref="B1611" r:id="rId1393" display="https://leetcode.com/problems/make-the-xor-of-all-segments-equal-to-zero" xr:uid="{F9F7F3F8-AE15-4C3F-90C0-C87C5787CF85}"/>
+    <hyperlink ref="B1612" r:id="rId1394" display="https://leetcode.com/problems/check-if-one-string-swap-can-make-strings-equal" xr:uid="{94C3AB55-2DA1-4F06-A31A-03B510CB7FE6}"/>
+    <hyperlink ref="B1613" r:id="rId1395" display="https://leetcode.com/problems/find-center-of-star-graph" xr:uid="{92C112DA-1E26-4B3F-A26D-5485D079770C}"/>
+    <hyperlink ref="B1615" r:id="rId1396" display="https://leetcode.com/problems/maximum-score-of-a-good-subarray" xr:uid="{04CA3301-F2BD-44FE-8D80-D37D23948A03}"/>
+    <hyperlink ref="B1608" r:id="rId1397" display="https://leetcode.com/problems/check-if-binary-string-has-at-most-one-segment-of-ones" xr:uid="{CE9F4064-AD9A-45F5-8FA5-3D837B5BD888}"/>
+    <hyperlink ref="B1607" r:id="rId1398" display="https://leetcode.com/problems/count-pairs-of-nodes" xr:uid="{4BE12A90-1128-42D6-8B67-87E8493D607F}"/>
     <hyperlink ref="B1581" r:id="rId1399" display="https://leetcode.com/problems/palindrome-partitioning-iv" xr:uid="{E9727F4E-397D-4808-93D3-81A8EA2BA6FA}"/>
     <hyperlink ref="B1592" r:id="rId1400" display="https://leetcode.com/problems/minimum-degree-of-a-connected-trio-in-a-graph" xr:uid="{2139E7CC-36A0-4372-9D37-5FD513CDD9B0}"/>
-    <hyperlink ref="B1614" r:id="rId1401" display="https://leetcode.com/problems/second-largest-digit-in-a-string" xr:uid="{4A66E7D8-75C8-4F8E-B9DB-8E399F951B16}"/>
-    <hyperlink ref="B1615" r:id="rId1402" display="https://leetcode.com/problems/design-authentication-manager" xr:uid="{480710DA-1C7D-455D-8D12-167C92DBF633}"/>
-    <hyperlink ref="B1616" r:id="rId1403" display="https://leetcode.com/problems/maximum-number-of-consecutive-values-you-can-make" xr:uid="{194727C9-C65E-44E7-A8A3-E7D9E7AD678B}"/>
-    <hyperlink ref="B1617" r:id="rId1404" display="https://leetcode.com/problems/maximize-score-after-n-operations" xr:uid="{98125BD7-0B8C-4106-A5E4-C55938B917E0}"/>
-    <hyperlink ref="B1618" r:id="rId1405" display="https://leetcode.com/problems/maximum-ascending-subarray-sum" xr:uid="{4206F736-48C2-4C51-BC45-0F7AA538AA31}"/>
-    <hyperlink ref="B1619" r:id="rId1406" display="https://leetcode.com/problems/number-of-orders-in-the-backlog" xr:uid="{A4B7F67E-4F72-4FF8-9023-A90CE712BA15}"/>
-    <hyperlink ref="B1620" r:id="rId1407" display="https://leetcode.com/problems/maximum-value-at-a-given-index-in-a-bounded-array" xr:uid="{E6D3D4E3-7FB4-464D-9389-88A8FB9AB699}"/>
-    <hyperlink ref="B1621" r:id="rId1408" display="https://leetcode.com/problems/count-pairs-with-xor-in-a-range" xr:uid="{88492775-D026-41EA-B4F6-EE9E43625F64}"/>
-    <hyperlink ref="B1622" r:id="rId1409" display="https://leetcode.com/problems/number-of-different-integers-in-a-string" xr:uid="{9DA3EFFF-6694-482A-91E6-051A5CCA6C92}"/>
-    <hyperlink ref="B1623" r:id="rId1410" display="https://leetcode.com/problems/minimum-number-of-operations-to-reinitialize-a-permutation" xr:uid="{5DBBFB2B-FAB5-4931-AB4C-41C33CCE3E9F}"/>
-    <hyperlink ref="B1624" r:id="rId1411" display="https://leetcode.com/problems/evaluate-the-bracket-pairs-of-a-string" xr:uid="{E6654C7A-7E01-4ED1-BF88-AEE3F00C826C}"/>
-    <hyperlink ref="B1625" r:id="rId1412" display="https://leetcode.com/problems/maximize-number-of-nice-divisors" xr:uid="{78626747-6249-42C3-9986-9D393FEA3FE8}"/>
+    <hyperlink ref="B1616" r:id="rId1401" display="https://leetcode.com/problems/second-largest-digit-in-a-string" xr:uid="{4A66E7D8-75C8-4F8E-B9DB-8E399F951B16}"/>
+    <hyperlink ref="B1617" r:id="rId1402" display="https://leetcode.com/problems/design-authentication-manager" xr:uid="{480710DA-1C7D-455D-8D12-167C92DBF633}"/>
+    <hyperlink ref="B1618" r:id="rId1403" display="https://leetcode.com/problems/maximum-number-of-consecutive-values-you-can-make" xr:uid="{194727C9-C65E-44E7-A8A3-E7D9E7AD678B}"/>
+    <hyperlink ref="B1619" r:id="rId1404" display="https://leetcode.com/problems/maximize-score-after-n-operations" xr:uid="{98125BD7-0B8C-4106-A5E4-C55938B917E0}"/>
+    <hyperlink ref="B1620" r:id="rId1405" display="https://leetcode.com/problems/maximum-ascending-subarray-sum" xr:uid="{4206F736-48C2-4C51-BC45-0F7AA538AA31}"/>
+    <hyperlink ref="B1621" r:id="rId1406" display="https://leetcode.com/problems/number-of-orders-in-the-backlog" xr:uid="{A4B7F67E-4F72-4FF8-9023-A90CE712BA15}"/>
+    <hyperlink ref="B1622" r:id="rId1407" display="https://leetcode.com/problems/maximum-value-at-a-given-index-in-a-bounded-array" xr:uid="{E6D3D4E3-7FB4-464D-9389-88A8FB9AB699}"/>
+    <hyperlink ref="B1623" r:id="rId1408" display="https://leetcode.com/problems/count-pairs-with-xor-in-a-range" xr:uid="{88492775-D026-41EA-B4F6-EE9E43625F64}"/>
+    <hyperlink ref="B1624" r:id="rId1409" display="https://leetcode.com/problems/number-of-different-integers-in-a-string" xr:uid="{9DA3EFFF-6694-482A-91E6-051A5CCA6C92}"/>
+    <hyperlink ref="B1625" r:id="rId1410" display="https://leetcode.com/problems/minimum-number-of-operations-to-reinitialize-a-permutation" xr:uid="{5DBBFB2B-FAB5-4931-AB4C-41C33CCE3E9F}"/>
+    <hyperlink ref="B1626" r:id="rId1411" display="https://leetcode.com/problems/evaluate-the-bracket-pairs-of-a-string" xr:uid="{E6654C7A-7E01-4ED1-BF88-AEE3F00C826C}"/>
+    <hyperlink ref="B1627" r:id="rId1412" display="https://leetcode.com/problems/maximize-number-of-nice-divisors" xr:uid="{78626747-6249-42C3-9986-9D393FEA3FE8}"/>
+    <hyperlink ref="B1600" r:id="rId1413" display="https://leetcode.com/problems/maximize-palindrome-length-from-subsequences" xr:uid="{BA73F0FA-CB5F-4DD4-AF14-A696A9BAFBF8}"/>
+    <hyperlink ref="B1628" r:id="rId1414" display="https://leetcode.com/problems/determine-color-of-a-chessboard-square" xr:uid="{BBB99C21-759D-433A-AFD0-6D820254CB9F}"/>
+    <hyperlink ref="B1630" r:id="rId1415" display="https://leetcode.com/problems/count-nice-pairs-in-an-array" xr:uid="{33784327-6425-47D1-8866-B8FAF405AD95}"/>
+    <hyperlink ref="B1634" r:id="rId1416" display="https://leetcode.com/problems/minimum-absolute-sum-difference" xr:uid="{7E3B951A-E0A0-4E7E-ACD1-098D0084074E}"/>
+    <hyperlink ref="B1633" r:id="rId1417" display="https://leetcode.com/problems/finding-the-users-active-minutes" xr:uid="{09A336B4-6859-4EC2-AABC-5B8F78ECEABA}"/>
+    <hyperlink ref="B1631" r:id="rId1418" display="https://leetcode.com/problems/maximum-number-of-groups-getting-fresh-donuts" xr:uid="{70FC7CD8-A622-42EC-BA44-22F88CA1F2A7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1413"/>
-  <drawing r:id="rId1414"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1419"/>
+  <drawing r:id="rId1420"/>
 </worksheet>
 </file>
 

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EA7E449-A481-4046-8F63-2BD7444AA8F4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEC80BF1-CFE5-4E9D-B5CF-C985CEC99001}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="SQL" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'LeetCode Algorithm'!$A$1:$J$1664</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'LeetCode Algorithm'!$A$1:$J$1665</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8736" uniqueCount="3236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8769" uniqueCount="3248">
   <si>
     <t>Difficulty</t>
   </si>
@@ -9745,6 +9745,42 @@
   </si>
   <si>
     <t>Carry possible values to children</t>
+  </si>
+  <si>
+    <t>Maximum Number of Events That Can Be Attended II</t>
+  </si>
+  <si>
+    <t>Sort by end time first and build up based events before start time and end time.</t>
+  </si>
+  <si>
+    <t>Sign of the Product of an Array</t>
+  </si>
+  <si>
+    <t>Find the Winner of the Circular Game</t>
+  </si>
+  <si>
+    <t>Minimum Sideway Jumps</t>
+  </si>
+  <si>
+    <t>Finding MK Average</t>
+  </si>
+  <si>
+    <t>N ^ 3</t>
+  </si>
+  <si>
+    <t>product by 1 and -1</t>
+  </si>
+  <si>
+    <t>Reversely count mode or simply simulation</t>
+  </si>
+  <si>
+    <t>N ^ 2 -&gt; N</t>
+  </si>
+  <si>
+    <t>Count best option for each position in each lan</t>
+  </si>
+  <si>
+    <t>Have 3 sorted set, prefix, body and postfix</t>
   </si>
 </sst>
 </file>
@@ -9789,7 +9825,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -9816,6 +9852,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -10257,10 +10294,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J1664"/>
+  <dimension ref="A1:J1665"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1578" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A1578" sqref="A1578"/>
+    <sheetView tabSelected="1" topLeftCell="A1624" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A1641" sqref="A1641"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -47704,96 +47741,96 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="1584" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1584" s="71">
+    <row r="1584" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1584" s="77">
+        <v>1751</v>
+      </c>
+      <c r="B1584" s="1" t="s">
+        <v>3236</v>
+      </c>
+      <c r="C1584" s="77">
+        <v>4</v>
+      </c>
+      <c r="D1584" s="77" t="s">
+        <v>1720</v>
+      </c>
+      <c r="E1584" s="77" t="s">
+        <v>2923</v>
+      </c>
+      <c r="F1584" s="77" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1584" s="77" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1584" s="77" t="s">
+        <v>3237</v>
+      </c>
+      <c r="I1584" s="77" t="s">
+        <v>3029</v>
+      </c>
+    </row>
+    <row r="1585" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1585" s="71">
         <v>1752</v>
       </c>
-      <c r="B1584" s="1" t="s">
+      <c r="B1585" s="1" t="s">
         <v>3091</v>
       </c>
-      <c r="C1584" s="71">
+      <c r="C1585" s="71">
         <v>2</v>
       </c>
-      <c r="D1584" s="71" t="s">
+      <c r="D1585" s="71" t="s">
         <v>1720</v>
       </c>
-      <c r="E1584" s="71" t="s">
+      <c r="E1585" s="71" t="s">
         <v>2935</v>
       </c>
-      <c r="F1584" s="71" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1584" s="71" t="s">
+      <c r="F1585" s="71" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1585" s="71" t="s">
         <v>41</v>
       </c>
-      <c r="H1584" s="71" t="s">
+      <c r="H1585" s="71" t="s">
         <v>3092</v>
       </c>
-      <c r="I1584" s="71" t="s">
+      <c r="I1585" s="71" t="s">
         <v>3000</v>
-      </c>
-    </row>
-    <row r="1585" spans="1:9" s="73" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1585" s="73">
-        <v>1753</v>
-      </c>
-      <c r="B1585" s="1" t="s">
-        <v>3125</v>
-      </c>
-      <c r="C1585" s="73">
-        <v>3</v>
-      </c>
-      <c r="D1585" s="73" t="s">
-        <v>1720</v>
-      </c>
-      <c r="F1585" s="73" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1585" s="73" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1585" s="73" t="s">
-        <v>3126</v>
-      </c>
-      <c r="I1585" s="73" t="s">
-        <v>3057</v>
       </c>
     </row>
     <row r="1586" spans="1:9" s="73" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1586" s="73">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="B1586" s="1" t="s">
-        <v>3127</v>
+        <v>3125</v>
       </c>
       <c r="C1586" s="73">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1586" s="73" t="s">
-        <v>2810</v>
-      </c>
-      <c r="E1586" s="73" t="s">
-        <v>2935</v>
+        <v>1720</v>
       </c>
       <c r="F1586" s="73" t="s">
         <v>9</v>
       </c>
       <c r="G1586" s="73" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="H1586" s="73" t="s">
-        <v>3128</v>
+        <v>3126</v>
       </c>
       <c r="I1586" s="73" t="s">
-        <v>3000</v>
+        <v>3057</v>
       </c>
     </row>
     <row r="1587" spans="1:9" s="73" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1587" s="73">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="B1587" s="1" t="s">
-        <v>3129</v>
+        <v>3127</v>
       </c>
       <c r="C1587" s="73">
         <v>4</v>
@@ -47801,98 +47838,98 @@
       <c r="D1587" s="73" t="s">
         <v>2810</v>
       </c>
+      <c r="E1587" s="73" t="s">
+        <v>2935</v>
+      </c>
       <c r="F1587" s="73" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1587" s="73" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1587" s="73" t="s">
+        <v>3128</v>
+      </c>
+      <c r="I1587" s="73" t="s">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="1588" spans="1:9" s="73" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1588" s="73">
+        <v>1755</v>
+      </c>
+      <c r="B1588" s="1" t="s">
+        <v>3129</v>
+      </c>
+      <c r="C1588" s="73">
+        <v>4</v>
+      </c>
+      <c r="D1588" s="73" t="s">
+        <v>2810</v>
+      </c>
+      <c r="F1588" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="G1587" s="73" t="s">
+      <c r="G1588" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="H1587" s="73" t="s">
+      <c r="H1588" s="73" t="s">
         <v>3130</v>
       </c>
-      <c r="I1587" s="73" t="s">
+      <c r="I1588" s="73" t="s">
         <v>3131</v>
       </c>
     </row>
-    <row r="1588" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1588" s="71">
+    <row r="1589" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1589" s="71">
         <v>1756</v>
       </c>
-      <c r="B1588" s="1" t="s">
+      <c r="B1589" s="1" t="s">
         <v>3093</v>
       </c>
-      <c r="C1588" s="71">
-        <v>3</v>
-      </c>
-      <c r="D1588" s="71" t="s">
+      <c r="C1589" s="71">
+        <v>3</v>
+      </c>
+      <c r="D1589" s="71" t="s">
         <v>1720</v>
       </c>
-      <c r="F1588" s="71" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1588" s="71" t="s">
+      <c r="F1589" s="71" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1589" s="71" t="s">
         <v>457</v>
       </c>
-      <c r="H1588" s="71" t="s">
+      <c r="H1589" s="71" t="s">
         <v>3094</v>
       </c>
-      <c r="I1588" s="71" t="s">
+      <c r="I1589" s="71" t="s">
         <v>3095</v>
-      </c>
-    </row>
-    <row r="1589" spans="1:9" s="74" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1589" s="74">
-        <v>1758</v>
-      </c>
-      <c r="B1589" s="1" t="s">
-        <v>3141</v>
-      </c>
-      <c r="C1589" s="74">
-        <v>2</v>
-      </c>
-      <c r="D1589" s="74" t="s">
-        <v>1720</v>
-      </c>
-      <c r="E1589" s="74" t="s">
-        <v>2935</v>
-      </c>
-      <c r="F1589" s="74" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1589" s="74" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1589" s="74" t="s">
-        <v>3150</v>
-      </c>
-      <c r="I1589" s="74" t="s">
-        <v>3000</v>
       </c>
     </row>
     <row r="1590" spans="1:9" s="74" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1590" s="74">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="B1590" s="1" t="s">
-        <v>3142</v>
+        <v>3141</v>
       </c>
       <c r="C1590" s="74">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1590" s="74" t="s">
         <v>1720</v>
       </c>
       <c r="E1590" s="74" t="s">
-        <v>2923</v>
+        <v>2935</v>
       </c>
       <c r="F1590" s="74" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G1590" s="74" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H1590" s="74" t="s">
-        <v>3151</v>
+        <v>3150</v>
       </c>
       <c r="I1590" s="74" t="s">
         <v>3000</v>
@@ -47900,13 +47937,13 @@
     </row>
     <row r="1591" spans="1:9" s="74" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1591" s="74">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="B1591" s="1" t="s">
-        <v>3143</v>
+        <v>3142</v>
       </c>
       <c r="C1591" s="74">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1591" s="74" t="s">
         <v>1720</v>
@@ -47918,99 +47955,102 @@
         <v>9</v>
       </c>
       <c r="G1591" s="74" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1591" s="74" t="s">
+        <v>3151</v>
+      </c>
+      <c r="I1591" s="74" t="s">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="1592" spans="1:9" s="74" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1592" s="74">
+        <v>1760</v>
+      </c>
+      <c r="B1592" s="1" t="s">
+        <v>3143</v>
+      </c>
+      <c r="C1592" s="74">
+        <v>4</v>
+      </c>
+      <c r="D1592" s="74" t="s">
+        <v>1720</v>
+      </c>
+      <c r="E1592" s="74" t="s">
+        <v>2923</v>
+      </c>
+      <c r="F1592" s="74" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1592" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="H1591" s="74" t="s">
+      <c r="H1592" s="74" t="s">
         <v>3152</v>
       </c>
-      <c r="I1591" s="74" t="s">
+      <c r="I1592" s="74" t="s">
         <v>3029</v>
       </c>
     </row>
-    <row r="1592" spans="1:9" s="75" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1592" s="75">
+    <row r="1593" spans="1:9" s="75" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1593" s="75">
         <v>1761</v>
       </c>
-      <c r="B1592" s="1" t="s">
+      <c r="B1593" s="1" t="s">
         <v>3186</v>
       </c>
-      <c r="C1592" s="75">
+      <c r="C1593" s="75">
         <v>4</v>
       </c>
-      <c r="D1592" s="75" t="s">
+      <c r="D1593" s="75" t="s">
         <v>1713</v>
       </c>
-      <c r="F1592" s="75" t="s">
+      <c r="F1593" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="G1592" s="75" t="s">
+      <c r="G1593" s="75" t="s">
         <v>187</v>
       </c>
-      <c r="H1592" s="75" t="s">
+      <c r="H1593" s="75" t="s">
         <v>3187</v>
       </c>
-    </row>
-    <row r="1593" spans="1:9" s="74" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1593" s="74">
-        <v>1763</v>
-      </c>
-      <c r="B1593" s="1" t="s">
-        <v>3144</v>
-      </c>
-      <c r="C1593" s="74">
-        <v>2</v>
-      </c>
-      <c r="D1593" s="74" t="s">
-        <v>1720</v>
-      </c>
-      <c r="F1593" s="74" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1593" s="74" t="s">
-        <v>36</v>
-      </c>
-      <c r="H1593" s="74" t="s">
-        <v>3153</v>
-      </c>
-      <c r="I1593" s="74" t="s">
-        <v>3000</v>
+      <c r="I1593" s="75" t="s">
+        <v>3242</v>
       </c>
     </row>
     <row r="1594" spans="1:9" s="74" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1594" s="74">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="B1594" s="1" t="s">
-        <v>3145</v>
+        <v>3144</v>
       </c>
       <c r="C1594" s="74">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1594" s="74" t="s">
         <v>1720</v>
       </c>
-      <c r="E1594" s="74" t="s">
-        <v>2924</v>
-      </c>
       <c r="F1594" s="74" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G1594" s="74" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="H1594" s="74" t="s">
-        <v>3154</v>
+        <v>3153</v>
       </c>
       <c r="I1594" s="74" t="s">
-        <v>3026</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="1595" spans="1:9" s="74" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1595" s="74">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="B1595" s="1" t="s">
-        <v>3146</v>
+        <v>3145</v>
       </c>
       <c r="C1595" s="74">
         <v>3</v>
@@ -48019,97 +48059,97 @@
         <v>1720</v>
       </c>
       <c r="E1595" s="74" t="s">
+        <v>2924</v>
+      </c>
+      <c r="F1595" s="74" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1595" s="74" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1595" s="74" t="s">
+        <v>3154</v>
+      </c>
+      <c r="I1595" s="74" t="s">
+        <v>3026</v>
+      </c>
+    </row>
+    <row r="1596" spans="1:9" s="74" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1596" s="74">
+        <v>1765</v>
+      </c>
+      <c r="B1596" s="1" t="s">
+        <v>3146</v>
+      </c>
+      <c r="C1596" s="74">
+        <v>3</v>
+      </c>
+      <c r="D1596" s="74" t="s">
+        <v>1720</v>
+      </c>
+      <c r="E1596" s="74" t="s">
         <v>2935</v>
       </c>
-      <c r="F1595" s="74" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1595" s="74" t="s">
+      <c r="F1596" s="74" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1596" s="74" t="s">
         <v>187</v>
       </c>
-      <c r="H1595" s="74" t="s">
+      <c r="H1596" s="74" t="s">
         <v>3155</v>
       </c>
-      <c r="I1595" s="74" t="s">
+      <c r="I1596" s="74" t="s">
         <v>3045</v>
       </c>
     </row>
-    <row r="1596" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1596" s="76">
+    <row r="1597" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1597" s="76">
         <v>1766</v>
       </c>
-      <c r="B1596" s="1" t="s">
+      <c r="B1597" s="1" t="s">
         <v>3215</v>
       </c>
-      <c r="C1596" s="76">
+      <c r="C1597" s="76">
         <v>4</v>
       </c>
-      <c r="D1596" s="76" t="s">
+      <c r="D1597" s="76" t="s">
         <v>1713</v>
       </c>
-      <c r="F1596" s="76" t="s">
+      <c r="F1597" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="G1596" s="76" t="s">
+      <c r="G1597" s="76" t="s">
         <v>121</v>
       </c>
-      <c r="H1596" s="76" t="s">
+      <c r="H1597" s="76" t="s">
         <v>3235</v>
       </c>
-      <c r="I1596" s="76" t="s">
+      <c r="I1597" s="76" t="s">
         <v>3081</v>
-      </c>
-    </row>
-    <row r="1597" spans="1:9" s="74" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1597" s="74">
-        <v>1768</v>
-      </c>
-      <c r="B1597" s="1" t="s">
-        <v>3147</v>
-      </c>
-      <c r="C1597" s="74">
-        <v>1</v>
-      </c>
-      <c r="D1597" s="74" t="s">
-        <v>1717</v>
-      </c>
-      <c r="F1597" s="74" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1597" s="74" t="s">
-        <v>36</v>
-      </c>
-      <c r="H1597" s="74" t="s">
-        <v>3156</v>
-      </c>
-      <c r="I1597" s="74" t="s">
-        <v>3000</v>
       </c>
     </row>
     <row r="1598" spans="1:9" s="74" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1598" s="74">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="B1598" s="1" t="s">
-        <v>3148</v>
+        <v>3147</v>
       </c>
       <c r="C1598" s="74">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1598" s="74" t="s">
-        <v>1720</v>
-      </c>
-      <c r="E1598" s="74" t="s">
-        <v>2924</v>
+        <v>1717</v>
       </c>
       <c r="F1598" s="74" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G1598" s="74" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="H1598" s="74" t="s">
-        <v>3157</v>
+        <v>3156</v>
       </c>
       <c r="I1598" s="74" t="s">
         <v>3000</v>
@@ -48117,164 +48157,167 @@
     </row>
     <row r="1599" spans="1:9" s="74" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1599" s="74">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="B1599" s="1" t="s">
-        <v>3149</v>
+        <v>3148</v>
       </c>
       <c r="C1599" s="74">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1599" s="74" t="s">
         <v>1720</v>
       </c>
       <c r="E1599" s="74" t="s">
+        <v>2924</v>
+      </c>
+      <c r="F1599" s="74" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1599" s="74" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1599" s="74" t="s">
+        <v>3157</v>
+      </c>
+      <c r="I1599" s="74" t="s">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="1600" spans="1:9" s="74" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1600" s="74">
+        <v>1770</v>
+      </c>
+      <c r="B1600" s="1" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C1600" s="74">
+        <v>4</v>
+      </c>
+      <c r="D1600" s="74" t="s">
+        <v>1720</v>
+      </c>
+      <c r="E1600" s="74" t="s">
         <v>2935</v>
       </c>
-      <c r="F1599" s="74" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1599" s="74" t="s">
+      <c r="F1600" s="74" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1600" s="74" t="s">
         <v>121</v>
       </c>
-      <c r="H1599" s="74" t="s">
+      <c r="H1600" s="74" t="s">
         <v>3158</v>
       </c>
-      <c r="I1599" s="74" t="s">
+      <c r="I1600" s="74" t="s">
         <v>3026</v>
       </c>
     </row>
-    <row r="1600" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1600" s="76">
+    <row r="1601" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1601" s="76">
         <v>1771</v>
       </c>
-      <c r="B1600" s="1" t="s">
+      <c r="B1601" s="1" t="s">
         <v>3213</v>
       </c>
-      <c r="C1600" s="76">
+      <c r="C1601" s="76">
         <v>4</v>
       </c>
-      <c r="D1600" s="76" t="s">
+      <c r="D1601" s="76" t="s">
         <v>1720</v>
       </c>
-      <c r="E1600" s="76" t="s">
+      <c r="E1601" s="76" t="s">
         <v>2935</v>
       </c>
-      <c r="F1600" s="76" t="s">
+      <c r="F1601" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="G1600" s="76" t="s">
+      <c r="G1601" s="76" t="s">
         <v>28</v>
       </c>
-      <c r="H1600" s="76" t="s">
+      <c r="H1601" s="76" t="s">
         <v>3214</v>
       </c>
-      <c r="I1600" s="76" t="s">
+      <c r="I1601" s="76" t="s">
         <v>3026</v>
-      </c>
-    </row>
-    <row r="1601" spans="1:9" s="74" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1601" s="74">
-        <v>1773</v>
-      </c>
-      <c r="B1601" s="1" t="s">
-        <v>3140</v>
-      </c>
-      <c r="C1601" s="74">
-        <v>1</v>
-      </c>
-      <c r="D1601" s="74" t="s">
-        <v>1717</v>
-      </c>
-      <c r="F1601" s="74" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1601" s="74" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1601" s="74" t="s">
-        <v>3159</v>
-      </c>
-      <c r="I1601" s="74" t="s">
-        <v>3000</v>
       </c>
     </row>
     <row r="1602" spans="1:9" s="74" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1602" s="74">
+        <v>1773</v>
+      </c>
+      <c r="B1602" s="1" t="s">
+        <v>3140</v>
+      </c>
+      <c r="C1602" s="74">
+        <v>1</v>
+      </c>
+      <c r="D1602" s="74" t="s">
+        <v>1717</v>
+      </c>
+      <c r="F1602" s="74" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1602" s="74" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1602" s="74" t="s">
+        <v>3159</v>
+      </c>
+      <c r="I1602" s="74" t="s">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="1603" spans="1:9" s="74" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1603" s="74">
         <v>1774</v>
       </c>
-      <c r="B1602" s="1" t="s">
+      <c r="B1603" s="1" t="s">
         <v>3139</v>
       </c>
-      <c r="C1602" s="74">
-        <v>3</v>
-      </c>
-      <c r="D1602" s="74" t="s">
+      <c r="C1603" s="74">
+        <v>3</v>
+      </c>
+      <c r="D1603" s="74" t="s">
         <v>1720</v>
       </c>
-      <c r="E1602" s="74" t="s">
+      <c r="E1603" s="74" t="s">
         <v>2935</v>
       </c>
-      <c r="F1602" s="74" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1602" s="74" t="s">
+      <c r="F1603" s="74" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1603" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="H1602" s="74" t="s">
+      <c r="H1603" s="74" t="s">
         <v>3160</v>
       </c>
-      <c r="I1602" s="74" t="s">
+      <c r="I1603" s="74" t="s">
         <v>3161</v>
-      </c>
-    </row>
-    <row r="1603" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1603" s="71">
-        <v>1775</v>
-      </c>
-      <c r="B1603" s="1" t="s">
-        <v>3138</v>
-      </c>
-      <c r="C1603" s="71">
-        <v>3</v>
-      </c>
-      <c r="D1603" s="71" t="s">
-        <v>2810</v>
-      </c>
-      <c r="F1603" s="71" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1603" s="71" t="s">
-        <v>41</v>
-      </c>
-      <c r="H1603" s="71" t="s">
-        <v>3162</v>
-      </c>
-      <c r="I1603" s="71" t="s">
-        <v>3000</v>
       </c>
     </row>
     <row r="1604" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1604" s="71">
-        <v>1779</v>
+        <v>1775</v>
       </c>
       <c r="B1604" s="1" t="s">
-        <v>3137</v>
+        <v>3138</v>
       </c>
       <c r="C1604" s="71">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D1604" s="71" t="s">
-        <v>1717</v>
+        <v>2810</v>
       </c>
       <c r="F1604" s="71" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G1604" s="71" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="H1604" s="71" t="s">
-        <v>3163</v>
+        <v>3162</v>
       </c>
       <c r="I1604" s="71" t="s">
         <v>3000</v>
@@ -48282,132 +48325,132 @@
     </row>
     <row r="1605" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1605" s="71">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="B1605" s="1" t="s">
-        <v>3136</v>
+        <v>3137</v>
       </c>
       <c r="C1605" s="71">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1605" s="71" t="s">
-        <v>1720</v>
+        <v>1717</v>
       </c>
       <c r="F1605" s="71" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G1605" s="71" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H1605" s="71" t="s">
-        <v>3164</v>
+        <v>3163</v>
       </c>
       <c r="I1605" s="71" t="s">
-        <v>3002</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="1606" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1606" s="71">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="B1606" s="1" t="s">
-        <v>3135</v>
+        <v>3136</v>
       </c>
       <c r="C1606" s="71">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1606" s="71" t="s">
         <v>1720</v>
       </c>
-      <c r="E1606" s="71" t="s">
+      <c r="F1606" s="71" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1606" s="71" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1606" s="71" t="s">
+        <v>3164</v>
+      </c>
+      <c r="I1606" s="71" t="s">
+        <v>3002</v>
+      </c>
+    </row>
+    <row r="1607" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1607" s="71">
+        <v>1781</v>
+      </c>
+      <c r="B1607" s="1" t="s">
+        <v>3135</v>
+      </c>
+      <c r="C1607" s="71">
+        <v>3</v>
+      </c>
+      <c r="D1607" s="71" t="s">
+        <v>1720</v>
+      </c>
+      <c r="E1607" s="71" t="s">
         <v>2935</v>
       </c>
-      <c r="F1606" s="71" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1606" s="71" t="s">
+      <c r="F1607" s="71" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1607" s="71" t="s">
         <v>36</v>
       </c>
-      <c r="H1606" s="71" t="s">
+      <c r="H1607" s="71" t="s">
         <v>3165</v>
       </c>
-      <c r="I1606" s="71" t="s">
+      <c r="I1607" s="71" t="s">
         <v>3166</v>
       </c>
     </row>
-    <row r="1607" spans="1:9" s="75" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1607" s="75">
+    <row r="1608" spans="1:9" s="75" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1608" s="75">
         <v>1782</v>
       </c>
-      <c r="B1607" s="1" t="s">
+      <c r="B1608" s="1" t="s">
         <v>3181</v>
       </c>
-      <c r="C1607" s="75">
+      <c r="C1608" s="75">
         <v>4</v>
       </c>
-      <c r="D1607" s="75" t="s">
+      <c r="D1608" s="75" t="s">
         <v>1713</v>
       </c>
-      <c r="F1607" s="75" t="s">
+      <c r="F1608" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="G1607" s="75" t="s">
+      <c r="G1608" s="75" t="s">
         <v>187</v>
       </c>
-      <c r="H1607" s="75" t="s">
+      <c r="H1608" s="75" t="s">
         <v>3182</v>
       </c>
-      <c r="I1607" s="75" t="s">
+      <c r="I1608" s="75" t="s">
         <v>3220</v>
-      </c>
-    </row>
-    <row r="1608" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1608" s="71">
-        <v>1784</v>
-      </c>
-      <c r="B1608" s="1" t="s">
-        <v>3134</v>
-      </c>
-      <c r="C1608" s="71">
-        <v>1</v>
-      </c>
-      <c r="D1608" s="71" t="s">
-        <v>1717</v>
-      </c>
-      <c r="F1608" s="71" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1608" s="71" t="s">
-        <v>36</v>
-      </c>
-      <c r="H1608" s="71" t="s">
-        <v>3167</v>
-      </c>
-      <c r="I1608" s="71" t="s">
-        <v>3000</v>
       </c>
     </row>
     <row r="1609" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1609" s="71">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="B1609" s="1" t="s">
-        <v>3133</v>
+        <v>3134</v>
       </c>
       <c r="C1609" s="71">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1609" s="71" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="F1609" s="71" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G1609" s="71" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="H1609" s="71" t="s">
-        <v>3169</v>
+        <v>3167</v>
       </c>
       <c r="I1609" s="71" t="s">
         <v>3000</v>
@@ -48415,106 +48458,106 @@
     </row>
     <row r="1610" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1610" s="71">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="B1610" s="1" t="s">
-        <v>3132</v>
+        <v>3133</v>
       </c>
       <c r="C1610" s="71">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1610" s="71" t="s">
-        <v>1720</v>
-      </c>
-      <c r="E1610" s="71" t="s">
-        <v>2923</v>
+        <v>1718</v>
       </c>
       <c r="F1610" s="71" t="s">
         <v>9</v>
       </c>
       <c r="G1610" s="71" t="s">
-        <v>187</v>
+        <v>25</v>
       </c>
       <c r="H1610" s="71" t="s">
-        <v>3168</v>
+        <v>3169</v>
       </c>
       <c r="I1610" s="71" t="s">
-        <v>3029</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="1611" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1611" s="71">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="B1611" s="1" t="s">
-        <v>3170</v>
+        <v>3132</v>
       </c>
       <c r="C1611" s="71">
         <v>4</v>
       </c>
       <c r="D1611" s="71" t="s">
-        <v>2810</v>
+        <v>1720</v>
+      </c>
+      <c r="E1611" s="71" t="s">
+        <v>2923</v>
       </c>
       <c r="F1611" s="71" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G1611" s="71" t="s">
-        <v>28</v>
+        <v>187</v>
       </c>
       <c r="H1611" s="71" t="s">
-        <v>3171</v>
+        <v>3168</v>
       </c>
       <c r="I1611" s="71" t="s">
-        <v>3023</v>
+        <v>3029</v>
       </c>
     </row>
     <row r="1612" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1612" s="71">
-        <v>1790</v>
+        <v>1787</v>
       </c>
       <c r="B1612" s="1" t="s">
-        <v>3172</v>
+        <v>3170</v>
       </c>
       <c r="C1612" s="71">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1612" s="71" t="s">
-        <v>1717</v>
+        <v>2810</v>
       </c>
       <c r="F1612" s="71" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G1612" s="71" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="H1612" s="71" t="s">
-        <v>3174</v>
+        <v>3171</v>
       </c>
       <c r="I1612" s="71" t="s">
-        <v>3000</v>
+        <v>3023</v>
       </c>
     </row>
     <row r="1613" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1613" s="71">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="B1613" s="1" t="s">
-        <v>3173</v>
+        <v>3172</v>
       </c>
       <c r="C1613" s="71">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1613" s="71" t="s">
         <v>1717</v>
       </c>
       <c r="F1613" s="71" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G1613" s="71" t="s">
-        <v>187</v>
+        <v>36</v>
       </c>
       <c r="H1613" s="71" t="s">
-        <v>3175</v>
+        <v>3174</v>
       </c>
       <c r="I1613" s="71" t="s">
         <v>3000</v>
@@ -48522,39 +48565,36 @@
     </row>
     <row r="1614" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1614" s="71">
-        <v>1792</v>
+        <v>1791</v>
       </c>
       <c r="B1614" s="1" t="s">
-        <v>3176</v>
+        <v>3173</v>
       </c>
       <c r="C1614" s="71">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1614" s="71" t="s">
-        <v>1720</v>
-      </c>
-      <c r="E1614" s="71" t="s">
-        <v>2923</v>
+        <v>1717</v>
       </c>
       <c r="F1614" s="71" t="s">
         <v>9</v>
       </c>
       <c r="G1614" s="71" t="s">
-        <v>95</v>
+        <v>187</v>
       </c>
       <c r="H1614" s="71" t="s">
-        <v>3180</v>
+        <v>3175</v>
       </c>
       <c r="I1614" s="71" t="s">
-        <v>3029</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="1615" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1615" s="71">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="B1615" s="1" t="s">
-        <v>3177</v>
+        <v>3176</v>
       </c>
       <c r="C1615" s="71">
         <v>4</v>
@@ -48563,82 +48603,82 @@
         <v>1720</v>
       </c>
       <c r="E1615" s="71" t="s">
-        <v>2935</v>
+        <v>2923</v>
       </c>
       <c r="F1615" s="71" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G1615" s="71" t="s">
-        <v>21</v>
+        <v>95</v>
       </c>
       <c r="H1615" s="71" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
       <c r="I1615" s="71" t="s">
-        <v>3179</v>
+        <v>3029</v>
       </c>
     </row>
     <row r="1616" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1616" s="71">
-        <v>1796</v>
+        <v>1793</v>
       </c>
       <c r="B1616" s="1" t="s">
-        <v>3188</v>
+        <v>3177</v>
       </c>
       <c r="C1616" s="71">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1616" s="71" t="s">
-        <v>1717</v>
+        <v>1720</v>
+      </c>
+      <c r="E1616" s="71" t="s">
+        <v>2935</v>
       </c>
       <c r="F1616" s="71" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G1616" s="71" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="H1616" s="71" t="s">
-        <v>3195</v>
+        <v>3178</v>
       </c>
       <c r="I1616" s="71" t="s">
-        <v>3000</v>
+        <v>3179</v>
       </c>
     </row>
     <row r="1617" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1617" s="71">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="B1617" s="1" t="s">
-        <v>3189</v>
+        <v>3188</v>
       </c>
       <c r="C1617" s="71">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1617" s="71" t="s">
-        <v>1720</v>
-      </c>
-      <c r="E1617" s="71" t="s">
-        <v>2935</v>
+        <v>1717</v>
       </c>
       <c r="F1617" s="71" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G1617" s="71" t="s">
-        <v>457</v>
+        <v>36</v>
       </c>
       <c r="H1617" s="71" t="s">
-        <v>3196</v>
+        <v>3195</v>
       </c>
       <c r="I1617" s="71" t="s">
-        <v>3029</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="1618" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1618" s="71">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="B1618" s="1" t="s">
-        <v>3190</v>
+        <v>3189</v>
       </c>
       <c r="C1618" s="71">
         <v>3</v>
@@ -48646,205 +48686,208 @@
       <c r="D1618" s="71" t="s">
         <v>1720</v>
       </c>
+      <c r="E1618" s="71" t="s">
+        <v>2935</v>
+      </c>
       <c r="F1618" s="71" t="s">
         <v>9</v>
       </c>
       <c r="G1618" s="71" t="s">
-        <v>25</v>
+        <v>457</v>
       </c>
       <c r="H1618" s="71" t="s">
-        <v>3197</v>
+        <v>3196</v>
       </c>
       <c r="I1618" s="71" t="s">
-        <v>3000</v>
+        <v>3029</v>
       </c>
     </row>
     <row r="1619" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1619" s="71">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="B1619" s="1" t="s">
-        <v>3191</v>
+        <v>3190</v>
       </c>
       <c r="C1619" s="71">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1619" s="71" t="s">
-        <v>1713</v>
+        <v>1720</v>
       </c>
       <c r="F1619" s="71" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G1619" s="71" t="s">
-        <v>121</v>
+        <v>25</v>
       </c>
       <c r="H1619" s="71" t="s">
-        <v>3198</v>
+        <v>3197</v>
       </c>
       <c r="I1619" s="71" t="s">
-        <v>3199</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="1620" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1620" s="71">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="B1620" s="1" t="s">
-        <v>3192</v>
+        <v>3191</v>
       </c>
       <c r="C1620" s="71">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1620" s="71" t="s">
-        <v>1720</v>
+        <v>1713</v>
       </c>
       <c r="F1620" s="71" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G1620" s="71" t="s">
-        <v>21</v>
+        <v>121</v>
       </c>
       <c r="H1620" s="71" t="s">
-        <v>3200</v>
+        <v>3198</v>
       </c>
       <c r="I1620" s="71" t="s">
-        <v>3000</v>
+        <v>3199</v>
       </c>
     </row>
     <row r="1621" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1621" s="71">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="B1621" s="1" t="s">
-        <v>3193</v>
+        <v>3192</v>
       </c>
       <c r="C1621" s="71">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1621" s="71" t="s">
         <v>1720</v>
       </c>
-      <c r="E1621" s="71" t="s">
-        <v>2924</v>
-      </c>
       <c r="F1621" s="71" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G1621" s="71" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="H1621" s="71" t="s">
-        <v>3201</v>
+        <v>3200</v>
       </c>
       <c r="I1621" s="71" t="s">
-        <v>3018</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="1622" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1622" s="71">
-        <v>1802</v>
+        <v>1801</v>
       </c>
       <c r="B1622" s="1" t="s">
-        <v>3194</v>
+        <v>3193</v>
       </c>
       <c r="C1622" s="71">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1622" s="71" t="s">
         <v>1720</v>
       </c>
       <c r="E1622" s="71" t="s">
-        <v>2935</v>
+        <v>2924</v>
       </c>
       <c r="F1622" s="71" t="s">
         <v>9</v>
       </c>
       <c r="G1622" s="71" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="H1622" s="71" t="s">
-        <v>3202</v>
+        <v>3201</v>
       </c>
       <c r="I1622" s="71" t="s">
-        <v>3002</v>
+        <v>3018</v>
       </c>
     </row>
     <row r="1623" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1623" s="71">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="B1623" s="1" t="s">
-        <v>3203</v>
+        <v>3194</v>
       </c>
       <c r="C1623" s="71">
         <v>4</v>
       </c>
       <c r="D1623" s="71" t="s">
-        <v>2810</v>
+        <v>1720</v>
+      </c>
+      <c r="E1623" s="71" t="s">
+        <v>2935</v>
       </c>
       <c r="F1623" s="71" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G1623" s="71" t="s">
-        <v>134</v>
+        <v>13</v>
       </c>
       <c r="H1623" s="71" t="s">
-        <v>3208</v>
+        <v>3202</v>
       </c>
       <c r="I1623" s="71" t="s">
-        <v>3018</v>
+        <v>3002</v>
       </c>
     </row>
     <row r="1624" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1624" s="71">
-        <v>1805</v>
+        <v>1803</v>
       </c>
       <c r="B1624" s="1" t="s">
-        <v>3204</v>
+        <v>3203</v>
       </c>
       <c r="C1624" s="71">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D1624" s="71" t="s">
-        <v>1768</v>
-      </c>
-      <c r="E1624" s="71" t="s">
-        <v>2935</v>
+        <v>2810</v>
       </c>
       <c r="F1624" s="71" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G1624" s="71" t="s">
-        <v>36</v>
+        <v>134</v>
       </c>
       <c r="H1624" s="71" t="s">
-        <v>3209</v>
+        <v>3208</v>
       </c>
       <c r="I1624" s="71" t="s">
-        <v>3000</v>
+        <v>3018</v>
       </c>
     </row>
     <row r="1625" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1625" s="71">
-        <v>1806</v>
+        <v>1805</v>
       </c>
       <c r="B1625" s="1" t="s">
-        <v>3205</v>
+        <v>3204</v>
       </c>
       <c r="C1625" s="71">
         <v>2</v>
       </c>
       <c r="D1625" s="71" t="s">
-        <v>1720</v>
+        <v>1768</v>
+      </c>
+      <c r="E1625" s="71" t="s">
+        <v>2935</v>
       </c>
       <c r="F1625" s="71" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G1625" s="71" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="H1625" s="71" t="s">
-        <v>3210</v>
+        <v>3209</v>
       </c>
       <c r="I1625" s="71" t="s">
         <v>3000</v>
@@ -48852,10 +48895,10 @@
     </row>
     <row r="1626" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1626" s="71">
-        <v>1807</v>
+        <v>1806</v>
       </c>
       <c r="B1626" s="1" t="s">
-        <v>3206</v>
+        <v>3205</v>
       </c>
       <c r="C1626" s="71">
         <v>2</v>
@@ -48867,10 +48910,10 @@
         <v>9</v>
       </c>
       <c r="G1626" s="71" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="H1626" s="71" t="s">
-        <v>3211</v>
+        <v>3210</v>
       </c>
       <c r="I1626" s="71" t="s">
         <v>3000</v>
@@ -48878,103 +48921,103 @@
     </row>
     <row r="1627" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1627" s="71">
-        <v>1808</v>
+        <v>1807</v>
       </c>
       <c r="B1627" s="1" t="s">
-        <v>3207</v>
+        <v>3206</v>
       </c>
       <c r="C1627" s="71">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1627" s="71" t="s">
-        <v>1713</v>
+        <v>1720</v>
       </c>
       <c r="F1627" s="71" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G1627" s="71" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="H1627" s="71" t="s">
-        <v>3212</v>
+        <v>3211</v>
       </c>
       <c r="I1627" s="71" t="s">
-        <v>3002</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="1628" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1628" s="71">
-        <v>1812</v>
+        <v>1808</v>
       </c>
       <c r="B1628" s="1" t="s">
-        <v>3216</v>
+        <v>3207</v>
       </c>
       <c r="C1628" s="71">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1628" s="71" t="s">
-        <v>1720</v>
+        <v>1713</v>
       </c>
       <c r="F1628" s="71" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G1628" s="71" t="s">
         <v>25</v>
       </c>
       <c r="H1628" s="71" t="s">
-        <v>3217</v>
+        <v>3212</v>
       </c>
       <c r="I1628" s="71" t="s">
-        <v>3057</v>
+        <v>3002</v>
       </c>
     </row>
     <row r="1629" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1629" s="71">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="B1629" s="1" t="s">
-        <v>3218</v>
+        <v>3216</v>
       </c>
       <c r="C1629" s="71">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1629" s="71" t="s">
-        <v>2810</v>
+        <v>1720</v>
       </c>
       <c r="F1629" s="71" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G1629" s="71" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="H1629" s="71" t="s">
-        <v>3219</v>
+        <v>3217</v>
       </c>
       <c r="I1629" s="71" t="s">
-        <v>3000</v>
+        <v>3057</v>
       </c>
     </row>
     <row r="1630" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1630" s="71">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="B1630" s="1" t="s">
-        <v>3221</v>
+        <v>3218</v>
       </c>
       <c r="C1630" s="71">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1630" s="71" t="s">
-        <v>1720</v>
+        <v>2810</v>
       </c>
       <c r="F1630" s="71" t="s">
         <v>9</v>
       </c>
       <c r="G1630" s="71" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="H1630" s="71" t="s">
-        <v>3234</v>
+        <v>3219</v>
       </c>
       <c r="I1630" s="71" t="s">
         <v>3000</v>
@@ -48982,10 +49025,10 @@
     </row>
     <row r="1631" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1631" s="71">
-        <v>1815</v>
+        <v>1814</v>
       </c>
       <c r="B1631" s="1" t="s">
-        <v>3231</v>
+        <v>3221</v>
       </c>
       <c r="C1631" s="71">
         <v>4</v>
@@ -48994,65 +49037,65 @@
         <v>1720</v>
       </c>
       <c r="F1631" s="71" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G1631" s="71" t="s">
-        <v>121</v>
+        <v>6</v>
       </c>
       <c r="H1631" s="71" t="s">
-        <v>3232</v>
+        <v>3234</v>
       </c>
       <c r="I1631" s="71" t="s">
-        <v>3233</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="1632" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1632" s="71">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="B1632" s="1" t="s">
-        <v>3229</v>
+        <v>3231</v>
       </c>
       <c r="C1632" s="71">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1632" s="71" t="s">
-        <v>1717</v>
+        <v>1720</v>
       </c>
       <c r="F1632" s="71" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G1632" s="71" t="s">
-        <v>36</v>
+        <v>121</v>
       </c>
       <c r="H1632" s="71" t="s">
-        <v>3230</v>
+        <v>3232</v>
       </c>
       <c r="I1632" s="71" t="s">
-        <v>3000</v>
+        <v>3233</v>
       </c>
     </row>
     <row r="1633" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1633" s="71">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="B1633" s="1" t="s">
-        <v>3227</v>
+        <v>3229</v>
       </c>
       <c r="C1633" s="71">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1633" s="71" t="s">
-        <v>1720</v>
+        <v>1717</v>
       </c>
       <c r="F1633" s="71" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G1633" s="71" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="H1633" s="71" t="s">
-        <v>3228</v>
+        <v>3230</v>
       </c>
       <c r="I1633" s="71" t="s">
         <v>3000</v>
@@ -49060,73 +49103,191 @@
     </row>
     <row r="1634" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1634" s="71">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="B1634" s="1" t="s">
-        <v>3225</v>
+        <v>3227</v>
       </c>
       <c r="C1634" s="71">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1634" s="71" t="s">
         <v>1720</v>
       </c>
-      <c r="E1634" s="71" t="s">
-        <v>2935</v>
-      </c>
       <c r="F1634" s="71" t="s">
         <v>9</v>
       </c>
       <c r="G1634" s="71" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="H1634" s="71" t="s">
-        <v>3226</v>
+        <v>3228</v>
       </c>
       <c r="I1634" s="71" t="s">
-        <v>3224</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="1635" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1635" s="71">
-        <v>1819</v>
+        <v>1818</v>
       </c>
       <c r="B1635" s="1" t="s">
-        <v>3222</v>
+        <v>3225</v>
       </c>
       <c r="C1635" s="71">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1635" s="71" t="s">
-        <v>1713</v>
+        <v>1720</v>
+      </c>
+      <c r="E1635" s="71" t="s">
+        <v>2935</v>
       </c>
       <c r="F1635" s="71" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G1635" s="71" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H1635" s="71" t="s">
-        <v>3223</v>
+        <v>3226</v>
       </c>
       <c r="I1635" s="71" t="s">
         <v>3224</v>
       </c>
     </row>
     <row r="1636" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1636" s="1"/>
+      <c r="A1636" s="71">
+        <v>1819</v>
+      </c>
+      <c r="B1636" s="1" t="s">
+        <v>3222</v>
+      </c>
+      <c r="C1636" s="71">
+        <v>4</v>
+      </c>
+      <c r="D1636" s="71" t="s">
+        <v>1713</v>
+      </c>
+      <c r="F1636" s="71" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1636" s="71" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1636" s="71" t="s">
+        <v>3223</v>
+      </c>
+      <c r="I1636" s="71" t="s">
+        <v>3224</v>
+      </c>
     </row>
     <row r="1637" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1637" s="1"/>
+      <c r="A1637" s="71">
+        <v>1822</v>
+      </c>
+      <c r="B1637" s="1" t="s">
+        <v>3238</v>
+      </c>
+      <c r="C1637" s="71">
+        <v>1</v>
+      </c>
+      <c r="D1637" s="71" t="s">
+        <v>1717</v>
+      </c>
+      <c r="F1637" s="71" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1637" s="71" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1637" s="71" t="s">
+        <v>3243</v>
+      </c>
+      <c r="I1637" s="71" t="s">
+        <v>3000</v>
+      </c>
     </row>
     <row r="1638" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1638" s="1"/>
+      <c r="A1638" s="71">
+        <v>1823</v>
+      </c>
+      <c r="B1638" s="1" t="s">
+        <v>3239</v>
+      </c>
+      <c r="C1638" s="71">
+        <v>3</v>
+      </c>
+      <c r="D1638" s="71" t="s">
+        <v>1718</v>
+      </c>
+      <c r="F1638" s="71" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1638" s="71" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1638" s="71" t="s">
+        <v>3244</v>
+      </c>
+      <c r="I1638" s="71" t="s">
+        <v>3245</v>
+      </c>
     </row>
     <row r="1639" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1639" s="1"/>
+      <c r="A1639" s="71">
+        <v>1824</v>
+      </c>
+      <c r="B1639" s="1" t="s">
+        <v>3240</v>
+      </c>
+      <c r="C1639" s="71">
+        <v>3</v>
+      </c>
+      <c r="D1639" s="71" t="s">
+        <v>1720</v>
+      </c>
+      <c r="F1639" s="71" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1639" s="71" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1639" s="71" t="s">
+        <v>3246</v>
+      </c>
+      <c r="I1639" s="71" t="s">
+        <v>3000</v>
+      </c>
     </row>
     <row r="1640" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1640" s="1"/>
+      <c r="A1640" s="71">
+        <v>1825</v>
+      </c>
+      <c r="B1640" s="1" t="s">
+        <v>3241</v>
+      </c>
+      <c r="C1640" s="71">
+        <v>4</v>
+      </c>
+      <c r="D1640" s="71" t="s">
+        <v>1720</v>
+      </c>
+      <c r="E1640" s="71" t="s">
+        <v>2935</v>
+      </c>
+      <c r="F1640" s="71" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1640" s="71" t="s">
+        <v>457</v>
+      </c>
+      <c r="H1640" s="71" t="s">
+        <v>3247</v>
+      </c>
+      <c r="I1640" s="71" t="s">
+        <v>3029</v>
+      </c>
     </row>
     <row r="1641" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B1641" s="1"/>
@@ -49191,24 +49352,15 @@
     <row r="1661" spans="1:8" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B1661" s="1"/>
     </row>
-    <row r="1662" spans="1:8" s="62" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1662" spans="1:8" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B1662" s="1"/>
     </row>
-    <row r="1663" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A1663" s="77" t="s">
-        <v>1721</v>
-      </c>
-      <c r="B1663" s="77"/>
-      <c r="C1663" s="77"/>
-      <c r="D1663" s="77"/>
-      <c r="E1663" s="77"/>
-      <c r="F1663" s="77"/>
-      <c r="G1663" s="77"/>
-      <c r="H1663" s="77"/>
+    <row r="1663" spans="1:8" s="62" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1663" s="1"/>
     </row>
     <row r="1664" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1664" s="78" t="s">
-        <v>2760</v>
+        <v>1721</v>
       </c>
       <c r="B1664" s="78"/>
       <c r="C1664" s="78"/>
@@ -49218,11 +49370,23 @@
       <c r="G1664" s="78"/>
       <c r="H1664" s="78"/>
     </row>
+    <row r="1665" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A1665" s="79" t="s">
+        <v>2760</v>
+      </c>
+      <c r="B1665" s="79"/>
+      <c r="C1665" s="79"/>
+      <c r="D1665" s="79"/>
+      <c r="E1665" s="79"/>
+      <c r="F1665" s="79"/>
+      <c r="G1665" s="79"/>
+      <c r="H1665" s="79"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:J1664" xr:uid="{CB07CE66-8F15-46FF-A90A-43FDB2DB428F}"/>
+  <autoFilter ref="A1:J1665" xr:uid="{CB07CE66-8F15-46FF-A90A-43FDB2DB428F}"/>
   <mergeCells count="2">
-    <mergeCell ref="A1663:H1663"/>
     <mergeCell ref="A1664:H1664"/>
+    <mergeCell ref="A1665:H1665"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" display="https://leetcode.com/problems/zigzag-conversion" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -50584,8 +50748,8 @@
     <hyperlink ref="B1573" r:id="rId1357" display="https://leetcode.com/problems/latest-time-by-replacing-hidden-digits" xr:uid="{FFB49099-001C-44BA-B278-B00A3A11671D}"/>
     <hyperlink ref="B1578" r:id="rId1358" display="https://leetcode.com/problems/maximum-number-of-balls-in-a-box" xr:uid="{18366F0A-A3CF-4126-BA67-AE626616A691}"/>
     <hyperlink ref="B1583" r:id="rId1359" display="https://leetcode.com/problems/sum-of-unique-elements" xr:uid="{B93FC0DC-83AD-4019-B434-79BA3ECF3C27}"/>
-    <hyperlink ref="B1584" r:id="rId1360" display="https://leetcode.com/problems/check-if-array-is-sorted-and-rotated" xr:uid="{EFE2F4D1-0950-49F4-B136-E72B4AF0D449}"/>
-    <hyperlink ref="B1588" r:id="rId1361" display="https://leetcode.com/problems/design-most-recently-used-queue" xr:uid="{74130DE4-2D04-4D3B-BEF6-58D20F61C5E0}"/>
+    <hyperlink ref="B1585" r:id="rId1360" display="https://leetcode.com/problems/check-if-array-is-sorted-and-rotated" xr:uid="{EFE2F4D1-0950-49F4-B136-E72B4AF0D449}"/>
+    <hyperlink ref="B1589" r:id="rId1361" display="https://leetcode.com/problems/design-most-recently-used-queue" xr:uid="{74130DE4-2D04-4D3B-BEF6-58D20F61C5E0}"/>
     <hyperlink ref="B1582" r:id="rId1362" display="https://leetcode.com/problems/maximum-subarray-sum-after-one-operation" xr:uid="{9ABF6461-8E02-44BB-9725-D17CBB89070F}"/>
     <hyperlink ref="B1577" r:id="rId1363" display="https://leetcode.com/problems/find-distance-in-a-binary-tree" xr:uid="{92429178-67ED-4AD2-859E-9E026EEAF7BD}"/>
     <hyperlink ref="B1563" r:id="rId1364" display="https://leetcode.com/problems/checking-existence-of-edge-length-limited-paths-ii" xr:uid="{A09CC7F8-57B2-4D18-8FCA-F1B91534ED7F}"/>
@@ -50598,55 +50762,60 @@
     <hyperlink ref="B1576" r:id="rId1371" display="https://leetcode.com/problems/building-boxes" xr:uid="{BAA2B99F-FF9E-4F72-B24E-7E96F1A3F674}"/>
     <hyperlink ref="B1579" r:id="rId1372" display="https://leetcode.com/problems/restore-the-array-from-adjacent-pairs" xr:uid="{700623B8-2FF0-4710-A00D-C7B2A0A7ABA6}"/>
     <hyperlink ref="B1580" r:id="rId1373" display="https://leetcode.com/problems/can-you-eat-your-favorite-candy-on-your-favorite-day" xr:uid="{BEE070B5-F64C-4698-BCE5-1E36A8583440}"/>
-    <hyperlink ref="B1585" r:id="rId1374" display="https://leetcode.com/problems/maximum-score-from-removing-stones" xr:uid="{B7AA18C7-E58A-447A-915A-42D4F13D6310}"/>
-    <hyperlink ref="B1587" r:id="rId1375" display="https://leetcode.com/problems/closest-subsequence-sum" xr:uid="{F32459B0-DF4C-462A-9356-83F25EC7DAA2}"/>
-    <hyperlink ref="B1610" r:id="rId1376" display="https://leetcode.com/problems/number-of-restricted-paths-from-first-to-last-node" xr:uid="{7E8F4145-52CC-410A-8E6D-496A93BC9F35}"/>
-    <hyperlink ref="B1609" r:id="rId1377" display="https://leetcode.com/problems/minimum-elements-to-add-to-form-a-given-sum" xr:uid="{4588D88F-C977-4AC1-9131-6787B276C83B}"/>
-    <hyperlink ref="B1606" r:id="rId1378" display="https://leetcode.com/problems/sum-of-beauty-of-all-substrings" xr:uid="{F5D12DA0-6DB0-4E8E-A268-602716EC1E07}"/>
-    <hyperlink ref="B1605" r:id="rId1379" display="https://leetcode.com/problems/check-if-number-is-a-sum-of-powers-of-three" xr:uid="{4602803B-7988-4D38-ABF2-61BC86BCDAC5}"/>
-    <hyperlink ref="B1604" r:id="rId1380" display="https://leetcode.com/problems/find-nearest-point-that-has-the-same-x-or-y-coordinate" xr:uid="{5F651CEF-E9E7-4A94-8963-9659B92CF321}"/>
-    <hyperlink ref="B1603" r:id="rId1381" display="https://leetcode.com/problems/equal-sum-arrays-with-minimum-number-of-operations" xr:uid="{C7244173-A5DF-4CFD-8B2A-1EE21E557BC1}"/>
-    <hyperlink ref="B1602" r:id="rId1382" display="https://leetcode.com/problems/closest-dessert-cost" xr:uid="{F7BEECC4-44E4-47B9-8596-B7703815C60F}"/>
-    <hyperlink ref="B1601" r:id="rId1383" display="https://leetcode.com/problems/count-items-matching-a-rule" xr:uid="{C7425EBD-8CAE-4C06-8E35-71176FE3E292}"/>
-    <hyperlink ref="B1589" r:id="rId1384" display="https://leetcode.com/problems/minimum-changes-to-make-alternating-binary-string" xr:uid="{5E47CEE9-BA48-462F-B4F8-1AF99888DEB3}"/>
-    <hyperlink ref="B1590" r:id="rId1385" display="https://leetcode.com/problems/count-number-of-homogenous-substrings" xr:uid="{9343BDD1-5100-4986-BADF-74E77C30CD7C}"/>
-    <hyperlink ref="B1591" r:id="rId1386" display="https://leetcode.com/problems/minimum-limit-of-balls-in-a-bag" xr:uid="{F6C3BBF6-E091-49FF-8239-45C98E39DC8C}"/>
-    <hyperlink ref="B1593" r:id="rId1387" display="https://leetcode.com/problems/longest-nice-substring" xr:uid="{8E4DAA57-D075-4129-AAC9-2F7D747D4861}"/>
-    <hyperlink ref="B1594" r:id="rId1388" display="https://leetcode.com/problems/form-array-by-concatenating-subarrays-of-another-array" xr:uid="{BBB12904-D1D8-45C5-A73B-4D227A33C7A0}"/>
-    <hyperlink ref="B1595" r:id="rId1389" display="https://leetcode.com/problems/map-of-highest-peak" xr:uid="{D94EC984-B85A-480E-8580-8F6D0807308B}"/>
-    <hyperlink ref="B1597" r:id="rId1390" display="https://leetcode.com/problems/merge-strings-alternately" xr:uid="{10A36CE3-B9BF-4B0B-A7DF-E0BA62BBC363}"/>
-    <hyperlink ref="B1598" r:id="rId1391" display="https://leetcode.com/problems/minimum-number-of-operations-to-move-all-balls-to-each-box" xr:uid="{D44C79CA-AF26-42E8-BA0E-F083D426240B}"/>
-    <hyperlink ref="B1599" r:id="rId1392" display="https://leetcode.com/problems/maximum-score-from-performing-multiplication-operations" xr:uid="{CBFA2C81-65C2-4B16-BD7D-228C47EBD55C}"/>
-    <hyperlink ref="B1611" r:id="rId1393" display="https://leetcode.com/problems/make-the-xor-of-all-segments-equal-to-zero" xr:uid="{F9F7F3F8-AE15-4C3F-90C0-C87C5787CF85}"/>
-    <hyperlink ref="B1612" r:id="rId1394" display="https://leetcode.com/problems/check-if-one-string-swap-can-make-strings-equal" xr:uid="{94C3AB55-2DA1-4F06-A31A-03B510CB7FE6}"/>
-    <hyperlink ref="B1613" r:id="rId1395" display="https://leetcode.com/problems/find-center-of-star-graph" xr:uid="{92C112DA-1E26-4B3F-A26D-5485D079770C}"/>
-    <hyperlink ref="B1615" r:id="rId1396" display="https://leetcode.com/problems/maximum-score-of-a-good-subarray" xr:uid="{04CA3301-F2BD-44FE-8D80-D37D23948A03}"/>
-    <hyperlink ref="B1608" r:id="rId1397" display="https://leetcode.com/problems/check-if-binary-string-has-at-most-one-segment-of-ones" xr:uid="{CE9F4064-AD9A-45F5-8FA5-3D837B5BD888}"/>
-    <hyperlink ref="B1607" r:id="rId1398" display="https://leetcode.com/problems/count-pairs-of-nodes" xr:uid="{4BE12A90-1128-42D6-8B67-87E8493D607F}"/>
+    <hyperlink ref="B1586" r:id="rId1374" display="https://leetcode.com/problems/maximum-score-from-removing-stones" xr:uid="{B7AA18C7-E58A-447A-915A-42D4F13D6310}"/>
+    <hyperlink ref="B1588" r:id="rId1375" display="https://leetcode.com/problems/closest-subsequence-sum" xr:uid="{F32459B0-DF4C-462A-9356-83F25EC7DAA2}"/>
+    <hyperlink ref="B1611" r:id="rId1376" display="https://leetcode.com/problems/number-of-restricted-paths-from-first-to-last-node" xr:uid="{7E8F4145-52CC-410A-8E6D-496A93BC9F35}"/>
+    <hyperlink ref="B1610" r:id="rId1377" display="https://leetcode.com/problems/minimum-elements-to-add-to-form-a-given-sum" xr:uid="{4588D88F-C977-4AC1-9131-6787B276C83B}"/>
+    <hyperlink ref="B1607" r:id="rId1378" display="https://leetcode.com/problems/sum-of-beauty-of-all-substrings" xr:uid="{F5D12DA0-6DB0-4E8E-A268-602716EC1E07}"/>
+    <hyperlink ref="B1606" r:id="rId1379" display="https://leetcode.com/problems/check-if-number-is-a-sum-of-powers-of-three" xr:uid="{4602803B-7988-4D38-ABF2-61BC86BCDAC5}"/>
+    <hyperlink ref="B1605" r:id="rId1380" display="https://leetcode.com/problems/find-nearest-point-that-has-the-same-x-or-y-coordinate" xr:uid="{5F651CEF-E9E7-4A94-8963-9659B92CF321}"/>
+    <hyperlink ref="B1604" r:id="rId1381" display="https://leetcode.com/problems/equal-sum-arrays-with-minimum-number-of-operations" xr:uid="{C7244173-A5DF-4CFD-8B2A-1EE21E557BC1}"/>
+    <hyperlink ref="B1603" r:id="rId1382" display="https://leetcode.com/problems/closest-dessert-cost" xr:uid="{F7BEECC4-44E4-47B9-8596-B7703815C60F}"/>
+    <hyperlink ref="B1602" r:id="rId1383" display="https://leetcode.com/problems/count-items-matching-a-rule" xr:uid="{C7425EBD-8CAE-4C06-8E35-71176FE3E292}"/>
+    <hyperlink ref="B1590" r:id="rId1384" display="https://leetcode.com/problems/minimum-changes-to-make-alternating-binary-string" xr:uid="{5E47CEE9-BA48-462F-B4F8-1AF99888DEB3}"/>
+    <hyperlink ref="B1591" r:id="rId1385" display="https://leetcode.com/problems/count-number-of-homogenous-substrings" xr:uid="{9343BDD1-5100-4986-BADF-74E77C30CD7C}"/>
+    <hyperlink ref="B1592" r:id="rId1386" display="https://leetcode.com/problems/minimum-limit-of-balls-in-a-bag" xr:uid="{F6C3BBF6-E091-49FF-8239-45C98E39DC8C}"/>
+    <hyperlink ref="B1594" r:id="rId1387" display="https://leetcode.com/problems/longest-nice-substring" xr:uid="{8E4DAA57-D075-4129-AAC9-2F7D747D4861}"/>
+    <hyperlink ref="B1595" r:id="rId1388" display="https://leetcode.com/problems/form-array-by-concatenating-subarrays-of-another-array" xr:uid="{BBB12904-D1D8-45C5-A73B-4D227A33C7A0}"/>
+    <hyperlink ref="B1596" r:id="rId1389" display="https://leetcode.com/problems/map-of-highest-peak" xr:uid="{D94EC984-B85A-480E-8580-8F6D0807308B}"/>
+    <hyperlink ref="B1598" r:id="rId1390" display="https://leetcode.com/problems/merge-strings-alternately" xr:uid="{10A36CE3-B9BF-4B0B-A7DF-E0BA62BBC363}"/>
+    <hyperlink ref="B1599" r:id="rId1391" display="https://leetcode.com/problems/minimum-number-of-operations-to-move-all-balls-to-each-box" xr:uid="{D44C79CA-AF26-42E8-BA0E-F083D426240B}"/>
+    <hyperlink ref="B1600" r:id="rId1392" display="https://leetcode.com/problems/maximum-score-from-performing-multiplication-operations" xr:uid="{CBFA2C81-65C2-4B16-BD7D-228C47EBD55C}"/>
+    <hyperlink ref="B1612" r:id="rId1393" display="https://leetcode.com/problems/make-the-xor-of-all-segments-equal-to-zero" xr:uid="{F9F7F3F8-AE15-4C3F-90C0-C87C5787CF85}"/>
+    <hyperlink ref="B1613" r:id="rId1394" display="https://leetcode.com/problems/check-if-one-string-swap-can-make-strings-equal" xr:uid="{94C3AB55-2DA1-4F06-A31A-03B510CB7FE6}"/>
+    <hyperlink ref="B1614" r:id="rId1395" display="https://leetcode.com/problems/find-center-of-star-graph" xr:uid="{92C112DA-1E26-4B3F-A26D-5485D079770C}"/>
+    <hyperlink ref="B1616" r:id="rId1396" display="https://leetcode.com/problems/maximum-score-of-a-good-subarray" xr:uid="{04CA3301-F2BD-44FE-8D80-D37D23948A03}"/>
+    <hyperlink ref="B1609" r:id="rId1397" display="https://leetcode.com/problems/check-if-binary-string-has-at-most-one-segment-of-ones" xr:uid="{CE9F4064-AD9A-45F5-8FA5-3D837B5BD888}"/>
+    <hyperlink ref="B1608" r:id="rId1398" display="https://leetcode.com/problems/count-pairs-of-nodes" xr:uid="{4BE12A90-1128-42D6-8B67-87E8493D607F}"/>
     <hyperlink ref="B1581" r:id="rId1399" display="https://leetcode.com/problems/palindrome-partitioning-iv" xr:uid="{E9727F4E-397D-4808-93D3-81A8EA2BA6FA}"/>
-    <hyperlink ref="B1592" r:id="rId1400" display="https://leetcode.com/problems/minimum-degree-of-a-connected-trio-in-a-graph" xr:uid="{2139E7CC-36A0-4372-9D37-5FD513CDD9B0}"/>
-    <hyperlink ref="B1616" r:id="rId1401" display="https://leetcode.com/problems/second-largest-digit-in-a-string" xr:uid="{4A66E7D8-75C8-4F8E-B9DB-8E399F951B16}"/>
-    <hyperlink ref="B1617" r:id="rId1402" display="https://leetcode.com/problems/design-authentication-manager" xr:uid="{480710DA-1C7D-455D-8D12-167C92DBF633}"/>
-    <hyperlink ref="B1618" r:id="rId1403" display="https://leetcode.com/problems/maximum-number-of-consecutive-values-you-can-make" xr:uid="{194727C9-C65E-44E7-A8A3-E7D9E7AD678B}"/>
-    <hyperlink ref="B1619" r:id="rId1404" display="https://leetcode.com/problems/maximize-score-after-n-operations" xr:uid="{98125BD7-0B8C-4106-A5E4-C55938B917E0}"/>
-    <hyperlink ref="B1620" r:id="rId1405" display="https://leetcode.com/problems/maximum-ascending-subarray-sum" xr:uid="{4206F736-48C2-4C51-BC45-0F7AA538AA31}"/>
-    <hyperlink ref="B1621" r:id="rId1406" display="https://leetcode.com/problems/number-of-orders-in-the-backlog" xr:uid="{A4B7F67E-4F72-4FF8-9023-A90CE712BA15}"/>
-    <hyperlink ref="B1622" r:id="rId1407" display="https://leetcode.com/problems/maximum-value-at-a-given-index-in-a-bounded-array" xr:uid="{E6D3D4E3-7FB4-464D-9389-88A8FB9AB699}"/>
-    <hyperlink ref="B1623" r:id="rId1408" display="https://leetcode.com/problems/count-pairs-with-xor-in-a-range" xr:uid="{88492775-D026-41EA-B4F6-EE9E43625F64}"/>
-    <hyperlink ref="B1624" r:id="rId1409" display="https://leetcode.com/problems/number-of-different-integers-in-a-string" xr:uid="{9DA3EFFF-6694-482A-91E6-051A5CCA6C92}"/>
-    <hyperlink ref="B1625" r:id="rId1410" display="https://leetcode.com/problems/minimum-number-of-operations-to-reinitialize-a-permutation" xr:uid="{5DBBFB2B-FAB5-4931-AB4C-41C33CCE3E9F}"/>
-    <hyperlink ref="B1626" r:id="rId1411" display="https://leetcode.com/problems/evaluate-the-bracket-pairs-of-a-string" xr:uid="{E6654C7A-7E01-4ED1-BF88-AEE3F00C826C}"/>
-    <hyperlink ref="B1627" r:id="rId1412" display="https://leetcode.com/problems/maximize-number-of-nice-divisors" xr:uid="{78626747-6249-42C3-9986-9D393FEA3FE8}"/>
-    <hyperlink ref="B1600" r:id="rId1413" display="https://leetcode.com/problems/maximize-palindrome-length-from-subsequences" xr:uid="{BA73F0FA-CB5F-4DD4-AF14-A696A9BAFBF8}"/>
-    <hyperlink ref="B1628" r:id="rId1414" display="https://leetcode.com/problems/determine-color-of-a-chessboard-square" xr:uid="{BBB99C21-759D-433A-AFD0-6D820254CB9F}"/>
-    <hyperlink ref="B1630" r:id="rId1415" display="https://leetcode.com/problems/count-nice-pairs-in-an-array" xr:uid="{33784327-6425-47D1-8866-B8FAF405AD95}"/>
-    <hyperlink ref="B1634" r:id="rId1416" display="https://leetcode.com/problems/minimum-absolute-sum-difference" xr:uid="{7E3B951A-E0A0-4E7E-ACD1-098D0084074E}"/>
-    <hyperlink ref="B1633" r:id="rId1417" display="https://leetcode.com/problems/finding-the-users-active-minutes" xr:uid="{09A336B4-6859-4EC2-AABC-5B8F78ECEABA}"/>
-    <hyperlink ref="B1631" r:id="rId1418" display="https://leetcode.com/problems/maximum-number-of-groups-getting-fresh-donuts" xr:uid="{70FC7CD8-A622-42EC-BA44-22F88CA1F2A7}"/>
+    <hyperlink ref="B1593" r:id="rId1400" display="https://leetcode.com/problems/minimum-degree-of-a-connected-trio-in-a-graph" xr:uid="{2139E7CC-36A0-4372-9D37-5FD513CDD9B0}"/>
+    <hyperlink ref="B1617" r:id="rId1401" display="https://leetcode.com/problems/second-largest-digit-in-a-string" xr:uid="{4A66E7D8-75C8-4F8E-B9DB-8E399F951B16}"/>
+    <hyperlink ref="B1618" r:id="rId1402" display="https://leetcode.com/problems/design-authentication-manager" xr:uid="{480710DA-1C7D-455D-8D12-167C92DBF633}"/>
+    <hyperlink ref="B1619" r:id="rId1403" display="https://leetcode.com/problems/maximum-number-of-consecutive-values-you-can-make" xr:uid="{194727C9-C65E-44E7-A8A3-E7D9E7AD678B}"/>
+    <hyperlink ref="B1620" r:id="rId1404" display="https://leetcode.com/problems/maximize-score-after-n-operations" xr:uid="{98125BD7-0B8C-4106-A5E4-C55938B917E0}"/>
+    <hyperlink ref="B1621" r:id="rId1405" display="https://leetcode.com/problems/maximum-ascending-subarray-sum" xr:uid="{4206F736-48C2-4C51-BC45-0F7AA538AA31}"/>
+    <hyperlink ref="B1622" r:id="rId1406" display="https://leetcode.com/problems/number-of-orders-in-the-backlog" xr:uid="{A4B7F67E-4F72-4FF8-9023-A90CE712BA15}"/>
+    <hyperlink ref="B1623" r:id="rId1407" display="https://leetcode.com/problems/maximum-value-at-a-given-index-in-a-bounded-array" xr:uid="{E6D3D4E3-7FB4-464D-9389-88A8FB9AB699}"/>
+    <hyperlink ref="B1624" r:id="rId1408" display="https://leetcode.com/problems/count-pairs-with-xor-in-a-range" xr:uid="{88492775-D026-41EA-B4F6-EE9E43625F64}"/>
+    <hyperlink ref="B1625" r:id="rId1409" display="https://leetcode.com/problems/number-of-different-integers-in-a-string" xr:uid="{9DA3EFFF-6694-482A-91E6-051A5CCA6C92}"/>
+    <hyperlink ref="B1626" r:id="rId1410" display="https://leetcode.com/problems/minimum-number-of-operations-to-reinitialize-a-permutation" xr:uid="{5DBBFB2B-FAB5-4931-AB4C-41C33CCE3E9F}"/>
+    <hyperlink ref="B1627" r:id="rId1411" display="https://leetcode.com/problems/evaluate-the-bracket-pairs-of-a-string" xr:uid="{E6654C7A-7E01-4ED1-BF88-AEE3F00C826C}"/>
+    <hyperlink ref="B1628" r:id="rId1412" display="https://leetcode.com/problems/maximize-number-of-nice-divisors" xr:uid="{78626747-6249-42C3-9986-9D393FEA3FE8}"/>
+    <hyperlink ref="B1601" r:id="rId1413" display="https://leetcode.com/problems/maximize-palindrome-length-from-subsequences" xr:uid="{BA73F0FA-CB5F-4DD4-AF14-A696A9BAFBF8}"/>
+    <hyperlink ref="B1629" r:id="rId1414" display="https://leetcode.com/problems/determine-color-of-a-chessboard-square" xr:uid="{BBB99C21-759D-433A-AFD0-6D820254CB9F}"/>
+    <hyperlink ref="B1631" r:id="rId1415" display="https://leetcode.com/problems/count-nice-pairs-in-an-array" xr:uid="{33784327-6425-47D1-8866-B8FAF405AD95}"/>
+    <hyperlink ref="B1635" r:id="rId1416" display="https://leetcode.com/problems/minimum-absolute-sum-difference" xr:uid="{7E3B951A-E0A0-4E7E-ACD1-098D0084074E}"/>
+    <hyperlink ref="B1634" r:id="rId1417" display="https://leetcode.com/problems/finding-the-users-active-minutes" xr:uid="{09A336B4-6859-4EC2-AABC-5B8F78ECEABA}"/>
+    <hyperlink ref="B1632" r:id="rId1418" display="https://leetcode.com/problems/maximum-number-of-groups-getting-fresh-donuts" xr:uid="{70FC7CD8-A622-42EC-BA44-22F88CA1F2A7}"/>
+    <hyperlink ref="B1584" r:id="rId1419" display="https://leetcode.com/problems/maximum-number-of-events-that-can-be-attended-ii" xr:uid="{E6CED50E-E4F2-4A0B-95B8-F5208373F7B8}"/>
+    <hyperlink ref="B1637" r:id="rId1420" display="https://leetcode.com/problems/sign-of-the-product-of-an-array" xr:uid="{A0049EEE-420F-4B36-9532-4246FDC62DB6}"/>
+    <hyperlink ref="B1638" r:id="rId1421" display="https://leetcode.com/problems/find-the-winner-of-the-circular-game" xr:uid="{A9255375-24AC-4E41-953D-DA0C6301095A}"/>
+    <hyperlink ref="B1639" r:id="rId1422" display="https://leetcode.com/problems/minimum-sideway-jumps" xr:uid="{4616F648-DE69-45E9-B2C6-D31F83F95B92}"/>
+    <hyperlink ref="B1640" r:id="rId1423" display="https://leetcode.com/problems/finding-mk-average" xr:uid="{0BF35336-3D02-41E1-A514-B9229042BBD6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1419"/>
-  <drawing r:id="rId1420"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1424"/>
+  <drawing r:id="rId1425"/>
 </worksheet>
 </file>
 

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEC80BF1-CFE5-4E9D-B5CF-C985CEC99001}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{091EB8E7-F34F-4A8B-869D-8002239F3937}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="SQL" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'LeetCode Algorithm'!$A$1:$J$1665</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'LeetCode Algorithm'!$A$1:$J$1667</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8769" uniqueCount="3248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8824" uniqueCount="3267">
   <si>
     <t>Difficulty</t>
   </si>
@@ -9781,6 +9781,63 @@
   </si>
   <si>
     <t>Have 3 sorted set, prefix, body and postfix</t>
+  </si>
+  <si>
+    <t>Maximum Number of Accepted Invitations</t>
+  </si>
+  <si>
+    <t>Hungarian Maximum Matching Algorithm</t>
+  </si>
+  <si>
+    <t>Minimum Operations to Make the Array Increasing</t>
+  </si>
+  <si>
+    <t>Track what last adjusted value</t>
+  </si>
+  <si>
+    <t>Find XOR Sum of All Pairs Bitwise AND </t>
+  </si>
+  <si>
+    <t>Single-Threaded CPU</t>
+  </si>
+  <si>
+    <t>Maximum Ice Cream Bars</t>
+  </si>
+  <si>
+    <t>Check if the Sentence Is Pangram</t>
+  </si>
+  <si>
+    <t>Cover 26 characters</t>
+  </si>
+  <si>
+    <t>Choose the cheapest ones.</t>
+  </si>
+  <si>
+    <t>Bit XOR two array then do AND</t>
+  </si>
+  <si>
+    <t>Sort by enqueue time, then pull all qualified tasks to a pool then select shortest process time</t>
+  </si>
+  <si>
+    <t>Minimum Number of Operations to Make String Sorted</t>
+  </si>
+  <si>
+    <t>Find out lexicon order.</t>
+  </si>
+  <si>
+    <t>N * 26</t>
+  </si>
+  <si>
+    <t>Maximum XOR for Each Query</t>
+  </si>
+  <si>
+    <t>XOR elements in the array.</t>
+  </si>
+  <si>
+    <t>Queries on Number of Points Inside a Circle </t>
+  </si>
+  <si>
+    <t>Sort X-axis</t>
   </si>
 </sst>
 </file>
@@ -9825,7 +9882,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -9852,6 +9909,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -10294,10 +10352,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J1665"/>
+  <dimension ref="A1:J1667"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1624" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A1641" sqref="A1641"/>
+    <sheetView tabSelected="1" topLeftCell="E1633" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I1653" sqref="I1653"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -49182,211 +49240,427 @@
         <v>3224</v>
       </c>
     </row>
-    <row r="1637" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1637" s="71">
-        <v>1822</v>
+    <row r="1637" spans="1:9" s="78" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1637" s="78">
+        <v>1820</v>
       </c>
       <c r="B1637" s="1" t="s">
-        <v>3238</v>
-      </c>
-      <c r="C1637" s="71">
-        <v>1</v>
-      </c>
-      <c r="D1637" s="71" t="s">
-        <v>1717</v>
-      </c>
-      <c r="F1637" s="71" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1637" s="71" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1637" s="71" t="s">
-        <v>3243</v>
-      </c>
-      <c r="I1637" s="71" t="s">
-        <v>3000</v>
+        <v>3248</v>
+      </c>
+      <c r="C1637" s="78">
+        <v>4</v>
+      </c>
+      <c r="D1637" s="78" t="s">
+        <v>1720</v>
+      </c>
+      <c r="F1637" s="78" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1637" s="78" t="s">
+        <v>187</v>
+      </c>
+      <c r="H1637" s="78" t="s">
+        <v>3249</v>
+      </c>
+      <c r="I1637" s="78" t="s">
+        <v>3242</v>
       </c>
     </row>
     <row r="1638" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1638" s="71">
-        <v>1823</v>
+        <v>1822</v>
       </c>
       <c r="B1638" s="1" t="s">
-        <v>3239</v>
+        <v>3238</v>
       </c>
       <c r="C1638" s="71">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1638" s="71" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="F1638" s="71" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G1638" s="71" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H1638" s="71" t="s">
-        <v>3244</v>
+        <v>3243</v>
       </c>
       <c r="I1638" s="71" t="s">
-        <v>3245</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="1639" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1639" s="71">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="B1639" s="1" t="s">
-        <v>3240</v>
+        <v>3239</v>
       </c>
       <c r="C1639" s="71">
         <v>3</v>
       </c>
       <c r="D1639" s="71" t="s">
-        <v>1720</v>
+        <v>1718</v>
       </c>
       <c r="F1639" s="71" t="s">
         <v>9</v>
       </c>
       <c r="G1639" s="71" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H1639" s="71" t="s">
-        <v>3246</v>
+        <v>3244</v>
       </c>
       <c r="I1639" s="71" t="s">
-        <v>3000</v>
+        <v>3245</v>
       </c>
     </row>
     <row r="1640" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1640" s="71">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="B1640" s="1" t="s">
-        <v>3241</v>
+        <v>3240</v>
       </c>
       <c r="C1640" s="71">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1640" s="71" t="s">
         <v>1720</v>
       </c>
-      <c r="E1640" s="71" t="s">
+      <c r="F1640" s="71" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1640" s="71" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1640" s="71" t="s">
+        <v>3246</v>
+      </c>
+      <c r="I1640" s="71" t="s">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="1641" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1641" s="71">
+        <v>1825</v>
+      </c>
+      <c r="B1641" s="1" t="s">
+        <v>3241</v>
+      </c>
+      <c r="C1641" s="71">
+        <v>4</v>
+      </c>
+      <c r="D1641" s="71" t="s">
+        <v>1720</v>
+      </c>
+      <c r="E1641" s="71" t="s">
         <v>2935</v>
       </c>
-      <c r="F1640" s="71" t="s">
+      <c r="F1641" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="G1640" s="71" t="s">
+      <c r="G1641" s="71" t="s">
         <v>457</v>
       </c>
-      <c r="H1640" s="71" t="s">
+      <c r="H1641" s="71" t="s">
         <v>3247</v>
       </c>
-      <c r="I1640" s="71" t="s">
+      <c r="I1641" s="71" t="s">
         <v>3029</v>
       </c>
     </row>
-    <row r="1641" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1641" s="1"/>
-    </row>
     <row r="1642" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1642" s="1"/>
-    </row>
-    <row r="1643" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1643" s="1"/>
-    </row>
-    <row r="1644" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1644" s="1"/>
+      <c r="A1642" s="71">
+        <v>1827</v>
+      </c>
+      <c r="B1642" s="1" t="s">
+        <v>3250</v>
+      </c>
+      <c r="C1642" s="71">
+        <v>2</v>
+      </c>
+      <c r="D1642" s="71" t="s">
+        <v>1720</v>
+      </c>
+      <c r="F1642" s="71" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1642" s="71" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1642" s="71" t="s">
+        <v>3251</v>
+      </c>
+      <c r="I1642" s="71" t="s">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="1643" spans="1:9" s="78" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1643" s="78">
+        <v>1828</v>
+      </c>
+      <c r="B1643" s="1" t="s">
+        <v>3265</v>
+      </c>
+      <c r="C1643" s="78">
+        <v>3</v>
+      </c>
+      <c r="D1643" s="78" t="s">
+        <v>1718</v>
+      </c>
+      <c r="F1643" s="78" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1643" s="78" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1643" s="78" t="s">
+        <v>3266</v>
+      </c>
+      <c r="I1643" s="78" t="s">
+        <v>3029</v>
+      </c>
+    </row>
+    <row r="1644" spans="1:9" s="71" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1644" s="71">
+        <v>1829</v>
+      </c>
+      <c r="B1644" s="1" t="s">
+        <v>3263</v>
+      </c>
+      <c r="C1644" s="71">
+        <v>2</v>
+      </c>
+      <c r="D1644" s="71" t="s">
+        <v>1720</v>
+      </c>
+      <c r="F1644" s="71" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1644" s="71" t="s">
+        <v>134</v>
+      </c>
+      <c r="H1644" s="71" t="s">
+        <v>3264</v>
+      </c>
+      <c r="I1644" s="71" t="s">
+        <v>3000</v>
+      </c>
     </row>
     <row r="1645" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1645" s="1"/>
+      <c r="A1645" s="71">
+        <v>1830</v>
+      </c>
+      <c r="B1645" s="1" t="s">
+        <v>3260</v>
+      </c>
+      <c r="C1645" s="71">
+        <v>4</v>
+      </c>
+      <c r="D1645" s="71" t="s">
+        <v>1713</v>
+      </c>
+      <c r="F1645" s="71" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1645" s="71" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1645" s="71" t="s">
+        <v>3261</v>
+      </c>
+      <c r="I1645" s="71" t="s">
+        <v>3262</v>
+      </c>
     </row>
     <row r="1646" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1646" s="1"/>
+      <c r="A1646" s="71">
+        <v>1832</v>
+      </c>
+      <c r="B1646" s="1" t="s">
+        <v>3255</v>
+      </c>
+      <c r="C1646" s="71">
+        <v>1</v>
+      </c>
+      <c r="D1646" s="71" t="s">
+        <v>1717</v>
+      </c>
+      <c r="F1646" s="71" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1646" s="71" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1646" s="71" t="s">
+        <v>3256</v>
+      </c>
+      <c r="I1646" s="71" t="s">
+        <v>3000</v>
+      </c>
     </row>
     <row r="1647" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1647" s="1"/>
+      <c r="A1647" s="71">
+        <v>1833</v>
+      </c>
+      <c r="B1647" s="1" t="s">
+        <v>3254</v>
+      </c>
+      <c r="C1647" s="71">
+        <v>2</v>
+      </c>
+      <c r="D1647" s="71" t="s">
+        <v>1720</v>
+      </c>
+      <c r="F1647" s="71" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1647" s="71" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1647" s="71" t="s">
+        <v>3257</v>
+      </c>
+      <c r="I1647" s="71" t="s">
+        <v>3029</v>
+      </c>
     </row>
     <row r="1648" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1648" s="1"/>
-    </row>
-    <row r="1649" spans="1:8" s="71" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1649" s="1"/>
-    </row>
-    <row r="1650" spans="1:8" s="71" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1648" s="71">
+        <v>1834</v>
+      </c>
+      <c r="B1648" s="1" t="s">
+        <v>3253</v>
+      </c>
+      <c r="C1648" s="71">
+        <v>4</v>
+      </c>
+      <c r="D1648" s="71" t="s">
+        <v>1720</v>
+      </c>
+      <c r="E1648" s="71" t="s">
+        <v>2923</v>
+      </c>
+      <c r="F1648" s="71" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1648" s="71" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1648" s="71" t="s">
+        <v>3259</v>
+      </c>
+      <c r="I1648" s="71" t="s">
+        <v>3029</v>
+      </c>
+    </row>
+    <row r="1649" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1649" s="71">
+        <v>1835</v>
+      </c>
+      <c r="B1649" s="1" t="s">
+        <v>3252</v>
+      </c>
+      <c r="C1649" s="71">
+        <v>4</v>
+      </c>
+      <c r="D1649" s="71" t="s">
+        <v>1720</v>
+      </c>
+      <c r="F1649" s="71" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1649" s="71" t="s">
+        <v>134</v>
+      </c>
+      <c r="H1649" s="71" t="s">
+        <v>3258</v>
+      </c>
+      <c r="I1649" s="71" t="s">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="1650" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B1650" s="1"/>
     </row>
-    <row r="1651" spans="1:8" s="71" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1651" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B1651" s="1"/>
     </row>
-    <row r="1652" spans="1:8" s="71" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1652" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B1652" s="1"/>
     </row>
-    <row r="1653" spans="1:8" s="71" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1653" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B1653" s="1"/>
     </row>
-    <row r="1654" spans="1:8" s="71" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1654" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B1654" s="1"/>
     </row>
-    <row r="1655" spans="1:8" s="71" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1655" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B1655" s="1"/>
     </row>
-    <row r="1656" spans="1:8" s="71" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1656" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B1656" s="1"/>
     </row>
-    <row r="1657" spans="1:8" s="71" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1657" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B1657" s="1"/>
     </row>
-    <row r="1658" spans="1:8" s="71" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1658" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B1658" s="1"/>
     </row>
-    <row r="1659" spans="1:8" s="71" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1659" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B1659" s="1"/>
     </row>
-    <row r="1660" spans="1:8" s="71" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1660" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B1660" s="1"/>
     </row>
-    <row r="1661" spans="1:8" s="71" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1661" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B1661" s="1"/>
     </row>
-    <row r="1662" spans="1:8" s="71" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1662" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B1662" s="1"/>
     </row>
-    <row r="1663" spans="1:8" s="62" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1663" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B1663" s="1"/>
     </row>
-    <row r="1664" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A1664" s="78" t="s">
+    <row r="1664" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1664" s="1"/>
+    </row>
+    <row r="1665" spans="1:8" s="62" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1665" s="1"/>
+    </row>
+    <row r="1666" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A1666" s="79" t="s">
         <v>1721</v>
       </c>
-      <c r="B1664" s="78"/>
-      <c r="C1664" s="78"/>
-      <c r="D1664" s="78"/>
-      <c r="E1664" s="78"/>
-      <c r="F1664" s="78"/>
-      <c r="G1664" s="78"/>
-      <c r="H1664" s="78"/>
-    </row>
-    <row r="1665" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A1665" s="79" t="s">
+      <c r="B1666" s="79"/>
+      <c r="C1666" s="79"/>
+      <c r="D1666" s="79"/>
+      <c r="E1666" s="79"/>
+      <c r="F1666" s="79"/>
+      <c r="G1666" s="79"/>
+      <c r="H1666" s="79"/>
+    </row>
+    <row r="1667" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A1667" s="80" t="s">
         <v>2760</v>
       </c>
-      <c r="B1665" s="79"/>
-      <c r="C1665" s="79"/>
-      <c r="D1665" s="79"/>
-      <c r="E1665" s="79"/>
-      <c r="F1665" s="79"/>
-      <c r="G1665" s="79"/>
-      <c r="H1665" s="79"/>
+      <c r="B1667" s="80"/>
+      <c r="C1667" s="80"/>
+      <c r="D1667" s="80"/>
+      <c r="E1667" s="80"/>
+      <c r="F1667" s="80"/>
+      <c r="G1667" s="80"/>
+      <c r="H1667" s="80"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J1665" xr:uid="{CB07CE66-8F15-46FF-A90A-43FDB2DB428F}"/>
+  <autoFilter ref="A1:J1667" xr:uid="{CB07CE66-8F15-46FF-A90A-43FDB2DB428F}"/>
   <mergeCells count="2">
-    <mergeCell ref="A1664:H1664"/>
-    <mergeCell ref="A1665:H1665"/>
+    <mergeCell ref="A1666:H1666"/>
+    <mergeCell ref="A1667:H1667"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" display="https://leetcode.com/problems/zigzag-conversion" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -50808,14 +51082,23 @@
     <hyperlink ref="B1634" r:id="rId1417" display="https://leetcode.com/problems/finding-the-users-active-minutes" xr:uid="{09A336B4-6859-4EC2-AABC-5B8F78ECEABA}"/>
     <hyperlink ref="B1632" r:id="rId1418" display="https://leetcode.com/problems/maximum-number-of-groups-getting-fresh-donuts" xr:uid="{70FC7CD8-A622-42EC-BA44-22F88CA1F2A7}"/>
     <hyperlink ref="B1584" r:id="rId1419" display="https://leetcode.com/problems/maximum-number-of-events-that-can-be-attended-ii" xr:uid="{E6CED50E-E4F2-4A0B-95B8-F5208373F7B8}"/>
-    <hyperlink ref="B1637" r:id="rId1420" display="https://leetcode.com/problems/sign-of-the-product-of-an-array" xr:uid="{A0049EEE-420F-4B36-9532-4246FDC62DB6}"/>
-    <hyperlink ref="B1638" r:id="rId1421" display="https://leetcode.com/problems/find-the-winner-of-the-circular-game" xr:uid="{A9255375-24AC-4E41-953D-DA0C6301095A}"/>
-    <hyperlink ref="B1639" r:id="rId1422" display="https://leetcode.com/problems/minimum-sideway-jumps" xr:uid="{4616F648-DE69-45E9-B2C6-D31F83F95B92}"/>
-    <hyperlink ref="B1640" r:id="rId1423" display="https://leetcode.com/problems/finding-mk-average" xr:uid="{0BF35336-3D02-41E1-A514-B9229042BBD6}"/>
+    <hyperlink ref="B1638" r:id="rId1420" display="https://leetcode.com/problems/sign-of-the-product-of-an-array" xr:uid="{A0049EEE-420F-4B36-9532-4246FDC62DB6}"/>
+    <hyperlink ref="B1639" r:id="rId1421" display="https://leetcode.com/problems/find-the-winner-of-the-circular-game" xr:uid="{A9255375-24AC-4E41-953D-DA0C6301095A}"/>
+    <hyperlink ref="B1640" r:id="rId1422" display="https://leetcode.com/problems/minimum-sideway-jumps" xr:uid="{4616F648-DE69-45E9-B2C6-D31F83F95B92}"/>
+    <hyperlink ref="B1641" r:id="rId1423" display="https://leetcode.com/problems/finding-mk-average" xr:uid="{0BF35336-3D02-41E1-A514-B9229042BBD6}"/>
+    <hyperlink ref="B1637" r:id="rId1424" display="https://leetcode.com/problems/maximum-number-of-accepted-invitations" xr:uid="{7A1246F2-C469-4411-A09D-BE551D6FE886}"/>
+    <hyperlink ref="B1642" r:id="rId1425" display="https://leetcode.com/problems/minimum-operations-to-make-the-array-increasing" xr:uid="{BCE639B4-26EE-4325-9A6F-B7BE83A0EE5A}"/>
+    <hyperlink ref="B1649" r:id="rId1426" display="https://leetcode.com/problems/find-xor-sum-of-all-pairs-bitwise-and" xr:uid="{38FA1C75-00B2-4AE8-8A11-2E014FC16985}"/>
+    <hyperlink ref="B1648" r:id="rId1427" display="https://leetcode.com/problems/single-threaded-cpu" xr:uid="{55B4E28C-C4B1-4C74-A203-8312BE18DC88}"/>
+    <hyperlink ref="B1647" r:id="rId1428" display="https://leetcode.com/problems/maximum-ice-cream-bars" xr:uid="{D5351234-3C7F-4961-B2F1-DFDF670C4573}"/>
+    <hyperlink ref="B1646" r:id="rId1429" display="https://leetcode.com/problems/check-if-the-sentence-is-pangram" xr:uid="{63C7BF79-155D-42CA-ABA8-8F2F7FD161E2}"/>
+    <hyperlink ref="B1645" r:id="rId1430" display="https://leetcode.com/problems/minimum-number-of-operations-to-make-string-sorted" xr:uid="{ACFFE50E-DB64-479B-8B9A-920DDE6CB684}"/>
+    <hyperlink ref="B1644" r:id="rId1431" display="https://leetcode.com/problems/maximum-xor-for-each-query" xr:uid="{D255E608-8F3D-4961-B320-B696DA8892A0}"/>
+    <hyperlink ref="B1643" r:id="rId1432" display="https://leetcode.com/problems/queries-on-number-of-points-inside-a-circle" xr:uid="{65DB8EBB-95E7-4BCA-9695-140D8EC29DBA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1424"/>
-  <drawing r:id="rId1425"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1433"/>
+  <drawing r:id="rId1434"/>
 </worksheet>
 </file>
 

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{091EB8E7-F34F-4A8B-869D-8002239F3937}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5CA0016-DB3F-4E52-BCBF-179DB64C4904}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8824" uniqueCount="3267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8899" uniqueCount="3292">
   <si>
     <t>Difficulty</t>
   </si>
@@ -9838,6 +9838,81 @@
   </si>
   <si>
     <t>Sort X-axis</t>
+  </si>
+  <si>
+    <t>Sum of Digits in Base K</t>
+  </si>
+  <si>
+    <t>Take modulus value.</t>
+  </si>
+  <si>
+    <t>Frequency of the Most Frequent Element</t>
+  </si>
+  <si>
+    <t>Accumulate difference sum from biggest number in slide window</t>
+  </si>
+  <si>
+    <t>Longest Substring Of All Vowels in Order</t>
+  </si>
+  <si>
+    <t>Track last vowel.</t>
+  </si>
+  <si>
+    <t>Maximum Building Height</t>
+  </si>
+  <si>
+    <t>Align from left to right and right to left, further reduce the limit</t>
+  </si>
+  <si>
+    <t>Replace All Digits with Characters</t>
+  </si>
+  <si>
+    <t>Simple shift character</t>
+  </si>
+  <si>
+    <t>Seat Reservation Manager</t>
+  </si>
+  <si>
+    <t>Use heap</t>
+  </si>
+  <si>
+    <t>Maximum Element After Decreasing and Rearranging</t>
+  </si>
+  <si>
+    <t>Sort value from low to high</t>
+  </si>
+  <si>
+    <t>Closest Room</t>
+  </si>
+  <si>
+    <t>Sort room then sort query</t>
+  </si>
+  <si>
+    <t>Minimum Distance to the Target Element</t>
+  </si>
+  <si>
+    <t>Sort and search</t>
+  </si>
+  <si>
+    <t>Splitting a String Into Descending Consecutive Values</t>
+  </si>
+  <si>
+    <t>Minimum Adjacent Swaps to Reach the Kth Smallest Number</t>
+  </si>
+  <si>
+    <t>Minimum Interval to Include Each Query</t>
+  </si>
+  <si>
+    <t>Seach valid string</t>
+  </si>
+  <si>
+    <t>Find next permutation, the calculate characters swap</t>
+  </si>
+  <si>
+    <t>K * N</t>
+  </si>
+  <si>
+    <t>Sort interval and query, push all valid intervals for query and choose minumum</t>
   </si>
 </sst>
 </file>
@@ -10354,8 +10429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J1667"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1633" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I1653" sqref="I1653"/>
+    <sheetView tabSelected="1" topLeftCell="A1574" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A1574" sqref="A1574"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -49585,40 +49660,325 @@
       </c>
     </row>
     <row r="1650" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1650" s="1"/>
+      <c r="A1650" s="71">
+        <v>1837</v>
+      </c>
+      <c r="B1650" s="1" t="s">
+        <v>3267</v>
+      </c>
+      <c r="C1650" s="71">
+        <v>1</v>
+      </c>
+      <c r="D1650" s="71" t="s">
+        <v>1720</v>
+      </c>
+      <c r="F1650" s="71" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1650" s="71" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1650" s="71" t="s">
+        <v>3268</v>
+      </c>
+      <c r="I1650" s="71" t="s">
+        <v>3002</v>
+      </c>
     </row>
     <row r="1651" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1651" s="1"/>
+      <c r="A1651" s="71">
+        <v>1838</v>
+      </c>
+      <c r="B1651" s="1" t="s">
+        <v>3269</v>
+      </c>
+      <c r="C1651" s="71">
+        <v>3</v>
+      </c>
+      <c r="D1651" s="71" t="s">
+        <v>1720</v>
+      </c>
+      <c r="E1651" s="71" t="s">
+        <v>2923</v>
+      </c>
+      <c r="F1651" s="71" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1651" s="71" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1651" s="71" t="s">
+        <v>3270</v>
+      </c>
+      <c r="I1651" s="71" t="s">
+        <v>3000</v>
+      </c>
     </row>
     <row r="1652" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1652" s="1"/>
+      <c r="A1652" s="71">
+        <v>1839</v>
+      </c>
+      <c r="B1652" s="1" t="s">
+        <v>3271</v>
+      </c>
+      <c r="C1652" s="71">
+        <v>3</v>
+      </c>
+      <c r="D1652" s="71" t="s">
+        <v>1720</v>
+      </c>
+      <c r="E1652" s="71" t="s">
+        <v>2935</v>
+      </c>
+      <c r="F1652" s="71" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1652" s="71" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1652" s="71" t="s">
+        <v>3272</v>
+      </c>
+      <c r="I1652" s="71" t="s">
+        <v>3000</v>
+      </c>
     </row>
     <row r="1653" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1653" s="1"/>
+      <c r="A1653" s="71">
+        <v>1840</v>
+      </c>
+      <c r="B1653" s="1" t="s">
+        <v>3273</v>
+      </c>
+      <c r="C1653" s="71">
+        <v>4</v>
+      </c>
+      <c r="D1653" s="71" t="s">
+        <v>2810</v>
+      </c>
+      <c r="F1653" s="71" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1653" s="71" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1653" s="71" t="s">
+        <v>3274</v>
+      </c>
+      <c r="I1653" s="71" t="s">
+        <v>3000</v>
+      </c>
     </row>
     <row r="1654" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1654" s="1"/>
+      <c r="A1654" s="71">
+        <v>1844</v>
+      </c>
+      <c r="B1654" s="1" t="s">
+        <v>3275</v>
+      </c>
+      <c r="C1654" s="71">
+        <v>1</v>
+      </c>
+      <c r="D1654" s="71" t="s">
+        <v>1717</v>
+      </c>
+      <c r="F1654" s="71" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1654" s="71" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1654" s="71" t="s">
+        <v>3276</v>
+      </c>
+      <c r="I1654" s="71" t="s">
+        <v>3000</v>
+      </c>
     </row>
     <row r="1655" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1655" s="1"/>
+      <c r="A1655" s="71">
+        <v>1845</v>
+      </c>
+      <c r="B1655" s="1" t="s">
+        <v>3277</v>
+      </c>
+      <c r="C1655" s="71">
+        <v>2</v>
+      </c>
+      <c r="D1655" s="71" t="s">
+        <v>1720</v>
+      </c>
+      <c r="F1655" s="71" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1655" s="71" t="s">
+        <v>457</v>
+      </c>
+      <c r="H1655" s="71" t="s">
+        <v>3278</v>
+      </c>
+      <c r="I1655" s="71" t="s">
+        <v>3029</v>
+      </c>
     </row>
     <row r="1656" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1656" s="1"/>
+      <c r="A1656" s="71">
+        <v>1846</v>
+      </c>
+      <c r="B1656" s="1" t="s">
+        <v>3279</v>
+      </c>
+      <c r="C1656" s="71">
+        <v>2</v>
+      </c>
+      <c r="D1656" s="71" t="s">
+        <v>1720</v>
+      </c>
+      <c r="F1656" s="71" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1656" s="71" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1656" s="71" t="s">
+        <v>3280</v>
+      </c>
+      <c r="I1656" s="71" t="s">
+        <v>3029</v>
+      </c>
     </row>
     <row r="1657" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1657" s="1"/>
+      <c r="A1657" s="71">
+        <v>1847</v>
+      </c>
+      <c r="B1657" s="1" t="s">
+        <v>3281</v>
+      </c>
+      <c r="C1657" s="71">
+        <v>4</v>
+      </c>
+      <c r="D1657" s="71" t="s">
+        <v>2810</v>
+      </c>
+      <c r="F1657" s="71" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1657" s="71" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1657" s="71" t="s">
+        <v>3282</v>
+      </c>
+      <c r="I1657" s="71" t="s">
+        <v>3029</v>
+      </c>
     </row>
     <row r="1658" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1658" s="1"/>
+      <c r="A1658" s="71">
+        <v>1848</v>
+      </c>
+      <c r="B1658" s="1" t="s">
+        <v>3283</v>
+      </c>
+      <c r="C1658" s="71">
+        <v>2</v>
+      </c>
+      <c r="D1658" s="71" t="s">
+        <v>1720</v>
+      </c>
+      <c r="F1658" s="71" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1658" s="71" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1658" s="71" t="s">
+        <v>3284</v>
+      </c>
+      <c r="I1658" s="71" t="s">
+        <v>3029</v>
+      </c>
     </row>
     <row r="1659" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1659" s="1"/>
+      <c r="A1659" s="71">
+        <v>1849</v>
+      </c>
+      <c r="B1659" s="1" t="s">
+        <v>3285</v>
+      </c>
+      <c r="C1659" s="71">
+        <v>3</v>
+      </c>
+      <c r="D1659" s="71" t="s">
+        <v>1720</v>
+      </c>
+      <c r="F1659" s="71" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1659" s="71" t="s">
+        <v>121</v>
+      </c>
+      <c r="H1659" s="71" t="s">
+        <v>3288</v>
+      </c>
+      <c r="I1659" s="71" t="s">
+        <v>3081</v>
+      </c>
     </row>
     <row r="1660" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1660" s="1"/>
+      <c r="A1660" s="71">
+        <v>1850</v>
+      </c>
+      <c r="B1660" s="1" t="s">
+        <v>3286</v>
+      </c>
+      <c r="C1660" s="71">
+        <v>4</v>
+      </c>
+      <c r="D1660" s="71" t="s">
+        <v>1713</v>
+      </c>
+      <c r="F1660" s="71" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1660" s="71" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1660" s="71" t="s">
+        <v>3289</v>
+      </c>
+      <c r="I1660" s="71" t="s">
+        <v>3290</v>
+      </c>
     </row>
     <row r="1661" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1661" s="1"/>
+      <c r="A1661" s="71">
+        <v>1851</v>
+      </c>
+      <c r="B1661" s="1" t="s">
+        <v>3287</v>
+      </c>
+      <c r="C1661" s="71">
+        <v>4</v>
+      </c>
+      <c r="D1661" s="71" t="s">
+        <v>2810</v>
+      </c>
+      <c r="E1661" s="71" t="s">
+        <v>2935</v>
+      </c>
+      <c r="F1661" s="71" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1661" s="71" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1661" s="71" t="s">
+        <v>3291</v>
+      </c>
+      <c r="I1661" s="71" t="s">
+        <v>3029</v>
+      </c>
     </row>
     <row r="1662" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B1662" s="1"/>
@@ -51095,10 +51455,21 @@
     <hyperlink ref="B1645" r:id="rId1430" display="https://leetcode.com/problems/minimum-number-of-operations-to-make-string-sorted" xr:uid="{ACFFE50E-DB64-479B-8B9A-920DDE6CB684}"/>
     <hyperlink ref="B1644" r:id="rId1431" display="https://leetcode.com/problems/maximum-xor-for-each-query" xr:uid="{D255E608-8F3D-4961-B320-B696DA8892A0}"/>
     <hyperlink ref="B1643" r:id="rId1432" display="https://leetcode.com/problems/queries-on-number-of-points-inside-a-circle" xr:uid="{65DB8EBB-95E7-4BCA-9695-140D8EC29DBA}"/>
+    <hyperlink ref="B1650" r:id="rId1433" display="https://leetcode.com/problems/sum-of-digits-in-base-k" xr:uid="{6EF102B0-E6C2-4C97-973C-B394DDCD7812}"/>
+    <hyperlink ref="B1651" r:id="rId1434" display="https://leetcode.com/problems/frequency-of-the-most-frequent-element" xr:uid="{342FB5F7-8DE8-4D46-B110-C5C48EC6E39B}"/>
+    <hyperlink ref="B1652" r:id="rId1435" display="https://leetcode.com/problems/longest-substring-of-all-vowels-in-order" xr:uid="{E091BC8C-141B-419F-A05B-DAECE82F8E4D}"/>
+    <hyperlink ref="B1653" r:id="rId1436" display="https://leetcode.com/problems/maximum-building-height" xr:uid="{58FE2B85-7786-43E3-95B5-7EC3E47B02F7}"/>
+    <hyperlink ref="B1654" r:id="rId1437" display="https://leetcode.com/problems/replace-all-digits-with-characters" xr:uid="{49DB3A4F-FD4A-488C-9C40-1194D6EA8E08}"/>
+    <hyperlink ref="B1655" r:id="rId1438" display="https://leetcode.com/problems/seat-reservation-manager" xr:uid="{3917E3DD-3128-4718-BECB-213FB40603AE}"/>
+    <hyperlink ref="B1656" r:id="rId1439" display="https://leetcode.com/problems/maximum-element-after-decreasing-and-rearranging" xr:uid="{FDC9081B-0D97-4235-9B69-975D00D7F6C3}"/>
+    <hyperlink ref="B1658" r:id="rId1440" display="https://leetcode.com/problems/minimum-distance-to-the-target-element" xr:uid="{31785CF5-B776-4DB2-85D2-D170CFB44A76}"/>
+    <hyperlink ref="B1659" r:id="rId1441" display="https://leetcode.com/problems/splitting-a-string-into-descending-consecutive-values" xr:uid="{25A6E913-C7FB-41F4-ABEA-7F4AFD174FB6}"/>
+    <hyperlink ref="B1660" r:id="rId1442" display="https://leetcode.com/problems/minimum-adjacent-swaps-to-reach-the-kth-smallest-number" xr:uid="{1E6227B5-720D-4D63-806F-6B23252AA41D}"/>
+    <hyperlink ref="B1661" r:id="rId1443" display="https://leetcode.com/problems/minimum-interval-to-include-each-query" xr:uid="{5295AB82-D3CE-47AC-8B3E-D053903EACD4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1433"/>
-  <drawing r:id="rId1434"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1444"/>
+  <drawing r:id="rId1445"/>
 </worksheet>
 </file>
 

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5CA0016-DB3F-4E52-BCBF-179DB64C4904}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3A1404A-C7F3-48E3-952D-2DF01EB81037}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="SQL" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'LeetCode Algorithm'!$A$1:$J$1667</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'LeetCode Algorithm'!$A$1:$J$1670</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8899" uniqueCount="3292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8926" uniqueCount="3300">
   <si>
     <t>Difficulty</t>
   </si>
@@ -9913,6 +9913,30 @@
   </si>
   <si>
     <t>Sort interval and query, push all valid intervals for query and choose minumum</t>
+  </si>
+  <si>
+    <t>Largest Color Value in a Directed Graph</t>
+  </si>
+  <si>
+    <t>Topology Sort, DFS with memorization is also fine</t>
+  </si>
+  <si>
+    <t>Maximum Population Year</t>
+  </si>
+  <si>
+    <t>Simplified meeting room</t>
+  </si>
+  <si>
+    <t>Maximum Distance Between a Pair of Values</t>
+  </si>
+  <si>
+    <t>Maximum Subarray Min-Product </t>
+  </si>
+  <si>
+    <t>Two pointers scan</t>
+  </si>
+  <si>
+    <t>Keep increasing number in stack</t>
   </si>
 </sst>
 </file>
@@ -9957,7 +9981,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -9984,6 +10008,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -10427,10 +10452,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J1667"/>
+  <dimension ref="A1:J1670"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1574" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A1574" sqref="A1574"/>
+    <sheetView tabSelected="1" topLeftCell="A1645" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A1665" sqref="A1665"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -49980,47 +50005,157 @@
         <v>3029</v>
       </c>
     </row>
-    <row r="1662" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1662" s="1"/>
-    </row>
-    <row r="1663" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1663" s="1"/>
-    </row>
-    <row r="1664" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1664" s="1"/>
-    </row>
-    <row r="1665" spans="1:8" s="62" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1665" s="1"/>
-    </row>
-    <row r="1666" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A1666" s="79" t="s">
+    <row r="1662" spans="1:9" s="79" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1662" s="79">
+        <v>1854</v>
+      </c>
+      <c r="B1662" s="1" t="s">
+        <v>3294</v>
+      </c>
+      <c r="C1662" s="79">
+        <v>2</v>
+      </c>
+      <c r="D1662" s="79" t="s">
+        <v>1720</v>
+      </c>
+      <c r="E1662" s="79" t="s">
+        <v>2935</v>
+      </c>
+      <c r="F1662" s="79" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1662" s="79" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1662" s="79" t="s">
+        <v>3295</v>
+      </c>
+      <c r="I1662" s="79" t="s">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="1663" spans="1:9" s="79" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1663" s="79">
+        <v>1855</v>
+      </c>
+      <c r="B1663" s="1" t="s">
+        <v>3296</v>
+      </c>
+      <c r="C1663" s="79">
+        <v>2</v>
+      </c>
+      <c r="D1663" s="79" t="s">
+        <v>1720</v>
+      </c>
+      <c r="F1663" s="79" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1663" s="79" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1663" s="79" t="s">
+        <v>3298</v>
+      </c>
+      <c r="I1663" s="79" t="s">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="1664" spans="1:9" s="79" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1664" s="79">
+        <v>1856</v>
+      </c>
+      <c r="B1664" s="1" t="s">
+        <v>3297</v>
+      </c>
+      <c r="C1664" s="79">
+        <v>4</v>
+      </c>
+      <c r="D1664" s="79" t="s">
+        <v>1720</v>
+      </c>
+      <c r="E1664" s="79" t="s">
+        <v>2924</v>
+      </c>
+      <c r="F1664" s="79" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1664" s="79" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1664" s="79" t="s">
+        <v>3299</v>
+      </c>
+      <c r="I1664" s="79" t="s">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="1665" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1665" s="71">
+        <v>1857</v>
+      </c>
+      <c r="B1665" s="1" t="s">
+        <v>3292</v>
+      </c>
+      <c r="C1665" s="71">
+        <v>4</v>
+      </c>
+      <c r="D1665" s="71" t="s">
+        <v>1720</v>
+      </c>
+      <c r="E1665" s="71" t="s">
+        <v>2923</v>
+      </c>
+      <c r="F1665" s="71" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1665" s="71" t="s">
+        <v>187</v>
+      </c>
+      <c r="H1665" s="71" t="s">
+        <v>3293</v>
+      </c>
+      <c r="I1665" s="71" t="s">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="1666" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1666" s="1"/>
+    </row>
+    <row r="1667" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1667" s="1"/>
+    </row>
+    <row r="1668" spans="1:9" s="62" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1668" s="1"/>
+    </row>
+    <row r="1669" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A1669" s="80" t="s">
         <v>1721</v>
       </c>
-      <c r="B1666" s="79"/>
-      <c r="C1666" s="79"/>
-      <c r="D1666" s="79"/>
-      <c r="E1666" s="79"/>
-      <c r="F1666" s="79"/>
-      <c r="G1666" s="79"/>
-      <c r="H1666" s="79"/>
-    </row>
-    <row r="1667" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A1667" s="80" t="s">
+      <c r="B1669" s="80"/>
+      <c r="C1669" s="80"/>
+      <c r="D1669" s="80"/>
+      <c r="E1669" s="80"/>
+      <c r="F1669" s="80"/>
+      <c r="G1669" s="80"/>
+      <c r="H1669" s="80"/>
+    </row>
+    <row r="1670" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A1670" s="81" t="s">
         <v>2760</v>
       </c>
-      <c r="B1667" s="80"/>
-      <c r="C1667" s="80"/>
-      <c r="D1667" s="80"/>
-      <c r="E1667" s="80"/>
-      <c r="F1667" s="80"/>
-      <c r="G1667" s="80"/>
-      <c r="H1667" s="80"/>
+      <c r="B1670" s="81"/>
+      <c r="C1670" s="81"/>
+      <c r="D1670" s="81"/>
+      <c r="E1670" s="81"/>
+      <c r="F1670" s="81"/>
+      <c r="G1670" s="81"/>
+      <c r="H1670" s="81"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J1667" xr:uid="{CB07CE66-8F15-46FF-A90A-43FDB2DB428F}"/>
+  <autoFilter ref="A1:J1670" xr:uid="{CB07CE66-8F15-46FF-A90A-43FDB2DB428F}"/>
   <mergeCells count="2">
-    <mergeCell ref="A1666:H1666"/>
-    <mergeCell ref="A1667:H1667"/>
+    <mergeCell ref="A1669:H1669"/>
+    <mergeCell ref="A1670:H1670"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" display="https://leetcode.com/problems/zigzag-conversion" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -51466,10 +51601,13 @@
     <hyperlink ref="B1659" r:id="rId1441" display="https://leetcode.com/problems/splitting-a-string-into-descending-consecutive-values" xr:uid="{25A6E913-C7FB-41F4-ABEA-7F4AFD174FB6}"/>
     <hyperlink ref="B1660" r:id="rId1442" display="https://leetcode.com/problems/minimum-adjacent-swaps-to-reach-the-kth-smallest-number" xr:uid="{1E6227B5-720D-4D63-806F-6B23252AA41D}"/>
     <hyperlink ref="B1661" r:id="rId1443" display="https://leetcode.com/problems/minimum-interval-to-include-each-query" xr:uid="{5295AB82-D3CE-47AC-8B3E-D053903EACD4}"/>
+    <hyperlink ref="B1662" r:id="rId1444" display="https://leetcode.com/problems/maximum-population-year" xr:uid="{8B601B30-68A1-40B2-8CC4-5ADE4F1AADB0}"/>
+    <hyperlink ref="B1663" r:id="rId1445" display="https://leetcode.com/problems/maximum-distance-between-a-pair-of-values" xr:uid="{6526D9AA-7EF1-4DDB-8A45-0E58240D35C1}"/>
+    <hyperlink ref="B1664" r:id="rId1446" display="https://leetcode.com/problems/maximum-subarray-min-product" xr:uid="{652F1242-245F-4CDD-80E1-CD2643BBF1DD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1444"/>
-  <drawing r:id="rId1445"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1447"/>
+  <drawing r:id="rId1448"/>
 </worksheet>
 </file>
 

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3A1404A-C7F3-48E3-952D-2DF01EB81037}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10B61B09-C01D-43C9-BC94-9E854E6F9E56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="SQL" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'LeetCode Algorithm'!$A$1:$J$1670</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'LeetCode Algorithm'!$A$1:$J$1686</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8926" uniqueCount="3300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8964" uniqueCount="3313">
   <si>
     <t>Difficulty</t>
   </si>
@@ -9937,6 +9937,45 @@
   </si>
   <si>
     <t>Keep increasing number in stack</t>
+  </si>
+  <si>
+    <t>Count multiples for every number, the scan and sum</t>
+  </si>
+  <si>
+    <t>Number of Ways to Rearrange Sticks With K Sticks Visible</t>
+  </si>
+  <si>
+    <t>Sum of Floored Pairs </t>
+  </si>
+  <si>
+    <t>At every n sticks, consider longest as last or not</t>
+  </si>
+  <si>
+    <t>Stone Game VIII</t>
+  </si>
+  <si>
+    <t>From right to left, calculate every position optimal number</t>
+  </si>
+  <si>
+    <t>Minimum XOR Sum of Two Arrays</t>
+  </si>
+  <si>
+    <t>Use bit mask to calculate every combination</t>
+  </si>
+  <si>
+    <t>2 ^ N</t>
+  </si>
+  <si>
+    <t>Minimum Skips to Arrive at Meeting On Time </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calculate at every position at (i) and skip 0 to (i) based on previous position. </t>
+  </si>
+  <si>
+    <t>Minimum Space Wasted From Packaging</t>
+  </si>
+  <si>
+    <t>Sort packages and boxes, find any size of box will cover how many packages</t>
   </si>
 </sst>
 </file>
@@ -9981,7 +10020,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -10008,6 +10047,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -10452,10 +10493,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J1670"/>
+  <dimension ref="A1:J1686"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1645" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A1665" sqref="A1665"/>
+    <sheetView tabSelected="1" topLeftCell="A1654" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1677" sqref="B1677"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -43443,7 +43484,7 @@
     </row>
     <row r="1410" spans="1:9" s="48" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1410" s="48">
-        <v>1546</v>
+        <v>1547</v>
       </c>
       <c r="B1410" s="1" t="s">
         <v>2711</v>
@@ -50118,44 +50159,236 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="1666" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1666" s="1"/>
+    <row r="1666" spans="1:9" s="80" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1666" s="80">
+        <v>1862</v>
+      </c>
+      <c r="B1666" s="1" t="s">
+        <v>3302</v>
+      </c>
+      <c r="C1666" s="80">
+        <v>4</v>
+      </c>
+      <c r="D1666" s="80" t="s">
+        <v>1718</v>
+      </c>
+      <c r="F1666" s="80" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1666" s="80" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1666" s="80" t="s">
+        <v>3300</v>
+      </c>
+      <c r="I1666" s="80" t="s">
+        <v>3224</v>
+      </c>
     </row>
     <row r="1667" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1667" s="1"/>
-    </row>
-    <row r="1668" spans="1:9" s="62" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1668" s="1"/>
-    </row>
-    <row r="1669" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A1669" s="80" t="s">
+      <c r="A1667" s="71">
+        <v>1866</v>
+      </c>
+      <c r="B1667" s="1" t="s">
+        <v>3301</v>
+      </c>
+      <c r="C1667" s="71">
+        <v>4</v>
+      </c>
+      <c r="D1667" s="71" t="s">
+        <v>1720</v>
+      </c>
+      <c r="E1667" s="71" t="s">
+        <v>2924</v>
+      </c>
+      <c r="F1667" s="71" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1667" s="71" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1667" s="71" t="s">
+        <v>3303</v>
+      </c>
+      <c r="I1667" s="71" t="s">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="1668" spans="1:9" s="80" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1668" s="80">
+        <v>1872</v>
+      </c>
+      <c r="B1668" s="1" t="s">
+        <v>3304</v>
+      </c>
+      <c r="C1668" s="80">
+        <v>5</v>
+      </c>
+      <c r="D1668" s="80" t="s">
+        <v>2810</v>
+      </c>
+      <c r="F1668" s="80" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1668" s="80" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1668" s="80" t="s">
+        <v>3305</v>
+      </c>
+      <c r="I1668" s="80" t="s">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="1669" spans="1:9" s="80" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1669" s="80">
+        <v>1879</v>
+      </c>
+      <c r="B1669" s="1" t="s">
+        <v>3306</v>
+      </c>
+      <c r="C1669" s="80">
+        <v>4</v>
+      </c>
+      <c r="D1669" s="80" t="s">
+        <v>1720</v>
+      </c>
+      <c r="E1669" s="80" t="s">
+        <v>2935</v>
+      </c>
+      <c r="F1669" s="80" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1669" s="80" t="s">
+        <v>121</v>
+      </c>
+      <c r="H1669" s="80" t="s">
+        <v>3307</v>
+      </c>
+      <c r="I1669" s="80" t="s">
+        <v>3308</v>
+      </c>
+    </row>
+    <row r="1670" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1670" s="71">
+        <v>1883</v>
+      </c>
+      <c r="B1670" s="1" t="s">
+        <v>3309</v>
+      </c>
+      <c r="C1670" s="71">
+        <v>4</v>
+      </c>
+      <c r="D1670" s="71" t="s">
+        <v>1720</v>
+      </c>
+      <c r="F1670" s="71" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1670" s="71" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1670" s="71" t="s">
+        <v>3310</v>
+      </c>
+      <c r="I1670" s="71" t="s">
+        <v>3026</v>
+      </c>
+    </row>
+    <row r="1671" spans="1:9" s="62" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1671" s="62">
+        <v>1889</v>
+      </c>
+      <c r="B1671" s="1" t="s">
+        <v>3311</v>
+      </c>
+      <c r="C1671" s="62">
+        <v>4</v>
+      </c>
+      <c r="D1671" s="62" t="s">
+        <v>1720</v>
+      </c>
+      <c r="F1671" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1671" s="62" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1671" s="62" t="s">
+        <v>3312</v>
+      </c>
+      <c r="I1671" s="62" t="s">
+        <v>3029</v>
+      </c>
+    </row>
+    <row r="1672" spans="1:9" s="81" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1672" s="1"/>
+    </row>
+    <row r="1673" spans="1:9" s="81" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1673" s="1"/>
+    </row>
+    <row r="1674" spans="1:9" s="81" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1674" s="1"/>
+    </row>
+    <row r="1675" spans="1:9" s="81" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1675" s="1"/>
+    </row>
+    <row r="1676" spans="1:9" s="81" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1676" s="1"/>
+    </row>
+    <row r="1677" spans="1:9" s="81" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1677" s="1"/>
+    </row>
+    <row r="1678" spans="1:9" s="81" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1678" s="1"/>
+    </row>
+    <row r="1679" spans="1:9" s="81" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1679" s="1"/>
+    </row>
+    <row r="1680" spans="1:9" s="81" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1680" s="1"/>
+    </row>
+    <row r="1681" spans="1:8" s="81" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1681" s="1"/>
+    </row>
+    <row r="1682" spans="1:8" s="81" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1682" s="1"/>
+    </row>
+    <row r="1683" spans="1:8" s="81" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1683" s="1"/>
+    </row>
+    <row r="1684" spans="1:8" s="81" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1684" s="1"/>
+    </row>
+    <row r="1685" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A1685" s="82" t="s">
         <v>1721</v>
       </c>
-      <c r="B1669" s="80"/>
-      <c r="C1669" s="80"/>
-      <c r="D1669" s="80"/>
-      <c r="E1669" s="80"/>
-      <c r="F1669" s="80"/>
-      <c r="G1669" s="80"/>
-      <c r="H1669" s="80"/>
-    </row>
-    <row r="1670" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A1670" s="81" t="s">
+      <c r="B1685" s="82"/>
+      <c r="C1685" s="82"/>
+      <c r="D1685" s="82"/>
+      <c r="E1685" s="82"/>
+      <c r="F1685" s="82"/>
+      <c r="G1685" s="82"/>
+      <c r="H1685" s="82"/>
+    </row>
+    <row r="1686" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A1686" s="83" t="s">
         <v>2760</v>
       </c>
-      <c r="B1670" s="81"/>
-      <c r="C1670" s="81"/>
-      <c r="D1670" s="81"/>
-      <c r="E1670" s="81"/>
-      <c r="F1670" s="81"/>
-      <c r="G1670" s="81"/>
-      <c r="H1670" s="81"/>
+      <c r="B1686" s="83"/>
+      <c r="C1686" s="83"/>
+      <c r="D1686" s="83"/>
+      <c r="E1686" s="83"/>
+      <c r="F1686" s="83"/>
+      <c r="G1686" s="83"/>
+      <c r="H1686" s="83"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J1670" xr:uid="{CB07CE66-8F15-46FF-A90A-43FDB2DB428F}"/>
+  <autoFilter ref="A1:J1686" xr:uid="{CB07CE66-8F15-46FF-A90A-43FDB2DB428F}"/>
   <mergeCells count="2">
-    <mergeCell ref="A1669:H1669"/>
-    <mergeCell ref="A1670:H1670"/>
+    <mergeCell ref="A1685:H1685"/>
+    <mergeCell ref="A1686:H1686"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" display="https://leetcode.com/problems/zigzag-conversion" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -51604,10 +51837,17 @@
     <hyperlink ref="B1662" r:id="rId1444" display="https://leetcode.com/problems/maximum-population-year" xr:uid="{8B601B30-68A1-40B2-8CC4-5ADE4F1AADB0}"/>
     <hyperlink ref="B1663" r:id="rId1445" display="https://leetcode.com/problems/maximum-distance-between-a-pair-of-values" xr:uid="{6526D9AA-7EF1-4DDB-8A45-0E58240D35C1}"/>
     <hyperlink ref="B1664" r:id="rId1446" display="https://leetcode.com/problems/maximum-subarray-min-product" xr:uid="{652F1242-245F-4CDD-80E1-CD2643BBF1DD}"/>
+    <hyperlink ref="B1410" r:id="rId1447" display="https://leetcode.com/problems/minimum-cost-to-cut-a-stick" xr:uid="{43E29B64-294E-4116-AA83-2FC7A623AF15}"/>
+    <hyperlink ref="B1667" r:id="rId1448" display="https://leetcode.com/problems/number-of-ways-to-rearrange-sticks-with-k-sticks-visible" xr:uid="{E35D13B0-22B7-490D-B5AB-4A7212373890}"/>
+    <hyperlink ref="B1666" r:id="rId1449" display="https://leetcode.com/problems/sum-of-floored-pairs" xr:uid="{093A209E-68BA-452C-AA91-6C7000A5F2E3}"/>
+    <hyperlink ref="B1668" r:id="rId1450" display="https://leetcode.com/problems/stone-game-viii" xr:uid="{61F21AD1-64FA-4012-9BE3-4243D664B6E2}"/>
+    <hyperlink ref="B1669" r:id="rId1451" display="https://leetcode.com/problems/minimum-xor-sum-of-two-arrays" xr:uid="{FD7F5FAD-8697-4398-A6A7-4EF44D3CEA63}"/>
+    <hyperlink ref="B1670" r:id="rId1452" display="https://leetcode.com/problems/minimum-skips-to-arrive-at-meeting-on-time" xr:uid="{9E93822D-BDD4-48D6-A1B5-4CB1349E95EC}"/>
+    <hyperlink ref="B1671" r:id="rId1453" display="https://leetcode.com/problems/minimum-space-wasted-from-packaging" xr:uid="{FD882ECA-EAB3-432E-B354-871F2953F4AE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1447"/>
-  <drawing r:id="rId1448"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1454"/>
+  <drawing r:id="rId1455"/>
 </worksheet>
 </file>
 

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10B61B09-C01D-43C9-BC94-9E854E6F9E56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{789EA149-F92F-49E5-8284-82A8A4CEB905}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8964" uniqueCount="3313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8976" uniqueCount="3318">
   <si>
     <t>Difficulty</t>
   </si>
@@ -9976,6 +9976,21 @@
   </si>
   <si>
     <t>Sort packages and boxes, find any size of box will cover how many packages</t>
+  </si>
+  <si>
+    <t>Minimum Cost to Change the Final Value of Expression</t>
+  </si>
+  <si>
+    <t>The Earliest and Latest Rounds Where Players Compete</t>
+  </si>
+  <si>
+    <t>Parse the string to build expression tree then calculate</t>
+  </si>
+  <si>
+    <t>2^N</t>
+  </si>
+  <si>
+    <t>Iterate loser with bit mask from two ends and take new round when two pointers meet</t>
   </si>
 </sst>
 </file>
@@ -10496,7 +10511,7 @@
   <dimension ref="A1:J1686"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A1654" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1677" sqref="B1677"/>
+      <selection activeCell="A1673" sqref="A1673"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -50322,10 +50337,56 @@
       </c>
     </row>
     <row r="1672" spans="1:9" s="81" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1672" s="1"/>
+      <c r="A1672" s="81">
+        <v>1896</v>
+      </c>
+      <c r="B1672" s="1" t="s">
+        <v>3313</v>
+      </c>
+      <c r="C1672" s="81">
+        <v>6</v>
+      </c>
+      <c r="D1672" s="81" t="s">
+        <v>1720</v>
+      </c>
+      <c r="F1672" s="81" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1672" s="81" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1672" s="81" t="s">
+        <v>3315</v>
+      </c>
+      <c r="I1672" s="81" t="s">
+        <v>3000</v>
+      </c>
     </row>
     <row r="1673" spans="1:9" s="81" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1673" s="1"/>
+      <c r="A1673" s="81">
+        <v>1900</v>
+      </c>
+      <c r="B1673" s="1" t="s">
+        <v>3314</v>
+      </c>
+      <c r="C1673" s="81">
+        <v>5</v>
+      </c>
+      <c r="D1673" s="81" t="s">
+        <v>1713</v>
+      </c>
+      <c r="F1673" s="81" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1673" s="81" t="s">
+        <v>121</v>
+      </c>
+      <c r="H1673" s="81" t="s">
+        <v>3317</v>
+      </c>
+      <c r="I1673" s="81" t="s">
+        <v>3316</v>
+      </c>
     </row>
     <row r="1674" spans="1:9" s="81" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B1674" s="1"/>
@@ -51844,10 +51905,12 @@
     <hyperlink ref="B1669" r:id="rId1451" display="https://leetcode.com/problems/minimum-xor-sum-of-two-arrays" xr:uid="{FD7F5FAD-8697-4398-A6A7-4EF44D3CEA63}"/>
     <hyperlink ref="B1670" r:id="rId1452" display="https://leetcode.com/problems/minimum-skips-to-arrive-at-meeting-on-time" xr:uid="{9E93822D-BDD4-48D6-A1B5-4CB1349E95EC}"/>
     <hyperlink ref="B1671" r:id="rId1453" display="https://leetcode.com/problems/minimum-space-wasted-from-packaging" xr:uid="{FD882ECA-EAB3-432E-B354-871F2953F4AE}"/>
+    <hyperlink ref="B1672" r:id="rId1454" display="https://leetcode.com/problems/minimum-cost-to-change-the-final-value-of-expression" xr:uid="{8AEEABF2-8972-41C9-9EAC-7A4DC947DB04}"/>
+    <hyperlink ref="B1673" r:id="rId1455" display="https://leetcode.com/problems/the-earliest-and-latest-rounds-where-players-compete" xr:uid="{1BA05603-7474-4610-A2E6-E0FE942FC497}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1454"/>
-  <drawing r:id="rId1455"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1456"/>
+  <drawing r:id="rId1457"/>
 </worksheet>
 </file>
 

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{789EA149-F92F-49E5-8284-82A8A4CEB905}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{489F1A54-D542-4850-8201-974ABEA50119}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="SQL" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'LeetCode Algorithm'!$A$1:$J$1686</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'LeetCode Algorithm'!$A$1:$J$1694</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8976" uniqueCount="3318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9026" uniqueCount="3335">
   <si>
     <t>Difficulty</t>
   </si>
@@ -9991,6 +9991,57 @@
   </si>
   <si>
     <t>Iterate loser with bit mask from two ends and take new round when two pointers meet</t>
+  </si>
+  <si>
+    <t>Sorting the Sentence</t>
+  </si>
+  <si>
+    <t>Parse string and write to array</t>
+  </si>
+  <si>
+    <t>Sum of All Subset XOR Totals </t>
+  </si>
+  <si>
+    <t>if a bit is set it will generate 2^(n-1) sum.</t>
+  </si>
+  <si>
+    <t>Longer Contiguous Segments of Ones than Zeros</t>
+  </si>
+  <si>
+    <t>Accumulate count for zero and one</t>
+  </si>
+  <si>
+    <t>Substrings of Size Three with Distinct Characters</t>
+  </si>
+  <si>
+    <t>Count new character and character removed</t>
+  </si>
+  <si>
+    <t>Check if Word Equals Summation of Two Words</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Convert to integer </t>
+  </si>
+  <si>
+    <t>Determine Whether Matrix Can Be Obtained By Rotation</t>
+  </si>
+  <si>
+    <t>Coordination transformation</t>
+  </si>
+  <si>
+    <t>Check if All the Integers in a Range Are Covered</t>
+  </si>
+  <si>
+    <t>Sweep line</t>
+  </si>
+  <si>
+    <t>Incremental Memory Leak</t>
+  </si>
+  <si>
+    <t>Simulate on operation</t>
+  </si>
+  <si>
+    <t>sqrt(N)</t>
   </si>
 </sst>
 </file>
@@ -10035,7 +10086,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -10062,6 +10113,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -10508,10 +10562,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J1686"/>
+  <dimension ref="A1:J1694"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1654" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A1673" sqref="A1673"/>
+    <sheetView tabSelected="1" topLeftCell="A1658" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I1667" sqref="I1667"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -10981,7 +11035,7 @@
         <v>9</v>
       </c>
       <c r="G18" t="s">
-        <v>51</v>
+        <v>121</v>
       </c>
       <c r="H18" t="s">
         <v>1753</v>
@@ -11108,7 +11162,7 @@
         <v>9</v>
       </c>
       <c r="G23" t="s">
-        <v>51</v>
+        <v>121</v>
       </c>
       <c r="H23" t="s">
         <v>2305</v>
@@ -11295,7 +11349,7 @@
         <v>12</v>
       </c>
       <c r="G31" t="s">
-        <v>51</v>
+        <v>121</v>
       </c>
       <c r="H31" t="s">
         <v>61</v>
@@ -11462,7 +11516,7 @@
         <v>12</v>
       </c>
       <c r="G38" t="s">
-        <v>51</v>
+        <v>121</v>
       </c>
       <c r="H38" t="s">
         <v>2719</v>
@@ -11511,7 +11565,7 @@
         <v>9</v>
       </c>
       <c r="G40" t="s">
-        <v>51</v>
+        <v>121</v>
       </c>
       <c r="H40" t="s">
         <v>2720</v>
@@ -11537,7 +11591,7 @@
         <v>9</v>
       </c>
       <c r="G41" t="s">
-        <v>51</v>
+        <v>121</v>
       </c>
       <c r="H41" t="s">
         <v>1803</v>
@@ -11678,7 +11732,7 @@
         <v>9</v>
       </c>
       <c r="G47" t="s">
-        <v>51</v>
+        <v>121</v>
       </c>
       <c r="H47" t="s">
         <v>2720</v>
@@ -11704,7 +11758,7 @@
         <v>9</v>
       </c>
       <c r="G48" t="s">
-        <v>51</v>
+        <v>121</v>
       </c>
       <c r="H48" s="51" t="s">
         <v>1803</v>
@@ -50174,122 +50228,119 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="1666" spans="1:9" s="80" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1666" s="80">
-        <v>1862</v>
+    <row r="1666" spans="1:9" s="82" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1666" s="82">
+        <v>1859</v>
       </c>
       <c r="B1666" s="1" t="s">
-        <v>3302</v>
-      </c>
-      <c r="C1666" s="80">
-        <v>4</v>
-      </c>
-      <c r="D1666" s="80" t="s">
+        <v>3318</v>
+      </c>
+      <c r="C1666" s="82">
+        <v>1</v>
+      </c>
+      <c r="D1666" s="82" t="s">
+        <v>1720</v>
+      </c>
+      <c r="F1666" s="82" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1666" s="82" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1666" s="82" t="s">
+        <v>3319</v>
+      </c>
+      <c r="I1666" s="82" t="s">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="1667" spans="1:9" s="84" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1667" s="84">
+        <v>1860</v>
+      </c>
+      <c r="B1667" s="1" t="s">
+        <v>3332</v>
+      </c>
+      <c r="C1667" s="84">
+        <v>3</v>
+      </c>
+      <c r="D1667" s="84" t="s">
         <v>1718</v>
       </c>
-      <c r="F1666" s="80" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1666" s="80" t="s">
+      <c r="F1667" s="84" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1667" s="84" t="s">
         <v>25</v>
       </c>
-      <c r="H1666" s="80" t="s">
-        <v>3300</v>
-      </c>
-      <c r="I1666" s="80" t="s">
-        <v>3224</v>
-      </c>
-    </row>
-    <row r="1667" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1667" s="71">
-        <v>1866</v>
-      </c>
-      <c r="B1667" s="1" t="s">
-        <v>3301</v>
-      </c>
-      <c r="C1667" s="71">
-        <v>4</v>
-      </c>
-      <c r="D1667" s="71" t="s">
-        <v>1720</v>
-      </c>
-      <c r="E1667" s="71" t="s">
-        <v>2924</v>
-      </c>
-      <c r="F1667" s="71" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1667" s="71" t="s">
-        <v>28</v>
-      </c>
-      <c r="H1667" s="71" t="s">
-        <v>3303</v>
-      </c>
-      <c r="I1667" s="71" t="s">
-        <v>3000</v>
+      <c r="H1667" s="84" t="s">
+        <v>3333</v>
+      </c>
+      <c r="I1667" s="84" t="s">
+        <v>3334</v>
       </c>
     </row>
     <row r="1668" spans="1:9" s="80" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1668" s="80">
-        <v>1872</v>
+        <v>1862</v>
       </c>
       <c r="B1668" s="1" t="s">
-        <v>3304</v>
+        <v>3302</v>
       </c>
       <c r="C1668" s="80">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D1668" s="80" t="s">
-        <v>2810</v>
+        <v>1718</v>
       </c>
       <c r="F1668" s="80" t="s">
         <v>12</v>
       </c>
       <c r="G1668" s="80" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H1668" s="80" t="s">
-        <v>3305</v>
+        <v>3300</v>
       </c>
       <c r="I1668" s="80" t="s">
+        <v>3224</v>
+      </c>
+    </row>
+    <row r="1669" spans="1:9" s="82" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1669" s="82">
+        <v>1863</v>
+      </c>
+      <c r="B1669" s="1" t="s">
+        <v>3320</v>
+      </c>
+      <c r="C1669" s="82">
+        <v>3</v>
+      </c>
+      <c r="D1669" s="82" t="s">
+        <v>1718</v>
+      </c>
+      <c r="E1669" s="82" t="s">
+        <v>2935</v>
+      </c>
+      <c r="F1669" s="82" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1669" s="82" t="s">
+        <v>134</v>
+      </c>
+      <c r="H1669" s="82" t="s">
+        <v>3321</v>
+      </c>
+      <c r="I1669" s="82" t="s">
         <v>3000</v>
-      </c>
-    </row>
-    <row r="1669" spans="1:9" s="80" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1669" s="80">
-        <v>1879</v>
-      </c>
-      <c r="B1669" s="1" t="s">
-        <v>3306</v>
-      </c>
-      <c r="C1669" s="80">
-        <v>4</v>
-      </c>
-      <c r="D1669" s="80" t="s">
-        <v>1720</v>
-      </c>
-      <c r="E1669" s="80" t="s">
-        <v>2935</v>
-      </c>
-      <c r="F1669" s="80" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1669" s="80" t="s">
-        <v>121</v>
-      </c>
-      <c r="H1669" s="80" t="s">
-        <v>3307</v>
-      </c>
-      <c r="I1669" s="80" t="s">
-        <v>3308</v>
       </c>
     </row>
     <row r="1670" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1670" s="71">
-        <v>1883</v>
+        <v>1866</v>
       </c>
       <c r="B1670" s="1" t="s">
-        <v>3309</v>
+        <v>3301</v>
       </c>
       <c r="C1670" s="71">
         <v>4</v>
@@ -50297,6 +50348,9 @@
       <c r="D1670" s="71" t="s">
         <v>1720</v>
       </c>
+      <c r="E1670" s="71" t="s">
+        <v>2924</v>
+      </c>
       <c r="F1670" s="71" t="s">
         <v>12</v>
       </c>
@@ -50304,152 +50358,366 @@
         <v>28</v>
       </c>
       <c r="H1670" s="71" t="s">
+        <v>3303</v>
+      </c>
+      <c r="I1670" s="71" t="s">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="1671" spans="1:9" s="82" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1671" s="82">
+        <v>1869</v>
+      </c>
+      <c r="B1671" s="1" t="s">
+        <v>3322</v>
+      </c>
+      <c r="C1671" s="82">
+        <v>2</v>
+      </c>
+      <c r="D1671" s="82" t="s">
+        <v>1720</v>
+      </c>
+      <c r="E1671" s="82" t="s">
+        <v>2935</v>
+      </c>
+      <c r="F1671" s="82" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1671" s="82" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1671" s="82" t="s">
+        <v>3323</v>
+      </c>
+      <c r="I1671" s="82" t="s">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="1672" spans="1:9" s="80" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1672" s="80">
+        <v>1872</v>
+      </c>
+      <c r="B1672" s="1" t="s">
+        <v>3304</v>
+      </c>
+      <c r="C1672" s="80">
+        <v>5</v>
+      </c>
+      <c r="D1672" s="80" t="s">
+        <v>2810</v>
+      </c>
+      <c r="F1672" s="80" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1672" s="80" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1672" s="80" t="s">
+        <v>3305</v>
+      </c>
+      <c r="I1672" s="80" t="s">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="1673" spans="1:9" s="83" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1673" s="83">
+        <v>1876</v>
+      </c>
+      <c r="B1673" s="1" t="s">
+        <v>3324</v>
+      </c>
+      <c r="C1673" s="83">
+        <v>2</v>
+      </c>
+      <c r="D1673" s="83" t="s">
+        <v>1720</v>
+      </c>
+      <c r="F1673" s="83" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1673" s="83" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1673" s="83" t="s">
+        <v>3325</v>
+      </c>
+      <c r="I1673" s="83" t="s">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="1674" spans="1:9" s="80" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1674" s="80">
+        <v>1879</v>
+      </c>
+      <c r="B1674" s="1" t="s">
+        <v>3306</v>
+      </c>
+      <c r="C1674" s="80">
+        <v>4</v>
+      </c>
+      <c r="D1674" s="80" t="s">
+        <v>1720</v>
+      </c>
+      <c r="E1674" s="80" t="s">
+        <v>2935</v>
+      </c>
+      <c r="F1674" s="80" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1674" s="80" t="s">
+        <v>121</v>
+      </c>
+      <c r="H1674" s="80" t="s">
+        <v>3307</v>
+      </c>
+      <c r="I1674" s="80" t="s">
+        <v>3308</v>
+      </c>
+    </row>
+    <row r="1675" spans="1:9" s="83" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1675" s="83">
+        <v>1880</v>
+      </c>
+      <c r="B1675" s="1" t="s">
+        <v>3326</v>
+      </c>
+      <c r="C1675" s="83">
+        <v>1</v>
+      </c>
+      <c r="D1675" s="83" t="s">
+        <v>1720</v>
+      </c>
+      <c r="F1675" s="83" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1675" s="83" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1675" s="83" t="s">
+        <v>3327</v>
+      </c>
+      <c r="I1675" s="83" t="s">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="1676" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1676" s="71">
+        <v>1883</v>
+      </c>
+      <c r="B1676" s="1" t="s">
+        <v>3309</v>
+      </c>
+      <c r="C1676" s="71">
+        <v>4</v>
+      </c>
+      <c r="D1676" s="71" t="s">
+        <v>1720</v>
+      </c>
+      <c r="F1676" s="71" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1676" s="71" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1676" s="71" t="s">
         <v>3310</v>
       </c>
-      <c r="I1670" s="71" t="s">
+      <c r="I1676" s="71" t="s">
         <v>3026</v>
       </c>
     </row>
-    <row r="1671" spans="1:9" s="62" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1671" s="62">
+    <row r="1677" spans="1:9" s="83" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1677" s="83">
+        <v>1886</v>
+      </c>
+      <c r="B1677" s="1" t="s">
+        <v>3328</v>
+      </c>
+      <c r="C1677" s="83">
+        <v>3</v>
+      </c>
+      <c r="D1677" s="83" t="s">
+        <v>1720</v>
+      </c>
+      <c r="F1677" s="83" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1677" s="83" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1677" s="83" t="s">
+        <v>3329</v>
+      </c>
+      <c r="I1677" s="83" t="s">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="1678" spans="1:9" s="62" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1678" s="62">
         <v>1889</v>
       </c>
-      <c r="B1671" s="1" t="s">
+      <c r="B1678" s="1" t="s">
         <v>3311</v>
       </c>
-      <c r="C1671" s="62">
+      <c r="C1678" s="62">
         <v>4</v>
       </c>
-      <c r="D1671" s="62" t="s">
+      <c r="D1678" s="62" t="s">
         <v>1720</v>
       </c>
-      <c r="F1671" s="62" t="s">
+      <c r="F1678" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="G1671" s="62" t="s">
+      <c r="G1678" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="H1671" s="62" t="s">
+      <c r="H1678" s="62" t="s">
         <v>3312</v>
       </c>
-      <c r="I1671" s="62" t="s">
+      <c r="I1678" s="62" t="s">
         <v>3029</v>
       </c>
     </row>
-    <row r="1672" spans="1:9" s="81" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1672" s="81">
+    <row r="1679" spans="1:9" s="83" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1679" s="83">
+        <v>1893</v>
+      </c>
+      <c r="B1679" s="1" t="s">
+        <v>3330</v>
+      </c>
+      <c r="C1679" s="83">
+        <v>3</v>
+      </c>
+      <c r="D1679" s="83" t="s">
+        <v>1720</v>
+      </c>
+      <c r="E1679" s="83" t="s">
+        <v>2924</v>
+      </c>
+      <c r="F1679" s="83" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1679" s="83" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1679" s="83" t="s">
+        <v>3331</v>
+      </c>
+    </row>
+    <row r="1680" spans="1:9" s="81" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1680" s="81">
         <v>1896</v>
       </c>
-      <c r="B1672" s="1" t="s">
+      <c r="B1680" s="1" t="s">
         <v>3313</v>
       </c>
-      <c r="C1672" s="81">
+      <c r="C1680" s="81">
         <v>6</v>
       </c>
-      <c r="D1672" s="81" t="s">
+      <c r="D1680" s="81" t="s">
         <v>1720</v>
       </c>
-      <c r="F1672" s="81" t="s">
+      <c r="F1680" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="G1672" s="81" t="s">
+      <c r="G1680" s="81" t="s">
         <v>36</v>
       </c>
-      <c r="H1672" s="81" t="s">
+      <c r="H1680" s="81" t="s">
         <v>3315</v>
       </c>
-      <c r="I1672" s="81" t="s">
+      <c r="I1680" s="81" t="s">
         <v>3000</v>
       </c>
     </row>
-    <row r="1673" spans="1:9" s="81" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1673" s="81">
+    <row r="1681" spans="1:9" s="81" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1681" s="81">
         <v>1900</v>
       </c>
-      <c r="B1673" s="1" t="s">
+      <c r="B1681" s="1" t="s">
         <v>3314</v>
       </c>
-      <c r="C1673" s="81">
-        <v>5</v>
-      </c>
-      <c r="D1673" s="81" t="s">
+      <c r="C1681" s="81">
+        <v>5</v>
+      </c>
+      <c r="D1681" s="81" t="s">
         <v>1713</v>
       </c>
-      <c r="F1673" s="81" t="s">
+      <c r="F1681" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="G1673" s="81" t="s">
+      <c r="G1681" s="81" t="s">
         <v>121</v>
       </c>
-      <c r="H1673" s="81" t="s">
+      <c r="H1681" s="81" t="s">
         <v>3317</v>
       </c>
-      <c r="I1673" s="81" t="s">
+      <c r="I1681" s="81" t="s">
         <v>3316</v>
       </c>
     </row>
-    <row r="1674" spans="1:9" s="81" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1674" s="1"/>
-    </row>
-    <row r="1675" spans="1:9" s="81" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1675" s="1"/>
-    </row>
-    <row r="1676" spans="1:9" s="81" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1676" s="1"/>
-    </row>
-    <row r="1677" spans="1:9" s="81" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1677" s="1"/>
-    </row>
-    <row r="1678" spans="1:9" s="81" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1678" s="1"/>
-    </row>
-    <row r="1679" spans="1:9" s="81" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1679" s="1"/>
-    </row>
-    <row r="1680" spans="1:9" s="81" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1680" s="1"/>
-    </row>
-    <row r="1681" spans="1:8" s="81" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1681" s="1"/>
-    </row>
-    <row r="1682" spans="1:8" s="81" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1682" spans="1:9" s="81" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B1682" s="1"/>
     </row>
-    <row r="1683" spans="1:8" s="81" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1683" spans="1:9" s="81" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B1683" s="1"/>
     </row>
-    <row r="1684" spans="1:8" s="81" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1684" spans="1:9" s="81" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B1684" s="1"/>
     </row>
-    <row r="1685" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A1685" s="82" t="s">
+    <row r="1685" spans="1:9" s="81" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1685" s="1"/>
+    </row>
+    <row r="1686" spans="1:9" s="81" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1686" s="1"/>
+    </row>
+    <row r="1687" spans="1:9" s="81" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1687" s="1"/>
+    </row>
+    <row r="1688" spans="1:9" s="81" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1688" s="1"/>
+    </row>
+    <row r="1689" spans="1:9" s="81" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1689" s="1"/>
+    </row>
+    <row r="1690" spans="1:9" s="81" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1690" s="1"/>
+    </row>
+    <row r="1691" spans="1:9" s="81" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1691" s="1"/>
+    </row>
+    <row r="1692" spans="1:9" s="81" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1692" s="1"/>
+    </row>
+    <row r="1693" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A1693" s="85" t="s">
         <v>1721</v>
       </c>
-      <c r="B1685" s="82"/>
-      <c r="C1685" s="82"/>
-      <c r="D1685" s="82"/>
-      <c r="E1685" s="82"/>
-      <c r="F1685" s="82"/>
-      <c r="G1685" s="82"/>
-      <c r="H1685" s="82"/>
-    </row>
-    <row r="1686" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A1686" s="83" t="s">
+      <c r="B1693" s="85"/>
+      <c r="C1693" s="85"/>
+      <c r="D1693" s="85"/>
+      <c r="E1693" s="85"/>
+      <c r="F1693" s="85"/>
+      <c r="G1693" s="85"/>
+      <c r="H1693" s="85"/>
+    </row>
+    <row r="1694" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A1694" s="86" t="s">
         <v>2760</v>
       </c>
-      <c r="B1686" s="83"/>
-      <c r="C1686" s="83"/>
-      <c r="D1686" s="83"/>
-      <c r="E1686" s="83"/>
-      <c r="F1686" s="83"/>
-      <c r="G1686" s="83"/>
-      <c r="H1686" s="83"/>
+      <c r="B1694" s="86"/>
+      <c r="C1694" s="86"/>
+      <c r="D1694" s="86"/>
+      <c r="E1694" s="86"/>
+      <c r="F1694" s="86"/>
+      <c r="G1694" s="86"/>
+      <c r="H1694" s="86"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J1686" xr:uid="{CB07CE66-8F15-46FF-A90A-43FDB2DB428F}"/>
+  <autoFilter ref="A1:J1694" xr:uid="{CB07CE66-8F15-46FF-A90A-43FDB2DB428F}"/>
   <mergeCells count="2">
-    <mergeCell ref="A1685:H1685"/>
-    <mergeCell ref="A1686:H1686"/>
+    <mergeCell ref="A1693:H1693"/>
+    <mergeCell ref="A1694:H1694"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" display="https://leetcode.com/problems/zigzag-conversion" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -51899,18 +52167,25 @@
     <hyperlink ref="B1663" r:id="rId1445" display="https://leetcode.com/problems/maximum-distance-between-a-pair-of-values" xr:uid="{6526D9AA-7EF1-4DDB-8A45-0E58240D35C1}"/>
     <hyperlink ref="B1664" r:id="rId1446" display="https://leetcode.com/problems/maximum-subarray-min-product" xr:uid="{652F1242-245F-4CDD-80E1-CD2643BBF1DD}"/>
     <hyperlink ref="B1410" r:id="rId1447" display="https://leetcode.com/problems/minimum-cost-to-cut-a-stick" xr:uid="{43E29B64-294E-4116-AA83-2FC7A623AF15}"/>
-    <hyperlink ref="B1667" r:id="rId1448" display="https://leetcode.com/problems/number-of-ways-to-rearrange-sticks-with-k-sticks-visible" xr:uid="{E35D13B0-22B7-490D-B5AB-4A7212373890}"/>
-    <hyperlink ref="B1666" r:id="rId1449" display="https://leetcode.com/problems/sum-of-floored-pairs" xr:uid="{093A209E-68BA-452C-AA91-6C7000A5F2E3}"/>
-    <hyperlink ref="B1668" r:id="rId1450" display="https://leetcode.com/problems/stone-game-viii" xr:uid="{61F21AD1-64FA-4012-9BE3-4243D664B6E2}"/>
-    <hyperlink ref="B1669" r:id="rId1451" display="https://leetcode.com/problems/minimum-xor-sum-of-two-arrays" xr:uid="{FD7F5FAD-8697-4398-A6A7-4EF44D3CEA63}"/>
-    <hyperlink ref="B1670" r:id="rId1452" display="https://leetcode.com/problems/minimum-skips-to-arrive-at-meeting-on-time" xr:uid="{9E93822D-BDD4-48D6-A1B5-4CB1349E95EC}"/>
-    <hyperlink ref="B1671" r:id="rId1453" display="https://leetcode.com/problems/minimum-space-wasted-from-packaging" xr:uid="{FD882ECA-EAB3-432E-B354-871F2953F4AE}"/>
-    <hyperlink ref="B1672" r:id="rId1454" display="https://leetcode.com/problems/minimum-cost-to-change-the-final-value-of-expression" xr:uid="{8AEEABF2-8972-41C9-9EAC-7A4DC947DB04}"/>
-    <hyperlink ref="B1673" r:id="rId1455" display="https://leetcode.com/problems/the-earliest-and-latest-rounds-where-players-compete" xr:uid="{1BA05603-7474-4610-A2E6-E0FE942FC497}"/>
+    <hyperlink ref="B1670" r:id="rId1448" display="https://leetcode.com/problems/number-of-ways-to-rearrange-sticks-with-k-sticks-visible" xr:uid="{E35D13B0-22B7-490D-B5AB-4A7212373890}"/>
+    <hyperlink ref="B1668" r:id="rId1449" display="https://leetcode.com/problems/sum-of-floored-pairs" xr:uid="{093A209E-68BA-452C-AA91-6C7000A5F2E3}"/>
+    <hyperlink ref="B1672" r:id="rId1450" display="https://leetcode.com/problems/stone-game-viii" xr:uid="{61F21AD1-64FA-4012-9BE3-4243D664B6E2}"/>
+    <hyperlink ref="B1674" r:id="rId1451" display="https://leetcode.com/problems/minimum-xor-sum-of-two-arrays" xr:uid="{FD7F5FAD-8697-4398-A6A7-4EF44D3CEA63}"/>
+    <hyperlink ref="B1676" r:id="rId1452" display="https://leetcode.com/problems/minimum-skips-to-arrive-at-meeting-on-time" xr:uid="{9E93822D-BDD4-48D6-A1B5-4CB1349E95EC}"/>
+    <hyperlink ref="B1678" r:id="rId1453" display="https://leetcode.com/problems/minimum-space-wasted-from-packaging" xr:uid="{FD882ECA-EAB3-432E-B354-871F2953F4AE}"/>
+    <hyperlink ref="B1680" r:id="rId1454" display="https://leetcode.com/problems/minimum-cost-to-change-the-final-value-of-expression" xr:uid="{8AEEABF2-8972-41C9-9EAC-7A4DC947DB04}"/>
+    <hyperlink ref="B1681" r:id="rId1455" display="https://leetcode.com/problems/the-earliest-and-latest-rounds-where-players-compete" xr:uid="{1BA05603-7474-4610-A2E6-E0FE942FC497}"/>
+    <hyperlink ref="B1669" r:id="rId1456" display="https://leetcode.com/problems/sum-of-all-subset-xor-totals" xr:uid="{916CBCE4-8E4F-4C1A-ADC8-D712E20E7078}"/>
+    <hyperlink ref="B1671" r:id="rId1457" display="https://leetcode.com/problems/longer-contiguous-segments-of-ones-than-zeros" xr:uid="{F0373E6C-9FDE-4708-BDE4-1BAF6BC3DAF9}"/>
+    <hyperlink ref="B1673" r:id="rId1458" display="https://leetcode.com/problems/substrings-of-size-three-with-distinct-characters" xr:uid="{1D3C16AD-27DB-4D26-B4C5-CB3468282314}"/>
+    <hyperlink ref="B1675" r:id="rId1459" display="https://leetcode.com/problems/check-if-word-equals-summation-of-two-words" xr:uid="{26751097-8588-426A-9778-1F2134E99BA0}"/>
+    <hyperlink ref="B1677" r:id="rId1460" display="https://leetcode.com/problems/determine-whether-matrix-can-be-obtained-by-rotation" xr:uid="{DAAF2CCC-883E-4313-871A-8A735A3F5ADA}"/>
+    <hyperlink ref="B1679" r:id="rId1461" display="https://leetcode.com/problems/check-if-all-the-integers-in-a-range-are-covered" xr:uid="{1E1CE91C-D79D-487A-A76A-6DE39C6CDD96}"/>
+    <hyperlink ref="B1667" r:id="rId1462" display="https://leetcode.com/problems/incremental-memory-leak" xr:uid="{CA1A11F1-F4F6-4D65-9D69-A6197119EA1E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1456"/>
-  <drawing r:id="rId1457"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1463"/>
+  <drawing r:id="rId1464"/>
 </worksheet>
 </file>
 

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{489F1A54-D542-4850-8201-974ABEA50119}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{654FF7E5-049A-4597-8138-61F6D9AFA8AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="SQL" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'LeetCode Algorithm'!$A$1:$J$1694</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'LeetCode Algorithm'!$A$1:$J$1695</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9026" uniqueCount="3335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9070" uniqueCount="3350">
   <si>
     <t>Difficulty</t>
   </si>
@@ -10042,6 +10042,51 @@
   </si>
   <si>
     <t>sqrt(N)</t>
+  </si>
+  <si>
+    <t>Rotating the Box</t>
+  </si>
+  <si>
+    <t>Coordination transformation, track bottom in each column</t>
+  </si>
+  <si>
+    <t>Largest Odd Number in String</t>
+  </si>
+  <si>
+    <t>Take out even digits at the end</t>
+  </si>
+  <si>
+    <t>Minimum Absolute Difference Queries</t>
+  </si>
+  <si>
+    <t>Loop for all numbers for every query.</t>
+  </si>
+  <si>
+    <t>Remove One Element to Make the Array Strictly Increasing</t>
+  </si>
+  <si>
+    <t>Keep track on previous number in sequence.</t>
+  </si>
+  <si>
+    <t>Maximum Product Difference Between Two Pairs</t>
+  </si>
+  <si>
+    <t>Use heap to track minum and maximum numbers</t>
+  </si>
+  <si>
+    <t>100 * N</t>
+  </si>
+  <si>
+    <t>Cyclically Rotating a Grid</t>
+  </si>
+  <si>
+    <t>Count Ways to Build Rooms in an Ant Colony</t>
+  </si>
+  <si>
+    <t>Keep each ring in a list</t>
+  </si>
+  <si>
+    <t>Count topology with combination after count subtree in DFS</t>
   </si>
 </sst>
 </file>
@@ -10086,7 +10131,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -10113,6 +10158,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -10562,10 +10608,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J1694"/>
+  <dimension ref="A1:J1695"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1658" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I1667" sqref="I1667"/>
+    <sheetView tabSelected="1" topLeftCell="A1664" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A1689" sqref="A1689"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -50280,402 +50326,569 @@
         <v>3334</v>
       </c>
     </row>
-    <row r="1668" spans="1:9" s="80" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1668" s="80">
+    <row r="1668" spans="1:9" s="85" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1668" s="85">
+        <v>1861</v>
+      </c>
+      <c r="B1668" s="1" t="s">
+        <v>3335</v>
+      </c>
+      <c r="C1668" s="85">
+        <v>3</v>
+      </c>
+      <c r="D1668" s="85" t="s">
+        <v>1720</v>
+      </c>
+      <c r="F1668" s="85" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1668" s="85" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1668" s="85" t="s">
+        <v>3336</v>
+      </c>
+      <c r="I1668" s="85" t="s">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="1669" spans="1:9" s="80" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1669" s="80">
         <v>1862</v>
       </c>
-      <c r="B1668" s="1" t="s">
+      <c r="B1669" s="1" t="s">
         <v>3302</v>
       </c>
-      <c r="C1668" s="80">
+      <c r="C1669" s="80">
         <v>4</v>
       </c>
-      <c r="D1668" s="80" t="s">
+      <c r="D1669" s="80" t="s">
         <v>1718</v>
       </c>
-      <c r="F1668" s="80" t="s">
+      <c r="F1669" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="G1668" s="80" t="s">
+      <c r="G1669" s="80" t="s">
         <v>25</v>
       </c>
-      <c r="H1668" s="80" t="s">
+      <c r="H1669" s="80" t="s">
         <v>3300</v>
       </c>
-      <c r="I1668" s="80" t="s">
+      <c r="I1669" s="80" t="s">
         <v>3224</v>
       </c>
     </row>
-    <row r="1669" spans="1:9" s="82" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1669" s="82">
+    <row r="1670" spans="1:9" s="82" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1670" s="82">
         <v>1863</v>
       </c>
-      <c r="B1669" s="1" t="s">
+      <c r="B1670" s="1" t="s">
         <v>3320</v>
       </c>
-      <c r="C1669" s="82">
-        <v>3</v>
-      </c>
-      <c r="D1669" s="82" t="s">
+      <c r="C1670" s="82">
+        <v>3</v>
+      </c>
+      <c r="D1670" s="82" t="s">
         <v>1718</v>
       </c>
-      <c r="E1669" s="82" t="s">
+      <c r="E1670" s="82" t="s">
         <v>2935</v>
       </c>
-      <c r="F1669" s="82" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1669" s="82" t="s">
+      <c r="F1670" s="82" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1670" s="82" t="s">
         <v>134</v>
       </c>
-      <c r="H1669" s="82" t="s">
+      <c r="H1670" s="82" t="s">
         <v>3321</v>
       </c>
-      <c r="I1669" s="82" t="s">
+      <c r="I1670" s="82" t="s">
         <v>3000</v>
       </c>
     </row>
-    <row r="1670" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1670" s="71">
+    <row r="1671" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1671" s="71">
         <v>1866</v>
       </c>
-      <c r="B1670" s="1" t="s">
+      <c r="B1671" s="1" t="s">
         <v>3301</v>
       </c>
-      <c r="C1670" s="71">
+      <c r="C1671" s="71">
         <v>4</v>
       </c>
-      <c r="D1670" s="71" t="s">
+      <c r="D1671" s="71" t="s">
         <v>1720</v>
       </c>
-      <c r="E1670" s="71" t="s">
+      <c r="E1671" s="71" t="s">
         <v>2924</v>
       </c>
-      <c r="F1670" s="71" t="s">
+      <c r="F1671" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="G1670" s="71" t="s">
+      <c r="G1671" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="H1670" s="71" t="s">
+      <c r="H1671" s="71" t="s">
         <v>3303</v>
       </c>
-      <c r="I1670" s="71" t="s">
+      <c r="I1671" s="71" t="s">
         <v>3000</v>
       </c>
     </row>
-    <row r="1671" spans="1:9" s="82" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1671" s="82">
+    <row r="1672" spans="1:9" s="82" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1672" s="82">
         <v>1869</v>
       </c>
-      <c r="B1671" s="1" t="s">
+      <c r="B1672" s="1" t="s">
         <v>3322</v>
       </c>
-      <c r="C1671" s="82">
+      <c r="C1672" s="82">
         <v>2</v>
       </c>
-      <c r="D1671" s="82" t="s">
+      <c r="D1672" s="82" t="s">
         <v>1720</v>
       </c>
-      <c r="E1671" s="82" t="s">
+      <c r="E1672" s="82" t="s">
         <v>2935</v>
       </c>
-      <c r="F1671" s="82" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1671" s="82" t="s">
+      <c r="F1672" s="82" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1672" s="82" t="s">
         <v>36</v>
       </c>
-      <c r="H1671" s="82" t="s">
+      <c r="H1672" s="82" t="s">
         <v>3323</v>
       </c>
-      <c r="I1671" s="82" t="s">
+      <c r="I1672" s="82" t="s">
         <v>3000</v>
       </c>
     </row>
-    <row r="1672" spans="1:9" s="80" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1672" s="80">
+    <row r="1673" spans="1:9" s="80" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1673" s="80">
         <v>1872</v>
       </c>
-      <c r="B1672" s="1" t="s">
+      <c r="B1673" s="1" t="s">
         <v>3304</v>
       </c>
-      <c r="C1672" s="80">
-        <v>5</v>
-      </c>
-      <c r="D1672" s="80" t="s">
+      <c r="C1673" s="80">
+        <v>5</v>
+      </c>
+      <c r="D1673" s="80" t="s">
         <v>2810</v>
       </c>
-      <c r="F1672" s="80" t="s">
+      <c r="F1673" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="G1672" s="80" t="s">
+      <c r="G1673" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="H1672" s="80" t="s">
+      <c r="H1673" s="80" t="s">
         <v>3305</v>
       </c>
-      <c r="I1672" s="80" t="s">
+      <c r="I1673" s="80" t="s">
         <v>3000</v>
       </c>
     </row>
-    <row r="1673" spans="1:9" s="83" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1673" s="83">
+    <row r="1674" spans="1:9" s="83" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1674" s="83">
         <v>1876</v>
       </c>
-      <c r="B1673" s="1" t="s">
+      <c r="B1674" s="1" t="s">
         <v>3324</v>
       </c>
-      <c r="C1673" s="83">
+      <c r="C1674" s="83">
         <v>2</v>
       </c>
-      <c r="D1673" s="83" t="s">
+      <c r="D1674" s="83" t="s">
         <v>1720</v>
       </c>
-      <c r="F1673" s="83" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1673" s="83" t="s">
+      <c r="F1674" s="83" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1674" s="83" t="s">
         <v>36</v>
       </c>
-      <c r="H1673" s="83" t="s">
+      <c r="H1674" s="83" t="s">
         <v>3325</v>
       </c>
-      <c r="I1673" s="83" t="s">
+      <c r="I1674" s="83" t="s">
         <v>3000</v>
       </c>
     </row>
-    <row r="1674" spans="1:9" s="80" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1674" s="80">
+    <row r="1675" spans="1:9" s="80" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1675" s="80">
         <v>1879</v>
       </c>
-      <c r="B1674" s="1" t="s">
+      <c r="B1675" s="1" t="s">
         <v>3306</v>
       </c>
-      <c r="C1674" s="80">
+      <c r="C1675" s="80">
         <v>4</v>
       </c>
-      <c r="D1674" s="80" t="s">
+      <c r="D1675" s="80" t="s">
         <v>1720</v>
       </c>
-      <c r="E1674" s="80" t="s">
+      <c r="E1675" s="80" t="s">
         <v>2935</v>
       </c>
-      <c r="F1674" s="80" t="s">
+      <c r="F1675" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="G1674" s="80" t="s">
+      <c r="G1675" s="80" t="s">
         <v>121</v>
       </c>
-      <c r="H1674" s="80" t="s">
+      <c r="H1675" s="80" t="s">
         <v>3307</v>
       </c>
-      <c r="I1674" s="80" t="s">
+      <c r="I1675" s="80" t="s">
         <v>3308</v>
       </c>
     </row>
-    <row r="1675" spans="1:9" s="83" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1675" s="83">
+    <row r="1676" spans="1:9" s="83" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1676" s="83">
         <v>1880</v>
       </c>
-      <c r="B1675" s="1" t="s">
+      <c r="B1676" s="1" t="s">
         <v>3326</v>
       </c>
-      <c r="C1675" s="83">
+      <c r="C1676" s="83">
         <v>1</v>
       </c>
-      <c r="D1675" s="83" t="s">
+      <c r="D1676" s="83" t="s">
         <v>1720</v>
       </c>
-      <c r="F1675" s="83" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1675" s="83" t="s">
+      <c r="F1676" s="83" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1676" s="83" t="s">
         <v>36</v>
       </c>
-      <c r="H1675" s="83" t="s">
+      <c r="H1676" s="83" t="s">
         <v>3327</v>
       </c>
-      <c r="I1675" s="83" t="s">
+      <c r="I1676" s="83" t="s">
         <v>3000</v>
       </c>
     </row>
-    <row r="1676" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1676" s="71">
+    <row r="1677" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1677" s="71">
         <v>1883</v>
       </c>
-      <c r="B1676" s="1" t="s">
+      <c r="B1677" s="1" t="s">
         <v>3309</v>
       </c>
-      <c r="C1676" s="71">
+      <c r="C1677" s="71">
         <v>4</v>
       </c>
-      <c r="D1676" s="71" t="s">
+      <c r="D1677" s="71" t="s">
         <v>1720</v>
       </c>
-      <c r="F1676" s="71" t="s">
+      <c r="F1677" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="G1676" s="71" t="s">
+      <c r="G1677" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="H1676" s="71" t="s">
+      <c r="H1677" s="71" t="s">
         <v>3310</v>
       </c>
-      <c r="I1676" s="71" t="s">
+      <c r="I1677" s="71" t="s">
         <v>3026</v>
       </c>
     </row>
-    <row r="1677" spans="1:9" s="83" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1677" s="83">
+    <row r="1678" spans="1:9" s="83" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1678" s="83">
         <v>1886</v>
       </c>
-      <c r="B1677" s="1" t="s">
+      <c r="B1678" s="1" t="s">
         <v>3328</v>
       </c>
-      <c r="C1677" s="83">
-        <v>3</v>
-      </c>
-      <c r="D1677" s="83" t="s">
+      <c r="C1678" s="83">
+        <v>3</v>
+      </c>
+      <c r="D1678" s="83" t="s">
         <v>1720</v>
       </c>
-      <c r="F1677" s="83" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1677" s="83" t="s">
+      <c r="F1678" s="83" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1678" s="83" t="s">
         <v>21</v>
       </c>
-      <c r="H1677" s="83" t="s">
+      <c r="H1678" s="83" t="s">
         <v>3329</v>
       </c>
-      <c r="I1677" s="83" t="s">
+      <c r="I1678" s="83" t="s">
         <v>3000</v>
       </c>
     </row>
-    <row r="1678" spans="1:9" s="62" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1678" s="62">
+    <row r="1679" spans="1:9" s="62" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1679" s="62">
         <v>1889</v>
       </c>
-      <c r="B1678" s="1" t="s">
+      <c r="B1679" s="1" t="s">
         <v>3311</v>
       </c>
-      <c r="C1678" s="62">
+      <c r="C1679" s="62">
         <v>4</v>
       </c>
-      <c r="D1678" s="62" t="s">
+      <c r="D1679" s="62" t="s">
         <v>1720</v>
       </c>
-      <c r="F1678" s="62" t="s">
+      <c r="F1679" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="G1678" s="62" t="s">
+      <c r="G1679" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="H1678" s="62" t="s">
+      <c r="H1679" s="62" t="s">
         <v>3312</v>
       </c>
-      <c r="I1678" s="62" t="s">
+      <c r="I1679" s="62" t="s">
         <v>3029</v>
       </c>
     </row>
-    <row r="1679" spans="1:9" s="83" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1679" s="83">
+    <row r="1680" spans="1:9" s="83" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1680" s="83">
         <v>1893</v>
       </c>
-      <c r="B1679" s="1" t="s">
+      <c r="B1680" s="1" t="s">
         <v>3330</v>
       </c>
-      <c r="C1679" s="83">
-        <v>3</v>
-      </c>
-      <c r="D1679" s="83" t="s">
+      <c r="C1680" s="83">
+        <v>3</v>
+      </c>
+      <c r="D1680" s="83" t="s">
         <v>1720</v>
       </c>
-      <c r="E1679" s="83" t="s">
+      <c r="E1680" s="83" t="s">
         <v>2924</v>
       </c>
-      <c r="F1679" s="83" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1679" s="83" t="s">
+      <c r="F1680" s="83" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1680" s="83" t="s">
         <v>95</v>
       </c>
-      <c r="H1679" s="83" t="s">
+      <c r="H1680" s="83" t="s">
         <v>3331</v>
-      </c>
-    </row>
-    <row r="1680" spans="1:9" s="81" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1680" s="81">
-        <v>1896</v>
-      </c>
-      <c r="B1680" s="1" t="s">
-        <v>3313</v>
-      </c>
-      <c r="C1680" s="81">
-        <v>6</v>
-      </c>
-      <c r="D1680" s="81" t="s">
-        <v>1720</v>
-      </c>
-      <c r="F1680" s="81" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1680" s="81" t="s">
-        <v>36</v>
-      </c>
-      <c r="H1680" s="81" t="s">
-        <v>3315</v>
-      </c>
-      <c r="I1680" s="81" t="s">
-        <v>3000</v>
       </c>
     </row>
     <row r="1681" spans="1:9" s="81" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1681" s="81">
-        <v>1900</v>
+        <v>1896</v>
       </c>
       <c r="B1681" s="1" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="C1681" s="81">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D1681" s="81" t="s">
-        <v>1713</v>
+        <v>1720</v>
       </c>
       <c r="F1681" s="81" t="s">
         <v>12</v>
       </c>
       <c r="G1681" s="81" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1681" s="81" t="s">
+        <v>3315</v>
+      </c>
+      <c r="I1681" s="81" t="s">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="1682" spans="1:9" s="81" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1682" s="81">
+        <v>1900</v>
+      </c>
+      <c r="B1682" s="1" t="s">
+        <v>3314</v>
+      </c>
+      <c r="C1682" s="81">
+        <v>5</v>
+      </c>
+      <c r="D1682" s="81" t="s">
+        <v>1713</v>
+      </c>
+      <c r="F1682" s="81" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1682" s="81" t="s">
         <v>121</v>
       </c>
-      <c r="H1681" s="81" t="s">
+      <c r="H1682" s="81" t="s">
         <v>3317</v>
       </c>
-      <c r="I1681" s="81" t="s">
+      <c r="I1682" s="81" t="s">
         <v>3316</v>
       </c>
     </row>
-    <row r="1682" spans="1:9" s="81" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1682" s="1"/>
-    </row>
     <row r="1683" spans="1:9" s="81" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1683" s="1"/>
+      <c r="A1683" s="81">
+        <v>1903</v>
+      </c>
+      <c r="B1683" s="1" t="s">
+        <v>3337</v>
+      </c>
+      <c r="C1683" s="81">
+        <v>1</v>
+      </c>
+      <c r="D1683" s="81" t="s">
+        <v>1717</v>
+      </c>
+      <c r="F1683" s="81" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1683" s="81" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1683" s="81" t="s">
+        <v>3338</v>
+      </c>
+      <c r="I1683" s="81" t="s">
+        <v>3000</v>
+      </c>
     </row>
     <row r="1684" spans="1:9" s="81" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1684" s="1"/>
+      <c r="A1684" s="81">
+        <v>1906</v>
+      </c>
+      <c r="B1684" s="1" t="s">
+        <v>3339</v>
+      </c>
+      <c r="C1684" s="81">
+        <v>4</v>
+      </c>
+      <c r="D1684" s="81" t="s">
+        <v>2810</v>
+      </c>
+      <c r="F1684" s="81" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1684" s="81" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1684" s="81" t="s">
+        <v>3340</v>
+      </c>
+      <c r="I1684" s="81" t="s">
+        <v>3345</v>
+      </c>
     </row>
     <row r="1685" spans="1:9" s="81" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1685" s="1"/>
+      <c r="A1685" s="81">
+        <v>1909</v>
+      </c>
+      <c r="B1685" s="1" t="s">
+        <v>3341</v>
+      </c>
+      <c r="C1685" s="81">
+        <v>2</v>
+      </c>
+      <c r="D1685" s="81" t="s">
+        <v>1768</v>
+      </c>
+      <c r="E1685" s="81" t="s">
+        <v>2935</v>
+      </c>
+      <c r="F1685" s="81" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1685" s="81" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1685" s="81" t="s">
+        <v>3342</v>
+      </c>
+      <c r="I1685" s="81" t="s">
+        <v>3000</v>
+      </c>
     </row>
     <row r="1686" spans="1:9" s="81" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1686" s="1"/>
+      <c r="A1686" s="81">
+        <v>1913</v>
+      </c>
+      <c r="B1686" s="1" t="s">
+        <v>3343</v>
+      </c>
+      <c r="C1686" s="81">
+        <v>2</v>
+      </c>
+      <c r="D1686" s="81" t="s">
+        <v>1768</v>
+      </c>
+      <c r="F1686" s="81" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1686" s="81" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1686" s="81" t="s">
+        <v>3344</v>
+      </c>
+      <c r="I1686" s="81" t="s">
+        <v>3000</v>
+      </c>
     </row>
     <row r="1687" spans="1:9" s="81" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1687" s="1"/>
+      <c r="A1687" s="81">
+        <v>1914</v>
+      </c>
+      <c r="B1687" s="1" t="s">
+        <v>3346</v>
+      </c>
+      <c r="C1687" s="81">
+        <v>3</v>
+      </c>
+      <c r="D1687" s="81" t="s">
+        <v>1720</v>
+      </c>
+      <c r="E1687" s="81" t="s">
+        <v>2935</v>
+      </c>
+      <c r="F1687" s="81" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1687" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1687" s="81" t="s">
+        <v>3348</v>
+      </c>
+      <c r="I1687" s="81" t="s">
+        <v>3000</v>
+      </c>
     </row>
     <row r="1688" spans="1:9" s="81" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1688" s="1"/>
+      <c r="A1688" s="81">
+        <v>1916</v>
+      </c>
+      <c r="B1688" s="1" t="s">
+        <v>3347</v>
+      </c>
+      <c r="C1688" s="81">
+        <v>4</v>
+      </c>
+      <c r="D1688" s="81" t="s">
+        <v>1718</v>
+      </c>
+      <c r="F1688" s="81" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1688" s="81" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1688" s="81" t="s">
+        <v>3349</v>
+      </c>
+      <c r="I1688" s="81" t="s">
+        <v>3000</v>
+      </c>
     </row>
     <row r="1689" spans="1:9" s="81" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B1689" s="1"/>
@@ -50689,21 +50902,12 @@
     <row r="1692" spans="1:9" s="81" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B1692" s="1"/>
     </row>
-    <row r="1693" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A1693" s="85" t="s">
-        <v>1721</v>
-      </c>
-      <c r="B1693" s="85"/>
-      <c r="C1693" s="85"/>
-      <c r="D1693" s="85"/>
-      <c r="E1693" s="85"/>
-      <c r="F1693" s="85"/>
-      <c r="G1693" s="85"/>
-      <c r="H1693" s="85"/>
+    <row r="1693" spans="1:9" s="81" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1693" s="1"/>
     </row>
     <row r="1694" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1694" s="86" t="s">
-        <v>2760</v>
+        <v>1721</v>
       </c>
       <c r="B1694" s="86"/>
       <c r="C1694" s="86"/>
@@ -50713,11 +50917,23 @@
       <c r="G1694" s="86"/>
       <c r="H1694" s="86"/>
     </row>
+    <row r="1695" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A1695" s="87" t="s">
+        <v>2760</v>
+      </c>
+      <c r="B1695" s="87"/>
+      <c r="C1695" s="87"/>
+      <c r="D1695" s="87"/>
+      <c r="E1695" s="87"/>
+      <c r="F1695" s="87"/>
+      <c r="G1695" s="87"/>
+      <c r="H1695" s="87"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:J1694" xr:uid="{CB07CE66-8F15-46FF-A90A-43FDB2DB428F}"/>
+  <autoFilter ref="A1:J1695" xr:uid="{CB07CE66-8F15-46FF-A90A-43FDB2DB428F}"/>
   <mergeCells count="2">
-    <mergeCell ref="A1693:H1693"/>
     <mergeCell ref="A1694:H1694"/>
+    <mergeCell ref="A1695:H1695"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" display="https://leetcode.com/problems/zigzag-conversion" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -52167,25 +52383,32 @@
     <hyperlink ref="B1663" r:id="rId1445" display="https://leetcode.com/problems/maximum-distance-between-a-pair-of-values" xr:uid="{6526D9AA-7EF1-4DDB-8A45-0E58240D35C1}"/>
     <hyperlink ref="B1664" r:id="rId1446" display="https://leetcode.com/problems/maximum-subarray-min-product" xr:uid="{652F1242-245F-4CDD-80E1-CD2643BBF1DD}"/>
     <hyperlink ref="B1410" r:id="rId1447" display="https://leetcode.com/problems/minimum-cost-to-cut-a-stick" xr:uid="{43E29B64-294E-4116-AA83-2FC7A623AF15}"/>
-    <hyperlink ref="B1670" r:id="rId1448" display="https://leetcode.com/problems/number-of-ways-to-rearrange-sticks-with-k-sticks-visible" xr:uid="{E35D13B0-22B7-490D-B5AB-4A7212373890}"/>
-    <hyperlink ref="B1668" r:id="rId1449" display="https://leetcode.com/problems/sum-of-floored-pairs" xr:uid="{093A209E-68BA-452C-AA91-6C7000A5F2E3}"/>
-    <hyperlink ref="B1672" r:id="rId1450" display="https://leetcode.com/problems/stone-game-viii" xr:uid="{61F21AD1-64FA-4012-9BE3-4243D664B6E2}"/>
-    <hyperlink ref="B1674" r:id="rId1451" display="https://leetcode.com/problems/minimum-xor-sum-of-two-arrays" xr:uid="{FD7F5FAD-8697-4398-A6A7-4EF44D3CEA63}"/>
-    <hyperlink ref="B1676" r:id="rId1452" display="https://leetcode.com/problems/minimum-skips-to-arrive-at-meeting-on-time" xr:uid="{9E93822D-BDD4-48D6-A1B5-4CB1349E95EC}"/>
-    <hyperlink ref="B1678" r:id="rId1453" display="https://leetcode.com/problems/minimum-space-wasted-from-packaging" xr:uid="{FD882ECA-EAB3-432E-B354-871F2953F4AE}"/>
-    <hyperlink ref="B1680" r:id="rId1454" display="https://leetcode.com/problems/minimum-cost-to-change-the-final-value-of-expression" xr:uid="{8AEEABF2-8972-41C9-9EAC-7A4DC947DB04}"/>
-    <hyperlink ref="B1681" r:id="rId1455" display="https://leetcode.com/problems/the-earliest-and-latest-rounds-where-players-compete" xr:uid="{1BA05603-7474-4610-A2E6-E0FE942FC497}"/>
-    <hyperlink ref="B1669" r:id="rId1456" display="https://leetcode.com/problems/sum-of-all-subset-xor-totals" xr:uid="{916CBCE4-8E4F-4C1A-ADC8-D712E20E7078}"/>
-    <hyperlink ref="B1671" r:id="rId1457" display="https://leetcode.com/problems/longer-contiguous-segments-of-ones-than-zeros" xr:uid="{F0373E6C-9FDE-4708-BDE4-1BAF6BC3DAF9}"/>
-    <hyperlink ref="B1673" r:id="rId1458" display="https://leetcode.com/problems/substrings-of-size-three-with-distinct-characters" xr:uid="{1D3C16AD-27DB-4D26-B4C5-CB3468282314}"/>
-    <hyperlink ref="B1675" r:id="rId1459" display="https://leetcode.com/problems/check-if-word-equals-summation-of-two-words" xr:uid="{26751097-8588-426A-9778-1F2134E99BA0}"/>
-    <hyperlink ref="B1677" r:id="rId1460" display="https://leetcode.com/problems/determine-whether-matrix-can-be-obtained-by-rotation" xr:uid="{DAAF2CCC-883E-4313-871A-8A735A3F5ADA}"/>
-    <hyperlink ref="B1679" r:id="rId1461" display="https://leetcode.com/problems/check-if-all-the-integers-in-a-range-are-covered" xr:uid="{1E1CE91C-D79D-487A-A76A-6DE39C6CDD96}"/>
+    <hyperlink ref="B1671" r:id="rId1448" display="https://leetcode.com/problems/number-of-ways-to-rearrange-sticks-with-k-sticks-visible" xr:uid="{E35D13B0-22B7-490D-B5AB-4A7212373890}"/>
+    <hyperlink ref="B1669" r:id="rId1449" display="https://leetcode.com/problems/sum-of-floored-pairs" xr:uid="{093A209E-68BA-452C-AA91-6C7000A5F2E3}"/>
+    <hyperlink ref="B1673" r:id="rId1450" display="https://leetcode.com/problems/stone-game-viii" xr:uid="{61F21AD1-64FA-4012-9BE3-4243D664B6E2}"/>
+    <hyperlink ref="B1675" r:id="rId1451" display="https://leetcode.com/problems/minimum-xor-sum-of-two-arrays" xr:uid="{FD7F5FAD-8697-4398-A6A7-4EF44D3CEA63}"/>
+    <hyperlink ref="B1677" r:id="rId1452" display="https://leetcode.com/problems/minimum-skips-to-arrive-at-meeting-on-time" xr:uid="{9E93822D-BDD4-48D6-A1B5-4CB1349E95EC}"/>
+    <hyperlink ref="B1679" r:id="rId1453" display="https://leetcode.com/problems/minimum-space-wasted-from-packaging" xr:uid="{FD882ECA-EAB3-432E-B354-871F2953F4AE}"/>
+    <hyperlink ref="B1681" r:id="rId1454" display="https://leetcode.com/problems/minimum-cost-to-change-the-final-value-of-expression" xr:uid="{8AEEABF2-8972-41C9-9EAC-7A4DC947DB04}"/>
+    <hyperlink ref="B1682" r:id="rId1455" display="https://leetcode.com/problems/the-earliest-and-latest-rounds-where-players-compete" xr:uid="{1BA05603-7474-4610-A2E6-E0FE942FC497}"/>
+    <hyperlink ref="B1670" r:id="rId1456" display="https://leetcode.com/problems/sum-of-all-subset-xor-totals" xr:uid="{916CBCE4-8E4F-4C1A-ADC8-D712E20E7078}"/>
+    <hyperlink ref="B1672" r:id="rId1457" display="https://leetcode.com/problems/longer-contiguous-segments-of-ones-than-zeros" xr:uid="{F0373E6C-9FDE-4708-BDE4-1BAF6BC3DAF9}"/>
+    <hyperlink ref="B1674" r:id="rId1458" display="https://leetcode.com/problems/substrings-of-size-three-with-distinct-characters" xr:uid="{1D3C16AD-27DB-4D26-B4C5-CB3468282314}"/>
+    <hyperlink ref="B1676" r:id="rId1459" display="https://leetcode.com/problems/check-if-word-equals-summation-of-two-words" xr:uid="{26751097-8588-426A-9778-1F2134E99BA0}"/>
+    <hyperlink ref="B1678" r:id="rId1460" display="https://leetcode.com/problems/determine-whether-matrix-can-be-obtained-by-rotation" xr:uid="{DAAF2CCC-883E-4313-871A-8A735A3F5ADA}"/>
+    <hyperlink ref="B1680" r:id="rId1461" display="https://leetcode.com/problems/check-if-all-the-integers-in-a-range-are-covered" xr:uid="{1E1CE91C-D79D-487A-A76A-6DE39C6CDD96}"/>
     <hyperlink ref="B1667" r:id="rId1462" display="https://leetcode.com/problems/incremental-memory-leak" xr:uid="{CA1A11F1-F4F6-4D65-9D69-A6197119EA1E}"/>
+    <hyperlink ref="B1668" r:id="rId1463" display="https://leetcode.com/problems/rotating-the-box" xr:uid="{1DBA9A18-E1D2-4148-8C3A-048CE82287C0}"/>
+    <hyperlink ref="B1683" r:id="rId1464" display="https://leetcode.com/problems/largest-odd-number-in-string" xr:uid="{C1F070FE-5338-44D3-AC2F-454F2F234B37}"/>
+    <hyperlink ref="B1684" r:id="rId1465" display="https://leetcode.com/problems/minimum-absolute-difference-queries" xr:uid="{BC2F4066-1A7C-40E6-807A-59A6290C5130}"/>
+    <hyperlink ref="B1685" r:id="rId1466" xr:uid="{701B89CB-0972-4CC9-B496-BFC2EA4D6053}"/>
+    <hyperlink ref="B1686" r:id="rId1467" xr:uid="{8495B600-B833-4B44-9931-395989DBBB7D}"/>
+    <hyperlink ref="B1687" r:id="rId1468" display="https://leetcode.com/problems/cyclically-rotating-a-grid" xr:uid="{3AFFE1F3-E05C-4E5B-AB9D-548519408295}"/>
+    <hyperlink ref="B1688" r:id="rId1469" display=" Count Ways to Build Rooms in an Ant Colony" xr:uid="{E356F1D9-1378-42C3-B1EC-4016F02C08FE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1463"/>
-  <drawing r:id="rId1464"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1470"/>
+  <drawing r:id="rId1471"/>
 </worksheet>
 </file>
 
@@ -52193,7 +52416,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E01657D4-0457-4414-9EA3-8C4EB4AF3913}">
   <dimension ref="A1:F90"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2409EF06-B89C-4981-83E6-08A4675FEF5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D9D914E-6BE6-48D0-AB29-CFB0549E2C0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="SQL" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'LeetCode Algorithm'!$A$1:$J$1707</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'LeetCode Algorithm'!$A$1:$J$1715</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9228" uniqueCount="3384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9266" uniqueCount="3397">
   <si>
     <t>Difficulty</t>
   </si>
@@ -10189,6 +10189,45 @@
   </si>
   <si>
     <t>Bit Trie and combine traverse and query</t>
+  </si>
+  <si>
+    <t>Find the Student that Will Replace the Chalk</t>
+  </si>
+  <si>
+    <t>Add sum of the array</t>
+  </si>
+  <si>
+    <t>N *M</t>
+  </si>
+  <si>
+    <t>Sum of Digits of String After Convert</t>
+  </si>
+  <si>
+    <t>Convert string to digit repeatedly</t>
+  </si>
+  <si>
+    <t>Check if All Characters Have Equal Number of Occurrences</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check character count </t>
+  </si>
+  <si>
+    <t>Maximum Number of Words You Can</t>
+  </si>
+  <si>
+    <t>String split and check broken letter in map</t>
+  </si>
+  <si>
+    <t>Maximum Number of Removable Characters</t>
+  </si>
+  <si>
+    <t>Guess the number and skip deleted characters</t>
+  </si>
+  <si>
+    <t>Merge Triplets to Form Target Triplet</t>
+  </si>
+  <si>
+    <t>Skip triplets with maximum overflow and then merge remaining</t>
   </si>
 </sst>
 </file>
@@ -10233,7 +10272,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -10260,6 +10299,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -10713,10 +10753,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J1707"/>
+  <dimension ref="A1:J1715"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1683" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G1705" sqref="G1705"/>
+    <sheetView tabSelected="1" topLeftCell="A1698" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A1699" sqref="A1699:XFD1699"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -51229,212 +51269,215 @@
         <v>3028</v>
       </c>
     </row>
-    <row r="1692" spans="1:9" s="87" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1692" s="87">
+    <row r="1692" spans="1:9" s="89" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1692" s="89">
+        <v>1894</v>
+      </c>
+      <c r="B1692" s="1" t="s">
+        <v>3384</v>
+      </c>
+      <c r="C1692" s="89">
+        <v>2</v>
+      </c>
+      <c r="D1692" s="89" t="s">
+        <v>1720</v>
+      </c>
+      <c r="F1692" s="89" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1692" s="89" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1692" s="89" t="s">
+        <v>3385</v>
+      </c>
+      <c r="I1692" s="89" t="s">
+        <v>2999</v>
+      </c>
+    </row>
+    <row r="1693" spans="1:9" s="87" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1693" s="87">
         <v>1895</v>
       </c>
-      <c r="B1692" s="1" t="s">
+      <c r="B1693" s="1" t="s">
         <v>3361</v>
       </c>
-      <c r="C1692" s="87">
-        <v>3</v>
-      </c>
-      <c r="D1692" s="87" t="s">
+      <c r="C1693" s="87">
+        <v>3</v>
+      </c>
+      <c r="D1693" s="87" t="s">
         <v>1713</v>
       </c>
-      <c r="F1692" s="87" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1692" s="87" t="s">
+      <c r="F1693" s="87" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1693" s="87" t="s">
         <v>21</v>
       </c>
-      <c r="H1692" s="87" t="s">
+      <c r="H1693" s="87" t="s">
         <v>3362</v>
       </c>
-    </row>
-    <row r="1693" spans="1:9" s="81" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1693" s="81">
+      <c r="I1693" s="87" t="s">
+        <v>3386</v>
+      </c>
+    </row>
+    <row r="1694" spans="1:9" s="81" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1694" s="81">
         <v>1896</v>
       </c>
-      <c r="B1693" s="1" t="s">
+      <c r="B1694" s="1" t="s">
         <v>3312</v>
       </c>
-      <c r="C1693" s="81">
+      <c r="C1694" s="81">
         <v>6</v>
       </c>
-      <c r="D1693" s="81" t="s">
-        <v>1720</v>
-      </c>
-      <c r="F1693" s="81" t="s">
+      <c r="D1694" s="81" t="s">
+        <v>1720</v>
+      </c>
+      <c r="F1694" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="G1693" s="81" t="s">
+      <c r="G1694" s="81" t="s">
         <v>36</v>
       </c>
-      <c r="H1693" s="81" t="s">
+      <c r="H1694" s="81" t="s">
         <v>3314</v>
       </c>
-      <c r="I1693" s="81" t="s">
+      <c r="I1694" s="81" t="s">
         <v>2999</v>
       </c>
     </row>
-    <row r="1694" spans="1:9" s="88" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1694" s="88">
+    <row r="1695" spans="1:9" s="88" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1695" s="88">
         <v>1897</v>
       </c>
-      <c r="B1694" s="1" t="s">
+      <c r="B1695" s="1" t="s">
         <v>3373</v>
       </c>
-      <c r="C1694" s="88">
+      <c r="C1695" s="88">
         <v>1</v>
       </c>
-      <c r="D1694" s="88" t="s">
+      <c r="D1695" s="88" t="s">
         <v>1767</v>
       </c>
-      <c r="E1694" s="88" t="s">
+      <c r="E1695" s="88" t="s">
         <v>2934</v>
       </c>
-      <c r="F1694" s="88" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1694" s="88" t="s">
+      <c r="F1695" s="88" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1695" s="88" t="s">
         <v>36</v>
       </c>
-      <c r="H1694" s="88" t="s">
+      <c r="H1695" s="88" t="s">
         <v>3374</v>
       </c>
-      <c r="I1694" s="88" t="s">
+      <c r="I1695" s="88" t="s">
         <v>2999</v>
       </c>
     </row>
-    <row r="1695" spans="1:9" s="81" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1695" s="81">
-        <v>1900</v>
-      </c>
-      <c r="B1695" s="1" t="s">
-        <v>3313</v>
-      </c>
-      <c r="C1695" s="81">
-        <v>5</v>
-      </c>
-      <c r="D1695" s="81" t="s">
-        <v>1713</v>
-      </c>
-      <c r="F1695" s="81" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1695" s="81" t="s">
-        <v>121</v>
-      </c>
-      <c r="H1695" s="81" t="s">
-        <v>3316</v>
-      </c>
-      <c r="I1695" s="81" t="s">
-        <v>3315</v>
-      </c>
-    </row>
-    <row r="1696" spans="1:9" s="81" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1696" s="81">
-        <v>1903</v>
+    <row r="1696" spans="1:9" s="89" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1696" s="89">
+        <v>1898</v>
       </c>
       <c r="B1696" s="1" t="s">
-        <v>3336</v>
-      </c>
-      <c r="C1696" s="81">
-        <v>1</v>
-      </c>
-      <c r="D1696" s="81" t="s">
-        <v>1717</v>
-      </c>
-      <c r="F1696" s="81" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1696" s="81" t="s">
-        <v>36</v>
-      </c>
-      <c r="H1696" s="81" t="s">
-        <v>3337</v>
-      </c>
-      <c r="I1696" s="81" t="s">
+        <v>3393</v>
+      </c>
+      <c r="C1696" s="89">
+        <v>3</v>
+      </c>
+      <c r="D1696" s="89" t="s">
+        <v>1720</v>
+      </c>
+      <c r="E1696" s="89" t="s">
+        <v>2934</v>
+      </c>
+      <c r="F1696" s="89" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1696" s="89" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1696" s="89" t="s">
+        <v>3394</v>
+      </c>
+      <c r="I1696" s="89" t="s">
+        <v>3028</v>
+      </c>
+    </row>
+    <row r="1697" spans="1:9" s="89" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1697" s="89">
+        <v>1899</v>
+      </c>
+      <c r="B1697" s="1" t="s">
+        <v>3395</v>
+      </c>
+      <c r="C1697" s="89">
+        <v>2</v>
+      </c>
+      <c r="D1697" s="89" t="s">
+        <v>1720</v>
+      </c>
+      <c r="F1697" s="89" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1697" s="89" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1697" s="89" t="s">
+        <v>3396</v>
+      </c>
+      <c r="I1697" s="89" t="s">
         <v>2999</v>
-      </c>
-    </row>
-    <row r="1697" spans="1:9" s="81" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1697" s="81">
-        <v>1906</v>
-      </c>
-      <c r="B1697" s="1" t="s">
-        <v>3338</v>
-      </c>
-      <c r="C1697" s="81">
-        <v>4</v>
-      </c>
-      <c r="D1697" s="81" t="s">
-        <v>2809</v>
-      </c>
-      <c r="F1697" s="81" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1697" s="81" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1697" s="81" t="s">
-        <v>3339</v>
-      </c>
-      <c r="I1697" s="81" t="s">
-        <v>3344</v>
       </c>
     </row>
     <row r="1698" spans="1:9" s="81" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1698" s="81">
-        <v>1909</v>
+        <v>1900</v>
       </c>
       <c r="B1698" s="1" t="s">
-        <v>3340</v>
+        <v>3313</v>
       </c>
       <c r="C1698" s="81">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D1698" s="81" t="s">
-        <v>1767</v>
-      </c>
-      <c r="E1698" s="81" t="s">
-        <v>2934</v>
+        <v>1713</v>
       </c>
       <c r="F1698" s="81" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G1698" s="81" t="s">
-        <v>41</v>
+        <v>121</v>
       </c>
       <c r="H1698" s="81" t="s">
-        <v>3341</v>
+        <v>3316</v>
       </c>
       <c r="I1698" s="81" t="s">
-        <v>2999</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="1699" spans="1:9" s="81" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1699" s="81">
-        <v>1913</v>
+        <v>1903</v>
       </c>
       <c r="B1699" s="1" t="s">
-        <v>3342</v>
+        <v>3336</v>
       </c>
       <c r="C1699" s="81">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1699" s="81" t="s">
-        <v>1767</v>
+        <v>1717</v>
       </c>
       <c r="F1699" s="81" t="s">
         <v>5</v>
       </c>
       <c r="G1699" s="81" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H1699" s="81" t="s">
-        <v>3343</v>
+        <v>3337</v>
       </c>
       <c r="I1699" s="81" t="s">
         <v>2999</v>
@@ -51442,189 +51485,354 @@
     </row>
     <row r="1700" spans="1:9" s="81" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1700" s="81">
-        <v>1914</v>
+        <v>1906</v>
       </c>
       <c r="B1700" s="1" t="s">
-        <v>3345</v>
+        <v>3338</v>
       </c>
       <c r="C1700" s="81">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D1700" s="81" t="s">
-        <v>1720</v>
-      </c>
-      <c r="E1700" s="81" t="s">
-        <v>2934</v>
+        <v>2809</v>
       </c>
       <c r="F1700" s="81" t="s">
         <v>9</v>
       </c>
       <c r="G1700" s="81" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H1700" s="81" t="s">
-        <v>3347</v>
+        <v>3339</v>
       </c>
       <c r="I1700" s="81" t="s">
-        <v>2999</v>
+        <v>3344</v>
       </c>
     </row>
     <row r="1701" spans="1:9" s="81" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1701" s="81">
-        <v>1916</v>
+        <v>1909</v>
       </c>
       <c r="B1701" s="1" t="s">
-        <v>3346</v>
+        <v>3340</v>
       </c>
       <c r="C1701" s="81">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1701" s="81" t="s">
-        <v>1718</v>
+        <v>1767</v>
+      </c>
+      <c r="E1701" s="81" t="s">
+        <v>2934</v>
       </c>
       <c r="F1701" s="81" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G1701" s="81" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="H1701" s="81" t="s">
-        <v>3348</v>
+        <v>3341</v>
       </c>
       <c r="I1701" s="81" t="s">
         <v>2999</v>
       </c>
     </row>
-    <row r="1702" spans="1:9" s="88" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1702" s="88">
-        <v>1920</v>
+    <row r="1702" spans="1:9" s="81" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1702" s="81">
+        <v>1913</v>
       </c>
       <c r="B1702" s="1" t="s">
-        <v>3375</v>
-      </c>
-      <c r="C1702" s="88">
-        <v>1</v>
-      </c>
-      <c r="D1702" s="88" t="s">
+        <v>3342</v>
+      </c>
+      <c r="C1702" s="81">
+        <v>2</v>
+      </c>
+      <c r="D1702" s="81" t="s">
         <v>1767</v>
       </c>
-      <c r="F1702" s="88" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1702" s="88" t="s">
+      <c r="F1702" s="81" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1702" s="81" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1702" s="81" t="s">
+        <v>3343</v>
+      </c>
+      <c r="I1702" s="81" t="s">
+        <v>2999</v>
+      </c>
+    </row>
+    <row r="1703" spans="1:9" s="81" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1703" s="81">
+        <v>1914</v>
+      </c>
+      <c r="B1703" s="1" t="s">
+        <v>3345</v>
+      </c>
+      <c r="C1703" s="81">
+        <v>3</v>
+      </c>
+      <c r="D1703" s="81" t="s">
+        <v>1720</v>
+      </c>
+      <c r="E1703" s="81" t="s">
+        <v>2934</v>
+      </c>
+      <c r="F1703" s="81" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1703" s="81" t="s">
         <v>21</v>
       </c>
-      <c r="H1702" s="88" t="s">
-        <v>3376</v>
-      </c>
-      <c r="I1702" s="88" t="s">
+      <c r="H1703" s="81" t="s">
+        <v>3347</v>
+      </c>
+      <c r="I1703" s="81" t="s">
         <v>2999</v>
       </c>
     </row>
-    <row r="1703" spans="1:9" s="88" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1703" s="88">
-        <v>1923</v>
-      </c>
-      <c r="B1703" s="1" t="s">
-        <v>3377</v>
-      </c>
-      <c r="C1703" s="88">
-        <v>6</v>
-      </c>
-      <c r="D1703" s="88" t="s">
-        <v>1720</v>
-      </c>
-      <c r="F1703" s="88" t="s">
+    <row r="1704" spans="1:9" s="81" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1704" s="81">
+        <v>1916</v>
+      </c>
+      <c r="B1704" s="1" t="s">
+        <v>3346</v>
+      </c>
+      <c r="C1704" s="81">
+        <v>4</v>
+      </c>
+      <c r="D1704" s="81" t="s">
+        <v>1718</v>
+      </c>
+      <c r="F1704" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="G1703" s="88" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1703" s="88" t="s">
-        <v>3378</v>
-      </c>
-      <c r="I1703" s="88" t="s">
-        <v>3381</v>
-      </c>
-    </row>
-    <row r="1704" spans="1:9" s="88" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1704" s="88">
-        <v>1932</v>
-      </c>
-      <c r="B1704" s="1" t="s">
-        <v>3379</v>
-      </c>
-      <c r="C1704" s="88">
-        <v>4</v>
-      </c>
-      <c r="D1704" s="88" t="s">
-        <v>1720</v>
-      </c>
-      <c r="F1704" s="88" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1704" s="88" t="s">
-        <v>140</v>
-      </c>
-      <c r="H1704" s="88" t="s">
-        <v>3380</v>
-      </c>
-      <c r="I1704" s="88" t="s">
+      <c r="G1704" s="81" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1704" s="81" t="s">
+        <v>3348</v>
+      </c>
+      <c r="I1704" s="81" t="s">
         <v>2999</v>
       </c>
     </row>
     <row r="1705" spans="1:9" s="88" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1705" s="88">
+        <v>1920</v>
+      </c>
+      <c r="B1705" s="1" t="s">
+        <v>3375</v>
+      </c>
+      <c r="C1705" s="88">
+        <v>1</v>
+      </c>
+      <c r="D1705" s="88" t="s">
+        <v>1767</v>
+      </c>
+      <c r="F1705" s="88" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1705" s="88" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1705" s="88" t="s">
+        <v>3376</v>
+      </c>
+      <c r="I1705" s="88" t="s">
+        <v>2999</v>
+      </c>
+    </row>
+    <row r="1706" spans="1:9" s="88" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1706" s="88">
+        <v>1923</v>
+      </c>
+      <c r="B1706" s="1" t="s">
+        <v>3377</v>
+      </c>
+      <c r="C1706" s="88">
+        <v>6</v>
+      </c>
+      <c r="D1706" s="88" t="s">
+        <v>1720</v>
+      </c>
+      <c r="F1706" s="88" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1706" s="88" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1706" s="88" t="s">
+        <v>3378</v>
+      </c>
+      <c r="I1706" s="88" t="s">
+        <v>3381</v>
+      </c>
+    </row>
+    <row r="1707" spans="1:9" s="88" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1707" s="88">
+        <v>1932</v>
+      </c>
+      <c r="B1707" s="1" t="s">
+        <v>3379</v>
+      </c>
+      <c r="C1707" s="88">
+        <v>4</v>
+      </c>
+      <c r="D1707" s="88" t="s">
+        <v>1720</v>
+      </c>
+      <c r="F1707" s="88" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1707" s="88" t="s">
+        <v>140</v>
+      </c>
+      <c r="H1707" s="88" t="s">
+        <v>3380</v>
+      </c>
+      <c r="I1707" s="88" t="s">
+        <v>2999</v>
+      </c>
+    </row>
+    <row r="1708" spans="1:9" s="89" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1708" s="89">
+        <v>1935</v>
+      </c>
+      <c r="B1708" s="1" t="s">
+        <v>3391</v>
+      </c>
+      <c r="C1708" s="89">
+        <v>2</v>
+      </c>
+      <c r="D1708" s="89" t="s">
+        <v>1720</v>
+      </c>
+      <c r="F1708" s="89" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1708" s="89" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1708" s="89" t="s">
+        <v>3392</v>
+      </c>
+      <c r="I1708" s="89" t="s">
+        <v>2999</v>
+      </c>
+    </row>
+    <row r="1709" spans="1:9" s="88" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1709" s="88">
         <v>1938</v>
       </c>
-      <c r="B1705" s="1" t="s">
+      <c r="B1709" s="1" t="s">
         <v>3382</v>
       </c>
-      <c r="C1705" s="88">
-        <v>5</v>
-      </c>
-      <c r="D1705" s="88" t="s">
-        <v>1720</v>
-      </c>
-      <c r="F1705" s="88" t="s">
+      <c r="C1709" s="88">
+        <v>5</v>
+      </c>
+      <c r="D1709" s="88" t="s">
+        <v>1720</v>
+      </c>
+      <c r="F1709" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="G1705" s="88" t="s">
+      <c r="G1709" s="88" t="s">
         <v>134</v>
       </c>
-      <c r="H1705" s="88" t="s">
+      <c r="H1709" s="88" t="s">
         <v>3383</v>
       </c>
     </row>
-    <row r="1706" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A1706" s="89" t="s">
+    <row r="1710" spans="1:9" s="89" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1710" s="1"/>
+    </row>
+    <row r="1711" spans="1:9" s="89" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1711" s="1"/>
+    </row>
+    <row r="1712" spans="1:9" s="89" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1712" s="89">
+        <v>1941</v>
+      </c>
+      <c r="B1712" s="1" t="s">
+        <v>3389</v>
+      </c>
+      <c r="C1712" s="89">
+        <v>1</v>
+      </c>
+      <c r="D1712" s="89" t="s">
+        <v>1717</v>
+      </c>
+      <c r="F1712" s="89" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1712" s="89" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1712" s="89" t="s">
+        <v>3390</v>
+      </c>
+      <c r="I1712" s="89" t="s">
+        <v>2999</v>
+      </c>
+    </row>
+    <row r="1713" spans="1:9" s="89" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1713" s="89">
+        <v>1945</v>
+      </c>
+      <c r="B1713" s="1" t="s">
+        <v>3387</v>
+      </c>
+      <c r="C1713" s="89">
+        <v>1</v>
+      </c>
+      <c r="D1713" s="89" t="s">
+        <v>1717</v>
+      </c>
+      <c r="F1713" s="89" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1713" s="89" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1713" s="89" t="s">
+        <v>3388</v>
+      </c>
+      <c r="I1713" s="89" t="s">
+        <v>2999</v>
+      </c>
+    </row>
+    <row r="1714" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A1714" s="90" t="s">
         <v>1721</v>
       </c>
-      <c r="B1706" s="89"/>
-      <c r="C1706" s="89"/>
-      <c r="D1706" s="89"/>
-      <c r="E1706" s="89"/>
-      <c r="F1706" s="89"/>
-      <c r="G1706" s="89"/>
-      <c r="H1706" s="89"/>
-    </row>
-    <row r="1707" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A1707" s="90" t="s">
+      <c r="B1714" s="90"/>
+      <c r="C1714" s="90"/>
+      <c r="D1714" s="90"/>
+      <c r="E1714" s="90"/>
+      <c r="F1714" s="90"/>
+      <c r="G1714" s="90"/>
+      <c r="H1714" s="90"/>
+    </row>
+    <row r="1715" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A1715" s="91" t="s">
         <v>2759</v>
       </c>
-      <c r="B1707" s="90"/>
-      <c r="C1707" s="90"/>
-      <c r="D1707" s="90"/>
-      <c r="E1707" s="90"/>
-      <c r="F1707" s="90"/>
-      <c r="G1707" s="90"/>
-      <c r="H1707" s="90"/>
+      <c r="B1715" s="91"/>
+      <c r="C1715" s="91"/>
+      <c r="D1715" s="91"/>
+      <c r="E1715" s="91"/>
+      <c r="F1715" s="91"/>
+      <c r="G1715" s="91"/>
+      <c r="H1715" s="91"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J1707" xr:uid="{CB07CE66-8F15-46FF-A90A-43FDB2DB428F}"/>
+  <autoFilter ref="A1:J1715" xr:uid="{CB07CE66-8F15-46FF-A90A-43FDB2DB428F}"/>
   <mergeCells count="2">
-    <mergeCell ref="A1706:H1706"/>
-    <mergeCell ref="A1707:H1707"/>
+    <mergeCell ref="A1714:H1714"/>
+    <mergeCell ref="A1715:H1715"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" display="https://leetcode.com/problems/zigzag-conversion" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -53080,8 +53288,8 @@
     <hyperlink ref="B1681" r:id="rId1451" display="https://leetcode.com/problems/minimum-xor-sum-of-two-arrays" xr:uid="{FD7F5FAD-8697-4398-A6A7-4EF44D3CEA63}"/>
     <hyperlink ref="B1685" r:id="rId1452" display="https://leetcode.com/problems/minimum-skips-to-arrive-at-meeting-on-time" xr:uid="{9E93822D-BDD4-48D6-A1B5-4CB1349E95EC}"/>
     <hyperlink ref="B1690" r:id="rId1453" display="https://leetcode.com/problems/minimum-space-wasted-from-packaging" xr:uid="{FD882ECA-EAB3-432E-B354-871F2953F4AE}"/>
-    <hyperlink ref="B1693" r:id="rId1454" display="https://leetcode.com/problems/minimum-cost-to-change-the-final-value-of-expression" xr:uid="{8AEEABF2-8972-41C9-9EAC-7A4DC947DB04}"/>
-    <hyperlink ref="B1695" r:id="rId1455" display="https://leetcode.com/problems/the-earliest-and-latest-rounds-where-players-compete" xr:uid="{1BA05603-7474-4610-A2E6-E0FE942FC497}"/>
+    <hyperlink ref="B1694" r:id="rId1454" display="https://leetcode.com/problems/minimum-cost-to-change-the-final-value-of-expression" xr:uid="{8AEEABF2-8972-41C9-9EAC-7A4DC947DB04}"/>
+    <hyperlink ref="B1698" r:id="rId1455" display="https://leetcode.com/problems/the-earliest-and-latest-rounds-where-players-compete" xr:uid="{1BA05603-7474-4610-A2E6-E0FE942FC497}"/>
     <hyperlink ref="B1670" r:id="rId1456" display="https://leetcode.com/problems/sum-of-all-subset-xor-totals" xr:uid="{916CBCE4-8E4F-4C1A-ADC8-D712E20E7078}"/>
     <hyperlink ref="B1674" r:id="rId1457" display="https://leetcode.com/problems/longer-contiguous-segments-of-ones-than-zeros" xr:uid="{F0373E6C-9FDE-4708-BDE4-1BAF6BC3DAF9}"/>
     <hyperlink ref="B1678" r:id="rId1458" display="https://leetcode.com/problems/substrings-of-size-three-with-distinct-characters" xr:uid="{1D3C16AD-27DB-4D26-B4C5-CB3468282314}"/>
@@ -53090,32 +53298,38 @@
     <hyperlink ref="B1691" r:id="rId1461" display="https://leetcode.com/problems/check-if-all-the-integers-in-a-range-are-covered" xr:uid="{1E1CE91C-D79D-487A-A76A-6DE39C6CDD96}"/>
     <hyperlink ref="B1667" r:id="rId1462" display="https://leetcode.com/problems/incremental-memory-leak" xr:uid="{CA1A11F1-F4F6-4D65-9D69-A6197119EA1E}"/>
     <hyperlink ref="B1668" r:id="rId1463" display="https://leetcode.com/problems/rotating-the-box" xr:uid="{1DBA9A18-E1D2-4148-8C3A-048CE82287C0}"/>
-    <hyperlink ref="B1696" r:id="rId1464" display="https://leetcode.com/problems/largest-odd-number-in-string" xr:uid="{C1F070FE-5338-44D3-AC2F-454F2F234B37}"/>
-    <hyperlink ref="B1697" r:id="rId1465" display="https://leetcode.com/problems/minimum-absolute-difference-queries" xr:uid="{BC2F4066-1A7C-40E6-807A-59A6290C5130}"/>
-    <hyperlink ref="B1698" r:id="rId1466" xr:uid="{701B89CB-0972-4CC9-B496-BFC2EA4D6053}"/>
-    <hyperlink ref="B1699" r:id="rId1467" xr:uid="{8495B600-B833-4B44-9931-395989DBBB7D}"/>
-    <hyperlink ref="B1700" r:id="rId1468" display="https://leetcode.com/problems/cyclically-rotating-a-grid" xr:uid="{3AFFE1F3-E05C-4E5B-AB9D-548519408295}"/>
-    <hyperlink ref="B1701" r:id="rId1469" display=" Count Ways to Build Rooms in an Ant Colony" xr:uid="{E356F1D9-1378-42C3-B1EC-4016F02C08FE}"/>
+    <hyperlink ref="B1699" r:id="rId1464" display="https://leetcode.com/problems/largest-odd-number-in-string" xr:uid="{C1F070FE-5338-44D3-AC2F-454F2F234B37}"/>
+    <hyperlink ref="B1700" r:id="rId1465" display="https://leetcode.com/problems/minimum-absolute-difference-queries" xr:uid="{BC2F4066-1A7C-40E6-807A-59A6290C5130}"/>
+    <hyperlink ref="B1701" r:id="rId1466" xr:uid="{701B89CB-0972-4CC9-B496-BFC2EA4D6053}"/>
+    <hyperlink ref="B1702" r:id="rId1467" xr:uid="{8495B600-B833-4B44-9931-395989DBBB7D}"/>
+    <hyperlink ref="B1703" r:id="rId1468" display="https://leetcode.com/problems/cyclically-rotating-a-grid" xr:uid="{3AFFE1F3-E05C-4E5B-AB9D-548519408295}"/>
+    <hyperlink ref="B1704" r:id="rId1469" display=" Count Ways to Build Rooms in an Ant Colony" xr:uid="{E356F1D9-1378-42C3-B1EC-4016F02C08FE}"/>
     <hyperlink ref="B1671" r:id="rId1470" xr:uid="{68B63B60-AA23-4767-8102-9AA46D58D32F}"/>
     <hyperlink ref="B1672" r:id="rId1471" display="https://leetcode.com/problems/finding-pairs-with-a-certain-sum" xr:uid="{37561B08-BC65-437E-B174-B127301F6D30}"/>
     <hyperlink ref="B1675" r:id="rId1472" display="https://leetcode.com/problems/minimum-speed-to-arrive-on-time" xr:uid="{544CF080-940E-4B3B-8C0D-B8C5A249310B}"/>
     <hyperlink ref="B1680" r:id="rId1473" display=" Get Biggest Three Rhombus Sums in a Grid" xr:uid="{C9ED9B55-F0EC-476B-8A98-0E74857AAAFC}"/>
     <hyperlink ref="B1676" r:id="rId1474" display="https://leetcode.com/problems/jump-game-vii" xr:uid="{D4DE1BAE-1CC3-4DD3-9C0A-914FC5B5661F}"/>
     <hyperlink ref="B1683" r:id="rId1475" display="https://leetcode.com/problems/maximum-value-after-insertion" xr:uid="{1CE67B2F-87CD-4FD5-B4F7-25783440228A}"/>
-    <hyperlink ref="B1692" r:id="rId1476" display="https://leetcode.com/problems/largest-magic-square" xr:uid="{1DB8991F-9DCC-4BF1-AF94-E99D460D113B}"/>
+    <hyperlink ref="B1693" r:id="rId1476" display="https://leetcode.com/problems/largest-magic-square" xr:uid="{1DB8991F-9DCC-4BF1-AF94-E99D460D113B}"/>
     <hyperlink ref="B1679" r:id="rId1477" display="https://leetcode.com/problems/minimize-maximum-pair-sum-in-array" xr:uid="{D3735233-4AEB-4C89-B82C-4CA4DF8B68B4}"/>
     <hyperlink ref="B1684" r:id="rId1478" display="https://leetcode.com/problems/process-tasks-using-servers" xr:uid="{E6E0ED0E-18FD-4748-90EB-5D666411330C}"/>
     <hyperlink ref="B1686" r:id="rId1479" display="https://leetcode.com/problems/egg-drop-with-2-eggs-and-n-floors" xr:uid="{8F3F40B0-8D67-46A7-B467-4EEA5B9A8063}"/>
     <hyperlink ref="B1688" r:id="rId1480" display="https://leetcode.com/problems/reduction-operations-to-make-the-array-elements-equal" xr:uid="{93CBEB02-546F-4B36-807B-CAA599C9C2E1}"/>
-    <hyperlink ref="B1694" r:id="rId1481" display="https://leetcode.com/problems/redistribute-characters-to-make-all-strings-equal" xr:uid="{514AD256-6C6F-423E-93EA-68F73246AB3C}"/>
-    <hyperlink ref="B1702" r:id="rId1482" display="https://leetcode.com/problems/build-array-from-permutation" xr:uid="{A7BA82A2-3CCD-45FF-8CCB-DCE423A9403F}"/>
-    <hyperlink ref="B1703" r:id="rId1483" display="https://leetcode.com/problems/longest-common-subpath" xr:uid="{62FFD7C8-6B95-49CF-877E-D2923644D1FD}"/>
-    <hyperlink ref="B1704" r:id="rId1484" display="https://leetcode.com/problems/merge-bsts-to-create-single-bst" xr:uid="{3C90ED05-B4E6-4A5B-8B92-92274CD6E3CB}"/>
-    <hyperlink ref="B1705" r:id="rId1485" display="https://leetcode.com/problems/maximum-genetic-difference-query" xr:uid="{1A25DDAD-A0E9-4DEA-9978-DBF0F9D4D3DF}"/>
+    <hyperlink ref="B1695" r:id="rId1481" display="https://leetcode.com/problems/redistribute-characters-to-make-all-strings-equal" xr:uid="{514AD256-6C6F-423E-93EA-68F73246AB3C}"/>
+    <hyperlink ref="B1705" r:id="rId1482" display="https://leetcode.com/problems/build-array-from-permutation" xr:uid="{A7BA82A2-3CCD-45FF-8CCB-DCE423A9403F}"/>
+    <hyperlink ref="B1706" r:id="rId1483" display="https://leetcode.com/problems/longest-common-subpath" xr:uid="{62FFD7C8-6B95-49CF-877E-D2923644D1FD}"/>
+    <hyperlink ref="B1707" r:id="rId1484" display="https://leetcode.com/problems/merge-bsts-to-create-single-bst" xr:uid="{3C90ED05-B4E6-4A5B-8B92-92274CD6E3CB}"/>
+    <hyperlink ref="B1709" r:id="rId1485" display="https://leetcode.com/problems/maximum-genetic-difference-query" xr:uid="{1A25DDAD-A0E9-4DEA-9978-DBF0F9D4D3DF}"/>
+    <hyperlink ref="B1692" r:id="rId1486" display="https://leetcode.com/problems/find-the-student-that-will-replace-the-chalk" xr:uid="{9D146C0C-5A16-4375-BDF0-B60367842FF7}"/>
+    <hyperlink ref="B1713" r:id="rId1487" display="https://leetcode.com/problems/sum-of-digits-of-string-after-convert" xr:uid="{6F22ECDB-6A6B-41D3-8CA9-6D76CAF5B4E8}"/>
+    <hyperlink ref="B1712" r:id="rId1488" xr:uid="{67E882AF-68DB-41AF-8071-513205274BD9}"/>
+    <hyperlink ref="B1708" r:id="rId1489" display="https://leetcode.com/problems/maximum-number-of-words-you-can-type" xr:uid="{8E21FA9C-EBEA-4E91-AD8C-B9177EF763E8}"/>
+    <hyperlink ref="B1696" r:id="rId1490" xr:uid="{A3071BE6-0034-43AE-BDF8-5799BAD6EB13}"/>
+    <hyperlink ref="B1697" r:id="rId1491" display="https://leetcode.com/problems/merge-triplets-to-form-target-triplet" xr:uid="{EFBBCE90-7311-45FC-B707-92A6E1252460}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1486"/>
-  <drawing r:id="rId1487"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1492"/>
+  <drawing r:id="rId1493"/>
 </worksheet>
 </file>
 

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D9D914E-6BE6-48D0-AB29-CFB0549E2C0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A859DEA-C82F-4E40-9B32-77DEC2B310E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="SQL" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'LeetCode Algorithm'!$A$1:$J$1715</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'LeetCode Algorithm'!$A$1:$J$1720</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9266" uniqueCount="3397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9313" uniqueCount="3412">
   <si>
     <t>Difficulty</t>
   </si>
@@ -10228,6 +10228,51 @@
   </si>
   <si>
     <t>Skip triplets with maximum overflow and then merge remaining</t>
+  </si>
+  <si>
+    <t>Maximum Product of the Length of Two Palindromic Substrings</t>
+  </si>
+  <si>
+    <t>Manacher's algorithm</t>
+  </si>
+  <si>
+    <t>Count Number of Special Subsequences</t>
+  </si>
+  <si>
+    <t>Delete Duplicate Folders in System</t>
+  </si>
+  <si>
+    <t>0: dp[0] += dp[0] +1, 1: dp[1] += dp[0]+dp[1], 2: dp[2] += dp[1]+dp[2]</t>
+  </si>
+  <si>
+    <t>construct a tree, seralize subtree to string and map the duplicate</t>
+  </si>
+  <si>
+    <t>Number of Visible People in a Queue</t>
+  </si>
+  <si>
+    <t>Monotone stack track increasing heights</t>
+  </si>
+  <si>
+    <t>Painting a Grid With Three Different </t>
+  </si>
+  <si>
+    <t>memorize last column and search column by column</t>
+  </si>
+  <si>
+    <t>Minimum Cost to Reach Destination in Time</t>
+  </si>
+  <si>
+    <t>Shortested Path with cost update by time and cost</t>
+  </si>
+  <si>
+    <t>C* 3^ R</t>
+  </si>
+  <si>
+    <t>Design Movie Rental System</t>
+  </si>
+  <si>
+    <t>Store movie in Sorted Tree Map by price, shop under hastable of moives</t>
   </si>
 </sst>
 </file>
@@ -10272,7 +10317,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -10299,6 +10344,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -10753,10 +10799,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J1715"/>
+  <dimension ref="A1:J1720"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1698" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A1699" sqref="A1699:XFD1699"/>
+    <sheetView tabSelected="1" topLeftCell="B1698" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C1712" sqref="C1712"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -51538,56 +51584,56 @@
         <v>2999</v>
       </c>
     </row>
-    <row r="1702" spans="1:9" s="81" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1702" s="81">
-        <v>1913</v>
+    <row r="1702" spans="1:9" s="90" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1702" s="90">
+        <v>1912</v>
       </c>
       <c r="B1702" s="1" t="s">
-        <v>3342</v>
-      </c>
-      <c r="C1702" s="81">
-        <v>2</v>
-      </c>
-      <c r="D1702" s="81" t="s">
-        <v>1767</v>
-      </c>
-      <c r="F1702" s="81" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1702" s="81" t="s">
-        <v>41</v>
-      </c>
-      <c r="H1702" s="81" t="s">
-        <v>3343</v>
-      </c>
-      <c r="I1702" s="81" t="s">
-        <v>2999</v>
+        <v>3410</v>
+      </c>
+      <c r="C1702" s="90">
+        <v>4</v>
+      </c>
+      <c r="D1702" s="90" t="s">
+        <v>1720</v>
+      </c>
+      <c r="E1702" s="90" t="s">
+        <v>2923</v>
+      </c>
+      <c r="F1702" s="90" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1702" s="90" t="s">
+        <v>457</v>
+      </c>
+      <c r="H1702" s="90" t="s">
+        <v>3411</v>
+      </c>
+      <c r="I1702" s="90" t="s">
+        <v>3028</v>
       </c>
     </row>
     <row r="1703" spans="1:9" s="81" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1703" s="81">
-        <v>1914</v>
+        <v>1913</v>
       </c>
       <c r="B1703" s="1" t="s">
-        <v>3345</v>
+        <v>3342</v>
       </c>
       <c r="C1703" s="81">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1703" s="81" t="s">
-        <v>1720</v>
-      </c>
-      <c r="E1703" s="81" t="s">
-        <v>2934</v>
+        <v>1767</v>
       </c>
       <c r="F1703" s="81" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G1703" s="81" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="H1703" s="81" t="s">
-        <v>3347</v>
+        <v>3343</v>
       </c>
       <c r="I1703" s="81" t="s">
         <v>2999</v>
@@ -51595,91 +51641,94 @@
     </row>
     <row r="1704" spans="1:9" s="81" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1704" s="81">
-        <v>1916</v>
+        <v>1914</v>
       </c>
       <c r="B1704" s="1" t="s">
-        <v>3346</v>
+        <v>3345</v>
       </c>
       <c r="C1704" s="81">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1704" s="81" t="s">
-        <v>1718</v>
+        <v>1720</v>
+      </c>
+      <c r="E1704" s="81" t="s">
+        <v>2934</v>
       </c>
       <c r="F1704" s="81" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G1704" s="81" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H1704" s="81" t="s">
-        <v>3348</v>
+        <v>3347</v>
       </c>
       <c r="I1704" s="81" t="s">
         <v>2999</v>
       </c>
     </row>
-    <row r="1705" spans="1:9" s="88" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1705" s="88">
-        <v>1920</v>
+    <row r="1705" spans="1:9" s="81" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1705" s="81">
+        <v>1916</v>
       </c>
       <c r="B1705" s="1" t="s">
-        <v>3375</v>
-      </c>
-      <c r="C1705" s="88">
-        <v>1</v>
-      </c>
-      <c r="D1705" s="88" t="s">
-        <v>1767</v>
-      </c>
-      <c r="F1705" s="88" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1705" s="88" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1705" s="88" t="s">
-        <v>3376</v>
-      </c>
-      <c r="I1705" s="88" t="s">
+        <v>3346</v>
+      </c>
+      <c r="C1705" s="81">
+        <v>4</v>
+      </c>
+      <c r="D1705" s="81" t="s">
+        <v>1718</v>
+      </c>
+      <c r="F1705" s="81" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1705" s="81" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1705" s="81" t="s">
+        <v>3348</v>
+      </c>
+      <c r="I1705" s="81" t="s">
         <v>2999</v>
       </c>
     </row>
     <row r="1706" spans="1:9" s="88" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1706" s="88">
-        <v>1923</v>
+        <v>1920</v>
       </c>
       <c r="B1706" s="1" t="s">
-        <v>3377</v>
+        <v>3375</v>
       </c>
       <c r="C1706" s="88">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D1706" s="88" t="s">
-        <v>1720</v>
+        <v>1767</v>
       </c>
       <c r="F1706" s="88" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G1706" s="88" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H1706" s="88" t="s">
-        <v>3378</v>
+        <v>3376</v>
       </c>
       <c r="I1706" s="88" t="s">
-        <v>3381</v>
+        <v>2999</v>
       </c>
     </row>
     <row r="1707" spans="1:9" s="88" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1707" s="88">
-        <v>1932</v>
+        <v>1923</v>
       </c>
       <c r="B1707" s="1" t="s">
-        <v>3379</v>
+        <v>3377</v>
       </c>
       <c r="C1707" s="88">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D1707" s="88" t="s">
         <v>1720</v>
@@ -51688,102 +51737,154 @@
         <v>12</v>
       </c>
       <c r="G1707" s="88" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1707" s="88" t="s">
+        <v>3378</v>
+      </c>
+      <c r="I1707" s="88" t="s">
+        <v>3381</v>
+      </c>
+    </row>
+    <row r="1708" spans="1:9" s="90" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1708" s="90">
+        <v>1928</v>
+      </c>
+      <c r="B1708" s="1" t="s">
+        <v>3407</v>
+      </c>
+      <c r="C1708" s="90">
+        <v>4</v>
+      </c>
+      <c r="D1708" s="90" t="s">
+        <v>1720</v>
+      </c>
+      <c r="E1708" s="90" t="s">
+        <v>2923</v>
+      </c>
+      <c r="F1708" s="90" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1708" s="90" t="s">
+        <v>187</v>
+      </c>
+      <c r="H1708" s="90" t="s">
+        <v>3408</v>
+      </c>
+      <c r="I1708" s="90" t="s">
+        <v>3028</v>
+      </c>
+    </row>
+    <row r="1709" spans="1:9" s="90" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1709" s="90">
+        <v>1931</v>
+      </c>
+      <c r="B1709" s="1" t="s">
+        <v>3405</v>
+      </c>
+      <c r="C1709" s="90">
+        <v>4</v>
+      </c>
+      <c r="D1709" s="90" t="s">
+        <v>1720</v>
+      </c>
+      <c r="F1709" s="90" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1709" s="90" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1709" s="90" t="s">
+        <v>3406</v>
+      </c>
+      <c r="I1709" s="90" t="s">
+        <v>3409</v>
+      </c>
+    </row>
+    <row r="1710" spans="1:9" s="88" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1710" s="88">
+        <v>1932</v>
+      </c>
+      <c r="B1710" s="1" t="s">
+        <v>3379</v>
+      </c>
+      <c r="C1710" s="88">
+        <v>4</v>
+      </c>
+      <c r="D1710" s="88" t="s">
+        <v>1720</v>
+      </c>
+      <c r="F1710" s="88" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1710" s="88" t="s">
         <v>140</v>
       </c>
-      <c r="H1707" s="88" t="s">
+      <c r="H1710" s="88" t="s">
         <v>3380</v>
       </c>
-      <c r="I1707" s="88" t="s">
+      <c r="I1710" s="88" t="s">
         <v>2999</v>
       </c>
     </row>
-    <row r="1708" spans="1:9" s="89" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1708" s="89">
+    <row r="1711" spans="1:9" s="89" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1711" s="89">
         <v>1935</v>
       </c>
-      <c r="B1708" s="1" t="s">
+      <c r="B1711" s="1" t="s">
         <v>3391</v>
       </c>
-      <c r="C1708" s="89">
+      <c r="C1711" s="89">
         <v>2</v>
       </c>
-      <c r="D1708" s="89" t="s">
-        <v>1720</v>
-      </c>
-      <c r="F1708" s="89" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1708" s="89" t="s">
+      <c r="D1711" s="89" t="s">
+        <v>1720</v>
+      </c>
+      <c r="F1711" s="89" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1711" s="89" t="s">
         <v>36</v>
       </c>
-      <c r="H1708" s="89" t="s">
+      <c r="H1711" s="89" t="s">
         <v>3392</v>
       </c>
-      <c r="I1708" s="89" t="s">
+      <c r="I1711" s="89" t="s">
         <v>2999</v>
       </c>
     </row>
-    <row r="1709" spans="1:9" s="88" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1709" s="88">
+    <row r="1712" spans="1:9" s="88" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1712" s="88">
         <v>1938</v>
       </c>
-      <c r="B1709" s="1" t="s">
+      <c r="B1712" s="1" t="s">
         <v>3382</v>
       </c>
-      <c r="C1709" s="88">
-        <v>5</v>
-      </c>
-      <c r="D1709" s="88" t="s">
-        <v>1720</v>
-      </c>
-      <c r="F1709" s="88" t="s">
+      <c r="C1712" s="88">
+        <v>6</v>
+      </c>
+      <c r="D1712" s="88" t="s">
+        <v>1720</v>
+      </c>
+      <c r="F1712" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="G1709" s="88" t="s">
+      <c r="G1712" s="88" t="s">
         <v>134</v>
       </c>
-      <c r="H1709" s="88" t="s">
+      <c r="H1712" s="88" t="s">
         <v>3383</v>
       </c>
-    </row>
-    <row r="1710" spans="1:9" s="89" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1710" s="1"/>
-    </row>
-    <row r="1711" spans="1:9" s="89" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1711" s="1"/>
-    </row>
-    <row r="1712" spans="1:9" s="89" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1712" s="89">
-        <v>1941</v>
-      </c>
-      <c r="B1712" s="1" t="s">
-        <v>3389</v>
-      </c>
-      <c r="C1712" s="89">
-        <v>1</v>
-      </c>
-      <c r="D1712" s="89" t="s">
-        <v>1717</v>
-      </c>
-      <c r="F1712" s="89" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1712" s="89" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1712" s="89" t="s">
-        <v>3390</v>
-      </c>
-      <c r="I1712" s="89" t="s">
-        <v>2999</v>
+      <c r="I1712" s="88" t="s">
+        <v>3178</v>
       </c>
     </row>
     <row r="1713" spans="1:9" s="89" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1713" s="89">
-        <v>1945</v>
+        <v>1941</v>
       </c>
       <c r="B1713" s="1" t="s">
-        <v>3387</v>
+        <v>3389</v>
       </c>
       <c r="C1713" s="89">
         <v>1</v>
@@ -51795,44 +51896,180 @@
         <v>5</v>
       </c>
       <c r="G1713" s="89" t="s">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="H1713" s="89" t="s">
-        <v>3388</v>
+        <v>3390</v>
       </c>
       <c r="I1713" s="89" t="s">
         <v>2999</v>
       </c>
     </row>
-    <row r="1714" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A1714" s="90" t="s">
+    <row r="1714" spans="1:9" s="90" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1714" s="90">
+        <v>1944</v>
+      </c>
+      <c r="B1714" s="1" t="s">
+        <v>3403</v>
+      </c>
+      <c r="C1714" s="90">
+        <v>4</v>
+      </c>
+      <c r="D1714" s="90" t="s">
+        <v>1720</v>
+      </c>
+      <c r="E1714" s="90" t="s">
+        <v>2923</v>
+      </c>
+      <c r="F1714" s="90" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1714" s="90" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1714" s="90" t="s">
+        <v>3404</v>
+      </c>
+      <c r="I1714" s="90" t="s">
+        <v>2999</v>
+      </c>
+    </row>
+    <row r="1715" spans="1:9" s="89" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1715" s="89">
+        <v>1945</v>
+      </c>
+      <c r="B1715" s="1" t="s">
+        <v>3387</v>
+      </c>
+      <c r="C1715" s="89">
+        <v>1</v>
+      </c>
+      <c r="D1715" s="89" t="s">
+        <v>1717</v>
+      </c>
+      <c r="F1715" s="89" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1715" s="89" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1715" s="89" t="s">
+        <v>3388</v>
+      </c>
+      <c r="I1715" s="89" t="s">
+        <v>2999</v>
+      </c>
+    </row>
+    <row r="1716" spans="1:9" s="90" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1716" s="90">
+        <v>1948</v>
+      </c>
+      <c r="B1716" s="1" t="s">
+        <v>3400</v>
+      </c>
+      <c r="C1716" s="90">
+        <v>5</v>
+      </c>
+      <c r="D1716" s="90" t="s">
+        <v>2809</v>
+      </c>
+      <c r="F1716" s="90" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1716" s="90" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1716" s="90" t="s">
+        <v>3402</v>
+      </c>
+      <c r="I1716" s="90" t="s">
+        <v>2999</v>
+      </c>
+    </row>
+    <row r="1717" spans="1:9" s="90" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1717" s="90">
+        <v>1955</v>
+      </c>
+      <c r="B1717" s="1" t="s">
+        <v>3399</v>
+      </c>
+      <c r="C1717" s="90">
+        <v>4</v>
+      </c>
+      <c r="D1717" s="90" t="s">
+        <v>1720</v>
+      </c>
+      <c r="E1717" s="90" t="s">
+        <v>2934</v>
+      </c>
+      <c r="F1717" s="90" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1717" s="90" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1717" s="90" t="s">
+        <v>3401</v>
+      </c>
+      <c r="I1717" s="90" t="s">
+        <v>2999</v>
+      </c>
+    </row>
+    <row r="1718" spans="1:9" s="90" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1718" s="90">
+        <v>1960</v>
+      </c>
+      <c r="B1718" s="1" t="s">
+        <v>3397</v>
+      </c>
+      <c r="C1718" s="90">
+        <v>6</v>
+      </c>
+      <c r="D1718" s="90" t="s">
+        <v>2809</v>
+      </c>
+      <c r="F1718" s="90" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1718" s="90" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1718" s="90" t="s">
+        <v>3398</v>
+      </c>
+      <c r="I1718" s="90" t="s">
+        <v>2999</v>
+      </c>
+    </row>
+    <row r="1719" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A1719" s="91" t="s">
         <v>1721</v>
       </c>
-      <c r="B1714" s="90"/>
-      <c r="C1714" s="90"/>
-      <c r="D1714" s="90"/>
-      <c r="E1714" s="90"/>
-      <c r="F1714" s="90"/>
-      <c r="G1714" s="90"/>
-      <c r="H1714" s="90"/>
-    </row>
-    <row r="1715" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A1715" s="91" t="s">
+      <c r="B1719" s="91"/>
+      <c r="C1719" s="91"/>
+      <c r="D1719" s="91"/>
+      <c r="E1719" s="91"/>
+      <c r="F1719" s="91"/>
+      <c r="G1719" s="91"/>
+      <c r="H1719" s="91"/>
+    </row>
+    <row r="1720" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A1720" s="92" t="s">
         <v>2759</v>
       </c>
-      <c r="B1715" s="91"/>
-      <c r="C1715" s="91"/>
-      <c r="D1715" s="91"/>
-      <c r="E1715" s="91"/>
-      <c r="F1715" s="91"/>
-      <c r="G1715" s="91"/>
-      <c r="H1715" s="91"/>
+      <c r="B1720" s="92"/>
+      <c r="C1720" s="92"/>
+      <c r="D1720" s="92"/>
+      <c r="E1720" s="92"/>
+      <c r="F1720" s="92"/>
+      <c r="G1720" s="92"/>
+      <c r="H1720" s="92"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J1715" xr:uid="{CB07CE66-8F15-46FF-A90A-43FDB2DB428F}"/>
+  <autoFilter ref="A1:J1720" xr:uid="{CB07CE66-8F15-46FF-A90A-43FDB2DB428F}"/>
   <mergeCells count="2">
-    <mergeCell ref="A1714:H1714"/>
-    <mergeCell ref="A1715:H1715"/>
+    <mergeCell ref="A1719:H1719"/>
+    <mergeCell ref="A1720:H1720"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" display="https://leetcode.com/problems/zigzag-conversion" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -53301,9 +53538,9 @@
     <hyperlink ref="B1699" r:id="rId1464" display="https://leetcode.com/problems/largest-odd-number-in-string" xr:uid="{C1F070FE-5338-44D3-AC2F-454F2F234B37}"/>
     <hyperlink ref="B1700" r:id="rId1465" display="https://leetcode.com/problems/minimum-absolute-difference-queries" xr:uid="{BC2F4066-1A7C-40E6-807A-59A6290C5130}"/>
     <hyperlink ref="B1701" r:id="rId1466" xr:uid="{701B89CB-0972-4CC9-B496-BFC2EA4D6053}"/>
-    <hyperlink ref="B1702" r:id="rId1467" xr:uid="{8495B600-B833-4B44-9931-395989DBBB7D}"/>
-    <hyperlink ref="B1703" r:id="rId1468" display="https://leetcode.com/problems/cyclically-rotating-a-grid" xr:uid="{3AFFE1F3-E05C-4E5B-AB9D-548519408295}"/>
-    <hyperlink ref="B1704" r:id="rId1469" display=" Count Ways to Build Rooms in an Ant Colony" xr:uid="{E356F1D9-1378-42C3-B1EC-4016F02C08FE}"/>
+    <hyperlink ref="B1703" r:id="rId1467" xr:uid="{8495B600-B833-4B44-9931-395989DBBB7D}"/>
+    <hyperlink ref="B1704" r:id="rId1468" display="https://leetcode.com/problems/cyclically-rotating-a-grid" xr:uid="{3AFFE1F3-E05C-4E5B-AB9D-548519408295}"/>
+    <hyperlink ref="B1705" r:id="rId1469" display=" Count Ways to Build Rooms in an Ant Colony" xr:uid="{E356F1D9-1378-42C3-B1EC-4016F02C08FE}"/>
     <hyperlink ref="B1671" r:id="rId1470" xr:uid="{68B63B60-AA23-4767-8102-9AA46D58D32F}"/>
     <hyperlink ref="B1672" r:id="rId1471" display="https://leetcode.com/problems/finding-pairs-with-a-certain-sum" xr:uid="{37561B08-BC65-437E-B174-B127301F6D30}"/>
     <hyperlink ref="B1675" r:id="rId1472" display="https://leetcode.com/problems/minimum-speed-to-arrive-on-time" xr:uid="{544CF080-940E-4B3B-8C0D-B8C5A249310B}"/>
@@ -53316,20 +53553,27 @@
     <hyperlink ref="B1686" r:id="rId1479" display="https://leetcode.com/problems/egg-drop-with-2-eggs-and-n-floors" xr:uid="{8F3F40B0-8D67-46A7-B467-4EEA5B9A8063}"/>
     <hyperlink ref="B1688" r:id="rId1480" display="https://leetcode.com/problems/reduction-operations-to-make-the-array-elements-equal" xr:uid="{93CBEB02-546F-4B36-807B-CAA599C9C2E1}"/>
     <hyperlink ref="B1695" r:id="rId1481" display="https://leetcode.com/problems/redistribute-characters-to-make-all-strings-equal" xr:uid="{514AD256-6C6F-423E-93EA-68F73246AB3C}"/>
-    <hyperlink ref="B1705" r:id="rId1482" display="https://leetcode.com/problems/build-array-from-permutation" xr:uid="{A7BA82A2-3CCD-45FF-8CCB-DCE423A9403F}"/>
-    <hyperlink ref="B1706" r:id="rId1483" display="https://leetcode.com/problems/longest-common-subpath" xr:uid="{62FFD7C8-6B95-49CF-877E-D2923644D1FD}"/>
-    <hyperlink ref="B1707" r:id="rId1484" display="https://leetcode.com/problems/merge-bsts-to-create-single-bst" xr:uid="{3C90ED05-B4E6-4A5B-8B92-92274CD6E3CB}"/>
-    <hyperlink ref="B1709" r:id="rId1485" display="https://leetcode.com/problems/maximum-genetic-difference-query" xr:uid="{1A25DDAD-A0E9-4DEA-9978-DBF0F9D4D3DF}"/>
+    <hyperlink ref="B1706" r:id="rId1482" display="https://leetcode.com/problems/build-array-from-permutation" xr:uid="{A7BA82A2-3CCD-45FF-8CCB-DCE423A9403F}"/>
+    <hyperlink ref="B1707" r:id="rId1483" display="https://leetcode.com/problems/longest-common-subpath" xr:uid="{62FFD7C8-6B95-49CF-877E-D2923644D1FD}"/>
+    <hyperlink ref="B1710" r:id="rId1484" display="https://leetcode.com/problems/merge-bsts-to-create-single-bst" xr:uid="{3C90ED05-B4E6-4A5B-8B92-92274CD6E3CB}"/>
+    <hyperlink ref="B1712" r:id="rId1485" display="https://leetcode.com/problems/maximum-genetic-difference-query" xr:uid="{1A25DDAD-A0E9-4DEA-9978-DBF0F9D4D3DF}"/>
     <hyperlink ref="B1692" r:id="rId1486" display="https://leetcode.com/problems/find-the-student-that-will-replace-the-chalk" xr:uid="{9D146C0C-5A16-4375-BDF0-B60367842FF7}"/>
-    <hyperlink ref="B1713" r:id="rId1487" display="https://leetcode.com/problems/sum-of-digits-of-string-after-convert" xr:uid="{6F22ECDB-6A6B-41D3-8CA9-6D76CAF5B4E8}"/>
-    <hyperlink ref="B1712" r:id="rId1488" xr:uid="{67E882AF-68DB-41AF-8071-513205274BD9}"/>
-    <hyperlink ref="B1708" r:id="rId1489" display="https://leetcode.com/problems/maximum-number-of-words-you-can-type" xr:uid="{8E21FA9C-EBEA-4E91-AD8C-B9177EF763E8}"/>
+    <hyperlink ref="B1715" r:id="rId1487" display="https://leetcode.com/problems/sum-of-digits-of-string-after-convert" xr:uid="{6F22ECDB-6A6B-41D3-8CA9-6D76CAF5B4E8}"/>
+    <hyperlink ref="B1713" r:id="rId1488" xr:uid="{67E882AF-68DB-41AF-8071-513205274BD9}"/>
+    <hyperlink ref="B1711" r:id="rId1489" display="https://leetcode.com/problems/maximum-number-of-words-you-can-type" xr:uid="{8E21FA9C-EBEA-4E91-AD8C-B9177EF763E8}"/>
     <hyperlink ref="B1696" r:id="rId1490" xr:uid="{A3071BE6-0034-43AE-BDF8-5799BAD6EB13}"/>
     <hyperlink ref="B1697" r:id="rId1491" display="https://leetcode.com/problems/merge-triplets-to-form-target-triplet" xr:uid="{EFBBCE90-7311-45FC-B707-92A6E1252460}"/>
+    <hyperlink ref="B1718" r:id="rId1492" xr:uid="{B409B537-7A7A-463A-A75E-53528F8E2853}"/>
+    <hyperlink ref="B1717" r:id="rId1493" xr:uid="{02C2B215-E3E3-4548-A2F1-DDB689E2C454}"/>
+    <hyperlink ref="B1716" r:id="rId1494" display="https://leetcode.com/problems/delete-duplicate-folders-in-system" xr:uid="{16B4D03D-ED3A-423A-8036-4E96E3C16067}"/>
+    <hyperlink ref="B1714" r:id="rId1495" xr:uid="{7C979346-7740-4A52-9F7D-050A4F57896C}"/>
+    <hyperlink ref="B1709" r:id="rId1496" display="https://leetcode.com/problems/painting-a-grid-with-three-different-colors" xr:uid="{B5ED7AD1-6A0E-45F7-B1AC-3F3817E32416}"/>
+    <hyperlink ref="B1708" r:id="rId1497" display="Minimum Cost to Reach Destination i" xr:uid="{3D85BE5F-F0CC-42FF-A640-8A8AE91D07EA}"/>
+    <hyperlink ref="B1702" r:id="rId1498" display="https://leetcode.com/problems/design-movie-rental-system" xr:uid="{19AF9215-7A21-4D3F-A616-43F376496623}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1492"/>
-  <drawing r:id="rId1493"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1499"/>
+  <drawing r:id="rId1500"/>
 </worksheet>
 </file>
 

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A859DEA-C82F-4E40-9B32-77DEC2B310E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2E3DDAD-0DED-4A0F-8DB4-21380D1AAE4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="SQL" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'LeetCode Algorithm'!$A$1:$J$1720</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'LeetCode Algorithm'!$A$1:$J$1727</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9313" uniqueCount="3412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9358" uniqueCount="3426">
   <si>
     <t>Difficulty</t>
   </si>
@@ -10273,6 +10273,48 @@
   </si>
   <si>
     <t>Store movie in Sorted Tree Map by price, shop under hastable of moives</t>
+  </si>
+  <si>
+    <t>Concatenation of Array</t>
+  </si>
+  <si>
+    <t>Roundup indexes</t>
+  </si>
+  <si>
+    <t>Find a Peak Element II</t>
+  </si>
+  <si>
+    <t>Search neighbors higher than current</t>
+  </si>
+  <si>
+    <t>Count Sub Islands</t>
+  </si>
+  <si>
+    <t>BFS search for island</t>
+  </si>
+  <si>
+    <t>The Number of Full Rounds You Have Played</t>
+  </si>
+  <si>
+    <t>Round by quarter</t>
+  </si>
+  <si>
+    <t>Count Square Sum Triples</t>
+  </si>
+  <si>
+    <t>Loop first numbers with incremental order</t>
+  </si>
+  <si>
+    <t>Three Divisors</t>
+  </si>
+  <si>
+    <t>Find all divisors</t>
+  </si>
+  <si>
+    <t>Delete Characters to Make Fancy String</t>
+  </si>
+  <si>
+    <t>Count repeated characters</t>
   </si>
 </sst>
 </file>
@@ -10317,7 +10359,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -10344,6 +10386,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -10799,10 +10842,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J1720"/>
+  <dimension ref="A1:J1727"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1698" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1712" sqref="C1712"/>
+    <sheetView tabSelected="1" topLeftCell="A1700" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A1725" sqref="A1725"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -51503,313 +51546,316 @@
         <v>3315</v>
       </c>
     </row>
-    <row r="1699" spans="1:9" s="81" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1699" s="81">
-        <v>1903</v>
+    <row r="1699" spans="1:9" s="91" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1699" s="91">
+        <v>1901</v>
       </c>
       <c r="B1699" s="1" t="s">
-        <v>3336</v>
-      </c>
-      <c r="C1699" s="81">
-        <v>1</v>
-      </c>
-      <c r="D1699" s="81" t="s">
-        <v>1717</v>
-      </c>
-      <c r="F1699" s="81" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1699" s="81" t="s">
-        <v>36</v>
-      </c>
-      <c r="H1699" s="81" t="s">
-        <v>3337</v>
-      </c>
-      <c r="I1699" s="81" t="s">
+        <v>3414</v>
+      </c>
+      <c r="C1699" s="91">
+        <v>2</v>
+      </c>
+      <c r="D1699" s="91" t="s">
+        <v>1720</v>
+      </c>
+      <c r="E1699" s="91" t="s">
+        <v>2934</v>
+      </c>
+      <c r="F1699" s="91" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1699" s="91" t="s">
+        <v>151</v>
+      </c>
+      <c r="H1699" s="91" t="s">
+        <v>3415</v>
+      </c>
+      <c r="I1699" s="91" t="s">
         <v>2999</v>
       </c>
     </row>
     <row r="1700" spans="1:9" s="81" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1700" s="81">
-        <v>1906</v>
+        <v>1903</v>
       </c>
       <c r="B1700" s="1" t="s">
-        <v>3338</v>
+        <v>3336</v>
       </c>
       <c r="C1700" s="81">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1700" s="81" t="s">
-        <v>2809</v>
+        <v>1717</v>
       </c>
       <c r="F1700" s="81" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G1700" s="81" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1700" s="81" t="s">
+        <v>3337</v>
+      </c>
+      <c r="I1700" s="81" t="s">
+        <v>2999</v>
+      </c>
+    </row>
+    <row r="1701" spans="1:9" s="91" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1701" s="91">
+        <v>1904</v>
+      </c>
+      <c r="B1701" s="1" t="s">
+        <v>3418</v>
+      </c>
+      <c r="C1701" s="91">
+        <v>2</v>
+      </c>
+      <c r="D1701" s="91" t="s">
+        <v>1720</v>
+      </c>
+      <c r="E1701" s="91" t="s">
+        <v>2934</v>
+      </c>
+      <c r="F1701" s="91" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1701" s="91" t="s">
         <v>25</v>
       </c>
-      <c r="H1700" s="81" t="s">
-        <v>3339</v>
-      </c>
-      <c r="I1700" s="81" t="s">
-        <v>3344</v>
-      </c>
-    </row>
-    <row r="1701" spans="1:9" s="81" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1701" s="81">
-        <v>1909</v>
-      </c>
-      <c r="B1701" s="1" t="s">
-        <v>3340</v>
-      </c>
-      <c r="C1701" s="81">
+      <c r="H1701" s="91" t="s">
+        <v>3419</v>
+      </c>
+      <c r="I1701" s="91" t="s">
+        <v>3056</v>
+      </c>
+    </row>
+    <row r="1702" spans="1:9" s="91" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1702" s="91">
+        <v>1905</v>
+      </c>
+      <c r="B1702" s="1" t="s">
+        <v>3416</v>
+      </c>
+      <c r="C1702" s="91">
         <v>2</v>
       </c>
-      <c r="D1701" s="81" t="s">
-        <v>1767</v>
-      </c>
-      <c r="E1701" s="81" t="s">
-        <v>2934</v>
-      </c>
-      <c r="F1701" s="81" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1701" s="81" t="s">
-        <v>41</v>
-      </c>
-      <c r="H1701" s="81" t="s">
-        <v>3341</v>
-      </c>
-      <c r="I1701" s="81" t="s">
+      <c r="D1702" s="91" t="s">
+        <v>1720</v>
+      </c>
+      <c r="F1702" s="91" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1702" s="91" t="s">
+        <v>187</v>
+      </c>
+      <c r="H1702" s="91" t="s">
+        <v>3417</v>
+      </c>
+      <c r="I1702" s="91" t="s">
         <v>2999</v>
-      </c>
-    </row>
-    <row r="1702" spans="1:9" s="90" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1702" s="90">
-        <v>1912</v>
-      </c>
-      <c r="B1702" s="1" t="s">
-        <v>3410</v>
-      </c>
-      <c r="C1702" s="90">
-        <v>4</v>
-      </c>
-      <c r="D1702" s="90" t="s">
-        <v>1720</v>
-      </c>
-      <c r="E1702" s="90" t="s">
-        <v>2923</v>
-      </c>
-      <c r="F1702" s="90" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1702" s="90" t="s">
-        <v>457</v>
-      </c>
-      <c r="H1702" s="90" t="s">
-        <v>3411</v>
-      </c>
-      <c r="I1702" s="90" t="s">
-        <v>3028</v>
       </c>
     </row>
     <row r="1703" spans="1:9" s="81" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1703" s="81">
-        <v>1913</v>
+        <v>1906</v>
       </c>
       <c r="B1703" s="1" t="s">
-        <v>3342</v>
+        <v>3338</v>
       </c>
       <c r="C1703" s="81">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D1703" s="81" t="s">
-        <v>1767</v>
+        <v>2809</v>
       </c>
       <c r="F1703" s="81" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G1703" s="81" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="H1703" s="81" t="s">
-        <v>3343</v>
+        <v>3339</v>
       </c>
       <c r="I1703" s="81" t="s">
-        <v>2999</v>
+        <v>3344</v>
       </c>
     </row>
     <row r="1704" spans="1:9" s="81" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1704" s="81">
-        <v>1914</v>
+        <v>1909</v>
       </c>
       <c r="B1704" s="1" t="s">
-        <v>3345</v>
+        <v>3340</v>
       </c>
       <c r="C1704" s="81">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1704" s="81" t="s">
-        <v>1720</v>
+        <v>1767</v>
       </c>
       <c r="E1704" s="81" t="s">
         <v>2934</v>
       </c>
       <c r="F1704" s="81" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G1704" s="81" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="H1704" s="81" t="s">
-        <v>3347</v>
+        <v>3341</v>
       </c>
       <c r="I1704" s="81" t="s">
         <v>2999</v>
       </c>
     </row>
-    <row r="1705" spans="1:9" s="81" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1705" s="81">
+    <row r="1705" spans="1:9" s="90" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1705" s="90">
+        <v>1912</v>
+      </c>
+      <c r="B1705" s="1" t="s">
+        <v>3410</v>
+      </c>
+      <c r="C1705" s="90">
+        <v>4</v>
+      </c>
+      <c r="D1705" s="90" t="s">
+        <v>1720</v>
+      </c>
+      <c r="E1705" s="90" t="s">
+        <v>2923</v>
+      </c>
+      <c r="F1705" s="90" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1705" s="90" t="s">
+        <v>457</v>
+      </c>
+      <c r="H1705" s="90" t="s">
+        <v>3411</v>
+      </c>
+      <c r="I1705" s="90" t="s">
+        <v>3028</v>
+      </c>
+    </row>
+    <row r="1706" spans="1:9" s="81" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1706" s="81">
+        <v>1913</v>
+      </c>
+      <c r="B1706" s="1" t="s">
+        <v>3342</v>
+      </c>
+      <c r="C1706" s="81">
+        <v>2</v>
+      </c>
+      <c r="D1706" s="81" t="s">
+        <v>1767</v>
+      </c>
+      <c r="F1706" s="81" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1706" s="81" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1706" s="81" t="s">
+        <v>3343</v>
+      </c>
+      <c r="I1706" s="81" t="s">
+        <v>2999</v>
+      </c>
+    </row>
+    <row r="1707" spans="1:9" s="81" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1707" s="81">
+        <v>1914</v>
+      </c>
+      <c r="B1707" s="1" t="s">
+        <v>3345</v>
+      </c>
+      <c r="C1707" s="81">
+        <v>3</v>
+      </c>
+      <c r="D1707" s="81" t="s">
+        <v>1720</v>
+      </c>
+      <c r="E1707" s="81" t="s">
+        <v>2934</v>
+      </c>
+      <c r="F1707" s="81" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1707" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1707" s="81" t="s">
+        <v>3347</v>
+      </c>
+      <c r="I1707" s="81" t="s">
+        <v>2999</v>
+      </c>
+    </row>
+    <row r="1708" spans="1:9" s="81" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1708" s="81">
         <v>1916</v>
       </c>
-      <c r="B1705" s="1" t="s">
+      <c r="B1708" s="1" t="s">
         <v>3346</v>
       </c>
-      <c r="C1705" s="81">
+      <c r="C1708" s="81">
         <v>4</v>
       </c>
-      <c r="D1705" s="81" t="s">
+      <c r="D1708" s="81" t="s">
         <v>1718</v>
       </c>
-      <c r="F1705" s="81" t="s">
+      <c r="F1708" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="G1705" s="81" t="s">
+      <c r="G1708" s="81" t="s">
         <v>25</v>
       </c>
-      <c r="H1705" s="81" t="s">
+      <c r="H1708" s="81" t="s">
         <v>3348</v>
       </c>
-      <c r="I1705" s="81" t="s">
+      <c r="I1708" s="81" t="s">
         <v>2999</v>
       </c>
     </row>
-    <row r="1706" spans="1:9" s="88" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1706" s="88">
+    <row r="1709" spans="1:9" s="88" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1709" s="88">
         <v>1920</v>
       </c>
-      <c r="B1706" s="1" t="s">
+      <c r="B1709" s="1" t="s">
         <v>3375</v>
       </c>
-      <c r="C1706" s="88">
+      <c r="C1709" s="88">
         <v>1</v>
       </c>
-      <c r="D1706" s="88" t="s">
+      <c r="D1709" s="88" t="s">
         <v>1767</v>
       </c>
-      <c r="F1706" s="88" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1706" s="88" t="s">
+      <c r="F1709" s="88" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1709" s="88" t="s">
         <v>21</v>
       </c>
-      <c r="H1706" s="88" t="s">
+      <c r="H1709" s="88" t="s">
         <v>3376</v>
       </c>
-      <c r="I1706" s="88" t="s">
+      <c r="I1709" s="88" t="s">
         <v>2999</v>
-      </c>
-    </row>
-    <row r="1707" spans="1:9" s="88" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1707" s="88">
-        <v>1923</v>
-      </c>
-      <c r="B1707" s="1" t="s">
-        <v>3377</v>
-      </c>
-      <c r="C1707" s="88">
-        <v>6</v>
-      </c>
-      <c r="D1707" s="88" t="s">
-        <v>1720</v>
-      </c>
-      <c r="F1707" s="88" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1707" s="88" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1707" s="88" t="s">
-        <v>3378</v>
-      </c>
-      <c r="I1707" s="88" t="s">
-        <v>3381</v>
-      </c>
-    </row>
-    <row r="1708" spans="1:9" s="90" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1708" s="90">
-        <v>1928</v>
-      </c>
-      <c r="B1708" s="1" t="s">
-        <v>3407</v>
-      </c>
-      <c r="C1708" s="90">
-        <v>4</v>
-      </c>
-      <c r="D1708" s="90" t="s">
-        <v>1720</v>
-      </c>
-      <c r="E1708" s="90" t="s">
-        <v>2923</v>
-      </c>
-      <c r="F1708" s="90" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1708" s="90" t="s">
-        <v>187</v>
-      </c>
-      <c r="H1708" s="90" t="s">
-        <v>3408</v>
-      </c>
-      <c r="I1708" s="90" t="s">
-        <v>3028</v>
-      </c>
-    </row>
-    <row r="1709" spans="1:9" s="90" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1709" s="90">
-        <v>1931</v>
-      </c>
-      <c r="B1709" s="1" t="s">
-        <v>3405</v>
-      </c>
-      <c r="C1709" s="90">
-        <v>4</v>
-      </c>
-      <c r="D1709" s="90" t="s">
-        <v>1720</v>
-      </c>
-      <c r="F1709" s="90" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1709" s="90" t="s">
-        <v>51</v>
-      </c>
-      <c r="H1709" s="90" t="s">
-        <v>3406</v>
-      </c>
-      <c r="I1709" s="90" t="s">
-        <v>3409</v>
       </c>
     </row>
     <row r="1710" spans="1:9" s="88" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1710" s="88">
-        <v>1932</v>
+        <v>1923</v>
       </c>
       <c r="B1710" s="1" t="s">
-        <v>3379</v>
+        <v>3377</v>
       </c>
       <c r="C1710" s="88">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D1710" s="88" t="s">
         <v>1720</v>
@@ -51818,99 +51864,102 @@
         <v>12</v>
       </c>
       <c r="G1710" s="88" t="s">
-        <v>140</v>
+        <v>13</v>
       </c>
       <c r="H1710" s="88" t="s">
-        <v>3380</v>
+        <v>3378</v>
       </c>
       <c r="I1710" s="88" t="s">
-        <v>2999</v>
-      </c>
-    </row>
-    <row r="1711" spans="1:9" s="89" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1711" s="89">
-        <v>1935</v>
+        <v>3381</v>
+      </c>
+    </row>
+    <row r="1711" spans="1:9" s="91" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1711" s="91">
+        <v>1925</v>
       </c>
       <c r="B1711" s="1" t="s">
-        <v>3391</v>
-      </c>
-      <c r="C1711" s="89">
-        <v>2</v>
-      </c>
-      <c r="D1711" s="89" t="s">
-        <v>1720</v>
-      </c>
-      <c r="F1711" s="89" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1711" s="89" t="s">
-        <v>36</v>
-      </c>
-      <c r="H1711" s="89" t="s">
-        <v>3392</v>
-      </c>
-      <c r="I1711" s="89" t="s">
-        <v>2999</v>
-      </c>
-    </row>
-    <row r="1712" spans="1:9" s="88" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1712" s="88">
-        <v>1938</v>
+        <v>3420</v>
+      </c>
+      <c r="C1711" s="91">
+        <v>1</v>
+      </c>
+      <c r="D1711" s="91" t="s">
+        <v>1720</v>
+      </c>
+      <c r="F1711" s="91" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1711" s="91" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1711" s="91" t="s">
+        <v>3421</v>
+      </c>
+      <c r="I1711" s="91" t="s">
+        <v>3184</v>
+      </c>
+    </row>
+    <row r="1712" spans="1:9" s="90" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1712" s="90">
+        <v>1928</v>
       </c>
       <c r="B1712" s="1" t="s">
-        <v>3382</v>
-      </c>
-      <c r="C1712" s="88">
-        <v>6</v>
-      </c>
-      <c r="D1712" s="88" t="s">
-        <v>1720</v>
-      </c>
-      <c r="F1712" s="88" t="s">
+        <v>3407</v>
+      </c>
+      <c r="C1712" s="90">
+        <v>4</v>
+      </c>
+      <c r="D1712" s="90" t="s">
+        <v>1720</v>
+      </c>
+      <c r="E1712" s="90" t="s">
+        <v>2923</v>
+      </c>
+      <c r="F1712" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="G1712" s="88" t="s">
-        <v>134</v>
-      </c>
-      <c r="H1712" s="88" t="s">
-        <v>3383</v>
-      </c>
-      <c r="I1712" s="88" t="s">
-        <v>3178</v>
-      </c>
-    </row>
-    <row r="1713" spans="1:9" s="89" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1713" s="89">
-        <v>1941</v>
+      <c r="G1712" s="90" t="s">
+        <v>187</v>
+      </c>
+      <c r="H1712" s="90" t="s">
+        <v>3408</v>
+      </c>
+      <c r="I1712" s="90" t="s">
+        <v>3028</v>
+      </c>
+    </row>
+    <row r="1713" spans="1:9" s="91" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1713" s="91">
+        <v>1929</v>
       </c>
       <c r="B1713" s="1" t="s">
-        <v>3389</v>
-      </c>
-      <c r="C1713" s="89">
+        <v>3412</v>
+      </c>
+      <c r="C1713" s="91">
         <v>1</v>
       </c>
-      <c r="D1713" s="89" t="s">
+      <c r="D1713" s="91" t="s">
         <v>1717</v>
       </c>
-      <c r="F1713" s="89" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1713" s="89" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1713" s="89" t="s">
-        <v>3390</v>
-      </c>
-      <c r="I1713" s="89" t="s">
+      <c r="F1713" s="91" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1713" s="91" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1713" s="91" t="s">
+        <v>3413</v>
+      </c>
+      <c r="I1713" s="91" t="s">
         <v>2999</v>
       </c>
     </row>
     <row r="1714" spans="1:9" s="90" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1714" s="90">
-        <v>1944</v>
+        <v>1931</v>
       </c>
       <c r="B1714" s="1" t="s">
-        <v>3403</v>
+        <v>3405</v>
       </c>
       <c r="C1714" s="90">
         <v>4</v>
@@ -51918,158 +51967,343 @@
       <c r="D1714" s="90" t="s">
         <v>1720</v>
       </c>
-      <c r="E1714" s="90" t="s">
-        <v>2923</v>
-      </c>
       <c r="F1714" s="90" t="s">
         <v>12</v>
       </c>
       <c r="G1714" s="90" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1714" s="90" t="s">
+        <v>3406</v>
+      </c>
+      <c r="I1714" s="90" t="s">
+        <v>3409</v>
+      </c>
+    </row>
+    <row r="1715" spans="1:9" s="88" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1715" s="88">
+        <v>1932</v>
+      </c>
+      <c r="B1715" s="1" t="s">
+        <v>3379</v>
+      </c>
+      <c r="C1715" s="88">
+        <v>4</v>
+      </c>
+      <c r="D1715" s="88" t="s">
+        <v>1720</v>
+      </c>
+      <c r="F1715" s="88" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1715" s="88" t="s">
+        <v>140</v>
+      </c>
+      <c r="H1715" s="88" t="s">
+        <v>3380</v>
+      </c>
+      <c r="I1715" s="88" t="s">
+        <v>2999</v>
+      </c>
+    </row>
+    <row r="1716" spans="1:9" s="89" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1716" s="89">
+        <v>1935</v>
+      </c>
+      <c r="B1716" s="1" t="s">
+        <v>3391</v>
+      </c>
+      <c r="C1716" s="89">
+        <v>2</v>
+      </c>
+      <c r="D1716" s="89" t="s">
+        <v>1720</v>
+      </c>
+      <c r="F1716" s="89" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1716" s="89" t="s">
         <v>36</v>
       </c>
-      <c r="H1714" s="90" t="s">
+      <c r="H1716" s="89" t="s">
+        <v>3392</v>
+      </c>
+      <c r="I1716" s="89" t="s">
+        <v>2999</v>
+      </c>
+    </row>
+    <row r="1717" spans="1:9" s="88" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1717" s="88">
+        <v>1938</v>
+      </c>
+      <c r="B1717" s="1" t="s">
+        <v>3382</v>
+      </c>
+      <c r="C1717" s="88">
+        <v>6</v>
+      </c>
+      <c r="D1717" s="88" t="s">
+        <v>1720</v>
+      </c>
+      <c r="F1717" s="88" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1717" s="88" t="s">
+        <v>134</v>
+      </c>
+      <c r="H1717" s="88" t="s">
+        <v>3383</v>
+      </c>
+      <c r="I1717" s="88" t="s">
+        <v>3178</v>
+      </c>
+    </row>
+    <row r="1718" spans="1:9" s="89" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1718" s="89">
+        <v>1941</v>
+      </c>
+      <c r="B1718" s="1" t="s">
+        <v>3389</v>
+      </c>
+      <c r="C1718" s="89">
+        <v>1</v>
+      </c>
+      <c r="D1718" s="89" t="s">
+        <v>1717</v>
+      </c>
+      <c r="F1718" s="89" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1718" s="89" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1718" s="89" t="s">
+        <v>3390</v>
+      </c>
+      <c r="I1718" s="89" t="s">
+        <v>2999</v>
+      </c>
+    </row>
+    <row r="1719" spans="1:9" s="90" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1719" s="90">
+        <v>1944</v>
+      </c>
+      <c r="B1719" s="1" t="s">
+        <v>3403</v>
+      </c>
+      <c r="C1719" s="90">
+        <v>4</v>
+      </c>
+      <c r="D1719" s="90" t="s">
+        <v>1720</v>
+      </c>
+      <c r="E1719" s="90" t="s">
+        <v>2923</v>
+      </c>
+      <c r="F1719" s="90" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1719" s="90" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1719" s="90" t="s">
         <v>3404</v>
       </c>
-      <c r="I1714" s="90" t="s">
+      <c r="I1719" s="90" t="s">
         <v>2999</v>
       </c>
     </row>
-    <row r="1715" spans="1:9" s="89" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1715" s="89">
+    <row r="1720" spans="1:9" s="89" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1720" s="89">
         <v>1945</v>
       </c>
-      <c r="B1715" s="1" t="s">
+      <c r="B1720" s="1" t="s">
         <v>3387</v>
       </c>
-      <c r="C1715" s="89">
+      <c r="C1720" s="89">
         <v>1</v>
       </c>
-      <c r="D1715" s="89" t="s">
+      <c r="D1720" s="89" t="s">
         <v>1717</v>
       </c>
-      <c r="F1715" s="89" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1715" s="89" t="s">
+      <c r="F1720" s="89" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1720" s="89" t="s">
         <v>36</v>
       </c>
-      <c r="H1715" s="89" t="s">
+      <c r="H1720" s="89" t="s">
         <v>3388</v>
       </c>
-      <c r="I1715" s="89" t="s">
+      <c r="I1720" s="89" t="s">
         <v>2999</v>
       </c>
     </row>
-    <row r="1716" spans="1:9" s="90" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1716" s="90">
+    <row r="1721" spans="1:9" s="90" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1721" s="90">
         <v>1948</v>
       </c>
-      <c r="B1716" s="1" t="s">
+      <c r="B1721" s="1" t="s">
         <v>3400</v>
       </c>
-      <c r="C1716" s="90">
-        <v>5</v>
-      </c>
-      <c r="D1716" s="90" t="s">
+      <c r="C1721" s="90">
+        <v>5</v>
+      </c>
+      <c r="D1721" s="90" t="s">
         <v>2809</v>
       </c>
-      <c r="F1716" s="90" t="s">
+      <c r="F1721" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="G1716" s="90" t="s">
+      <c r="G1721" s="90" t="s">
         <v>36</v>
       </c>
-      <c r="H1716" s="90" t="s">
+      <c r="H1721" s="90" t="s">
         <v>3402</v>
       </c>
-      <c r="I1716" s="90" t="s">
+      <c r="I1721" s="90" t="s">
         <v>2999</v>
       </c>
     </row>
-    <row r="1717" spans="1:9" s="90" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1717" s="90">
+    <row r="1722" spans="1:9" s="91" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1722" s="91">
+        <v>1952</v>
+      </c>
+      <c r="B1722" s="1" t="s">
+        <v>3422</v>
+      </c>
+      <c r="C1722" s="91">
+        <v>2</v>
+      </c>
+      <c r="D1722" s="91" t="s">
+        <v>1720</v>
+      </c>
+      <c r="F1722" s="91" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1722" s="91" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1722" s="91" t="s">
+        <v>3423</v>
+      </c>
+      <c r="I1722" s="91" t="s">
+        <v>3333</v>
+      </c>
+    </row>
+    <row r="1723" spans="1:9" s="90" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1723" s="90">
         <v>1955</v>
       </c>
-      <c r="B1717" s="1" t="s">
+      <c r="B1723" s="1" t="s">
         <v>3399</v>
       </c>
-      <c r="C1717" s="90">
+      <c r="C1723" s="90">
         <v>4</v>
       </c>
-      <c r="D1717" s="90" t="s">
-        <v>1720</v>
-      </c>
-      <c r="E1717" s="90" t="s">
+      <c r="D1723" s="90" t="s">
+        <v>1720</v>
+      </c>
+      <c r="E1723" s="90" t="s">
         <v>2934</v>
       </c>
-      <c r="F1717" s="90" t="s">
+      <c r="F1723" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="G1717" s="90" t="s">
+      <c r="G1723" s="90" t="s">
         <v>28</v>
       </c>
-      <c r="H1717" s="90" t="s">
+      <c r="H1723" s="90" t="s">
         <v>3401</v>
       </c>
-      <c r="I1717" s="90" t="s">
+      <c r="I1723" s="90" t="s">
         <v>2999</v>
       </c>
     </row>
-    <row r="1718" spans="1:9" s="90" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1718" s="90">
+    <row r="1724" spans="1:9" s="91" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1724" s="91">
+        <v>1957</v>
+      </c>
+      <c r="B1724" s="1" t="s">
+        <v>3424</v>
+      </c>
+      <c r="C1724" s="91">
+        <v>2</v>
+      </c>
+      <c r="D1724" s="91" t="s">
+        <v>1720</v>
+      </c>
+      <c r="E1724" s="91" t="s">
+        <v>2934</v>
+      </c>
+      <c r="F1724" s="91" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1724" s="91" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1724" s="91" t="s">
+        <v>3425</v>
+      </c>
+      <c r="I1724" s="91" t="s">
+        <v>2999</v>
+      </c>
+    </row>
+    <row r="1725" spans="1:9" s="90" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1725" s="90">
         <v>1960</v>
       </c>
-      <c r="B1718" s="1" t="s">
+      <c r="B1725" s="1" t="s">
         <v>3397</v>
       </c>
-      <c r="C1718" s="90">
+      <c r="C1725" s="90">
         <v>6</v>
       </c>
-      <c r="D1718" s="90" t="s">
+      <c r="D1725" s="90" t="s">
         <v>2809</v>
       </c>
-      <c r="F1718" s="90" t="s">
+      <c r="F1725" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="G1718" s="90" t="s">
+      <c r="G1725" s="90" t="s">
         <v>36</v>
       </c>
-      <c r="H1718" s="90" t="s">
+      <c r="H1725" s="90" t="s">
         <v>3398</v>
       </c>
-      <c r="I1718" s="90" t="s">
+      <c r="I1725" s="90" t="s">
         <v>2999</v>
       </c>
     </row>
-    <row r="1719" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A1719" s="91" t="s">
+    <row r="1726" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A1726" s="92" t="s">
         <v>1721</v>
       </c>
-      <c r="B1719" s="91"/>
-      <c r="C1719" s="91"/>
-      <c r="D1719" s="91"/>
-      <c r="E1719" s="91"/>
-      <c r="F1719" s="91"/>
-      <c r="G1719" s="91"/>
-      <c r="H1719" s="91"/>
-    </row>
-    <row r="1720" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A1720" s="92" t="s">
+      <c r="B1726" s="92"/>
+      <c r="C1726" s="92"/>
+      <c r="D1726" s="92"/>
+      <c r="E1726" s="92"/>
+      <c r="F1726" s="92"/>
+      <c r="G1726" s="92"/>
+      <c r="H1726" s="92"/>
+    </row>
+    <row r="1727" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A1727" s="93" t="s">
         <v>2759</v>
       </c>
-      <c r="B1720" s="92"/>
-      <c r="C1720" s="92"/>
-      <c r="D1720" s="92"/>
-      <c r="E1720" s="92"/>
-      <c r="F1720" s="92"/>
-      <c r="G1720" s="92"/>
-      <c r="H1720" s="92"/>
+      <c r="B1727" s="93"/>
+      <c r="C1727" s="93"/>
+      <c r="D1727" s="93"/>
+      <c r="E1727" s="93"/>
+      <c r="F1727" s="93"/>
+      <c r="G1727" s="93"/>
+      <c r="H1727" s="93"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J1720" xr:uid="{CB07CE66-8F15-46FF-A90A-43FDB2DB428F}"/>
+  <autoFilter ref="A1:J1727" xr:uid="{CB07CE66-8F15-46FF-A90A-43FDB2DB428F}"/>
   <mergeCells count="2">
-    <mergeCell ref="A1719:H1719"/>
-    <mergeCell ref="A1720:H1720"/>
+    <mergeCell ref="A1726:H1726"/>
+    <mergeCell ref="A1727:H1727"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" display="https://leetcode.com/problems/zigzag-conversion" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -53535,12 +53769,12 @@
     <hyperlink ref="B1691" r:id="rId1461" display="https://leetcode.com/problems/check-if-all-the-integers-in-a-range-are-covered" xr:uid="{1E1CE91C-D79D-487A-A76A-6DE39C6CDD96}"/>
     <hyperlink ref="B1667" r:id="rId1462" display="https://leetcode.com/problems/incremental-memory-leak" xr:uid="{CA1A11F1-F4F6-4D65-9D69-A6197119EA1E}"/>
     <hyperlink ref="B1668" r:id="rId1463" display="https://leetcode.com/problems/rotating-the-box" xr:uid="{1DBA9A18-E1D2-4148-8C3A-048CE82287C0}"/>
-    <hyperlink ref="B1699" r:id="rId1464" display="https://leetcode.com/problems/largest-odd-number-in-string" xr:uid="{C1F070FE-5338-44D3-AC2F-454F2F234B37}"/>
-    <hyperlink ref="B1700" r:id="rId1465" display="https://leetcode.com/problems/minimum-absolute-difference-queries" xr:uid="{BC2F4066-1A7C-40E6-807A-59A6290C5130}"/>
-    <hyperlink ref="B1701" r:id="rId1466" xr:uid="{701B89CB-0972-4CC9-B496-BFC2EA4D6053}"/>
-    <hyperlink ref="B1703" r:id="rId1467" xr:uid="{8495B600-B833-4B44-9931-395989DBBB7D}"/>
-    <hyperlink ref="B1704" r:id="rId1468" display="https://leetcode.com/problems/cyclically-rotating-a-grid" xr:uid="{3AFFE1F3-E05C-4E5B-AB9D-548519408295}"/>
-    <hyperlink ref="B1705" r:id="rId1469" display=" Count Ways to Build Rooms in an Ant Colony" xr:uid="{E356F1D9-1378-42C3-B1EC-4016F02C08FE}"/>
+    <hyperlink ref="B1700" r:id="rId1464" display="https://leetcode.com/problems/largest-odd-number-in-string" xr:uid="{C1F070FE-5338-44D3-AC2F-454F2F234B37}"/>
+    <hyperlink ref="B1703" r:id="rId1465" display="https://leetcode.com/problems/minimum-absolute-difference-queries" xr:uid="{BC2F4066-1A7C-40E6-807A-59A6290C5130}"/>
+    <hyperlink ref="B1704" r:id="rId1466" xr:uid="{701B89CB-0972-4CC9-B496-BFC2EA4D6053}"/>
+    <hyperlink ref="B1706" r:id="rId1467" xr:uid="{8495B600-B833-4B44-9931-395989DBBB7D}"/>
+    <hyperlink ref="B1707" r:id="rId1468" display="https://leetcode.com/problems/cyclically-rotating-a-grid" xr:uid="{3AFFE1F3-E05C-4E5B-AB9D-548519408295}"/>
+    <hyperlink ref="B1708" r:id="rId1469" display=" Count Ways to Build Rooms in an Ant Colony" xr:uid="{E356F1D9-1378-42C3-B1EC-4016F02C08FE}"/>
     <hyperlink ref="B1671" r:id="rId1470" xr:uid="{68B63B60-AA23-4767-8102-9AA46D58D32F}"/>
     <hyperlink ref="B1672" r:id="rId1471" display="https://leetcode.com/problems/finding-pairs-with-a-certain-sum" xr:uid="{37561B08-BC65-437E-B174-B127301F6D30}"/>
     <hyperlink ref="B1675" r:id="rId1472" display="https://leetcode.com/problems/minimum-speed-to-arrive-on-time" xr:uid="{544CF080-940E-4B3B-8C0D-B8C5A249310B}"/>
@@ -53553,27 +53787,32 @@
     <hyperlink ref="B1686" r:id="rId1479" display="https://leetcode.com/problems/egg-drop-with-2-eggs-and-n-floors" xr:uid="{8F3F40B0-8D67-46A7-B467-4EEA5B9A8063}"/>
     <hyperlink ref="B1688" r:id="rId1480" display="https://leetcode.com/problems/reduction-operations-to-make-the-array-elements-equal" xr:uid="{93CBEB02-546F-4B36-807B-CAA599C9C2E1}"/>
     <hyperlink ref="B1695" r:id="rId1481" display="https://leetcode.com/problems/redistribute-characters-to-make-all-strings-equal" xr:uid="{514AD256-6C6F-423E-93EA-68F73246AB3C}"/>
-    <hyperlink ref="B1706" r:id="rId1482" display="https://leetcode.com/problems/build-array-from-permutation" xr:uid="{A7BA82A2-3CCD-45FF-8CCB-DCE423A9403F}"/>
-    <hyperlink ref="B1707" r:id="rId1483" display="https://leetcode.com/problems/longest-common-subpath" xr:uid="{62FFD7C8-6B95-49CF-877E-D2923644D1FD}"/>
-    <hyperlink ref="B1710" r:id="rId1484" display="https://leetcode.com/problems/merge-bsts-to-create-single-bst" xr:uid="{3C90ED05-B4E6-4A5B-8B92-92274CD6E3CB}"/>
-    <hyperlink ref="B1712" r:id="rId1485" display="https://leetcode.com/problems/maximum-genetic-difference-query" xr:uid="{1A25DDAD-A0E9-4DEA-9978-DBF0F9D4D3DF}"/>
+    <hyperlink ref="B1709" r:id="rId1482" display="https://leetcode.com/problems/build-array-from-permutation" xr:uid="{A7BA82A2-3CCD-45FF-8CCB-DCE423A9403F}"/>
+    <hyperlink ref="B1710" r:id="rId1483" display="https://leetcode.com/problems/longest-common-subpath" xr:uid="{62FFD7C8-6B95-49CF-877E-D2923644D1FD}"/>
+    <hyperlink ref="B1715" r:id="rId1484" display="https://leetcode.com/problems/merge-bsts-to-create-single-bst" xr:uid="{3C90ED05-B4E6-4A5B-8B92-92274CD6E3CB}"/>
+    <hyperlink ref="B1717" r:id="rId1485" display="https://leetcode.com/problems/maximum-genetic-difference-query" xr:uid="{1A25DDAD-A0E9-4DEA-9978-DBF0F9D4D3DF}"/>
     <hyperlink ref="B1692" r:id="rId1486" display="https://leetcode.com/problems/find-the-student-that-will-replace-the-chalk" xr:uid="{9D146C0C-5A16-4375-BDF0-B60367842FF7}"/>
-    <hyperlink ref="B1715" r:id="rId1487" display="https://leetcode.com/problems/sum-of-digits-of-string-after-convert" xr:uid="{6F22ECDB-6A6B-41D3-8CA9-6D76CAF5B4E8}"/>
-    <hyperlink ref="B1713" r:id="rId1488" xr:uid="{67E882AF-68DB-41AF-8071-513205274BD9}"/>
-    <hyperlink ref="B1711" r:id="rId1489" display="https://leetcode.com/problems/maximum-number-of-words-you-can-type" xr:uid="{8E21FA9C-EBEA-4E91-AD8C-B9177EF763E8}"/>
+    <hyperlink ref="B1720" r:id="rId1487" display="https://leetcode.com/problems/sum-of-digits-of-string-after-convert" xr:uid="{6F22ECDB-6A6B-41D3-8CA9-6D76CAF5B4E8}"/>
+    <hyperlink ref="B1718" r:id="rId1488" xr:uid="{67E882AF-68DB-41AF-8071-513205274BD9}"/>
+    <hyperlink ref="B1716" r:id="rId1489" display="https://leetcode.com/problems/maximum-number-of-words-you-can-type" xr:uid="{8E21FA9C-EBEA-4E91-AD8C-B9177EF763E8}"/>
     <hyperlink ref="B1696" r:id="rId1490" xr:uid="{A3071BE6-0034-43AE-BDF8-5799BAD6EB13}"/>
     <hyperlink ref="B1697" r:id="rId1491" display="https://leetcode.com/problems/merge-triplets-to-form-target-triplet" xr:uid="{EFBBCE90-7311-45FC-B707-92A6E1252460}"/>
-    <hyperlink ref="B1718" r:id="rId1492" xr:uid="{B409B537-7A7A-463A-A75E-53528F8E2853}"/>
-    <hyperlink ref="B1717" r:id="rId1493" xr:uid="{02C2B215-E3E3-4548-A2F1-DDB689E2C454}"/>
-    <hyperlink ref="B1716" r:id="rId1494" display="https://leetcode.com/problems/delete-duplicate-folders-in-system" xr:uid="{16B4D03D-ED3A-423A-8036-4E96E3C16067}"/>
-    <hyperlink ref="B1714" r:id="rId1495" xr:uid="{7C979346-7740-4A52-9F7D-050A4F57896C}"/>
-    <hyperlink ref="B1709" r:id="rId1496" display="https://leetcode.com/problems/painting-a-grid-with-three-different-colors" xr:uid="{B5ED7AD1-6A0E-45F7-B1AC-3F3817E32416}"/>
-    <hyperlink ref="B1708" r:id="rId1497" display="Minimum Cost to Reach Destination i" xr:uid="{3D85BE5F-F0CC-42FF-A640-8A8AE91D07EA}"/>
-    <hyperlink ref="B1702" r:id="rId1498" display="https://leetcode.com/problems/design-movie-rental-system" xr:uid="{19AF9215-7A21-4D3F-A616-43F376496623}"/>
+    <hyperlink ref="B1725" r:id="rId1492" xr:uid="{B409B537-7A7A-463A-A75E-53528F8E2853}"/>
+    <hyperlink ref="B1723" r:id="rId1493" xr:uid="{02C2B215-E3E3-4548-A2F1-DDB689E2C454}"/>
+    <hyperlink ref="B1721" r:id="rId1494" display="https://leetcode.com/problems/delete-duplicate-folders-in-system" xr:uid="{16B4D03D-ED3A-423A-8036-4E96E3C16067}"/>
+    <hyperlink ref="B1719" r:id="rId1495" xr:uid="{7C979346-7740-4A52-9F7D-050A4F57896C}"/>
+    <hyperlink ref="B1714" r:id="rId1496" display="https://leetcode.com/problems/painting-a-grid-with-three-different-colors" xr:uid="{B5ED7AD1-6A0E-45F7-B1AC-3F3817E32416}"/>
+    <hyperlink ref="B1712" r:id="rId1497" display="Minimum Cost to Reach Destination i" xr:uid="{3D85BE5F-F0CC-42FF-A640-8A8AE91D07EA}"/>
+    <hyperlink ref="B1705" r:id="rId1498" display="https://leetcode.com/problems/design-movie-rental-system" xr:uid="{19AF9215-7A21-4D3F-A616-43F376496623}"/>
+    <hyperlink ref="B1713" r:id="rId1499" display="https://leetcode.com/problems/concatenation-of-array" xr:uid="{4408C4DB-4EB9-4846-9A9D-74A69E6FC083}"/>
+    <hyperlink ref="B1702" r:id="rId1500" display="https://leetcode.com/problems/count-sub-islands" xr:uid="{618FF829-5060-41A7-93F8-CF7981307DFA}"/>
+    <hyperlink ref="B1701" r:id="rId1501" xr:uid="{3A86AED8-C09D-4BCF-A1D4-ADDD6E740309}"/>
+    <hyperlink ref="B1711" r:id="rId1502" display="https://leetcode.com/problems/count-square-sum-triples" xr:uid="{B8E45F4A-37F7-4057-AB54-687DAEB27C7E}"/>
+    <hyperlink ref="B1722" r:id="rId1503" display="https://leetcode.com/problems/three-divisors" xr:uid="{3D0A8A80-CBA1-408D-A123-C27B4A097F3A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1499"/>
-  <drawing r:id="rId1500"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1504"/>
+  <drawing r:id="rId1505"/>
 </worksheet>
 </file>
 

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2E3DDAD-0DED-4A0F-8DB4-21380D1AAE4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C537838-7937-4F4E-8210-D47C5BC6468E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LeetCode Algorithm" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9358" uniqueCount="3426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9423" uniqueCount="3464">
   <si>
     <t>Difficulty</t>
   </si>
@@ -10315,6 +10315,120 @@
   </si>
   <si>
     <t>Count repeated characters</t>
+  </si>
+  <si>
+    <t>Leetcodify Similar Friends</t>
+  </si>
+  <si>
+    <t>Select common songs more than 3 and join with friendship</t>
+  </si>
+  <si>
+    <t>Users That Actively Request Confirmation Messages</t>
+  </si>
+  <si>
+    <t>Confirmation Rate</t>
+  </si>
+  <si>
+    <t>Confirmed count divided by total count</t>
+  </si>
+  <si>
+    <t>Self join with time1 &lt; time2 but time1 + 24h &gt;= time2.</t>
+  </si>
+  <si>
+    <t>Strong Friendship</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Self join with friend for common friend, exclude pair itself </t>
+  </si>
+  <si>
+    <t>All the Pairs With the Maximum Number of Common Followers</t>
+  </si>
+  <si>
+    <t>Self join with common friend and rank it.</t>
+  </si>
+  <si>
+    <t>Employees With Missing Information</t>
+  </si>
+  <si>
+    <t>Full outer join</t>
+  </si>
+  <si>
+    <t>First and Last Call On the Same Day</t>
+  </si>
+  <si>
+    <t>Sort asc and desc select first one on each day.</t>
+  </si>
+  <si>
+    <t>Employees Whose Manager Left the Company</t>
+  </si>
+  <si>
+    <t>Left join</t>
+  </si>
+  <si>
+    <t>Replace Employee ID With The Unique Identifier</t>
+  </si>
+  <si>
+    <t>Right Join</t>
+  </si>
+  <si>
+    <t>Total Sales Amount by Year</t>
+  </si>
+  <si>
+    <t>Calculate date range then join and cut</t>
+  </si>
+  <si>
+    <t>Capital Gain/Loss</t>
+  </si>
+  <si>
+    <t>Sort by row_number on by and sell, then join them.</t>
+  </si>
+  <si>
+    <t>Customers Who Bought Products A and B but Not C</t>
+  </si>
+  <si>
+    <t>Use operator IN</t>
+  </si>
+  <si>
+    <t>Leetcodify Friends Recommendations</t>
+  </si>
+  <si>
+    <t>Hopper Company Queries I</t>
+  </si>
+  <si>
+    <t>Calculate months and join with join date then join with acceptance</t>
+  </si>
+  <si>
+    <t>Hopper Company Queries II</t>
+  </si>
+  <si>
+    <t>Calculate months and join with join date then join with duration</t>
+  </si>
+  <si>
+    <t>Hopper Company Queries III</t>
+  </si>
+  <si>
+    <t>Count Salary Categories</t>
+  </si>
+  <si>
+    <t>Count salary range</t>
+  </si>
+  <si>
+    <t>Page Recommendations II</t>
+  </si>
+  <si>
+    <t>Friend Union join with likes</t>
+  </si>
+  <si>
+    <t>Top Travellers</t>
+  </si>
+  <si>
+    <t>Sum by rider</t>
+  </si>
+  <si>
+    <t>Find the Subtasks That Did Not Execute</t>
+  </si>
+  <si>
+    <t>Use values to get subtask id</t>
   </si>
 </sst>
 </file>
@@ -10359,7 +10473,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -10386,6 +10500,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -10844,7 +10959,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J1727"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1700" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A1700" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A1725" sqref="A1725"/>
     </sheetView>
   </sheetViews>
@@ -52276,28 +52391,28 @@
       </c>
     </row>
     <row r="1726" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A1726" s="92" t="s">
+      <c r="A1726" s="93" t="s">
         <v>1721</v>
       </c>
-      <c r="B1726" s="92"/>
-      <c r="C1726" s="92"/>
-      <c r="D1726" s="92"/>
-      <c r="E1726" s="92"/>
-      <c r="F1726" s="92"/>
-      <c r="G1726" s="92"/>
-      <c r="H1726" s="92"/>
+      <c r="B1726" s="93"/>
+      <c r="C1726" s="93"/>
+      <c r="D1726" s="93"/>
+      <c r="E1726" s="93"/>
+      <c r="F1726" s="93"/>
+      <c r="G1726" s="93"/>
+      <c r="H1726" s="93"/>
     </row>
     <row r="1727" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A1727" s="93" t="s">
+      <c r="A1727" s="94" t="s">
         <v>2759</v>
       </c>
-      <c r="B1727" s="93"/>
-      <c r="C1727" s="93"/>
-      <c r="D1727" s="93"/>
-      <c r="E1727" s="93"/>
-      <c r="F1727" s="93"/>
-      <c r="G1727" s="93"/>
-      <c r="H1727" s="93"/>
+      <c r="B1727" s="94"/>
+      <c r="C1727" s="94"/>
+      <c r="D1727" s="94"/>
+      <c r="E1727" s="94"/>
+      <c r="F1727" s="94"/>
+      <c r="G1727" s="94"/>
+      <c r="H1727" s="94"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:J1727" xr:uid="{CB07CE66-8F15-46FF-A90A-43FDB2DB428F}"/>
@@ -53818,15 +53933,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E01657D4-0457-4414-9EA3-8C4EB4AF3913}">
-  <dimension ref="A1:F90"/>
+  <dimension ref="A1:F114"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="A98" sqref="A98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="49" customWidth="1"/>
+    <col min="2" max="2" width="52.265625" customWidth="1"/>
     <col min="3" max="4" width="9.19921875" style="26" customWidth="1"/>
     <col min="5" max="5" width="9.73046875" customWidth="1"/>
     <col min="6" max="6" width="54.46484375" customWidth="1"/>
@@ -53880,7 +53995,7 @@
         <v>3</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>1693</v>
+        <v>2934</v>
       </c>
       <c r="E3" s="26" t="s">
         <v>5</v>
@@ -54155,7 +54270,7 @@
         <v>4</v>
       </c>
       <c r="D19" s="26" t="s">
-        <v>1693</v>
+        <v>2934</v>
       </c>
       <c r="E19" s="26" t="s">
         <v>12</v>
@@ -54175,7 +54290,7 @@
         <v>3</v>
       </c>
       <c r="D20" s="26" t="s">
-        <v>1693</v>
+        <v>2934</v>
       </c>
       <c r="E20" s="26" t="s">
         <v>9</v>
@@ -54195,7 +54310,7 @@
         <v>4</v>
       </c>
       <c r="D21" s="26" t="s">
-        <v>1693</v>
+        <v>2934</v>
       </c>
       <c r="E21" s="26" t="s">
         <v>12</v>
@@ -54283,7 +54398,7 @@
         <v>3</v>
       </c>
       <c r="D26" s="26" t="s">
-        <v>1693</v>
+        <v>2934</v>
       </c>
       <c r="E26" s="26" t="s">
         <v>9</v>
@@ -54558,7 +54673,7 @@
         <v>4</v>
       </c>
       <c r="D42" s="26" t="s">
-        <v>1693</v>
+        <v>2934</v>
       </c>
       <c r="E42" s="26" t="s">
         <v>12</v>
@@ -54578,7 +54693,7 @@
         <v>4</v>
       </c>
       <c r="D43" s="26" t="s">
-        <v>1693</v>
+        <v>2934</v>
       </c>
       <c r="E43" s="26" t="s">
         <v>12</v>
@@ -54598,7 +54713,7 @@
         <v>3</v>
       </c>
       <c r="D44" s="26" t="s">
-        <v>1693</v>
+        <v>2934</v>
       </c>
       <c r="E44" s="26" t="s">
         <v>5</v>
@@ -54635,7 +54750,7 @@
         <v>3</v>
       </c>
       <c r="D46" s="26" t="s">
-        <v>1693</v>
+        <v>2923</v>
       </c>
       <c r="E46" s="26" t="s">
         <v>9</v>
@@ -54944,7 +55059,7 @@
         <v>3</v>
       </c>
       <c r="D64" s="26" t="s">
-        <v>1693</v>
+        <v>2934</v>
       </c>
       <c r="E64" s="26" t="s">
         <v>9</v>
@@ -54964,7 +55079,7 @@
         <v>4</v>
       </c>
       <c r="D65" s="26" t="s">
-        <v>1693</v>
+        <v>2934</v>
       </c>
       <c r="E65" s="26" t="s">
         <v>12</v>
@@ -55103,7 +55218,7 @@
         <v>3</v>
       </c>
       <c r="D73" s="26" t="s">
-        <v>1693</v>
+        <v>2934</v>
       </c>
       <c r="E73" s="26" t="s">
         <v>9</v>
@@ -55208,7 +55323,7 @@
         <v>3</v>
       </c>
       <c r="D79" s="26" t="s">
-        <v>1693</v>
+        <v>2934</v>
       </c>
       <c r="E79" s="26" t="s">
         <v>9</v>
@@ -55279,7 +55394,7 @@
         <v>5</v>
       </c>
       <c r="D83" s="26" t="s">
-        <v>1693</v>
+        <v>2934</v>
       </c>
       <c r="E83" s="26" t="s">
         <v>12</v>
@@ -55384,7 +55499,7 @@
         <v>4</v>
       </c>
       <c r="D89" s="26" t="s">
-        <v>1693</v>
+        <v>2934</v>
       </c>
       <c r="E89" s="26" t="s">
         <v>9</v>
@@ -55408,6 +55523,370 @@
       </c>
       <c r="F90" t="s">
         <v>2191</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" s="92" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A92" s="92">
+        <v>1378</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>3442</v>
+      </c>
+      <c r="C92" s="92">
+        <v>1</v>
+      </c>
+      <c r="E92" s="92" t="s">
+        <v>5</v>
+      </c>
+      <c r="F92" s="92" t="s">
+        <v>3443</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" s="92" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A93" s="92">
+        <v>1384</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>3444</v>
+      </c>
+      <c r="C93" s="92">
+        <v>4</v>
+      </c>
+      <c r="E93" s="92" t="s">
+        <v>12</v>
+      </c>
+      <c r="F93" s="92" t="s">
+        <v>3445</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" s="92" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A94" s="92">
+        <v>1393</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>3446</v>
+      </c>
+      <c r="C94" s="92">
+        <v>3</v>
+      </c>
+      <c r="D94" s="92" t="s">
+        <v>2934</v>
+      </c>
+      <c r="E94" s="92" t="s">
+        <v>9</v>
+      </c>
+      <c r="F94" s="92" t="s">
+        <v>3447</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" s="92" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A95" s="92">
+        <v>1398</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>3448</v>
+      </c>
+      <c r="C95" s="92">
+        <v>2</v>
+      </c>
+      <c r="D95" s="92" t="s">
+        <v>2934</v>
+      </c>
+      <c r="E95" s="92" t="s">
+        <v>9</v>
+      </c>
+      <c r="F95" s="92" t="s">
+        <v>3449</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" s="92" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A96" s="92">
+        <v>1407</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>3460</v>
+      </c>
+      <c r="C96" s="92">
+        <v>2</v>
+      </c>
+      <c r="E96" s="92" t="s">
+        <v>5</v>
+      </c>
+      <c r="F96" s="92" t="s">
+        <v>3461</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" s="92" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A97" s="92">
+        <v>1767</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>3462</v>
+      </c>
+      <c r="C97" s="92">
+        <v>4</v>
+      </c>
+      <c r="D97" s="92" t="s">
+        <v>2934</v>
+      </c>
+      <c r="E97" s="92" t="s">
+        <v>12</v>
+      </c>
+      <c r="F97" s="92" t="s">
+        <v>3463</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" s="92" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B98" s="1"/>
+    </row>
+    <row r="99" spans="1:6" s="92" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A99" s="92">
+        <v>1635</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>3451</v>
+      </c>
+      <c r="C99" s="92">
+        <v>5</v>
+      </c>
+      <c r="E99" s="92" t="s">
+        <v>12</v>
+      </c>
+      <c r="F99" s="92" t="s">
+        <v>3452</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" s="92" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A100" s="92">
+        <v>1645</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>3453</v>
+      </c>
+      <c r="C100" s="92">
+        <v>5</v>
+      </c>
+      <c r="E100" s="92" t="s">
+        <v>12</v>
+      </c>
+      <c r="F100" s="92" t="s">
+        <v>3454</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" s="92" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A101" s="92">
+        <v>1651</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>3455</v>
+      </c>
+      <c r="C101" s="92">
+        <v>5</v>
+      </c>
+      <c r="E101" s="92" t="s">
+        <v>12</v>
+      </c>
+      <c r="F101" s="92" t="s">
+        <v>3454</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" s="92" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B102" s="1"/>
+    </row>
+    <row r="103" spans="1:6" s="92" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B103" s="1"/>
+    </row>
+    <row r="104" spans="1:6" s="92" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A104" s="92">
+        <v>1892</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>3458</v>
+      </c>
+      <c r="C104" s="92">
+        <v>4</v>
+      </c>
+      <c r="E104" s="92" t="s">
+        <v>12</v>
+      </c>
+      <c r="F104" s="92" t="s">
+        <v>3459</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" s="92" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A105" s="92">
+        <v>1907</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>3456</v>
+      </c>
+      <c r="C105" s="92">
+        <v>2</v>
+      </c>
+      <c r="E105" s="92" t="s">
+        <v>9</v>
+      </c>
+      <c r="F105" s="92" t="s">
+        <v>3457</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" s="92" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A106" s="92">
+        <v>1917</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>3450</v>
+      </c>
+      <c r="C106" s="92">
+        <v>4</v>
+      </c>
+      <c r="E106" s="92" t="s">
+        <v>12</v>
+      </c>
+      <c r="F106" s="92" t="s">
+        <v>3427</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A107">
+        <v>1919</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>3426</v>
+      </c>
+      <c r="C107" s="26">
+        <v>4</v>
+      </c>
+      <c r="D107" s="26" t="s">
+        <v>2934</v>
+      </c>
+      <c r="E107" t="s">
+        <v>12</v>
+      </c>
+      <c r="F107" t="s">
+        <v>3427</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A108">
+        <v>1934</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>3429</v>
+      </c>
+      <c r="C108" s="26">
+        <v>2</v>
+      </c>
+      <c r="E108" t="s">
+        <v>9</v>
+      </c>
+      <c r="F108" t="s">
+        <v>3430</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A109">
+        <v>1939</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>3428</v>
+      </c>
+      <c r="C109" s="26">
+        <v>2</v>
+      </c>
+      <c r="E109" t="s">
+        <v>5</v>
+      </c>
+      <c r="F109" t="s">
+        <v>3431</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A110">
+        <v>1949</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>3432</v>
+      </c>
+      <c r="C110" s="26">
+        <v>3</v>
+      </c>
+      <c r="D110" s="26" t="s">
+        <v>2934</v>
+      </c>
+      <c r="E110" t="s">
+        <v>9</v>
+      </c>
+      <c r="F110" t="s">
+        <v>3433</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A111">
+        <v>1951</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>3434</v>
+      </c>
+      <c r="C111" s="26">
+        <v>3</v>
+      </c>
+      <c r="E111" t="s">
+        <v>9</v>
+      </c>
+      <c r="F111" t="s">
+        <v>3435</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A112">
+        <v>1965</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>3436</v>
+      </c>
+      <c r="C112" s="26">
+        <v>1</v>
+      </c>
+      <c r="E112" t="s">
+        <v>5</v>
+      </c>
+      <c r="F112" t="s">
+        <v>3437</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A113">
+        <v>1972</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>3438</v>
+      </c>
+      <c r="C113" s="26">
+        <v>4</v>
+      </c>
+      <c r="E113" t="s">
+        <v>12</v>
+      </c>
+      <c r="F113" t="s">
+        <v>3439</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A114">
+        <v>1978</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>3440</v>
+      </c>
+      <c r="C114" s="26">
+        <v>2</v>
+      </c>
+      <c r="E114" t="s">
+        <v>9</v>
+      </c>
+      <c r="F114" t="s">
+        <v>3441</v>
       </c>
     </row>
   </sheetData>
@@ -55501,9 +55980,27 @@
     <hyperlink ref="B88" r:id="rId87" display="https://leetcode.com/problems/students-and-examinations" xr:uid="{2FF7198F-6469-4877-A49A-C76705A54BDB}"/>
     <hyperlink ref="B89" r:id="rId88" display="https://leetcode.com/problems/find-the-start-and-end-number-of-continuous-ranges" xr:uid="{93D84EE9-F4E0-4407-8E39-1C02175F5735}"/>
     <hyperlink ref="B90" r:id="rId89" display="https://leetcode.com/problems/weather-type-in-each-country" xr:uid="{E7B40668-DE2F-400B-9A62-2A66B2A30EF8}"/>
+    <hyperlink ref="B107" r:id="rId90" display="https://leetcode.com/problems/leetcodify-similar-friends" xr:uid="{31FC6E39-3A35-4FF6-8D5E-D880DD063AC4}"/>
+    <hyperlink ref="B108" r:id="rId91" display="https://leetcode.com/problems/confirmation-rate" xr:uid="{B57B6DFA-4A48-4708-AD19-2DCD85E441CC}"/>
+    <hyperlink ref="B109" r:id="rId92" xr:uid="{DAC9E0C9-5CB3-4ED6-91EF-0A2C851764FC}"/>
+    <hyperlink ref="B110" r:id="rId93" display="https://leetcode.com/problems/strong-friendship" xr:uid="{EFF9C5D4-F000-4FB3-8BB3-9F46BF776A2A}"/>
+    <hyperlink ref="B111" r:id="rId94" display="https://leetcode.com/problems/all-the-pairs-with-the-maximum-number-of-common-followers" xr:uid="{F7B4CE43-65EC-4468-8204-71D3A02EE015}"/>
+    <hyperlink ref="B112" r:id="rId95" display="https://leetcode.com/problems/employees-with-missing-information" xr:uid="{5477AE52-C753-4349-A154-EE4820F1F7DD}"/>
+    <hyperlink ref="B113" r:id="rId96" display="https://leetcode.com/problems/first-and-last-call-on-the-same-day" xr:uid="{B23F15FD-512C-4C2F-84C0-00849AB55923}"/>
+    <hyperlink ref="B114" r:id="rId97" xr:uid="{CD6AC747-121E-4A32-BE90-DDD55C170398}"/>
+    <hyperlink ref="B92" r:id="rId98" xr:uid="{8E793D3C-FBE6-49E6-87A9-DD428A609D40}"/>
+    <hyperlink ref="B93" r:id="rId99" display="https://leetcode.com/problems/total-sales-amount-by-year" xr:uid="{B59EE1B2-9413-4E48-96B1-D7DFD25D14EC}"/>
+    <hyperlink ref="B94" r:id="rId100" display="https://leetcode.com/problems/capital-gainloss" xr:uid="{7F22AD76-0A98-494C-8992-C0AAF0E043C0}"/>
+    <hyperlink ref="B95" r:id="rId101" display="https://leetcode.com/problems/customers-who-bought-products-a-and-b-but-not-c" xr:uid="{CF431385-0E27-46C1-B77B-D027B5927A1E}"/>
+    <hyperlink ref="B106" r:id="rId102" display="https://leetcode.com/problems/leetcodify-friends-recommendations" xr:uid="{B4798C0D-AA70-4BFE-9B96-80E02A492F2A}"/>
+    <hyperlink ref="B99" r:id="rId103" display="https://leetcode.com/problems/hopper-company-queries-i" xr:uid="{C1125A5B-1B89-401F-9E7F-78886D24DE33}"/>
+    <hyperlink ref="B100" r:id="rId104" display="https://leetcode.com/problems/hopper-company-queries-ii" xr:uid="{85FADCF8-4D22-420B-8FA3-CCD35E6692CA}"/>
+    <hyperlink ref="B104" r:id="rId105" display="https://leetcode.com/problems/page-recommendations-ii" xr:uid="{FB760DBC-1FAE-4F2C-B0D8-049AF3A16120}"/>
+    <hyperlink ref="B96" r:id="rId106" display="https://leetcode.com/problems/top-travellers" xr:uid="{0E265921-5208-498F-A406-6B4C2A7C080D}"/>
+    <hyperlink ref="B97" r:id="rId107" xr:uid="{6EF598F7-83DE-4CE7-BF66-DBF996C86CAA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId90"/>
+  <pageSetup orientation="portrait" r:id="rId108"/>
 </worksheet>
 </file>
 

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C537838-7937-4F4E-8210-D47C5BC6468E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C8FAF19-5D89-487E-8E43-54415C3AE481}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LeetCode Algorithm" sheetId="1" r:id="rId1"/>
     <sheet name="SQL" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'LeetCode Algorithm'!$A$1:$J$1727</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'LeetCode Algorithm'!$A$1:$J$1799</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9423" uniqueCount="3464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9532" uniqueCount="3540">
   <si>
     <t>Difficulty</t>
   </si>
@@ -10429,6 +10429,234 @@
   </si>
   <si>
     <t>Use values to get subtask id</t>
+  </si>
+  <si>
+    <t>Remove All Occurrences of a Substring</t>
+  </si>
+  <si>
+    <t>Pop up target string</t>
+  </si>
+  <si>
+    <t>Maximum Alternating Subsequence Sum</t>
+  </si>
+  <si>
+    <t>Calculate current position as odd or even positions</t>
+  </si>
+  <si>
+    <t>Eliminate Maximum Number of Monsters</t>
+  </si>
+  <si>
+    <t>Count Good Numbers</t>
+  </si>
+  <si>
+    <t>Nearest Exit from Entrance in Maze</t>
+  </si>
+  <si>
+    <t>Sum Game</t>
+  </si>
+  <si>
+    <t>Unique Length-3 Palindromic Subsequences</t>
+  </si>
+  <si>
+    <t>Add Minimum Number of Rungs</t>
+  </si>
+  <si>
+    <t>Maximum Number of Points with Cost</t>
+  </si>
+  <si>
+    <t>The Number of the Smallest Unoccupied Chair</t>
+  </si>
+  <si>
+    <t>Describe the Painting</t>
+  </si>
+  <si>
+    <t>Largest Number After Mutating Substring</t>
+  </si>
+  <si>
+    <t>Maximum Compatibility Score Sum</t>
+  </si>
+  <si>
+    <t>Maximum Number of Weeks for Which You Can Work</t>
+  </si>
+  <si>
+    <t>Minimum Garden Perimeter to Collect Enough Apples</t>
+  </si>
+  <si>
+    <t>Check if Move is Legal</t>
+  </si>
+  <si>
+    <t>Minimum Total Space Wasted With K Resizing Operations</t>
+  </si>
+  <si>
+    <t>Check If String Is a Prefix of Array</t>
+  </si>
+  <si>
+    <t>Remove Stones to Minimize the Total</t>
+  </si>
+  <si>
+    <t>Minimum Number of Swaps to Make the String Balanced</t>
+  </si>
+  <si>
+    <t>Find the Longest Valid Obstacle Course at Each Position</t>
+  </si>
+  <si>
+    <t>Add words until reach the sentence size</t>
+  </si>
+  <si>
+    <t>Number of Strings That Appear as Substring</t>
+  </si>
+  <si>
+    <t>Array With Elements Not Equal to Average of Neighbors</t>
+  </si>
+  <si>
+    <t>Minimum Non-Zero Product of the Array Elements</t>
+  </si>
+  <si>
+    <t>Last Day Where You Can Still Cross</t>
+  </si>
+  <si>
+    <t>Find if Path Exists in Graph</t>
+  </si>
+  <si>
+    <t>Minimum Time to Type Word Using Special Typewriter</t>
+  </si>
+  <si>
+    <t>Maximum Matrix Sum</t>
+  </si>
+  <si>
+    <t>Number of Ways to Arrive at Destination</t>
+  </si>
+  <si>
+    <t>Number of Ways to Separate Numbers</t>
+  </si>
+  <si>
+    <t>Find Greatest Common Divisor of Array</t>
+  </si>
+  <si>
+    <t>Find Unique Binary String</t>
+  </si>
+  <si>
+    <t>Minimize the Difference Between Target and Chosen Elements</t>
+  </si>
+  <si>
+    <t>Find Array Given Subset Sums</t>
+  </si>
+  <si>
+    <t>Minimum Difference Between Highest and Lowest of K Scores</t>
+  </si>
+  <si>
+    <t>Find the Kth Largest Integer in the Array</t>
+  </si>
+  <si>
+    <t>Minimum Number of Work Sessions to Finish the Tasks</t>
+  </si>
+  <si>
+    <t>Number of Unique Good Subsequences</t>
+  </si>
+  <si>
+    <t>Find the Middle Index in Array</t>
+  </si>
+  <si>
+    <t>Find All Groups of Farmland</t>
+  </si>
+  <si>
+    <t>Operations on Tree</t>
+  </si>
+  <si>
+    <t>The Number of Good Subsets</t>
+  </si>
+  <si>
+    <t>Count Special Quadruplets</t>
+  </si>
+  <si>
+    <t>The Number of Weak Characters in the Game</t>
+  </si>
+  <si>
+    <t>GCD Sort of an Array</t>
+  </si>
+  <si>
+    <t>First Day Where You Have Been in All the Rooms</t>
+  </si>
+  <si>
+    <t>Reverse Prefix of Word</t>
+  </si>
+  <si>
+    <t>Number of Pairs of Interchangeable Rectangles</t>
+  </si>
+  <si>
+    <t>Maximum Product of the Length of Two Palindromic Subsequences</t>
+  </si>
+  <si>
+    <t>Smallest Missing Genetic Value in Each Subtree</t>
+  </si>
+  <si>
+    <t>Count Number of Pairs With Absolute Difference K</t>
+  </si>
+  <si>
+    <t>Find Original Array From Doubled Array</t>
+  </si>
+  <si>
+    <t>Maximum Earnings From Taxi</t>
+  </si>
+  <si>
+    <t>Minimum Number of Operations to Make Array Continuous</t>
+  </si>
+  <si>
+    <t>Final Value of Variable After Performing Operations</t>
+  </si>
+  <si>
+    <t>Sum of Beauty in the Array</t>
+  </si>
+  <si>
+    <t>Detect Squares</t>
+  </si>
+  <si>
+    <t>Longest Subsequence Repeated k Times</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For subtree without node 1, the missing is 1, for others we track smallest seen node </t>
+  </si>
+  <si>
+    <t>Build up possible repeated target</t>
+  </si>
+  <si>
+    <t>26 ^ k (k&lt;7)</t>
+  </si>
+  <si>
+    <t>Maximum Difference Between Increasing Elements</t>
+  </si>
+  <si>
+    <t>Grid Game</t>
+  </si>
+  <si>
+    <t>Check if Word Can Be Placed In Crossword</t>
+  </si>
+  <si>
+    <t>The Score of Students Solving Math Expression</t>
+  </si>
+  <si>
+    <t>Convert 1D Array Into 2D Array</t>
+  </si>
+  <si>
+    <t>Number of Pairs of Strings With Concatenation Equal to Target</t>
+  </si>
+  <si>
+    <t>Maximize the Confusion of an Exam</t>
+  </si>
+  <si>
+    <t>Maximum Number of Ways to Partition an Array</t>
+  </si>
+  <si>
+    <t>Minimum Moves to Convert String</t>
+  </si>
+  <si>
+    <t>Find Missing Observations</t>
+  </si>
+  <si>
+    <t>Stone Game IX</t>
+  </si>
+  <si>
+    <t>Smallest K-Length Subsequence With Occurrences of a Letter</t>
   </si>
 </sst>
 </file>
@@ -10473,7 +10701,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -10571,6 +10799,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -10957,10 +11190,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J1727"/>
+  <dimension ref="A1:J1799"/>
   <sheetViews>
-    <sheetView topLeftCell="A1700" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A1725" sqref="A1725"/>
+    <sheetView tabSelected="1" topLeftCell="A1775" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1795" sqref="B1795"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -51826,599 +52059,1303 @@
         <v>2999</v>
       </c>
     </row>
-    <row r="1705" spans="1:9" s="90" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1705" s="90">
+    <row r="1705" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1705" s="93">
+        <v>1910</v>
+      </c>
+      <c r="B1705" s="1" t="s">
+        <v>3464</v>
+      </c>
+      <c r="C1705" s="93">
+        <v>2</v>
+      </c>
+      <c r="D1705" s="93" t="s">
+        <v>1720</v>
+      </c>
+      <c r="E1705" s="93" t="s">
+        <v>2934</v>
+      </c>
+      <c r="F1705" s="93" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1705" s="93" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1705" s="93" t="s">
+        <v>3465</v>
+      </c>
+      <c r="I1705" s="93" t="s">
+        <v>2999</v>
+      </c>
+    </row>
+    <row r="1706" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1706" s="93">
+        <v>1911</v>
+      </c>
+      <c r="B1706" s="1" t="s">
+        <v>3466</v>
+      </c>
+      <c r="C1706" s="93">
+        <v>3</v>
+      </c>
+      <c r="D1706" s="93" t="s">
+        <v>1720</v>
+      </c>
+      <c r="E1706" s="93" t="s">
+        <v>2934</v>
+      </c>
+      <c r="F1706" s="93" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1706" s="93" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1706" s="93" t="s">
+        <v>3467</v>
+      </c>
+      <c r="I1706" s="93" t="s">
+        <v>2999</v>
+      </c>
+    </row>
+    <row r="1707" spans="1:9" s="90" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1707" s="93">
         <v>1912</v>
       </c>
-      <c r="B1705" s="1" t="s">
+      <c r="B1707" s="1" t="s">
         <v>3410</v>
       </c>
-      <c r="C1705" s="90">
+      <c r="C1707" s="90">
         <v>4</v>
       </c>
-      <c r="D1705" s="90" t="s">
-        <v>1720</v>
-      </c>
-      <c r="E1705" s="90" t="s">
+      <c r="D1707" s="90" t="s">
+        <v>1720</v>
+      </c>
+      <c r="E1707" s="90" t="s">
         <v>2923</v>
       </c>
-      <c r="F1705" s="90" t="s">
+      <c r="F1707" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="G1705" s="90" t="s">
+      <c r="G1707" s="90" t="s">
         <v>457</v>
       </c>
-      <c r="H1705" s="90" t="s">
+      <c r="H1707" s="90" t="s">
         <v>3411</v>
       </c>
-      <c r="I1705" s="90" t="s">
+      <c r="I1707" s="90" t="s">
         <v>3028</v>
-      </c>
-    </row>
-    <row r="1706" spans="1:9" s="81" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1706" s="81">
-        <v>1913</v>
-      </c>
-      <c r="B1706" s="1" t="s">
-        <v>3342</v>
-      </c>
-      <c r="C1706" s="81">
-        <v>2</v>
-      </c>
-      <c r="D1706" s="81" t="s">
-        <v>1767</v>
-      </c>
-      <c r="F1706" s="81" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1706" s="81" t="s">
-        <v>41</v>
-      </c>
-      <c r="H1706" s="81" t="s">
-        <v>3343</v>
-      </c>
-      <c r="I1706" s="81" t="s">
-        <v>2999</v>
-      </c>
-    </row>
-    <row r="1707" spans="1:9" s="81" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1707" s="81">
-        <v>1914</v>
-      </c>
-      <c r="B1707" s="1" t="s">
-        <v>3345</v>
-      </c>
-      <c r="C1707" s="81">
-        <v>3</v>
-      </c>
-      <c r="D1707" s="81" t="s">
-        <v>1720</v>
-      </c>
-      <c r="E1707" s="81" t="s">
-        <v>2934</v>
-      </c>
-      <c r="F1707" s="81" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1707" s="81" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1707" s="81" t="s">
-        <v>3347</v>
-      </c>
-      <c r="I1707" s="81" t="s">
-        <v>2999</v>
       </c>
     </row>
     <row r="1708" spans="1:9" s="81" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1708" s="81">
-        <v>1916</v>
+        <v>1913</v>
       </c>
       <c r="B1708" s="1" t="s">
-        <v>3346</v>
+        <v>3342</v>
       </c>
       <c r="C1708" s="81">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1708" s="81" t="s">
-        <v>1718</v>
+        <v>1767</v>
       </c>
       <c r="F1708" s="81" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G1708" s="81" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="H1708" s="81" t="s">
-        <v>3348</v>
+        <v>3343</v>
       </c>
       <c r="I1708" s="81" t="s">
         <v>2999</v>
       </c>
     </row>
-    <row r="1709" spans="1:9" s="88" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1709" s="88">
+    <row r="1709" spans="1:9" s="81" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1709" s="81">
+        <v>1914</v>
+      </c>
+      <c r="B1709" s="1" t="s">
+        <v>3345</v>
+      </c>
+      <c r="C1709" s="81">
+        <v>3</v>
+      </c>
+      <c r="D1709" s="81" t="s">
+        <v>1720</v>
+      </c>
+      <c r="E1709" s="81" t="s">
+        <v>2934</v>
+      </c>
+      <c r="F1709" s="81" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1709" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1709" s="81" t="s">
+        <v>3347</v>
+      </c>
+      <c r="I1709" s="81" t="s">
+        <v>2999</v>
+      </c>
+    </row>
+    <row r="1710" spans="1:9" s="81" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1710" s="81">
+        <v>1916</v>
+      </c>
+      <c r="B1710" s="1" t="s">
+        <v>3346</v>
+      </c>
+      <c r="C1710" s="81">
+        <v>4</v>
+      </c>
+      <c r="D1710" s="81" t="s">
+        <v>1718</v>
+      </c>
+      <c r="F1710" s="81" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1710" s="81" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1710" s="81" t="s">
+        <v>3348</v>
+      </c>
+      <c r="I1710" s="81" t="s">
+        <v>2999</v>
+      </c>
+    </row>
+    <row r="1711" spans="1:9" s="88" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1711" s="88">
         <v>1920</v>
       </c>
-      <c r="B1709" s="1" t="s">
+      <c r="B1711" s="1" t="s">
         <v>3375</v>
       </c>
-      <c r="C1709" s="88">
+      <c r="C1711" s="88">
         <v>1</v>
       </c>
-      <c r="D1709" s="88" t="s">
+      <c r="D1711" s="88" t="s">
         <v>1767</v>
       </c>
-      <c r="F1709" s="88" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1709" s="88" t="s">
+      <c r="F1711" s="88" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1711" s="88" t="s">
         <v>21</v>
       </c>
-      <c r="H1709" s="88" t="s">
+      <c r="H1711" s="88" t="s">
         <v>3376</v>
       </c>
-      <c r="I1709" s="88" t="s">
+      <c r="I1711" s="88" t="s">
         <v>2999</v>
       </c>
     </row>
-    <row r="1710" spans="1:9" s="88" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1710" s="88">
+    <row r="1712" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1712" s="93">
+        <v>1921</v>
+      </c>
+      <c r="B1712" s="1" t="s">
+        <v>3468</v>
+      </c>
+      <c r="F1712" s="93" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1713" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1713" s="93">
+        <v>1922</v>
+      </c>
+      <c r="B1713" s="1" t="s">
+        <v>3469</v>
+      </c>
+      <c r="F1713" s="93" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1714" spans="1:9" s="88" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1714" s="88">
         <v>1923</v>
       </c>
-      <c r="B1710" s="1" t="s">
+      <c r="B1714" s="1" t="s">
         <v>3377</v>
       </c>
-      <c r="C1710" s="88">
+      <c r="C1714" s="88">
         <v>6</v>
       </c>
-      <c r="D1710" s="88" t="s">
-        <v>1720</v>
-      </c>
-      <c r="F1710" s="88" t="s">
+      <c r="D1714" s="88" t="s">
+        <v>1720</v>
+      </c>
+      <c r="F1714" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="G1710" s="88" t="s">
+      <c r="G1714" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="H1710" s="88" t="s">
+      <c r="H1714" s="88" t="s">
         <v>3378</v>
       </c>
-      <c r="I1710" s="88" t="s">
+      <c r="I1714" s="88" t="s">
         <v>3381</v>
       </c>
     </row>
-    <row r="1711" spans="1:9" s="91" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1711" s="91">
+    <row r="1715" spans="1:9" s="91" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1715" s="91">
         <v>1925</v>
       </c>
-      <c r="B1711" s="1" t="s">
+      <c r="B1715" s="1" t="s">
         <v>3420</v>
       </c>
-      <c r="C1711" s="91">
+      <c r="C1715" s="91">
         <v>1</v>
       </c>
-      <c r="D1711" s="91" t="s">
-        <v>1720</v>
-      </c>
-      <c r="F1711" s="91" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1711" s="91" t="s">
+      <c r="D1715" s="91" t="s">
+        <v>1720</v>
+      </c>
+      <c r="F1715" s="91" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1715" s="91" t="s">
         <v>25</v>
       </c>
-      <c r="H1711" s="91" t="s">
+      <c r="H1715" s="91" t="s">
         <v>3421</v>
       </c>
-      <c r="I1711" s="91" t="s">
+      <c r="I1715" s="91" t="s">
         <v>3184</v>
       </c>
     </row>
-    <row r="1712" spans="1:9" s="90" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1712" s="90">
+    <row r="1716" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1716" s="93">
+        <v>1926</v>
+      </c>
+      <c r="B1716" s="1" t="s">
+        <v>3470</v>
+      </c>
+    </row>
+    <row r="1717" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1717" s="93">
+        <v>1927</v>
+      </c>
+      <c r="B1717" s="1" t="s">
+        <v>3471</v>
+      </c>
+    </row>
+    <row r="1718" spans="1:9" s="90" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1718" s="90">
         <v>1928</v>
       </c>
-      <c r="B1712" s="1" t="s">
+      <c r="B1718" s="1" t="s">
         <v>3407</v>
       </c>
-      <c r="C1712" s="90">
+      <c r="C1718" s="90">
         <v>4</v>
       </c>
-      <c r="D1712" s="90" t="s">
-        <v>1720</v>
-      </c>
-      <c r="E1712" s="90" t="s">
+      <c r="D1718" s="90" t="s">
+        <v>1720</v>
+      </c>
+      <c r="E1718" s="90" t="s">
         <v>2923</v>
       </c>
-      <c r="F1712" s="90" t="s">
+      <c r="F1718" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="G1712" s="90" t="s">
+      <c r="G1718" s="90" t="s">
         <v>187</v>
       </c>
-      <c r="H1712" s="90" t="s">
+      <c r="H1718" s="90" t="s">
         <v>3408</v>
       </c>
-      <c r="I1712" s="90" t="s">
+      <c r="I1718" s="90" t="s">
         <v>3028</v>
       </c>
     </row>
-    <row r="1713" spans="1:9" s="91" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1713" s="91">
+    <row r="1719" spans="1:9" s="91" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1719" s="91">
         <v>1929</v>
       </c>
-      <c r="B1713" s="1" t="s">
+      <c r="B1719" s="1" t="s">
         <v>3412</v>
       </c>
-      <c r="C1713" s="91">
+      <c r="C1719" s="91">
         <v>1</v>
       </c>
-      <c r="D1713" s="91" t="s">
+      <c r="D1719" s="91" t="s">
         <v>1717</v>
       </c>
-      <c r="F1713" s="91" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1713" s="91" t="s">
+      <c r="F1719" s="91" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1719" s="91" t="s">
         <v>21</v>
       </c>
-      <c r="H1713" s="91" t="s">
+      <c r="H1719" s="91" t="s">
         <v>3413</v>
       </c>
-      <c r="I1713" s="91" t="s">
+      <c r="I1719" s="91" t="s">
         <v>2999</v>
       </c>
     </row>
-    <row r="1714" spans="1:9" s="90" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1714" s="90">
-        <v>1931</v>
-      </c>
-      <c r="B1714" s="1" t="s">
-        <v>3405</v>
-      </c>
-      <c r="C1714" s="90">
-        <v>4</v>
-      </c>
-      <c r="D1714" s="90" t="s">
-        <v>1720</v>
-      </c>
-      <c r="F1714" s="90" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1714" s="90" t="s">
-        <v>51</v>
-      </c>
-      <c r="H1714" s="90" t="s">
-        <v>3406</v>
-      </c>
-      <c r="I1714" s="90" t="s">
-        <v>3409</v>
-      </c>
-    </row>
-    <row r="1715" spans="1:9" s="88" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1715" s="88">
-        <v>1932</v>
-      </c>
-      <c r="B1715" s="1" t="s">
-        <v>3379</v>
-      </c>
-      <c r="C1715" s="88">
-        <v>4</v>
-      </c>
-      <c r="D1715" s="88" t="s">
-        <v>1720</v>
-      </c>
-      <c r="F1715" s="88" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1715" s="88" t="s">
-        <v>140</v>
-      </c>
-      <c r="H1715" s="88" t="s">
-        <v>3380</v>
-      </c>
-      <c r="I1715" s="88" t="s">
-        <v>2999</v>
-      </c>
-    </row>
-    <row r="1716" spans="1:9" s="89" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1716" s="89">
-        <v>1935</v>
-      </c>
-      <c r="B1716" s="1" t="s">
-        <v>3391</v>
-      </c>
-      <c r="C1716" s="89">
-        <v>2</v>
-      </c>
-      <c r="D1716" s="89" t="s">
-        <v>1720</v>
-      </c>
-      <c r="F1716" s="89" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1716" s="89" t="s">
-        <v>36</v>
-      </c>
-      <c r="H1716" s="89" t="s">
-        <v>3392</v>
-      </c>
-      <c r="I1716" s="89" t="s">
-        <v>2999</v>
-      </c>
-    </row>
-    <row r="1717" spans="1:9" s="88" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1717" s="88">
-        <v>1938</v>
-      </c>
-      <c r="B1717" s="1" t="s">
-        <v>3382</v>
-      </c>
-      <c r="C1717" s="88">
-        <v>6</v>
-      </c>
-      <c r="D1717" s="88" t="s">
-        <v>1720</v>
-      </c>
-      <c r="F1717" s="88" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1717" s="88" t="s">
-        <v>134</v>
-      </c>
-      <c r="H1717" s="88" t="s">
-        <v>3383</v>
-      </c>
-      <c r="I1717" s="88" t="s">
-        <v>3178</v>
-      </c>
-    </row>
-    <row r="1718" spans="1:9" s="89" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1718" s="89">
-        <v>1941</v>
-      </c>
-      <c r="B1718" s="1" t="s">
-        <v>3389</v>
-      </c>
-      <c r="C1718" s="89">
-        <v>1</v>
-      </c>
-      <c r="D1718" s="89" t="s">
-        <v>1717</v>
-      </c>
-      <c r="F1718" s="89" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1718" s="89" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1718" s="89" t="s">
-        <v>3390</v>
-      </c>
-      <c r="I1718" s="89" t="s">
-        <v>2999</v>
-      </c>
-    </row>
-    <row r="1719" spans="1:9" s="90" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1719" s="90">
-        <v>1944</v>
-      </c>
-      <c r="B1719" s="1" t="s">
-        <v>3403</v>
-      </c>
-      <c r="C1719" s="90">
-        <v>4</v>
-      </c>
-      <c r="D1719" s="90" t="s">
-        <v>1720</v>
-      </c>
-      <c r="E1719" s="90" t="s">
-        <v>2923</v>
-      </c>
-      <c r="F1719" s="90" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1719" s="90" t="s">
-        <v>36</v>
-      </c>
-      <c r="H1719" s="90" t="s">
-        <v>3404</v>
-      </c>
-      <c r="I1719" s="90" t="s">
-        <v>2999</v>
-      </c>
-    </row>
-    <row r="1720" spans="1:9" s="89" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1720" s="89">
-        <v>1945</v>
+    <row r="1720" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1720" s="93">
+        <v>1930</v>
       </c>
       <c r="B1720" s="1" t="s">
-        <v>3387</v>
-      </c>
-      <c r="C1720" s="89">
-        <v>1</v>
-      </c>
-      <c r="D1720" s="89" t="s">
-        <v>1717</v>
-      </c>
-      <c r="F1720" s="89" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1720" s="89" t="s">
-        <v>36</v>
-      </c>
-      <c r="H1720" s="89" t="s">
-        <v>3388</v>
-      </c>
-      <c r="I1720" s="89" t="s">
-        <v>2999</v>
+        <v>3472</v>
       </c>
     </row>
     <row r="1721" spans="1:9" s="90" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1721" s="90">
-        <v>1948</v>
+        <v>1931</v>
       </c>
       <c r="B1721" s="1" t="s">
-        <v>3400</v>
+        <v>3405</v>
       </c>
       <c r="C1721" s="90">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D1721" s="90" t="s">
-        <v>2809</v>
+        <v>1720</v>
       </c>
       <c r="F1721" s="90" t="s">
         <v>12</v>
       </c>
       <c r="G1721" s="90" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1721" s="90" t="s">
+        <v>3406</v>
+      </c>
+      <c r="I1721" s="90" t="s">
+        <v>3409</v>
+      </c>
+    </row>
+    <row r="1722" spans="1:9" s="88" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1722" s="88">
+        <v>1932</v>
+      </c>
+      <c r="B1722" s="1" t="s">
+        <v>3379</v>
+      </c>
+      <c r="C1722" s="88">
+        <v>4</v>
+      </c>
+      <c r="D1722" s="88" t="s">
+        <v>1720</v>
+      </c>
+      <c r="F1722" s="88" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1722" s="88" t="s">
+        <v>140</v>
+      </c>
+      <c r="H1722" s="88" t="s">
+        <v>3380</v>
+      </c>
+      <c r="I1722" s="88" t="s">
+        <v>2999</v>
+      </c>
+    </row>
+    <row r="1723" spans="1:9" s="89" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1723" s="89">
+        <v>1935</v>
+      </c>
+      <c r="B1723" s="1" t="s">
+        <v>3391</v>
+      </c>
+      <c r="C1723" s="89">
+        <v>2</v>
+      </c>
+      <c r="D1723" s="89" t="s">
+        <v>1720</v>
+      </c>
+      <c r="F1723" s="89" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1723" s="89" t="s">
         <v>36</v>
       </c>
-      <c r="H1721" s="90" t="s">
+      <c r="H1723" s="89" t="s">
+        <v>3392</v>
+      </c>
+      <c r="I1723" s="89" t="s">
+        <v>2999</v>
+      </c>
+    </row>
+    <row r="1724" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1724" s="93">
+        <v>1936</v>
+      </c>
+      <c r="B1724" s="1" t="s">
+        <v>3473</v>
+      </c>
+    </row>
+    <row r="1725" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1725" s="93">
+        <v>1937</v>
+      </c>
+      <c r="B1725" s="1" t="s">
+        <v>3474</v>
+      </c>
+    </row>
+    <row r="1726" spans="1:9" s="88" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1726" s="88">
+        <v>1938</v>
+      </c>
+      <c r="B1726" s="1" t="s">
+        <v>3382</v>
+      </c>
+      <c r="C1726" s="88">
+        <v>6</v>
+      </c>
+      <c r="D1726" s="88" t="s">
+        <v>1720</v>
+      </c>
+      <c r="F1726" s="88" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1726" s="88" t="s">
+        <v>134</v>
+      </c>
+      <c r="H1726" s="88" t="s">
+        <v>3383</v>
+      </c>
+      <c r="I1726" s="88" t="s">
+        <v>3178</v>
+      </c>
+    </row>
+    <row r="1727" spans="1:9" s="89" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1727" s="89">
+        <v>1941</v>
+      </c>
+      <c r="B1727" s="1" t="s">
+        <v>3389</v>
+      </c>
+      <c r="C1727" s="89">
+        <v>1</v>
+      </c>
+      <c r="D1727" s="89" t="s">
+        <v>1717</v>
+      </c>
+      <c r="F1727" s="89" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1727" s="89" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1727" s="89" t="s">
+        <v>3390</v>
+      </c>
+      <c r="I1727" s="89" t="s">
+        <v>2999</v>
+      </c>
+    </row>
+    <row r="1728" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1728" s="93">
+        <v>1942</v>
+      </c>
+      <c r="B1728" s="1" t="s">
+        <v>3475</v>
+      </c>
+    </row>
+    <row r="1729" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1729" s="93">
+        <v>1943</v>
+      </c>
+      <c r="B1729" s="1" t="s">
+        <v>3476</v>
+      </c>
+    </row>
+    <row r="1730" spans="1:9" s="90" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1730" s="90">
+        <v>1944</v>
+      </c>
+      <c r="B1730" s="1" t="s">
+        <v>3403</v>
+      </c>
+      <c r="C1730" s="90">
+        <v>4</v>
+      </c>
+      <c r="D1730" s="90" t="s">
+        <v>1720</v>
+      </c>
+      <c r="E1730" s="90" t="s">
+        <v>2923</v>
+      </c>
+      <c r="F1730" s="90" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1730" s="90" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1730" s="90" t="s">
+        <v>3404</v>
+      </c>
+      <c r="I1730" s="90" t="s">
+        <v>2999</v>
+      </c>
+    </row>
+    <row r="1731" spans="1:9" s="89" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1731" s="89">
+        <v>1945</v>
+      </c>
+      <c r="B1731" s="1" t="s">
+        <v>3387</v>
+      </c>
+      <c r="C1731" s="89">
+        <v>1</v>
+      </c>
+      <c r="D1731" s="89" t="s">
+        <v>1717</v>
+      </c>
+      <c r="F1731" s="89" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1731" s="89" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1731" s="89" t="s">
+        <v>3388</v>
+      </c>
+      <c r="I1731" s="89" t="s">
+        <v>2999</v>
+      </c>
+    </row>
+    <row r="1732" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1732" s="93">
+        <v>1946</v>
+      </c>
+      <c r="B1732" s="1" t="s">
+        <v>3477</v>
+      </c>
+    </row>
+    <row r="1733" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1733" s="93">
+        <v>1947</v>
+      </c>
+      <c r="B1733" s="1" t="s">
+        <v>3478</v>
+      </c>
+    </row>
+    <row r="1734" spans="1:9" s="90" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1734" s="90">
+        <v>1948</v>
+      </c>
+      <c r="B1734" s="1" t="s">
+        <v>3400</v>
+      </c>
+      <c r="C1734" s="90">
+        <v>5</v>
+      </c>
+      <c r="D1734" s="90" t="s">
+        <v>2809</v>
+      </c>
+      <c r="F1734" s="90" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1734" s="90" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1734" s="90" t="s">
         <v>3402</v>
       </c>
-      <c r="I1721" s="90" t="s">
+      <c r="I1734" s="90" t="s">
         <v>2999</v>
       </c>
     </row>
-    <row r="1722" spans="1:9" s="91" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1722" s="91">
+    <row r="1735" spans="1:9" s="91" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1735" s="91">
         <v>1952</v>
       </c>
-      <c r="B1722" s="1" t="s">
+      <c r="B1735" s="1" t="s">
         <v>3422</v>
       </c>
-      <c r="C1722" s="91">
+      <c r="C1735" s="91">
         <v>2</v>
       </c>
-      <c r="D1722" s="91" t="s">
-        <v>1720</v>
-      </c>
-      <c r="F1722" s="91" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1722" s="91" t="s">
+      <c r="D1735" s="91" t="s">
+        <v>1720</v>
+      </c>
+      <c r="F1735" s="91" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1735" s="91" t="s">
         <v>25</v>
       </c>
-      <c r="H1722" s="91" t="s">
+      <c r="H1735" s="91" t="s">
         <v>3423</v>
       </c>
-      <c r="I1722" s="91" t="s">
+      <c r="I1735" s="91" t="s">
         <v>3333</v>
       </c>
     </row>
-    <row r="1723" spans="1:9" s="90" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1723" s="90">
+    <row r="1736" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1736" s="93">
+        <v>1953</v>
+      </c>
+      <c r="B1736" s="1" t="s">
+        <v>3479</v>
+      </c>
+    </row>
+    <row r="1737" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1737" s="93">
+        <v>1954</v>
+      </c>
+      <c r="B1737" s="1" t="s">
+        <v>3480</v>
+      </c>
+    </row>
+    <row r="1738" spans="1:9" s="90" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1738" s="90">
         <v>1955</v>
       </c>
-      <c r="B1723" s="1" t="s">
+      <c r="B1738" s="1" t="s">
         <v>3399</v>
       </c>
-      <c r="C1723" s="90">
+      <c r="C1738" s="90">
         <v>4</v>
       </c>
-      <c r="D1723" s="90" t="s">
-        <v>1720</v>
-      </c>
-      <c r="E1723" s="90" t="s">
+      <c r="D1738" s="90" t="s">
+        <v>1720</v>
+      </c>
+      <c r="E1738" s="90" t="s">
         <v>2934</v>
       </c>
-      <c r="F1723" s="90" t="s">
+      <c r="F1738" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="G1723" s="90" t="s">
+      <c r="G1738" s="90" t="s">
         <v>28</v>
       </c>
-      <c r="H1723" s="90" t="s">
+      <c r="H1738" s="90" t="s">
         <v>3401</v>
       </c>
-      <c r="I1723" s="90" t="s">
+      <c r="I1738" s="90" t="s">
         <v>2999</v>
       </c>
     </row>
-    <row r="1724" spans="1:9" s="91" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1724" s="91">
+    <row r="1739" spans="1:9" s="91" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1739" s="91">
         <v>1957</v>
       </c>
-      <c r="B1724" s="1" t="s">
+      <c r="B1739" s="1" t="s">
         <v>3424</v>
       </c>
-      <c r="C1724" s="91">
+      <c r="C1739" s="91">
         <v>2</v>
       </c>
-      <c r="D1724" s="91" t="s">
-        <v>1720</v>
-      </c>
-      <c r="E1724" s="91" t="s">
+      <c r="D1739" s="91" t="s">
+        <v>1720</v>
+      </c>
+      <c r="E1739" s="91" t="s">
         <v>2934</v>
       </c>
-      <c r="F1724" s="91" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1724" s="91" t="s">
+      <c r="F1739" s="91" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1739" s="91" t="s">
         <v>36</v>
       </c>
-      <c r="H1724" s="91" t="s">
+      <c r="H1739" s="91" t="s">
         <v>3425</v>
       </c>
-      <c r="I1724" s="91" t="s">
+      <c r="I1739" s="91" t="s">
         <v>2999</v>
       </c>
     </row>
-    <row r="1725" spans="1:9" s="90" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1725" s="90">
+    <row r="1740" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1740" s="93">
+        <v>1958</v>
+      </c>
+      <c r="B1740" s="1" t="s">
+        <v>3481</v>
+      </c>
+    </row>
+    <row r="1741" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1741" s="93">
+        <v>1959</v>
+      </c>
+      <c r="B1741" s="1" t="s">
+        <v>3482</v>
+      </c>
+    </row>
+    <row r="1742" spans="1:9" s="90" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1742" s="90">
         <v>1960</v>
       </c>
-      <c r="B1725" s="1" t="s">
+      <c r="B1742" s="1" t="s">
         <v>3397</v>
       </c>
-      <c r="C1725" s="90">
+      <c r="C1742" s="90">
         <v>6</v>
       </c>
-      <c r="D1725" s="90" t="s">
+      <c r="D1742" s="90" t="s">
         <v>2809</v>
       </c>
-      <c r="F1725" s="90" t="s">
+      <c r="F1742" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="G1725" s="90" t="s">
+      <c r="G1742" s="90" t="s">
         <v>36</v>
       </c>
-      <c r="H1725" s="90" t="s">
+      <c r="H1742" s="90" t="s">
         <v>3398</v>
       </c>
-      <c r="I1725" s="90" t="s">
+      <c r="I1742" s="90" t="s">
         <v>2999</v>
       </c>
     </row>
-    <row r="1726" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A1726" s="93" t="s">
+    <row r="1743" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1743" s="93">
+        <v>1961</v>
+      </c>
+      <c r="B1743" s="1" t="s">
+        <v>3483</v>
+      </c>
+      <c r="C1743" s="93">
+        <v>1</v>
+      </c>
+      <c r="D1743" s="93" t="s">
+        <v>1717</v>
+      </c>
+      <c r="F1743" s="93" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1743" s="93" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1743" s="93" t="s">
+        <v>3487</v>
+      </c>
+      <c r="I1743" s="93" t="s">
+        <v>2999</v>
+      </c>
+    </row>
+    <row r="1744" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1744" s="93">
+        <v>1962</v>
+      </c>
+      <c r="B1744" s="1" t="s">
+        <v>3484</v>
+      </c>
+    </row>
+    <row r="1745" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1745" s="93">
+        <v>1963</v>
+      </c>
+      <c r="B1745" s="1" t="s">
+        <v>3485</v>
+      </c>
+    </row>
+    <row r="1746" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1746" s="93">
+        <v>1964</v>
+      </c>
+      <c r="B1746" s="1" t="s">
+        <v>3486</v>
+      </c>
+      <c r="C1746" s="93">
+        <v>4</v>
+      </c>
+      <c r="D1746" s="93" t="s">
+        <v>1720</v>
+      </c>
+      <c r="E1746" s="93" t="s">
+        <v>2934</v>
+      </c>
+      <c r="F1746" s="93" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1746" s="93" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1746" s="93" t="s">
+        <v>428</v>
+      </c>
+      <c r="I1746" s="93" t="s">
+        <v>3017</v>
+      </c>
+    </row>
+    <row r="1747" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1747" s="93">
+        <v>1967</v>
+      </c>
+      <c r="B1747" s="1" t="s">
+        <v>3488</v>
+      </c>
+    </row>
+    <row r="1748" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1748" s="93">
+        <v>1968</v>
+      </c>
+      <c r="B1748" s="1" t="s">
+        <v>3489</v>
+      </c>
+    </row>
+    <row r="1749" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1749" s="93">
+        <v>1969</v>
+      </c>
+      <c r="B1749" s="1" t="s">
+        <v>3490</v>
+      </c>
+    </row>
+    <row r="1750" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1750" s="93">
+        <v>1970</v>
+      </c>
+      <c r="B1750" s="1" t="s">
+        <v>3491</v>
+      </c>
+    </row>
+    <row r="1751" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1751" s="93">
+        <v>1971</v>
+      </c>
+      <c r="B1751" s="1" t="s">
+        <v>3492</v>
+      </c>
+    </row>
+    <row r="1752" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1752" s="93">
+        <v>1974</v>
+      </c>
+      <c r="B1752" s="1" t="s">
+        <v>3493</v>
+      </c>
+      <c r="C1752" s="93">
+        <v>2</v>
+      </c>
+      <c r="D1752" s="93" t="s">
+        <v>1717</v>
+      </c>
+      <c r="E1752" s="93" t="s">
+        <v>2934</v>
+      </c>
+      <c r="F1752" s="93" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1752" s="93" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1753" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1753" s="93">
+        <v>1975</v>
+      </c>
+      <c r="B1753" s="1" t="s">
+        <v>3494</v>
+      </c>
+    </row>
+    <row r="1754" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1754" s="93">
+        <v>1976</v>
+      </c>
+      <c r="B1754" s="1" t="s">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="1755" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1755" s="93">
+        <v>1977</v>
+      </c>
+      <c r="B1755" s="1" t="s">
+        <v>3496</v>
+      </c>
+    </row>
+    <row r="1756" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1756" s="93">
+        <v>1979</v>
+      </c>
+      <c r="B1756" s="1" t="s">
+        <v>3497</v>
+      </c>
+    </row>
+    <row r="1757" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1757" s="93">
+        <v>1980</v>
+      </c>
+      <c r="B1757" s="1" t="s">
+        <v>3498</v>
+      </c>
+    </row>
+    <row r="1758" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1758" s="93">
+        <v>1981</v>
+      </c>
+      <c r="B1758" s="1" t="s">
+        <v>3499</v>
+      </c>
+    </row>
+    <row r="1759" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1759" s="93">
+        <v>1982</v>
+      </c>
+      <c r="B1759" s="1" t="s">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="1760" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1760" s="93">
+        <v>1984</v>
+      </c>
+      <c r="B1760" s="1" t="s">
+        <v>3501</v>
+      </c>
+    </row>
+    <row r="1761" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1761" s="93">
+        <v>1985</v>
+      </c>
+      <c r="B1761" s="1" t="s">
+        <v>3502</v>
+      </c>
+    </row>
+    <row r="1762" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1762" s="93">
+        <v>1986</v>
+      </c>
+      <c r="B1762" s="1" t="s">
+        <v>3503</v>
+      </c>
+    </row>
+    <row r="1763" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1763" s="93">
+        <v>1987</v>
+      </c>
+      <c r="B1763" s="1" t="s">
+        <v>3504</v>
+      </c>
+    </row>
+    <row r="1764" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1764" s="93">
+        <v>1991</v>
+      </c>
+      <c r="B1764" s="1" t="s">
+        <v>3505</v>
+      </c>
+    </row>
+    <row r="1765" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1765" s="93">
+        <v>1992</v>
+      </c>
+      <c r="B1765" s="1" t="s">
+        <v>3506</v>
+      </c>
+    </row>
+    <row r="1766" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1766" s="93">
+        <v>1993</v>
+      </c>
+      <c r="B1766" s="1" t="s">
+        <v>3507</v>
+      </c>
+    </row>
+    <row r="1767" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1767" s="93">
+        <v>1994</v>
+      </c>
+      <c r="B1767" s="1" t="s">
+        <v>3508</v>
+      </c>
+    </row>
+    <row r="1768" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1768" s="93">
+        <v>1995</v>
+      </c>
+      <c r="B1768" s="1" t="s">
+        <v>3509</v>
+      </c>
+    </row>
+    <row r="1769" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1769" s="93">
+        <v>1996</v>
+      </c>
+      <c r="B1769" s="1" t="s">
+        <v>3510</v>
+      </c>
+    </row>
+    <row r="1770" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1770" s="93">
+        <v>1997</v>
+      </c>
+      <c r="B1770" s="95" t="s">
+        <v>3512</v>
+      </c>
+    </row>
+    <row r="1771" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1771" s="93">
+        <v>1998</v>
+      </c>
+      <c r="B1771" s="1" t="s">
+        <v>3511</v>
+      </c>
+    </row>
+    <row r="1772" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1772" s="93">
+        <v>2000</v>
+      </c>
+      <c r="B1772" s="1" t="s">
+        <v>3513</v>
+      </c>
+    </row>
+    <row r="1773" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1773" s="93">
+        <v>2001</v>
+      </c>
+      <c r="B1773" s="1" t="s">
+        <v>3514</v>
+      </c>
+    </row>
+    <row r="1774" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1774" s="93">
+        <v>2002</v>
+      </c>
+      <c r="B1774" s="1" t="s">
+        <v>3515</v>
+      </c>
+    </row>
+    <row r="1775" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1775" s="93">
+        <v>2003</v>
+      </c>
+      <c r="B1775" s="1" t="s">
+        <v>3516</v>
+      </c>
+      <c r="C1775" s="93">
+        <v>4</v>
+      </c>
+      <c r="D1775" s="93" t="s">
+        <v>1713</v>
+      </c>
+      <c r="F1775" s="93" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1775" s="93" t="s">
+        <v>121</v>
+      </c>
+      <c r="H1775" s="93" t="s">
+        <v>3525</v>
+      </c>
+      <c r="I1775" s="93" t="s">
+        <v>2999</v>
+      </c>
+    </row>
+    <row r="1776" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1776" s="93">
+        <v>2006</v>
+      </c>
+      <c r="B1776" s="1" t="s">
+        <v>3517</v>
+      </c>
+    </row>
+    <row r="1777" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1777" s="93">
+        <v>2007</v>
+      </c>
+      <c r="B1777" s="1" t="s">
+        <v>3518</v>
+      </c>
+    </row>
+    <row r="1778" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1778" s="93">
+        <v>2008</v>
+      </c>
+      <c r="B1778" s="1" t="s">
+        <v>3519</v>
+      </c>
+    </row>
+    <row r="1779" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1779" s="93">
+        <v>2009</v>
+      </c>
+      <c r="B1779" s="1" t="s">
+        <v>3520</v>
+      </c>
+    </row>
+    <row r="1780" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1780" s="93">
+        <v>2011</v>
+      </c>
+      <c r="B1780" s="1" t="s">
+        <v>3521</v>
+      </c>
+    </row>
+    <row r="1781" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1781" s="93">
+        <v>2012</v>
+      </c>
+      <c r="B1781" s="1" t="s">
+        <v>3522</v>
+      </c>
+    </row>
+    <row r="1782" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1782" s="93">
+        <v>2013</v>
+      </c>
+      <c r="B1782" s="1" t="s">
+        <v>3523</v>
+      </c>
+    </row>
+    <row r="1783" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1783" s="93">
+        <v>2014</v>
+      </c>
+      <c r="B1783" s="1" t="s">
+        <v>3524</v>
+      </c>
+      <c r="C1783" s="93">
+        <v>4</v>
+      </c>
+      <c r="D1783" s="93" t="s">
+        <v>1713</v>
+      </c>
+      <c r="F1783" s="93" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1783" s="93" t="s">
+        <v>151</v>
+      </c>
+      <c r="H1783" s="93" t="s">
+        <v>3526</v>
+      </c>
+      <c r="I1783" s="93" t="s">
+        <v>3527</v>
+      </c>
+    </row>
+    <row r="1784" spans="1:9" s="94" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1784" s="94">
+        <v>2016</v>
+      </c>
+      <c r="B1784" s="1" t="s">
+        <v>3528</v>
+      </c>
+    </row>
+    <row r="1785" spans="1:9" s="94" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1785" s="94">
+        <v>2017</v>
+      </c>
+      <c r="B1785" s="1" t="s">
+        <v>3529</v>
+      </c>
+    </row>
+    <row r="1786" spans="1:9" s="94" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1786" s="94">
+        <v>2018</v>
+      </c>
+      <c r="B1786" s="1" t="s">
+        <v>3530</v>
+      </c>
+    </row>
+    <row r="1787" spans="1:9" s="94" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1787" s="94">
+        <v>2019</v>
+      </c>
+      <c r="B1787" s="95" t="s">
+        <v>3531</v>
+      </c>
+    </row>
+    <row r="1788" spans="1:9" s="94" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1788" s="94">
+        <v>2022</v>
+      </c>
+      <c r="B1788" s="1" t="s">
+        <v>3532</v>
+      </c>
+    </row>
+    <row r="1789" spans="1:9" s="94" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1789" s="94">
+        <v>2023</v>
+      </c>
+      <c r="B1789" s="95" t="s">
+        <v>3533</v>
+      </c>
+    </row>
+    <row r="1790" spans="1:9" s="94" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1790" s="94">
+        <v>2024</v>
+      </c>
+      <c r="B1790" s="1" t="s">
+        <v>3534</v>
+      </c>
+    </row>
+    <row r="1791" spans="1:9" s="94" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1791" s="94">
+        <v>2025</v>
+      </c>
+      <c r="B1791" s="95" t="s">
+        <v>3535</v>
+      </c>
+    </row>
+    <row r="1792" spans="1:9" s="94" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1792" s="94">
+        <v>2027</v>
+      </c>
+      <c r="B1792" s="1" t="s">
+        <v>3536</v>
+      </c>
+    </row>
+    <row r="1793" spans="1:8" s="94" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1793" s="94">
+        <v>2028</v>
+      </c>
+      <c r="B1793" s="1" t="s">
+        <v>3537</v>
+      </c>
+    </row>
+    <row r="1794" spans="1:8" s="94" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1794" s="94">
+        <v>2029</v>
+      </c>
+      <c r="B1794" s="1" t="s">
+        <v>3538</v>
+      </c>
+    </row>
+    <row r="1795" spans="1:8" s="94" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1795" s="94">
+        <v>2030</v>
+      </c>
+      <c r="B1795" s="95" t="s">
+        <v>3539</v>
+      </c>
+    </row>
+    <row r="1796" spans="1:8" s="94" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1796" s="1"/>
+    </row>
+    <row r="1797" spans="1:8" s="94" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1797" s="1"/>
+    </row>
+    <row r="1798" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A1798" s="96" t="s">
         <v>1721</v>
       </c>
-      <c r="B1726" s="93"/>
-      <c r="C1726" s="93"/>
-      <c r="D1726" s="93"/>
-      <c r="E1726" s="93"/>
-      <c r="F1726" s="93"/>
-      <c r="G1726" s="93"/>
-      <c r="H1726" s="93"/>
-    </row>
-    <row r="1727" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A1727" s="94" t="s">
+      <c r="B1798" s="96"/>
+      <c r="C1798" s="96"/>
+      <c r="D1798" s="96"/>
+      <c r="E1798" s="96"/>
+      <c r="F1798" s="96"/>
+      <c r="G1798" s="96"/>
+      <c r="H1798" s="96"/>
+    </row>
+    <row r="1799" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A1799" s="97" t="s">
         <v>2759</v>
       </c>
-      <c r="B1727" s="94"/>
-      <c r="C1727" s="94"/>
-      <c r="D1727" s="94"/>
-      <c r="E1727" s="94"/>
-      <c r="F1727" s="94"/>
-      <c r="G1727" s="94"/>
-      <c r="H1727" s="94"/>
+      <c r="B1799" s="97"/>
+      <c r="C1799" s="97"/>
+      <c r="D1799" s="97"/>
+      <c r="E1799" s="97"/>
+      <c r="F1799" s="97"/>
+      <c r="G1799" s="97"/>
+      <c r="H1799" s="97"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J1727" xr:uid="{CB07CE66-8F15-46FF-A90A-43FDB2DB428F}"/>
+  <autoFilter ref="A1:J1799" xr:uid="{CB07CE66-8F15-46FF-A90A-43FDB2DB428F}"/>
   <mergeCells count="2">
-    <mergeCell ref="A1726:H1726"/>
-    <mergeCell ref="A1727:H1727"/>
+    <mergeCell ref="A1798:H1798"/>
+    <mergeCell ref="A1799:H1799"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" display="https://leetcode.com/problems/zigzag-conversion" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -53887,9 +54824,9 @@
     <hyperlink ref="B1700" r:id="rId1464" display="https://leetcode.com/problems/largest-odd-number-in-string" xr:uid="{C1F070FE-5338-44D3-AC2F-454F2F234B37}"/>
     <hyperlink ref="B1703" r:id="rId1465" display="https://leetcode.com/problems/minimum-absolute-difference-queries" xr:uid="{BC2F4066-1A7C-40E6-807A-59A6290C5130}"/>
     <hyperlink ref="B1704" r:id="rId1466" xr:uid="{701B89CB-0972-4CC9-B496-BFC2EA4D6053}"/>
-    <hyperlink ref="B1706" r:id="rId1467" xr:uid="{8495B600-B833-4B44-9931-395989DBBB7D}"/>
-    <hyperlink ref="B1707" r:id="rId1468" display="https://leetcode.com/problems/cyclically-rotating-a-grid" xr:uid="{3AFFE1F3-E05C-4E5B-AB9D-548519408295}"/>
-    <hyperlink ref="B1708" r:id="rId1469" display=" Count Ways to Build Rooms in an Ant Colony" xr:uid="{E356F1D9-1378-42C3-B1EC-4016F02C08FE}"/>
+    <hyperlink ref="B1708" r:id="rId1467" xr:uid="{8495B600-B833-4B44-9931-395989DBBB7D}"/>
+    <hyperlink ref="B1709" r:id="rId1468" display="https://leetcode.com/problems/cyclically-rotating-a-grid" xr:uid="{3AFFE1F3-E05C-4E5B-AB9D-548519408295}"/>
+    <hyperlink ref="B1710" r:id="rId1469" display=" Count Ways to Build Rooms in an Ant Colony" xr:uid="{E356F1D9-1378-42C3-B1EC-4016F02C08FE}"/>
     <hyperlink ref="B1671" r:id="rId1470" xr:uid="{68B63B60-AA23-4767-8102-9AA46D58D32F}"/>
     <hyperlink ref="B1672" r:id="rId1471" display="https://leetcode.com/problems/finding-pairs-with-a-certain-sum" xr:uid="{37561B08-BC65-437E-B174-B127301F6D30}"/>
     <hyperlink ref="B1675" r:id="rId1472" display="https://leetcode.com/problems/minimum-speed-to-arrive-on-time" xr:uid="{544CF080-940E-4B3B-8C0D-B8C5A249310B}"/>
@@ -53902,32 +54839,102 @@
     <hyperlink ref="B1686" r:id="rId1479" display="https://leetcode.com/problems/egg-drop-with-2-eggs-and-n-floors" xr:uid="{8F3F40B0-8D67-46A7-B467-4EEA5B9A8063}"/>
     <hyperlink ref="B1688" r:id="rId1480" display="https://leetcode.com/problems/reduction-operations-to-make-the-array-elements-equal" xr:uid="{93CBEB02-546F-4B36-807B-CAA599C9C2E1}"/>
     <hyperlink ref="B1695" r:id="rId1481" display="https://leetcode.com/problems/redistribute-characters-to-make-all-strings-equal" xr:uid="{514AD256-6C6F-423E-93EA-68F73246AB3C}"/>
-    <hyperlink ref="B1709" r:id="rId1482" display="https://leetcode.com/problems/build-array-from-permutation" xr:uid="{A7BA82A2-3CCD-45FF-8CCB-DCE423A9403F}"/>
-    <hyperlink ref="B1710" r:id="rId1483" display="https://leetcode.com/problems/longest-common-subpath" xr:uid="{62FFD7C8-6B95-49CF-877E-D2923644D1FD}"/>
-    <hyperlink ref="B1715" r:id="rId1484" display="https://leetcode.com/problems/merge-bsts-to-create-single-bst" xr:uid="{3C90ED05-B4E6-4A5B-8B92-92274CD6E3CB}"/>
-    <hyperlink ref="B1717" r:id="rId1485" display="https://leetcode.com/problems/maximum-genetic-difference-query" xr:uid="{1A25DDAD-A0E9-4DEA-9978-DBF0F9D4D3DF}"/>
+    <hyperlink ref="B1711" r:id="rId1482" display="https://leetcode.com/problems/build-array-from-permutation" xr:uid="{A7BA82A2-3CCD-45FF-8CCB-DCE423A9403F}"/>
+    <hyperlink ref="B1714" r:id="rId1483" display="https://leetcode.com/problems/longest-common-subpath" xr:uid="{62FFD7C8-6B95-49CF-877E-D2923644D1FD}"/>
+    <hyperlink ref="B1722" r:id="rId1484" display="https://leetcode.com/problems/merge-bsts-to-create-single-bst" xr:uid="{3C90ED05-B4E6-4A5B-8B92-92274CD6E3CB}"/>
+    <hyperlink ref="B1726" r:id="rId1485" display="https://leetcode.com/problems/maximum-genetic-difference-query" xr:uid="{1A25DDAD-A0E9-4DEA-9978-DBF0F9D4D3DF}"/>
     <hyperlink ref="B1692" r:id="rId1486" display="https://leetcode.com/problems/find-the-student-that-will-replace-the-chalk" xr:uid="{9D146C0C-5A16-4375-BDF0-B60367842FF7}"/>
-    <hyperlink ref="B1720" r:id="rId1487" display="https://leetcode.com/problems/sum-of-digits-of-string-after-convert" xr:uid="{6F22ECDB-6A6B-41D3-8CA9-6D76CAF5B4E8}"/>
-    <hyperlink ref="B1718" r:id="rId1488" xr:uid="{67E882AF-68DB-41AF-8071-513205274BD9}"/>
-    <hyperlink ref="B1716" r:id="rId1489" display="https://leetcode.com/problems/maximum-number-of-words-you-can-type" xr:uid="{8E21FA9C-EBEA-4E91-AD8C-B9177EF763E8}"/>
+    <hyperlink ref="B1731" r:id="rId1487" display="https://leetcode.com/problems/sum-of-digits-of-string-after-convert" xr:uid="{6F22ECDB-6A6B-41D3-8CA9-6D76CAF5B4E8}"/>
+    <hyperlink ref="B1727" r:id="rId1488" xr:uid="{67E882AF-68DB-41AF-8071-513205274BD9}"/>
+    <hyperlink ref="B1723" r:id="rId1489" display="https://leetcode.com/problems/maximum-number-of-words-you-can-type" xr:uid="{8E21FA9C-EBEA-4E91-AD8C-B9177EF763E8}"/>
     <hyperlink ref="B1696" r:id="rId1490" xr:uid="{A3071BE6-0034-43AE-BDF8-5799BAD6EB13}"/>
     <hyperlink ref="B1697" r:id="rId1491" display="https://leetcode.com/problems/merge-triplets-to-form-target-triplet" xr:uid="{EFBBCE90-7311-45FC-B707-92A6E1252460}"/>
-    <hyperlink ref="B1725" r:id="rId1492" xr:uid="{B409B537-7A7A-463A-A75E-53528F8E2853}"/>
-    <hyperlink ref="B1723" r:id="rId1493" xr:uid="{02C2B215-E3E3-4548-A2F1-DDB689E2C454}"/>
-    <hyperlink ref="B1721" r:id="rId1494" display="https://leetcode.com/problems/delete-duplicate-folders-in-system" xr:uid="{16B4D03D-ED3A-423A-8036-4E96E3C16067}"/>
-    <hyperlink ref="B1719" r:id="rId1495" xr:uid="{7C979346-7740-4A52-9F7D-050A4F57896C}"/>
-    <hyperlink ref="B1714" r:id="rId1496" display="https://leetcode.com/problems/painting-a-grid-with-three-different-colors" xr:uid="{B5ED7AD1-6A0E-45F7-B1AC-3F3817E32416}"/>
-    <hyperlink ref="B1712" r:id="rId1497" display="Minimum Cost to Reach Destination i" xr:uid="{3D85BE5F-F0CC-42FF-A640-8A8AE91D07EA}"/>
-    <hyperlink ref="B1705" r:id="rId1498" display="https://leetcode.com/problems/design-movie-rental-system" xr:uid="{19AF9215-7A21-4D3F-A616-43F376496623}"/>
-    <hyperlink ref="B1713" r:id="rId1499" display="https://leetcode.com/problems/concatenation-of-array" xr:uid="{4408C4DB-4EB9-4846-9A9D-74A69E6FC083}"/>
+    <hyperlink ref="B1742" r:id="rId1492" xr:uid="{B409B537-7A7A-463A-A75E-53528F8E2853}"/>
+    <hyperlink ref="B1738" r:id="rId1493" xr:uid="{02C2B215-E3E3-4548-A2F1-DDB689E2C454}"/>
+    <hyperlink ref="B1734" r:id="rId1494" display="https://leetcode.com/problems/delete-duplicate-folders-in-system" xr:uid="{16B4D03D-ED3A-423A-8036-4E96E3C16067}"/>
+    <hyperlink ref="B1730" r:id="rId1495" xr:uid="{7C979346-7740-4A52-9F7D-050A4F57896C}"/>
+    <hyperlink ref="B1721" r:id="rId1496" display="https://leetcode.com/problems/painting-a-grid-with-three-different-colors" xr:uid="{B5ED7AD1-6A0E-45F7-B1AC-3F3817E32416}"/>
+    <hyperlink ref="B1718" r:id="rId1497" display="Minimum Cost to Reach Destination i" xr:uid="{3D85BE5F-F0CC-42FF-A640-8A8AE91D07EA}"/>
+    <hyperlink ref="B1707" r:id="rId1498" display="https://leetcode.com/problems/design-movie-rental-system" xr:uid="{19AF9215-7A21-4D3F-A616-43F376496623}"/>
+    <hyperlink ref="B1719" r:id="rId1499" display="https://leetcode.com/problems/concatenation-of-array" xr:uid="{4408C4DB-4EB9-4846-9A9D-74A69E6FC083}"/>
     <hyperlink ref="B1702" r:id="rId1500" display="https://leetcode.com/problems/count-sub-islands" xr:uid="{618FF829-5060-41A7-93F8-CF7981307DFA}"/>
     <hyperlink ref="B1701" r:id="rId1501" xr:uid="{3A86AED8-C09D-4BCF-A1D4-ADDD6E740309}"/>
-    <hyperlink ref="B1711" r:id="rId1502" display="https://leetcode.com/problems/count-square-sum-triples" xr:uid="{B8E45F4A-37F7-4057-AB54-687DAEB27C7E}"/>
-    <hyperlink ref="B1722" r:id="rId1503" display="https://leetcode.com/problems/three-divisors" xr:uid="{3D0A8A80-CBA1-408D-A123-C27B4A097F3A}"/>
+    <hyperlink ref="B1715" r:id="rId1502" display="https://leetcode.com/problems/count-square-sum-triples" xr:uid="{B8E45F4A-37F7-4057-AB54-687DAEB27C7E}"/>
+    <hyperlink ref="B1735" r:id="rId1503" display="https://leetcode.com/problems/three-divisors" xr:uid="{3D0A8A80-CBA1-408D-A123-C27B4A097F3A}"/>
+    <hyperlink ref="B1705" r:id="rId1504" display="https://leetcode.com/problems/remove-all-occurrences-of-a-substring" xr:uid="{1FD774A7-EA6E-486E-B5B2-4DB1A2CAD603}"/>
+    <hyperlink ref="B1706" r:id="rId1505" display="https://leetcode.com/problems/maximum-alternating-subsequence-sum" xr:uid="{FD99D4AE-DB21-4402-8FA7-0B910189496A}"/>
+    <hyperlink ref="B1712" r:id="rId1506" display="https://leetcode.com/problems/eliminate-maximum-number-of-monsters" xr:uid="{2F2B9E94-63AD-422B-9A63-FD6F7EE7C629}"/>
+    <hyperlink ref="B1713" r:id="rId1507" display="https://leetcode.com/problems/count-good-numbers" xr:uid="{0D5DDF79-C46F-494C-9766-0E840A482CBC}"/>
+    <hyperlink ref="B1716" r:id="rId1508" display="https://leetcode.com/problems/nearest-exit-from-entrance-in-maze" xr:uid="{D6319B8E-5A12-491E-9CED-BE4A97644B7D}"/>
+    <hyperlink ref="B1717" r:id="rId1509" display="https://leetcode.com/problems/sum-game" xr:uid="{7257B159-3AAE-49C8-A194-28A7B0536879}"/>
+    <hyperlink ref="B1720" r:id="rId1510" display="https://leetcode.com/problems/unique-length-3-palindromic-subsequences" xr:uid="{3E328985-E0C1-4515-AD87-7AEBCA16FAC1}"/>
+    <hyperlink ref="B1724" r:id="rId1511" display="https://leetcode.com/problems/add-minimum-number-of-rungs" xr:uid="{5BA1D979-BF40-48B3-A017-A1F66313C277}"/>
+    <hyperlink ref="B1725" r:id="rId1512" display="https://leetcode.com/problems/maximum-number-of-points-with-cost" xr:uid="{046C6A21-E955-49B6-9C89-B84CCB55AE5A}"/>
+    <hyperlink ref="B1728" r:id="rId1513" xr:uid="{6CD14534-BD2F-4FB2-9ED6-FA0B3F435F34}"/>
+    <hyperlink ref="B1729" r:id="rId1514" display="https://leetcode.com/problems/describe-the-painting" xr:uid="{DA3A709A-251A-4B40-A861-28FC5064A859}"/>
+    <hyperlink ref="B1732" r:id="rId1515" display="https://leetcode.com/problems/largest-number-after-mutating-substring" xr:uid="{4886B7BF-B766-44D2-92F9-16172E855E7A}"/>
+    <hyperlink ref="B1733" r:id="rId1516" display="https://leetcode.com/problems/maximum-compatibility-score-sum" xr:uid="{6AA7EF38-CB22-4349-9BCA-68EEDB6BA60F}"/>
+    <hyperlink ref="B1736" r:id="rId1517" xr:uid="{780DD737-38FC-4E52-8E17-E1ED7D4828C2}"/>
+    <hyperlink ref="B1737" r:id="rId1518" xr:uid="{BD5305FA-C3E6-436C-A3A3-3B2AEC015409}"/>
+    <hyperlink ref="B1740" r:id="rId1519" display="https://leetcode.com/problems/check-if-move-is-legal" xr:uid="{037D07CA-C5E5-46F7-8A15-FF086FD68CEA}"/>
+    <hyperlink ref="B1741" r:id="rId1520" xr:uid="{4514D26A-1DEB-4898-B0C0-E35C803A917D}"/>
+    <hyperlink ref="B1743" r:id="rId1521" display="https://leetcode.com/problems/check-if-string-is-a-prefix-of-array" xr:uid="{ED238B07-DD69-47D7-9C99-70206F56431B}"/>
+    <hyperlink ref="B1744" r:id="rId1522" display="https://leetcode.com/problems/remove-stones-to-minimize-the-total" xr:uid="{A477D00D-45DD-4A17-8EC1-CAB601E47AFE}"/>
+    <hyperlink ref="B1745" r:id="rId1523" xr:uid="{7AED54AB-CAC5-468D-AEA4-30EF78C123D5}"/>
+    <hyperlink ref="B1746" r:id="rId1524" xr:uid="{C8B643C6-E285-4944-9FD0-0F3F95420C77}"/>
+    <hyperlink ref="B1747" r:id="rId1525" display="https://leetcode.com/problems/number-of-strings-that-appear-as-substrings-in-word" xr:uid="{9D135439-6404-469A-B0F3-B3CB3CC48006}"/>
+    <hyperlink ref="B1748" r:id="rId1526" xr:uid="{2D13F7E0-CA9F-41A5-9A27-D14C8E89D1D6}"/>
+    <hyperlink ref="B1749" r:id="rId1527" xr:uid="{6F03E324-C26B-45D0-A69E-667D05BCF4A6}"/>
+    <hyperlink ref="B1750" r:id="rId1528" display="https://leetcode.com/problems/last-day-where-you-can-still-cross" xr:uid="{6C0C733A-DFFC-47C4-8A74-549CE9EEC902}"/>
+    <hyperlink ref="B1751" r:id="rId1529" display="https://leetcode.com/problems/find-if-path-exists-in-graph" xr:uid="{280D74AA-F965-40BB-989B-D14BCDFED54C}"/>
+    <hyperlink ref="B1752" r:id="rId1530" xr:uid="{4E722A0F-0542-4D0F-944F-81A1882BDB67}"/>
+    <hyperlink ref="B1753" r:id="rId1531" display="https://leetcode.com/problems/maximum-matrix-sum" xr:uid="{85554A11-E7CC-4623-9832-CA974B90C2B5}"/>
+    <hyperlink ref="B1754" r:id="rId1532" display="https://leetcode.com/problems/number-of-ways-to-arrive-at-destination" xr:uid="{7C2B1C34-BFA8-4D6A-8BFD-2D13258003E9}"/>
+    <hyperlink ref="B1755" r:id="rId1533" display="https://leetcode.com/problems/number-of-ways-to-separate-numbers" xr:uid="{A1CD6E14-B30D-48A8-9C50-989B50718C66}"/>
+    <hyperlink ref="B1756" r:id="rId1534" display="https://leetcode.com/problems/find-greatest-common-divisor-of-array" xr:uid="{F13EAFBC-B285-401C-91EE-AC9A939A3669}"/>
+    <hyperlink ref="B1757" r:id="rId1535" display="https://leetcode.com/problems/find-unique-binary-string" xr:uid="{7ED88115-1A51-43E5-9996-61390F3D3742}"/>
+    <hyperlink ref="B1758" r:id="rId1536" xr:uid="{307A70C2-1A17-4713-8815-4B08BE79BC16}"/>
+    <hyperlink ref="B1759" r:id="rId1537" display="https://leetcode.com/problems/find-array-given-subset-sums" xr:uid="{24E810D6-01EB-4D57-B971-B9D6AD7C8465}"/>
+    <hyperlink ref="B1760" r:id="rId1538" xr:uid="{3AC2DE31-2D9A-47A8-BD4F-9E1BA94A6DBE}"/>
+    <hyperlink ref="B1761" r:id="rId1539" display="https://leetcode.com/problems/find-the-kth-largest-integer-in-the-array" xr:uid="{0E5050F7-33DD-4568-A9C5-F0BF63ABEF41}"/>
+    <hyperlink ref="B1762" r:id="rId1540" xr:uid="{74CBB63A-C6EA-4857-9FF1-DE3E60CAE238}"/>
+    <hyperlink ref="B1763" r:id="rId1541" display="https://leetcode.com/problems/number-of-unique-good-subsequences" xr:uid="{853BAECC-5442-42F3-89D7-4E811047F33B}"/>
+    <hyperlink ref="B1764" r:id="rId1542" display="https://leetcode.com/problems/find-the-middle-index-in-array" xr:uid="{D5BD54BC-4C9D-4080-92AB-7E0AD5447197}"/>
+    <hyperlink ref="B1765" r:id="rId1543" display="https://leetcode.com/problems/find-all-groups-of-farmland" xr:uid="{FA8829D0-40F2-4ECC-B6CF-DF0CB80F6744}"/>
+    <hyperlink ref="B1766" r:id="rId1544" display="https://leetcode.com/problems/operations-on-tree" xr:uid="{686B754D-FA97-4909-9B6F-604722737483}"/>
+    <hyperlink ref="B1767" r:id="rId1545" display="https://leetcode.com/problems/the-number-of-good-subsets" xr:uid="{CB7AE48D-6C96-4D56-9DD1-F6A59CF37370}"/>
+    <hyperlink ref="B1768" r:id="rId1546" display="https://leetcode.com/problems/count-special-quadruplets" xr:uid="{661C9BC6-DD29-4EEE-BDF8-A0046C960AAA}"/>
+    <hyperlink ref="B1769" r:id="rId1547" xr:uid="{4367FE0D-6B66-4E7B-B67D-D44932CCF53D}"/>
+    <hyperlink ref="B1771" r:id="rId1548" display="https://leetcode.com/problems/gcd-sort-of-an-array" xr:uid="{D51FF9FA-E1D0-4876-9671-0BECACA20C8E}"/>
+    <hyperlink ref="B1770" r:id="rId1549" xr:uid="{440A2BB5-BF04-43D0-B17E-3DB556DFF3D2}"/>
+    <hyperlink ref="B1772" r:id="rId1550" display="https://leetcode.com/problems/reverse-prefix-of-word" xr:uid="{CB9978C3-6422-40BB-8564-3202082A0B1A}"/>
+    <hyperlink ref="B1773" r:id="rId1551" xr:uid="{7923A955-AD8E-4813-A991-8D8A22CAA454}"/>
+    <hyperlink ref="B1774" r:id="rId1552" display="https://leetcode.com/problems/maximum-product-of-the-length-of-two-palindromic-subsequences" xr:uid="{8F9B0876-A47C-4346-BB3A-B28A932D0561}"/>
+    <hyperlink ref="B1775" r:id="rId1553" display="https://leetcode.com/problems/smallest-missing-genetic-value-in-each-subtree" xr:uid="{7B841850-C4EB-4B17-86ED-3C469EA47416}"/>
+    <hyperlink ref="B1776" r:id="rId1554" xr:uid="{8B9BFB7A-1876-405D-81AE-5D45D7B9CC99}"/>
+    <hyperlink ref="B1777" r:id="rId1555" display="https://leetcode.com/problems/find-original-array-from-doubled-array" xr:uid="{941F4524-2AB9-4B82-8506-2B0DDAE8E0C8}"/>
+    <hyperlink ref="B1778" r:id="rId1556" display="https://leetcode.com/problems/maximum-earnings-from-taxi" xr:uid="{2C7D8613-3F51-4CE1-89B7-0D2175417F32}"/>
+    <hyperlink ref="B1779" r:id="rId1557" display="https://leetcode.com/problems/minimum-number-of-operations-to-make-array-continuous" xr:uid="{7CA9A60C-BA8C-481E-B3A3-B022E1E11E93}"/>
+    <hyperlink ref="B1780" r:id="rId1558" display="https://leetcode.com/problems/final-value-of-variable-after-performing-operations" xr:uid="{878BB048-0ECD-4FAC-A96B-1A705EB95DEF}"/>
+    <hyperlink ref="B1781" r:id="rId1559" display="https://leetcode.com/problems/sum-of-beauty-in-the-array" xr:uid="{73619F0E-5E06-4E41-906A-4E0AE98A22B5}"/>
+    <hyperlink ref="B1782" r:id="rId1560" display="https://leetcode.com/problems/detect-squares" xr:uid="{973708F6-B02C-4F3B-9CD7-658CC285620D}"/>
+    <hyperlink ref="B1783" r:id="rId1561" display="https://leetcode.com/problems/longest-subsequence-repeated-k-times" xr:uid="{4C762D87-A9C5-4BD4-912E-7DF86A9410E2}"/>
+    <hyperlink ref="B1784" r:id="rId1562" xr:uid="{FCD62007-CC5B-42E2-9137-1D08C11A57E4}"/>
+    <hyperlink ref="B1785" r:id="rId1563" display="https://leetcode.com/problems/grid-game" xr:uid="{6BAF02C7-CF0B-4611-97F7-71B80B95A205}"/>
+    <hyperlink ref="B1786" r:id="rId1564" display="https://leetcode.com/problems/check-if-word-can-be-placed-in-crossword" xr:uid="{302A26FF-631E-42F2-9B60-01DDABC35248}"/>
+    <hyperlink ref="B1787" r:id="rId1565" display="https://leetcode.com/problems/the-score-of-students-solving-math-expression" xr:uid="{3D10BE58-1B14-440E-9A39-40F0A7CCC3A0}"/>
+    <hyperlink ref="B1788" r:id="rId1566" display="https://leetcode.com/problems/convert-1d-array-into-2d-array" xr:uid="{412ED7EE-16C1-4FBE-88AA-44300DC61B17}"/>
+    <hyperlink ref="B1789" r:id="rId1567" display="https://leetcode.com/problems/number-of-pairs-of-strings-with-concatenation-equal-to-target" xr:uid="{EDEDBE97-30D3-4D23-9530-0C8A3F620EE6}"/>
+    <hyperlink ref="B1790" r:id="rId1568" display="https://leetcode.com/problems/maximize-the-confusion-of-an-exam" xr:uid="{B38DEE78-20CA-494E-8F19-7DDF232265F7}"/>
+    <hyperlink ref="B1791" r:id="rId1569" display="https://leetcode.com/problems/maximum-number-of-ways-to-partition-an-array" xr:uid="{327D7573-701B-491A-A079-084FB4CF6A48}"/>
+    <hyperlink ref="B1792" r:id="rId1570" display="https://leetcode.com/problems/minimum-moves-to-convert-string" xr:uid="{560091BE-B96B-42CB-A09B-F78B509005A6}"/>
+    <hyperlink ref="B1793" r:id="rId1571" display="https://leetcode.com/problems/find-missing-observations" xr:uid="{9490467D-B31C-44AF-8D15-79AB6781FC3C}"/>
+    <hyperlink ref="B1794" r:id="rId1572" display="https://leetcode.com/problems/stone-game-ix" xr:uid="{C7AA6D81-752C-425D-81DA-FAF27F7ED6FA}"/>
+    <hyperlink ref="B1795" r:id="rId1573" display="https://leetcode.com/problems/smallest-k-length-subsequence-with-occurrences-of-a-letter" xr:uid="{A5C04344-98FD-4F50-9D84-0FBA98FAC48B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1504"/>
-  <drawing r:id="rId1505"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1574"/>
+  <drawing r:id="rId1575"/>
 </worksheet>
 </file>
 
@@ -53935,7 +54942,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E01657D4-0457-4414-9EA3-8C4EB4AF3913}">
   <dimension ref="A1:F114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A98" sqref="A98"/>
     </sheetView>
   </sheetViews>

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C8FAF19-5D89-487E-8E43-54415C3AE481}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{917A5B8E-FFBE-40F2-9797-88A7E6F60959}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LeetCode Algorithm" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9532" uniqueCount="3540">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9538" uniqueCount="3543">
   <si>
     <t>Difficulty</t>
   </si>
@@ -10657,6 +10657,15 @@
   </si>
   <si>
     <t>Smallest K-Length Subsequence With Occurrences of a Letter</t>
+  </si>
+  <si>
+    <t>The Number of Seniors and Juniors to Join the Company</t>
+  </si>
+  <si>
+    <t>The Number of Seniors and Juniors to Join the Company II</t>
+  </si>
+  <si>
+    <t>Rank salary by experience and self join with sum</t>
   </si>
 </sst>
 </file>
@@ -11192,7 +11201,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J1799"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1775" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A1775" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B1795" sqref="B1795"/>
     </sheetView>
   </sheetViews>
@@ -54940,10 +54949,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E01657D4-0457-4414-9EA3-8C4EB4AF3913}">
-  <dimension ref="A1:F114"/>
+  <dimension ref="A1:F116"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A98" sqref="A98"/>
+    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
+      <selection activeCell="F116" sqref="F116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -56894,6 +56903,40 @@
       </c>
       <c r="F114" t="s">
         <v>3441</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A115">
+        <v>2004</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>3540</v>
+      </c>
+      <c r="C115" s="26">
+        <v>4</v>
+      </c>
+      <c r="E115" t="s">
+        <v>12</v>
+      </c>
+      <c r="F115" t="s">
+        <v>3542</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A116">
+        <v>2010</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>3541</v>
+      </c>
+      <c r="C116" s="26">
+        <v>4</v>
+      </c>
+      <c r="E116" t="s">
+        <v>12</v>
+      </c>
+      <c r="F116" t="s">
+        <v>3542</v>
       </c>
     </row>
   </sheetData>
@@ -57005,9 +57048,11 @@
     <hyperlink ref="B104" r:id="rId105" display="https://leetcode.com/problems/page-recommendations-ii" xr:uid="{FB760DBC-1FAE-4F2C-B0D8-049AF3A16120}"/>
     <hyperlink ref="B96" r:id="rId106" display="https://leetcode.com/problems/top-travellers" xr:uid="{0E265921-5208-498F-A406-6B4C2A7C080D}"/>
     <hyperlink ref="B97" r:id="rId107" xr:uid="{6EF598F7-83DE-4CE7-BF66-DBF996C86CAA}"/>
+    <hyperlink ref="B115" r:id="rId108" display="https://leetcode.com/problems/the-number-of-seniors-and-juniors-to-join-the-company" xr:uid="{1FD7A6B6-D127-40F1-AB82-13BEB016080C}"/>
+    <hyperlink ref="B116" r:id="rId109" display="https://leetcode.com/problems/the-number-of-seniors-and-juniors-to-join-the-company-ii" xr:uid="{E3EF10DB-DACD-4070-BA3A-D47998501C51}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId108"/>
+  <pageSetup orientation="portrait" r:id="rId110"/>
 </worksheet>
 </file>
 

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{917A5B8E-FFBE-40F2-9797-88A7E6F60959}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE93787A-0897-4E0A-A93E-0939B1A3B043}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9538" uniqueCount="3543">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9553" uniqueCount="3553">
   <si>
     <t>Difficulty</t>
   </si>
@@ -10666,6 +10666,36 @@
   </si>
   <si>
     <t>Rank salary by experience and self join with sum</t>
+  </si>
+  <si>
+    <t>Find Cutoff Score for Each School</t>
+  </si>
+  <si>
+    <t>join and select minimum qualified score.</t>
+  </si>
+  <si>
+    <t>Count the Number of Experiments</t>
+  </si>
+  <si>
+    <t>select fixed platform and experiment first</t>
+  </si>
+  <si>
+    <t>Low-Quality Problems</t>
+  </si>
+  <si>
+    <t>Convert to float and determine percentage</t>
+  </si>
+  <si>
+    <t>Number of Accounts That Did Not Stream</t>
+  </si>
+  <si>
+    <t>filter by start date and end date in range.</t>
+  </si>
+  <si>
+    <t>Accepted Candidates From the Interviews</t>
+  </si>
+  <si>
+    <t>Select sum of score and match candidates</t>
   </si>
 </sst>
 </file>
@@ -10710,7 +10740,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -10813,6 +10843,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -53337,28 +53368,28 @@
       <c r="B1797" s="1"/>
     </row>
     <row r="1798" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A1798" s="96" t="s">
+      <c r="A1798" s="97" t="s">
         <v>1721</v>
       </c>
-      <c r="B1798" s="96"/>
-      <c r="C1798" s="96"/>
-      <c r="D1798" s="96"/>
-      <c r="E1798" s="96"/>
-      <c r="F1798" s="96"/>
-      <c r="G1798" s="96"/>
-      <c r="H1798" s="96"/>
+      <c r="B1798" s="97"/>
+      <c r="C1798" s="97"/>
+      <c r="D1798" s="97"/>
+      <c r="E1798" s="97"/>
+      <c r="F1798" s="97"/>
+      <c r="G1798" s="97"/>
+      <c r="H1798" s="97"/>
     </row>
     <row r="1799" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A1799" s="97" t="s">
+      <c r="A1799" s="98" t="s">
         <v>2759</v>
       </c>
-      <c r="B1799" s="97"/>
-      <c r="C1799" s="97"/>
-      <c r="D1799" s="97"/>
-      <c r="E1799" s="97"/>
-      <c r="F1799" s="97"/>
-      <c r="G1799" s="97"/>
-      <c r="H1799" s="97"/>
+      <c r="B1799" s="98"/>
+      <c r="C1799" s="98"/>
+      <c r="D1799" s="98"/>
+      <c r="E1799" s="98"/>
+      <c r="F1799" s="98"/>
+      <c r="G1799" s="98"/>
+      <c r="H1799" s="98"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:J1799" xr:uid="{CB07CE66-8F15-46FF-A90A-43FDB2DB428F}"/>
@@ -54949,10 +54980,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E01657D4-0457-4414-9EA3-8C4EB4AF3913}">
-  <dimension ref="A1:F116"/>
+  <dimension ref="A1:F121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
-      <selection activeCell="F116" sqref="F116"/>
+    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
+      <selection activeCell="F121" sqref="F121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -56905,38 +56936,123 @@
         <v>3441</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A115">
+    <row r="115" spans="1:6" s="96" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A115" s="96">
+        <v>1988</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>3543</v>
+      </c>
+      <c r="C115" s="96">
+        <v>2</v>
+      </c>
+      <c r="E115" s="96" t="s">
+        <v>9</v>
+      </c>
+      <c r="F115" s="96" t="s">
+        <v>3544</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" s="96" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A116" s="96">
+        <v>1990</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>3545</v>
+      </c>
+      <c r="C116" s="96">
+        <v>2</v>
+      </c>
+      <c r="E116" s="96" t="s">
+        <v>9</v>
+      </c>
+      <c r="F116" s="96" t="s">
+        <v>3546</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A117">
         <v>2004</v>
       </c>
-      <c r="B115" s="1" t="s">
+      <c r="B117" s="1" t="s">
         <v>3540</v>
       </c>
-      <c r="C115" s="26">
+      <c r="C117" s="26">
         <v>4</v>
       </c>
-      <c r="E115" t="s">
+      <c r="E117" t="s">
         <v>12</v>
       </c>
-      <c r="F115" t="s">
+      <c r="F117" t="s">
         <v>3542</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A116">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A118">
         <v>2010</v>
       </c>
-      <c r="B116" s="1" t="s">
+      <c r="B118" s="1" t="s">
         <v>3541</v>
       </c>
-      <c r="C116" s="26">
+      <c r="C118" s="26">
         <v>4</v>
       </c>
-      <c r="E116" t="s">
+      <c r="E118" t="s">
         <v>12</v>
       </c>
-      <c r="F116" t="s">
+      <c r="F118" t="s">
         <v>3542</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" s="96" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A119" s="96">
+        <v>2020</v>
+      </c>
+      <c r="B119" s="95" t="s">
+        <v>3549</v>
+      </c>
+      <c r="C119" s="96">
+        <v>2</v>
+      </c>
+      <c r="E119" s="96" t="s">
+        <v>9</v>
+      </c>
+      <c r="F119" s="96" t="s">
+        <v>3550</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A120">
+        <v>2026</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>3547</v>
+      </c>
+      <c r="C120" s="26">
+        <v>1</v>
+      </c>
+      <c r="E120" t="s">
+        <v>5</v>
+      </c>
+      <c r="F120" t="s">
+        <v>3548</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A121">
+        <v>2041</v>
+      </c>
+      <c r="B121" s="95" t="s">
+        <v>3551</v>
+      </c>
+      <c r="C121" s="26">
+        <v>2</v>
+      </c>
+      <c r="E121" t="s">
+        <v>9</v>
+      </c>
+      <c r="F121" t="s">
+        <v>3552</v>
       </c>
     </row>
   </sheetData>
@@ -57048,11 +57164,16 @@
     <hyperlink ref="B104" r:id="rId105" display="https://leetcode.com/problems/page-recommendations-ii" xr:uid="{FB760DBC-1FAE-4F2C-B0D8-049AF3A16120}"/>
     <hyperlink ref="B96" r:id="rId106" display="https://leetcode.com/problems/top-travellers" xr:uid="{0E265921-5208-498F-A406-6B4C2A7C080D}"/>
     <hyperlink ref="B97" r:id="rId107" xr:uid="{6EF598F7-83DE-4CE7-BF66-DBF996C86CAA}"/>
-    <hyperlink ref="B115" r:id="rId108" display="https://leetcode.com/problems/the-number-of-seniors-and-juniors-to-join-the-company" xr:uid="{1FD7A6B6-D127-40F1-AB82-13BEB016080C}"/>
-    <hyperlink ref="B116" r:id="rId109" display="https://leetcode.com/problems/the-number-of-seniors-and-juniors-to-join-the-company-ii" xr:uid="{E3EF10DB-DACD-4070-BA3A-D47998501C51}"/>
+    <hyperlink ref="B117" r:id="rId108" display="https://leetcode.com/problems/the-number-of-seniors-and-juniors-to-join-the-company" xr:uid="{1FD7A6B6-D127-40F1-AB82-13BEB016080C}"/>
+    <hyperlink ref="B118" r:id="rId109" display="https://leetcode.com/problems/the-number-of-seniors-and-juniors-to-join-the-company-ii" xr:uid="{E3EF10DB-DACD-4070-BA3A-D47998501C51}"/>
+    <hyperlink ref="B115" r:id="rId110" display="https://leetcode.com/problems/find-cutoff-score-for-each-school" xr:uid="{FFA14DEB-D205-48CA-A84C-567537CEEBC1}"/>
+    <hyperlink ref="B116" r:id="rId111" display="https://leetcode.com/problems/count-the-number-of-experiments" xr:uid="{46D95212-FC96-46AA-9DB7-78F0B2AD9C0A}"/>
+    <hyperlink ref="B120" r:id="rId112" display="https://leetcode.com/problems/low-quality-problems" xr:uid="{578C006A-2AAF-4719-9A01-A9A2ABB12E31}"/>
+    <hyperlink ref="B119" r:id="rId113" display="https://leetcode.com/problems/number-of-accounts-that-did-not-stream" xr:uid="{217A78D4-08B0-4ECB-8EAD-EF061E80EA70}"/>
+    <hyperlink ref="B121" r:id="rId114" display="https://leetcode.com/problems/accepted-candidates-from-the-interviews" xr:uid="{30737DA4-9DBB-4510-A557-A85ADD09D0ED}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId110"/>
+  <pageSetup orientation="portrait" r:id="rId115"/>
 </worksheet>
 </file>
 

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE93787A-0897-4E0A-A93E-0939B1A3B043}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB3EB1FD-AE44-47FF-8490-23D8C2BC1B5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LeetCode Algorithm" sheetId="1" r:id="rId1"/>
     <sheet name="SQL" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'LeetCode Algorithm'!$A$1:$J$1799</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'LeetCode Algorithm'!$A$1:$J$1821</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9553" uniqueCount="3553">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9623" uniqueCount="3588">
   <si>
     <t>Difficulty</t>
   </si>
@@ -10696,6 +10696,111 @@
   </si>
   <si>
     <t>Select sum of score and match candidates</t>
+  </si>
+  <si>
+    <t>Two Out of Three</t>
+  </si>
+  <si>
+    <t>Minimum Operations to Make a Uni-Value Grid</t>
+  </si>
+  <si>
+    <t>Stock Price Fluctuation</t>
+  </si>
+  <si>
+    <t>Partition Array Into Two Arrays to Minimize Sum Difference</t>
+  </si>
+  <si>
+    <t>Remove Colored Pieces if Both Neighbors are the Same Color</t>
+  </si>
+  <si>
+    <t>Minimum Number of Moves to Seat Everyone</t>
+  </si>
+  <si>
+    <t>The Time When the Network Becomes Idle</t>
+  </si>
+  <si>
+    <t>Kth Smallest Product of Two Sorted Arrays</t>
+  </si>
+  <si>
+    <t>Check if Numbers Are Ascending in a Sentence</t>
+  </si>
+  <si>
+    <t>Simple Bank System</t>
+  </si>
+  <si>
+    <t>Count Number of Maximum Bitwise-OR Subsets</t>
+  </si>
+  <si>
+    <t>Second Minimum Time to Reach Destination</t>
+  </si>
+  <si>
+    <t>Number of Valid Words in a Sentence</t>
+  </si>
+  <si>
+    <t>Next Greater Numerically Balanced Number</t>
+  </si>
+  <si>
+    <t>Count Nodes With the Highest Score</t>
+  </si>
+  <si>
+    <t>Parallel Courses III</t>
+  </si>
+  <si>
+    <t>Kth Distinct String in an Array</t>
+  </si>
+  <si>
+    <t>Two Best Non-Overlapping Events</t>
+  </si>
+  <si>
+    <t>Plates Between Candles</t>
+  </si>
+  <si>
+    <t>Number of Valid Move Combinations On Chessboard</t>
+  </si>
+  <si>
+    <t>Smallest Index With Equal Value</t>
+  </si>
+  <si>
+    <t>Find the Minimum and Maximum Number of Nodes Between Critical Points</t>
+  </si>
+  <si>
+    <t>Minimum Operations to Convert Number</t>
+  </si>
+  <si>
+    <t>Check if an Original String Exists Given Two Encoded Strings</t>
+  </si>
+  <si>
+    <t>Loop and check</t>
+  </si>
+  <si>
+    <t>Two pass and use hashtable to count</t>
+  </si>
+  <si>
+    <t>Brute force parse</t>
+  </si>
+  <si>
+    <t>Parse and compare with previous number</t>
+  </si>
+  <si>
+    <t>Sort two array and calculate by order</t>
+  </si>
+  <si>
+    <t>Count array id by in set</t>
+  </si>
+  <si>
+    <t>Move 3 position in one step only if need to change</t>
+  </si>
+  <si>
+    <t>Divide index by row</t>
+  </si>
+  <si>
+    <t>Remember minimum value</t>
+  </si>
+  <si>
+    <t>Check second character</t>
+  </si>
+  <si>
+    <t>Use array with value as index count as value</t>
   </si>
 </sst>
 </file>
@@ -10740,7 +10845,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -10845,8 +10950,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -11230,10 +11339,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J1799"/>
+  <dimension ref="A1:J1821"/>
   <sheetViews>
-    <sheetView topLeftCell="A1775" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1795" sqref="B1795"/>
+    <sheetView tabSelected="1" topLeftCell="A1595" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A1768" sqref="A1768"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -53190,6 +53299,24 @@
       <c r="B1776" s="1" t="s">
         <v>3517</v>
       </c>
+      <c r="C1776" s="93">
+        <v>1</v>
+      </c>
+      <c r="D1776" s="93" t="s">
+        <v>1720</v>
+      </c>
+      <c r="E1776" s="93" t="s">
+        <v>2934</v>
+      </c>
+      <c r="F1776" s="93" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1776" s="93" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1776" s="93" t="s">
+        <v>3587</v>
+      </c>
     </row>
     <row r="1777" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1777" s="93">
@@ -53222,6 +53349,21 @@
       <c r="B1780" s="1" t="s">
         <v>3521</v>
       </c>
+      <c r="C1780" s="93">
+        <v>1</v>
+      </c>
+      <c r="D1780" s="93" t="s">
+        <v>1720</v>
+      </c>
+      <c r="F1780" s="93" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1780" s="93" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1780" s="93" t="s">
+        <v>3586</v>
+      </c>
     </row>
     <row r="1781" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1781" s="93">
@@ -53272,6 +53414,21 @@
       <c r="B1784" s="1" t="s">
         <v>3528</v>
       </c>
+      <c r="C1784" s="94">
+        <v>1</v>
+      </c>
+      <c r="D1784" s="94" t="s">
+        <v>1720</v>
+      </c>
+      <c r="F1784" s="94" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1784" s="94" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1784" s="94" t="s">
+        <v>3585</v>
+      </c>
     </row>
     <row r="1785" spans="1:9" s="94" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1785" s="94">
@@ -53304,6 +53461,21 @@
       <c r="B1788" s="1" t="s">
         <v>3532</v>
       </c>
+      <c r="C1788" s="94">
+        <v>1</v>
+      </c>
+      <c r="D1788" s="94" t="s">
+        <v>1720</v>
+      </c>
+      <c r="F1788" s="94" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1788" s="94" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1788" s="94" t="s">
+        <v>3584</v>
+      </c>
     </row>
     <row r="1789" spans="1:9" s="94" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1789" s="94">
@@ -53336,6 +53508,21 @@
       <c r="B1792" s="1" t="s">
         <v>3536</v>
       </c>
+      <c r="C1792" s="94">
+        <v>1</v>
+      </c>
+      <c r="D1792" s="94" t="s">
+        <v>1720</v>
+      </c>
+      <c r="F1792" s="94" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1792" s="94" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1792" s="94" t="s">
+        <v>3583</v>
+      </c>
     </row>
     <row r="1793" spans="1:8" s="94" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1793" s="94">
@@ -53361,41 +53548,320 @@
         <v>3539</v>
       </c>
     </row>
-    <row r="1796" spans="1:8" s="94" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1796" s="1"/>
-    </row>
-    <row r="1797" spans="1:8" s="94" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1797" s="1"/>
-    </row>
-    <row r="1798" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A1798" s="97" t="s">
+    <row r="1796" spans="1:8" s="97" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1796" s="97">
+        <v>2032</v>
+      </c>
+      <c r="B1796" s="1" t="s">
+        <v>3553</v>
+      </c>
+      <c r="C1796" s="97">
+        <v>2</v>
+      </c>
+      <c r="D1796" s="97" t="s">
+        <v>1720</v>
+      </c>
+      <c r="E1796" s="97" t="s">
+        <v>2934</v>
+      </c>
+      <c r="F1796" s="97" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1796" s="97" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1796" s="97" t="s">
+        <v>3582</v>
+      </c>
+    </row>
+    <row r="1797" spans="1:8" s="97" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1797" s="97">
+        <v>2033</v>
+      </c>
+      <c r="B1797" s="100" t="s">
+        <v>3554</v>
+      </c>
+    </row>
+    <row r="1798" spans="1:8" s="97" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1798" s="97">
+        <v>2034</v>
+      </c>
+      <c r="B1798" s="1" t="s">
+        <v>3555</v>
+      </c>
+    </row>
+    <row r="1799" spans="1:8" s="97" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1799" s="97">
+        <v>2035</v>
+      </c>
+      <c r="B1799" s="100" t="s">
+        <v>3556</v>
+      </c>
+    </row>
+    <row r="1800" spans="1:8" s="97" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1800" s="97">
+        <v>2037</v>
+      </c>
+      <c r="B1800" s="1" t="s">
+        <v>3558</v>
+      </c>
+      <c r="C1800" s="97">
+        <v>2</v>
+      </c>
+      <c r="D1800" s="97" t="s">
+        <v>1720</v>
+      </c>
+      <c r="F1800" s="97" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1800" s="97" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1800" s="97" t="s">
+        <v>3581</v>
+      </c>
+    </row>
+    <row r="1801" spans="1:8" s="97" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1801" s="97">
+        <v>2038</v>
+      </c>
+      <c r="B1801" s="1" t="s">
+        <v>3557</v>
+      </c>
+    </row>
+    <row r="1802" spans="1:8" s="97" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1802" s="97">
+        <v>2039</v>
+      </c>
+      <c r="B1802" s="1" t="s">
+        <v>3559</v>
+      </c>
+    </row>
+    <row r="1803" spans="1:8" s="97" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1803" s="97">
+        <v>2040</v>
+      </c>
+      <c r="B1803" s="1" t="s">
+        <v>3560</v>
+      </c>
+    </row>
+    <row r="1804" spans="1:8" s="97" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1804" s="97">
+        <v>2042</v>
+      </c>
+      <c r="B1804" s="100" t="s">
+        <v>3561</v>
+      </c>
+      <c r="C1804" s="97">
+        <v>2</v>
+      </c>
+      <c r="D1804" s="97" t="s">
+        <v>1720</v>
+      </c>
+      <c r="F1804" s="97" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1804" s="97" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1804" s="97" t="s">
+        <v>3580</v>
+      </c>
+    </row>
+    <row r="1805" spans="1:8" s="97" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1805" s="97">
+        <v>2043</v>
+      </c>
+      <c r="B1805" s="1" t="s">
+        <v>3562</v>
+      </c>
+    </row>
+    <row r="1806" spans="1:8" s="97" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1806" s="97">
+        <v>2044</v>
+      </c>
+      <c r="B1806" s="1" t="s">
+        <v>3563</v>
+      </c>
+    </row>
+    <row r="1807" spans="1:8" s="97" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1807" s="97">
+        <v>2045</v>
+      </c>
+      <c r="B1807" s="100" t="s">
+        <v>3564</v>
+      </c>
+    </row>
+    <row r="1808" spans="1:8" s="97" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1808" s="97">
+        <v>2047</v>
+      </c>
+      <c r="B1808" s="1" t="s">
+        <v>3565</v>
+      </c>
+      <c r="C1808" s="97">
+        <v>3</v>
+      </c>
+      <c r="D1808" s="97" t="s">
+        <v>1713</v>
+      </c>
+      <c r="F1808" s="97" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1808" s="97" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1808" s="97" t="s">
+        <v>3579</v>
+      </c>
+    </row>
+    <row r="1809" spans="1:8" s="97" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1809" s="97">
+        <v>2048</v>
+      </c>
+      <c r="B1809" s="1" t="s">
+        <v>3566</v>
+      </c>
+    </row>
+    <row r="1810" spans="1:8" s="97" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1810" s="97">
+        <v>2049</v>
+      </c>
+      <c r="B1810" s="1" t="s">
+        <v>3567</v>
+      </c>
+    </row>
+    <row r="1811" spans="1:8" s="97" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1811" s="97">
+        <v>2050</v>
+      </c>
+      <c r="B1811" s="1" t="s">
+        <v>3568</v>
+      </c>
+    </row>
+    <row r="1812" spans="1:8" s="94" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1812" s="94">
+        <v>2053</v>
+      </c>
+      <c r="B1812" s="1" t="s">
+        <v>3569</v>
+      </c>
+      <c r="C1812" s="94">
+        <v>2</v>
+      </c>
+      <c r="D1812" s="94" t="s">
+        <v>1720</v>
+      </c>
+      <c r="F1812" s="94" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1812" s="94" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1812" s="94" t="s">
+        <v>3578</v>
+      </c>
+    </row>
+    <row r="1813" spans="1:8" s="97" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1813" s="97">
+        <v>2054</v>
+      </c>
+      <c r="B1813" s="1" t="s">
+        <v>3570</v>
+      </c>
+    </row>
+    <row r="1814" spans="1:8" s="97" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1814" s="97">
+        <v>2055</v>
+      </c>
+      <c r="B1814" s="1" t="s">
+        <v>3571</v>
+      </c>
+    </row>
+    <row r="1815" spans="1:8" s="97" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1815" s="97">
+        <v>2056</v>
+      </c>
+      <c r="B1815" s="100" t="s">
+        <v>3572</v>
+      </c>
+    </row>
+    <row r="1816" spans="1:8" s="97" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1816" s="97">
+        <v>2057</v>
+      </c>
+      <c r="B1816" s="1" t="s">
+        <v>3573</v>
+      </c>
+      <c r="C1816" s="97">
+        <v>1</v>
+      </c>
+      <c r="D1816" s="97" t="s">
+        <v>1717</v>
+      </c>
+      <c r="F1816" s="97" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1816" s="97" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1816" s="97" t="s">
+        <v>3577</v>
+      </c>
+    </row>
+    <row r="1817" spans="1:8" s="97" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1817" s="97">
+        <v>2058</v>
+      </c>
+      <c r="B1817" s="100" t="s">
+        <v>3574</v>
+      </c>
+    </row>
+    <row r="1818" spans="1:8" s="97" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1818" s="97">
+        <v>2059</v>
+      </c>
+      <c r="B1818" s="100" t="s">
+        <v>3575</v>
+      </c>
+    </row>
+    <row r="1819" spans="1:8" s="94" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1819" s="94">
+        <v>2060</v>
+      </c>
+      <c r="B1819" s="100" t="s">
+        <v>3576</v>
+      </c>
+    </row>
+    <row r="1820" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A1820" s="98" t="s">
         <v>1721</v>
       </c>
-      <c r="B1798" s="97"/>
-      <c r="C1798" s="97"/>
-      <c r="D1798" s="97"/>
-      <c r="E1798" s="97"/>
-      <c r="F1798" s="97"/>
-      <c r="G1798" s="97"/>
-      <c r="H1798" s="97"/>
-    </row>
-    <row r="1799" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A1799" s="98" t="s">
+      <c r="B1820" s="98"/>
+      <c r="C1820" s="98"/>
+      <c r="D1820" s="98"/>
+      <c r="E1820" s="98"/>
+      <c r="F1820" s="98"/>
+      <c r="G1820" s="98"/>
+      <c r="H1820" s="98"/>
+    </row>
+    <row r="1821" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A1821" s="99" t="s">
         <v>2759</v>
       </c>
-      <c r="B1799" s="98"/>
-      <c r="C1799" s="98"/>
-      <c r="D1799" s="98"/>
-      <c r="E1799" s="98"/>
-      <c r="F1799" s="98"/>
-      <c r="G1799" s="98"/>
-      <c r="H1799" s="98"/>
+      <c r="B1821" s="99"/>
+      <c r="C1821" s="99"/>
+      <c r="D1821" s="99"/>
+      <c r="E1821" s="99"/>
+      <c r="F1821" s="99"/>
+      <c r="G1821" s="99"/>
+      <c r="H1821" s="99"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J1799" xr:uid="{CB07CE66-8F15-46FF-A90A-43FDB2DB428F}"/>
+  <autoFilter ref="A1:J1821" xr:uid="{CB07CE66-8F15-46FF-A90A-43FDB2DB428F}"/>
   <mergeCells count="2">
-    <mergeCell ref="A1798:H1798"/>
-    <mergeCell ref="A1799:H1799"/>
+    <mergeCell ref="A1820:H1820"/>
+    <mergeCell ref="A1821:H1821"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" display="https://leetcode.com/problems/zigzag-conversion" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -54971,10 +55437,34 @@
     <hyperlink ref="B1793" r:id="rId1571" display="https://leetcode.com/problems/find-missing-observations" xr:uid="{9490467D-B31C-44AF-8D15-79AB6781FC3C}"/>
     <hyperlink ref="B1794" r:id="rId1572" display="https://leetcode.com/problems/stone-game-ix" xr:uid="{C7AA6D81-752C-425D-81DA-FAF27F7ED6FA}"/>
     <hyperlink ref="B1795" r:id="rId1573" display="https://leetcode.com/problems/smallest-k-length-subsequence-with-occurrences-of-a-letter" xr:uid="{A5C04344-98FD-4F50-9D84-0FBA98FAC48B}"/>
+    <hyperlink ref="B1796" r:id="rId1574" display="https://leetcode.com/problems/two-out-of-three" xr:uid="{1AB7FC97-05A8-468E-8041-87C042662734}"/>
+    <hyperlink ref="B1797" r:id="rId1575" display="https://leetcode.com/problems/minimum-operations-to-make-a-uni-value-grid" xr:uid="{1D7594B8-D9EF-44A3-A181-5F380536D6FE}"/>
+    <hyperlink ref="B1798" r:id="rId1576" display="https://leetcode.com/problems/stock-price-fluctuation" xr:uid="{B4C0146B-D639-4321-83F0-6D26A81FB65F}"/>
+    <hyperlink ref="B1799" r:id="rId1577" display="https://leetcode.com/problems/partition-array-into-two-arrays-to-minimize-sum-difference" xr:uid="{82903DBE-FBC3-4832-A02A-38C1AC13E633}"/>
+    <hyperlink ref="B1801" r:id="rId1578" xr:uid="{6912978A-59D7-4A0E-A334-53B5396D5C1C}"/>
+    <hyperlink ref="B1800" r:id="rId1579" xr:uid="{20A5B385-905C-42AF-B96A-DC35E88CE4A9}"/>
+    <hyperlink ref="B1802" r:id="rId1580" display="https://leetcode.com/problems/the-time-when-the-network-becomes-idle" xr:uid="{6A5AC808-A088-406E-A668-EA5C0F6DB789}"/>
+    <hyperlink ref="B1803" r:id="rId1581" display="https://leetcode.com/problems/kth-smallest-product-of-two-sorted-arrays" xr:uid="{1E18156F-9CDF-492F-A500-95FD1C862605}"/>
+    <hyperlink ref="B1804" r:id="rId1582" display="https://leetcode.com/problems/check-if-numbers-are-ascending-in-a-sentence" xr:uid="{D07DC893-5260-4C94-B0C7-FADCEA7F501B}"/>
+    <hyperlink ref="B1805" r:id="rId1583" display="https://leetcode.com/problems/simple-bank-system" xr:uid="{2D5E5F4E-907C-4728-A902-7D10B6514920}"/>
+    <hyperlink ref="B1806" r:id="rId1584" xr:uid="{D5EDB803-F602-4ABD-9E68-1113D2A2A40A}"/>
+    <hyperlink ref="B1807" r:id="rId1585" display="https://leetcode.com/problems/second-minimum-time-to-reach-destination" xr:uid="{6ACF2F93-7EDE-4F1E-AA71-8112DE7ABF63}"/>
+    <hyperlink ref="B1808" r:id="rId1586" display="https://leetcode.com/problems/number-of-valid-words-in-a-sentence" xr:uid="{BCE84EEA-54FF-4E5A-9955-C02227468918}"/>
+    <hyperlink ref="B1809" r:id="rId1587" display="https://leetcode.com/problems/next-greater-numerically-balanced-number" xr:uid="{9FD27FA2-0676-4160-BC27-2E0F89E752A4}"/>
+    <hyperlink ref="B1810" r:id="rId1588" display="https://leetcode.com/problems/count-nodes-with-the-highest-score" xr:uid="{F7F71D15-EF63-42B1-BD71-1EB9E5AFAAEC}"/>
+    <hyperlink ref="B1811" r:id="rId1589" display="https://leetcode.com/problems/parallel-courses-iii" xr:uid="{10B385A3-FDEE-4123-AC9C-4F7EF85C3982}"/>
+    <hyperlink ref="B1812" r:id="rId1590" display="https://leetcode.com/problems/kth-distinct-string-in-an-array" xr:uid="{C8004808-B8BB-4E39-B2BC-980704DF7D4E}"/>
+    <hyperlink ref="B1813" r:id="rId1591" display="https://leetcode.com/problems/two-best-non-overlapping-events" xr:uid="{F29009B4-E1BD-443F-8480-1775C9682530}"/>
+    <hyperlink ref="B1814" r:id="rId1592" display="https://leetcode.com/problems/plates-between-candles" xr:uid="{A118D0C8-0288-4E36-8D25-A4774630A76B}"/>
+    <hyperlink ref="B1815" r:id="rId1593" display="https://leetcode.com/problems/number-of-valid-move-combinations-on-chessboard" xr:uid="{AEC5E678-B4A1-445C-B8F4-DE74236CAC53}"/>
+    <hyperlink ref="B1816" r:id="rId1594" display="https://leetcode.com/problems/smallest-index-with-equal-value" xr:uid="{E7A8904C-9D51-49EC-A910-9EE0B60892CD}"/>
+    <hyperlink ref="B1817" r:id="rId1595" display="https://leetcode.com/problems/find-the-minimum-and-maximum-number-of-nodes-between-critical-points" xr:uid="{0AC3439C-F776-4E62-B906-4FEDA4902BCA}"/>
+    <hyperlink ref="B1818" r:id="rId1596" display="https://leetcode.com/problems/minimum-operations-to-convert-number" xr:uid="{E72F9ECF-969F-4732-A4BD-D6C619ECE110}"/>
+    <hyperlink ref="B1819" r:id="rId1597" display="https://leetcode.com/problems/check-if-an-original-string-exists-given-two-encoded-strings" xr:uid="{0E2F5BE6-4251-43B0-902E-665D40B08A24}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1574"/>
-  <drawing r:id="rId1575"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1598"/>
+  <drawing r:id="rId1599"/>
 </worksheet>
 </file>
 
@@ -54982,7 +55472,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E01657D4-0457-4414-9EA3-8C4EB4AF3913}">
   <dimension ref="A1:F121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
+    <sheetView topLeftCell="A101" workbookViewId="0">
       <selection activeCell="F121" sqref="F121"/>
     </sheetView>
   </sheetViews>

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{177E2F04-931D-4174-B4DD-5E5A4260F7FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ABD7C69-5ADD-4B0B-93E1-CCD4119E6C19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9756" uniqueCount="3612">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9835" uniqueCount="3630">
   <si>
     <t>Difficulty</t>
   </si>
@@ -10873,6 +10873,60 @@
   </si>
   <si>
     <t>2^ 30</t>
+  </si>
+  <si>
+    <t>Calculate from left to right then right to left with max value from previous line shifting</t>
+  </si>
+  <si>
+    <t>Sort on time stamp with leave first enter second</t>
+  </si>
+  <si>
+    <t>Scan line</t>
+  </si>
+  <si>
+    <t>Find first replace and continue until not valid</t>
+  </si>
+  <si>
+    <t>Search all student and mentor pair, with bit mask</t>
+  </si>
+  <si>
+    <t>each circle with 3 * radius * radius</t>
+  </si>
+  <si>
+    <t>Calculate endpoint by finite state</t>
+  </si>
+  <si>
+    <t>Calculate dp[i][k], based on dp[j][k-1] where j &lt; i</t>
+  </si>
+  <si>
+    <t>N * N * K</t>
+  </si>
+  <si>
+    <t>Check substring</t>
+  </si>
+  <si>
+    <t>Calculate minimum absolute value and count of negative numbers</t>
+  </si>
+  <si>
+    <t>Iterate bits in numbers</t>
+  </si>
+  <si>
+    <t>Return when difference is zero or too big</t>
+  </si>
+  <si>
+    <t>N^N</t>
+  </si>
+  <si>
+    <t>Sort in length then the number</t>
+  </si>
+  <si>
+    <t>Memorize session start</t>
+  </si>
+  <si>
+    <t>N!</t>
+  </si>
+  <si>
+    <t>if return in current room the 2 days to next room, otherwise calcluate difference with previous room</t>
   </si>
 </sst>
 </file>
@@ -11414,8 +11468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J1822"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1754" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A1773" sqref="A1773"/>
+    <sheetView tabSelected="1" topLeftCell="A1805" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A1780" sqref="A1780"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -52902,6 +52956,27 @@
       <c r="B1726" s="1" t="s">
         <v>3469</v>
       </c>
+      <c r="C1726" s="93">
+        <v>4</v>
+      </c>
+      <c r="D1726" s="93" t="s">
+        <v>1716</v>
+      </c>
+      <c r="E1726" s="93" t="s">
+        <v>2929</v>
+      </c>
+      <c r="F1726" s="93" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1726" s="93" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1726" s="93" t="s">
+        <v>3612</v>
+      </c>
+      <c r="I1726" s="93" t="s">
+        <v>3039</v>
+      </c>
     </row>
     <row r="1727" spans="1:9" s="88" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1727" s="88">
@@ -52962,6 +53037,27 @@
       <c r="B1729" s="1" t="s">
         <v>3470</v>
       </c>
+      <c r="C1729" s="93">
+        <v>3</v>
+      </c>
+      <c r="D1729" s="93" t="s">
+        <v>1716</v>
+      </c>
+      <c r="E1729" s="93" t="s">
+        <v>2918</v>
+      </c>
+      <c r="F1729" s="93" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1729" s="93" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1729" s="93" t="s">
+        <v>3613</v>
+      </c>
+      <c r="I1729" s="93" t="s">
+        <v>3023</v>
+      </c>
     </row>
     <row r="1730" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1730" s="93">
@@ -52970,6 +53066,27 @@
       <c r="B1730" s="1" t="s">
         <v>3471</v>
       </c>
+      <c r="C1730" s="93">
+        <v>3</v>
+      </c>
+      <c r="D1730" s="93" t="s">
+        <v>1716</v>
+      </c>
+      <c r="E1730" s="93" t="s">
+        <v>2918</v>
+      </c>
+      <c r="F1730" s="93" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1730" s="93" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1730" s="93" t="s">
+        <v>3614</v>
+      </c>
+      <c r="I1730" s="93" t="s">
+        <v>3023</v>
+      </c>
     </row>
     <row r="1731" spans="1:9" s="90" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1731" s="90">
@@ -53033,6 +53150,24 @@
       <c r="B1733" s="1" t="s">
         <v>3472</v>
       </c>
+      <c r="C1733" s="93">
+        <v>2</v>
+      </c>
+      <c r="D1733" s="93" t="s">
+        <v>1716</v>
+      </c>
+      <c r="F1733" s="93" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1733" s="93" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1733" s="93" t="s">
+        <v>3615</v>
+      </c>
+      <c r="I1733" s="93" t="s">
+        <v>2994</v>
+      </c>
     </row>
     <row r="1734" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1734" s="93">
@@ -53041,6 +53176,24 @@
       <c r="B1734" s="1" t="s">
         <v>3473</v>
       </c>
+      <c r="C1734" s="93">
+        <v>3</v>
+      </c>
+      <c r="D1734" s="93" t="s">
+        <v>1716</v>
+      </c>
+      <c r="F1734" s="93" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1734" s="93" t="s">
+        <v>121</v>
+      </c>
+      <c r="H1734" s="93" t="s">
+        <v>3616</v>
+      </c>
+      <c r="I1734" s="93" t="s">
+        <v>3227</v>
+      </c>
     </row>
     <row r="1735" spans="1:9" s="90" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1735" s="90">
@@ -53109,6 +53262,24 @@
       <c r="B1738" s="1" t="s">
         <v>3475</v>
       </c>
+      <c r="C1738" s="93">
+        <v>2</v>
+      </c>
+      <c r="D1738" s="93" t="s">
+        <v>1714</v>
+      </c>
+      <c r="F1738" s="93" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1738" s="93" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1738" s="93" t="s">
+        <v>3617</v>
+      </c>
+      <c r="I1738" s="93" t="s">
+        <v>2996</v>
+      </c>
     </row>
     <row r="1739" spans="1:9" s="90" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1739" s="90">
@@ -53175,6 +53346,24 @@
       <c r="B1741" s="1" t="s">
         <v>3476</v>
       </c>
+      <c r="C1741" s="93">
+        <v>2</v>
+      </c>
+      <c r="D1741" s="93" t="s">
+        <v>1709</v>
+      </c>
+      <c r="F1741" s="93" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1741" s="93" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1741" s="93" t="s">
+        <v>3618</v>
+      </c>
+      <c r="I1741" s="93" t="s">
+        <v>2994</v>
+      </c>
     </row>
     <row r="1742" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1742" s="93">
@@ -53183,6 +53372,24 @@
       <c r="B1742" s="1" t="s">
         <v>3477</v>
       </c>
+      <c r="C1742" s="93">
+        <v>3</v>
+      </c>
+      <c r="D1742" s="93" t="s">
+        <v>1716</v>
+      </c>
+      <c r="F1742" s="93" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1742" s="93" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1742" s="93" t="s">
+        <v>3619</v>
+      </c>
+      <c r="I1742" s="93" t="s">
+        <v>3620</v>
+      </c>
     </row>
     <row r="1743" spans="1:9" s="90" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1743" s="90">
@@ -53288,6 +53495,24 @@
       <c r="B1748" s="1" t="s">
         <v>3483</v>
       </c>
+      <c r="C1748" s="93">
+        <v>1</v>
+      </c>
+      <c r="D1748" s="93" t="s">
+        <v>1716</v>
+      </c>
+      <c r="F1748" s="93" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1748" s="93" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1748" s="93" t="s">
+        <v>3621</v>
+      </c>
+      <c r="I1748" s="93" t="s">
+        <v>2994</v>
+      </c>
     </row>
     <row r="1749" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1749" s="93">
@@ -53378,6 +53603,24 @@
       <c r="B1754" s="1" t="s">
         <v>3489</v>
       </c>
+      <c r="C1754" s="93">
+        <v>2</v>
+      </c>
+      <c r="D1754" s="93" t="s">
+        <v>1714</v>
+      </c>
+      <c r="F1754" s="93" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1754" s="93" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1754" s="93" t="s">
+        <v>3622</v>
+      </c>
+      <c r="I1754" s="93" t="s">
+        <v>2994</v>
+      </c>
     </row>
     <row r="1755" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1755" s="93">
@@ -53446,6 +53689,24 @@
       <c r="B1758" s="1" t="s">
         <v>3493</v>
       </c>
+      <c r="C1758" s="93">
+        <v>2</v>
+      </c>
+      <c r="D1758" s="93" t="s">
+        <v>1716</v>
+      </c>
+      <c r="F1758" s="93" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1758" s="93" t="s">
+        <v>134</v>
+      </c>
+      <c r="H1758" s="93" t="s">
+        <v>3623</v>
+      </c>
+      <c r="I1758" s="93" t="s">
+        <v>2994</v>
+      </c>
     </row>
     <row r="1759" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1759" s="93">
@@ -53454,6 +53715,24 @@
       <c r="B1759" s="1" t="s">
         <v>3494</v>
       </c>
+      <c r="C1759" s="93">
+        <v>3</v>
+      </c>
+      <c r="D1759" s="93" t="s">
+        <v>1716</v>
+      </c>
+      <c r="F1759" s="93" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1759" s="93" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1759" s="93" t="s">
+        <v>3624</v>
+      </c>
+      <c r="I1759" s="93" t="s">
+        <v>3625</v>
+      </c>
     </row>
     <row r="1760" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1760" s="93">
@@ -53517,6 +53796,27 @@
       <c r="B1762" s="1" t="s">
         <v>3497</v>
       </c>
+      <c r="C1762" s="93">
+        <v>2</v>
+      </c>
+      <c r="D1762" s="93" t="s">
+        <v>1716</v>
+      </c>
+      <c r="E1762" s="93" t="s">
+        <v>2929</v>
+      </c>
+      <c r="F1762" s="93" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1762" s="93" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1762" s="93" t="s">
+        <v>3626</v>
+      </c>
+      <c r="I1762" s="93" t="s">
+        <v>3023</v>
+      </c>
     </row>
     <row r="1763" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1763" s="93">
@@ -53525,6 +53825,24 @@
       <c r="B1763" s="1" t="s">
         <v>3498</v>
       </c>
+      <c r="C1763" s="93">
+        <v>3</v>
+      </c>
+      <c r="D1763" s="93" t="s">
+        <v>1716</v>
+      </c>
+      <c r="F1763" s="93" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1763" s="93" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1763" s="93" t="s">
+        <v>3627</v>
+      </c>
+      <c r="I1763" s="93" t="s">
+        <v>3628</v>
+      </c>
     </row>
     <row r="1764" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1764" s="93">
@@ -53669,6 +53987,24 @@
       </c>
       <c r="B1771" s="95" t="s">
         <v>3507</v>
+      </c>
+      <c r="C1771" s="93">
+        <v>4</v>
+      </c>
+      <c r="D1771" s="93" t="s">
+        <v>1716</v>
+      </c>
+      <c r="F1771" s="93" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1771" s="93" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1771" s="93" t="s">
+        <v>3629</v>
+      </c>
+      <c r="I1771" s="93" t="s">
+        <v>2994</v>
       </c>
     </row>
     <row r="1772" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ABD7C69-5ADD-4B0B-93E1-CCD4119E6C19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{312AB7BC-6234-47F1-B674-DE1A3CD071F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="SQL" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'LeetCode Algorithm'!$A$1:$J$1822</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'LeetCode Algorithm'!$A$1:$J$1839</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9835" uniqueCount="3630">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9913" uniqueCount="3660">
   <si>
     <t>Difficulty</t>
   </si>
@@ -10927,6 +10927,96 @@
   </si>
   <si>
     <t>if return in current room the 2 days to next room, otherwise calcluate difference with previous room</t>
+  </si>
+  <si>
+    <t>Count Vowel Substrings of a String</t>
+  </si>
+  <si>
+    <t>Vowels of All Substrings</t>
+  </si>
+  <si>
+    <t>Minimized Maximum of Products Distributed to Any Store</t>
+  </si>
+  <si>
+    <t>Maximum Path Quality of a Graph</t>
+  </si>
+  <si>
+    <t>DFS, tracking visited as score counting</t>
+  </si>
+  <si>
+    <t>Check Whether Two Strings are Almost Equivalent</t>
+  </si>
+  <si>
+    <t>Sum of k-Mirror Numbers</t>
+  </si>
+  <si>
+    <t>Generate numbers</t>
+  </si>
+  <si>
+    <t>Range Frequency Queries</t>
+  </si>
+  <si>
+    <t>Watering Plants</t>
+  </si>
+  <si>
+    <t>Two Furthest Houses With Different Colors</t>
+  </si>
+  <si>
+    <t>Process Restricted Friend Requests</t>
+  </si>
+  <si>
+    <t>Union Find, scan each request by enemy</t>
+  </si>
+  <si>
+    <t>Decode the Slanted Ciphertext</t>
+  </si>
+  <si>
+    <t>Reverse Nodes in Even Length Groups</t>
+  </si>
+  <si>
+    <t>Time Needed to Buy Tickets</t>
+  </si>
+  <si>
+    <t>Maximum Number of Tasks You Can Assign</t>
+  </si>
+  <si>
+    <t>Most Beautiful Item for Each Query</t>
+  </si>
+  <si>
+    <t>Walking Robot Simulation II</t>
+  </si>
+  <si>
+    <t>Use binary search to find maximum tasks can be assigned, assign from hardiest to easiest.</t>
+  </si>
+  <si>
+    <t>LOG(N) * N * LOG(N)</t>
+  </si>
+  <si>
+    <t>Determine stop position and travel position, stop position can not be too earlier and travel position can not be too late</t>
+  </si>
+  <si>
+    <t>32^N</t>
+  </si>
+  <si>
+    <t>Shortest Path, track each node with 2 distinct arriving time</t>
+  </si>
+  <si>
+    <t>Guess the answer and iterate array by two pointers.</t>
+  </si>
+  <si>
+    <t>(M + N) * LOG(N)</t>
+  </si>
+  <si>
+    <t>Push higher leading characters out</t>
+  </si>
+  <si>
+    <t>Prefix sum and track a particular value</t>
+  </si>
+  <si>
+    <t>Parse expersion with all answers, from center and spread.</t>
+  </si>
+  <si>
+    <t>From each number see how many in range and how many duplicate</t>
   </si>
 </sst>
 </file>
@@ -10971,7 +11061,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -11079,6 +11169,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -11466,10 +11557,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J1822"/>
+  <dimension ref="A1:J1839"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1805" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A1780" sqref="A1780"/>
+    <sheetView tabSelected="1" topLeftCell="A1724" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A1724" sqref="A1724"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -54153,6 +54244,27 @@
       <c r="B1780" s="1" t="s">
         <v>3515</v>
       </c>
+      <c r="C1780" s="93">
+        <v>4</v>
+      </c>
+      <c r="D1780" s="93" t="s">
+        <v>1716</v>
+      </c>
+      <c r="E1780" s="93" t="s">
+        <v>2929</v>
+      </c>
+      <c r="F1780" s="93" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1780" s="93" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1780" s="93" t="s">
+        <v>3659</v>
+      </c>
+      <c r="I1780" s="93" t="s">
+        <v>3023</v>
+      </c>
     </row>
     <row r="1781" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1781" s="93">
@@ -54271,6 +54383,21 @@
       <c r="B1788" s="95" t="s">
         <v>3526</v>
       </c>
+      <c r="C1788" s="94">
+        <v>4</v>
+      </c>
+      <c r="D1788" s="94" t="s">
+        <v>1716</v>
+      </c>
+      <c r="F1788" s="94" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1788" s="94" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1788" s="94" t="s">
+        <v>3658</v>
+      </c>
     </row>
     <row r="1789" spans="1:9" s="94" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1789" s="94">
@@ -54321,6 +54448,27 @@
       <c r="B1792" s="95" t="s">
         <v>3530</v>
       </c>
+      <c r="C1792" s="94">
+        <v>4</v>
+      </c>
+      <c r="D1792" s="94" t="s">
+        <v>1716</v>
+      </c>
+      <c r="E1792" s="94" t="s">
+        <v>2918</v>
+      </c>
+      <c r="F1792" s="94" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1792" s="94" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1792" s="94" t="s">
+        <v>3657</v>
+      </c>
+      <c r="I1792" s="94" t="s">
+        <v>2994</v>
+      </c>
     </row>
     <row r="1793" spans="1:9" s="94" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1793" s="94">
@@ -54371,6 +54519,24 @@
       <c r="B1796" s="95" t="s">
         <v>3534</v>
       </c>
+      <c r="C1796" s="94">
+        <v>4</v>
+      </c>
+      <c r="D1796" s="94" t="s">
+        <v>1716</v>
+      </c>
+      <c r="E1796" s="94" t="s">
+        <v>2929</v>
+      </c>
+      <c r="F1796" s="94" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1796" s="94" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1796" s="94" t="s">
+        <v>3656</v>
+      </c>
     </row>
     <row r="1797" spans="1:9" s="97" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1797" s="97">
@@ -54492,6 +54658,24 @@
       <c r="B1804" s="1" t="s">
         <v>3555</v>
       </c>
+      <c r="C1804" s="97">
+        <v>5</v>
+      </c>
+      <c r="D1804" s="97" t="s">
+        <v>1716</v>
+      </c>
+      <c r="F1804" s="97" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1804" s="97" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1804" s="97" t="s">
+        <v>3654</v>
+      </c>
+      <c r="I1804" s="97" t="s">
+        <v>3655</v>
+      </c>
     </row>
     <row r="1805" spans="1:9" s="97" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1805" s="97">
@@ -54542,6 +54726,24 @@
       <c r="B1808" s="98" t="s">
         <v>3559</v>
       </c>
+      <c r="C1808" s="97">
+        <v>4</v>
+      </c>
+      <c r="D1808" s="97" t="s">
+        <v>1716</v>
+      </c>
+      <c r="F1808" s="97" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1808" s="97" t="s">
+        <v>187</v>
+      </c>
+      <c r="H1808" s="97" t="s">
+        <v>3653</v>
+      </c>
+      <c r="I1808" s="97" t="s">
+        <v>3023</v>
+      </c>
     </row>
     <row r="1809" spans="1:9" s="97" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1809" s="97">
@@ -54592,6 +54794,27 @@
       <c r="B1812" s="1" t="s">
         <v>3563</v>
       </c>
+      <c r="C1812" s="97">
+        <v>4</v>
+      </c>
+      <c r="D1812" s="97" t="s">
+        <v>1716</v>
+      </c>
+      <c r="E1812" s="97" t="s">
+        <v>2918</v>
+      </c>
+      <c r="F1812" s="97" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1812" s="97" t="s">
+        <v>187</v>
+      </c>
+      <c r="H1812" s="97" t="s">
+        <v>265</v>
+      </c>
+      <c r="I1812" s="97" t="s">
+        <v>2994</v>
+      </c>
     </row>
     <row r="1813" spans="1:9" s="94" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1813" s="94">
@@ -54642,6 +54865,21 @@
       <c r="B1816" s="98" t="s">
         <v>3567</v>
       </c>
+      <c r="C1816" s="97">
+        <v>5</v>
+      </c>
+      <c r="F1816" s="97" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1816" s="97" t="s">
+        <v>121</v>
+      </c>
+      <c r="H1816" s="97" t="s">
+        <v>3651</v>
+      </c>
+      <c r="I1816" s="97" t="s">
+        <v>3652</v>
+      </c>
     </row>
     <row r="1817" spans="1:9" s="97" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1817" s="97">
@@ -54711,35 +54949,241 @@
         <v>3310</v>
       </c>
     </row>
-    <row r="1821" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A1821" s="100" t="s">
+    <row r="1821" spans="1:9" s="100" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1821" s="100">
+        <v>2062</v>
+      </c>
+      <c r="B1821" s="1" t="s">
+        <v>3630</v>
+      </c>
+      <c r="F1821" s="100" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1822" spans="1:9" s="100" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1822" s="100">
+        <v>2063</v>
+      </c>
+      <c r="B1822" s="1" t="s">
+        <v>3631</v>
+      </c>
+    </row>
+    <row r="1823" spans="1:9" s="100" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1823" s="100">
+        <v>2064</v>
+      </c>
+      <c r="B1823" s="98" t="s">
+        <v>3632</v>
+      </c>
+    </row>
+    <row r="1824" spans="1:9" s="100" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1824" s="100">
+        <v>2065</v>
+      </c>
+      <c r="B1824" s="1" t="s">
+        <v>3633</v>
+      </c>
+      <c r="C1824" s="100">
+        <v>4</v>
+      </c>
+      <c r="D1824" s="100" t="s">
+        <v>1716</v>
+      </c>
+      <c r="F1824" s="100" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1824" s="100" t="s">
+        <v>187</v>
+      </c>
+      <c r="H1824" s="100" t="s">
+        <v>3634</v>
+      </c>
+      <c r="I1824" s="100" t="s">
+        <v>3628</v>
+      </c>
+    </row>
+    <row r="1825" spans="1:9" s="100" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1825" s="100">
+        <v>2068</v>
+      </c>
+      <c r="B1825" s="1" t="s">
+        <v>3635</v>
+      </c>
+    </row>
+    <row r="1826" spans="1:9" s="100" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1826" s="100">
+        <v>2069</v>
+      </c>
+      <c r="B1826" s="1" t="s">
+        <v>3648</v>
+      </c>
+    </row>
+    <row r="1827" spans="1:9" s="100" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1827" s="100">
+        <v>2070</v>
+      </c>
+      <c r="B1827" s="1" t="s">
+        <v>3647</v>
+      </c>
+    </row>
+    <row r="1828" spans="1:9" s="100" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1828" s="100">
+        <v>2071</v>
+      </c>
+      <c r="B1828" s="1" t="s">
+        <v>3646</v>
+      </c>
+      <c r="C1828" s="100">
+        <v>5</v>
+      </c>
+      <c r="D1828" s="100" t="s">
+        <v>1716</v>
+      </c>
+      <c r="F1828" s="100" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1828" s="100" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1828" s="100" t="s">
+        <v>3649</v>
+      </c>
+      <c r="I1828" s="100" t="s">
+        <v>3650</v>
+      </c>
+    </row>
+    <row r="1829" spans="1:9" s="100" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1829" s="100">
+        <v>2073</v>
+      </c>
+      <c r="B1829" s="1" t="s">
+        <v>3645</v>
+      </c>
+    </row>
+    <row r="1830" spans="1:9" s="100" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1830" s="100">
+        <v>2074</v>
+      </c>
+      <c r="B1830" s="1" t="s">
+        <v>3644</v>
+      </c>
+    </row>
+    <row r="1831" spans="1:9" s="100" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1831" s="100">
+        <v>2075</v>
+      </c>
+      <c r="B1831" s="1" t="s">
+        <v>3643</v>
+      </c>
+    </row>
+    <row r="1832" spans="1:9" s="100" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1832" s="100">
+        <v>2076</v>
+      </c>
+      <c r="B1832" s="1" t="s">
+        <v>3641</v>
+      </c>
+      <c r="C1832" s="100">
+        <v>4</v>
+      </c>
+      <c r="D1832" s="100" t="s">
+        <v>1716</v>
+      </c>
+      <c r="E1832" s="100" t="s">
+        <v>2929</v>
+      </c>
+      <c r="F1832" s="100" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1832" s="100" t="s">
+        <v>187</v>
+      </c>
+      <c r="H1832" s="100" t="s">
+        <v>3642</v>
+      </c>
+    </row>
+    <row r="1833" spans="1:9" s="100" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1833" s="100">
+        <v>2078</v>
+      </c>
+      <c r="B1833" s="1" t="s">
+        <v>3640</v>
+      </c>
+    </row>
+    <row r="1834" spans="1:9" s="100" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1834" s="100">
+        <v>2079</v>
+      </c>
+      <c r="B1834" s="1" t="s">
+        <v>3639</v>
+      </c>
+    </row>
+    <row r="1835" spans="1:9" s="100" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1835" s="100">
+        <v>2080</v>
+      </c>
+      <c r="B1835" s="1" t="s">
+        <v>3638</v>
+      </c>
+    </row>
+    <row r="1836" spans="1:9" s="100" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1836" s="100">
+        <v>2081</v>
+      </c>
+      <c r="B1836" s="1" t="s">
+        <v>3636</v>
+      </c>
+      <c r="C1836" s="100">
+        <v>4</v>
+      </c>
+      <c r="D1836" s="100" t="s">
+        <v>1714</v>
+      </c>
+      <c r="F1836" s="100" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1836" s="100" t="s">
+        <v>121</v>
+      </c>
+      <c r="H1836" s="100" t="s">
+        <v>3637</v>
+      </c>
+      <c r="I1836" s="100" t="s">
+        <v>3021</v>
+      </c>
+    </row>
+    <row r="1837" spans="1:9" s="100" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1837" s="98"/>
+    </row>
+    <row r="1838" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A1838" s="101" t="s">
         <v>1717</v>
       </c>
-      <c r="B1821" s="100"/>
-      <c r="C1821" s="100"/>
-      <c r="D1821" s="100"/>
-      <c r="E1821" s="100"/>
-      <c r="F1821" s="100"/>
-      <c r="G1821" s="100"/>
-      <c r="H1821" s="100"/>
-    </row>
-    <row r="1822" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A1822" s="101" t="s">
+      <c r="B1838" s="101"/>
+      <c r="C1838" s="101"/>
+      <c r="D1838" s="101"/>
+      <c r="E1838" s="101"/>
+      <c r="F1838" s="101"/>
+      <c r="G1838" s="101"/>
+      <c r="H1838" s="101"/>
+    </row>
+    <row r="1839" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A1839" s="102" t="s">
         <v>2754</v>
       </c>
-      <c r="B1822" s="101"/>
-      <c r="C1822" s="101"/>
-      <c r="D1822" s="101"/>
-      <c r="E1822" s="101"/>
-      <c r="F1822" s="101"/>
-      <c r="G1822" s="101"/>
-      <c r="H1822" s="101"/>
+      <c r="B1839" s="102"/>
+      <c r="C1839" s="102"/>
+      <c r="D1839" s="102"/>
+      <c r="E1839" s="102"/>
+      <c r="F1839" s="102"/>
+      <c r="G1839" s="102"/>
+      <c r="H1839" s="102"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J1822" xr:uid="{CB07CE66-8F15-46FF-A90A-43FDB2DB428F}"/>
+  <autoFilter ref="A1:J1839" xr:uid="{CB07CE66-8F15-46FF-A90A-43FDB2DB428F}"/>
   <mergeCells count="2">
-    <mergeCell ref="A1821:H1821"/>
-    <mergeCell ref="A1822:H1822"/>
+    <mergeCell ref="A1838:H1838"/>
+    <mergeCell ref="A1839:H1839"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" display="https://leetcode.com/problems/zigzag-conversion" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -56340,10 +56784,26 @@
     <hyperlink ref="B1820" r:id="rId1596" display="https://leetcode.com/problems/check-if-an-original-string-exists-given-two-encoded-strings" xr:uid="{0E2F5BE6-4251-43B0-902E-665D40B08A24}"/>
     <hyperlink ref="B605" r:id="rId1597" display="https://leetcode.com/problems/robot-return-to-origin" xr:uid="{F90BDC0D-FA70-41A1-A23C-878C1C1627B7}"/>
     <hyperlink ref="B1710" r:id="rId1598" display="https://leetcode.com/problems/number-of-wonderful-substrings" xr:uid="{9423D426-30DB-4078-B23A-2E94A3A02AA3}"/>
+    <hyperlink ref="B1821" r:id="rId1599" display="https://leetcode.com/problems/count-vowel-substrings-of-a-string" xr:uid="{7FCC5F29-7C62-4374-B0A9-2ABCC18104A5}"/>
+    <hyperlink ref="B1822" r:id="rId1600" display="https://leetcode.com/problems/vowels-of-all-substrings" xr:uid="{46C4B1C2-365D-40D1-B052-A17550370995}"/>
+    <hyperlink ref="B1823" r:id="rId1601" display="https://leetcode.com/problems/minimized-maximum-of-products-distributed-to-any-store" xr:uid="{10A9FF8C-86AD-4D91-B020-A08498C62B37}"/>
+    <hyperlink ref="B1824" r:id="rId1602" display="https://leetcode.com/problems/maximum-path-quality-of-a-graph" xr:uid="{0B2D1EBB-160D-4ED4-8B55-CE1BD0869125}"/>
+    <hyperlink ref="B1825" r:id="rId1603" xr:uid="{BB09D143-36DB-4DAD-8C50-2059028F1FE9}"/>
+    <hyperlink ref="B1836" r:id="rId1604" display="https://leetcode.com/problems/sum-of-k-mirror-numbers" xr:uid="{F0650F51-568A-4717-BC19-ABB1B6FFFDEC}"/>
+    <hyperlink ref="B1835" r:id="rId1605" display="https://leetcode.com/problems/range-frequency-queries" xr:uid="{1E229C2A-34B8-4A81-B0C6-5A3AD71CCF39}"/>
+    <hyperlink ref="B1834" r:id="rId1606" display="https://leetcode.com/problems/watering-plants" xr:uid="{A7EF29DE-DB3D-46A9-905D-C48EDDF5C996}"/>
+    <hyperlink ref="B1833" r:id="rId1607" display="https://leetcode.com/problems/two-furthest-houses-with-different-colors" xr:uid="{37BA5D04-9AF4-4ECA-A97D-39D90F766EF4}"/>
+    <hyperlink ref="B1832" r:id="rId1608" display="https://leetcode.com/problems/process-restricted-friend-requests" xr:uid="{C99C6F0C-8C7B-4E62-8AC6-A5A8F82F0410}"/>
+    <hyperlink ref="B1831" r:id="rId1609" display="https://leetcode.com/problems/decode-the-slanted-ciphertext" xr:uid="{2350D7FD-D03A-41C6-90F8-670D922F7173}"/>
+    <hyperlink ref="B1830" r:id="rId1610" display="https://leetcode.com/problems/reverse-nodes-in-even-length-groups" xr:uid="{D9BBD886-602B-46F9-97D3-B4CD877C9459}"/>
+    <hyperlink ref="B1829" r:id="rId1611" display="https://leetcode.com/problems/time-needed-to-buy-tickets" xr:uid="{B62F15D1-AFD5-4E07-A951-E2E37A83C871}"/>
+    <hyperlink ref="B1828" r:id="rId1612" display="https://leetcode.com/problems/maximum-number-of-tasks-you-can-assign" xr:uid="{953AE036-BD94-4947-9D3F-2342559633D4}"/>
+    <hyperlink ref="B1827" r:id="rId1613" display="https://leetcode.com/problems/most-beautiful-item-for-each-query" xr:uid="{285617BD-2F3A-412A-8F56-D5D10E9F2FA7}"/>
+    <hyperlink ref="B1826" r:id="rId1614" display="https://leetcode.com/problems/walking-robot-simulation-ii" xr:uid="{D2D1B95C-0388-40D9-8577-069CD220E305}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1599"/>
-  <drawing r:id="rId1600"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1615"/>
+  <drawing r:id="rId1616"/>
 </worksheet>
 </file>
 

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD4B9516-BF40-4168-9027-14BF7F1D3C0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FF83748-1109-4DAF-91E6-E1EAA50F5C8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9960" uniqueCount="3664">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9961" uniqueCount="3664">
   <si>
     <t>Difficulty</t>
   </si>
@@ -11571,8 +11571,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J1839"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1760" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A1770" sqref="A1770"/>
+    <sheetView tabSelected="1" topLeftCell="A1735" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E1307" sqref="E1307"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -42347,9 +42347,11 @@
         <v>2</v>
       </c>
       <c r="D1307" s="38" t="s">
-        <v>1762</v>
-      </c>
-      <c r="E1307" s="61"/>
+        <v>1715</v>
+      </c>
+      <c r="E1307" s="61" t="s">
+        <v>2927</v>
+      </c>
       <c r="F1307" s="38" t="s">
         <v>9</v>
       </c>

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F562CE53-E312-4303-BD17-95D4C0B83394}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8A1465C-8D3D-4A1A-9B83-EFE82613FCB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="SQL" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'LeetCode Algorithm'!$A$1:$J$1846</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'LeetCode Algorithm'!$A$1:$J$1859</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10043" uniqueCount="3682">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10112" uniqueCount="3706">
   <si>
     <t>Difficulty</t>
   </si>
@@ -11083,6 +11083,78 @@
   </si>
   <si>
     <t>Math theory</t>
+  </si>
+  <si>
+    <t>Substrings That Begin and End With the Same Letter</t>
+  </si>
+  <si>
+    <t>Count Common Words With One Occurrence</t>
+  </si>
+  <si>
+    <t>Parse word and count word</t>
+  </si>
+  <si>
+    <t>Minimum Number of Buckets Required to Collect Rainwater from Houses</t>
+  </si>
+  <si>
+    <t>Minimum Cost Homecoming of a Robot in a Grid</t>
+  </si>
+  <si>
+    <t>Count Fertile Pyramids in a Land</t>
+  </si>
+  <si>
+    <t>Pile up the Pyramids.</t>
+  </si>
+  <si>
+    <t>Find Target Indices After Sorting Array</t>
+  </si>
+  <si>
+    <t>Binary Search the target</t>
+  </si>
+  <si>
+    <t>K Radius Subarray Averages</t>
+  </si>
+  <si>
+    <t>Iterate as end position and set average on center</t>
+  </si>
+  <si>
+    <t>Removing Minimum and Maximum From Array</t>
+  </si>
+  <si>
+    <t>Find All People With Secret</t>
+  </si>
+  <si>
+    <t>Minimum Cost to Reach City With Discounts</t>
+  </si>
+  <si>
+    <t>When no enough water, add 2 * position of plant</t>
+  </si>
+  <si>
+    <t>Minimize Product Sum of Two Arrays</t>
+  </si>
+  <si>
+    <t>Sort two array and calculate by oppsite order</t>
+  </si>
+  <si>
+    <t>Sort Features by Popularity</t>
+  </si>
+  <si>
+    <t>Parse word, dedup then match with keyword</t>
+  </si>
+  <si>
+    <t>Sort price in treemap, keep latest timestamp</t>
+  </si>
+  <si>
+    <t>calculate GCD, and reduce scale</t>
+  </si>
+  <si>
+    <t>Check frequency diff by letter</t>
+  </si>
+  <si>
+    <t>Check if String Is Decomposable Into Value-Equal Substrings</t>
+  </si>
+  <si>
+    <t>Recursive call with one 2 letters and others with 3 letters</t>
   </si>
 </sst>
 </file>
@@ -11127,7 +11199,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -11235,6 +11307,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -11626,10 +11699,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J1846"/>
+  <dimension ref="A1:J1859"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1745" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I1756" sqref="I1756"/>
+    <sheetView tabSelected="1" topLeftCell="A1788" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A1794" sqref="A1794"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -47062,7 +47135,7 @@
         <v>1714</v>
       </c>
       <c r="E1495" s="61" t="s">
-        <v>2915</v>
+        <v>2926</v>
       </c>
       <c r="F1495" s="60" t="s">
         <v>9</v>
@@ -49957,82 +50030,85 @@
         <v>2991</v>
       </c>
     </row>
-    <row r="1603" spans="1:9" s="74" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1603" s="74">
+    <row r="1603" spans="1:9" s="104" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1603" s="104">
+        <v>1772</v>
+      </c>
+      <c r="B1603" s="1" t="s">
+        <v>3699</v>
+      </c>
+      <c r="C1603" s="104">
+        <v>3</v>
+      </c>
+      <c r="D1603" s="104" t="s">
+        <v>1714</v>
+      </c>
+      <c r="E1603" s="104" t="s">
+        <v>2926</v>
+      </c>
+      <c r="F1603" s="104" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1603" s="104" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1603" s="104" t="s">
+        <v>3700</v>
+      </c>
+      <c r="I1603" s="104" t="s">
+        <v>2991</v>
+      </c>
+    </row>
+    <row r="1604" spans="1:9" s="74" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1604" s="74">
         <v>1774</v>
       </c>
-      <c r="B1603" s="1" t="s">
+      <c r="B1604" s="1" t="s">
         <v>3129</v>
       </c>
-      <c r="C1603" s="74">
-        <v>3</v>
-      </c>
-      <c r="D1603" s="74" t="s">
-        <v>1714</v>
-      </c>
-      <c r="E1603" s="74" t="s">
+      <c r="C1604" s="74">
+        <v>3</v>
+      </c>
+      <c r="D1604" s="74" t="s">
+        <v>1714</v>
+      </c>
+      <c r="E1604" s="74" t="s">
         <v>2926</v>
       </c>
-      <c r="F1603" s="74" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1603" s="74" t="s">
+      <c r="F1604" s="74" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1604" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="H1603" s="74" t="s">
+      <c r="H1604" s="74" t="s">
         <v>3150</v>
       </c>
-      <c r="I1603" s="74" t="s">
+      <c r="I1604" s="74" t="s">
         <v>3151</v>
-      </c>
-    </row>
-    <row r="1604" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1604" s="71">
-        <v>1775</v>
-      </c>
-      <c r="B1604" s="1" t="s">
-        <v>3128</v>
-      </c>
-      <c r="C1604" s="71">
-        <v>3</v>
-      </c>
-      <c r="D1604" s="71" t="s">
-        <v>2801</v>
-      </c>
-      <c r="F1604" s="71" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1604" s="71" t="s">
-        <v>41</v>
-      </c>
-      <c r="H1604" s="71" t="s">
-        <v>3152</v>
-      </c>
-      <c r="I1604" s="71" t="s">
-        <v>2991</v>
       </c>
     </row>
     <row r="1605" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1605" s="71">
-        <v>1779</v>
+        <v>1775</v>
       </c>
       <c r="B1605" s="1" t="s">
-        <v>3127</v>
+        <v>3128</v>
       </c>
       <c r="C1605" s="71">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D1605" s="71" t="s">
-        <v>1711</v>
+        <v>2801</v>
       </c>
       <c r="F1605" s="71" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G1605" s="71" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="H1605" s="71" t="s">
-        <v>3153</v>
+        <v>3152</v>
       </c>
       <c r="I1605" s="71" t="s">
         <v>2991</v>
@@ -50040,132 +50116,132 @@
     </row>
     <row r="1606" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1606" s="71">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="B1606" s="1" t="s">
-        <v>3126</v>
+        <v>3127</v>
       </c>
       <c r="C1606" s="71">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1606" s="71" t="s">
-        <v>1714</v>
+        <v>1711</v>
       </c>
       <c r="F1606" s="71" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G1606" s="71" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H1606" s="71" t="s">
-        <v>3154</v>
+        <v>3153</v>
       </c>
       <c r="I1606" s="71" t="s">
-        <v>2993</v>
+        <v>2991</v>
       </c>
     </row>
     <row r="1607" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1607" s="71">
+        <v>1780</v>
+      </c>
+      <c r="B1607" s="1" t="s">
+        <v>3126</v>
+      </c>
+      <c r="C1607" s="71">
+        <v>2</v>
+      </c>
+      <c r="D1607" s="71" t="s">
+        <v>1714</v>
+      </c>
+      <c r="F1607" s="71" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1607" s="71" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1607" s="71" t="s">
+        <v>3154</v>
+      </c>
+      <c r="I1607" s="71" t="s">
+        <v>2993</v>
+      </c>
+    </row>
+    <row r="1608" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1608" s="71">
         <v>1781</v>
       </c>
-      <c r="B1607" s="1" t="s">
+      <c r="B1608" s="1" t="s">
         <v>3125</v>
       </c>
-      <c r="C1607" s="71">
-        <v>3</v>
-      </c>
-      <c r="D1607" s="71" t="s">
-        <v>1714</v>
-      </c>
-      <c r="E1607" s="71" t="s">
+      <c r="C1608" s="71">
+        <v>3</v>
+      </c>
+      <c r="D1608" s="71" t="s">
+        <v>1714</v>
+      </c>
+      <c r="E1608" s="71" t="s">
         <v>2926</v>
       </c>
-      <c r="F1607" s="71" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1607" s="71" t="s">
+      <c r="F1608" s="71" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1608" s="71" t="s">
         <v>36</v>
       </c>
-      <c r="H1607" s="71" t="s">
+      <c r="H1608" s="71" t="s">
         <v>3155</v>
       </c>
-      <c r="I1607" s="71" t="s">
+      <c r="I1608" s="71" t="s">
         <v>3156</v>
       </c>
     </row>
-    <row r="1608" spans="1:9" s="75" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1608" s="75">
+    <row r="1609" spans="1:9" s="75" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1609" s="75">
         <v>1782</v>
       </c>
-      <c r="B1608" s="1" t="s">
+      <c r="B1609" s="1" t="s">
         <v>3171</v>
       </c>
-      <c r="C1608" s="75">
+      <c r="C1609" s="75">
         <v>4</v>
       </c>
-      <c r="D1608" s="75" t="s">
+      <c r="D1609" s="75" t="s">
         <v>1707</v>
       </c>
-      <c r="F1608" s="75" t="s">
+      <c r="F1609" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="G1608" s="75" t="s">
+      <c r="G1609" s="75" t="s">
         <v>187</v>
       </c>
-      <c r="H1608" s="75" t="s">
+      <c r="H1609" s="75" t="s">
         <v>3172</v>
       </c>
-      <c r="I1608" s="75" t="s">
+      <c r="I1609" s="75" t="s">
         <v>3210</v>
-      </c>
-    </row>
-    <row r="1609" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1609" s="71">
-        <v>1784</v>
-      </c>
-      <c r="B1609" s="1" t="s">
-        <v>3124</v>
-      </c>
-      <c r="C1609" s="71">
-        <v>1</v>
-      </c>
-      <c r="D1609" s="71" t="s">
-        <v>1711</v>
-      </c>
-      <c r="F1609" s="71" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1609" s="71" t="s">
-        <v>36</v>
-      </c>
-      <c r="H1609" s="71" t="s">
-        <v>3157</v>
-      </c>
-      <c r="I1609" s="71" t="s">
-        <v>2991</v>
       </c>
     </row>
     <row r="1610" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1610" s="71">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="B1610" s="1" t="s">
-        <v>3123</v>
+        <v>3124</v>
       </c>
       <c r="C1610" s="71">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1610" s="71" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="F1610" s="71" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G1610" s="71" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="H1610" s="71" t="s">
-        <v>3159</v>
+        <v>3157</v>
       </c>
       <c r="I1610" s="71" t="s">
         <v>2991</v>
@@ -50173,135 +50249,135 @@
     </row>
     <row r="1611" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1611" s="71">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="B1611" s="1" t="s">
-        <v>3122</v>
+        <v>3123</v>
       </c>
       <c r="C1611" s="71">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1611" s="71" t="s">
-        <v>1714</v>
-      </c>
-      <c r="E1611" s="71" t="s">
-        <v>2915</v>
+        <v>1712</v>
       </c>
       <c r="F1611" s="71" t="s">
         <v>9</v>
       </c>
       <c r="G1611" s="71" t="s">
-        <v>187</v>
+        <v>25</v>
       </c>
       <c r="H1611" s="71" t="s">
-        <v>3158</v>
+        <v>3159</v>
       </c>
       <c r="I1611" s="71" t="s">
-        <v>3019</v>
+        <v>2991</v>
       </c>
     </row>
     <row r="1612" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1612" s="71">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="B1612" s="1" t="s">
-        <v>3160</v>
+        <v>3122</v>
       </c>
       <c r="C1612" s="71">
         <v>4</v>
       </c>
       <c r="D1612" s="71" t="s">
+        <v>1714</v>
+      </c>
+      <c r="E1612" s="71" t="s">
+        <v>2915</v>
+      </c>
+      <c r="F1612" s="71" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1612" s="71" t="s">
+        <v>187</v>
+      </c>
+      <c r="H1612" s="71" t="s">
+        <v>3158</v>
+      </c>
+      <c r="I1612" s="71" t="s">
+        <v>3019</v>
+      </c>
+    </row>
+    <row r="1613" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1613" s="71">
+        <v>1787</v>
+      </c>
+      <c r="B1613" s="1" t="s">
+        <v>3160</v>
+      </c>
+      <c r="C1613" s="71">
+        <v>4</v>
+      </c>
+      <c r="D1613" s="71" t="s">
         <v>2801</v>
       </c>
-      <c r="F1612" s="71" t="s">
+      <c r="F1613" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="G1612" s="71" t="s">
+      <c r="G1613" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="H1612" s="71" t="s">
+      <c r="H1613" s="71" t="s">
         <v>3161</v>
       </c>
-      <c r="I1612" s="71" t="s">
+      <c r="I1613" s="71" t="s">
         <v>3013</v>
       </c>
     </row>
-    <row r="1613" spans="1:9" s="103" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1613" s="103">
+    <row r="1614" spans="1:9" s="103" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1614" s="103">
         <v>1788</v>
       </c>
-      <c r="B1613" s="1" t="s">
+      <c r="B1614" s="1" t="s">
         <v>3672</v>
       </c>
-      <c r="C1613" s="103">
+      <c r="C1614" s="103">
         <v>4</v>
       </c>
-      <c r="D1613" s="103" t="s">
-        <v>1714</v>
-      </c>
-      <c r="E1613" s="103" t="s">
+      <c r="D1614" s="103" t="s">
+        <v>1714</v>
+      </c>
+      <c r="E1614" s="103" t="s">
         <v>2926</v>
       </c>
-      <c r="F1613" s="103" t="s">
+      <c r="F1614" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="G1613" s="103" t="s">
+      <c r="G1614" s="103" t="s">
         <v>21</v>
       </c>
-      <c r="H1613" s="103" t="s">
+      <c r="H1614" s="103" t="s">
         <v>3673</v>
       </c>
-      <c r="I1613" s="103" t="s">
-        <v>2991</v>
-      </c>
-    </row>
-    <row r="1614" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1614" s="71">
-        <v>1790</v>
-      </c>
-      <c r="B1614" s="1" t="s">
-        <v>3162</v>
-      </c>
-      <c r="C1614" s="71">
-        <v>1</v>
-      </c>
-      <c r="D1614" s="71" t="s">
-        <v>1711</v>
-      </c>
-      <c r="F1614" s="71" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1614" s="71" t="s">
-        <v>36</v>
-      </c>
-      <c r="H1614" s="71" t="s">
-        <v>3164</v>
-      </c>
-      <c r="I1614" s="71" t="s">
+      <c r="I1614" s="103" t="s">
         <v>2991</v>
       </c>
     </row>
     <row r="1615" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1615" s="71">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="B1615" s="1" t="s">
-        <v>3163</v>
+        <v>3162</v>
       </c>
       <c r="C1615" s="71">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1615" s="71" t="s">
         <v>1711</v>
       </c>
       <c r="F1615" s="71" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G1615" s="71" t="s">
-        <v>187</v>
+        <v>36</v>
       </c>
       <c r="H1615" s="71" t="s">
-        <v>3165</v>
+        <v>3164</v>
       </c>
       <c r="I1615" s="71" t="s">
         <v>2991</v>
@@ -50309,39 +50385,36 @@
     </row>
     <row r="1616" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1616" s="71">
-        <v>1792</v>
+        <v>1791</v>
       </c>
       <c r="B1616" s="1" t="s">
-        <v>3166</v>
+        <v>3163</v>
       </c>
       <c r="C1616" s="71">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1616" s="71" t="s">
-        <v>1714</v>
-      </c>
-      <c r="E1616" s="71" t="s">
-        <v>2914</v>
+        <v>1711</v>
       </c>
       <c r="F1616" s="71" t="s">
         <v>9</v>
       </c>
       <c r="G1616" s="71" t="s">
-        <v>95</v>
+        <v>187</v>
       </c>
       <c r="H1616" s="71" t="s">
-        <v>3170</v>
+        <v>3165</v>
       </c>
       <c r="I1616" s="71" t="s">
-        <v>3019</v>
+        <v>2991</v>
       </c>
     </row>
     <row r="1617" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1617" s="71">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="B1617" s="1" t="s">
-        <v>3167</v>
+        <v>3166</v>
       </c>
       <c r="C1617" s="71">
         <v>4</v>
@@ -50350,82 +50423,82 @@
         <v>1714</v>
       </c>
       <c r="E1617" s="71" t="s">
-        <v>2926</v>
+        <v>2914</v>
       </c>
       <c r="F1617" s="71" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G1617" s="71" t="s">
-        <v>21</v>
+        <v>95</v>
       </c>
       <c r="H1617" s="71" t="s">
-        <v>3168</v>
+        <v>3170</v>
       </c>
       <c r="I1617" s="71" t="s">
-        <v>3169</v>
+        <v>3019</v>
       </c>
     </row>
     <row r="1618" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1618" s="71">
-        <v>1796</v>
+        <v>1793</v>
       </c>
       <c r="B1618" s="1" t="s">
-        <v>3178</v>
+        <v>3167</v>
       </c>
       <c r="C1618" s="71">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1618" s="71" t="s">
-        <v>1711</v>
+        <v>1714</v>
+      </c>
+      <c r="E1618" s="71" t="s">
+        <v>2926</v>
       </c>
       <c r="F1618" s="71" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G1618" s="71" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="H1618" s="71" t="s">
-        <v>3185</v>
+        <v>3168</v>
       </c>
       <c r="I1618" s="71" t="s">
-        <v>2991</v>
+        <v>3169</v>
       </c>
     </row>
     <row r="1619" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1619" s="71">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="B1619" s="1" t="s">
-        <v>3179</v>
+        <v>3178</v>
       </c>
       <c r="C1619" s="71">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1619" s="71" t="s">
-        <v>1714</v>
-      </c>
-      <c r="E1619" s="71" t="s">
-        <v>2926</v>
+        <v>1711</v>
       </c>
       <c r="F1619" s="71" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G1619" s="71" t="s">
-        <v>456</v>
+        <v>36</v>
       </c>
       <c r="H1619" s="71" t="s">
-        <v>3186</v>
+        <v>3185</v>
       </c>
       <c r="I1619" s="71" t="s">
-        <v>3019</v>
+        <v>2991</v>
       </c>
     </row>
     <row r="1620" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1620" s="71">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="B1620" s="1" t="s">
-        <v>3180</v>
+        <v>3179</v>
       </c>
       <c r="C1620" s="71">
         <v>3</v>
@@ -50433,205 +50506,208 @@
       <c r="D1620" s="71" t="s">
         <v>1714</v>
       </c>
+      <c r="E1620" s="71" t="s">
+        <v>2926</v>
+      </c>
       <c r="F1620" s="71" t="s">
         <v>9</v>
       </c>
       <c r="G1620" s="71" t="s">
-        <v>25</v>
+        <v>456</v>
       </c>
       <c r="H1620" s="71" t="s">
-        <v>3187</v>
+        <v>3186</v>
       </c>
       <c r="I1620" s="71" t="s">
-        <v>2991</v>
+        <v>3019</v>
       </c>
     </row>
     <row r="1621" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1621" s="71">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="B1621" s="1" t="s">
-        <v>3181</v>
+        <v>3180</v>
       </c>
       <c r="C1621" s="71">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1621" s="71" t="s">
-        <v>1707</v>
+        <v>1714</v>
       </c>
       <c r="F1621" s="71" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G1621" s="71" t="s">
-        <v>121</v>
+        <v>25</v>
       </c>
       <c r="H1621" s="71" t="s">
-        <v>3188</v>
+        <v>3187</v>
       </c>
       <c r="I1621" s="71" t="s">
-        <v>3189</v>
+        <v>2991</v>
       </c>
     </row>
     <row r="1622" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1622" s="71">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="B1622" s="1" t="s">
-        <v>3182</v>
+        <v>3181</v>
       </c>
       <c r="C1622" s="71">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1622" s="71" t="s">
-        <v>1714</v>
+        <v>1707</v>
       </c>
       <c r="F1622" s="71" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G1622" s="71" t="s">
-        <v>21</v>
+        <v>121</v>
       </c>
       <c r="H1622" s="71" t="s">
-        <v>3190</v>
+        <v>3188</v>
       </c>
       <c r="I1622" s="71" t="s">
-        <v>2991</v>
+        <v>3189</v>
       </c>
     </row>
     <row r="1623" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1623" s="71">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="B1623" s="1" t="s">
-        <v>3183</v>
+        <v>3182</v>
       </c>
       <c r="C1623" s="71">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1623" s="71" t="s">
         <v>1714</v>
       </c>
-      <c r="E1623" s="71" t="s">
-        <v>2915</v>
-      </c>
       <c r="F1623" s="71" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G1623" s="71" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="H1623" s="71" t="s">
-        <v>3191</v>
+        <v>3190</v>
       </c>
       <c r="I1623" s="71" t="s">
-        <v>3008</v>
+        <v>2991</v>
       </c>
     </row>
     <row r="1624" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1624" s="71">
-        <v>1802</v>
+        <v>1801</v>
       </c>
       <c r="B1624" s="1" t="s">
-        <v>3184</v>
+        <v>3183</v>
       </c>
       <c r="C1624" s="71">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1624" s="71" t="s">
         <v>1714</v>
       </c>
       <c r="E1624" s="71" t="s">
-        <v>2926</v>
+        <v>2915</v>
       </c>
       <c r="F1624" s="71" t="s">
         <v>9</v>
       </c>
       <c r="G1624" s="71" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="H1624" s="71" t="s">
-        <v>3192</v>
+        <v>3191</v>
       </c>
       <c r="I1624" s="71" t="s">
-        <v>2993</v>
+        <v>3008</v>
       </c>
     </row>
     <row r="1625" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1625" s="71">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="B1625" s="1" t="s">
-        <v>3193</v>
+        <v>3184</v>
       </c>
       <c r="C1625" s="71">
         <v>4</v>
       </c>
       <c r="D1625" s="71" t="s">
-        <v>2801</v>
+        <v>1714</v>
+      </c>
+      <c r="E1625" s="71" t="s">
+        <v>2926</v>
       </c>
       <c r="F1625" s="71" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G1625" s="71" t="s">
-        <v>134</v>
+        <v>13</v>
       </c>
       <c r="H1625" s="71" t="s">
-        <v>3198</v>
+        <v>3192</v>
       </c>
       <c r="I1625" s="71" t="s">
-        <v>3008</v>
+        <v>2993</v>
       </c>
     </row>
     <row r="1626" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1626" s="71">
-        <v>1805</v>
+        <v>1803</v>
       </c>
       <c r="B1626" s="1" t="s">
-        <v>3194</v>
+        <v>3193</v>
       </c>
       <c r="C1626" s="71">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D1626" s="71" t="s">
-        <v>1761</v>
-      </c>
-      <c r="E1626" s="71" t="s">
-        <v>2926</v>
+        <v>2801</v>
       </c>
       <c r="F1626" s="71" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G1626" s="71" t="s">
-        <v>36</v>
+        <v>134</v>
       </c>
       <c r="H1626" s="71" t="s">
-        <v>3199</v>
+        <v>3198</v>
       </c>
       <c r="I1626" s="71" t="s">
-        <v>2991</v>
+        <v>3008</v>
       </c>
     </row>
     <row r="1627" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1627" s="71">
-        <v>1806</v>
+        <v>1805</v>
       </c>
       <c r="B1627" s="1" t="s">
-        <v>3195</v>
+        <v>3194</v>
       </c>
       <c r="C1627" s="71">
         <v>2</v>
       </c>
       <c r="D1627" s="71" t="s">
-        <v>1714</v>
+        <v>1761</v>
+      </c>
+      <c r="E1627" s="71" t="s">
+        <v>2926</v>
       </c>
       <c r="F1627" s="71" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G1627" s="71" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="H1627" s="71" t="s">
-        <v>3200</v>
+        <v>3199</v>
       </c>
       <c r="I1627" s="71" t="s">
         <v>2991</v>
@@ -50639,10 +50715,10 @@
     </row>
     <row r="1628" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1628" s="71">
-        <v>1807</v>
+        <v>1806</v>
       </c>
       <c r="B1628" s="1" t="s">
-        <v>3196</v>
+        <v>3195</v>
       </c>
       <c r="C1628" s="71">
         <v>2</v>
@@ -50654,10 +50730,10 @@
         <v>9</v>
       </c>
       <c r="G1628" s="71" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="H1628" s="71" t="s">
-        <v>3201</v>
+        <v>3200</v>
       </c>
       <c r="I1628" s="71" t="s">
         <v>2991</v>
@@ -50665,106 +50741,103 @@
     </row>
     <row r="1629" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1629" s="71">
-        <v>1808</v>
+        <v>1807</v>
       </c>
       <c r="B1629" s="1" t="s">
-        <v>3197</v>
+        <v>3196</v>
       </c>
       <c r="C1629" s="71">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1629" s="71" t="s">
-        <v>1707</v>
+        <v>1714</v>
       </c>
       <c r="F1629" s="71" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G1629" s="71" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="H1629" s="71" t="s">
-        <v>3202</v>
+        <v>3201</v>
       </c>
       <c r="I1629" s="71" t="s">
-        <v>2993</v>
+        <v>2991</v>
       </c>
     </row>
     <row r="1630" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1630" s="71">
-        <v>1812</v>
+        <v>1808</v>
       </c>
       <c r="B1630" s="1" t="s">
-        <v>3206</v>
+        <v>3197</v>
       </c>
       <c r="C1630" s="71">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1630" s="71" t="s">
-        <v>1714</v>
+        <v>1707</v>
       </c>
       <c r="F1630" s="71" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G1630" s="71" t="s">
         <v>25</v>
       </c>
       <c r="H1630" s="71" t="s">
-        <v>3207</v>
+        <v>3202</v>
       </c>
       <c r="I1630" s="71" t="s">
-        <v>3047</v>
+        <v>2993</v>
       </c>
     </row>
     <row r="1631" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1631" s="71">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="B1631" s="1" t="s">
-        <v>3208</v>
+        <v>3206</v>
       </c>
       <c r="C1631" s="71">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1631" s="71" t="s">
-        <v>2801</v>
+        <v>1714</v>
       </c>
       <c r="F1631" s="71" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G1631" s="71" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="H1631" s="71" t="s">
-        <v>3209</v>
+        <v>3207</v>
       </c>
       <c r="I1631" s="71" t="s">
-        <v>2991</v>
+        <v>3047</v>
       </c>
     </row>
     <row r="1632" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1632" s="71">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="B1632" s="1" t="s">
-        <v>3211</v>
+        <v>3208</v>
       </c>
       <c r="C1632" s="71">
         <v>3</v>
       </c>
       <c r="D1632" s="71" t="s">
-        <v>1714</v>
-      </c>
-      <c r="E1632" s="71" t="s">
-        <v>2914</v>
+        <v>2801</v>
       </c>
       <c r="F1632" s="71" t="s">
         <v>9</v>
       </c>
       <c r="G1632" s="71" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="H1632" s="71" t="s">
-        <v>3224</v>
+        <v>3209</v>
       </c>
       <c r="I1632" s="71" t="s">
         <v>2991</v>
@@ -50772,77 +50845,80 @@
     </row>
     <row r="1633" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1633" s="71">
-        <v>1815</v>
+        <v>1814</v>
       </c>
       <c r="B1633" s="1" t="s">
-        <v>3221</v>
+        <v>3211</v>
       </c>
       <c r="C1633" s="71">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1633" s="71" t="s">
         <v>1714</v>
       </c>
+      <c r="E1633" s="71" t="s">
+        <v>2914</v>
+      </c>
       <c r="F1633" s="71" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G1633" s="71" t="s">
-        <v>121</v>
+        <v>6</v>
       </c>
       <c r="H1633" s="71" t="s">
-        <v>3222</v>
+        <v>3224</v>
       </c>
       <c r="I1633" s="71" t="s">
-        <v>3223</v>
+        <v>2991</v>
       </c>
     </row>
     <row r="1634" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1634" s="71">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="B1634" s="1" t="s">
-        <v>3219</v>
+        <v>3221</v>
       </c>
       <c r="C1634" s="71">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1634" s="71" t="s">
-        <v>1711</v>
+        <v>1714</v>
       </c>
       <c r="F1634" s="71" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G1634" s="71" t="s">
-        <v>36</v>
+        <v>121</v>
       </c>
       <c r="H1634" s="71" t="s">
-        <v>3220</v>
+        <v>3222</v>
       </c>
       <c r="I1634" s="71" t="s">
-        <v>2991</v>
+        <v>3223</v>
       </c>
     </row>
     <row r="1635" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1635" s="71">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="B1635" s="1" t="s">
-        <v>3217</v>
+        <v>3219</v>
       </c>
       <c r="C1635" s="71">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1635" s="71" t="s">
-        <v>1714</v>
+        <v>1711</v>
       </c>
       <c r="F1635" s="71" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G1635" s="71" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="H1635" s="71" t="s">
-        <v>3218</v>
+        <v>3220</v>
       </c>
       <c r="I1635" s="71" t="s">
         <v>2991</v>
@@ -50850,389 +50926,386 @@
     </row>
     <row r="1636" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1636" s="71">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="B1636" s="1" t="s">
-        <v>3215</v>
+        <v>3217</v>
       </c>
       <c r="C1636" s="71">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1636" s="71" t="s">
         <v>1714</v>
       </c>
-      <c r="E1636" s="71" t="s">
-        <v>2926</v>
-      </c>
       <c r="F1636" s="71" t="s">
         <v>9</v>
       </c>
       <c r="G1636" s="71" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="H1636" s="71" t="s">
-        <v>3216</v>
+        <v>3218</v>
       </c>
       <c r="I1636" s="71" t="s">
-        <v>3214</v>
+        <v>2991</v>
       </c>
     </row>
     <row r="1637" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1637" s="71">
-        <v>1819</v>
+        <v>1818</v>
       </c>
       <c r="B1637" s="1" t="s">
-        <v>3212</v>
+        <v>3215</v>
       </c>
       <c r="C1637" s="71">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1637" s="71" t="s">
-        <v>1707</v>
+        <v>1714</v>
+      </c>
+      <c r="E1637" s="71" t="s">
+        <v>2926</v>
       </c>
       <c r="F1637" s="71" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G1637" s="71" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H1637" s="71" t="s">
-        <v>3213</v>
+        <v>3216</v>
       </c>
       <c r="I1637" s="71" t="s">
         <v>3214</v>
       </c>
     </row>
-    <row r="1638" spans="1:9" s="78" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1638" s="78">
+    <row r="1638" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1638" s="71">
+        <v>1819</v>
+      </c>
+      <c r="B1638" s="1" t="s">
+        <v>3212</v>
+      </c>
+      <c r="C1638" s="71">
+        <v>4</v>
+      </c>
+      <c r="D1638" s="71" t="s">
+        <v>1707</v>
+      </c>
+      <c r="F1638" s="71" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1638" s="71" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1638" s="71" t="s">
+        <v>3213</v>
+      </c>
+      <c r="I1638" s="71" t="s">
+        <v>3214</v>
+      </c>
+    </row>
+    <row r="1639" spans="1:9" s="78" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1639" s="78">
         <v>1820</v>
       </c>
-      <c r="B1638" s="1" t="s">
+      <c r="B1639" s="1" t="s">
         <v>3238</v>
       </c>
-      <c r="C1638" s="78">
+      <c r="C1639" s="78">
         <v>4</v>
       </c>
-      <c r="D1638" s="78" t="s">
-        <v>1714</v>
-      </c>
-      <c r="F1638" s="78" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1638" s="78" t="s">
+      <c r="D1639" s="78" t="s">
+        <v>1714</v>
+      </c>
+      <c r="F1639" s="78" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1639" s="78" t="s">
         <v>187</v>
       </c>
-      <c r="H1638" s="78" t="s">
+      <c r="H1639" s="78" t="s">
         <v>3239</v>
       </c>
-      <c r="I1638" s="78" t="s">
+      <c r="I1639" s="78" t="s">
         <v>3232</v>
-      </c>
-    </row>
-    <row r="1639" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1639" s="71">
-        <v>1822</v>
-      </c>
-      <c r="B1639" s="1" t="s">
-        <v>3228</v>
-      </c>
-      <c r="C1639" s="71">
-        <v>1</v>
-      </c>
-      <c r="D1639" s="71" t="s">
-        <v>1711</v>
-      </c>
-      <c r="F1639" s="71" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1639" s="71" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1639" s="71" t="s">
-        <v>3233</v>
-      </c>
-      <c r="I1639" s="71" t="s">
-        <v>2991</v>
       </c>
     </row>
     <row r="1640" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1640" s="71">
-        <v>1823</v>
+        <v>1822</v>
       </c>
       <c r="B1640" s="1" t="s">
-        <v>3229</v>
+        <v>3228</v>
       </c>
       <c r="C1640" s="71">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1640" s="71" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="F1640" s="71" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G1640" s="71" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H1640" s="71" t="s">
-        <v>3234</v>
+        <v>3233</v>
       </c>
       <c r="I1640" s="71" t="s">
-        <v>3235</v>
+        <v>2991</v>
       </c>
     </row>
     <row r="1641" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1641" s="71">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="B1641" s="1" t="s">
-        <v>3230</v>
+        <v>3229</v>
       </c>
       <c r="C1641" s="71">
         <v>3</v>
       </c>
       <c r="D1641" s="71" t="s">
-        <v>1714</v>
+        <v>1712</v>
       </c>
       <c r="F1641" s="71" t="s">
         <v>9</v>
       </c>
       <c r="G1641" s="71" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H1641" s="71" t="s">
-        <v>3236</v>
+        <v>3234</v>
       </c>
       <c r="I1641" s="71" t="s">
-        <v>2991</v>
+        <v>3235</v>
       </c>
     </row>
     <row r="1642" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1642" s="71">
+        <v>1824</v>
+      </c>
+      <c r="B1642" s="1" t="s">
+        <v>3230</v>
+      </c>
+      <c r="C1642" s="71">
+        <v>3</v>
+      </c>
+      <c r="D1642" s="71" t="s">
+        <v>1714</v>
+      </c>
+      <c r="F1642" s="71" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1642" s="71" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1642" s="71" t="s">
+        <v>3236</v>
+      </c>
+      <c r="I1642" s="71" t="s">
+        <v>2991</v>
+      </c>
+    </row>
+    <row r="1643" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1643" s="71">
         <v>1825</v>
       </c>
-      <c r="B1642" s="1" t="s">
+      <c r="B1643" s="1" t="s">
         <v>3231</v>
       </c>
-      <c r="C1642" s="71">
+      <c r="C1643" s="71">
         <v>4</v>
       </c>
-      <c r="D1642" s="71" t="s">
-        <v>1714</v>
-      </c>
-      <c r="E1642" s="71" t="s">
+      <c r="D1643" s="71" t="s">
+        <v>1714</v>
+      </c>
+      <c r="E1643" s="71" t="s">
         <v>2926</v>
       </c>
-      <c r="F1642" s="71" t="s">
+      <c r="F1643" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="G1642" s="71" t="s">
+      <c r="G1643" s="71" t="s">
         <v>456</v>
       </c>
-      <c r="H1642" s="71" t="s">
+      <c r="H1643" s="71" t="s">
         <v>3237</v>
       </c>
-      <c r="I1642" s="71" t="s">
+      <c r="I1643" s="71" t="s">
         <v>3019</v>
       </c>
     </row>
-    <row r="1643" spans="1:9" s="103" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1643" s="103">
+    <row r="1644" spans="1:9" s="103" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1644" s="103">
         <v>1826</v>
       </c>
-      <c r="B1643" s="1" t="s">
+      <c r="B1644" s="1" t="s">
         <v>3670</v>
       </c>
-      <c r="C1643" s="103">
+      <c r="C1644" s="103">
         <v>2</v>
       </c>
-      <c r="D1643" s="103" t="s">
-        <v>1714</v>
-      </c>
-      <c r="F1643" s="103" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1643" s="103" t="s">
+      <c r="D1644" s="103" t="s">
+        <v>1714</v>
+      </c>
+      <c r="F1644" s="103" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1644" s="103" t="s">
         <v>21</v>
       </c>
-      <c r="H1643" s="103" t="s">
+      <c r="H1644" s="103" t="s">
         <v>3671</v>
       </c>
-      <c r="I1643" s="103" t="s">
+      <c r="I1644" s="103" t="s">
         <v>2991</v>
       </c>
     </row>
-    <row r="1644" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1644" s="71">
+    <row r="1645" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1645" s="71">
         <v>1827</v>
       </c>
-      <c r="B1644" s="1" t="s">
+      <c r="B1645" s="1" t="s">
         <v>3240</v>
       </c>
-      <c r="C1644" s="71">
+      <c r="C1645" s="71">
         <v>2</v>
       </c>
-      <c r="D1644" s="71" t="s">
-        <v>1714</v>
-      </c>
-      <c r="F1644" s="71" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1644" s="71" t="s">
+      <c r="D1645" s="71" t="s">
+        <v>1714</v>
+      </c>
+      <c r="F1645" s="71" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1645" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="H1644" s="71" t="s">
+      <c r="H1645" s="71" t="s">
         <v>3241</v>
       </c>
-      <c r="I1644" s="71" t="s">
+      <c r="I1645" s="71" t="s">
         <v>2991</v>
       </c>
     </row>
-    <row r="1645" spans="1:9" s="78" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1645" s="78">
+    <row r="1646" spans="1:9" s="78" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1646" s="78">
         <v>1828</v>
       </c>
-      <c r="B1645" s="1" t="s">
+      <c r="B1646" s="1" t="s">
         <v>3255</v>
       </c>
-      <c r="C1645" s="78">
-        <v>3</v>
-      </c>
-      <c r="D1645" s="78" t="s">
+      <c r="C1646" s="78">
+        <v>3</v>
+      </c>
+      <c r="D1646" s="78" t="s">
         <v>1712</v>
       </c>
-      <c r="F1645" s="78" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1645" s="78" t="s">
+      <c r="F1646" s="78" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1646" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="H1645" s="78" t="s">
+      <c r="H1646" s="78" t="s">
         <v>3256</v>
       </c>
-      <c r="I1645" s="78" t="s">
+      <c r="I1646" s="78" t="s">
         <v>3019</v>
       </c>
     </row>
-    <row r="1646" spans="1:9" s="71" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1646" s="71">
+    <row r="1647" spans="1:9" s="71" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1647" s="71">
         <v>1829</v>
       </c>
-      <c r="B1646" s="1" t="s">
+      <c r="B1647" s="1" t="s">
         <v>3253</v>
       </c>
-      <c r="C1646" s="71">
+      <c r="C1647" s="71">
         <v>2</v>
       </c>
-      <c r="D1646" s="71" t="s">
-        <v>1714</v>
-      </c>
-      <c r="F1646" s="71" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1646" s="71" t="s">
+      <c r="D1647" s="71" t="s">
+        <v>1714</v>
+      </c>
+      <c r="F1647" s="71" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1647" s="71" t="s">
         <v>134</v>
       </c>
-      <c r="H1646" s="71" t="s">
+      <c r="H1647" s="71" t="s">
         <v>3254</v>
       </c>
-      <c r="I1646" s="71" t="s">
+      <c r="I1647" s="71" t="s">
         <v>2991</v>
-      </c>
-    </row>
-    <row r="1647" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1647" s="71">
-        <v>1830</v>
-      </c>
-      <c r="B1647" s="1" t="s">
-        <v>3250</v>
-      </c>
-      <c r="C1647" s="71">
-        <v>4</v>
-      </c>
-      <c r="D1647" s="71" t="s">
-        <v>1707</v>
-      </c>
-      <c r="F1647" s="71" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1647" s="71" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1647" s="71" t="s">
-        <v>3251</v>
-      </c>
-      <c r="I1647" s="71" t="s">
-        <v>3252</v>
       </c>
     </row>
     <row r="1648" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1648" s="71">
-        <v>1832</v>
+        <v>1830</v>
       </c>
       <c r="B1648" s="1" t="s">
-        <v>3245</v>
+        <v>3250</v>
       </c>
       <c r="C1648" s="71">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1648" s="71" t="s">
-        <v>1711</v>
+        <v>1707</v>
       </c>
       <c r="F1648" s="71" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G1648" s="71" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="H1648" s="71" t="s">
-        <v>3246</v>
+        <v>3251</v>
       </c>
       <c r="I1648" s="71" t="s">
-        <v>2991</v>
+        <v>3252</v>
       </c>
     </row>
     <row r="1649" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1649" s="71">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="B1649" s="1" t="s">
-        <v>3244</v>
+        <v>3245</v>
       </c>
       <c r="C1649" s="71">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1649" s="71" t="s">
-        <v>1714</v>
+        <v>1711</v>
       </c>
       <c r="F1649" s="71" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G1649" s="71" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H1649" s="71" t="s">
-        <v>3247</v>
+        <v>3246</v>
       </c>
       <c r="I1649" s="71" t="s">
-        <v>3019</v>
+        <v>2991</v>
       </c>
     </row>
     <row r="1650" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1650" s="71">
-        <v>1834</v>
+        <v>1833</v>
       </c>
       <c r="B1650" s="1" t="s">
-        <v>3243</v>
+        <v>3244</v>
       </c>
       <c r="C1650" s="71">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1650" s="71" t="s">
         <v>1714</v>
-      </c>
-      <c r="E1650" s="71" t="s">
-        <v>2914</v>
       </c>
       <c r="F1650" s="71" t="s">
         <v>9</v>
@@ -51241,7 +51314,7 @@
         <v>41</v>
       </c>
       <c r="H1650" s="71" t="s">
-        <v>3249</v>
+        <v>3247</v>
       </c>
       <c r="I1650" s="71" t="s">
         <v>3019</v>
@@ -51249,10 +51322,10 @@
     </row>
     <row r="1651" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1651" s="71">
-        <v>1835</v>
+        <v>1834</v>
       </c>
       <c r="B1651" s="1" t="s">
-        <v>3242</v>
+        <v>3243</v>
       </c>
       <c r="C1651" s="71">
         <v>4</v>
@@ -51260,80 +51333,80 @@
       <c r="D1651" s="71" t="s">
         <v>1714</v>
       </c>
+      <c r="E1651" s="71" t="s">
+        <v>2914</v>
+      </c>
       <c r="F1651" s="71" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G1651" s="71" t="s">
-        <v>134</v>
+        <v>41</v>
       </c>
       <c r="H1651" s="71" t="s">
-        <v>3248</v>
+        <v>3249</v>
       </c>
       <c r="I1651" s="71" t="s">
-        <v>2991</v>
+        <v>3019</v>
       </c>
     </row>
     <row r="1652" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1652" s="71">
-        <v>1837</v>
+        <v>1835</v>
       </c>
       <c r="B1652" s="1" t="s">
-        <v>3257</v>
+        <v>3242</v>
       </c>
       <c r="C1652" s="71">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1652" s="71" t="s">
         <v>1714</v>
       </c>
       <c r="F1652" s="71" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G1652" s="71" t="s">
-        <v>25</v>
+        <v>134</v>
       </c>
       <c r="H1652" s="71" t="s">
-        <v>3258</v>
+        <v>3248</v>
       </c>
       <c r="I1652" s="71" t="s">
-        <v>2993</v>
+        <v>2991</v>
       </c>
     </row>
     <row r="1653" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1653" s="71">
-        <v>1838</v>
+        <v>1837</v>
       </c>
       <c r="B1653" s="1" t="s">
-        <v>3259</v>
+        <v>3257</v>
       </c>
       <c r="C1653" s="71">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1653" s="71" t="s">
         <v>1714</v>
       </c>
-      <c r="E1653" s="71" t="s">
-        <v>2914</v>
-      </c>
       <c r="F1653" s="71" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G1653" s="71" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H1653" s="71" t="s">
-        <v>3260</v>
+        <v>3258</v>
       </c>
       <c r="I1653" s="71" t="s">
-        <v>2991</v>
+        <v>2993</v>
       </c>
     </row>
     <row r="1654" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1654" s="71">
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="B1654" s="1" t="s">
-        <v>3261</v>
+        <v>3259</v>
       </c>
       <c r="C1654" s="71">
         <v>3</v>
@@ -51342,16 +51415,16 @@
         <v>1714</v>
       </c>
       <c r="E1654" s="71" t="s">
-        <v>2926</v>
+        <v>2914</v>
       </c>
       <c r="F1654" s="71" t="s">
         <v>9</v>
       </c>
       <c r="G1654" s="71" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="H1654" s="71" t="s">
-        <v>3262</v>
+        <v>3260</v>
       </c>
       <c r="I1654" s="71" t="s">
         <v>2991</v>
@@ -51359,117 +51432,120 @@
     </row>
     <row r="1655" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1655" s="71">
-        <v>1840</v>
+        <v>1839</v>
       </c>
       <c r="B1655" s="1" t="s">
-        <v>3263</v>
+        <v>3261</v>
       </c>
       <c r="C1655" s="71">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1655" s="71" t="s">
-        <v>2801</v>
+        <v>1714</v>
+      </c>
+      <c r="E1655" s="71" t="s">
+        <v>2926</v>
       </c>
       <c r="F1655" s="71" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G1655" s="71" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="H1655" s="71" t="s">
-        <v>3264</v>
+        <v>3262</v>
       </c>
       <c r="I1655" s="71" t="s">
         <v>2991</v>
       </c>
     </row>
-    <row r="1656" spans="1:9" s="103" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1656" s="103">
+    <row r="1656" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1656" s="71">
+        <v>1840</v>
+      </c>
+      <c r="B1656" s="1" t="s">
+        <v>3263</v>
+      </c>
+      <c r="C1656" s="71">
+        <v>4</v>
+      </c>
+      <c r="D1656" s="71" t="s">
+        <v>2801</v>
+      </c>
+      <c r="F1656" s="71" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1656" s="71" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1656" s="71" t="s">
+        <v>3264</v>
+      </c>
+      <c r="I1656" s="71" t="s">
+        <v>2991</v>
+      </c>
+    </row>
+    <row r="1657" spans="1:9" s="103" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1657" s="103">
         <v>1842</v>
       </c>
-      <c r="B1656" s="1" t="s">
+      <c r="B1657" s="1" t="s">
         <v>3674</v>
       </c>
-      <c r="C1656" s="103">
+      <c r="C1657" s="103">
         <v>4</v>
       </c>
-      <c r="D1656" s="103" t="s">
+      <c r="D1657" s="103" t="s">
         <v>1712</v>
       </c>
-      <c r="E1656" s="103" t="s">
+      <c r="E1657" s="103" t="s">
         <v>2926</v>
       </c>
-      <c r="F1656" s="103" t="s">
+      <c r="F1657" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="G1656" s="103" t="s">
+      <c r="G1657" s="103" t="s">
         <v>25</v>
       </c>
-      <c r="H1656" s="103" t="s">
+      <c r="H1657" s="103" t="s">
         <v>3675</v>
       </c>
-      <c r="I1656" s="103" t="s">
+      <c r="I1657" s="103" t="s">
         <v>3676</v>
-      </c>
-    </row>
-    <row r="1657" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1657" s="71">
-        <v>1844</v>
-      </c>
-      <c r="B1657" s="1" t="s">
-        <v>3265</v>
-      </c>
-      <c r="C1657" s="71">
-        <v>1</v>
-      </c>
-      <c r="D1657" s="71" t="s">
-        <v>1711</v>
-      </c>
-      <c r="F1657" s="71" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1657" s="71" t="s">
-        <v>36</v>
-      </c>
-      <c r="H1657" s="71" t="s">
-        <v>3266</v>
-      </c>
-      <c r="I1657" s="71" t="s">
-        <v>2991</v>
       </c>
     </row>
     <row r="1658" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1658" s="71">
-        <v>1845</v>
+        <v>1844</v>
       </c>
       <c r="B1658" s="1" t="s">
-        <v>3267</v>
+        <v>3265</v>
       </c>
       <c r="C1658" s="71">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1658" s="71" t="s">
-        <v>1714</v>
+        <v>1711</v>
       </c>
       <c r="F1658" s="71" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G1658" s="71" t="s">
-        <v>456</v>
+        <v>36</v>
       </c>
       <c r="H1658" s="71" t="s">
-        <v>3268</v>
+        <v>3266</v>
       </c>
       <c r="I1658" s="71" t="s">
-        <v>3019</v>
+        <v>2991</v>
       </c>
     </row>
     <row r="1659" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1659" s="71">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="B1659" s="1" t="s">
-        <v>3269</v>
+        <v>3267</v>
       </c>
       <c r="C1659" s="71">
         <v>2</v>
@@ -51481,10 +51557,10 @@
         <v>9</v>
       </c>
       <c r="G1659" s="71" t="s">
-        <v>41</v>
+        <v>456</v>
       </c>
       <c r="H1659" s="71" t="s">
-        <v>3270</v>
+        <v>3268</v>
       </c>
       <c r="I1659" s="71" t="s">
         <v>3019</v>
@@ -51492,25 +51568,25 @@
     </row>
     <row r="1660" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1660" s="71">
-        <v>1847</v>
+        <v>1846</v>
       </c>
       <c r="B1660" s="1" t="s">
-        <v>3271</v>
+        <v>3269</v>
       </c>
       <c r="C1660" s="71">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1660" s="71" t="s">
-        <v>2801</v>
+        <v>1714</v>
       </c>
       <c r="F1660" s="71" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G1660" s="71" t="s">
         <v>41</v>
       </c>
       <c r="H1660" s="71" t="s">
-        <v>3272</v>
+        <v>3270</v>
       </c>
       <c r="I1660" s="71" t="s">
         <v>3019</v>
@@ -51518,25 +51594,25 @@
     </row>
     <row r="1661" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1661" s="71">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="B1661" s="1" t="s">
-        <v>3273</v>
+        <v>3271</v>
       </c>
       <c r="C1661" s="71">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D1661" s="71" t="s">
-        <v>1714</v>
+        <v>2801</v>
       </c>
       <c r="F1661" s="71" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G1661" s="71" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="H1661" s="71" t="s">
-        <v>3274</v>
+        <v>3272</v>
       </c>
       <c r="I1661" s="71" t="s">
         <v>3019</v>
@@ -51544,120 +51620,117 @@
     </row>
     <row r="1662" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1662" s="71">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="B1662" s="1" t="s">
-        <v>3275</v>
+        <v>3273</v>
       </c>
       <c r="C1662" s="71">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1662" s="71" t="s">
         <v>1714</v>
       </c>
       <c r="F1662" s="71" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G1662" s="71" t="s">
-        <v>121</v>
+        <v>21</v>
       </c>
       <c r="H1662" s="71" t="s">
-        <v>3278</v>
+        <v>3274</v>
       </c>
       <c r="I1662" s="71" t="s">
-        <v>3071</v>
+        <v>3019</v>
       </c>
     </row>
     <row r="1663" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1663" s="71">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="B1663" s="1" t="s">
-        <v>3276</v>
+        <v>3275</v>
       </c>
       <c r="C1663" s="71">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1663" s="71" t="s">
-        <v>1707</v>
+        <v>1714</v>
       </c>
       <c r="F1663" s="71" t="s">
         <v>9</v>
       </c>
       <c r="G1663" s="71" t="s">
-        <v>25</v>
+        <v>121</v>
       </c>
       <c r="H1663" s="71" t="s">
-        <v>3279</v>
+        <v>3278</v>
       </c>
       <c r="I1663" s="71" t="s">
-        <v>3280</v>
+        <v>3071</v>
       </c>
     </row>
     <row r="1664" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1664" s="71">
-        <v>1851</v>
+        <v>1850</v>
       </c>
       <c r="B1664" s="1" t="s">
-        <v>3277</v>
+        <v>3276</v>
       </c>
       <c r="C1664" s="71">
         <v>4</v>
       </c>
       <c r="D1664" s="71" t="s">
+        <v>1707</v>
+      </c>
+      <c r="F1664" s="71" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1664" s="71" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1664" s="71" t="s">
+        <v>3279</v>
+      </c>
+      <c r="I1664" s="71" t="s">
+        <v>3280</v>
+      </c>
+    </row>
+    <row r="1665" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1665" s="71">
+        <v>1851</v>
+      </c>
+      <c r="B1665" s="1" t="s">
+        <v>3277</v>
+      </c>
+      <c r="C1665" s="71">
+        <v>4</v>
+      </c>
+      <c r="D1665" s="71" t="s">
         <v>2801</v>
       </c>
-      <c r="E1664" s="71" t="s">
+      <c r="E1665" s="71" t="s">
         <v>2926</v>
       </c>
-      <c r="F1664" s="71" t="s">
+      <c r="F1665" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="G1664" s="71" t="s">
+      <c r="G1665" s="71" t="s">
         <v>41</v>
       </c>
-      <c r="H1664" s="71" t="s">
+      <c r="H1665" s="71" t="s">
         <v>3281</v>
       </c>
-      <c r="I1664" s="71" t="s">
+      <c r="I1665" s="71" t="s">
         <v>3019</v>
-      </c>
-    </row>
-    <row r="1665" spans="1:9" s="79" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1665" s="79">
-        <v>1854</v>
-      </c>
-      <c r="B1665" s="1" t="s">
-        <v>3284</v>
-      </c>
-      <c r="C1665" s="79">
-        <v>2</v>
-      </c>
-      <c r="D1665" s="79" t="s">
-        <v>1714</v>
-      </c>
-      <c r="E1665" s="79" t="s">
-        <v>2926</v>
-      </c>
-      <c r="F1665" s="79" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1665" s="79" t="s">
-        <v>95</v>
-      </c>
-      <c r="H1665" s="79" t="s">
-        <v>3285</v>
-      </c>
-      <c r="I1665" s="79" t="s">
-        <v>2991</v>
       </c>
     </row>
     <row r="1666" spans="1:9" s="79" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1666" s="79">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="B1666" s="1" t="s">
-        <v>3286</v>
+        <v>3284</v>
       </c>
       <c r="C1666" s="79">
         <v>2</v>
@@ -51665,14 +51738,17 @@
       <c r="D1666" s="79" t="s">
         <v>1714</v>
       </c>
+      <c r="E1666" s="79" t="s">
+        <v>2926</v>
+      </c>
       <c r="F1666" s="79" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G1666" s="79" t="s">
-        <v>21</v>
+        <v>95</v>
       </c>
       <c r="H1666" s="79" t="s">
-        <v>3288</v>
+        <v>3285</v>
       </c>
       <c r="I1666" s="79" t="s">
         <v>2991</v>
@@ -51680,1014 +51756,1011 @@
     </row>
     <row r="1667" spans="1:9" s="79" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1667" s="79">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="B1667" s="1" t="s">
-        <v>3287</v>
+        <v>3286</v>
       </c>
       <c r="C1667" s="79">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1667" s="79" t="s">
         <v>1714</v>
       </c>
-      <c r="E1667" s="79" t="s">
-        <v>2915</v>
-      </c>
       <c r="F1667" s="79" t="s">
         <v>9</v>
       </c>
       <c r="G1667" s="79" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="H1667" s="79" t="s">
-        <v>3289</v>
+        <v>3288</v>
       </c>
       <c r="I1667" s="79" t="s">
         <v>2991</v>
       </c>
     </row>
-    <row r="1668" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1668" s="71">
+    <row r="1668" spans="1:9" s="79" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1668" s="79">
+        <v>1856</v>
+      </c>
+      <c r="B1668" s="1" t="s">
+        <v>3287</v>
+      </c>
+      <c r="C1668" s="79">
+        <v>4</v>
+      </c>
+      <c r="D1668" s="79" t="s">
+        <v>1714</v>
+      </c>
+      <c r="E1668" s="79" t="s">
+        <v>2915</v>
+      </c>
+      <c r="F1668" s="79" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1668" s="79" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1668" s="79" t="s">
+        <v>3289</v>
+      </c>
+      <c r="I1668" s="79" t="s">
+        <v>2991</v>
+      </c>
+    </row>
+    <row r="1669" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1669" s="71">
         <v>1857</v>
       </c>
-      <c r="B1668" s="1" t="s">
+      <c r="B1669" s="1" t="s">
         <v>3282</v>
       </c>
-      <c r="C1668" s="71">
+      <c r="C1669" s="71">
         <v>4</v>
       </c>
-      <c r="D1668" s="71" t="s">
-        <v>1714</v>
-      </c>
-      <c r="E1668" s="71" t="s">
+      <c r="D1669" s="71" t="s">
+        <v>1714</v>
+      </c>
+      <c r="E1669" s="71" t="s">
         <v>2914</v>
       </c>
-      <c r="F1668" s="71" t="s">
+      <c r="F1669" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="G1668" s="71" t="s">
+      <c r="G1669" s="71" t="s">
         <v>187</v>
       </c>
-      <c r="H1668" s="71" t="s">
+      <c r="H1669" s="71" t="s">
         <v>3283</v>
       </c>
-      <c r="I1668" s="71" t="s">
+      <c r="I1669" s="71" t="s">
         <v>2991</v>
       </c>
     </row>
-    <row r="1669" spans="1:9" s="82" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1669" s="82">
+    <row r="1670" spans="1:9" s="82" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1670" s="82">
         <v>1859</v>
       </c>
-      <c r="B1669" s="1" t="s">
+      <c r="B1670" s="1" t="s">
         <v>3308</v>
       </c>
-      <c r="C1669" s="82">
+      <c r="C1670" s="82">
         <v>1</v>
       </c>
-      <c r="D1669" s="82" t="s">
-        <v>1714</v>
-      </c>
-      <c r="F1669" s="82" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1669" s="82" t="s">
+      <c r="D1670" s="82" t="s">
+        <v>1714</v>
+      </c>
+      <c r="F1670" s="82" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1670" s="82" t="s">
         <v>36</v>
       </c>
-      <c r="H1669" s="82" t="s">
+      <c r="H1670" s="82" t="s">
         <v>3309</v>
       </c>
-      <c r="I1669" s="82" t="s">
+      <c r="I1670" s="82" t="s">
         <v>2991</v>
       </c>
     </row>
-    <row r="1670" spans="1:9" s="84" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1670" s="84">
+    <row r="1671" spans="1:9" s="84" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1671" s="84">
         <v>1860</v>
       </c>
-      <c r="B1670" s="1" t="s">
+      <c r="B1671" s="1" t="s">
         <v>3322</v>
       </c>
-      <c r="C1670" s="84">
-        <v>3</v>
-      </c>
-      <c r="D1670" s="84" t="s">
+      <c r="C1671" s="84">
+        <v>3</v>
+      </c>
+      <c r="D1671" s="84" t="s">
         <v>1712</v>
       </c>
-      <c r="F1670" s="84" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1670" s="84" t="s">
+      <c r="F1671" s="84" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1671" s="84" t="s">
         <v>25</v>
       </c>
-      <c r="H1670" s="84" t="s">
+      <c r="H1671" s="84" t="s">
         <v>3323</v>
       </c>
-      <c r="I1670" s="84" t="s">
+      <c r="I1671" s="84" t="s">
         <v>3324</v>
       </c>
     </row>
-    <row r="1671" spans="1:9" s="85" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1671" s="85">
+    <row r="1672" spans="1:9" s="85" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1672" s="85">
         <v>1861</v>
       </c>
-      <c r="B1671" s="1" t="s">
+      <c r="B1672" s="1" t="s">
         <v>3325</v>
       </c>
-      <c r="C1671" s="85">
-        <v>3</v>
-      </c>
-      <c r="D1671" s="85" t="s">
-        <v>1714</v>
-      </c>
-      <c r="F1671" s="85" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1671" s="85" t="s">
+      <c r="C1672" s="85">
+        <v>3</v>
+      </c>
+      <c r="D1672" s="85" t="s">
+        <v>1714</v>
+      </c>
+      <c r="F1672" s="85" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1672" s="85" t="s">
         <v>21</v>
       </c>
-      <c r="H1671" s="85" t="s">
+      <c r="H1672" s="85" t="s">
         <v>3326</v>
       </c>
-      <c r="I1671" s="85" t="s">
+      <c r="I1672" s="85" t="s">
         <v>2991</v>
       </c>
     </row>
-    <row r="1672" spans="1:9" s="80" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1672" s="80">
+    <row r="1673" spans="1:9" s="80" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1673" s="80">
         <v>1862</v>
       </c>
-      <c r="B1672" s="1" t="s">
+      <c r="B1673" s="1" t="s">
         <v>3292</v>
       </c>
-      <c r="C1672" s="80">
+      <c r="C1673" s="80">
         <v>4</v>
       </c>
-      <c r="D1672" s="80" t="s">
+      <c r="D1673" s="80" t="s">
         <v>1712</v>
       </c>
-      <c r="F1672" s="80" t="s">
+      <c r="F1673" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="G1672" s="80" t="s">
+      <c r="G1673" s="80" t="s">
         <v>25</v>
       </c>
-      <c r="H1672" s="80" t="s">
+      <c r="H1673" s="80" t="s">
         <v>3290</v>
       </c>
-      <c r="I1672" s="80" t="s">
+      <c r="I1673" s="80" t="s">
         <v>3214</v>
       </c>
     </row>
-    <row r="1673" spans="1:9" s="82" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1673" s="82">
+    <row r="1674" spans="1:9" s="82" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1674" s="82">
         <v>1863</v>
       </c>
-      <c r="B1673" s="1" t="s">
+      <c r="B1674" s="1" t="s">
         <v>3310</v>
       </c>
-      <c r="C1673" s="82">
-        <v>3</v>
-      </c>
-      <c r="D1673" s="82" t="s">
+      <c r="C1674" s="82">
+        <v>3</v>
+      </c>
+      <c r="D1674" s="82" t="s">
         <v>1712</v>
       </c>
-      <c r="E1673" s="82" t="s">
+      <c r="E1674" s="82" t="s">
         <v>2926</v>
       </c>
-      <c r="F1673" s="82" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1673" s="82" t="s">
+      <c r="F1674" s="82" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1674" s="82" t="s">
         <v>134</v>
       </c>
-      <c r="H1673" s="82" t="s">
+      <c r="H1674" s="82" t="s">
         <v>3311</v>
       </c>
-      <c r="I1673" s="82" t="s">
-        <v>2991</v>
-      </c>
-    </row>
-    <row r="1674" spans="1:9" s="86" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1674" s="86">
-        <v>1864</v>
-      </c>
-      <c r="B1674" s="1" t="s">
-        <v>3340</v>
-      </c>
-      <c r="C1674" s="86">
-        <v>2</v>
-      </c>
-      <c r="D1674" s="86" t="s">
-        <v>1714</v>
-      </c>
-      <c r="E1674" s="86" t="s">
-        <v>2915</v>
-      </c>
-      <c r="F1674" s="86" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1674" s="86" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1674" s="86" t="s">
-        <v>3342</v>
-      </c>
-      <c r="I1674" s="86" t="s">
+      <c r="I1674" s="82" t="s">
         <v>2991</v>
       </c>
     </row>
     <row r="1675" spans="1:9" s="86" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1675" s="86">
+        <v>1864</v>
+      </c>
+      <c r="B1675" s="1" t="s">
+        <v>3340</v>
+      </c>
+      <c r="C1675" s="86">
+        <v>2</v>
+      </c>
+      <c r="D1675" s="86" t="s">
+        <v>1714</v>
+      </c>
+      <c r="E1675" s="86" t="s">
+        <v>2915</v>
+      </c>
+      <c r="F1675" s="86" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1675" s="86" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1675" s="86" t="s">
+        <v>3342</v>
+      </c>
+      <c r="I1675" s="86" t="s">
+        <v>2991</v>
+      </c>
+    </row>
+    <row r="1676" spans="1:9" s="86" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1676" s="86">
         <v>1865</v>
       </c>
-      <c r="B1675" s="1" t="s">
+      <c r="B1676" s="1" t="s">
         <v>3341</v>
       </c>
-      <c r="C1675" s="86">
-        <v>3</v>
-      </c>
-      <c r="D1675" s="86" t="s">
-        <v>1714</v>
-      </c>
-      <c r="E1675" s="86" t="s">
+      <c r="C1676" s="86">
+        <v>3</v>
+      </c>
+      <c r="D1676" s="86" t="s">
+        <v>1714</v>
+      </c>
+      <c r="E1676" s="86" t="s">
         <v>2926</v>
       </c>
-      <c r="F1675" s="86" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1675" s="86" t="s">
+      <c r="F1676" s="86" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1676" s="86" t="s">
         <v>456</v>
       </c>
-      <c r="H1675" s="86" t="s">
+      <c r="H1676" s="86" t="s">
         <v>3343</v>
       </c>
-      <c r="I1675" s="86" t="s">
+      <c r="I1676" s="86" t="s">
         <v>3344</v>
       </c>
     </row>
-    <row r="1676" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1676" s="71">
+    <row r="1677" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1677" s="71">
         <v>1866</v>
       </c>
-      <c r="B1676" s="1" t="s">
+      <c r="B1677" s="1" t="s">
         <v>3291</v>
       </c>
-      <c r="C1676" s="71">
+      <c r="C1677" s="71">
         <v>4</v>
       </c>
-      <c r="D1676" s="71" t="s">
-        <v>1714</v>
-      </c>
-      <c r="E1676" s="71" t="s">
+      <c r="D1677" s="71" t="s">
+        <v>1714</v>
+      </c>
+      <c r="E1677" s="71" t="s">
         <v>2915</v>
       </c>
-      <c r="F1676" s="71" t="s">
+      <c r="F1677" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="G1676" s="71" t="s">
+      <c r="G1677" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="H1676" s="71" t="s">
+      <c r="H1677" s="71" t="s">
         <v>3293</v>
       </c>
-      <c r="I1676" s="71" t="s">
+      <c r="I1677" s="71" t="s">
         <v>2991</v>
       </c>
     </row>
-    <row r="1677" spans="1:9" s="82" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1677" s="82">
+    <row r="1678" spans="1:9" s="82" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1678" s="82">
         <v>1869</v>
       </c>
-      <c r="B1677" s="1" t="s">
+      <c r="B1678" s="1" t="s">
         <v>3312</v>
       </c>
-      <c r="C1677" s="82">
+      <c r="C1678" s="82">
         <v>2</v>
       </c>
-      <c r="D1677" s="82" t="s">
-        <v>1714</v>
-      </c>
-      <c r="E1677" s="82" t="s">
+      <c r="D1678" s="82" t="s">
+        <v>1714</v>
+      </c>
+      <c r="E1678" s="82" t="s">
         <v>2926</v>
       </c>
-      <c r="F1677" s="82" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1677" s="82" t="s">
+      <c r="F1678" s="82" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1678" s="82" t="s">
         <v>36</v>
       </c>
-      <c r="H1677" s="82" t="s">
+      <c r="H1678" s="82" t="s">
         <v>3313</v>
       </c>
-      <c r="I1677" s="82" t="s">
+      <c r="I1678" s="82" t="s">
         <v>2991</v>
       </c>
     </row>
-    <row r="1678" spans="1:9" s="86" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1678" s="86">
+    <row r="1679" spans="1:9" s="86" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1679" s="86">
         <v>1870</v>
       </c>
-      <c r="B1678" s="1" t="s">
+      <c r="B1679" s="1" t="s">
         <v>3345</v>
       </c>
-      <c r="C1678" s="86">
+      <c r="C1679" s="86">
         <v>4</v>
       </c>
-      <c r="D1678" s="86" t="s">
-        <v>1714</v>
-      </c>
-      <c r="E1678" s="86" t="s">
+      <c r="D1679" s="86" t="s">
+        <v>1714</v>
+      </c>
+      <c r="E1679" s="86" t="s">
         <v>2915</v>
       </c>
-      <c r="F1678" s="86" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1678" s="86" t="s">
+      <c r="F1679" s="86" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1679" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="H1678" s="86" t="s">
+      <c r="H1679" s="86" t="s">
         <v>3346</v>
       </c>
-      <c r="I1678" s="86" t="s">
+      <c r="I1679" s="86" t="s">
         <v>3019</v>
       </c>
     </row>
-    <row r="1679" spans="1:9" s="87" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1679" s="87">
+    <row r="1680" spans="1:9" s="87" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1680" s="87">
         <v>1871</v>
       </c>
-      <c r="B1679" s="1" t="s">
+      <c r="B1680" s="1" t="s">
         <v>3348</v>
       </c>
-      <c r="C1679" s="87">
+      <c r="C1680" s="87">
         <v>2</v>
       </c>
-      <c r="D1679" s="87" t="s">
-        <v>1714</v>
-      </c>
-      <c r="F1679" s="87" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1679" s="87" t="s">
+      <c r="D1680" s="87" t="s">
+        <v>1714</v>
+      </c>
+      <c r="F1680" s="87" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1680" s="87" t="s">
         <v>187</v>
       </c>
-      <c r="H1679" s="87" t="s">
+      <c r="H1680" s="87" t="s">
         <v>3349</v>
       </c>
     </row>
-    <row r="1680" spans="1:9" s="80" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1680" s="80">
+    <row r="1681" spans="1:9" s="80" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1681" s="80">
         <v>1872</v>
       </c>
-      <c r="B1680" s="1" t="s">
+      <c r="B1681" s="1" t="s">
         <v>3294</v>
       </c>
-      <c r="C1680" s="80">
-        <v>5</v>
-      </c>
-      <c r="D1680" s="80" t="s">
+      <c r="C1681" s="80">
+        <v>5</v>
+      </c>
+      <c r="D1681" s="80" t="s">
         <v>2801</v>
       </c>
-      <c r="F1680" s="80" t="s">
+      <c r="F1681" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="G1680" s="80" t="s">
+      <c r="G1681" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="H1680" s="80" t="s">
+      <c r="H1681" s="80" t="s">
         <v>3295</v>
       </c>
-      <c r="I1680" s="80" t="s">
+      <c r="I1681" s="80" t="s">
         <v>2991</v>
       </c>
     </row>
-    <row r="1681" spans="1:9" s="83" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1681" s="83">
+    <row r="1682" spans="1:9" s="104" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1682" s="104">
+        <v>1874</v>
+      </c>
+      <c r="B1682" s="1" t="s">
+        <v>3697</v>
+      </c>
+      <c r="C1682" s="104">
+        <v>2</v>
+      </c>
+      <c r="D1682" s="104" t="s">
+        <v>1714</v>
+      </c>
+      <c r="F1682" s="104" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1682" s="104" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1682" s="104" t="s">
+        <v>3698</v>
+      </c>
+      <c r="I1682" s="104" t="s">
+        <v>3019</v>
+      </c>
+    </row>
+    <row r="1683" spans="1:9" s="83" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1683" s="83">
         <v>1876</v>
       </c>
-      <c r="B1681" s="1" t="s">
+      <c r="B1683" s="1" t="s">
         <v>3314</v>
       </c>
-      <c r="C1681" s="83">
+      <c r="C1683" s="83">
         <v>2</v>
       </c>
-      <c r="D1681" s="83" t="s">
-        <v>1714</v>
-      </c>
-      <c r="F1681" s="83" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1681" s="83" t="s">
+      <c r="D1683" s="83" t="s">
+        <v>1714</v>
+      </c>
+      <c r="F1683" s="83" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1683" s="83" t="s">
         <v>36</v>
       </c>
-      <c r="H1681" s="83" t="s">
+      <c r="H1683" s="83" t="s">
         <v>3315</v>
       </c>
-      <c r="I1681" s="83" t="s">
+      <c r="I1683" s="83" t="s">
         <v>2991</v>
       </c>
     </row>
-    <row r="1682" spans="1:9" s="88" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1682" s="88">
+    <row r="1684" spans="1:9" s="88" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1684" s="88">
         <v>1877</v>
       </c>
-      <c r="B1682" s="1" t="s">
+      <c r="B1684" s="1" t="s">
         <v>3355</v>
       </c>
-      <c r="C1682" s="88">
+      <c r="C1684" s="88">
         <v>2</v>
       </c>
-      <c r="D1682" s="88" t="s">
-        <v>1714</v>
-      </c>
-      <c r="F1682" s="88" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1682" s="88" t="s">
+      <c r="D1684" s="88" t="s">
+        <v>1714</v>
+      </c>
+      <c r="F1684" s="88" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1684" s="88" t="s">
         <v>41</v>
       </c>
-      <c r="H1682" s="88" t="s">
+      <c r="H1684" s="88" t="s">
         <v>3356</v>
       </c>
-      <c r="I1682" s="88" t="s">
+      <c r="I1684" s="88" t="s">
         <v>2991</v>
       </c>
     </row>
-    <row r="1683" spans="1:9" s="86" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1683" s="86">
+    <row r="1685" spans="1:9" s="86" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1685" s="86">
         <v>1878</v>
       </c>
-      <c r="B1683" s="1" t="s">
+      <c r="B1685" s="1" t="s">
         <v>3354</v>
       </c>
-      <c r="C1683" s="86">
-        <v>3</v>
-      </c>
-      <c r="D1683" s="86" t="s">
+      <c r="C1685" s="86">
+        <v>3</v>
+      </c>
+      <c r="D1685" s="86" t="s">
         <v>1707</v>
       </c>
-      <c r="F1683" s="86" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1683" s="86" t="s">
+      <c r="F1685" s="86" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1685" s="86" t="s">
         <v>21</v>
       </c>
-      <c r="H1683" s="86" t="s">
+      <c r="H1685" s="86" t="s">
         <v>3347</v>
       </c>
-      <c r="I1683" s="86" t="s">
+      <c r="I1685" s="86" t="s">
         <v>2991</v>
       </c>
     </row>
-    <row r="1684" spans="1:9" s="80" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1684" s="80">
+    <row r="1686" spans="1:9" s="80" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1686" s="80">
         <v>1879</v>
       </c>
-      <c r="B1684" s="1" t="s">
+      <c r="B1686" s="1" t="s">
         <v>3296</v>
       </c>
-      <c r="C1684" s="80">
+      <c r="C1686" s="80">
         <v>4</v>
       </c>
-      <c r="D1684" s="80" t="s">
-        <v>1714</v>
-      </c>
-      <c r="E1684" s="80" t="s">
+      <c r="D1686" s="80" t="s">
+        <v>1714</v>
+      </c>
+      <c r="E1686" s="80" t="s">
         <v>2926</v>
       </c>
-      <c r="F1684" s="80" t="s">
+      <c r="F1686" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="G1684" s="80" t="s">
+      <c r="G1686" s="80" t="s">
         <v>121</v>
       </c>
-      <c r="H1684" s="80" t="s">
+      <c r="H1686" s="80" t="s">
         <v>3297</v>
       </c>
-      <c r="I1684" s="80" t="s">
+      <c r="I1686" s="80" t="s">
         <v>3298</v>
       </c>
     </row>
-    <row r="1685" spans="1:9" s="83" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1685" s="83">
+    <row r="1687" spans="1:9" s="83" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1687" s="83">
         <v>1880</v>
       </c>
-      <c r="B1685" s="1" t="s">
+      <c r="B1687" s="1" t="s">
         <v>3316</v>
       </c>
-      <c r="C1685" s="83">
+      <c r="C1687" s="83">
         <v>1</v>
       </c>
-      <c r="D1685" s="83" t="s">
-        <v>1714</v>
-      </c>
-      <c r="F1685" s="83" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1685" s="83" t="s">
+      <c r="D1687" s="83" t="s">
+        <v>1714</v>
+      </c>
+      <c r="F1687" s="83" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1687" s="83" t="s">
         <v>36</v>
       </c>
-      <c r="H1685" s="83" t="s">
+      <c r="H1687" s="83" t="s">
         <v>3317</v>
       </c>
-      <c r="I1685" s="83" t="s">
+      <c r="I1687" s="83" t="s">
         <v>2991</v>
       </c>
     </row>
-    <row r="1686" spans="1:9" s="87" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1686" s="87">
+    <row r="1688" spans="1:9" s="87" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1688" s="87">
         <v>1881</v>
       </c>
-      <c r="B1686" s="1" t="s">
+      <c r="B1688" s="1" t="s">
         <v>3350</v>
       </c>
-      <c r="C1686" s="87">
+      <c r="C1688" s="87">
         <v>2</v>
       </c>
-      <c r="D1686" s="87" t="s">
+      <c r="D1688" s="87" t="s">
         <v>1761</v>
       </c>
-      <c r="F1686" s="87" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1686" s="87" t="s">
+      <c r="F1688" s="87" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1688" s="87" t="s">
         <v>41</v>
       </c>
-      <c r="H1686" s="87" t="s">
+      <c r="H1688" s="87" t="s">
         <v>3351</v>
-      </c>
-    </row>
-    <row r="1687" spans="1:9" s="88" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1687" s="88">
-        <v>1882</v>
-      </c>
-      <c r="B1687" s="1" t="s">
-        <v>3357</v>
-      </c>
-      <c r="C1687" s="88">
-        <v>3</v>
-      </c>
-      <c r="D1687" s="88" t="s">
-        <v>1714</v>
-      </c>
-      <c r="E1687" s="88" t="s">
-        <v>2914</v>
-      </c>
-      <c r="F1687" s="88" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1687" s="88" t="s">
-        <v>41</v>
-      </c>
-      <c r="H1687" s="88" t="s">
-        <v>3584</v>
-      </c>
-      <c r="I1687" s="88" t="s">
-        <v>3019</v>
-      </c>
-    </row>
-    <row r="1688" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1688" s="71">
-        <v>1883</v>
-      </c>
-      <c r="B1688" s="1" t="s">
-        <v>3299</v>
-      </c>
-      <c r="C1688" s="71">
-        <v>4</v>
-      </c>
-      <c r="D1688" s="71" t="s">
-        <v>1714</v>
-      </c>
-      <c r="F1688" s="71" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1688" s="71" t="s">
-        <v>28</v>
-      </c>
-      <c r="H1688" s="71" t="s">
-        <v>3300</v>
-      </c>
-      <c r="I1688" s="71" t="s">
-        <v>3016</v>
       </c>
     </row>
     <row r="1689" spans="1:9" s="88" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1689" s="88">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="B1689" s="1" t="s">
-        <v>3358</v>
+        <v>3357</v>
       </c>
       <c r="C1689" s="88">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1689" s="88" t="s">
-        <v>1712</v>
+        <v>1714</v>
+      </c>
+      <c r="E1689" s="88" t="s">
+        <v>2914</v>
       </c>
       <c r="F1689" s="88" t="s">
         <v>9</v>
       </c>
       <c r="G1689" s="88" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="H1689" s="88" t="s">
-        <v>3359</v>
+        <v>3584</v>
       </c>
       <c r="I1689" s="88" t="s">
-        <v>3047</v>
-      </c>
-    </row>
-    <row r="1690" spans="1:9" s="83" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1690" s="83">
-        <v>1886</v>
+        <v>3019</v>
+      </c>
+    </row>
+    <row r="1690" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1690" s="71">
+        <v>1883</v>
       </c>
       <c r="B1690" s="1" t="s">
-        <v>3318</v>
-      </c>
-      <c r="C1690" s="83">
-        <v>3</v>
-      </c>
-      <c r="D1690" s="83" t="s">
-        <v>1714</v>
-      </c>
-      <c r="F1690" s="83" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1690" s="83" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1690" s="83" t="s">
-        <v>3319</v>
-      </c>
-      <c r="I1690" s="83" t="s">
-        <v>2991</v>
+        <v>3299</v>
+      </c>
+      <c r="C1690" s="71">
+        <v>4</v>
+      </c>
+      <c r="D1690" s="71" t="s">
+        <v>1714</v>
+      </c>
+      <c r="F1690" s="71" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1690" s="71" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1690" s="71" t="s">
+        <v>3300</v>
+      </c>
+      <c r="I1690" s="71" t="s">
+        <v>3016</v>
       </c>
     </row>
     <row r="1691" spans="1:9" s="88" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1691" s="88">
-        <v>1887</v>
+        <v>1884</v>
       </c>
       <c r="B1691" s="1" t="s">
-        <v>3360</v>
+        <v>3358</v>
       </c>
       <c r="C1691" s="88">
         <v>2</v>
       </c>
       <c r="D1691" s="88" t="s">
-        <v>1714</v>
-      </c>
-      <c r="E1691" s="88" t="s">
+        <v>1712</v>
+      </c>
+      <c r="F1691" s="88" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1691" s="88" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1691" s="88" t="s">
+        <v>3359</v>
+      </c>
+      <c r="I1691" s="88" t="s">
+        <v>3047</v>
+      </c>
+    </row>
+    <row r="1692" spans="1:9" s="83" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1692" s="83">
+        <v>1886</v>
+      </c>
+      <c r="B1692" s="1" t="s">
+        <v>3318</v>
+      </c>
+      <c r="C1692" s="83">
+        <v>3</v>
+      </c>
+      <c r="D1692" s="83" t="s">
+        <v>1714</v>
+      </c>
+      <c r="F1692" s="83" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1692" s="83" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1692" s="83" t="s">
+        <v>3319</v>
+      </c>
+      <c r="I1692" s="83" t="s">
+        <v>2991</v>
+      </c>
+    </row>
+    <row r="1693" spans="1:9" s="88" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1693" s="88">
+        <v>1887</v>
+      </c>
+      <c r="B1693" s="1" t="s">
+        <v>3360</v>
+      </c>
+      <c r="C1693" s="88">
+        <v>2</v>
+      </c>
+      <c r="D1693" s="88" t="s">
+        <v>1714</v>
+      </c>
+      <c r="E1693" s="88" t="s">
         <v>2926</v>
       </c>
-      <c r="F1691" s="88" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1691" s="88" t="s">
+      <c r="F1693" s="88" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1693" s="88" t="s">
         <v>41</v>
       </c>
-      <c r="H1691" s="88" t="s">
+      <c r="H1693" s="88" t="s">
         <v>3361</v>
       </c>
-      <c r="I1691" s="88" t="s">
+      <c r="I1693" s="88" t="s">
         <v>3019</v>
       </c>
     </row>
-    <row r="1692" spans="1:9" s="88" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1692" s="88">
+    <row r="1694" spans="1:9" s="88" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1694" s="88">
         <v>1888</v>
       </c>
-      <c r="B1692" s="1" t="s">
+      <c r="B1694" s="1" t="s">
         <v>3362</v>
       </c>
-      <c r="C1692" s="88">
+      <c r="C1694" s="88">
         <v>2</v>
       </c>
-      <c r="D1692" s="88" t="s">
-        <v>1714</v>
-      </c>
-      <c r="E1692" s="88" t="s">
+      <c r="D1694" s="88" t="s">
+        <v>1714</v>
+      </c>
+      <c r="E1694" s="88" t="s">
         <v>2926</v>
       </c>
-      <c r="F1692" s="88" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1692" s="88" t="s">
+      <c r="F1694" s="88" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1694" s="88" t="s">
         <v>21</v>
       </c>
-      <c r="H1692" s="88" t="s">
+      <c r="H1694" s="88" t="s">
         <v>3363</v>
       </c>
-      <c r="I1692" s="88" t="s">
+      <c r="I1694" s="88" t="s">
         <v>2991</v>
       </c>
     </row>
-    <row r="1693" spans="1:9" s="62" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1693" s="62">
+    <row r="1695" spans="1:9" s="62" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1695" s="62">
         <v>1889</v>
       </c>
-      <c r="B1693" s="1" t="s">
+      <c r="B1695" s="1" t="s">
         <v>3301</v>
       </c>
-      <c r="C1693" s="62">
+      <c r="C1695" s="62">
         <v>4</v>
       </c>
-      <c r="D1693" s="62" t="s">
-        <v>1714</v>
-      </c>
-      <c r="F1693" s="62" t="s">
+      <c r="D1695" s="62" t="s">
+        <v>1714</v>
+      </c>
+      <c r="F1695" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="G1693" s="62" t="s">
+      <c r="G1695" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="H1693" s="62" t="s">
+      <c r="H1695" s="62" t="s">
         <v>3302</v>
       </c>
-      <c r="I1693" s="62" t="s">
+      <c r="I1695" s="62" t="s">
         <v>3019</v>
       </c>
     </row>
-    <row r="1694" spans="1:9" s="83" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1694" s="83">
+    <row r="1696" spans="1:9" s="83" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1696" s="83">
         <v>1893</v>
       </c>
-      <c r="B1694" s="1" t="s">
+      <c r="B1696" s="1" t="s">
         <v>3320</v>
       </c>
-      <c r="C1694" s="83">
-        <v>3</v>
-      </c>
-      <c r="D1694" s="83" t="s">
-        <v>1714</v>
-      </c>
-      <c r="E1694" s="83" t="s">
+      <c r="C1696" s="83">
+        <v>3</v>
+      </c>
+      <c r="D1696" s="83" t="s">
+        <v>1714</v>
+      </c>
+      <c r="E1696" s="83" t="s">
         <v>2915</v>
       </c>
-      <c r="F1694" s="83" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1694" s="83" t="s">
+      <c r="F1696" s="83" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1696" s="83" t="s">
         <v>95</v>
       </c>
-      <c r="H1694" s="83" t="s">
+      <c r="H1696" s="83" t="s">
         <v>3321</v>
       </c>
-      <c r="I1694" s="83" t="s">
+      <c r="I1696" s="83" t="s">
         <v>3019</v>
       </c>
     </row>
-    <row r="1695" spans="1:9" s="89" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1695" s="89">
+    <row r="1697" spans="1:9" s="89" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1697" s="89">
         <v>1894</v>
       </c>
-      <c r="B1695" s="1" t="s">
+      <c r="B1697" s="1" t="s">
         <v>3375</v>
       </c>
-      <c r="C1695" s="89">
+      <c r="C1697" s="89">
         <v>2</v>
       </c>
-      <c r="D1695" s="89" t="s">
-        <v>1714</v>
-      </c>
-      <c r="F1695" s="89" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1695" s="89" t="s">
+      <c r="D1697" s="89" t="s">
+        <v>1714</v>
+      </c>
+      <c r="F1697" s="89" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1697" s="89" t="s">
         <v>21</v>
       </c>
-      <c r="H1695" s="89" t="s">
+      <c r="H1697" s="89" t="s">
         <v>3376</v>
       </c>
-      <c r="I1695" s="89" t="s">
+      <c r="I1697" s="89" t="s">
         <v>2991</v>
       </c>
     </row>
-    <row r="1696" spans="1:9" s="87" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1696" s="87">
+    <row r="1698" spans="1:9" s="87" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1698" s="87">
         <v>1895</v>
       </c>
-      <c r="B1696" s="1" t="s">
+      <c r="B1698" s="1" t="s">
         <v>3352</v>
       </c>
-      <c r="C1696" s="87">
-        <v>3</v>
-      </c>
-      <c r="D1696" s="87" t="s">
+      <c r="C1698" s="87">
+        <v>3</v>
+      </c>
+      <c r="D1698" s="87" t="s">
         <v>1707</v>
       </c>
-      <c r="F1696" s="87" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1696" s="87" t="s">
+      <c r="F1698" s="87" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1698" s="87" t="s">
         <v>21</v>
       </c>
-      <c r="H1696" s="87" t="s">
+      <c r="H1698" s="87" t="s">
         <v>3353</v>
       </c>
-      <c r="I1696" s="87" t="s">
+      <c r="I1698" s="87" t="s">
         <v>3377</v>
       </c>
     </row>
-    <row r="1697" spans="1:9" s="81" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1697" s="81">
+    <row r="1699" spans="1:9" s="81" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1699" s="81">
         <v>1896</v>
       </c>
-      <c r="B1697" s="1" t="s">
+      <c r="B1699" s="1" t="s">
         <v>3303</v>
       </c>
-      <c r="C1697" s="81">
+      <c r="C1699" s="81">
         <v>6</v>
       </c>
-      <c r="D1697" s="81" t="s">
-        <v>1714</v>
-      </c>
-      <c r="F1697" s="81" t="s">
+      <c r="D1699" s="81" t="s">
+        <v>1714</v>
+      </c>
+      <c r="F1699" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="G1697" s="81" t="s">
+      <c r="G1699" s="81" t="s">
         <v>36</v>
       </c>
-      <c r="H1697" s="81" t="s">
+      <c r="H1699" s="81" t="s">
         <v>3305</v>
       </c>
-      <c r="I1697" s="81" t="s">
+      <c r="I1699" s="81" t="s">
         <v>2991</v>
       </c>
     </row>
-    <row r="1698" spans="1:9" s="88" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1698" s="88">
+    <row r="1700" spans="1:9" s="88" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1700" s="88">
         <v>1897</v>
       </c>
-      <c r="B1698" s="1" t="s">
+      <c r="B1700" s="1" t="s">
         <v>3364</v>
       </c>
-      <c r="C1698" s="88">
+      <c r="C1700" s="88">
         <v>1</v>
       </c>
-      <c r="D1698" s="88" t="s">
+      <c r="D1700" s="88" t="s">
         <v>1761</v>
       </c>
-      <c r="E1698" s="88" t="s">
+      <c r="E1700" s="88" t="s">
         <v>2926</v>
       </c>
-      <c r="F1698" s="88" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1698" s="88" t="s">
+      <c r="F1700" s="88" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1700" s="88" t="s">
         <v>36</v>
       </c>
-      <c r="H1698" s="88" t="s">
+      <c r="H1700" s="88" t="s">
         <v>3365</v>
       </c>
-      <c r="I1698" s="88" t="s">
+      <c r="I1700" s="88" t="s">
         <v>2991</v>
       </c>
     </row>
-    <row r="1699" spans="1:9" s="89" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1699" s="89">
+    <row r="1701" spans="1:9" s="89" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1701" s="89">
         <v>1898</v>
       </c>
-      <c r="B1699" s="1" t="s">
+      <c r="B1701" s="1" t="s">
         <v>3384</v>
       </c>
-      <c r="C1699" s="89">
-        <v>3</v>
-      </c>
-      <c r="D1699" s="89" t="s">
-        <v>1714</v>
-      </c>
-      <c r="E1699" s="89" t="s">
+      <c r="C1701" s="89">
+        <v>3</v>
+      </c>
+      <c r="D1701" s="89" t="s">
+        <v>1714</v>
+      </c>
+      <c r="E1701" s="89" t="s">
         <v>2926</v>
       </c>
-      <c r="F1699" s="89" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1699" s="89" t="s">
+      <c r="F1701" s="89" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1701" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="H1699" s="89" t="s">
+      <c r="H1701" s="89" t="s">
         <v>3385</v>
       </c>
-      <c r="I1699" s="89" t="s">
+      <c r="I1701" s="89" t="s">
         <v>3019</v>
       </c>
     </row>
-    <row r="1700" spans="1:9" s="89" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1700" s="89">
+    <row r="1702" spans="1:9" s="89" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1702" s="89">
         <v>1899</v>
       </c>
-      <c r="B1700" s="1" t="s">
+      <c r="B1702" s="1" t="s">
         <v>3386</v>
       </c>
-      <c r="C1700" s="89">
+      <c r="C1702" s="89">
         <v>2</v>
       </c>
-      <c r="D1700" s="89" t="s">
-        <v>1714</v>
-      </c>
-      <c r="F1700" s="89" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1700" s="89" t="s">
+      <c r="D1702" s="89" t="s">
+        <v>1714</v>
+      </c>
+      <c r="F1702" s="89" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1702" s="89" t="s">
         <v>25</v>
       </c>
-      <c r="H1700" s="89" t="s">
+      <c r="H1702" s="89" t="s">
         <v>3387</v>
       </c>
-      <c r="I1700" s="89" t="s">
-        <v>2991</v>
-      </c>
-    </row>
-    <row r="1701" spans="1:9" s="81" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1701" s="81">
-        <v>1900</v>
-      </c>
-      <c r="B1701" s="1" t="s">
-        <v>3304</v>
-      </c>
-      <c r="C1701" s="81">
-        <v>5</v>
-      </c>
-      <c r="D1701" s="81" t="s">
-        <v>1707</v>
-      </c>
-      <c r="F1701" s="81" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1701" s="81" t="s">
-        <v>121</v>
-      </c>
-      <c r="H1701" s="81" t="s">
-        <v>3307</v>
-      </c>
-      <c r="I1701" s="81" t="s">
-        <v>3306</v>
-      </c>
-    </row>
-    <row r="1702" spans="1:9" s="91" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1702" s="91">
-        <v>1901</v>
-      </c>
-      <c r="B1702" s="1" t="s">
-        <v>3405</v>
-      </c>
-      <c r="C1702" s="91">
-        <v>2</v>
-      </c>
-      <c r="D1702" s="91" t="s">
-        <v>1714</v>
-      </c>
-      <c r="E1702" s="91" t="s">
-        <v>2926</v>
-      </c>
-      <c r="F1702" s="91" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1702" s="91" t="s">
-        <v>151</v>
-      </c>
-      <c r="H1702" s="91" t="s">
-        <v>3406</v>
-      </c>
-      <c r="I1702" s="91" t="s">
+      <c r="I1702" s="89" t="s">
         <v>2991</v>
       </c>
     </row>
     <row r="1703" spans="1:9" s="81" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1703" s="81">
-        <v>1903</v>
+        <v>1900</v>
       </c>
       <c r="B1703" s="1" t="s">
-        <v>3327</v>
+        <v>3304</v>
       </c>
       <c r="C1703" s="81">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D1703" s="81" t="s">
-        <v>1711</v>
+        <v>1707</v>
       </c>
       <c r="F1703" s="81" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G1703" s="81" t="s">
-        <v>36</v>
+        <v>121</v>
       </c>
       <c r="H1703" s="81" t="s">
-        <v>3328</v>
+        <v>3307</v>
       </c>
       <c r="I1703" s="81" t="s">
-        <v>2991</v>
+        <v>3306</v>
       </c>
     </row>
     <row r="1704" spans="1:9" s="91" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1704" s="91">
-        <v>1904</v>
+        <v>1901</v>
       </c>
       <c r="B1704" s="1" t="s">
-        <v>3409</v>
+        <v>3405</v>
       </c>
       <c r="C1704" s="91">
         <v>2</v>
@@ -52702,1230 +52775,1233 @@
         <v>9</v>
       </c>
       <c r="G1704" s="91" t="s">
+        <v>151</v>
+      </c>
+      <c r="H1704" s="91" t="s">
+        <v>3406</v>
+      </c>
+      <c r="I1704" s="91" t="s">
+        <v>2991</v>
+      </c>
+    </row>
+    <row r="1705" spans="1:9" s="81" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1705" s="81">
+        <v>1903</v>
+      </c>
+      <c r="B1705" s="1" t="s">
+        <v>3327</v>
+      </c>
+      <c r="C1705" s="81">
+        <v>1</v>
+      </c>
+      <c r="D1705" s="81" t="s">
+        <v>1711</v>
+      </c>
+      <c r="F1705" s="81" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1705" s="81" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1705" s="81" t="s">
+        <v>3328</v>
+      </c>
+      <c r="I1705" s="81" t="s">
+        <v>2991</v>
+      </c>
+    </row>
+    <row r="1706" spans="1:9" s="91" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1706" s="91">
+        <v>1904</v>
+      </c>
+      <c r="B1706" s="1" t="s">
+        <v>3409</v>
+      </c>
+      <c r="C1706" s="91">
+        <v>2</v>
+      </c>
+      <c r="D1706" s="91" t="s">
+        <v>1714</v>
+      </c>
+      <c r="E1706" s="91" t="s">
+        <v>2926</v>
+      </c>
+      <c r="F1706" s="91" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1706" s="91" t="s">
         <v>25</v>
       </c>
-      <c r="H1704" s="91" t="s">
+      <c r="H1706" s="91" t="s">
         <v>3410</v>
       </c>
-      <c r="I1704" s="91" t="s">
+      <c r="I1706" s="91" t="s">
         <v>3047</v>
       </c>
     </row>
-    <row r="1705" spans="1:9" s="91" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1705" s="91">
+    <row r="1707" spans="1:9" s="91" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1707" s="91">
         <v>1905</v>
       </c>
-      <c r="B1705" s="1" t="s">
+      <c r="B1707" s="1" t="s">
         <v>3407</v>
       </c>
-      <c r="C1705" s="91">
+      <c r="C1707" s="91">
         <v>2</v>
       </c>
-      <c r="D1705" s="91" t="s">
-        <v>1714</v>
-      </c>
-      <c r="F1705" s="91" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1705" s="91" t="s">
+      <c r="D1707" s="91" t="s">
+        <v>1714</v>
+      </c>
+      <c r="F1707" s="91" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1707" s="91" t="s">
         <v>187</v>
       </c>
-      <c r="H1705" s="91" t="s">
+      <c r="H1707" s="91" t="s">
         <v>3408</v>
       </c>
-      <c r="I1705" s="91" t="s">
-        <v>2991</v>
-      </c>
-    </row>
-    <row r="1706" spans="1:9" s="81" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1706" s="81">
-        <v>1906</v>
-      </c>
-      <c r="B1706" s="1" t="s">
-        <v>3329</v>
-      </c>
-      <c r="C1706" s="81">
-        <v>4</v>
-      </c>
-      <c r="D1706" s="81" t="s">
-        <v>2801</v>
-      </c>
-      <c r="F1706" s="81" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1706" s="81" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1706" s="81" t="s">
-        <v>3330</v>
-      </c>
-      <c r="I1706" s="81" t="s">
-        <v>3335</v>
-      </c>
-    </row>
-    <row r="1707" spans="1:9" s="101" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1707" s="101">
-        <v>1908</v>
-      </c>
-      <c r="B1707" s="1" t="s">
-        <v>3663</v>
-      </c>
-      <c r="C1707" s="101">
-        <v>4</v>
-      </c>
-      <c r="D1707" s="101" t="s">
-        <v>1712</v>
-      </c>
-      <c r="F1707" s="101" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1707" s="101" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1707" s="101" t="s">
-        <v>3664</v>
-      </c>
-      <c r="I1707" s="101" t="s">
+      <c r="I1707" s="91" t="s">
         <v>2991</v>
       </c>
     </row>
     <row r="1708" spans="1:9" s="81" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1708" s="81">
+        <v>1906</v>
+      </c>
+      <c r="B1708" s="1" t="s">
+        <v>3329</v>
+      </c>
+      <c r="C1708" s="81">
+        <v>4</v>
+      </c>
+      <c r="D1708" s="81" t="s">
+        <v>2801</v>
+      </c>
+      <c r="F1708" s="81" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1708" s="81" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1708" s="81" t="s">
+        <v>3330</v>
+      </c>
+      <c r="I1708" s="81" t="s">
+        <v>3335</v>
+      </c>
+    </row>
+    <row r="1709" spans="1:9" s="101" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1709" s="101">
+        <v>1908</v>
+      </c>
+      <c r="B1709" s="1" t="s">
+        <v>3663</v>
+      </c>
+      <c r="C1709" s="101">
+        <v>4</v>
+      </c>
+      <c r="D1709" s="101" t="s">
+        <v>1712</v>
+      </c>
+      <c r="F1709" s="101" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1709" s="101" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1709" s="101" t="s">
+        <v>3664</v>
+      </c>
+      <c r="I1709" s="101" t="s">
+        <v>2991</v>
+      </c>
+    </row>
+    <row r="1710" spans="1:9" s="81" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1710" s="81">
         <v>1909</v>
       </c>
-      <c r="B1708" s="1" t="s">
+      <c r="B1710" s="1" t="s">
         <v>3331</v>
       </c>
-      <c r="C1708" s="81">
+      <c r="C1710" s="81">
         <v>2</v>
       </c>
-      <c r="D1708" s="81" t="s">
+      <c r="D1710" s="81" t="s">
         <v>1761</v>
       </c>
-      <c r="E1708" s="81" t="s">
+      <c r="E1710" s="81" t="s">
         <v>2926</v>
       </c>
-      <c r="F1708" s="81" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1708" s="81" t="s">
+      <c r="F1710" s="81" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1710" s="81" t="s">
         <v>41</v>
       </c>
-      <c r="H1708" s="81" t="s">
+      <c r="H1710" s="81" t="s">
         <v>3332</v>
       </c>
-      <c r="I1708" s="81" t="s">
+      <c r="I1710" s="81" t="s">
         <v>2991</v>
       </c>
     </row>
-    <row r="1709" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1709" s="93">
+    <row r="1711" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1711" s="93">
         <v>1910</v>
       </c>
-      <c r="B1709" s="1" t="s">
+      <c r="B1711" s="1" t="s">
         <v>3455</v>
       </c>
-      <c r="C1709" s="93">
+      <c r="C1711" s="93">
         <v>2</v>
       </c>
-      <c r="D1709" s="93" t="s">
-        <v>1714</v>
-      </c>
-      <c r="E1709" s="93" t="s">
+      <c r="D1711" s="93" t="s">
+        <v>1714</v>
+      </c>
+      <c r="E1711" s="93" t="s">
         <v>2926</v>
       </c>
-      <c r="F1709" s="93" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1709" s="93" t="s">
+      <c r="F1711" s="93" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1711" s="93" t="s">
         <v>36</v>
       </c>
-      <c r="H1709" s="93" t="s">
+      <c r="H1711" s="93" t="s">
         <v>3456</v>
       </c>
-      <c r="I1709" s="93" t="s">
+      <c r="I1711" s="93" t="s">
         <v>2991</v>
       </c>
     </row>
-    <row r="1710" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1710" s="93">
+    <row r="1712" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1712" s="93">
         <v>1911</v>
       </c>
-      <c r="B1710" s="1" t="s">
+      <c r="B1712" s="1" t="s">
         <v>3457</v>
       </c>
-      <c r="C1710" s="93">
-        <v>3</v>
-      </c>
-      <c r="D1710" s="93" t="s">
-        <v>1714</v>
-      </c>
-      <c r="E1710" s="93" t="s">
+      <c r="C1712" s="93">
+        <v>3</v>
+      </c>
+      <c r="D1712" s="93" t="s">
+        <v>1714</v>
+      </c>
+      <c r="E1712" s="93" t="s">
         <v>2926</v>
       </c>
-      <c r="F1710" s="93" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1710" s="93" t="s">
+      <c r="F1712" s="93" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1712" s="93" t="s">
         <v>28</v>
       </c>
-      <c r="H1710" s="93" t="s">
+      <c r="H1712" s="93" t="s">
         <v>3458</v>
       </c>
-      <c r="I1710" s="93" t="s">
+      <c r="I1712" s="93" t="s">
         <v>2991</v>
       </c>
     </row>
-    <row r="1711" spans="1:9" s="90" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1711" s="93">
+    <row r="1713" spans="1:9" s="90" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1713" s="93">
         <v>1912</v>
       </c>
-      <c r="B1711" s="1" t="s">
+      <c r="B1713" s="1" t="s">
         <v>3401</v>
       </c>
-      <c r="C1711" s="90">
+      <c r="C1713" s="90">
         <v>4</v>
       </c>
-      <c r="D1711" s="90" t="s">
-        <v>1714</v>
-      </c>
-      <c r="E1711" s="90" t="s">
+      <c r="D1713" s="90" t="s">
+        <v>1714</v>
+      </c>
+      <c r="E1713" s="90" t="s">
         <v>2915</v>
       </c>
-      <c r="F1711" s="90" t="s">
+      <c r="F1713" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="G1711" s="90" t="s">
+      <c r="G1713" s="90" t="s">
         <v>456</v>
       </c>
-      <c r="H1711" s="90" t="s">
+      <c r="H1713" s="90" t="s">
         <v>3402</v>
       </c>
-      <c r="I1711" s="90" t="s">
+      <c r="I1713" s="90" t="s">
         <v>3019</v>
       </c>
     </row>
-    <row r="1712" spans="1:9" s="81" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1712" s="81">
+    <row r="1714" spans="1:9" s="81" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1714" s="81">
         <v>1913</v>
       </c>
-      <c r="B1712" s="1" t="s">
+      <c r="B1714" s="1" t="s">
         <v>3333</v>
       </c>
-      <c r="C1712" s="81">
+      <c r="C1714" s="81">
         <v>2</v>
       </c>
-      <c r="D1712" s="81" t="s">
+      <c r="D1714" s="81" t="s">
         <v>1761</v>
       </c>
-      <c r="F1712" s="81" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1712" s="81" t="s">
+      <c r="F1714" s="81" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1714" s="81" t="s">
         <v>41</v>
       </c>
-      <c r="H1712" s="81" t="s">
+      <c r="H1714" s="81" t="s">
         <v>3334</v>
       </c>
-      <c r="I1712" s="81" t="s">
-        <v>2991</v>
-      </c>
-    </row>
-    <row r="1713" spans="1:9" s="81" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1713" s="81">
-        <v>1914</v>
-      </c>
-      <c r="B1713" s="1" t="s">
-        <v>3336</v>
-      </c>
-      <c r="C1713" s="81">
-        <v>3</v>
-      </c>
-      <c r="D1713" s="81" t="s">
-        <v>1714</v>
-      </c>
-      <c r="E1713" s="81" t="s">
-        <v>2926</v>
-      </c>
-      <c r="F1713" s="81" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1713" s="81" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1713" s="81" t="s">
-        <v>3338</v>
-      </c>
-      <c r="I1713" s="81" t="s">
-        <v>2991</v>
-      </c>
-    </row>
-    <row r="1714" spans="1:9" s="99" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1714" s="99">
-        <v>1915</v>
-      </c>
-      <c r="B1714" s="1" t="s">
-        <v>3590</v>
-      </c>
-      <c r="C1714" s="99">
-        <v>3</v>
-      </c>
-      <c r="D1714" s="99" t="s">
-        <v>1714</v>
-      </c>
-      <c r="E1714" s="99" t="s">
-        <v>2915</v>
-      </c>
-      <c r="F1714" s="99" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1714" s="99" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1714" s="99" t="s">
-        <v>3591</v>
-      </c>
-      <c r="I1714" s="99" t="s">
+      <c r="I1714" s="81" t="s">
         <v>2991</v>
       </c>
     </row>
     <row r="1715" spans="1:9" s="81" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1715" s="81">
-        <v>1916</v>
+        <v>1914</v>
       </c>
       <c r="B1715" s="1" t="s">
-        <v>3337</v>
+        <v>3336</v>
       </c>
       <c r="C1715" s="81">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1715" s="81" t="s">
-        <v>1712</v>
+        <v>1714</v>
+      </c>
+      <c r="E1715" s="81" t="s">
+        <v>2926</v>
       </c>
       <c r="F1715" s="81" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G1715" s="81" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H1715" s="81" t="s">
-        <v>3339</v>
+        <v>3338</v>
       </c>
       <c r="I1715" s="81" t="s">
         <v>2991</v>
       </c>
     </row>
-    <row r="1716" spans="1:9" s="88" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1716" s="88">
+    <row r="1716" spans="1:9" s="99" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1716" s="99">
+        <v>1915</v>
+      </c>
+      <c r="B1716" s="1" t="s">
+        <v>3590</v>
+      </c>
+      <c r="C1716" s="99">
+        <v>3</v>
+      </c>
+      <c r="D1716" s="99" t="s">
+        <v>1714</v>
+      </c>
+      <c r="E1716" s="99" t="s">
+        <v>2915</v>
+      </c>
+      <c r="F1716" s="99" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1716" s="99" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1716" s="99" t="s">
+        <v>3591</v>
+      </c>
+      <c r="I1716" s="99" t="s">
+        <v>2991</v>
+      </c>
+    </row>
+    <row r="1717" spans="1:9" s="81" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1717" s="81">
+        <v>1916</v>
+      </c>
+      <c r="B1717" s="1" t="s">
+        <v>3337</v>
+      </c>
+      <c r="C1717" s="81">
+        <v>4</v>
+      </c>
+      <c r="D1717" s="81" t="s">
+        <v>1712</v>
+      </c>
+      <c r="F1717" s="81" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1717" s="81" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1717" s="81" t="s">
+        <v>3339</v>
+      </c>
+      <c r="I1717" s="81" t="s">
+        <v>2991</v>
+      </c>
+    </row>
+    <row r="1718" spans="1:9" s="88" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1718" s="88">
         <v>1920</v>
       </c>
-      <c r="B1716" s="1" t="s">
+      <c r="B1718" s="1" t="s">
         <v>3366</v>
       </c>
-      <c r="C1716" s="88">
+      <c r="C1718" s="88">
         <v>1</v>
       </c>
-      <c r="D1716" s="88" t="s">
+      <c r="D1718" s="88" t="s">
         <v>1711</v>
       </c>
-      <c r="F1716" s="88" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1716" s="88" t="s">
+      <c r="F1718" s="88" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1718" s="88" t="s">
         <v>21</v>
       </c>
-      <c r="H1716" s="88" t="s">
+      <c r="H1718" s="88" t="s">
         <v>3367</v>
       </c>
-      <c r="I1716" s="88" t="s">
+      <c r="I1718" s="88" t="s">
         <v>2991</v>
       </c>
     </row>
-    <row r="1717" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1717" s="93">
+    <row r="1719" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1719" s="93">
         <v>1921</v>
       </c>
-      <c r="B1717" s="1" t="s">
+      <c r="B1719" s="1" t="s">
         <v>3459</v>
       </c>
-      <c r="C1717" s="93">
+      <c r="C1719" s="93">
         <v>2</v>
       </c>
-      <c r="D1717" s="93" t="s">
-        <v>1714</v>
-      </c>
-      <c r="E1717" s="93" t="s">
+      <c r="D1719" s="93" t="s">
+        <v>1714</v>
+      </c>
+      <c r="E1719" s="93" t="s">
         <v>2926</v>
       </c>
-      <c r="F1717" s="93" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1717" s="93" t="s">
+      <c r="F1719" s="93" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1719" s="93" t="s">
         <v>41</v>
       </c>
-      <c r="H1717" s="93" t="s">
+      <c r="H1719" s="93" t="s">
         <v>3592</v>
       </c>
-      <c r="I1717" s="93" t="s">
+      <c r="I1719" s="93" t="s">
         <v>3019</v>
       </c>
     </row>
-    <row r="1718" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1718" s="93">
+    <row r="1720" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1720" s="93">
         <v>1922</v>
       </c>
-      <c r="B1718" s="1" t="s">
+      <c r="B1720" s="1" t="s">
         <v>3460</v>
       </c>
-      <c r="C1718" s="93">
+      <c r="C1720" s="93">
         <v>2</v>
       </c>
-      <c r="D1718" s="93" t="s">
+      <c r="D1720" s="93" t="s">
         <v>1712</v>
       </c>
-      <c r="F1718" s="93" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1718" s="93" t="s">
+      <c r="F1720" s="93" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1720" s="93" t="s">
         <v>25</v>
       </c>
-      <c r="H1718" s="93" t="s">
+      <c r="H1720" s="93" t="s">
         <v>3593</v>
       </c>
-      <c r="I1718" s="93" t="s">
+      <c r="I1720" s="93" t="s">
         <v>2993</v>
       </c>
     </row>
-    <row r="1719" spans="1:9" s="88" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1719" s="88">
+    <row r="1721" spans="1:9" s="88" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1721" s="88">
         <v>1923</v>
       </c>
-      <c r="B1719" s="1" t="s">
+      <c r="B1721" s="1" t="s">
         <v>3368</v>
       </c>
-      <c r="C1719" s="88">
+      <c r="C1721" s="88">
         <v>6</v>
       </c>
-      <c r="D1719" s="88" t="s">
-        <v>1714</v>
-      </c>
-      <c r="F1719" s="88" t="s">
+      <c r="D1721" s="88" t="s">
+        <v>1714</v>
+      </c>
+      <c r="F1721" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="G1719" s="88" t="s">
+      <c r="G1721" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="H1719" s="88" t="s">
+      <c r="H1721" s="88" t="s">
         <v>3369</v>
       </c>
-      <c r="I1719" s="88" t="s">
+      <c r="I1721" s="88" t="s">
         <v>3372</v>
       </c>
     </row>
-    <row r="1720" spans="1:9" s="102" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1720" s="102">
+    <row r="1722" spans="1:9" s="102" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1722" s="102">
         <v>1924</v>
       </c>
-      <c r="B1720" s="1" t="s">
+      <c r="B1722" s="1" t="s">
         <v>3667</v>
       </c>
-      <c r="C1720" s="102">
-        <v>5</v>
-      </c>
-      <c r="D1720" s="102" t="s">
+      <c r="C1722" s="102">
+        <v>5</v>
+      </c>
+      <c r="D1722" s="102" t="s">
         <v>1712</v>
       </c>
-      <c r="F1720" s="102" t="s">
+      <c r="F1722" s="102" t="s">
         <v>12</v>
       </c>
-      <c r="G1720" s="102" t="s">
+      <c r="G1722" s="102" t="s">
         <v>25</v>
       </c>
-      <c r="H1720" s="102" t="s">
+      <c r="H1722" s="102" t="s">
         <v>3668</v>
       </c>
     </row>
-    <row r="1721" spans="1:9" s="91" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1721" s="91">
+    <row r="1723" spans="1:9" s="91" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1723" s="91">
         <v>1925</v>
       </c>
-      <c r="B1721" s="1" t="s">
+      <c r="B1723" s="1" t="s">
         <v>3411</v>
       </c>
-      <c r="C1721" s="91">
+      <c r="C1723" s="91">
         <v>1</v>
       </c>
-      <c r="D1721" s="91" t="s">
-        <v>1714</v>
-      </c>
-      <c r="F1721" s="91" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1721" s="91" t="s">
+      <c r="D1723" s="91" t="s">
+        <v>1714</v>
+      </c>
+      <c r="F1723" s="91" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1723" s="91" t="s">
         <v>25</v>
       </c>
-      <c r="H1721" s="91" t="s">
+      <c r="H1723" s="91" t="s">
         <v>3412</v>
       </c>
-      <c r="I1721" s="91" t="s">
+      <c r="I1723" s="91" t="s">
         <v>3175</v>
       </c>
     </row>
-    <row r="1722" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1722" s="93">
+    <row r="1724" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1724" s="93">
         <v>1926</v>
       </c>
-      <c r="B1722" s="1" t="s">
+      <c r="B1724" s="1" t="s">
         <v>3461</v>
       </c>
-      <c r="C1722" s="93">
+      <c r="C1724" s="93">
         <v>2</v>
       </c>
-      <c r="D1722" s="93" t="s">
-        <v>1714</v>
-      </c>
-      <c r="F1722" s="93" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1722" s="93" t="s">
+      <c r="D1724" s="93" t="s">
+        <v>1714</v>
+      </c>
+      <c r="F1724" s="93" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1724" s="93" t="s">
         <v>187</v>
       </c>
-      <c r="H1722" s="93" t="s">
+      <c r="H1724" s="93" t="s">
         <v>3594</v>
       </c>
-      <c r="I1722" s="93" t="s">
+      <c r="I1724" s="93" t="s">
         <v>2991</v>
       </c>
     </row>
-    <row r="1723" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1723" s="93">
+    <row r="1725" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1725" s="93">
         <v>1927</v>
       </c>
-      <c r="B1723" s="1" t="s">
+      <c r="B1725" s="1" t="s">
         <v>3462</v>
       </c>
-      <c r="C1723" s="93">
-        <v>3</v>
-      </c>
-      <c r="D1723" s="93" t="s">
+      <c r="C1725" s="93">
+        <v>3</v>
+      </c>
+      <c r="D1725" s="93" t="s">
         <v>1712</v>
       </c>
-      <c r="F1723" s="93" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1723" s="93" t="s">
+      <c r="F1725" s="93" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1725" s="93" t="s">
         <v>25</v>
       </c>
-      <c r="H1723" s="93" t="s">
+      <c r="H1725" s="93" t="s">
         <v>3595</v>
       </c>
-      <c r="I1723" s="93" t="s">
+      <c r="I1725" s="93" t="s">
         <v>2991</v>
       </c>
     </row>
-    <row r="1724" spans="1:9" s="90" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1724" s="90">
+    <row r="1726" spans="1:9" s="90" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1726" s="90">
         <v>1928</v>
       </c>
-      <c r="B1724" s="1" t="s">
+      <c r="B1726" s="1" t="s">
         <v>3398</v>
       </c>
-      <c r="C1724" s="90">
+      <c r="C1726" s="90">
         <v>4</v>
       </c>
-      <c r="D1724" s="90" t="s">
-        <v>1714</v>
-      </c>
-      <c r="E1724" s="90" t="s">
+      <c r="D1726" s="90" t="s">
+        <v>1714</v>
+      </c>
+      <c r="E1726" s="90" t="s">
         <v>2915</v>
       </c>
-      <c r="F1724" s="90" t="s">
+      <c r="F1726" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="G1724" s="90" t="s">
+      <c r="G1726" s="90" t="s">
         <v>187</v>
       </c>
-      <c r="H1724" s="90" t="s">
+      <c r="H1726" s="90" t="s">
         <v>3399</v>
       </c>
-      <c r="I1724" s="90" t="s">
+      <c r="I1726" s="90" t="s">
         <v>3019</v>
       </c>
     </row>
-    <row r="1725" spans="1:9" s="91" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1725" s="91">
+    <row r="1727" spans="1:9" s="91" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1727" s="91">
         <v>1929</v>
       </c>
-      <c r="B1725" s="1" t="s">
+      <c r="B1727" s="1" t="s">
         <v>3403</v>
       </c>
-      <c r="C1725" s="91">
+      <c r="C1727" s="91">
         <v>1</v>
       </c>
-      <c r="D1725" s="91" t="s">
+      <c r="D1727" s="91" t="s">
         <v>1711</v>
       </c>
-      <c r="F1725" s="91" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1725" s="91" t="s">
+      <c r="F1727" s="91" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1727" s="91" t="s">
         <v>21</v>
       </c>
-      <c r="H1725" s="91" t="s">
+      <c r="H1727" s="91" t="s">
         <v>3404</v>
       </c>
-      <c r="I1725" s="91" t="s">
+      <c r="I1727" s="91" t="s">
         <v>2991</v>
       </c>
     </row>
-    <row r="1726" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1726" s="93">
+    <row r="1728" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1728" s="93">
         <v>1930</v>
       </c>
-      <c r="B1726" s="1" t="s">
+      <c r="B1728" s="1" t="s">
         <v>3463</v>
       </c>
-      <c r="C1726" s="93">
-        <v>3</v>
-      </c>
-      <c r="D1726" s="93" t="s">
-        <v>1714</v>
-      </c>
-      <c r="E1726" s="93" t="s">
+      <c r="C1728" s="93">
+        <v>3</v>
+      </c>
+      <c r="D1728" s="93" t="s">
+        <v>1714</v>
+      </c>
+      <c r="E1728" s="93" t="s">
         <v>2915</v>
       </c>
-      <c r="F1726" s="93" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1726" s="93" t="s">
+      <c r="F1728" s="93" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1728" s="93" t="s">
         <v>21</v>
       </c>
-      <c r="H1726" s="93" t="s">
+      <c r="H1728" s="93" t="s">
         <v>3596</v>
       </c>
-      <c r="I1726" s="93" t="s">
+      <c r="I1728" s="93" t="s">
         <v>2991</v>
       </c>
     </row>
-    <row r="1727" spans="1:9" s="90" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1727" s="90">
+    <row r="1729" spans="1:9" s="90" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1729" s="90">
         <v>1931</v>
       </c>
-      <c r="B1727" s="1" t="s">
+      <c r="B1729" s="1" t="s">
         <v>3396</v>
       </c>
-      <c r="C1727" s="90">
+      <c r="C1729" s="90">
         <v>4</v>
       </c>
-      <c r="D1727" s="90" t="s">
-        <v>1714</v>
-      </c>
-      <c r="F1727" s="90" t="s">
+      <c r="D1729" s="90" t="s">
+        <v>1714</v>
+      </c>
+      <c r="F1729" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="G1727" s="90" t="s">
+      <c r="G1729" s="90" t="s">
         <v>51</v>
       </c>
-      <c r="H1727" s="90" t="s">
+      <c r="H1729" s="90" t="s">
         <v>3397</v>
       </c>
-      <c r="I1727" s="90" t="s">
+      <c r="I1729" s="90" t="s">
         <v>3400</v>
       </c>
     </row>
-    <row r="1728" spans="1:9" s="88" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1728" s="88">
+    <row r="1730" spans="1:9" s="88" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1730" s="88">
         <v>1932</v>
       </c>
-      <c r="B1728" s="1" t="s">
+      <c r="B1730" s="1" t="s">
         <v>3370</v>
       </c>
-      <c r="C1728" s="88">
+      <c r="C1730" s="88">
         <v>4</v>
       </c>
-      <c r="D1728" s="88" t="s">
-        <v>1714</v>
-      </c>
-      <c r="F1728" s="88" t="s">
+      <c r="D1730" s="88" t="s">
+        <v>1714</v>
+      </c>
+      <c r="F1730" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="G1728" s="88" t="s">
+      <c r="G1730" s="88" t="s">
         <v>140</v>
       </c>
-      <c r="H1728" s="88" t="s">
+      <c r="H1730" s="88" t="s">
         <v>3371</v>
       </c>
-      <c r="I1728" s="88" t="s">
+      <c r="I1730" s="88" t="s">
         <v>2991</v>
       </c>
     </row>
-    <row r="1729" spans="1:9" s="89" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1729" s="89">
+    <row r="1731" spans="1:9" s="104" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1731" s="104">
+        <v>1933</v>
+      </c>
+      <c r="B1731" s="98" t="s">
+        <v>3704</v>
+      </c>
+      <c r="C1731" s="104">
+        <v>3</v>
+      </c>
+      <c r="D1731" s="104" t="s">
+        <v>1714</v>
+      </c>
+      <c r="F1731" s="104" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1731" s="104" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1731" s="104" t="s">
+        <v>3705</v>
+      </c>
+      <c r="I1731" s="104" t="s">
+        <v>2991</v>
+      </c>
+    </row>
+    <row r="1732" spans="1:9" s="89" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1732" s="89">
         <v>1935</v>
       </c>
-      <c r="B1729" s="1" t="s">
+      <c r="B1732" s="1" t="s">
         <v>3382</v>
       </c>
-      <c r="C1729" s="89">
+      <c r="C1732" s="89">
         <v>2</v>
       </c>
-      <c r="D1729" s="89" t="s">
-        <v>1714</v>
-      </c>
-      <c r="F1729" s="89" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1729" s="89" t="s">
+      <c r="D1732" s="89" t="s">
+        <v>1714</v>
+      </c>
+      <c r="F1732" s="89" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1732" s="89" t="s">
         <v>36</v>
       </c>
-      <c r="H1729" s="89" t="s">
+      <c r="H1732" s="89" t="s">
         <v>3383</v>
       </c>
-      <c r="I1729" s="89" t="s">
+      <c r="I1732" s="89" t="s">
         <v>2991</v>
       </c>
     </row>
-    <row r="1730" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1730" s="93">
+    <row r="1733" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1733" s="93">
         <v>1936</v>
       </c>
-      <c r="B1730" s="1" t="s">
+      <c r="B1733" s="1" t="s">
         <v>3464</v>
       </c>
-      <c r="C1730" s="93">
+      <c r="C1733" s="93">
         <v>2</v>
       </c>
-      <c r="D1730" s="93" t="s">
-        <v>1714</v>
-      </c>
-      <c r="F1730" s="93" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1730" s="93" t="s">
+      <c r="D1733" s="93" t="s">
+        <v>1714</v>
+      </c>
+      <c r="F1733" s="93" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1733" s="93" t="s">
         <v>25</v>
       </c>
-      <c r="H1730" s="93" t="s">
+      <c r="H1733" s="93" t="s">
         <v>3601</v>
       </c>
-      <c r="I1730" s="93" t="s">
-        <v>2991</v>
-      </c>
-    </row>
-    <row r="1731" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1731" s="93">
-        <v>1937</v>
-      </c>
-      <c r="B1731" s="1" t="s">
-        <v>3465</v>
-      </c>
-      <c r="C1731" s="93">
-        <v>4</v>
-      </c>
-      <c r="D1731" s="93" t="s">
-        <v>1714</v>
-      </c>
-      <c r="E1731" s="93" t="s">
-        <v>2926</v>
-      </c>
-      <c r="F1731" s="93" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1731" s="93" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1731" s="93" t="s">
-        <v>3608</v>
-      </c>
-      <c r="I1731" s="93" t="s">
-        <v>3035</v>
-      </c>
-    </row>
-    <row r="1732" spans="1:9" s="88" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1732" s="88">
-        <v>1938</v>
-      </c>
-      <c r="B1732" s="1" t="s">
-        <v>3373</v>
-      </c>
-      <c r="C1732" s="88">
-        <v>6</v>
-      </c>
-      <c r="D1732" s="88" t="s">
-        <v>1714</v>
-      </c>
-      <c r="F1732" s="88" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1732" s="88" t="s">
-        <v>134</v>
-      </c>
-      <c r="H1732" s="88" t="s">
-        <v>3374</v>
-      </c>
-      <c r="I1732" s="88" t="s">
-        <v>3169</v>
-      </c>
-    </row>
-    <row r="1733" spans="1:9" s="89" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1733" s="89">
-        <v>1941</v>
-      </c>
-      <c r="B1733" s="1" t="s">
-        <v>3380</v>
-      </c>
-      <c r="C1733" s="89">
-        <v>1</v>
-      </c>
-      <c r="D1733" s="89" t="s">
-        <v>1711</v>
-      </c>
-      <c r="F1733" s="89" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1733" s="89" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1733" s="89" t="s">
-        <v>3381</v>
-      </c>
-      <c r="I1733" s="89" t="s">
+      <c r="I1733" s="93" t="s">
         <v>2991</v>
       </c>
     </row>
     <row r="1734" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1734" s="93">
+        <v>1937</v>
+      </c>
+      <c r="B1734" s="1" t="s">
+        <v>3465</v>
+      </c>
+      <c r="C1734" s="93">
+        <v>4</v>
+      </c>
+      <c r="D1734" s="93" t="s">
+        <v>1714</v>
+      </c>
+      <c r="E1734" s="93" t="s">
+        <v>2926</v>
+      </c>
+      <c r="F1734" s="93" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1734" s="93" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1734" s="93" t="s">
+        <v>3608</v>
+      </c>
+      <c r="I1734" s="93" t="s">
+        <v>3035</v>
+      </c>
+    </row>
+    <row r="1735" spans="1:9" s="88" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1735" s="88">
+        <v>1938</v>
+      </c>
+      <c r="B1735" s="1" t="s">
+        <v>3373</v>
+      </c>
+      <c r="C1735" s="88">
+        <v>6</v>
+      </c>
+      <c r="D1735" s="88" t="s">
+        <v>1714</v>
+      </c>
+      <c r="F1735" s="88" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1735" s="88" t="s">
+        <v>134</v>
+      </c>
+      <c r="H1735" s="88" t="s">
+        <v>3374</v>
+      </c>
+      <c r="I1735" s="88" t="s">
+        <v>3169</v>
+      </c>
+    </row>
+    <row r="1736" spans="1:9" s="89" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1736" s="89">
+        <v>1941</v>
+      </c>
+      <c r="B1736" s="1" t="s">
+        <v>3380</v>
+      </c>
+      <c r="C1736" s="89">
+        <v>1</v>
+      </c>
+      <c r="D1736" s="89" t="s">
+        <v>1711</v>
+      </c>
+      <c r="F1736" s="89" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1736" s="89" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1736" s="89" t="s">
+        <v>3381</v>
+      </c>
+      <c r="I1736" s="89" t="s">
+        <v>2991</v>
+      </c>
+    </row>
+    <row r="1737" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1737" s="93">
         <v>1942</v>
       </c>
-      <c r="B1734" s="1" t="s">
+      <c r="B1737" s="1" t="s">
         <v>3466</v>
       </c>
-      <c r="C1734" s="93">
-        <v>3</v>
-      </c>
-      <c r="D1734" s="93" t="s">
-        <v>1714</v>
-      </c>
-      <c r="E1734" s="93" t="s">
+      <c r="C1737" s="93">
+        <v>3</v>
+      </c>
+      <c r="D1737" s="93" t="s">
+        <v>1714</v>
+      </c>
+      <c r="E1737" s="93" t="s">
         <v>2915</v>
       </c>
-      <c r="F1734" s="93" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1734" s="93" t="s">
+      <c r="F1737" s="93" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1737" s="93" t="s">
         <v>41</v>
       </c>
-      <c r="H1734" s="93" t="s">
+      <c r="H1737" s="93" t="s">
         <v>3609</v>
       </c>
-      <c r="I1734" s="93" t="s">
+      <c r="I1737" s="93" t="s">
         <v>3019</v>
-      </c>
-    </row>
-    <row r="1735" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1735" s="93">
-        <v>1943</v>
-      </c>
-      <c r="B1735" s="1" t="s">
-        <v>3467</v>
-      </c>
-      <c r="C1735" s="93">
-        <v>3</v>
-      </c>
-      <c r="D1735" s="93" t="s">
-        <v>1714</v>
-      </c>
-      <c r="E1735" s="93" t="s">
-        <v>2915</v>
-      </c>
-      <c r="F1735" s="93" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1735" s="93" t="s">
-        <v>95</v>
-      </c>
-      <c r="H1735" s="93" t="s">
-        <v>3610</v>
-      </c>
-      <c r="I1735" s="93" t="s">
-        <v>3019</v>
-      </c>
-    </row>
-    <row r="1736" spans="1:9" s="90" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1736" s="90">
-        <v>1944</v>
-      </c>
-      <c r="B1736" s="1" t="s">
-        <v>3394</v>
-      </c>
-      <c r="C1736" s="90">
-        <v>4</v>
-      </c>
-      <c r="D1736" s="90" t="s">
-        <v>1714</v>
-      </c>
-      <c r="E1736" s="90" t="s">
-        <v>2915</v>
-      </c>
-      <c r="F1736" s="90" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1736" s="90" t="s">
-        <v>36</v>
-      </c>
-      <c r="H1736" s="90" t="s">
-        <v>3395</v>
-      </c>
-      <c r="I1736" s="90" t="s">
-        <v>2991</v>
-      </c>
-    </row>
-    <row r="1737" spans="1:9" s="89" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1737" s="89">
-        <v>1945</v>
-      </c>
-      <c r="B1737" s="1" t="s">
-        <v>3378</v>
-      </c>
-      <c r="C1737" s="89">
-        <v>1</v>
-      </c>
-      <c r="D1737" s="89" t="s">
-        <v>1711</v>
-      </c>
-      <c r="F1737" s="89" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1737" s="89" t="s">
-        <v>36</v>
-      </c>
-      <c r="H1737" s="89" t="s">
-        <v>3379</v>
-      </c>
-      <c r="I1737" s="89" t="s">
-        <v>2991</v>
       </c>
     </row>
     <row r="1738" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1738" s="93">
+        <v>1943</v>
+      </c>
+      <c r="B1738" s="1" t="s">
+        <v>3467</v>
+      </c>
+      <c r="C1738" s="93">
+        <v>3</v>
+      </c>
+      <c r="D1738" s="93" t="s">
+        <v>1714</v>
+      </c>
+      <c r="E1738" s="93" t="s">
+        <v>2915</v>
+      </c>
+      <c r="F1738" s="93" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1738" s="93" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1738" s="93" t="s">
+        <v>3610</v>
+      </c>
+      <c r="I1738" s="93" t="s">
+        <v>3019</v>
+      </c>
+    </row>
+    <row r="1739" spans="1:9" s="90" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1739" s="90">
+        <v>1944</v>
+      </c>
+      <c r="B1739" s="1" t="s">
+        <v>3394</v>
+      </c>
+      <c r="C1739" s="90">
+        <v>4</v>
+      </c>
+      <c r="D1739" s="90" t="s">
+        <v>1714</v>
+      </c>
+      <c r="E1739" s="90" t="s">
+        <v>2915</v>
+      </c>
+      <c r="F1739" s="90" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1739" s="90" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1739" s="90" t="s">
+        <v>3395</v>
+      </c>
+      <c r="I1739" s="90" t="s">
+        <v>2991</v>
+      </c>
+    </row>
+    <row r="1740" spans="1:9" s="89" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1740" s="89">
+        <v>1945</v>
+      </c>
+      <c r="B1740" s="1" t="s">
+        <v>3378</v>
+      </c>
+      <c r="C1740" s="89">
+        <v>1</v>
+      </c>
+      <c r="D1740" s="89" t="s">
+        <v>1711</v>
+      </c>
+      <c r="F1740" s="89" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1740" s="89" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1740" s="89" t="s">
+        <v>3379</v>
+      </c>
+      <c r="I1740" s="89" t="s">
+        <v>2991</v>
+      </c>
+    </row>
+    <row r="1741" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1741" s="93">
         <v>1946</v>
       </c>
-      <c r="B1738" s="1" t="s">
+      <c r="B1741" s="1" t="s">
         <v>3468</v>
       </c>
-      <c r="C1738" s="93">
+      <c r="C1741" s="93">
         <v>2</v>
       </c>
-      <c r="D1738" s="93" t="s">
-        <v>1714</v>
-      </c>
-      <c r="F1738" s="93" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1738" s="93" t="s">
+      <c r="D1741" s="93" t="s">
+        <v>1714</v>
+      </c>
+      <c r="F1741" s="93" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1741" s="93" t="s">
         <v>36</v>
       </c>
-      <c r="H1738" s="93" t="s">
+      <c r="H1741" s="93" t="s">
         <v>3611</v>
       </c>
-      <c r="I1738" s="93" t="s">
+      <c r="I1741" s="93" t="s">
         <v>2991</v>
-      </c>
-    </row>
-    <row r="1739" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1739" s="93">
-        <v>1947</v>
-      </c>
-      <c r="B1739" s="1" t="s">
-        <v>3469</v>
-      </c>
-      <c r="C1739" s="93">
-        <v>3</v>
-      </c>
-      <c r="D1739" s="93" t="s">
-        <v>1714</v>
-      </c>
-      <c r="F1739" s="93" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1739" s="93" t="s">
-        <v>121</v>
-      </c>
-      <c r="H1739" s="93" t="s">
-        <v>3612</v>
-      </c>
-      <c r="I1739" s="93" t="s">
-        <v>3223</v>
-      </c>
-    </row>
-    <row r="1740" spans="1:9" s="90" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1740" s="90">
-        <v>1948</v>
-      </c>
-      <c r="B1740" s="1" t="s">
-        <v>3391</v>
-      </c>
-      <c r="C1740" s="90">
-        <v>5</v>
-      </c>
-      <c r="D1740" s="90" t="s">
-        <v>2801</v>
-      </c>
-      <c r="F1740" s="90" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1740" s="90" t="s">
-        <v>36</v>
-      </c>
-      <c r="H1740" s="90" t="s">
-        <v>3393</v>
-      </c>
-      <c r="I1740" s="90" t="s">
-        <v>2991</v>
-      </c>
-    </row>
-    <row r="1741" spans="1:9" s="91" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1741" s="91">
-        <v>1952</v>
-      </c>
-      <c r="B1741" s="1" t="s">
-        <v>3413</v>
-      </c>
-      <c r="C1741" s="91">
-        <v>2</v>
-      </c>
-      <c r="D1741" s="91" t="s">
-        <v>1714</v>
-      </c>
-      <c r="F1741" s="91" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1741" s="91" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1741" s="91" t="s">
-        <v>3414</v>
-      </c>
-      <c r="I1741" s="91" t="s">
-        <v>3324</v>
       </c>
     </row>
     <row r="1742" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1742" s="93">
+        <v>1947</v>
+      </c>
+      <c r="B1742" s="1" t="s">
+        <v>3469</v>
+      </c>
+      <c r="C1742" s="93">
+        <v>3</v>
+      </c>
+      <c r="D1742" s="93" t="s">
+        <v>1714</v>
+      </c>
+      <c r="F1742" s="93" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1742" s="93" t="s">
+        <v>121</v>
+      </c>
+      <c r="H1742" s="93" t="s">
+        <v>3612</v>
+      </c>
+      <c r="I1742" s="93" t="s">
+        <v>3223</v>
+      </c>
+    </row>
+    <row r="1743" spans="1:9" s="90" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1743" s="90">
+        <v>1948</v>
+      </c>
+      <c r="B1743" s="1" t="s">
+        <v>3391</v>
+      </c>
+      <c r="C1743" s="90">
+        <v>5</v>
+      </c>
+      <c r="D1743" s="90" t="s">
+        <v>2801</v>
+      </c>
+      <c r="F1743" s="90" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1743" s="90" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1743" s="90" t="s">
+        <v>3393</v>
+      </c>
+      <c r="I1743" s="90" t="s">
+        <v>2991</v>
+      </c>
+    </row>
+    <row r="1744" spans="1:9" s="91" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1744" s="91">
+        <v>1952</v>
+      </c>
+      <c r="B1744" s="1" t="s">
+        <v>3413</v>
+      </c>
+      <c r="C1744" s="91">
+        <v>2</v>
+      </c>
+      <c r="D1744" s="91" t="s">
+        <v>1714</v>
+      </c>
+      <c r="F1744" s="91" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1744" s="91" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1744" s="91" t="s">
+        <v>3414</v>
+      </c>
+      <c r="I1744" s="91" t="s">
+        <v>3324</v>
+      </c>
+    </row>
+    <row r="1745" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1745" s="93">
         <v>1953</v>
       </c>
-      <c r="B1742" s="1" t="s">
+      <c r="B1745" s="1" t="s">
         <v>3470</v>
       </c>
     </row>
-    <row r="1743" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1743" s="93">
+    <row r="1746" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1746" s="93">
         <v>1954</v>
       </c>
-      <c r="B1743" s="1" t="s">
+      <c r="B1746" s="1" t="s">
         <v>3471</v>
       </c>
-      <c r="C1743" s="93">
+      <c r="C1746" s="93">
         <v>2</v>
       </c>
-      <c r="D1743" s="93" t="s">
+      <c r="D1746" s="93" t="s">
         <v>1712</v>
       </c>
-      <c r="F1743" s="93" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1743" s="93" t="s">
+      <c r="F1746" s="93" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1746" s="93" t="s">
         <v>25</v>
       </c>
-      <c r="H1743" s="93" t="s">
+      <c r="H1746" s="93" t="s">
         <v>3613</v>
       </c>
-      <c r="I1743" s="93" t="s">
+      <c r="I1746" s="93" t="s">
         <v>2993</v>
       </c>
     </row>
-    <row r="1744" spans="1:9" s="90" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1744" s="90">
+    <row r="1747" spans="1:9" s="90" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1747" s="90">
         <v>1955</v>
       </c>
-      <c r="B1744" s="1" t="s">
+      <c r="B1747" s="1" t="s">
         <v>3390</v>
       </c>
-      <c r="C1744" s="90">
+      <c r="C1747" s="90">
         <v>4</v>
       </c>
-      <c r="D1744" s="90" t="s">
-        <v>1714</v>
-      </c>
-      <c r="E1744" s="90" t="s">
+      <c r="D1747" s="90" t="s">
+        <v>1714</v>
+      </c>
+      <c r="E1747" s="90" t="s">
         <v>2926</v>
       </c>
-      <c r="F1744" s="90" t="s">
+      <c r="F1747" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="G1744" s="90" t="s">
+      <c r="G1747" s="90" t="s">
         <v>28</v>
       </c>
-      <c r="H1744" s="90" t="s">
+      <c r="H1747" s="90" t="s">
         <v>3392</v>
       </c>
-      <c r="I1744" s="90" t="s">
+      <c r="I1747" s="90" t="s">
         <v>2991</v>
       </c>
     </row>
-    <row r="1745" spans="1:9" s="103" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1745" s="103">
+    <row r="1748" spans="1:9" s="103" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1748" s="103">
         <v>1956</v>
       </c>
-      <c r="B1745" s="1" t="s">
+      <c r="B1748" s="1" t="s">
         <v>3677</v>
       </c>
-      <c r="C1745" s="103">
+      <c r="C1748" s="103">
         <v>4</v>
       </c>
-      <c r="D1745" s="103" t="s">
-        <v>1714</v>
-      </c>
-      <c r="F1745" s="103" t="s">
+      <c r="D1748" s="103" t="s">
+        <v>1714</v>
+      </c>
+      <c r="F1748" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="G1745" s="103" t="s">
+      <c r="G1748" s="103" t="s">
         <v>187</v>
       </c>
-      <c r="H1745" s="103" t="s">
+      <c r="H1748" s="103" t="s">
         <v>3678</v>
       </c>
-      <c r="I1745" s="103" t="s">
+      <c r="I1748" s="103" t="s">
         <v>3679</v>
       </c>
     </row>
-    <row r="1746" spans="1:9" s="91" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1746" s="91">
+    <row r="1749" spans="1:9" s="91" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1749" s="91">
         <v>1957</v>
       </c>
-      <c r="B1746" s="1" t="s">
+      <c r="B1749" s="1" t="s">
         <v>3415</v>
       </c>
-      <c r="C1746" s="91">
+      <c r="C1749" s="91">
         <v>2</v>
       </c>
-      <c r="D1746" s="91" t="s">
-        <v>1714</v>
-      </c>
-      <c r="E1746" s="91" t="s">
+      <c r="D1749" s="91" t="s">
+        <v>1714</v>
+      </c>
+      <c r="E1749" s="91" t="s">
         <v>2926</v>
       </c>
-      <c r="F1746" s="91" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1746" s="91" t="s">
+      <c r="F1749" s="91" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1749" s="91" t="s">
         <v>36</v>
       </c>
-      <c r="H1746" s="91" t="s">
+      <c r="H1749" s="91" t="s">
         <v>3416</v>
       </c>
-      <c r="I1746" s="91" t="s">
-        <v>2991</v>
-      </c>
-    </row>
-    <row r="1747" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1747" s="93">
-        <v>1958</v>
-      </c>
-      <c r="B1747" s="1" t="s">
-        <v>3472</v>
-      </c>
-      <c r="C1747" s="93">
-        <v>2</v>
-      </c>
-      <c r="D1747" s="93" t="s">
-        <v>1707</v>
-      </c>
-      <c r="F1747" s="93" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1747" s="93" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1747" s="93" t="s">
-        <v>3614</v>
-      </c>
-      <c r="I1747" s="93" t="s">
-        <v>2991</v>
-      </c>
-    </row>
-    <row r="1748" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1748" s="93">
-        <v>1959</v>
-      </c>
-      <c r="B1748" s="1" t="s">
-        <v>3473</v>
-      </c>
-      <c r="C1748" s="93">
-        <v>3</v>
-      </c>
-      <c r="D1748" s="93" t="s">
-        <v>1714</v>
-      </c>
-      <c r="F1748" s="93" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1748" s="93" t="s">
-        <v>28</v>
-      </c>
-      <c r="H1748" s="93" t="s">
-        <v>3615</v>
-      </c>
-      <c r="I1748" s="93" t="s">
-        <v>3616</v>
-      </c>
-    </row>
-    <row r="1749" spans="1:9" s="90" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1749" s="90">
-        <v>1960</v>
-      </c>
-      <c r="B1749" s="1" t="s">
-        <v>3388</v>
-      </c>
-      <c r="C1749" s="90">
-        <v>6</v>
-      </c>
-      <c r="D1749" s="90" t="s">
-        <v>2801</v>
-      </c>
-      <c r="F1749" s="90" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1749" s="90" t="s">
-        <v>36</v>
-      </c>
-      <c r="H1749" s="90" t="s">
-        <v>3389</v>
-      </c>
-      <c r="I1749" s="90" t="s">
+      <c r="I1749" s="91" t="s">
         <v>2991</v>
       </c>
     </row>
     <row r="1750" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1750" s="93">
-        <v>1961</v>
+        <v>1958</v>
       </c>
       <c r="B1750" s="1" t="s">
-        <v>3474</v>
+        <v>3472</v>
       </c>
       <c r="C1750" s="93">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1750" s="93" t="s">
-        <v>1711</v>
+        <v>1707</v>
       </c>
       <c r="F1750" s="93" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G1750" s="93" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="H1750" s="93" t="s">
-        <v>3478</v>
+        <v>3614</v>
       </c>
       <c r="I1750" s="93" t="s">
         <v>2991</v>
@@ -53933,13 +54009,13 @@
     </row>
     <row r="1751" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1751" s="93">
-        <v>1962</v>
+        <v>1959</v>
       </c>
       <c r="B1751" s="1" t="s">
-        <v>3475</v>
+        <v>3473</v>
       </c>
       <c r="C1751" s="93">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1751" s="93" t="s">
         <v>1714</v>
@@ -53948,259 +54024,277 @@
         <v>9</v>
       </c>
       <c r="G1751" s="93" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="H1751" s="93" t="s">
-        <v>3661</v>
+        <v>3615</v>
       </c>
       <c r="I1751" s="93" t="s">
-        <v>3019</v>
-      </c>
-    </row>
-    <row r="1752" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1752" s="93">
-        <v>1963</v>
+        <v>3616</v>
+      </c>
+    </row>
+    <row r="1752" spans="1:9" s="90" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1752" s="90">
+        <v>1960</v>
       </c>
       <c r="B1752" s="1" t="s">
-        <v>3476</v>
+        <v>3388</v>
+      </c>
+      <c r="C1752" s="90">
+        <v>6</v>
+      </c>
+      <c r="D1752" s="90" t="s">
+        <v>2801</v>
+      </c>
+      <c r="F1752" s="90" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1752" s="90" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1752" s="90" t="s">
+        <v>3389</v>
+      </c>
+      <c r="I1752" s="90" t="s">
+        <v>2991</v>
       </c>
     </row>
     <row r="1753" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1753" s="93">
-        <v>1964</v>
+        <v>1961</v>
       </c>
       <c r="B1753" s="1" t="s">
-        <v>3477</v>
+        <v>3474</v>
       </c>
       <c r="C1753" s="93">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1753" s="93" t="s">
-        <v>1714</v>
-      </c>
-      <c r="E1753" s="93" t="s">
-        <v>2926</v>
+        <v>1711</v>
       </c>
       <c r="F1753" s="93" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G1753" s="93" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H1753" s="93" t="s">
-        <v>427</v>
+        <v>3478</v>
       </c>
       <c r="I1753" s="93" t="s">
-        <v>3008</v>
+        <v>2991</v>
       </c>
     </row>
     <row r="1754" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1754" s="93">
-        <v>1967</v>
+        <v>1962</v>
       </c>
       <c r="B1754" s="1" t="s">
-        <v>3479</v>
+        <v>3475</v>
       </c>
       <c r="C1754" s="93">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1754" s="93" t="s">
         <v>1714</v>
       </c>
       <c r="F1754" s="93" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G1754" s="93" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H1754" s="93" t="s">
-        <v>3617</v>
+        <v>3661</v>
       </c>
       <c r="I1754" s="93" t="s">
-        <v>2991</v>
+        <v>3019</v>
       </c>
     </row>
     <row r="1755" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1755" s="93">
-        <v>1968</v>
+        <v>1963</v>
       </c>
       <c r="B1755" s="1" t="s">
-        <v>3480</v>
+        <v>3476</v>
       </c>
     </row>
     <row r="1756" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1756" s="93">
-        <v>1969</v>
+        <v>1964</v>
       </c>
       <c r="B1756" s="1" t="s">
-        <v>3481</v>
+        <v>3477</v>
       </c>
       <c r="C1756" s="93">
         <v>4</v>
       </c>
       <c r="D1756" s="93" t="s">
-        <v>1712</v>
+        <v>1714</v>
+      </c>
+      <c r="E1756" s="93" t="s">
+        <v>2926</v>
       </c>
       <c r="F1756" s="93" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G1756" s="93" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="H1756" s="93" t="s">
-        <v>3681</v>
+        <v>427</v>
       </c>
       <c r="I1756" s="93" t="s">
-        <v>2993</v>
+        <v>3008</v>
       </c>
     </row>
     <row r="1757" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1757" s="93">
-        <v>1970</v>
+        <v>1967</v>
       </c>
       <c r="B1757" s="1" t="s">
-        <v>3482</v>
+        <v>3479</v>
       </c>
       <c r="C1757" s="93">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1757" s="93" t="s">
         <v>1714</v>
       </c>
-      <c r="E1757" s="93" t="s">
-        <v>2926</v>
-      </c>
       <c r="F1757" s="93" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G1757" s="93" t="s">
-        <v>187</v>
+        <v>36</v>
       </c>
       <c r="H1757" s="93" t="s">
-        <v>3602</v>
+        <v>3617</v>
       </c>
       <c r="I1757" s="93" t="s">
-        <v>3019</v>
+        <v>2991</v>
       </c>
     </row>
     <row r="1758" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1758" s="93">
-        <v>1971</v>
+        <v>1968</v>
       </c>
       <c r="B1758" s="1" t="s">
-        <v>3483</v>
+        <v>3480</v>
       </c>
     </row>
     <row r="1759" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1759" s="93">
-        <v>1974</v>
+        <v>1969</v>
       </c>
       <c r="B1759" s="1" t="s">
-        <v>3484</v>
+        <v>3481</v>
       </c>
       <c r="C1759" s="93">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D1759" s="93" t="s">
-        <v>1711</v>
-      </c>
-      <c r="E1759" s="93" t="s">
-        <v>2926</v>
+        <v>1712</v>
       </c>
       <c r="F1759" s="93" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G1759" s="93" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="H1759" s="93" t="s">
-        <v>3586</v>
+        <v>3681</v>
       </c>
       <c r="I1759" s="93" t="s">
-        <v>2991</v>
+        <v>2993</v>
       </c>
     </row>
     <row r="1760" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1760" s="93">
-        <v>1975</v>
+        <v>1970</v>
       </c>
       <c r="B1760" s="1" t="s">
-        <v>3485</v>
+        <v>3482</v>
       </c>
       <c r="C1760" s="93">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D1760" s="93" t="s">
-        <v>1712</v>
+        <v>1714</v>
+      </c>
+      <c r="E1760" s="93" t="s">
+        <v>2926</v>
       </c>
       <c r="F1760" s="93" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G1760" s="93" t="s">
-        <v>25</v>
+        <v>187</v>
       </c>
       <c r="H1760" s="93" t="s">
-        <v>3618</v>
+        <v>3602</v>
       </c>
       <c r="I1760" s="93" t="s">
-        <v>2991</v>
+        <v>3019</v>
       </c>
     </row>
     <row r="1761" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1761" s="93">
-        <v>1976</v>
+        <v>1971</v>
       </c>
       <c r="B1761" s="1" t="s">
-        <v>3486</v>
+        <v>3483</v>
       </c>
     </row>
     <row r="1762" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1762" s="93">
-        <v>1977</v>
+        <v>1974</v>
       </c>
       <c r="B1762" s="1" t="s">
-        <v>3487</v>
+        <v>3484</v>
       </c>
       <c r="C1762" s="93">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1762" s="93" t="s">
-        <v>1714</v>
+        <v>1711</v>
+      </c>
+      <c r="E1762" s="93" t="s">
+        <v>2926</v>
       </c>
       <c r="F1762" s="93" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G1762" s="93" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="H1762" s="93" t="s">
-        <v>3603</v>
+        <v>3586</v>
       </c>
       <c r="I1762" s="93" t="s">
-        <v>3175</v>
+        <v>2991</v>
       </c>
     </row>
     <row r="1763" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1763" s="93">
-        <v>1979</v>
+        <v>1975</v>
       </c>
       <c r="B1763" s="1" t="s">
-        <v>3488</v>
+        <v>3485</v>
       </c>
       <c r="C1763" s="93">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1763" s="93" t="s">
-        <v>1714</v>
+        <v>1712</v>
       </c>
       <c r="F1763" s="93" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G1763" s="93" t="s">
         <v>25</v>
       </c>
       <c r="H1763" s="93" t="s">
-        <v>3579</v>
+        <v>3618</v>
       </c>
       <c r="I1763" s="93" t="s">
         <v>2991</v>
@@ -54208,88 +54302,70 @@
     </row>
     <row r="1764" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1764" s="93">
-        <v>1980</v>
+        <v>1976</v>
       </c>
       <c r="B1764" s="1" t="s">
-        <v>3489</v>
-      </c>
-      <c r="C1764" s="93">
-        <v>2</v>
-      </c>
-      <c r="D1764" s="93" t="s">
-        <v>1714</v>
-      </c>
-      <c r="F1764" s="93" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1764" s="93" t="s">
-        <v>134</v>
-      </c>
-      <c r="H1764" s="93" t="s">
-        <v>3619</v>
-      </c>
-      <c r="I1764" s="93" t="s">
-        <v>2991</v>
+        <v>3486</v>
       </c>
     </row>
     <row r="1765" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1765" s="93">
-        <v>1981</v>
+        <v>1977</v>
       </c>
       <c r="B1765" s="1" t="s">
-        <v>3490</v>
+        <v>3487</v>
       </c>
       <c r="C1765" s="93">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D1765" s="93" t="s">
         <v>1714</v>
       </c>
       <c r="F1765" s="93" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G1765" s="93" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="H1765" s="93" t="s">
-        <v>3620</v>
+        <v>3603</v>
       </c>
       <c r="I1765" s="93" t="s">
-        <v>3621</v>
+        <v>3175</v>
       </c>
     </row>
     <row r="1766" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1766" s="93">
-        <v>1982</v>
+        <v>1979</v>
       </c>
       <c r="B1766" s="1" t="s">
-        <v>3491</v>
+        <v>3488</v>
       </c>
       <c r="C1766" s="93">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D1766" s="93" t="s">
-        <v>1712</v>
+        <v>1714</v>
       </c>
       <c r="F1766" s="93" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G1766" s="93" t="s">
         <v>25</v>
       </c>
       <c r="H1766" s="93" t="s">
-        <v>3604</v>
+        <v>3579</v>
       </c>
       <c r="I1766" s="93" t="s">
-        <v>3019</v>
+        <v>2991</v>
       </c>
     </row>
     <row r="1767" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1767" s="93">
-        <v>1984</v>
+        <v>1980</v>
       </c>
       <c r="B1767" s="1" t="s">
-        <v>3492</v>
+        <v>3489</v>
       </c>
       <c r="C1767" s="93">
         <v>2</v>
@@ -54297,17 +54373,14 @@
       <c r="D1767" s="93" t="s">
         <v>1714</v>
       </c>
-      <c r="E1767" s="93" t="s">
-        <v>2926</v>
-      </c>
       <c r="F1767" s="93" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G1767" s="93" t="s">
-        <v>41</v>
+        <v>134</v>
       </c>
       <c r="H1767" s="93" t="s">
-        <v>3580</v>
+        <v>3619</v>
       </c>
       <c r="I1767" s="93" t="s">
         <v>2991</v>
@@ -54315,68 +54388,65 @@
     </row>
     <row r="1768" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1768" s="93">
-        <v>1985</v>
+        <v>1981</v>
       </c>
       <c r="B1768" s="1" t="s">
-        <v>3493</v>
+        <v>3490</v>
       </c>
       <c r="C1768" s="93">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1768" s="93" t="s">
         <v>1714</v>
       </c>
-      <c r="E1768" s="93" t="s">
-        <v>2926</v>
-      </c>
       <c r="F1768" s="93" t="s">
         <v>9</v>
       </c>
       <c r="G1768" s="93" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="H1768" s="93" t="s">
-        <v>3622</v>
+        <v>3620</v>
       </c>
       <c r="I1768" s="93" t="s">
-        <v>3019</v>
+        <v>3621</v>
       </c>
     </row>
     <row r="1769" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1769" s="93">
-        <v>1986</v>
+        <v>1982</v>
       </c>
       <c r="B1769" s="1" t="s">
-        <v>3494</v>
+        <v>3491</v>
       </c>
       <c r="C1769" s="93">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D1769" s="93" t="s">
-        <v>1714</v>
+        <v>1712</v>
       </c>
       <c r="F1769" s="93" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G1769" s="93" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="H1769" s="93" t="s">
-        <v>3623</v>
+        <v>3604</v>
       </c>
       <c r="I1769" s="93" t="s">
-        <v>3624</v>
+        <v>3019</v>
       </c>
     </row>
     <row r="1770" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1770" s="93">
-        <v>1987</v>
+        <v>1984</v>
       </c>
       <c r="B1770" s="1" t="s">
-        <v>3495</v>
+        <v>3492</v>
       </c>
       <c r="C1770" s="93">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1770" s="93" t="s">
         <v>1714</v>
@@ -54385,13 +54455,13 @@
         <v>2926</v>
       </c>
       <c r="F1770" s="93" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G1770" s="93" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="H1770" s="93" t="s">
-        <v>3605</v>
+        <v>3580</v>
       </c>
       <c r="I1770" s="93" t="s">
         <v>2991</v>
@@ -54399,10 +54469,10 @@
     </row>
     <row r="1771" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1771" s="93">
-        <v>1991</v>
+        <v>1985</v>
       </c>
       <c r="B1771" s="1" t="s">
-        <v>3496</v>
+        <v>3493</v>
       </c>
       <c r="C1771" s="93">
         <v>2</v>
@@ -54414,27 +54484,27 @@
         <v>2926</v>
       </c>
       <c r="F1771" s="93" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G1771" s="93" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="H1771" s="93" t="s">
-        <v>3585</v>
+        <v>3622</v>
       </c>
       <c r="I1771" s="93" t="s">
-        <v>2991</v>
+        <v>3019</v>
       </c>
     </row>
     <row r="1772" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1772" s="93">
-        <v>1992</v>
+        <v>1986</v>
       </c>
       <c r="B1772" s="1" t="s">
-        <v>3497</v>
+        <v>3494</v>
       </c>
       <c r="C1772" s="93">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1772" s="93" t="s">
         <v>1714</v>
@@ -54443,113 +54513,113 @@
         <v>9</v>
       </c>
       <c r="G1772" s="93" t="s">
-        <v>187</v>
+        <v>51</v>
       </c>
       <c r="H1772" s="93" t="s">
-        <v>3659</v>
+        <v>3623</v>
       </c>
       <c r="I1772" s="93" t="s">
-        <v>3035</v>
+        <v>3624</v>
       </c>
     </row>
     <row r="1773" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1773" s="93">
-        <v>1993</v>
+        <v>1987</v>
       </c>
       <c r="B1773" s="1" t="s">
-        <v>3498</v>
+        <v>3495</v>
+      </c>
+      <c r="C1773" s="93">
+        <v>4</v>
+      </c>
+      <c r="D1773" s="93" t="s">
+        <v>1714</v>
+      </c>
+      <c r="E1773" s="93" t="s">
+        <v>2926</v>
+      </c>
+      <c r="F1773" s="93" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1773" s="93" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1773" s="93" t="s">
+        <v>3605</v>
+      </c>
+      <c r="I1773" s="93" t="s">
+        <v>2991</v>
       </c>
     </row>
     <row r="1774" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1774" s="93">
-        <v>1994</v>
+        <v>1991</v>
       </c>
       <c r="B1774" s="1" t="s">
-        <v>3499</v>
+        <v>3496</v>
       </c>
       <c r="C1774" s="93">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1774" s="93" t="s">
         <v>1714</v>
       </c>
+      <c r="E1774" s="93" t="s">
+        <v>2926</v>
+      </c>
       <c r="F1774" s="93" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G1774" s="93" t="s">
-        <v>121</v>
+        <v>21</v>
       </c>
       <c r="H1774" s="93" t="s">
-        <v>3606</v>
+        <v>3585</v>
       </c>
       <c r="I1774" s="93" t="s">
-        <v>3607</v>
+        <v>2991</v>
       </c>
     </row>
     <row r="1775" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1775" s="93">
-        <v>1995</v>
+        <v>1992</v>
       </c>
       <c r="B1775" s="1" t="s">
-        <v>3500</v>
+        <v>3497</v>
       </c>
       <c r="C1775" s="93">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1775" s="93" t="s">
         <v>1714</v>
       </c>
-      <c r="E1775" s="93" t="s">
-        <v>2926</v>
-      </c>
       <c r="F1775" s="93" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G1775" s="93" t="s">
-        <v>6</v>
+        <v>187</v>
       </c>
       <c r="H1775" s="93" t="s">
-        <v>3581</v>
+        <v>3659</v>
       </c>
       <c r="I1775" s="93" t="s">
-        <v>3175</v>
+        <v>3035</v>
       </c>
     </row>
     <row r="1776" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1776" s="93">
-        <v>1996</v>
+        <v>1993</v>
       </c>
       <c r="B1776" s="1" t="s">
-        <v>3501</v>
-      </c>
-      <c r="C1776" s="93">
-        <v>3</v>
-      </c>
-      <c r="D1776" s="93" t="s">
-        <v>1714</v>
-      </c>
-      <c r="E1776" s="93" t="s">
-        <v>2915</v>
-      </c>
-      <c r="F1776" s="93" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1776" s="93" t="s">
-        <v>41</v>
-      </c>
-      <c r="H1776" s="93" t="s">
-        <v>3662</v>
-      </c>
-      <c r="I1776" s="93" t="s">
-        <v>3019</v>
+        <v>3498</v>
       </c>
     </row>
     <row r="1777" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1777" s="93">
-        <v>1997</v>
-      </c>
-      <c r="B1777" s="95" t="s">
-        <v>3503</v>
+        <v>1994</v>
+      </c>
+      <c r="B1777" s="1" t="s">
+        <v>3499</v>
       </c>
       <c r="C1777" s="93">
         <v>4</v>
@@ -54558,192 +54628,249 @@
         <v>1714</v>
       </c>
       <c r="F1777" s="93" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G1777" s="93" t="s">
-        <v>28</v>
+        <v>121</v>
       </c>
       <c r="H1777" s="93" t="s">
-        <v>3625</v>
+        <v>3606</v>
       </c>
       <c r="I1777" s="93" t="s">
-        <v>2991</v>
+        <v>3607</v>
       </c>
     </row>
     <row r="1778" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1778" s="93">
-        <v>1998</v>
+        <v>1995</v>
       </c>
       <c r="B1778" s="1" t="s">
-        <v>3502</v>
+        <v>3500</v>
       </c>
       <c r="C1778" s="93">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1778" s="93" t="s">
         <v>1714</v>
       </c>
+      <c r="E1778" s="93" t="s">
+        <v>2926</v>
+      </c>
       <c r="F1778" s="93" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G1778" s="93" t="s">
-        <v>187</v>
+        <v>6</v>
       </c>
       <c r="H1778" s="93" t="s">
-        <v>384</v>
+        <v>3581</v>
       </c>
       <c r="I1778" s="93" t="s">
-        <v>3019</v>
+        <v>3175</v>
       </c>
     </row>
     <row r="1779" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1779" s="93">
-        <v>2000</v>
+        <v>1996</v>
       </c>
       <c r="B1779" s="1" t="s">
-        <v>3504</v>
+        <v>3501</v>
       </c>
       <c r="C1779" s="93">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D1779" s="93" t="s">
-        <v>1711</v>
+        <v>1714</v>
+      </c>
+      <c r="E1779" s="93" t="s">
+        <v>2915</v>
       </c>
       <c r="F1779" s="93" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G1779" s="93" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H1779" s="93" t="s">
-        <v>3582</v>
+        <v>3662</v>
       </c>
       <c r="I1779" s="93" t="s">
-        <v>2991</v>
+        <v>3019</v>
       </c>
     </row>
     <row r="1780" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1780" s="93">
-        <v>2001</v>
-      </c>
-      <c r="B1780" s="1" t="s">
-        <v>3505</v>
+        <v>1997</v>
+      </c>
+      <c r="B1780" s="95" t="s">
+        <v>3503</v>
+      </c>
+      <c r="C1780" s="93">
+        <v>4</v>
+      </c>
+      <c r="D1780" s="93" t="s">
+        <v>1714</v>
+      </c>
+      <c r="F1780" s="93" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1780" s="93" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1780" s="93" t="s">
+        <v>3625</v>
+      </c>
+      <c r="I1780" s="93" t="s">
+        <v>2991</v>
       </c>
     </row>
     <row r="1781" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1781" s="93">
-        <v>2002</v>
+        <v>1998</v>
       </c>
       <c r="B1781" s="1" t="s">
-        <v>3506</v>
+        <v>3502</v>
+      </c>
+      <c r="C1781" s="93">
+        <v>4</v>
+      </c>
+      <c r="D1781" s="93" t="s">
+        <v>1714</v>
+      </c>
+      <c r="F1781" s="93" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1781" s="93" t="s">
+        <v>187</v>
+      </c>
+      <c r="H1781" s="93" t="s">
+        <v>384</v>
+      </c>
+      <c r="I1781" s="93" t="s">
+        <v>3019</v>
       </c>
     </row>
     <row r="1782" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1782" s="93">
-        <v>2003</v>
+        <v>2000</v>
       </c>
       <c r="B1782" s="1" t="s">
-        <v>3507</v>
+        <v>3504</v>
       </c>
       <c r="C1782" s="93">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1782" s="93" t="s">
-        <v>1707</v>
+        <v>1711</v>
       </c>
       <c r="F1782" s="93" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G1782" s="93" t="s">
-        <v>121</v>
+        <v>36</v>
       </c>
       <c r="H1782" s="93" t="s">
-        <v>3516</v>
+        <v>3582</v>
       </c>
       <c r="I1782" s="93" t="s">
         <v>2991</v>
       </c>
     </row>
-    <row r="1783" spans="1:9" s="101" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1783" s="101">
-        <v>2005</v>
+    <row r="1783" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1783" s="93">
+        <v>2001</v>
       </c>
       <c r="B1783" s="1" t="s">
-        <v>3665</v>
-      </c>
-      <c r="C1783" s="101">
-        <v>4</v>
-      </c>
-      <c r="D1783" s="101" t="s">
-        <v>1712</v>
-      </c>
-      <c r="F1783" s="101" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1783" s="101" t="s">
+        <v>3505</v>
+      </c>
+      <c r="C1783" s="93">
+        <v>2</v>
+      </c>
+      <c r="D1783" s="93" t="s">
+        <v>1714</v>
+      </c>
+      <c r="F1783" s="93" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1783" s="93" t="s">
         <v>25</v>
       </c>
-      <c r="H1783" s="101" t="s">
-        <v>3666</v>
-      </c>
-      <c r="I1783" s="101" t="s">
+      <c r="H1783" s="93" t="s">
+        <v>3702</v>
+      </c>
+      <c r="I1783" s="93" t="s">
         <v>2991</v>
       </c>
     </row>
     <row r="1784" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1784" s="93">
-        <v>2006</v>
+        <v>2002</v>
       </c>
       <c r="B1784" s="1" t="s">
-        <v>3508</v>
-      </c>
-      <c r="C1784" s="93">
-        <v>1</v>
-      </c>
-      <c r="D1784" s="93" t="s">
-        <v>1714</v>
-      </c>
-      <c r="E1784" s="93" t="s">
-        <v>2926</v>
-      </c>
-      <c r="F1784" s="93" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1784" s="93" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1784" s="93" t="s">
-        <v>3578</v>
-      </c>
-      <c r="I1784" s="93" t="s">
-        <v>2991</v>
+        <v>3506</v>
       </c>
     </row>
     <row r="1785" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1785" s="93">
-        <v>2007</v>
+        <v>2003</v>
       </c>
       <c r="B1785" s="1" t="s">
-        <v>3509</v>
-      </c>
-    </row>
-    <row r="1786" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1786" s="93">
-        <v>2008</v>
+        <v>3507</v>
+      </c>
+      <c r="C1785" s="93">
+        <v>4</v>
+      </c>
+      <c r="D1785" s="93" t="s">
+        <v>1707</v>
+      </c>
+      <c r="F1785" s="93" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1785" s="93" t="s">
+        <v>121</v>
+      </c>
+      <c r="H1785" s="93" t="s">
+        <v>3516</v>
+      </c>
+      <c r="I1785" s="93" t="s">
+        <v>2991</v>
+      </c>
+    </row>
+    <row r="1786" spans="1:9" s="101" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1786" s="101">
+        <v>2005</v>
       </c>
       <c r="B1786" s="1" t="s">
-        <v>3510</v>
+        <v>3665</v>
+      </c>
+      <c r="C1786" s="101">
+        <v>4</v>
+      </c>
+      <c r="D1786" s="101" t="s">
+        <v>1712</v>
+      </c>
+      <c r="F1786" s="101" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1786" s="101" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1786" s="101" t="s">
+        <v>3666</v>
+      </c>
+      <c r="I1786" s="101" t="s">
+        <v>2991</v>
       </c>
     </row>
     <row r="1787" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1787" s="93">
-        <v>2009</v>
+        <v>2006</v>
       </c>
       <c r="B1787" s="1" t="s">
-        <v>3511</v>
+        <v>3508</v>
       </c>
       <c r="C1787" s="93">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1787" s="93" t="s">
         <v>1714</v>
@@ -54752,217 +54879,217 @@
         <v>2926</v>
       </c>
       <c r="F1787" s="93" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G1787" s="93" t="s">
         <v>21</v>
       </c>
       <c r="H1787" s="93" t="s">
-        <v>3655</v>
+        <v>3578</v>
       </c>
       <c r="I1787" s="93" t="s">
-        <v>3019</v>
+        <v>2991</v>
       </c>
     </row>
     <row r="1788" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1788" s="93">
-        <v>2011</v>
+        <v>2007</v>
       </c>
       <c r="B1788" s="1" t="s">
-        <v>3512</v>
-      </c>
-      <c r="C1788" s="93">
-        <v>1</v>
-      </c>
-      <c r="D1788" s="93" t="s">
-        <v>1714</v>
-      </c>
-      <c r="F1788" s="93" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1788" s="93" t="s">
-        <v>36</v>
-      </c>
-      <c r="H1788" s="93" t="s">
-        <v>3577</v>
-      </c>
-      <c r="I1788" s="93" t="s">
-        <v>2991</v>
+        <v>3509</v>
       </c>
     </row>
     <row r="1789" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1789" s="93">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="B1789" s="1" t="s">
-        <v>3513</v>
+        <v>3510</v>
       </c>
     </row>
     <row r="1790" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1790" s="93">
-        <v>2013</v>
+        <v>2009</v>
       </c>
       <c r="B1790" s="1" t="s">
-        <v>3514</v>
+        <v>3511</v>
+      </c>
+      <c r="C1790" s="93">
+        <v>4</v>
+      </c>
+      <c r="D1790" s="93" t="s">
+        <v>1714</v>
+      </c>
+      <c r="E1790" s="93" t="s">
+        <v>2926</v>
+      </c>
+      <c r="F1790" s="93" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1790" s="93" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1790" s="93" t="s">
+        <v>3655</v>
+      </c>
+      <c r="I1790" s="93" t="s">
+        <v>3019</v>
       </c>
     </row>
     <row r="1791" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1791" s="93">
+        <v>2011</v>
+      </c>
+      <c r="B1791" s="1" t="s">
+        <v>3512</v>
+      </c>
+      <c r="C1791" s="93">
+        <v>1</v>
+      </c>
+      <c r="D1791" s="93" t="s">
+        <v>1714</v>
+      </c>
+      <c r="F1791" s="93" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1791" s="93" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1791" s="93" t="s">
+        <v>3577</v>
+      </c>
+      <c r="I1791" s="93" t="s">
+        <v>2991</v>
+      </c>
+    </row>
+    <row r="1792" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1792" s="93">
+        <v>2012</v>
+      </c>
+      <c r="B1792" s="1" t="s">
+        <v>3513</v>
+      </c>
+    </row>
+    <row r="1793" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1793" s="93">
+        <v>2013</v>
+      </c>
+      <c r="B1793" s="1" t="s">
+        <v>3514</v>
+      </c>
+    </row>
+    <row r="1794" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1794" s="93">
         <v>2014</v>
       </c>
-      <c r="B1791" s="1" t="s">
+      <c r="B1794" s="1" t="s">
         <v>3515</v>
       </c>
-      <c r="C1791" s="93">
+      <c r="C1794" s="93">
         <v>4</v>
       </c>
-      <c r="D1791" s="93" t="s">
+      <c r="D1794" s="93" t="s">
         <v>1707</v>
       </c>
-      <c r="F1791" s="93" t="s">
+      <c r="F1794" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="G1791" s="93" t="s">
+      <c r="G1794" s="93" t="s">
         <v>151</v>
       </c>
-      <c r="H1791" s="93" t="s">
+      <c r="H1794" s="93" t="s">
         <v>3517</v>
       </c>
-      <c r="I1791" s="93" t="s">
+      <c r="I1794" s="93" t="s">
         <v>3518</v>
-      </c>
-    </row>
-    <row r="1792" spans="1:9" s="94" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1792" s="94">
-        <v>2016</v>
-      </c>
-      <c r="B1792" s="1" t="s">
-        <v>3519</v>
-      </c>
-      <c r="C1792" s="94">
-        <v>1</v>
-      </c>
-      <c r="D1792" s="94" t="s">
-        <v>1714</v>
-      </c>
-      <c r="F1792" s="94" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1792" s="94" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1792" s="94" t="s">
-        <v>3576</v>
-      </c>
-      <c r="I1792" s="94" t="s">
-        <v>2991</v>
-      </c>
-    </row>
-    <row r="1793" spans="1:9" s="94" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1793" s="94">
-        <v>2017</v>
-      </c>
-      <c r="B1793" s="1" t="s">
-        <v>3520</v>
-      </c>
-    </row>
-    <row r="1794" spans="1:9" s="94" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1794" s="94">
-        <v>2018</v>
-      </c>
-      <c r="B1794" s="1" t="s">
-        <v>3521</v>
       </c>
     </row>
     <row r="1795" spans="1:9" s="94" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1795" s="94">
-        <v>2019</v>
-      </c>
-      <c r="B1795" s="95" t="s">
-        <v>3522</v>
+        <v>2016</v>
+      </c>
+      <c r="B1795" s="1" t="s">
+        <v>3519</v>
       </c>
       <c r="C1795" s="94">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1795" s="94" t="s">
         <v>1714</v>
       </c>
       <c r="F1795" s="94" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G1795" s="94" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="H1795" s="94" t="s">
-        <v>3654</v>
+        <v>3576</v>
+      </c>
+      <c r="I1795" s="94" t="s">
+        <v>2991</v>
       </c>
     </row>
     <row r="1796" spans="1:9" s="94" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1796" s="94">
-        <v>2022</v>
+        <v>2017</v>
       </c>
       <c r="B1796" s="1" t="s">
-        <v>3523</v>
-      </c>
-      <c r="C1796" s="94">
-        <v>1</v>
-      </c>
-      <c r="D1796" s="94" t="s">
-        <v>1714</v>
-      </c>
-      <c r="F1796" s="94" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1796" s="94" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1796" s="94" t="s">
-        <v>3575</v>
-      </c>
-      <c r="I1796" s="94" t="s">
-        <v>2991</v>
+        <v>3520</v>
       </c>
     </row>
     <row r="1797" spans="1:9" s="94" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1797" s="94">
-        <v>2023</v>
-      </c>
-      <c r="B1797" s="95" t="s">
-        <v>3524</v>
+        <v>2018</v>
+      </c>
+      <c r="B1797" s="1" t="s">
+        <v>3521</v>
       </c>
     </row>
     <row r="1798" spans="1:9" s="94" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1798" s="94">
-        <v>2024</v>
-      </c>
-      <c r="B1798" s="1" t="s">
-        <v>3525</v>
+        <v>2019</v>
+      </c>
+      <c r="B1798" s="95" t="s">
+        <v>3522</v>
+      </c>
+      <c r="C1798" s="94">
+        <v>4</v>
+      </c>
+      <c r="D1798" s="94" t="s">
+        <v>1714</v>
+      </c>
+      <c r="F1798" s="94" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1798" s="94" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1798" s="94" t="s">
+        <v>3654</v>
       </c>
     </row>
     <row r="1799" spans="1:9" s="94" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1799" s="94">
-        <v>2025</v>
-      </c>
-      <c r="B1799" s="95" t="s">
-        <v>3526</v>
+        <v>2022</v>
+      </c>
+      <c r="B1799" s="1" t="s">
+        <v>3523</v>
       </c>
       <c r="C1799" s="94">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1799" s="94" t="s">
         <v>1714</v>
       </c>
-      <c r="E1799" s="94" t="s">
-        <v>2915</v>
-      </c>
       <c r="F1799" s="94" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G1799" s="94" t="s">
         <v>21</v>
       </c>
       <c r="H1799" s="94" t="s">
-        <v>3653</v>
+        <v>3575</v>
       </c>
       <c r="I1799" s="94" t="s">
         <v>2991</v>
@@ -54970,739 +55097,990 @@
     </row>
     <row r="1800" spans="1:9" s="94" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1800" s="94">
-        <v>2027</v>
-      </c>
-      <c r="B1800" s="1" t="s">
-        <v>3527</v>
-      </c>
-      <c r="C1800" s="94">
-        <v>1</v>
-      </c>
-      <c r="D1800" s="94" t="s">
-        <v>1714</v>
-      </c>
-      <c r="F1800" s="94" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1800" s="94" t="s">
-        <v>36</v>
-      </c>
-      <c r="H1800" s="94" t="s">
-        <v>3574</v>
-      </c>
-      <c r="I1800" s="94" t="s">
-        <v>2991</v>
+        <v>2023</v>
+      </c>
+      <c r="B1800" s="95" t="s">
+        <v>3524</v>
       </c>
     </row>
     <row r="1801" spans="1:9" s="94" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1801" s="94">
-        <v>2028</v>
+        <v>2024</v>
       </c>
       <c r="B1801" s="1" t="s">
-        <v>3528</v>
+        <v>3525</v>
       </c>
     </row>
     <row r="1802" spans="1:9" s="94" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1802" s="94">
-        <v>2029</v>
-      </c>
-      <c r="B1802" s="1" t="s">
-        <v>3529</v>
+        <v>2025</v>
+      </c>
+      <c r="B1802" s="95" t="s">
+        <v>3526</v>
       </c>
       <c r="C1802" s="94">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D1802" s="94" t="s">
-        <v>1712</v>
+        <v>1714</v>
+      </c>
+      <c r="E1802" s="94" t="s">
+        <v>2915</v>
       </c>
       <c r="F1802" s="94" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G1802" s="94" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H1802" s="94" t="s">
-        <v>3660</v>
+        <v>3653</v>
       </c>
       <c r="I1802" s="94" t="s">
-        <v>3047</v>
+        <v>2991</v>
       </c>
     </row>
     <row r="1803" spans="1:9" s="94" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1803" s="94">
+        <v>2027</v>
+      </c>
+      <c r="B1803" s="1" t="s">
+        <v>3527</v>
+      </c>
+      <c r="C1803" s="94">
+        <v>1</v>
+      </c>
+      <c r="D1803" s="94" t="s">
+        <v>1714</v>
+      </c>
+      <c r="F1803" s="94" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1803" s="94" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1803" s="94" t="s">
+        <v>3574</v>
+      </c>
+      <c r="I1803" s="94" t="s">
+        <v>2991</v>
+      </c>
+    </row>
+    <row r="1804" spans="1:9" s="94" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1804" s="94">
+        <v>2028</v>
+      </c>
+      <c r="B1804" s="1" t="s">
+        <v>3528</v>
+      </c>
+    </row>
+    <row r="1805" spans="1:9" s="94" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1805" s="94">
+        <v>2029</v>
+      </c>
+      <c r="B1805" s="1" t="s">
+        <v>3529</v>
+      </c>
+      <c r="C1805" s="94">
+        <v>3</v>
+      </c>
+      <c r="D1805" s="94" t="s">
+        <v>1712</v>
+      </c>
+      <c r="F1805" s="94" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1805" s="94" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1805" s="94" t="s">
+        <v>3660</v>
+      </c>
+      <c r="I1805" s="94" t="s">
+        <v>3047</v>
+      </c>
+    </row>
+    <row r="1806" spans="1:9" s="94" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1806" s="94">
         <v>2030</v>
       </c>
-      <c r="B1803" s="95" t="s">
+      <c r="B1806" s="95" t="s">
         <v>3530</v>
       </c>
-      <c r="C1803" s="94">
+      <c r="C1806" s="94">
         <v>4</v>
       </c>
-      <c r="D1803" s="94" t="s">
-        <v>1714</v>
-      </c>
-      <c r="E1803" s="94" t="s">
+      <c r="D1806" s="94" t="s">
+        <v>1714</v>
+      </c>
+      <c r="E1806" s="94" t="s">
         <v>2926</v>
       </c>
-      <c r="F1803" s="94" t="s">
+      <c r="F1806" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="G1803" s="94" t="s">
+      <c r="G1806" s="94" t="s">
         <v>48</v>
       </c>
-      <c r="H1803" s="94" t="s">
+      <c r="H1806" s="94" t="s">
         <v>3652</v>
-      </c>
-    </row>
-    <row r="1804" spans="1:9" s="97" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1804" s="97">
-        <v>2032</v>
-      </c>
-      <c r="B1804" s="1" t="s">
-        <v>3544</v>
-      </c>
-      <c r="C1804" s="97">
-        <v>2</v>
-      </c>
-      <c r="D1804" s="97" t="s">
-        <v>1714</v>
-      </c>
-      <c r="E1804" s="97" t="s">
-        <v>2926</v>
-      </c>
-      <c r="F1804" s="97" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1804" s="97" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1804" s="97" t="s">
-        <v>3573</v>
-      </c>
-      <c r="I1804" s="97" t="s">
-        <v>2991</v>
-      </c>
-    </row>
-    <row r="1805" spans="1:9" s="97" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1805" s="97">
-        <v>2033</v>
-      </c>
-      <c r="B1805" s="98" t="s">
-        <v>3545</v>
-      </c>
-    </row>
-    <row r="1806" spans="1:9" s="97" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1806" s="97">
-        <v>2034</v>
-      </c>
-      <c r="B1806" s="1" t="s">
-        <v>3546</v>
       </c>
     </row>
     <row r="1807" spans="1:9" s="97" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1807" s="97">
-        <v>2035</v>
-      </c>
-      <c r="B1807" s="98" t="s">
-        <v>3547</v>
+        <v>2032</v>
+      </c>
+      <c r="B1807" s="1" t="s">
+        <v>3544</v>
       </c>
       <c r="C1807" s="97">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D1807" s="97" t="s">
-        <v>1707</v>
+        <v>1714</v>
+      </c>
+      <c r="E1807" s="97" t="s">
+        <v>2926</v>
       </c>
       <c r="F1807" s="97" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G1807" s="97" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="H1807" s="97" t="s">
-        <v>3597</v>
+        <v>3573</v>
       </c>
       <c r="I1807" s="97" t="s">
-        <v>3598</v>
+        <v>2991</v>
       </c>
     </row>
     <row r="1808" spans="1:9" s="97" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1808" s="97">
-        <v>2037</v>
-      </c>
-      <c r="B1808" s="1" t="s">
-        <v>3549</v>
-      </c>
-      <c r="C1808" s="97">
-        <v>2</v>
-      </c>
-      <c r="D1808" s="97" t="s">
-        <v>1714</v>
-      </c>
-      <c r="F1808" s="97" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1808" s="97" t="s">
-        <v>41</v>
-      </c>
-      <c r="H1808" s="97" t="s">
-        <v>3572</v>
-      </c>
-      <c r="I1808" s="97" t="s">
-        <v>3019</v>
+        <v>2033</v>
+      </c>
+      <c r="B1808" s="98" t="s">
+        <v>3545</v>
       </c>
     </row>
     <row r="1809" spans="1:9" s="97" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1809" s="97">
-        <v>2038</v>
+        <v>2034</v>
       </c>
       <c r="B1809" s="1" t="s">
-        <v>3548</v>
+        <v>3546</v>
+      </c>
+      <c r="C1809" s="97">
+        <v>3</v>
+      </c>
+      <c r="D1809" s="97" t="s">
+        <v>1714</v>
+      </c>
+      <c r="E1809" s="97" t="s">
+        <v>2926</v>
+      </c>
+      <c r="F1809" s="97" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1809" s="97" t="s">
+        <v>456</v>
+      </c>
+      <c r="H1809" s="97" t="s">
+        <v>3701</v>
+      </c>
+      <c r="I1809" s="97" t="s">
+        <v>3019</v>
       </c>
     </row>
     <row r="1810" spans="1:9" s="97" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1810" s="97">
-        <v>2039</v>
-      </c>
-      <c r="B1810" s="1" t="s">
-        <v>3550</v>
+        <v>2035</v>
+      </c>
+      <c r="B1810" s="98" t="s">
+        <v>3547</v>
+      </c>
+      <c r="C1810" s="97">
+        <v>5</v>
+      </c>
+      <c r="D1810" s="97" t="s">
+        <v>1707</v>
+      </c>
+      <c r="F1810" s="97" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1810" s="97" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1810" s="97" t="s">
+        <v>3597</v>
+      </c>
+      <c r="I1810" s="97" t="s">
+        <v>3598</v>
       </c>
     </row>
     <row r="1811" spans="1:9" s="97" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1811" s="97">
-        <v>2040</v>
+        <v>2037</v>
       </c>
       <c r="B1811" s="1" t="s">
-        <v>3551</v>
+        <v>3549</v>
       </c>
       <c r="C1811" s="97">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D1811" s="97" t="s">
         <v>1714</v>
       </c>
       <c r="F1811" s="97" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G1811" s="97" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="H1811" s="97" t="s">
-        <v>3650</v>
+        <v>3572</v>
       </c>
       <c r="I1811" s="97" t="s">
-        <v>3651</v>
+        <v>3019</v>
       </c>
     </row>
     <row r="1812" spans="1:9" s="97" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1812" s="97">
-        <v>2042</v>
-      </c>
-      <c r="B1812" s="98" t="s">
-        <v>3552</v>
-      </c>
-      <c r="C1812" s="97">
-        <v>2</v>
-      </c>
-      <c r="D1812" s="97" t="s">
-        <v>1714</v>
-      </c>
-      <c r="F1812" s="97" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1812" s="97" t="s">
-        <v>36</v>
-      </c>
-      <c r="H1812" s="97" t="s">
-        <v>3571</v>
-      </c>
-      <c r="I1812" s="97" t="s">
-        <v>2991</v>
+        <v>2038</v>
+      </c>
+      <c r="B1812" s="1" t="s">
+        <v>3548</v>
       </c>
     </row>
     <row r="1813" spans="1:9" s="97" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1813" s="97">
-        <v>2043</v>
+        <v>2039</v>
       </c>
       <c r="B1813" s="1" t="s">
-        <v>3553</v>
+        <v>3550</v>
       </c>
     </row>
     <row r="1814" spans="1:9" s="97" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1814" s="97">
-        <v>2044</v>
+        <v>2040</v>
       </c>
       <c r="B1814" s="1" t="s">
-        <v>3554</v>
+        <v>3551</v>
+      </c>
+      <c r="C1814" s="97">
+        <v>5</v>
+      </c>
+      <c r="D1814" s="97" t="s">
+        <v>1714</v>
+      </c>
+      <c r="F1814" s="97" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1814" s="97" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1814" s="97" t="s">
+        <v>3650</v>
+      </c>
+      <c r="I1814" s="97" t="s">
+        <v>3651</v>
       </c>
     </row>
     <row r="1815" spans="1:9" s="97" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1815" s="97">
-        <v>2045</v>
+        <v>2042</v>
       </c>
       <c r="B1815" s="98" t="s">
-        <v>3555</v>
+        <v>3552</v>
       </c>
       <c r="C1815" s="97">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1815" s="97" t="s">
         <v>1714</v>
       </c>
       <c r="F1815" s="97" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G1815" s="97" t="s">
-        <v>187</v>
+        <v>36</v>
       </c>
       <c r="H1815" s="97" t="s">
-        <v>3649</v>
+        <v>3571</v>
       </c>
       <c r="I1815" s="97" t="s">
-        <v>3019</v>
+        <v>2991</v>
       </c>
     </row>
     <row r="1816" spans="1:9" s="97" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1816" s="97">
-        <v>2047</v>
+        <v>2043</v>
       </c>
       <c r="B1816" s="1" t="s">
-        <v>3556</v>
-      </c>
-      <c r="C1816" s="97">
-        <v>3</v>
-      </c>
-      <c r="D1816" s="97" t="s">
-        <v>1707</v>
-      </c>
-      <c r="F1816" s="97" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1816" s="97" t="s">
-        <v>36</v>
-      </c>
-      <c r="H1816" s="97" t="s">
-        <v>3570</v>
-      </c>
-      <c r="I1816" s="97" t="s">
-        <v>2991</v>
+        <v>3553</v>
       </c>
     </row>
     <row r="1817" spans="1:9" s="97" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1817" s="97">
-        <v>2048</v>
+        <v>2044</v>
       </c>
       <c r="B1817" s="1" t="s">
-        <v>3557</v>
+        <v>3554</v>
       </c>
     </row>
     <row r="1818" spans="1:9" s="97" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1818" s="97">
-        <v>2049</v>
-      </c>
-      <c r="B1818" s="1" t="s">
-        <v>3558</v>
+        <v>2045</v>
+      </c>
+      <c r="B1818" s="98" t="s">
+        <v>3555</v>
+      </c>
+      <c r="C1818" s="97">
+        <v>4</v>
+      </c>
+      <c r="D1818" s="97" t="s">
+        <v>1714</v>
+      </c>
+      <c r="F1818" s="97" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1818" s="97" t="s">
+        <v>187</v>
+      </c>
+      <c r="H1818" s="97" t="s">
+        <v>3649</v>
+      </c>
+      <c r="I1818" s="97" t="s">
+        <v>3019</v>
       </c>
     </row>
     <row r="1819" spans="1:9" s="97" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1819" s="97">
-        <v>2050</v>
+        <v>2047</v>
       </c>
       <c r="B1819" s="1" t="s">
-        <v>3559</v>
+        <v>3556</v>
       </c>
       <c r="C1819" s="97">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1819" s="97" t="s">
-        <v>1714</v>
-      </c>
-      <c r="E1819" s="97" t="s">
-        <v>2915</v>
+        <v>1707</v>
       </c>
       <c r="F1819" s="97" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G1819" s="97" t="s">
-        <v>187</v>
+        <v>36</v>
       </c>
       <c r="H1819" s="97" t="s">
-        <v>265</v>
+        <v>3570</v>
       </c>
       <c r="I1819" s="97" t="s">
         <v>2991</v>
       </c>
     </row>
-    <row r="1820" spans="1:9" s="94" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1820" s="94">
-        <v>2053</v>
+    <row r="1820" spans="1:9" s="97" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1820" s="97">
+        <v>2048</v>
       </c>
       <c r="B1820" s="1" t="s">
-        <v>3560</v>
-      </c>
-      <c r="C1820" s="94">
-        <v>2</v>
-      </c>
-      <c r="D1820" s="94" t="s">
-        <v>1714</v>
-      </c>
-      <c r="F1820" s="94" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1820" s="94" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1820" s="94" t="s">
-        <v>3569</v>
-      </c>
-      <c r="I1820" s="94" t="s">
-        <v>2991</v>
+        <v>3557</v>
       </c>
     </row>
     <row r="1821" spans="1:9" s="97" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1821" s="97">
-        <v>2054</v>
+        <v>2049</v>
       </c>
       <c r="B1821" s="1" t="s">
-        <v>3561</v>
+        <v>3558</v>
       </c>
     </row>
     <row r="1822" spans="1:9" s="97" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1822" s="97">
-        <v>2055</v>
+        <v>2050</v>
       </c>
       <c r="B1822" s="1" t="s">
-        <v>3562</v>
-      </c>
-    </row>
-    <row r="1823" spans="1:9" s="97" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1823" s="97">
-        <v>2056</v>
-      </c>
-      <c r="B1823" s="98" t="s">
-        <v>3563</v>
-      </c>
-      <c r="C1823" s="97">
-        <v>5</v>
-      </c>
-      <c r="D1823" s="97" t="s">
-        <v>2801</v>
-      </c>
-      <c r="F1823" s="97" t="s">
+        <v>3559</v>
+      </c>
+      <c r="C1822" s="97">
+        <v>4</v>
+      </c>
+      <c r="D1822" s="97" t="s">
+        <v>1714</v>
+      </c>
+      <c r="E1822" s="97" t="s">
+        <v>2915</v>
+      </c>
+      <c r="F1822" s="97" t="s">
         <v>12</v>
       </c>
-      <c r="G1823" s="97" t="s">
-        <v>121</v>
-      </c>
-      <c r="H1823" s="97" t="s">
-        <v>3647</v>
-      </c>
-      <c r="I1823" s="97" t="s">
-        <v>3648</v>
+      <c r="G1822" s="97" t="s">
+        <v>187</v>
+      </c>
+      <c r="H1822" s="97" t="s">
+        <v>265</v>
+      </c>
+      <c r="I1822" s="97" t="s">
+        <v>2991</v>
+      </c>
+    </row>
+    <row r="1823" spans="1:9" s="94" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1823" s="94">
+        <v>2053</v>
+      </c>
+      <c r="B1823" s="1" t="s">
+        <v>3560</v>
+      </c>
+      <c r="C1823" s="94">
+        <v>2</v>
+      </c>
+      <c r="D1823" s="94" t="s">
+        <v>1714</v>
+      </c>
+      <c r="F1823" s="94" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1823" s="94" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1823" s="94" t="s">
+        <v>3569</v>
+      </c>
+      <c r="I1823" s="94" t="s">
+        <v>2991</v>
       </c>
     </row>
     <row r="1824" spans="1:9" s="97" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1824" s="97">
-        <v>2057</v>
+        <v>2054</v>
       </c>
       <c r="B1824" s="1" t="s">
-        <v>3564</v>
-      </c>
-      <c r="C1824" s="97">
-        <v>1</v>
-      </c>
-      <c r="D1824" s="97" t="s">
-        <v>1711</v>
-      </c>
-      <c r="F1824" s="97" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1824" s="97" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1824" s="97" t="s">
-        <v>3568</v>
-      </c>
-      <c r="I1824" s="97" t="s">
-        <v>2991</v>
+        <v>3561</v>
       </c>
     </row>
     <row r="1825" spans="1:9" s="97" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1825" s="97">
-        <v>2058</v>
-      </c>
-      <c r="B1825" s="98" t="s">
-        <v>3565</v>
+        <v>2055</v>
+      </c>
+      <c r="B1825" s="1" t="s">
+        <v>3562</v>
       </c>
     </row>
     <row r="1826" spans="1:9" s="97" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1826" s="97">
+        <v>2056</v>
+      </c>
+      <c r="B1826" s="98" t="s">
+        <v>3563</v>
+      </c>
+      <c r="C1826" s="97">
+        <v>5</v>
+      </c>
+      <c r="D1826" s="97" t="s">
+        <v>2801</v>
+      </c>
+      <c r="F1826" s="97" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1826" s="97" t="s">
+        <v>121</v>
+      </c>
+      <c r="H1826" s="97" t="s">
+        <v>3647</v>
+      </c>
+      <c r="I1826" s="97" t="s">
+        <v>3648</v>
+      </c>
+    </row>
+    <row r="1827" spans="1:9" s="97" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1827" s="97">
+        <v>2057</v>
+      </c>
+      <c r="B1827" s="1" t="s">
+        <v>3564</v>
+      </c>
+      <c r="C1827" s="97">
+        <v>1</v>
+      </c>
+      <c r="D1827" s="97" t="s">
+        <v>1711</v>
+      </c>
+      <c r="F1827" s="97" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1827" s="97" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1827" s="97" t="s">
+        <v>3568</v>
+      </c>
+      <c r="I1827" s="97" t="s">
+        <v>2991</v>
+      </c>
+    </row>
+    <row r="1828" spans="1:9" s="97" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1828" s="97">
+        <v>2058</v>
+      </c>
+      <c r="B1828" s="98" t="s">
+        <v>3565</v>
+      </c>
+    </row>
+    <row r="1829" spans="1:9" s="97" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1829" s="97">
         <v>2059</v>
       </c>
-      <c r="B1826" s="98" t="s">
+      <c r="B1829" s="98" t="s">
         <v>3566</v>
       </c>
     </row>
-    <row r="1827" spans="1:9" s="94" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1827" s="94">
+    <row r="1830" spans="1:9" s="94" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1830" s="94">
         <v>2060</v>
       </c>
-      <c r="B1827" s="98" t="s">
+      <c r="B1830" s="98" t="s">
         <v>3567</v>
       </c>
-      <c r="C1827" s="94">
-        <v>5</v>
-      </c>
-      <c r="D1827" s="94" t="s">
+      <c r="C1830" s="94">
+        <v>5</v>
+      </c>
+      <c r="D1830" s="94" t="s">
         <v>1712</v>
       </c>
-      <c r="F1827" s="94" t="s">
+      <c r="F1830" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="G1827" s="94" t="s">
+      <c r="G1830" s="94" t="s">
         <v>121</v>
       </c>
-      <c r="H1827" s="94" t="s">
+      <c r="H1830" s="94" t="s">
         <v>3600</v>
       </c>
-      <c r="I1827" s="94" t="s">
+      <c r="I1830" s="94" t="s">
         <v>3306</v>
-      </c>
-    </row>
-    <row r="1828" spans="1:9" s="100" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1828" s="100">
-        <v>2062</v>
-      </c>
-      <c r="B1828" s="1" t="s">
-        <v>3626</v>
-      </c>
-      <c r="F1828" s="100" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="1829" spans="1:9" s="100" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1829" s="100">
-        <v>2063</v>
-      </c>
-      <c r="B1829" s="1" t="s">
-        <v>3627</v>
-      </c>
-    </row>
-    <row r="1830" spans="1:9" s="100" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1830" s="100">
-        <v>2064</v>
-      </c>
-      <c r="B1830" s="98" t="s">
-        <v>3628</v>
       </c>
     </row>
     <row r="1831" spans="1:9" s="100" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1831" s="100">
-        <v>2065</v>
+        <v>2062</v>
       </c>
       <c r="B1831" s="1" t="s">
-        <v>3629</v>
-      </c>
-      <c r="C1831" s="100">
-        <v>4</v>
-      </c>
-      <c r="D1831" s="100" t="s">
-        <v>1714</v>
+        <v>3626</v>
       </c>
       <c r="F1831" s="100" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1831" s="100" t="s">
-        <v>187</v>
-      </c>
-      <c r="H1831" s="100" t="s">
-        <v>3630</v>
-      </c>
-      <c r="I1831" s="100" t="s">
-        <v>3624</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1832" spans="1:9" s="100" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1832" s="100">
-        <v>2068</v>
+        <v>2063</v>
       </c>
       <c r="B1832" s="1" t="s">
-        <v>3631</v>
+        <v>3627</v>
       </c>
     </row>
     <row r="1833" spans="1:9" s="100" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1833" s="100">
-        <v>2069</v>
-      </c>
-      <c r="B1833" s="1" t="s">
-        <v>3644</v>
+        <v>2064</v>
+      </c>
+      <c r="B1833" s="98" t="s">
+        <v>3628</v>
       </c>
     </row>
     <row r="1834" spans="1:9" s="100" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1834" s="100">
-        <v>2070</v>
+        <v>2065</v>
       </c>
       <c r="B1834" s="1" t="s">
-        <v>3643</v>
+        <v>3629</v>
+      </c>
+      <c r="C1834" s="100">
+        <v>4</v>
+      </c>
+      <c r="D1834" s="100" t="s">
+        <v>1714</v>
+      </c>
+      <c r="F1834" s="100" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1834" s="100" t="s">
+        <v>187</v>
+      </c>
+      <c r="H1834" s="100" t="s">
+        <v>3630</v>
+      </c>
+      <c r="I1834" s="100" t="s">
+        <v>3624</v>
       </c>
     </row>
     <row r="1835" spans="1:9" s="100" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1835" s="100">
-        <v>2071</v>
+        <v>2068</v>
       </c>
       <c r="B1835" s="1" t="s">
-        <v>3642</v>
+        <v>3631</v>
       </c>
       <c r="C1835" s="100">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D1835" s="100" t="s">
         <v>1714</v>
       </c>
       <c r="F1835" s="100" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G1835" s="100" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="H1835" s="100" t="s">
-        <v>3645</v>
+        <v>3703</v>
       </c>
       <c r="I1835" s="100" t="s">
-        <v>3646</v>
+        <v>2991</v>
       </c>
     </row>
     <row r="1836" spans="1:9" s="100" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1836" s="100">
-        <v>2073</v>
+        <v>2069</v>
       </c>
       <c r="B1836" s="1" t="s">
-        <v>3641</v>
+        <v>3644</v>
       </c>
     </row>
     <row r="1837" spans="1:9" s="100" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1837" s="100">
-        <v>2074</v>
+        <v>2070</v>
       </c>
       <c r="B1837" s="1" t="s">
-        <v>3640</v>
+        <v>3643</v>
       </c>
     </row>
     <row r="1838" spans="1:9" s="100" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1838" s="100">
-        <v>2075</v>
+        <v>2071</v>
       </c>
       <c r="B1838" s="1" t="s">
-        <v>3639</v>
+        <v>3642</v>
+      </c>
+      <c r="C1838" s="100">
+        <v>5</v>
+      </c>
+      <c r="D1838" s="100" t="s">
+        <v>1714</v>
+      </c>
+      <c r="F1838" s="100" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1838" s="100" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1838" s="100" t="s">
+        <v>3645</v>
+      </c>
+      <c r="I1838" s="100" t="s">
+        <v>3646</v>
       </c>
     </row>
     <row r="1839" spans="1:9" s="100" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1839" s="100">
-        <v>2076</v>
+        <v>2073</v>
       </c>
       <c r="B1839" s="1" t="s">
-        <v>3637</v>
-      </c>
-      <c r="C1839" s="100">
-        <v>4</v>
-      </c>
-      <c r="D1839" s="100" t="s">
-        <v>1714</v>
-      </c>
-      <c r="E1839" s="100" t="s">
-        <v>2926</v>
-      </c>
-      <c r="F1839" s="100" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1839" s="100" t="s">
-        <v>187</v>
-      </c>
-      <c r="H1839" s="100" t="s">
-        <v>3638</v>
+        <v>3641</v>
       </c>
     </row>
     <row r="1840" spans="1:9" s="100" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1840" s="100">
-        <v>2078</v>
+        <v>2074</v>
       </c>
       <c r="B1840" s="1" t="s">
-        <v>3636</v>
+        <v>3640</v>
       </c>
     </row>
     <row r="1841" spans="1:9" s="100" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1841" s="100">
-        <v>2079</v>
+        <v>2075</v>
       </c>
       <c r="B1841" s="1" t="s">
-        <v>3635</v>
+        <v>3639</v>
       </c>
     </row>
     <row r="1842" spans="1:9" s="100" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1842" s="100">
-        <v>2080</v>
+        <v>2076</v>
       </c>
       <c r="B1842" s="1" t="s">
-        <v>3634</v>
+        <v>3637</v>
+      </c>
+      <c r="C1842" s="100">
+        <v>4</v>
+      </c>
+      <c r="D1842" s="100" t="s">
+        <v>1714</v>
+      </c>
+      <c r="E1842" s="100" t="s">
+        <v>2926</v>
+      </c>
+      <c r="F1842" s="100" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1842" s="100" t="s">
+        <v>187</v>
+      </c>
+      <c r="H1842" s="100" t="s">
+        <v>3638</v>
       </c>
     </row>
     <row r="1843" spans="1:9" s="100" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1843" s="100">
+        <v>2078</v>
+      </c>
+      <c r="B1843" s="1" t="s">
+        <v>3636</v>
+      </c>
+    </row>
+    <row r="1844" spans="1:9" s="100" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1844" s="100">
+        <v>2079</v>
+      </c>
+      <c r="B1844" s="1" t="s">
+        <v>3635</v>
+      </c>
+      <c r="C1844" s="100">
+        <v>2</v>
+      </c>
+      <c r="D1844" s="100" t="s">
+        <v>1714</v>
+      </c>
+      <c r="F1844" s="100" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1844" s="100" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1844" s="100" t="s">
+        <v>3696</v>
+      </c>
+      <c r="I1844" s="100" t="s">
+        <v>2991</v>
+      </c>
+    </row>
+    <row r="1845" spans="1:9" s="100" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1845" s="100">
+        <v>2080</v>
+      </c>
+      <c r="B1845" s="1" t="s">
+        <v>3634</v>
+      </c>
+    </row>
+    <row r="1846" spans="1:9" s="100" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1846" s="100">
         <v>2081</v>
       </c>
-      <c r="B1843" s="1" t="s">
+      <c r="B1846" s="1" t="s">
         <v>3632</v>
       </c>
-      <c r="C1843" s="100">
+      <c r="C1846" s="100">
         <v>4</v>
       </c>
-      <c r="D1843" s="100" t="s">
+      <c r="D1846" s="100" t="s">
         <v>1712</v>
       </c>
-      <c r="F1843" s="100" t="s">
+      <c r="F1846" s="100" t="s">
         <v>12</v>
       </c>
-      <c r="G1843" s="100" t="s">
+      <c r="G1846" s="100" t="s">
         <v>121</v>
       </c>
-      <c r="H1843" s="100" t="s">
+      <c r="H1846" s="100" t="s">
         <v>3633</v>
       </c>
-      <c r="I1843" s="100" t="s">
+      <c r="I1846" s="100" t="s">
         <v>3017</v>
       </c>
     </row>
-    <row r="1844" spans="1:9" s="100" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1844" s="98"/>
-    </row>
-    <row r="1845" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A1845" s="104" t="s">
+    <row r="1847" spans="1:9" s="104" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1847" s="104">
+        <v>2083</v>
+      </c>
+      <c r="B1847" s="1" t="s">
+        <v>3682</v>
+      </c>
+    </row>
+    <row r="1848" spans="1:9" s="104" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1848" s="104">
+        <v>2085</v>
+      </c>
+      <c r="B1848" s="1" t="s">
+        <v>3683</v>
+      </c>
+      <c r="C1848" s="104">
+        <v>2</v>
+      </c>
+      <c r="D1848" s="104" t="s">
+        <v>1714</v>
+      </c>
+      <c r="F1848" s="104" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1848" s="104" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1848" s="104" t="s">
+        <v>3684</v>
+      </c>
+      <c r="I1848" s="104" t="s">
+        <v>2991</v>
+      </c>
+    </row>
+    <row r="1849" spans="1:9" s="104" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1849" s="104">
+        <v>2086</v>
+      </c>
+      <c r="B1849" s="1" t="s">
+        <v>3685</v>
+      </c>
+    </row>
+    <row r="1850" spans="1:9" s="104" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1850" s="104">
+        <v>2087</v>
+      </c>
+      <c r="B1850" s="1" t="s">
+        <v>3686</v>
+      </c>
+    </row>
+    <row r="1851" spans="1:9" s="104" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1851" s="104">
+        <v>2088</v>
+      </c>
+      <c r="B1851" s="1" t="s">
+        <v>3687</v>
+      </c>
+      <c r="C1851" s="104">
+        <v>4</v>
+      </c>
+      <c r="D1851" s="104" t="s">
+        <v>1714</v>
+      </c>
+      <c r="F1851" s="104" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1851" s="104" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1851" s="104" t="s">
+        <v>3688</v>
+      </c>
+      <c r="I1851" s="104" t="s">
+        <v>3035</v>
+      </c>
+    </row>
+    <row r="1852" spans="1:9" s="104" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1852" s="104">
+        <v>2089</v>
+      </c>
+      <c r="B1852" s="1" t="s">
+        <v>3689</v>
+      </c>
+      <c r="C1852" s="104">
+        <v>1</v>
+      </c>
+      <c r="D1852" s="104" t="s">
+        <v>1714</v>
+      </c>
+      <c r="F1852" s="104" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1852" s="104" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1852" s="104" t="s">
+        <v>3690</v>
+      </c>
+    </row>
+    <row r="1853" spans="1:9" s="104" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1853" s="104">
+        <v>2090</v>
+      </c>
+      <c r="B1853" s="1" t="s">
+        <v>3691</v>
+      </c>
+      <c r="C1853" s="104">
+        <v>2</v>
+      </c>
+      <c r="D1853" s="104" t="s">
+        <v>1714</v>
+      </c>
+      <c r="F1853" s="104" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1853" s="104" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1853" s="104" t="s">
+        <v>3692</v>
+      </c>
+      <c r="I1853" s="104" t="s">
+        <v>2991</v>
+      </c>
+    </row>
+    <row r="1854" spans="1:9" s="104" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1854" s="104">
+        <v>2091</v>
+      </c>
+      <c r="B1854" s="98" t="s">
+        <v>3693</v>
+      </c>
+    </row>
+    <row r="1855" spans="1:9" s="104" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1855" s="104">
+        <v>2092</v>
+      </c>
+      <c r="B1855" s="1" t="s">
+        <v>3694</v>
+      </c>
+    </row>
+    <row r="1856" spans="1:9" s="104" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1856" s="104">
+        <v>2093</v>
+      </c>
+      <c r="B1856" s="1" t="s">
+        <v>3695</v>
+      </c>
+    </row>
+    <row r="1857" spans="1:8" s="100" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1857" s="98"/>
+    </row>
+    <row r="1858" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A1858" s="105" t="s">
         <v>1715</v>
       </c>
-      <c r="B1845" s="104"/>
-      <c r="C1845" s="104"/>
-      <c r="D1845" s="104"/>
-      <c r="E1845" s="104"/>
-      <c r="F1845" s="104"/>
-      <c r="G1845" s="104"/>
-      <c r="H1845" s="104"/>
-    </row>
-    <row r="1846" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A1846" s="105" t="s">
+      <c r="B1858" s="105"/>
+      <c r="C1858" s="105"/>
+      <c r="D1858" s="105"/>
+      <c r="E1858" s="105"/>
+      <c r="F1858" s="105"/>
+      <c r="G1858" s="105"/>
+      <c r="H1858" s="105"/>
+    </row>
+    <row r="1859" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A1859" s="106" t="s">
         <v>2751</v>
       </c>
-      <c r="B1846" s="105"/>
-      <c r="C1846" s="105"/>
-      <c r="D1846" s="105"/>
-      <c r="E1846" s="105"/>
-      <c r="F1846" s="105"/>
-      <c r="G1846" s="105"/>
-      <c r="H1846" s="105"/>
+      <c r="B1859" s="106"/>
+      <c r="C1859" s="106"/>
+      <c r="D1859" s="106"/>
+      <c r="E1859" s="106"/>
+      <c r="F1859" s="106"/>
+      <c r="G1859" s="106"/>
+      <c r="H1859" s="106"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J1846" xr:uid="{CB07CE66-8F15-46FF-A90A-43FDB2DB428F}"/>
+  <autoFilter ref="A1:J1859" xr:uid="{CB07CE66-8F15-46FF-A90A-43FDB2DB428F}"/>
   <mergeCells count="2">
-    <mergeCell ref="A1845:H1845"/>
-    <mergeCell ref="A1846:H1846"/>
+    <mergeCell ref="A1858:H1858"/>
+    <mergeCell ref="A1859:H1859"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" display="https://leetcode.com/problems/zigzag-conversion" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -57079,13 +57457,13 @@
     <hyperlink ref="B1580" r:id="rId1372" display="https://leetcode.com/problems/can-you-eat-your-favorite-candy-on-your-favorite-day" xr:uid="{BEE070B5-F64C-4698-BCE5-1E36A8583440}"/>
     <hyperlink ref="B1586" r:id="rId1373" display="https://leetcode.com/problems/maximum-score-from-removing-stones" xr:uid="{B7AA18C7-E58A-447A-915A-42D4F13D6310}"/>
     <hyperlink ref="B1588" r:id="rId1374" display="https://leetcode.com/problems/closest-subsequence-sum" xr:uid="{F32459B0-DF4C-462A-9356-83F25EC7DAA2}"/>
-    <hyperlink ref="B1611" r:id="rId1375" display="https://leetcode.com/problems/number-of-restricted-paths-from-first-to-last-node" xr:uid="{7E8F4145-52CC-410A-8E6D-496A93BC9F35}"/>
-    <hyperlink ref="B1610" r:id="rId1376" display="https://leetcode.com/problems/minimum-elements-to-add-to-form-a-given-sum" xr:uid="{4588D88F-C977-4AC1-9131-6787B276C83B}"/>
-    <hyperlink ref="B1607" r:id="rId1377" display="https://leetcode.com/problems/sum-of-beauty-of-all-substrings" xr:uid="{F5D12DA0-6DB0-4E8E-A268-602716EC1E07}"/>
-    <hyperlink ref="B1606" r:id="rId1378" display="https://leetcode.com/problems/check-if-number-is-a-sum-of-powers-of-three" xr:uid="{4602803B-7988-4D38-ABF2-61BC86BCDAC5}"/>
-    <hyperlink ref="B1605" r:id="rId1379" display="https://leetcode.com/problems/find-nearest-point-that-has-the-same-x-or-y-coordinate" xr:uid="{5F651CEF-E9E7-4A94-8963-9659B92CF321}"/>
-    <hyperlink ref="B1604" r:id="rId1380" display="https://leetcode.com/problems/equal-sum-arrays-with-minimum-number-of-operations" xr:uid="{C7244173-A5DF-4CFD-8B2A-1EE21E557BC1}"/>
-    <hyperlink ref="B1603" r:id="rId1381" display="https://leetcode.com/problems/closest-dessert-cost" xr:uid="{F7BEECC4-44E4-47B9-8596-B7703815C60F}"/>
+    <hyperlink ref="B1612" r:id="rId1375" display="https://leetcode.com/problems/number-of-restricted-paths-from-first-to-last-node" xr:uid="{7E8F4145-52CC-410A-8E6D-496A93BC9F35}"/>
+    <hyperlink ref="B1611" r:id="rId1376" display="https://leetcode.com/problems/minimum-elements-to-add-to-form-a-given-sum" xr:uid="{4588D88F-C977-4AC1-9131-6787B276C83B}"/>
+    <hyperlink ref="B1608" r:id="rId1377" display="https://leetcode.com/problems/sum-of-beauty-of-all-substrings" xr:uid="{F5D12DA0-6DB0-4E8E-A268-602716EC1E07}"/>
+    <hyperlink ref="B1607" r:id="rId1378" display="https://leetcode.com/problems/check-if-number-is-a-sum-of-powers-of-three" xr:uid="{4602803B-7988-4D38-ABF2-61BC86BCDAC5}"/>
+    <hyperlink ref="B1606" r:id="rId1379" display="https://leetcode.com/problems/find-nearest-point-that-has-the-same-x-or-y-coordinate" xr:uid="{5F651CEF-E9E7-4A94-8963-9659B92CF321}"/>
+    <hyperlink ref="B1605" r:id="rId1380" display="https://leetcode.com/problems/equal-sum-arrays-with-minimum-number-of-operations" xr:uid="{C7244173-A5DF-4CFD-8B2A-1EE21E557BC1}"/>
+    <hyperlink ref="B1604" r:id="rId1381" display="https://leetcode.com/problems/closest-dessert-cost" xr:uid="{F7BEECC4-44E4-47B9-8596-B7703815C60F}"/>
     <hyperlink ref="B1602" r:id="rId1382" display="https://leetcode.com/problems/count-items-matching-a-rule" xr:uid="{C7425EBD-8CAE-4C06-8E35-71176FE3E292}"/>
     <hyperlink ref="B1590" r:id="rId1383" display="https://leetcode.com/problems/minimum-changes-to-make-alternating-binary-string" xr:uid="{5E47CEE9-BA48-462F-B4F8-1AF99888DEB3}"/>
     <hyperlink ref="B1591" r:id="rId1384" display="https://leetcode.com/problems/count-number-of-homogenous-substrings" xr:uid="{9343BDD1-5100-4986-BADF-74E77C30CD7C}"/>
@@ -57096,240 +57474,253 @@
     <hyperlink ref="B1598" r:id="rId1389" display="https://leetcode.com/problems/merge-strings-alternately" xr:uid="{10A36CE3-B9BF-4B0B-A7DF-E0BA62BBC363}"/>
     <hyperlink ref="B1599" r:id="rId1390" display="https://leetcode.com/problems/minimum-number-of-operations-to-move-all-balls-to-each-box" xr:uid="{D44C79CA-AF26-42E8-BA0E-F083D426240B}"/>
     <hyperlink ref="B1600" r:id="rId1391" display="https://leetcode.com/problems/maximum-score-from-performing-multiplication-operations" xr:uid="{CBFA2C81-65C2-4B16-BD7D-228C47EBD55C}"/>
-    <hyperlink ref="B1612" r:id="rId1392" display="https://leetcode.com/problems/make-the-xor-of-all-segments-equal-to-zero" xr:uid="{F9F7F3F8-AE15-4C3F-90C0-C87C5787CF85}"/>
-    <hyperlink ref="B1614" r:id="rId1393" display="https://leetcode.com/problems/check-if-one-string-swap-can-make-strings-equal" xr:uid="{94C3AB55-2DA1-4F06-A31A-03B510CB7FE6}"/>
-    <hyperlink ref="B1615" r:id="rId1394" display="https://leetcode.com/problems/find-center-of-star-graph" xr:uid="{92C112DA-1E26-4B3F-A26D-5485D079770C}"/>
-    <hyperlink ref="B1617" r:id="rId1395" display="https://leetcode.com/problems/maximum-score-of-a-good-subarray" xr:uid="{04CA3301-F2BD-44FE-8D80-D37D23948A03}"/>
-    <hyperlink ref="B1609" r:id="rId1396" display="https://leetcode.com/problems/check-if-binary-string-has-at-most-one-segment-of-ones" xr:uid="{CE9F4064-AD9A-45F5-8FA5-3D837B5BD888}"/>
-    <hyperlink ref="B1608" r:id="rId1397" display="https://leetcode.com/problems/count-pairs-of-nodes" xr:uid="{4BE12A90-1128-42D6-8B67-87E8493D607F}"/>
+    <hyperlink ref="B1613" r:id="rId1392" display="https://leetcode.com/problems/make-the-xor-of-all-segments-equal-to-zero" xr:uid="{F9F7F3F8-AE15-4C3F-90C0-C87C5787CF85}"/>
+    <hyperlink ref="B1615" r:id="rId1393" display="https://leetcode.com/problems/check-if-one-string-swap-can-make-strings-equal" xr:uid="{94C3AB55-2DA1-4F06-A31A-03B510CB7FE6}"/>
+    <hyperlink ref="B1616" r:id="rId1394" display="https://leetcode.com/problems/find-center-of-star-graph" xr:uid="{92C112DA-1E26-4B3F-A26D-5485D079770C}"/>
+    <hyperlink ref="B1618" r:id="rId1395" display="https://leetcode.com/problems/maximum-score-of-a-good-subarray" xr:uid="{04CA3301-F2BD-44FE-8D80-D37D23948A03}"/>
+    <hyperlink ref="B1610" r:id="rId1396" display="https://leetcode.com/problems/check-if-binary-string-has-at-most-one-segment-of-ones" xr:uid="{CE9F4064-AD9A-45F5-8FA5-3D837B5BD888}"/>
+    <hyperlink ref="B1609" r:id="rId1397" display="https://leetcode.com/problems/count-pairs-of-nodes" xr:uid="{4BE12A90-1128-42D6-8B67-87E8493D607F}"/>
     <hyperlink ref="B1581" r:id="rId1398" display="https://leetcode.com/problems/palindrome-partitioning-iv" xr:uid="{E9727F4E-397D-4808-93D3-81A8EA2BA6FA}"/>
     <hyperlink ref="B1593" r:id="rId1399" display="https://leetcode.com/problems/minimum-degree-of-a-connected-trio-in-a-graph" xr:uid="{2139E7CC-36A0-4372-9D37-5FD513CDD9B0}"/>
-    <hyperlink ref="B1618" r:id="rId1400" display="https://leetcode.com/problems/second-largest-digit-in-a-string" xr:uid="{4A66E7D8-75C8-4F8E-B9DB-8E399F951B16}"/>
-    <hyperlink ref="B1619" r:id="rId1401" display="https://leetcode.com/problems/design-authentication-manager" xr:uid="{480710DA-1C7D-455D-8D12-167C92DBF633}"/>
-    <hyperlink ref="B1620" r:id="rId1402" display="https://leetcode.com/problems/maximum-number-of-consecutive-values-you-can-make" xr:uid="{194727C9-C65E-44E7-A8A3-E7D9E7AD678B}"/>
-    <hyperlink ref="B1621" r:id="rId1403" display="https://leetcode.com/problems/maximize-score-after-n-operations" xr:uid="{98125BD7-0B8C-4106-A5E4-C55938B917E0}"/>
-    <hyperlink ref="B1622" r:id="rId1404" display="https://leetcode.com/problems/maximum-ascending-subarray-sum" xr:uid="{4206F736-48C2-4C51-BC45-0F7AA538AA31}"/>
-    <hyperlink ref="B1623" r:id="rId1405" display="https://leetcode.com/problems/number-of-orders-in-the-backlog" xr:uid="{A4B7F67E-4F72-4FF8-9023-A90CE712BA15}"/>
-    <hyperlink ref="B1624" r:id="rId1406" display="https://leetcode.com/problems/maximum-value-at-a-given-index-in-a-bounded-array" xr:uid="{E6D3D4E3-7FB4-464D-9389-88A8FB9AB699}"/>
-    <hyperlink ref="B1625" r:id="rId1407" display="https://leetcode.com/problems/count-pairs-with-xor-in-a-range" xr:uid="{88492775-D026-41EA-B4F6-EE9E43625F64}"/>
-    <hyperlink ref="B1626" r:id="rId1408" display="https://leetcode.com/problems/number-of-different-integers-in-a-string" xr:uid="{9DA3EFFF-6694-482A-91E6-051A5CCA6C92}"/>
-    <hyperlink ref="B1627" r:id="rId1409" display="https://leetcode.com/problems/minimum-number-of-operations-to-reinitialize-a-permutation" xr:uid="{5DBBFB2B-FAB5-4931-AB4C-41C33CCE3E9F}"/>
-    <hyperlink ref="B1628" r:id="rId1410" display="https://leetcode.com/problems/evaluate-the-bracket-pairs-of-a-string" xr:uid="{E6654C7A-7E01-4ED1-BF88-AEE3F00C826C}"/>
-    <hyperlink ref="B1629" r:id="rId1411" display="https://leetcode.com/problems/maximize-number-of-nice-divisors" xr:uid="{78626747-6249-42C3-9986-9D393FEA3FE8}"/>
+    <hyperlink ref="B1619" r:id="rId1400" display="https://leetcode.com/problems/second-largest-digit-in-a-string" xr:uid="{4A66E7D8-75C8-4F8E-B9DB-8E399F951B16}"/>
+    <hyperlink ref="B1620" r:id="rId1401" display="https://leetcode.com/problems/design-authentication-manager" xr:uid="{480710DA-1C7D-455D-8D12-167C92DBF633}"/>
+    <hyperlink ref="B1621" r:id="rId1402" display="https://leetcode.com/problems/maximum-number-of-consecutive-values-you-can-make" xr:uid="{194727C9-C65E-44E7-A8A3-E7D9E7AD678B}"/>
+    <hyperlink ref="B1622" r:id="rId1403" display="https://leetcode.com/problems/maximize-score-after-n-operations" xr:uid="{98125BD7-0B8C-4106-A5E4-C55938B917E0}"/>
+    <hyperlink ref="B1623" r:id="rId1404" display="https://leetcode.com/problems/maximum-ascending-subarray-sum" xr:uid="{4206F736-48C2-4C51-BC45-0F7AA538AA31}"/>
+    <hyperlink ref="B1624" r:id="rId1405" display="https://leetcode.com/problems/number-of-orders-in-the-backlog" xr:uid="{A4B7F67E-4F72-4FF8-9023-A90CE712BA15}"/>
+    <hyperlink ref="B1625" r:id="rId1406" display="https://leetcode.com/problems/maximum-value-at-a-given-index-in-a-bounded-array" xr:uid="{E6D3D4E3-7FB4-464D-9389-88A8FB9AB699}"/>
+    <hyperlink ref="B1626" r:id="rId1407" display="https://leetcode.com/problems/count-pairs-with-xor-in-a-range" xr:uid="{88492775-D026-41EA-B4F6-EE9E43625F64}"/>
+    <hyperlink ref="B1627" r:id="rId1408" display="https://leetcode.com/problems/number-of-different-integers-in-a-string" xr:uid="{9DA3EFFF-6694-482A-91E6-051A5CCA6C92}"/>
+    <hyperlink ref="B1628" r:id="rId1409" display="https://leetcode.com/problems/minimum-number-of-operations-to-reinitialize-a-permutation" xr:uid="{5DBBFB2B-FAB5-4931-AB4C-41C33CCE3E9F}"/>
+    <hyperlink ref="B1629" r:id="rId1410" display="https://leetcode.com/problems/evaluate-the-bracket-pairs-of-a-string" xr:uid="{E6654C7A-7E01-4ED1-BF88-AEE3F00C826C}"/>
+    <hyperlink ref="B1630" r:id="rId1411" display="https://leetcode.com/problems/maximize-number-of-nice-divisors" xr:uid="{78626747-6249-42C3-9986-9D393FEA3FE8}"/>
     <hyperlink ref="B1601" r:id="rId1412" display="https://leetcode.com/problems/maximize-palindrome-length-from-subsequences" xr:uid="{BA73F0FA-CB5F-4DD4-AF14-A696A9BAFBF8}"/>
-    <hyperlink ref="B1630" r:id="rId1413" display="https://leetcode.com/problems/determine-color-of-a-chessboard-square" xr:uid="{BBB99C21-759D-433A-AFD0-6D820254CB9F}"/>
-    <hyperlink ref="B1632" r:id="rId1414" display="https://leetcode.com/problems/count-nice-pairs-in-an-array" xr:uid="{33784327-6425-47D1-8866-B8FAF405AD95}"/>
-    <hyperlink ref="B1636" r:id="rId1415" display="https://leetcode.com/problems/minimum-absolute-sum-difference" xr:uid="{7E3B951A-E0A0-4E7E-ACD1-098D0084074E}"/>
-    <hyperlink ref="B1635" r:id="rId1416" display="https://leetcode.com/problems/finding-the-users-active-minutes" xr:uid="{09A336B4-6859-4EC2-AABC-5B8F78ECEABA}"/>
-    <hyperlink ref="B1633" r:id="rId1417" display="https://leetcode.com/problems/maximum-number-of-groups-getting-fresh-donuts" xr:uid="{70FC7CD8-A622-42EC-BA44-22F88CA1F2A7}"/>
+    <hyperlink ref="B1631" r:id="rId1413" display="https://leetcode.com/problems/determine-color-of-a-chessboard-square" xr:uid="{BBB99C21-759D-433A-AFD0-6D820254CB9F}"/>
+    <hyperlink ref="B1633" r:id="rId1414" display="https://leetcode.com/problems/count-nice-pairs-in-an-array" xr:uid="{33784327-6425-47D1-8866-B8FAF405AD95}"/>
+    <hyperlink ref="B1637" r:id="rId1415" display="https://leetcode.com/problems/minimum-absolute-sum-difference" xr:uid="{7E3B951A-E0A0-4E7E-ACD1-098D0084074E}"/>
+    <hyperlink ref="B1636" r:id="rId1416" display="https://leetcode.com/problems/finding-the-users-active-minutes" xr:uid="{09A336B4-6859-4EC2-AABC-5B8F78ECEABA}"/>
+    <hyperlink ref="B1634" r:id="rId1417" display="https://leetcode.com/problems/maximum-number-of-groups-getting-fresh-donuts" xr:uid="{70FC7CD8-A622-42EC-BA44-22F88CA1F2A7}"/>
     <hyperlink ref="B1584" r:id="rId1418" display="https://leetcode.com/problems/maximum-number-of-events-that-can-be-attended-ii" xr:uid="{E6CED50E-E4F2-4A0B-95B8-F5208373F7B8}"/>
-    <hyperlink ref="B1639" r:id="rId1419" display="https://leetcode.com/problems/sign-of-the-product-of-an-array" xr:uid="{A0049EEE-420F-4B36-9532-4246FDC62DB6}"/>
-    <hyperlink ref="B1640" r:id="rId1420" display="https://leetcode.com/problems/find-the-winner-of-the-circular-game" xr:uid="{A9255375-24AC-4E41-953D-DA0C6301095A}"/>
-    <hyperlink ref="B1641" r:id="rId1421" display="https://leetcode.com/problems/minimum-sideway-jumps" xr:uid="{4616F648-DE69-45E9-B2C6-D31F83F95B92}"/>
-    <hyperlink ref="B1642" r:id="rId1422" display="https://leetcode.com/problems/finding-mk-average" xr:uid="{0BF35336-3D02-41E1-A514-B9229042BBD6}"/>
-    <hyperlink ref="B1638" r:id="rId1423" display="https://leetcode.com/problems/maximum-number-of-accepted-invitations" xr:uid="{7A1246F2-C469-4411-A09D-BE551D6FE886}"/>
-    <hyperlink ref="B1644" r:id="rId1424" display="https://leetcode.com/problems/minimum-operations-to-make-the-array-increasing" xr:uid="{BCE639B4-26EE-4325-9A6F-B7BE83A0EE5A}"/>
-    <hyperlink ref="B1651" r:id="rId1425" display="https://leetcode.com/problems/find-xor-sum-of-all-pairs-bitwise-and" xr:uid="{38FA1C75-00B2-4AE8-8A11-2E014FC16985}"/>
-    <hyperlink ref="B1650" r:id="rId1426" display="https://leetcode.com/problems/single-threaded-cpu" xr:uid="{55B4E28C-C4B1-4C74-A203-8312BE18DC88}"/>
-    <hyperlink ref="B1649" r:id="rId1427" display="https://leetcode.com/problems/maximum-ice-cream-bars" xr:uid="{D5351234-3C7F-4961-B2F1-DFDF670C4573}"/>
-    <hyperlink ref="B1648" r:id="rId1428" display="https://leetcode.com/problems/check-if-the-sentence-is-pangram" xr:uid="{63C7BF79-155D-42CA-ABA8-8F2F7FD161E2}"/>
-    <hyperlink ref="B1647" r:id="rId1429" display="https://leetcode.com/problems/minimum-number-of-operations-to-make-string-sorted" xr:uid="{ACFFE50E-DB64-479B-8B9A-920DDE6CB684}"/>
-    <hyperlink ref="B1646" r:id="rId1430" display="https://leetcode.com/problems/maximum-xor-for-each-query" xr:uid="{D255E608-8F3D-4961-B320-B696DA8892A0}"/>
-    <hyperlink ref="B1645" r:id="rId1431" display="https://leetcode.com/problems/queries-on-number-of-points-inside-a-circle" xr:uid="{65DB8EBB-95E7-4BCA-9695-140D8EC29DBA}"/>
-    <hyperlink ref="B1652" r:id="rId1432" display="https://leetcode.com/problems/sum-of-digits-in-base-k" xr:uid="{6EF102B0-E6C2-4C97-973C-B394DDCD7812}"/>
-    <hyperlink ref="B1653" r:id="rId1433" display="https://leetcode.com/problems/frequency-of-the-most-frequent-element" xr:uid="{342FB5F7-8DE8-4D46-B110-C5C48EC6E39B}"/>
-    <hyperlink ref="B1654" r:id="rId1434" display="https://leetcode.com/problems/longest-substring-of-all-vowels-in-order" xr:uid="{E091BC8C-141B-419F-A05B-DAECE82F8E4D}"/>
-    <hyperlink ref="B1655" r:id="rId1435" display="https://leetcode.com/problems/maximum-building-height" xr:uid="{58FE2B85-7786-43E3-95B5-7EC3E47B02F7}"/>
-    <hyperlink ref="B1657" r:id="rId1436" display="https://leetcode.com/problems/replace-all-digits-with-characters" xr:uid="{49DB3A4F-FD4A-488C-9C40-1194D6EA8E08}"/>
-    <hyperlink ref="B1658" r:id="rId1437" display="https://leetcode.com/problems/seat-reservation-manager" xr:uid="{3917E3DD-3128-4718-BECB-213FB40603AE}"/>
-    <hyperlink ref="B1659" r:id="rId1438" display="https://leetcode.com/problems/maximum-element-after-decreasing-and-rearranging" xr:uid="{FDC9081B-0D97-4235-9B69-975D00D7F6C3}"/>
-    <hyperlink ref="B1661" r:id="rId1439" display="https://leetcode.com/problems/minimum-distance-to-the-target-element" xr:uid="{31785CF5-B776-4DB2-85D2-D170CFB44A76}"/>
-    <hyperlink ref="B1662" r:id="rId1440" display="https://leetcode.com/problems/splitting-a-string-into-descending-consecutive-values" xr:uid="{25A6E913-C7FB-41F4-ABEA-7F4AFD174FB6}"/>
-    <hyperlink ref="B1663" r:id="rId1441" display="https://leetcode.com/problems/minimum-adjacent-swaps-to-reach-the-kth-smallest-number" xr:uid="{1E6227B5-720D-4D63-806F-6B23252AA41D}"/>
-    <hyperlink ref="B1664" r:id="rId1442" display="https://leetcode.com/problems/minimum-interval-to-include-each-query" xr:uid="{5295AB82-D3CE-47AC-8B3E-D053903EACD4}"/>
-    <hyperlink ref="B1665" r:id="rId1443" display="https://leetcode.com/problems/maximum-population-year" xr:uid="{8B601B30-68A1-40B2-8CC4-5ADE4F1AADB0}"/>
-    <hyperlink ref="B1666" r:id="rId1444" display="https://leetcode.com/problems/maximum-distance-between-a-pair-of-values" xr:uid="{6526D9AA-7EF1-4DDB-8A45-0E58240D35C1}"/>
-    <hyperlink ref="B1667" r:id="rId1445" display="https://leetcode.com/problems/maximum-subarray-min-product" xr:uid="{652F1242-245F-4CDD-80E1-CD2643BBF1DD}"/>
+    <hyperlink ref="B1640" r:id="rId1419" display="https://leetcode.com/problems/sign-of-the-product-of-an-array" xr:uid="{A0049EEE-420F-4B36-9532-4246FDC62DB6}"/>
+    <hyperlink ref="B1641" r:id="rId1420" display="https://leetcode.com/problems/find-the-winner-of-the-circular-game" xr:uid="{A9255375-24AC-4E41-953D-DA0C6301095A}"/>
+    <hyperlink ref="B1642" r:id="rId1421" display="https://leetcode.com/problems/minimum-sideway-jumps" xr:uid="{4616F648-DE69-45E9-B2C6-D31F83F95B92}"/>
+    <hyperlink ref="B1643" r:id="rId1422" display="https://leetcode.com/problems/finding-mk-average" xr:uid="{0BF35336-3D02-41E1-A514-B9229042BBD6}"/>
+    <hyperlink ref="B1639" r:id="rId1423" display="https://leetcode.com/problems/maximum-number-of-accepted-invitations" xr:uid="{7A1246F2-C469-4411-A09D-BE551D6FE886}"/>
+    <hyperlink ref="B1645" r:id="rId1424" display="https://leetcode.com/problems/minimum-operations-to-make-the-array-increasing" xr:uid="{BCE639B4-26EE-4325-9A6F-B7BE83A0EE5A}"/>
+    <hyperlink ref="B1652" r:id="rId1425" display="https://leetcode.com/problems/find-xor-sum-of-all-pairs-bitwise-and" xr:uid="{38FA1C75-00B2-4AE8-8A11-2E014FC16985}"/>
+    <hyperlink ref="B1651" r:id="rId1426" display="https://leetcode.com/problems/single-threaded-cpu" xr:uid="{55B4E28C-C4B1-4C74-A203-8312BE18DC88}"/>
+    <hyperlink ref="B1650" r:id="rId1427" display="https://leetcode.com/problems/maximum-ice-cream-bars" xr:uid="{D5351234-3C7F-4961-B2F1-DFDF670C4573}"/>
+    <hyperlink ref="B1649" r:id="rId1428" display="https://leetcode.com/problems/check-if-the-sentence-is-pangram" xr:uid="{63C7BF79-155D-42CA-ABA8-8F2F7FD161E2}"/>
+    <hyperlink ref="B1648" r:id="rId1429" display="https://leetcode.com/problems/minimum-number-of-operations-to-make-string-sorted" xr:uid="{ACFFE50E-DB64-479B-8B9A-920DDE6CB684}"/>
+    <hyperlink ref="B1647" r:id="rId1430" display="https://leetcode.com/problems/maximum-xor-for-each-query" xr:uid="{D255E608-8F3D-4961-B320-B696DA8892A0}"/>
+    <hyperlink ref="B1646" r:id="rId1431" display="https://leetcode.com/problems/queries-on-number-of-points-inside-a-circle" xr:uid="{65DB8EBB-95E7-4BCA-9695-140D8EC29DBA}"/>
+    <hyperlink ref="B1653" r:id="rId1432" display="https://leetcode.com/problems/sum-of-digits-in-base-k" xr:uid="{6EF102B0-E6C2-4C97-973C-B394DDCD7812}"/>
+    <hyperlink ref="B1654" r:id="rId1433" display="https://leetcode.com/problems/frequency-of-the-most-frequent-element" xr:uid="{342FB5F7-8DE8-4D46-B110-C5C48EC6E39B}"/>
+    <hyperlink ref="B1655" r:id="rId1434" display="https://leetcode.com/problems/longest-substring-of-all-vowels-in-order" xr:uid="{E091BC8C-141B-419F-A05B-DAECE82F8E4D}"/>
+    <hyperlink ref="B1656" r:id="rId1435" display="https://leetcode.com/problems/maximum-building-height" xr:uid="{58FE2B85-7786-43E3-95B5-7EC3E47B02F7}"/>
+    <hyperlink ref="B1658" r:id="rId1436" display="https://leetcode.com/problems/replace-all-digits-with-characters" xr:uid="{49DB3A4F-FD4A-488C-9C40-1194D6EA8E08}"/>
+    <hyperlink ref="B1659" r:id="rId1437" display="https://leetcode.com/problems/seat-reservation-manager" xr:uid="{3917E3DD-3128-4718-BECB-213FB40603AE}"/>
+    <hyperlink ref="B1660" r:id="rId1438" display="https://leetcode.com/problems/maximum-element-after-decreasing-and-rearranging" xr:uid="{FDC9081B-0D97-4235-9B69-975D00D7F6C3}"/>
+    <hyperlink ref="B1662" r:id="rId1439" display="https://leetcode.com/problems/minimum-distance-to-the-target-element" xr:uid="{31785CF5-B776-4DB2-85D2-D170CFB44A76}"/>
+    <hyperlink ref="B1663" r:id="rId1440" display="https://leetcode.com/problems/splitting-a-string-into-descending-consecutive-values" xr:uid="{25A6E913-C7FB-41F4-ABEA-7F4AFD174FB6}"/>
+    <hyperlink ref="B1664" r:id="rId1441" display="https://leetcode.com/problems/minimum-adjacent-swaps-to-reach-the-kth-smallest-number" xr:uid="{1E6227B5-720D-4D63-806F-6B23252AA41D}"/>
+    <hyperlink ref="B1665" r:id="rId1442" display="https://leetcode.com/problems/minimum-interval-to-include-each-query" xr:uid="{5295AB82-D3CE-47AC-8B3E-D053903EACD4}"/>
+    <hyperlink ref="B1666" r:id="rId1443" display="https://leetcode.com/problems/maximum-population-year" xr:uid="{8B601B30-68A1-40B2-8CC4-5ADE4F1AADB0}"/>
+    <hyperlink ref="B1667" r:id="rId1444" display="https://leetcode.com/problems/maximum-distance-between-a-pair-of-values" xr:uid="{6526D9AA-7EF1-4DDB-8A45-0E58240D35C1}"/>
+    <hyperlink ref="B1668" r:id="rId1445" display="https://leetcode.com/problems/maximum-subarray-min-product" xr:uid="{652F1242-245F-4CDD-80E1-CD2643BBF1DD}"/>
     <hyperlink ref="B1410" r:id="rId1446" display="https://leetcode.com/problems/minimum-cost-to-cut-a-stick" xr:uid="{43E29B64-294E-4116-AA83-2FC7A623AF15}"/>
-    <hyperlink ref="B1676" r:id="rId1447" display="https://leetcode.com/problems/number-of-ways-to-rearrange-sticks-with-k-sticks-visible" xr:uid="{E35D13B0-22B7-490D-B5AB-4A7212373890}"/>
-    <hyperlink ref="B1672" r:id="rId1448" display="https://leetcode.com/problems/sum-of-floored-pairs" xr:uid="{093A209E-68BA-452C-AA91-6C7000A5F2E3}"/>
-    <hyperlink ref="B1680" r:id="rId1449" display="https://leetcode.com/problems/stone-game-viii" xr:uid="{61F21AD1-64FA-4012-9BE3-4243D664B6E2}"/>
-    <hyperlink ref="B1684" r:id="rId1450" display="https://leetcode.com/problems/minimum-xor-sum-of-two-arrays" xr:uid="{FD7F5FAD-8697-4398-A6A7-4EF44D3CEA63}"/>
-    <hyperlink ref="B1688" r:id="rId1451" display="https://leetcode.com/problems/minimum-skips-to-arrive-at-meeting-on-time" xr:uid="{9E93822D-BDD4-48D6-A1B5-4CB1349E95EC}"/>
-    <hyperlink ref="B1693" r:id="rId1452" display="https://leetcode.com/problems/minimum-space-wasted-from-packaging" xr:uid="{FD882ECA-EAB3-432E-B354-871F2953F4AE}"/>
-    <hyperlink ref="B1697" r:id="rId1453" display="https://leetcode.com/problems/minimum-cost-to-change-the-final-value-of-expression" xr:uid="{8AEEABF2-8972-41C9-9EAC-7A4DC947DB04}"/>
-    <hyperlink ref="B1701" r:id="rId1454" display="https://leetcode.com/problems/the-earliest-and-latest-rounds-where-players-compete" xr:uid="{1BA05603-7474-4610-A2E6-E0FE942FC497}"/>
-    <hyperlink ref="B1673" r:id="rId1455" display="https://leetcode.com/problems/sum-of-all-subset-xor-totals" xr:uid="{916CBCE4-8E4F-4C1A-ADC8-D712E20E7078}"/>
-    <hyperlink ref="B1677" r:id="rId1456" display="https://leetcode.com/problems/longer-contiguous-segments-of-ones-than-zeros" xr:uid="{F0373E6C-9FDE-4708-BDE4-1BAF6BC3DAF9}"/>
-    <hyperlink ref="B1681" r:id="rId1457" display="https://leetcode.com/problems/substrings-of-size-three-with-distinct-characters" xr:uid="{1D3C16AD-27DB-4D26-B4C5-CB3468282314}"/>
-    <hyperlink ref="B1685" r:id="rId1458" display="https://leetcode.com/problems/check-if-word-equals-summation-of-two-words" xr:uid="{26751097-8588-426A-9778-1F2134E99BA0}"/>
-    <hyperlink ref="B1690" r:id="rId1459" display="https://leetcode.com/problems/determine-whether-matrix-can-be-obtained-by-rotation" xr:uid="{DAAF2CCC-883E-4313-871A-8A735A3F5ADA}"/>
-    <hyperlink ref="B1694" r:id="rId1460" display="https://leetcode.com/problems/check-if-all-the-integers-in-a-range-are-covered" xr:uid="{1E1CE91C-D79D-487A-A76A-6DE39C6CDD96}"/>
-    <hyperlink ref="B1670" r:id="rId1461" display="https://leetcode.com/problems/incremental-memory-leak" xr:uid="{CA1A11F1-F4F6-4D65-9D69-A6197119EA1E}"/>
-    <hyperlink ref="B1671" r:id="rId1462" display="https://leetcode.com/problems/rotating-the-box" xr:uid="{1DBA9A18-E1D2-4148-8C3A-048CE82287C0}"/>
-    <hyperlink ref="B1703" r:id="rId1463" display="https://leetcode.com/problems/largest-odd-number-in-string" xr:uid="{C1F070FE-5338-44D3-AC2F-454F2F234B37}"/>
-    <hyperlink ref="B1706" r:id="rId1464" display="https://leetcode.com/problems/minimum-absolute-difference-queries" xr:uid="{BC2F4066-1A7C-40E6-807A-59A6290C5130}"/>
-    <hyperlink ref="B1708" r:id="rId1465" xr:uid="{701B89CB-0972-4CC9-B496-BFC2EA4D6053}"/>
-    <hyperlink ref="B1712" r:id="rId1466" xr:uid="{8495B600-B833-4B44-9931-395989DBBB7D}"/>
-    <hyperlink ref="B1713" r:id="rId1467" display="https://leetcode.com/problems/cyclically-rotating-a-grid" xr:uid="{3AFFE1F3-E05C-4E5B-AB9D-548519408295}"/>
-    <hyperlink ref="B1715" r:id="rId1468" display=" Count Ways to Build Rooms in an Ant Colony" xr:uid="{E356F1D9-1378-42C3-B1EC-4016F02C08FE}"/>
-    <hyperlink ref="B1674" r:id="rId1469" xr:uid="{68B63B60-AA23-4767-8102-9AA46D58D32F}"/>
-    <hyperlink ref="B1675" r:id="rId1470" display="https://leetcode.com/problems/finding-pairs-with-a-certain-sum" xr:uid="{37561B08-BC65-437E-B174-B127301F6D30}"/>
-    <hyperlink ref="B1678" r:id="rId1471" display="https://leetcode.com/problems/minimum-speed-to-arrive-on-time" xr:uid="{544CF080-940E-4B3B-8C0D-B8C5A249310B}"/>
-    <hyperlink ref="B1683" r:id="rId1472" display=" Get Biggest Three Rhombus Sums in a Grid" xr:uid="{C9ED9B55-F0EC-476B-8A98-0E74857AAAFC}"/>
-    <hyperlink ref="B1679" r:id="rId1473" display="https://leetcode.com/problems/jump-game-vii" xr:uid="{D4DE1BAE-1CC3-4DD3-9C0A-914FC5B5661F}"/>
-    <hyperlink ref="B1686" r:id="rId1474" display="https://leetcode.com/problems/maximum-value-after-insertion" xr:uid="{1CE67B2F-87CD-4FD5-B4F7-25783440228A}"/>
-    <hyperlink ref="B1696" r:id="rId1475" display="https://leetcode.com/problems/largest-magic-square" xr:uid="{1DB8991F-9DCC-4BF1-AF94-E99D460D113B}"/>
-    <hyperlink ref="B1682" r:id="rId1476" display="https://leetcode.com/problems/minimize-maximum-pair-sum-in-array" xr:uid="{D3735233-4AEB-4C89-B82C-4CA4DF8B68B4}"/>
-    <hyperlink ref="B1687" r:id="rId1477" display="https://leetcode.com/problems/process-tasks-using-servers" xr:uid="{E6E0ED0E-18FD-4748-90EB-5D666411330C}"/>
-    <hyperlink ref="B1689" r:id="rId1478" display="https://leetcode.com/problems/egg-drop-with-2-eggs-and-n-floors" xr:uid="{8F3F40B0-8D67-46A7-B467-4EEA5B9A8063}"/>
-    <hyperlink ref="B1691" r:id="rId1479" display="https://leetcode.com/problems/reduction-operations-to-make-the-array-elements-equal" xr:uid="{93CBEB02-546F-4B36-807B-CAA599C9C2E1}"/>
-    <hyperlink ref="B1698" r:id="rId1480" display="https://leetcode.com/problems/redistribute-characters-to-make-all-strings-equal" xr:uid="{514AD256-6C6F-423E-93EA-68F73246AB3C}"/>
-    <hyperlink ref="B1716" r:id="rId1481" display="https://leetcode.com/problems/build-array-from-permutation" xr:uid="{A7BA82A2-3CCD-45FF-8CCB-DCE423A9403F}"/>
-    <hyperlink ref="B1719" r:id="rId1482" display="https://leetcode.com/problems/longest-common-subpath" xr:uid="{62FFD7C8-6B95-49CF-877E-D2923644D1FD}"/>
-    <hyperlink ref="B1728" r:id="rId1483" display="https://leetcode.com/problems/merge-bsts-to-create-single-bst" xr:uid="{3C90ED05-B4E6-4A5B-8B92-92274CD6E3CB}"/>
-    <hyperlink ref="B1732" r:id="rId1484" display="https://leetcode.com/problems/maximum-genetic-difference-query" xr:uid="{1A25DDAD-A0E9-4DEA-9978-DBF0F9D4D3DF}"/>
-    <hyperlink ref="B1695" r:id="rId1485" display="https://leetcode.com/problems/find-the-student-that-will-replace-the-chalk" xr:uid="{9D146C0C-5A16-4375-BDF0-B60367842FF7}"/>
-    <hyperlink ref="B1737" r:id="rId1486" display="https://leetcode.com/problems/sum-of-digits-of-string-after-convert" xr:uid="{6F22ECDB-6A6B-41D3-8CA9-6D76CAF5B4E8}"/>
-    <hyperlink ref="B1733" r:id="rId1487" xr:uid="{67E882AF-68DB-41AF-8071-513205274BD9}"/>
-    <hyperlink ref="B1729" r:id="rId1488" display="https://leetcode.com/problems/maximum-number-of-words-you-can-type" xr:uid="{8E21FA9C-EBEA-4E91-AD8C-B9177EF763E8}"/>
-    <hyperlink ref="B1699" r:id="rId1489" xr:uid="{A3071BE6-0034-43AE-BDF8-5799BAD6EB13}"/>
-    <hyperlink ref="B1700" r:id="rId1490" display="https://leetcode.com/problems/merge-triplets-to-form-target-triplet" xr:uid="{EFBBCE90-7311-45FC-B707-92A6E1252460}"/>
-    <hyperlink ref="B1749" r:id="rId1491" xr:uid="{B409B537-7A7A-463A-A75E-53528F8E2853}"/>
-    <hyperlink ref="B1744" r:id="rId1492" xr:uid="{02C2B215-E3E3-4548-A2F1-DDB689E2C454}"/>
-    <hyperlink ref="B1740" r:id="rId1493" display="https://leetcode.com/problems/delete-duplicate-folders-in-system" xr:uid="{16B4D03D-ED3A-423A-8036-4E96E3C16067}"/>
-    <hyperlink ref="B1736" r:id="rId1494" xr:uid="{7C979346-7740-4A52-9F7D-050A4F57896C}"/>
-    <hyperlink ref="B1727" r:id="rId1495" display="https://leetcode.com/problems/painting-a-grid-with-three-different-colors" xr:uid="{B5ED7AD1-6A0E-45F7-B1AC-3F3817E32416}"/>
-    <hyperlink ref="B1724" r:id="rId1496" display="Minimum Cost to Reach Destination i" xr:uid="{3D85BE5F-F0CC-42FF-A640-8A8AE91D07EA}"/>
-    <hyperlink ref="B1711" r:id="rId1497" display="https://leetcode.com/problems/design-movie-rental-system" xr:uid="{19AF9215-7A21-4D3F-A616-43F376496623}"/>
-    <hyperlink ref="B1725" r:id="rId1498" display="https://leetcode.com/problems/concatenation-of-array" xr:uid="{4408C4DB-4EB9-4846-9A9D-74A69E6FC083}"/>
-    <hyperlink ref="B1705" r:id="rId1499" display="https://leetcode.com/problems/count-sub-islands" xr:uid="{618FF829-5060-41A7-93F8-CF7981307DFA}"/>
-    <hyperlink ref="B1704" r:id="rId1500" xr:uid="{3A86AED8-C09D-4BCF-A1D4-ADDD6E740309}"/>
-    <hyperlink ref="B1721" r:id="rId1501" display="https://leetcode.com/problems/count-square-sum-triples" xr:uid="{B8E45F4A-37F7-4057-AB54-687DAEB27C7E}"/>
-    <hyperlink ref="B1741" r:id="rId1502" display="https://leetcode.com/problems/three-divisors" xr:uid="{3D0A8A80-CBA1-408D-A123-C27B4A097F3A}"/>
-    <hyperlink ref="B1709" r:id="rId1503" display="https://leetcode.com/problems/remove-all-occurrences-of-a-substring" xr:uid="{1FD774A7-EA6E-486E-B5B2-4DB1A2CAD603}"/>
-    <hyperlink ref="B1710" r:id="rId1504" display="https://leetcode.com/problems/maximum-alternating-subsequence-sum" xr:uid="{FD99D4AE-DB21-4402-8FA7-0B910189496A}"/>
-    <hyperlink ref="B1717" r:id="rId1505" display="https://leetcode.com/problems/eliminate-maximum-number-of-monsters" xr:uid="{2F2B9E94-63AD-422B-9A63-FD6F7EE7C629}"/>
-    <hyperlink ref="B1718" r:id="rId1506" display="https://leetcode.com/problems/count-good-numbers" xr:uid="{0D5DDF79-C46F-494C-9766-0E840A482CBC}"/>
-    <hyperlink ref="B1722" r:id="rId1507" display="https://leetcode.com/problems/nearest-exit-from-entrance-in-maze" xr:uid="{D6319B8E-5A12-491E-9CED-BE4A97644B7D}"/>
-    <hyperlink ref="B1723" r:id="rId1508" display="https://leetcode.com/problems/sum-game" xr:uid="{7257B159-3AAE-49C8-A194-28A7B0536879}"/>
-    <hyperlink ref="B1726" r:id="rId1509" display="https://leetcode.com/problems/unique-length-3-palindromic-subsequences" xr:uid="{3E328985-E0C1-4515-AD87-7AEBCA16FAC1}"/>
-    <hyperlink ref="B1730" r:id="rId1510" display="https://leetcode.com/problems/add-minimum-number-of-rungs" xr:uid="{5BA1D979-BF40-48B3-A017-A1F66313C277}"/>
-    <hyperlink ref="B1731" r:id="rId1511" display="https://leetcode.com/problems/maximum-number-of-points-with-cost" xr:uid="{046C6A21-E955-49B6-9C89-B84CCB55AE5A}"/>
-    <hyperlink ref="B1734" r:id="rId1512" xr:uid="{6CD14534-BD2F-4FB2-9ED6-FA0B3F435F34}"/>
-    <hyperlink ref="B1735" r:id="rId1513" display="https://leetcode.com/problems/describe-the-painting" xr:uid="{DA3A709A-251A-4B40-A861-28FC5064A859}"/>
-    <hyperlink ref="B1738" r:id="rId1514" display="https://leetcode.com/problems/largest-number-after-mutating-substring" xr:uid="{4886B7BF-B766-44D2-92F9-16172E855E7A}"/>
-    <hyperlink ref="B1739" r:id="rId1515" display="https://leetcode.com/problems/maximum-compatibility-score-sum" xr:uid="{6AA7EF38-CB22-4349-9BCA-68EEDB6BA60F}"/>
-    <hyperlink ref="B1742" r:id="rId1516" xr:uid="{780DD737-38FC-4E52-8E17-E1ED7D4828C2}"/>
-    <hyperlink ref="B1743" r:id="rId1517" xr:uid="{BD5305FA-C3E6-436C-A3A3-3B2AEC015409}"/>
-    <hyperlink ref="B1747" r:id="rId1518" display="https://leetcode.com/problems/check-if-move-is-legal" xr:uid="{037D07CA-C5E5-46F7-8A15-FF086FD68CEA}"/>
-    <hyperlink ref="B1748" r:id="rId1519" xr:uid="{4514D26A-1DEB-4898-B0C0-E35C803A917D}"/>
-    <hyperlink ref="B1750" r:id="rId1520" display="https://leetcode.com/problems/check-if-string-is-a-prefix-of-array" xr:uid="{ED238B07-DD69-47D7-9C99-70206F56431B}"/>
-    <hyperlink ref="B1751" r:id="rId1521" display="https://leetcode.com/problems/remove-stones-to-minimize-the-total" xr:uid="{A477D00D-45DD-4A17-8EC1-CAB601E47AFE}"/>
-    <hyperlink ref="B1752" r:id="rId1522" xr:uid="{7AED54AB-CAC5-468D-AEA4-30EF78C123D5}"/>
-    <hyperlink ref="B1753" r:id="rId1523" xr:uid="{C8B643C6-E285-4944-9FD0-0F3F95420C77}"/>
-    <hyperlink ref="B1754" r:id="rId1524" display="https://leetcode.com/problems/number-of-strings-that-appear-as-substrings-in-word" xr:uid="{9D135439-6404-469A-B0F3-B3CB3CC48006}"/>
-    <hyperlink ref="B1755" r:id="rId1525" xr:uid="{2D13F7E0-CA9F-41A5-9A27-D14C8E89D1D6}"/>
-    <hyperlink ref="B1756" r:id="rId1526" xr:uid="{6F03E324-C26B-45D0-A69E-667D05BCF4A6}"/>
-    <hyperlink ref="B1757" r:id="rId1527" display="https://leetcode.com/problems/last-day-where-you-can-still-cross" xr:uid="{6C0C733A-DFFC-47C4-8A74-549CE9EEC902}"/>
-    <hyperlink ref="B1758" r:id="rId1528" display="https://leetcode.com/problems/find-if-path-exists-in-graph" xr:uid="{280D74AA-F965-40BB-989B-D14BCDFED54C}"/>
-    <hyperlink ref="B1759" r:id="rId1529" xr:uid="{4E722A0F-0542-4D0F-944F-81A1882BDB67}"/>
-    <hyperlink ref="B1760" r:id="rId1530" display="https://leetcode.com/problems/maximum-matrix-sum" xr:uid="{85554A11-E7CC-4623-9832-CA974B90C2B5}"/>
-    <hyperlink ref="B1761" r:id="rId1531" display="https://leetcode.com/problems/number-of-ways-to-arrive-at-destination" xr:uid="{7C2B1C34-BFA8-4D6A-8BFD-2D13258003E9}"/>
-    <hyperlink ref="B1762" r:id="rId1532" display="https://leetcode.com/problems/number-of-ways-to-separate-numbers" xr:uid="{A1CD6E14-B30D-48A8-9C50-989B50718C66}"/>
-    <hyperlink ref="B1763" r:id="rId1533" display="https://leetcode.com/problems/find-greatest-common-divisor-of-array" xr:uid="{F13EAFBC-B285-401C-91EE-AC9A939A3669}"/>
-    <hyperlink ref="B1764" r:id="rId1534" display="https://leetcode.com/problems/find-unique-binary-string" xr:uid="{7ED88115-1A51-43E5-9996-61390F3D3742}"/>
-    <hyperlink ref="B1765" r:id="rId1535" xr:uid="{307A70C2-1A17-4713-8815-4B08BE79BC16}"/>
-    <hyperlink ref="B1766" r:id="rId1536" display="https://leetcode.com/problems/find-array-given-subset-sums" xr:uid="{24E810D6-01EB-4D57-B971-B9D6AD7C8465}"/>
-    <hyperlink ref="B1767" r:id="rId1537" xr:uid="{3AC2DE31-2D9A-47A8-BD4F-9E1BA94A6DBE}"/>
-    <hyperlink ref="B1768" r:id="rId1538" display="https://leetcode.com/problems/find-the-kth-largest-integer-in-the-array" xr:uid="{0E5050F7-33DD-4568-A9C5-F0BF63ABEF41}"/>
-    <hyperlink ref="B1769" r:id="rId1539" xr:uid="{74CBB63A-C6EA-4857-9FF1-DE3E60CAE238}"/>
-    <hyperlink ref="B1770" r:id="rId1540" display="https://leetcode.com/problems/number-of-unique-good-subsequences" xr:uid="{853BAECC-5442-42F3-89D7-4E811047F33B}"/>
-    <hyperlink ref="B1771" r:id="rId1541" display="https://leetcode.com/problems/find-the-middle-index-in-array" xr:uid="{D5BD54BC-4C9D-4080-92AB-7E0AD5447197}"/>
-    <hyperlink ref="B1772" r:id="rId1542" display="https://leetcode.com/problems/find-all-groups-of-farmland" xr:uid="{FA8829D0-40F2-4ECC-B6CF-DF0CB80F6744}"/>
-    <hyperlink ref="B1773" r:id="rId1543" display="https://leetcode.com/problems/operations-on-tree" xr:uid="{686B754D-FA97-4909-9B6F-604722737483}"/>
-    <hyperlink ref="B1774" r:id="rId1544" display="https://leetcode.com/problems/the-number-of-good-subsets" xr:uid="{CB7AE48D-6C96-4D56-9DD1-F6A59CF37370}"/>
-    <hyperlink ref="B1775" r:id="rId1545" display="https://leetcode.com/problems/count-special-quadruplets" xr:uid="{661C9BC6-DD29-4EEE-BDF8-A0046C960AAA}"/>
-    <hyperlink ref="B1776" r:id="rId1546" xr:uid="{4367FE0D-6B66-4E7B-B67D-D44932CCF53D}"/>
-    <hyperlink ref="B1778" r:id="rId1547" display="https://leetcode.com/problems/gcd-sort-of-an-array" xr:uid="{D51FF9FA-E1D0-4876-9671-0BECACA20C8E}"/>
-    <hyperlink ref="B1777" r:id="rId1548" xr:uid="{440A2BB5-BF04-43D0-B17E-3DB556DFF3D2}"/>
-    <hyperlink ref="B1779" r:id="rId1549" display="https://leetcode.com/problems/reverse-prefix-of-word" xr:uid="{CB9978C3-6422-40BB-8564-3202082A0B1A}"/>
-    <hyperlink ref="B1780" r:id="rId1550" xr:uid="{7923A955-AD8E-4813-A991-8D8A22CAA454}"/>
-    <hyperlink ref="B1781" r:id="rId1551" display="https://leetcode.com/problems/maximum-product-of-the-length-of-two-palindromic-subsequences" xr:uid="{8F9B0876-A47C-4346-BB3A-B28A932D0561}"/>
-    <hyperlink ref="B1782" r:id="rId1552" display="https://leetcode.com/problems/smallest-missing-genetic-value-in-each-subtree" xr:uid="{7B841850-C4EB-4B17-86ED-3C469EA47416}"/>
-    <hyperlink ref="B1784" r:id="rId1553" xr:uid="{8B9BFB7A-1876-405D-81AE-5D45D7B9CC99}"/>
-    <hyperlink ref="B1785" r:id="rId1554" display="https://leetcode.com/problems/find-original-array-from-doubled-array" xr:uid="{941F4524-2AB9-4B82-8506-2B0DDAE8E0C8}"/>
-    <hyperlink ref="B1786" r:id="rId1555" display="https://leetcode.com/problems/maximum-earnings-from-taxi" xr:uid="{2C7D8613-3F51-4CE1-89B7-0D2175417F32}"/>
-    <hyperlink ref="B1787" r:id="rId1556" display="https://leetcode.com/problems/minimum-number-of-operations-to-make-array-continuous" xr:uid="{7CA9A60C-BA8C-481E-B3A3-B022E1E11E93}"/>
-    <hyperlink ref="B1788" r:id="rId1557" display="https://leetcode.com/problems/final-value-of-variable-after-performing-operations" xr:uid="{878BB048-0ECD-4FAC-A96B-1A705EB95DEF}"/>
-    <hyperlink ref="B1789" r:id="rId1558" display="https://leetcode.com/problems/sum-of-beauty-in-the-array" xr:uid="{73619F0E-5E06-4E41-906A-4E0AE98A22B5}"/>
-    <hyperlink ref="B1790" r:id="rId1559" display="https://leetcode.com/problems/detect-squares" xr:uid="{973708F6-B02C-4F3B-9CD7-658CC285620D}"/>
-    <hyperlink ref="B1791" r:id="rId1560" display="https://leetcode.com/problems/longest-subsequence-repeated-k-times" xr:uid="{4C762D87-A9C5-4BD4-912E-7DF86A9410E2}"/>
-    <hyperlink ref="B1792" r:id="rId1561" xr:uid="{FCD62007-CC5B-42E2-9137-1D08C11A57E4}"/>
-    <hyperlink ref="B1793" r:id="rId1562" display="https://leetcode.com/problems/grid-game" xr:uid="{6BAF02C7-CF0B-4611-97F7-71B80B95A205}"/>
-    <hyperlink ref="B1794" r:id="rId1563" display="https://leetcode.com/problems/check-if-word-can-be-placed-in-crossword" xr:uid="{302A26FF-631E-42F2-9B60-01DDABC35248}"/>
-    <hyperlink ref="B1795" r:id="rId1564" display="https://leetcode.com/problems/the-score-of-students-solving-math-expression" xr:uid="{3D10BE58-1B14-440E-9A39-40F0A7CCC3A0}"/>
-    <hyperlink ref="B1796" r:id="rId1565" display="https://leetcode.com/problems/convert-1d-array-into-2d-array" xr:uid="{412ED7EE-16C1-4FBE-88AA-44300DC61B17}"/>
-    <hyperlink ref="B1797" r:id="rId1566" display="https://leetcode.com/problems/number-of-pairs-of-strings-with-concatenation-equal-to-target" xr:uid="{EDEDBE97-30D3-4D23-9530-0C8A3F620EE6}"/>
-    <hyperlink ref="B1798" r:id="rId1567" display="https://leetcode.com/problems/maximize-the-confusion-of-an-exam" xr:uid="{B38DEE78-20CA-494E-8F19-7DDF232265F7}"/>
-    <hyperlink ref="B1799" r:id="rId1568" display="https://leetcode.com/problems/maximum-number-of-ways-to-partition-an-array" xr:uid="{327D7573-701B-491A-A079-084FB4CF6A48}"/>
-    <hyperlink ref="B1800" r:id="rId1569" display="https://leetcode.com/problems/minimum-moves-to-convert-string" xr:uid="{560091BE-B96B-42CB-A09B-F78B509005A6}"/>
-    <hyperlink ref="B1801" r:id="rId1570" display="https://leetcode.com/problems/find-missing-observations" xr:uid="{9490467D-B31C-44AF-8D15-79AB6781FC3C}"/>
-    <hyperlink ref="B1802" r:id="rId1571" display="https://leetcode.com/problems/stone-game-ix" xr:uid="{C7AA6D81-752C-425D-81DA-FAF27F7ED6FA}"/>
-    <hyperlink ref="B1803" r:id="rId1572" display="https://leetcode.com/problems/smallest-k-length-subsequence-with-occurrences-of-a-letter" xr:uid="{A5C04344-98FD-4F50-9D84-0FBA98FAC48B}"/>
-    <hyperlink ref="B1804" r:id="rId1573" display="https://leetcode.com/problems/two-out-of-three" xr:uid="{1AB7FC97-05A8-468E-8041-87C042662734}"/>
-    <hyperlink ref="B1805" r:id="rId1574" display="https://leetcode.com/problems/minimum-operations-to-make-a-uni-value-grid" xr:uid="{1D7594B8-D9EF-44A3-A181-5F380536D6FE}"/>
-    <hyperlink ref="B1806" r:id="rId1575" display="https://leetcode.com/problems/stock-price-fluctuation" xr:uid="{B4C0146B-D639-4321-83F0-6D26A81FB65F}"/>
-    <hyperlink ref="B1807" r:id="rId1576" display="https://leetcode.com/problems/partition-array-into-two-arrays-to-minimize-sum-difference" xr:uid="{82903DBE-FBC3-4832-A02A-38C1AC13E633}"/>
-    <hyperlink ref="B1809" r:id="rId1577" xr:uid="{6912978A-59D7-4A0E-A334-53B5396D5C1C}"/>
-    <hyperlink ref="B1808" r:id="rId1578" xr:uid="{20A5B385-905C-42AF-B96A-DC35E88CE4A9}"/>
-    <hyperlink ref="B1810" r:id="rId1579" display="https://leetcode.com/problems/the-time-when-the-network-becomes-idle" xr:uid="{6A5AC808-A088-406E-A668-EA5C0F6DB789}"/>
-    <hyperlink ref="B1811" r:id="rId1580" display="https://leetcode.com/problems/kth-smallest-product-of-two-sorted-arrays" xr:uid="{1E18156F-9CDF-492F-A500-95FD1C862605}"/>
-    <hyperlink ref="B1812" r:id="rId1581" display="https://leetcode.com/problems/check-if-numbers-are-ascending-in-a-sentence" xr:uid="{D07DC893-5260-4C94-B0C7-FADCEA7F501B}"/>
-    <hyperlink ref="B1813" r:id="rId1582" display="https://leetcode.com/problems/simple-bank-system" xr:uid="{2D5E5F4E-907C-4728-A902-7D10B6514920}"/>
-    <hyperlink ref="B1814" r:id="rId1583" xr:uid="{D5EDB803-F602-4ABD-9E68-1113D2A2A40A}"/>
-    <hyperlink ref="B1815" r:id="rId1584" display="https://leetcode.com/problems/second-minimum-time-to-reach-destination" xr:uid="{6ACF2F93-7EDE-4F1E-AA71-8112DE7ABF63}"/>
-    <hyperlink ref="B1816" r:id="rId1585" display="https://leetcode.com/problems/number-of-valid-words-in-a-sentence" xr:uid="{BCE84EEA-54FF-4E5A-9955-C02227468918}"/>
-    <hyperlink ref="B1817" r:id="rId1586" display="https://leetcode.com/problems/next-greater-numerically-balanced-number" xr:uid="{9FD27FA2-0676-4160-BC27-2E0F89E752A4}"/>
-    <hyperlink ref="B1818" r:id="rId1587" display="https://leetcode.com/problems/count-nodes-with-the-highest-score" xr:uid="{F7F71D15-EF63-42B1-BD71-1EB9E5AFAAEC}"/>
-    <hyperlink ref="B1819" r:id="rId1588" display="https://leetcode.com/problems/parallel-courses-iii" xr:uid="{10B385A3-FDEE-4123-AC9C-4F7EF85C3982}"/>
-    <hyperlink ref="B1820" r:id="rId1589" display="https://leetcode.com/problems/kth-distinct-string-in-an-array" xr:uid="{C8004808-B8BB-4E39-B2BC-980704DF7D4E}"/>
-    <hyperlink ref="B1821" r:id="rId1590" display="https://leetcode.com/problems/two-best-non-overlapping-events" xr:uid="{F29009B4-E1BD-443F-8480-1775C9682530}"/>
-    <hyperlink ref="B1822" r:id="rId1591" display="https://leetcode.com/problems/plates-between-candles" xr:uid="{A118D0C8-0288-4E36-8D25-A4774630A76B}"/>
-    <hyperlink ref="B1823" r:id="rId1592" display="https://leetcode.com/problems/number-of-valid-move-combinations-on-chessboard" xr:uid="{AEC5E678-B4A1-445C-B8F4-DE74236CAC53}"/>
-    <hyperlink ref="B1824" r:id="rId1593" display="https://leetcode.com/problems/smallest-index-with-equal-value" xr:uid="{E7A8904C-9D51-49EC-A910-9EE0B60892CD}"/>
-    <hyperlink ref="B1825" r:id="rId1594" display="https://leetcode.com/problems/find-the-minimum-and-maximum-number-of-nodes-between-critical-points" xr:uid="{0AC3439C-F776-4E62-B906-4FEDA4902BCA}"/>
-    <hyperlink ref="B1826" r:id="rId1595" display="https://leetcode.com/problems/minimum-operations-to-convert-number" xr:uid="{E72F9ECF-969F-4732-A4BD-D6C619ECE110}"/>
-    <hyperlink ref="B1827" r:id="rId1596" display="https://leetcode.com/problems/check-if-an-original-string-exists-given-two-encoded-strings" xr:uid="{0E2F5BE6-4251-43B0-902E-665D40B08A24}"/>
+    <hyperlink ref="B1677" r:id="rId1447" display="https://leetcode.com/problems/number-of-ways-to-rearrange-sticks-with-k-sticks-visible" xr:uid="{E35D13B0-22B7-490D-B5AB-4A7212373890}"/>
+    <hyperlink ref="B1673" r:id="rId1448" display="https://leetcode.com/problems/sum-of-floored-pairs" xr:uid="{093A209E-68BA-452C-AA91-6C7000A5F2E3}"/>
+    <hyperlink ref="B1681" r:id="rId1449" display="https://leetcode.com/problems/stone-game-viii" xr:uid="{61F21AD1-64FA-4012-9BE3-4243D664B6E2}"/>
+    <hyperlink ref="B1686" r:id="rId1450" display="https://leetcode.com/problems/minimum-xor-sum-of-two-arrays" xr:uid="{FD7F5FAD-8697-4398-A6A7-4EF44D3CEA63}"/>
+    <hyperlink ref="B1690" r:id="rId1451" display="https://leetcode.com/problems/minimum-skips-to-arrive-at-meeting-on-time" xr:uid="{9E93822D-BDD4-48D6-A1B5-4CB1349E95EC}"/>
+    <hyperlink ref="B1695" r:id="rId1452" display="https://leetcode.com/problems/minimum-space-wasted-from-packaging" xr:uid="{FD882ECA-EAB3-432E-B354-871F2953F4AE}"/>
+    <hyperlink ref="B1699" r:id="rId1453" display="https://leetcode.com/problems/minimum-cost-to-change-the-final-value-of-expression" xr:uid="{8AEEABF2-8972-41C9-9EAC-7A4DC947DB04}"/>
+    <hyperlink ref="B1703" r:id="rId1454" display="https://leetcode.com/problems/the-earliest-and-latest-rounds-where-players-compete" xr:uid="{1BA05603-7474-4610-A2E6-E0FE942FC497}"/>
+    <hyperlink ref="B1674" r:id="rId1455" display="https://leetcode.com/problems/sum-of-all-subset-xor-totals" xr:uid="{916CBCE4-8E4F-4C1A-ADC8-D712E20E7078}"/>
+    <hyperlink ref="B1678" r:id="rId1456" display="https://leetcode.com/problems/longer-contiguous-segments-of-ones-than-zeros" xr:uid="{F0373E6C-9FDE-4708-BDE4-1BAF6BC3DAF9}"/>
+    <hyperlink ref="B1683" r:id="rId1457" display="https://leetcode.com/problems/substrings-of-size-three-with-distinct-characters" xr:uid="{1D3C16AD-27DB-4D26-B4C5-CB3468282314}"/>
+    <hyperlink ref="B1687" r:id="rId1458" display="https://leetcode.com/problems/check-if-word-equals-summation-of-two-words" xr:uid="{26751097-8588-426A-9778-1F2134E99BA0}"/>
+    <hyperlink ref="B1692" r:id="rId1459" display="https://leetcode.com/problems/determine-whether-matrix-can-be-obtained-by-rotation" xr:uid="{DAAF2CCC-883E-4313-871A-8A735A3F5ADA}"/>
+    <hyperlink ref="B1696" r:id="rId1460" display="https://leetcode.com/problems/check-if-all-the-integers-in-a-range-are-covered" xr:uid="{1E1CE91C-D79D-487A-A76A-6DE39C6CDD96}"/>
+    <hyperlink ref="B1671" r:id="rId1461" display="https://leetcode.com/problems/incremental-memory-leak" xr:uid="{CA1A11F1-F4F6-4D65-9D69-A6197119EA1E}"/>
+    <hyperlink ref="B1672" r:id="rId1462" display="https://leetcode.com/problems/rotating-the-box" xr:uid="{1DBA9A18-E1D2-4148-8C3A-048CE82287C0}"/>
+    <hyperlink ref="B1705" r:id="rId1463" display="https://leetcode.com/problems/largest-odd-number-in-string" xr:uid="{C1F070FE-5338-44D3-AC2F-454F2F234B37}"/>
+    <hyperlink ref="B1708" r:id="rId1464" display="https://leetcode.com/problems/minimum-absolute-difference-queries" xr:uid="{BC2F4066-1A7C-40E6-807A-59A6290C5130}"/>
+    <hyperlink ref="B1710" r:id="rId1465" xr:uid="{701B89CB-0972-4CC9-B496-BFC2EA4D6053}"/>
+    <hyperlink ref="B1714" r:id="rId1466" xr:uid="{8495B600-B833-4B44-9931-395989DBBB7D}"/>
+    <hyperlink ref="B1715" r:id="rId1467" display="https://leetcode.com/problems/cyclically-rotating-a-grid" xr:uid="{3AFFE1F3-E05C-4E5B-AB9D-548519408295}"/>
+    <hyperlink ref="B1717" r:id="rId1468" display=" Count Ways to Build Rooms in an Ant Colony" xr:uid="{E356F1D9-1378-42C3-B1EC-4016F02C08FE}"/>
+    <hyperlink ref="B1675" r:id="rId1469" xr:uid="{68B63B60-AA23-4767-8102-9AA46D58D32F}"/>
+    <hyperlink ref="B1676" r:id="rId1470" display="https://leetcode.com/problems/finding-pairs-with-a-certain-sum" xr:uid="{37561B08-BC65-437E-B174-B127301F6D30}"/>
+    <hyperlink ref="B1679" r:id="rId1471" display="https://leetcode.com/problems/minimum-speed-to-arrive-on-time" xr:uid="{544CF080-940E-4B3B-8C0D-B8C5A249310B}"/>
+    <hyperlink ref="B1685" r:id="rId1472" display=" Get Biggest Three Rhombus Sums in a Grid" xr:uid="{C9ED9B55-F0EC-476B-8A98-0E74857AAAFC}"/>
+    <hyperlink ref="B1680" r:id="rId1473" display="https://leetcode.com/problems/jump-game-vii" xr:uid="{D4DE1BAE-1CC3-4DD3-9C0A-914FC5B5661F}"/>
+    <hyperlink ref="B1688" r:id="rId1474" display="https://leetcode.com/problems/maximum-value-after-insertion" xr:uid="{1CE67B2F-87CD-4FD5-B4F7-25783440228A}"/>
+    <hyperlink ref="B1698" r:id="rId1475" display="https://leetcode.com/problems/largest-magic-square" xr:uid="{1DB8991F-9DCC-4BF1-AF94-E99D460D113B}"/>
+    <hyperlink ref="B1684" r:id="rId1476" display="https://leetcode.com/problems/minimize-maximum-pair-sum-in-array" xr:uid="{D3735233-4AEB-4C89-B82C-4CA4DF8B68B4}"/>
+    <hyperlink ref="B1689" r:id="rId1477" display="https://leetcode.com/problems/process-tasks-using-servers" xr:uid="{E6E0ED0E-18FD-4748-90EB-5D666411330C}"/>
+    <hyperlink ref="B1691" r:id="rId1478" display="https://leetcode.com/problems/egg-drop-with-2-eggs-and-n-floors" xr:uid="{8F3F40B0-8D67-46A7-B467-4EEA5B9A8063}"/>
+    <hyperlink ref="B1693" r:id="rId1479" display="https://leetcode.com/problems/reduction-operations-to-make-the-array-elements-equal" xr:uid="{93CBEB02-546F-4B36-807B-CAA599C9C2E1}"/>
+    <hyperlink ref="B1700" r:id="rId1480" display="https://leetcode.com/problems/redistribute-characters-to-make-all-strings-equal" xr:uid="{514AD256-6C6F-423E-93EA-68F73246AB3C}"/>
+    <hyperlink ref="B1718" r:id="rId1481" display="https://leetcode.com/problems/build-array-from-permutation" xr:uid="{A7BA82A2-3CCD-45FF-8CCB-DCE423A9403F}"/>
+    <hyperlink ref="B1721" r:id="rId1482" display="https://leetcode.com/problems/longest-common-subpath" xr:uid="{62FFD7C8-6B95-49CF-877E-D2923644D1FD}"/>
+    <hyperlink ref="B1730" r:id="rId1483" display="https://leetcode.com/problems/merge-bsts-to-create-single-bst" xr:uid="{3C90ED05-B4E6-4A5B-8B92-92274CD6E3CB}"/>
+    <hyperlink ref="B1735" r:id="rId1484" display="https://leetcode.com/problems/maximum-genetic-difference-query" xr:uid="{1A25DDAD-A0E9-4DEA-9978-DBF0F9D4D3DF}"/>
+    <hyperlink ref="B1697" r:id="rId1485" display="https://leetcode.com/problems/find-the-student-that-will-replace-the-chalk" xr:uid="{9D146C0C-5A16-4375-BDF0-B60367842FF7}"/>
+    <hyperlink ref="B1740" r:id="rId1486" display="https://leetcode.com/problems/sum-of-digits-of-string-after-convert" xr:uid="{6F22ECDB-6A6B-41D3-8CA9-6D76CAF5B4E8}"/>
+    <hyperlink ref="B1736" r:id="rId1487" xr:uid="{67E882AF-68DB-41AF-8071-513205274BD9}"/>
+    <hyperlink ref="B1732" r:id="rId1488" display="https://leetcode.com/problems/maximum-number-of-words-you-can-type" xr:uid="{8E21FA9C-EBEA-4E91-AD8C-B9177EF763E8}"/>
+    <hyperlink ref="B1701" r:id="rId1489" xr:uid="{A3071BE6-0034-43AE-BDF8-5799BAD6EB13}"/>
+    <hyperlink ref="B1702" r:id="rId1490" display="https://leetcode.com/problems/merge-triplets-to-form-target-triplet" xr:uid="{EFBBCE90-7311-45FC-B707-92A6E1252460}"/>
+    <hyperlink ref="B1752" r:id="rId1491" xr:uid="{B409B537-7A7A-463A-A75E-53528F8E2853}"/>
+    <hyperlink ref="B1747" r:id="rId1492" xr:uid="{02C2B215-E3E3-4548-A2F1-DDB689E2C454}"/>
+    <hyperlink ref="B1743" r:id="rId1493" display="https://leetcode.com/problems/delete-duplicate-folders-in-system" xr:uid="{16B4D03D-ED3A-423A-8036-4E96E3C16067}"/>
+    <hyperlink ref="B1739" r:id="rId1494" xr:uid="{7C979346-7740-4A52-9F7D-050A4F57896C}"/>
+    <hyperlink ref="B1729" r:id="rId1495" display="https://leetcode.com/problems/painting-a-grid-with-three-different-colors" xr:uid="{B5ED7AD1-6A0E-45F7-B1AC-3F3817E32416}"/>
+    <hyperlink ref="B1726" r:id="rId1496" display="Minimum Cost to Reach Destination i" xr:uid="{3D85BE5F-F0CC-42FF-A640-8A8AE91D07EA}"/>
+    <hyperlink ref="B1713" r:id="rId1497" display="https://leetcode.com/problems/design-movie-rental-system" xr:uid="{19AF9215-7A21-4D3F-A616-43F376496623}"/>
+    <hyperlink ref="B1727" r:id="rId1498" display="https://leetcode.com/problems/concatenation-of-array" xr:uid="{4408C4DB-4EB9-4846-9A9D-74A69E6FC083}"/>
+    <hyperlink ref="B1707" r:id="rId1499" display="https://leetcode.com/problems/count-sub-islands" xr:uid="{618FF829-5060-41A7-93F8-CF7981307DFA}"/>
+    <hyperlink ref="B1706" r:id="rId1500" xr:uid="{3A86AED8-C09D-4BCF-A1D4-ADDD6E740309}"/>
+    <hyperlink ref="B1723" r:id="rId1501" display="https://leetcode.com/problems/count-square-sum-triples" xr:uid="{B8E45F4A-37F7-4057-AB54-687DAEB27C7E}"/>
+    <hyperlink ref="B1744" r:id="rId1502" display="https://leetcode.com/problems/three-divisors" xr:uid="{3D0A8A80-CBA1-408D-A123-C27B4A097F3A}"/>
+    <hyperlink ref="B1711" r:id="rId1503" display="https://leetcode.com/problems/remove-all-occurrences-of-a-substring" xr:uid="{1FD774A7-EA6E-486E-B5B2-4DB1A2CAD603}"/>
+    <hyperlink ref="B1712" r:id="rId1504" display="https://leetcode.com/problems/maximum-alternating-subsequence-sum" xr:uid="{FD99D4AE-DB21-4402-8FA7-0B910189496A}"/>
+    <hyperlink ref="B1719" r:id="rId1505" display="https://leetcode.com/problems/eliminate-maximum-number-of-monsters" xr:uid="{2F2B9E94-63AD-422B-9A63-FD6F7EE7C629}"/>
+    <hyperlink ref="B1720" r:id="rId1506" display="https://leetcode.com/problems/count-good-numbers" xr:uid="{0D5DDF79-C46F-494C-9766-0E840A482CBC}"/>
+    <hyperlink ref="B1724" r:id="rId1507" display="https://leetcode.com/problems/nearest-exit-from-entrance-in-maze" xr:uid="{D6319B8E-5A12-491E-9CED-BE4A97644B7D}"/>
+    <hyperlink ref="B1725" r:id="rId1508" display="https://leetcode.com/problems/sum-game" xr:uid="{7257B159-3AAE-49C8-A194-28A7B0536879}"/>
+    <hyperlink ref="B1728" r:id="rId1509" display="https://leetcode.com/problems/unique-length-3-palindromic-subsequences" xr:uid="{3E328985-E0C1-4515-AD87-7AEBCA16FAC1}"/>
+    <hyperlink ref="B1733" r:id="rId1510" display="https://leetcode.com/problems/add-minimum-number-of-rungs" xr:uid="{5BA1D979-BF40-48B3-A017-A1F66313C277}"/>
+    <hyperlink ref="B1734" r:id="rId1511" display="https://leetcode.com/problems/maximum-number-of-points-with-cost" xr:uid="{046C6A21-E955-49B6-9C89-B84CCB55AE5A}"/>
+    <hyperlink ref="B1737" r:id="rId1512" xr:uid="{6CD14534-BD2F-4FB2-9ED6-FA0B3F435F34}"/>
+    <hyperlink ref="B1738" r:id="rId1513" display="https://leetcode.com/problems/describe-the-painting" xr:uid="{DA3A709A-251A-4B40-A861-28FC5064A859}"/>
+    <hyperlink ref="B1741" r:id="rId1514" display="https://leetcode.com/problems/largest-number-after-mutating-substring" xr:uid="{4886B7BF-B766-44D2-92F9-16172E855E7A}"/>
+    <hyperlink ref="B1742" r:id="rId1515" display="https://leetcode.com/problems/maximum-compatibility-score-sum" xr:uid="{6AA7EF38-CB22-4349-9BCA-68EEDB6BA60F}"/>
+    <hyperlink ref="B1745" r:id="rId1516" xr:uid="{780DD737-38FC-4E52-8E17-E1ED7D4828C2}"/>
+    <hyperlink ref="B1746" r:id="rId1517" xr:uid="{BD5305FA-C3E6-436C-A3A3-3B2AEC015409}"/>
+    <hyperlink ref="B1750" r:id="rId1518" display="https://leetcode.com/problems/check-if-move-is-legal" xr:uid="{037D07CA-C5E5-46F7-8A15-FF086FD68CEA}"/>
+    <hyperlink ref="B1751" r:id="rId1519" xr:uid="{4514D26A-1DEB-4898-B0C0-E35C803A917D}"/>
+    <hyperlink ref="B1753" r:id="rId1520" display="https://leetcode.com/problems/check-if-string-is-a-prefix-of-array" xr:uid="{ED238B07-DD69-47D7-9C99-70206F56431B}"/>
+    <hyperlink ref="B1754" r:id="rId1521" display="https://leetcode.com/problems/remove-stones-to-minimize-the-total" xr:uid="{A477D00D-45DD-4A17-8EC1-CAB601E47AFE}"/>
+    <hyperlink ref="B1755" r:id="rId1522" xr:uid="{7AED54AB-CAC5-468D-AEA4-30EF78C123D5}"/>
+    <hyperlink ref="B1756" r:id="rId1523" xr:uid="{C8B643C6-E285-4944-9FD0-0F3F95420C77}"/>
+    <hyperlink ref="B1757" r:id="rId1524" display="https://leetcode.com/problems/number-of-strings-that-appear-as-substrings-in-word" xr:uid="{9D135439-6404-469A-B0F3-B3CB3CC48006}"/>
+    <hyperlink ref="B1758" r:id="rId1525" xr:uid="{2D13F7E0-CA9F-41A5-9A27-D14C8E89D1D6}"/>
+    <hyperlink ref="B1759" r:id="rId1526" xr:uid="{6F03E324-C26B-45D0-A69E-667D05BCF4A6}"/>
+    <hyperlink ref="B1760" r:id="rId1527" display="https://leetcode.com/problems/last-day-where-you-can-still-cross" xr:uid="{6C0C733A-DFFC-47C4-8A74-549CE9EEC902}"/>
+    <hyperlink ref="B1761" r:id="rId1528" display="https://leetcode.com/problems/find-if-path-exists-in-graph" xr:uid="{280D74AA-F965-40BB-989B-D14BCDFED54C}"/>
+    <hyperlink ref="B1762" r:id="rId1529" xr:uid="{4E722A0F-0542-4D0F-944F-81A1882BDB67}"/>
+    <hyperlink ref="B1763" r:id="rId1530" display="https://leetcode.com/problems/maximum-matrix-sum" xr:uid="{85554A11-E7CC-4623-9832-CA974B90C2B5}"/>
+    <hyperlink ref="B1764" r:id="rId1531" display="https://leetcode.com/problems/number-of-ways-to-arrive-at-destination" xr:uid="{7C2B1C34-BFA8-4D6A-8BFD-2D13258003E9}"/>
+    <hyperlink ref="B1765" r:id="rId1532" display="https://leetcode.com/problems/number-of-ways-to-separate-numbers" xr:uid="{A1CD6E14-B30D-48A8-9C50-989B50718C66}"/>
+    <hyperlink ref="B1766" r:id="rId1533" display="https://leetcode.com/problems/find-greatest-common-divisor-of-array" xr:uid="{F13EAFBC-B285-401C-91EE-AC9A939A3669}"/>
+    <hyperlink ref="B1767" r:id="rId1534" display="https://leetcode.com/problems/find-unique-binary-string" xr:uid="{7ED88115-1A51-43E5-9996-61390F3D3742}"/>
+    <hyperlink ref="B1768" r:id="rId1535" xr:uid="{307A70C2-1A17-4713-8815-4B08BE79BC16}"/>
+    <hyperlink ref="B1769" r:id="rId1536" display="https://leetcode.com/problems/find-array-given-subset-sums" xr:uid="{24E810D6-01EB-4D57-B971-B9D6AD7C8465}"/>
+    <hyperlink ref="B1770" r:id="rId1537" xr:uid="{3AC2DE31-2D9A-47A8-BD4F-9E1BA94A6DBE}"/>
+    <hyperlink ref="B1771" r:id="rId1538" display="https://leetcode.com/problems/find-the-kth-largest-integer-in-the-array" xr:uid="{0E5050F7-33DD-4568-A9C5-F0BF63ABEF41}"/>
+    <hyperlink ref="B1772" r:id="rId1539" xr:uid="{74CBB63A-C6EA-4857-9FF1-DE3E60CAE238}"/>
+    <hyperlink ref="B1773" r:id="rId1540" display="https://leetcode.com/problems/number-of-unique-good-subsequences" xr:uid="{853BAECC-5442-42F3-89D7-4E811047F33B}"/>
+    <hyperlink ref="B1774" r:id="rId1541" display="https://leetcode.com/problems/find-the-middle-index-in-array" xr:uid="{D5BD54BC-4C9D-4080-92AB-7E0AD5447197}"/>
+    <hyperlink ref="B1775" r:id="rId1542" display="https://leetcode.com/problems/find-all-groups-of-farmland" xr:uid="{FA8829D0-40F2-4ECC-B6CF-DF0CB80F6744}"/>
+    <hyperlink ref="B1776" r:id="rId1543" display="https://leetcode.com/problems/operations-on-tree" xr:uid="{686B754D-FA97-4909-9B6F-604722737483}"/>
+    <hyperlink ref="B1777" r:id="rId1544" display="https://leetcode.com/problems/the-number-of-good-subsets" xr:uid="{CB7AE48D-6C96-4D56-9DD1-F6A59CF37370}"/>
+    <hyperlink ref="B1778" r:id="rId1545" display="https://leetcode.com/problems/count-special-quadruplets" xr:uid="{661C9BC6-DD29-4EEE-BDF8-A0046C960AAA}"/>
+    <hyperlink ref="B1779" r:id="rId1546" xr:uid="{4367FE0D-6B66-4E7B-B67D-D44932CCF53D}"/>
+    <hyperlink ref="B1781" r:id="rId1547" display="https://leetcode.com/problems/gcd-sort-of-an-array" xr:uid="{D51FF9FA-E1D0-4876-9671-0BECACA20C8E}"/>
+    <hyperlink ref="B1780" r:id="rId1548" xr:uid="{440A2BB5-BF04-43D0-B17E-3DB556DFF3D2}"/>
+    <hyperlink ref="B1782" r:id="rId1549" display="https://leetcode.com/problems/reverse-prefix-of-word" xr:uid="{CB9978C3-6422-40BB-8564-3202082A0B1A}"/>
+    <hyperlink ref="B1783" r:id="rId1550" xr:uid="{7923A955-AD8E-4813-A991-8D8A22CAA454}"/>
+    <hyperlink ref="B1784" r:id="rId1551" display="https://leetcode.com/problems/maximum-product-of-the-length-of-two-palindromic-subsequences" xr:uid="{8F9B0876-A47C-4346-BB3A-B28A932D0561}"/>
+    <hyperlink ref="B1785" r:id="rId1552" display="https://leetcode.com/problems/smallest-missing-genetic-value-in-each-subtree" xr:uid="{7B841850-C4EB-4B17-86ED-3C469EA47416}"/>
+    <hyperlink ref="B1787" r:id="rId1553" xr:uid="{8B9BFB7A-1876-405D-81AE-5D45D7B9CC99}"/>
+    <hyperlink ref="B1788" r:id="rId1554" display="https://leetcode.com/problems/find-original-array-from-doubled-array" xr:uid="{941F4524-2AB9-4B82-8506-2B0DDAE8E0C8}"/>
+    <hyperlink ref="B1789" r:id="rId1555" display="https://leetcode.com/problems/maximum-earnings-from-taxi" xr:uid="{2C7D8613-3F51-4CE1-89B7-0D2175417F32}"/>
+    <hyperlink ref="B1790" r:id="rId1556" display="https://leetcode.com/problems/minimum-number-of-operations-to-make-array-continuous" xr:uid="{7CA9A60C-BA8C-481E-B3A3-B022E1E11E93}"/>
+    <hyperlink ref="B1791" r:id="rId1557" display="https://leetcode.com/problems/final-value-of-variable-after-performing-operations" xr:uid="{878BB048-0ECD-4FAC-A96B-1A705EB95DEF}"/>
+    <hyperlink ref="B1792" r:id="rId1558" display="https://leetcode.com/problems/sum-of-beauty-in-the-array" xr:uid="{73619F0E-5E06-4E41-906A-4E0AE98A22B5}"/>
+    <hyperlink ref="B1793" r:id="rId1559" display="https://leetcode.com/problems/detect-squares" xr:uid="{973708F6-B02C-4F3B-9CD7-658CC285620D}"/>
+    <hyperlink ref="B1794" r:id="rId1560" display="https://leetcode.com/problems/longest-subsequence-repeated-k-times" xr:uid="{4C762D87-A9C5-4BD4-912E-7DF86A9410E2}"/>
+    <hyperlink ref="B1795" r:id="rId1561" xr:uid="{FCD62007-CC5B-42E2-9137-1D08C11A57E4}"/>
+    <hyperlink ref="B1796" r:id="rId1562" display="https://leetcode.com/problems/grid-game" xr:uid="{6BAF02C7-CF0B-4611-97F7-71B80B95A205}"/>
+    <hyperlink ref="B1797" r:id="rId1563" display="https://leetcode.com/problems/check-if-word-can-be-placed-in-crossword" xr:uid="{302A26FF-631E-42F2-9B60-01DDABC35248}"/>
+    <hyperlink ref="B1798" r:id="rId1564" display="https://leetcode.com/problems/the-score-of-students-solving-math-expression" xr:uid="{3D10BE58-1B14-440E-9A39-40F0A7CCC3A0}"/>
+    <hyperlink ref="B1799" r:id="rId1565" display="https://leetcode.com/problems/convert-1d-array-into-2d-array" xr:uid="{412ED7EE-16C1-4FBE-88AA-44300DC61B17}"/>
+    <hyperlink ref="B1800" r:id="rId1566" display="https://leetcode.com/problems/number-of-pairs-of-strings-with-concatenation-equal-to-target" xr:uid="{EDEDBE97-30D3-4D23-9530-0C8A3F620EE6}"/>
+    <hyperlink ref="B1801" r:id="rId1567" display="https://leetcode.com/problems/maximize-the-confusion-of-an-exam" xr:uid="{B38DEE78-20CA-494E-8F19-7DDF232265F7}"/>
+    <hyperlink ref="B1802" r:id="rId1568" display="https://leetcode.com/problems/maximum-number-of-ways-to-partition-an-array" xr:uid="{327D7573-701B-491A-A079-084FB4CF6A48}"/>
+    <hyperlink ref="B1803" r:id="rId1569" display="https://leetcode.com/problems/minimum-moves-to-convert-string" xr:uid="{560091BE-B96B-42CB-A09B-F78B509005A6}"/>
+    <hyperlink ref="B1804" r:id="rId1570" display="https://leetcode.com/problems/find-missing-observations" xr:uid="{9490467D-B31C-44AF-8D15-79AB6781FC3C}"/>
+    <hyperlink ref="B1805" r:id="rId1571" display="https://leetcode.com/problems/stone-game-ix" xr:uid="{C7AA6D81-752C-425D-81DA-FAF27F7ED6FA}"/>
+    <hyperlink ref="B1806" r:id="rId1572" display="https://leetcode.com/problems/smallest-k-length-subsequence-with-occurrences-of-a-letter" xr:uid="{A5C04344-98FD-4F50-9D84-0FBA98FAC48B}"/>
+    <hyperlink ref="B1807" r:id="rId1573" display="https://leetcode.com/problems/two-out-of-three" xr:uid="{1AB7FC97-05A8-468E-8041-87C042662734}"/>
+    <hyperlink ref="B1808" r:id="rId1574" display="https://leetcode.com/problems/minimum-operations-to-make-a-uni-value-grid" xr:uid="{1D7594B8-D9EF-44A3-A181-5F380536D6FE}"/>
+    <hyperlink ref="B1809" r:id="rId1575" display="https://leetcode.com/problems/stock-price-fluctuation" xr:uid="{B4C0146B-D639-4321-83F0-6D26A81FB65F}"/>
+    <hyperlink ref="B1810" r:id="rId1576" display="https://leetcode.com/problems/partition-array-into-two-arrays-to-minimize-sum-difference" xr:uid="{82903DBE-FBC3-4832-A02A-38C1AC13E633}"/>
+    <hyperlink ref="B1812" r:id="rId1577" xr:uid="{6912978A-59D7-4A0E-A334-53B5396D5C1C}"/>
+    <hyperlink ref="B1811" r:id="rId1578" xr:uid="{20A5B385-905C-42AF-B96A-DC35E88CE4A9}"/>
+    <hyperlink ref="B1813" r:id="rId1579" display="https://leetcode.com/problems/the-time-when-the-network-becomes-idle" xr:uid="{6A5AC808-A088-406E-A668-EA5C0F6DB789}"/>
+    <hyperlink ref="B1814" r:id="rId1580" display="https://leetcode.com/problems/kth-smallest-product-of-two-sorted-arrays" xr:uid="{1E18156F-9CDF-492F-A500-95FD1C862605}"/>
+    <hyperlink ref="B1815" r:id="rId1581" display="https://leetcode.com/problems/check-if-numbers-are-ascending-in-a-sentence" xr:uid="{D07DC893-5260-4C94-B0C7-FADCEA7F501B}"/>
+    <hyperlink ref="B1816" r:id="rId1582" display="https://leetcode.com/problems/simple-bank-system" xr:uid="{2D5E5F4E-907C-4728-A902-7D10B6514920}"/>
+    <hyperlink ref="B1817" r:id="rId1583" xr:uid="{D5EDB803-F602-4ABD-9E68-1113D2A2A40A}"/>
+    <hyperlink ref="B1818" r:id="rId1584" display="https://leetcode.com/problems/second-minimum-time-to-reach-destination" xr:uid="{6ACF2F93-7EDE-4F1E-AA71-8112DE7ABF63}"/>
+    <hyperlink ref="B1819" r:id="rId1585" display="https://leetcode.com/problems/number-of-valid-words-in-a-sentence" xr:uid="{BCE84EEA-54FF-4E5A-9955-C02227468918}"/>
+    <hyperlink ref="B1820" r:id="rId1586" display="https://leetcode.com/problems/next-greater-numerically-balanced-number" xr:uid="{9FD27FA2-0676-4160-BC27-2E0F89E752A4}"/>
+    <hyperlink ref="B1821" r:id="rId1587" display="https://leetcode.com/problems/count-nodes-with-the-highest-score" xr:uid="{F7F71D15-EF63-42B1-BD71-1EB9E5AFAAEC}"/>
+    <hyperlink ref="B1822" r:id="rId1588" display="https://leetcode.com/problems/parallel-courses-iii" xr:uid="{10B385A3-FDEE-4123-AC9C-4F7EF85C3982}"/>
+    <hyperlink ref="B1823" r:id="rId1589" display="https://leetcode.com/problems/kth-distinct-string-in-an-array" xr:uid="{C8004808-B8BB-4E39-B2BC-980704DF7D4E}"/>
+    <hyperlink ref="B1824" r:id="rId1590" display="https://leetcode.com/problems/two-best-non-overlapping-events" xr:uid="{F29009B4-E1BD-443F-8480-1775C9682530}"/>
+    <hyperlink ref="B1825" r:id="rId1591" display="https://leetcode.com/problems/plates-between-candles" xr:uid="{A118D0C8-0288-4E36-8D25-A4774630A76B}"/>
+    <hyperlink ref="B1826" r:id="rId1592" display="https://leetcode.com/problems/number-of-valid-move-combinations-on-chessboard" xr:uid="{AEC5E678-B4A1-445C-B8F4-DE74236CAC53}"/>
+    <hyperlink ref="B1827" r:id="rId1593" display="https://leetcode.com/problems/smallest-index-with-equal-value" xr:uid="{E7A8904C-9D51-49EC-A910-9EE0B60892CD}"/>
+    <hyperlink ref="B1828" r:id="rId1594" display="https://leetcode.com/problems/find-the-minimum-and-maximum-number-of-nodes-between-critical-points" xr:uid="{0AC3439C-F776-4E62-B906-4FEDA4902BCA}"/>
+    <hyperlink ref="B1829" r:id="rId1595" display="https://leetcode.com/problems/minimum-operations-to-convert-number" xr:uid="{E72F9ECF-969F-4732-A4BD-D6C619ECE110}"/>
+    <hyperlink ref="B1830" r:id="rId1596" display="https://leetcode.com/problems/check-if-an-original-string-exists-given-two-encoded-strings" xr:uid="{0E2F5BE6-4251-43B0-902E-665D40B08A24}"/>
     <hyperlink ref="B605" r:id="rId1597" display="https://leetcode.com/problems/robot-return-to-origin" xr:uid="{F90BDC0D-FA70-41A1-A23C-878C1C1627B7}"/>
-    <hyperlink ref="B1714" r:id="rId1598" display="https://leetcode.com/problems/number-of-wonderful-substrings" xr:uid="{9423D426-30DB-4078-B23A-2E94A3A02AA3}"/>
-    <hyperlink ref="B1828" r:id="rId1599" display="https://leetcode.com/problems/count-vowel-substrings-of-a-string" xr:uid="{7FCC5F29-7C62-4374-B0A9-2ABCC18104A5}"/>
-    <hyperlink ref="B1829" r:id="rId1600" display="https://leetcode.com/problems/vowels-of-all-substrings" xr:uid="{46C4B1C2-365D-40D1-B052-A17550370995}"/>
-    <hyperlink ref="B1830" r:id="rId1601" display="https://leetcode.com/problems/minimized-maximum-of-products-distributed-to-any-store" xr:uid="{10A9FF8C-86AD-4D91-B020-A08498C62B37}"/>
-    <hyperlink ref="B1831" r:id="rId1602" display="https://leetcode.com/problems/maximum-path-quality-of-a-graph" xr:uid="{0B2D1EBB-160D-4ED4-8B55-CE1BD0869125}"/>
-    <hyperlink ref="B1832" r:id="rId1603" xr:uid="{BB09D143-36DB-4DAD-8C50-2059028F1FE9}"/>
-    <hyperlink ref="B1843" r:id="rId1604" display="https://leetcode.com/problems/sum-of-k-mirror-numbers" xr:uid="{F0650F51-568A-4717-BC19-ABB1B6FFFDEC}"/>
-    <hyperlink ref="B1842" r:id="rId1605" display="https://leetcode.com/problems/range-frequency-queries" xr:uid="{1E229C2A-34B8-4A81-B0C6-5A3AD71CCF39}"/>
-    <hyperlink ref="B1841" r:id="rId1606" display="https://leetcode.com/problems/watering-plants" xr:uid="{A7EF29DE-DB3D-46A9-905D-C48EDDF5C996}"/>
-    <hyperlink ref="B1840" r:id="rId1607" display="https://leetcode.com/problems/two-furthest-houses-with-different-colors" xr:uid="{37BA5D04-9AF4-4ECA-A97D-39D90F766EF4}"/>
-    <hyperlink ref="B1839" r:id="rId1608" display="https://leetcode.com/problems/process-restricted-friend-requests" xr:uid="{C99C6F0C-8C7B-4E62-8AC6-A5A8F82F0410}"/>
-    <hyperlink ref="B1838" r:id="rId1609" display="https://leetcode.com/problems/decode-the-slanted-ciphertext" xr:uid="{2350D7FD-D03A-41C6-90F8-670D922F7173}"/>
-    <hyperlink ref="B1837" r:id="rId1610" display="https://leetcode.com/problems/reverse-nodes-in-even-length-groups" xr:uid="{D9BBD886-602B-46F9-97D3-B4CD877C9459}"/>
-    <hyperlink ref="B1836" r:id="rId1611" display="https://leetcode.com/problems/time-needed-to-buy-tickets" xr:uid="{B62F15D1-AFD5-4E07-A951-E2E37A83C871}"/>
-    <hyperlink ref="B1835" r:id="rId1612" display="https://leetcode.com/problems/maximum-number-of-tasks-you-can-assign" xr:uid="{953AE036-BD94-4947-9D3F-2342559633D4}"/>
-    <hyperlink ref="B1834" r:id="rId1613" display="https://leetcode.com/problems/most-beautiful-item-for-each-query" xr:uid="{285617BD-2F3A-412A-8F56-D5D10E9F2FA7}"/>
-    <hyperlink ref="B1833" r:id="rId1614" display="https://leetcode.com/problems/walking-robot-simulation-ii" xr:uid="{D2D1B95C-0388-40D9-8577-069CD220E305}"/>
-    <hyperlink ref="B1707" r:id="rId1615" display="https://leetcode.com/problems/game-of-nim" xr:uid="{F7C1BC10-B697-4EAB-BF17-994FAC810FD6}"/>
-    <hyperlink ref="B1783" r:id="rId1616" display="https://leetcode.com/problems/subtree-removal-game-with-fibonacci-tree" xr:uid="{17B02D5B-1FCE-4E9C-8C56-6E4E46955393}"/>
-    <hyperlink ref="B1720" r:id="rId1617" display="https://leetcode.com/problems/erect-the-fence-ii" xr:uid="{163A8356-4805-4487-9659-BAA81F2755CA}"/>
-    <hyperlink ref="B1643" r:id="rId1618" display="https://leetcode.com/problems/faulty-sensor" xr:uid="{B9B12B92-B700-41FD-9C71-DA8C65C7F8B1}"/>
-    <hyperlink ref="B1613" r:id="rId1619" display="https://leetcode.com/problems/maximize-the-beauty-of-the-garden" xr:uid="{4C08B654-05A0-43E7-823B-C1078A0C20EE}"/>
-    <hyperlink ref="B1656" r:id="rId1620" display="https://leetcode.com/problems/next-palindrome-using-same-digits" xr:uid="{F261E6B6-D5B7-4AC3-A1A5-61C002B301AB}"/>
-    <hyperlink ref="B1745" r:id="rId1621" display="https://leetcode.com/problems/minimum-time-for-k-virus-variants-to-spread" xr:uid="{C3148FB5-10D8-401C-A298-918872231696}"/>
+    <hyperlink ref="B1716" r:id="rId1598" display="https://leetcode.com/problems/number-of-wonderful-substrings" xr:uid="{9423D426-30DB-4078-B23A-2E94A3A02AA3}"/>
+    <hyperlink ref="B1831" r:id="rId1599" display="https://leetcode.com/problems/count-vowel-substrings-of-a-string" xr:uid="{7FCC5F29-7C62-4374-B0A9-2ABCC18104A5}"/>
+    <hyperlink ref="B1832" r:id="rId1600" display="https://leetcode.com/problems/vowels-of-all-substrings" xr:uid="{46C4B1C2-365D-40D1-B052-A17550370995}"/>
+    <hyperlink ref="B1833" r:id="rId1601" display="https://leetcode.com/problems/minimized-maximum-of-products-distributed-to-any-store" xr:uid="{10A9FF8C-86AD-4D91-B020-A08498C62B37}"/>
+    <hyperlink ref="B1834" r:id="rId1602" display="https://leetcode.com/problems/maximum-path-quality-of-a-graph" xr:uid="{0B2D1EBB-160D-4ED4-8B55-CE1BD0869125}"/>
+    <hyperlink ref="B1835" r:id="rId1603" xr:uid="{BB09D143-36DB-4DAD-8C50-2059028F1FE9}"/>
+    <hyperlink ref="B1846" r:id="rId1604" display="https://leetcode.com/problems/sum-of-k-mirror-numbers" xr:uid="{F0650F51-568A-4717-BC19-ABB1B6FFFDEC}"/>
+    <hyperlink ref="B1845" r:id="rId1605" display="https://leetcode.com/problems/range-frequency-queries" xr:uid="{1E229C2A-34B8-4A81-B0C6-5A3AD71CCF39}"/>
+    <hyperlink ref="B1844" r:id="rId1606" display="https://leetcode.com/problems/watering-plants" xr:uid="{A7EF29DE-DB3D-46A9-905D-C48EDDF5C996}"/>
+    <hyperlink ref="B1843" r:id="rId1607" display="https://leetcode.com/problems/two-furthest-houses-with-different-colors" xr:uid="{37BA5D04-9AF4-4ECA-A97D-39D90F766EF4}"/>
+    <hyperlink ref="B1842" r:id="rId1608" display="https://leetcode.com/problems/process-restricted-friend-requests" xr:uid="{C99C6F0C-8C7B-4E62-8AC6-A5A8F82F0410}"/>
+    <hyperlink ref="B1841" r:id="rId1609" display="https://leetcode.com/problems/decode-the-slanted-ciphertext" xr:uid="{2350D7FD-D03A-41C6-90F8-670D922F7173}"/>
+    <hyperlink ref="B1840" r:id="rId1610" display="https://leetcode.com/problems/reverse-nodes-in-even-length-groups" xr:uid="{D9BBD886-602B-46F9-97D3-B4CD877C9459}"/>
+    <hyperlink ref="B1839" r:id="rId1611" display="https://leetcode.com/problems/time-needed-to-buy-tickets" xr:uid="{B62F15D1-AFD5-4E07-A951-E2E37A83C871}"/>
+    <hyperlink ref="B1838" r:id="rId1612" display="https://leetcode.com/problems/maximum-number-of-tasks-you-can-assign" xr:uid="{953AE036-BD94-4947-9D3F-2342559633D4}"/>
+    <hyperlink ref="B1837" r:id="rId1613" display="https://leetcode.com/problems/most-beautiful-item-for-each-query" xr:uid="{285617BD-2F3A-412A-8F56-D5D10E9F2FA7}"/>
+    <hyperlink ref="B1836" r:id="rId1614" display="https://leetcode.com/problems/walking-robot-simulation-ii" xr:uid="{D2D1B95C-0388-40D9-8577-069CD220E305}"/>
+    <hyperlink ref="B1709" r:id="rId1615" display="https://leetcode.com/problems/game-of-nim" xr:uid="{F7C1BC10-B697-4EAB-BF17-994FAC810FD6}"/>
+    <hyperlink ref="B1786" r:id="rId1616" display="https://leetcode.com/problems/subtree-removal-game-with-fibonacci-tree" xr:uid="{17B02D5B-1FCE-4E9C-8C56-6E4E46955393}"/>
+    <hyperlink ref="B1722" r:id="rId1617" display="https://leetcode.com/problems/erect-the-fence-ii" xr:uid="{163A8356-4805-4487-9659-BAA81F2755CA}"/>
+    <hyperlink ref="B1644" r:id="rId1618" display="https://leetcode.com/problems/faulty-sensor" xr:uid="{B9B12B92-B700-41FD-9C71-DA8C65C7F8B1}"/>
+    <hyperlink ref="B1614" r:id="rId1619" display="https://leetcode.com/problems/maximize-the-beauty-of-the-garden" xr:uid="{4C08B654-05A0-43E7-823B-C1078A0C20EE}"/>
+    <hyperlink ref="B1657" r:id="rId1620" display="https://leetcode.com/problems/next-palindrome-using-same-digits" xr:uid="{F261E6B6-D5B7-4AC3-A1A5-61C002B301AB}"/>
+    <hyperlink ref="B1748" r:id="rId1621" display="https://leetcode.com/problems/minimum-time-for-k-virus-variants-to-spread" xr:uid="{C3148FB5-10D8-401C-A298-918872231696}"/>
+    <hyperlink ref="B1847" r:id="rId1622" display="https://leetcode.com/problems/substrings-that-begin-and-end-with-the-same-letter" xr:uid="{1A96836C-C517-44D4-BE69-C35A3422D314}"/>
+    <hyperlink ref="B1848" r:id="rId1623" display="https://leetcode.com/problems/count-common-words-with-one-occurrence" xr:uid="{630A6D17-E28C-4098-AB77-C747F784C276}"/>
+    <hyperlink ref="B1849" r:id="rId1624" display="https://leetcode.com/problems/minimum-number-of-buckets-required-to-collect-rainwater-from-houses" xr:uid="{EF3FA606-DDC8-4678-8304-ED307B2DEFA5}"/>
+    <hyperlink ref="B1850" r:id="rId1625" display="https://leetcode.com/problems/minimum-cost-homecoming-of-a-robot-in-a-grid" xr:uid="{EB28E187-BA64-4B07-A8AF-517C1E5B347D}"/>
+    <hyperlink ref="B1851" r:id="rId1626" display="https://leetcode.com/problems/count-fertile-pyramids-in-a-land" xr:uid="{A0AE5EA8-B452-4A97-AB6E-EE8BB9FC7139}"/>
+    <hyperlink ref="B1852" r:id="rId1627" display="https://leetcode.com/problems/find-target-indices-after-sorting-array" xr:uid="{2FACAB89-3C3B-4D3D-AE5D-A25342EA2DFE}"/>
+    <hyperlink ref="B1853" r:id="rId1628" display="https://leetcode.com/problems/k-radius-subarray-averages" xr:uid="{B1B5727F-2B0E-466D-88BC-9117D19D2707}"/>
+    <hyperlink ref="B1854" r:id="rId1629" display="https://leetcode.com/problems/removing-minimum-and-maximum-from-array" xr:uid="{2EF3E8B8-45ED-464B-BC2C-DDF6408612CE}"/>
+    <hyperlink ref="B1855" r:id="rId1630" display="https://leetcode.com/problems/find-all-people-with-secret" xr:uid="{68D82AB9-0DC2-4905-B285-710D207BC1F4}"/>
+    <hyperlink ref="B1856" r:id="rId1631" display="https://leetcode.com/problems/minimum-cost-to-reach-city-with-discounts" xr:uid="{F946E785-616E-4505-8314-3D44773E90A0}"/>
+    <hyperlink ref="B1682" r:id="rId1632" display="https://leetcode.com/problems/minimize-product-sum-of-two-arrays" xr:uid="{DB973D4E-5CC5-44D0-B497-F5D58E80E896}"/>
+    <hyperlink ref="B1603" r:id="rId1633" display="https://leetcode.com/problems/sort-features-by-popularity" xr:uid="{0A19E2C6-068B-4B27-AA59-A0D28BDABF3B}"/>
+    <hyperlink ref="B1731" r:id="rId1634" display="https://leetcode.com/problems/check-if-string-is-decomposable-into-value-equal-substrings" xr:uid="{BFF77354-A49F-4852-988D-F79B7794C549}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1622"/>
-  <drawing r:id="rId1623"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1635"/>
+  <drawing r:id="rId1636"/>
 </worksheet>
 </file>
 

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8A1465C-8D3D-4A1A-9B83-EFE82613FCB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79E70846-A719-422E-93BE-580CE4F1FE9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="SQL" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'LeetCode Algorithm'!$A$1:$J$1859</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'LeetCode Algorithm'!$A$1:$J$1861</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10112" uniqueCount="3706">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10152" uniqueCount="3716">
   <si>
     <t>Difficulty</t>
   </si>
@@ -11155,6 +11155,36 @@
   </si>
   <si>
     <t>Recursive call with one 2 letters and others with 3 letters</t>
+  </si>
+  <si>
+    <t>Car Fleet II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Discard cars in front either too fast to catch up or already merged with others </t>
+  </si>
+  <si>
+    <t>Binary Searchable Numbers in an Unsorted Array</t>
+  </si>
+  <si>
+    <t>Check numbers with maximum left less than it and minimum right greater than it</t>
+  </si>
+  <si>
+    <t>Sort number in even then in odd, wiggle sort</t>
+  </si>
+  <si>
+    <t>check blank left to right or up to down with word size and match word or reverse word</t>
+  </si>
+  <si>
+    <t>A simple DFS without memorization</t>
+  </si>
+  <si>
+    <t>3 ^ N</t>
+  </si>
+  <si>
+    <t>Right slash scan, check column not beyond scope and remove space in the end</t>
+  </si>
+  <si>
+    <t>Shortest Path on secret exchange time</t>
   </si>
 </sst>
 </file>
@@ -11199,7 +11229,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -11307,6 +11337,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -11699,10 +11730,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J1859"/>
+  <dimension ref="A1:J1861"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1788" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A1794" sqref="A1794"/>
+    <sheetView tabSelected="1" topLeftCell="A1847" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A1847" sqref="A1847"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -50114,160 +50145,163 @@
         <v>2991</v>
       </c>
     </row>
-    <row r="1606" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1606" s="71">
-        <v>1779</v>
+    <row r="1606" spans="1:9" s="105" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1606" s="105">
+        <v>1776</v>
       </c>
       <c r="B1606" s="1" t="s">
-        <v>3127</v>
-      </c>
-      <c r="C1606" s="71">
-        <v>1</v>
-      </c>
-      <c r="D1606" s="71" t="s">
-        <v>1711</v>
-      </c>
-      <c r="F1606" s="71" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1606" s="71" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1606" s="71" t="s">
-        <v>3153</v>
-      </c>
-      <c r="I1606" s="71" t="s">
+        <v>3706</v>
+      </c>
+      <c r="C1606" s="105">
+        <v>4</v>
+      </c>
+      <c r="D1606" s="105" t="s">
+        <v>1714</v>
+      </c>
+      <c r="E1606" s="105" t="s">
+        <v>2926</v>
+      </c>
+      <c r="F1606" s="105" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1606" s="105" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1606" s="105" t="s">
+        <v>3707</v>
+      </c>
+      <c r="I1606" s="105" t="s">
         <v>2991</v>
       </c>
     </row>
     <row r="1607" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1607" s="71">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="B1607" s="1" t="s">
-        <v>3126</v>
+        <v>3127</v>
       </c>
       <c r="C1607" s="71">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1607" s="71" t="s">
-        <v>1714</v>
+        <v>1711</v>
       </c>
       <c r="F1607" s="71" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G1607" s="71" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H1607" s="71" t="s">
-        <v>3154</v>
+        <v>3153</v>
       </c>
       <c r="I1607" s="71" t="s">
-        <v>2993</v>
+        <v>2991</v>
       </c>
     </row>
     <row r="1608" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1608" s="71">
+        <v>1780</v>
+      </c>
+      <c r="B1608" s="1" t="s">
+        <v>3126</v>
+      </c>
+      <c r="C1608" s="71">
+        <v>2</v>
+      </c>
+      <c r="D1608" s="71" t="s">
+        <v>1714</v>
+      </c>
+      <c r="F1608" s="71" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1608" s="71" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1608" s="71" t="s">
+        <v>3154</v>
+      </c>
+      <c r="I1608" s="71" t="s">
+        <v>2993</v>
+      </c>
+    </row>
+    <row r="1609" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1609" s="71">
         <v>1781</v>
       </c>
-      <c r="B1608" s="1" t="s">
+      <c r="B1609" s="1" t="s">
         <v>3125</v>
       </c>
-      <c r="C1608" s="71">
-        <v>3</v>
-      </c>
-      <c r="D1608" s="71" t="s">
-        <v>1714</v>
-      </c>
-      <c r="E1608" s="71" t="s">
+      <c r="C1609" s="71">
+        <v>3</v>
+      </c>
+      <c r="D1609" s="71" t="s">
+        <v>1714</v>
+      </c>
+      <c r="E1609" s="71" t="s">
         <v>2926</v>
       </c>
-      <c r="F1608" s="71" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1608" s="71" t="s">
+      <c r="F1609" s="71" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1609" s="71" t="s">
         <v>36</v>
       </c>
-      <c r="H1608" s="71" t="s">
+      <c r="H1609" s="71" t="s">
         <v>3155</v>
       </c>
-      <c r="I1608" s="71" t="s">
+      <c r="I1609" s="71" t="s">
         <v>3156</v>
       </c>
     </row>
-    <row r="1609" spans="1:9" s="75" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1609" s="75">
+    <row r="1610" spans="1:9" s="75" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1610" s="75">
         <v>1782</v>
       </c>
-      <c r="B1609" s="1" t="s">
+      <c r="B1610" s="1" t="s">
         <v>3171</v>
       </c>
-      <c r="C1609" s="75">
+      <c r="C1610" s="75">
         <v>4</v>
       </c>
-      <c r="D1609" s="75" t="s">
+      <c r="D1610" s="75" t="s">
         <v>1707</v>
       </c>
-      <c r="F1609" s="75" t="s">
+      <c r="F1610" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="G1609" s="75" t="s">
+      <c r="G1610" s="75" t="s">
         <v>187</v>
       </c>
-      <c r="H1609" s="75" t="s">
+      <c r="H1610" s="75" t="s">
         <v>3172</v>
       </c>
-      <c r="I1609" s="75" t="s">
+      <c r="I1610" s="75" t="s">
         <v>3210</v>
-      </c>
-    </row>
-    <row r="1610" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1610" s="71">
-        <v>1784</v>
-      </c>
-      <c r="B1610" s="1" t="s">
-        <v>3124</v>
-      </c>
-      <c r="C1610" s="71">
-        <v>1</v>
-      </c>
-      <c r="D1610" s="71" t="s">
-        <v>1711</v>
-      </c>
-      <c r="F1610" s="71" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1610" s="71" t="s">
-        <v>36</v>
-      </c>
-      <c r="H1610" s="71" t="s">
-        <v>3157</v>
-      </c>
-      <c r="I1610" s="71" t="s">
-        <v>2991</v>
       </c>
     </row>
     <row r="1611" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1611" s="71">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="B1611" s="1" t="s">
-        <v>3123</v>
+        <v>3124</v>
       </c>
       <c r="C1611" s="71">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1611" s="71" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="F1611" s="71" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G1611" s="71" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="H1611" s="71" t="s">
-        <v>3159</v>
+        <v>3157</v>
       </c>
       <c r="I1611" s="71" t="s">
         <v>2991</v>
@@ -50275,135 +50309,135 @@
     </row>
     <row r="1612" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1612" s="71">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="B1612" s="1" t="s">
-        <v>3122</v>
+        <v>3123</v>
       </c>
       <c r="C1612" s="71">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1612" s="71" t="s">
-        <v>1714</v>
-      </c>
-      <c r="E1612" s="71" t="s">
-        <v>2915</v>
+        <v>1712</v>
       </c>
       <c r="F1612" s="71" t="s">
         <v>9</v>
       </c>
       <c r="G1612" s="71" t="s">
-        <v>187</v>
+        <v>25</v>
       </c>
       <c r="H1612" s="71" t="s">
-        <v>3158</v>
+        <v>3159</v>
       </c>
       <c r="I1612" s="71" t="s">
-        <v>3019</v>
+        <v>2991</v>
       </c>
     </row>
     <row r="1613" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1613" s="71">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="B1613" s="1" t="s">
-        <v>3160</v>
+        <v>3122</v>
       </c>
       <c r="C1613" s="71">
         <v>4</v>
       </c>
       <c r="D1613" s="71" t="s">
+        <v>1714</v>
+      </c>
+      <c r="E1613" s="71" t="s">
+        <v>2915</v>
+      </c>
+      <c r="F1613" s="71" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1613" s="71" t="s">
+        <v>187</v>
+      </c>
+      <c r="H1613" s="71" t="s">
+        <v>3158</v>
+      </c>
+      <c r="I1613" s="71" t="s">
+        <v>3019</v>
+      </c>
+    </row>
+    <row r="1614" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1614" s="71">
+        <v>1787</v>
+      </c>
+      <c r="B1614" s="1" t="s">
+        <v>3160</v>
+      </c>
+      <c r="C1614" s="71">
+        <v>4</v>
+      </c>
+      <c r="D1614" s="71" t="s">
         <v>2801</v>
       </c>
-      <c r="F1613" s="71" t="s">
+      <c r="F1614" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="G1613" s="71" t="s">
+      <c r="G1614" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="H1613" s="71" t="s">
+      <c r="H1614" s="71" t="s">
         <v>3161</v>
       </c>
-      <c r="I1613" s="71" t="s">
+      <c r="I1614" s="71" t="s">
         <v>3013</v>
       </c>
     </row>
-    <row r="1614" spans="1:9" s="103" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1614" s="103">
+    <row r="1615" spans="1:9" s="103" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1615" s="103">
         <v>1788</v>
       </c>
-      <c r="B1614" s="1" t="s">
+      <c r="B1615" s="1" t="s">
         <v>3672</v>
       </c>
-      <c r="C1614" s="103">
+      <c r="C1615" s="103">
         <v>4</v>
       </c>
-      <c r="D1614" s="103" t="s">
-        <v>1714</v>
-      </c>
-      <c r="E1614" s="103" t="s">
+      <c r="D1615" s="103" t="s">
+        <v>1714</v>
+      </c>
+      <c r="E1615" s="103" t="s">
         <v>2926</v>
       </c>
-      <c r="F1614" s="103" t="s">
+      <c r="F1615" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="G1614" s="103" t="s">
+      <c r="G1615" s="103" t="s">
         <v>21</v>
       </c>
-      <c r="H1614" s="103" t="s">
+      <c r="H1615" s="103" t="s">
         <v>3673</v>
       </c>
-      <c r="I1614" s="103" t="s">
-        <v>2991</v>
-      </c>
-    </row>
-    <row r="1615" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1615" s="71">
-        <v>1790</v>
-      </c>
-      <c r="B1615" s="1" t="s">
-        <v>3162</v>
-      </c>
-      <c r="C1615" s="71">
-        <v>1</v>
-      </c>
-      <c r="D1615" s="71" t="s">
-        <v>1711</v>
-      </c>
-      <c r="F1615" s="71" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1615" s="71" t="s">
-        <v>36</v>
-      </c>
-      <c r="H1615" s="71" t="s">
-        <v>3164</v>
-      </c>
-      <c r="I1615" s="71" t="s">
+      <c r="I1615" s="103" t="s">
         <v>2991</v>
       </c>
     </row>
     <row r="1616" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1616" s="71">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="B1616" s="1" t="s">
-        <v>3163</v>
+        <v>3162</v>
       </c>
       <c r="C1616" s="71">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1616" s="71" t="s">
         <v>1711</v>
       </c>
       <c r="F1616" s="71" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G1616" s="71" t="s">
-        <v>187</v>
+        <v>36</v>
       </c>
       <c r="H1616" s="71" t="s">
-        <v>3165</v>
+        <v>3164</v>
       </c>
       <c r="I1616" s="71" t="s">
         <v>2991</v>
@@ -50411,39 +50445,36 @@
     </row>
     <row r="1617" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1617" s="71">
-        <v>1792</v>
+        <v>1791</v>
       </c>
       <c r="B1617" s="1" t="s">
-        <v>3166</v>
+        <v>3163</v>
       </c>
       <c r="C1617" s="71">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1617" s="71" t="s">
-        <v>1714</v>
-      </c>
-      <c r="E1617" s="71" t="s">
-        <v>2914</v>
+        <v>1711</v>
       </c>
       <c r="F1617" s="71" t="s">
         <v>9</v>
       </c>
       <c r="G1617" s="71" t="s">
-        <v>95</v>
+        <v>187</v>
       </c>
       <c r="H1617" s="71" t="s">
-        <v>3170</v>
+        <v>3165</v>
       </c>
       <c r="I1617" s="71" t="s">
-        <v>3019</v>
+        <v>2991</v>
       </c>
     </row>
     <row r="1618" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1618" s="71">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="B1618" s="1" t="s">
-        <v>3167</v>
+        <v>3166</v>
       </c>
       <c r="C1618" s="71">
         <v>4</v>
@@ -50452,82 +50483,82 @@
         <v>1714</v>
       </c>
       <c r="E1618" s="71" t="s">
-        <v>2926</v>
+        <v>2914</v>
       </c>
       <c r="F1618" s="71" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G1618" s="71" t="s">
-        <v>21</v>
+        <v>95</v>
       </c>
       <c r="H1618" s="71" t="s">
-        <v>3168</v>
+        <v>3170</v>
       </c>
       <c r="I1618" s="71" t="s">
-        <v>3169</v>
+        <v>3019</v>
       </c>
     </row>
     <row r="1619" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1619" s="71">
-        <v>1796</v>
+        <v>1793</v>
       </c>
       <c r="B1619" s="1" t="s">
-        <v>3178</v>
+        <v>3167</v>
       </c>
       <c r="C1619" s="71">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1619" s="71" t="s">
-        <v>1711</v>
+        <v>1714</v>
+      </c>
+      <c r="E1619" s="71" t="s">
+        <v>2926</v>
       </c>
       <c r="F1619" s="71" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G1619" s="71" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="H1619" s="71" t="s">
-        <v>3185</v>
+        <v>3168</v>
       </c>
       <c r="I1619" s="71" t="s">
-        <v>2991</v>
+        <v>3169</v>
       </c>
     </row>
     <row r="1620" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1620" s="71">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="B1620" s="1" t="s">
-        <v>3179</v>
+        <v>3178</v>
       </c>
       <c r="C1620" s="71">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1620" s="71" t="s">
-        <v>1714</v>
-      </c>
-      <c r="E1620" s="71" t="s">
-        <v>2926</v>
+        <v>1711</v>
       </c>
       <c r="F1620" s="71" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G1620" s="71" t="s">
-        <v>456</v>
+        <v>36</v>
       </c>
       <c r="H1620" s="71" t="s">
-        <v>3186</v>
+        <v>3185</v>
       </c>
       <c r="I1620" s="71" t="s">
-        <v>3019</v>
+        <v>2991</v>
       </c>
     </row>
     <row r="1621" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1621" s="71">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="B1621" s="1" t="s">
-        <v>3180</v>
+        <v>3179</v>
       </c>
       <c r="C1621" s="71">
         <v>3</v>
@@ -50535,205 +50566,208 @@
       <c r="D1621" s="71" t="s">
         <v>1714</v>
       </c>
+      <c r="E1621" s="71" t="s">
+        <v>2926</v>
+      </c>
       <c r="F1621" s="71" t="s">
         <v>9</v>
       </c>
       <c r="G1621" s="71" t="s">
-        <v>25</v>
+        <v>456</v>
       </c>
       <c r="H1621" s="71" t="s">
-        <v>3187</v>
+        <v>3186</v>
       </c>
       <c r="I1621" s="71" t="s">
-        <v>2991</v>
+        <v>3019</v>
       </c>
     </row>
     <row r="1622" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1622" s="71">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="B1622" s="1" t="s">
-        <v>3181</v>
+        <v>3180</v>
       </c>
       <c r="C1622" s="71">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1622" s="71" t="s">
-        <v>1707</v>
+        <v>1714</v>
       </c>
       <c r="F1622" s="71" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G1622" s="71" t="s">
-        <v>121</v>
+        <v>25</v>
       </c>
       <c r="H1622" s="71" t="s">
-        <v>3188</v>
+        <v>3187</v>
       </c>
       <c r="I1622" s="71" t="s">
-        <v>3189</v>
+        <v>2991</v>
       </c>
     </row>
     <row r="1623" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1623" s="71">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="B1623" s="1" t="s">
-        <v>3182</v>
+        <v>3181</v>
       </c>
       <c r="C1623" s="71">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1623" s="71" t="s">
-        <v>1714</v>
+        <v>1707</v>
       </c>
       <c r="F1623" s="71" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G1623" s="71" t="s">
-        <v>21</v>
+        <v>121</v>
       </c>
       <c r="H1623" s="71" t="s">
-        <v>3190</v>
+        <v>3188</v>
       </c>
       <c r="I1623" s="71" t="s">
-        <v>2991</v>
+        <v>3189</v>
       </c>
     </row>
     <row r="1624" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1624" s="71">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="B1624" s="1" t="s">
-        <v>3183</v>
+        <v>3182</v>
       </c>
       <c r="C1624" s="71">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1624" s="71" t="s">
         <v>1714</v>
       </c>
-      <c r="E1624" s="71" t="s">
-        <v>2915</v>
-      </c>
       <c r="F1624" s="71" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G1624" s="71" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="H1624" s="71" t="s">
-        <v>3191</v>
+        <v>3190</v>
       </c>
       <c r="I1624" s="71" t="s">
-        <v>3008</v>
+        <v>2991</v>
       </c>
     </row>
     <row r="1625" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1625" s="71">
-        <v>1802</v>
+        <v>1801</v>
       </c>
       <c r="B1625" s="1" t="s">
-        <v>3184</v>
+        <v>3183</v>
       </c>
       <c r="C1625" s="71">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1625" s="71" t="s">
         <v>1714</v>
       </c>
       <c r="E1625" s="71" t="s">
-        <v>2926</v>
+        <v>2915</v>
       </c>
       <c r="F1625" s="71" t="s">
         <v>9</v>
       </c>
       <c r="G1625" s="71" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="H1625" s="71" t="s">
-        <v>3192</v>
+        <v>3191</v>
       </c>
       <c r="I1625" s="71" t="s">
-        <v>2993</v>
+        <v>3008</v>
       </c>
     </row>
     <row r="1626" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1626" s="71">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="B1626" s="1" t="s">
-        <v>3193</v>
+        <v>3184</v>
       </c>
       <c r="C1626" s="71">
         <v>4</v>
       </c>
       <c r="D1626" s="71" t="s">
-        <v>2801</v>
+        <v>1714</v>
+      </c>
+      <c r="E1626" s="71" t="s">
+        <v>2926</v>
       </c>
       <c r="F1626" s="71" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G1626" s="71" t="s">
-        <v>134</v>
+        <v>13</v>
       </c>
       <c r="H1626" s="71" t="s">
-        <v>3198</v>
+        <v>3192</v>
       </c>
       <c r="I1626" s="71" t="s">
-        <v>3008</v>
+        <v>2993</v>
       </c>
     </row>
     <row r="1627" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1627" s="71">
-        <v>1805</v>
+        <v>1803</v>
       </c>
       <c r="B1627" s="1" t="s">
-        <v>3194</v>
+        <v>3193</v>
       </c>
       <c r="C1627" s="71">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D1627" s="71" t="s">
-        <v>1761</v>
-      </c>
-      <c r="E1627" s="71" t="s">
-        <v>2926</v>
+        <v>2801</v>
       </c>
       <c r="F1627" s="71" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G1627" s="71" t="s">
-        <v>36</v>
+        <v>134</v>
       </c>
       <c r="H1627" s="71" t="s">
-        <v>3199</v>
+        <v>3198</v>
       </c>
       <c r="I1627" s="71" t="s">
-        <v>2991</v>
+        <v>3008</v>
       </c>
     </row>
     <row r="1628" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1628" s="71">
-        <v>1806</v>
+        <v>1805</v>
       </c>
       <c r="B1628" s="1" t="s">
-        <v>3195</v>
+        <v>3194</v>
       </c>
       <c r="C1628" s="71">
         <v>2</v>
       </c>
       <c r="D1628" s="71" t="s">
-        <v>1714</v>
+        <v>1761</v>
+      </c>
+      <c r="E1628" s="71" t="s">
+        <v>2926</v>
       </c>
       <c r="F1628" s="71" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G1628" s="71" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="H1628" s="71" t="s">
-        <v>3200</v>
+        <v>3199</v>
       </c>
       <c r="I1628" s="71" t="s">
         <v>2991</v>
@@ -50741,10 +50775,10 @@
     </row>
     <row r="1629" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1629" s="71">
-        <v>1807</v>
+        <v>1806</v>
       </c>
       <c r="B1629" s="1" t="s">
-        <v>3196</v>
+        <v>3195</v>
       </c>
       <c r="C1629" s="71">
         <v>2</v>
@@ -50756,10 +50790,10 @@
         <v>9</v>
       </c>
       <c r="G1629" s="71" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="H1629" s="71" t="s">
-        <v>3201</v>
+        <v>3200</v>
       </c>
       <c r="I1629" s="71" t="s">
         <v>2991</v>
@@ -50767,106 +50801,103 @@
     </row>
     <row r="1630" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1630" s="71">
-        <v>1808</v>
+        <v>1807</v>
       </c>
       <c r="B1630" s="1" t="s">
-        <v>3197</v>
+        <v>3196</v>
       </c>
       <c r="C1630" s="71">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1630" s="71" t="s">
-        <v>1707</v>
+        <v>1714</v>
       </c>
       <c r="F1630" s="71" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G1630" s="71" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="H1630" s="71" t="s">
-        <v>3202</v>
+        <v>3201</v>
       </c>
       <c r="I1630" s="71" t="s">
-        <v>2993</v>
+        <v>2991</v>
       </c>
     </row>
     <row r="1631" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1631" s="71">
-        <v>1812</v>
+        <v>1808</v>
       </c>
       <c r="B1631" s="1" t="s">
-        <v>3206</v>
+        <v>3197</v>
       </c>
       <c r="C1631" s="71">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1631" s="71" t="s">
-        <v>1714</v>
+        <v>1707</v>
       </c>
       <c r="F1631" s="71" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G1631" s="71" t="s">
         <v>25</v>
       </c>
       <c r="H1631" s="71" t="s">
-        <v>3207</v>
+        <v>3202</v>
       </c>
       <c r="I1631" s="71" t="s">
-        <v>3047</v>
+        <v>2993</v>
       </c>
     </row>
     <row r="1632" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1632" s="71">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="B1632" s="1" t="s">
-        <v>3208</v>
+        <v>3206</v>
       </c>
       <c r="C1632" s="71">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1632" s="71" t="s">
-        <v>2801</v>
+        <v>1714</v>
       </c>
       <c r="F1632" s="71" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G1632" s="71" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="H1632" s="71" t="s">
-        <v>3209</v>
+        <v>3207</v>
       </c>
       <c r="I1632" s="71" t="s">
-        <v>2991</v>
+        <v>3047</v>
       </c>
     </row>
     <row r="1633" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1633" s="71">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="B1633" s="1" t="s">
-        <v>3211</v>
+        <v>3208</v>
       </c>
       <c r="C1633" s="71">
         <v>3</v>
       </c>
       <c r="D1633" s="71" t="s">
-        <v>1714</v>
-      </c>
-      <c r="E1633" s="71" t="s">
-        <v>2914</v>
+        <v>2801</v>
       </c>
       <c r="F1633" s="71" t="s">
         <v>9</v>
       </c>
       <c r="G1633" s="71" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="H1633" s="71" t="s">
-        <v>3224</v>
+        <v>3209</v>
       </c>
       <c r="I1633" s="71" t="s">
         <v>2991</v>
@@ -50874,77 +50905,80 @@
     </row>
     <row r="1634" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1634" s="71">
-        <v>1815</v>
+        <v>1814</v>
       </c>
       <c r="B1634" s="1" t="s">
-        <v>3221</v>
+        <v>3211</v>
       </c>
       <c r="C1634" s="71">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1634" s="71" t="s">
         <v>1714</v>
       </c>
+      <c r="E1634" s="71" t="s">
+        <v>2914</v>
+      </c>
       <c r="F1634" s="71" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G1634" s="71" t="s">
-        <v>121</v>
+        <v>6</v>
       </c>
       <c r="H1634" s="71" t="s">
-        <v>3222</v>
+        <v>3224</v>
       </c>
       <c r="I1634" s="71" t="s">
-        <v>3223</v>
+        <v>2991</v>
       </c>
     </row>
     <row r="1635" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1635" s="71">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="B1635" s="1" t="s">
-        <v>3219</v>
+        <v>3221</v>
       </c>
       <c r="C1635" s="71">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1635" s="71" t="s">
-        <v>1711</v>
+        <v>1714</v>
       </c>
       <c r="F1635" s="71" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G1635" s="71" t="s">
-        <v>36</v>
+        <v>121</v>
       </c>
       <c r="H1635" s="71" t="s">
-        <v>3220</v>
+        <v>3222</v>
       </c>
       <c r="I1635" s="71" t="s">
-        <v>2991</v>
+        <v>3223</v>
       </c>
     </row>
     <row r="1636" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1636" s="71">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="B1636" s="1" t="s">
-        <v>3217</v>
+        <v>3219</v>
       </c>
       <c r="C1636" s="71">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1636" s="71" t="s">
-        <v>1714</v>
+        <v>1711</v>
       </c>
       <c r="F1636" s="71" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G1636" s="71" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="H1636" s="71" t="s">
-        <v>3218</v>
+        <v>3220</v>
       </c>
       <c r="I1636" s="71" t="s">
         <v>2991</v>
@@ -50952,389 +50986,386 @@
     </row>
     <row r="1637" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1637" s="71">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="B1637" s="1" t="s">
-        <v>3215</v>
+        <v>3217</v>
       </c>
       <c r="C1637" s="71">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1637" s="71" t="s">
         <v>1714</v>
       </c>
-      <c r="E1637" s="71" t="s">
-        <v>2926</v>
-      </c>
       <c r="F1637" s="71" t="s">
         <v>9</v>
       </c>
       <c r="G1637" s="71" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="H1637" s="71" t="s">
-        <v>3216</v>
+        <v>3218</v>
       </c>
       <c r="I1637" s="71" t="s">
-        <v>3214</v>
+        <v>2991</v>
       </c>
     </row>
     <row r="1638" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1638" s="71">
-        <v>1819</v>
+        <v>1818</v>
       </c>
       <c r="B1638" s="1" t="s">
-        <v>3212</v>
+        <v>3215</v>
       </c>
       <c r="C1638" s="71">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1638" s="71" t="s">
-        <v>1707</v>
+        <v>1714</v>
+      </c>
+      <c r="E1638" s="71" t="s">
+        <v>2926</v>
       </c>
       <c r="F1638" s="71" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G1638" s="71" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H1638" s="71" t="s">
-        <v>3213</v>
+        <v>3216</v>
       </c>
       <c r="I1638" s="71" t="s">
         <v>3214</v>
       </c>
     </row>
-    <row r="1639" spans="1:9" s="78" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1639" s="78">
+    <row r="1639" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1639" s="71">
+        <v>1819</v>
+      </c>
+      <c r="B1639" s="1" t="s">
+        <v>3212</v>
+      </c>
+      <c r="C1639" s="71">
+        <v>4</v>
+      </c>
+      <c r="D1639" s="71" t="s">
+        <v>1707</v>
+      </c>
+      <c r="F1639" s="71" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1639" s="71" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1639" s="71" t="s">
+        <v>3213</v>
+      </c>
+      <c r="I1639" s="71" t="s">
+        <v>3214</v>
+      </c>
+    </row>
+    <row r="1640" spans="1:9" s="78" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1640" s="78">
         <v>1820</v>
       </c>
-      <c r="B1639" s="1" t="s">
+      <c r="B1640" s="1" t="s">
         <v>3238</v>
       </c>
-      <c r="C1639" s="78">
+      <c r="C1640" s="78">
         <v>4</v>
       </c>
-      <c r="D1639" s="78" t="s">
-        <v>1714</v>
-      </c>
-      <c r="F1639" s="78" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1639" s="78" t="s">
+      <c r="D1640" s="78" t="s">
+        <v>1714</v>
+      </c>
+      <c r="F1640" s="78" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1640" s="78" t="s">
         <v>187</v>
       </c>
-      <c r="H1639" s="78" t="s">
+      <c r="H1640" s="78" t="s">
         <v>3239</v>
       </c>
-      <c r="I1639" s="78" t="s">
+      <c r="I1640" s="78" t="s">
         <v>3232</v>
-      </c>
-    </row>
-    <row r="1640" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1640" s="71">
-        <v>1822</v>
-      </c>
-      <c r="B1640" s="1" t="s">
-        <v>3228</v>
-      </c>
-      <c r="C1640" s="71">
-        <v>1</v>
-      </c>
-      <c r="D1640" s="71" t="s">
-        <v>1711</v>
-      </c>
-      <c r="F1640" s="71" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1640" s="71" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1640" s="71" t="s">
-        <v>3233</v>
-      </c>
-      <c r="I1640" s="71" t="s">
-        <v>2991</v>
       </c>
     </row>
     <row r="1641" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1641" s="71">
-        <v>1823</v>
+        <v>1822</v>
       </c>
       <c r="B1641" s="1" t="s">
-        <v>3229</v>
+        <v>3228</v>
       </c>
       <c r="C1641" s="71">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1641" s="71" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="F1641" s="71" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G1641" s="71" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H1641" s="71" t="s">
-        <v>3234</v>
+        <v>3233</v>
       </c>
       <c r="I1641" s="71" t="s">
-        <v>3235</v>
+        <v>2991</v>
       </c>
     </row>
     <row r="1642" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1642" s="71">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="B1642" s="1" t="s">
-        <v>3230</v>
+        <v>3229</v>
       </c>
       <c r="C1642" s="71">
         <v>3</v>
       </c>
       <c r="D1642" s="71" t="s">
-        <v>1714</v>
+        <v>1712</v>
       </c>
       <c r="F1642" s="71" t="s">
         <v>9</v>
       </c>
       <c r="G1642" s="71" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H1642" s="71" t="s">
-        <v>3236</v>
+        <v>3234</v>
       </c>
       <c r="I1642" s="71" t="s">
-        <v>2991</v>
+        <v>3235</v>
       </c>
     </row>
     <row r="1643" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1643" s="71">
+        <v>1824</v>
+      </c>
+      <c r="B1643" s="1" t="s">
+        <v>3230</v>
+      </c>
+      <c r="C1643" s="71">
+        <v>3</v>
+      </c>
+      <c r="D1643" s="71" t="s">
+        <v>1714</v>
+      </c>
+      <c r="F1643" s="71" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1643" s="71" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1643" s="71" t="s">
+        <v>3236</v>
+      </c>
+      <c r="I1643" s="71" t="s">
+        <v>2991</v>
+      </c>
+    </row>
+    <row r="1644" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1644" s="71">
         <v>1825</v>
       </c>
-      <c r="B1643" s="1" t="s">
+      <c r="B1644" s="1" t="s">
         <v>3231</v>
       </c>
-      <c r="C1643" s="71">
+      <c r="C1644" s="71">
         <v>4</v>
       </c>
-      <c r="D1643" s="71" t="s">
-        <v>1714</v>
-      </c>
-      <c r="E1643" s="71" t="s">
+      <c r="D1644" s="71" t="s">
+        <v>1714</v>
+      </c>
+      <c r="E1644" s="71" t="s">
         <v>2926</v>
       </c>
-      <c r="F1643" s="71" t="s">
+      <c r="F1644" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="G1643" s="71" t="s">
+      <c r="G1644" s="71" t="s">
         <v>456</v>
       </c>
-      <c r="H1643" s="71" t="s">
+      <c r="H1644" s="71" t="s">
         <v>3237</v>
       </c>
-      <c r="I1643" s="71" t="s">
+      <c r="I1644" s="71" t="s">
         <v>3019</v>
       </c>
     </row>
-    <row r="1644" spans="1:9" s="103" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1644" s="103">
+    <row r="1645" spans="1:9" s="103" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1645" s="103">
         <v>1826</v>
       </c>
-      <c r="B1644" s="1" t="s">
+      <c r="B1645" s="1" t="s">
         <v>3670</v>
       </c>
-      <c r="C1644" s="103">
+      <c r="C1645" s="103">
         <v>2</v>
       </c>
-      <c r="D1644" s="103" t="s">
-        <v>1714</v>
-      </c>
-      <c r="F1644" s="103" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1644" s="103" t="s">
+      <c r="D1645" s="103" t="s">
+        <v>1714</v>
+      </c>
+      <c r="F1645" s="103" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1645" s="103" t="s">
         <v>21</v>
       </c>
-      <c r="H1644" s="103" t="s">
+      <c r="H1645" s="103" t="s">
         <v>3671</v>
       </c>
-      <c r="I1644" s="103" t="s">
+      <c r="I1645" s="103" t="s">
         <v>2991</v>
       </c>
     </row>
-    <row r="1645" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1645" s="71">
+    <row r="1646" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1646" s="71">
         <v>1827</v>
       </c>
-      <c r="B1645" s="1" t="s">
+      <c r="B1646" s="1" t="s">
         <v>3240</v>
       </c>
-      <c r="C1645" s="71">
+      <c r="C1646" s="71">
         <v>2</v>
       </c>
-      <c r="D1645" s="71" t="s">
-        <v>1714</v>
-      </c>
-      <c r="F1645" s="71" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1645" s="71" t="s">
+      <c r="D1646" s="71" t="s">
+        <v>1714</v>
+      </c>
+      <c r="F1646" s="71" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1646" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="H1645" s="71" t="s">
+      <c r="H1646" s="71" t="s">
         <v>3241</v>
       </c>
-      <c r="I1645" s="71" t="s">
+      <c r="I1646" s="71" t="s">
         <v>2991</v>
       </c>
     </row>
-    <row r="1646" spans="1:9" s="78" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1646" s="78">
+    <row r="1647" spans="1:9" s="78" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1647" s="78">
         <v>1828</v>
       </c>
-      <c r="B1646" s="1" t="s">
+      <c r="B1647" s="1" t="s">
         <v>3255</v>
       </c>
-      <c r="C1646" s="78">
-        <v>3</v>
-      </c>
-      <c r="D1646" s="78" t="s">
+      <c r="C1647" s="78">
+        <v>3</v>
+      </c>
+      <c r="D1647" s="78" t="s">
         <v>1712</v>
       </c>
-      <c r="F1646" s="78" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1646" s="78" t="s">
+      <c r="F1647" s="78" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1647" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="H1646" s="78" t="s">
+      <c r="H1647" s="78" t="s">
         <v>3256</v>
       </c>
-      <c r="I1646" s="78" t="s">
+      <c r="I1647" s="78" t="s">
         <v>3019</v>
       </c>
     </row>
-    <row r="1647" spans="1:9" s="71" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1647" s="71">
+    <row r="1648" spans="1:9" s="71" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1648" s="71">
         <v>1829</v>
       </c>
-      <c r="B1647" s="1" t="s">
+      <c r="B1648" s="1" t="s">
         <v>3253</v>
       </c>
-      <c r="C1647" s="71">
+      <c r="C1648" s="71">
         <v>2</v>
       </c>
-      <c r="D1647" s="71" t="s">
-        <v>1714</v>
-      </c>
-      <c r="F1647" s="71" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1647" s="71" t="s">
+      <c r="D1648" s="71" t="s">
+        <v>1714</v>
+      </c>
+      <c r="F1648" s="71" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1648" s="71" t="s">
         <v>134</v>
       </c>
-      <c r="H1647" s="71" t="s">
+      <c r="H1648" s="71" t="s">
         <v>3254</v>
       </c>
-      <c r="I1647" s="71" t="s">
+      <c r="I1648" s="71" t="s">
         <v>2991</v>
-      </c>
-    </row>
-    <row r="1648" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1648" s="71">
-        <v>1830</v>
-      </c>
-      <c r="B1648" s="1" t="s">
-        <v>3250</v>
-      </c>
-      <c r="C1648" s="71">
-        <v>4</v>
-      </c>
-      <c r="D1648" s="71" t="s">
-        <v>1707</v>
-      </c>
-      <c r="F1648" s="71" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1648" s="71" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1648" s="71" t="s">
-        <v>3251</v>
-      </c>
-      <c r="I1648" s="71" t="s">
-        <v>3252</v>
       </c>
     </row>
     <row r="1649" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1649" s="71">
-        <v>1832</v>
+        <v>1830</v>
       </c>
       <c r="B1649" s="1" t="s">
-        <v>3245</v>
+        <v>3250</v>
       </c>
       <c r="C1649" s="71">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1649" s="71" t="s">
-        <v>1711</v>
+        <v>1707</v>
       </c>
       <c r="F1649" s="71" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G1649" s="71" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="H1649" s="71" t="s">
-        <v>3246</v>
+        <v>3251</v>
       </c>
       <c r="I1649" s="71" t="s">
-        <v>2991</v>
+        <v>3252</v>
       </c>
     </row>
     <row r="1650" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1650" s="71">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="B1650" s="1" t="s">
-        <v>3244</v>
+        <v>3245</v>
       </c>
       <c r="C1650" s="71">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1650" s="71" t="s">
-        <v>1714</v>
+        <v>1711</v>
       </c>
       <c r="F1650" s="71" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G1650" s="71" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H1650" s="71" t="s">
-        <v>3247</v>
+        <v>3246</v>
       </c>
       <c r="I1650" s="71" t="s">
-        <v>3019</v>
+        <v>2991</v>
       </c>
     </row>
     <row r="1651" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1651" s="71">
-        <v>1834</v>
+        <v>1833</v>
       </c>
       <c r="B1651" s="1" t="s">
-        <v>3243</v>
+        <v>3244</v>
       </c>
       <c r="C1651" s="71">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1651" s="71" t="s">
         <v>1714</v>
-      </c>
-      <c r="E1651" s="71" t="s">
-        <v>2914</v>
       </c>
       <c r="F1651" s="71" t="s">
         <v>9</v>
@@ -51343,7 +51374,7 @@
         <v>41</v>
       </c>
       <c r="H1651" s="71" t="s">
-        <v>3249</v>
+        <v>3247</v>
       </c>
       <c r="I1651" s="71" t="s">
         <v>3019</v>
@@ -51351,10 +51382,10 @@
     </row>
     <row r="1652" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1652" s="71">
-        <v>1835</v>
+        <v>1834</v>
       </c>
       <c r="B1652" s="1" t="s">
-        <v>3242</v>
+        <v>3243</v>
       </c>
       <c r="C1652" s="71">
         <v>4</v>
@@ -51362,80 +51393,80 @@
       <c r="D1652" s="71" t="s">
         <v>1714</v>
       </c>
+      <c r="E1652" s="71" t="s">
+        <v>2914</v>
+      </c>
       <c r="F1652" s="71" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G1652" s="71" t="s">
-        <v>134</v>
+        <v>41</v>
       </c>
       <c r="H1652" s="71" t="s">
-        <v>3248</v>
+        <v>3249</v>
       </c>
       <c r="I1652" s="71" t="s">
-        <v>2991</v>
+        <v>3019</v>
       </c>
     </row>
     <row r="1653" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1653" s="71">
-        <v>1837</v>
+        <v>1835</v>
       </c>
       <c r="B1653" s="1" t="s">
-        <v>3257</v>
+        <v>3242</v>
       </c>
       <c r="C1653" s="71">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1653" s="71" t="s">
         <v>1714</v>
       </c>
       <c r="F1653" s="71" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G1653" s="71" t="s">
-        <v>25</v>
+        <v>134</v>
       </c>
       <c r="H1653" s="71" t="s">
-        <v>3258</v>
+        <v>3248</v>
       </c>
       <c r="I1653" s="71" t="s">
-        <v>2993</v>
+        <v>2991</v>
       </c>
     </row>
     <row r="1654" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1654" s="71">
-        <v>1838</v>
+        <v>1837</v>
       </c>
       <c r="B1654" s="1" t="s">
-        <v>3259</v>
+        <v>3257</v>
       </c>
       <c r="C1654" s="71">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1654" s="71" t="s">
         <v>1714</v>
       </c>
-      <c r="E1654" s="71" t="s">
-        <v>2914</v>
-      </c>
       <c r="F1654" s="71" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G1654" s="71" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H1654" s="71" t="s">
-        <v>3260</v>
+        <v>3258</v>
       </c>
       <c r="I1654" s="71" t="s">
-        <v>2991</v>
+        <v>2993</v>
       </c>
     </row>
     <row r="1655" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1655" s="71">
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="B1655" s="1" t="s">
-        <v>3261</v>
+        <v>3259</v>
       </c>
       <c r="C1655" s="71">
         <v>3</v>
@@ -51444,16 +51475,16 @@
         <v>1714</v>
       </c>
       <c r="E1655" s="71" t="s">
-        <v>2926</v>
+        <v>2914</v>
       </c>
       <c r="F1655" s="71" t="s">
         <v>9</v>
       </c>
       <c r="G1655" s="71" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="H1655" s="71" t="s">
-        <v>3262</v>
+        <v>3260</v>
       </c>
       <c r="I1655" s="71" t="s">
         <v>2991</v>
@@ -51461,117 +51492,120 @@
     </row>
     <row r="1656" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1656" s="71">
-        <v>1840</v>
+        <v>1839</v>
       </c>
       <c r="B1656" s="1" t="s">
-        <v>3263</v>
+        <v>3261</v>
       </c>
       <c r="C1656" s="71">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1656" s="71" t="s">
-        <v>2801</v>
+        <v>1714</v>
+      </c>
+      <c r="E1656" s="71" t="s">
+        <v>2926</v>
       </c>
       <c r="F1656" s="71" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G1656" s="71" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="H1656" s="71" t="s">
-        <v>3264</v>
+        <v>3262</v>
       </c>
       <c r="I1656" s="71" t="s">
         <v>2991</v>
       </c>
     </row>
-    <row r="1657" spans="1:9" s="103" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1657" s="103">
+    <row r="1657" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1657" s="71">
+        <v>1840</v>
+      </c>
+      <c r="B1657" s="1" t="s">
+        <v>3263</v>
+      </c>
+      <c r="C1657" s="71">
+        <v>4</v>
+      </c>
+      <c r="D1657" s="71" t="s">
+        <v>2801</v>
+      </c>
+      <c r="F1657" s="71" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1657" s="71" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1657" s="71" t="s">
+        <v>3264</v>
+      </c>
+      <c r="I1657" s="71" t="s">
+        <v>2991</v>
+      </c>
+    </row>
+    <row r="1658" spans="1:9" s="103" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1658" s="103">
         <v>1842</v>
       </c>
-      <c r="B1657" s="1" t="s">
+      <c r="B1658" s="1" t="s">
         <v>3674</v>
       </c>
-      <c r="C1657" s="103">
+      <c r="C1658" s="103">
         <v>4</v>
       </c>
-      <c r="D1657" s="103" t="s">
+      <c r="D1658" s="103" t="s">
         <v>1712</v>
       </c>
-      <c r="E1657" s="103" t="s">
+      <c r="E1658" s="103" t="s">
         <v>2926</v>
       </c>
-      <c r="F1657" s="103" t="s">
+      <c r="F1658" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="G1657" s="103" t="s">
+      <c r="G1658" s="103" t="s">
         <v>25</v>
       </c>
-      <c r="H1657" s="103" t="s">
+      <c r="H1658" s="103" t="s">
         <v>3675</v>
       </c>
-      <c r="I1657" s="103" t="s">
+      <c r="I1658" s="103" t="s">
         <v>3676</v>
-      </c>
-    </row>
-    <row r="1658" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1658" s="71">
-        <v>1844</v>
-      </c>
-      <c r="B1658" s="1" t="s">
-        <v>3265</v>
-      </c>
-      <c r="C1658" s="71">
-        <v>1</v>
-      </c>
-      <c r="D1658" s="71" t="s">
-        <v>1711</v>
-      </c>
-      <c r="F1658" s="71" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1658" s="71" t="s">
-        <v>36</v>
-      </c>
-      <c r="H1658" s="71" t="s">
-        <v>3266</v>
-      </c>
-      <c r="I1658" s="71" t="s">
-        <v>2991</v>
       </c>
     </row>
     <row r="1659" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1659" s="71">
-        <v>1845</v>
+        <v>1844</v>
       </c>
       <c r="B1659" s="1" t="s">
-        <v>3267</v>
+        <v>3265</v>
       </c>
       <c r="C1659" s="71">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1659" s="71" t="s">
-        <v>1714</v>
+        <v>1711</v>
       </c>
       <c r="F1659" s="71" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G1659" s="71" t="s">
-        <v>456</v>
+        <v>36</v>
       </c>
       <c r="H1659" s="71" t="s">
-        <v>3268</v>
+        <v>3266</v>
       </c>
       <c r="I1659" s="71" t="s">
-        <v>3019</v>
+        <v>2991</v>
       </c>
     </row>
     <row r="1660" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1660" s="71">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="B1660" s="1" t="s">
-        <v>3269</v>
+        <v>3267</v>
       </c>
       <c r="C1660" s="71">
         <v>2</v>
@@ -51583,10 +51617,10 @@
         <v>9</v>
       </c>
       <c r="G1660" s="71" t="s">
-        <v>41</v>
+        <v>456</v>
       </c>
       <c r="H1660" s="71" t="s">
-        <v>3270</v>
+        <v>3268</v>
       </c>
       <c r="I1660" s="71" t="s">
         <v>3019</v>
@@ -51594,25 +51628,25 @@
     </row>
     <row r="1661" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1661" s="71">
-        <v>1847</v>
+        <v>1846</v>
       </c>
       <c r="B1661" s="1" t="s">
-        <v>3271</v>
+        <v>3269</v>
       </c>
       <c r="C1661" s="71">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1661" s="71" t="s">
-        <v>2801</v>
+        <v>1714</v>
       </c>
       <c r="F1661" s="71" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G1661" s="71" t="s">
         <v>41</v>
       </c>
       <c r="H1661" s="71" t="s">
-        <v>3272</v>
+        <v>3270</v>
       </c>
       <c r="I1661" s="71" t="s">
         <v>3019</v>
@@ -51620,25 +51654,25 @@
     </row>
     <row r="1662" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1662" s="71">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="B1662" s="1" t="s">
-        <v>3273</v>
+        <v>3271</v>
       </c>
       <c r="C1662" s="71">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D1662" s="71" t="s">
-        <v>1714</v>
+        <v>2801</v>
       </c>
       <c r="F1662" s="71" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G1662" s="71" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="H1662" s="71" t="s">
-        <v>3274</v>
+        <v>3272</v>
       </c>
       <c r="I1662" s="71" t="s">
         <v>3019</v>
@@ -51646,120 +51680,117 @@
     </row>
     <row r="1663" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1663" s="71">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="B1663" s="1" t="s">
-        <v>3275</v>
+        <v>3273</v>
       </c>
       <c r="C1663" s="71">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1663" s="71" t="s">
         <v>1714</v>
       </c>
       <c r="F1663" s="71" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G1663" s="71" t="s">
-        <v>121</v>
+        <v>21</v>
       </c>
       <c r="H1663" s="71" t="s">
-        <v>3278</v>
+        <v>3274</v>
       </c>
       <c r="I1663" s="71" t="s">
-        <v>3071</v>
+        <v>3019</v>
       </c>
     </row>
     <row r="1664" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1664" s="71">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="B1664" s="1" t="s">
-        <v>3276</v>
+        <v>3275</v>
       </c>
       <c r="C1664" s="71">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1664" s="71" t="s">
-        <v>1707</v>
+        <v>1714</v>
       </c>
       <c r="F1664" s="71" t="s">
         <v>9</v>
       </c>
       <c r="G1664" s="71" t="s">
-        <v>25</v>
+        <v>121</v>
       </c>
       <c r="H1664" s="71" t="s">
-        <v>3279</v>
+        <v>3278</v>
       </c>
       <c r="I1664" s="71" t="s">
-        <v>3280</v>
+        <v>3071</v>
       </c>
     </row>
     <row r="1665" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1665" s="71">
-        <v>1851</v>
+        <v>1850</v>
       </c>
       <c r="B1665" s="1" t="s">
-        <v>3277</v>
+        <v>3276</v>
       </c>
       <c r="C1665" s="71">
         <v>4</v>
       </c>
       <c r="D1665" s="71" t="s">
+        <v>1707</v>
+      </c>
+      <c r="F1665" s="71" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1665" s="71" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1665" s="71" t="s">
+        <v>3279</v>
+      </c>
+      <c r="I1665" s="71" t="s">
+        <v>3280</v>
+      </c>
+    </row>
+    <row r="1666" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1666" s="71">
+        <v>1851</v>
+      </c>
+      <c r="B1666" s="1" t="s">
+        <v>3277</v>
+      </c>
+      <c r="C1666" s="71">
+        <v>4</v>
+      </c>
+      <c r="D1666" s="71" t="s">
         <v>2801</v>
       </c>
-      <c r="E1665" s="71" t="s">
+      <c r="E1666" s="71" t="s">
         <v>2926</v>
       </c>
-      <c r="F1665" s="71" t="s">
+      <c r="F1666" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="G1665" s="71" t="s">
+      <c r="G1666" s="71" t="s">
         <v>41</v>
       </c>
-      <c r="H1665" s="71" t="s">
+      <c r="H1666" s="71" t="s">
         <v>3281</v>
       </c>
-      <c r="I1665" s="71" t="s">
+      <c r="I1666" s="71" t="s">
         <v>3019</v>
-      </c>
-    </row>
-    <row r="1666" spans="1:9" s="79" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1666" s="79">
-        <v>1854</v>
-      </c>
-      <c r="B1666" s="1" t="s">
-        <v>3284</v>
-      </c>
-      <c r="C1666" s="79">
-        <v>2</v>
-      </c>
-      <c r="D1666" s="79" t="s">
-        <v>1714</v>
-      </c>
-      <c r="E1666" s="79" t="s">
-        <v>2926</v>
-      </c>
-      <c r="F1666" s="79" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1666" s="79" t="s">
-        <v>95</v>
-      </c>
-      <c r="H1666" s="79" t="s">
-        <v>3285</v>
-      </c>
-      <c r="I1666" s="79" t="s">
-        <v>2991</v>
       </c>
     </row>
     <row r="1667" spans="1:9" s="79" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1667" s="79">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="B1667" s="1" t="s">
-        <v>3286</v>
+        <v>3284</v>
       </c>
       <c r="C1667" s="79">
         <v>2</v>
@@ -51767,14 +51798,17 @@
       <c r="D1667" s="79" t="s">
         <v>1714</v>
       </c>
+      <c r="E1667" s="79" t="s">
+        <v>2926</v>
+      </c>
       <c r="F1667" s="79" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G1667" s="79" t="s">
-        <v>21</v>
+        <v>95</v>
       </c>
       <c r="H1667" s="79" t="s">
-        <v>3288</v>
+        <v>3285</v>
       </c>
       <c r="I1667" s="79" t="s">
         <v>2991</v>
@@ -51782,713 +51816,710 @@
     </row>
     <row r="1668" spans="1:9" s="79" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1668" s="79">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="B1668" s="1" t="s">
-        <v>3287</v>
+        <v>3286</v>
       </c>
       <c r="C1668" s="79">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1668" s="79" t="s">
         <v>1714</v>
       </c>
-      <c r="E1668" s="79" t="s">
-        <v>2915</v>
-      </c>
       <c r="F1668" s="79" t="s">
         <v>9</v>
       </c>
       <c r="G1668" s="79" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="H1668" s="79" t="s">
-        <v>3289</v>
+        <v>3288</v>
       </c>
       <c r="I1668" s="79" t="s">
         <v>2991</v>
       </c>
     </row>
-    <row r="1669" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1669" s="71">
+    <row r="1669" spans="1:9" s="79" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1669" s="79">
+        <v>1856</v>
+      </c>
+      <c r="B1669" s="1" t="s">
+        <v>3287</v>
+      </c>
+      <c r="C1669" s="79">
+        <v>4</v>
+      </c>
+      <c r="D1669" s="79" t="s">
+        <v>1714</v>
+      </c>
+      <c r="E1669" s="79" t="s">
+        <v>2915</v>
+      </c>
+      <c r="F1669" s="79" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1669" s="79" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1669" s="79" t="s">
+        <v>3289</v>
+      </c>
+      <c r="I1669" s="79" t="s">
+        <v>2991</v>
+      </c>
+    </row>
+    <row r="1670" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1670" s="71">
         <v>1857</v>
       </c>
-      <c r="B1669" s="1" t="s">
+      <c r="B1670" s="1" t="s">
         <v>3282</v>
       </c>
-      <c r="C1669" s="71">
+      <c r="C1670" s="71">
         <v>4</v>
       </c>
-      <c r="D1669" s="71" t="s">
-        <v>1714</v>
-      </c>
-      <c r="E1669" s="71" t="s">
+      <c r="D1670" s="71" t="s">
+        <v>1714</v>
+      </c>
+      <c r="E1670" s="71" t="s">
         <v>2914</v>
       </c>
-      <c r="F1669" s="71" t="s">
+      <c r="F1670" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="G1669" s="71" t="s">
+      <c r="G1670" s="71" t="s">
         <v>187</v>
       </c>
-      <c r="H1669" s="71" t="s">
+      <c r="H1670" s="71" t="s">
         <v>3283</v>
       </c>
-      <c r="I1669" s="71" t="s">
+      <c r="I1670" s="71" t="s">
         <v>2991</v>
       </c>
     </row>
-    <row r="1670" spans="1:9" s="82" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1670" s="82">
+    <row r="1671" spans="1:9" s="82" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1671" s="82">
         <v>1859</v>
       </c>
-      <c r="B1670" s="1" t="s">
+      <c r="B1671" s="1" t="s">
         <v>3308</v>
       </c>
-      <c r="C1670" s="82">
+      <c r="C1671" s="82">
         <v>1</v>
       </c>
-      <c r="D1670" s="82" t="s">
-        <v>1714</v>
-      </c>
-      <c r="F1670" s="82" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1670" s="82" t="s">
+      <c r="D1671" s="82" t="s">
+        <v>1714</v>
+      </c>
+      <c r="F1671" s="82" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1671" s="82" t="s">
         <v>36</v>
       </c>
-      <c r="H1670" s="82" t="s">
+      <c r="H1671" s="82" t="s">
         <v>3309</v>
       </c>
-      <c r="I1670" s="82" t="s">
+      <c r="I1671" s="82" t="s">
         <v>2991</v>
       </c>
     </row>
-    <row r="1671" spans="1:9" s="84" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1671" s="84">
+    <row r="1672" spans="1:9" s="84" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1672" s="84">
         <v>1860</v>
       </c>
-      <c r="B1671" s="1" t="s">
+      <c r="B1672" s="1" t="s">
         <v>3322</v>
       </c>
-      <c r="C1671" s="84">
-        <v>3</v>
-      </c>
-      <c r="D1671" s="84" t="s">
+      <c r="C1672" s="84">
+        <v>3</v>
+      </c>
+      <c r="D1672" s="84" t="s">
         <v>1712</v>
       </c>
-      <c r="F1671" s="84" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1671" s="84" t="s">
+      <c r="F1672" s="84" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1672" s="84" t="s">
         <v>25</v>
       </c>
-      <c r="H1671" s="84" t="s">
+      <c r="H1672" s="84" t="s">
         <v>3323</v>
       </c>
-      <c r="I1671" s="84" t="s">
+      <c r="I1672" s="84" t="s">
         <v>3324</v>
       </c>
     </row>
-    <row r="1672" spans="1:9" s="85" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1672" s="85">
+    <row r="1673" spans="1:9" s="85" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1673" s="85">
         <v>1861</v>
       </c>
-      <c r="B1672" s="1" t="s">
+      <c r="B1673" s="1" t="s">
         <v>3325</v>
       </c>
-      <c r="C1672" s="85">
-        <v>3</v>
-      </c>
-      <c r="D1672" s="85" t="s">
-        <v>1714</v>
-      </c>
-      <c r="F1672" s="85" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1672" s="85" t="s">
+      <c r="C1673" s="85">
+        <v>3</v>
+      </c>
+      <c r="D1673" s="85" t="s">
+        <v>1714</v>
+      </c>
+      <c r="F1673" s="85" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1673" s="85" t="s">
         <v>21</v>
       </c>
-      <c r="H1672" s="85" t="s">
+      <c r="H1673" s="85" t="s">
         <v>3326</v>
       </c>
-      <c r="I1672" s="85" t="s">
+      <c r="I1673" s="85" t="s">
         <v>2991</v>
       </c>
     </row>
-    <row r="1673" spans="1:9" s="80" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1673" s="80">
+    <row r="1674" spans="1:9" s="80" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1674" s="80">
         <v>1862</v>
       </c>
-      <c r="B1673" s="1" t="s">
+      <c r="B1674" s="1" t="s">
         <v>3292</v>
       </c>
-      <c r="C1673" s="80">
+      <c r="C1674" s="80">
         <v>4</v>
       </c>
-      <c r="D1673" s="80" t="s">
+      <c r="D1674" s="80" t="s">
         <v>1712</v>
       </c>
-      <c r="F1673" s="80" t="s">
+      <c r="F1674" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="G1673" s="80" t="s">
+      <c r="G1674" s="80" t="s">
         <v>25</v>
       </c>
-      <c r="H1673" s="80" t="s">
+      <c r="H1674" s="80" t="s">
         <v>3290</v>
       </c>
-      <c r="I1673" s="80" t="s">
+      <c r="I1674" s="80" t="s">
         <v>3214</v>
       </c>
     </row>
-    <row r="1674" spans="1:9" s="82" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1674" s="82">
+    <row r="1675" spans="1:9" s="82" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1675" s="82">
         <v>1863</v>
       </c>
-      <c r="B1674" s="1" t="s">
+      <c r="B1675" s="1" t="s">
         <v>3310</v>
       </c>
-      <c r="C1674" s="82">
-        <v>3</v>
-      </c>
-      <c r="D1674" s="82" t="s">
+      <c r="C1675" s="82">
+        <v>3</v>
+      </c>
+      <c r="D1675" s="82" t="s">
         <v>1712</v>
       </c>
-      <c r="E1674" s="82" t="s">
+      <c r="E1675" s="82" t="s">
         <v>2926</v>
       </c>
-      <c r="F1674" s="82" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1674" s="82" t="s">
+      <c r="F1675" s="82" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1675" s="82" t="s">
         <v>134</v>
       </c>
-      <c r="H1674" s="82" t="s">
+      <c r="H1675" s="82" t="s">
         <v>3311</v>
       </c>
-      <c r="I1674" s="82" t="s">
-        <v>2991</v>
-      </c>
-    </row>
-    <row r="1675" spans="1:9" s="86" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1675" s="86">
-        <v>1864</v>
-      </c>
-      <c r="B1675" s="1" t="s">
-        <v>3340</v>
-      </c>
-      <c r="C1675" s="86">
-        <v>2</v>
-      </c>
-      <c r="D1675" s="86" t="s">
-        <v>1714</v>
-      </c>
-      <c r="E1675" s="86" t="s">
-        <v>2915</v>
-      </c>
-      <c r="F1675" s="86" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1675" s="86" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1675" s="86" t="s">
-        <v>3342</v>
-      </c>
-      <c r="I1675" s="86" t="s">
+      <c r="I1675" s="82" t="s">
         <v>2991</v>
       </c>
     </row>
     <row r="1676" spans="1:9" s="86" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1676" s="86">
+        <v>1864</v>
+      </c>
+      <c r="B1676" s="1" t="s">
+        <v>3340</v>
+      </c>
+      <c r="C1676" s="86">
+        <v>2</v>
+      </c>
+      <c r="D1676" s="86" t="s">
+        <v>1714</v>
+      </c>
+      <c r="E1676" s="86" t="s">
+        <v>2915</v>
+      </c>
+      <c r="F1676" s="86" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1676" s="86" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1676" s="86" t="s">
+        <v>3342</v>
+      </c>
+      <c r="I1676" s="86" t="s">
+        <v>2991</v>
+      </c>
+    </row>
+    <row r="1677" spans="1:9" s="86" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1677" s="86">
         <v>1865</v>
       </c>
-      <c r="B1676" s="1" t="s">
+      <c r="B1677" s="1" t="s">
         <v>3341</v>
       </c>
-      <c r="C1676" s="86">
-        <v>3</v>
-      </c>
-      <c r="D1676" s="86" t="s">
-        <v>1714</v>
-      </c>
-      <c r="E1676" s="86" t="s">
+      <c r="C1677" s="86">
+        <v>3</v>
+      </c>
+      <c r="D1677" s="86" t="s">
+        <v>1714</v>
+      </c>
+      <c r="E1677" s="86" t="s">
         <v>2926</v>
       </c>
-      <c r="F1676" s="86" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1676" s="86" t="s">
+      <c r="F1677" s="86" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1677" s="86" t="s">
         <v>456</v>
       </c>
-      <c r="H1676" s="86" t="s">
+      <c r="H1677" s="86" t="s">
         <v>3343</v>
       </c>
-      <c r="I1676" s="86" t="s">
+      <c r="I1677" s="86" t="s">
         <v>3344</v>
       </c>
     </row>
-    <row r="1677" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1677" s="71">
+    <row r="1678" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1678" s="71">
         <v>1866</v>
       </c>
-      <c r="B1677" s="1" t="s">
+      <c r="B1678" s="1" t="s">
         <v>3291</v>
       </c>
-      <c r="C1677" s="71">
+      <c r="C1678" s="71">
         <v>4</v>
       </c>
-      <c r="D1677" s="71" t="s">
-        <v>1714</v>
-      </c>
-      <c r="E1677" s="71" t="s">
+      <c r="D1678" s="71" t="s">
+        <v>1714</v>
+      </c>
+      <c r="E1678" s="71" t="s">
         <v>2915</v>
       </c>
-      <c r="F1677" s="71" t="s">
+      <c r="F1678" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="G1677" s="71" t="s">
+      <c r="G1678" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="H1677" s="71" t="s">
+      <c r="H1678" s="71" t="s">
         <v>3293</v>
       </c>
-      <c r="I1677" s="71" t="s">
+      <c r="I1678" s="71" t="s">
         <v>2991</v>
       </c>
     </row>
-    <row r="1678" spans="1:9" s="82" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1678" s="82">
+    <row r="1679" spans="1:9" s="82" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1679" s="82">
         <v>1869</v>
       </c>
-      <c r="B1678" s="1" t="s">
+      <c r="B1679" s="1" t="s">
         <v>3312</v>
       </c>
-      <c r="C1678" s="82">
+      <c r="C1679" s="82">
         <v>2</v>
       </c>
-      <c r="D1678" s="82" t="s">
-        <v>1714</v>
-      </c>
-      <c r="E1678" s="82" t="s">
+      <c r="D1679" s="82" t="s">
+        <v>1714</v>
+      </c>
+      <c r="E1679" s="82" t="s">
         <v>2926</v>
       </c>
-      <c r="F1678" s="82" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1678" s="82" t="s">
+      <c r="F1679" s="82" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1679" s="82" t="s">
         <v>36</v>
       </c>
-      <c r="H1678" s="82" t="s">
+      <c r="H1679" s="82" t="s">
         <v>3313</v>
       </c>
-      <c r="I1678" s="82" t="s">
+      <c r="I1679" s="82" t="s">
         <v>2991</v>
       </c>
     </row>
-    <row r="1679" spans="1:9" s="86" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1679" s="86">
+    <row r="1680" spans="1:9" s="86" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1680" s="86">
         <v>1870</v>
       </c>
-      <c r="B1679" s="1" t="s">
+      <c r="B1680" s="1" t="s">
         <v>3345</v>
       </c>
-      <c r="C1679" s="86">
+      <c r="C1680" s="86">
         <v>4</v>
       </c>
-      <c r="D1679" s="86" t="s">
-        <v>1714</v>
-      </c>
-      <c r="E1679" s="86" t="s">
+      <c r="D1680" s="86" t="s">
+        <v>1714</v>
+      </c>
+      <c r="E1680" s="86" t="s">
         <v>2915</v>
       </c>
-      <c r="F1679" s="86" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1679" s="86" t="s">
+      <c r="F1680" s="86" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1680" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="H1679" s="86" t="s">
+      <c r="H1680" s="86" t="s">
         <v>3346</v>
       </c>
-      <c r="I1679" s="86" t="s">
+      <c r="I1680" s="86" t="s">
         <v>3019</v>
       </c>
     </row>
-    <row r="1680" spans="1:9" s="87" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1680" s="87">
+    <row r="1681" spans="1:9" s="87" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1681" s="87">
         <v>1871</v>
       </c>
-      <c r="B1680" s="1" t="s">
+      <c r="B1681" s="1" t="s">
         <v>3348</v>
       </c>
-      <c r="C1680" s="87">
+      <c r="C1681" s="87">
         <v>2</v>
       </c>
-      <c r="D1680" s="87" t="s">
-        <v>1714</v>
-      </c>
-      <c r="F1680" s="87" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1680" s="87" t="s">
+      <c r="D1681" s="87" t="s">
+        <v>1714</v>
+      </c>
+      <c r="F1681" s="87" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1681" s="87" t="s">
         <v>187</v>
       </c>
-      <c r="H1680" s="87" t="s">
+      <c r="H1681" s="87" t="s">
         <v>3349</v>
       </c>
     </row>
-    <row r="1681" spans="1:9" s="80" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1681" s="80">
+    <row r="1682" spans="1:9" s="80" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1682" s="80">
         <v>1872</v>
       </c>
-      <c r="B1681" s="1" t="s">
+      <c r="B1682" s="1" t="s">
         <v>3294</v>
       </c>
-      <c r="C1681" s="80">
-        <v>5</v>
-      </c>
-      <c r="D1681" s="80" t="s">
+      <c r="C1682" s="80">
+        <v>5</v>
+      </c>
+      <c r="D1682" s="80" t="s">
         <v>2801</v>
       </c>
-      <c r="F1681" s="80" t="s">
+      <c r="F1682" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="G1681" s="80" t="s">
+      <c r="G1682" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="H1681" s="80" t="s">
+      <c r="H1682" s="80" t="s">
         <v>3295</v>
       </c>
-      <c r="I1681" s="80" t="s">
+      <c r="I1682" s="80" t="s">
         <v>2991</v>
       </c>
     </row>
-    <row r="1682" spans="1:9" s="104" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1682" s="104">
+    <row r="1683" spans="1:9" s="104" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1683" s="104">
         <v>1874</v>
       </c>
-      <c r="B1682" s="1" t="s">
+      <c r="B1683" s="1" t="s">
         <v>3697</v>
       </c>
-      <c r="C1682" s="104">
+      <c r="C1683" s="104">
         <v>2</v>
       </c>
-      <c r="D1682" s="104" t="s">
-        <v>1714</v>
-      </c>
-      <c r="F1682" s="104" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1682" s="104" t="s">
+      <c r="D1683" s="104" t="s">
+        <v>1714</v>
+      </c>
+      <c r="F1683" s="104" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1683" s="104" t="s">
         <v>21</v>
       </c>
-      <c r="H1682" s="104" t="s">
+      <c r="H1683" s="104" t="s">
         <v>3698</v>
       </c>
-      <c r="I1682" s="104" t="s">
+      <c r="I1683" s="104" t="s">
         <v>3019</v>
       </c>
     </row>
-    <row r="1683" spans="1:9" s="83" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1683" s="83">
+    <row r="1684" spans="1:9" s="83" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1684" s="83">
         <v>1876</v>
       </c>
-      <c r="B1683" s="1" t="s">
+      <c r="B1684" s="1" t="s">
         <v>3314</v>
       </c>
-      <c r="C1683" s="83">
+      <c r="C1684" s="83">
         <v>2</v>
       </c>
-      <c r="D1683" s="83" t="s">
-        <v>1714</v>
-      </c>
-      <c r="F1683" s="83" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1683" s="83" t="s">
+      <c r="D1684" s="83" t="s">
+        <v>1714</v>
+      </c>
+      <c r="F1684" s="83" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1684" s="83" t="s">
         <v>36</v>
       </c>
-      <c r="H1683" s="83" t="s">
+      <c r="H1684" s="83" t="s">
         <v>3315</v>
       </c>
-      <c r="I1683" s="83" t="s">
+      <c r="I1684" s="83" t="s">
         <v>2991</v>
       </c>
     </row>
-    <row r="1684" spans="1:9" s="88" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1684" s="88">
+    <row r="1685" spans="1:9" s="88" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1685" s="88">
         <v>1877</v>
       </c>
-      <c r="B1684" s="1" t="s">
+      <c r="B1685" s="1" t="s">
         <v>3355</v>
       </c>
-      <c r="C1684" s="88">
+      <c r="C1685" s="88">
         <v>2</v>
       </c>
-      <c r="D1684" s="88" t="s">
-        <v>1714</v>
-      </c>
-      <c r="F1684" s="88" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1684" s="88" t="s">
+      <c r="D1685" s="88" t="s">
+        <v>1714</v>
+      </c>
+      <c r="F1685" s="88" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1685" s="88" t="s">
         <v>41</v>
       </c>
-      <c r="H1684" s="88" t="s">
+      <c r="H1685" s="88" t="s">
         <v>3356</v>
       </c>
-      <c r="I1684" s="88" t="s">
+      <c r="I1685" s="88" t="s">
         <v>2991</v>
       </c>
     </row>
-    <row r="1685" spans="1:9" s="86" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1685" s="86">
+    <row r="1686" spans="1:9" s="86" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1686" s="86">
         <v>1878</v>
       </c>
-      <c r="B1685" s="1" t="s">
+      <c r="B1686" s="1" t="s">
         <v>3354</v>
       </c>
-      <c r="C1685" s="86">
-        <v>3</v>
-      </c>
-      <c r="D1685" s="86" t="s">
+      <c r="C1686" s="86">
+        <v>3</v>
+      </c>
+      <c r="D1686" s="86" t="s">
         <v>1707</v>
       </c>
-      <c r="F1685" s="86" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1685" s="86" t="s">
+      <c r="F1686" s="86" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1686" s="86" t="s">
         <v>21</v>
       </c>
-      <c r="H1685" s="86" t="s">
+      <c r="H1686" s="86" t="s">
         <v>3347</v>
       </c>
-      <c r="I1685" s="86" t="s">
+      <c r="I1686" s="86" t="s">
         <v>2991</v>
       </c>
     </row>
-    <row r="1686" spans="1:9" s="80" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1686" s="80">
+    <row r="1687" spans="1:9" s="80" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1687" s="80">
         <v>1879</v>
       </c>
-      <c r="B1686" s="1" t="s">
+      <c r="B1687" s="1" t="s">
         <v>3296</v>
       </c>
-      <c r="C1686" s="80">
+      <c r="C1687" s="80">
         <v>4</v>
       </c>
-      <c r="D1686" s="80" t="s">
-        <v>1714</v>
-      </c>
-      <c r="E1686" s="80" t="s">
+      <c r="D1687" s="80" t="s">
+        <v>1714</v>
+      </c>
+      <c r="E1687" s="80" t="s">
         <v>2926</v>
       </c>
-      <c r="F1686" s="80" t="s">
+      <c r="F1687" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="G1686" s="80" t="s">
+      <c r="G1687" s="80" t="s">
         <v>121</v>
       </c>
-      <c r="H1686" s="80" t="s">
+      <c r="H1687" s="80" t="s">
         <v>3297</v>
       </c>
-      <c r="I1686" s="80" t="s">
+      <c r="I1687" s="80" t="s">
         <v>3298</v>
       </c>
     </row>
-    <row r="1687" spans="1:9" s="83" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1687" s="83">
+    <row r="1688" spans="1:9" s="83" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1688" s="83">
         <v>1880</v>
       </c>
-      <c r="B1687" s="1" t="s">
+      <c r="B1688" s="1" t="s">
         <v>3316</v>
       </c>
-      <c r="C1687" s="83">
+      <c r="C1688" s="83">
         <v>1</v>
       </c>
-      <c r="D1687" s="83" t="s">
-        <v>1714</v>
-      </c>
-      <c r="F1687" s="83" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1687" s="83" t="s">
+      <c r="D1688" s="83" t="s">
+        <v>1714</v>
+      </c>
+      <c r="F1688" s="83" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1688" s="83" t="s">
         <v>36</v>
       </c>
-      <c r="H1687" s="83" t="s">
+      <c r="H1688" s="83" t="s">
         <v>3317</v>
       </c>
-      <c r="I1687" s="83" t="s">
+      <c r="I1688" s="83" t="s">
         <v>2991</v>
       </c>
     </row>
-    <row r="1688" spans="1:9" s="87" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1688" s="87">
+    <row r="1689" spans="1:9" s="87" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1689" s="87">
         <v>1881</v>
       </c>
-      <c r="B1688" s="1" t="s">
+      <c r="B1689" s="1" t="s">
         <v>3350</v>
       </c>
-      <c r="C1688" s="87">
+      <c r="C1689" s="87">
         <v>2</v>
       </c>
-      <c r="D1688" s="87" t="s">
+      <c r="D1689" s="87" t="s">
         <v>1761</v>
       </c>
-      <c r="F1688" s="87" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1688" s="87" t="s">
+      <c r="F1689" s="87" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1689" s="87" t="s">
         <v>41</v>
       </c>
-      <c r="H1688" s="87" t="s">
+      <c r="H1689" s="87" t="s">
         <v>3351</v>
       </c>
     </row>
-    <row r="1689" spans="1:9" s="88" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1689" s="88">
+    <row r="1690" spans="1:9" s="88" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1690" s="88">
         <v>1882</v>
       </c>
-      <c r="B1689" s="1" t="s">
+      <c r="B1690" s="1" t="s">
         <v>3357</v>
       </c>
-      <c r="C1689" s="88">
-        <v>3</v>
-      </c>
-      <c r="D1689" s="88" t="s">
-        <v>1714</v>
-      </c>
-      <c r="E1689" s="88" t="s">
+      <c r="C1690" s="88">
+        <v>3</v>
+      </c>
+      <c r="D1690" s="88" t="s">
+        <v>1714</v>
+      </c>
+      <c r="E1690" s="88" t="s">
         <v>2914</v>
       </c>
-      <c r="F1689" s="88" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1689" s="88" t="s">
+      <c r="F1690" s="88" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1690" s="88" t="s">
         <v>41</v>
       </c>
-      <c r="H1689" s="88" t="s">
+      <c r="H1690" s="88" t="s">
         <v>3584</v>
       </c>
-      <c r="I1689" s="88" t="s">
+      <c r="I1690" s="88" t="s">
         <v>3019</v>
       </c>
     </row>
-    <row r="1690" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1690" s="71">
+    <row r="1691" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1691" s="71">
         <v>1883</v>
       </c>
-      <c r="B1690" s="1" t="s">
+      <c r="B1691" s="1" t="s">
         <v>3299</v>
       </c>
-      <c r="C1690" s="71">
+      <c r="C1691" s="71">
         <v>4</v>
       </c>
-      <c r="D1690" s="71" t="s">
-        <v>1714</v>
-      </c>
-      <c r="F1690" s="71" t="s">
+      <c r="D1691" s="71" t="s">
+        <v>1714</v>
+      </c>
+      <c r="F1691" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="G1690" s="71" t="s">
+      <c r="G1691" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="H1690" s="71" t="s">
+      <c r="H1691" s="71" t="s">
         <v>3300</v>
       </c>
-      <c r="I1690" s="71" t="s">
+      <c r="I1691" s="71" t="s">
         <v>3016</v>
       </c>
     </row>
-    <row r="1691" spans="1:9" s="88" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1691" s="88">
+    <row r="1692" spans="1:9" s="88" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1692" s="88">
         <v>1884</v>
       </c>
-      <c r="B1691" s="1" t="s">
+      <c r="B1692" s="1" t="s">
         <v>3358</v>
       </c>
-      <c r="C1691" s="88">
+      <c r="C1692" s="88">
         <v>2</v>
       </c>
-      <c r="D1691" s="88" t="s">
+      <c r="D1692" s="88" t="s">
         <v>1712</v>
       </c>
-      <c r="F1691" s="88" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1691" s="88" t="s">
+      <c r="F1692" s="88" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1692" s="88" t="s">
         <v>25</v>
       </c>
-      <c r="H1691" s="88" t="s">
+      <c r="H1692" s="88" t="s">
         <v>3359</v>
       </c>
-      <c r="I1691" s="88" t="s">
+      <c r="I1692" s="88" t="s">
         <v>3047</v>
       </c>
     </row>
-    <row r="1692" spans="1:9" s="83" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1692" s="83">
+    <row r="1693" spans="1:9" s="83" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1693" s="83">
         <v>1886</v>
       </c>
-      <c r="B1692" s="1" t="s">
+      <c r="B1693" s="1" t="s">
         <v>3318</v>
       </c>
-      <c r="C1692" s="83">
-        <v>3</v>
-      </c>
-      <c r="D1692" s="83" t="s">
-        <v>1714</v>
-      </c>
-      <c r="F1692" s="83" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1692" s="83" t="s">
+      <c r="C1693" s="83">
+        <v>3</v>
+      </c>
+      <c r="D1693" s="83" t="s">
+        <v>1714</v>
+      </c>
+      <c r="F1693" s="83" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1693" s="83" t="s">
         <v>21</v>
       </c>
-      <c r="H1692" s="83" t="s">
+      <c r="H1693" s="83" t="s">
         <v>3319</v>
       </c>
-      <c r="I1692" s="83" t="s">
+      <c r="I1693" s="83" t="s">
         <v>2991</v>
-      </c>
-    </row>
-    <row r="1693" spans="1:9" s="88" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1693" s="88">
-        <v>1887</v>
-      </c>
-      <c r="B1693" s="1" t="s">
-        <v>3360</v>
-      </c>
-      <c r="C1693" s="88">
-        <v>2</v>
-      </c>
-      <c r="D1693" s="88" t="s">
-        <v>1714</v>
-      </c>
-      <c r="E1693" s="88" t="s">
-        <v>2926</v>
-      </c>
-      <c r="F1693" s="88" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1693" s="88" t="s">
-        <v>41</v>
-      </c>
-      <c r="H1693" s="88" t="s">
-        <v>3361</v>
-      </c>
-      <c r="I1693" s="88" t="s">
-        <v>3019</v>
       </c>
     </row>
     <row r="1694" spans="1:9" s="88" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1694" s="88">
-        <v>1888</v>
+        <v>1887</v>
       </c>
       <c r="B1694" s="1" t="s">
-        <v>3362</v>
+        <v>3360</v>
       </c>
       <c r="C1694" s="88">
         <v>2</v>
@@ -52503,348 +52534,348 @@
         <v>9</v>
       </c>
       <c r="G1694" s="88" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1694" s="88" t="s">
+        <v>3361</v>
+      </c>
+      <c r="I1694" s="88" t="s">
+        <v>3019</v>
+      </c>
+    </row>
+    <row r="1695" spans="1:9" s="88" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1695" s="88">
+        <v>1888</v>
+      </c>
+      <c r="B1695" s="1" t="s">
+        <v>3362</v>
+      </c>
+      <c r="C1695" s="88">
+        <v>2</v>
+      </c>
+      <c r="D1695" s="88" t="s">
+        <v>1714</v>
+      </c>
+      <c r="E1695" s="88" t="s">
+        <v>2926</v>
+      </c>
+      <c r="F1695" s="88" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1695" s="88" t="s">
         <v>21</v>
       </c>
-      <c r="H1694" s="88" t="s">
+      <c r="H1695" s="88" t="s">
         <v>3363</v>
       </c>
-      <c r="I1694" s="88" t="s">
+      <c r="I1695" s="88" t="s">
         <v>2991</v>
       </c>
     </row>
-    <row r="1695" spans="1:9" s="62" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1695" s="62">
+    <row r="1696" spans="1:9" s="62" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1696" s="62">
         <v>1889</v>
       </c>
-      <c r="B1695" s="1" t="s">
+      <c r="B1696" s="1" t="s">
         <v>3301</v>
       </c>
-      <c r="C1695" s="62">
+      <c r="C1696" s="62">
         <v>4</v>
       </c>
-      <c r="D1695" s="62" t="s">
-        <v>1714</v>
-      </c>
-      <c r="F1695" s="62" t="s">
+      <c r="D1696" s="62" t="s">
+        <v>1714</v>
+      </c>
+      <c r="F1696" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="G1695" s="62" t="s">
+      <c r="G1696" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="H1695" s="62" t="s">
+      <c r="H1696" s="62" t="s">
         <v>3302</v>
       </c>
-      <c r="I1695" s="62" t="s">
+      <c r="I1696" s="62" t="s">
         <v>3019</v>
       </c>
     </row>
-    <row r="1696" spans="1:9" s="83" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1696" s="83">
+    <row r="1697" spans="1:9" s="83" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1697" s="83">
         <v>1893</v>
       </c>
-      <c r="B1696" s="1" t="s">
+      <c r="B1697" s="1" t="s">
         <v>3320</v>
       </c>
-      <c r="C1696" s="83">
-        <v>3</v>
-      </c>
-      <c r="D1696" s="83" t="s">
-        <v>1714</v>
-      </c>
-      <c r="E1696" s="83" t="s">
+      <c r="C1697" s="83">
+        <v>3</v>
+      </c>
+      <c r="D1697" s="83" t="s">
+        <v>1714</v>
+      </c>
+      <c r="E1697" s="83" t="s">
         <v>2915</v>
       </c>
-      <c r="F1696" s="83" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1696" s="83" t="s">
+      <c r="F1697" s="83" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1697" s="83" t="s">
         <v>95</v>
       </c>
-      <c r="H1696" s="83" t="s">
+      <c r="H1697" s="83" t="s">
         <v>3321</v>
       </c>
-      <c r="I1696" s="83" t="s">
+      <c r="I1697" s="83" t="s">
         <v>3019</v>
       </c>
     </row>
-    <row r="1697" spans="1:9" s="89" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1697" s="89">
+    <row r="1698" spans="1:9" s="89" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1698" s="89">
         <v>1894</v>
       </c>
-      <c r="B1697" s="1" t="s">
+      <c r="B1698" s="1" t="s">
         <v>3375</v>
       </c>
-      <c r="C1697" s="89">
+      <c r="C1698" s="89">
         <v>2</v>
       </c>
-      <c r="D1697" s="89" t="s">
-        <v>1714</v>
-      </c>
-      <c r="F1697" s="89" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1697" s="89" t="s">
+      <c r="D1698" s="89" t="s">
+        <v>1714</v>
+      </c>
+      <c r="F1698" s="89" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1698" s="89" t="s">
         <v>21</v>
       </c>
-      <c r="H1697" s="89" t="s">
+      <c r="H1698" s="89" t="s">
         <v>3376</v>
       </c>
-      <c r="I1697" s="89" t="s">
+      <c r="I1698" s="89" t="s">
         <v>2991</v>
       </c>
     </row>
-    <row r="1698" spans="1:9" s="87" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1698" s="87">
+    <row r="1699" spans="1:9" s="87" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1699" s="87">
         <v>1895</v>
       </c>
-      <c r="B1698" s="1" t="s">
+      <c r="B1699" s="1" t="s">
         <v>3352</v>
       </c>
-      <c r="C1698" s="87">
-        <v>3</v>
-      </c>
-      <c r="D1698" s="87" t="s">
+      <c r="C1699" s="87">
+        <v>3</v>
+      </c>
+      <c r="D1699" s="87" t="s">
         <v>1707</v>
       </c>
-      <c r="F1698" s="87" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1698" s="87" t="s">
+      <c r="F1699" s="87" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1699" s="87" t="s">
         <v>21</v>
       </c>
-      <c r="H1698" s="87" t="s">
+      <c r="H1699" s="87" t="s">
         <v>3353</v>
       </c>
-      <c r="I1698" s="87" t="s">
+      <c r="I1699" s="87" t="s">
         <v>3377</v>
       </c>
     </row>
-    <row r="1699" spans="1:9" s="81" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1699" s="81">
+    <row r="1700" spans="1:9" s="81" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1700" s="81">
         <v>1896</v>
       </c>
-      <c r="B1699" s="1" t="s">
+      <c r="B1700" s="1" t="s">
         <v>3303</v>
       </c>
-      <c r="C1699" s="81">
+      <c r="C1700" s="81">
         <v>6</v>
       </c>
-      <c r="D1699" s="81" t="s">
-        <v>1714</v>
-      </c>
-      <c r="F1699" s="81" t="s">
+      <c r="D1700" s="81" t="s">
+        <v>1714</v>
+      </c>
+      <c r="F1700" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="G1699" s="81" t="s">
+      <c r="G1700" s="81" t="s">
         <v>36</v>
       </c>
-      <c r="H1699" s="81" t="s">
+      <c r="H1700" s="81" t="s">
         <v>3305</v>
       </c>
-      <c r="I1699" s="81" t="s">
+      <c r="I1700" s="81" t="s">
         <v>2991</v>
       </c>
     </row>
-    <row r="1700" spans="1:9" s="88" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1700" s="88">
+    <row r="1701" spans="1:9" s="88" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1701" s="88">
         <v>1897</v>
       </c>
-      <c r="B1700" s="1" t="s">
+      <c r="B1701" s="1" t="s">
         <v>3364</v>
       </c>
-      <c r="C1700" s="88">
+      <c r="C1701" s="88">
         <v>1</v>
       </c>
-      <c r="D1700" s="88" t="s">
+      <c r="D1701" s="88" t="s">
         <v>1761</v>
       </c>
-      <c r="E1700" s="88" t="s">
+      <c r="E1701" s="88" t="s">
         <v>2926</v>
       </c>
-      <c r="F1700" s="88" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1700" s="88" t="s">
+      <c r="F1701" s="88" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1701" s="88" t="s">
         <v>36</v>
       </c>
-      <c r="H1700" s="88" t="s">
+      <c r="H1701" s="88" t="s">
         <v>3365</v>
       </c>
-      <c r="I1700" s="88" t="s">
+      <c r="I1701" s="88" t="s">
         <v>2991</v>
-      </c>
-    </row>
-    <row r="1701" spans="1:9" s="89" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1701" s="89">
-        <v>1898</v>
-      </c>
-      <c r="B1701" s="1" t="s">
-        <v>3384</v>
-      </c>
-      <c r="C1701" s="89">
-        <v>3</v>
-      </c>
-      <c r="D1701" s="89" t="s">
-        <v>1714</v>
-      </c>
-      <c r="E1701" s="89" t="s">
-        <v>2926</v>
-      </c>
-      <c r="F1701" s="89" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1701" s="89" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1701" s="89" t="s">
-        <v>3385</v>
-      </c>
-      <c r="I1701" s="89" t="s">
-        <v>3019</v>
       </c>
     </row>
     <row r="1702" spans="1:9" s="89" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1702" s="89">
+        <v>1898</v>
+      </c>
+      <c r="B1702" s="1" t="s">
+        <v>3384</v>
+      </c>
+      <c r="C1702" s="89">
+        <v>3</v>
+      </c>
+      <c r="D1702" s="89" t="s">
+        <v>1714</v>
+      </c>
+      <c r="E1702" s="89" t="s">
+        <v>2926</v>
+      </c>
+      <c r="F1702" s="89" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1702" s="89" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1702" s="89" t="s">
+        <v>3385</v>
+      </c>
+      <c r="I1702" s="89" t="s">
+        <v>3019</v>
+      </c>
+    </row>
+    <row r="1703" spans="1:9" s="89" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1703" s="89">
         <v>1899</v>
       </c>
-      <c r="B1702" s="1" t="s">
+      <c r="B1703" s="1" t="s">
         <v>3386</v>
       </c>
-      <c r="C1702" s="89">
+      <c r="C1703" s="89">
         <v>2</v>
       </c>
-      <c r="D1702" s="89" t="s">
-        <v>1714</v>
-      </c>
-      <c r="F1702" s="89" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1702" s="89" t="s">
+      <c r="D1703" s="89" t="s">
+        <v>1714</v>
+      </c>
+      <c r="F1703" s="89" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1703" s="89" t="s">
         <v>25</v>
       </c>
-      <c r="H1702" s="89" t="s">
+      <c r="H1703" s="89" t="s">
         <v>3387</v>
       </c>
-      <c r="I1702" s="89" t="s">
+      <c r="I1703" s="89" t="s">
         <v>2991</v>
       </c>
     </row>
-    <row r="1703" spans="1:9" s="81" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1703" s="81">
+    <row r="1704" spans="1:9" s="81" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1704" s="81">
         <v>1900</v>
       </c>
-      <c r="B1703" s="1" t="s">
+      <c r="B1704" s="1" t="s">
         <v>3304</v>
       </c>
-      <c r="C1703" s="81">
-        <v>5</v>
-      </c>
-      <c r="D1703" s="81" t="s">
+      <c r="C1704" s="81">
+        <v>5</v>
+      </c>
+      <c r="D1704" s="81" t="s">
         <v>1707</v>
       </c>
-      <c r="F1703" s="81" t="s">
+      <c r="F1704" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="G1703" s="81" t="s">
+      <c r="G1704" s="81" t="s">
         <v>121</v>
       </c>
-      <c r="H1703" s="81" t="s">
+      <c r="H1704" s="81" t="s">
         <v>3307</v>
       </c>
-      <c r="I1703" s="81" t="s">
+      <c r="I1704" s="81" t="s">
         <v>3306</v>
       </c>
     </row>
-    <row r="1704" spans="1:9" s="91" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1704" s="91">
+    <row r="1705" spans="1:9" s="91" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1705" s="91">
         <v>1901</v>
       </c>
-      <c r="B1704" s="1" t="s">
+      <c r="B1705" s="1" t="s">
         <v>3405</v>
       </c>
-      <c r="C1704" s="91">
+      <c r="C1705" s="91">
         <v>2</v>
       </c>
-      <c r="D1704" s="91" t="s">
-        <v>1714</v>
-      </c>
-      <c r="E1704" s="91" t="s">
+      <c r="D1705" s="91" t="s">
+        <v>1714</v>
+      </c>
+      <c r="E1705" s="91" t="s">
         <v>2926</v>
       </c>
-      <c r="F1704" s="91" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1704" s="91" t="s">
+      <c r="F1705" s="91" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1705" s="91" t="s">
         <v>151</v>
       </c>
-      <c r="H1704" s="91" t="s">
+      <c r="H1705" s="91" t="s">
         <v>3406</v>
       </c>
-      <c r="I1704" s="91" t="s">
+      <c r="I1705" s="91" t="s">
         <v>2991</v>
       </c>
     </row>
-    <row r="1705" spans="1:9" s="81" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1705" s="81">
+    <row r="1706" spans="1:9" s="81" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1706" s="81">
         <v>1903</v>
       </c>
-      <c r="B1705" s="1" t="s">
+      <c r="B1706" s="1" t="s">
         <v>3327</v>
       </c>
-      <c r="C1705" s="81">
+      <c r="C1706" s="81">
         <v>1</v>
       </c>
-      <c r="D1705" s="81" t="s">
+      <c r="D1706" s="81" t="s">
         <v>1711</v>
       </c>
-      <c r="F1705" s="81" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1705" s="81" t="s">
+      <c r="F1706" s="81" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1706" s="81" t="s">
         <v>36</v>
       </c>
-      <c r="H1705" s="81" t="s">
+      <c r="H1706" s="81" t="s">
         <v>3328</v>
       </c>
-      <c r="I1705" s="81" t="s">
+      <c r="I1706" s="81" t="s">
         <v>2991</v>
-      </c>
-    </row>
-    <row r="1706" spans="1:9" s="91" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1706" s="91">
-        <v>1904</v>
-      </c>
-      <c r="B1706" s="1" t="s">
-        <v>3409</v>
-      </c>
-      <c r="C1706" s="91">
-        <v>2</v>
-      </c>
-      <c r="D1706" s="91" t="s">
-        <v>1714</v>
-      </c>
-      <c r="E1706" s="91" t="s">
-        <v>2926</v>
-      </c>
-      <c r="F1706" s="91" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1706" s="91" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1706" s="91" t="s">
-        <v>3410</v>
-      </c>
-      <c r="I1706" s="91" t="s">
-        <v>3047</v>
       </c>
     </row>
     <row r="1707" spans="1:9" s="91" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1707" s="91">
-        <v>1905</v>
+        <v>1904</v>
       </c>
       <c r="B1707" s="1" t="s">
-        <v>3407</v>
+        <v>3409</v>
       </c>
       <c r="C1707" s="91">
         <v>2</v>
@@ -52852,138 +52883,138 @@
       <c r="D1707" s="91" t="s">
         <v>1714</v>
       </c>
+      <c r="E1707" s="91" t="s">
+        <v>2926</v>
+      </c>
       <c r="F1707" s="91" t="s">
         <v>9</v>
       </c>
       <c r="G1707" s="91" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1707" s="91" t="s">
+        <v>3410</v>
+      </c>
+      <c r="I1707" s="91" t="s">
+        <v>3047</v>
+      </c>
+    </row>
+    <row r="1708" spans="1:9" s="91" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1708" s="91">
+        <v>1905</v>
+      </c>
+      <c r="B1708" s="1" t="s">
+        <v>3407</v>
+      </c>
+      <c r="C1708" s="91">
+        <v>2</v>
+      </c>
+      <c r="D1708" s="91" t="s">
+        <v>1714</v>
+      </c>
+      <c r="F1708" s="91" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1708" s="91" t="s">
         <v>187</v>
       </c>
-      <c r="H1707" s="91" t="s">
+      <c r="H1708" s="91" t="s">
         <v>3408</v>
       </c>
-      <c r="I1707" s="91" t="s">
+      <c r="I1708" s="91" t="s">
         <v>2991</v>
       </c>
     </row>
-    <row r="1708" spans="1:9" s="81" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1708" s="81">
+    <row r="1709" spans="1:9" s="81" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1709" s="81">
         <v>1906</v>
       </c>
-      <c r="B1708" s="1" t="s">
+      <c r="B1709" s="1" t="s">
         <v>3329</v>
       </c>
-      <c r="C1708" s="81">
+      <c r="C1709" s="81">
         <v>4</v>
       </c>
-      <c r="D1708" s="81" t="s">
+      <c r="D1709" s="81" t="s">
         <v>2801</v>
       </c>
-      <c r="F1708" s="81" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1708" s="81" t="s">
+      <c r="F1709" s="81" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1709" s="81" t="s">
         <v>25</v>
       </c>
-      <c r="H1708" s="81" t="s">
+      <c r="H1709" s="81" t="s">
         <v>3330</v>
       </c>
-      <c r="I1708" s="81" t="s">
+      <c r="I1709" s="81" t="s">
         <v>3335</v>
       </c>
     </row>
-    <row r="1709" spans="1:9" s="101" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1709" s="101">
+    <row r="1710" spans="1:9" s="101" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1710" s="101">
         <v>1908</v>
       </c>
-      <c r="B1709" s="1" t="s">
+      <c r="B1710" s="1" t="s">
         <v>3663</v>
       </c>
-      <c r="C1709" s="101">
+      <c r="C1710" s="101">
         <v>4</v>
       </c>
-      <c r="D1709" s="101" t="s">
+      <c r="D1710" s="101" t="s">
         <v>1712</v>
       </c>
-      <c r="F1709" s="101" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1709" s="101" t="s">
+      <c r="F1710" s="101" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1710" s="101" t="s">
         <v>25</v>
       </c>
-      <c r="H1709" s="101" t="s">
+      <c r="H1710" s="101" t="s">
         <v>3664</v>
       </c>
-      <c r="I1709" s="101" t="s">
+      <c r="I1710" s="101" t="s">
         <v>2991</v>
       </c>
     </row>
-    <row r="1710" spans="1:9" s="81" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1710" s="81">
+    <row r="1711" spans="1:9" s="81" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1711" s="81">
         <v>1909</v>
       </c>
-      <c r="B1710" s="1" t="s">
+      <c r="B1711" s="1" t="s">
         <v>3331</v>
       </c>
-      <c r="C1710" s="81">
+      <c r="C1711" s="81">
         <v>2</v>
       </c>
-      <c r="D1710" s="81" t="s">
+      <c r="D1711" s="81" t="s">
         <v>1761</v>
       </c>
-      <c r="E1710" s="81" t="s">
+      <c r="E1711" s="81" t="s">
         <v>2926</v>
       </c>
-      <c r="F1710" s="81" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1710" s="81" t="s">
+      <c r="F1711" s="81" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1711" s="81" t="s">
         <v>41</v>
       </c>
-      <c r="H1710" s="81" t="s">
+      <c r="H1711" s="81" t="s">
         <v>3332</v>
       </c>
-      <c r="I1710" s="81" t="s">
-        <v>2991</v>
-      </c>
-    </row>
-    <row r="1711" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1711" s="93">
-        <v>1910</v>
-      </c>
-      <c r="B1711" s="1" t="s">
-        <v>3455</v>
-      </c>
-      <c r="C1711" s="93">
-        <v>2</v>
-      </c>
-      <c r="D1711" s="93" t="s">
-        <v>1714</v>
-      </c>
-      <c r="E1711" s="93" t="s">
-        <v>2926</v>
-      </c>
-      <c r="F1711" s="93" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1711" s="93" t="s">
-        <v>36</v>
-      </c>
-      <c r="H1711" s="93" t="s">
-        <v>3456</v>
-      </c>
-      <c r="I1711" s="93" t="s">
+      <c r="I1711" s="81" t="s">
         <v>2991</v>
       </c>
     </row>
     <row r="1712" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1712" s="93">
-        <v>1911</v>
+        <v>1910</v>
       </c>
       <c r="B1712" s="1" t="s">
-        <v>3457</v>
+        <v>3455</v>
       </c>
       <c r="C1712" s="93">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1712" s="93" t="s">
         <v>1714</v>
@@ -52995,692 +53026,692 @@
         <v>9</v>
       </c>
       <c r="G1712" s="93" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="H1712" s="93" t="s">
-        <v>3458</v>
+        <v>3456</v>
       </c>
       <c r="I1712" s="93" t="s">
         <v>2991</v>
       </c>
     </row>
-    <row r="1713" spans="1:9" s="90" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1713" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1713" s="93">
+        <v>1911</v>
+      </c>
+      <c r="B1713" s="1" t="s">
+        <v>3457</v>
+      </c>
+      <c r="C1713" s="93">
+        <v>3</v>
+      </c>
+      <c r="D1713" s="93" t="s">
+        <v>1714</v>
+      </c>
+      <c r="E1713" s="93" t="s">
+        <v>2926</v>
+      </c>
+      <c r="F1713" s="93" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1713" s="93" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1713" s="93" t="s">
+        <v>3458</v>
+      </c>
+      <c r="I1713" s="93" t="s">
+        <v>2991</v>
+      </c>
+    </row>
+    <row r="1714" spans="1:9" s="90" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1714" s="93">
         <v>1912</v>
       </c>
-      <c r="B1713" s="1" t="s">
+      <c r="B1714" s="1" t="s">
         <v>3401</v>
       </c>
-      <c r="C1713" s="90">
+      <c r="C1714" s="90">
         <v>4</v>
       </c>
-      <c r="D1713" s="90" t="s">
-        <v>1714</v>
-      </c>
-      <c r="E1713" s="90" t="s">
+      <c r="D1714" s="90" t="s">
+        <v>1714</v>
+      </c>
+      <c r="E1714" s="90" t="s">
         <v>2915</v>
       </c>
-      <c r="F1713" s="90" t="s">
+      <c r="F1714" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="G1713" s="90" t="s">
+      <c r="G1714" s="90" t="s">
         <v>456</v>
       </c>
-      <c r="H1713" s="90" t="s">
+      <c r="H1714" s="90" t="s">
         <v>3402</v>
       </c>
-      <c r="I1713" s="90" t="s">
+      <c r="I1714" s="90" t="s">
         <v>3019</v>
-      </c>
-    </row>
-    <row r="1714" spans="1:9" s="81" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1714" s="81">
-        <v>1913</v>
-      </c>
-      <c r="B1714" s="1" t="s">
-        <v>3333</v>
-      </c>
-      <c r="C1714" s="81">
-        <v>2</v>
-      </c>
-      <c r="D1714" s="81" t="s">
-        <v>1761</v>
-      </c>
-      <c r="F1714" s="81" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1714" s="81" t="s">
-        <v>41</v>
-      </c>
-      <c r="H1714" s="81" t="s">
-        <v>3334</v>
-      </c>
-      <c r="I1714" s="81" t="s">
-        <v>2991</v>
       </c>
     </row>
     <row r="1715" spans="1:9" s="81" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1715" s="81">
-        <v>1914</v>
+        <v>1913</v>
       </c>
       <c r="B1715" s="1" t="s">
-        <v>3336</v>
+        <v>3333</v>
       </c>
       <c r="C1715" s="81">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1715" s="81" t="s">
-        <v>1714</v>
-      </c>
-      <c r="E1715" s="81" t="s">
-        <v>2926</v>
+        <v>1761</v>
       </c>
       <c r="F1715" s="81" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G1715" s="81" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="H1715" s="81" t="s">
-        <v>3338</v>
+        <v>3334</v>
       </c>
       <c r="I1715" s="81" t="s">
         <v>2991</v>
       </c>
     </row>
-    <row r="1716" spans="1:9" s="99" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1716" s="99">
+    <row r="1716" spans="1:9" s="81" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1716" s="81">
+        <v>1914</v>
+      </c>
+      <c r="B1716" s="1" t="s">
+        <v>3336</v>
+      </c>
+      <c r="C1716" s="81">
+        <v>3</v>
+      </c>
+      <c r="D1716" s="81" t="s">
+        <v>1714</v>
+      </c>
+      <c r="E1716" s="81" t="s">
+        <v>2926</v>
+      </c>
+      <c r="F1716" s="81" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1716" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1716" s="81" t="s">
+        <v>3338</v>
+      </c>
+      <c r="I1716" s="81" t="s">
+        <v>2991</v>
+      </c>
+    </row>
+    <row r="1717" spans="1:9" s="99" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1717" s="99">
         <v>1915</v>
       </c>
-      <c r="B1716" s="1" t="s">
+      <c r="B1717" s="1" t="s">
         <v>3590</v>
       </c>
-      <c r="C1716" s="99">
-        <v>3</v>
-      </c>
-      <c r="D1716" s="99" t="s">
-        <v>1714</v>
-      </c>
-      <c r="E1716" s="99" t="s">
+      <c r="C1717" s="99">
+        <v>3</v>
+      </c>
+      <c r="D1717" s="99" t="s">
+        <v>1714</v>
+      </c>
+      <c r="E1717" s="99" t="s">
         <v>2915</v>
       </c>
-      <c r="F1716" s="99" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1716" s="99" t="s">
+      <c r="F1717" s="99" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1717" s="99" t="s">
         <v>6</v>
       </c>
-      <c r="H1716" s="99" t="s">
+      <c r="H1717" s="99" t="s">
         <v>3591</v>
       </c>
-      <c r="I1716" s="99" t="s">
+      <c r="I1717" s="99" t="s">
         <v>2991</v>
       </c>
     </row>
-    <row r="1717" spans="1:9" s="81" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1717" s="81">
+    <row r="1718" spans="1:9" s="81" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1718" s="81">
         <v>1916</v>
       </c>
-      <c r="B1717" s="1" t="s">
+      <c r="B1718" s="1" t="s">
         <v>3337</v>
       </c>
-      <c r="C1717" s="81">
+      <c r="C1718" s="81">
         <v>4</v>
       </c>
-      <c r="D1717" s="81" t="s">
+      <c r="D1718" s="81" t="s">
         <v>1712</v>
       </c>
-      <c r="F1717" s="81" t="s">
+      <c r="F1718" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="G1717" s="81" t="s">
+      <c r="G1718" s="81" t="s">
         <v>25</v>
       </c>
-      <c r="H1717" s="81" t="s">
+      <c r="H1718" s="81" t="s">
         <v>3339</v>
       </c>
-      <c r="I1717" s="81" t="s">
+      <c r="I1718" s="81" t="s">
         <v>2991</v>
       </c>
     </row>
-    <row r="1718" spans="1:9" s="88" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1718" s="88">
+    <row r="1719" spans="1:9" s="88" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1719" s="88">
         <v>1920</v>
       </c>
-      <c r="B1718" s="1" t="s">
+      <c r="B1719" s="1" t="s">
         <v>3366</v>
       </c>
-      <c r="C1718" s="88">
+      <c r="C1719" s="88">
         <v>1</v>
       </c>
-      <c r="D1718" s="88" t="s">
+      <c r="D1719" s="88" t="s">
         <v>1711</v>
       </c>
-      <c r="F1718" s="88" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1718" s="88" t="s">
+      <c r="F1719" s="88" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1719" s="88" t="s">
         <v>21</v>
       </c>
-      <c r="H1718" s="88" t="s">
+      <c r="H1719" s="88" t="s">
         <v>3367</v>
       </c>
-      <c r="I1718" s="88" t="s">
+      <c r="I1719" s="88" t="s">
         <v>2991</v>
-      </c>
-    </row>
-    <row r="1719" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1719" s="93">
-        <v>1921</v>
-      </c>
-      <c r="B1719" s="1" t="s">
-        <v>3459</v>
-      </c>
-      <c r="C1719" s="93">
-        <v>2</v>
-      </c>
-      <c r="D1719" s="93" t="s">
-        <v>1714</v>
-      </c>
-      <c r="E1719" s="93" t="s">
-        <v>2926</v>
-      </c>
-      <c r="F1719" s="93" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1719" s="93" t="s">
-        <v>41</v>
-      </c>
-      <c r="H1719" s="93" t="s">
-        <v>3592</v>
-      </c>
-      <c r="I1719" s="93" t="s">
-        <v>3019</v>
       </c>
     </row>
     <row r="1720" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1720" s="93">
-        <v>1922</v>
+        <v>1921</v>
       </c>
       <c r="B1720" s="1" t="s">
-        <v>3460</v>
+        <v>3459</v>
       </c>
       <c r="C1720" s="93">
         <v>2</v>
       </c>
       <c r="D1720" s="93" t="s">
+        <v>1714</v>
+      </c>
+      <c r="E1720" s="93" t="s">
+        <v>2926</v>
+      </c>
+      <c r="F1720" s="93" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1720" s="93" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1720" s="93" t="s">
+        <v>3592</v>
+      </c>
+      <c r="I1720" s="93" t="s">
+        <v>3019</v>
+      </c>
+    </row>
+    <row r="1721" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1721" s="93">
+        <v>1922</v>
+      </c>
+      <c r="B1721" s="1" t="s">
+        <v>3460</v>
+      </c>
+      <c r="C1721" s="93">
+        <v>2</v>
+      </c>
+      <c r="D1721" s="93" t="s">
         <v>1712</v>
       </c>
-      <c r="F1720" s="93" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1720" s="93" t="s">
+      <c r="F1721" s="93" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1721" s="93" t="s">
         <v>25</v>
       </c>
-      <c r="H1720" s="93" t="s">
+      <c r="H1721" s="93" t="s">
         <v>3593</v>
       </c>
-      <c r="I1720" s="93" t="s">
+      <c r="I1721" s="93" t="s">
         <v>2993</v>
       </c>
     </row>
-    <row r="1721" spans="1:9" s="88" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1721" s="88">
+    <row r="1722" spans="1:9" s="88" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1722" s="88">
         <v>1923</v>
       </c>
-      <c r="B1721" s="1" t="s">
+      <c r="B1722" s="1" t="s">
         <v>3368</v>
       </c>
-      <c r="C1721" s="88">
+      <c r="C1722" s="88">
         <v>6</v>
       </c>
-      <c r="D1721" s="88" t="s">
-        <v>1714</v>
-      </c>
-      <c r="F1721" s="88" t="s">
+      <c r="D1722" s="88" t="s">
+        <v>1714</v>
+      </c>
+      <c r="F1722" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="G1721" s="88" t="s">
+      <c r="G1722" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="H1721" s="88" t="s">
+      <c r="H1722" s="88" t="s">
         <v>3369</v>
       </c>
-      <c r="I1721" s="88" t="s">
+      <c r="I1722" s="88" t="s">
         <v>3372</v>
       </c>
     </row>
-    <row r="1722" spans="1:9" s="102" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1722" s="102">
+    <row r="1723" spans="1:9" s="102" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1723" s="102">
         <v>1924</v>
       </c>
-      <c r="B1722" s="1" t="s">
+      <c r="B1723" s="1" t="s">
         <v>3667</v>
       </c>
-      <c r="C1722" s="102">
-        <v>5</v>
-      </c>
-      <c r="D1722" s="102" t="s">
+      <c r="C1723" s="102">
+        <v>5</v>
+      </c>
+      <c r="D1723" s="102" t="s">
         <v>1712</v>
       </c>
-      <c r="F1722" s="102" t="s">
+      <c r="F1723" s="102" t="s">
         <v>12</v>
       </c>
-      <c r="G1722" s="102" t="s">
+      <c r="G1723" s="102" t="s">
         <v>25</v>
       </c>
-      <c r="H1722" s="102" t="s">
+      <c r="H1723" s="102" t="s">
         <v>3668</v>
       </c>
     </row>
-    <row r="1723" spans="1:9" s="91" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1723" s="91">
+    <row r="1724" spans="1:9" s="91" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1724" s="91">
         <v>1925</v>
       </c>
-      <c r="B1723" s="1" t="s">
+      <c r="B1724" s="1" t="s">
         <v>3411</v>
       </c>
-      <c r="C1723" s="91">
+      <c r="C1724" s="91">
         <v>1</v>
       </c>
-      <c r="D1723" s="91" t="s">
-        <v>1714</v>
-      </c>
-      <c r="F1723" s="91" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1723" s="91" t="s">
+      <c r="D1724" s="91" t="s">
+        <v>1714</v>
+      </c>
+      <c r="F1724" s="91" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1724" s="91" t="s">
         <v>25</v>
       </c>
-      <c r="H1723" s="91" t="s">
+      <c r="H1724" s="91" t="s">
         <v>3412</v>
       </c>
-      <c r="I1723" s="91" t="s">
+      <c r="I1724" s="91" t="s">
         <v>3175</v>
-      </c>
-    </row>
-    <row r="1724" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1724" s="93">
-        <v>1926</v>
-      </c>
-      <c r="B1724" s="1" t="s">
-        <v>3461</v>
-      </c>
-      <c r="C1724" s="93">
-        <v>2</v>
-      </c>
-      <c r="D1724" s="93" t="s">
-        <v>1714</v>
-      </c>
-      <c r="F1724" s="93" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1724" s="93" t="s">
-        <v>187</v>
-      </c>
-      <c r="H1724" s="93" t="s">
-        <v>3594</v>
-      </c>
-      <c r="I1724" s="93" t="s">
-        <v>2991</v>
       </c>
     </row>
     <row r="1725" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1725" s="93">
-        <v>1927</v>
+        <v>1926</v>
       </c>
       <c r="B1725" s="1" t="s">
-        <v>3462</v>
+        <v>3461</v>
       </c>
       <c r="C1725" s="93">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1725" s="93" t="s">
-        <v>1712</v>
+        <v>1714</v>
       </c>
       <c r="F1725" s="93" t="s">
         <v>9</v>
       </c>
       <c r="G1725" s="93" t="s">
-        <v>25</v>
+        <v>187</v>
       </c>
       <c r="H1725" s="93" t="s">
-        <v>3595</v>
+        <v>3594</v>
       </c>
       <c r="I1725" s="93" t="s">
         <v>2991</v>
       </c>
     </row>
-    <row r="1726" spans="1:9" s="90" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1726" s="90">
+    <row r="1726" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1726" s="93">
+        <v>1927</v>
+      </c>
+      <c r="B1726" s="1" t="s">
+        <v>3462</v>
+      </c>
+      <c r="C1726" s="93">
+        <v>3</v>
+      </c>
+      <c r="D1726" s="93" t="s">
+        <v>1712</v>
+      </c>
+      <c r="F1726" s="93" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1726" s="93" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1726" s="93" t="s">
+        <v>3595</v>
+      </c>
+      <c r="I1726" s="93" t="s">
+        <v>2991</v>
+      </c>
+    </row>
+    <row r="1727" spans="1:9" s="90" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1727" s="90">
         <v>1928</v>
       </c>
-      <c r="B1726" s="1" t="s">
+      <c r="B1727" s="1" t="s">
         <v>3398</v>
       </c>
-      <c r="C1726" s="90">
+      <c r="C1727" s="90">
         <v>4</v>
       </c>
-      <c r="D1726" s="90" t="s">
-        <v>1714</v>
-      </c>
-      <c r="E1726" s="90" t="s">
+      <c r="D1727" s="90" t="s">
+        <v>1714</v>
+      </c>
+      <c r="E1727" s="90" t="s">
         <v>2915</v>
       </c>
-      <c r="F1726" s="90" t="s">
+      <c r="F1727" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="G1726" s="90" t="s">
+      <c r="G1727" s="90" t="s">
         <v>187</v>
       </c>
-      <c r="H1726" s="90" t="s">
+      <c r="H1727" s="90" t="s">
         <v>3399</v>
       </c>
-      <c r="I1726" s="90" t="s">
+      <c r="I1727" s="90" t="s">
         <v>3019</v>
       </c>
     </row>
-    <row r="1727" spans="1:9" s="91" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1727" s="91">
+    <row r="1728" spans="1:9" s="91" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1728" s="91">
         <v>1929</v>
       </c>
-      <c r="B1727" s="1" t="s">
+      <c r="B1728" s="1" t="s">
         <v>3403</v>
       </c>
-      <c r="C1727" s="91">
+      <c r="C1728" s="91">
         <v>1</v>
       </c>
-      <c r="D1727" s="91" t="s">
+      <c r="D1728" s="91" t="s">
         <v>1711</v>
       </c>
-      <c r="F1727" s="91" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1727" s="91" t="s">
+      <c r="F1728" s="91" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1728" s="91" t="s">
         <v>21</v>
       </c>
-      <c r="H1727" s="91" t="s">
+      <c r="H1728" s="91" t="s">
         <v>3404</v>
       </c>
-      <c r="I1727" s="91" t="s">
+      <c r="I1728" s="91" t="s">
         <v>2991</v>
       </c>
     </row>
-    <row r="1728" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1728" s="93">
+    <row r="1729" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1729" s="93">
         <v>1930</v>
       </c>
-      <c r="B1728" s="1" t="s">
+      <c r="B1729" s="1" t="s">
         <v>3463</v>
       </c>
-      <c r="C1728" s="93">
-        <v>3</v>
-      </c>
-      <c r="D1728" s="93" t="s">
-        <v>1714</v>
-      </c>
-      <c r="E1728" s="93" t="s">
+      <c r="C1729" s="93">
+        <v>3</v>
+      </c>
+      <c r="D1729" s="93" t="s">
+        <v>1714</v>
+      </c>
+      <c r="E1729" s="93" t="s">
         <v>2915</v>
       </c>
-      <c r="F1728" s="93" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1728" s="93" t="s">
+      <c r="F1729" s="93" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1729" s="93" t="s">
         <v>21</v>
       </c>
-      <c r="H1728" s="93" t="s">
+      <c r="H1729" s="93" t="s">
         <v>3596</v>
       </c>
-      <c r="I1728" s="93" t="s">
+      <c r="I1729" s="93" t="s">
         <v>2991</v>
       </c>
     </row>
-    <row r="1729" spans="1:9" s="90" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1729" s="90">
+    <row r="1730" spans="1:9" s="90" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1730" s="90">
         <v>1931</v>
       </c>
-      <c r="B1729" s="1" t="s">
+      <c r="B1730" s="1" t="s">
         <v>3396</v>
       </c>
-      <c r="C1729" s="90">
+      <c r="C1730" s="90">
         <v>4</v>
       </c>
-      <c r="D1729" s="90" t="s">
-        <v>1714</v>
-      </c>
-      <c r="F1729" s="90" t="s">
+      <c r="D1730" s="90" t="s">
+        <v>1714</v>
+      </c>
+      <c r="F1730" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="G1729" s="90" t="s">
+      <c r="G1730" s="90" t="s">
         <v>51</v>
       </c>
-      <c r="H1729" s="90" t="s">
+      <c r="H1730" s="90" t="s">
         <v>3397</v>
       </c>
-      <c r="I1729" s="90" t="s">
+      <c r="I1730" s="90" t="s">
         <v>3400</v>
       </c>
     </row>
-    <row r="1730" spans="1:9" s="88" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1730" s="88">
+    <row r="1731" spans="1:9" s="88" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1731" s="88">
         <v>1932</v>
       </c>
-      <c r="B1730" s="1" t="s">
+      <c r="B1731" s="1" t="s">
         <v>3370</v>
       </c>
-      <c r="C1730" s="88">
+      <c r="C1731" s="88">
         <v>4</v>
       </c>
-      <c r="D1730" s="88" t="s">
-        <v>1714</v>
-      </c>
-      <c r="F1730" s="88" t="s">
+      <c r="D1731" s="88" t="s">
+        <v>1714</v>
+      </c>
+      <c r="F1731" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="G1730" s="88" t="s">
+      <c r="G1731" s="88" t="s">
         <v>140</v>
       </c>
-      <c r="H1730" s="88" t="s">
+      <c r="H1731" s="88" t="s">
         <v>3371</v>
       </c>
-      <c r="I1730" s="88" t="s">
+      <c r="I1731" s="88" t="s">
         <v>2991</v>
       </c>
     </row>
-    <row r="1731" spans="1:9" s="104" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1731" s="104">
+    <row r="1732" spans="1:9" s="104" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1732" s="104">
         <v>1933</v>
       </c>
-      <c r="B1731" s="98" t="s">
+      <c r="B1732" s="98" t="s">
         <v>3704</v>
       </c>
-      <c r="C1731" s="104">
-        <v>3</v>
-      </c>
-      <c r="D1731" s="104" t="s">
-        <v>1714</v>
-      </c>
-      <c r="F1731" s="104" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1731" s="104" t="s">
+      <c r="C1732" s="104">
+        <v>3</v>
+      </c>
+      <c r="D1732" s="104" t="s">
+        <v>1714</v>
+      </c>
+      <c r="F1732" s="104" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1732" s="104" t="s">
         <v>36</v>
       </c>
-      <c r="H1731" s="104" t="s">
+      <c r="H1732" s="104" t="s">
         <v>3705</v>
       </c>
-      <c r="I1731" s="104" t="s">
+      <c r="I1732" s="104" t="s">
         <v>2991</v>
       </c>
     </row>
-    <row r="1732" spans="1:9" s="89" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1732" s="89">
+    <row r="1733" spans="1:9" s="89" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1733" s="89">
         <v>1935</v>
       </c>
-      <c r="B1732" s="1" t="s">
+      <c r="B1733" s="1" t="s">
         <v>3382</v>
       </c>
-      <c r="C1732" s="89">
+      <c r="C1733" s="89">
         <v>2</v>
       </c>
-      <c r="D1732" s="89" t="s">
-        <v>1714</v>
-      </c>
-      <c r="F1732" s="89" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1732" s="89" t="s">
+      <c r="D1733" s="89" t="s">
+        <v>1714</v>
+      </c>
+      <c r="F1733" s="89" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1733" s="89" t="s">
         <v>36</v>
       </c>
-      <c r="H1732" s="89" t="s">
+      <c r="H1733" s="89" t="s">
         <v>3383</v>
       </c>
-      <c r="I1732" s="89" t="s">
-        <v>2991</v>
-      </c>
-    </row>
-    <row r="1733" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1733" s="93">
-        <v>1936</v>
-      </c>
-      <c r="B1733" s="1" t="s">
-        <v>3464</v>
-      </c>
-      <c r="C1733" s="93">
-        <v>2</v>
-      </c>
-      <c r="D1733" s="93" t="s">
-        <v>1714</v>
-      </c>
-      <c r="F1733" s="93" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1733" s="93" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1733" s="93" t="s">
-        <v>3601</v>
-      </c>
-      <c r="I1733" s="93" t="s">
+      <c r="I1733" s="89" t="s">
         <v>2991</v>
       </c>
     </row>
     <row r="1734" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1734" s="93">
+        <v>1936</v>
+      </c>
+      <c r="B1734" s="1" t="s">
+        <v>3464</v>
+      </c>
+      <c r="C1734" s="93">
+        <v>2</v>
+      </c>
+      <c r="D1734" s="93" t="s">
+        <v>1714</v>
+      </c>
+      <c r="F1734" s="93" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1734" s="93" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1734" s="93" t="s">
+        <v>3601</v>
+      </c>
+      <c r="I1734" s="93" t="s">
+        <v>2991</v>
+      </c>
+    </row>
+    <row r="1735" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1735" s="93">
         <v>1937</v>
       </c>
-      <c r="B1734" s="1" t="s">
+      <c r="B1735" s="1" t="s">
         <v>3465</v>
       </c>
-      <c r="C1734" s="93">
+      <c r="C1735" s="93">
         <v>4</v>
       </c>
-      <c r="D1734" s="93" t="s">
-        <v>1714</v>
-      </c>
-      <c r="E1734" s="93" t="s">
+      <c r="D1735" s="93" t="s">
+        <v>1714</v>
+      </c>
+      <c r="E1735" s="93" t="s">
         <v>2926</v>
       </c>
-      <c r="F1734" s="93" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1734" s="93" t="s">
+      <c r="F1735" s="93" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1735" s="93" t="s">
         <v>21</v>
       </c>
-      <c r="H1734" s="93" t="s">
+      <c r="H1735" s="93" t="s">
         <v>3608</v>
       </c>
-      <c r="I1734" s="93" t="s">
+      <c r="I1735" s="93" t="s">
         <v>3035</v>
       </c>
     </row>
-    <row r="1735" spans="1:9" s="88" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1735" s="88">
+    <row r="1736" spans="1:9" s="88" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1736" s="88">
         <v>1938</v>
       </c>
-      <c r="B1735" s="1" t="s">
+      <c r="B1736" s="1" t="s">
         <v>3373</v>
       </c>
-      <c r="C1735" s="88">
+      <c r="C1736" s="88">
         <v>6</v>
       </c>
-      <c r="D1735" s="88" t="s">
-        <v>1714</v>
-      </c>
-      <c r="F1735" s="88" t="s">
+      <c r="D1736" s="88" t="s">
+        <v>1714</v>
+      </c>
+      <c r="F1736" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="G1735" s="88" t="s">
+      <c r="G1736" s="88" t="s">
         <v>134</v>
       </c>
-      <c r="H1735" s="88" t="s">
+      <c r="H1736" s="88" t="s">
         <v>3374</v>
       </c>
-      <c r="I1735" s="88" t="s">
+      <c r="I1736" s="88" t="s">
         <v>3169</v>
       </c>
     </row>
-    <row r="1736" spans="1:9" s="89" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1736" s="89">
+    <row r="1737" spans="1:9" s="89" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1737" s="89">
         <v>1941</v>
       </c>
-      <c r="B1736" s="1" t="s">
+      <c r="B1737" s="1" t="s">
         <v>3380</v>
       </c>
-      <c r="C1736" s="89">
+      <c r="C1737" s="89">
         <v>1</v>
       </c>
-      <c r="D1736" s="89" t="s">
+      <c r="D1737" s="89" t="s">
         <v>1711</v>
       </c>
-      <c r="F1736" s="89" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1736" s="89" t="s">
+      <c r="F1737" s="89" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1737" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="H1736" s="89" t="s">
+      <c r="H1737" s="89" t="s">
         <v>3381</v>
       </c>
-      <c r="I1736" s="89" t="s">
+      <c r="I1737" s="89" t="s">
         <v>2991</v>
-      </c>
-    </row>
-    <row r="1737" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1737" s="93">
-        <v>1942</v>
-      </c>
-      <c r="B1737" s="1" t="s">
-        <v>3466</v>
-      </c>
-      <c r="C1737" s="93">
-        <v>3</v>
-      </c>
-      <c r="D1737" s="93" t="s">
-        <v>1714</v>
-      </c>
-      <c r="E1737" s="93" t="s">
-        <v>2915</v>
-      </c>
-      <c r="F1737" s="93" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1737" s="93" t="s">
-        <v>41</v>
-      </c>
-      <c r="H1737" s="93" t="s">
-        <v>3609</v>
-      </c>
-      <c r="I1737" s="93" t="s">
-        <v>3019</v>
       </c>
     </row>
     <row r="1738" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1738" s="93">
-        <v>1943</v>
+        <v>1942</v>
       </c>
       <c r="B1738" s="1" t="s">
-        <v>3467</v>
+        <v>3466</v>
       </c>
       <c r="C1738" s="93">
         <v>3</v>
@@ -53695,543 +53726,558 @@
         <v>9</v>
       </c>
       <c r="G1738" s="93" t="s">
-        <v>95</v>
+        <v>41</v>
       </c>
       <c r="H1738" s="93" t="s">
-        <v>3610</v>
+        <v>3609</v>
       </c>
       <c r="I1738" s="93" t="s">
         <v>3019</v>
       </c>
     </row>
-    <row r="1739" spans="1:9" s="90" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1739" s="90">
+    <row r="1739" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1739" s="93">
+        <v>1943</v>
+      </c>
+      <c r="B1739" s="1" t="s">
+        <v>3467</v>
+      </c>
+      <c r="C1739" s="93">
+        <v>3</v>
+      </c>
+      <c r="D1739" s="93" t="s">
+        <v>1714</v>
+      </c>
+      <c r="E1739" s="93" t="s">
+        <v>2915</v>
+      </c>
+      <c r="F1739" s="93" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1739" s="93" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1739" s="93" t="s">
+        <v>3610</v>
+      </c>
+      <c r="I1739" s="93" t="s">
+        <v>3019</v>
+      </c>
+    </row>
+    <row r="1740" spans="1:9" s="90" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1740" s="90">
         <v>1944</v>
       </c>
-      <c r="B1739" s="1" t="s">
+      <c r="B1740" s="1" t="s">
         <v>3394</v>
       </c>
-      <c r="C1739" s="90">
+      <c r="C1740" s="90">
         <v>4</v>
       </c>
-      <c r="D1739" s="90" t="s">
-        <v>1714</v>
-      </c>
-      <c r="E1739" s="90" t="s">
+      <c r="D1740" s="90" t="s">
+        <v>1714</v>
+      </c>
+      <c r="E1740" s="90" t="s">
         <v>2915</v>
       </c>
-      <c r="F1739" s="90" t="s">
+      <c r="F1740" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="G1739" s="90" t="s">
+      <c r="G1740" s="90" t="s">
         <v>36</v>
       </c>
-      <c r="H1739" s="90" t="s">
+      <c r="H1740" s="90" t="s">
         <v>3395</v>
       </c>
-      <c r="I1739" s="90" t="s">
+      <c r="I1740" s="90" t="s">
         <v>2991</v>
       </c>
     </row>
-    <row r="1740" spans="1:9" s="89" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1740" s="89">
+    <row r="1741" spans="1:9" s="89" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1741" s="89">
         <v>1945</v>
       </c>
-      <c r="B1740" s="1" t="s">
+      <c r="B1741" s="1" t="s">
         <v>3378</v>
       </c>
-      <c r="C1740" s="89">
+      <c r="C1741" s="89">
         <v>1</v>
       </c>
-      <c r="D1740" s="89" t="s">
+      <c r="D1741" s="89" t="s">
         <v>1711</v>
       </c>
-      <c r="F1740" s="89" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1740" s="89" t="s">
+      <c r="F1741" s="89" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1741" s="89" t="s">
         <v>36</v>
       </c>
-      <c r="H1740" s="89" t="s">
+      <c r="H1741" s="89" t="s">
         <v>3379</v>
       </c>
-      <c r="I1740" s="89" t="s">
-        <v>2991</v>
-      </c>
-    </row>
-    <row r="1741" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1741" s="93">
-        <v>1946</v>
-      </c>
-      <c r="B1741" s="1" t="s">
-        <v>3468</v>
-      </c>
-      <c r="C1741" s="93">
-        <v>2</v>
-      </c>
-      <c r="D1741" s="93" t="s">
-        <v>1714</v>
-      </c>
-      <c r="F1741" s="93" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1741" s="93" t="s">
-        <v>36</v>
-      </c>
-      <c r="H1741" s="93" t="s">
-        <v>3611</v>
-      </c>
-      <c r="I1741" s="93" t="s">
+      <c r="I1741" s="89" t="s">
         <v>2991</v>
       </c>
     </row>
     <row r="1742" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1742" s="93">
+        <v>1946</v>
+      </c>
+      <c r="B1742" s="1" t="s">
+        <v>3468</v>
+      </c>
+      <c r="C1742" s="93">
+        <v>2</v>
+      </c>
+      <c r="D1742" s="93" t="s">
+        <v>1714</v>
+      </c>
+      <c r="F1742" s="93" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1742" s="93" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1742" s="93" t="s">
+        <v>3611</v>
+      </c>
+      <c r="I1742" s="93" t="s">
+        <v>2991</v>
+      </c>
+    </row>
+    <row r="1743" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1743" s="93">
         <v>1947</v>
       </c>
-      <c r="B1742" s="1" t="s">
+      <c r="B1743" s="1" t="s">
         <v>3469</v>
       </c>
-      <c r="C1742" s="93">
-        <v>3</v>
-      </c>
-      <c r="D1742" s="93" t="s">
-        <v>1714</v>
-      </c>
-      <c r="F1742" s="93" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1742" s="93" t="s">
+      <c r="C1743" s="93">
+        <v>3</v>
+      </c>
+      <c r="D1743" s="93" t="s">
+        <v>1714</v>
+      </c>
+      <c r="F1743" s="93" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1743" s="93" t="s">
         <v>121</v>
       </c>
-      <c r="H1742" s="93" t="s">
+      <c r="H1743" s="93" t="s">
         <v>3612</v>
       </c>
-      <c r="I1742" s="93" t="s">
+      <c r="I1743" s="93" t="s">
         <v>3223</v>
       </c>
     </row>
-    <row r="1743" spans="1:9" s="90" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1743" s="90">
+    <row r="1744" spans="1:9" s="90" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1744" s="90">
         <v>1948</v>
       </c>
-      <c r="B1743" s="1" t="s">
+      <c r="B1744" s="1" t="s">
         <v>3391</v>
       </c>
-      <c r="C1743" s="90">
-        <v>5</v>
-      </c>
-      <c r="D1743" s="90" t="s">
+      <c r="C1744" s="90">
+        <v>5</v>
+      </c>
+      <c r="D1744" s="90" t="s">
         <v>2801</v>
       </c>
-      <c r="F1743" s="90" t="s">
+      <c r="F1744" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="G1743" s="90" t="s">
+      <c r="G1744" s="90" t="s">
         <v>36</v>
       </c>
-      <c r="H1743" s="90" t="s">
+      <c r="H1744" s="90" t="s">
         <v>3393</v>
       </c>
-      <c r="I1743" s="90" t="s">
+      <c r="I1744" s="90" t="s">
         <v>2991</v>
       </c>
     </row>
-    <row r="1744" spans="1:9" s="91" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1744" s="91">
+    <row r="1745" spans="1:9" s="91" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1745" s="91">
         <v>1952</v>
       </c>
-      <c r="B1744" s="1" t="s">
+      <c r="B1745" s="1" t="s">
         <v>3413</v>
       </c>
-      <c r="C1744" s="91">
+      <c r="C1745" s="91">
         <v>2</v>
       </c>
-      <c r="D1744" s="91" t="s">
-        <v>1714</v>
-      </c>
-      <c r="F1744" s="91" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1744" s="91" t="s">
+      <c r="D1745" s="91" t="s">
+        <v>1714</v>
+      </c>
+      <c r="F1745" s="91" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1745" s="91" t="s">
         <v>25</v>
       </c>
-      <c r="H1744" s="91" t="s">
+      <c r="H1745" s="91" t="s">
         <v>3414</v>
       </c>
-      <c r="I1744" s="91" t="s">
+      <c r="I1745" s="91" t="s">
         <v>3324</v>
-      </c>
-    </row>
-    <row r="1745" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1745" s="93">
-        <v>1953</v>
-      </c>
-      <c r="B1745" s="1" t="s">
-        <v>3470</v>
       </c>
     </row>
     <row r="1746" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1746" s="93">
+        <v>1953</v>
+      </c>
+      <c r="B1746" s="1" t="s">
+        <v>3470</v>
+      </c>
+    </row>
+    <row r="1747" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1747" s="93">
         <v>1954</v>
       </c>
-      <c r="B1746" s="1" t="s">
+      <c r="B1747" s="1" t="s">
         <v>3471</v>
       </c>
-      <c r="C1746" s="93">
+      <c r="C1747" s="93">
         <v>2</v>
       </c>
-      <c r="D1746" s="93" t="s">
+      <c r="D1747" s="93" t="s">
         <v>1712</v>
       </c>
-      <c r="F1746" s="93" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1746" s="93" t="s">
+      <c r="F1747" s="93" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1747" s="93" t="s">
         <v>25</v>
       </c>
-      <c r="H1746" s="93" t="s">
+      <c r="H1747" s="93" t="s">
         <v>3613</v>
       </c>
-      <c r="I1746" s="93" t="s">
+      <c r="I1747" s="93" t="s">
         <v>2993</v>
       </c>
     </row>
-    <row r="1747" spans="1:9" s="90" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1747" s="90">
+    <row r="1748" spans="1:9" s="90" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1748" s="90">
         <v>1955</v>
       </c>
-      <c r="B1747" s="1" t="s">
+      <c r="B1748" s="1" t="s">
         <v>3390</v>
       </c>
-      <c r="C1747" s="90">
+      <c r="C1748" s="90">
         <v>4</v>
       </c>
-      <c r="D1747" s="90" t="s">
-        <v>1714</v>
-      </c>
-      <c r="E1747" s="90" t="s">
+      <c r="D1748" s="90" t="s">
+        <v>1714</v>
+      </c>
+      <c r="E1748" s="90" t="s">
         <v>2926</v>
       </c>
-      <c r="F1747" s="90" t="s">
+      <c r="F1748" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="G1747" s="90" t="s">
+      <c r="G1748" s="90" t="s">
         <v>28</v>
       </c>
-      <c r="H1747" s="90" t="s">
+      <c r="H1748" s="90" t="s">
         <v>3392</v>
       </c>
-      <c r="I1747" s="90" t="s">
+      <c r="I1748" s="90" t="s">
         <v>2991</v>
       </c>
     </row>
-    <row r="1748" spans="1:9" s="103" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1748" s="103">
+    <row r="1749" spans="1:9" s="103" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1749" s="103">
         <v>1956</v>
       </c>
-      <c r="B1748" s="1" t="s">
+      <c r="B1749" s="1" t="s">
         <v>3677</v>
       </c>
-      <c r="C1748" s="103">
+      <c r="C1749" s="103">
         <v>4</v>
       </c>
-      <c r="D1748" s="103" t="s">
-        <v>1714</v>
-      </c>
-      <c r="F1748" s="103" t="s">
+      <c r="D1749" s="103" t="s">
+        <v>1714</v>
+      </c>
+      <c r="F1749" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="G1748" s="103" t="s">
+      <c r="G1749" s="103" t="s">
         <v>187</v>
       </c>
-      <c r="H1748" s="103" t="s">
+      <c r="H1749" s="103" t="s">
         <v>3678</v>
       </c>
-      <c r="I1748" s="103" t="s">
+      <c r="I1749" s="103" t="s">
         <v>3679</v>
       </c>
     </row>
-    <row r="1749" spans="1:9" s="91" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1749" s="91">
+    <row r="1750" spans="1:9" s="91" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1750" s="91">
         <v>1957</v>
       </c>
-      <c r="B1749" s="1" t="s">
+      <c r="B1750" s="1" t="s">
         <v>3415</v>
       </c>
-      <c r="C1749" s="91">
+      <c r="C1750" s="91">
         <v>2</v>
       </c>
-      <c r="D1749" s="91" t="s">
-        <v>1714</v>
-      </c>
-      <c r="E1749" s="91" t="s">
+      <c r="D1750" s="91" t="s">
+        <v>1714</v>
+      </c>
+      <c r="E1750" s="91" t="s">
         <v>2926</v>
       </c>
-      <c r="F1749" s="91" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1749" s="91" t="s">
+      <c r="F1750" s="91" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1750" s="91" t="s">
         <v>36</v>
       </c>
-      <c r="H1749" s="91" t="s">
+      <c r="H1750" s="91" t="s">
         <v>3416</v>
       </c>
-      <c r="I1749" s="91" t="s">
-        <v>2991</v>
-      </c>
-    </row>
-    <row r="1750" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1750" s="93">
-        <v>1958</v>
-      </c>
-      <c r="B1750" s="1" t="s">
-        <v>3472</v>
-      </c>
-      <c r="C1750" s="93">
-        <v>2</v>
-      </c>
-      <c r="D1750" s="93" t="s">
-        <v>1707</v>
-      </c>
-      <c r="F1750" s="93" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1750" s="93" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1750" s="93" t="s">
-        <v>3614</v>
-      </c>
-      <c r="I1750" s="93" t="s">
+      <c r="I1750" s="91" t="s">
         <v>2991</v>
       </c>
     </row>
     <row r="1751" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1751" s="93">
+        <v>1958</v>
+      </c>
+      <c r="B1751" s="1" t="s">
+        <v>3472</v>
+      </c>
+      <c r="C1751" s="93">
+        <v>2</v>
+      </c>
+      <c r="D1751" s="93" t="s">
+        <v>1707</v>
+      </c>
+      <c r="F1751" s="93" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1751" s="93" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1751" s="93" t="s">
+        <v>3614</v>
+      </c>
+      <c r="I1751" s="93" t="s">
+        <v>2991</v>
+      </c>
+    </row>
+    <row r="1752" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1752" s="93">
         <v>1959</v>
       </c>
-      <c r="B1751" s="1" t="s">
+      <c r="B1752" s="1" t="s">
         <v>3473</v>
       </c>
-      <c r="C1751" s="93">
-        <v>3</v>
-      </c>
-      <c r="D1751" s="93" t="s">
-        <v>1714</v>
-      </c>
-      <c r="F1751" s="93" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1751" s="93" t="s">
+      <c r="C1752" s="93">
+        <v>3</v>
+      </c>
+      <c r="D1752" s="93" t="s">
+        <v>1714</v>
+      </c>
+      <c r="F1752" s="93" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1752" s="93" t="s">
         <v>28</v>
       </c>
-      <c r="H1751" s="93" t="s">
+      <c r="H1752" s="93" t="s">
         <v>3615</v>
       </c>
-      <c r="I1751" s="93" t="s">
+      <c r="I1752" s="93" t="s">
         <v>3616</v>
       </c>
     </row>
-    <row r="1752" spans="1:9" s="90" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1752" s="90">
+    <row r="1753" spans="1:9" s="90" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1753" s="90">
         <v>1960</v>
       </c>
-      <c r="B1752" s="1" t="s">
+      <c r="B1753" s="1" t="s">
         <v>3388</v>
       </c>
-      <c r="C1752" s="90">
+      <c r="C1753" s="90">
         <v>6</v>
       </c>
-      <c r="D1752" s="90" t="s">
+      <c r="D1753" s="90" t="s">
         <v>2801</v>
       </c>
-      <c r="F1752" s="90" t="s">
+      <c r="F1753" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="G1752" s="90" t="s">
+      <c r="G1753" s="90" t="s">
         <v>36</v>
       </c>
-      <c r="H1752" s="90" t="s">
+      <c r="H1753" s="90" t="s">
         <v>3389</v>
       </c>
-      <c r="I1752" s="90" t="s">
-        <v>2991</v>
-      </c>
-    </row>
-    <row r="1753" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1753" s="93">
-        <v>1961</v>
-      </c>
-      <c r="B1753" s="1" t="s">
-        <v>3474</v>
-      </c>
-      <c r="C1753" s="93">
-        <v>1</v>
-      </c>
-      <c r="D1753" s="93" t="s">
-        <v>1711</v>
-      </c>
-      <c r="F1753" s="93" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1753" s="93" t="s">
-        <v>36</v>
-      </c>
-      <c r="H1753" s="93" t="s">
-        <v>3478</v>
-      </c>
-      <c r="I1753" s="93" t="s">
+      <c r="I1753" s="90" t="s">
         <v>2991</v>
       </c>
     </row>
     <row r="1754" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1754" s="93">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="B1754" s="1" t="s">
-        <v>3475</v>
+        <v>3474</v>
       </c>
       <c r="C1754" s="93">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1754" s="93" t="s">
-        <v>1714</v>
+        <v>1711</v>
       </c>
       <c r="F1754" s="93" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G1754" s="93" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H1754" s="93" t="s">
-        <v>3661</v>
+        <v>3478</v>
       </c>
       <c r="I1754" s="93" t="s">
-        <v>3019</v>
+        <v>2991</v>
       </c>
     </row>
     <row r="1755" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1755" s="93">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="B1755" s="1" t="s">
-        <v>3476</v>
+        <v>3475</v>
+      </c>
+      <c r="C1755" s="93">
+        <v>2</v>
+      </c>
+      <c r="D1755" s="93" t="s">
+        <v>1714</v>
+      </c>
+      <c r="F1755" s="93" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1755" s="93" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1755" s="93" t="s">
+        <v>3661</v>
+      </c>
+      <c r="I1755" s="93" t="s">
+        <v>3019</v>
       </c>
     </row>
     <row r="1756" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1756" s="93">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="B1756" s="1" t="s">
-        <v>3477</v>
-      </c>
-      <c r="C1756" s="93">
-        <v>4</v>
-      </c>
-      <c r="D1756" s="93" t="s">
-        <v>1714</v>
-      </c>
-      <c r="E1756" s="93" t="s">
-        <v>2926</v>
-      </c>
-      <c r="F1756" s="93" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1756" s="93" t="s">
-        <v>41</v>
-      </c>
-      <c r="H1756" s="93" t="s">
-        <v>427</v>
-      </c>
-      <c r="I1756" s="93" t="s">
-        <v>3008</v>
+        <v>3476</v>
       </c>
     </row>
     <row r="1757" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1757" s="93">
-        <v>1967</v>
+        <v>1964</v>
       </c>
       <c r="B1757" s="1" t="s">
-        <v>3479</v>
+        <v>3477</v>
       </c>
       <c r="C1757" s="93">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1757" s="93" t="s">
         <v>1714</v>
       </c>
+      <c r="E1757" s="93" t="s">
+        <v>2926</v>
+      </c>
       <c r="F1757" s="93" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G1757" s="93" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H1757" s="93" t="s">
-        <v>3617</v>
+        <v>427</v>
       </c>
       <c r="I1757" s="93" t="s">
+        <v>3008</v>
+      </c>
+    </row>
+    <row r="1758" spans="1:9" s="105" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1758" s="105">
+        <v>1966</v>
+      </c>
+      <c r="B1758" s="1" t="s">
+        <v>3708</v>
+      </c>
+      <c r="C1758" s="105">
+        <v>2</v>
+      </c>
+      <c r="E1758" s="105" t="s">
+        <v>2926</v>
+      </c>
+      <c r="F1758" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1758" s="105" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1758" s="105" t="s">
+        <v>3709</v>
+      </c>
+      <c r="I1758" s="105" t="s">
         <v>2991</v>
-      </c>
-    </row>
-    <row r="1758" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1758" s="93">
-        <v>1968</v>
-      </c>
-      <c r="B1758" s="1" t="s">
-        <v>3480</v>
       </c>
     </row>
     <row r="1759" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1759" s="93">
-        <v>1969</v>
+        <v>1967</v>
       </c>
       <c r="B1759" s="1" t="s">
-        <v>3481</v>
+        <v>3479</v>
       </c>
       <c r="C1759" s="93">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1759" s="93" t="s">
-        <v>1712</v>
+        <v>1714</v>
       </c>
       <c r="F1759" s="93" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G1759" s="93" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="H1759" s="93" t="s">
-        <v>3681</v>
+        <v>3617</v>
       </c>
       <c r="I1759" s="93" t="s">
-        <v>2993</v>
+        <v>2991</v>
       </c>
     </row>
     <row r="1760" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1760" s="93">
-        <v>1970</v>
+        <v>1968</v>
       </c>
       <c r="B1760" s="1" t="s">
-        <v>3482</v>
+        <v>3480</v>
       </c>
       <c r="C1760" s="93">
-        <v>4</v>
-      </c>
-      <c r="D1760" s="93" t="s">
-        <v>1714</v>
-      </c>
-      <c r="E1760" s="93" t="s">
-        <v>2926</v>
+        <v>3</v>
       </c>
       <c r="F1760" s="93" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G1760" s="93" t="s">
-        <v>187</v>
+        <v>41</v>
       </c>
       <c r="H1760" s="93" t="s">
-        <v>3602</v>
+        <v>3710</v>
       </c>
       <c r="I1760" s="93" t="s">
         <v>3019</v>
@@ -54239,258 +54285,255 @@
     </row>
     <row r="1761" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1761" s="93">
-        <v>1971</v>
+        <v>1969</v>
       </c>
       <c r="B1761" s="1" t="s">
-        <v>3483</v>
+        <v>3481</v>
+      </c>
+      <c r="C1761" s="93">
+        <v>4</v>
+      </c>
+      <c r="D1761" s="93" t="s">
+        <v>1712</v>
+      </c>
+      <c r="F1761" s="93" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1761" s="93" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1761" s="93" t="s">
+        <v>3681</v>
+      </c>
+      <c r="I1761" s="93" t="s">
+        <v>2993</v>
       </c>
     </row>
     <row r="1762" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1762" s="93">
-        <v>1974</v>
+        <v>1970</v>
       </c>
       <c r="B1762" s="1" t="s">
-        <v>3484</v>
+        <v>3482</v>
       </c>
       <c r="C1762" s="93">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D1762" s="93" t="s">
-        <v>1711</v>
+        <v>1714</v>
       </c>
       <c r="E1762" s="93" t="s">
         <v>2926</v>
       </c>
       <c r="F1762" s="93" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G1762" s="93" t="s">
-        <v>36</v>
+        <v>187</v>
       </c>
       <c r="H1762" s="93" t="s">
-        <v>3586</v>
+        <v>3602</v>
       </c>
       <c r="I1762" s="93" t="s">
-        <v>2991</v>
+        <v>3019</v>
       </c>
     </row>
     <row r="1763" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1763" s="93">
-        <v>1975</v>
+        <v>1971</v>
       </c>
       <c r="B1763" s="1" t="s">
-        <v>3485</v>
-      </c>
-      <c r="C1763" s="93">
-        <v>2</v>
-      </c>
-      <c r="D1763" s="93" t="s">
-        <v>1712</v>
-      </c>
-      <c r="F1763" s="93" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1763" s="93" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1763" s="93" t="s">
-        <v>3618</v>
-      </c>
-      <c r="I1763" s="93" t="s">
-        <v>2991</v>
+        <v>3483</v>
       </c>
     </row>
     <row r="1764" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1764" s="93">
-        <v>1976</v>
+        <v>1974</v>
       </c>
       <c r="B1764" s="1" t="s">
-        <v>3486</v>
+        <v>3484</v>
+      </c>
+      <c r="C1764" s="93">
+        <v>2</v>
+      </c>
+      <c r="D1764" s="93" t="s">
+        <v>1711</v>
+      </c>
+      <c r="E1764" s="93" t="s">
+        <v>2926</v>
+      </c>
+      <c r="F1764" s="93" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1764" s="93" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1764" s="93" t="s">
+        <v>3586</v>
+      </c>
+      <c r="I1764" s="93" t="s">
+        <v>2991</v>
       </c>
     </row>
     <row r="1765" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1765" s="93">
-        <v>1977</v>
+        <v>1975</v>
       </c>
       <c r="B1765" s="1" t="s">
-        <v>3487</v>
+        <v>3485</v>
       </c>
       <c r="C1765" s="93">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1765" s="93" t="s">
-        <v>1714</v>
+        <v>1712</v>
       </c>
       <c r="F1765" s="93" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G1765" s="93" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H1765" s="93" t="s">
-        <v>3603</v>
+        <v>3618</v>
       </c>
       <c r="I1765" s="93" t="s">
-        <v>3175</v>
+        <v>2991</v>
       </c>
     </row>
     <row r="1766" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1766" s="93">
-        <v>1979</v>
+        <v>1976</v>
       </c>
       <c r="B1766" s="1" t="s">
-        <v>3488</v>
-      </c>
-      <c r="C1766" s="93">
-        <v>1</v>
-      </c>
-      <c r="D1766" s="93" t="s">
-        <v>1714</v>
-      </c>
-      <c r="F1766" s="93" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1766" s="93" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1766" s="93" t="s">
-        <v>3579</v>
-      </c>
-      <c r="I1766" s="93" t="s">
-        <v>2991</v>
+        <v>3486</v>
       </c>
     </row>
     <row r="1767" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1767" s="93">
-        <v>1980</v>
+        <v>1977</v>
       </c>
       <c r="B1767" s="1" t="s">
-        <v>3489</v>
+        <v>3487</v>
       </c>
       <c r="C1767" s="93">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D1767" s="93" t="s">
         <v>1714</v>
       </c>
       <c r="F1767" s="93" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G1767" s="93" t="s">
-        <v>134</v>
+        <v>28</v>
       </c>
       <c r="H1767" s="93" t="s">
-        <v>3619</v>
+        <v>3603</v>
       </c>
       <c r="I1767" s="93" t="s">
-        <v>2991</v>
+        <v>3175</v>
       </c>
     </row>
     <row r="1768" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1768" s="93">
-        <v>1981</v>
+        <v>1979</v>
       </c>
       <c r="B1768" s="1" t="s">
-        <v>3490</v>
+        <v>3488</v>
       </c>
       <c r="C1768" s="93">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1768" s="93" t="s">
         <v>1714</v>
       </c>
       <c r="F1768" s="93" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G1768" s="93" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="H1768" s="93" t="s">
-        <v>3620</v>
+        <v>3579</v>
       </c>
       <c r="I1768" s="93" t="s">
-        <v>3621</v>
+        <v>2991</v>
       </c>
     </row>
     <row r="1769" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1769" s="93">
-        <v>1982</v>
+        <v>1980</v>
       </c>
       <c r="B1769" s="1" t="s">
-        <v>3491</v>
+        <v>3489</v>
       </c>
       <c r="C1769" s="93">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D1769" s="93" t="s">
-        <v>1712</v>
+        <v>1714</v>
       </c>
       <c r="F1769" s="93" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G1769" s="93" t="s">
-        <v>25</v>
+        <v>134</v>
       </c>
       <c r="H1769" s="93" t="s">
-        <v>3604</v>
+        <v>3619</v>
       </c>
       <c r="I1769" s="93" t="s">
-        <v>3019</v>
+        <v>2991</v>
       </c>
     </row>
     <row r="1770" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1770" s="93">
-        <v>1984</v>
+        <v>1981</v>
       </c>
       <c r="B1770" s="1" t="s">
-        <v>3492</v>
+        <v>3490</v>
       </c>
       <c r="C1770" s="93">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1770" s="93" t="s">
         <v>1714</v>
       </c>
-      <c r="E1770" s="93" t="s">
-        <v>2926</v>
-      </c>
       <c r="F1770" s="93" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G1770" s="93" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="H1770" s="93" t="s">
-        <v>3580</v>
+        <v>3620</v>
       </c>
       <c r="I1770" s="93" t="s">
-        <v>2991</v>
+        <v>3621</v>
       </c>
     </row>
     <row r="1771" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1771" s="93">
-        <v>1985</v>
+        <v>1982</v>
       </c>
       <c r="B1771" s="1" t="s">
-        <v>3493</v>
+        <v>3491</v>
       </c>
       <c r="C1771" s="93">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D1771" s="93" t="s">
-        <v>1714</v>
-      </c>
-      <c r="E1771" s="93" t="s">
-        <v>2926</v>
+        <v>1712</v>
       </c>
       <c r="F1771" s="93" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G1771" s="93" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="H1771" s="93" t="s">
-        <v>3622</v>
+        <v>3604</v>
       </c>
       <c r="I1771" s="93" t="s">
         <v>3019</v>
@@ -54498,39 +54541,42 @@
     </row>
     <row r="1772" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1772" s="93">
-        <v>1986</v>
+        <v>1984</v>
       </c>
       <c r="B1772" s="1" t="s">
-        <v>3494</v>
+        <v>3492</v>
       </c>
       <c r="C1772" s="93">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1772" s="93" t="s">
         <v>1714</v>
       </c>
+      <c r="E1772" s="93" t="s">
+        <v>2926</v>
+      </c>
       <c r="F1772" s="93" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G1772" s="93" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="H1772" s="93" t="s">
-        <v>3623</v>
+        <v>3580</v>
       </c>
       <c r="I1772" s="93" t="s">
-        <v>3624</v>
+        <v>2991</v>
       </c>
     </row>
     <row r="1773" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1773" s="93">
-        <v>1987</v>
+        <v>1985</v>
       </c>
       <c r="B1773" s="1" t="s">
-        <v>3495</v>
+        <v>3493</v>
       </c>
       <c r="C1773" s="93">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1773" s="93" t="s">
         <v>1714</v>
@@ -54539,212 +54585,215 @@
         <v>2926</v>
       </c>
       <c r="F1773" s="93" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G1773" s="93" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="H1773" s="93" t="s">
-        <v>3605</v>
+        <v>3622</v>
       </c>
       <c r="I1773" s="93" t="s">
-        <v>2991</v>
+        <v>3019</v>
       </c>
     </row>
     <row r="1774" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1774" s="93">
-        <v>1991</v>
+        <v>1986</v>
       </c>
       <c r="B1774" s="1" t="s">
-        <v>3496</v>
+        <v>3494</v>
       </c>
       <c r="C1774" s="93">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1774" s="93" t="s">
         <v>1714</v>
       </c>
-      <c r="E1774" s="93" t="s">
-        <v>2926</v>
-      </c>
       <c r="F1774" s="93" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G1774" s="93" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="H1774" s="93" t="s">
-        <v>3585</v>
+        <v>3623</v>
       </c>
       <c r="I1774" s="93" t="s">
-        <v>2991</v>
+        <v>3624</v>
       </c>
     </row>
     <row r="1775" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1775" s="93">
-        <v>1992</v>
+        <v>1987</v>
       </c>
       <c r="B1775" s="1" t="s">
-        <v>3497</v>
+        <v>3495</v>
       </c>
       <c r="C1775" s="93">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D1775" s="93" t="s">
         <v>1714</v>
       </c>
+      <c r="E1775" s="93" t="s">
+        <v>2926</v>
+      </c>
       <c r="F1775" s="93" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G1775" s="93" t="s">
-        <v>187</v>
+        <v>28</v>
       </c>
       <c r="H1775" s="93" t="s">
-        <v>3659</v>
+        <v>3605</v>
       </c>
       <c r="I1775" s="93" t="s">
-        <v>3035</v>
+        <v>2991</v>
       </c>
     </row>
     <row r="1776" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1776" s="93">
-        <v>1993</v>
+        <v>1991</v>
       </c>
       <c r="B1776" s="1" t="s">
-        <v>3498</v>
+        <v>3496</v>
+      </c>
+      <c r="C1776" s="93">
+        <v>2</v>
+      </c>
+      <c r="D1776" s="93" t="s">
+        <v>1714</v>
+      </c>
+      <c r="E1776" s="93" t="s">
+        <v>2926</v>
+      </c>
+      <c r="F1776" s="93" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1776" s="93" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1776" s="93" t="s">
+        <v>3585</v>
+      </c>
+      <c r="I1776" s="93" t="s">
+        <v>2991</v>
       </c>
     </row>
     <row r="1777" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1777" s="93">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="B1777" s="1" t="s">
-        <v>3499</v>
+        <v>3497</v>
       </c>
       <c r="C1777" s="93">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1777" s="93" t="s">
         <v>1714</v>
       </c>
       <c r="F1777" s="93" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G1777" s="93" t="s">
-        <v>121</v>
+        <v>187</v>
       </c>
       <c r="H1777" s="93" t="s">
-        <v>3606</v>
+        <v>3659</v>
       </c>
       <c r="I1777" s="93" t="s">
-        <v>3607</v>
+        <v>3035</v>
       </c>
     </row>
     <row r="1778" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1778" s="93">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="B1778" s="1" t="s">
-        <v>3500</v>
-      </c>
-      <c r="C1778" s="93">
-        <v>3</v>
-      </c>
-      <c r="D1778" s="93" t="s">
-        <v>1714</v>
-      </c>
-      <c r="E1778" s="93" t="s">
-        <v>2926</v>
-      </c>
-      <c r="F1778" s="93" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1778" s="93" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1778" s="93" t="s">
-        <v>3581</v>
-      </c>
-      <c r="I1778" s="93" t="s">
-        <v>3175</v>
+        <v>3498</v>
       </c>
     </row>
     <row r="1779" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1779" s="93">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="B1779" s="1" t="s">
-        <v>3501</v>
+        <v>3499</v>
       </c>
       <c r="C1779" s="93">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D1779" s="93" t="s">
         <v>1714</v>
       </c>
-      <c r="E1779" s="93" t="s">
-        <v>2915</v>
-      </c>
       <c r="F1779" s="93" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G1779" s="93" t="s">
-        <v>41</v>
+        <v>121</v>
       </c>
       <c r="H1779" s="93" t="s">
-        <v>3662</v>
+        <v>3606</v>
       </c>
       <c r="I1779" s="93" t="s">
-        <v>3019</v>
+        <v>3607</v>
       </c>
     </row>
     <row r="1780" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1780" s="93">
-        <v>1997</v>
-      </c>
-      <c r="B1780" s="95" t="s">
-        <v>3503</v>
+        <v>1995</v>
+      </c>
+      <c r="B1780" s="1" t="s">
+        <v>3500</v>
       </c>
       <c r="C1780" s="93">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1780" s="93" t="s">
         <v>1714</v>
       </c>
+      <c r="E1780" s="93" t="s">
+        <v>2926</v>
+      </c>
       <c r="F1780" s="93" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G1780" s="93" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="H1780" s="93" t="s">
-        <v>3625</v>
+        <v>3581</v>
       </c>
       <c r="I1780" s="93" t="s">
-        <v>2991</v>
+        <v>3175</v>
       </c>
     </row>
     <row r="1781" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1781" s="93">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="B1781" s="1" t="s">
-        <v>3502</v>
+        <v>3501</v>
       </c>
       <c r="C1781" s="93">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1781" s="93" t="s">
         <v>1714</v>
       </c>
+      <c r="E1781" s="93" t="s">
+        <v>2915</v>
+      </c>
       <c r="F1781" s="93" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G1781" s="93" t="s">
-        <v>187</v>
+        <v>41</v>
       </c>
       <c r="H1781" s="93" t="s">
-        <v>384</v>
+        <v>3662</v>
       </c>
       <c r="I1781" s="93" t="s">
         <v>3019</v>
@@ -54752,25 +54801,25 @@
     </row>
     <row r="1782" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1782" s="93">
-        <v>2000</v>
-      </c>
-      <c r="B1782" s="1" t="s">
-        <v>3504</v>
+        <v>1997</v>
+      </c>
+      <c r="B1782" s="95" t="s">
+        <v>3503</v>
       </c>
       <c r="C1782" s="93">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1782" s="93" t="s">
-        <v>1711</v>
+        <v>1714</v>
       </c>
       <c r="F1782" s="93" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G1782" s="93" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="H1782" s="93" t="s">
-        <v>3582</v>
+        <v>3625</v>
       </c>
       <c r="I1782" s="93" t="s">
         <v>2991</v>
@@ -54778,500 +54827,554 @@
     </row>
     <row r="1783" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1783" s="93">
-        <v>2001</v>
+        <v>1998</v>
       </c>
       <c r="B1783" s="1" t="s">
-        <v>3505</v>
+        <v>3502</v>
       </c>
       <c r="C1783" s="93">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D1783" s="93" t="s">
         <v>1714</v>
       </c>
       <c r="F1783" s="93" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G1783" s="93" t="s">
-        <v>25</v>
+        <v>187</v>
       </c>
       <c r="H1783" s="93" t="s">
-        <v>3702</v>
+        <v>384</v>
       </c>
       <c r="I1783" s="93" t="s">
-        <v>2991</v>
+        <v>3019</v>
       </c>
     </row>
     <row r="1784" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1784" s="93">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="B1784" s="1" t="s">
-        <v>3506</v>
+        <v>3504</v>
+      </c>
+      <c r="C1784" s="93">
+        <v>1</v>
+      </c>
+      <c r="D1784" s="93" t="s">
+        <v>1711</v>
+      </c>
+      <c r="F1784" s="93" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1784" s="93" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1784" s="93" t="s">
+        <v>3582</v>
+      </c>
+      <c r="I1784" s="93" t="s">
+        <v>2991</v>
       </c>
     </row>
     <row r="1785" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1785" s="93">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="B1785" s="1" t="s">
-        <v>3507</v>
+        <v>3505</v>
       </c>
       <c r="C1785" s="93">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1785" s="93" t="s">
-        <v>1707</v>
+        <v>1714</v>
       </c>
       <c r="F1785" s="93" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G1785" s="93" t="s">
-        <v>121</v>
+        <v>25</v>
       </c>
       <c r="H1785" s="93" t="s">
-        <v>3516</v>
+        <v>3702</v>
       </c>
       <c r="I1785" s="93" t="s">
         <v>2991</v>
       </c>
     </row>
-    <row r="1786" spans="1:9" s="101" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1786" s="101">
-        <v>2005</v>
+    <row r="1786" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1786" s="93">
+        <v>2002</v>
       </c>
       <c r="B1786" s="1" t="s">
-        <v>3665</v>
-      </c>
-      <c r="C1786" s="101">
-        <v>4</v>
-      </c>
-      <c r="D1786" s="101" t="s">
-        <v>1712</v>
-      </c>
-      <c r="F1786" s="101" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1786" s="101" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1786" s="101" t="s">
-        <v>3666</v>
-      </c>
-      <c r="I1786" s="101" t="s">
-        <v>2991</v>
+        <v>3506</v>
+      </c>
+      <c r="C1786" s="93">
+        <v>2</v>
+      </c>
+      <c r="D1786" s="93" t="s">
+        <v>1714</v>
+      </c>
+      <c r="E1786" s="93" t="s">
+        <v>2915</v>
+      </c>
+      <c r="F1786" s="93" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1786" s="93" t="s">
+        <v>121</v>
+      </c>
+      <c r="H1786" s="93" t="s">
+        <v>3712</v>
+      </c>
+      <c r="I1786" s="93" t="s">
+        <v>3713</v>
       </c>
     </row>
     <row r="1787" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1787" s="93">
-        <v>2006</v>
+        <v>2003</v>
       </c>
       <c r="B1787" s="1" t="s">
-        <v>3508</v>
+        <v>3507</v>
       </c>
       <c r="C1787" s="93">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1787" s="93" t="s">
-        <v>1714</v>
-      </c>
-      <c r="E1787" s="93" t="s">
-        <v>2926</v>
+        <v>1707</v>
       </c>
       <c r="F1787" s="93" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G1787" s="93" t="s">
-        <v>21</v>
+        <v>121</v>
       </c>
       <c r="H1787" s="93" t="s">
-        <v>3578</v>
+        <v>3516</v>
       </c>
       <c r="I1787" s="93" t="s">
         <v>2991</v>
       </c>
     </row>
-    <row r="1788" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1788" s="93">
-        <v>2007</v>
+    <row r="1788" spans="1:9" s="101" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1788" s="101">
+        <v>2005</v>
       </c>
       <c r="B1788" s="1" t="s">
-        <v>3509</v>
+        <v>3665</v>
+      </c>
+      <c r="C1788" s="101">
+        <v>4</v>
+      </c>
+      <c r="D1788" s="101" t="s">
+        <v>1712</v>
+      </c>
+      <c r="F1788" s="101" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1788" s="101" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1788" s="101" t="s">
+        <v>3666</v>
+      </c>
+      <c r="I1788" s="101" t="s">
+        <v>2991</v>
       </c>
     </row>
     <row r="1789" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1789" s="93">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="B1789" s="1" t="s">
-        <v>3510</v>
+        <v>3508</v>
+      </c>
+      <c r="C1789" s="93">
+        <v>1</v>
+      </c>
+      <c r="D1789" s="93" t="s">
+        <v>1714</v>
+      </c>
+      <c r="E1789" s="93" t="s">
+        <v>2926</v>
+      </c>
+      <c r="F1789" s="93" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1789" s="93" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1789" s="93" t="s">
+        <v>3578</v>
+      </c>
+      <c r="I1789" s="93" t="s">
+        <v>2991</v>
       </c>
     </row>
     <row r="1790" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1790" s="93">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="B1790" s="1" t="s">
-        <v>3511</v>
-      </c>
-      <c r="C1790" s="93">
-        <v>4</v>
-      </c>
-      <c r="D1790" s="93" t="s">
-        <v>1714</v>
-      </c>
-      <c r="E1790" s="93" t="s">
-        <v>2926</v>
-      </c>
-      <c r="F1790" s="93" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1790" s="93" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1790" s="93" t="s">
-        <v>3655</v>
-      </c>
-      <c r="I1790" s="93" t="s">
-        <v>3019</v>
+        <v>3509</v>
       </c>
     </row>
     <row r="1791" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1791" s="93">
-        <v>2011</v>
+        <v>2008</v>
       </c>
       <c r="B1791" s="1" t="s">
-        <v>3512</v>
-      </c>
-      <c r="C1791" s="93">
-        <v>1</v>
-      </c>
-      <c r="D1791" s="93" t="s">
-        <v>1714</v>
-      </c>
-      <c r="F1791" s="93" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1791" s="93" t="s">
-        <v>36</v>
-      </c>
-      <c r="H1791" s="93" t="s">
-        <v>3577</v>
-      </c>
-      <c r="I1791" s="93" t="s">
-        <v>2991</v>
+        <v>3510</v>
       </c>
     </row>
     <row r="1792" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1792" s="93">
-        <v>2012</v>
+        <v>2009</v>
       </c>
       <c r="B1792" s="1" t="s">
-        <v>3513</v>
+        <v>3511</v>
+      </c>
+      <c r="C1792" s="93">
+        <v>4</v>
+      </c>
+      <c r="D1792" s="93" t="s">
+        <v>1714</v>
+      </c>
+      <c r="E1792" s="93" t="s">
+        <v>2926</v>
+      </c>
+      <c r="F1792" s="93" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1792" s="93" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1792" s="93" t="s">
+        <v>3655</v>
+      </c>
+      <c r="I1792" s="93" t="s">
+        <v>3019</v>
       </c>
     </row>
     <row r="1793" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1793" s="93">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="B1793" s="1" t="s">
-        <v>3514</v>
+        <v>3512</v>
+      </c>
+      <c r="C1793" s="93">
+        <v>1</v>
+      </c>
+      <c r="D1793" s="93" t="s">
+        <v>1714</v>
+      </c>
+      <c r="F1793" s="93" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1793" s="93" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1793" s="93" t="s">
+        <v>3577</v>
+      </c>
+      <c r="I1793" s="93" t="s">
+        <v>2991</v>
       </c>
     </row>
     <row r="1794" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1794" s="93">
+        <v>2012</v>
+      </c>
+      <c r="B1794" s="1" t="s">
+        <v>3513</v>
+      </c>
+    </row>
+    <row r="1795" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1795" s="93">
+        <v>2013</v>
+      </c>
+      <c r="B1795" s="1" t="s">
+        <v>3514</v>
+      </c>
+    </row>
+    <row r="1796" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1796" s="93">
         <v>2014</v>
       </c>
-      <c r="B1794" s="1" t="s">
+      <c r="B1796" s="1" t="s">
         <v>3515</v>
       </c>
-      <c r="C1794" s="93">
+      <c r="C1796" s="93">
         <v>4</v>
       </c>
-      <c r="D1794" s="93" t="s">
+      <c r="D1796" s="93" t="s">
         <v>1707</v>
       </c>
-      <c r="F1794" s="93" t="s">
+      <c r="F1796" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="G1794" s="93" t="s">
+      <c r="G1796" s="93" t="s">
         <v>151</v>
       </c>
-      <c r="H1794" s="93" t="s">
+      <c r="H1796" s="93" t="s">
         <v>3517</v>
       </c>
-      <c r="I1794" s="93" t="s">
+      <c r="I1796" s="93" t="s">
         <v>3518</v>
-      </c>
-    </row>
-    <row r="1795" spans="1:9" s="94" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1795" s="94">
-        <v>2016</v>
-      </c>
-      <c r="B1795" s="1" t="s">
-        <v>3519</v>
-      </c>
-      <c r="C1795" s="94">
-        <v>1</v>
-      </c>
-      <c r="D1795" s="94" t="s">
-        <v>1714</v>
-      </c>
-      <c r="F1795" s="94" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1795" s="94" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1795" s="94" t="s">
-        <v>3576</v>
-      </c>
-      <c r="I1795" s="94" t="s">
-        <v>2991</v>
-      </c>
-    </row>
-    <row r="1796" spans="1:9" s="94" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1796" s="94">
-        <v>2017</v>
-      </c>
-      <c r="B1796" s="1" t="s">
-        <v>3520</v>
       </c>
     </row>
     <row r="1797" spans="1:9" s="94" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1797" s="94">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="B1797" s="1" t="s">
-        <v>3521</v>
+        <v>3519</v>
+      </c>
+      <c r="C1797" s="94">
+        <v>1</v>
+      </c>
+      <c r="D1797" s="94" t="s">
+        <v>1714</v>
+      </c>
+      <c r="F1797" s="94" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1797" s="94" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1797" s="94" t="s">
+        <v>3576</v>
+      </c>
+      <c r="I1797" s="94" t="s">
+        <v>2991</v>
       </c>
     </row>
     <row r="1798" spans="1:9" s="94" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1798" s="94">
-        <v>2019</v>
-      </c>
-      <c r="B1798" s="95" t="s">
-        <v>3522</v>
-      </c>
-      <c r="C1798" s="94">
-        <v>4</v>
-      </c>
-      <c r="D1798" s="94" t="s">
-        <v>1714</v>
-      </c>
-      <c r="F1798" s="94" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1798" s="94" t="s">
-        <v>36</v>
-      </c>
-      <c r="H1798" s="94" t="s">
-        <v>3654</v>
+        <v>2017</v>
+      </c>
+      <c r="B1798" s="1" t="s">
+        <v>3520</v>
       </c>
     </row>
     <row r="1799" spans="1:9" s="94" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1799" s="94">
-        <v>2022</v>
+        <v>2018</v>
       </c>
       <c r="B1799" s="1" t="s">
-        <v>3523</v>
+        <v>3521</v>
       </c>
       <c r="C1799" s="94">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D1799" s="94" t="s">
-        <v>1714</v>
+        <v>1707</v>
       </c>
       <c r="F1799" s="94" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G1799" s="94" t="s">
         <v>21</v>
       </c>
       <c r="H1799" s="94" t="s">
-        <v>3575</v>
+        <v>3711</v>
       </c>
       <c r="I1799" s="94" t="s">
-        <v>2991</v>
+        <v>3035</v>
       </c>
     </row>
     <row r="1800" spans="1:9" s="94" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1800" s="94">
-        <v>2023</v>
+        <v>2019</v>
       </c>
       <c r="B1800" s="95" t="s">
-        <v>3524</v>
+        <v>3522</v>
+      </c>
+      <c r="C1800" s="94">
+        <v>4</v>
+      </c>
+      <c r="D1800" s="94" t="s">
+        <v>1714</v>
+      </c>
+      <c r="F1800" s="94" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1800" s="94" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1800" s="94" t="s">
+        <v>3654</v>
       </c>
     </row>
     <row r="1801" spans="1:9" s="94" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1801" s="94">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="B1801" s="1" t="s">
-        <v>3525</v>
+        <v>3523</v>
+      </c>
+      <c r="C1801" s="94">
+        <v>1</v>
+      </c>
+      <c r="D1801" s="94" t="s">
+        <v>1714</v>
+      </c>
+      <c r="F1801" s="94" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1801" s="94" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1801" s="94" t="s">
+        <v>3575</v>
+      </c>
+      <c r="I1801" s="94" t="s">
+        <v>2991</v>
       </c>
     </row>
     <row r="1802" spans="1:9" s="94" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1802" s="94">
-        <v>2025</v>
+        <v>2023</v>
       </c>
       <c r="B1802" s="95" t="s">
-        <v>3526</v>
-      </c>
-      <c r="C1802" s="94">
-        <v>4</v>
-      </c>
-      <c r="D1802" s="94" t="s">
-        <v>1714</v>
-      </c>
-      <c r="E1802" s="94" t="s">
-        <v>2915</v>
-      </c>
-      <c r="F1802" s="94" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1802" s="94" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1802" s="94" t="s">
-        <v>3653</v>
-      </c>
-      <c r="I1802" s="94" t="s">
-        <v>2991</v>
+        <v>3524</v>
       </c>
     </row>
     <row r="1803" spans="1:9" s="94" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1803" s="94">
-        <v>2027</v>
+        <v>2024</v>
       </c>
       <c r="B1803" s="1" t="s">
-        <v>3527</v>
-      </c>
-      <c r="C1803" s="94">
-        <v>1</v>
-      </c>
-      <c r="D1803" s="94" t="s">
-        <v>1714</v>
-      </c>
-      <c r="F1803" s="94" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1803" s="94" t="s">
-        <v>36</v>
-      </c>
-      <c r="H1803" s="94" t="s">
-        <v>3574</v>
-      </c>
-      <c r="I1803" s="94" t="s">
-        <v>2991</v>
+        <v>3525</v>
       </c>
     </row>
     <row r="1804" spans="1:9" s="94" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1804" s="94">
-        <v>2028</v>
-      </c>
-      <c r="B1804" s="1" t="s">
-        <v>3528</v>
+        <v>2025</v>
+      </c>
+      <c r="B1804" s="95" t="s">
+        <v>3526</v>
+      </c>
+      <c r="C1804" s="94">
+        <v>4</v>
+      </c>
+      <c r="D1804" s="94" t="s">
+        <v>1714</v>
+      </c>
+      <c r="E1804" s="94" t="s">
+        <v>2915</v>
+      </c>
+      <c r="F1804" s="94" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1804" s="94" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1804" s="94" t="s">
+        <v>3653</v>
+      </c>
+      <c r="I1804" s="94" t="s">
+        <v>2991</v>
       </c>
     </row>
     <row r="1805" spans="1:9" s="94" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1805" s="94">
-        <v>2029</v>
+        <v>2027</v>
       </c>
       <c r="B1805" s="1" t="s">
-        <v>3529</v>
+        <v>3527</v>
       </c>
       <c r="C1805" s="94">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1805" s="94" t="s">
-        <v>1712</v>
+        <v>1714</v>
       </c>
       <c r="F1805" s="94" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G1805" s="94" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="H1805" s="94" t="s">
-        <v>3660</v>
+        <v>3574</v>
       </c>
       <c r="I1805" s="94" t="s">
-        <v>3047</v>
+        <v>2991</v>
       </c>
     </row>
     <row r="1806" spans="1:9" s="94" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1806" s="94">
+        <v>2028</v>
+      </c>
+      <c r="B1806" s="1" t="s">
+        <v>3528</v>
+      </c>
+    </row>
+    <row r="1807" spans="1:9" s="94" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1807" s="94">
+        <v>2029</v>
+      </c>
+      <c r="B1807" s="1" t="s">
+        <v>3529</v>
+      </c>
+      <c r="C1807" s="94">
+        <v>3</v>
+      </c>
+      <c r="D1807" s="94" t="s">
+        <v>1712</v>
+      </c>
+      <c r="F1807" s="94" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1807" s="94" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1807" s="94" t="s">
+        <v>3660</v>
+      </c>
+      <c r="I1807" s="94" t="s">
+        <v>3047</v>
+      </c>
+    </row>
+    <row r="1808" spans="1:9" s="94" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1808" s="94">
         <v>2030</v>
       </c>
-      <c r="B1806" s="95" t="s">
+      <c r="B1808" s="95" t="s">
         <v>3530</v>
       </c>
-      <c r="C1806" s="94">
+      <c r="C1808" s="94">
         <v>4</v>
       </c>
-      <c r="D1806" s="94" t="s">
-        <v>1714</v>
-      </c>
-      <c r="E1806" s="94" t="s">
+      <c r="D1808" s="94" t="s">
+        <v>1714</v>
+      </c>
+      <c r="E1808" s="94" t="s">
         <v>2926</v>
       </c>
-      <c r="F1806" s="94" t="s">
+      <c r="F1808" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="G1806" s="94" t="s">
+      <c r="G1808" s="94" t="s">
         <v>48</v>
       </c>
-      <c r="H1806" s="94" t="s">
+      <c r="H1808" s="94" t="s">
         <v>3652</v>
-      </c>
-    </row>
-    <row r="1807" spans="1:9" s="97" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1807" s="97">
-        <v>2032</v>
-      </c>
-      <c r="B1807" s="1" t="s">
-        <v>3544</v>
-      </c>
-      <c r="C1807" s="97">
-        <v>2</v>
-      </c>
-      <c r="D1807" s="97" t="s">
-        <v>1714</v>
-      </c>
-      <c r="E1807" s="97" t="s">
-        <v>2926</v>
-      </c>
-      <c r="F1807" s="97" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1807" s="97" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1807" s="97" t="s">
-        <v>3573</v>
-      </c>
-      <c r="I1807" s="97" t="s">
-        <v>2991</v>
-      </c>
-    </row>
-    <row r="1808" spans="1:9" s="97" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1808" s="97">
-        <v>2033</v>
-      </c>
-      <c r="B1808" s="98" t="s">
-        <v>3545</v>
       </c>
     </row>
     <row r="1809" spans="1:9" s="97" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1809" s="97">
-        <v>2034</v>
+        <v>2032</v>
       </c>
       <c r="B1809" s="1" t="s">
-        <v>3546</v>
+        <v>3544</v>
       </c>
       <c r="C1809" s="97">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1809" s="97" t="s">
         <v>1714</v>
@@ -55280,65 +55383,50 @@
         <v>2926</v>
       </c>
       <c r="F1809" s="97" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G1809" s="97" t="s">
-        <v>456</v>
+        <v>6</v>
       </c>
       <c r="H1809" s="97" t="s">
-        <v>3701</v>
+        <v>3573</v>
       </c>
       <c r="I1809" s="97" t="s">
-        <v>3019</v>
+        <v>2991</v>
       </c>
     </row>
     <row r="1810" spans="1:9" s="97" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1810" s="97">
-        <v>2035</v>
+        <v>2033</v>
       </c>
       <c r="B1810" s="98" t="s">
-        <v>3547</v>
-      </c>
-      <c r="C1810" s="97">
-        <v>5</v>
-      </c>
-      <c r="D1810" s="97" t="s">
-        <v>1707</v>
-      </c>
-      <c r="F1810" s="97" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1810" s="97" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1810" s="97" t="s">
-        <v>3597</v>
-      </c>
-      <c r="I1810" s="97" t="s">
-        <v>3598</v>
+        <v>3545</v>
       </c>
     </row>
     <row r="1811" spans="1:9" s="97" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1811" s="97">
-        <v>2037</v>
+        <v>2034</v>
       </c>
       <c r="B1811" s="1" t="s">
-        <v>3549</v>
+        <v>3546</v>
       </c>
       <c r="C1811" s="97">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1811" s="97" t="s">
         <v>1714</v>
       </c>
+      <c r="E1811" s="97" t="s">
+        <v>2926</v>
+      </c>
       <c r="F1811" s="97" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G1811" s="97" t="s">
-        <v>41</v>
+        <v>456</v>
       </c>
       <c r="H1811" s="97" t="s">
-        <v>3572</v>
+        <v>3701</v>
       </c>
       <c r="I1811" s="97" t="s">
         <v>3019</v>
@@ -55346,741 +55434,835 @@
     </row>
     <row r="1812" spans="1:9" s="97" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1812" s="97">
-        <v>2038</v>
-      </c>
-      <c r="B1812" s="1" t="s">
-        <v>3548</v>
+        <v>2035</v>
+      </c>
+      <c r="B1812" s="98" t="s">
+        <v>3547</v>
+      </c>
+      <c r="C1812" s="97">
+        <v>5</v>
+      </c>
+      <c r="D1812" s="97" t="s">
+        <v>1707</v>
+      </c>
+      <c r="F1812" s="97" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1812" s="97" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1812" s="97" t="s">
+        <v>3597</v>
+      </c>
+      <c r="I1812" s="97" t="s">
+        <v>3598</v>
       </c>
     </row>
     <row r="1813" spans="1:9" s="97" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1813" s="97">
-        <v>2039</v>
+        <v>2037</v>
       </c>
       <c r="B1813" s="1" t="s">
-        <v>3550</v>
+        <v>3549</v>
+      </c>
+      <c r="C1813" s="97">
+        <v>2</v>
+      </c>
+      <c r="D1813" s="97" t="s">
+        <v>1714</v>
+      </c>
+      <c r="F1813" s="97" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1813" s="97" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1813" s="97" t="s">
+        <v>3572</v>
+      </c>
+      <c r="I1813" s="97" t="s">
+        <v>3019</v>
       </c>
     </row>
     <row r="1814" spans="1:9" s="97" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1814" s="97">
-        <v>2040</v>
+        <v>2038</v>
       </c>
       <c r="B1814" s="1" t="s">
-        <v>3551</v>
-      </c>
-      <c r="C1814" s="97">
-        <v>5</v>
-      </c>
-      <c r="D1814" s="97" t="s">
-        <v>1714</v>
-      </c>
-      <c r="F1814" s="97" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1814" s="97" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1814" s="97" t="s">
-        <v>3650</v>
-      </c>
-      <c r="I1814" s="97" t="s">
-        <v>3651</v>
+        <v>3548</v>
       </c>
     </row>
     <row r="1815" spans="1:9" s="97" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1815" s="97">
-        <v>2042</v>
-      </c>
-      <c r="B1815" s="98" t="s">
-        <v>3552</v>
-      </c>
-      <c r="C1815" s="97">
-        <v>2</v>
-      </c>
-      <c r="D1815" s="97" t="s">
-        <v>1714</v>
-      </c>
-      <c r="F1815" s="97" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1815" s="97" t="s">
-        <v>36</v>
-      </c>
-      <c r="H1815" s="97" t="s">
-        <v>3571</v>
-      </c>
-      <c r="I1815" s="97" t="s">
-        <v>2991</v>
+        <v>2039</v>
+      </c>
+      <c r="B1815" s="1" t="s">
+        <v>3550</v>
       </c>
     </row>
     <row r="1816" spans="1:9" s="97" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1816" s="97">
-        <v>2043</v>
+        <v>2040</v>
       </c>
       <c r="B1816" s="1" t="s">
-        <v>3553</v>
+        <v>3551</v>
+      </c>
+      <c r="C1816" s="97">
+        <v>5</v>
+      </c>
+      <c r="D1816" s="97" t="s">
+        <v>1714</v>
+      </c>
+      <c r="F1816" s="97" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1816" s="97" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1816" s="97" t="s">
+        <v>3650</v>
+      </c>
+      <c r="I1816" s="97" t="s">
+        <v>3651</v>
       </c>
     </row>
     <row r="1817" spans="1:9" s="97" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1817" s="97">
-        <v>2044</v>
-      </c>
-      <c r="B1817" s="1" t="s">
-        <v>3554</v>
+        <v>2042</v>
+      </c>
+      <c r="B1817" s="98" t="s">
+        <v>3552</v>
+      </c>
+      <c r="C1817" s="97">
+        <v>2</v>
+      </c>
+      <c r="D1817" s="97" t="s">
+        <v>1714</v>
+      </c>
+      <c r="F1817" s="97" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1817" s="97" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1817" s="97" t="s">
+        <v>3571</v>
+      </c>
+      <c r="I1817" s="97" t="s">
+        <v>2991</v>
       </c>
     </row>
     <row r="1818" spans="1:9" s="97" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1818" s="97">
-        <v>2045</v>
-      </c>
-      <c r="B1818" s="98" t="s">
-        <v>3555</v>
-      </c>
-      <c r="C1818" s="97">
-        <v>4</v>
-      </c>
-      <c r="D1818" s="97" t="s">
-        <v>1714</v>
-      </c>
-      <c r="F1818" s="97" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1818" s="97" t="s">
-        <v>187</v>
-      </c>
-      <c r="H1818" s="97" t="s">
-        <v>3649</v>
-      </c>
-      <c r="I1818" s="97" t="s">
-        <v>3019</v>
+        <v>2043</v>
+      </c>
+      <c r="B1818" s="1" t="s">
+        <v>3553</v>
       </c>
     </row>
     <row r="1819" spans="1:9" s="97" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1819" s="97">
-        <v>2047</v>
+        <v>2044</v>
       </c>
       <c r="B1819" s="1" t="s">
-        <v>3556</v>
-      </c>
-      <c r="C1819" s="97">
-        <v>3</v>
-      </c>
-      <c r="D1819" s="97" t="s">
-        <v>1707</v>
-      </c>
-      <c r="F1819" s="97" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1819" s="97" t="s">
-        <v>36</v>
-      </c>
-      <c r="H1819" s="97" t="s">
-        <v>3570</v>
-      </c>
-      <c r="I1819" s="97" t="s">
-        <v>2991</v>
+        <v>3554</v>
       </c>
     </row>
     <row r="1820" spans="1:9" s="97" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1820" s="97">
-        <v>2048</v>
-      </c>
-      <c r="B1820" s="1" t="s">
-        <v>3557</v>
+        <v>2045</v>
+      </c>
+      <c r="B1820" s="98" t="s">
+        <v>3555</v>
+      </c>
+      <c r="C1820" s="97">
+        <v>4</v>
+      </c>
+      <c r="D1820" s="97" t="s">
+        <v>1714</v>
+      </c>
+      <c r="F1820" s="97" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1820" s="97" t="s">
+        <v>187</v>
+      </c>
+      <c r="H1820" s="97" t="s">
+        <v>3649</v>
+      </c>
+      <c r="I1820" s="97" t="s">
+        <v>3019</v>
       </c>
     </row>
     <row r="1821" spans="1:9" s="97" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1821" s="97">
-        <v>2049</v>
+        <v>2047</v>
       </c>
       <c r="B1821" s="1" t="s">
-        <v>3558</v>
+        <v>3556</v>
+      </c>
+      <c r="C1821" s="97">
+        <v>3</v>
+      </c>
+      <c r="D1821" s="97" t="s">
+        <v>1707</v>
+      </c>
+      <c r="F1821" s="97" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1821" s="97" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1821" s="97" t="s">
+        <v>3570</v>
+      </c>
+      <c r="I1821" s="97" t="s">
+        <v>2991</v>
       </c>
     </row>
     <row r="1822" spans="1:9" s="97" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1822" s="97">
-        <v>2050</v>
+        <v>2048</v>
       </c>
       <c r="B1822" s="1" t="s">
-        <v>3559</v>
-      </c>
-      <c r="C1822" s="97">
-        <v>4</v>
-      </c>
-      <c r="D1822" s="97" t="s">
-        <v>1714</v>
-      </c>
-      <c r="E1822" s="97" t="s">
-        <v>2915</v>
-      </c>
-      <c r="F1822" s="97" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1822" s="97" t="s">
-        <v>187</v>
-      </c>
-      <c r="H1822" s="97" t="s">
-        <v>265</v>
-      </c>
-      <c r="I1822" s="97" t="s">
-        <v>2991</v>
-      </c>
-    </row>
-    <row r="1823" spans="1:9" s="94" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1823" s="94">
-        <v>2053</v>
+        <v>3557</v>
+      </c>
+    </row>
+    <row r="1823" spans="1:9" s="97" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1823" s="97">
+        <v>2049</v>
       </c>
       <c r="B1823" s="1" t="s">
-        <v>3560</v>
-      </c>
-      <c r="C1823" s="94">
-        <v>2</v>
-      </c>
-      <c r="D1823" s="94" t="s">
-        <v>1714</v>
-      </c>
-      <c r="F1823" s="94" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1823" s="94" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1823" s="94" t="s">
-        <v>3569</v>
-      </c>
-      <c r="I1823" s="94" t="s">
-        <v>2991</v>
+        <v>3558</v>
       </c>
     </row>
     <row r="1824" spans="1:9" s="97" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1824" s="97">
-        <v>2054</v>
+        <v>2050</v>
       </c>
       <c r="B1824" s="1" t="s">
-        <v>3561</v>
-      </c>
-    </row>
-    <row r="1825" spans="1:9" s="97" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1825" s="97">
-        <v>2055</v>
+        <v>3559</v>
+      </c>
+      <c r="C1824" s="97">
+        <v>4</v>
+      </c>
+      <c r="D1824" s="97" t="s">
+        <v>1714</v>
+      </c>
+      <c r="E1824" s="97" t="s">
+        <v>2915</v>
+      </c>
+      <c r="F1824" s="97" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1824" s="97" t="s">
+        <v>187</v>
+      </c>
+      <c r="H1824" s="97" t="s">
+        <v>265</v>
+      </c>
+      <c r="I1824" s="97" t="s">
+        <v>2991</v>
+      </c>
+    </row>
+    <row r="1825" spans="1:9" s="94" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1825" s="94">
+        <v>2053</v>
       </c>
       <c r="B1825" s="1" t="s">
-        <v>3562</v>
+        <v>3560</v>
+      </c>
+      <c r="C1825" s="94">
+        <v>2</v>
+      </c>
+      <c r="D1825" s="94" t="s">
+        <v>1714</v>
+      </c>
+      <c r="F1825" s="94" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1825" s="94" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1825" s="94" t="s">
+        <v>3569</v>
+      </c>
+      <c r="I1825" s="94" t="s">
+        <v>2991</v>
       </c>
     </row>
     <row r="1826" spans="1:9" s="97" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1826" s="97">
-        <v>2056</v>
-      </c>
-      <c r="B1826" s="98" t="s">
-        <v>3563</v>
-      </c>
-      <c r="C1826" s="97">
-        <v>5</v>
-      </c>
-      <c r="D1826" s="97" t="s">
-        <v>2801</v>
-      </c>
-      <c r="F1826" s="97" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1826" s="97" t="s">
-        <v>121</v>
-      </c>
-      <c r="H1826" s="97" t="s">
-        <v>3647</v>
-      </c>
-      <c r="I1826" s="97" t="s">
-        <v>3648</v>
+        <v>2054</v>
+      </c>
+      <c r="B1826" s="1" t="s">
+        <v>3561</v>
       </c>
     </row>
     <row r="1827" spans="1:9" s="97" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1827" s="97">
-        <v>2057</v>
+        <v>2055</v>
       </c>
       <c r="B1827" s="1" t="s">
-        <v>3564</v>
-      </c>
-      <c r="C1827" s="97">
-        <v>1</v>
-      </c>
-      <c r="D1827" s="97" t="s">
-        <v>1711</v>
-      </c>
-      <c r="F1827" s="97" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1827" s="97" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1827" s="97" t="s">
-        <v>3568</v>
-      </c>
-      <c r="I1827" s="97" t="s">
-        <v>2991</v>
+        <v>3562</v>
       </c>
     </row>
     <row r="1828" spans="1:9" s="97" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1828" s="97">
-        <v>2058</v>
+        <v>2056</v>
       </c>
       <c r="B1828" s="98" t="s">
-        <v>3565</v>
+        <v>3563</v>
+      </c>
+      <c r="C1828" s="97">
+        <v>5</v>
+      </c>
+      <c r="D1828" s="97" t="s">
+        <v>2801</v>
+      </c>
+      <c r="F1828" s="97" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1828" s="97" t="s">
+        <v>121</v>
+      </c>
+      <c r="H1828" s="97" t="s">
+        <v>3647</v>
+      </c>
+      <c r="I1828" s="97" t="s">
+        <v>3648</v>
       </c>
     </row>
     <row r="1829" spans="1:9" s="97" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1829" s="97">
+        <v>2057</v>
+      </c>
+      <c r="B1829" s="1" t="s">
+        <v>3564</v>
+      </c>
+      <c r="C1829" s="97">
+        <v>1</v>
+      </c>
+      <c r="D1829" s="97" t="s">
+        <v>1711</v>
+      </c>
+      <c r="F1829" s="97" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1829" s="97" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1829" s="97" t="s">
+        <v>3568</v>
+      </c>
+      <c r="I1829" s="97" t="s">
+        <v>2991</v>
+      </c>
+    </row>
+    <row r="1830" spans="1:9" s="97" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1830" s="97">
+        <v>2058</v>
+      </c>
+      <c r="B1830" s="98" t="s">
+        <v>3565</v>
+      </c>
+    </row>
+    <row r="1831" spans="1:9" s="97" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1831" s="97">
         <v>2059</v>
       </c>
-      <c r="B1829" s="98" t="s">
+      <c r="B1831" s="98" t="s">
         <v>3566</v>
       </c>
     </row>
-    <row r="1830" spans="1:9" s="94" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1830" s="94">
+    <row r="1832" spans="1:9" s="94" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1832" s="94">
         <v>2060</v>
       </c>
-      <c r="B1830" s="98" t="s">
+      <c r="B1832" s="98" t="s">
         <v>3567</v>
       </c>
-      <c r="C1830" s="94">
-        <v>5</v>
-      </c>
-      <c r="D1830" s="94" t="s">
+      <c r="C1832" s="94">
+        <v>5</v>
+      </c>
+      <c r="D1832" s="94" t="s">
         <v>1712</v>
       </c>
-      <c r="F1830" s="94" t="s">
+      <c r="F1832" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="G1830" s="94" t="s">
+      <c r="G1832" s="94" t="s">
         <v>121</v>
       </c>
-      <c r="H1830" s="94" t="s">
+      <c r="H1832" s="94" t="s">
         <v>3600</v>
       </c>
-      <c r="I1830" s="94" t="s">
+      <c r="I1832" s="94" t="s">
         <v>3306</v>
-      </c>
-    </row>
-    <row r="1831" spans="1:9" s="100" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1831" s="100">
-        <v>2062</v>
-      </c>
-      <c r="B1831" s="1" t="s">
-        <v>3626</v>
-      </c>
-      <c r="F1831" s="100" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="1832" spans="1:9" s="100" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1832" s="100">
-        <v>2063</v>
-      </c>
-      <c r="B1832" s="1" t="s">
-        <v>3627</v>
       </c>
     </row>
     <row r="1833" spans="1:9" s="100" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1833" s="100">
-        <v>2064</v>
-      </c>
-      <c r="B1833" s="98" t="s">
-        <v>3628</v>
+        <v>2062</v>
+      </c>
+      <c r="B1833" s="1" t="s">
+        <v>3626</v>
+      </c>
+      <c r="F1833" s="100" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="1834" spans="1:9" s="100" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1834" s="100">
-        <v>2065</v>
+        <v>2063</v>
       </c>
       <c r="B1834" s="1" t="s">
-        <v>3629</v>
-      </c>
-      <c r="C1834" s="100">
-        <v>4</v>
-      </c>
-      <c r="D1834" s="100" t="s">
-        <v>1714</v>
-      </c>
-      <c r="F1834" s="100" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1834" s="100" t="s">
-        <v>187</v>
-      </c>
-      <c r="H1834" s="100" t="s">
-        <v>3630</v>
-      </c>
-      <c r="I1834" s="100" t="s">
-        <v>3624</v>
+        <v>3627</v>
       </c>
     </row>
     <row r="1835" spans="1:9" s="100" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1835" s="100">
-        <v>2068</v>
-      </c>
-      <c r="B1835" s="1" t="s">
-        <v>3631</v>
-      </c>
-      <c r="C1835" s="100">
-        <v>1</v>
-      </c>
-      <c r="D1835" s="100" t="s">
-        <v>1714</v>
-      </c>
-      <c r="F1835" s="100" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1835" s="100" t="s">
-        <v>36</v>
-      </c>
-      <c r="H1835" s="100" t="s">
-        <v>3703</v>
-      </c>
-      <c r="I1835" s="100" t="s">
-        <v>2991</v>
+        <v>2064</v>
+      </c>
+      <c r="B1835" s="98" t="s">
+        <v>3628</v>
       </c>
     </row>
     <row r="1836" spans="1:9" s="100" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1836" s="100">
-        <v>2069</v>
+        <v>2065</v>
       </c>
       <c r="B1836" s="1" t="s">
-        <v>3644</v>
+        <v>3629</v>
+      </c>
+      <c r="C1836" s="100">
+        <v>4</v>
+      </c>
+      <c r="D1836" s="100" t="s">
+        <v>1714</v>
+      </c>
+      <c r="F1836" s="100" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1836" s="100" t="s">
+        <v>187</v>
+      </c>
+      <c r="H1836" s="100" t="s">
+        <v>3630</v>
+      </c>
+      <c r="I1836" s="100" t="s">
+        <v>3624</v>
       </c>
     </row>
     <row r="1837" spans="1:9" s="100" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1837" s="100">
-        <v>2070</v>
+        <v>2068</v>
       </c>
       <c r="B1837" s="1" t="s">
-        <v>3643</v>
+        <v>3631</v>
+      </c>
+      <c r="C1837" s="100">
+        <v>1</v>
+      </c>
+      <c r="D1837" s="100" t="s">
+        <v>1714</v>
+      </c>
+      <c r="F1837" s="100" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1837" s="100" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1837" s="100" t="s">
+        <v>3703</v>
+      </c>
+      <c r="I1837" s="100" t="s">
+        <v>2991</v>
       </c>
     </row>
     <row r="1838" spans="1:9" s="100" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1838" s="100">
-        <v>2071</v>
+        <v>2069</v>
       </c>
       <c r="B1838" s="1" t="s">
-        <v>3642</v>
-      </c>
-      <c r="C1838" s="100">
-        <v>5</v>
-      </c>
-      <c r="D1838" s="100" t="s">
-        <v>1714</v>
-      </c>
-      <c r="F1838" s="100" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1838" s="100" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1838" s="100" t="s">
-        <v>3645</v>
-      </c>
-      <c r="I1838" s="100" t="s">
-        <v>3646</v>
+        <v>3644</v>
       </c>
     </row>
     <row r="1839" spans="1:9" s="100" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1839" s="100">
-        <v>2073</v>
+        <v>2070</v>
       </c>
       <c r="B1839" s="1" t="s">
-        <v>3641</v>
+        <v>3643</v>
       </c>
     </row>
     <row r="1840" spans="1:9" s="100" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1840" s="100">
-        <v>2074</v>
+        <v>2071</v>
       </c>
       <c r="B1840" s="1" t="s">
-        <v>3640</v>
+        <v>3642</v>
+      </c>
+      <c r="C1840" s="100">
+        <v>5</v>
+      </c>
+      <c r="D1840" s="100" t="s">
+        <v>1714</v>
+      </c>
+      <c r="F1840" s="100" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1840" s="100" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1840" s="100" t="s">
+        <v>3645</v>
+      </c>
+      <c r="I1840" s="100" t="s">
+        <v>3646</v>
       </c>
     </row>
     <row r="1841" spans="1:9" s="100" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1841" s="100">
-        <v>2075</v>
+        <v>2073</v>
       </c>
       <c r="B1841" s="1" t="s">
-        <v>3639</v>
+        <v>3641</v>
       </c>
     </row>
     <row r="1842" spans="1:9" s="100" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1842" s="100">
-        <v>2076</v>
+        <v>2074</v>
       </c>
       <c r="B1842" s="1" t="s">
-        <v>3637</v>
-      </c>
-      <c r="C1842" s="100">
-        <v>4</v>
-      </c>
-      <c r="D1842" s="100" t="s">
-        <v>1714</v>
-      </c>
-      <c r="E1842" s="100" t="s">
-        <v>2926</v>
-      </c>
-      <c r="F1842" s="100" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1842" s="100" t="s">
-        <v>187</v>
-      </c>
-      <c r="H1842" s="100" t="s">
-        <v>3638</v>
+        <v>3640</v>
       </c>
     </row>
     <row r="1843" spans="1:9" s="100" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1843" s="100">
-        <v>2078</v>
+        <v>2075</v>
       </c>
       <c r="B1843" s="1" t="s">
-        <v>3636</v>
+        <v>3639</v>
+      </c>
+      <c r="C1843" s="100">
+        <v>2</v>
+      </c>
+      <c r="D1843" s="100" t="s">
+        <v>1714</v>
+      </c>
+      <c r="E1843" s="100" t="s">
+        <v>2926</v>
+      </c>
+      <c r="F1843" s="100" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1843" s="100" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1843" s="100" t="s">
+        <v>3714</v>
+      </c>
+      <c r="I1843" s="100" t="s">
+        <v>3035</v>
       </c>
     </row>
     <row r="1844" spans="1:9" s="100" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1844" s="100">
-        <v>2079</v>
+        <v>2076</v>
       </c>
       <c r="B1844" s="1" t="s">
-        <v>3635</v>
+        <v>3637</v>
       </c>
       <c r="C1844" s="100">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D1844" s="100" t="s">
         <v>1714</v>
       </c>
+      <c r="E1844" s="100" t="s">
+        <v>2926</v>
+      </c>
       <c r="F1844" s="100" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G1844" s="100" t="s">
-        <v>21</v>
+        <v>187</v>
       </c>
       <c r="H1844" s="100" t="s">
-        <v>3696</v>
-      </c>
-      <c r="I1844" s="100" t="s">
-        <v>2991</v>
+        <v>3638</v>
       </c>
     </row>
     <row r="1845" spans="1:9" s="100" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1845" s="100">
-        <v>2080</v>
+        <v>2078</v>
       </c>
       <c r="B1845" s="1" t="s">
-        <v>3634</v>
+        <v>3636</v>
       </c>
     </row>
     <row r="1846" spans="1:9" s="100" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1846" s="100">
+        <v>2079</v>
+      </c>
+      <c r="B1846" s="1" t="s">
+        <v>3635</v>
+      </c>
+      <c r="C1846" s="100">
+        <v>2</v>
+      </c>
+      <c r="D1846" s="100" t="s">
+        <v>1714</v>
+      </c>
+      <c r="F1846" s="100" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1846" s="100" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1846" s="100" t="s">
+        <v>3696</v>
+      </c>
+      <c r="I1846" s="100" t="s">
+        <v>2991</v>
+      </c>
+    </row>
+    <row r="1847" spans="1:9" s="100" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1847" s="100">
+        <v>2080</v>
+      </c>
+      <c r="B1847" s="1" t="s">
+        <v>3634</v>
+      </c>
+    </row>
+    <row r="1848" spans="1:9" s="100" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1848" s="100">
         <v>2081</v>
       </c>
-      <c r="B1846" s="1" t="s">
+      <c r="B1848" s="1" t="s">
         <v>3632</v>
       </c>
-      <c r="C1846" s="100">
+      <c r="C1848" s="100">
         <v>4</v>
       </c>
-      <c r="D1846" s="100" t="s">
+      <c r="D1848" s="100" t="s">
         <v>1712</v>
       </c>
-      <c r="F1846" s="100" t="s">
+      <c r="F1848" s="100" t="s">
         <v>12</v>
       </c>
-      <c r="G1846" s="100" t="s">
+      <c r="G1848" s="100" t="s">
         <v>121</v>
       </c>
-      <c r="H1846" s="100" t="s">
+      <c r="H1848" s="100" t="s">
         <v>3633</v>
       </c>
-      <c r="I1846" s="100" t="s">
+      <c r="I1848" s="100" t="s">
         <v>3017</v>
-      </c>
-    </row>
-    <row r="1847" spans="1:9" s="104" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1847" s="104">
-        <v>2083</v>
-      </c>
-      <c r="B1847" s="1" t="s">
-        <v>3682</v>
-      </c>
-    </row>
-    <row r="1848" spans="1:9" s="104" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1848" s="104">
-        <v>2085</v>
-      </c>
-      <c r="B1848" s="1" t="s">
-        <v>3683</v>
-      </c>
-      <c r="C1848" s="104">
-        <v>2</v>
-      </c>
-      <c r="D1848" s="104" t="s">
-        <v>1714</v>
-      </c>
-      <c r="F1848" s="104" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1848" s="104" t="s">
-        <v>36</v>
-      </c>
-      <c r="H1848" s="104" t="s">
-        <v>3684</v>
-      </c>
-      <c r="I1848" s="104" t="s">
-        <v>2991</v>
       </c>
     </row>
     <row r="1849" spans="1:9" s="104" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1849" s="104">
-        <v>2086</v>
+        <v>2083</v>
       </c>
       <c r="B1849" s="1" t="s">
-        <v>3685</v>
+        <v>3682</v>
       </c>
     </row>
     <row r="1850" spans="1:9" s="104" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1850" s="104">
-        <v>2087</v>
+        <v>2085</v>
       </c>
       <c r="B1850" s="1" t="s">
-        <v>3686</v>
+        <v>3683</v>
+      </c>
+      <c r="C1850" s="104">
+        <v>2</v>
+      </c>
+      <c r="D1850" s="104" t="s">
+        <v>1714</v>
+      </c>
+      <c r="F1850" s="104" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1850" s="104" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1850" s="104" t="s">
+        <v>3684</v>
+      </c>
+      <c r="I1850" s="104" t="s">
+        <v>2991</v>
       </c>
     </row>
     <row r="1851" spans="1:9" s="104" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1851" s="104">
-        <v>2088</v>
+        <v>2086</v>
       </c>
       <c r="B1851" s="1" t="s">
-        <v>3687</v>
-      </c>
-      <c r="C1851" s="104">
-        <v>4</v>
-      </c>
-      <c r="D1851" s="104" t="s">
-        <v>1714</v>
-      </c>
-      <c r="F1851" s="104" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1851" s="104" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1851" s="104" t="s">
-        <v>3688</v>
-      </c>
-      <c r="I1851" s="104" t="s">
-        <v>3035</v>
+        <v>3685</v>
       </c>
     </row>
     <row r="1852" spans="1:9" s="104" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1852" s="104">
-        <v>2089</v>
+        <v>2087</v>
       </c>
       <c r="B1852" s="1" t="s">
-        <v>3689</v>
-      </c>
-      <c r="C1852" s="104">
-        <v>1</v>
-      </c>
-      <c r="D1852" s="104" t="s">
-        <v>1714</v>
-      </c>
-      <c r="F1852" s="104" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1852" s="104" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1852" s="104" t="s">
-        <v>3690</v>
+        <v>3686</v>
       </c>
     </row>
     <row r="1853" spans="1:9" s="104" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1853" s="104">
-        <v>2090</v>
+        <v>2088</v>
       </c>
       <c r="B1853" s="1" t="s">
-        <v>3691</v>
+        <v>3687</v>
       </c>
       <c r="C1853" s="104">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D1853" s="104" t="s">
         <v>1714</v>
       </c>
       <c r="F1853" s="104" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G1853" s="104" t="s">
         <v>21</v>
       </c>
       <c r="H1853" s="104" t="s">
-        <v>3692</v>
+        <v>3688</v>
       </c>
       <c r="I1853" s="104" t="s">
-        <v>2991</v>
+        <v>3035</v>
       </c>
     </row>
     <row r="1854" spans="1:9" s="104" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1854" s="104">
-        <v>2091</v>
-      </c>
-      <c r="B1854" s="98" t="s">
-        <v>3693</v>
+        <v>2089</v>
+      </c>
+      <c r="B1854" s="1" t="s">
+        <v>3689</v>
+      </c>
+      <c r="C1854" s="104">
+        <v>1</v>
+      </c>
+      <c r="D1854" s="104" t="s">
+        <v>1714</v>
+      </c>
+      <c r="F1854" s="104" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1854" s="104" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1854" s="104" t="s">
+        <v>3690</v>
       </c>
     </row>
     <row r="1855" spans="1:9" s="104" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1855" s="104">
-        <v>2092</v>
+        <v>2090</v>
       </c>
       <c r="B1855" s="1" t="s">
-        <v>3694</v>
+        <v>3691</v>
+      </c>
+      <c r="C1855" s="104">
+        <v>2</v>
+      </c>
+      <c r="D1855" s="104" t="s">
+        <v>1714</v>
+      </c>
+      <c r="F1855" s="104" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1855" s="104" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1855" s="104" t="s">
+        <v>3692</v>
+      </c>
+      <c r="I1855" s="104" t="s">
+        <v>2991</v>
       </c>
     </row>
     <row r="1856" spans="1:9" s="104" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1856" s="104">
+        <v>2091</v>
+      </c>
+      <c r="B1856" s="98" t="s">
+        <v>3693</v>
+      </c>
+    </row>
+    <row r="1857" spans="1:9" s="104" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1857" s="104">
+        <v>2092</v>
+      </c>
+      <c r="B1857" s="1" t="s">
+        <v>3694</v>
+      </c>
+      <c r="C1857" s="104">
+        <v>4</v>
+      </c>
+      <c r="D1857" s="104" t="s">
+        <v>1714</v>
+      </c>
+      <c r="E1857" s="104" t="s">
+        <v>2914</v>
+      </c>
+      <c r="F1857" s="104" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1857" s="104" t="s">
+        <v>187</v>
+      </c>
+      <c r="H1857" s="104" t="s">
+        <v>3715</v>
+      </c>
+      <c r="I1857" s="104" t="s">
+        <v>3019</v>
+      </c>
+    </row>
+    <row r="1858" spans="1:9" s="104" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1858" s="104">
         <v>2093</v>
       </c>
-      <c r="B1856" s="1" t="s">
+      <c r="B1858" s="1" t="s">
         <v>3695</v>
       </c>
     </row>
-    <row r="1857" spans="1:8" s="100" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1857" s="98"/>
-    </row>
-    <row r="1858" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A1858" s="105" t="s">
+    <row r="1859" spans="1:9" s="100" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1859" s="98"/>
+    </row>
+    <row r="1860" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A1860" s="106" t="s">
         <v>1715</v>
       </c>
-      <c r="B1858" s="105"/>
-      <c r="C1858" s="105"/>
-      <c r="D1858" s="105"/>
-      <c r="E1858" s="105"/>
-      <c r="F1858" s="105"/>
-      <c r="G1858" s="105"/>
-      <c r="H1858" s="105"/>
-    </row>
-    <row r="1859" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A1859" s="106" t="s">
+      <c r="B1860" s="106"/>
+      <c r="C1860" s="106"/>
+      <c r="D1860" s="106"/>
+      <c r="E1860" s="106"/>
+      <c r="F1860" s="106"/>
+      <c r="G1860" s="106"/>
+      <c r="H1860" s="106"/>
+    </row>
+    <row r="1861" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A1861" s="107" t="s">
         <v>2751</v>
       </c>
-      <c r="B1859" s="106"/>
-      <c r="C1859" s="106"/>
-      <c r="D1859" s="106"/>
-      <c r="E1859" s="106"/>
-      <c r="F1859" s="106"/>
-      <c r="G1859" s="106"/>
-      <c r="H1859" s="106"/>
+      <c r="B1861" s="107"/>
+      <c r="C1861" s="107"/>
+      <c r="D1861" s="107"/>
+      <c r="E1861" s="107"/>
+      <c r="F1861" s="107"/>
+      <c r="G1861" s="107"/>
+      <c r="H1861" s="107"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J1859" xr:uid="{CB07CE66-8F15-46FF-A90A-43FDB2DB428F}"/>
+  <autoFilter ref="A1:J1861" xr:uid="{CB07CE66-8F15-46FF-A90A-43FDB2DB428F}"/>
   <mergeCells count="2">
-    <mergeCell ref="A1858:H1858"/>
-    <mergeCell ref="A1859:H1859"/>
+    <mergeCell ref="A1860:H1860"/>
+    <mergeCell ref="A1861:H1861"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" display="https://leetcode.com/problems/zigzag-conversion" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -57457,11 +57639,11 @@
     <hyperlink ref="B1580" r:id="rId1372" display="https://leetcode.com/problems/can-you-eat-your-favorite-candy-on-your-favorite-day" xr:uid="{BEE070B5-F64C-4698-BCE5-1E36A8583440}"/>
     <hyperlink ref="B1586" r:id="rId1373" display="https://leetcode.com/problems/maximum-score-from-removing-stones" xr:uid="{B7AA18C7-E58A-447A-915A-42D4F13D6310}"/>
     <hyperlink ref="B1588" r:id="rId1374" display="https://leetcode.com/problems/closest-subsequence-sum" xr:uid="{F32459B0-DF4C-462A-9356-83F25EC7DAA2}"/>
-    <hyperlink ref="B1612" r:id="rId1375" display="https://leetcode.com/problems/number-of-restricted-paths-from-first-to-last-node" xr:uid="{7E8F4145-52CC-410A-8E6D-496A93BC9F35}"/>
-    <hyperlink ref="B1611" r:id="rId1376" display="https://leetcode.com/problems/minimum-elements-to-add-to-form-a-given-sum" xr:uid="{4588D88F-C977-4AC1-9131-6787B276C83B}"/>
-    <hyperlink ref="B1608" r:id="rId1377" display="https://leetcode.com/problems/sum-of-beauty-of-all-substrings" xr:uid="{F5D12DA0-6DB0-4E8E-A268-602716EC1E07}"/>
-    <hyperlink ref="B1607" r:id="rId1378" display="https://leetcode.com/problems/check-if-number-is-a-sum-of-powers-of-three" xr:uid="{4602803B-7988-4D38-ABF2-61BC86BCDAC5}"/>
-    <hyperlink ref="B1606" r:id="rId1379" display="https://leetcode.com/problems/find-nearest-point-that-has-the-same-x-or-y-coordinate" xr:uid="{5F651CEF-E9E7-4A94-8963-9659B92CF321}"/>
+    <hyperlink ref="B1613" r:id="rId1375" display="https://leetcode.com/problems/number-of-restricted-paths-from-first-to-last-node" xr:uid="{7E8F4145-52CC-410A-8E6D-496A93BC9F35}"/>
+    <hyperlink ref="B1612" r:id="rId1376" display="https://leetcode.com/problems/minimum-elements-to-add-to-form-a-given-sum" xr:uid="{4588D88F-C977-4AC1-9131-6787B276C83B}"/>
+    <hyperlink ref="B1609" r:id="rId1377" display="https://leetcode.com/problems/sum-of-beauty-of-all-substrings" xr:uid="{F5D12DA0-6DB0-4E8E-A268-602716EC1E07}"/>
+    <hyperlink ref="B1608" r:id="rId1378" display="https://leetcode.com/problems/check-if-number-is-a-sum-of-powers-of-three" xr:uid="{4602803B-7988-4D38-ABF2-61BC86BCDAC5}"/>
+    <hyperlink ref="B1607" r:id="rId1379" display="https://leetcode.com/problems/find-nearest-point-that-has-the-same-x-or-y-coordinate" xr:uid="{5F651CEF-E9E7-4A94-8963-9659B92CF321}"/>
     <hyperlink ref="B1605" r:id="rId1380" display="https://leetcode.com/problems/equal-sum-arrays-with-minimum-number-of-operations" xr:uid="{C7244173-A5DF-4CFD-8B2A-1EE21E557BC1}"/>
     <hyperlink ref="B1604" r:id="rId1381" display="https://leetcode.com/problems/closest-dessert-cost" xr:uid="{F7BEECC4-44E4-47B9-8596-B7703815C60F}"/>
     <hyperlink ref="B1602" r:id="rId1382" display="https://leetcode.com/problems/count-items-matching-a-rule" xr:uid="{C7425EBD-8CAE-4C06-8E35-71176FE3E292}"/>
@@ -57474,253 +57656,255 @@
     <hyperlink ref="B1598" r:id="rId1389" display="https://leetcode.com/problems/merge-strings-alternately" xr:uid="{10A36CE3-B9BF-4B0B-A7DF-E0BA62BBC363}"/>
     <hyperlink ref="B1599" r:id="rId1390" display="https://leetcode.com/problems/minimum-number-of-operations-to-move-all-balls-to-each-box" xr:uid="{D44C79CA-AF26-42E8-BA0E-F083D426240B}"/>
     <hyperlink ref="B1600" r:id="rId1391" display="https://leetcode.com/problems/maximum-score-from-performing-multiplication-operations" xr:uid="{CBFA2C81-65C2-4B16-BD7D-228C47EBD55C}"/>
-    <hyperlink ref="B1613" r:id="rId1392" display="https://leetcode.com/problems/make-the-xor-of-all-segments-equal-to-zero" xr:uid="{F9F7F3F8-AE15-4C3F-90C0-C87C5787CF85}"/>
-    <hyperlink ref="B1615" r:id="rId1393" display="https://leetcode.com/problems/check-if-one-string-swap-can-make-strings-equal" xr:uid="{94C3AB55-2DA1-4F06-A31A-03B510CB7FE6}"/>
-    <hyperlink ref="B1616" r:id="rId1394" display="https://leetcode.com/problems/find-center-of-star-graph" xr:uid="{92C112DA-1E26-4B3F-A26D-5485D079770C}"/>
-    <hyperlink ref="B1618" r:id="rId1395" display="https://leetcode.com/problems/maximum-score-of-a-good-subarray" xr:uid="{04CA3301-F2BD-44FE-8D80-D37D23948A03}"/>
-    <hyperlink ref="B1610" r:id="rId1396" display="https://leetcode.com/problems/check-if-binary-string-has-at-most-one-segment-of-ones" xr:uid="{CE9F4064-AD9A-45F5-8FA5-3D837B5BD888}"/>
-    <hyperlink ref="B1609" r:id="rId1397" display="https://leetcode.com/problems/count-pairs-of-nodes" xr:uid="{4BE12A90-1128-42D6-8B67-87E8493D607F}"/>
+    <hyperlink ref="B1614" r:id="rId1392" display="https://leetcode.com/problems/make-the-xor-of-all-segments-equal-to-zero" xr:uid="{F9F7F3F8-AE15-4C3F-90C0-C87C5787CF85}"/>
+    <hyperlink ref="B1616" r:id="rId1393" display="https://leetcode.com/problems/check-if-one-string-swap-can-make-strings-equal" xr:uid="{94C3AB55-2DA1-4F06-A31A-03B510CB7FE6}"/>
+    <hyperlink ref="B1617" r:id="rId1394" display="https://leetcode.com/problems/find-center-of-star-graph" xr:uid="{92C112DA-1E26-4B3F-A26D-5485D079770C}"/>
+    <hyperlink ref="B1619" r:id="rId1395" display="https://leetcode.com/problems/maximum-score-of-a-good-subarray" xr:uid="{04CA3301-F2BD-44FE-8D80-D37D23948A03}"/>
+    <hyperlink ref="B1611" r:id="rId1396" display="https://leetcode.com/problems/check-if-binary-string-has-at-most-one-segment-of-ones" xr:uid="{CE9F4064-AD9A-45F5-8FA5-3D837B5BD888}"/>
+    <hyperlink ref="B1610" r:id="rId1397" display="https://leetcode.com/problems/count-pairs-of-nodes" xr:uid="{4BE12A90-1128-42D6-8B67-87E8493D607F}"/>
     <hyperlink ref="B1581" r:id="rId1398" display="https://leetcode.com/problems/palindrome-partitioning-iv" xr:uid="{E9727F4E-397D-4808-93D3-81A8EA2BA6FA}"/>
     <hyperlink ref="B1593" r:id="rId1399" display="https://leetcode.com/problems/minimum-degree-of-a-connected-trio-in-a-graph" xr:uid="{2139E7CC-36A0-4372-9D37-5FD513CDD9B0}"/>
-    <hyperlink ref="B1619" r:id="rId1400" display="https://leetcode.com/problems/second-largest-digit-in-a-string" xr:uid="{4A66E7D8-75C8-4F8E-B9DB-8E399F951B16}"/>
-    <hyperlink ref="B1620" r:id="rId1401" display="https://leetcode.com/problems/design-authentication-manager" xr:uid="{480710DA-1C7D-455D-8D12-167C92DBF633}"/>
-    <hyperlink ref="B1621" r:id="rId1402" display="https://leetcode.com/problems/maximum-number-of-consecutive-values-you-can-make" xr:uid="{194727C9-C65E-44E7-A8A3-E7D9E7AD678B}"/>
-    <hyperlink ref="B1622" r:id="rId1403" display="https://leetcode.com/problems/maximize-score-after-n-operations" xr:uid="{98125BD7-0B8C-4106-A5E4-C55938B917E0}"/>
-    <hyperlink ref="B1623" r:id="rId1404" display="https://leetcode.com/problems/maximum-ascending-subarray-sum" xr:uid="{4206F736-48C2-4C51-BC45-0F7AA538AA31}"/>
-    <hyperlink ref="B1624" r:id="rId1405" display="https://leetcode.com/problems/number-of-orders-in-the-backlog" xr:uid="{A4B7F67E-4F72-4FF8-9023-A90CE712BA15}"/>
-    <hyperlink ref="B1625" r:id="rId1406" display="https://leetcode.com/problems/maximum-value-at-a-given-index-in-a-bounded-array" xr:uid="{E6D3D4E3-7FB4-464D-9389-88A8FB9AB699}"/>
-    <hyperlink ref="B1626" r:id="rId1407" display="https://leetcode.com/problems/count-pairs-with-xor-in-a-range" xr:uid="{88492775-D026-41EA-B4F6-EE9E43625F64}"/>
-    <hyperlink ref="B1627" r:id="rId1408" display="https://leetcode.com/problems/number-of-different-integers-in-a-string" xr:uid="{9DA3EFFF-6694-482A-91E6-051A5CCA6C92}"/>
-    <hyperlink ref="B1628" r:id="rId1409" display="https://leetcode.com/problems/minimum-number-of-operations-to-reinitialize-a-permutation" xr:uid="{5DBBFB2B-FAB5-4931-AB4C-41C33CCE3E9F}"/>
-    <hyperlink ref="B1629" r:id="rId1410" display="https://leetcode.com/problems/evaluate-the-bracket-pairs-of-a-string" xr:uid="{E6654C7A-7E01-4ED1-BF88-AEE3F00C826C}"/>
-    <hyperlink ref="B1630" r:id="rId1411" display="https://leetcode.com/problems/maximize-number-of-nice-divisors" xr:uid="{78626747-6249-42C3-9986-9D393FEA3FE8}"/>
+    <hyperlink ref="B1620" r:id="rId1400" display="https://leetcode.com/problems/second-largest-digit-in-a-string" xr:uid="{4A66E7D8-75C8-4F8E-B9DB-8E399F951B16}"/>
+    <hyperlink ref="B1621" r:id="rId1401" display="https://leetcode.com/problems/design-authentication-manager" xr:uid="{480710DA-1C7D-455D-8D12-167C92DBF633}"/>
+    <hyperlink ref="B1622" r:id="rId1402" display="https://leetcode.com/problems/maximum-number-of-consecutive-values-you-can-make" xr:uid="{194727C9-C65E-44E7-A8A3-E7D9E7AD678B}"/>
+    <hyperlink ref="B1623" r:id="rId1403" display="https://leetcode.com/problems/maximize-score-after-n-operations" xr:uid="{98125BD7-0B8C-4106-A5E4-C55938B917E0}"/>
+    <hyperlink ref="B1624" r:id="rId1404" display="https://leetcode.com/problems/maximum-ascending-subarray-sum" xr:uid="{4206F736-48C2-4C51-BC45-0F7AA538AA31}"/>
+    <hyperlink ref="B1625" r:id="rId1405" display="https://leetcode.com/problems/number-of-orders-in-the-backlog" xr:uid="{A4B7F67E-4F72-4FF8-9023-A90CE712BA15}"/>
+    <hyperlink ref="B1626" r:id="rId1406" display="https://leetcode.com/problems/maximum-value-at-a-given-index-in-a-bounded-array" xr:uid="{E6D3D4E3-7FB4-464D-9389-88A8FB9AB699}"/>
+    <hyperlink ref="B1627" r:id="rId1407" display="https://leetcode.com/problems/count-pairs-with-xor-in-a-range" xr:uid="{88492775-D026-41EA-B4F6-EE9E43625F64}"/>
+    <hyperlink ref="B1628" r:id="rId1408" display="https://leetcode.com/problems/number-of-different-integers-in-a-string" xr:uid="{9DA3EFFF-6694-482A-91E6-051A5CCA6C92}"/>
+    <hyperlink ref="B1629" r:id="rId1409" display="https://leetcode.com/problems/minimum-number-of-operations-to-reinitialize-a-permutation" xr:uid="{5DBBFB2B-FAB5-4931-AB4C-41C33CCE3E9F}"/>
+    <hyperlink ref="B1630" r:id="rId1410" display="https://leetcode.com/problems/evaluate-the-bracket-pairs-of-a-string" xr:uid="{E6654C7A-7E01-4ED1-BF88-AEE3F00C826C}"/>
+    <hyperlink ref="B1631" r:id="rId1411" display="https://leetcode.com/problems/maximize-number-of-nice-divisors" xr:uid="{78626747-6249-42C3-9986-9D393FEA3FE8}"/>
     <hyperlink ref="B1601" r:id="rId1412" display="https://leetcode.com/problems/maximize-palindrome-length-from-subsequences" xr:uid="{BA73F0FA-CB5F-4DD4-AF14-A696A9BAFBF8}"/>
-    <hyperlink ref="B1631" r:id="rId1413" display="https://leetcode.com/problems/determine-color-of-a-chessboard-square" xr:uid="{BBB99C21-759D-433A-AFD0-6D820254CB9F}"/>
-    <hyperlink ref="B1633" r:id="rId1414" display="https://leetcode.com/problems/count-nice-pairs-in-an-array" xr:uid="{33784327-6425-47D1-8866-B8FAF405AD95}"/>
-    <hyperlink ref="B1637" r:id="rId1415" display="https://leetcode.com/problems/minimum-absolute-sum-difference" xr:uid="{7E3B951A-E0A0-4E7E-ACD1-098D0084074E}"/>
-    <hyperlink ref="B1636" r:id="rId1416" display="https://leetcode.com/problems/finding-the-users-active-minutes" xr:uid="{09A336B4-6859-4EC2-AABC-5B8F78ECEABA}"/>
-    <hyperlink ref="B1634" r:id="rId1417" display="https://leetcode.com/problems/maximum-number-of-groups-getting-fresh-donuts" xr:uid="{70FC7CD8-A622-42EC-BA44-22F88CA1F2A7}"/>
+    <hyperlink ref="B1632" r:id="rId1413" display="https://leetcode.com/problems/determine-color-of-a-chessboard-square" xr:uid="{BBB99C21-759D-433A-AFD0-6D820254CB9F}"/>
+    <hyperlink ref="B1634" r:id="rId1414" display="https://leetcode.com/problems/count-nice-pairs-in-an-array" xr:uid="{33784327-6425-47D1-8866-B8FAF405AD95}"/>
+    <hyperlink ref="B1638" r:id="rId1415" display="https://leetcode.com/problems/minimum-absolute-sum-difference" xr:uid="{7E3B951A-E0A0-4E7E-ACD1-098D0084074E}"/>
+    <hyperlink ref="B1637" r:id="rId1416" display="https://leetcode.com/problems/finding-the-users-active-minutes" xr:uid="{09A336B4-6859-4EC2-AABC-5B8F78ECEABA}"/>
+    <hyperlink ref="B1635" r:id="rId1417" display="https://leetcode.com/problems/maximum-number-of-groups-getting-fresh-donuts" xr:uid="{70FC7CD8-A622-42EC-BA44-22F88CA1F2A7}"/>
     <hyperlink ref="B1584" r:id="rId1418" display="https://leetcode.com/problems/maximum-number-of-events-that-can-be-attended-ii" xr:uid="{E6CED50E-E4F2-4A0B-95B8-F5208373F7B8}"/>
-    <hyperlink ref="B1640" r:id="rId1419" display="https://leetcode.com/problems/sign-of-the-product-of-an-array" xr:uid="{A0049EEE-420F-4B36-9532-4246FDC62DB6}"/>
-    <hyperlink ref="B1641" r:id="rId1420" display="https://leetcode.com/problems/find-the-winner-of-the-circular-game" xr:uid="{A9255375-24AC-4E41-953D-DA0C6301095A}"/>
-    <hyperlink ref="B1642" r:id="rId1421" display="https://leetcode.com/problems/minimum-sideway-jumps" xr:uid="{4616F648-DE69-45E9-B2C6-D31F83F95B92}"/>
-    <hyperlink ref="B1643" r:id="rId1422" display="https://leetcode.com/problems/finding-mk-average" xr:uid="{0BF35336-3D02-41E1-A514-B9229042BBD6}"/>
-    <hyperlink ref="B1639" r:id="rId1423" display="https://leetcode.com/problems/maximum-number-of-accepted-invitations" xr:uid="{7A1246F2-C469-4411-A09D-BE551D6FE886}"/>
-    <hyperlink ref="B1645" r:id="rId1424" display="https://leetcode.com/problems/minimum-operations-to-make-the-array-increasing" xr:uid="{BCE639B4-26EE-4325-9A6F-B7BE83A0EE5A}"/>
-    <hyperlink ref="B1652" r:id="rId1425" display="https://leetcode.com/problems/find-xor-sum-of-all-pairs-bitwise-and" xr:uid="{38FA1C75-00B2-4AE8-8A11-2E014FC16985}"/>
-    <hyperlink ref="B1651" r:id="rId1426" display="https://leetcode.com/problems/single-threaded-cpu" xr:uid="{55B4E28C-C4B1-4C74-A203-8312BE18DC88}"/>
-    <hyperlink ref="B1650" r:id="rId1427" display="https://leetcode.com/problems/maximum-ice-cream-bars" xr:uid="{D5351234-3C7F-4961-B2F1-DFDF670C4573}"/>
-    <hyperlink ref="B1649" r:id="rId1428" display="https://leetcode.com/problems/check-if-the-sentence-is-pangram" xr:uid="{63C7BF79-155D-42CA-ABA8-8F2F7FD161E2}"/>
-    <hyperlink ref="B1648" r:id="rId1429" display="https://leetcode.com/problems/minimum-number-of-operations-to-make-string-sorted" xr:uid="{ACFFE50E-DB64-479B-8B9A-920DDE6CB684}"/>
-    <hyperlink ref="B1647" r:id="rId1430" display="https://leetcode.com/problems/maximum-xor-for-each-query" xr:uid="{D255E608-8F3D-4961-B320-B696DA8892A0}"/>
-    <hyperlink ref="B1646" r:id="rId1431" display="https://leetcode.com/problems/queries-on-number-of-points-inside-a-circle" xr:uid="{65DB8EBB-95E7-4BCA-9695-140D8EC29DBA}"/>
-    <hyperlink ref="B1653" r:id="rId1432" display="https://leetcode.com/problems/sum-of-digits-in-base-k" xr:uid="{6EF102B0-E6C2-4C97-973C-B394DDCD7812}"/>
-    <hyperlink ref="B1654" r:id="rId1433" display="https://leetcode.com/problems/frequency-of-the-most-frequent-element" xr:uid="{342FB5F7-8DE8-4D46-B110-C5C48EC6E39B}"/>
-    <hyperlink ref="B1655" r:id="rId1434" display="https://leetcode.com/problems/longest-substring-of-all-vowels-in-order" xr:uid="{E091BC8C-141B-419F-A05B-DAECE82F8E4D}"/>
-    <hyperlink ref="B1656" r:id="rId1435" display="https://leetcode.com/problems/maximum-building-height" xr:uid="{58FE2B85-7786-43E3-95B5-7EC3E47B02F7}"/>
-    <hyperlink ref="B1658" r:id="rId1436" display="https://leetcode.com/problems/replace-all-digits-with-characters" xr:uid="{49DB3A4F-FD4A-488C-9C40-1194D6EA8E08}"/>
-    <hyperlink ref="B1659" r:id="rId1437" display="https://leetcode.com/problems/seat-reservation-manager" xr:uid="{3917E3DD-3128-4718-BECB-213FB40603AE}"/>
-    <hyperlink ref="B1660" r:id="rId1438" display="https://leetcode.com/problems/maximum-element-after-decreasing-and-rearranging" xr:uid="{FDC9081B-0D97-4235-9B69-975D00D7F6C3}"/>
-    <hyperlink ref="B1662" r:id="rId1439" display="https://leetcode.com/problems/minimum-distance-to-the-target-element" xr:uid="{31785CF5-B776-4DB2-85D2-D170CFB44A76}"/>
-    <hyperlink ref="B1663" r:id="rId1440" display="https://leetcode.com/problems/splitting-a-string-into-descending-consecutive-values" xr:uid="{25A6E913-C7FB-41F4-ABEA-7F4AFD174FB6}"/>
-    <hyperlink ref="B1664" r:id="rId1441" display="https://leetcode.com/problems/minimum-adjacent-swaps-to-reach-the-kth-smallest-number" xr:uid="{1E6227B5-720D-4D63-806F-6B23252AA41D}"/>
-    <hyperlink ref="B1665" r:id="rId1442" display="https://leetcode.com/problems/minimum-interval-to-include-each-query" xr:uid="{5295AB82-D3CE-47AC-8B3E-D053903EACD4}"/>
-    <hyperlink ref="B1666" r:id="rId1443" display="https://leetcode.com/problems/maximum-population-year" xr:uid="{8B601B30-68A1-40B2-8CC4-5ADE4F1AADB0}"/>
-    <hyperlink ref="B1667" r:id="rId1444" display="https://leetcode.com/problems/maximum-distance-between-a-pair-of-values" xr:uid="{6526D9AA-7EF1-4DDB-8A45-0E58240D35C1}"/>
-    <hyperlink ref="B1668" r:id="rId1445" display="https://leetcode.com/problems/maximum-subarray-min-product" xr:uid="{652F1242-245F-4CDD-80E1-CD2643BBF1DD}"/>
+    <hyperlink ref="B1641" r:id="rId1419" display="https://leetcode.com/problems/sign-of-the-product-of-an-array" xr:uid="{A0049EEE-420F-4B36-9532-4246FDC62DB6}"/>
+    <hyperlink ref="B1642" r:id="rId1420" display="https://leetcode.com/problems/find-the-winner-of-the-circular-game" xr:uid="{A9255375-24AC-4E41-953D-DA0C6301095A}"/>
+    <hyperlink ref="B1643" r:id="rId1421" display="https://leetcode.com/problems/minimum-sideway-jumps" xr:uid="{4616F648-DE69-45E9-B2C6-D31F83F95B92}"/>
+    <hyperlink ref="B1644" r:id="rId1422" display="https://leetcode.com/problems/finding-mk-average" xr:uid="{0BF35336-3D02-41E1-A514-B9229042BBD6}"/>
+    <hyperlink ref="B1640" r:id="rId1423" display="https://leetcode.com/problems/maximum-number-of-accepted-invitations" xr:uid="{7A1246F2-C469-4411-A09D-BE551D6FE886}"/>
+    <hyperlink ref="B1646" r:id="rId1424" display="https://leetcode.com/problems/minimum-operations-to-make-the-array-increasing" xr:uid="{BCE639B4-26EE-4325-9A6F-B7BE83A0EE5A}"/>
+    <hyperlink ref="B1653" r:id="rId1425" display="https://leetcode.com/problems/find-xor-sum-of-all-pairs-bitwise-and" xr:uid="{38FA1C75-00B2-4AE8-8A11-2E014FC16985}"/>
+    <hyperlink ref="B1652" r:id="rId1426" display="https://leetcode.com/problems/single-threaded-cpu" xr:uid="{55B4E28C-C4B1-4C74-A203-8312BE18DC88}"/>
+    <hyperlink ref="B1651" r:id="rId1427" display="https://leetcode.com/problems/maximum-ice-cream-bars" xr:uid="{D5351234-3C7F-4961-B2F1-DFDF670C4573}"/>
+    <hyperlink ref="B1650" r:id="rId1428" display="https://leetcode.com/problems/check-if-the-sentence-is-pangram" xr:uid="{63C7BF79-155D-42CA-ABA8-8F2F7FD161E2}"/>
+    <hyperlink ref="B1649" r:id="rId1429" display="https://leetcode.com/problems/minimum-number-of-operations-to-make-string-sorted" xr:uid="{ACFFE50E-DB64-479B-8B9A-920DDE6CB684}"/>
+    <hyperlink ref="B1648" r:id="rId1430" display="https://leetcode.com/problems/maximum-xor-for-each-query" xr:uid="{D255E608-8F3D-4961-B320-B696DA8892A0}"/>
+    <hyperlink ref="B1647" r:id="rId1431" display="https://leetcode.com/problems/queries-on-number-of-points-inside-a-circle" xr:uid="{65DB8EBB-95E7-4BCA-9695-140D8EC29DBA}"/>
+    <hyperlink ref="B1654" r:id="rId1432" display="https://leetcode.com/problems/sum-of-digits-in-base-k" xr:uid="{6EF102B0-E6C2-4C97-973C-B394DDCD7812}"/>
+    <hyperlink ref="B1655" r:id="rId1433" display="https://leetcode.com/problems/frequency-of-the-most-frequent-element" xr:uid="{342FB5F7-8DE8-4D46-B110-C5C48EC6E39B}"/>
+    <hyperlink ref="B1656" r:id="rId1434" display="https://leetcode.com/problems/longest-substring-of-all-vowels-in-order" xr:uid="{E091BC8C-141B-419F-A05B-DAECE82F8E4D}"/>
+    <hyperlink ref="B1657" r:id="rId1435" display="https://leetcode.com/problems/maximum-building-height" xr:uid="{58FE2B85-7786-43E3-95B5-7EC3E47B02F7}"/>
+    <hyperlink ref="B1659" r:id="rId1436" display="https://leetcode.com/problems/replace-all-digits-with-characters" xr:uid="{49DB3A4F-FD4A-488C-9C40-1194D6EA8E08}"/>
+    <hyperlink ref="B1660" r:id="rId1437" display="https://leetcode.com/problems/seat-reservation-manager" xr:uid="{3917E3DD-3128-4718-BECB-213FB40603AE}"/>
+    <hyperlink ref="B1661" r:id="rId1438" display="https://leetcode.com/problems/maximum-element-after-decreasing-and-rearranging" xr:uid="{FDC9081B-0D97-4235-9B69-975D00D7F6C3}"/>
+    <hyperlink ref="B1663" r:id="rId1439" display="https://leetcode.com/problems/minimum-distance-to-the-target-element" xr:uid="{31785CF5-B776-4DB2-85D2-D170CFB44A76}"/>
+    <hyperlink ref="B1664" r:id="rId1440" display="https://leetcode.com/problems/splitting-a-string-into-descending-consecutive-values" xr:uid="{25A6E913-C7FB-41F4-ABEA-7F4AFD174FB6}"/>
+    <hyperlink ref="B1665" r:id="rId1441" display="https://leetcode.com/problems/minimum-adjacent-swaps-to-reach-the-kth-smallest-number" xr:uid="{1E6227B5-720D-4D63-806F-6B23252AA41D}"/>
+    <hyperlink ref="B1666" r:id="rId1442" display="https://leetcode.com/problems/minimum-interval-to-include-each-query" xr:uid="{5295AB82-D3CE-47AC-8B3E-D053903EACD4}"/>
+    <hyperlink ref="B1667" r:id="rId1443" display="https://leetcode.com/problems/maximum-population-year" xr:uid="{8B601B30-68A1-40B2-8CC4-5ADE4F1AADB0}"/>
+    <hyperlink ref="B1668" r:id="rId1444" display="https://leetcode.com/problems/maximum-distance-between-a-pair-of-values" xr:uid="{6526D9AA-7EF1-4DDB-8A45-0E58240D35C1}"/>
+    <hyperlink ref="B1669" r:id="rId1445" display="https://leetcode.com/problems/maximum-subarray-min-product" xr:uid="{652F1242-245F-4CDD-80E1-CD2643BBF1DD}"/>
     <hyperlink ref="B1410" r:id="rId1446" display="https://leetcode.com/problems/minimum-cost-to-cut-a-stick" xr:uid="{43E29B64-294E-4116-AA83-2FC7A623AF15}"/>
-    <hyperlink ref="B1677" r:id="rId1447" display="https://leetcode.com/problems/number-of-ways-to-rearrange-sticks-with-k-sticks-visible" xr:uid="{E35D13B0-22B7-490D-B5AB-4A7212373890}"/>
-    <hyperlink ref="B1673" r:id="rId1448" display="https://leetcode.com/problems/sum-of-floored-pairs" xr:uid="{093A209E-68BA-452C-AA91-6C7000A5F2E3}"/>
-    <hyperlink ref="B1681" r:id="rId1449" display="https://leetcode.com/problems/stone-game-viii" xr:uid="{61F21AD1-64FA-4012-9BE3-4243D664B6E2}"/>
-    <hyperlink ref="B1686" r:id="rId1450" display="https://leetcode.com/problems/minimum-xor-sum-of-two-arrays" xr:uid="{FD7F5FAD-8697-4398-A6A7-4EF44D3CEA63}"/>
-    <hyperlink ref="B1690" r:id="rId1451" display="https://leetcode.com/problems/minimum-skips-to-arrive-at-meeting-on-time" xr:uid="{9E93822D-BDD4-48D6-A1B5-4CB1349E95EC}"/>
-    <hyperlink ref="B1695" r:id="rId1452" display="https://leetcode.com/problems/minimum-space-wasted-from-packaging" xr:uid="{FD882ECA-EAB3-432E-B354-871F2953F4AE}"/>
-    <hyperlink ref="B1699" r:id="rId1453" display="https://leetcode.com/problems/minimum-cost-to-change-the-final-value-of-expression" xr:uid="{8AEEABF2-8972-41C9-9EAC-7A4DC947DB04}"/>
-    <hyperlink ref="B1703" r:id="rId1454" display="https://leetcode.com/problems/the-earliest-and-latest-rounds-where-players-compete" xr:uid="{1BA05603-7474-4610-A2E6-E0FE942FC497}"/>
-    <hyperlink ref="B1674" r:id="rId1455" display="https://leetcode.com/problems/sum-of-all-subset-xor-totals" xr:uid="{916CBCE4-8E4F-4C1A-ADC8-D712E20E7078}"/>
-    <hyperlink ref="B1678" r:id="rId1456" display="https://leetcode.com/problems/longer-contiguous-segments-of-ones-than-zeros" xr:uid="{F0373E6C-9FDE-4708-BDE4-1BAF6BC3DAF9}"/>
-    <hyperlink ref="B1683" r:id="rId1457" display="https://leetcode.com/problems/substrings-of-size-three-with-distinct-characters" xr:uid="{1D3C16AD-27DB-4D26-B4C5-CB3468282314}"/>
-    <hyperlink ref="B1687" r:id="rId1458" display="https://leetcode.com/problems/check-if-word-equals-summation-of-two-words" xr:uid="{26751097-8588-426A-9778-1F2134E99BA0}"/>
-    <hyperlink ref="B1692" r:id="rId1459" display="https://leetcode.com/problems/determine-whether-matrix-can-be-obtained-by-rotation" xr:uid="{DAAF2CCC-883E-4313-871A-8A735A3F5ADA}"/>
-    <hyperlink ref="B1696" r:id="rId1460" display="https://leetcode.com/problems/check-if-all-the-integers-in-a-range-are-covered" xr:uid="{1E1CE91C-D79D-487A-A76A-6DE39C6CDD96}"/>
-    <hyperlink ref="B1671" r:id="rId1461" display="https://leetcode.com/problems/incremental-memory-leak" xr:uid="{CA1A11F1-F4F6-4D65-9D69-A6197119EA1E}"/>
-    <hyperlink ref="B1672" r:id="rId1462" display="https://leetcode.com/problems/rotating-the-box" xr:uid="{1DBA9A18-E1D2-4148-8C3A-048CE82287C0}"/>
-    <hyperlink ref="B1705" r:id="rId1463" display="https://leetcode.com/problems/largest-odd-number-in-string" xr:uid="{C1F070FE-5338-44D3-AC2F-454F2F234B37}"/>
-    <hyperlink ref="B1708" r:id="rId1464" display="https://leetcode.com/problems/minimum-absolute-difference-queries" xr:uid="{BC2F4066-1A7C-40E6-807A-59A6290C5130}"/>
-    <hyperlink ref="B1710" r:id="rId1465" xr:uid="{701B89CB-0972-4CC9-B496-BFC2EA4D6053}"/>
-    <hyperlink ref="B1714" r:id="rId1466" xr:uid="{8495B600-B833-4B44-9931-395989DBBB7D}"/>
-    <hyperlink ref="B1715" r:id="rId1467" display="https://leetcode.com/problems/cyclically-rotating-a-grid" xr:uid="{3AFFE1F3-E05C-4E5B-AB9D-548519408295}"/>
-    <hyperlink ref="B1717" r:id="rId1468" display=" Count Ways to Build Rooms in an Ant Colony" xr:uid="{E356F1D9-1378-42C3-B1EC-4016F02C08FE}"/>
-    <hyperlink ref="B1675" r:id="rId1469" xr:uid="{68B63B60-AA23-4767-8102-9AA46D58D32F}"/>
-    <hyperlink ref="B1676" r:id="rId1470" display="https://leetcode.com/problems/finding-pairs-with-a-certain-sum" xr:uid="{37561B08-BC65-437E-B174-B127301F6D30}"/>
-    <hyperlink ref="B1679" r:id="rId1471" display="https://leetcode.com/problems/minimum-speed-to-arrive-on-time" xr:uid="{544CF080-940E-4B3B-8C0D-B8C5A249310B}"/>
-    <hyperlink ref="B1685" r:id="rId1472" display=" Get Biggest Three Rhombus Sums in a Grid" xr:uid="{C9ED9B55-F0EC-476B-8A98-0E74857AAAFC}"/>
-    <hyperlink ref="B1680" r:id="rId1473" display="https://leetcode.com/problems/jump-game-vii" xr:uid="{D4DE1BAE-1CC3-4DD3-9C0A-914FC5B5661F}"/>
-    <hyperlink ref="B1688" r:id="rId1474" display="https://leetcode.com/problems/maximum-value-after-insertion" xr:uid="{1CE67B2F-87CD-4FD5-B4F7-25783440228A}"/>
-    <hyperlink ref="B1698" r:id="rId1475" display="https://leetcode.com/problems/largest-magic-square" xr:uid="{1DB8991F-9DCC-4BF1-AF94-E99D460D113B}"/>
-    <hyperlink ref="B1684" r:id="rId1476" display="https://leetcode.com/problems/minimize-maximum-pair-sum-in-array" xr:uid="{D3735233-4AEB-4C89-B82C-4CA4DF8B68B4}"/>
-    <hyperlink ref="B1689" r:id="rId1477" display="https://leetcode.com/problems/process-tasks-using-servers" xr:uid="{E6E0ED0E-18FD-4748-90EB-5D666411330C}"/>
-    <hyperlink ref="B1691" r:id="rId1478" display="https://leetcode.com/problems/egg-drop-with-2-eggs-and-n-floors" xr:uid="{8F3F40B0-8D67-46A7-B467-4EEA5B9A8063}"/>
-    <hyperlink ref="B1693" r:id="rId1479" display="https://leetcode.com/problems/reduction-operations-to-make-the-array-elements-equal" xr:uid="{93CBEB02-546F-4B36-807B-CAA599C9C2E1}"/>
-    <hyperlink ref="B1700" r:id="rId1480" display="https://leetcode.com/problems/redistribute-characters-to-make-all-strings-equal" xr:uid="{514AD256-6C6F-423E-93EA-68F73246AB3C}"/>
-    <hyperlink ref="B1718" r:id="rId1481" display="https://leetcode.com/problems/build-array-from-permutation" xr:uid="{A7BA82A2-3CCD-45FF-8CCB-DCE423A9403F}"/>
-    <hyperlink ref="B1721" r:id="rId1482" display="https://leetcode.com/problems/longest-common-subpath" xr:uid="{62FFD7C8-6B95-49CF-877E-D2923644D1FD}"/>
-    <hyperlink ref="B1730" r:id="rId1483" display="https://leetcode.com/problems/merge-bsts-to-create-single-bst" xr:uid="{3C90ED05-B4E6-4A5B-8B92-92274CD6E3CB}"/>
-    <hyperlink ref="B1735" r:id="rId1484" display="https://leetcode.com/problems/maximum-genetic-difference-query" xr:uid="{1A25DDAD-A0E9-4DEA-9978-DBF0F9D4D3DF}"/>
-    <hyperlink ref="B1697" r:id="rId1485" display="https://leetcode.com/problems/find-the-student-that-will-replace-the-chalk" xr:uid="{9D146C0C-5A16-4375-BDF0-B60367842FF7}"/>
-    <hyperlink ref="B1740" r:id="rId1486" display="https://leetcode.com/problems/sum-of-digits-of-string-after-convert" xr:uid="{6F22ECDB-6A6B-41D3-8CA9-6D76CAF5B4E8}"/>
-    <hyperlink ref="B1736" r:id="rId1487" xr:uid="{67E882AF-68DB-41AF-8071-513205274BD9}"/>
-    <hyperlink ref="B1732" r:id="rId1488" display="https://leetcode.com/problems/maximum-number-of-words-you-can-type" xr:uid="{8E21FA9C-EBEA-4E91-AD8C-B9177EF763E8}"/>
-    <hyperlink ref="B1701" r:id="rId1489" xr:uid="{A3071BE6-0034-43AE-BDF8-5799BAD6EB13}"/>
-    <hyperlink ref="B1702" r:id="rId1490" display="https://leetcode.com/problems/merge-triplets-to-form-target-triplet" xr:uid="{EFBBCE90-7311-45FC-B707-92A6E1252460}"/>
-    <hyperlink ref="B1752" r:id="rId1491" xr:uid="{B409B537-7A7A-463A-A75E-53528F8E2853}"/>
-    <hyperlink ref="B1747" r:id="rId1492" xr:uid="{02C2B215-E3E3-4548-A2F1-DDB689E2C454}"/>
-    <hyperlink ref="B1743" r:id="rId1493" display="https://leetcode.com/problems/delete-duplicate-folders-in-system" xr:uid="{16B4D03D-ED3A-423A-8036-4E96E3C16067}"/>
-    <hyperlink ref="B1739" r:id="rId1494" xr:uid="{7C979346-7740-4A52-9F7D-050A4F57896C}"/>
-    <hyperlink ref="B1729" r:id="rId1495" display="https://leetcode.com/problems/painting-a-grid-with-three-different-colors" xr:uid="{B5ED7AD1-6A0E-45F7-B1AC-3F3817E32416}"/>
-    <hyperlink ref="B1726" r:id="rId1496" display="Minimum Cost to Reach Destination i" xr:uid="{3D85BE5F-F0CC-42FF-A640-8A8AE91D07EA}"/>
-    <hyperlink ref="B1713" r:id="rId1497" display="https://leetcode.com/problems/design-movie-rental-system" xr:uid="{19AF9215-7A21-4D3F-A616-43F376496623}"/>
-    <hyperlink ref="B1727" r:id="rId1498" display="https://leetcode.com/problems/concatenation-of-array" xr:uid="{4408C4DB-4EB9-4846-9A9D-74A69E6FC083}"/>
-    <hyperlink ref="B1707" r:id="rId1499" display="https://leetcode.com/problems/count-sub-islands" xr:uid="{618FF829-5060-41A7-93F8-CF7981307DFA}"/>
-    <hyperlink ref="B1706" r:id="rId1500" xr:uid="{3A86AED8-C09D-4BCF-A1D4-ADDD6E740309}"/>
-    <hyperlink ref="B1723" r:id="rId1501" display="https://leetcode.com/problems/count-square-sum-triples" xr:uid="{B8E45F4A-37F7-4057-AB54-687DAEB27C7E}"/>
-    <hyperlink ref="B1744" r:id="rId1502" display="https://leetcode.com/problems/three-divisors" xr:uid="{3D0A8A80-CBA1-408D-A123-C27B4A097F3A}"/>
-    <hyperlink ref="B1711" r:id="rId1503" display="https://leetcode.com/problems/remove-all-occurrences-of-a-substring" xr:uid="{1FD774A7-EA6E-486E-B5B2-4DB1A2CAD603}"/>
-    <hyperlink ref="B1712" r:id="rId1504" display="https://leetcode.com/problems/maximum-alternating-subsequence-sum" xr:uid="{FD99D4AE-DB21-4402-8FA7-0B910189496A}"/>
-    <hyperlink ref="B1719" r:id="rId1505" display="https://leetcode.com/problems/eliminate-maximum-number-of-monsters" xr:uid="{2F2B9E94-63AD-422B-9A63-FD6F7EE7C629}"/>
-    <hyperlink ref="B1720" r:id="rId1506" display="https://leetcode.com/problems/count-good-numbers" xr:uid="{0D5DDF79-C46F-494C-9766-0E840A482CBC}"/>
-    <hyperlink ref="B1724" r:id="rId1507" display="https://leetcode.com/problems/nearest-exit-from-entrance-in-maze" xr:uid="{D6319B8E-5A12-491E-9CED-BE4A97644B7D}"/>
-    <hyperlink ref="B1725" r:id="rId1508" display="https://leetcode.com/problems/sum-game" xr:uid="{7257B159-3AAE-49C8-A194-28A7B0536879}"/>
-    <hyperlink ref="B1728" r:id="rId1509" display="https://leetcode.com/problems/unique-length-3-palindromic-subsequences" xr:uid="{3E328985-E0C1-4515-AD87-7AEBCA16FAC1}"/>
-    <hyperlink ref="B1733" r:id="rId1510" display="https://leetcode.com/problems/add-minimum-number-of-rungs" xr:uid="{5BA1D979-BF40-48B3-A017-A1F66313C277}"/>
-    <hyperlink ref="B1734" r:id="rId1511" display="https://leetcode.com/problems/maximum-number-of-points-with-cost" xr:uid="{046C6A21-E955-49B6-9C89-B84CCB55AE5A}"/>
-    <hyperlink ref="B1737" r:id="rId1512" xr:uid="{6CD14534-BD2F-4FB2-9ED6-FA0B3F435F34}"/>
-    <hyperlink ref="B1738" r:id="rId1513" display="https://leetcode.com/problems/describe-the-painting" xr:uid="{DA3A709A-251A-4B40-A861-28FC5064A859}"/>
-    <hyperlink ref="B1741" r:id="rId1514" display="https://leetcode.com/problems/largest-number-after-mutating-substring" xr:uid="{4886B7BF-B766-44D2-92F9-16172E855E7A}"/>
-    <hyperlink ref="B1742" r:id="rId1515" display="https://leetcode.com/problems/maximum-compatibility-score-sum" xr:uid="{6AA7EF38-CB22-4349-9BCA-68EEDB6BA60F}"/>
-    <hyperlink ref="B1745" r:id="rId1516" xr:uid="{780DD737-38FC-4E52-8E17-E1ED7D4828C2}"/>
-    <hyperlink ref="B1746" r:id="rId1517" xr:uid="{BD5305FA-C3E6-436C-A3A3-3B2AEC015409}"/>
-    <hyperlink ref="B1750" r:id="rId1518" display="https://leetcode.com/problems/check-if-move-is-legal" xr:uid="{037D07CA-C5E5-46F7-8A15-FF086FD68CEA}"/>
-    <hyperlink ref="B1751" r:id="rId1519" xr:uid="{4514D26A-1DEB-4898-B0C0-E35C803A917D}"/>
-    <hyperlink ref="B1753" r:id="rId1520" display="https://leetcode.com/problems/check-if-string-is-a-prefix-of-array" xr:uid="{ED238B07-DD69-47D7-9C99-70206F56431B}"/>
-    <hyperlink ref="B1754" r:id="rId1521" display="https://leetcode.com/problems/remove-stones-to-minimize-the-total" xr:uid="{A477D00D-45DD-4A17-8EC1-CAB601E47AFE}"/>
-    <hyperlink ref="B1755" r:id="rId1522" xr:uid="{7AED54AB-CAC5-468D-AEA4-30EF78C123D5}"/>
-    <hyperlink ref="B1756" r:id="rId1523" xr:uid="{C8B643C6-E285-4944-9FD0-0F3F95420C77}"/>
-    <hyperlink ref="B1757" r:id="rId1524" display="https://leetcode.com/problems/number-of-strings-that-appear-as-substrings-in-word" xr:uid="{9D135439-6404-469A-B0F3-B3CB3CC48006}"/>
-    <hyperlink ref="B1758" r:id="rId1525" xr:uid="{2D13F7E0-CA9F-41A5-9A27-D14C8E89D1D6}"/>
-    <hyperlink ref="B1759" r:id="rId1526" xr:uid="{6F03E324-C26B-45D0-A69E-667D05BCF4A6}"/>
-    <hyperlink ref="B1760" r:id="rId1527" display="https://leetcode.com/problems/last-day-where-you-can-still-cross" xr:uid="{6C0C733A-DFFC-47C4-8A74-549CE9EEC902}"/>
-    <hyperlink ref="B1761" r:id="rId1528" display="https://leetcode.com/problems/find-if-path-exists-in-graph" xr:uid="{280D74AA-F965-40BB-989B-D14BCDFED54C}"/>
-    <hyperlink ref="B1762" r:id="rId1529" xr:uid="{4E722A0F-0542-4D0F-944F-81A1882BDB67}"/>
-    <hyperlink ref="B1763" r:id="rId1530" display="https://leetcode.com/problems/maximum-matrix-sum" xr:uid="{85554A11-E7CC-4623-9832-CA974B90C2B5}"/>
-    <hyperlink ref="B1764" r:id="rId1531" display="https://leetcode.com/problems/number-of-ways-to-arrive-at-destination" xr:uid="{7C2B1C34-BFA8-4D6A-8BFD-2D13258003E9}"/>
-    <hyperlink ref="B1765" r:id="rId1532" display="https://leetcode.com/problems/number-of-ways-to-separate-numbers" xr:uid="{A1CD6E14-B30D-48A8-9C50-989B50718C66}"/>
-    <hyperlink ref="B1766" r:id="rId1533" display="https://leetcode.com/problems/find-greatest-common-divisor-of-array" xr:uid="{F13EAFBC-B285-401C-91EE-AC9A939A3669}"/>
-    <hyperlink ref="B1767" r:id="rId1534" display="https://leetcode.com/problems/find-unique-binary-string" xr:uid="{7ED88115-1A51-43E5-9996-61390F3D3742}"/>
-    <hyperlink ref="B1768" r:id="rId1535" xr:uid="{307A70C2-1A17-4713-8815-4B08BE79BC16}"/>
-    <hyperlink ref="B1769" r:id="rId1536" display="https://leetcode.com/problems/find-array-given-subset-sums" xr:uid="{24E810D6-01EB-4D57-B971-B9D6AD7C8465}"/>
-    <hyperlink ref="B1770" r:id="rId1537" xr:uid="{3AC2DE31-2D9A-47A8-BD4F-9E1BA94A6DBE}"/>
-    <hyperlink ref="B1771" r:id="rId1538" display="https://leetcode.com/problems/find-the-kth-largest-integer-in-the-array" xr:uid="{0E5050F7-33DD-4568-A9C5-F0BF63ABEF41}"/>
-    <hyperlink ref="B1772" r:id="rId1539" xr:uid="{74CBB63A-C6EA-4857-9FF1-DE3E60CAE238}"/>
-    <hyperlink ref="B1773" r:id="rId1540" display="https://leetcode.com/problems/number-of-unique-good-subsequences" xr:uid="{853BAECC-5442-42F3-89D7-4E811047F33B}"/>
-    <hyperlink ref="B1774" r:id="rId1541" display="https://leetcode.com/problems/find-the-middle-index-in-array" xr:uid="{D5BD54BC-4C9D-4080-92AB-7E0AD5447197}"/>
-    <hyperlink ref="B1775" r:id="rId1542" display="https://leetcode.com/problems/find-all-groups-of-farmland" xr:uid="{FA8829D0-40F2-4ECC-B6CF-DF0CB80F6744}"/>
-    <hyperlink ref="B1776" r:id="rId1543" display="https://leetcode.com/problems/operations-on-tree" xr:uid="{686B754D-FA97-4909-9B6F-604722737483}"/>
-    <hyperlink ref="B1777" r:id="rId1544" display="https://leetcode.com/problems/the-number-of-good-subsets" xr:uid="{CB7AE48D-6C96-4D56-9DD1-F6A59CF37370}"/>
-    <hyperlink ref="B1778" r:id="rId1545" display="https://leetcode.com/problems/count-special-quadruplets" xr:uid="{661C9BC6-DD29-4EEE-BDF8-A0046C960AAA}"/>
-    <hyperlink ref="B1779" r:id="rId1546" xr:uid="{4367FE0D-6B66-4E7B-B67D-D44932CCF53D}"/>
-    <hyperlink ref="B1781" r:id="rId1547" display="https://leetcode.com/problems/gcd-sort-of-an-array" xr:uid="{D51FF9FA-E1D0-4876-9671-0BECACA20C8E}"/>
-    <hyperlink ref="B1780" r:id="rId1548" xr:uid="{440A2BB5-BF04-43D0-B17E-3DB556DFF3D2}"/>
-    <hyperlink ref="B1782" r:id="rId1549" display="https://leetcode.com/problems/reverse-prefix-of-word" xr:uid="{CB9978C3-6422-40BB-8564-3202082A0B1A}"/>
-    <hyperlink ref="B1783" r:id="rId1550" xr:uid="{7923A955-AD8E-4813-A991-8D8A22CAA454}"/>
-    <hyperlink ref="B1784" r:id="rId1551" display="https://leetcode.com/problems/maximum-product-of-the-length-of-two-palindromic-subsequences" xr:uid="{8F9B0876-A47C-4346-BB3A-B28A932D0561}"/>
-    <hyperlink ref="B1785" r:id="rId1552" display="https://leetcode.com/problems/smallest-missing-genetic-value-in-each-subtree" xr:uid="{7B841850-C4EB-4B17-86ED-3C469EA47416}"/>
-    <hyperlink ref="B1787" r:id="rId1553" xr:uid="{8B9BFB7A-1876-405D-81AE-5D45D7B9CC99}"/>
-    <hyperlink ref="B1788" r:id="rId1554" display="https://leetcode.com/problems/find-original-array-from-doubled-array" xr:uid="{941F4524-2AB9-4B82-8506-2B0DDAE8E0C8}"/>
-    <hyperlink ref="B1789" r:id="rId1555" display="https://leetcode.com/problems/maximum-earnings-from-taxi" xr:uid="{2C7D8613-3F51-4CE1-89B7-0D2175417F32}"/>
-    <hyperlink ref="B1790" r:id="rId1556" display="https://leetcode.com/problems/minimum-number-of-operations-to-make-array-continuous" xr:uid="{7CA9A60C-BA8C-481E-B3A3-B022E1E11E93}"/>
-    <hyperlink ref="B1791" r:id="rId1557" display="https://leetcode.com/problems/final-value-of-variable-after-performing-operations" xr:uid="{878BB048-0ECD-4FAC-A96B-1A705EB95DEF}"/>
-    <hyperlink ref="B1792" r:id="rId1558" display="https://leetcode.com/problems/sum-of-beauty-in-the-array" xr:uid="{73619F0E-5E06-4E41-906A-4E0AE98A22B5}"/>
-    <hyperlink ref="B1793" r:id="rId1559" display="https://leetcode.com/problems/detect-squares" xr:uid="{973708F6-B02C-4F3B-9CD7-658CC285620D}"/>
-    <hyperlink ref="B1794" r:id="rId1560" display="https://leetcode.com/problems/longest-subsequence-repeated-k-times" xr:uid="{4C762D87-A9C5-4BD4-912E-7DF86A9410E2}"/>
-    <hyperlink ref="B1795" r:id="rId1561" xr:uid="{FCD62007-CC5B-42E2-9137-1D08C11A57E4}"/>
-    <hyperlink ref="B1796" r:id="rId1562" display="https://leetcode.com/problems/grid-game" xr:uid="{6BAF02C7-CF0B-4611-97F7-71B80B95A205}"/>
-    <hyperlink ref="B1797" r:id="rId1563" display="https://leetcode.com/problems/check-if-word-can-be-placed-in-crossword" xr:uid="{302A26FF-631E-42F2-9B60-01DDABC35248}"/>
-    <hyperlink ref="B1798" r:id="rId1564" display="https://leetcode.com/problems/the-score-of-students-solving-math-expression" xr:uid="{3D10BE58-1B14-440E-9A39-40F0A7CCC3A0}"/>
-    <hyperlink ref="B1799" r:id="rId1565" display="https://leetcode.com/problems/convert-1d-array-into-2d-array" xr:uid="{412ED7EE-16C1-4FBE-88AA-44300DC61B17}"/>
-    <hyperlink ref="B1800" r:id="rId1566" display="https://leetcode.com/problems/number-of-pairs-of-strings-with-concatenation-equal-to-target" xr:uid="{EDEDBE97-30D3-4D23-9530-0C8A3F620EE6}"/>
-    <hyperlink ref="B1801" r:id="rId1567" display="https://leetcode.com/problems/maximize-the-confusion-of-an-exam" xr:uid="{B38DEE78-20CA-494E-8F19-7DDF232265F7}"/>
-    <hyperlink ref="B1802" r:id="rId1568" display="https://leetcode.com/problems/maximum-number-of-ways-to-partition-an-array" xr:uid="{327D7573-701B-491A-A079-084FB4CF6A48}"/>
-    <hyperlink ref="B1803" r:id="rId1569" display="https://leetcode.com/problems/minimum-moves-to-convert-string" xr:uid="{560091BE-B96B-42CB-A09B-F78B509005A6}"/>
-    <hyperlink ref="B1804" r:id="rId1570" display="https://leetcode.com/problems/find-missing-observations" xr:uid="{9490467D-B31C-44AF-8D15-79AB6781FC3C}"/>
-    <hyperlink ref="B1805" r:id="rId1571" display="https://leetcode.com/problems/stone-game-ix" xr:uid="{C7AA6D81-752C-425D-81DA-FAF27F7ED6FA}"/>
-    <hyperlink ref="B1806" r:id="rId1572" display="https://leetcode.com/problems/smallest-k-length-subsequence-with-occurrences-of-a-letter" xr:uid="{A5C04344-98FD-4F50-9D84-0FBA98FAC48B}"/>
-    <hyperlink ref="B1807" r:id="rId1573" display="https://leetcode.com/problems/two-out-of-three" xr:uid="{1AB7FC97-05A8-468E-8041-87C042662734}"/>
-    <hyperlink ref="B1808" r:id="rId1574" display="https://leetcode.com/problems/minimum-operations-to-make-a-uni-value-grid" xr:uid="{1D7594B8-D9EF-44A3-A181-5F380536D6FE}"/>
-    <hyperlink ref="B1809" r:id="rId1575" display="https://leetcode.com/problems/stock-price-fluctuation" xr:uid="{B4C0146B-D639-4321-83F0-6D26A81FB65F}"/>
-    <hyperlink ref="B1810" r:id="rId1576" display="https://leetcode.com/problems/partition-array-into-two-arrays-to-minimize-sum-difference" xr:uid="{82903DBE-FBC3-4832-A02A-38C1AC13E633}"/>
-    <hyperlink ref="B1812" r:id="rId1577" xr:uid="{6912978A-59D7-4A0E-A334-53B5396D5C1C}"/>
-    <hyperlink ref="B1811" r:id="rId1578" xr:uid="{20A5B385-905C-42AF-B96A-DC35E88CE4A9}"/>
-    <hyperlink ref="B1813" r:id="rId1579" display="https://leetcode.com/problems/the-time-when-the-network-becomes-idle" xr:uid="{6A5AC808-A088-406E-A668-EA5C0F6DB789}"/>
-    <hyperlink ref="B1814" r:id="rId1580" display="https://leetcode.com/problems/kth-smallest-product-of-two-sorted-arrays" xr:uid="{1E18156F-9CDF-492F-A500-95FD1C862605}"/>
-    <hyperlink ref="B1815" r:id="rId1581" display="https://leetcode.com/problems/check-if-numbers-are-ascending-in-a-sentence" xr:uid="{D07DC893-5260-4C94-B0C7-FADCEA7F501B}"/>
-    <hyperlink ref="B1816" r:id="rId1582" display="https://leetcode.com/problems/simple-bank-system" xr:uid="{2D5E5F4E-907C-4728-A902-7D10B6514920}"/>
-    <hyperlink ref="B1817" r:id="rId1583" xr:uid="{D5EDB803-F602-4ABD-9E68-1113D2A2A40A}"/>
-    <hyperlink ref="B1818" r:id="rId1584" display="https://leetcode.com/problems/second-minimum-time-to-reach-destination" xr:uid="{6ACF2F93-7EDE-4F1E-AA71-8112DE7ABF63}"/>
-    <hyperlink ref="B1819" r:id="rId1585" display="https://leetcode.com/problems/number-of-valid-words-in-a-sentence" xr:uid="{BCE84EEA-54FF-4E5A-9955-C02227468918}"/>
-    <hyperlink ref="B1820" r:id="rId1586" display="https://leetcode.com/problems/next-greater-numerically-balanced-number" xr:uid="{9FD27FA2-0676-4160-BC27-2E0F89E752A4}"/>
-    <hyperlink ref="B1821" r:id="rId1587" display="https://leetcode.com/problems/count-nodes-with-the-highest-score" xr:uid="{F7F71D15-EF63-42B1-BD71-1EB9E5AFAAEC}"/>
-    <hyperlink ref="B1822" r:id="rId1588" display="https://leetcode.com/problems/parallel-courses-iii" xr:uid="{10B385A3-FDEE-4123-AC9C-4F7EF85C3982}"/>
-    <hyperlink ref="B1823" r:id="rId1589" display="https://leetcode.com/problems/kth-distinct-string-in-an-array" xr:uid="{C8004808-B8BB-4E39-B2BC-980704DF7D4E}"/>
-    <hyperlink ref="B1824" r:id="rId1590" display="https://leetcode.com/problems/two-best-non-overlapping-events" xr:uid="{F29009B4-E1BD-443F-8480-1775C9682530}"/>
-    <hyperlink ref="B1825" r:id="rId1591" display="https://leetcode.com/problems/plates-between-candles" xr:uid="{A118D0C8-0288-4E36-8D25-A4774630A76B}"/>
-    <hyperlink ref="B1826" r:id="rId1592" display="https://leetcode.com/problems/number-of-valid-move-combinations-on-chessboard" xr:uid="{AEC5E678-B4A1-445C-B8F4-DE74236CAC53}"/>
-    <hyperlink ref="B1827" r:id="rId1593" display="https://leetcode.com/problems/smallest-index-with-equal-value" xr:uid="{E7A8904C-9D51-49EC-A910-9EE0B60892CD}"/>
-    <hyperlink ref="B1828" r:id="rId1594" display="https://leetcode.com/problems/find-the-minimum-and-maximum-number-of-nodes-between-critical-points" xr:uid="{0AC3439C-F776-4E62-B906-4FEDA4902BCA}"/>
-    <hyperlink ref="B1829" r:id="rId1595" display="https://leetcode.com/problems/minimum-operations-to-convert-number" xr:uid="{E72F9ECF-969F-4732-A4BD-D6C619ECE110}"/>
-    <hyperlink ref="B1830" r:id="rId1596" display="https://leetcode.com/problems/check-if-an-original-string-exists-given-two-encoded-strings" xr:uid="{0E2F5BE6-4251-43B0-902E-665D40B08A24}"/>
+    <hyperlink ref="B1678" r:id="rId1447" display="https://leetcode.com/problems/number-of-ways-to-rearrange-sticks-with-k-sticks-visible" xr:uid="{E35D13B0-22B7-490D-B5AB-4A7212373890}"/>
+    <hyperlink ref="B1674" r:id="rId1448" display="https://leetcode.com/problems/sum-of-floored-pairs" xr:uid="{093A209E-68BA-452C-AA91-6C7000A5F2E3}"/>
+    <hyperlink ref="B1682" r:id="rId1449" display="https://leetcode.com/problems/stone-game-viii" xr:uid="{61F21AD1-64FA-4012-9BE3-4243D664B6E2}"/>
+    <hyperlink ref="B1687" r:id="rId1450" display="https://leetcode.com/problems/minimum-xor-sum-of-two-arrays" xr:uid="{FD7F5FAD-8697-4398-A6A7-4EF44D3CEA63}"/>
+    <hyperlink ref="B1691" r:id="rId1451" display="https://leetcode.com/problems/minimum-skips-to-arrive-at-meeting-on-time" xr:uid="{9E93822D-BDD4-48D6-A1B5-4CB1349E95EC}"/>
+    <hyperlink ref="B1696" r:id="rId1452" display="https://leetcode.com/problems/minimum-space-wasted-from-packaging" xr:uid="{FD882ECA-EAB3-432E-B354-871F2953F4AE}"/>
+    <hyperlink ref="B1700" r:id="rId1453" display="https://leetcode.com/problems/minimum-cost-to-change-the-final-value-of-expression" xr:uid="{8AEEABF2-8972-41C9-9EAC-7A4DC947DB04}"/>
+    <hyperlink ref="B1704" r:id="rId1454" display="https://leetcode.com/problems/the-earliest-and-latest-rounds-where-players-compete" xr:uid="{1BA05603-7474-4610-A2E6-E0FE942FC497}"/>
+    <hyperlink ref="B1675" r:id="rId1455" display="https://leetcode.com/problems/sum-of-all-subset-xor-totals" xr:uid="{916CBCE4-8E4F-4C1A-ADC8-D712E20E7078}"/>
+    <hyperlink ref="B1679" r:id="rId1456" display="https://leetcode.com/problems/longer-contiguous-segments-of-ones-than-zeros" xr:uid="{F0373E6C-9FDE-4708-BDE4-1BAF6BC3DAF9}"/>
+    <hyperlink ref="B1684" r:id="rId1457" display="https://leetcode.com/problems/substrings-of-size-three-with-distinct-characters" xr:uid="{1D3C16AD-27DB-4D26-B4C5-CB3468282314}"/>
+    <hyperlink ref="B1688" r:id="rId1458" display="https://leetcode.com/problems/check-if-word-equals-summation-of-two-words" xr:uid="{26751097-8588-426A-9778-1F2134E99BA0}"/>
+    <hyperlink ref="B1693" r:id="rId1459" display="https://leetcode.com/problems/determine-whether-matrix-can-be-obtained-by-rotation" xr:uid="{DAAF2CCC-883E-4313-871A-8A735A3F5ADA}"/>
+    <hyperlink ref="B1697" r:id="rId1460" display="https://leetcode.com/problems/check-if-all-the-integers-in-a-range-are-covered" xr:uid="{1E1CE91C-D79D-487A-A76A-6DE39C6CDD96}"/>
+    <hyperlink ref="B1672" r:id="rId1461" display="https://leetcode.com/problems/incremental-memory-leak" xr:uid="{CA1A11F1-F4F6-4D65-9D69-A6197119EA1E}"/>
+    <hyperlink ref="B1673" r:id="rId1462" display="https://leetcode.com/problems/rotating-the-box" xr:uid="{1DBA9A18-E1D2-4148-8C3A-048CE82287C0}"/>
+    <hyperlink ref="B1706" r:id="rId1463" display="https://leetcode.com/problems/largest-odd-number-in-string" xr:uid="{C1F070FE-5338-44D3-AC2F-454F2F234B37}"/>
+    <hyperlink ref="B1709" r:id="rId1464" display="https://leetcode.com/problems/minimum-absolute-difference-queries" xr:uid="{BC2F4066-1A7C-40E6-807A-59A6290C5130}"/>
+    <hyperlink ref="B1711" r:id="rId1465" xr:uid="{701B89CB-0972-4CC9-B496-BFC2EA4D6053}"/>
+    <hyperlink ref="B1715" r:id="rId1466" xr:uid="{8495B600-B833-4B44-9931-395989DBBB7D}"/>
+    <hyperlink ref="B1716" r:id="rId1467" display="https://leetcode.com/problems/cyclically-rotating-a-grid" xr:uid="{3AFFE1F3-E05C-4E5B-AB9D-548519408295}"/>
+    <hyperlink ref="B1718" r:id="rId1468" display=" Count Ways to Build Rooms in an Ant Colony" xr:uid="{E356F1D9-1378-42C3-B1EC-4016F02C08FE}"/>
+    <hyperlink ref="B1676" r:id="rId1469" xr:uid="{68B63B60-AA23-4767-8102-9AA46D58D32F}"/>
+    <hyperlink ref="B1677" r:id="rId1470" display="https://leetcode.com/problems/finding-pairs-with-a-certain-sum" xr:uid="{37561B08-BC65-437E-B174-B127301F6D30}"/>
+    <hyperlink ref="B1680" r:id="rId1471" display="https://leetcode.com/problems/minimum-speed-to-arrive-on-time" xr:uid="{544CF080-940E-4B3B-8C0D-B8C5A249310B}"/>
+    <hyperlink ref="B1686" r:id="rId1472" display=" Get Biggest Three Rhombus Sums in a Grid" xr:uid="{C9ED9B55-F0EC-476B-8A98-0E74857AAAFC}"/>
+    <hyperlink ref="B1681" r:id="rId1473" display="https://leetcode.com/problems/jump-game-vii" xr:uid="{D4DE1BAE-1CC3-4DD3-9C0A-914FC5B5661F}"/>
+    <hyperlink ref="B1689" r:id="rId1474" display="https://leetcode.com/problems/maximum-value-after-insertion" xr:uid="{1CE67B2F-87CD-4FD5-B4F7-25783440228A}"/>
+    <hyperlink ref="B1699" r:id="rId1475" display="https://leetcode.com/problems/largest-magic-square" xr:uid="{1DB8991F-9DCC-4BF1-AF94-E99D460D113B}"/>
+    <hyperlink ref="B1685" r:id="rId1476" display="https://leetcode.com/problems/minimize-maximum-pair-sum-in-array" xr:uid="{D3735233-4AEB-4C89-B82C-4CA4DF8B68B4}"/>
+    <hyperlink ref="B1690" r:id="rId1477" display="https://leetcode.com/problems/process-tasks-using-servers" xr:uid="{E6E0ED0E-18FD-4748-90EB-5D666411330C}"/>
+    <hyperlink ref="B1692" r:id="rId1478" display="https://leetcode.com/problems/egg-drop-with-2-eggs-and-n-floors" xr:uid="{8F3F40B0-8D67-46A7-B467-4EEA5B9A8063}"/>
+    <hyperlink ref="B1694" r:id="rId1479" display="https://leetcode.com/problems/reduction-operations-to-make-the-array-elements-equal" xr:uid="{93CBEB02-546F-4B36-807B-CAA599C9C2E1}"/>
+    <hyperlink ref="B1701" r:id="rId1480" display="https://leetcode.com/problems/redistribute-characters-to-make-all-strings-equal" xr:uid="{514AD256-6C6F-423E-93EA-68F73246AB3C}"/>
+    <hyperlink ref="B1719" r:id="rId1481" display="https://leetcode.com/problems/build-array-from-permutation" xr:uid="{A7BA82A2-3CCD-45FF-8CCB-DCE423A9403F}"/>
+    <hyperlink ref="B1722" r:id="rId1482" display="https://leetcode.com/problems/longest-common-subpath" xr:uid="{62FFD7C8-6B95-49CF-877E-D2923644D1FD}"/>
+    <hyperlink ref="B1731" r:id="rId1483" display="https://leetcode.com/problems/merge-bsts-to-create-single-bst" xr:uid="{3C90ED05-B4E6-4A5B-8B92-92274CD6E3CB}"/>
+    <hyperlink ref="B1736" r:id="rId1484" display="https://leetcode.com/problems/maximum-genetic-difference-query" xr:uid="{1A25DDAD-A0E9-4DEA-9978-DBF0F9D4D3DF}"/>
+    <hyperlink ref="B1698" r:id="rId1485" display="https://leetcode.com/problems/find-the-student-that-will-replace-the-chalk" xr:uid="{9D146C0C-5A16-4375-BDF0-B60367842FF7}"/>
+    <hyperlink ref="B1741" r:id="rId1486" display="https://leetcode.com/problems/sum-of-digits-of-string-after-convert" xr:uid="{6F22ECDB-6A6B-41D3-8CA9-6D76CAF5B4E8}"/>
+    <hyperlink ref="B1737" r:id="rId1487" xr:uid="{67E882AF-68DB-41AF-8071-513205274BD9}"/>
+    <hyperlink ref="B1733" r:id="rId1488" display="https://leetcode.com/problems/maximum-number-of-words-you-can-type" xr:uid="{8E21FA9C-EBEA-4E91-AD8C-B9177EF763E8}"/>
+    <hyperlink ref="B1702" r:id="rId1489" xr:uid="{A3071BE6-0034-43AE-BDF8-5799BAD6EB13}"/>
+    <hyperlink ref="B1703" r:id="rId1490" display="https://leetcode.com/problems/merge-triplets-to-form-target-triplet" xr:uid="{EFBBCE90-7311-45FC-B707-92A6E1252460}"/>
+    <hyperlink ref="B1753" r:id="rId1491" xr:uid="{B409B537-7A7A-463A-A75E-53528F8E2853}"/>
+    <hyperlink ref="B1748" r:id="rId1492" xr:uid="{02C2B215-E3E3-4548-A2F1-DDB689E2C454}"/>
+    <hyperlink ref="B1744" r:id="rId1493" display="https://leetcode.com/problems/delete-duplicate-folders-in-system" xr:uid="{16B4D03D-ED3A-423A-8036-4E96E3C16067}"/>
+    <hyperlink ref="B1740" r:id="rId1494" xr:uid="{7C979346-7740-4A52-9F7D-050A4F57896C}"/>
+    <hyperlink ref="B1730" r:id="rId1495" display="https://leetcode.com/problems/painting-a-grid-with-three-different-colors" xr:uid="{B5ED7AD1-6A0E-45F7-B1AC-3F3817E32416}"/>
+    <hyperlink ref="B1727" r:id="rId1496" display="Minimum Cost to Reach Destination i" xr:uid="{3D85BE5F-F0CC-42FF-A640-8A8AE91D07EA}"/>
+    <hyperlink ref="B1714" r:id="rId1497" display="https://leetcode.com/problems/design-movie-rental-system" xr:uid="{19AF9215-7A21-4D3F-A616-43F376496623}"/>
+    <hyperlink ref="B1728" r:id="rId1498" display="https://leetcode.com/problems/concatenation-of-array" xr:uid="{4408C4DB-4EB9-4846-9A9D-74A69E6FC083}"/>
+    <hyperlink ref="B1708" r:id="rId1499" display="https://leetcode.com/problems/count-sub-islands" xr:uid="{618FF829-5060-41A7-93F8-CF7981307DFA}"/>
+    <hyperlink ref="B1707" r:id="rId1500" xr:uid="{3A86AED8-C09D-4BCF-A1D4-ADDD6E740309}"/>
+    <hyperlink ref="B1724" r:id="rId1501" display="https://leetcode.com/problems/count-square-sum-triples" xr:uid="{B8E45F4A-37F7-4057-AB54-687DAEB27C7E}"/>
+    <hyperlink ref="B1745" r:id="rId1502" display="https://leetcode.com/problems/three-divisors" xr:uid="{3D0A8A80-CBA1-408D-A123-C27B4A097F3A}"/>
+    <hyperlink ref="B1712" r:id="rId1503" display="https://leetcode.com/problems/remove-all-occurrences-of-a-substring" xr:uid="{1FD774A7-EA6E-486E-B5B2-4DB1A2CAD603}"/>
+    <hyperlink ref="B1713" r:id="rId1504" display="https://leetcode.com/problems/maximum-alternating-subsequence-sum" xr:uid="{FD99D4AE-DB21-4402-8FA7-0B910189496A}"/>
+    <hyperlink ref="B1720" r:id="rId1505" display="https://leetcode.com/problems/eliminate-maximum-number-of-monsters" xr:uid="{2F2B9E94-63AD-422B-9A63-FD6F7EE7C629}"/>
+    <hyperlink ref="B1721" r:id="rId1506" display="https://leetcode.com/problems/count-good-numbers" xr:uid="{0D5DDF79-C46F-494C-9766-0E840A482CBC}"/>
+    <hyperlink ref="B1725" r:id="rId1507" display="https://leetcode.com/problems/nearest-exit-from-entrance-in-maze" xr:uid="{D6319B8E-5A12-491E-9CED-BE4A97644B7D}"/>
+    <hyperlink ref="B1726" r:id="rId1508" display="https://leetcode.com/problems/sum-game" xr:uid="{7257B159-3AAE-49C8-A194-28A7B0536879}"/>
+    <hyperlink ref="B1729" r:id="rId1509" display="https://leetcode.com/problems/unique-length-3-palindromic-subsequences" xr:uid="{3E328985-E0C1-4515-AD87-7AEBCA16FAC1}"/>
+    <hyperlink ref="B1734" r:id="rId1510" display="https://leetcode.com/problems/add-minimum-number-of-rungs" xr:uid="{5BA1D979-BF40-48B3-A017-A1F66313C277}"/>
+    <hyperlink ref="B1735" r:id="rId1511" display="https://leetcode.com/problems/maximum-number-of-points-with-cost" xr:uid="{046C6A21-E955-49B6-9C89-B84CCB55AE5A}"/>
+    <hyperlink ref="B1738" r:id="rId1512" xr:uid="{6CD14534-BD2F-4FB2-9ED6-FA0B3F435F34}"/>
+    <hyperlink ref="B1739" r:id="rId1513" display="https://leetcode.com/problems/describe-the-painting" xr:uid="{DA3A709A-251A-4B40-A861-28FC5064A859}"/>
+    <hyperlink ref="B1742" r:id="rId1514" display="https://leetcode.com/problems/largest-number-after-mutating-substring" xr:uid="{4886B7BF-B766-44D2-92F9-16172E855E7A}"/>
+    <hyperlink ref="B1743" r:id="rId1515" display="https://leetcode.com/problems/maximum-compatibility-score-sum" xr:uid="{6AA7EF38-CB22-4349-9BCA-68EEDB6BA60F}"/>
+    <hyperlink ref="B1746" r:id="rId1516" xr:uid="{780DD737-38FC-4E52-8E17-E1ED7D4828C2}"/>
+    <hyperlink ref="B1747" r:id="rId1517" xr:uid="{BD5305FA-C3E6-436C-A3A3-3B2AEC015409}"/>
+    <hyperlink ref="B1751" r:id="rId1518" display="https://leetcode.com/problems/check-if-move-is-legal" xr:uid="{037D07CA-C5E5-46F7-8A15-FF086FD68CEA}"/>
+    <hyperlink ref="B1752" r:id="rId1519" xr:uid="{4514D26A-1DEB-4898-B0C0-E35C803A917D}"/>
+    <hyperlink ref="B1754" r:id="rId1520" display="https://leetcode.com/problems/check-if-string-is-a-prefix-of-array" xr:uid="{ED238B07-DD69-47D7-9C99-70206F56431B}"/>
+    <hyperlink ref="B1755" r:id="rId1521" display="https://leetcode.com/problems/remove-stones-to-minimize-the-total" xr:uid="{A477D00D-45DD-4A17-8EC1-CAB601E47AFE}"/>
+    <hyperlink ref="B1756" r:id="rId1522" xr:uid="{7AED54AB-CAC5-468D-AEA4-30EF78C123D5}"/>
+    <hyperlink ref="B1757" r:id="rId1523" xr:uid="{C8B643C6-E285-4944-9FD0-0F3F95420C77}"/>
+    <hyperlink ref="B1759" r:id="rId1524" display="https://leetcode.com/problems/number-of-strings-that-appear-as-substrings-in-word" xr:uid="{9D135439-6404-469A-B0F3-B3CB3CC48006}"/>
+    <hyperlink ref="B1760" r:id="rId1525" xr:uid="{2D13F7E0-CA9F-41A5-9A27-D14C8E89D1D6}"/>
+    <hyperlink ref="B1761" r:id="rId1526" xr:uid="{6F03E324-C26B-45D0-A69E-667D05BCF4A6}"/>
+    <hyperlink ref="B1762" r:id="rId1527" display="https://leetcode.com/problems/last-day-where-you-can-still-cross" xr:uid="{6C0C733A-DFFC-47C4-8A74-549CE9EEC902}"/>
+    <hyperlink ref="B1763" r:id="rId1528" display="https://leetcode.com/problems/find-if-path-exists-in-graph" xr:uid="{280D74AA-F965-40BB-989B-D14BCDFED54C}"/>
+    <hyperlink ref="B1764" r:id="rId1529" xr:uid="{4E722A0F-0542-4D0F-944F-81A1882BDB67}"/>
+    <hyperlink ref="B1765" r:id="rId1530" display="https://leetcode.com/problems/maximum-matrix-sum" xr:uid="{85554A11-E7CC-4623-9832-CA974B90C2B5}"/>
+    <hyperlink ref="B1766" r:id="rId1531" display="https://leetcode.com/problems/number-of-ways-to-arrive-at-destination" xr:uid="{7C2B1C34-BFA8-4D6A-8BFD-2D13258003E9}"/>
+    <hyperlink ref="B1767" r:id="rId1532" display="https://leetcode.com/problems/number-of-ways-to-separate-numbers" xr:uid="{A1CD6E14-B30D-48A8-9C50-989B50718C66}"/>
+    <hyperlink ref="B1768" r:id="rId1533" display="https://leetcode.com/problems/find-greatest-common-divisor-of-array" xr:uid="{F13EAFBC-B285-401C-91EE-AC9A939A3669}"/>
+    <hyperlink ref="B1769" r:id="rId1534" display="https://leetcode.com/problems/find-unique-binary-string" xr:uid="{7ED88115-1A51-43E5-9996-61390F3D3742}"/>
+    <hyperlink ref="B1770" r:id="rId1535" xr:uid="{307A70C2-1A17-4713-8815-4B08BE79BC16}"/>
+    <hyperlink ref="B1771" r:id="rId1536" display="https://leetcode.com/problems/find-array-given-subset-sums" xr:uid="{24E810D6-01EB-4D57-B971-B9D6AD7C8465}"/>
+    <hyperlink ref="B1772" r:id="rId1537" xr:uid="{3AC2DE31-2D9A-47A8-BD4F-9E1BA94A6DBE}"/>
+    <hyperlink ref="B1773" r:id="rId1538" display="https://leetcode.com/problems/find-the-kth-largest-integer-in-the-array" xr:uid="{0E5050F7-33DD-4568-A9C5-F0BF63ABEF41}"/>
+    <hyperlink ref="B1774" r:id="rId1539" xr:uid="{74CBB63A-C6EA-4857-9FF1-DE3E60CAE238}"/>
+    <hyperlink ref="B1775" r:id="rId1540" display="https://leetcode.com/problems/number-of-unique-good-subsequences" xr:uid="{853BAECC-5442-42F3-89D7-4E811047F33B}"/>
+    <hyperlink ref="B1776" r:id="rId1541" display="https://leetcode.com/problems/find-the-middle-index-in-array" xr:uid="{D5BD54BC-4C9D-4080-92AB-7E0AD5447197}"/>
+    <hyperlink ref="B1777" r:id="rId1542" display="https://leetcode.com/problems/find-all-groups-of-farmland" xr:uid="{FA8829D0-40F2-4ECC-B6CF-DF0CB80F6744}"/>
+    <hyperlink ref="B1778" r:id="rId1543" display="https://leetcode.com/problems/operations-on-tree" xr:uid="{686B754D-FA97-4909-9B6F-604722737483}"/>
+    <hyperlink ref="B1779" r:id="rId1544" display="https://leetcode.com/problems/the-number-of-good-subsets" xr:uid="{CB7AE48D-6C96-4D56-9DD1-F6A59CF37370}"/>
+    <hyperlink ref="B1780" r:id="rId1545" display="https://leetcode.com/problems/count-special-quadruplets" xr:uid="{661C9BC6-DD29-4EEE-BDF8-A0046C960AAA}"/>
+    <hyperlink ref="B1781" r:id="rId1546" xr:uid="{4367FE0D-6B66-4E7B-B67D-D44932CCF53D}"/>
+    <hyperlink ref="B1783" r:id="rId1547" display="https://leetcode.com/problems/gcd-sort-of-an-array" xr:uid="{D51FF9FA-E1D0-4876-9671-0BECACA20C8E}"/>
+    <hyperlink ref="B1782" r:id="rId1548" xr:uid="{440A2BB5-BF04-43D0-B17E-3DB556DFF3D2}"/>
+    <hyperlink ref="B1784" r:id="rId1549" display="https://leetcode.com/problems/reverse-prefix-of-word" xr:uid="{CB9978C3-6422-40BB-8564-3202082A0B1A}"/>
+    <hyperlink ref="B1785" r:id="rId1550" xr:uid="{7923A955-AD8E-4813-A991-8D8A22CAA454}"/>
+    <hyperlink ref="B1786" r:id="rId1551" display="https://leetcode.com/problems/maximum-product-of-the-length-of-two-palindromic-subsequences" xr:uid="{8F9B0876-A47C-4346-BB3A-B28A932D0561}"/>
+    <hyperlink ref="B1787" r:id="rId1552" display="https://leetcode.com/problems/smallest-missing-genetic-value-in-each-subtree" xr:uid="{7B841850-C4EB-4B17-86ED-3C469EA47416}"/>
+    <hyperlink ref="B1789" r:id="rId1553" xr:uid="{8B9BFB7A-1876-405D-81AE-5D45D7B9CC99}"/>
+    <hyperlink ref="B1790" r:id="rId1554" display="https://leetcode.com/problems/find-original-array-from-doubled-array" xr:uid="{941F4524-2AB9-4B82-8506-2B0DDAE8E0C8}"/>
+    <hyperlink ref="B1791" r:id="rId1555" display="https://leetcode.com/problems/maximum-earnings-from-taxi" xr:uid="{2C7D8613-3F51-4CE1-89B7-0D2175417F32}"/>
+    <hyperlink ref="B1792" r:id="rId1556" display="https://leetcode.com/problems/minimum-number-of-operations-to-make-array-continuous" xr:uid="{7CA9A60C-BA8C-481E-B3A3-B022E1E11E93}"/>
+    <hyperlink ref="B1793" r:id="rId1557" display="https://leetcode.com/problems/final-value-of-variable-after-performing-operations" xr:uid="{878BB048-0ECD-4FAC-A96B-1A705EB95DEF}"/>
+    <hyperlink ref="B1794" r:id="rId1558" display="https://leetcode.com/problems/sum-of-beauty-in-the-array" xr:uid="{73619F0E-5E06-4E41-906A-4E0AE98A22B5}"/>
+    <hyperlink ref="B1795" r:id="rId1559" display="https://leetcode.com/problems/detect-squares" xr:uid="{973708F6-B02C-4F3B-9CD7-658CC285620D}"/>
+    <hyperlink ref="B1796" r:id="rId1560" display="https://leetcode.com/problems/longest-subsequence-repeated-k-times" xr:uid="{4C762D87-A9C5-4BD4-912E-7DF86A9410E2}"/>
+    <hyperlink ref="B1797" r:id="rId1561" xr:uid="{FCD62007-CC5B-42E2-9137-1D08C11A57E4}"/>
+    <hyperlink ref="B1798" r:id="rId1562" display="https://leetcode.com/problems/grid-game" xr:uid="{6BAF02C7-CF0B-4611-97F7-71B80B95A205}"/>
+    <hyperlink ref="B1799" r:id="rId1563" display="https://leetcode.com/problems/check-if-word-can-be-placed-in-crossword" xr:uid="{302A26FF-631E-42F2-9B60-01DDABC35248}"/>
+    <hyperlink ref="B1800" r:id="rId1564" display="https://leetcode.com/problems/the-score-of-students-solving-math-expression" xr:uid="{3D10BE58-1B14-440E-9A39-40F0A7CCC3A0}"/>
+    <hyperlink ref="B1801" r:id="rId1565" display="https://leetcode.com/problems/convert-1d-array-into-2d-array" xr:uid="{412ED7EE-16C1-4FBE-88AA-44300DC61B17}"/>
+    <hyperlink ref="B1802" r:id="rId1566" display="https://leetcode.com/problems/number-of-pairs-of-strings-with-concatenation-equal-to-target" xr:uid="{EDEDBE97-30D3-4D23-9530-0C8A3F620EE6}"/>
+    <hyperlink ref="B1803" r:id="rId1567" display="https://leetcode.com/problems/maximize-the-confusion-of-an-exam" xr:uid="{B38DEE78-20CA-494E-8F19-7DDF232265F7}"/>
+    <hyperlink ref="B1804" r:id="rId1568" display="https://leetcode.com/problems/maximum-number-of-ways-to-partition-an-array" xr:uid="{327D7573-701B-491A-A079-084FB4CF6A48}"/>
+    <hyperlink ref="B1805" r:id="rId1569" display="https://leetcode.com/problems/minimum-moves-to-convert-string" xr:uid="{560091BE-B96B-42CB-A09B-F78B509005A6}"/>
+    <hyperlink ref="B1806" r:id="rId1570" display="https://leetcode.com/problems/find-missing-observations" xr:uid="{9490467D-B31C-44AF-8D15-79AB6781FC3C}"/>
+    <hyperlink ref="B1807" r:id="rId1571" display="https://leetcode.com/problems/stone-game-ix" xr:uid="{C7AA6D81-752C-425D-81DA-FAF27F7ED6FA}"/>
+    <hyperlink ref="B1808" r:id="rId1572" display="https://leetcode.com/problems/smallest-k-length-subsequence-with-occurrences-of-a-letter" xr:uid="{A5C04344-98FD-4F50-9D84-0FBA98FAC48B}"/>
+    <hyperlink ref="B1809" r:id="rId1573" display="https://leetcode.com/problems/two-out-of-three" xr:uid="{1AB7FC97-05A8-468E-8041-87C042662734}"/>
+    <hyperlink ref="B1810" r:id="rId1574" display="https://leetcode.com/problems/minimum-operations-to-make-a-uni-value-grid" xr:uid="{1D7594B8-D9EF-44A3-A181-5F380536D6FE}"/>
+    <hyperlink ref="B1811" r:id="rId1575" display="https://leetcode.com/problems/stock-price-fluctuation" xr:uid="{B4C0146B-D639-4321-83F0-6D26A81FB65F}"/>
+    <hyperlink ref="B1812" r:id="rId1576" display="https://leetcode.com/problems/partition-array-into-two-arrays-to-minimize-sum-difference" xr:uid="{82903DBE-FBC3-4832-A02A-38C1AC13E633}"/>
+    <hyperlink ref="B1814" r:id="rId1577" xr:uid="{6912978A-59D7-4A0E-A334-53B5396D5C1C}"/>
+    <hyperlink ref="B1813" r:id="rId1578" xr:uid="{20A5B385-905C-42AF-B96A-DC35E88CE4A9}"/>
+    <hyperlink ref="B1815" r:id="rId1579" display="https://leetcode.com/problems/the-time-when-the-network-becomes-idle" xr:uid="{6A5AC808-A088-406E-A668-EA5C0F6DB789}"/>
+    <hyperlink ref="B1816" r:id="rId1580" display="https://leetcode.com/problems/kth-smallest-product-of-two-sorted-arrays" xr:uid="{1E18156F-9CDF-492F-A500-95FD1C862605}"/>
+    <hyperlink ref="B1817" r:id="rId1581" display="https://leetcode.com/problems/check-if-numbers-are-ascending-in-a-sentence" xr:uid="{D07DC893-5260-4C94-B0C7-FADCEA7F501B}"/>
+    <hyperlink ref="B1818" r:id="rId1582" display="https://leetcode.com/problems/simple-bank-system" xr:uid="{2D5E5F4E-907C-4728-A902-7D10B6514920}"/>
+    <hyperlink ref="B1819" r:id="rId1583" xr:uid="{D5EDB803-F602-4ABD-9E68-1113D2A2A40A}"/>
+    <hyperlink ref="B1820" r:id="rId1584" display="https://leetcode.com/problems/second-minimum-time-to-reach-destination" xr:uid="{6ACF2F93-7EDE-4F1E-AA71-8112DE7ABF63}"/>
+    <hyperlink ref="B1821" r:id="rId1585" display="https://leetcode.com/problems/number-of-valid-words-in-a-sentence" xr:uid="{BCE84EEA-54FF-4E5A-9955-C02227468918}"/>
+    <hyperlink ref="B1822" r:id="rId1586" display="https://leetcode.com/problems/next-greater-numerically-balanced-number" xr:uid="{9FD27FA2-0676-4160-BC27-2E0F89E752A4}"/>
+    <hyperlink ref="B1823" r:id="rId1587" display="https://leetcode.com/problems/count-nodes-with-the-highest-score" xr:uid="{F7F71D15-EF63-42B1-BD71-1EB9E5AFAAEC}"/>
+    <hyperlink ref="B1824" r:id="rId1588" display="https://leetcode.com/problems/parallel-courses-iii" xr:uid="{10B385A3-FDEE-4123-AC9C-4F7EF85C3982}"/>
+    <hyperlink ref="B1825" r:id="rId1589" display="https://leetcode.com/problems/kth-distinct-string-in-an-array" xr:uid="{C8004808-B8BB-4E39-B2BC-980704DF7D4E}"/>
+    <hyperlink ref="B1826" r:id="rId1590" display="https://leetcode.com/problems/two-best-non-overlapping-events" xr:uid="{F29009B4-E1BD-443F-8480-1775C9682530}"/>
+    <hyperlink ref="B1827" r:id="rId1591" display="https://leetcode.com/problems/plates-between-candles" xr:uid="{A118D0C8-0288-4E36-8D25-A4774630A76B}"/>
+    <hyperlink ref="B1828" r:id="rId1592" display="https://leetcode.com/problems/number-of-valid-move-combinations-on-chessboard" xr:uid="{AEC5E678-B4A1-445C-B8F4-DE74236CAC53}"/>
+    <hyperlink ref="B1829" r:id="rId1593" display="https://leetcode.com/problems/smallest-index-with-equal-value" xr:uid="{E7A8904C-9D51-49EC-A910-9EE0B60892CD}"/>
+    <hyperlink ref="B1830" r:id="rId1594" display="https://leetcode.com/problems/find-the-minimum-and-maximum-number-of-nodes-between-critical-points" xr:uid="{0AC3439C-F776-4E62-B906-4FEDA4902BCA}"/>
+    <hyperlink ref="B1831" r:id="rId1595" display="https://leetcode.com/problems/minimum-operations-to-convert-number" xr:uid="{E72F9ECF-969F-4732-A4BD-D6C619ECE110}"/>
+    <hyperlink ref="B1832" r:id="rId1596" display="https://leetcode.com/problems/check-if-an-original-string-exists-given-two-encoded-strings" xr:uid="{0E2F5BE6-4251-43B0-902E-665D40B08A24}"/>
     <hyperlink ref="B605" r:id="rId1597" display="https://leetcode.com/problems/robot-return-to-origin" xr:uid="{F90BDC0D-FA70-41A1-A23C-878C1C1627B7}"/>
-    <hyperlink ref="B1716" r:id="rId1598" display="https://leetcode.com/problems/number-of-wonderful-substrings" xr:uid="{9423D426-30DB-4078-B23A-2E94A3A02AA3}"/>
-    <hyperlink ref="B1831" r:id="rId1599" display="https://leetcode.com/problems/count-vowel-substrings-of-a-string" xr:uid="{7FCC5F29-7C62-4374-B0A9-2ABCC18104A5}"/>
-    <hyperlink ref="B1832" r:id="rId1600" display="https://leetcode.com/problems/vowels-of-all-substrings" xr:uid="{46C4B1C2-365D-40D1-B052-A17550370995}"/>
-    <hyperlink ref="B1833" r:id="rId1601" display="https://leetcode.com/problems/minimized-maximum-of-products-distributed-to-any-store" xr:uid="{10A9FF8C-86AD-4D91-B020-A08498C62B37}"/>
-    <hyperlink ref="B1834" r:id="rId1602" display="https://leetcode.com/problems/maximum-path-quality-of-a-graph" xr:uid="{0B2D1EBB-160D-4ED4-8B55-CE1BD0869125}"/>
-    <hyperlink ref="B1835" r:id="rId1603" xr:uid="{BB09D143-36DB-4DAD-8C50-2059028F1FE9}"/>
-    <hyperlink ref="B1846" r:id="rId1604" display="https://leetcode.com/problems/sum-of-k-mirror-numbers" xr:uid="{F0650F51-568A-4717-BC19-ABB1B6FFFDEC}"/>
-    <hyperlink ref="B1845" r:id="rId1605" display="https://leetcode.com/problems/range-frequency-queries" xr:uid="{1E229C2A-34B8-4A81-B0C6-5A3AD71CCF39}"/>
-    <hyperlink ref="B1844" r:id="rId1606" display="https://leetcode.com/problems/watering-plants" xr:uid="{A7EF29DE-DB3D-46A9-905D-C48EDDF5C996}"/>
-    <hyperlink ref="B1843" r:id="rId1607" display="https://leetcode.com/problems/two-furthest-houses-with-different-colors" xr:uid="{37BA5D04-9AF4-4ECA-A97D-39D90F766EF4}"/>
-    <hyperlink ref="B1842" r:id="rId1608" display="https://leetcode.com/problems/process-restricted-friend-requests" xr:uid="{C99C6F0C-8C7B-4E62-8AC6-A5A8F82F0410}"/>
-    <hyperlink ref="B1841" r:id="rId1609" display="https://leetcode.com/problems/decode-the-slanted-ciphertext" xr:uid="{2350D7FD-D03A-41C6-90F8-670D922F7173}"/>
-    <hyperlink ref="B1840" r:id="rId1610" display="https://leetcode.com/problems/reverse-nodes-in-even-length-groups" xr:uid="{D9BBD886-602B-46F9-97D3-B4CD877C9459}"/>
-    <hyperlink ref="B1839" r:id="rId1611" display="https://leetcode.com/problems/time-needed-to-buy-tickets" xr:uid="{B62F15D1-AFD5-4E07-A951-E2E37A83C871}"/>
-    <hyperlink ref="B1838" r:id="rId1612" display="https://leetcode.com/problems/maximum-number-of-tasks-you-can-assign" xr:uid="{953AE036-BD94-4947-9D3F-2342559633D4}"/>
-    <hyperlink ref="B1837" r:id="rId1613" display="https://leetcode.com/problems/most-beautiful-item-for-each-query" xr:uid="{285617BD-2F3A-412A-8F56-D5D10E9F2FA7}"/>
-    <hyperlink ref="B1836" r:id="rId1614" display="https://leetcode.com/problems/walking-robot-simulation-ii" xr:uid="{D2D1B95C-0388-40D9-8577-069CD220E305}"/>
-    <hyperlink ref="B1709" r:id="rId1615" display="https://leetcode.com/problems/game-of-nim" xr:uid="{F7C1BC10-B697-4EAB-BF17-994FAC810FD6}"/>
-    <hyperlink ref="B1786" r:id="rId1616" display="https://leetcode.com/problems/subtree-removal-game-with-fibonacci-tree" xr:uid="{17B02D5B-1FCE-4E9C-8C56-6E4E46955393}"/>
-    <hyperlink ref="B1722" r:id="rId1617" display="https://leetcode.com/problems/erect-the-fence-ii" xr:uid="{163A8356-4805-4487-9659-BAA81F2755CA}"/>
-    <hyperlink ref="B1644" r:id="rId1618" display="https://leetcode.com/problems/faulty-sensor" xr:uid="{B9B12B92-B700-41FD-9C71-DA8C65C7F8B1}"/>
-    <hyperlink ref="B1614" r:id="rId1619" display="https://leetcode.com/problems/maximize-the-beauty-of-the-garden" xr:uid="{4C08B654-05A0-43E7-823B-C1078A0C20EE}"/>
-    <hyperlink ref="B1657" r:id="rId1620" display="https://leetcode.com/problems/next-palindrome-using-same-digits" xr:uid="{F261E6B6-D5B7-4AC3-A1A5-61C002B301AB}"/>
-    <hyperlink ref="B1748" r:id="rId1621" display="https://leetcode.com/problems/minimum-time-for-k-virus-variants-to-spread" xr:uid="{C3148FB5-10D8-401C-A298-918872231696}"/>
-    <hyperlink ref="B1847" r:id="rId1622" display="https://leetcode.com/problems/substrings-that-begin-and-end-with-the-same-letter" xr:uid="{1A96836C-C517-44D4-BE69-C35A3422D314}"/>
-    <hyperlink ref="B1848" r:id="rId1623" display="https://leetcode.com/problems/count-common-words-with-one-occurrence" xr:uid="{630A6D17-E28C-4098-AB77-C747F784C276}"/>
-    <hyperlink ref="B1849" r:id="rId1624" display="https://leetcode.com/problems/minimum-number-of-buckets-required-to-collect-rainwater-from-houses" xr:uid="{EF3FA606-DDC8-4678-8304-ED307B2DEFA5}"/>
-    <hyperlink ref="B1850" r:id="rId1625" display="https://leetcode.com/problems/minimum-cost-homecoming-of-a-robot-in-a-grid" xr:uid="{EB28E187-BA64-4B07-A8AF-517C1E5B347D}"/>
-    <hyperlink ref="B1851" r:id="rId1626" display="https://leetcode.com/problems/count-fertile-pyramids-in-a-land" xr:uid="{A0AE5EA8-B452-4A97-AB6E-EE8BB9FC7139}"/>
-    <hyperlink ref="B1852" r:id="rId1627" display="https://leetcode.com/problems/find-target-indices-after-sorting-array" xr:uid="{2FACAB89-3C3B-4D3D-AE5D-A25342EA2DFE}"/>
-    <hyperlink ref="B1853" r:id="rId1628" display="https://leetcode.com/problems/k-radius-subarray-averages" xr:uid="{B1B5727F-2B0E-466D-88BC-9117D19D2707}"/>
-    <hyperlink ref="B1854" r:id="rId1629" display="https://leetcode.com/problems/removing-minimum-and-maximum-from-array" xr:uid="{2EF3E8B8-45ED-464B-BC2C-DDF6408612CE}"/>
-    <hyperlink ref="B1855" r:id="rId1630" display="https://leetcode.com/problems/find-all-people-with-secret" xr:uid="{68D82AB9-0DC2-4905-B285-710D207BC1F4}"/>
-    <hyperlink ref="B1856" r:id="rId1631" display="https://leetcode.com/problems/minimum-cost-to-reach-city-with-discounts" xr:uid="{F946E785-616E-4505-8314-3D44773E90A0}"/>
-    <hyperlink ref="B1682" r:id="rId1632" display="https://leetcode.com/problems/minimize-product-sum-of-two-arrays" xr:uid="{DB973D4E-5CC5-44D0-B497-F5D58E80E896}"/>
+    <hyperlink ref="B1717" r:id="rId1598" display="https://leetcode.com/problems/number-of-wonderful-substrings" xr:uid="{9423D426-30DB-4078-B23A-2E94A3A02AA3}"/>
+    <hyperlink ref="B1833" r:id="rId1599" display="https://leetcode.com/problems/count-vowel-substrings-of-a-string" xr:uid="{7FCC5F29-7C62-4374-B0A9-2ABCC18104A5}"/>
+    <hyperlink ref="B1834" r:id="rId1600" display="https://leetcode.com/problems/vowels-of-all-substrings" xr:uid="{46C4B1C2-365D-40D1-B052-A17550370995}"/>
+    <hyperlink ref="B1835" r:id="rId1601" display="https://leetcode.com/problems/minimized-maximum-of-products-distributed-to-any-store" xr:uid="{10A9FF8C-86AD-4D91-B020-A08498C62B37}"/>
+    <hyperlink ref="B1836" r:id="rId1602" display="https://leetcode.com/problems/maximum-path-quality-of-a-graph" xr:uid="{0B2D1EBB-160D-4ED4-8B55-CE1BD0869125}"/>
+    <hyperlink ref="B1837" r:id="rId1603" xr:uid="{BB09D143-36DB-4DAD-8C50-2059028F1FE9}"/>
+    <hyperlink ref="B1848" r:id="rId1604" display="https://leetcode.com/problems/sum-of-k-mirror-numbers" xr:uid="{F0650F51-568A-4717-BC19-ABB1B6FFFDEC}"/>
+    <hyperlink ref="B1847" r:id="rId1605" display="https://leetcode.com/problems/range-frequency-queries" xr:uid="{1E229C2A-34B8-4A81-B0C6-5A3AD71CCF39}"/>
+    <hyperlink ref="B1846" r:id="rId1606" display="https://leetcode.com/problems/watering-plants" xr:uid="{A7EF29DE-DB3D-46A9-905D-C48EDDF5C996}"/>
+    <hyperlink ref="B1845" r:id="rId1607" display="https://leetcode.com/problems/two-furthest-houses-with-different-colors" xr:uid="{37BA5D04-9AF4-4ECA-A97D-39D90F766EF4}"/>
+    <hyperlink ref="B1844" r:id="rId1608" display="https://leetcode.com/problems/process-restricted-friend-requests" xr:uid="{C99C6F0C-8C7B-4E62-8AC6-A5A8F82F0410}"/>
+    <hyperlink ref="B1843" r:id="rId1609" display="https://leetcode.com/problems/decode-the-slanted-ciphertext" xr:uid="{2350D7FD-D03A-41C6-90F8-670D922F7173}"/>
+    <hyperlink ref="B1842" r:id="rId1610" display="https://leetcode.com/problems/reverse-nodes-in-even-length-groups" xr:uid="{D9BBD886-602B-46F9-97D3-B4CD877C9459}"/>
+    <hyperlink ref="B1841" r:id="rId1611" display="https://leetcode.com/problems/time-needed-to-buy-tickets" xr:uid="{B62F15D1-AFD5-4E07-A951-E2E37A83C871}"/>
+    <hyperlink ref="B1840" r:id="rId1612" display="https://leetcode.com/problems/maximum-number-of-tasks-you-can-assign" xr:uid="{953AE036-BD94-4947-9D3F-2342559633D4}"/>
+    <hyperlink ref="B1839" r:id="rId1613" display="https://leetcode.com/problems/most-beautiful-item-for-each-query" xr:uid="{285617BD-2F3A-412A-8F56-D5D10E9F2FA7}"/>
+    <hyperlink ref="B1838" r:id="rId1614" display="https://leetcode.com/problems/walking-robot-simulation-ii" xr:uid="{D2D1B95C-0388-40D9-8577-069CD220E305}"/>
+    <hyperlink ref="B1710" r:id="rId1615" display="https://leetcode.com/problems/game-of-nim" xr:uid="{F7C1BC10-B697-4EAB-BF17-994FAC810FD6}"/>
+    <hyperlink ref="B1788" r:id="rId1616" display="https://leetcode.com/problems/subtree-removal-game-with-fibonacci-tree" xr:uid="{17B02D5B-1FCE-4E9C-8C56-6E4E46955393}"/>
+    <hyperlink ref="B1723" r:id="rId1617" display="https://leetcode.com/problems/erect-the-fence-ii" xr:uid="{163A8356-4805-4487-9659-BAA81F2755CA}"/>
+    <hyperlink ref="B1645" r:id="rId1618" display="https://leetcode.com/problems/faulty-sensor" xr:uid="{B9B12B92-B700-41FD-9C71-DA8C65C7F8B1}"/>
+    <hyperlink ref="B1615" r:id="rId1619" display="https://leetcode.com/problems/maximize-the-beauty-of-the-garden" xr:uid="{4C08B654-05A0-43E7-823B-C1078A0C20EE}"/>
+    <hyperlink ref="B1658" r:id="rId1620" display="https://leetcode.com/problems/next-palindrome-using-same-digits" xr:uid="{F261E6B6-D5B7-4AC3-A1A5-61C002B301AB}"/>
+    <hyperlink ref="B1749" r:id="rId1621" display="https://leetcode.com/problems/minimum-time-for-k-virus-variants-to-spread" xr:uid="{C3148FB5-10D8-401C-A298-918872231696}"/>
+    <hyperlink ref="B1849" r:id="rId1622" display="https://leetcode.com/problems/substrings-that-begin-and-end-with-the-same-letter" xr:uid="{1A96836C-C517-44D4-BE69-C35A3422D314}"/>
+    <hyperlink ref="B1850" r:id="rId1623" display="https://leetcode.com/problems/count-common-words-with-one-occurrence" xr:uid="{630A6D17-E28C-4098-AB77-C747F784C276}"/>
+    <hyperlink ref="B1851" r:id="rId1624" display="https://leetcode.com/problems/minimum-number-of-buckets-required-to-collect-rainwater-from-houses" xr:uid="{EF3FA606-DDC8-4678-8304-ED307B2DEFA5}"/>
+    <hyperlink ref="B1852" r:id="rId1625" display="https://leetcode.com/problems/minimum-cost-homecoming-of-a-robot-in-a-grid" xr:uid="{EB28E187-BA64-4B07-A8AF-517C1E5B347D}"/>
+    <hyperlink ref="B1853" r:id="rId1626" display="https://leetcode.com/problems/count-fertile-pyramids-in-a-land" xr:uid="{A0AE5EA8-B452-4A97-AB6E-EE8BB9FC7139}"/>
+    <hyperlink ref="B1854" r:id="rId1627" display="https://leetcode.com/problems/find-target-indices-after-sorting-array" xr:uid="{2FACAB89-3C3B-4D3D-AE5D-A25342EA2DFE}"/>
+    <hyperlink ref="B1855" r:id="rId1628" display="https://leetcode.com/problems/k-radius-subarray-averages" xr:uid="{B1B5727F-2B0E-466D-88BC-9117D19D2707}"/>
+    <hyperlink ref="B1856" r:id="rId1629" display="https://leetcode.com/problems/removing-minimum-and-maximum-from-array" xr:uid="{2EF3E8B8-45ED-464B-BC2C-DDF6408612CE}"/>
+    <hyperlink ref="B1857" r:id="rId1630" display="https://leetcode.com/problems/find-all-people-with-secret" xr:uid="{68D82AB9-0DC2-4905-B285-710D207BC1F4}"/>
+    <hyperlink ref="B1858" r:id="rId1631" display="https://leetcode.com/problems/minimum-cost-to-reach-city-with-discounts" xr:uid="{F946E785-616E-4505-8314-3D44773E90A0}"/>
+    <hyperlink ref="B1683" r:id="rId1632" display="https://leetcode.com/problems/minimize-product-sum-of-two-arrays" xr:uid="{DB973D4E-5CC5-44D0-B497-F5D58E80E896}"/>
     <hyperlink ref="B1603" r:id="rId1633" display="https://leetcode.com/problems/sort-features-by-popularity" xr:uid="{0A19E2C6-068B-4B27-AA59-A0D28BDABF3B}"/>
-    <hyperlink ref="B1731" r:id="rId1634" display="https://leetcode.com/problems/check-if-string-is-decomposable-into-value-equal-substrings" xr:uid="{BFF77354-A49F-4852-988D-F79B7794C549}"/>
+    <hyperlink ref="B1732" r:id="rId1634" display="https://leetcode.com/problems/check-if-string-is-decomposable-into-value-equal-substrings" xr:uid="{BFF77354-A49F-4852-988D-F79B7794C549}"/>
+    <hyperlink ref="B1606" r:id="rId1635" display="https://leetcode.com/problems/car-fleet-ii" xr:uid="{438AF6E7-5E96-471D-9A63-B40403F38FFF}"/>
+    <hyperlink ref="B1758" r:id="rId1636" display="https://leetcode.com/problems/binary-searchable-numbers-in-an-unsorted-array" xr:uid="{6F2F0F38-A962-4178-BC19-FBD31A06020E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1635"/>
-  <drawing r:id="rId1636"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1637"/>
+  <drawing r:id="rId1638"/>
 </worksheet>
 </file>
 

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBB55782-9A4E-408A-B978-5C6987AEABCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADE257F9-925A-4B08-9678-2026E8D08D8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="SQL" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'LeetCode Algorithm'!$A$1:$J$1886</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'LeetCode Algorithm'!$A$1:$J$1890</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10409" uniqueCount="3779">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10439" uniqueCount="3788">
   <si>
     <t>Difficulty</t>
   </si>
@@ -11374,6 +11374,33 @@
   </si>
   <si>
     <t>if K is odd, take one maximum even number otherwise take maximum two odd or even numbers</t>
+  </si>
+  <si>
+    <t>Sequentially Ordinal Rank Tracker</t>
+  </si>
+  <si>
+    <t>Keep two heap, added and queried, queried heap size is how many times query is done</t>
+  </si>
+  <si>
+    <t>Minimum Operations to Make the Array K-Increasing</t>
+  </si>
+  <si>
+    <t>LIS on each K skip array</t>
+  </si>
+  <si>
+    <t>Check how many invalid start brackets, (N + 1) / 2</t>
+  </si>
+  <si>
+    <t>Find First Palindromic String in the Array</t>
+  </si>
+  <si>
+    <t>Check palindromic string</t>
+  </si>
+  <si>
+    <t>Maximum Fruits Harvested After at Most K Steps</t>
+  </si>
+  <si>
+    <t>starting from left most position and keep on moving right, calculate optimal steps</t>
   </si>
 </sst>
 </file>
@@ -11418,7 +11445,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -11526,6 +11553,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -11928,10 +11956,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J1886"/>
+  <dimension ref="A1:J1890"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1864" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A1881" sqref="A1881"/>
+    <sheetView tabSelected="1" topLeftCell="A1872" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A1885" sqref="A1885"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -54793,6 +54821,24 @@
       <c r="B1767" s="1" t="s">
         <v>3466</v>
       </c>
+      <c r="C1767" s="93">
+        <v>3</v>
+      </c>
+      <c r="D1767" s="93" t="s">
+        <v>1713</v>
+      </c>
+      <c r="F1767" s="93" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1767" s="93" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1767" s="93" t="s">
+        <v>3783</v>
+      </c>
+      <c r="I1767" s="93" t="s">
+        <v>2983</v>
+      </c>
     </row>
     <row r="1768" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1768" s="93">
@@ -57397,64 +57443,171 @@
         <v>3011</v>
       </c>
     </row>
-    <row r="1883" spans="1:9" s="112" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1883" s="112">
+    <row r="1883" spans="1:9" s="115" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1883" s="115">
+        <v>2102</v>
+      </c>
+      <c r="B1883" s="1" t="s">
+        <v>3779</v>
+      </c>
+      <c r="C1883" s="115">
+        <v>4</v>
+      </c>
+      <c r="D1883" s="115" t="s">
+        <v>1713</v>
+      </c>
+      <c r="E1883" s="115" t="s">
+        <v>2918</v>
+      </c>
+      <c r="F1883" s="115" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1883" s="115" t="s">
+        <v>455</v>
+      </c>
+      <c r="H1883" s="115" t="s">
+        <v>3780</v>
+      </c>
+      <c r="I1883" s="115" t="s">
+        <v>3011</v>
+      </c>
+    </row>
+    <row r="1884" spans="1:9" s="112" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1884" s="112">
         <v>2103</v>
       </c>
-      <c r="B1883" s="1" t="s">
+      <c r="B1884" s="1" t="s">
         <v>3764</v>
       </c>
-      <c r="C1883" s="112">
+      <c r="C1884" s="112">
         <v>1</v>
       </c>
-      <c r="D1883" s="112" t="s">
-        <v>1713</v>
-      </c>
-      <c r="F1883" s="112" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1883" s="112" t="s">
+      <c r="D1884" s="112" t="s">
+        <v>1713</v>
+      </c>
+      <c r="F1884" s="112" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1884" s="112" t="s">
         <v>21</v>
       </c>
-      <c r="H1883" s="112" t="s">
+      <c r="H1884" s="112" t="s">
         <v>3765</v>
       </c>
-      <c r="I1883" s="112" t="s">
+      <c r="I1884" s="112" t="s">
         <v>2983</v>
       </c>
     </row>
-    <row r="1884" spans="1:9" s="100" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1884" s="98"/>
-    </row>
-    <row r="1885" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A1885" s="115" t="s">
+    <row r="1885" spans="1:9" s="115" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1885" s="115">
+        <v>2106</v>
+      </c>
+      <c r="B1885" s="98" t="s">
+        <v>3786</v>
+      </c>
+      <c r="C1885" s="115">
+        <v>4</v>
+      </c>
+      <c r="D1885" s="115" t="s">
+        <v>1713</v>
+      </c>
+      <c r="F1885" s="115" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1885" s="115" t="s">
+        <v>619</v>
+      </c>
+      <c r="H1885" s="115" t="s">
+        <v>3787</v>
+      </c>
+      <c r="I1885" s="115" t="s">
+        <v>3011</v>
+      </c>
+    </row>
+    <row r="1886" spans="1:9" s="115" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1886" s="115">
+        <v>2108</v>
+      </c>
+      <c r="B1886" s="1" t="s">
+        <v>3784</v>
+      </c>
+      <c r="C1886" s="115">
+        <v>1</v>
+      </c>
+      <c r="D1886" s="115" t="s">
+        <v>1713</v>
+      </c>
+      <c r="F1886" s="115" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1886" s="115" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1886" s="115" t="s">
+        <v>3785</v>
+      </c>
+      <c r="I1886" s="115" t="s">
+        <v>2983</v>
+      </c>
+    </row>
+    <row r="1887" spans="1:9" s="100" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1887" s="100">
+        <v>2111</v>
+      </c>
+      <c r="B1887" s="98" t="s">
+        <v>3781</v>
+      </c>
+      <c r="C1887" s="100">
+        <v>4</v>
+      </c>
+      <c r="D1887" s="100" t="s">
+        <v>1713</v>
+      </c>
+      <c r="F1887" s="100" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1887" s="100" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1887" s="100" t="s">
+        <v>3782</v>
+      </c>
+      <c r="I1887" s="100" t="s">
+        <v>3011</v>
+      </c>
+    </row>
+    <row r="1888" spans="1:9" s="115" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1888" s="98"/>
+    </row>
+    <row r="1889" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A1889" s="116" t="s">
         <v>1714</v>
       </c>
-      <c r="B1885" s="115"/>
-      <c r="C1885" s="115"/>
-      <c r="D1885" s="115"/>
-      <c r="E1885" s="115"/>
-      <c r="F1885" s="115"/>
-      <c r="G1885" s="115"/>
-      <c r="H1885" s="115"/>
-    </row>
-    <row r="1886" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A1886" s="116" t="s">
+      <c r="B1889" s="116"/>
+      <c r="C1889" s="116"/>
+      <c r="D1889" s="116"/>
+      <c r="E1889" s="116"/>
+      <c r="F1889" s="116"/>
+      <c r="G1889" s="116"/>
+      <c r="H1889" s="116"/>
+    </row>
+    <row r="1890" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A1890" s="117" t="s">
         <v>2745</v>
       </c>
-      <c r="B1886" s="116"/>
-      <c r="C1886" s="116"/>
-      <c r="D1886" s="116"/>
-      <c r="E1886" s="116"/>
-      <c r="F1886" s="116"/>
-      <c r="G1886" s="116"/>
-      <c r="H1886" s="116"/>
+      <c r="B1890" s="117"/>
+      <c r="C1890" s="117"/>
+      <c r="D1890" s="117"/>
+      <c r="E1890" s="117"/>
+      <c r="F1890" s="117"/>
+      <c r="G1890" s="117"/>
+      <c r="H1890" s="117"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J1886" xr:uid="{CB07CE66-8F15-46FF-A90A-43FDB2DB428F}"/>
+  <autoFilter ref="A1:J1890" xr:uid="{CB07CE66-8F15-46FF-A90A-43FDB2DB428F}"/>
   <mergeCells count="2">
-    <mergeCell ref="A1885:H1885"/>
-    <mergeCell ref="A1886:H1886"/>
+    <mergeCell ref="A1889:H1889"/>
+    <mergeCell ref="A1890:H1890"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" display="https://leetcode.com/problems/zigzag-conversion" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -59112,7 +59265,7 @@
     <hyperlink ref="B1798" r:id="rId1653" display="https://leetcode.com/problems/smallest-greater-multiple-made-of-two-digits" xr:uid="{8B3267DC-2D98-4C8C-B245-BBD0849BCC1A}"/>
     <hyperlink ref="B1879" r:id="rId1654" display="https://leetcode.com/problems/step-by-step-directions-from-a-binary-tree-node-to-another" xr:uid="{C5C7E5DC-8934-40E9-B69B-CF586656DD52}"/>
     <hyperlink ref="B1882" r:id="rId1655" display="https://leetcode.com/problems/find-subsequence-of-length-k-with-the-largest-sum" xr:uid="{3847A2FB-3BFE-44B9-BED6-56D6ECB82D82}"/>
-    <hyperlink ref="B1883" r:id="rId1656" display="https://leetcode.com/problems/rings-and-rods" xr:uid="{23A44248-878B-4CE4-AE7B-E9FEE1091067}"/>
+    <hyperlink ref="B1884" r:id="rId1656" display="https://leetcode.com/problems/rings-and-rods" xr:uid="{23A44248-878B-4CE4-AE7B-E9FEE1091067}"/>
     <hyperlink ref="B1705" r:id="rId1657" display="https://leetcode.com/problems/cutting-ribbons" xr:uid="{131BC84C-8E0F-4AF9-87AB-7B89E638ABD5}"/>
     <hyperlink ref="B1775" r:id="rId1658" display="https://leetcode.com/problems/count-nodes-equal-to-sum-of-descendants" xr:uid="{BFF8F8A7-A6A0-4A49-A8FC-453653B4257B}"/>
     <hyperlink ref="B1841" r:id="rId1659" display="https://leetcode.com/problems/minimum-cost-to-separate-sentence-into-rows" xr:uid="{2AC1A4DB-1946-4EA6-87C8-BFCBD335968E}"/>
@@ -59120,10 +59273,14 @@
     <hyperlink ref="B1414" r:id="rId1661" display="https://leetcode.com/problems/magnetic-force-between-two-balls" xr:uid="{7257B245-2713-4150-810D-6F2FA5EAEF89}"/>
     <hyperlink ref="B1728" r:id="rId1662" display="https://leetcode.com/problems/kth-smallest-subarray-sum" xr:uid="{9D83B952-41A0-405D-A753-C692921A798C}"/>
     <hyperlink ref="B1881" r:id="rId1663" display="https://leetcode.com/problems/subsequence-of-size-k-with-the-largest-even-sum" xr:uid="{0645F7F4-851F-4A5B-876D-2F23B7F1CB18}"/>
+    <hyperlink ref="B1883" r:id="rId1664" display="https://leetcode.com/problems/sequentially-ordinal-rank-tracker" xr:uid="{4AEEE917-FC1A-4441-8FCC-AAB33045CAAF}"/>
+    <hyperlink ref="B1887" r:id="rId1665" display="https://leetcode.com/problems/minimum-operations-to-make-the-array-k-increasing" xr:uid="{0A30673F-4EF8-4DD1-9D82-A9D62C3B11FC}"/>
+    <hyperlink ref="B1886" r:id="rId1666" display="https://leetcode.com/problems/find-first-palindromic-string-in-the-array" xr:uid="{5BDD994B-8936-496C-9380-FC41DA3F9A69}"/>
+    <hyperlink ref="B1885" r:id="rId1667" display="https://leetcode.com/problems/maximum-fruits-harvested-after-at-most-k-steps" xr:uid="{4833F7C7-BB0A-45D9-B2EE-0435CC7E66B4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1664"/>
-  <drawing r:id="rId1665"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1668"/>
+  <drawing r:id="rId1669"/>
 </worksheet>
 </file>
 

--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADE257F9-925A-4B08-9678-2026E8D08D8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7637732D-FA0D-4C03-93EB-9DDB1153C119}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="SQL" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'LeetCode Algorithm'!$A$1:$J$1890</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'LeetCode Algorithm'!$A$1:$J$1891</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10439" uniqueCount="3788">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10457" uniqueCount="3792">
   <si>
     <t>Difficulty</t>
   </si>
@@ -11401,6 +11401,18 @@
   </si>
   <si>
     <t>starting from left most position and keep on moving right, calculate optimal steps</t>
+  </si>
+  <si>
+    <t>1950. Maximum of Minimum Values in All Subarrays</t>
+  </si>
+  <si>
+    <t>monotone stack track increasing number and when pop up calculate left and right</t>
+  </si>
+  <si>
+    <t>Track index on every number, use binary search range</t>
+  </si>
+  <si>
+    <t>Track parents and children</t>
   </si>
 </sst>
 </file>
@@ -11445,7 +11457,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -11553,6 +11565,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -11956,10 +11969,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J1890"/>
+  <dimension ref="A1:J1891"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1872" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A1885" sqref="A1885"/>
+    <sheetView tabSelected="1" topLeftCell="A1783" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A1793" sqref="A1793"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -54522,70 +54535,70 @@
         <v>2983</v>
       </c>
     </row>
-    <row r="1756" spans="1:9" s="91" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1756" s="91">
+    <row r="1756" spans="1:9" s="116" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1756" s="116">
+        <v>1950</v>
+      </c>
+      <c r="B1756" s="1" t="s">
+        <v>3788</v>
+      </c>
+      <c r="C1756" s="116">
+        <v>4</v>
+      </c>
+      <c r="D1756" s="116" t="s">
+        <v>1713</v>
+      </c>
+      <c r="F1756" s="116" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1756" s="116" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1756" s="116" t="s">
+        <v>3789</v>
+      </c>
+      <c r="I1756" s="116" t="s">
+        <v>2983</v>
+      </c>
+    </row>
+    <row r="1757" spans="1:9" s="91" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1757" s="91">
         <v>1952</v>
       </c>
-      <c r="B1756" s="1" t="s">
+      <c r="B1757" s="1" t="s">
         <v>3403</v>
       </c>
-      <c r="C1756" s="91">
+      <c r="C1757" s="91">
         <v>2</v>
       </c>
-      <c r="D1756" s="91" t="s">
-        <v>1713</v>
-      </c>
-      <c r="F1756" s="91" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1756" s="91" t="s">
+      <c r="D1757" s="91" t="s">
+        <v>1713</v>
+      </c>
+      <c r="F1757" s="91" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1757" s="91" t="s">
         <v>25</v>
       </c>
-      <c r="H1756" s="91" t="s">
+      <c r="H1757" s="91" t="s">
         <v>3404</v>
       </c>
-      <c r="I1756" s="91" t="s">
+      <c r="I1757" s="91" t="s">
         <v>3314</v>
-      </c>
-    </row>
-    <row r="1757" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1757" s="93">
-        <v>1953</v>
-      </c>
-      <c r="B1757" s="1" t="s">
-        <v>3460</v>
-      </c>
-      <c r="C1757" s="93">
-        <v>2</v>
-      </c>
-      <c r="D1757" s="93" t="s">
-        <v>1713</v>
-      </c>
-      <c r="F1757" s="93" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1757" s="93" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1757" s="93" t="s">
-        <v>3715</v>
-      </c>
-      <c r="I1757" s="93" t="s">
-        <v>2983</v>
       </c>
     </row>
     <row r="1758" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1758" s="93">
-        <v>1954</v>
+        <v>1953</v>
       </c>
       <c r="B1758" s="1" t="s">
-        <v>3461</v>
+        <v>3460</v>
       </c>
       <c r="C1758" s="93">
         <v>2</v>
       </c>
       <c r="D1758" s="93" t="s">
-        <v>1711</v>
+        <v>1713</v>
       </c>
       <c r="F1758" s="93" t="s">
         <v>9</v>
@@ -54594,235 +54607,235 @@
         <v>25</v>
       </c>
       <c r="H1758" s="93" t="s">
+        <v>3715</v>
+      </c>
+      <c r="I1758" s="93" t="s">
+        <v>2983</v>
+      </c>
+    </row>
+    <row r="1759" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1759" s="93">
+        <v>1954</v>
+      </c>
+      <c r="B1759" s="1" t="s">
+        <v>3461</v>
+      </c>
+      <c r="C1759" s="93">
+        <v>2</v>
+      </c>
+      <c r="D1759" s="93" t="s">
+        <v>1711</v>
+      </c>
+      <c r="F1759" s="93" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1759" s="93" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1759" s="93" t="s">
         <v>3602</v>
       </c>
-      <c r="I1758" s="93" t="s">
+      <c r="I1759" s="93" t="s">
         <v>2985</v>
       </c>
     </row>
-    <row r="1759" spans="1:9" s="90" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1759" s="90">
+    <row r="1760" spans="1:9" s="90" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1760" s="90">
         <v>1955</v>
       </c>
-      <c r="B1759" s="1" t="s">
+      <c r="B1760" s="1" t="s">
         <v>3380</v>
       </c>
-      <c r="C1759" s="90">
+      <c r="C1760" s="90">
         <v>4</v>
       </c>
-      <c r="D1759" s="90" t="s">
-        <v>1713</v>
-      </c>
-      <c r="E1759" s="90" t="s">
+      <c r="D1760" s="90" t="s">
+        <v>1713</v>
+      </c>
+      <c r="E1760" s="90" t="s">
         <v>2918</v>
       </c>
-      <c r="F1759" s="90" t="s">
+      <c r="F1760" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="G1759" s="90" t="s">
+      <c r="G1760" s="90" t="s">
         <v>28</v>
       </c>
-      <c r="H1759" s="90" t="s">
+      <c r="H1760" s="90" t="s">
         <v>3382</v>
       </c>
-      <c r="I1759" s="90" t="s">
+      <c r="I1760" s="90" t="s">
         <v>2983</v>
       </c>
     </row>
-    <row r="1760" spans="1:9" s="103" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1760" s="103">
+    <row r="1761" spans="1:9" s="103" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1761" s="103">
         <v>1956</v>
       </c>
-      <c r="B1760" s="1" t="s">
+      <c r="B1761" s="1" t="s">
         <v>3666</v>
       </c>
-      <c r="C1760" s="103">
+      <c r="C1761" s="103">
         <v>4</v>
       </c>
-      <c r="D1760" s="103" t="s">
-        <v>1713</v>
-      </c>
-      <c r="F1760" s="103" t="s">
+      <c r="D1761" s="103" t="s">
+        <v>1713</v>
+      </c>
+      <c r="F1761" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="G1760" s="103" t="s">
+      <c r="G1761" s="103" t="s">
         <v>187</v>
       </c>
-      <c r="H1760" s="103" t="s">
+      <c r="H1761" s="103" t="s">
         <v>3667</v>
       </c>
-      <c r="I1760" s="103" t="s">
+      <c r="I1761" s="103" t="s">
         <v>3668</v>
       </c>
     </row>
-    <row r="1761" spans="1:9" s="91" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1761" s="91">
+    <row r="1762" spans="1:9" s="91" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1762" s="91">
         <v>1957</v>
       </c>
-      <c r="B1761" s="1" t="s">
+      <c r="B1762" s="1" t="s">
         <v>3405</v>
       </c>
-      <c r="C1761" s="91">
+      <c r="C1762" s="91">
         <v>2</v>
       </c>
-      <c r="D1761" s="91" t="s">
-        <v>1713</v>
-      </c>
-      <c r="E1761" s="91" t="s">
+      <c r="D1762" s="91" t="s">
+        <v>1713</v>
+      </c>
+      <c r="E1762" s="91" t="s">
         <v>2918</v>
       </c>
-      <c r="F1761" s="91" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1761" s="91" t="s">
+      <c r="F1762" s="91" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1762" s="91" t="s">
         <v>36</v>
       </c>
-      <c r="H1761" s="91" t="s">
+      <c r="H1762" s="91" t="s">
         <v>3406</v>
       </c>
-      <c r="I1761" s="91" t="s">
-        <v>2983</v>
-      </c>
-    </row>
-    <row r="1762" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1762" s="93">
-        <v>1958</v>
-      </c>
-      <c r="B1762" s="1" t="s">
-        <v>3462</v>
-      </c>
-      <c r="C1762" s="93">
-        <v>2</v>
-      </c>
-      <c r="D1762" s="93" t="s">
-        <v>1706</v>
-      </c>
-      <c r="F1762" s="93" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1762" s="93" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1762" s="93" t="s">
-        <v>3603</v>
-      </c>
-      <c r="I1762" s="93" t="s">
+      <c r="I1762" s="91" t="s">
         <v>2983</v>
       </c>
     </row>
     <row r="1763" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1763" s="93">
+        <v>1958</v>
+      </c>
+      <c r="B1763" s="1" t="s">
+        <v>3462</v>
+      </c>
+      <c r="C1763" s="93">
+        <v>2</v>
+      </c>
+      <c r="D1763" s="93" t="s">
+        <v>1706</v>
+      </c>
+      <c r="F1763" s="93" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1763" s="93" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1763" s="93" t="s">
+        <v>3603</v>
+      </c>
+      <c r="I1763" s="93" t="s">
+        <v>2983</v>
+      </c>
+    </row>
+    <row r="1764" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1764" s="93">
         <v>1959</v>
       </c>
-      <c r="B1763" s="1" t="s">
+      <c r="B1764" s="1" t="s">
         <v>3463</v>
       </c>
-      <c r="C1763" s="93">
-        <v>3</v>
-      </c>
-      <c r="D1763" s="93" t="s">
-        <v>1713</v>
-      </c>
-      <c r="F1763" s="93" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1763" s="93" t="s">
+      <c r="C1764" s="93">
+        <v>3</v>
+      </c>
+      <c r="D1764" s="93" t="s">
+        <v>1713</v>
+      </c>
+      <c r="F1764" s="93" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1764" s="93" t="s">
         <v>28</v>
       </c>
-      <c r="H1763" s="93" t="s">
+      <c r="H1764" s="93" t="s">
         <v>3604</v>
       </c>
-      <c r="I1763" s="93" t="s">
+      <c r="I1764" s="93" t="s">
         <v>3605</v>
       </c>
     </row>
-    <row r="1764" spans="1:9" s="90" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1764" s="90">
+    <row r="1765" spans="1:9" s="90" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1765" s="90">
         <v>1960</v>
       </c>
-      <c r="B1764" s="1" t="s">
+      <c r="B1765" s="1" t="s">
         <v>3378</v>
       </c>
-      <c r="C1764" s="90">
+      <c r="C1765" s="90">
         <v>6</v>
       </c>
-      <c r="D1764" s="90" t="s">
+      <c r="D1765" s="90" t="s">
         <v>2794</v>
       </c>
-      <c r="F1764" s="90" t="s">
+      <c r="F1765" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="G1764" s="90" t="s">
+      <c r="G1765" s="90" t="s">
         <v>36</v>
       </c>
-      <c r="H1764" s="90" t="s">
+      <c r="H1765" s="90" t="s">
         <v>3379</v>
       </c>
-      <c r="I1764" s="90" t="s">
-        <v>2983</v>
-      </c>
-    </row>
-    <row r="1765" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1765" s="93">
-        <v>1961</v>
-      </c>
-      <c r="B1765" s="1" t="s">
-        <v>3464</v>
-      </c>
-      <c r="C1765" s="93">
-        <v>1</v>
-      </c>
-      <c r="D1765" s="93" t="s">
-        <v>1710</v>
-      </c>
-      <c r="F1765" s="93" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1765" s="93" t="s">
-        <v>36</v>
-      </c>
-      <c r="H1765" s="93" t="s">
-        <v>3468</v>
-      </c>
-      <c r="I1765" s="93" t="s">
+      <c r="I1765" s="90" t="s">
         <v>2983</v>
       </c>
     </row>
     <row r="1766" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1766" s="93">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="B1766" s="1" t="s">
-        <v>3465</v>
+        <v>3464</v>
       </c>
       <c r="C1766" s="93">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1766" s="93" t="s">
-        <v>1713</v>
+        <v>1710</v>
       </c>
       <c r="F1766" s="93" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G1766" s="93" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H1766" s="93" t="s">
-        <v>3650</v>
+        <v>3468</v>
       </c>
       <c r="I1766" s="93" t="s">
-        <v>3011</v>
+        <v>2983</v>
       </c>
     </row>
     <row r="1767" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1767" s="93">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="B1767" s="1" t="s">
-        <v>3466</v>
+        <v>3465</v>
       </c>
       <c r="C1767" s="93">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1767" s="93" t="s">
         <v>1713</v>
@@ -54831,186 +54844,183 @@
         <v>9</v>
       </c>
       <c r="G1767" s="93" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H1767" s="93" t="s">
-        <v>3783</v>
+        <v>3650</v>
       </c>
       <c r="I1767" s="93" t="s">
-        <v>2983</v>
+        <v>3011</v>
       </c>
     </row>
     <row r="1768" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1768" s="93">
+        <v>1963</v>
+      </c>
+      <c r="B1768" s="1" t="s">
+        <v>3466</v>
+      </c>
+      <c r="C1768" s="93">
+        <v>3</v>
+      </c>
+      <c r="D1768" s="93" t="s">
+        <v>1713</v>
+      </c>
+      <c r="F1768" s="93" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1768" s="93" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1768" s="93" t="s">
+        <v>3783</v>
+      </c>
+      <c r="I1768" s="93" t="s">
+        <v>2983</v>
+      </c>
+    </row>
+    <row r="1769" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1769" s="93">
         <v>1964</v>
       </c>
-      <c r="B1768" s="1" t="s">
+      <c r="B1769" s="1" t="s">
         <v>3467</v>
       </c>
-      <c r="C1768" s="93">
+      <c r="C1769" s="93">
         <v>4</v>
       </c>
-      <c r="D1768" s="93" t="s">
-        <v>1713</v>
-      </c>
-      <c r="E1768" s="93" t="s">
+      <c r="D1769" s="93" t="s">
+        <v>1713</v>
+      </c>
+      <c r="E1769" s="93" t="s">
         <v>2918</v>
       </c>
-      <c r="F1768" s="93" t="s">
+      <c r="F1769" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="G1768" s="93" t="s">
+      <c r="G1769" s="93" t="s">
         <v>41</v>
       </c>
-      <c r="H1768" s="93" t="s">
+      <c r="H1769" s="93" t="s">
         <v>426</v>
       </c>
-      <c r="I1768" s="93" t="s">
+      <c r="I1769" s="93" t="s">
         <v>3000</v>
       </c>
     </row>
-    <row r="1769" spans="1:9" s="105" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1769" s="105">
+    <row r="1770" spans="1:9" s="105" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1770" s="105">
         <v>1966</v>
       </c>
-      <c r="B1769" s="1" t="s">
+      <c r="B1770" s="1" t="s">
         <v>3697</v>
       </c>
-      <c r="C1769" s="105">
+      <c r="C1770" s="105">
         <v>2</v>
       </c>
-      <c r="E1769" s="105" t="s">
+      <c r="E1770" s="105" t="s">
         <v>2918</v>
       </c>
-      <c r="F1769" s="105" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1769" s="105" t="s">
+      <c r="F1770" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1770" s="105" t="s">
         <v>41</v>
       </c>
-      <c r="H1769" s="105" t="s">
+      <c r="H1770" s="105" t="s">
         <v>3698</v>
       </c>
-      <c r="I1769" s="105" t="s">
-        <v>2983</v>
-      </c>
-    </row>
-    <row r="1770" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1770" s="93">
-        <v>1967</v>
-      </c>
-      <c r="B1770" s="1" t="s">
-        <v>3469</v>
-      </c>
-      <c r="C1770" s="93">
-        <v>1</v>
-      </c>
-      <c r="D1770" s="93" t="s">
-        <v>1713</v>
-      </c>
-      <c r="F1770" s="93" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1770" s="93" t="s">
-        <v>36</v>
-      </c>
-      <c r="H1770" s="93" t="s">
-        <v>3606</v>
-      </c>
-      <c r="I1770" s="93" t="s">
+      <c r="I1770" s="105" t="s">
         <v>2983</v>
       </c>
     </row>
     <row r="1771" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1771" s="93">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="B1771" s="1" t="s">
-        <v>3470</v>
+        <v>3469</v>
       </c>
       <c r="C1771" s="93">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1771" s="93" t="s">
         <v>1713</v>
       </c>
       <c r="F1771" s="93" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G1771" s="93" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H1771" s="93" t="s">
-        <v>3699</v>
+        <v>3606</v>
       </c>
       <c r="I1771" s="93" t="s">
-        <v>3011</v>
+        <v>2983</v>
       </c>
     </row>
     <row r="1772" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1772" s="93">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="B1772" s="1" t="s">
-        <v>3471</v>
+        <v>3470</v>
       </c>
       <c r="C1772" s="93">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1772" s="93" t="s">
-        <v>1711</v>
+        <v>1713</v>
       </c>
       <c r="F1772" s="93" t="s">
         <v>9</v>
       </c>
       <c r="G1772" s="93" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="H1772" s="93" t="s">
-        <v>3670</v>
+        <v>3699</v>
       </c>
       <c r="I1772" s="93" t="s">
-        <v>2985</v>
+        <v>3011</v>
       </c>
     </row>
     <row r="1773" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1773" s="93">
-        <v>1970</v>
+        <v>1969</v>
       </c>
       <c r="B1773" s="1" t="s">
-        <v>3472</v>
+        <v>3471</v>
       </c>
       <c r="C1773" s="93">
         <v>4</v>
       </c>
       <c r="D1773" s="93" t="s">
-        <v>1713</v>
-      </c>
-      <c r="E1773" s="93" t="s">
-        <v>2918</v>
+        <v>1711</v>
       </c>
       <c r="F1773" s="93" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G1773" s="93" t="s">
-        <v>187</v>
+        <v>25</v>
       </c>
       <c r="H1773" s="93" t="s">
-        <v>3592</v>
+        <v>3670</v>
       </c>
       <c r="I1773" s="93" t="s">
-        <v>3011</v>
+        <v>2985</v>
       </c>
     </row>
     <row r="1774" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1774" s="93">
-        <v>1971</v>
+        <v>1970</v>
       </c>
       <c r="B1774" s="1" t="s">
-        <v>3473</v>
+        <v>3472</v>
       </c>
       <c r="C1774" s="93">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D1774" s="93" t="s">
         <v>1713</v>
@@ -55019,94 +55029,97 @@
         <v>2918</v>
       </c>
       <c r="F1774" s="93" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G1774" s="93" t="s">
         <v>187</v>
       </c>
       <c r="H1774" s="93" t="s">
+        <v>3592</v>
+      </c>
+      <c r="I1774" s="93" t="s">
+        <v>3011</v>
+      </c>
+    </row>
+    <row r="1775" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1775" s="93">
+        <v>1971</v>
+      </c>
+      <c r="B1775" s="1" t="s">
+        <v>3473</v>
+      </c>
+      <c r="C1775" s="93">
+        <v>2</v>
+      </c>
+      <c r="D1775" s="93" t="s">
+        <v>1713</v>
+      </c>
+      <c r="E1775" s="93" t="s">
+        <v>2918</v>
+      </c>
+      <c r="F1775" s="93" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1775" s="93" t="s">
+        <v>187</v>
+      </c>
+      <c r="H1775" s="93" t="s">
         <v>3716</v>
       </c>
-      <c r="I1774" s="93" t="s">
+      <c r="I1775" s="93" t="s">
         <v>2983</v>
       </c>
     </row>
-    <row r="1775" spans="1:9" s="113" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1775" s="113">
+    <row r="1776" spans="1:9" s="113" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1776" s="113">
         <v>1973</v>
       </c>
-      <c r="B1775" s="98" t="s">
+      <c r="B1776" s="98" t="s">
         <v>3771</v>
       </c>
-      <c r="C1775" s="113">
+      <c r="C1776" s="113">
         <v>2</v>
       </c>
-      <c r="D1775" s="113" t="s">
-        <v>1713</v>
-      </c>
-      <c r="F1775" s="113" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1775" s="113" t="s">
+      <c r="D1776" s="113" t="s">
+        <v>1713</v>
+      </c>
+      <c r="F1776" s="113" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1776" s="113" t="s">
         <v>140</v>
       </c>
-      <c r="H1775" s="113" t="s">
+      <c r="H1776" s="113" t="s">
         <v>3772</v>
       </c>
-      <c r="I1775" s="113" t="s">
-        <v>2983</v>
-      </c>
-    </row>
-    <row r="1776" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1776" s="93">
-        <v>1974</v>
-      </c>
-      <c r="B1776" s="1" t="s">
-        <v>3474</v>
-      </c>
-      <c r="C1776" s="93">
-        <v>2</v>
-      </c>
-      <c r="D1776" s="93" t="s">
-        <v>1710</v>
-      </c>
-      <c r="E1776" s="93" t="s">
-        <v>2918</v>
-      </c>
-      <c r="F1776" s="93" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1776" s="93" t="s">
-        <v>36</v>
-      </c>
-      <c r="H1776" s="93" t="s">
-        <v>3576</v>
-      </c>
-      <c r="I1776" s="93" t="s">
+      <c r="I1776" s="113" t="s">
         <v>2983</v>
       </c>
     </row>
     <row r="1777" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1777" s="93">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="B1777" s="1" t="s">
-        <v>3475</v>
+        <v>3474</v>
       </c>
       <c r="C1777" s="93">
         <v>2</v>
       </c>
       <c r="D1777" s="93" t="s">
-        <v>1711</v>
+        <v>1710</v>
+      </c>
+      <c r="E1777" s="93" t="s">
+        <v>2918</v>
       </c>
       <c r="F1777" s="93" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G1777" s="93" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="H1777" s="93" t="s">
-        <v>3607</v>
+        <v>3576</v>
       </c>
       <c r="I1777" s="93" t="s">
         <v>2983</v>
@@ -55114,85 +55127,85 @@
     </row>
     <row r="1778" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1778" s="93">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="B1778" s="1" t="s">
-        <v>3476</v>
+        <v>3475</v>
+      </c>
+      <c r="C1778" s="93">
+        <v>2</v>
+      </c>
+      <c r="D1778" s="93" t="s">
+        <v>1711</v>
+      </c>
+      <c r="F1778" s="93" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1778" s="93" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1778" s="93" t="s">
+        <v>3607</v>
+      </c>
+      <c r="I1778" s="93" t="s">
+        <v>2983</v>
       </c>
     </row>
     <row r="1779" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1779" s="93">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="B1779" s="1" t="s">
-        <v>3477</v>
-      </c>
-      <c r="C1779" s="93">
-        <v>4</v>
-      </c>
-      <c r="D1779" s="93" t="s">
-        <v>1713</v>
-      </c>
-      <c r="F1779" s="93" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1779" s="93" t="s">
-        <v>28</v>
-      </c>
-      <c r="H1779" s="93" t="s">
-        <v>3593</v>
-      </c>
-      <c r="I1779" s="93" t="s">
-        <v>3167</v>
+        <v>3476</v>
       </c>
     </row>
     <row r="1780" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1780" s="93">
-        <v>1979</v>
+        <v>1977</v>
       </c>
       <c r="B1780" s="1" t="s">
-        <v>3478</v>
+        <v>3477</v>
       </c>
       <c r="C1780" s="93">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1780" s="93" t="s">
         <v>1713</v>
       </c>
       <c r="F1780" s="93" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G1780" s="93" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H1780" s="93" t="s">
-        <v>3569</v>
+        <v>3593</v>
       </c>
       <c r="I1780" s="93" t="s">
-        <v>2983</v>
+        <v>3167</v>
       </c>
     </row>
     <row r="1781" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1781" s="93">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="B1781" s="1" t="s">
-        <v>3479</v>
+        <v>3478</v>
       </c>
       <c r="C1781" s="93">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1781" s="93" t="s">
         <v>1713</v>
       </c>
       <c r="F1781" s="93" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G1781" s="93" t="s">
-        <v>134</v>
+        <v>25</v>
       </c>
       <c r="H1781" s="93" t="s">
-        <v>3608</v>
+        <v>3569</v>
       </c>
       <c r="I1781" s="93" t="s">
         <v>2983</v>
@@ -55200,13 +55213,13 @@
     </row>
     <row r="1782" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1782" s="93">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="B1782" s="1" t="s">
-        <v>3480</v>
+        <v>3479</v>
       </c>
       <c r="C1782" s="93">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1782" s="93" t="s">
         <v>1713</v>
@@ -55215,105 +55228,102 @@
         <v>9</v>
       </c>
       <c r="G1782" s="93" t="s">
-        <v>51</v>
+        <v>134</v>
       </c>
       <c r="H1782" s="93" t="s">
-        <v>3609</v>
+        <v>3608</v>
       </c>
       <c r="I1782" s="93" t="s">
-        <v>3610</v>
+        <v>2983</v>
       </c>
     </row>
     <row r="1783" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1783" s="93">
+        <v>1981</v>
+      </c>
+      <c r="B1783" s="1" t="s">
+        <v>3480</v>
+      </c>
+      <c r="C1783" s="93">
+        <v>3</v>
+      </c>
+      <c r="D1783" s="93" t="s">
+        <v>1713</v>
+      </c>
+      <c r="F1783" s="93" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1783" s="93" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1783" s="93" t="s">
+        <v>3609</v>
+      </c>
+      <c r="I1783" s="93" t="s">
+        <v>3610</v>
+      </c>
+    </row>
+    <row r="1784" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1784" s="93">
         <v>1982</v>
       </c>
-      <c r="B1783" s="1" t="s">
+      <c r="B1784" s="1" t="s">
         <v>3481</v>
       </c>
-      <c r="C1783" s="93">
-        <v>5</v>
-      </c>
-      <c r="D1783" s="93" t="s">
+      <c r="C1784" s="93">
+        <v>5</v>
+      </c>
+      <c r="D1784" s="93" t="s">
         <v>1711</v>
       </c>
-      <c r="F1783" s="93" t="s">
+      <c r="F1784" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="G1783" s="93" t="s">
+      <c r="G1784" s="93" t="s">
         <v>25</v>
       </c>
-      <c r="H1783" s="93" t="s">
+      <c r="H1784" s="93" t="s">
         <v>3594</v>
       </c>
-      <c r="I1783" s="93" t="s">
+      <c r="I1784" s="93" t="s">
         <v>3011</v>
       </c>
     </row>
-    <row r="1784" spans="1:9" s="112" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1784" s="112">
+    <row r="1785" spans="1:9" s="112" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1785" s="112">
         <v>1983</v>
       </c>
-      <c r="B1784" s="1" t="s">
+      <c r="B1785" s="1" t="s">
         <v>3755</v>
       </c>
-      <c r="C1784" s="112">
-        <v>3</v>
-      </c>
-      <c r="D1784" s="112" t="s">
-        <v>1713</v>
-      </c>
-      <c r="E1784" s="112" t="s">
+      <c r="C1785" s="112">
+        <v>3</v>
+      </c>
+      <c r="D1785" s="112" t="s">
+        <v>1713</v>
+      </c>
+      <c r="E1785" s="112" t="s">
         <v>2918</v>
       </c>
-      <c r="F1784" s="112" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1784" s="112" t="s">
+      <c r="F1785" s="112" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1785" s="112" t="s">
         <v>21</v>
       </c>
-      <c r="H1784" s="112" t="s">
+      <c r="H1785" s="112" t="s">
         <v>3756</v>
       </c>
-      <c r="I1784" s="112" t="s">
-        <v>2983</v>
-      </c>
-    </row>
-    <row r="1785" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1785" s="93">
-        <v>1984</v>
-      </c>
-      <c r="B1785" s="1" t="s">
-        <v>3482</v>
-      </c>
-      <c r="C1785" s="93">
-        <v>2</v>
-      </c>
-      <c r="D1785" s="93" t="s">
-        <v>1713</v>
-      </c>
-      <c r="E1785" s="93" t="s">
-        <v>2918</v>
-      </c>
-      <c r="F1785" s="93" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1785" s="93" t="s">
-        <v>41</v>
-      </c>
-      <c r="H1785" s="93" t="s">
-        <v>3570</v>
-      </c>
-      <c r="I1785" s="93" t="s">
+      <c r="I1785" s="112" t="s">
         <v>2983</v>
       </c>
     </row>
     <row r="1786" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1786" s="93">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="B1786" s="1" t="s">
-        <v>3483</v>
+        <v>3482</v>
       </c>
       <c r="C1786" s="93">
         <v>2</v>
@@ -55325,137 +55335,137 @@
         <v>2918</v>
       </c>
       <c r="F1786" s="93" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G1786" s="93" t="s">
         <v>41</v>
       </c>
       <c r="H1786" s="93" t="s">
-        <v>3611</v>
+        <v>3570</v>
       </c>
       <c r="I1786" s="93" t="s">
-        <v>3011</v>
+        <v>2983</v>
       </c>
     </row>
     <row r="1787" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1787" s="93">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="B1787" s="1" t="s">
-        <v>3484</v>
+        <v>3483</v>
       </c>
       <c r="C1787" s="93">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1787" s="93" t="s">
         <v>1713</v>
       </c>
+      <c r="E1787" s="93" t="s">
+        <v>2918</v>
+      </c>
       <c r="F1787" s="93" t="s">
         <v>9</v>
       </c>
       <c r="G1787" s="93" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="H1787" s="93" t="s">
-        <v>3612</v>
+        <v>3611</v>
       </c>
       <c r="I1787" s="93" t="s">
-        <v>3613</v>
+        <v>3011</v>
       </c>
     </row>
     <row r="1788" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1788" s="93">
+        <v>1986</v>
+      </c>
+      <c r="B1788" s="1" t="s">
+        <v>3484</v>
+      </c>
+      <c r="C1788" s="93">
+        <v>3</v>
+      </c>
+      <c r="D1788" s="93" t="s">
+        <v>1713</v>
+      </c>
+      <c r="F1788" s="93" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1788" s="93" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1788" s="93" t="s">
+        <v>3612</v>
+      </c>
+      <c r="I1788" s="93" t="s">
+        <v>3613</v>
+      </c>
+    </row>
+    <row r="1789" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1789" s="93">
         <v>1987</v>
       </c>
-      <c r="B1788" s="1" t="s">
+      <c r="B1789" s="1" t="s">
         <v>3485</v>
       </c>
-      <c r="C1788" s="93">
+      <c r="C1789" s="93">
         <v>4</v>
       </c>
-      <c r="D1788" s="93" t="s">
-        <v>1713</v>
-      </c>
-      <c r="E1788" s="93" t="s">
+      <c r="D1789" s="93" t="s">
+        <v>1713</v>
+      </c>
+      <c r="E1789" s="93" t="s">
         <v>2918</v>
       </c>
-      <c r="F1788" s="93" t="s">
+      <c r="F1789" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="G1788" s="93" t="s">
+      <c r="G1789" s="93" t="s">
         <v>28</v>
       </c>
-      <c r="H1788" s="93" t="s">
+      <c r="H1789" s="93" t="s">
         <v>3595</v>
       </c>
-      <c r="I1788" s="93" t="s">
+      <c r="I1789" s="93" t="s">
         <v>2983</v>
       </c>
     </row>
-    <row r="1789" spans="1:9" s="107" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1789" s="107">
+    <row r="1790" spans="1:9" s="107" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1790" s="107">
         <v>1989</v>
       </c>
-      <c r="B1789" s="1" t="s">
+      <c r="B1790" s="1" t="s">
         <v>3717</v>
       </c>
-      <c r="C1789" s="107">
+      <c r="C1790" s="107">
         <v>2</v>
       </c>
-      <c r="D1789" s="107" t="s">
-        <v>1713</v>
-      </c>
-      <c r="E1789" s="107" t="s">
+      <c r="D1790" s="107" t="s">
+        <v>1713</v>
+      </c>
+      <c r="E1790" s="107" t="s">
         <v>2907</v>
       </c>
-      <c r="F1789" s="107" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1789" s="107" t="s">
+      <c r="F1790" s="107" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1790" s="107" t="s">
         <v>296</v>
       </c>
-      <c r="H1789" s="107" t="s">
+      <c r="H1790" s="107" t="s">
         <v>3718</v>
       </c>
-      <c r="I1789" s="107" t="s">
-        <v>2983</v>
-      </c>
-    </row>
-    <row r="1790" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1790" s="93">
-        <v>1991</v>
-      </c>
-      <c r="B1790" s="1" t="s">
-        <v>3486</v>
-      </c>
-      <c r="C1790" s="93">
-        <v>2</v>
-      </c>
-      <c r="D1790" s="93" t="s">
-        <v>1713</v>
-      </c>
-      <c r="E1790" s="93" t="s">
-        <v>2918</v>
-      </c>
-      <c r="F1790" s="93" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1790" s="93" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1790" s="93" t="s">
-        <v>3575</v>
-      </c>
-      <c r="I1790" s="93" t="s">
+      <c r="I1790" s="107" t="s">
         <v>2983</v>
       </c>
     </row>
     <row r="1791" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1791" s="93">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="B1791" s="1" t="s">
-        <v>3487</v>
+        <v>3486</v>
       </c>
       <c r="C1791" s="93">
         <v>2</v>
@@ -55463,33 +55473,54 @@
       <c r="D1791" s="93" t="s">
         <v>1713</v>
       </c>
+      <c r="E1791" s="93" t="s">
+        <v>2918</v>
+      </c>
       <c r="F1791" s="93" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G1791" s="93" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="H1791" s="93" t="s">
-        <v>3648</v>
+        <v>3575</v>
       </c>
       <c r="I1791" s="93" t="s">
-        <v>3027</v>
+        <v>2983</v>
       </c>
     </row>
     <row r="1792" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1792" s="93">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="B1792" s="1" t="s">
-        <v>3488</v>
+        <v>3487</v>
+      </c>
+      <c r="C1792" s="93">
+        <v>2</v>
+      </c>
+      <c r="D1792" s="93" t="s">
+        <v>1713</v>
+      </c>
+      <c r="F1792" s="93" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1792" s="93" t="s">
+        <v>187</v>
+      </c>
+      <c r="H1792" s="93" t="s">
+        <v>3648</v>
+      </c>
+      <c r="I1792" s="93" t="s">
+        <v>3027</v>
       </c>
     </row>
     <row r="1793" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1793" s="93">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="B1793" s="1" t="s">
-        <v>3489</v>
+        <v>3488</v>
       </c>
       <c r="C1793" s="93">
         <v>4</v>
@@ -55497,54 +55528,54 @@
       <c r="D1793" s="93" t="s">
         <v>1713</v>
       </c>
+      <c r="E1793" s="93" t="s">
+        <v>2918</v>
+      </c>
       <c r="F1793" s="93" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G1793" s="93" t="s">
-        <v>121</v>
+        <v>455</v>
       </c>
       <c r="H1793" s="93" t="s">
-        <v>3596</v>
+        <v>3791</v>
       </c>
       <c r="I1793" s="93" t="s">
-        <v>3597</v>
+        <v>3161</v>
       </c>
     </row>
     <row r="1794" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1794" s="93">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="B1794" s="1" t="s">
-        <v>3490</v>
+        <v>3489</v>
       </c>
       <c r="C1794" s="93">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D1794" s="93" t="s">
         <v>1713</v>
       </c>
-      <c r="E1794" s="93" t="s">
-        <v>2918</v>
-      </c>
       <c r="F1794" s="93" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G1794" s="93" t="s">
-        <v>6</v>
+        <v>121</v>
       </c>
       <c r="H1794" s="93" t="s">
-        <v>3571</v>
+        <v>3596</v>
       </c>
       <c r="I1794" s="93" t="s">
-        <v>3167</v>
+        <v>3597</v>
       </c>
     </row>
     <row r="1795" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1795" s="93">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="B1795" s="1" t="s">
-        <v>3491</v>
+        <v>3490</v>
       </c>
       <c r="C1795" s="93">
         <v>3</v>
@@ -55553,53 +55584,56 @@
         <v>1713</v>
       </c>
       <c r="E1795" s="93" t="s">
-        <v>2907</v>
+        <v>2918</v>
       </c>
       <c r="F1795" s="93" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G1795" s="93" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="H1795" s="93" t="s">
-        <v>3651</v>
+        <v>3571</v>
       </c>
       <c r="I1795" s="93" t="s">
-        <v>3011</v>
+        <v>3167</v>
       </c>
     </row>
     <row r="1796" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1796" s="93">
-        <v>1997</v>
-      </c>
-      <c r="B1796" s="95" t="s">
-        <v>3493</v>
+        <v>1996</v>
+      </c>
+      <c r="B1796" s="1" t="s">
+        <v>3491</v>
       </c>
       <c r="C1796" s="93">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1796" s="93" t="s">
         <v>1713</v>
       </c>
+      <c r="E1796" s="93" t="s">
+        <v>2907</v>
+      </c>
       <c r="F1796" s="93" t="s">
         <v>9</v>
       </c>
       <c r="G1796" s="93" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="H1796" s="93" t="s">
-        <v>3614</v>
+        <v>3651</v>
       </c>
       <c r="I1796" s="93" t="s">
-        <v>2983</v>
+        <v>3011</v>
       </c>
     </row>
     <row r="1797" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1797" s="93">
-        <v>1998</v>
-      </c>
-      <c r="B1797" s="1" t="s">
-        <v>3492</v>
+        <v>1997</v>
+      </c>
+      <c r="B1797" s="95" t="s">
+        <v>3493</v>
       </c>
       <c r="C1797" s="93">
         <v>4</v>
@@ -55608,91 +55642,91 @@
         <v>1713</v>
       </c>
       <c r="F1797" s="93" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1797" s="93" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1797" s="93" t="s">
+        <v>3614</v>
+      </c>
+      <c r="I1797" s="93" t="s">
+        <v>2983</v>
+      </c>
+    </row>
+    <row r="1798" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1798" s="93">
+        <v>1998</v>
+      </c>
+      <c r="B1798" s="1" t="s">
+        <v>3492</v>
+      </c>
+      <c r="C1798" s="93">
+        <v>4</v>
+      </c>
+      <c r="D1798" s="93" t="s">
+        <v>1713</v>
+      </c>
+      <c r="F1798" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="G1797" s="93" t="s">
+      <c r="G1798" s="93" t="s">
         <v>187</v>
       </c>
-      <c r="H1797" s="93" t="s">
+      <c r="H1798" s="93" t="s">
         <v>383</v>
       </c>
-      <c r="I1797" s="93" t="s">
+      <c r="I1798" s="93" t="s">
         <v>3011</v>
       </c>
     </row>
-    <row r="1798" spans="1:9" s="112" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1798" s="112">
+    <row r="1799" spans="1:9" s="112" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1799" s="112">
         <v>1999</v>
       </c>
-      <c r="B1798" s="1" t="s">
+      <c r="B1799" s="1" t="s">
         <v>3757</v>
       </c>
-      <c r="C1798" s="112">
+      <c r="C1799" s="112">
         <v>2</v>
       </c>
-      <c r="D1798" s="112" t="s">
-        <v>1713</v>
-      </c>
-      <c r="F1798" s="112" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1798" s="112" t="s">
+      <c r="D1799" s="112" t="s">
+        <v>1713</v>
+      </c>
+      <c r="F1799" s="112" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1799" s="112" t="s">
         <v>25</v>
       </c>
-      <c r="H1798" s="112" t="s">
+      <c r="H1799" s="112" t="s">
         <v>3758</v>
       </c>
-      <c r="I1798" s="112" t="s">
+      <c r="I1799" s="112" t="s">
         <v>3297</v>
-      </c>
-    </row>
-    <row r="1799" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1799" s="93">
-        <v>2000</v>
-      </c>
-      <c r="B1799" s="1" t="s">
-        <v>3494</v>
-      </c>
-      <c r="C1799" s="93">
-        <v>1</v>
-      </c>
-      <c r="D1799" s="93" t="s">
-        <v>1710</v>
-      </c>
-      <c r="F1799" s="93" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1799" s="93" t="s">
-        <v>36</v>
-      </c>
-      <c r="H1799" s="93" t="s">
-        <v>3572</v>
-      </c>
-      <c r="I1799" s="93" t="s">
-        <v>2983</v>
       </c>
     </row>
     <row r="1800" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1800" s="93">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="B1800" s="1" t="s">
-        <v>3495</v>
+        <v>3494</v>
       </c>
       <c r="C1800" s="93">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1800" s="93" t="s">
-        <v>1713</v>
+        <v>1710</v>
       </c>
       <c r="F1800" s="93" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G1800" s="93" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="H1800" s="93" t="s">
-        <v>3691</v>
+        <v>3572</v>
       </c>
       <c r="I1800" s="93" t="s">
         <v>2983</v>
@@ -55700,10 +55734,10 @@
     </row>
     <row r="1801" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1801" s="93">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="B1801" s="1" t="s">
-        <v>3496</v>
+        <v>3495</v>
       </c>
       <c r="C1801" s="93">
         <v>2</v>
@@ -55711,112 +55745,109 @@
       <c r="D1801" s="93" t="s">
         <v>1713</v>
       </c>
-      <c r="E1801" s="93" t="s">
-        <v>2907</v>
-      </c>
       <c r="F1801" s="93" t="s">
         <v>9</v>
       </c>
       <c r="G1801" s="93" t="s">
-        <v>121</v>
+        <v>25</v>
       </c>
       <c r="H1801" s="93" t="s">
-        <v>3701</v>
+        <v>3691</v>
       </c>
       <c r="I1801" s="93" t="s">
-        <v>3702</v>
+        <v>2983</v>
       </c>
     </row>
     <row r="1802" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1802" s="93">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="B1802" s="1" t="s">
-        <v>3497</v>
+        <v>3496</v>
       </c>
       <c r="C1802" s="93">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1802" s="93" t="s">
-        <v>1706</v>
+        <v>1713</v>
+      </c>
+      <c r="E1802" s="93" t="s">
+        <v>2907</v>
       </c>
       <c r="F1802" s="93" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G1802" s="93" t="s">
         <v>121</v>
       </c>
       <c r="H1802" s="93" t="s">
+        <v>3701</v>
+      </c>
+      <c r="I1802" s="93" t="s">
+        <v>3702</v>
+      </c>
+    </row>
+    <row r="1803" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1803" s="93">
+        <v>2003</v>
+      </c>
+      <c r="B1803" s="1" t="s">
+        <v>3497</v>
+      </c>
+      <c r="C1803" s="93">
+        <v>4</v>
+      </c>
+      <c r="D1803" s="93" t="s">
+        <v>1706</v>
+      </c>
+      <c r="F1803" s="93" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1803" s="93" t="s">
+        <v>121</v>
+      </c>
+      <c r="H1803" s="93" t="s">
         <v>3506</v>
       </c>
-      <c r="I1802" s="93" t="s">
+      <c r="I1803" s="93" t="s">
         <v>2983</v>
       </c>
     </row>
-    <row r="1803" spans="1:9" s="101" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1803" s="101">
+    <row r="1804" spans="1:9" s="101" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1804" s="101">
         <v>2005</v>
       </c>
-      <c r="B1803" s="1" t="s">
+      <c r="B1804" s="1" t="s">
         <v>3654</v>
       </c>
-      <c r="C1803" s="101">
+      <c r="C1804" s="101">
         <v>4</v>
       </c>
-      <c r="D1803" s="101" t="s">
+      <c r="D1804" s="101" t="s">
         <v>1711</v>
       </c>
-      <c r="F1803" s="101" t="s">
+      <c r="F1804" s="101" t="s">
         <v>12</v>
       </c>
-      <c r="G1803" s="101" t="s">
+      <c r="G1804" s="101" t="s">
         <v>25</v>
       </c>
-      <c r="H1803" s="101" t="s">
+      <c r="H1804" s="101" t="s">
         <v>3655</v>
       </c>
-      <c r="I1803" s="101" t="s">
-        <v>2983</v>
-      </c>
-    </row>
-    <row r="1804" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1804" s="93">
-        <v>2006</v>
-      </c>
-      <c r="B1804" s="1" t="s">
-        <v>3498</v>
-      </c>
-      <c r="C1804" s="93">
-        <v>1</v>
-      </c>
-      <c r="D1804" s="93" t="s">
-        <v>1713</v>
-      </c>
-      <c r="E1804" s="93" t="s">
-        <v>2918</v>
-      </c>
-      <c r="F1804" s="93" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1804" s="93" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1804" s="93" t="s">
-        <v>3568</v>
-      </c>
-      <c r="I1804" s="93" t="s">
+      <c r="I1804" s="101" t="s">
         <v>2983</v>
       </c>
     </row>
     <row r="1805" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1805" s="93">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="B1805" s="1" t="s">
-        <v>3499</v>
+        <v>3498</v>
       </c>
       <c r="C1805" s="93">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1805" s="93" t="s">
         <v>1713</v>
@@ -55825,42 +55856,42 @@
         <v>2918</v>
       </c>
       <c r="F1805" s="93" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G1805" s="93" t="s">
         <v>21</v>
       </c>
       <c r="H1805" s="93" t="s">
-        <v>3759</v>
+        <v>3568</v>
       </c>
       <c r="I1805" s="93" t="s">
-        <v>3011</v>
+        <v>2983</v>
       </c>
     </row>
     <row r="1806" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1806" s="93">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="B1806" s="1" t="s">
-        <v>3500</v>
+        <v>3499</v>
       </c>
       <c r="C1806" s="93">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1806" s="93" t="s">
         <v>1713</v>
       </c>
       <c r="E1806" s="93" t="s">
-        <v>2907</v>
+        <v>2918</v>
       </c>
       <c r="F1806" s="93" t="s">
         <v>9</v>
       </c>
       <c r="G1806" s="93" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="H1806" s="93" t="s">
-        <v>3748</v>
+        <v>3759</v>
       </c>
       <c r="I1806" s="93" t="s">
         <v>3011</v>
@@ -55868,28 +55899,28 @@
     </row>
     <row r="1807" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1807" s="93">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="B1807" s="1" t="s">
-        <v>3501</v>
+        <v>3500</v>
       </c>
       <c r="C1807" s="93">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1807" s="93" t="s">
         <v>1713</v>
       </c>
       <c r="E1807" s="93" t="s">
-        <v>2918</v>
+        <v>2907</v>
       </c>
       <c r="F1807" s="93" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G1807" s="93" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="H1807" s="93" t="s">
-        <v>3644</v>
+        <v>3748</v>
       </c>
       <c r="I1807" s="93" t="s">
         <v>3011</v>
@@ -55897,137 +55928,140 @@
     </row>
     <row r="1808" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1808" s="93">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="B1808" s="1" t="s">
-        <v>3502</v>
+        <v>3501</v>
       </c>
       <c r="C1808" s="93">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1808" s="93" t="s">
         <v>1713</v>
       </c>
+      <c r="E1808" s="93" t="s">
+        <v>2918</v>
+      </c>
       <c r="F1808" s="93" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G1808" s="93" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="H1808" s="93" t="s">
-        <v>3567</v>
+        <v>3644</v>
       </c>
       <c r="I1808" s="93" t="s">
-        <v>2983</v>
+        <v>3011</v>
       </c>
     </row>
     <row r="1809" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1809" s="93">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="B1809" s="1" t="s">
-        <v>3503</v>
+        <v>3502</v>
+      </c>
+      <c r="C1809" s="93">
+        <v>1</v>
+      </c>
+      <c r="D1809" s="93" t="s">
+        <v>1713</v>
+      </c>
+      <c r="F1809" s="93" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1809" s="93" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1809" s="93" t="s">
+        <v>3567</v>
+      </c>
+      <c r="I1809" s="93" t="s">
+        <v>2983</v>
       </c>
     </row>
     <row r="1810" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1810" s="93">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="B1810" s="1" t="s">
-        <v>3504</v>
-      </c>
-      <c r="C1810" s="93">
-        <v>3</v>
-      </c>
-      <c r="D1810" s="93" t="s">
-        <v>1713</v>
-      </c>
-      <c r="F1810" s="93" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1810" s="93" t="s">
-        <v>455</v>
-      </c>
-      <c r="H1810" s="93" t="s">
-        <v>3732</v>
-      </c>
-      <c r="I1810" s="93" t="s">
-        <v>2983</v>
+        <v>3503</v>
       </c>
     </row>
     <row r="1811" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1811" s="93">
+        <v>2013</v>
+      </c>
+      <c r="B1811" s="1" t="s">
+        <v>3504</v>
+      </c>
+      <c r="C1811" s="93">
+        <v>3</v>
+      </c>
+      <c r="D1811" s="93" t="s">
+        <v>1713</v>
+      </c>
+      <c r="F1811" s="93" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1811" s="93" t="s">
+        <v>455</v>
+      </c>
+      <c r="H1811" s="93" t="s">
+        <v>3732</v>
+      </c>
+      <c r="I1811" s="93" t="s">
+        <v>2983</v>
+      </c>
+    </row>
+    <row r="1812" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1812" s="93">
         <v>2014</v>
       </c>
-      <c r="B1811" s="1" t="s">
+      <c r="B1812" s="1" t="s">
         <v>3505</v>
       </c>
-      <c r="C1811" s="93">
+      <c r="C1812" s="93">
         <v>4</v>
       </c>
-      <c r="D1811" s="93" t="s">
+      <c r="D1812" s="93" t="s">
         <v>1706</v>
       </c>
-      <c r="F1811" s="93" t="s">
+      <c r="F1812" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="G1811" s="93" t="s">
+      <c r="G1812" s="93" t="s">
         <v>151</v>
       </c>
-      <c r="H1811" s="93" t="s">
+      <c r="H1812" s="93" t="s">
         <v>3507</v>
       </c>
-      <c r="I1811" s="93" t="s">
+      <c r="I1812" s="93" t="s">
         <v>3508</v>
-      </c>
-    </row>
-    <row r="1812" spans="1:9" s="94" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1812" s="94">
-        <v>2016</v>
-      </c>
-      <c r="B1812" s="1" t="s">
-        <v>3509</v>
-      </c>
-      <c r="C1812" s="94">
-        <v>1</v>
-      </c>
-      <c r="D1812" s="94" t="s">
-        <v>1713</v>
-      </c>
-      <c r="F1812" s="94" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1812" s="94" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1812" s="94" t="s">
-        <v>3566</v>
-      </c>
-      <c r="I1812" s="94" t="s">
-        <v>2983</v>
       </c>
     </row>
     <row r="1813" spans="1:9" s="94" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1813" s="94">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="B1813" s="1" t="s">
-        <v>3510</v>
+        <v>3509</v>
       </c>
       <c r="C1813" s="94">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1813" s="94" t="s">
         <v>1713</v>
       </c>
       <c r="F1813" s="94" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G1813" s="94" t="s">
         <v>21</v>
       </c>
       <c r="H1813" s="94" t="s">
-        <v>3719</v>
+        <v>3566</v>
       </c>
       <c r="I1813" s="94" t="s">
         <v>2983</v>
@@ -56035,16 +56069,16 @@
     </row>
     <row r="1814" spans="1:9" s="94" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1814" s="94">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="B1814" s="1" t="s">
-        <v>3511</v>
+        <v>3510</v>
       </c>
       <c r="C1814" s="94">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1814" s="94" t="s">
-        <v>1706</v>
+        <v>1713</v>
       </c>
       <c r="F1814" s="94" t="s">
         <v>9</v>
@@ -56053,156 +56087,156 @@
         <v>21</v>
       </c>
       <c r="H1814" s="94" t="s">
-        <v>3700</v>
+        <v>3719</v>
       </c>
       <c r="I1814" s="94" t="s">
-        <v>3027</v>
+        <v>2983</v>
       </c>
     </row>
     <row r="1815" spans="1:9" s="94" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1815" s="94">
+        <v>2018</v>
+      </c>
+      <c r="B1815" s="1" t="s">
+        <v>3511</v>
+      </c>
+      <c r="C1815" s="94">
+        <v>3</v>
+      </c>
+      <c r="D1815" s="94" t="s">
+        <v>1706</v>
+      </c>
+      <c r="F1815" s="94" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1815" s="94" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1815" s="94" t="s">
+        <v>3700</v>
+      </c>
+      <c r="I1815" s="94" t="s">
+        <v>3027</v>
+      </c>
+    </row>
+    <row r="1816" spans="1:9" s="94" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1816" s="94">
         <v>2019</v>
       </c>
-      <c r="B1815" s="95" t="s">
+      <c r="B1816" s="95" t="s">
         <v>3512</v>
       </c>
-      <c r="C1815" s="94">
+      <c r="C1816" s="94">
         <v>4</v>
       </c>
-      <c r="D1815" s="94" t="s">
-        <v>1713</v>
-      </c>
-      <c r="F1815" s="94" t="s">
+      <c r="D1816" s="94" t="s">
+        <v>1713</v>
+      </c>
+      <c r="F1816" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="G1815" s="94" t="s">
+      <c r="G1816" s="94" t="s">
         <v>36</v>
       </c>
-      <c r="H1815" s="94" t="s">
+      <c r="H1816" s="94" t="s">
         <v>3643</v>
       </c>
-      <c r="I1815" s="94" t="s">
+      <c r="I1816" s="94" t="s">
         <v>3008</v>
       </c>
     </row>
-    <row r="1816" spans="1:9" s="107" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1816" s="107">
+    <row r="1817" spans="1:9" s="107" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1817" s="107">
         <v>2021</v>
       </c>
-      <c r="B1816" s="1" t="s">
+      <c r="B1817" s="1" t="s">
         <v>3720</v>
       </c>
-      <c r="C1816" s="107">
+      <c r="C1817" s="107">
         <v>2</v>
       </c>
-      <c r="D1816" s="107" t="s">
-        <v>1713</v>
-      </c>
-      <c r="F1816" s="107" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1816" s="107" t="s">
+      <c r="D1817" s="107" t="s">
+        <v>1713</v>
+      </c>
+      <c r="F1817" s="107" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1817" s="107" t="s">
         <v>95</v>
       </c>
-      <c r="H1816" s="107" t="s">
+      <c r="H1817" s="107" t="s">
         <v>3721</v>
       </c>
-      <c r="I1816" s="107" t="s">
-        <v>2983</v>
-      </c>
-    </row>
-    <row r="1817" spans="1:9" s="94" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1817" s="94">
-        <v>2022</v>
-      </c>
-      <c r="B1817" s="1" t="s">
-        <v>3513</v>
-      </c>
-      <c r="C1817" s="94">
-        <v>1</v>
-      </c>
-      <c r="D1817" s="94" t="s">
-        <v>1713</v>
-      </c>
-      <c r="F1817" s="94" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1817" s="94" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1817" s="94" t="s">
-        <v>3565</v>
-      </c>
-      <c r="I1817" s="94" t="s">
+      <c r="I1817" s="107" t="s">
         <v>2983</v>
       </c>
     </row>
     <row r="1818" spans="1:9" s="94" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1818" s="94">
-        <v>2023</v>
-      </c>
-      <c r="B1818" s="95" t="s">
-        <v>3514</v>
+        <v>2022</v>
+      </c>
+      <c r="B1818" s="1" t="s">
+        <v>3513</v>
+      </c>
+      <c r="C1818" s="94">
+        <v>1</v>
+      </c>
+      <c r="D1818" s="94" t="s">
+        <v>1713</v>
+      </c>
+      <c r="F1818" s="94" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1818" s="94" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1818" s="94" t="s">
+        <v>3565</v>
+      </c>
+      <c r="I1818" s="94" t="s">
+        <v>2983</v>
       </c>
     </row>
     <row r="1819" spans="1:9" s="94" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1819" s="94">
-        <v>2024</v>
-      </c>
-      <c r="B1819" s="1" t="s">
-        <v>3515</v>
+        <v>2023</v>
+      </c>
+      <c r="B1819" s="95" t="s">
+        <v>3514</v>
       </c>
     </row>
     <row r="1820" spans="1:9" s="94" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1820" s="94">
-        <v>2025</v>
-      </c>
-      <c r="B1820" s="95" t="s">
-        <v>3516</v>
-      </c>
-      <c r="C1820" s="94">
-        <v>4</v>
-      </c>
-      <c r="D1820" s="94" t="s">
-        <v>1713</v>
-      </c>
-      <c r="E1820" s="94" t="s">
-        <v>2907</v>
-      </c>
-      <c r="F1820" s="94" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1820" s="94" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1820" s="94" t="s">
-        <v>3642</v>
-      </c>
-      <c r="I1820" s="94" t="s">
-        <v>2983</v>
+        <v>2024</v>
+      </c>
+      <c r="B1820" s="1" t="s">
+        <v>3515</v>
       </c>
     </row>
     <row r="1821" spans="1:9" s="94" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1821" s="94">
-        <v>2027</v>
-      </c>
-      <c r="B1821" s="1" t="s">
-        <v>3517</v>
+        <v>2025</v>
+      </c>
+      <c r="B1821" s="95" t="s">
+        <v>3516</v>
       </c>
       <c r="C1821" s="94">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1821" s="94" t="s">
         <v>1713</v>
       </c>
+      <c r="E1821" s="94" t="s">
+        <v>2907</v>
+      </c>
       <c r="F1821" s="94" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G1821" s="94" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="H1821" s="94" t="s">
-        <v>3564</v>
+        <v>3642</v>
       </c>
       <c r="I1821" s="94" t="s">
         <v>2983</v>
@@ -56210,188 +56244,188 @@
     </row>
     <row r="1822" spans="1:9" s="94" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1822" s="94">
-        <v>2028</v>
+        <v>2027</v>
       </c>
       <c r="B1822" s="1" t="s">
-        <v>3518</v>
+        <v>3517</v>
+      </c>
+      <c r="C1822" s="94">
+        <v>1</v>
+      </c>
+      <c r="D1822" s="94" t="s">
+        <v>1713</v>
+      </c>
+      <c r="F1822" s="94" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1822" s="94" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1822" s="94" t="s">
+        <v>3564</v>
+      </c>
+      <c r="I1822" s="94" t="s">
+        <v>2983</v>
       </c>
     </row>
     <row r="1823" spans="1:9" s="94" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1823" s="94">
-        <v>2029</v>
+        <v>2028</v>
       </c>
       <c r="B1823" s="1" t="s">
-        <v>3519</v>
-      </c>
-      <c r="C1823" s="94">
-        <v>3</v>
-      </c>
-      <c r="D1823" s="94" t="s">
-        <v>1711</v>
-      </c>
-      <c r="F1823" s="94" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1823" s="94" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1823" s="94" t="s">
-        <v>3649</v>
-      </c>
-      <c r="I1823" s="94" t="s">
-        <v>3039</v>
+        <v>3518</v>
       </c>
     </row>
     <row r="1824" spans="1:9" s="94" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1824" s="94">
+        <v>2029</v>
+      </c>
+      <c r="B1824" s="1" t="s">
+        <v>3519</v>
+      </c>
+      <c r="C1824" s="94">
+        <v>3</v>
+      </c>
+      <c r="D1824" s="94" t="s">
+        <v>1711</v>
+      </c>
+      <c r="F1824" s="94" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1824" s="94" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1824" s="94" t="s">
+        <v>3649</v>
+      </c>
+      <c r="I1824" s="94" t="s">
+        <v>3039</v>
+      </c>
+    </row>
+    <row r="1825" spans="1:9" s="94" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1825" s="94">
         <v>2030</v>
       </c>
-      <c r="B1824" s="95" t="s">
+      <c r="B1825" s="95" t="s">
         <v>3520</v>
       </c>
-      <c r="C1824" s="94">
+      <c r="C1825" s="94">
         <v>4</v>
       </c>
-      <c r="D1824" s="94" t="s">
-        <v>1713</v>
-      </c>
-      <c r="E1824" s="94" t="s">
+      <c r="D1825" s="94" t="s">
+        <v>1713</v>
+      </c>
+      <c r="E1825" s="94" t="s">
         <v>2918</v>
       </c>
-      <c r="F1824" s="94" t="s">
+      <c r="F1825" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="G1824" s="94" t="s">
+      <c r="G1825" s="94" t="s">
         <v>48</v>
       </c>
-      <c r="H1824" s="94" t="s">
+      <c r="H1825" s="94" t="s">
         <v>3641</v>
-      </c>
-    </row>
-    <row r="1825" spans="1:9" s="97" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1825" s="97">
-        <v>2032</v>
-      </c>
-      <c r="B1825" s="1" t="s">
-        <v>3534</v>
-      </c>
-      <c r="C1825" s="97">
-        <v>2</v>
-      </c>
-      <c r="D1825" s="97" t="s">
-        <v>1713</v>
-      </c>
-      <c r="E1825" s="97" t="s">
-        <v>2918</v>
-      </c>
-      <c r="F1825" s="97" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1825" s="97" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1825" s="97" t="s">
-        <v>3563</v>
-      </c>
-      <c r="I1825" s="97" t="s">
-        <v>2983</v>
       </c>
     </row>
     <row r="1826" spans="1:9" s="97" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1826" s="97">
-        <v>2033</v>
-      </c>
-      <c r="B1826" s="98" t="s">
-        <v>3535</v>
+        <v>2032</v>
+      </c>
+      <c r="B1826" s="1" t="s">
+        <v>3534</v>
+      </c>
+      <c r="C1826" s="97">
+        <v>2</v>
+      </c>
+      <c r="D1826" s="97" t="s">
+        <v>1713</v>
+      </c>
+      <c r="E1826" s="97" t="s">
+        <v>2918</v>
+      </c>
+      <c r="F1826" s="97" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1826" s="97" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1826" s="97" t="s">
+        <v>3563</v>
+      </c>
+      <c r="I1826" s="97" t="s">
+        <v>2983</v>
       </c>
     </row>
     <row r="1827" spans="1:9" s="97" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1827" s="97">
-        <v>2034</v>
-      </c>
-      <c r="B1827" s="1" t="s">
-        <v>3536</v>
-      </c>
-      <c r="C1827" s="97">
-        <v>3</v>
-      </c>
-      <c r="D1827" s="97" t="s">
-        <v>1713</v>
-      </c>
-      <c r="E1827" s="97" t="s">
-        <v>2918</v>
-      </c>
-      <c r="F1827" s="97" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1827" s="97" t="s">
-        <v>455</v>
-      </c>
-      <c r="H1827" s="97" t="s">
-        <v>3690</v>
-      </c>
-      <c r="I1827" s="97" t="s">
-        <v>3011</v>
+        <v>2033</v>
+      </c>
+      <c r="B1827" s="98" t="s">
+        <v>3535</v>
       </c>
     </row>
     <row r="1828" spans="1:9" s="97" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1828" s="97">
-        <v>2035</v>
-      </c>
-      <c r="B1828" s="98" t="s">
-        <v>3537</v>
+        <v>2034</v>
+      </c>
+      <c r="B1828" s="1" t="s">
+        <v>3536</v>
       </c>
       <c r="C1828" s="97">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D1828" s="97" t="s">
-        <v>1706</v>
+        <v>1713</v>
+      </c>
+      <c r="E1828" s="97" t="s">
+        <v>2918</v>
       </c>
       <c r="F1828" s="97" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G1828" s="97" t="s">
-        <v>25</v>
+        <v>455</v>
       </c>
       <c r="H1828" s="97" t="s">
-        <v>3587</v>
+        <v>3690</v>
       </c>
       <c r="I1828" s="97" t="s">
-        <v>3588</v>
+        <v>3011</v>
       </c>
     </row>
     <row r="1829" spans="1:9" s="97" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1829" s="97">
-        <v>2037</v>
-      </c>
-      <c r="B1829" s="1" t="s">
-        <v>3539</v>
+        <v>2035</v>
+      </c>
+      <c r="B1829" s="98" t="s">
+        <v>3537</v>
       </c>
       <c r="C1829" s="97">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D1829" s="97" t="s">
-        <v>1713</v>
+        <v>1706</v>
       </c>
       <c r="F1829" s="97" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G1829" s="97" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="H1829" s="97" t="s">
-        <v>3562</v>
+        <v>3587</v>
       </c>
       <c r="I1829" s="97" t="s">
-        <v>3011</v>
+        <v>3588</v>
       </c>
     </row>
     <row r="1830" spans="1:9" s="97" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1830" s="97">
-        <v>2038</v>
+        <v>2037</v>
       </c>
       <c r="B1830" s="1" t="s">
-        <v>3538</v>
+        <v>3539</v>
       </c>
       <c r="C1830" s="97">
         <v>2</v>
@@ -56400,84 +56434,84 @@
         <v>1713</v>
       </c>
       <c r="F1830" s="97" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G1830" s="97" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="H1830" s="97" t="s">
-        <v>3773</v>
+        <v>3562</v>
       </c>
       <c r="I1830" s="97" t="s">
-        <v>2983</v>
+        <v>3011</v>
       </c>
     </row>
     <row r="1831" spans="1:9" s="97" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1831" s="97">
-        <v>2039</v>
+        <v>2038</v>
       </c>
       <c r="B1831" s="1" t="s">
-        <v>3540</v>
+        <v>3538</v>
+      </c>
+      <c r="C1831" s="97">
+        <v>2</v>
+      </c>
+      <c r="D1831" s="97" t="s">
+        <v>1713</v>
+      </c>
+      <c r="F1831" s="97" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1831" s="97" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1831" s="97" t="s">
+        <v>3773</v>
+      </c>
+      <c r="I1831" s="97" t="s">
+        <v>2983</v>
       </c>
     </row>
     <row r="1832" spans="1:9" s="97" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1832" s="97">
-        <v>2040</v>
+        <v>2039</v>
       </c>
       <c r="B1832" s="1" t="s">
-        <v>3541</v>
-      </c>
-      <c r="C1832" s="97">
-        <v>5</v>
-      </c>
-      <c r="D1832" s="97" t="s">
-        <v>1713</v>
-      </c>
-      <c r="F1832" s="97" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1832" s="97" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1832" s="97" t="s">
-        <v>3639</v>
-      </c>
-      <c r="I1832" s="97" t="s">
-        <v>3640</v>
+        <v>3540</v>
       </c>
     </row>
     <row r="1833" spans="1:9" s="97" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1833" s="97">
-        <v>2042</v>
-      </c>
-      <c r="B1833" s="98" t="s">
-        <v>3542</v>
+        <v>2040</v>
+      </c>
+      <c r="B1833" s="1" t="s">
+        <v>3541</v>
       </c>
       <c r="C1833" s="97">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D1833" s="97" t="s">
         <v>1713</v>
       </c>
       <c r="F1833" s="97" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G1833" s="97" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="H1833" s="97" t="s">
-        <v>3561</v>
+        <v>3639</v>
       </c>
       <c r="I1833" s="97" t="s">
-        <v>2983</v>
+        <v>3640</v>
       </c>
     </row>
     <row r="1834" spans="1:9" s="97" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1834" s="97">
-        <v>2043</v>
-      </c>
-      <c r="B1834" s="1" t="s">
-        <v>3543</v>
+        <v>2042</v>
+      </c>
+      <c r="B1834" s="98" t="s">
+        <v>3542</v>
       </c>
       <c r="C1834" s="97">
         <v>2</v>
@@ -56486,13 +56520,13 @@
         <v>1713</v>
       </c>
       <c r="F1834" s="97" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G1834" s="97" t="s">
-        <v>455</v>
+        <v>36</v>
       </c>
       <c r="H1834" s="97" t="s">
-        <v>3722</v>
+        <v>3561</v>
       </c>
       <c r="I1834" s="97" t="s">
         <v>2983</v>
@@ -56500,511 +56534,508 @@
     </row>
     <row r="1835" spans="1:9" s="97" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1835" s="97">
-        <v>2044</v>
+        <v>2043</v>
       </c>
       <c r="B1835" s="1" t="s">
-        <v>3544</v>
+        <v>3543</v>
+      </c>
+      <c r="C1835" s="97">
+        <v>2</v>
+      </c>
+      <c r="D1835" s="97" t="s">
+        <v>1713</v>
+      </c>
+      <c r="F1835" s="97" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1835" s="97" t="s">
+        <v>455</v>
+      </c>
+      <c r="H1835" s="97" t="s">
+        <v>3722</v>
+      </c>
+      <c r="I1835" s="97" t="s">
+        <v>2983</v>
       </c>
     </row>
     <row r="1836" spans="1:9" s="97" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1836" s="97">
-        <v>2045</v>
-      </c>
-      <c r="B1836" s="98" t="s">
-        <v>3545</v>
-      </c>
-      <c r="C1836" s="97">
-        <v>4</v>
-      </c>
-      <c r="D1836" s="97" t="s">
-        <v>1713</v>
-      </c>
-      <c r="F1836" s="97" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1836" s="97" t="s">
-        <v>187</v>
-      </c>
-      <c r="H1836" s="97" t="s">
-        <v>3638</v>
-      </c>
-      <c r="I1836" s="97" t="s">
-        <v>3011</v>
+        <v>2044</v>
+      </c>
+      <c r="B1836" s="1" t="s">
+        <v>3544</v>
       </c>
     </row>
     <row r="1837" spans="1:9" s="97" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1837" s="97">
-        <v>2047</v>
-      </c>
-      <c r="B1837" s="1" t="s">
-        <v>3546</v>
+        <v>2045</v>
+      </c>
+      <c r="B1837" s="98" t="s">
+        <v>3545</v>
       </c>
       <c r="C1837" s="97">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D1837" s="97" t="s">
-        <v>1706</v>
+        <v>1713</v>
       </c>
       <c r="F1837" s="97" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G1837" s="97" t="s">
-        <v>36</v>
+        <v>187</v>
       </c>
       <c r="H1837" s="97" t="s">
-        <v>3560</v>
+        <v>3638</v>
       </c>
       <c r="I1837" s="97" t="s">
-        <v>2983</v>
+        <v>3011</v>
       </c>
     </row>
     <row r="1838" spans="1:9" s="97" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1838" s="97">
-        <v>2048</v>
+        <v>2047</v>
       </c>
       <c r="B1838" s="1" t="s">
-        <v>3547</v>
+        <v>3546</v>
+      </c>
+      <c r="C1838" s="97">
+        <v>3</v>
+      </c>
+      <c r="D1838" s="97" t="s">
+        <v>1706</v>
+      </c>
+      <c r="F1838" s="97" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1838" s="97" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1838" s="97" t="s">
+        <v>3560</v>
+      </c>
+      <c r="I1838" s="97" t="s">
+        <v>2983</v>
       </c>
     </row>
     <row r="1839" spans="1:9" s="97" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1839" s="97">
-        <v>2049</v>
+        <v>2048</v>
       </c>
       <c r="B1839" s="1" t="s">
-        <v>3548</v>
+        <v>3547</v>
       </c>
     </row>
     <row r="1840" spans="1:9" s="97" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1840" s="97">
+        <v>2049</v>
+      </c>
+      <c r="B1840" s="1" t="s">
+        <v>3548</v>
+      </c>
+    </row>
+    <row r="1841" spans="1:9" s="97" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1841" s="97">
         <v>2050</v>
       </c>
-      <c r="B1840" s="1" t="s">
+      <c r="B1841" s="1" t="s">
         <v>3549</v>
       </c>
-      <c r="C1840" s="97">
+      <c r="C1841" s="97">
         <v>4</v>
       </c>
-      <c r="D1840" s="97" t="s">
-        <v>1713</v>
-      </c>
-      <c r="E1840" s="97" t="s">
+      <c r="D1841" s="97" t="s">
+        <v>1713</v>
+      </c>
+      <c r="E1841" s="97" t="s">
         <v>2907</v>
       </c>
-      <c r="F1840" s="97" t="s">
+      <c r="F1841" s="97" t="s">
         <v>12</v>
       </c>
-      <c r="G1840" s="97" t="s">
+      <c r="G1841" s="97" t="s">
         <v>187</v>
       </c>
-      <c r="H1840" s="97" t="s">
+      <c r="H1841" s="97" t="s">
         <v>265</v>
       </c>
-      <c r="I1840" s="97" t="s">
+      <c r="I1841" s="97" t="s">
         <v>2983</v>
       </c>
     </row>
-    <row r="1841" spans="1:9" s="113" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1841" s="113">
+    <row r="1842" spans="1:9" s="113" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1842" s="113">
         <v>2052</v>
       </c>
-      <c r="B1841" s="98" t="s">
+      <c r="B1842" s="98" t="s">
         <v>3774</v>
       </c>
-      <c r="C1841" s="113">
+      <c r="C1842" s="113">
         <v>4</v>
       </c>
-      <c r="D1841" s="113" t="s">
-        <v>1713</v>
-      </c>
-      <c r="F1841" s="113" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1841" s="113" t="s">
+      <c r="D1842" s="113" t="s">
+        <v>1713</v>
+      </c>
+      <c r="F1842" s="113" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1842" s="113" t="s">
         <v>28</v>
       </c>
-      <c r="H1841" s="113" t="s">
+      <c r="H1842" s="113" t="s">
         <v>3775</v>
       </c>
-      <c r="I1841" s="113" t="s">
+      <c r="I1842" s="113" t="s">
         <v>3005</v>
       </c>
     </row>
-    <row r="1842" spans="1:9" s="94" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1842" s="94">
+    <row r="1843" spans="1:9" s="94" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1843" s="94">
         <v>2053</v>
       </c>
-      <c r="B1842" s="1" t="s">
+      <c r="B1843" s="1" t="s">
         <v>3550</v>
       </c>
-      <c r="C1842" s="94">
+      <c r="C1843" s="94">
         <v>2</v>
       </c>
-      <c r="D1842" s="94" t="s">
-        <v>1713</v>
-      </c>
-      <c r="F1842" s="94" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1842" s="94" t="s">
+      <c r="D1843" s="94" t="s">
+        <v>1713</v>
+      </c>
+      <c r="F1843" s="94" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1843" s="94" t="s">
         <v>6</v>
       </c>
-      <c r="H1842" s="94" t="s">
+      <c r="H1843" s="94" t="s">
         <v>3559</v>
       </c>
-      <c r="I1842" s="94" t="s">
+      <c r="I1843" s="94" t="s">
         <v>2983</v>
-      </c>
-    </row>
-    <row r="1843" spans="1:9" s="97" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1843" s="97">
-        <v>2054</v>
-      </c>
-      <c r="B1843" s="1" t="s">
-        <v>3551</v>
-      </c>
-      <c r="C1843" s="97">
-        <v>2</v>
-      </c>
-      <c r="D1843" s="97" t="s">
-        <v>1713</v>
-      </c>
-      <c r="E1843" s="97" t="s">
-        <v>2918</v>
-      </c>
-      <c r="F1843" s="97" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1843" s="97" t="s">
-        <v>28</v>
-      </c>
-      <c r="H1843" s="97" t="s">
-        <v>3747</v>
-      </c>
-      <c r="I1843" s="97" t="s">
-        <v>3011</v>
       </c>
     </row>
     <row r="1844" spans="1:9" s="97" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1844" s="97">
-        <v>2055</v>
+        <v>2054</v>
       </c>
       <c r="B1844" s="1" t="s">
-        <v>3552</v>
+        <v>3551</v>
+      </c>
+      <c r="C1844" s="97">
+        <v>2</v>
+      </c>
+      <c r="D1844" s="97" t="s">
+        <v>1713</v>
+      </c>
+      <c r="E1844" s="97" t="s">
+        <v>2918</v>
+      </c>
+      <c r="F1844" s="97" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1844" s="97" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1844" s="97" t="s">
+        <v>3747</v>
+      </c>
+      <c r="I1844" s="97" t="s">
+        <v>3011</v>
       </c>
     </row>
     <row r="1845" spans="1:9" s="97" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1845" s="97">
-        <v>2056</v>
-      </c>
-      <c r="B1845" s="98" t="s">
-        <v>3553</v>
-      </c>
-      <c r="C1845" s="97">
-        <v>5</v>
-      </c>
-      <c r="D1845" s="97" t="s">
-        <v>2794</v>
-      </c>
-      <c r="F1845" s="97" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1845" s="97" t="s">
-        <v>121</v>
-      </c>
-      <c r="H1845" s="97" t="s">
-        <v>3636</v>
-      </c>
-      <c r="I1845" s="97" t="s">
-        <v>3637</v>
+        <v>2055</v>
+      </c>
+      <c r="B1845" s="1" t="s">
+        <v>3552</v>
       </c>
     </row>
     <row r="1846" spans="1:9" s="97" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1846" s="97">
-        <v>2057</v>
-      </c>
-      <c r="B1846" s="1" t="s">
-        <v>3554</v>
+        <v>2056</v>
+      </c>
+      <c r="B1846" s="98" t="s">
+        <v>3553</v>
       </c>
       <c r="C1846" s="97">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D1846" s="97" t="s">
-        <v>1710</v>
+        <v>2794</v>
       </c>
       <c r="F1846" s="97" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G1846" s="97" t="s">
-        <v>21</v>
+        <v>121</v>
       </c>
       <c r="H1846" s="97" t="s">
-        <v>3558</v>
+        <v>3636</v>
       </c>
       <c r="I1846" s="97" t="s">
-        <v>2983</v>
+        <v>3637</v>
       </c>
     </row>
     <row r="1847" spans="1:9" s="97" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1847" s="97">
-        <v>2058</v>
-      </c>
-      <c r="B1847" s="98" t="s">
-        <v>3555</v>
+        <v>2057</v>
+      </c>
+      <c r="B1847" s="1" t="s">
+        <v>3554</v>
+      </c>
+      <c r="C1847" s="97">
+        <v>1</v>
+      </c>
+      <c r="D1847" s="97" t="s">
+        <v>1710</v>
+      </c>
+      <c r="F1847" s="97" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1847" s="97" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1847" s="97" t="s">
+        <v>3558</v>
+      </c>
+      <c r="I1847" s="97" t="s">
+        <v>2983</v>
       </c>
     </row>
     <row r="1848" spans="1:9" s="97" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1848" s="97">
+        <v>2058</v>
+      </c>
+      <c r="B1848" s="98" t="s">
+        <v>3555</v>
+      </c>
+    </row>
+    <row r="1849" spans="1:9" s="97" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1849" s="97">
         <v>2059</v>
       </c>
-      <c r="B1848" s="98" t="s">
+      <c r="B1849" s="98" t="s">
         <v>3556</v>
       </c>
     </row>
-    <row r="1849" spans="1:9" s="94" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1849" s="94">
+    <row r="1850" spans="1:9" s="94" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1850" s="94">
         <v>2060</v>
       </c>
-      <c r="B1849" s="98" t="s">
+      <c r="B1850" s="98" t="s">
         <v>3557</v>
       </c>
-      <c r="C1849" s="94">
-        <v>5</v>
-      </c>
-      <c r="D1849" s="94" t="s">
+      <c r="C1850" s="94">
+        <v>5</v>
+      </c>
+      <c r="D1850" s="94" t="s">
         <v>1711</v>
       </c>
-      <c r="F1849" s="94" t="s">
+      <c r="F1850" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="G1849" s="94" t="s">
+      <c r="G1850" s="94" t="s">
         <v>121</v>
       </c>
-      <c r="H1849" s="94" t="s">
+      <c r="H1850" s="94" t="s">
         <v>3590</v>
       </c>
-      <c r="I1849" s="94" t="s">
+      <c r="I1850" s="94" t="s">
         <v>3297</v>
       </c>
     </row>
-    <row r="1850" spans="1:9" s="109" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1850" s="109">
+    <row r="1851" spans="1:9" s="109" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1851" s="109">
         <v>2061</v>
       </c>
-      <c r="B1850" s="1" t="s">
+      <c r="B1851" s="1" t="s">
         <v>3735</v>
       </c>
-      <c r="C1850" s="109">
+      <c r="C1851" s="109">
         <v>2</v>
       </c>
-      <c r="D1850" s="109" t="s">
-        <v>1713</v>
-      </c>
-      <c r="F1850" s="109" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1850" s="109" t="s">
+      <c r="D1851" s="109" t="s">
+        <v>1713</v>
+      </c>
+      <c r="F1851" s="109" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1851" s="109" t="s">
         <v>187</v>
       </c>
-      <c r="H1850" s="109" t="s">
+      <c r="H1851" s="109" t="s">
         <v>3736</v>
       </c>
-      <c r="I1850" s="109" t="s">
+      <c r="I1851" s="109" t="s">
         <v>3027</v>
-      </c>
-    </row>
-    <row r="1851" spans="1:9" s="100" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1851" s="100">
-        <v>2062</v>
-      </c>
-      <c r="B1851" s="1" t="s">
-        <v>3615</v>
-      </c>
-      <c r="F1851" s="100" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="1852" spans="1:9" s="100" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1852" s="100">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="B1852" s="1" t="s">
-        <v>3616</v>
+        <v>3615</v>
+      </c>
+      <c r="F1852" s="100" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="1853" spans="1:9" s="100" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1853" s="100">
-        <v>2064</v>
-      </c>
-      <c r="B1853" s="98" t="s">
-        <v>3617</v>
+        <v>2063</v>
+      </c>
+      <c r="B1853" s="1" t="s">
+        <v>3616</v>
       </c>
     </row>
     <row r="1854" spans="1:9" s="100" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1854" s="100">
-        <v>2065</v>
-      </c>
-      <c r="B1854" s="1" t="s">
-        <v>3618</v>
-      </c>
-      <c r="C1854" s="100">
-        <v>4</v>
-      </c>
-      <c r="D1854" s="100" t="s">
-        <v>1713</v>
-      </c>
-      <c r="F1854" s="100" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1854" s="100" t="s">
-        <v>187</v>
-      </c>
-      <c r="H1854" s="100" t="s">
-        <v>3619</v>
-      </c>
-      <c r="I1854" s="100" t="s">
-        <v>3613</v>
+        <v>2064</v>
+      </c>
+      <c r="B1854" s="98" t="s">
+        <v>3617</v>
       </c>
     </row>
     <row r="1855" spans="1:9" s="100" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1855" s="100">
-        <v>2068</v>
+        <v>2065</v>
       </c>
       <c r="B1855" s="1" t="s">
-        <v>3620</v>
+        <v>3618</v>
       </c>
       <c r="C1855" s="100">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1855" s="100" t="s">
         <v>1713</v>
       </c>
       <c r="F1855" s="100" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G1855" s="100" t="s">
-        <v>36</v>
+        <v>187</v>
       </c>
       <c r="H1855" s="100" t="s">
-        <v>3692</v>
+        <v>3619</v>
       </c>
       <c r="I1855" s="100" t="s">
-        <v>2983</v>
+        <v>3613</v>
       </c>
     </row>
     <row r="1856" spans="1:9" s="100" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1856" s="100">
-        <v>2069</v>
+        <v>2068</v>
       </c>
       <c r="B1856" s="1" t="s">
-        <v>3633</v>
+        <v>3620</v>
+      </c>
+      <c r="C1856" s="100">
+        <v>1</v>
+      </c>
+      <c r="D1856" s="100" t="s">
+        <v>1713</v>
+      </c>
+      <c r="F1856" s="100" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1856" s="100" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1856" s="100" t="s">
+        <v>3692</v>
+      </c>
+      <c r="I1856" s="100" t="s">
+        <v>2983</v>
       </c>
     </row>
     <row r="1857" spans="1:9" s="100" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1857" s="100">
-        <v>2070</v>
+        <v>2069</v>
       </c>
       <c r="B1857" s="1" t="s">
-        <v>3632</v>
+        <v>3633</v>
       </c>
     </row>
     <row r="1858" spans="1:9" s="100" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1858" s="100">
-        <v>2071</v>
+        <v>2070</v>
       </c>
       <c r="B1858" s="1" t="s">
-        <v>3631</v>
-      </c>
-      <c r="C1858" s="100">
-        <v>5</v>
-      </c>
-      <c r="D1858" s="100" t="s">
-        <v>1713</v>
-      </c>
-      <c r="F1858" s="100" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1858" s="100" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1858" s="100" t="s">
-        <v>3634</v>
-      </c>
-      <c r="I1858" s="100" t="s">
-        <v>3635</v>
+        <v>3632</v>
       </c>
     </row>
     <row r="1859" spans="1:9" s="100" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1859" s="100">
-        <v>2073</v>
+        <v>2071</v>
       </c>
       <c r="B1859" s="1" t="s">
-        <v>3630</v>
+        <v>3631</v>
       </c>
       <c r="C1859" s="100">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D1859" s="100" t="s">
         <v>1713</v>
       </c>
       <c r="F1859" s="100" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G1859" s="100" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="H1859" s="100" t="s">
-        <v>3723</v>
+        <v>3634</v>
       </c>
       <c r="I1859" s="100" t="s">
-        <v>2983</v>
+        <v>3635</v>
       </c>
     </row>
     <row r="1860" spans="1:9" s="100" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1860" s="100">
-        <v>2074</v>
+        <v>2073</v>
       </c>
       <c r="B1860" s="1" t="s">
-        <v>3629</v>
+        <v>3630</v>
+      </c>
+      <c r="C1860" s="100">
+        <v>2</v>
+      </c>
+      <c r="D1860" s="100" t="s">
+        <v>1713</v>
+      </c>
+      <c r="F1860" s="100" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1860" s="100" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1860" s="100" t="s">
+        <v>3723</v>
+      </c>
+      <c r="I1860" s="100" t="s">
+        <v>2983</v>
       </c>
     </row>
     <row r="1861" spans="1:9" s="100" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1861" s="100">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="B1861" s="1" t="s">
-        <v>3628</v>
-      </c>
-      <c r="C1861" s="100">
-        <v>2</v>
-      </c>
-      <c r="D1861" s="100" t="s">
-        <v>1713</v>
-      </c>
-      <c r="E1861" s="100" t="s">
-        <v>2918</v>
-      </c>
-      <c r="F1861" s="100" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1861" s="100" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1861" s="100" t="s">
-        <v>3703</v>
-      </c>
-      <c r="I1861" s="100" t="s">
-        <v>3027</v>
+        <v>3629</v>
       </c>
     </row>
     <row r="1862" spans="1:9" s="100" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1862" s="100">
-        <v>2076</v>
+        <v>2075</v>
       </c>
       <c r="B1862" s="1" t="s">
-        <v>3626</v>
+        <v>3628</v>
       </c>
       <c r="C1862" s="100">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1862" s="100" t="s">
         <v>1713</v>
@@ -57013,149 +57044,173 @@
         <v>2918</v>
       </c>
       <c r="F1862" s="100" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1862" s="100" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1862" s="100" t="s">
+        <v>3703</v>
+      </c>
+      <c r="I1862" s="100" t="s">
+        <v>3027</v>
+      </c>
+    </row>
+    <row r="1863" spans="1:9" s="100" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1863" s="100">
+        <v>2076</v>
+      </c>
+      <c r="B1863" s="1" t="s">
+        <v>3626</v>
+      </c>
+      <c r="C1863" s="100">
+        <v>4</v>
+      </c>
+      <c r="D1863" s="100" t="s">
+        <v>1713</v>
+      </c>
+      <c r="E1863" s="100" t="s">
+        <v>2918</v>
+      </c>
+      <c r="F1863" s="100" t="s">
         <v>12</v>
       </c>
-      <c r="G1862" s="100" t="s">
+      <c r="G1863" s="100" t="s">
         <v>187</v>
       </c>
-      <c r="H1862" s="100" t="s">
+      <c r="H1863" s="100" t="s">
         <v>3627</v>
       </c>
     </row>
-    <row r="1863" spans="1:9" s="107" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1863" s="107">
+    <row r="1864" spans="1:9" s="107" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1864" s="107">
         <v>2077</v>
       </c>
-      <c r="B1863" s="1" t="s">
+      <c r="B1864" s="1" t="s">
         <v>3724</v>
       </c>
-      <c r="C1863" s="107">
-        <v>3</v>
-      </c>
-      <c r="D1863" s="107" t="s">
-        <v>1713</v>
-      </c>
-      <c r="F1863" s="107" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1863" s="107" t="s">
+      <c r="C1864" s="107">
+        <v>3</v>
+      </c>
+      <c r="D1864" s="107" t="s">
+        <v>1713</v>
+      </c>
+      <c r="F1864" s="107" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1864" s="107" t="s">
         <v>187</v>
       </c>
-      <c r="H1863" s="107" t="s">
+      <c r="H1864" s="107" t="s">
         <v>3725</v>
       </c>
-      <c r="I1863" s="107" t="s">
+      <c r="I1864" s="107" t="s">
         <v>3224</v>
-      </c>
-    </row>
-    <row r="1864" spans="1:9" s="100" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1864" s="100">
-        <v>2078</v>
-      </c>
-      <c r="B1864" s="1" t="s">
-        <v>3625</v>
       </c>
     </row>
     <row r="1865" spans="1:9" s="100" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1865" s="100">
-        <v>2079</v>
+        <v>2078</v>
       </c>
       <c r="B1865" s="1" t="s">
-        <v>3624</v>
-      </c>
-      <c r="C1865" s="100">
-        <v>2</v>
-      </c>
-      <c r="D1865" s="100" t="s">
-        <v>1713</v>
-      </c>
-      <c r="F1865" s="100" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1865" s="100" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1865" s="100" t="s">
-        <v>3685</v>
-      </c>
-      <c r="I1865" s="100" t="s">
-        <v>2983</v>
+        <v>3625</v>
       </c>
     </row>
     <row r="1866" spans="1:9" s="100" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1866" s="100">
-        <v>2080</v>
+        <v>2079</v>
       </c>
       <c r="B1866" s="1" t="s">
-        <v>3623</v>
+        <v>3624</v>
+      </c>
+      <c r="C1866" s="100">
+        <v>2</v>
+      </c>
+      <c r="D1866" s="100" t="s">
+        <v>1713</v>
+      </c>
+      <c r="F1866" s="100" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1866" s="100" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1866" s="100" t="s">
+        <v>3685</v>
+      </c>
+      <c r="I1866" s="100" t="s">
+        <v>2983</v>
       </c>
     </row>
     <row r="1867" spans="1:9" s="100" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1867" s="100">
+        <v>2080</v>
+      </c>
+      <c r="B1867" s="1" t="s">
+        <v>3623</v>
+      </c>
+      <c r="C1867" s="100">
+        <v>2</v>
+      </c>
+      <c r="D1867" s="100" t="s">
+        <v>1713</v>
+      </c>
+      <c r="E1867" s="100" t="s">
+        <v>2918</v>
+      </c>
+      <c r="F1867" s="100" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1867" s="100" t="s">
+        <v>455</v>
+      </c>
+      <c r="H1867" s="100" t="s">
+        <v>3790</v>
+      </c>
+      <c r="I1867" s="100" t="s">
+        <v>3011</v>
+      </c>
+    </row>
+    <row r="1868" spans="1:9" s="100" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1868" s="100">
         <v>2081</v>
       </c>
-      <c r="B1867" s="1" t="s">
+      <c r="B1868" s="1" t="s">
         <v>3621</v>
       </c>
-      <c r="C1867" s="100">
+      <c r="C1868" s="100">
         <v>4</v>
       </c>
-      <c r="D1867" s="100" t="s">
+      <c r="D1868" s="100" t="s">
         <v>1711</v>
       </c>
-      <c r="F1867" s="100" t="s">
+      <c r="F1868" s="100" t="s">
         <v>12</v>
       </c>
-      <c r="G1867" s="100" t="s">
+      <c r="G1868" s="100" t="s">
         <v>121</v>
       </c>
-      <c r="H1867" s="100" t="s">
+      <c r="H1868" s="100" t="s">
         <v>3622</v>
       </c>
-      <c r="I1867" s="100" t="s">
+      <c r="I1868" s="100" t="s">
         <v>3009</v>
-      </c>
-    </row>
-    <row r="1868" spans="1:9" s="104" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1868" s="104">
-        <v>2083</v>
-      </c>
-      <c r="B1868" s="1" t="s">
-        <v>3671</v>
       </c>
     </row>
     <row r="1869" spans="1:9" s="104" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1869" s="104">
-        <v>2085</v>
+        <v>2083</v>
       </c>
       <c r="B1869" s="1" t="s">
-        <v>3672</v>
-      </c>
-      <c r="C1869" s="104">
-        <v>2</v>
-      </c>
-      <c r="D1869" s="104" t="s">
-        <v>1713</v>
-      </c>
-      <c r="F1869" s="104" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1869" s="104" t="s">
-        <v>36</v>
-      </c>
-      <c r="H1869" s="104" t="s">
-        <v>3673</v>
-      </c>
-      <c r="I1869" s="104" t="s">
-        <v>2983</v>
+        <v>3671</v>
       </c>
     </row>
     <row r="1870" spans="1:9" s="104" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1870" s="104">
-        <v>2086</v>
+        <v>2085</v>
       </c>
       <c r="B1870" s="1" t="s">
-        <v>3674</v>
+        <v>3672</v>
       </c>
       <c r="C1870" s="104">
         <v>2</v>
@@ -57164,13 +57219,13 @@
         <v>1713</v>
       </c>
       <c r="F1870" s="104" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G1870" s="104" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="H1870" s="104" t="s">
-        <v>3726</v>
+        <v>3673</v>
       </c>
       <c r="I1870" s="104" t="s">
         <v>2983</v>
@@ -57178,422 +57233,436 @@
     </row>
     <row r="1871" spans="1:9" s="104" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1871" s="104">
-        <v>2087</v>
+        <v>2086</v>
       </c>
       <c r="B1871" s="1" t="s">
-        <v>3675</v>
+        <v>3674</v>
+      </c>
+      <c r="C1871" s="104">
+        <v>2</v>
+      </c>
+      <c r="D1871" s="104" t="s">
+        <v>1713</v>
+      </c>
+      <c r="F1871" s="104" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1871" s="104" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1871" s="104" t="s">
+        <v>3726</v>
+      </c>
+      <c r="I1871" s="104" t="s">
+        <v>2983</v>
       </c>
     </row>
     <row r="1872" spans="1:9" s="104" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1872" s="104">
-        <v>2088</v>
+        <v>2087</v>
       </c>
       <c r="B1872" s="1" t="s">
-        <v>3676</v>
-      </c>
-      <c r="C1872" s="104">
-        <v>4</v>
-      </c>
-      <c r="D1872" s="104" t="s">
-        <v>1713</v>
-      </c>
-      <c r="F1872" s="104" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1872" s="104" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1872" s="104" t="s">
-        <v>3677</v>
-      </c>
-      <c r="I1872" s="104" t="s">
-        <v>3027</v>
+        <v>3675</v>
       </c>
     </row>
     <row r="1873" spans="1:9" s="104" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1873" s="104">
-        <v>2089</v>
+        <v>2088</v>
       </c>
       <c r="B1873" s="1" t="s">
-        <v>3678</v>
+        <v>3676</v>
       </c>
       <c r="C1873" s="104">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1873" s="104" t="s">
         <v>1713</v>
       </c>
       <c r="F1873" s="104" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G1873" s="104" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H1873" s="104" t="s">
-        <v>3679</v>
+        <v>3677</v>
+      </c>
+      <c r="I1873" s="104" t="s">
+        <v>3027</v>
       </c>
     </row>
     <row r="1874" spans="1:9" s="104" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1874" s="104">
-        <v>2090</v>
+        <v>2089</v>
       </c>
       <c r="B1874" s="1" t="s">
-        <v>3680</v>
+        <v>3678</v>
       </c>
       <c r="C1874" s="104">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1874" s="104" t="s">
         <v>1713</v>
       </c>
       <c r="F1874" s="104" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G1874" s="104" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="H1874" s="104" t="s">
-        <v>3681</v>
-      </c>
-      <c r="I1874" s="104" t="s">
-        <v>2983</v>
+        <v>3679</v>
       </c>
     </row>
     <row r="1875" spans="1:9" s="104" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1875" s="104">
-        <v>2091</v>
-      </c>
-      <c r="B1875" s="98" t="s">
-        <v>3682</v>
+        <v>2090</v>
+      </c>
+      <c r="B1875" s="1" t="s">
+        <v>3680</v>
+      </c>
+      <c r="C1875" s="104">
+        <v>2</v>
+      </c>
+      <c r="D1875" s="104" t="s">
+        <v>1713</v>
+      </c>
+      <c r="F1875" s="104" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1875" s="104" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1875" s="104" t="s">
+        <v>3681</v>
+      </c>
+      <c r="I1875" s="104" t="s">
+        <v>2983</v>
       </c>
     </row>
     <row r="1876" spans="1:9" s="104" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1876" s="104">
-        <v>2092</v>
-      </c>
-      <c r="B1876" s="1" t="s">
-        <v>3683</v>
-      </c>
-      <c r="C1876" s="104">
-        <v>4</v>
-      </c>
-      <c r="D1876" s="104" t="s">
-        <v>1713</v>
-      </c>
-      <c r="E1876" s="104" t="s">
-        <v>2906</v>
-      </c>
-      <c r="F1876" s="104" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1876" s="104" t="s">
-        <v>187</v>
-      </c>
-      <c r="H1876" s="104" t="s">
-        <v>3704</v>
-      </c>
-      <c r="I1876" s="104" t="s">
-        <v>3011</v>
+        <v>2091</v>
+      </c>
+      <c r="B1876" s="98" t="s">
+        <v>3682</v>
       </c>
     </row>
     <row r="1877" spans="1:9" s="104" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1877" s="104">
+        <v>2092</v>
+      </c>
+      <c r="B1877" s="1" t="s">
+        <v>3683</v>
+      </c>
+      <c r="C1877" s="104">
+        <v>4</v>
+      </c>
+      <c r="D1877" s="104" t="s">
+        <v>1713</v>
+      </c>
+      <c r="E1877" s="104" t="s">
+        <v>2906</v>
+      </c>
+      <c r="F1877" s="104" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1877" s="104" t="s">
+        <v>187</v>
+      </c>
+      <c r="H1877" s="104" t="s">
+        <v>3704</v>
+      </c>
+      <c r="I1877" s="104" t="s">
+        <v>3011</v>
+      </c>
+    </row>
+    <row r="1878" spans="1:9" s="104" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1878" s="104">
         <v>2093</v>
       </c>
-      <c r="B1877" s="1" t="s">
+      <c r="B1878" s="1" t="s">
         <v>3684</v>
       </c>
     </row>
-    <row r="1878" spans="1:9" s="107" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1878" s="107">
+    <row r="1879" spans="1:9" s="107" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1879" s="107">
         <v>2094</v>
       </c>
-      <c r="B1878" s="1" t="s">
+      <c r="B1879" s="1" t="s">
         <v>3727</v>
       </c>
-      <c r="C1878" s="107">
+      <c r="C1879" s="107">
         <v>2</v>
       </c>
-      <c r="D1878" s="107" t="s">
-        <v>1713</v>
-      </c>
-      <c r="F1878" s="107" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1878" s="107" t="s">
+      <c r="D1879" s="107" t="s">
+        <v>1713</v>
+      </c>
+      <c r="F1879" s="107" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1879" s="107" t="s">
         <v>121</v>
       </c>
-      <c r="H1878" s="107" t="s">
+      <c r="H1879" s="107" t="s">
         <v>3725</v>
       </c>
-      <c r="I1878" s="107" t="s">
+      <c r="I1879" s="107" t="s">
         <v>3728</v>
       </c>
     </row>
-    <row r="1879" spans="1:9" s="112" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1879" s="112">
+    <row r="1880" spans="1:9" s="112" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1880" s="112">
         <v>2096</v>
       </c>
-      <c r="B1879" s="98" t="s">
+      <c r="B1880" s="98" t="s">
         <v>3760</v>
       </c>
-      <c r="C1879" s="112">
-        <v>3</v>
-      </c>
-      <c r="D1879" s="112" t="s">
-        <v>1713</v>
-      </c>
-      <c r="E1879" s="112" t="s">
+      <c r="C1880" s="112">
+        <v>3</v>
+      </c>
+      <c r="D1880" s="112" t="s">
+        <v>1713</v>
+      </c>
+      <c r="E1880" s="112" t="s">
         <v>2918</v>
       </c>
-      <c r="F1879" s="112" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1879" s="112" t="s">
+      <c r="F1880" s="112" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1880" s="112" t="s">
         <v>140</v>
       </c>
-      <c r="H1879" s="112" t="s">
+      <c r="H1880" s="112" t="s">
         <v>3761</v>
       </c>
-      <c r="I1879" s="112" t="s">
+      <c r="I1880" s="112" t="s">
         <v>2983</v>
       </c>
     </row>
-    <row r="1880" spans="1:9" s="109" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1880" s="109">
+    <row r="1881" spans="1:9" s="109" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1881" s="109">
         <v>2097</v>
       </c>
-      <c r="B1880" s="1" t="s">
+      <c r="B1881" s="1" t="s">
         <v>3739</v>
       </c>
-      <c r="C1880" s="109">
+      <c r="C1881" s="109">
         <v>4</v>
       </c>
-      <c r="D1880" s="109" t="s">
-        <v>1713</v>
-      </c>
-      <c r="E1880" s="109" t="s">
+      <c r="D1881" s="109" t="s">
+        <v>1713</v>
+      </c>
+      <c r="E1881" s="109" t="s">
         <v>2918</v>
       </c>
-      <c r="F1880" s="109" t="s">
+      <c r="F1881" s="109" t="s">
         <v>12</v>
       </c>
-      <c r="G1880" s="109" t="s">
+      <c r="G1881" s="109" t="s">
         <v>187</v>
       </c>
-      <c r="H1880" s="109" t="s">
+      <c r="H1881" s="109" t="s">
         <v>3740</v>
       </c>
-      <c r="I1880" s="109" t="s">
+      <c r="I1881" s="109" t="s">
         <v>2983</v>
       </c>
     </row>
-    <row r="1881" spans="1:9" s="114" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1881" s="114">
+    <row r="1882" spans="1:9" s="114" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1882" s="114">
         <v>2098</v>
       </c>
-      <c r="B1881" s="1" t="s">
+      <c r="B1882" s="1" t="s">
         <v>3777</v>
       </c>
-      <c r="C1881" s="114">
-        <v>3</v>
-      </c>
-      <c r="D1881" s="114" t="s">
+      <c r="C1882" s="114">
+        <v>3</v>
+      </c>
+      <c r="D1882" s="114" t="s">
         <v>1706</v>
       </c>
-      <c r="F1881" s="114" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1881" s="114" t="s">
+      <c r="F1882" s="114" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1882" s="114" t="s">
         <v>41</v>
       </c>
-      <c r="H1881" s="114" t="s">
+      <c r="H1882" s="114" t="s">
         <v>3778</v>
       </c>
-      <c r="I1881" s="114" t="s">
+      <c r="I1882" s="114" t="s">
         <v>3011</v>
       </c>
     </row>
-    <row r="1882" spans="1:9" s="112" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1882" s="112">
+    <row r="1883" spans="1:9" s="112" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1883" s="112">
         <v>2099</v>
       </c>
-      <c r="B1882" s="98" t="s">
+      <c r="B1883" s="98" t="s">
         <v>3762</v>
       </c>
-      <c r="C1882" s="112">
-        <v>3</v>
-      </c>
-      <c r="D1882" s="112" t="s">
-        <v>1713</v>
-      </c>
-      <c r="E1882" s="112" t="s">
+      <c r="C1883" s="112">
+        <v>3</v>
+      </c>
+      <c r="D1883" s="112" t="s">
+        <v>1713</v>
+      </c>
+      <c r="E1883" s="112" t="s">
         <v>2918</v>
       </c>
-      <c r="F1882" s="112" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1882" s="112" t="s">
+      <c r="F1883" s="112" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1883" s="112" t="s">
         <v>21</v>
       </c>
-      <c r="H1882" s="112" t="s">
+      <c r="H1883" s="112" t="s">
         <v>3763</v>
       </c>
-      <c r="I1882" s="112" t="s">
+      <c r="I1883" s="112" t="s">
         <v>3011</v>
       </c>
     </row>
-    <row r="1883" spans="1:9" s="115" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1883" s="115">
+    <row r="1884" spans="1:9" s="115" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1884" s="115">
         <v>2102</v>
       </c>
-      <c r="B1883" s="1" t="s">
+      <c r="B1884" s="1" t="s">
         <v>3779</v>
       </c>
-      <c r="C1883" s="115">
+      <c r="C1884" s="115">
         <v>4</v>
       </c>
-      <c r="D1883" s="115" t="s">
-        <v>1713</v>
-      </c>
-      <c r="E1883" s="115" t="s">
+      <c r="D1884" s="115" t="s">
+        <v>1713</v>
+      </c>
+      <c r="E1884" s="115" t="s">
         <v>2918</v>
       </c>
-      <c r="F1883" s="115" t="s">
+      <c r="F1884" s="115" t="s">
         <v>12</v>
       </c>
-      <c r="G1883" s="115" t="s">
+      <c r="G1884" s="115" t="s">
         <v>455</v>
       </c>
-      <c r="H1883" s="115" t="s">
+      <c r="H1884" s="115" t="s">
         <v>3780</v>
       </c>
-      <c r="I1883" s="115" t="s">
+      <c r="I1884" s="115" t="s">
         <v>3011</v>
       </c>
     </row>
-    <row r="1884" spans="1:9" s="112" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1884" s="112">
+    <row r="1885" spans="1:9" s="112" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1885" s="112">
         <v>2103</v>
       </c>
-      <c r="B1884" s="1" t="s">
+      <c r="B1885" s="1" t="s">
         <v>3764</v>
       </c>
-      <c r="C1884" s="112">
+      <c r="C1885" s="112">
         <v>1</v>
       </c>
-      <c r="D1884" s="112" t="s">
-        <v>1713</v>
-      </c>
-      <c r="F1884" s="112" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1884" s="112" t="s">
+      <c r="D1885" s="112" t="s">
+        <v>1713</v>
+      </c>
+      <c r="F1885" s="112" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1885" s="112" t="s">
         <v>21</v>
       </c>
-      <c r="H1884" s="112" t="s">
+      <c r="H1885" s="112" t="s">
         <v>3765</v>
       </c>
-      <c r="I1884" s="112" t="s">
+      <c r="I1885" s="112" t="s">
         <v>2983</v>
-      </c>
-    </row>
-    <row r="1885" spans="1:9" s="115" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1885" s="115">
-        <v>2106</v>
-      </c>
-      <c r="B1885" s="98" t="s">
-        <v>3786</v>
-      </c>
-      <c r="C1885" s="115">
-        <v>4</v>
-      </c>
-      <c r="D1885" s="115" t="s">
-        <v>1713</v>
-      </c>
-      <c r="F1885" s="115" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1885" s="115" t="s">
-        <v>619</v>
-      </c>
-      <c r="H1885" s="115" t="s">
-        <v>3787</v>
-      </c>
-      <c r="I1885" s="115" t="s">
-        <v>3011</v>
       </c>
     </row>
     <row r="1886" spans="1:9" s="115" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1886" s="115">
+        <v>2106</v>
+      </c>
+      <c r="B1886" s="98" t="s">
+        <v>3786</v>
+      </c>
+      <c r="C1886" s="115">
+        <v>4</v>
+      </c>
+      <c r="D1886" s="115" t="s">
+        <v>1713</v>
+      </c>
+      <c r="F1886" s="115" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1886" s="115" t="s">
+        <v>619</v>
+      </c>
+      <c r="H1886" s="115" t="s">
+        <v>3787</v>
+      </c>
+      <c r="I1886" s="115" t="s">
+        <v>3011</v>
+      </c>
+    </row>
+    <row r="1887" spans="1:9" s="115" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1887" s="115">
         <v>2108</v>
       </c>
-      <c r="B1886" s="1" t="s">
+      <c r="B1887" s="1" t="s">
         <v>3784</v>
       </c>
-      <c r="C1886" s="115">
+      <c r="C1887" s="115">
         <v>1</v>
       </c>
-      <c r="D1886" s="115" t="s">
-        <v>1713</v>
-      </c>
-      <c r="F1886" s="115" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1886" s="115" t="s">
+      <c r="D1887" s="115" t="s">
+        <v>1713</v>
+      </c>
+      <c r="F1887" s="115" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1887" s="115" t="s">
         <v>36</v>
       </c>
-      <c r="H1886" s="115" t="s">
+      <c r="H1887" s="115" t="s">
         <v>3785</v>
       </c>
-      <c r="I1886" s="115" t="s">
+      <c r="I1887" s="115" t="s">
         <v>2983</v>
       </c>
     </row>
-    <row r="1887" spans="1:9" s="100" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1887" s="100">
+    <row r="1888" spans="1:9" s="100" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1888" s="100">
         <v>2111</v>
       </c>
-      <c r="B1887" s="98" t="s">
+      <c r="B1888" s="98" t="s">
         <v>3781</v>
       </c>
-      <c r="C1887" s="100">
+      <c r="C1888" s="100">
         <v>4</v>
       </c>
-      <c r="D1887" s="100" t="s">
-        <v>1713</v>
-      </c>
-      <c r="F1887" s="100" t="s">
+      <c r="D1888" s="100" t="s">
+        <v>1713</v>
+      </c>
+      <c r="F1888" s="100" t="s">
         <v>12</v>
       </c>
-      <c r="G1887" s="100" t="s">
+      <c r="G1888" s="100" t="s">
         <v>41</v>
       </c>
-      <c r="H1887" s="100" t="s">
+      <c r="H1888" s="100" t="s">
         <v>3782</v>
       </c>
-      <c r="I1887" s="100" t="s">
+      <c r="I1888" s="100" t="s">
         <v>3011</v>
       </c>
     </row>
-    <row r="1888" spans="1:9" s="115" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B1888" s="98"/>
-    </row>
-    <row r="1889" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A1889" s="116" t="s">
-        <v>1714</v>
-      </c>
-      <c r="B1889" s="116"/>
-      <c r="C1889" s="116"/>
-      <c r="D1889" s="116"/>
-      <c r="E1889" s="116"/>
-      <c r="F1889" s="116"/>
-      <c r="G1889" s="116"/>
-      <c r="H1889" s="116"/>
+    <row r="1889" spans="1:8" s="115" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B1889" s="98"/>
     </row>
     <row r="1890" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1890" s="117" t="s">
-        <v>2745</v>
+        <v>1714</v>
       </c>
       <c r="B1890" s="117"/>
       <c r="C1890" s="117"/>
@@ -57603,11 +57672,23 @@
       <c r="G1890" s="117"/>
       <c r="H1890" s="117"/>
     </row>
+    <row r="1891" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A1891" s="118" t="s">
+        <v>2745</v>
+      </c>
+      <c r="B1891" s="118"/>
+      <c r="C1891" s="118"/>
+      <c r="D1891" s="118"/>
+      <c r="E1891" s="118"/>
+      <c r="F1891" s="118"/>
+      <c r="G1891" s="118"/>
+      <c r="H1891" s="118"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:J1890" xr:uid="{CB07CE66-8F15-46FF-A90A-43FDB2DB428F}"/>
+  <autoFilter ref="A1:J1891" xr:uid="{CB07CE66-8F15-46FF-A90A-43FDB2DB428F}"/>
   <mergeCells count="2">
-    <mergeCell ref="A1889:H1889"/>
     <mergeCell ref="A1890:H1890"/>
+    <mergeCell ref="A1891:H1891"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" display="https://leetcode.com/problems/zigzag-conversion" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -59099,8 +59180,8 @@
     <hyperlink ref="B1743" r:id="rId1487" display="https://leetcode.com/problems/maximum-number-of-words-you-can-type" xr:uid="{8E21FA9C-EBEA-4E91-AD8C-B9177EF763E8}"/>
     <hyperlink ref="B1710" r:id="rId1488" xr:uid="{A3071BE6-0034-43AE-BDF8-5799BAD6EB13}"/>
     <hyperlink ref="B1711" r:id="rId1489" display="https://leetcode.com/problems/merge-triplets-to-form-target-triplet" xr:uid="{EFBBCE90-7311-45FC-B707-92A6E1252460}"/>
-    <hyperlink ref="B1764" r:id="rId1490" xr:uid="{B409B537-7A7A-463A-A75E-53528F8E2853}"/>
-    <hyperlink ref="B1759" r:id="rId1491" xr:uid="{02C2B215-E3E3-4548-A2F1-DDB689E2C454}"/>
+    <hyperlink ref="B1765" r:id="rId1490" xr:uid="{B409B537-7A7A-463A-A75E-53528F8E2853}"/>
+    <hyperlink ref="B1760" r:id="rId1491" xr:uid="{02C2B215-E3E3-4548-A2F1-DDB689E2C454}"/>
     <hyperlink ref="B1755" r:id="rId1492" display="https://leetcode.com/problems/delete-duplicate-folders-in-system" xr:uid="{16B4D03D-ED3A-423A-8036-4E96E3C16067}"/>
     <hyperlink ref="B1751" r:id="rId1493" xr:uid="{7C979346-7740-4A52-9F7D-050A4F57896C}"/>
     <hyperlink ref="B1740" r:id="rId1494" display="https://leetcode.com/problems/painting-a-grid-with-three-different-colors" xr:uid="{B5ED7AD1-6A0E-45F7-B1AC-3F3817E32416}"/>
@@ -59110,7 +59191,7 @@
     <hyperlink ref="B1717" r:id="rId1498" display="https://leetcode.com/problems/count-sub-islands" xr:uid="{618FF829-5060-41A7-93F8-CF7981307DFA}"/>
     <hyperlink ref="B1716" r:id="rId1499" xr:uid="{3A86AED8-C09D-4BCF-A1D4-ADDD6E740309}"/>
     <hyperlink ref="B1734" r:id="rId1500" display="https://leetcode.com/problems/count-square-sum-triples" xr:uid="{B8E45F4A-37F7-4057-AB54-687DAEB27C7E}"/>
-    <hyperlink ref="B1756" r:id="rId1501" display="https://leetcode.com/problems/three-divisors" xr:uid="{3D0A8A80-CBA1-408D-A123-C27B4A097F3A}"/>
+    <hyperlink ref="B1757" r:id="rId1501" display="https://leetcode.com/problems/three-divisors" xr:uid="{3D0A8A80-CBA1-408D-A123-C27B4A097F3A}"/>
     <hyperlink ref="B1721" r:id="rId1502" display="https://leetcode.com/problems/remove-all-occurrences-of-a-substring" xr:uid="{1FD774A7-EA6E-486E-B5B2-4DB1A2CAD603}"/>
     <hyperlink ref="B1722" r:id="rId1503" display="https://leetcode.com/problems/maximum-alternating-subsequence-sum" xr:uid="{FD99D4AE-DB21-4402-8FA7-0B910189496A}"/>
     <hyperlink ref="B1730" r:id="rId1504" display="https://leetcode.com/problems/eliminate-maximum-number-of-monsters" xr:uid="{2F2B9E94-63AD-422B-9A63-FD6F7EE7C629}"/>
@@ -59124,163 +59205,164 @@
     <hyperlink ref="B1750" r:id="rId1512" display="https://leetcode.com/problems/describe-the-painting" xr:uid="{DA3A709A-251A-4B40-A861-28FC5064A859}"/>
     <hyperlink ref="B1753" r:id="rId1513" display="https://leetcode.com/problems/largest-number-after-mutating-substring" xr:uid="{4886B7BF-B766-44D2-92F9-16172E855E7A}"/>
     <hyperlink ref="B1754" r:id="rId1514" display="https://leetcode.com/problems/maximum-compatibility-score-sum" xr:uid="{6AA7EF38-CB22-4349-9BCA-68EEDB6BA60F}"/>
-    <hyperlink ref="B1757" r:id="rId1515" xr:uid="{780DD737-38FC-4E52-8E17-E1ED7D4828C2}"/>
-    <hyperlink ref="B1758" r:id="rId1516" xr:uid="{BD5305FA-C3E6-436C-A3A3-3B2AEC015409}"/>
-    <hyperlink ref="B1762" r:id="rId1517" display="https://leetcode.com/problems/check-if-move-is-legal" xr:uid="{037D07CA-C5E5-46F7-8A15-FF086FD68CEA}"/>
-    <hyperlink ref="B1763" r:id="rId1518" xr:uid="{4514D26A-1DEB-4898-B0C0-E35C803A917D}"/>
-    <hyperlink ref="B1765" r:id="rId1519" display="https://leetcode.com/problems/check-if-string-is-a-prefix-of-array" xr:uid="{ED238B07-DD69-47D7-9C99-70206F56431B}"/>
-    <hyperlink ref="B1766" r:id="rId1520" display="https://leetcode.com/problems/remove-stones-to-minimize-the-total" xr:uid="{A477D00D-45DD-4A17-8EC1-CAB601E47AFE}"/>
-    <hyperlink ref="B1767" r:id="rId1521" xr:uid="{7AED54AB-CAC5-468D-AEA4-30EF78C123D5}"/>
-    <hyperlink ref="B1768" r:id="rId1522" xr:uid="{C8B643C6-E285-4944-9FD0-0F3F95420C77}"/>
-    <hyperlink ref="B1770" r:id="rId1523" display="https://leetcode.com/problems/number-of-strings-that-appear-as-substrings-in-word" xr:uid="{9D135439-6404-469A-B0F3-B3CB3CC48006}"/>
-    <hyperlink ref="B1771" r:id="rId1524" xr:uid="{2D13F7E0-CA9F-41A5-9A27-D14C8E89D1D6}"/>
-    <hyperlink ref="B1772" r:id="rId1525" xr:uid="{6F03E324-C26B-45D0-A69E-667D05BCF4A6}"/>
-    <hyperlink ref="B1773" r:id="rId1526" display="https://leetcode.com/problems/last-day-where-you-can-still-cross" xr:uid="{6C0C733A-DFFC-47C4-8A74-549CE9EEC902}"/>
-    <hyperlink ref="B1774" r:id="rId1527" display="https://leetcode.com/problems/find-if-path-exists-in-graph" xr:uid="{280D74AA-F965-40BB-989B-D14BCDFED54C}"/>
-    <hyperlink ref="B1776" r:id="rId1528" xr:uid="{4E722A0F-0542-4D0F-944F-81A1882BDB67}"/>
-    <hyperlink ref="B1777" r:id="rId1529" display="https://leetcode.com/problems/maximum-matrix-sum" xr:uid="{85554A11-E7CC-4623-9832-CA974B90C2B5}"/>
-    <hyperlink ref="B1778" r:id="rId1530" display="https://leetcode.com/problems/number-of-ways-to-arrive-at-destination" xr:uid="{7C2B1C34-BFA8-4D6A-8BFD-2D13258003E9}"/>
-    <hyperlink ref="B1779" r:id="rId1531" display="https://leetcode.com/problems/number-of-ways-to-separate-numbers" xr:uid="{A1CD6E14-B30D-48A8-9C50-989B50718C66}"/>
-    <hyperlink ref="B1780" r:id="rId1532" display="https://leetcode.com/problems/find-greatest-common-divisor-of-array" xr:uid="{F13EAFBC-B285-401C-91EE-AC9A939A3669}"/>
-    <hyperlink ref="B1781" r:id="rId1533" display="https://leetcode.com/problems/find-unique-binary-string" xr:uid="{7ED88115-1A51-43E5-9996-61390F3D3742}"/>
-    <hyperlink ref="B1782" r:id="rId1534" xr:uid="{307A70C2-1A17-4713-8815-4B08BE79BC16}"/>
-    <hyperlink ref="B1783" r:id="rId1535" display="https://leetcode.com/problems/find-array-given-subset-sums" xr:uid="{24E810D6-01EB-4D57-B971-B9D6AD7C8465}"/>
-    <hyperlink ref="B1785" r:id="rId1536" xr:uid="{3AC2DE31-2D9A-47A8-BD4F-9E1BA94A6DBE}"/>
-    <hyperlink ref="B1786" r:id="rId1537" display="https://leetcode.com/problems/find-the-kth-largest-integer-in-the-array" xr:uid="{0E5050F7-33DD-4568-A9C5-F0BF63ABEF41}"/>
-    <hyperlink ref="B1787" r:id="rId1538" xr:uid="{74CBB63A-C6EA-4857-9FF1-DE3E60CAE238}"/>
-    <hyperlink ref="B1788" r:id="rId1539" display="https://leetcode.com/problems/number-of-unique-good-subsequences" xr:uid="{853BAECC-5442-42F3-89D7-4E811047F33B}"/>
-    <hyperlink ref="B1792" r:id="rId1540" display="https://leetcode.com/problems/operations-on-tree" xr:uid="{686B754D-FA97-4909-9B6F-604722737483}"/>
-    <hyperlink ref="B1793" r:id="rId1541" display="https://leetcode.com/problems/the-number-of-good-subsets" xr:uid="{CB7AE48D-6C96-4D56-9DD1-F6A59CF37370}"/>
-    <hyperlink ref="B1794" r:id="rId1542" display="https://leetcode.com/problems/count-special-quadruplets" xr:uid="{661C9BC6-DD29-4EEE-BDF8-A0046C960AAA}"/>
-    <hyperlink ref="B1795" r:id="rId1543" xr:uid="{4367FE0D-6B66-4E7B-B67D-D44932CCF53D}"/>
-    <hyperlink ref="B1797" r:id="rId1544" display="https://leetcode.com/problems/gcd-sort-of-an-array" xr:uid="{D51FF9FA-E1D0-4876-9671-0BECACA20C8E}"/>
-    <hyperlink ref="B1796" r:id="rId1545" xr:uid="{440A2BB5-BF04-43D0-B17E-3DB556DFF3D2}"/>
-    <hyperlink ref="B1799" r:id="rId1546" display="https://leetcode.com/problems/reverse-prefix-of-word" xr:uid="{CB9978C3-6422-40BB-8564-3202082A0B1A}"/>
-    <hyperlink ref="B1800" r:id="rId1547" xr:uid="{7923A955-AD8E-4813-A991-8D8A22CAA454}"/>
-    <hyperlink ref="B1801" r:id="rId1548" display="https://leetcode.com/problems/maximum-product-of-the-length-of-two-palindromic-subsequences" xr:uid="{8F9B0876-A47C-4346-BB3A-B28A932D0561}"/>
-    <hyperlink ref="B1802" r:id="rId1549" display="https://leetcode.com/problems/smallest-missing-genetic-value-in-each-subtree" xr:uid="{7B841850-C4EB-4B17-86ED-3C469EA47416}"/>
-    <hyperlink ref="B1804" r:id="rId1550" xr:uid="{8B9BFB7A-1876-405D-81AE-5D45D7B9CC99}"/>
-    <hyperlink ref="B1805" r:id="rId1551" display="https://leetcode.com/problems/find-original-array-from-doubled-array" xr:uid="{941F4524-2AB9-4B82-8506-2B0DDAE8E0C8}"/>
-    <hyperlink ref="B1806" r:id="rId1552" display="https://leetcode.com/problems/maximum-earnings-from-taxi" xr:uid="{2C7D8613-3F51-4CE1-89B7-0D2175417F32}"/>
-    <hyperlink ref="B1807" r:id="rId1553" display="https://leetcode.com/problems/minimum-number-of-operations-to-make-array-continuous" xr:uid="{7CA9A60C-BA8C-481E-B3A3-B022E1E11E93}"/>
-    <hyperlink ref="B1808" r:id="rId1554" display="https://leetcode.com/problems/final-value-of-variable-after-performing-operations" xr:uid="{878BB048-0ECD-4FAC-A96B-1A705EB95DEF}"/>
-    <hyperlink ref="B1809" r:id="rId1555" display="https://leetcode.com/problems/sum-of-beauty-in-the-array" xr:uid="{73619F0E-5E06-4E41-906A-4E0AE98A22B5}"/>
-    <hyperlink ref="B1810" r:id="rId1556" display="https://leetcode.com/problems/detect-squares" xr:uid="{973708F6-B02C-4F3B-9CD7-658CC285620D}"/>
-    <hyperlink ref="B1811" r:id="rId1557" display="https://leetcode.com/problems/longest-subsequence-repeated-k-times" xr:uid="{4C762D87-A9C5-4BD4-912E-7DF86A9410E2}"/>
-    <hyperlink ref="B1812" r:id="rId1558" xr:uid="{FCD62007-CC5B-42E2-9137-1D08C11A57E4}"/>
-    <hyperlink ref="B1813" r:id="rId1559" display="https://leetcode.com/problems/grid-game" xr:uid="{6BAF02C7-CF0B-4611-97F7-71B80B95A205}"/>
-    <hyperlink ref="B1814" r:id="rId1560" display="https://leetcode.com/problems/check-if-word-can-be-placed-in-crossword" xr:uid="{302A26FF-631E-42F2-9B60-01DDABC35248}"/>
-    <hyperlink ref="B1815" r:id="rId1561" display="https://leetcode.com/problems/the-score-of-students-solving-math-expression" xr:uid="{3D10BE58-1B14-440E-9A39-40F0A7CCC3A0}"/>
-    <hyperlink ref="B1817" r:id="rId1562" display="https://leetcode.com/problems/convert-1d-array-into-2d-array" xr:uid="{412ED7EE-16C1-4FBE-88AA-44300DC61B17}"/>
-    <hyperlink ref="B1818" r:id="rId1563" display="https://leetcode.com/problems/number-of-pairs-of-strings-with-concatenation-equal-to-target" xr:uid="{EDEDBE97-30D3-4D23-9530-0C8A3F620EE6}"/>
-    <hyperlink ref="B1819" r:id="rId1564" display="https://leetcode.com/problems/maximize-the-confusion-of-an-exam" xr:uid="{B38DEE78-20CA-494E-8F19-7DDF232265F7}"/>
-    <hyperlink ref="B1820" r:id="rId1565" display="https://leetcode.com/problems/maximum-number-of-ways-to-partition-an-array" xr:uid="{327D7573-701B-491A-A079-084FB4CF6A48}"/>
-    <hyperlink ref="B1821" r:id="rId1566" display="https://leetcode.com/problems/minimum-moves-to-convert-string" xr:uid="{560091BE-B96B-42CB-A09B-F78B509005A6}"/>
-    <hyperlink ref="B1822" r:id="rId1567" display="https://leetcode.com/problems/find-missing-observations" xr:uid="{9490467D-B31C-44AF-8D15-79AB6781FC3C}"/>
-    <hyperlink ref="B1823" r:id="rId1568" display="https://leetcode.com/problems/stone-game-ix" xr:uid="{C7AA6D81-752C-425D-81DA-FAF27F7ED6FA}"/>
-    <hyperlink ref="B1824" r:id="rId1569" display="https://leetcode.com/problems/smallest-k-length-subsequence-with-occurrences-of-a-letter" xr:uid="{A5C04344-98FD-4F50-9D84-0FBA98FAC48B}"/>
-    <hyperlink ref="B1825" r:id="rId1570" display="https://leetcode.com/problems/two-out-of-three" xr:uid="{1AB7FC97-05A8-468E-8041-87C042662734}"/>
-    <hyperlink ref="B1826" r:id="rId1571" display="https://leetcode.com/problems/minimum-operations-to-make-a-uni-value-grid" xr:uid="{1D7594B8-D9EF-44A3-A181-5F380536D6FE}"/>
-    <hyperlink ref="B1827" r:id="rId1572" display="https://leetcode.com/problems/stock-price-fluctuation" xr:uid="{B4C0146B-D639-4321-83F0-6D26A81FB65F}"/>
-    <hyperlink ref="B1828" r:id="rId1573" display="https://leetcode.com/problems/partition-array-into-two-arrays-to-minimize-sum-difference" xr:uid="{82903DBE-FBC3-4832-A02A-38C1AC13E633}"/>
-    <hyperlink ref="B1830" r:id="rId1574" xr:uid="{6912978A-59D7-4A0E-A334-53B5396D5C1C}"/>
-    <hyperlink ref="B1829" r:id="rId1575" xr:uid="{20A5B385-905C-42AF-B96A-DC35E88CE4A9}"/>
-    <hyperlink ref="B1831" r:id="rId1576" display="https://leetcode.com/problems/the-time-when-the-network-becomes-idle" xr:uid="{6A5AC808-A088-406E-A668-EA5C0F6DB789}"/>
-    <hyperlink ref="B1832" r:id="rId1577" display="https://leetcode.com/problems/kth-smallest-product-of-two-sorted-arrays" xr:uid="{1E18156F-9CDF-492F-A500-95FD1C862605}"/>
-    <hyperlink ref="B1833" r:id="rId1578" display="https://leetcode.com/problems/check-if-numbers-are-ascending-in-a-sentence" xr:uid="{D07DC893-5260-4C94-B0C7-FADCEA7F501B}"/>
-    <hyperlink ref="B1834" r:id="rId1579" display="https://leetcode.com/problems/simple-bank-system" xr:uid="{2D5E5F4E-907C-4728-A902-7D10B6514920}"/>
-    <hyperlink ref="B1835" r:id="rId1580" xr:uid="{D5EDB803-F602-4ABD-9E68-1113D2A2A40A}"/>
-    <hyperlink ref="B1836" r:id="rId1581" display="https://leetcode.com/problems/second-minimum-time-to-reach-destination" xr:uid="{6ACF2F93-7EDE-4F1E-AA71-8112DE7ABF63}"/>
-    <hyperlink ref="B1837" r:id="rId1582" display="https://leetcode.com/problems/number-of-valid-words-in-a-sentence" xr:uid="{BCE84EEA-54FF-4E5A-9955-C02227468918}"/>
-    <hyperlink ref="B1838" r:id="rId1583" display="https://leetcode.com/problems/next-greater-numerically-balanced-number" xr:uid="{9FD27FA2-0676-4160-BC27-2E0F89E752A4}"/>
-    <hyperlink ref="B1839" r:id="rId1584" display="https://leetcode.com/problems/count-nodes-with-the-highest-score" xr:uid="{F7F71D15-EF63-42B1-BD71-1EB9E5AFAAEC}"/>
-    <hyperlink ref="B1840" r:id="rId1585" display="https://leetcode.com/problems/parallel-courses-iii" xr:uid="{10B385A3-FDEE-4123-AC9C-4F7EF85C3982}"/>
-    <hyperlink ref="B1842" r:id="rId1586" display="https://leetcode.com/problems/kth-distinct-string-in-an-array" xr:uid="{C8004808-B8BB-4E39-B2BC-980704DF7D4E}"/>
-    <hyperlink ref="B1843" r:id="rId1587" display="https://leetcode.com/problems/two-best-non-overlapping-events" xr:uid="{F29009B4-E1BD-443F-8480-1775C9682530}"/>
-    <hyperlink ref="B1844" r:id="rId1588" display="https://leetcode.com/problems/plates-between-candles" xr:uid="{A118D0C8-0288-4E36-8D25-A4774630A76B}"/>
-    <hyperlink ref="B1845" r:id="rId1589" display="https://leetcode.com/problems/number-of-valid-move-combinations-on-chessboard" xr:uid="{AEC5E678-B4A1-445C-B8F4-DE74236CAC53}"/>
-    <hyperlink ref="B1846" r:id="rId1590" display="https://leetcode.com/problems/smallest-index-with-equal-value" xr:uid="{E7A8904C-9D51-49EC-A910-9EE0B60892CD}"/>
-    <hyperlink ref="B1847" r:id="rId1591" display="https://leetcode.com/problems/find-the-minimum-and-maximum-number-of-nodes-between-critical-points" xr:uid="{0AC3439C-F776-4E62-B906-4FEDA4902BCA}"/>
-    <hyperlink ref="B1848" r:id="rId1592" display="https://leetcode.com/problems/minimum-operations-to-convert-number" xr:uid="{E72F9ECF-969F-4732-A4BD-D6C619ECE110}"/>
-    <hyperlink ref="B1849" r:id="rId1593" display="https://leetcode.com/problems/check-if-an-original-string-exists-given-two-encoded-strings" xr:uid="{0E2F5BE6-4251-43B0-902E-665D40B08A24}"/>
+    <hyperlink ref="B1758" r:id="rId1515" xr:uid="{780DD737-38FC-4E52-8E17-E1ED7D4828C2}"/>
+    <hyperlink ref="B1759" r:id="rId1516" xr:uid="{BD5305FA-C3E6-436C-A3A3-3B2AEC015409}"/>
+    <hyperlink ref="B1763" r:id="rId1517" display="https://leetcode.com/problems/check-if-move-is-legal" xr:uid="{037D07CA-C5E5-46F7-8A15-FF086FD68CEA}"/>
+    <hyperlink ref="B1764" r:id="rId1518" xr:uid="{4514D26A-1DEB-4898-B0C0-E35C803A917D}"/>
+    <hyperlink ref="B1766" r:id="rId1519" display="https://leetcode.com/problems/check-if-string-is-a-prefix-of-array" xr:uid="{ED238B07-DD69-47D7-9C99-70206F56431B}"/>
+    <hyperlink ref="B1767" r:id="rId1520" display="https://leetcode.com/problems/remove-stones-to-minimize-the-total" xr:uid="{A477D00D-45DD-4A17-8EC1-CAB601E47AFE}"/>
+    <hyperlink ref="B1768" r:id="rId1521" xr:uid="{7AED54AB-CAC5-468D-AEA4-30EF78C123D5}"/>
+    <hyperlink ref="B1769" r:id="rId1522" xr:uid="{C8B643C6-E285-4944-9FD0-0F3F95420C77}"/>
+    <hyperlink ref="B1771" r:id="rId1523" display="https://leetcode.com/problems/number-of-strings-that-appear-as-substrings-in-word" xr:uid="{9D135439-6404-469A-B0F3-B3CB3CC48006}"/>
+    <hyperlink ref="B1772" r:id="rId1524" xr:uid="{2D13F7E0-CA9F-41A5-9A27-D14C8E89D1D6}"/>
+    <hyperlink ref="B1773" r:id="rId1525" xr:uid="{6F03E324-C26B-45D0-A69E-667D05BCF4A6}"/>
+    <hyperlink ref="B1774" r:id="rId1526" display="https://leetcode.com/problems/last-day-where-you-can-still-cross" xr:uid="{6C0C733A-DFFC-47C4-8A74-549CE9EEC902}"/>
+    <hyperlink ref="B1775" r:id="rId1527" display="https://leetcode.com/problems/find-if-path-exists-in-graph" xr:uid="{280D74AA-F965-40BB-989B-D14BCDFED54C}"/>
+    <hyperlink ref="B1777" r:id="rId1528" xr:uid="{4E722A0F-0542-4D0F-944F-81A1882BDB67}"/>
+    <hyperlink ref="B1778" r:id="rId1529" display="https://leetcode.com/problems/maximum-matrix-sum" xr:uid="{85554A11-E7CC-4623-9832-CA974B90C2B5}"/>
+    <hyperlink ref="B1779" r:id="rId1530" display="https://leetcode.com/problems/number-of-ways-to-arrive-at-destination" xr:uid="{7C2B1C34-BFA8-4D6A-8BFD-2D13258003E9}"/>
+    <hyperlink ref="B1780" r:id="rId1531" display="https://leetcode.com/problems/number-of-ways-to-separate-numbers" xr:uid="{A1CD6E14-B30D-48A8-9C50-989B50718C66}"/>
+    <hyperlink ref="B1781" r:id="rId1532" display="https://leetcode.com/problems/find-greatest-common-divisor-of-array" xr:uid="{F13EAFBC-B285-401C-91EE-AC9A939A3669}"/>
+    <hyperlink ref="B1782" r:id="rId1533" display="https://leetcode.com/problems/find-unique-binary-string" xr:uid="{7ED88115-1A51-43E5-9996-61390F3D3742}"/>
+    <hyperlink ref="B1783" r:id="rId1534" xr:uid="{307A70C2-1A17-4713-8815-4B08BE79BC16}"/>
+    <hyperlink ref="B1784" r:id="rId1535" display="https://leetcode.com/problems/find-array-given-subset-sums" xr:uid="{24E810D6-01EB-4D57-B971-B9D6AD7C8465}"/>
+    <hyperlink ref="B1786" r:id="rId1536" xr:uid="{3AC2DE31-2D9A-47A8-BD4F-9E1BA94A6DBE}"/>
+    <hyperlink ref="B1787" r:id="rId1537" display="https://leetcode.com/problems/find-the-kth-largest-integer-in-the-array" xr:uid="{0E5050F7-33DD-4568-A9C5-F0BF63ABEF41}"/>
+    <hyperlink ref="B1788" r:id="rId1538" xr:uid="{74CBB63A-C6EA-4857-9FF1-DE3E60CAE238}"/>
+    <hyperlink ref="B1789" r:id="rId1539" display="https://leetcode.com/problems/number-of-unique-good-subsequences" xr:uid="{853BAECC-5442-42F3-89D7-4E811047F33B}"/>
+    <hyperlink ref="B1793" r:id="rId1540" display="https://leetcode.com/problems/operations-on-tree" xr:uid="{686B754D-FA97-4909-9B6F-604722737483}"/>
+    <hyperlink ref="B1794" r:id="rId1541" display="https://leetcode.com/problems/the-number-of-good-subsets" xr:uid="{CB7AE48D-6C96-4D56-9DD1-F6A59CF37370}"/>
+    <hyperlink ref="B1795" r:id="rId1542" display="https://leetcode.com/problems/count-special-quadruplets" xr:uid="{661C9BC6-DD29-4EEE-BDF8-A0046C960AAA}"/>
+    <hyperlink ref="B1796" r:id="rId1543" xr:uid="{4367FE0D-6B66-4E7B-B67D-D44932CCF53D}"/>
+    <hyperlink ref="B1798" r:id="rId1544" display="https://leetcode.com/problems/gcd-sort-of-an-array" xr:uid="{D51FF9FA-E1D0-4876-9671-0BECACA20C8E}"/>
+    <hyperlink ref="B1797" r:id="rId1545" xr:uid="{440A2BB5-BF04-43D0-B17E-3DB556DFF3D2}"/>
+    <hyperlink ref="B1800" r:id="rId1546" display="https://leetcode.com/problems/reverse-prefix-of-word" xr:uid="{CB9978C3-6422-40BB-8564-3202082A0B1A}"/>
+    <hyperlink ref="B1801" r:id="rId1547" xr:uid="{7923A955-AD8E-4813-A991-8D8A22CAA454}"/>
+    <hyperlink ref="B1802" r:id="rId1548" display="https://leetcode.com/problems/maximum-product-of-the-length-of-two-palindromic-subsequences" xr:uid="{8F9B0876-A47C-4346-BB3A-B28A932D0561}"/>
+    <hyperlink ref="B1803" r:id="rId1549" display="https://leetcode.com/problems/smallest-missing-genetic-value-in-each-subtree" xr:uid="{7B841850-C4EB-4B17-86ED-3C469EA47416}"/>
+    <hyperlink ref="B1805" r:id="rId1550" xr:uid="{8B9BFB7A-1876-405D-81AE-5D45D7B9CC99}"/>
+    <hyperlink ref="B1806" r:id="rId1551" display="https://leetcode.com/problems/find-original-array-from-doubled-array" xr:uid="{941F4524-2AB9-4B82-8506-2B0DDAE8E0C8}"/>
+    <hyperlink ref="B1807" r:id="rId1552" display="https://leetcode.com/problems/maximum-earnings-from-taxi" xr:uid="{2C7D8613-3F51-4CE1-89B7-0D2175417F32}"/>
+    <hyperlink ref="B1808" r:id="rId1553" display="https://leetcode.com/problems/minimum-number-of-operations-to-make-array-continuous" xr:uid="{7CA9A60C-BA8C-481E-B3A3-B022E1E11E93}"/>
+    <hyperlink ref="B1809" r:id="rId1554" display="https://leetcode.com/problems/final-value-of-variable-after-performing-operations" xr:uid="{878BB048-0ECD-4FAC-A96B-1A705EB95DEF}"/>
+    <hyperlink ref="B1810" r:id="rId1555" display="https://leetcode.com/problems/sum-of-beauty-in-the-array" xr:uid="{73619F0E-5E06-4E41-906A-4E0AE98A22B5}"/>
+    <hyperlink ref="B1811" r:id="rId1556" display="https://leetcode.com/problems/detect-squares" xr:uid="{973708F6-B02C-4F3B-9CD7-658CC285620D}"/>
+    <hyperlink ref="B1812" r:id="rId1557" display="https://leetcode.com/problems/longest-subsequence-repeated-k-times" xr:uid="{4C762D87-A9C5-4BD4-912E-7DF86A9410E2}"/>
+    <hyperlink ref="B1813" r:id="rId1558" xr:uid="{FCD62007-CC5B-42E2-9137-1D08C11A57E4}"/>
+    <hyperlink ref="B1814" r:id="rId1559" display="https://leetcode.com/problems/grid-game" xr:uid="{6BAF02C7-CF0B-4611-97F7-71B80B95A205}"/>
+    <hyperlink ref="B1815" r:id="rId1560" display="https://leetcode.com/problems/check-if-word-can-be-placed-in-crossword" xr:uid="{302A26FF-631E-42F2-9B60-01DDABC35248}"/>
+    <hyperlink ref="B1816" r:id="rId1561" display="https://leetcode.com/problems/the-score-of-students-solving-math-expression" xr:uid="{3D10BE58-1B14-440E-9A39-40F0A7CCC3A0}"/>
+    <hyperlink ref="B1818" r:id="rId1562" display="https://leetcode.com/problems/convert-1d-array-into-2d-array" xr:uid="{412ED7EE-16C1-4FBE-88AA-44300DC61B17}"/>
+    <hyperlink ref="B1819" r:id="rId1563" display="https://leetcode.com/problems/number-of-pairs-of-strings-with-concatenation-equal-to-target" xr:uid="{EDEDBE97-30D3-4D23-9530-0C8A3F620EE6}"/>
+    <hyperlink ref="B1820" r:id="rId1564" display="https://leetcode.com/problems/maximize-the-confusion-of-an-exam" xr:uid="{B38DEE78-20CA-494E-8F19-7DDF232265F7}"/>
+    <hyp